--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -759,6 +759,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -808,7 +811,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7277100" cy="5095875"/>
+    <ext cx="5648325" cy="4086225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -822,9 +825,6 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -11188,8 +11188,16 @@
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr"/>
-      <c r="K1" s="31" t="inlineStr"/>
+      <c r="J1" s="31" t="inlineStr">
+        <is>
+          <t>O1s p1</t>
+        </is>
+      </c>
+      <c r="K1" s="31" t="inlineStr">
+        <is>
+          <t>O1s p2</t>
+        </is>
+      </c>
       <c r="L1" s="31" t="inlineStr"/>
       <c r="M1" s="31" t="inlineStr"/>
       <c r="N1" s="31" t="inlineStr"/>
@@ -11324,8 +11332,107 @@
       <c r="F2" t="n">
         <v>545.08</v>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" t="n">
         <v>45763.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45763.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45763.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45763.7</v>
+      </c>
+      <c r="X2" s="35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y2" s="36" t="inlineStr">
+        <is>
+          <t>O1s p1</t>
+        </is>
+      </c>
+      <c r="Z2" s="36" t="inlineStr">
+        <is>
+          <t>529.11</t>
+        </is>
+      </c>
+      <c r="AA2" s="36" t="inlineStr">
+        <is>
+          <t>135281</t>
+        </is>
+      </c>
+      <c r="AB2" s="36" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="AC2" s="36" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="AD2" s="36" t="inlineStr">
+        <is>
+          <t>167043</t>
+        </is>
+      </c>
+      <c r="AE2" s="36" t="inlineStr"/>
+      <c r="AF2" s="36" t="inlineStr"/>
+      <c r="AG2" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" s="36" t="inlineStr">
+        <is>
+          <t>70.9</t>
+        </is>
+      </c>
+      <c r="AI2" s="36" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK2" s="36" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL2" s="36" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM2" s="36" t="inlineStr">
+        <is>
+          <t>525.08</t>
+        </is>
+      </c>
+      <c r="AN2" s="36" t="inlineStr">
+        <is>
+          <t>545.08</t>
+        </is>
+      </c>
+      <c r="AO2" s="36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP2" s="37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -11338,9 +11445,64 @@
       <c r="F3" t="n">
         <v>544.98</v>
       </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" t="n">
         <v>46726.9</v>
       </c>
+      <c r="I3" t="n">
+        <v>46726.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45763.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>45763.7</v>
+      </c>
+      <c r="X3" s="38" t="inlineStr"/>
+      <c r="Y3" s="39" t="inlineStr"/>
+      <c r="Z3" s="39" t="inlineStr">
+        <is>
+          <t>525.08,545.08</t>
+        </is>
+      </c>
+      <c r="AA3" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" s="39" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC3" s="39" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AD3" s="39" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE3" s="39" t="inlineStr"/>
+      <c r="AF3" s="39" t="inlineStr"/>
+      <c r="AG3" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" s="39" t="inlineStr"/>
+      <c r="AI3" s="39" t="inlineStr"/>
+      <c r="AJ3" s="39" t="inlineStr"/>
+      <c r="AK3" s="39" t="inlineStr"/>
+      <c r="AL3" s="39" t="inlineStr"/>
+      <c r="AM3" s="39" t="inlineStr"/>
+      <c r="AN3" s="39" t="inlineStr"/>
+      <c r="AO3" s="39" t="inlineStr"/>
+      <c r="AP3" s="40" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -11352,8 +11514,107 @@
       <c r="F4" t="n">
         <v>544.88</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
         <v>46338.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46338.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46726.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46726.9</v>
+      </c>
+      <c r="X4" s="35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y4" s="36" t="inlineStr">
+        <is>
+          <t>O1s p2</t>
+        </is>
+      </c>
+      <c r="Z4" s="36" t="inlineStr">
+        <is>
+          <t>531.03</t>
+        </is>
+      </c>
+      <c r="AA4" s="36" t="inlineStr">
+        <is>
+          <t>27380</t>
+        </is>
+      </c>
+      <c r="AB4" s="36" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="AC4" s="36" t="inlineStr">
+        <is>
+          <t>55.48</t>
+        </is>
+      </c>
+      <c r="AD4" s="36" t="inlineStr">
+        <is>
+          <t>68490</t>
+        </is>
+      </c>
+      <c r="AE4" s="36" t="inlineStr"/>
+      <c r="AF4" s="36" t="inlineStr"/>
+      <c r="AG4" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" s="36" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
+      </c>
+      <c r="AI4" s="36" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="AJ4" s="36" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="AK4" s="36" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL4" s="36" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM4" s="36" t="inlineStr">
+        <is>
+          <t>525.08</t>
+        </is>
+      </c>
+      <c r="AN4" s="36" t="inlineStr">
+        <is>
+          <t>545.08</t>
+        </is>
+      </c>
+      <c r="AO4" s="36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AP4" s="37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -11366,9 +11627,64 @@
       <c r="F5" t="n">
         <v>544.78</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" t="n">
         <v>46687</v>
       </c>
+      <c r="I5" t="n">
+        <v>46687</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46338.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46338.7</v>
+      </c>
+      <c r="X5" s="38" t="inlineStr"/>
+      <c r="Y5" s="39" t="inlineStr"/>
+      <c r="Z5" s="39" t="inlineStr">
+        <is>
+          <t>525.08,545.08</t>
+        </is>
+      </c>
+      <c r="AA5" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" s="39" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC5" s="39" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AD5" s="39" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE5" s="39" t="inlineStr"/>
+      <c r="AF5" s="39" t="inlineStr"/>
+      <c r="AG5" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" s="39" t="inlineStr"/>
+      <c r="AI5" s="39" t="inlineStr"/>
+      <c r="AJ5" s="39" t="inlineStr"/>
+      <c r="AK5" s="39" t="inlineStr"/>
+      <c r="AL5" s="39" t="inlineStr"/>
+      <c r="AM5" s="39" t="inlineStr"/>
+      <c r="AN5" s="39" t="inlineStr"/>
+      <c r="AO5" s="39" t="inlineStr"/>
+      <c r="AP5" s="40" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -11380,8 +11696,20 @@
       <c r="F6" t="n">
         <v>544.6799999999999</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" t="n">
         <v>46636.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46636.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>46687</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46687</v>
       </c>
     </row>
     <row r="7">
@@ -11394,8 +11722,20 @@
       <c r="F7" t="n">
         <v>544.58</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" t="n">
         <v>46404.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>46404.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>46636.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>46636.4</v>
       </c>
     </row>
     <row r="8">
@@ -11408,8 +11748,20 @@
       <c r="F8" t="n">
         <v>544.48</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
       <c r="H8" t="n">
         <v>47747</v>
+      </c>
+      <c r="I8" t="n">
+        <v>47747</v>
+      </c>
+      <c r="J8" t="n">
+        <v>46404.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>46404.6</v>
       </c>
     </row>
     <row r="9">
@@ -11422,8 +11774,20 @@
       <c r="F9" t="n">
         <v>544.38</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" t="n">
         <v>45229.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>45229.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>47747</v>
+      </c>
+      <c r="K9" t="n">
+        <v>47747</v>
       </c>
     </row>
     <row r="10">
@@ -11436,8 +11800,20 @@
       <c r="F10" t="n">
         <v>544.28</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="n">
         <v>46400.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>46400.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45229.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>45229.4</v>
       </c>
     </row>
     <row r="11">
@@ -11450,8 +11826,20 @@
       <c r="F11" t="n">
         <v>544.1799999999999</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
         <v>47015.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47015.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>46400.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>46400.1</v>
       </c>
     </row>
     <row r="12">
@@ -11464,8 +11852,20 @@
       <c r="F12" t="n">
         <v>544.08</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="n">
         <v>47330.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47330.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>47015.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>47015.4</v>
       </c>
     </row>
     <row r="13">
@@ -11478,8 +11878,20 @@
       <c r="F13" t="n">
         <v>543.98</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" t="n">
         <v>47281.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47281.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47330.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>47330.1</v>
       </c>
     </row>
     <row r="14">
@@ -11492,8 +11904,20 @@
       <c r="F14" t="n">
         <v>543.88</v>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
       <c r="H14" t="n">
         <v>46775.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>46775.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47281.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>47281.4</v>
       </c>
     </row>
     <row r="15">
@@ -11506,8 +11930,20 @@
       <c r="F15" t="n">
         <v>543.78</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="n">
         <v>46993.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>46993.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>46775.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>46775.6</v>
       </c>
     </row>
     <row r="16">
@@ -11520,8 +11956,20 @@
       <c r="F16" t="n">
         <v>543.6799999999999</v>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
       <c r="H16" t="n">
         <v>47547.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47547.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>46993.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>46993.4</v>
       </c>
     </row>
     <row r="17">
@@ -11534,8 +11982,20 @@
       <c r="F17" t="n">
         <v>543.58</v>
       </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="n">
         <v>47962.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47962.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47547.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>47547.8</v>
       </c>
     </row>
     <row r="18">
@@ -11548,8 +12008,20 @@
       <c r="F18" t="n">
         <v>543.48</v>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="n">
         <v>47990.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47990.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>47962.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>47962.4</v>
       </c>
     </row>
     <row r="19">
@@ -11562,8 +12034,20 @@
       <c r="F19" t="n">
         <v>543.38</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="n">
         <v>48070.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>48070.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>47990.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>47990.3</v>
       </c>
     </row>
     <row r="20">
@@ -11576,8 +12060,20 @@
       <c r="F20" t="n">
         <v>543.28</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
       <c r="H20" t="n">
         <v>48922.9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>48922.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>48070.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>48070.3</v>
       </c>
     </row>
     <row r="21">
@@ -11590,8 +12086,20 @@
       <c r="F21" t="n">
         <v>543.1799999999999</v>
       </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="n">
         <v>47680.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>47680.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>48922.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>48922.9</v>
       </c>
     </row>
     <row r="22">
@@ -11604,8 +12112,20 @@
       <c r="F22" t="n">
         <v>543.08</v>
       </c>
+      <c r="G22" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
       <c r="H22" t="n">
         <v>47754.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>47754.40000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>47680.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47680.8</v>
       </c>
     </row>
     <row r="23">
@@ -11618,8 +12138,20 @@
       <c r="F23" t="n">
         <v>542.98</v>
       </c>
+      <c r="G23" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
       <c r="H23" t="n">
         <v>48211.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>48211.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>47754.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>47754.40000000001</v>
       </c>
     </row>
     <row r="24">
@@ -11632,8 +12164,20 @@
       <c r="F24" t="n">
         <v>542.88</v>
       </c>
+      <c r="G24" t="n">
+        <v>-1.455191522836685e-11</v>
+      </c>
       <c r="H24" t="n">
         <v>47863.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>47863.30000000002</v>
+      </c>
+      <c r="J24" t="n">
+        <v>48211.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>48211.7</v>
       </c>
     </row>
     <row r="25">
@@ -11646,8 +12190,20 @@
       <c r="F25" t="n">
         <v>542.78</v>
       </c>
+      <c r="G25" t="n">
+        <v>-2.182787284255028e-11</v>
+      </c>
       <c r="H25" t="n">
         <v>47621.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>47621.90000000002</v>
+      </c>
+      <c r="J25" t="n">
+        <v>47863.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>47863.30000000002</v>
       </c>
     </row>
     <row r="26">
@@ -11660,8 +12216,20 @@
       <c r="F26" t="n">
         <v>542.6799999999999</v>
       </c>
+      <c r="G26" t="n">
+        <v>-3.637978807091713e-11</v>
+      </c>
       <c r="H26" t="n">
         <v>46922.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>46922.50000000004</v>
+      </c>
+      <c r="J26" t="n">
+        <v>47621.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>47621.90000000002</v>
       </c>
     </row>
     <row r="27">
@@ -11674,8 +12242,20 @@
       <c r="F27" t="n">
         <v>542.58</v>
       </c>
+      <c r="G27" t="n">
+        <v>-5.820766091346741e-11</v>
+      </c>
       <c r="H27" t="n">
         <v>46828.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>46828.60000000006</v>
+      </c>
+      <c r="J27" t="n">
+        <v>46922.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>46922.50000000004</v>
       </c>
     </row>
     <row r="28">
@@ -11688,8 +12268,20 @@
       <c r="F28" t="n">
         <v>542.48</v>
       </c>
+      <c r="G28" t="n">
+        <v>-9.458744898438454e-11</v>
+      </c>
       <c r="H28" t="n">
         <v>46541.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>46541.60000000009</v>
+      </c>
+      <c r="J28" t="n">
+        <v>46828.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>46828.60000000006</v>
       </c>
     </row>
     <row r="29">
@@ -11702,8 +12294,20 @@
       <c r="F29" t="n">
         <v>542.38</v>
       </c>
+      <c r="G29" t="n">
+        <v>-1.600710675120354e-10</v>
+      </c>
       <c r="H29" t="n">
         <v>46921.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>46921.10000000016</v>
+      </c>
+      <c r="J29" t="n">
+        <v>46541.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>46541.60000000009</v>
       </c>
     </row>
     <row r="30">
@@ -11716,8 +12320,20 @@
       <c r="F30" t="n">
         <v>542.28</v>
       </c>
+      <c r="G30" t="n">
+        <v>-2.764863893389702e-10</v>
+      </c>
       <c r="H30" t="n">
         <v>47045.9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>47045.90000000028</v>
+      </c>
+      <c r="J30" t="n">
+        <v>46921.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>46921.10000000016</v>
       </c>
     </row>
     <row r="31">
@@ -11730,8 +12346,20 @@
       <c r="F31" t="n">
         <v>542.1799999999999</v>
       </c>
+      <c r="G31" t="n">
+        <v>-4.583853296935558e-10</v>
+      </c>
       <c r="H31" t="n">
         <v>47351.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>47351.30000000046</v>
+      </c>
+      <c r="J31" t="n">
+        <v>47045.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>47045.90000000028</v>
       </c>
     </row>
     <row r="32">
@@ -11744,8 +12372,20 @@
       <c r="F32" t="n">
         <v>542.08</v>
       </c>
+      <c r="G32" t="n">
+        <v>-7.712515071034431e-10</v>
+      </c>
       <c r="H32" t="n">
         <v>46947.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>46947.90000000077</v>
+      </c>
+      <c r="J32" t="n">
+        <v>47351.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>47351.30000000046</v>
       </c>
     </row>
     <row r="33">
@@ -11758,8 +12398,20 @@
       <c r="F33" t="n">
         <v>541.98</v>
       </c>
+      <c r="G33" t="n">
+        <v>-1.280568540096283e-09</v>
+      </c>
       <c r="H33" t="n">
         <v>47201.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>47201.20000000128</v>
+      </c>
+      <c r="J33" t="n">
+        <v>46947.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>46947.90000000077</v>
       </c>
     </row>
     <row r="34">
@@ -11772,8 +12424,20 @@
       <c r="F34" t="n">
         <v>541.88</v>
       </c>
+      <c r="G34" t="n">
+        <v>-2.117303665727377e-09</v>
+      </c>
       <c r="H34" t="n">
         <v>47402.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>47402.30000000212</v>
+      </c>
+      <c r="J34" t="n">
+        <v>47201.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>47201.20000000128</v>
       </c>
     </row>
     <row r="35">
@@ -11786,8 +12450,20 @@
       <c r="F35" t="n">
         <v>541.78</v>
       </c>
+      <c r="G35" t="n">
+        <v>-3.492459654808044e-09</v>
+      </c>
       <c r="H35" t="n">
         <v>46781.3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>46781.3000000035</v>
+      </c>
+      <c r="J35" t="n">
+        <v>47402.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>47402.30000000212</v>
       </c>
     </row>
     <row r="36">
@@ -11800,8 +12476,20 @@
       <c r="F36" t="n">
         <v>541.6799999999999</v>
       </c>
+      <c r="G36" t="n">
+        <v>-5.740730557590723e-09</v>
+      </c>
       <c r="H36" t="n">
         <v>47433.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47433.40000000574</v>
+      </c>
+      <c r="J36" t="n">
+        <v>46781.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>46781.3000000035</v>
       </c>
     </row>
     <row r="37">
@@ -11814,8 +12502,20 @@
       <c r="F37" t="n">
         <v>541.58</v>
       </c>
+      <c r="G37" t="n">
+        <v>-9.400537237524986e-09</v>
+      </c>
       <c r="H37" t="n">
         <v>46591.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>46591.5000000094</v>
+      </c>
+      <c r="J37" t="n">
+        <v>47433.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>47433.40000000574</v>
       </c>
     </row>
     <row r="38">
@@ -11828,8 +12528,20 @@
       <c r="F38" t="n">
         <v>541.48</v>
       </c>
+      <c r="G38" t="n">
+        <v>-1.530861482024193e-08</v>
+      </c>
       <c r="H38" t="n">
         <v>47057.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>47057.50000001531</v>
+      </c>
+      <c r="J38" t="n">
+        <v>46591.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>46591.5000000094</v>
       </c>
     </row>
     <row r="39">
@@ -11842,8 +12554,20 @@
       <c r="F39" t="n">
         <v>541.38</v>
       </c>
+      <c r="G39" t="n">
+        <v>-2.483284333720803e-08</v>
+      </c>
       <c r="H39" t="n">
         <v>46964.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>46964.30000002484</v>
+      </c>
+      <c r="J39" t="n">
+        <v>47057.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>47057.50000001531</v>
       </c>
     </row>
     <row r="40">
@@ -11856,8 +12580,20 @@
       <c r="F40" t="n">
         <v>541.28</v>
       </c>
+      <c r="G40" t="n">
+        <v>-4.010507836937904e-08</v>
+      </c>
       <c r="H40" t="n">
         <v>48107.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>48107.6000000401</v>
+      </c>
+      <c r="J40" t="n">
+        <v>46964.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>46964.30000002484</v>
       </c>
     </row>
     <row r="41">
@@ -11870,8 +12606,20 @@
       <c r="F41" t="n">
         <v>541.1799999999999</v>
       </c>
+      <c r="G41" t="n">
+        <v>-6.450136424973607e-08</v>
+      </c>
       <c r="H41" t="n">
         <v>47256.7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>47256.7000000645</v>
+      </c>
+      <c r="J41" t="n">
+        <v>48107.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>48107.60000004011</v>
       </c>
     </row>
     <row r="42">
@@ -11884,8 +12632,20 @@
       <c r="F42" t="n">
         <v>541.08</v>
       </c>
+      <c r="G42" t="n">
+        <v>-1.032894942909479e-07</v>
+      </c>
       <c r="H42" t="n">
         <v>46274.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>46274.80000010329</v>
+      </c>
+      <c r="J42" t="n">
+        <v>47256.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>47256.7000000645</v>
       </c>
     </row>
     <row r="43">
@@ -11898,8 +12658,20 @@
       <c r="F43" t="n">
         <v>540.98</v>
       </c>
+      <c r="G43" t="n">
+        <v>-1.646913005970418e-07</v>
+      </c>
       <c r="H43" t="n">
         <v>46851.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>46851.90000016469</v>
+      </c>
+      <c r="J43" t="n">
+        <v>46274.8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>46274.80000010329</v>
       </c>
     </row>
     <row r="44">
@@ -11912,8 +12684,20 @@
       <c r="F44" t="n">
         <v>540.88</v>
       </c>
+      <c r="G44" t="n">
+        <v>-2.614760887809098e-07</v>
+      </c>
       <c r="H44" t="n">
         <v>46646.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46646.70000026147</v>
+      </c>
+      <c r="J44" t="n">
+        <v>46851.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>46851.9000001647</v>
       </c>
     </row>
     <row r="45">
@@ -11926,8 +12710,20 @@
       <c r="F45" t="n">
         <v>540.78</v>
       </c>
+      <c r="G45" t="n">
+        <v>-4.133617039769888e-07</v>
+      </c>
       <c r="H45" t="n">
         <v>45538.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>45538.90000041336</v>
+      </c>
+      <c r="J45" t="n">
+        <v>46646.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>46646.70000026147</v>
       </c>
     </row>
     <row r="46">
@@ -11940,8 +12736,20 @@
       <c r="F46" t="n">
         <v>540.6799999999999</v>
       </c>
+      <c r="G46" t="n">
+        <v>-6.506816134788096e-07</v>
+      </c>
       <c r="H46" t="n">
         <v>46497.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>46497.20000065068</v>
+      </c>
+      <c r="J46" t="n">
+        <v>45538.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>45538.90000041337</v>
       </c>
     </row>
     <row r="47">
@@ -11954,8 +12762,20 @@
       <c r="F47" t="n">
         <v>540.58</v>
       </c>
+      <c r="G47" t="n">
+        <v>-1.019900082610548e-06</v>
+      </c>
       <c r="H47" t="n">
         <v>47188.7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>47188.7000010199</v>
+      </c>
+      <c r="J47" t="n">
+        <v>46497.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>46497.20000065069</v>
       </c>
     </row>
     <row r="48">
@@ -11968,8 +12788,20 @@
       <c r="F48" t="n">
         <v>540.48</v>
       </c>
+      <c r="G48" t="n">
+        <v>-1.591804903000593e-06</v>
+      </c>
       <c r="H48" t="n">
         <v>46594.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>46594.40000159181</v>
+      </c>
+      <c r="J48" t="n">
+        <v>47188.7</v>
+      </c>
+      <c r="K48" t="n">
+        <v>47188.70000101991</v>
       </c>
     </row>
     <row r="49">
@@ -11982,8 +12814,20 @@
       <c r="F49" t="n">
         <v>540.38</v>
       </c>
+      <c r="G49" t="n">
+        <v>-2.473832864779979e-06</v>
+      </c>
       <c r="H49" t="n">
         <v>45738.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>45738.40000247383</v>
+      </c>
+      <c r="J49" t="n">
+        <v>46594.4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>46594.40000159183</v>
       </c>
     </row>
     <row r="50">
@@ -11996,8 +12840,20 @@
       <c r="F50" t="n">
         <v>540.28</v>
       </c>
+      <c r="G50" t="n">
+        <v>-3.828252374660224e-06</v>
+      </c>
       <c r="H50" t="n">
         <v>45499.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>45499.20000382825</v>
+      </c>
+      <c r="J50" t="n">
+        <v>45738.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>45738.40000247387</v>
       </c>
     </row>
     <row r="51">
@@ -12010,8 +12866,20 @@
       <c r="F51" t="n">
         <v>540.1799999999999</v>
       </c>
+      <c r="G51" t="n">
+        <v>-5.899055395275354e-06</v>
+      </c>
       <c r="H51" t="n">
         <v>45977.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45977.50000589906</v>
+      </c>
+      <c r="J51" t="n">
+        <v>45499.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>45499.20000382831</v>
       </c>
     </row>
     <row r="52">
@@ -12024,8 +12892,20 @@
       <c r="F52" t="n">
         <v>540.08</v>
       </c>
+      <c r="G52" t="n">
+        <v>-9.051451343111694e-06</v>
+      </c>
       <c r="H52" t="n">
         <v>45482.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>45482.60000905145</v>
+      </c>
+      <c r="J52" t="n">
+        <v>45977.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>45977.50000589914</v>
       </c>
     </row>
     <row r="53">
@@ -12038,8 +12918,20 @@
       <c r="F53" t="n">
         <v>539.98</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.382959453621879e-05</v>
+      </c>
       <c r="H53" t="n">
         <v>45679.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>45679.8000138296</v>
+      </c>
+      <c r="J53" t="n">
+        <v>45482.6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>45482.60000905158</v>
       </c>
     </row>
     <row r="54">
@@ -12052,8 +12944,20 @@
       <c r="F54" t="n">
         <v>539.88</v>
       </c>
+      <c r="G54" t="n">
+        <v>-2.104058512486517e-05</v>
+      </c>
       <c r="H54" t="n">
         <v>44395.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>44395.10002104058</v>
+      </c>
+      <c r="J54" t="n">
+        <v>45679.8</v>
+      </c>
+      <c r="K54" t="n">
+        <v>45679.80001382979</v>
       </c>
     </row>
     <row r="55">
@@ -12066,8 +12970,20 @@
       <c r="F55" t="n">
         <v>539.78</v>
       </c>
+      <c r="G55" t="n">
+        <v>-3.187614493072033e-05</v>
+      </c>
       <c r="H55" t="n">
         <v>45122.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>45122.10003187614</v>
+      </c>
+      <c r="J55" t="n">
+        <v>44395.1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44395.1000210409</v>
       </c>
     </row>
     <row r="56">
@@ -12080,8 +12996,20 @@
       <c r="F56" t="n">
         <v>539.6799999999999</v>
       </c>
+      <c r="G56" t="n">
+        <v>-4.808784433407709e-05</v>
+      </c>
       <c r="H56" t="n">
         <v>44310</v>
+      </c>
+      <c r="I56" t="n">
+        <v>44310.00004808784</v>
+      </c>
+      <c r="J56" t="n">
+        <v>45122.1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>45122.10003187661</v>
       </c>
     </row>
     <row r="57">
@@ -12094,8 +13022,20 @@
       <c r="F57" t="n">
         <v>539.58</v>
       </c>
+      <c r="G57" t="n">
+        <v>-7.223846478154883e-05</v>
+      </c>
       <c r="H57" t="n">
         <v>44337.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44337.10007223846</v>
+      </c>
+      <c r="J57" t="n">
+        <v>44310</v>
+      </c>
+      <c r="K57" t="n">
+        <v>44310.00004808854</v>
       </c>
     </row>
     <row r="58">
@@ -12108,8 +13048,20 @@
       <c r="F58" t="n">
         <v>539.48</v>
       </c>
+      <c r="G58" t="n">
+        <v>-0.000108060659840703</v>
+      </c>
       <c r="H58" t="n">
         <v>43303.6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>43303.60010806066</v>
+      </c>
+      <c r="J58" t="n">
+        <v>44337.1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>44337.10007223952</v>
       </c>
     </row>
     <row r="59">
@@ -12122,8 +13074,20 @@
       <c r="F59" t="n">
         <v>539.38</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.0001609663013368845</v>
+      </c>
       <c r="H59" t="n">
         <v>43176.2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43176.2001609663</v>
+      </c>
+      <c r="J59" t="n">
+        <v>43303.6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>43303.60010806224</v>
       </c>
     </row>
     <row r="60">
@@ -12136,8 +13100,20 @@
       <c r="F60" t="n">
         <v>539.28</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.0002387662316323258</v>
+      </c>
       <c r="H60" t="n">
         <v>42995.6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>42995.60023876623</v>
+      </c>
+      <c r="J60" t="n">
+        <v>43176.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>43176.20016096866</v>
       </c>
     </row>
     <row r="61">
@@ -12150,8 +13126,20 @@
       <c r="F61" t="n">
         <v>539.1799999999999</v>
       </c>
+      <c r="G61" t="n">
+        <v>-0.0003526824511936866</v>
+      </c>
       <c r="H61" t="n">
         <v>42623.1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>42623.10035268245</v>
+      </c>
+      <c r="J61" t="n">
+        <v>42995.6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>42995.60023876972</v>
       </c>
     </row>
     <row r="62">
@@ -12164,8 +13152,20 @@
       <c r="F62" t="n">
         <v>539.08</v>
       </c>
+      <c r="G62" t="n">
+        <v>-0.0005187645947444253</v>
+      </c>
       <c r="H62" t="n">
         <v>43099.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>43099.4005187646</v>
+      </c>
+      <c r="J62" t="n">
+        <v>42623.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>42623.10035268761</v>
       </c>
     </row>
     <row r="63">
@@ -12178,8 +13178,20 @@
       <c r="F63" t="n">
         <v>538.98</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.0007598623487865552</v>
+      </c>
       <c r="H63" t="n">
         <v>42832.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>42832.80075986235</v>
+      </c>
+      <c r="J63" t="n">
+        <v>43099.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>43099.40051877218</v>
       </c>
     </row>
     <row r="64">
@@ -12192,8 +13204,20 @@
       <c r="F64" t="n">
         <v>538.88</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.001108358650526498</v>
+      </c>
       <c r="H64" t="n">
         <v>42906.4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>42906.40110835865</v>
+      </c>
+      <c r="J64" t="n">
+        <v>42832.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>42832.80075987346</v>
       </c>
     </row>
     <row r="65">
@@ -12206,8 +13230,20 @@
       <c r="F65" t="n">
         <v>538.78</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.001609938408364542</v>
+      </c>
       <c r="H65" t="n">
         <v>41538.1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>41538.10160993841</v>
+      </c>
+      <c r="J65" t="n">
+        <v>42906.4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>42906.40110837486</v>
       </c>
     </row>
     <row r="66">
@@ -12220,8 +13256,20 @@
       <c r="F66" t="n">
         <v>538.6799999999999</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.002328759321244434</v>
+      </c>
       <c r="H66" t="n">
         <v>41941.6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>41941.60232875932</v>
+      </c>
+      <c r="J66" t="n">
+        <v>41538.1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>41538.10160996194</v>
       </c>
     </row>
     <row r="67">
@@ -12234,8 +13282,20 @@
       <c r="F67" t="n">
         <v>538.58</v>
       </c>
+      <c r="G67" t="n">
+        <v>-0.003354511572979391</v>
+      </c>
       <c r="H67" t="n">
         <v>40284.7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>40284.70335451157</v>
+      </c>
+      <c r="J67" t="n">
+        <v>41941.6</v>
+      </c>
+      <c r="K67" t="n">
+        <v>41941.60232879337</v>
       </c>
     </row>
     <row r="68">
@@ -12248,8 +13308,20 @@
       <c r="F68" t="n">
         <v>538.48</v>
       </c>
+      <c r="G68" t="n">
+        <v>-0.004812008221051656</v>
+      </c>
       <c r="H68" t="n">
         <v>41792.5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>41792.50481200822</v>
+      </c>
+      <c r="J68" t="n">
+        <v>40284.7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>40284.70335456062</v>
       </c>
     </row>
     <row r="69">
@@ -12262,8 +13334,20 @@
       <c r="F69" t="n">
         <v>538.38</v>
       </c>
+      <c r="G69" t="n">
+        <v>-0.00687414900312433</v>
+      </c>
       <c r="H69" t="n">
         <v>41865.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>41865.30687414901</v>
+      </c>
+      <c r="J69" t="n">
+        <v>41792.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>41792.50481207858</v>
       </c>
     </row>
     <row r="70">
@@ -12276,8 +13360,20 @@
       <c r="F70" t="n">
         <v>538.28</v>
       </c>
+      <c r="G70" t="n">
+        <v>-0.009779356521903537</v>
+      </c>
       <c r="H70" t="n">
         <v>40219</v>
+      </c>
+      <c r="I70" t="n">
+        <v>40219.00977935652</v>
+      </c>
+      <c r="J70" t="n">
+        <v>41865.3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>41865.30687424952</v>
       </c>
     </row>
     <row r="71">
@@ -12290,8 +13386,20 @@
       <c r="F71" t="n">
         <v>538.1799999999999</v>
       </c>
+      <c r="G71" t="n">
+        <v>-0.01385491041583009</v>
+      </c>
       <c r="H71" t="n">
         <v>41229.2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>41229.21385491041</v>
+      </c>
+      <c r="J71" t="n">
+        <v>40219</v>
+      </c>
+      <c r="K71" t="n">
+        <v>40219.00977949951</v>
       </c>
     </row>
     <row r="72">
@@ -12304,8 +13412,20 @@
       <c r="F72" t="n">
         <v>538.08</v>
       </c>
+      <c r="G72" t="n">
+        <v>-0.0195480180773302</v>
+      </c>
       <c r="H72" t="n">
         <v>41217.1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>41217.11954801808</v>
+      </c>
+      <c r="J72" t="n">
+        <v>41229.2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>41229.21385511299</v>
       </c>
     </row>
     <row r="73">
@@ -12318,8 +13438,20 @@
       <c r="F73" t="n">
         <v>537.98</v>
       </c>
+      <c r="G73" t="n">
+        <v>-0.02746697851398494</v>
+      </c>
       <c r="H73" t="n">
         <v>40096</v>
+      </c>
+      <c r="I73" t="n">
+        <v>40096.02746697851</v>
+      </c>
+      <c r="J73" t="n">
+        <v>41217.1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>41217.1195483039</v>
       </c>
     </row>
     <row r="74">
@@ -12332,8 +13464,20 @@
       <c r="F74" t="n">
         <v>537.88</v>
       </c>
+      <c r="G74" t="n">
+        <v>-0.03843544294068124</v>
+      </c>
       <c r="H74" t="n">
         <v>41375.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>41375.33843544294</v>
+      </c>
+      <c r="J74" t="n">
+        <v>40096</v>
+      </c>
+      <c r="K74" t="n">
+        <v>40096.02746738013</v>
       </c>
     </row>
     <row r="75">
@@ -12346,8 +13490,20 @@
       <c r="F75" t="n">
         <v>537.78</v>
       </c>
+      <c r="G75" t="n">
+        <v>-0.05356357645359822</v>
+      </c>
       <c r="H75" t="n">
         <v>42743.3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>42743.35356357646</v>
+      </c>
+      <c r="J75" t="n">
+        <v>41375.3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>41375.33843600493</v>
       </c>
     </row>
     <row r="76">
@@ -12360,8 +13516,20 @@
       <c r="F76" t="n">
         <v>537.6799999999999</v>
       </c>
+      <c r="G76" t="n">
+        <v>-0.07434091082541272</v>
+      </c>
       <c r="H76" t="n">
         <v>41739.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>41739.37434091083</v>
+      </c>
+      <c r="J76" t="n">
+        <v>42743.3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>42743.35356435964</v>
       </c>
     </row>
     <row r="77">
@@ -12374,8 +13542,20 @@
       <c r="F77" t="n">
         <v>537.58</v>
       </c>
+      <c r="G77" t="n">
+        <v>-0.102756882122776</v>
+      </c>
       <c r="H77" t="n">
         <v>41779.1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>41779.20275688212</v>
+      </c>
+      <c r="J77" t="n">
+        <v>41739.3</v>
+      </c>
+      <c r="K77" t="n">
+        <v>41739.37434199781</v>
       </c>
     </row>
     <row r="78">
@@ -12388,8 +13568,20 @@
       <c r="F78" t="n">
         <v>537.48</v>
       </c>
+      <c r="G78" t="n">
+        <v>-0.1414565063241753</v>
+      </c>
       <c r="H78" t="n">
         <v>42431.9</v>
+      </c>
+      <c r="I78" t="n">
+        <v>42432.04145650633</v>
+      </c>
+      <c r="J78" t="n">
+        <v>41779.1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>41779.20275838458</v>
       </c>
     </row>
     <row r="79">
@@ -12402,8 +13594,20 @@
       <c r="F79" t="n">
         <v>537.38</v>
       </c>
+      <c r="G79" t="n">
+        <v>-0.193940402714361</v>
+      </c>
       <c r="H79" t="n">
         <v>42881</v>
+      </c>
+      <c r="I79" t="n">
+        <v>42881.19394040271</v>
+      </c>
+      <c r="J79" t="n">
+        <v>42431.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>42432.04145857464</v>
       </c>
     </row>
     <row r="80">
@@ -12416,8 +13620,20 @@
       <c r="F80" t="n">
         <v>537.28</v>
       </c>
+      <c r="G80" t="n">
+        <v>-0.2648204720098875</v>
+      </c>
       <c r="H80" t="n">
         <v>41384.7</v>
+      </c>
+      <c r="I80" t="n">
+        <v>41384.96482047201</v>
+      </c>
+      <c r="J80" t="n">
+        <v>42881</v>
+      </c>
+      <c r="K80" t="n">
+        <v>42881.19394323843</v>
       </c>
     </row>
     <row r="81">
@@ -12430,8 +13646,20 @@
       <c r="F81" t="n">
         <v>537.1799999999999</v>
       </c>
+      <c r="G81" t="n">
+        <v>-0.3601450210844632</v>
+      </c>
       <c r="H81" t="n">
         <v>40732</v>
+      </c>
+      <c r="I81" t="n">
+        <v>40732.36014502108</v>
+      </c>
+      <c r="J81" t="n">
+        <v>41384.7</v>
+      </c>
+      <c r="K81" t="n">
+        <v>41384.9648243441</v>
       </c>
     </row>
     <row r="82">
@@ -12444,8 +13672,20 @@
       <c r="F82" t="n">
         <v>537.08</v>
       </c>
+      <c r="G82" t="n">
+        <v>-0.4878100451969658</v>
+      </c>
       <c r="H82" t="n">
         <v>42223.1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>42223.5878100452</v>
+      </c>
+      <c r="J82" t="n">
+        <v>40732</v>
+      </c>
+      <c r="K82" t="n">
+        <v>40732.36015028697</v>
       </c>
     </row>
     <row r="83">
@@ -12458,8 +13698,20 @@
       <c r="F83" t="n">
         <v>536.98</v>
       </c>
+      <c r="G83" t="n">
+        <v>-0.6580767788909725</v>
+      </c>
       <c r="H83" t="n">
         <v>41680.1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>41680.75807677889</v>
+      </c>
+      <c r="J83" t="n">
+        <v>42223.1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>42223.58781717774</v>
       </c>
     </row>
     <row r="84">
@@ -12472,8 +13724,20 @@
       <c r="F84" t="n">
         <v>536.88</v>
       </c>
+      <c r="G84" t="n">
+        <v>-0.8842195519828238</v>
+      </c>
       <c r="H84" t="n">
         <v>42359.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>42360.38421955198</v>
+      </c>
+      <c r="J84" t="n">
+        <v>41680.1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>41680.758086401</v>
       </c>
     </row>
     <row r="85">
@@ -12486,8 +13750,20 @@
       <c r="F85" t="n">
         <v>536.78</v>
       </c>
+      <c r="G85" t="n">
+        <v>-1.183332475717179</v>
+      </c>
       <c r="H85" t="n">
         <v>42169.3</v>
+      </c>
+      <c r="I85" t="n">
+        <v>42170.48333247572</v>
+      </c>
+      <c r="J85" t="n">
+        <v>42359.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>42360.38423248066</v>
       </c>
     </row>
     <row r="86">
@@ -12500,8 +13776,20 @@
       <c r="F86" t="n">
         <v>536.6799999999999</v>
       </c>
+      <c r="G86" t="n">
+        <v>-1.577328566723736</v>
+      </c>
       <c r="H86" t="n">
         <v>42478.2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>42479.77732856672</v>
+      </c>
+      <c r="J86" t="n">
+        <v>42169.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>42170.4833497779</v>
       </c>
     </row>
     <row r="87">
@@ -12514,8 +13802,20 @@
       <c r="F87" t="n">
         <v>536.58</v>
       </c>
+      <c r="G87" t="n">
+        <v>-2.094170610274887</v>
+      </c>
       <c r="H87" t="n">
         <v>42341</v>
+      </c>
+      <c r="I87" t="n">
+        <v>42343.09417061027</v>
+      </c>
+      <c r="J87" t="n">
+        <v>42478.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>42479.77735162974</v>
       </c>
     </row>
     <row r="88">
@@ -12528,8 +13828,20 @@
       <c r="F88" t="n">
         <v>536.48</v>
       </c>
+      <c r="G88" t="n">
+        <v>-2.769379371733521</v>
+      </c>
       <c r="H88" t="n">
         <v>42236.1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>42238.86937937173</v>
+      </c>
+      <c r="J88" t="n">
+        <v>42341</v>
+      </c>
+      <c r="K88" t="n">
+        <v>42343.09420123033</v>
       </c>
     </row>
     <row r="89">
@@ -12542,8 +13854,20 @@
       <c r="F89" t="n">
         <v>536.38</v>
       </c>
+      <c r="G89" t="n">
+        <v>-3.647871666093124</v>
+      </c>
       <c r="H89" t="n">
         <v>43978</v>
+      </c>
+      <c r="I89" t="n">
+        <v>43981.64787166609</v>
+      </c>
+      <c r="J89" t="n">
+        <v>42236.1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>42238.8694198644</v>
       </c>
     </row>
     <row r="90">
@@ -12556,8 +13880,20 @@
       <c r="F90" t="n">
         <v>536.28</v>
       </c>
+      <c r="G90" t="n">
+        <v>-4.786188245030644</v>
+      </c>
       <c r="H90" t="n">
         <v>43202.3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>43207.08618824503</v>
+      </c>
+      <c r="J90" t="n">
+        <v>43978</v>
+      </c>
+      <c r="K90" t="n">
+        <v>43981.6479250037</v>
       </c>
     </row>
     <row r="91">
@@ -12570,8 +13906,20 @@
       <c r="F91" t="n">
         <v>536.1799999999999</v>
       </c>
+      <c r="G91" t="n">
+        <v>-6.25517938152916</v>
+      </c>
       <c r="H91" t="n">
         <v>43182.1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>43188.35517938153</v>
+      </c>
+      <c r="J91" t="n">
+        <v>43202.3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>43207.08625822661</v>
       </c>
     </row>
     <row r="92">
@@ -12584,8 +13932,20 @@
       <c r="F92" t="n">
         <v>536.08</v>
       </c>
+      <c r="G92" t="n">
+        <v>-8.143224310282676</v>
+      </c>
       <c r="H92" t="n">
         <v>42938.6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>42946.74322431028</v>
+      </c>
+      <c r="J92" t="n">
+        <v>43182.1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>43188.35527084206</v>
       </c>
     </row>
     <row r="93">
@@ -12598,8 +13958,20 @@
       <c r="F93" t="n">
         <v>535.98</v>
       </c>
+      <c r="G93" t="n">
+        <v>-10.56006916040496</v>
+      </c>
       <c r="H93" t="n">
         <v>42639.4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>42649.96006916041</v>
+      </c>
+      <c r="J93" t="n">
+        <v>42938.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>42946.74334337699</v>
       </c>
     </row>
     <row r="94">
@@ -12612,8 +13984,20 @@
       <c r="F94" t="n">
         <v>535.88</v>
       </c>
+      <c r="G94" t="n">
+        <v>-13.64137649153417</v>
+      </c>
       <c r="H94" t="n">
         <v>43272.7</v>
+      </c>
+      <c r="I94" t="n">
+        <v>43286.34137649153</v>
+      </c>
+      <c r="J94" t="n">
+        <v>42639.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>42649.96022356518</v>
       </c>
     </row>
     <row r="95">
@@ -12626,8 +14010,20 @@
       <c r="F95" t="n">
         <v>535.78</v>
       </c>
+      <c r="G95" t="n">
+        <v>-17.55408775607793</v>
+      </c>
       <c r="H95" t="n">
         <v>43237.8</v>
+      </c>
+      <c r="I95" t="n">
+        <v>43255.35408775608</v>
+      </c>
+      <c r="J95" t="n">
+        <v>43272.7</v>
+      </c>
+      <c r="K95" t="n">
+        <v>43286.34157594986</v>
       </c>
     </row>
     <row r="96">
@@ -12640,8 +14036,20 @@
       <c r="F96" t="n">
         <v>535.6799999999999</v>
       </c>
+      <c r="G96" t="n">
+        <v>-22.50270764323068</v>
+      </c>
       <c r="H96" t="n">
         <v>42287.2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>42309.70270764323</v>
+      </c>
+      <c r="J96" t="n">
+        <v>43237.8</v>
+      </c>
+      <c r="K96" t="n">
+        <v>43255.35434442438</v>
       </c>
     </row>
     <row r="97">
@@ -12654,8 +14062,20 @@
       <c r="F97" t="n">
         <v>535.58</v>
       </c>
+      <c r="G97" t="n">
+        <v>-28.73662593372865</v>
+      </c>
       <c r="H97" t="n">
         <v>42514.4</v>
+      </c>
+      <c r="I97" t="n">
+        <v>42543.13662593373</v>
+      </c>
+      <c r="J97" t="n">
+        <v>42287.2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>42309.70303666812</v>
       </c>
     </row>
     <row r="98">
@@ -12668,8 +14088,20 @@
       <c r="F98" t="n">
         <v>535.48</v>
       </c>
+      <c r="G98" t="n">
+        <v>-36.55859775931458</v>
+      </c>
       <c r="H98" t="n">
         <v>43303.1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>43339.65859775931</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42514.4</v>
+      </c>
+      <c r="K98" t="n">
+        <v>42543.13704610829</v>
       </c>
     </row>
     <row r="99">
@@ -12682,8 +14114,20 @@
       <c r="F99" t="n">
         <v>535.38</v>
       </c>
+      <c r="G99" t="n">
+        <v>-46.33450649350561</v>
+      </c>
       <c r="H99" t="n">
         <v>42525.3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>42571.63450649351</v>
+      </c>
+      <c r="J99" t="n">
+        <v>43303.1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>43339.65913230338</v>
       </c>
     </row>
     <row r="100">
@@ -12696,8 +14140,20 @@
       <c r="F100" t="n">
         <v>535.28</v>
       </c>
+      <c r="G100" t="n">
+        <v>-58.50453429396293</v>
+      </c>
       <c r="H100" t="n">
         <v>42309.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>42368.00453429396</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42525.3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>42571.63518397669</v>
       </c>
     </row>
     <row r="101">
@@ -12710,8 +14166,20 @@
       <c r="F101" t="n">
         <v>535.1799999999999</v>
       </c>
+      <c r="G101" t="n">
+        <v>-73.59586286973354</v>
+      </c>
       <c r="H101" t="n">
         <v>43059.2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>43132.79586286973</v>
+      </c>
+      <c r="J101" t="n">
+        <v>42309.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>42368.00538972205</v>
       </c>
     </row>
     <row r="102">
@@ -12724,8 +14192,20 @@
       <c r="F102" t="n">
         <v>535.08</v>
       </c>
+      <c r="G102" t="n">
+        <v>-92.23702054644673</v>
+      </c>
       <c r="H102" t="n">
         <v>43043.8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>43136.03702054645</v>
+      </c>
+      <c r="J102" t="n">
+        <v>43059.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>43132.79693895672</v>
       </c>
     </row>
     <row r="103">
@@ -12738,8 +14218,20 @@
       <c r="F103" t="n">
         <v>534.98</v>
       </c>
+      <c r="G103" t="n">
+        <v>-38.47398019924731</v>
+      </c>
       <c r="H103" t="n">
-        <v>43407.5</v>
+        <v>43330.8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>43445.97398019925</v>
+      </c>
+      <c r="J103" t="n">
+        <v>43043.8</v>
+      </c>
+      <c r="K103" t="n">
+        <v>43136.03836919642</v>
       </c>
     </row>
     <row r="104">
@@ -12752,8 +14244,20 @@
       <c r="F104" t="n">
         <v>534.88</v>
       </c>
+      <c r="G104" t="n">
+        <v>398.6445760386341</v>
+      </c>
       <c r="H104" t="n">
-        <v>43836</v>
+        <v>43294.06732897285</v>
+      </c>
+      <c r="I104" t="n">
+        <v>43437.35542396137</v>
+      </c>
+      <c r="J104" t="n">
+        <v>43330.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>43445.97566422355</v>
       </c>
     </row>
     <row r="105">
@@ -12766,8 +14270,20 @@
       <c r="F105" t="n">
         <v>534.78</v>
       </c>
+      <c r="G105" t="n">
+        <v>-722.212817634223</v>
+      </c>
       <c r="H105" t="n">
-        <v>42748.9</v>
+        <v>43293.49688392528</v>
+      </c>
+      <c r="I105" t="n">
+        <v>43471.11281763422</v>
+      </c>
+      <c r="J105" t="n">
+        <v>43294.06732897285</v>
+      </c>
+      <c r="K105" t="n">
+        <v>43437.35751905814</v>
       </c>
     </row>
     <row r="106">
@@ -12780,8 +14296,20 @@
       <c r="F106" t="n">
         <v>534.6799999999999</v>
       </c>
+      <c r="G106" t="n">
+        <v>505.4310184660935</v>
+      </c>
       <c r="H106" t="n">
-        <v>44018.3</v>
+        <v>43293.49793826786</v>
+      </c>
+      <c r="I106" t="n">
+        <v>43512.86898153391</v>
+      </c>
+      <c r="J106" t="n">
+        <v>43293.49688392529</v>
+      </c>
+      <c r="K106" t="n">
+        <v>43471.11541465786</v>
       </c>
     </row>
     <row r="107">
@@ -12794,8 +14322,20 @@
       <c r="F107" t="n">
         <v>534.58</v>
       </c>
+      <c r="G107" t="n">
+        <v>-249.5935808420545</v>
+      </c>
       <c r="H107" t="n">
-        <v>43313.7</v>
+        <v>43293.325960628</v>
+      </c>
+      <c r="I107" t="n">
+        <v>43563.29358084205</v>
+      </c>
+      <c r="J107" t="n">
+        <v>43293.49793826787</v>
+      </c>
+      <c r="K107" t="n">
+        <v>43512.87218908274</v>
       </c>
     </row>
     <row r="108">
@@ -12808,8 +14348,20 @@
       <c r="F108" t="n">
         <v>534.48</v>
       </c>
+      <c r="G108" t="n">
+        <v>-177.683550103473</v>
+      </c>
       <c r="H108" t="n">
-        <v>43446</v>
+        <v>43292.63753639476</v>
+      </c>
+      <c r="I108" t="n">
+        <v>43623.68355010347</v>
+      </c>
+      <c r="J108" t="n">
+        <v>43293.32596062805</v>
+      </c>
+      <c r="K108" t="n">
+        <v>43563.2975281922</v>
       </c>
     </row>
     <row r="109">
@@ -12822,8 +14374,20 @@
       <c r="F109" t="n">
         <v>534.38</v>
       </c>
+      <c r="G109" t="n">
+        <v>-84.07349636506115</v>
+      </c>
       <c r="H109" t="n">
-        <v>43612.9</v>
+        <v>43292.47359125551</v>
+      </c>
+      <c r="I109" t="n">
+        <v>43696.97349636506</v>
+      </c>
+      <c r="J109" t="n">
+        <v>43292.63753639491</v>
+      </c>
+      <c r="K109" t="n">
+        <v>43623.68839051547</v>
       </c>
     </row>
     <row r="110">
@@ -12836,8 +14400,20 @@
       <c r="F110" t="n">
         <v>534.28</v>
       </c>
+      <c r="G110" t="n">
+        <v>-337.4379144176564</v>
+      </c>
       <c r="H110" t="n">
-        <v>43447.1</v>
+        <v>43292.03300426409</v>
+      </c>
+      <c r="I110" t="n">
+        <v>43784.53791441765</v>
+      </c>
+      <c r="J110" t="n">
+        <v>43292.473591256</v>
+      </c>
+      <c r="K110" t="n">
+        <v>43696.97941078786</v>
       </c>
     </row>
     <row r="111">
@@ -12850,8 +14426,20 @@
       <c r="F111" t="n">
         <v>534.1799999999999</v>
       </c>
+      <c r="G111" t="n">
+        <v>-487.540788807928</v>
+      </c>
       <c r="H111" t="n">
-        <v>43401.6</v>
+        <v>43291.59256685943</v>
+      </c>
+      <c r="I111" t="n">
+        <v>43889.14078880793</v>
+      </c>
+      <c r="J111" t="n">
+        <v>43292.03300426562</v>
+      </c>
+      <c r="K111" t="n">
+        <v>43784.54511561067</v>
       </c>
     </row>
     <row r="112">
@@ -12864,8 +14452,20 @@
       <c r="F112" t="n">
         <v>534.08</v>
       </c>
+      <c r="G112" t="n">
+        <v>-1262.210552928249</v>
+      </c>
       <c r="H112" t="n">
-        <v>42751.6</v>
+        <v>43291.35180408233</v>
+      </c>
+      <c r="I112" t="n">
+        <v>44013.81055292825</v>
+      </c>
+      <c r="J112" t="n">
+        <v>43291.59256686414</v>
+      </c>
+      <c r="K112" t="n">
+        <v>43889.14952589579</v>
       </c>
     </row>
     <row r="113">
@@ -12878,8 +14478,20 @@
       <c r="F113" t="n">
         <v>533.98</v>
       </c>
+      <c r="G113" t="n">
+        <v>-44.18250092591916</v>
+      </c>
       <c r="H113" t="n">
-        <v>44118</v>
+        <v>43291.74551112639</v>
+      </c>
+      <c r="I113" t="n">
+        <v>44162.18250092592</v>
+      </c>
+      <c r="J113" t="n">
+        <v>43291.3518040966</v>
+      </c>
+      <c r="K113" t="n">
+        <v>44013.82111639445</v>
       </c>
     </row>
     <row r="114">
@@ -12892,8 +14504,20 @@
       <c r="F114" t="n">
         <v>533.88</v>
       </c>
+      <c r="G114" t="n">
+        <v>-655.8551003863686</v>
+      </c>
       <c r="H114" t="n">
-        <v>43680.7</v>
+        <v>43291.47148335023</v>
+      </c>
+      <c r="I114" t="n">
+        <v>44336.55510038637</v>
+      </c>
+      <c r="J114" t="n">
+        <v>43291.74551116869</v>
+      </c>
+      <c r="K114" t="n">
+        <v>44162.19522803816</v>
       </c>
     </row>
     <row r="115">
@@ -12906,8 +14530,20 @@
       <c r="F115" t="n">
         <v>533.78</v>
       </c>
+      <c r="G115" t="n">
+        <v>335.1399882455298</v>
+      </c>
       <c r="H115" t="n">
-        <v>44875.9</v>
+        <v>43290.33462811027</v>
+      </c>
+      <c r="I115" t="n">
+        <v>44540.76001175447</v>
+      </c>
+      <c r="J115" t="n">
+        <v>43291.47148347305</v>
+      </c>
+      <c r="K115" t="n">
+        <v>44336.57038102579</v>
       </c>
     </row>
     <row r="116">
@@ -12920,8 +14556,20 @@
       <c r="F116" t="n">
         <v>533.6799999999999</v>
       </c>
+      <c r="G116" t="n">
+        <v>-742.9310566507629</v>
+      </c>
       <c r="H116" t="n">
-        <v>44036.5</v>
+        <v>43288.49453763908</v>
+      </c>
+      <c r="I116" t="n">
+        <v>44779.43105665076</v>
+      </c>
+      <c r="J116" t="n">
+        <v>43290.33462845969</v>
+      </c>
+      <c r="K116" t="n">
+        <v>44540.77829458612</v>
       </c>
     </row>
     <row r="117">
@@ -12934,8 +14582,20 @@
       <c r="F117" t="n">
         <v>533.58</v>
       </c>
+      <c r="G117" t="n">
+        <v>-295.6779306165627</v>
+      </c>
       <c r="H117" t="n">
-        <v>44762.2</v>
+        <v>43286.32474112064</v>
+      </c>
+      <c r="I117" t="n">
+        <v>45057.87793061656</v>
+      </c>
+      <c r="J117" t="n">
+        <v>43288.49453861304</v>
+      </c>
+      <c r="K117" t="n">
+        <v>44779.45285550803</v>
       </c>
     </row>
     <row r="118">
@@ -12948,8 +14608,20 @@
       <c r="F118" t="n">
         <v>533.48</v>
       </c>
+      <c r="G118" t="n">
+        <v>-984.030313155461</v>
+      </c>
       <c r="H118" t="n">
-        <v>44397.9</v>
+        <v>43284.25246188632</v>
+      </c>
+      <c r="I118" t="n">
+        <v>45381.93031315546</v>
+      </c>
+      <c r="J118" t="n">
+        <v>43286.32474378056</v>
+      </c>
+      <c r="K118" t="n">
+        <v>45057.90383084385</v>
       </c>
     </row>
     <row r="119">
@@ -12962,8 +14634,20 @@
       <c r="F119" t="n">
         <v>533.38</v>
       </c>
+      <c r="G119" t="n">
+        <v>-703.1097601269139</v>
+      </c>
       <c r="H119" t="n">
-        <v>45053.9</v>
+        <v>43281.84039183114</v>
+      </c>
+      <c r="I119" t="n">
+        <v>45757.00976012692</v>
+      </c>
+      <c r="J119" t="n">
+        <v>43284.25246900412</v>
+      </c>
+      <c r="K119" t="n">
+        <v>45381.96097737906</v>
       </c>
     </row>
     <row r="120">
@@ -12976,8 +14660,20 @@
       <c r="F120" t="n">
         <v>533.28</v>
       </c>
+      <c r="G120" t="n">
+        <v>660.2572849672506</v>
+      </c>
       <c r="H120" t="n">
-        <v>46849.7</v>
+        <v>43279.12914457225</v>
+      </c>
+      <c r="I120" t="n">
+        <v>46189.44271503275</v>
+      </c>
+      <c r="J120" t="n">
+        <v>43281.84041049443</v>
+      </c>
+      <c r="K120" t="n">
+        <v>45757.0459323231</v>
       </c>
     </row>
     <row r="121">
@@ -12990,8 +14686,20 @@
       <c r="F121" t="n">
         <v>533.1799999999999</v>
       </c>
+      <c r="G121" t="n">
+        <v>-647.811753878028</v>
+      </c>
       <c r="H121" t="n">
-        <v>46036.1</v>
+        <v>43274.14430490348</v>
+      </c>
+      <c r="I121" t="n">
+        <v>46683.91175387803</v>
+      </c>
+      <c r="J121" t="n">
+        <v>43279.12919252505</v>
+      </c>
+      <c r="K121" t="n">
+        <v>46189.48522042989</v>
       </c>
     </row>
     <row r="122">
@@ -13004,8 +14712,20 @@
       <c r="F122" t="n">
         <v>533.08</v>
       </c>
+      <c r="G122" t="n">
+        <v>625.2965946765544</v>
+      </c>
       <c r="H122" t="n">
-        <v>47874</v>
+        <v>43268.23499660165</v>
+      </c>
+      <c r="I122" t="n">
+        <v>47248.70340532345</v>
+      </c>
+      <c r="J122" t="n">
+        <v>43274.14442564066</v>
+      </c>
+      <c r="K122" t="n">
+        <v>46683.96148928889</v>
       </c>
     </row>
     <row r="123">
@@ -13018,8 +14738,20 @@
       <c r="F123" t="n">
         <v>532.98</v>
       </c>
+      <c r="G123" t="n">
+        <v>45.75588939979207</v>
+      </c>
       <c r="H123" t="n">
-        <v>47936.6</v>
+        <v>43261.34617323051</v>
+      </c>
+      <c r="I123" t="n">
+        <v>47890.84411060021</v>
+      </c>
+      <c r="J123" t="n">
+        <v>43268.23529451419</v>
+      </c>
+      <c r="K123" t="n">
+        <v>47248.76130809931</v>
       </c>
     </row>
     <row r="124">
@@ -13032,8 +14764,20 @@
       <c r="F124" t="n">
         <v>532.88</v>
       </c>
+      <c r="G124" t="n">
+        <v>936.2409400235192</v>
+      </c>
       <c r="H124" t="n">
-        <v>49552.8</v>
+        <v>43252.67226340636</v>
+      </c>
+      <c r="I124" t="n">
+        <v>48616.55905997648</v>
+      </c>
+      <c r="J124" t="n">
+        <v>43261.34689363721</v>
+      </c>
+      <c r="K124" t="n">
+        <v>47890.91108070457</v>
       </c>
     </row>
     <row r="125">
@@ -13046,8 +14790,20 @@
       <c r="F125" t="n">
         <v>532.78</v>
       </c>
+      <c r="G125" t="n">
+        <v>-783.5770068041311</v>
+      </c>
       <c r="H125" t="n">
-        <v>48649.2</v>
+        <v>43242.43040540381</v>
+      </c>
+      <c r="I125" t="n">
+        <v>49432.77700680413</v>
+      </c>
+      <c r="J125" t="n">
+        <v>43252.67397078457</v>
+      </c>
+      <c r="K125" t="n">
+        <v>48616.63578100939</v>
       </c>
     </row>
     <row r="126">
@@ -13060,8 +14816,20 @@
       <c r="F126" t="n">
         <v>532.6799999999999</v>
       </c>
+      <c r="G126" t="n">
+        <v>-542.2238467543648</v>
+      </c>
       <c r="H126" t="n">
-        <v>49804.2</v>
+        <v>43231.51300959419</v>
+      </c>
+      <c r="I126" t="n">
+        <v>50346.42384675436</v>
+      </c>
+      <c r="J126" t="n">
+        <v>43242.43437154361</v>
+      </c>
+      <c r="K126" t="n">
+        <v>49432.86355317487</v>
       </c>
     </row>
     <row r="127">
@@ -13074,8 +14842,20 @@
       <c r="F127" t="n">
         <v>532.58</v>
       </c>
+      <c r="G127" t="n">
+        <v>352.1571042266369</v>
+      </c>
       <c r="H127" t="n">
-        <v>51714.9</v>
+        <v>43220.27522436452</v>
+      </c>
+      <c r="I127" t="n">
+        <v>51362.74289577336</v>
+      </c>
+      <c r="J127" t="n">
+        <v>43231.52204020934</v>
+      </c>
+      <c r="K127" t="n">
+        <v>50346.51884714061</v>
       </c>
     </row>
     <row r="128">
@@ -13088,8 +14868,20 @@
       <c r="F128" t="n">
         <v>532.48</v>
       </c>
+      <c r="G128" t="n">
+        <v>450.0923418693128</v>
+      </c>
       <c r="H128" t="n">
-        <v>52932.4</v>
+        <v>43206.13918608351</v>
+      </c>
+      <c r="I128" t="n">
+        <v>52482.30765813069</v>
+      </c>
+      <c r="J128" t="n">
+        <v>43220.29538035132</v>
+      </c>
+      <c r="K128" t="n">
+        <v>51362.84179508579</v>
       </c>
     </row>
     <row r="129">
@@ -13102,8 +14894,20 @@
       <c r="F129" t="n">
         <v>532.38</v>
       </c>
+      <c r="G129" t="n">
+        <v>-151.7786272437443</v>
+      </c>
       <c r="H129" t="n">
-        <v>53554</v>
+        <v>43189.07724306933</v>
+      </c>
+      <c r="I129" t="n">
+        <v>53705.77862724374</v>
+      </c>
+      <c r="J129" t="n">
+        <v>43206.18328788616</v>
+      </c>
+      <c r="K129" t="n">
+        <v>52482.39918769127</v>
       </c>
     </row>
     <row r="130">
@@ -13116,8 +14920,20 @@
       <c r="F130" t="n">
         <v>532.28</v>
       </c>
+      <c r="G130" t="n">
+        <v>-154.1820615186298</v>
+      </c>
       <c r="H130" t="n">
-        <v>54877.5</v>
+        <v>43170.25119379305</v>
+      </c>
+      <c r="I130" t="n">
+        <v>55031.68206151863</v>
+      </c>
+      <c r="J130" t="n">
+        <v>43189.17184591125</v>
+      </c>
+      <c r="K130" t="n">
+        <v>53705.8377934158</v>
       </c>
     </row>
     <row r="131">
@@ -13130,8 +14946,20 @@
       <c r="F131" t="n">
         <v>532.1799999999999</v>
       </c>
+      <c r="G131" t="n">
+        <v>-60.1486120841364</v>
+      </c>
       <c r="H131" t="n">
-        <v>56392.8</v>
+        <v>43149.52419270402</v>
+      </c>
+      <c r="I131" t="n">
+        <v>56452.94861208414</v>
+      </c>
+      <c r="J131" t="n">
+        <v>43170.45016014502</v>
+      </c>
+      <c r="K131" t="n">
+        <v>55031.65652440283</v>
       </c>
     </row>
     <row r="132">
@@ -13144,8 +14972,20 @@
       <c r="F132" t="n">
         <v>532.08</v>
       </c>
+      <c r="G132" t="n">
+        <v>580.8357964872921</v>
+      </c>
       <c r="H132" t="n">
-        <v>58537.3</v>
+        <v>43126.04476639436</v>
+      </c>
+      <c r="I132" t="n">
+        <v>57956.46420351271</v>
+      </c>
+      <c r="J132" t="n">
+        <v>43149.934507263</v>
+      </c>
+      <c r="K132" t="n">
+        <v>56452.732807258</v>
       </c>
     </row>
     <row r="133">
@@ -13158,8 +14998,20 @@
       <c r="F133" t="n">
         <v>531.98</v>
       </c>
+      <c r="G133" t="n">
+        <v>11.78575910785003</v>
+      </c>
       <c r="H133" t="n">
-        <v>59534.7</v>
+        <v>43099.08631671629</v>
+      </c>
+      <c r="I133" t="n">
+        <v>59522.91424089215</v>
+      </c>
+      <c r="J133" t="n">
+        <v>43126.87452660096</v>
+      </c>
+      <c r="K133" t="n">
+        <v>57955.85127273592</v>
       </c>
     </row>
     <row r="134">
@@ -13172,8 +15024,20 @@
       <c r="F134" t="n">
         <v>531.88</v>
       </c>
+      <c r="G134" t="n">
+        <v>1701.028678326082</v>
+      </c>
       <c r="H134" t="n">
-        <v>62828</v>
+        <v>43069.03805924368</v>
+      </c>
+      <c r="I134" t="n">
+        <v>61126.97132167392</v>
+      </c>
+      <c r="J134" t="n">
+        <v>43100.7319220971</v>
+      </c>
+      <c r="K134" t="n">
+        <v>59521.50874874588</v>
       </c>
     </row>
     <row r="135">
@@ -13186,8 +15050,20 @@
       <c r="F135" t="n">
         <v>531.78</v>
       </c>
+      <c r="G135" t="n">
+        <v>-463.4493773585127</v>
+      </c>
       <c r="H135" t="n">
-        <v>62271</v>
+        <v>43034.95415063726</v>
+      </c>
+      <c r="I135" t="n">
+        <v>62734.44937735851</v>
+      </c>
+      <c r="J135" t="n">
+        <v>43072.23900180178</v>
+      </c>
+      <c r="K135" t="n">
+        <v>61124.03435822032</v>
       </c>
     </row>
     <row r="136">
@@ -13200,8 +15076,20 @@
       <c r="F136" t="n">
         <v>531.6799999999999</v>
       </c>
+      <c r="G136" t="n">
+        <v>305.2976208130494</v>
+      </c>
       <c r="H136" t="n">
-        <v>64611.6</v>
+        <v>42998.26952378461</v>
+      </c>
+      <c r="I136" t="n">
+        <v>64306.30237918695</v>
+      </c>
+      <c r="J136" t="n">
+        <v>43041.06151164749</v>
+      </c>
+      <c r="K136" t="n">
+        <v>62728.62994662328</v>
       </c>
     </row>
     <row r="137">
@@ -13214,8 +15102,20 @@
       <c r="F137" t="n">
         <v>531.58</v>
       </c>
+      <c r="G137" t="n">
+        <v>-426.2910365206917</v>
+      </c>
       <c r="H137" t="n">
-        <v>65370.5</v>
+        <v>42959.71345278985</v>
+      </c>
+      <c r="I137" t="n">
+        <v>65796.79103652069</v>
+      </c>
+      <c r="J137" t="n">
+        <v>43009.70094362812</v>
+      </c>
+      <c r="K137" t="n">
+        <v>64295.18231546394</v>
       </c>
     </row>
     <row r="138">
@@ -13228,8 +15128,20 @@
       <c r="F138" t="n">
         <v>531.48</v>
       </c>
+      <c r="G138" t="n">
+        <v>-899.204707928453</v>
+      </c>
       <c r="H138" t="n">
-        <v>66255.7</v>
+        <v>42918.25065026537</v>
+      </c>
+      <c r="I138" t="n">
+        <v>67154.90470792845</v>
+      </c>
+      <c r="J138" t="n">
+        <v>42980.70613638378</v>
+      </c>
+      <c r="K138" t="n">
+        <v>65776.13189817012</v>
       </c>
     </row>
     <row r="139">
@@ -13242,8 +15154,20 @@
       <c r="F139" t="n">
         <v>531.38</v>
       </c>
+      <c r="G139" t="n">
+        <v>-528.6930517849687</v>
+      </c>
       <c r="H139" t="n">
-        <v>67803.5</v>
+        <v>42875.06241856637</v>
+      </c>
+      <c r="I139" t="n">
+        <v>68332.19305178497</v>
+      </c>
+      <c r="J139" t="n">
+        <v>42956.07838166285</v>
+      </c>
+      <c r="K139" t="n">
+        <v>67117.43069012955</v>
       </c>
     </row>
     <row r="140">
@@ -13256,8 +15180,20 @@
       <c r="F140" t="n">
         <v>531.28</v>
       </c>
+      <c r="G140" t="n">
+        <v>-727.6587362324062</v>
+      </c>
       <c r="H140" t="n">
-        <v>68556.2</v>
+        <v>42829.4759307543</v>
+      </c>
+      <c r="I140" t="n">
+        <v>69283.8587362324</v>
+      </c>
+      <c r="J140" t="n">
+        <v>42941.95585463916</v>
+      </c>
+      <c r="K140" t="n">
+        <v>68265.6706641557</v>
       </c>
     </row>
     <row r="141">
@@ -13270,8 +15206,20 @@
       <c r="F141" t="n">
         <v>531.1799999999999</v>
       </c>
+      <c r="G141" t="n">
+        <v>104.0380866603227</v>
+      </c>
       <c r="H141" t="n">
-        <v>70081.60000000001</v>
+        <v>42781.59914207643</v>
+      </c>
+      <c r="I141" t="n">
+        <v>69977.56191333968</v>
+      </c>
+      <c r="J141" t="n">
+        <v>42945.57979977006</v>
+      </c>
+      <c r="K141" t="n">
+        <v>69168.13963284229</v>
       </c>
     </row>
     <row r="142">
@@ -13284,8 +15232,20 @@
       <c r="F142" t="n">
         <v>531.08</v>
       </c>
+      <c r="G142" t="n">
+        <v>-92.44775579599082</v>
+      </c>
       <c r="H142" t="n">
-        <v>70306.8</v>
+        <v>42731.50971163717</v>
+      </c>
+      <c r="I142" t="n">
+        <v>70399.24775579599</v>
+      </c>
+      <c r="J142" t="n">
+        <v>42979.41512822659</v>
+      </c>
+      <c r="K142" t="n">
+        <v>69780.14010088993</v>
       </c>
     </row>
     <row r="143">
@@ -13298,8 +15258,20 @@
       <c r="F143" t="n">
         <v>530.98</v>
       </c>
+      <c r="G143" t="n">
+        <v>-310.9014919025358</v>
+      </c>
       <c r="H143" t="n">
-        <v>70249.3</v>
+        <v>42679.85878671519</v>
+      </c>
+      <c r="I143" t="n">
+        <v>70560.20149190254</v>
+      </c>
+      <c r="J143" t="n">
+        <v>43062.40522567827</v>
+      </c>
+      <c r="K143" t="n">
+        <v>70068.75097647298</v>
       </c>
     </row>
     <row r="144">
@@ -13312,8 +15284,20 @@
       <c r="F144" t="n">
         <v>530.88</v>
       </c>
+      <c r="G144" t="n">
+        <v>760.7232095465151</v>
+      </c>
       <c r="H144" t="n">
-        <v>71263.39999999999</v>
+        <v>42627.83121676077</v>
+      </c>
+      <c r="I144" t="n">
+        <v>70502.67679045348</v>
+      </c>
+      <c r="J144" t="n">
+        <v>43223.35833675109</v>
+      </c>
+      <c r="K144" t="n">
+        <v>70017.10005155118</v>
       </c>
     </row>
     <row r="145">
@@ -13326,8 +15310,20 @@
       <c r="F145" t="n">
         <v>530.78</v>
       </c>
+      <c r="G145" t="n">
+        <v>1172.280822050714</v>
+      </c>
       <c r="H145" t="n">
-        <v>71474.3</v>
+        <v>42574.73951991515</v>
+      </c>
+      <c r="I145" t="n">
+        <v>70302.01917794929</v>
+      </c>
+      <c r="J145" t="n">
+        <v>43504.52800950218</v>
+      </c>
+      <c r="K145" t="n">
+        <v>69626.37217557426</v>
       </c>
     </row>
     <row r="146">
@@ -13340,8 +15336,20 @@
       <c r="F146" t="n">
         <v>530.6799999999999</v>
       </c>
+      <c r="G146" t="n">
+        <v>-47.49067021388328</v>
+      </c>
       <c r="H146" t="n">
-        <v>70025.3</v>
+        <v>42520.78687618918</v>
+      </c>
+      <c r="I146" t="n">
+        <v>70072.79067021389</v>
+      </c>
+      <c r="J146" t="n">
+        <v>43963.73649931502</v>
+      </c>
+      <c r="K146" t="n">
+        <v>68913.40322200314</v>
       </c>
     </row>
     <row r="147">
@@ -13354,8 +15362,20 @@
       <c r="F147" t="n">
         <v>530.58</v>
       </c>
+      <c r="G147" t="n">
+        <v>581.3152186731022</v>
+      </c>
       <c r="H147" t="n">
-        <v>70553.3</v>
+        <v>42467.86619873066</v>
+      </c>
+      <c r="I147" t="n">
+        <v>69971.9847813269</v>
+      </c>
+      <c r="J147" t="n">
+        <v>44682.54731437931</v>
+      </c>
+      <c r="K147" t="n">
+        <v>67911.39512177851</v>
       </c>
     </row>
     <row r="148">
@@ -13368,8 +15388,20 @@
       <c r="F148" t="n">
         <v>530.48</v>
       </c>
+      <c r="G148" t="n">
+        <v>170.6513273677556</v>
+      </c>
       <c r="H148" t="n">
-        <v>70367.3</v>
+        <v>42415.48581107709</v>
+      </c>
+      <c r="I148" t="n">
+        <v>70196.64867263225</v>
+      </c>
+      <c r="J148" t="n">
+        <v>45773.14884908586</v>
+      </c>
+      <c r="K148" t="n">
+        <v>66667.0462385963</v>
       </c>
     </row>
     <row r="149">
@@ -13382,8 +15414,20 @@
       <c r="F149" t="n">
         <v>530.38</v>
       </c>
+      <c r="G149" t="n">
+        <v>340.2642933787574</v>
+      </c>
       <c r="H149" t="n">
-        <v>71326.8</v>
+        <v>42362.58649456379</v>
+      </c>
+      <c r="I149" t="n">
+        <v>70986.53570662125</v>
+      </c>
+      <c r="J149" t="n">
+        <v>47380.54923744542</v>
+      </c>
+      <c r="K149" t="n">
+        <v>65231.90425645902</v>
       </c>
     </row>
     <row r="150">
@@ -13396,8 +15440,20 @@
       <c r="F150" t="n">
         <v>530.28</v>
       </c>
+      <c r="G150" t="n">
+        <v>657.7240441602044</v>
+      </c>
       <c r="H150" t="n">
-        <v>73281.7</v>
+        <v>42308.37794914078</v>
+      </c>
+      <c r="I150" t="n">
+        <v>72623.97595583979</v>
+      </c>
+      <c r="J150" t="n">
+        <v>49689.91276310062</v>
+      </c>
+      <c r="K150" t="n">
+        <v>63659.49928624312</v>
       </c>
     </row>
     <row r="151">
@@ -13410,8 +15466,20 @@
       <c r="F151" t="n">
         <v>530.1799999999999</v>
       </c>
+      <c r="G151" t="n">
+        <v>-1323.265186365345</v>
+      </c>
       <c r="H151" t="n">
-        <v>74104.60000000001</v>
+        <v>42251.28358778087</v>
+      </c>
+      <c r="I151" t="n">
+        <v>75427.86518636535</v>
+      </c>
+      <c r="J151" t="n">
+        <v>52930.55687999436</v>
+      </c>
+      <c r="K151" t="n">
+        <v>62002.0537451268</v>
       </c>
     </row>
     <row r="152">
@@ -13424,8 +15492,20 @@
       <c r="F152" t="n">
         <v>530.08</v>
       </c>
+      <c r="G152" t="n">
+        <v>-299.0697770389233</v>
+      </c>
       <c r="H152" t="n">
-        <v>79443.39999999999</v>
+        <v>42190.57827608667</v>
+      </c>
+      <c r="I152" t="n">
+        <v>79742.46977703892</v>
+      </c>
+      <c r="J152" t="n">
+        <v>57373.0884193871</v>
+      </c>
+      <c r="K152" t="n">
+        <v>60306.2798867575</v>
       </c>
     </row>
     <row r="153">
@@ -13438,8 +15518,20 @@
       <c r="F153" t="n">
         <v>529.98</v>
       </c>
+      <c r="G153" t="n">
+        <v>-489.7117843189044</v>
+      </c>
       <c r="H153" t="n">
-        <v>85417.10000000001</v>
+        <v>42122.45765303395</v>
+      </c>
+      <c r="I153" t="n">
+        <v>85906.81178431891</v>
+      </c>
+      <c r="J153" t="n">
+        <v>63320.22534413877</v>
+      </c>
+      <c r="K153" t="n">
+        <v>58613.00070811811</v>
       </c>
     </row>
     <row r="154">
@@ -13452,8 +15544,20 @@
       <c r="F154" t="n">
         <v>529.88</v>
       </c>
+      <c r="G154" t="n">
+        <v>506.6240197120205</v>
+      </c>
       <c r="H154" t="n">
-        <v>94714.7</v>
+        <v>42042.06887759222</v>
+      </c>
+      <c r="I154" t="n">
+        <v>94208.07598028798</v>
+      </c>
+      <c r="J154" t="n">
+        <v>71077.13698613137</v>
+      </c>
+      <c r="K154" t="n">
+        <v>56952.2641593773</v>
       </c>
     </row>
     <row r="155">
@@ -13466,8 +15570,20 @@
       <c r="F155" t="n">
         <v>529.78</v>
       </c>
+      <c r="G155" t="n">
+        <v>1321.611119801208</v>
+      </c>
       <c r="H155" t="n">
-        <v>106125</v>
+        <v>41944.85464307328</v>
+      </c>
+      <c r="I155" t="n">
+        <v>104803.3888801988</v>
+      </c>
+      <c r="J155" t="n">
+        <v>80904.94762389499</v>
+      </c>
+      <c r="K155" t="n">
+        <v>55345.2774921462</v>
       </c>
     </row>
     <row r="156">
@@ -13480,8 +15596,20 @@
       <c r="F156" t="n">
         <v>529.6799999999999</v>
       </c>
+      <c r="G156" t="n">
+        <v>983.1865188161319</v>
+      </c>
       <c r="H156" t="n">
-        <v>118586</v>
+        <v>41825.73955765846</v>
+      </c>
+      <c r="I156" t="n">
+        <v>117602.8134811839</v>
+      </c>
+      <c r="J156" t="n">
+        <v>92942.00705314302</v>
+      </c>
+      <c r="K156" t="n">
+        <v>53806.25997368306</v>
       </c>
     </row>
     <row r="157">
@@ -13494,8 +15622,20 @@
       <c r="F157" t="n">
         <v>529.58</v>
       </c>
+      <c r="G157" t="n">
+        <v>-93.30769620556384</v>
+      </c>
       <c r="H157" t="n">
-        <v>132033</v>
+        <v>41681.4472693803</v>
+      </c>
+      <c r="I157" t="n">
+        <v>132126.3076962056</v>
+      </c>
+      <c r="J157" t="n">
+        <v>107086.0148417805</v>
+      </c>
+      <c r="K157" t="n">
+        <v>52342.50010800493</v>
       </c>
     </row>
     <row r="158">
@@ -13508,8 +15648,20 @@
       <c r="F158" t="n">
         <v>529.48</v>
       </c>
+      <c r="G158" t="n">
+        <v>2824.526875278505</v>
+      </c>
       <c r="H158" t="n">
-        <v>150188</v>
+        <v>41507.87936058627</v>
+      </c>
+      <c r="I158" t="n">
+        <v>147363.4731247215</v>
+      </c>
+      <c r="J158" t="n">
+        <v>122849.9446992396</v>
+      </c>
+      <c r="K158" t="n">
+        <v>50957.70727098941</v>
       </c>
     </row>
     <row r="159">
@@ -13522,8 +15674,20 @@
       <c r="F159" t="n">
         <v>529.38</v>
       </c>
+      <c r="G159" t="n">
+        <v>582.0686282922106</v>
+      </c>
       <c r="H159" t="n">
-        <v>162308</v>
+        <v>41301.2644857261</v>
+      </c>
+      <c r="I159" t="n">
+        <v>161725.9313717078</v>
+      </c>
+      <c r="J159" t="n">
+        <v>139220.738343824</v>
+      </c>
+      <c r="K159" t="n">
+        <v>49650.44593130877</v>
       </c>
     </row>
     <row r="160">
@@ -13536,8 +15700,20 @@
       <c r="F160" t="n">
         <v>529.28</v>
       </c>
+      <c r="G160" t="n">
+        <v>-935.0569480507402</v>
+      </c>
       <c r="H160" t="n">
-        <v>172273</v>
+        <v>41065.77627983599</v>
+      </c>
+      <c r="I160" t="n">
+        <v>173208.0569480507</v>
+      </c>
+      <c r="J160" t="n">
+        <v>154610.6964473708</v>
+      </c>
+      <c r="K160" t="n">
+        <v>48416.27032327253</v>
       </c>
     </row>
     <row r="161">
@@ -13550,8 +15726,20 @@
       <c r="F161" t="n">
         <v>529.1799999999999</v>
       </c>
+      <c r="G161" t="n">
+        <v>-3608.703566777025</v>
+      </c>
       <c r="H161" t="n">
-        <v>176202</v>
+        <v>40810.26237048138</v>
+      </c>
+      <c r="I161" t="n">
+        <v>179810.703566777</v>
+      </c>
+      <c r="J161" t="n">
+        <v>167017.3440284331</v>
+      </c>
+      <c r="K161" t="n">
+        <v>47256.20942760705</v>
       </c>
     </row>
     <row r="162">
@@ -13564,8 +15752,20 @@
       <c r="F162" t="n">
         <v>529.08</v>
       </c>
+      <c r="G162" t="n">
+        <v>464.9060077118338</v>
+      </c>
       <c r="H162" t="n">
-        <v>180614</v>
+        <v>40542.32259549104</v>
+      </c>
+      <c r="I162" t="n">
+        <v>180149.0939922882</v>
+      </c>
+      <c r="J162" t="n">
+        <v>174446.4256013185</v>
+      </c>
+      <c r="K162" t="n">
+        <v>46174.22588808442</v>
       </c>
     </row>
     <row r="163">
@@ -13578,8 +15778,20 @@
       <c r="F163" t="n">
         <v>528.98</v>
       </c>
+      <c r="G163" t="n">
+        <v>-388.4209578569862</v>
+      </c>
       <c r="H163" t="n">
-        <v>173583</v>
+        <v>40271.99121800061</v>
+      </c>
+      <c r="I163" t="n">
+        <v>173971.420957857</v>
+      </c>
+      <c r="J163" t="n">
+        <v>175519.1999574963</v>
+      </c>
+      <c r="K163" t="n">
+        <v>45171.88750296588</v>
       </c>
     </row>
     <row r="164">
@@ -13592,8 +15804,20 @@
       <c r="F164" t="n">
         <v>528.88</v>
       </c>
+      <c r="G164" t="n">
+        <v>428.4296197151125</v>
+      </c>
       <c r="H164" t="n">
-        <v>162693</v>
+        <v>40015.18489644155</v>
+      </c>
+      <c r="I164" t="n">
+        <v>162264.5703802849</v>
+      </c>
+      <c r="J164" t="n">
+        <v>169990.5714880583</v>
+      </c>
+      <c r="K164" t="n">
+        <v>44252.51752949896</v>
       </c>
     </row>
     <row r="165">
@@ -13606,8 +15830,20 @@
       <c r="F165" t="n">
         <v>528.78</v>
       </c>
+      <c r="G165" t="n">
+        <v>514.1325739577296</v>
+      </c>
       <c r="H165" t="n">
-        <v>147380</v>
+        <v>39783.83812275406</v>
+      </c>
+      <c r="I165" t="n">
+        <v>146865.8674260423</v>
+      </c>
+      <c r="J165" t="n">
+        <v>158854.4536770904</v>
+      </c>
+      <c r="K165" t="n">
+        <v>43425.00208082695</v>
       </c>
     </row>
     <row r="166">
@@ -13620,8 +15856,20 @@
       <c r="F166" t="n">
         <v>528.6799999999999</v>
       </c>
+      <c r="G166" t="n">
+        <v>247.0854712457949</v>
+      </c>
       <c r="H166" t="n">
-        <v>130094</v>
+        <v>39585.32622655711</v>
+      </c>
+      <c r="I166" t="n">
+        <v>129846.9145287542</v>
+      </c>
+      <c r="J166" t="n">
+        <v>143955.2476505415</v>
+      </c>
+      <c r="K166" t="n">
+        <v>42694.19419861171</v>
       </c>
     </row>
     <row r="167">
@@ -13634,8 +15882,20 @@
       <c r="F167" t="n">
         <v>528.58</v>
       </c>
+      <c r="G167" t="n">
+        <v>-731.3298599744012</v>
+      </c>
       <c r="H167" t="n">
-        <v>112259</v>
+        <v>39422.74478469363</v>
+      </c>
+      <c r="I167" t="n">
+        <v>112990.3298599744</v>
+      </c>
+      <c r="J167" t="n">
+        <v>127371.4870970372</v>
+      </c>
+      <c r="K167" t="n">
+        <v>42060.53176704907</v>
       </c>
     </row>
     <row r="168">
@@ -13648,8 +15908,20 @@
       <c r="F168" t="n">
         <v>528.48</v>
       </c>
+      <c r="G168" t="n">
+        <v>-2485.424383687801</v>
+      </c>
       <c r="H168" t="n">
-        <v>95045.8</v>
+        <v>39295.79536240159</v>
+      </c>
+      <c r="I168" t="n">
+        <v>97531.2243836878</v>
+      </c>
+      <c r="J168" t="n">
+        <v>110892.4419024263</v>
+      </c>
+      <c r="K168" t="n">
+        <v>41520.45330018675</v>
       </c>
     </row>
     <row r="169">
@@ -13662,8 +15934,20 @@
       <c r="F169" t="n">
         <v>528.38</v>
       </c>
+      <c r="G169" t="n">
+        <v>-437.7466859197448</v>
+      </c>
       <c r="H169" t="n">
-        <v>83699.39999999999</v>
+        <v>39198.03925939836</v>
+      </c>
+      <c r="I169" t="n">
+        <v>84137.14668591974</v>
+      </c>
+      <c r="J169" t="n">
+        <v>95759.50519948021</v>
+      </c>
+      <c r="K169" t="n">
+        <v>41067.37445212515</v>
       </c>
     </row>
     <row r="170">
@@ -13676,8 +15960,20 @@
       <c r="F170" t="n">
         <v>528.28</v>
       </c>
+      <c r="G170" t="n">
+        <v>-218.8709065775329</v>
+      </c>
       <c r="H170" t="n">
-        <v>72810.39999999999</v>
+        <v>39122.61355536734</v>
+      </c>
+      <c r="I170" t="n">
+        <v>73029.27090657753</v>
+      </c>
+      <c r="J170" t="n">
+        <v>82646.08243520248</v>
+      </c>
+      <c r="K170" t="n">
+        <v>40688.99757726731</v>
       </c>
     </row>
     <row r="171">
@@ -13690,8 +15986,20 @@
       <c r="F171" t="n">
         <v>528.1799999999999</v>
       </c>
+      <c r="G171" t="n">
+        <v>-1868.759501488552</v>
+      </c>
       <c r="H171" t="n">
-        <v>62269.4</v>
+        <v>39067.9609243497</v>
+      </c>
+      <c r="I171" t="n">
+        <v>64138.15950148855</v>
+      </c>
+      <c r="J171" t="n">
+        <v>71778.74951767594</v>
+      </c>
+      <c r="K171" t="n">
+        <v>40373.05722184319</v>
       </c>
     </row>
     <row r="172">
@@ -13704,8 +16012,20 @@
       <c r="F172" t="n">
         <v>528.08</v>
       </c>
+      <c r="G172" t="n">
+        <v>-615.9254184947713</v>
+      </c>
       <c r="H172" t="n">
-        <v>56610</v>
+        <v>39029.05588560287</v>
+      </c>
+      <c r="I172" t="n">
+        <v>57225.92541849477</v>
+      </c>
+      <c r="J172" t="n">
+        <v>63093.0052534705</v>
+      </c>
+      <c r="K172" t="n">
+        <v>40113.05982202526</v>
       </c>
     </row>
     <row r="173">
@@ -13718,8 +16038,20 @@
       <c r="F173" t="n">
         <v>527.98</v>
       </c>
+      <c r="G173" t="n">
+        <v>1117.228179012563</v>
+      </c>
       <c r="H173" t="n">
-        <v>53099.8</v>
+        <v>38999.10432175895</v>
+      </c>
+      <c r="I173" t="n">
+        <v>51982.57182098744</v>
+      </c>
+      <c r="J173" t="n">
+        <v>56355.43749099684</v>
+      </c>
+      <c r="K173" t="n">
+        <v>39899.50560251482</v>
       </c>
     </row>
     <row r="174">
@@ -13732,8 +16064,20 @@
       <c r="F174" t="n">
         <v>527.88</v>
       </c>
+      <c r="G174" t="n">
+        <v>-151.0931842019199</v>
+      </c>
       <c r="H174" t="n">
-        <v>47942.8</v>
+        <v>38977.32619449216</v>
+      </c>
+      <c r="I174" t="n">
+        <v>48093.89318420192</v>
+      </c>
+      <c r="J174" t="n">
+        <v>51260.0770261848</v>
+      </c>
+      <c r="K174" t="n">
+        <v>39721.57363407123</v>
       </c>
     </row>
     <row r="175">
@@ -13746,8 +16090,20 @@
       <c r="F175" t="n">
         <v>527.78</v>
       </c>
+      <c r="G175" t="n">
+        <v>1496.956628553562</v>
+      </c>
       <c r="H175" t="n">
-        <v>46764.8</v>
+        <v>38961.54252504184</v>
+      </c>
+      <c r="I175" t="n">
+        <v>45267.84337144644</v>
+      </c>
+      <c r="J175" t="n">
+        <v>47496.31991731214</v>
+      </c>
+      <c r="K175" t="n">
+        <v>39574.88315352852</v>
       </c>
     </row>
     <row r="176">
@@ -13760,8 +16116,20 @@
       <c r="F176" t="n">
         <v>527.6799999999999</v>
       </c>
+      <c r="G176" t="n">
+        <v>1879.561721858285</v>
+      </c>
       <c r="H176" t="n">
-        <v>45130.3</v>
+        <v>38948.44961808917</v>
+      </c>
+      <c r="I176" t="n">
+        <v>43250.73827814172</v>
+      </c>
+      <c r="J176" t="n">
+        <v>44775.32136939577</v>
+      </c>
+      <c r="K176" t="n">
+        <v>39454.05463638842</v>
       </c>
     </row>
     <row r="177">
@@ -13774,8 +16142,20 @@
       <c r="F177" t="n">
         <v>527.58</v>
       </c>
+      <c r="G177" t="n">
+        <v>2010.694208376553</v>
+      </c>
       <c r="H177" t="n">
-        <v>43847.2</v>
+        <v>38938.06771602331</v>
+      </c>
+      <c r="I177" t="n">
+        <v>41836.50579162344</v>
+      </c>
+      <c r="J177" t="n">
+        <v>42846.22691397715</v>
+      </c>
+      <c r="K177" t="n">
+        <v>39352.95543762152</v>
       </c>
     </row>
     <row r="178">
@@ -13788,8 +16168,20 @@
       <c r="F178" t="n">
         <v>527.48</v>
       </c>
+      <c r="G178" t="n">
+        <v>1069.883684919252</v>
+      </c>
       <c r="H178" t="n">
-        <v>41931.9</v>
+        <v>38930.65732677122</v>
+      </c>
+      <c r="I178" t="n">
+        <v>40862.01631508075</v>
+      </c>
+      <c r="J178" t="n">
+        <v>41505.45223007422</v>
+      </c>
+      <c r="K178" t="n">
+        <v>39269.11857014409</v>
       </c>
     </row>
     <row r="179">
@@ -13802,8 +16194,20 @@
       <c r="F179" t="n">
         <v>527.38</v>
       </c>
+      <c r="G179" t="n">
+        <v>2174.148991482274</v>
+      </c>
       <c r="H179" t="n">
-        <v>42374.3</v>
+        <v>38924.63364139901</v>
+      </c>
+      <c r="I179" t="n">
+        <v>40200.15100851773</v>
+      </c>
+      <c r="J179" t="n">
+        <v>40592.04381056508</v>
+      </c>
+      <c r="K179" t="n">
+        <v>39200.62889433547</v>
       </c>
     </row>
     <row r="180">
@@ -13816,8 +16220,20 @@
       <c r="F180" t="n">
         <v>527.28</v>
       </c>
+      <c r="G180" t="n">
+        <v>1210.199998068842</v>
+      </c>
       <c r="H180" t="n">
-        <v>40966.8</v>
+        <v>38919.50643059107</v>
+      </c>
+      <c r="I180" t="n">
+        <v>39756.60000193116</v>
+      </c>
+      <c r="J180" t="n">
+        <v>39980.77686030165</v>
+      </c>
+      <c r="K180" t="n">
+        <v>39144.00789221389</v>
       </c>
     </row>
     <row r="181">
@@ -13830,8 +16246,20 @@
       <c r="F181" t="n">
         <v>527.1799999999999</v>
       </c>
+      <c r="G181" t="n">
+        <v>1610.402467280728</v>
+      </c>
       <c r="H181" t="n">
-        <v>41073.7</v>
+        <v>38915.5802920212</v>
+      </c>
+      <c r="I181" t="n">
+        <v>39463.29753271927</v>
+      </c>
+      <c r="J181" t="n">
+        <v>39578.982129433</v>
+      </c>
+      <c r="K181" t="n">
+        <v>39097.12496132364</v>
       </c>
     </row>
     <row r="182">
@@ -13844,8 +16272,20 @@
       <c r="F182" t="n">
         <v>527.08</v>
       </c>
+      <c r="G182" t="n">
+        <v>1674.696021290096</v>
+      </c>
       <c r="H182" t="n">
-        <v>40945.1</v>
+        <v>38911.67945636129</v>
+      </c>
+      <c r="I182" t="n">
+        <v>39270.4039787099</v>
+      </c>
+      <c r="J182" t="n">
+        <v>39320.00824875508</v>
+      </c>
+      <c r="K182" t="n">
+        <v>39058.87048210649</v>
       </c>
     </row>
     <row r="183">
@@ -13858,8 +16298,20 @@
       <c r="F183" t="n">
         <v>526.98</v>
       </c>
+      <c r="G183" t="n">
+        <v>636.5932150541848</v>
+      </c>
       <c r="H183" t="n">
-        <v>39781.8</v>
+        <v>38908.9652351894</v>
+      </c>
+      <c r="I183" t="n">
+        <v>39145.20678494582</v>
+      </c>
+      <c r="J183" t="n">
+        <v>39155.22928249973</v>
+      </c>
+      <c r="K183" t="n">
+        <v>39026.85512058488</v>
       </c>
     </row>
     <row r="184">
@@ -13872,8 +16324,20 @@
       <c r="F184" t="n">
         <v>526.88</v>
       </c>
+      <c r="G184" t="n">
+        <v>-468.4085414456713</v>
+      </c>
       <c r="H184" t="n">
-        <v>38597.2</v>
+        <v>38908.42546227164</v>
+      </c>
+      <c r="I184" t="n">
+        <v>39065.60854144567</v>
+      </c>
+      <c r="J184" t="n">
+        <v>39052.96934104241</v>
+      </c>
+      <c r="K184" t="n">
+        <v>39001.20360438584</v>
       </c>
     </row>
     <row r="185">
@@ -13886,8 +16350,20 @@
       <c r="F185" t="n">
         <v>526.78</v>
       </c>
+      <c r="G185" t="n">
+        <v>458.5848510462311</v>
+      </c>
       <c r="H185" t="n">
-        <v>39472.9</v>
+        <v>38908.18748841507</v>
+      </c>
+      <c r="I185" t="n">
+        <v>39014.31514895377</v>
+      </c>
+      <c r="J185" t="n">
+        <v>38992.01243283903</v>
+      </c>
+      <c r="K185" t="n">
+        <v>38982.02240122837</v>
       </c>
     </row>
     <row r="186">
@@ -13900,8 +16376,20 @@
       <c r="F186" t="n">
         <v>526.6799999999999</v>
       </c>
+      <c r="G186" t="n">
+        <v>255.3751325445119</v>
+      </c>
       <c r="H186" t="n">
-        <v>39235.7</v>
+        <v>38907.36165043546</v>
+      </c>
+      <c r="I186" t="n">
+        <v>38980.32486745549</v>
+      </c>
+      <c r="J186" t="n">
+        <v>38955.81047465323</v>
+      </c>
+      <c r="K186" t="n">
+        <v>38966.69287813712</v>
       </c>
     </row>
     <row r="187">
@@ -13914,8 +16402,20 @@
       <c r="F187" t="n">
         <v>526.58</v>
       </c>
+      <c r="G187" t="n">
+        <v>478.9673818674273</v>
+      </c>
       <c r="H187" t="n">
-        <v>39436.7</v>
+        <v>38906.56304859624</v>
+      </c>
+      <c r="I187" t="n">
+        <v>38957.73261813257</v>
+      </c>
+      <c r="J187" t="n">
+        <v>38933.9902826766</v>
+      </c>
+      <c r="K187" t="n">
+        <v>38953.69683441215</v>
       </c>
     </row>
     <row r="188">
@@ -13928,8 +16428,20 @@
       <c r="F188" t="n">
         <v>526.48</v>
       </c>
+      <c r="G188" t="n">
+        <v>429.45989240372</v>
+      </c>
       <c r="H188" t="n">
-        <v>39371.7</v>
+        <v>38905.63754859154</v>
+      </c>
+      <c r="I188" t="n">
+        <v>38942.24010759628</v>
+      </c>
+      <c r="J188" t="n">
+        <v>38921.17397741864</v>
+      </c>
+      <c r="K188" t="n">
+        <v>38943.12218089963</v>
       </c>
     </row>
     <row r="189">
@@ -13942,8 +16454,20 @@
       <c r="F189" t="n">
         <v>526.38</v>
       </c>
+      <c r="G189" t="n">
+        <v>-253.5671834255772</v>
+      </c>
       <c r="H189" t="n">
-        <v>38678.5</v>
+        <v>38905.41004016042</v>
+      </c>
+      <c r="I189" t="n">
+        <v>38932.06718342558</v>
+      </c>
+      <c r="J189" t="n">
+        <v>38913.50345853759</v>
+      </c>
+      <c r="K189" t="n">
+        <v>38934.37459469984</v>
       </c>
     </row>
     <row r="190">
@@ -13956,8 +16480,20 @@
       <c r="F190" t="n">
         <v>526.28</v>
       </c>
+      <c r="G190" t="n">
+        <v>-23.02739187944826</v>
+      </c>
       <c r="H190" t="n">
-        <v>38902.3</v>
+        <v>38905.62093906668</v>
+      </c>
+      <c r="I190" t="n">
+        <v>38925.32739187945</v>
+      </c>
+      <c r="J190" t="n">
+        <v>38909.56446356878</v>
+      </c>
+      <c r="K190" t="n">
+        <v>38927.91307682855</v>
       </c>
     </row>
     <row r="191">
@@ -13970,8 +16506,20 @@
       <c r="F191" t="n">
         <v>526.1799999999999</v>
       </c>
+      <c r="G191" t="n">
+        <v>-136.0726812858629</v>
+      </c>
       <c r="H191" t="n">
-        <v>38784.4</v>
+        <v>38905.73755910315</v>
+      </c>
+      <c r="I191" t="n">
+        <v>38920.47268128586</v>
+      </c>
+      <c r="J191" t="n">
+        <v>38907.77329779566</v>
+      </c>
+      <c r="K191" t="n">
+        <v>38923.17528349106</v>
       </c>
     </row>
     <row r="192">
@@ -13984,8 +16532,20 @@
       <c r="F192" t="n">
         <v>526.08</v>
       </c>
+      <c r="G192" t="n">
+        <v>27.27986713475548</v>
+      </c>
       <c r="H192" t="n">
-        <v>38944.2</v>
+        <v>38905.81497078711</v>
+      </c>
+      <c r="I192" t="n">
+        <v>38916.92013286524</v>
+      </c>
+      <c r="J192" t="n">
+        <v>38906.83130157884</v>
+      </c>
+      <c r="K192" t="n">
+        <v>38919.37913505302</v>
       </c>
     </row>
     <row r="193">
@@ -13998,8 +16558,20 @@
       <c r="F193" t="n">
         <v>525.98</v>
       </c>
+      <c r="G193" t="n">
+        <v>-36.21539862511418</v>
+      </c>
       <c r="H193" t="n">
-        <v>38878</v>
+        <v>38905.80577174084</v>
+      </c>
+      <c r="I193" t="n">
+        <v>38914.21539862511</v>
+      </c>
+      <c r="J193" t="n">
+        <v>38906.36006210233</v>
+      </c>
+      <c r="K193" t="n">
+        <v>38916.3751943523</v>
       </c>
     </row>
     <row r="194">
@@ -14012,8 +16584,20 @@
       <c r="F194" t="n">
         <v>525.88</v>
       </c>
+      <c r="G194" t="n">
+        <v>-115.1145658445312</v>
+      </c>
       <c r="H194" t="n">
-        <v>38797.2</v>
+        <v>38905.93171834338</v>
+      </c>
+      <c r="I194" t="n">
+        <v>38912.31456584453</v>
+      </c>
+      <c r="J194" t="n">
+        <v>38906.07217353163</v>
+      </c>
+      <c r="K194" t="n">
+        <v>38913.94911511784</v>
       </c>
     </row>
     <row r="195">
@@ -14026,8 +16610,20 @@
       <c r="F195" t="n">
         <v>525.78</v>
       </c>
+      <c r="G195" t="n">
+        <v>-4.846176681036013</v>
+      </c>
       <c r="H195" t="n">
         <v>38493.4</v>
+      </c>
+      <c r="I195" t="n">
+        <v>38498.24617668104</v>
+      </c>
+      <c r="J195" t="n">
+        <v>38906.05938608767</v>
+      </c>
+      <c r="K195" t="n">
+        <v>38912.18698918544</v>
       </c>
     </row>
     <row r="196">
@@ -14040,8 +16636,20 @@
       <c r="F196" t="n">
         <v>525.6799999999999</v>
       </c>
+      <c r="G196" t="n">
+        <v>-3.675506747589679</v>
+      </c>
       <c r="H196" t="n">
         <v>37637.7</v>
+      </c>
+      <c r="I196" t="n">
+        <v>37641.37550674759</v>
+      </c>
+      <c r="J196" t="n">
+        <v>38493.45998825965</v>
+      </c>
+      <c r="K196" t="n">
+        <v>38498.18625822661</v>
       </c>
     </row>
     <row r="197">
@@ -14054,8 +16662,20 @@
       <c r="F197" t="n">
         <v>525.58</v>
       </c>
+      <c r="G197" t="n">
+        <v>-2.781859851471381</v>
+      </c>
       <c r="H197" t="n">
         <v>38219.1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>38221.88185985147</v>
+      </c>
+      <c r="J197" t="n">
+        <v>37637.72763500025</v>
+      </c>
+      <c r="K197" t="n">
+        <v>37641.3479250037</v>
       </c>
     </row>
     <row r="198">
@@ -14068,8 +16688,20 @@
       <c r="F198" t="n">
         <v>525.48</v>
       </c>
+      <c r="G198" t="n">
+        <v>-2.099695838958723</v>
+      </c>
       <c r="H198" t="n">
         <v>39274.4</v>
+      </c>
+      <c r="I198" t="n">
+        <v>39276.49969583896</v>
+      </c>
+      <c r="J198" t="n">
+        <v>38219.11248044304</v>
+      </c>
+      <c r="K198" t="n">
+        <v>38221.86941986441</v>
       </c>
     </row>
     <row r="199">
@@ -14082,8 +16714,20 @@
       <c r="F199" t="n">
         <v>525.38</v>
       </c>
+      <c r="G199" t="n">
+        <v>-1.579726243406185</v>
+      </c>
       <c r="H199" t="n">
         <v>38023.5</v>
+      </c>
+      <c r="I199" t="n">
+        <v>38025.07972624341</v>
+      </c>
+      <c r="J199" t="n">
+        <v>39274.40552521245</v>
+      </c>
+      <c r="K199" t="n">
+        <v>39276.49420123034</v>
       </c>
     </row>
     <row r="200">
@@ -14096,8 +16740,20 @@
       <c r="F200" t="n">
         <v>525.28</v>
       </c>
+      <c r="G200" t="n">
+        <v>-1.184352303826017</v>
+      </c>
       <c r="H200" t="n">
         <v>37119.3</v>
+      </c>
+      <c r="I200" t="n">
+        <v>37120.48435230383</v>
+      </c>
+      <c r="J200" t="n">
+        <v>38023.50239766964</v>
+      </c>
+      <c r="K200" t="n">
+        <v>38025.07735162974</v>
       </c>
     </row>
     <row r="201">
@@ -14110,8 +16766,20 @@
       <c r="F201" t="n">
         <v>525.1799999999999</v>
       </c>
+      <c r="G201" t="n">
+        <v>-0.8846446954412386</v>
+      </c>
       <c r="H201" t="n">
         <v>38762.3</v>
+      </c>
+      <c r="I201" t="n">
+        <v>38763.18464469544</v>
+      </c>
+      <c r="J201" t="n">
+        <v>37119.30101982511</v>
+      </c>
+      <c r="K201" t="n">
+        <v>37120.4833497779</v>
       </c>
     </row>
     <row r="202">
@@ -14124,8 +16792,20 @@
       <c r="F202" t="n">
         <v>525.08</v>
       </c>
+      <c r="G202" t="n">
+        <v>-0.6582504764883197</v>
+      </c>
       <c r="H202" t="n">
         <v>38716.1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>38716.75825047649</v>
+      </c>
+      <c r="J202" t="n">
+        <v>38762.30042514222</v>
+      </c>
+      <c r="K202" t="n">
+        <v>38763.18423248066</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3072" yWindow="3072" windowWidth="16200" windowHeight="25080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ti2p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sr3d" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="O1s" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="C1s" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results Table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ti2p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sr3d" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="O1s" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C1s" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -39,15 +39,10 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -62,24 +57,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF90EE90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor rgb="FF90EE90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0090EE90"/>
         <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="23">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -230,282 +220,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -573,93 +294,54 @@
       <top style="thin"/>
       <bottom style="medium"/>
     </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +419,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -752,16 +434,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -770,7 +449,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -781,18 +460,20 @@
     <ext cx="7191375" cy="5095875"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -803,7 +484,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -814,17 +495,22 @@
     <ext cx="5648325" cy="4086225"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -833,7 +519,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -844,18 +530,20 @@
     <ext cx="7191375" cy="5095875"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-        <a:ln>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1195,167 +883,167 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="31" t="inlineStr">
-        <is>
-          <t>Raw Data</t>
-        </is>
-      </c>
-      <c r="C1" s="31" t="inlineStr"/>
-      <c r="D1" s="31" t="inlineStr"/>
-      <c r="E1" s="31" t="inlineStr"/>
-      <c r="F1" s="31" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>Intensity</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr"/>
+      <c r="D1" s="13" t="inlineStr"/>
+      <c r="E1" s="13" t="inlineStr"/>
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="31" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="31" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="31" t="inlineStr">
+      <c r="I1" s="13" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr">
+      <c r="J1" s="13" t="inlineStr">
         <is>
           <t>Ti2p3/2 p1</t>
         </is>
       </c>
-      <c r="K1" s="31" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>Ti2p1/2 p2</t>
         </is>
       </c>
-      <c r="L1" s="31" t="inlineStr"/>
-      <c r="M1" s="31" t="inlineStr"/>
-      <c r="N1" s="31" t="inlineStr"/>
-      <c r="O1" s="31" t="inlineStr"/>
-      <c r="P1" s="31" t="inlineStr"/>
-      <c r="Q1" s="31" t="inlineStr"/>
-      <c r="R1" s="31" t="inlineStr"/>
-      <c r="S1" s="31" t="inlineStr"/>
-      <c r="T1" s="31" t="inlineStr"/>
-      <c r="U1" s="31" t="inlineStr"/>
-      <c r="V1" s="31" t="inlineStr"/>
-      <c r="W1" s="31" t="inlineStr"/>
-      <c r="X1" s="32" t="inlineStr">
+      <c r="L1" s="13" t="inlineStr"/>
+      <c r="M1" s="13" t="inlineStr"/>
+      <c r="N1" s="13" t="inlineStr"/>
+      <c r="O1" s="13" t="inlineStr"/>
+      <c r="P1" s="13" t="inlineStr"/>
+      <c r="Q1" s="13" t="inlineStr"/>
+      <c r="R1" s="13" t="inlineStr"/>
+      <c r="S1" s="13" t="inlineStr"/>
+      <c r="T1" s="13" t="inlineStr"/>
+      <c r="U1" s="13" t="inlineStr"/>
+      <c r="V1" s="13" t="inlineStr"/>
+      <c r="W1" s="13" t="inlineStr"/>
+      <c r="X1" s="14" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="33" t="inlineStr">
+      <c r="Y1" s="15" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="33" t="inlineStr">
+      <c r="Z1" s="15" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="33" t="inlineStr">
+      <c r="AA1" s="15" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="33" t="inlineStr">
+      <c r="AB1" s="15" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="33" t="inlineStr">
+      <c r="AC1" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="33" t="inlineStr">
+      <c r="AD1" s="15" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="33" t="inlineStr">
+      <c r="AE1" s="15" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="33" t="inlineStr">
+      <c r="AF1" s="15" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="33" t="inlineStr">
+      <c r="AG1" s="15" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="33" t="inlineStr">
+      <c r="AH1" s="15" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="33" t="inlineStr">
+      <c r="AI1" s="15" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="33" t="inlineStr">
+      <c r="AJ1" s="15" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="33" t="inlineStr">
+      <c r="AK1" s="15" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="33" t="inlineStr">
+      <c r="AL1" s="15" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="33" t="inlineStr">
+      <c r="AM1" s="15" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="33" t="inlineStr">
+      <c r="AN1" s="15" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="33" t="inlineStr">
+      <c r="AO1" s="15" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="34" t="inlineStr">
+      <c r="AP1" s="16" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -1387,97 +1075,97 @@
       <c r="K2" t="n">
         <v>39754.6</v>
       </c>
-      <c r="X2" s="35" t="inlineStr">
+      <c r="X2" s="17" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y2" s="36" t="inlineStr">
+      <c r="Y2" s="18" t="inlineStr">
         <is>
           <t>Ti2p3/2 p1</t>
         </is>
       </c>
-      <c r="Z2" s="36" t="inlineStr">
+      <c r="Z2" s="18" t="inlineStr">
         <is>
           <t>458.00</t>
         </is>
       </c>
-      <c r="AA2" s="36" t="inlineStr">
+      <c r="AA2" s="18" t="inlineStr">
         <is>
           <t>88789</t>
         </is>
       </c>
-      <c r="AB2" s="36" t="inlineStr">
+      <c r="AB2" s="18" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="AC2" s="36" t="inlineStr">
+      <c r="AC2" s="18" t="inlineStr">
         <is>
           <t>50.00</t>
         </is>
       </c>
-      <c r="AD2" s="36" t="inlineStr">
+      <c r="AD2" s="18" t="inlineStr">
         <is>
           <t>108142</t>
         </is>
       </c>
-      <c r="AE2" s="36" t="inlineStr">
+      <c r="AE2" s="18" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="AF2" s="36" t="inlineStr">
+      <c r="AF2" s="18" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="AG2" s="36" t="inlineStr">
+      <c r="AG2" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH2" s="36" t="inlineStr">
+      <c r="AH2" s="18" t="inlineStr">
         <is>
           <t>64.5</t>
         </is>
       </c>
-      <c r="AI2" s="36" t="inlineStr">
+      <c r="AI2" s="18" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AJ2" s="36" t="inlineStr">
+      <c r="AJ2" s="18" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AK2" s="36" t="inlineStr">
+      <c r="AK2" s="18" t="inlineStr">
         <is>
           <t>LA (Area, σ/γ, γ)</t>
         </is>
       </c>
-      <c r="AL2" s="36" t="inlineStr">
+      <c r="AL2" s="18" t="inlineStr">
         <is>
           <t>Multi-Regions Smart</t>
         </is>
       </c>
-      <c r="AM2" s="36" t="inlineStr">
+      <c r="AM2" s="18" t="inlineStr">
         <is>
           <t>448.08</t>
         </is>
       </c>
-      <c r="AN2" s="36" t="inlineStr">
+      <c r="AN2" s="18" t="inlineStr">
         <is>
           <t>475.08</t>
         </is>
       </c>
-      <c r="AO2" s="36" t="inlineStr">
+      <c r="AO2" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP2" s="37" t="inlineStr">
+      <c r="AP2" s="19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1508,57 +1196,57 @@
       <c r="K3" t="n">
         <v>39759.5227141248</v>
       </c>
-      <c r="X3" s="38" t="inlineStr"/>
-      <c r="Y3" s="39" t="inlineStr"/>
-      <c r="Z3" s="39" t="inlineStr">
+      <c r="X3" s="20" t="inlineStr"/>
+      <c r="Y3" s="21" t="inlineStr"/>
+      <c r="Z3" s="21" t="inlineStr">
         <is>
           <t>448.08,475.08</t>
         </is>
       </c>
-      <c r="AA3" s="39" t="inlineStr">
+      <c r="AA3" s="21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="39" t="inlineStr">
+      <c r="AB3" s="21" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AC3" s="39" t="inlineStr">
+      <c r="AC3" s="21" t="inlineStr">
         <is>
           <t>Fixed</t>
         </is>
       </c>
-      <c r="AD3" s="39" t="inlineStr">
+      <c r="AD3" s="21" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="39" t="inlineStr">
+      <c r="AE3" s="21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AF3" s="39" t="inlineStr">
+      <c r="AF3" s="21" t="inlineStr">
         <is>
           <t>0.01:10</t>
         </is>
       </c>
-      <c r="AG3" s="39" t="inlineStr">
+      <c r="AG3" s="21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH3" s="39" t="inlineStr"/>
-      <c r="AI3" s="39" t="inlineStr"/>
-      <c r="AJ3" s="39" t="inlineStr"/>
-      <c r="AK3" s="39" t="inlineStr"/>
-      <c r="AL3" s="39" t="inlineStr"/>
-      <c r="AM3" s="39" t="inlineStr"/>
-      <c r="AN3" s="39" t="inlineStr"/>
-      <c r="AO3" s="39" t="inlineStr"/>
-      <c r="AP3" s="40" t="inlineStr"/>
+      <c r="AH3" s="21" t="inlineStr"/>
+      <c r="AI3" s="21" t="inlineStr"/>
+      <c r="AJ3" s="21" t="inlineStr"/>
+      <c r="AK3" s="21" t="inlineStr"/>
+      <c r="AL3" s="21" t="inlineStr"/>
+      <c r="AM3" s="21" t="inlineStr"/>
+      <c r="AN3" s="21" t="inlineStr"/>
+      <c r="AO3" s="21" t="inlineStr"/>
+      <c r="AP3" s="22" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1585,97 +1273,97 @@
       <c r="K4" t="n">
         <v>39976.91078309989</v>
       </c>
-      <c r="X4" s="35" t="inlineStr">
+      <c r="X4" s="17" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Y4" s="36" t="inlineStr">
+      <c r="Y4" s="18" t="inlineStr">
         <is>
           <t>Ti2p1/2 p2</t>
         </is>
       </c>
-      <c r="Z4" s="36" t="inlineStr">
+      <c r="Z4" s="18" t="inlineStr">
         <is>
           <t>463.73</t>
         </is>
       </c>
-      <c r="AA4" s="36" t="inlineStr">
+      <c r="AA4" s="18" t="inlineStr">
         <is>
           <t>25280</t>
         </is>
       </c>
-      <c r="AB4" s="36" t="inlineStr">
+      <c r="AB4" s="18" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="AC4" s="36" t="inlineStr">
+      <c r="AC4" s="18" t="inlineStr">
         <is>
           <t>50.00</t>
         </is>
       </c>
-      <c r="AD4" s="36" t="inlineStr">
+      <c r="AD4" s="18" t="inlineStr">
         <is>
           <t>59478</t>
         </is>
       </c>
-      <c r="AE4" s="36" t="inlineStr">
+      <c r="AE4" s="18" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="AF4" s="36" t="inlineStr">
+      <c r="AF4" s="18" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="AG4" s="36" t="inlineStr">
+      <c r="AG4" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH4" s="36" t="inlineStr">
+      <c r="AH4" s="18" t="inlineStr">
         <is>
           <t>35.5</t>
         </is>
       </c>
-      <c r="AI4" s="36" t="inlineStr">
+      <c r="AI4" s="18" t="inlineStr">
         <is>
           <t>55.0</t>
         </is>
       </c>
-      <c r="AJ4" s="36" t="inlineStr">
+      <c r="AJ4" s="18" t="inlineStr">
         <is>
           <t>5.73</t>
         </is>
       </c>
-      <c r="AK4" s="36" t="inlineStr">
+      <c r="AK4" s="18" t="inlineStr">
         <is>
           <t>LA (Area, σ/γ, γ)</t>
         </is>
       </c>
-      <c r="AL4" s="36" t="inlineStr">
+      <c r="AL4" s="18" t="inlineStr">
         <is>
           <t>Multi-Regions Smart</t>
         </is>
       </c>
-      <c r="AM4" s="36" t="inlineStr">
+      <c r="AM4" s="18" t="inlineStr">
         <is>
           <t>448.08</t>
         </is>
       </c>
-      <c r="AN4" s="36" t="inlineStr">
+      <c r="AN4" s="18" t="inlineStr">
         <is>
           <t>475.08</t>
         </is>
       </c>
-      <c r="AO4" s="36" t="inlineStr">
+      <c r="AO4" s="18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AP4" s="37" t="inlineStr">
+      <c r="AP4" s="19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1706,57 +1394,57 @@
       <c r="K5" t="n">
         <v>39346.80774419603</v>
       </c>
-      <c r="X5" s="38" t="inlineStr"/>
-      <c r="Y5" s="39" t="inlineStr"/>
-      <c r="Z5" s="39" t="inlineStr">
+      <c r="X5" s="20" t="inlineStr"/>
+      <c r="Y5" s="21" t="inlineStr"/>
+      <c r="Z5" s="21" t="inlineStr">
         <is>
           <t>A+5.7#0.2</t>
         </is>
       </c>
-      <c r="AA5" s="39" t="inlineStr">
+      <c r="AA5" s="21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" s="39" t="inlineStr">
+      <c r="AB5" s="21" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AC5" s="39" t="inlineStr">
+      <c r="AC5" s="21" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AD5" s="39" t="inlineStr">
+      <c r="AD5" s="21" t="inlineStr">
         <is>
           <t>A*0.5#0.05</t>
         </is>
       </c>
-      <c r="AE5" s="39" t="inlineStr">
+      <c r="AE5" s="21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AF5" s="39" t="inlineStr">
+      <c r="AF5" s="21" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AG5" s="39" t="inlineStr">
+      <c r="AG5" s="21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH5" s="39" t="inlineStr"/>
-      <c r="AI5" s="39" t="inlineStr"/>
-      <c r="AJ5" s="39" t="inlineStr"/>
-      <c r="AK5" s="39" t="inlineStr"/>
-      <c r="AL5" s="39" t="inlineStr"/>
-      <c r="AM5" s="39" t="inlineStr"/>
-      <c r="AN5" s="39" t="inlineStr"/>
-      <c r="AO5" s="39" t="inlineStr"/>
-      <c r="AP5" s="40" t="inlineStr"/>
+      <c r="AH5" s="21" t="inlineStr"/>
+      <c r="AI5" s="21" t="inlineStr"/>
+      <c r="AJ5" s="21" t="inlineStr"/>
+      <c r="AK5" s="21" t="inlineStr"/>
+      <c r="AL5" s="21" t="inlineStr"/>
+      <c r="AM5" s="21" t="inlineStr"/>
+      <c r="AN5" s="21" t="inlineStr"/>
+      <c r="AO5" s="21" t="inlineStr"/>
+      <c r="AP5" s="22" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -8718,162 +8406,162 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="31" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="31" t="inlineStr"/>
-      <c r="D1" s="31" t="inlineStr"/>
-      <c r="E1" s="31" t="inlineStr"/>
-      <c r="F1" s="31" t="inlineStr">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="31" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="31" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="31" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr"/>
-      <c r="K1" s="31" t="inlineStr"/>
-      <c r="L1" s="31" t="inlineStr"/>
-      <c r="M1" s="31" t="inlineStr"/>
-      <c r="N1" s="31" t="inlineStr"/>
-      <c r="O1" s="31" t="inlineStr"/>
-      <c r="P1" s="31" t="inlineStr"/>
-      <c r="Q1" s="31" t="inlineStr"/>
-      <c r="R1" s="31" t="inlineStr"/>
-      <c r="S1" s="31" t="inlineStr"/>
-      <c r="T1" s="31" t="inlineStr"/>
-      <c r="U1" s="31" t="inlineStr"/>
-      <c r="V1" s="31" t="inlineStr"/>
-      <c r="W1" s="31" t="inlineStr"/>
-      <c r="X1" s="32" t="inlineStr">
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="33" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="33" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="33" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="33" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="33" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="33" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="33" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="33" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="33" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="33" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="33" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="33" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="33" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="33" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="33" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="33" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="33" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="34" t="inlineStr">
+      <c r="AP1" s="4" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -11152,170 +10840,170 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="31" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="31" t="inlineStr"/>
-      <c r="D1" s="31" t="inlineStr"/>
-      <c r="E1" s="31" t="inlineStr"/>
-      <c r="F1" s="31" t="inlineStr">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="31" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="31" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="31" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>O1s p1</t>
         </is>
       </c>
-      <c r="K1" s="31" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>O1s p2</t>
         </is>
       </c>
-      <c r="L1" s="31" t="inlineStr"/>
-      <c r="M1" s="31" t="inlineStr"/>
-      <c r="N1" s="31" t="inlineStr"/>
-      <c r="O1" s="31" t="inlineStr"/>
-      <c r="P1" s="31" t="inlineStr"/>
-      <c r="Q1" s="31" t="inlineStr"/>
-      <c r="R1" s="31" t="inlineStr"/>
-      <c r="S1" s="31" t="inlineStr"/>
-      <c r="T1" s="31" t="inlineStr"/>
-      <c r="U1" s="31" t="inlineStr"/>
-      <c r="V1" s="31" t="inlineStr"/>
-      <c r="W1" s="31" t="inlineStr"/>
-      <c r="X1" s="32" t="inlineStr">
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="33" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="33" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="33" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="33" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="33" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="33" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="33" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="33" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="33" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="33" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="33" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="33" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="33" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="33" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="33" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="33" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="33" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="34" t="inlineStr">
+      <c r="AP1" s="4" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -11347,89 +11035,89 @@
       <c r="K2" t="n">
         <v>45763.7</v>
       </c>
-      <c r="X2" s="35" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y2" s="36" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>O1s p1</t>
         </is>
       </c>
-      <c r="Z2" s="36" t="inlineStr">
+      <c r="Z2" s="6" t="inlineStr">
         <is>
           <t>529.11</t>
         </is>
       </c>
-      <c r="AA2" s="36" t="inlineStr">
+      <c r="AA2" s="6" t="inlineStr">
         <is>
           <t>135281</t>
         </is>
       </c>
-      <c r="AB2" s="36" t="inlineStr">
+      <c r="AB2" s="6" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="AC2" s="36" t="inlineStr">
+      <c r="AC2" s="6" t="inlineStr">
         <is>
           <t>48.36</t>
         </is>
       </c>
-      <c r="AD2" s="36" t="inlineStr">
+      <c r="AD2" s="6" t="inlineStr">
         <is>
           <t>167043</t>
         </is>
       </c>
-      <c r="AE2" s="36" t="inlineStr"/>
-      <c r="AF2" s="36" t="inlineStr"/>
-      <c r="AG2" s="36" t="inlineStr">
+      <c r="AE2" s="6" t="n"/>
+      <c r="AF2" s="6" t="n"/>
+      <c r="AG2" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH2" s="36" t="inlineStr">
+      <c r="AH2" s="6" t="inlineStr">
         <is>
           <t>70.9</t>
         </is>
       </c>
-      <c r="AI2" s="36" t="inlineStr">
+      <c r="AI2" s="6" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AJ2" s="36" t="inlineStr">
+      <c r="AJ2" s="6" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AK2" s="36" t="inlineStr">
+      <c r="AK2" s="6" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL2" s="36" t="inlineStr">
+      <c r="AL2" s="6" t="inlineStr">
         <is>
           <t>Multi-Regions Smart</t>
         </is>
       </c>
-      <c r="AM2" s="36" t="inlineStr">
+      <c r="AM2" s="6" t="inlineStr">
         <is>
           <t>525.08</t>
         </is>
       </c>
-      <c r="AN2" s="36" t="inlineStr">
+      <c r="AN2" s="6" t="inlineStr">
         <is>
           <t>545.08</t>
         </is>
       </c>
-      <c r="AO2" s="36" t="inlineStr">
+      <c r="AO2" s="6" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AP2" s="37" t="inlineStr">
+      <c r="AP2" s="7" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -11460,49 +11148,49 @@
       <c r="K3" t="n">
         <v>45763.7</v>
       </c>
-      <c r="X3" s="38" t="inlineStr"/>
-      <c r="Y3" s="39" t="inlineStr"/>
-      <c r="Z3" s="39" t="inlineStr">
+      <c r="X3" s="8" t="n"/>
+      <c r="Y3" s="9" t="n"/>
+      <c r="Z3" s="9" t="inlineStr">
         <is>
           <t>525.08,545.08</t>
         </is>
       </c>
-      <c r="AA3" s="39" t="inlineStr">
+      <c r="AA3" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="39" t="inlineStr">
+      <c r="AB3" s="9" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AC3" s="39" t="inlineStr">
+      <c r="AC3" s="9" t="inlineStr">
         <is>
           <t>2:80</t>
         </is>
       </c>
-      <c r="AD3" s="39" t="inlineStr">
+      <c r="AD3" s="9" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="39" t="inlineStr"/>
-      <c r="AF3" s="39" t="inlineStr"/>
-      <c r="AG3" s="39" t="inlineStr">
+      <c r="AE3" s="9" t="n"/>
+      <c r="AF3" s="9" t="n"/>
+      <c r="AG3" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH3" s="39" t="inlineStr"/>
-      <c r="AI3" s="39" t="inlineStr"/>
-      <c r="AJ3" s="39" t="inlineStr"/>
-      <c r="AK3" s="39" t="inlineStr"/>
-      <c r="AL3" s="39" t="inlineStr"/>
-      <c r="AM3" s="39" t="inlineStr"/>
-      <c r="AN3" s="39" t="inlineStr"/>
-      <c r="AO3" s="39" t="inlineStr"/>
-      <c r="AP3" s="40" t="inlineStr"/>
+      <c r="AH3" s="9" t="n"/>
+      <c r="AI3" s="9" t="n"/>
+      <c r="AJ3" s="9" t="n"/>
+      <c r="AK3" s="9" t="n"/>
+      <c r="AL3" s="9" t="n"/>
+      <c r="AM3" s="9" t="n"/>
+      <c r="AN3" s="9" t="n"/>
+      <c r="AO3" s="9" t="n"/>
+      <c r="AP3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -11529,89 +11217,89 @@
       <c r="K4" t="n">
         <v>46726.9</v>
       </c>
-      <c r="X4" s="35" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Y4" s="36" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>O1s p2</t>
         </is>
       </c>
-      <c r="Z4" s="36" t="inlineStr">
+      <c r="Z4" s="6" t="inlineStr">
         <is>
           <t>531.03</t>
         </is>
       </c>
-      <c r="AA4" s="36" t="inlineStr">
+      <c r="AA4" s="6" t="inlineStr">
         <is>
           <t>27380</t>
         </is>
       </c>
-      <c r="AB4" s="36" t="inlineStr">
+      <c r="AB4" s="6" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="AC4" s="36" t="inlineStr">
+      <c r="AC4" s="6" t="inlineStr">
         <is>
           <t>55.48</t>
         </is>
       </c>
-      <c r="AD4" s="36" t="inlineStr">
+      <c r="AD4" s="6" t="inlineStr">
         <is>
           <t>68490</t>
         </is>
       </c>
-      <c r="AE4" s="36" t="inlineStr"/>
-      <c r="AF4" s="36" t="inlineStr"/>
-      <c r="AG4" s="36" t="inlineStr">
+      <c r="AE4" s="6" t="n"/>
+      <c r="AF4" s="6" t="n"/>
+      <c r="AG4" s="6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH4" s="36" t="inlineStr">
+      <c r="AH4" s="6" t="inlineStr">
         <is>
           <t>29.1</t>
         </is>
       </c>
-      <c r="AI4" s="36" t="inlineStr">
+      <c r="AI4" s="6" t="inlineStr">
         <is>
           <t>41.0</t>
         </is>
       </c>
-      <c r="AJ4" s="36" t="inlineStr">
+      <c r="AJ4" s="6" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="AK4" s="36" t="inlineStr">
+      <c r="AK4" s="6" t="inlineStr">
         <is>
           <t>GL (Area)</t>
         </is>
       </c>
-      <c r="AL4" s="36" t="inlineStr">
+      <c r="AL4" s="6" t="inlineStr">
         <is>
           <t>Multi-Regions Smart</t>
         </is>
       </c>
-      <c r="AM4" s="36" t="inlineStr">
+      <c r="AM4" s="6" t="inlineStr">
         <is>
           <t>525.08</t>
         </is>
       </c>
-      <c r="AN4" s="36" t="inlineStr">
+      <c r="AN4" s="6" t="inlineStr">
         <is>
           <t>545.08</t>
         </is>
       </c>
-      <c r="AO4" s="36" t="inlineStr">
+      <c r="AO4" s="6" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AP4" s="37" t="inlineStr">
+      <c r="AP4" s="7" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -11642,49 +11330,49 @@
       <c r="K5" t="n">
         <v>46338.7</v>
       </c>
-      <c r="X5" s="38" t="inlineStr"/>
-      <c r="Y5" s="39" t="inlineStr"/>
-      <c r="Z5" s="39" t="inlineStr">
+      <c r="X5" s="8" t="n"/>
+      <c r="Y5" s="9" t="n"/>
+      <c r="Z5" s="9" t="inlineStr">
         <is>
           <t>525.08,545.08</t>
         </is>
       </c>
-      <c r="AA5" s="39" t="inlineStr">
+      <c r="AA5" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" s="39" t="inlineStr">
+      <c r="AB5" s="9" t="inlineStr">
         <is>
           <t>0.3:3.5</t>
         </is>
       </c>
-      <c r="AC5" s="39" t="inlineStr">
+      <c r="AC5" s="9" t="inlineStr">
         <is>
           <t>2:80</t>
         </is>
       </c>
-      <c r="AD5" s="39" t="inlineStr">
+      <c r="AD5" s="9" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE5" s="39" t="inlineStr"/>
-      <c r="AF5" s="39" t="inlineStr"/>
-      <c r="AG5" s="39" t="inlineStr">
+      <c r="AE5" s="9" t="n"/>
+      <c r="AF5" s="9" t="n"/>
+      <c r="AG5" s="9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH5" s="39" t="inlineStr"/>
-      <c r="AI5" s="39" t="inlineStr"/>
-      <c r="AJ5" s="39" t="inlineStr"/>
-      <c r="AK5" s="39" t="inlineStr"/>
-      <c r="AL5" s="39" t="inlineStr"/>
-      <c r="AM5" s="39" t="inlineStr"/>
-      <c r="AN5" s="39" t="inlineStr"/>
-      <c r="AO5" s="39" t="inlineStr"/>
-      <c r="AP5" s="40" t="inlineStr"/>
+      <c r="AH5" s="9" t="n"/>
+      <c r="AI5" s="9" t="n"/>
+      <c r="AJ5" s="9" t="n"/>
+      <c r="AK5" s="9" t="n"/>
+      <c r="AL5" s="9" t="n"/>
+      <c r="AM5" s="9" t="n"/>
+      <c r="AN5" s="9" t="n"/>
+      <c r="AO5" s="9" t="n"/>
+      <c r="AP5" s="10" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -16826,162 +16514,162 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="31" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="31" t="inlineStr"/>
-      <c r="D1" s="31" t="inlineStr"/>
-      <c r="E1" s="31" t="inlineStr"/>
-      <c r="F1" s="31" t="inlineStr">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="31" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="31" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="31" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr"/>
-      <c r="K1" s="31" t="inlineStr"/>
-      <c r="L1" s="31" t="inlineStr"/>
-      <c r="M1" s="31" t="inlineStr"/>
-      <c r="N1" s="31" t="inlineStr"/>
-      <c r="O1" s="31" t="inlineStr"/>
-      <c r="P1" s="31" t="inlineStr"/>
-      <c r="Q1" s="31" t="inlineStr"/>
-      <c r="R1" s="31" t="inlineStr"/>
-      <c r="S1" s="31" t="inlineStr"/>
-      <c r="T1" s="31" t="inlineStr"/>
-      <c r="U1" s="31" t="inlineStr"/>
-      <c r="V1" s="31" t="inlineStr"/>
-      <c r="W1" s="31" t="inlineStr"/>
-      <c r="X1" s="32" t="inlineStr">
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="33" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="33" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="33" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="33" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="33" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="33" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="33" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="33" t="inlineStr">
+      <c r="AF1" s="3" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="33" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="33" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="33" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="33" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="33" t="inlineStr">
+      <c r="AK1" s="3" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="33" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="33" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="33" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="33" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="34" t="inlineStr">
+      <c r="AP1" s="4" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -19680,7 +19368,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -19690,15 +19378,11 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="9" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="23" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="16" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="15" customWidth="1" min="20" max="20"/>
@@ -19710,172 +19394,171 @@
     <col width="17" customWidth="1" min="26" max="26"/>
     <col width="16" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="14" customWidth="1" min="29" max="29"/>
-    <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="14" customWidth="1" min="29" max="30"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="41" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="C2" s="41" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="D2" s="41" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="E2" s="41" t="inlineStr">
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="F2" s="41" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>L/G 
 σ/γ (%)</t>
         </is>
       </c>
-      <c r="G2" s="41" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="H2" s="41" t="inlineStr">
+      <c r="H2" s="11" t="inlineStr">
         <is>
           <t>Atomic
 (%)</t>
         </is>
       </c>
-      <c r="I2" s="41" t="inlineStr">
+      <c r="I2" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J2" s="41" t="inlineStr">
+      <c r="J2" s="11" t="inlineStr">
         <is>
           <t>RSF</t>
         </is>
       </c>
-      <c r="K2" s="41" t="inlineStr">
+      <c r="K2" s="11" t="inlineStr">
         <is>
           <t>TXFN</t>
         </is>
       </c>
-      <c r="L2" s="41" t="inlineStr">
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>ECF</t>
         </is>
       </c>
-      <c r="M2" s="41" t="inlineStr">
+      <c r="M2" s="11" t="inlineStr">
         <is>
           <t>Instr.</t>
         </is>
       </c>
-      <c r="N2" s="41" t="inlineStr">
+      <c r="N2" s="11" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="O2" s="41" t="inlineStr">
+      <c r="O2" s="11" t="inlineStr">
         <is>
           <t>Norm. Area
  An (a.u.)</t>
         </is>
       </c>
-      <c r="P2" s="41" t="inlineStr">
+      <c r="P2" s="11" t="inlineStr">
         <is>
           <t>σ or α
 W_g</t>
         </is>
       </c>
-      <c r="Q2" s="41" t="inlineStr">
+      <c r="Q2" s="11" t="inlineStr">
         <is>
           <t>γ or β
 W_l</t>
         </is>
       </c>
-      <c r="R2" s="41" t="inlineStr">
+      <c r="R2" s="11" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="S2" s="41" t="inlineStr">
+      <c r="S2" s="11" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="T2" s="41" t="inlineStr">
+      <c r="T2" s="11" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="U2" s="41" t="inlineStr">
+      <c r="U2" s="11" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="V2" s="41" t="inlineStr">
+      <c r="V2" s="11" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
         </is>
       </c>
-      <c r="W2" s="41" t="inlineStr">
+      <c r="W2" s="11" t="inlineStr">
         <is>
           <t>Sheetname</t>
         </is>
       </c>
-      <c r="X2" s="41" t="inlineStr">
+      <c r="X2" s="11" t="inlineStr">
         <is>
           <t>Position
 Constraint</t>
         </is>
       </c>
-      <c r="Y2" s="41" t="inlineStr">
+      <c r="Y2" s="11" t="inlineStr">
         <is>
           <t>Height
 Constraint</t>
         </is>
       </c>
-      <c r="Z2" s="41" t="inlineStr">
+      <c r="Z2" s="11" t="inlineStr">
         <is>
           <t>FWHM
 Constraint</t>
         </is>
       </c>
-      <c r="AA2" s="41" t="inlineStr">
+      <c r="AA2" s="11" t="inlineStr">
         <is>
           <t>L/G
 Constraint</t>
         </is>
       </c>
-      <c r="AB2" s="41" t="inlineStr">
+      <c r="AB2" s="11" t="inlineStr">
         <is>
           <t>Area
 Constraint</t>
         </is>
       </c>
-      <c r="AC2" s="41" t="inlineStr">
+      <c r="AC2" s="11" t="inlineStr">
         <is>
           <t>σ
 Constraint</t>
         </is>
       </c>
-      <c r="AD2" s="41" t="inlineStr">
+      <c r="AD2" s="11" t="inlineStr">
         <is>
           <t>γ
 Constraint</t>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -605,6 +605,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -621,7 +624,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5667375" cy="4086225"/>
+    <ext cx="5648325" cy="4086225"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -635,9 +638,6 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="AA2" s="28" t="inlineStr">
         <is>
-          <t>101367</t>
+          <t>101467</t>
         </is>
       </c>
       <c r="AB2" s="28" t="inlineStr">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="AC2" s="28" t="inlineStr">
         <is>
-          <t>60.05</t>
+          <t>60.28</t>
         </is>
       </c>
       <c r="AD2" s="28" t="inlineStr">
         <is>
-          <t>107901</t>
+          <t>108009</t>
         </is>
       </c>
       <c r="AE2" s="28" t="inlineStr"/>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="AH2" s="28" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AI2" s="28" t="inlineStr">
@@ -8842,12 +8842,12 @@
       </c>
       <c r="AO2" s="28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP2" s="29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="AA4" s="28" t="inlineStr">
         <is>
-          <t>70265</t>
+          <t>70522</t>
         </is>
       </c>
       <c r="AB4" s="28" t="inlineStr">
@@ -8972,12 +8972,12 @@
       </c>
       <c r="AC4" s="28" t="inlineStr">
         <is>
-          <t>60.04</t>
+          <t>60.27</t>
         </is>
       </c>
       <c r="AD4" s="28" t="inlineStr">
         <is>
-          <t>74795</t>
+          <t>75068</t>
         </is>
       </c>
       <c r="AE4" s="28" t="inlineStr"/>
@@ -8989,12 +8989,12 @@
       </c>
       <c r="AH4" s="28" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="AI4" s="28" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="AJ4" s="28" t="inlineStr">
@@ -9024,12 +9024,12 @@
       </c>
       <c r="AO4" s="28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AP4" s="29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9607,7 +9607,7 @@
         <v>139.78</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-3.637978807091713e-12</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
@@ -9659,7 +9659,7 @@
         <v>139.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.818989403545856e-11</v>
+        <v>-2.182787284255028e-11</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
@@ -9685,19 +9685,19 @@
         <v>139.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.548361852765083e-11</v>
+        <v>-7.639755494892597e-11</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27069.80000000006</v>
+        <v>27069.80000000008</v>
       </c>
       <c r="J28" t="n">
         <v>27069.8</v>
       </c>
       <c r="K28" t="n">
-        <v>27069.80000000006</v>
+        <v>27069.80000000008</v>
       </c>
     </row>
     <row r="29">
@@ -9711,19 +9711,19 @@
         <v>139.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.110027708113194e-10</v>
+        <v>-2.510205376893282e-10</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26161.80000000021</v>
+        <v>26161.80000000025</v>
       </c>
       <c r="J29" t="n">
         <v>26161.8</v>
       </c>
       <c r="K29" t="n">
-        <v>26161.80000000021</v>
+        <v>26161.80000000025</v>
       </c>
     </row>
     <row r="30">
@@ -9737,19 +9737,19 @@
         <v>139.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.803020369261503e-10</v>
+        <v>-7.967173587530851e-10</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26300.20000000068</v>
+        <v>26300.2000000008</v>
       </c>
       <c r="J30" t="n">
         <v>26300.2</v>
       </c>
       <c r="K30" t="n">
-        <v>26300.20000000068</v>
+        <v>26300.2000000008</v>
       </c>
     </row>
     <row r="31">
@@ -9763,19 +9763,19 @@
         <v>139.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.135493559762836e-09</v>
+        <v>-2.492015482857823e-09</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26179.20000000214</v>
+        <v>26179.20000000249</v>
       </c>
       <c r="J31" t="n">
         <v>26179.2</v>
       </c>
       <c r="K31" t="n">
-        <v>26179.20000000214</v>
+        <v>26179.20000000249</v>
       </c>
     </row>
     <row r="32">
@@ -9789,19 +9789,19 @@
         <v>139.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.566551746800542e-09</v>
+        <v>-7.621565600857139e-09</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>25952.40000000657</v>
+        <v>25952.40000000762</v>
       </c>
       <c r="J32" t="n">
         <v>25952.4</v>
       </c>
       <c r="K32" t="n">
-        <v>25952.40000000657</v>
+        <v>25952.40000000762</v>
       </c>
     </row>
     <row r="33">
@@ -9815,19 +9815,19 @@
         <v>138.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.977241481654346e-08</v>
+        <v>-2.281376509927213e-08</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>25823.10000001977</v>
+        <v>25823.10000002281</v>
       </c>
       <c r="J33" t="n">
         <v>25823.1</v>
       </c>
       <c r="K33" t="n">
-        <v>25823.10000001977</v>
+        <v>25823.10000002282</v>
       </c>
     </row>
     <row r="34">
@@ -9841,19 +9841,19 @@
         <v>138.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.828769644722342e-08</v>
+        <v>-6.685513653792441e-08</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>25796.20000005829</v>
+        <v>25796.20000006686</v>
       </c>
       <c r="J34" t="n">
         <v>25796.2</v>
       </c>
       <c r="K34" t="n">
-        <v>25796.20000005829</v>
+        <v>25796.20000006686</v>
       </c>
     </row>
     <row r="35">
@@ -9867,19 +9867,19 @@
         <v>138.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.682019501458853e-07</v>
+        <v>-1.918087946251035e-07</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>25706.9000001682</v>
+        <v>25706.90000019181</v>
       </c>
       <c r="J35" t="n">
         <v>25706.9</v>
       </c>
       <c r="K35" t="n">
-        <v>25706.9000001682</v>
+        <v>25706.90000019181</v>
       </c>
     </row>
     <row r="36">
@@ -9893,19 +9893,19 @@
         <v>138.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.752000677399337e-07</v>
+        <v>-5.387992132455111e-07</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>25865.6000004752</v>
+        <v>25865.6000005388</v>
       </c>
       <c r="J36" t="n">
         <v>25865.6</v>
       </c>
       <c r="K36" t="n">
-        <v>25865.60000047519</v>
+        <v>25865.6000005388</v>
       </c>
     </row>
     <row r="37">
@@ -9919,19 +9919,19 @@
         <v>138.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.314339897362515e-06</v>
+        <v>-1.481937943026423e-06</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26150.60000131434</v>
+        <v>26150.60000148194</v>
       </c>
       <c r="J37" t="n">
         <v>26150.6</v>
       </c>
       <c r="K37" t="n">
-        <v>26150.60000131433</v>
+        <v>26150.60000148194</v>
       </c>
     </row>
     <row r="38">
@@ -9945,19 +9945,19 @@
         <v>138.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.559161996236071e-06</v>
+        <v>-3.99112468585372e-06</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>25610.50000355916</v>
+        <v>25610.50000399112</v>
       </c>
       <c r="J38" t="n">
         <v>25610.5</v>
       </c>
       <c r="K38" t="n">
-        <v>25610.50000355915</v>
+        <v>25610.50000399115</v>
       </c>
     </row>
     <row r="39">
@@ -9971,19 +9971,19 @@
         <v>138.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-9.436604159418494e-06</v>
+        <v>-1.052554216585122e-05</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>25614.3000094366</v>
+        <v>25614.30001052554</v>
       </c>
       <c r="J39" t="n">
         <v>25614.3</v>
       </c>
       <c r="K39" t="n">
-        <v>25614.30000943657</v>
+        <v>25614.30001052559</v>
       </c>
     </row>
     <row r="40">
@@ -9997,19 +9997,19 @@
         <v>138.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.449806561344303e-05</v>
+        <v>-2.718298128456809e-05</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25482.40002449807</v>
+        <v>25482.40002718298</v>
       </c>
       <c r="J40" t="n">
         <v>25482.4</v>
       </c>
       <c r="K40" t="n">
-        <v>25482.40002449799</v>
+        <v>25482.40002718311</v>
       </c>
     </row>
     <row r="41">
@@ -10023,19 +10023,19 @@
         <v>138.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.227557969396003e-05</v>
+        <v>-6.875037797726691e-05</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>25820.70006227558</v>
+        <v>25820.70006875038</v>
       </c>
       <c r="J41" t="n">
         <v>25820.7</v>
       </c>
       <c r="K41" t="n">
-        <v>25820.70006227539</v>
+        <v>25820.70006875069</v>
       </c>
     </row>
     <row r="42">
@@ -10049,19 +10049,19 @@
         <v>138.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0001550233246234711</v>
+        <v>-0.0001702950066828635</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25337.90015502333</v>
+        <v>25337.90017029501</v>
       </c>
       <c r="J42" t="n">
         <v>25337.9</v>
       </c>
       <c r="K42" t="n">
-        <v>25337.90015502286</v>
+        <v>25337.90017029579</v>
       </c>
     </row>
     <row r="43">
@@ -10075,19 +10075,19 @@
         <v>137.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0003779153521463741</v>
+        <v>-0.0004131450368731748</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>25660.40037791535</v>
+        <v>25660.40041314504</v>
       </c>
       <c r="J43" t="n">
         <v>25660.40000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>25660.40037791421</v>
+        <v>25660.40041314692</v>
       </c>
     </row>
     <row r="44">
@@ -10101,19 +10101,19 @@
         <v>137.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0009022710291901603</v>
+        <v>-0.0009817563841352239</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25130.50090227103</v>
+        <v>25130.50098175638</v>
       </c>
       <c r="J44" t="n">
-        <v>25130.50000000001</v>
+        <v>25130.50000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>25130.5009022683</v>
+        <v>25130.50098176086</v>
       </c>
     </row>
     <row r="45">
@@ -10127,19 +10127,19 @@
         <v>137.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.002109857858158648</v>
+        <v>-0.002285252725414466</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25320.60210985786</v>
+        <v>25320.60228525272</v>
       </c>
       <c r="J45" t="n">
-        <v>25320.60000000005</v>
+        <v>25320.60000000006</v>
       </c>
       <c r="K45" t="n">
-        <v>25320.60210985146</v>
+        <v>25320.60228526311</v>
       </c>
     </row>
     <row r="46">
@@ -10153,19 +10153,19 @@
         <v>137.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.004832523052755278</v>
+        <v>-0.005211046103795525</v>
       </c>
       <c r="H46" t="n">
         <v>24983.9</v>
       </c>
       <c r="I46" t="n">
-        <v>24983.90483252305</v>
+        <v>24983.90521104611</v>
       </c>
       <c r="J46" t="n">
-        <v>24983.90000000017</v>
+        <v>24983.9000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>24983.90483250835</v>
+        <v>24983.90521106973</v>
       </c>
     </row>
     <row r="47">
@@ -10179,19 +10179,19 @@
         <v>137.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01084257436741609</v>
+        <v>-0.01164150121985585</v>
       </c>
       <c r="H47" t="n">
         <v>25008</v>
       </c>
       <c r="I47" t="n">
-        <v>25008.01084257437</v>
+        <v>25008.01164150122</v>
       </c>
       <c r="J47" t="n">
-        <v>25008.00000000055</v>
+        <v>25008.00000000065</v>
       </c>
       <c r="K47" t="n">
-        <v>25008.01084254121</v>
+        <v>25008.01164155378</v>
       </c>
     </row>
     <row r="48">
@@ -10205,19 +10205,19 @@
         <v>137.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02383221316631534</v>
+        <v>-0.02548133834716282</v>
       </c>
       <c r="H48" t="n">
         <v>24993.3</v>
       </c>
       <c r="I48" t="n">
-        <v>24993.32383221317</v>
+        <v>24993.32548133835</v>
       </c>
       <c r="J48" t="n">
-        <v>24993.30000000175</v>
+        <v>24993.30000000205</v>
       </c>
       <c r="K48" t="n">
-        <v>24993.32383213976</v>
+        <v>24993.32548145278</v>
       </c>
     </row>
     <row r="49">
@@ -10231,19 +10231,19 @@
         <v>137.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.05132257025616127</v>
+        <v>-0.05465164764609654</v>
       </c>
       <c r="H49" t="n">
         <v>25038.8</v>
       </c>
       <c r="I49" t="n">
-        <v>25038.85132257026</v>
+        <v>25038.85465164765</v>
       </c>
       <c r="J49" t="n">
-        <v>25038.80000000545</v>
+        <v>25038.80000000633</v>
       </c>
       <c r="K49" t="n">
-        <v>25038.8513224105</v>
+        <v>25038.85465189113</v>
       </c>
     </row>
     <row r="50">
@@ -10257,19 +10257,19 @@
         <v>137.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1082944359477551</v>
+        <v>-0.1148666006592975</v>
       </c>
       <c r="H50" t="n">
         <v>24708.8</v>
       </c>
       <c r="I50" t="n">
-        <v>24708.90829443595</v>
+        <v>24708.91486660066</v>
       </c>
       <c r="J50" t="n">
-        <v>24708.80000001658</v>
+        <v>24708.80000001914</v>
       </c>
       <c r="K50" t="n">
-        <v>24708.90829409377</v>
+        <v>24708.91486710659</v>
       </c>
     </row>
     <row r="51">
@@ -10283,19 +10283,19 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.2239250516613538</v>
+        <v>24.53005351460524</v>
       </c>
       <c r="H51" t="n">
-        <v>24696.9</v>
+        <v>24672.13333333333</v>
       </c>
       <c r="I51" t="n">
-        <v>24697.12392505166</v>
+        <v>24672.3699464854</v>
       </c>
       <c r="J51" t="n">
-        <v>24696.9000000494</v>
+        <v>24672.13333339001</v>
       </c>
       <c r="K51" t="n">
-        <v>24697.12392432901</v>
+        <v>24672.3699475103</v>
       </c>
     </row>
     <row r="52">
@@ -10309,19 +10309,19 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.4537815537660208</v>
+        <v>-3.985933482799737</v>
       </c>
       <c r="H52" t="n">
-        <v>24663.5</v>
+        <v>24667.00819802785</v>
       </c>
       <c r="I52" t="n">
-        <v>24663.95378155377</v>
+        <v>24667.4859334828</v>
       </c>
       <c r="J52" t="n">
-        <v>24663.50000014404</v>
+        <v>24667.00819819214</v>
       </c>
       <c r="K52" t="n">
-        <v>24663.95378004539</v>
+        <v>24667.48593550229</v>
       </c>
     </row>
     <row r="53">
@@ -10335,19 +10335,19 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.9013460488313285</v>
+        <v>-11.9481581258915</v>
       </c>
       <c r="H53" t="n">
-        <v>24656</v>
+        <v>24667.0025905701</v>
       </c>
       <c r="I53" t="n">
-        <v>24656.90134604883</v>
+        <v>24667.94815812589</v>
       </c>
       <c r="J53" t="n">
-        <v>24656.00000041117</v>
+        <v>24667.00259103639</v>
       </c>
       <c r="K53" t="n">
-        <v>24656.90134292767</v>
+        <v>24667.9481619819</v>
       </c>
     </row>
     <row r="54">
@@ -10361,19 +10361,19 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.755069610378996</v>
+        <v>-85.84145719955632</v>
       </c>
       <c r="H54" t="n">
-        <v>24583</v>
+        <v>24667.00656006446</v>
       </c>
       <c r="I54" t="n">
-        <v>24584.75506961038</v>
+        <v>24668.84145719956</v>
       </c>
       <c r="J54" t="n">
-        <v>24583.00000114907</v>
+        <v>24667.00656136022</v>
       </c>
       <c r="K54" t="n">
-        <v>24584.7550631845</v>
+        <v>24668.8414642913</v>
       </c>
     </row>
     <row r="55">
@@ -10387,19 +10387,19 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.350562330550019</v>
+        <v>-393.9238112547064</v>
       </c>
       <c r="H55" t="n">
-        <v>24276.6</v>
+        <v>24667.0323474314</v>
       </c>
       <c r="I55" t="n">
-        <v>24279.95056233055</v>
+        <v>24670.5238112547</v>
       </c>
       <c r="J55" t="n">
-        <v>24276.60000314396</v>
+        <v>24667.03235095715</v>
       </c>
       <c r="K55" t="n">
-        <v>24279.95054911277</v>
+        <v>24670.52382368879</v>
       </c>
     </row>
     <row r="56">
@@ -10413,19 +10413,19 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-100.4390071489324</v>
+        <v>132.7262302915478</v>
       </c>
       <c r="H56" t="n">
-        <v>24900.56666666667</v>
+        <v>24667.15826383816</v>
       </c>
       <c r="I56" t="n">
-        <v>24906.83900714893</v>
+        <v>24673.67376970845</v>
       </c>
       <c r="J56" t="n">
-        <v>24900.56667508888</v>
+        <v>24667.15827323223</v>
       </c>
       <c r="K56" t="n">
-        <v>24906.8389798683</v>
+        <v>24673.67379009739</v>
       </c>
     </row>
     <row r="57">
@@ -10439,19 +10439,19 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>332.8547987293823</v>
+        <v>559.8498043727486</v>
       </c>
       <c r="H57" t="n">
-        <v>24894.62913533802</v>
+        <v>24667.22384272402</v>
       </c>
       <c r="I57" t="n">
-        <v>24906.14520127062</v>
+        <v>24679.15019562725</v>
       </c>
       <c r="J57" t="n">
-        <v>24894.62915742907</v>
+        <v>24667.22386723455</v>
       </c>
       <c r="K57" t="n">
-        <v>24906.14514455544</v>
+        <v>24679.15022563316</v>
       </c>
     </row>
     <row r="58">
@@ -10465,19 +10465,19 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-258.9879532600644</v>
+        <v>-32.15224642790054</v>
       </c>
       <c r="H58" t="n">
-        <v>24894.54732748214</v>
+        <v>24667.03484158406</v>
       </c>
       <c r="I58" t="n">
-        <v>24915.28795326006</v>
+        <v>24688.4522464279</v>
       </c>
       <c r="J58" t="n">
-        <v>24894.54738421927</v>
+        <v>24667.03490421197</v>
       </c>
       <c r="K58" t="n">
-        <v>24915.28783416449</v>
+        <v>24688.45228170067</v>
       </c>
     </row>
     <row r="59">
@@ -10491,19 +10491,19 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-446.6634494853315</v>
+        <v>-220.1276171326463</v>
       </c>
       <c r="H59" t="n">
-        <v>24894.51374319724</v>
+        <v>24666.88659774413</v>
       </c>
       <c r="I59" t="n">
-        <v>24931.16344948533</v>
+        <v>24704.62761713265</v>
       </c>
       <c r="J59" t="n">
-        <v>24894.51388589007</v>
+        <v>24666.88675446344</v>
       </c>
       <c r="K59" t="n">
-        <v>24931.16319660251</v>
+        <v>24704.62763293004</v>
       </c>
     </row>
     <row r="60">
@@ -10517,19 +10517,19 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>149.9200752541183</v>
+        <v>375.988135177915</v>
       </c>
       <c r="H60" t="n">
-        <v>24894.72554721501</v>
+        <v>24666.93735574661</v>
       </c>
       <c r="I60" t="n">
-        <v>24958.27992474588</v>
+        <v>24732.21186482209</v>
       </c>
       <c r="J60" t="n">
-        <v>24894.72589864995</v>
+        <v>24666.93773984336</v>
       </c>
       <c r="K60" t="n">
-        <v>24958.27938223124</v>
+        <v>24732.21177909817</v>
       </c>
     </row>
     <row r="61">
@@ -10543,19 +10543,19 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-46.77008266640041</v>
+        <v>178.5013478604451</v>
       </c>
       <c r="H61" t="n">
-        <v>24894.78925955672</v>
+        <v>24666.86782124567</v>
       </c>
       <c r="I61" t="n">
-        <v>25002.9700826664</v>
+        <v>24777.69865213956</v>
       </c>
       <c r="J61" t="n">
-        <v>24894.79010721634</v>
+        <v>24666.86874328218</v>
       </c>
       <c r="K61" t="n">
-        <v>25002.9689097579</v>
+        <v>24777.69823671292</v>
       </c>
     </row>
     <row r="62">
@@ -10569,19 +10569,19 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>30.00152366020848</v>
+        <v>254.0373011945594</v>
       </c>
       <c r="H62" t="n">
-        <v>24894.69913285868</v>
+        <v>24666.67341136685</v>
       </c>
       <c r="I62" t="n">
-        <v>25075.49847633979</v>
+        <v>24851.46269880544</v>
       </c>
       <c r="J62" t="n">
-        <v>24894.70113529892</v>
+        <v>24666.67557943383</v>
       </c>
       <c r="K62" t="n">
-        <v>25075.49593032718</v>
+        <v>24851.46137540675</v>
       </c>
     </row>
     <row r="63">
@@ -10595,19 +10595,19 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>734.7315796640469</v>
+        <v>956.9911474660912</v>
       </c>
       <c r="H63" t="n">
-        <v>24894.6083463169</v>
+        <v>24666.47819827395</v>
       </c>
       <c r="I63" t="n">
-        <v>25191.36842033595</v>
+        <v>24969.10885253391</v>
       </c>
       <c r="J63" t="n">
-        <v>24894.61297960065</v>
+        <v>24666.48319222357</v>
       </c>
       <c r="K63" t="n">
-        <v>25191.36289485883</v>
+        <v>24969.10524188694</v>
       </c>
     </row>
     <row r="64">
@@ -10621,19 +10621,19 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>461.6756996923941</v>
+        <v>681.4102218081462</v>
       </c>
       <c r="H64" t="n">
-        <v>24894.19968064029</v>
+        <v>24666.02494443865</v>
       </c>
       <c r="I64" t="n">
-        <v>25372.72430030761</v>
+        <v>25152.98977819186</v>
       </c>
       <c r="J64" t="n">
-        <v>24894.21018190218</v>
+        <v>24666.03621367567</v>
       </c>
       <c r="K64" t="n">
-        <v>25372.71236041928</v>
+        <v>25152.98073479908</v>
       </c>
     </row>
     <row r="65">
@@ -10647,19 +10647,19 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>676.6708834917845</v>
+        <v>892.9886600440768</v>
       </c>
       <c r="H65" t="n">
-        <v>24893.55214993827</v>
+        <v>24665.37783824218</v>
       </c>
       <c r="I65" t="n">
-        <v>25651.82911650822</v>
+        <v>25435.51133995592</v>
       </c>
       <c r="J65" t="n">
-        <v>24893.57546581646</v>
+        <v>24665.40275308979</v>
       </c>
       <c r="K65" t="n">
-        <v>25651.80352103328</v>
+        <v>25435.48994519465</v>
       </c>
     </row>
     <row r="66">
@@ -10673,19 +10673,19 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>686.7536837326006</v>
+        <v>898.6287509427493</v>
       </c>
       <c r="H66" t="n">
-        <v>24892.77102107914</v>
+        <v>24664.62211073711</v>
       </c>
       <c r="I66" t="n">
-        <v>26073.9463162674</v>
+        <v>25862.07124905725</v>
       </c>
       <c r="J66" t="n">
-        <v>24892.82173846836</v>
+        <v>24664.67608323047</v>
       </c>
       <c r="K66" t="n">
-        <v>26073.89204808231</v>
+        <v>25862.02274963054</v>
       </c>
     </row>
     <row r="67">
@@ -10699,19 +10699,19 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>354.6571137157443</v>
+        <v>560.8964242282127</v>
       </c>
       <c r="H67" t="n">
-        <v>24891.68546797722</v>
+        <v>24663.6193376343</v>
       </c>
       <c r="I67" t="n">
-        <v>26700.94288628425</v>
+        <v>26494.70357577179</v>
       </c>
       <c r="J67" t="n">
-        <v>24891.79356081132</v>
+        <v>24663.73390933783</v>
       </c>
       <c r="K67" t="n">
-        <v>26700.829354867</v>
+        <v>26494.59737286896</v>
       </c>
     </row>
     <row r="68">
@@ -10725,19 +10725,19 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>332.8270901576179</v>
+        <v>532.151169513796</v>
       </c>
       <c r="H68" t="n">
-        <v>24890.35894127158</v>
+        <v>24662.4208121315</v>
       </c>
       <c r="I68" t="n">
-        <v>27616.27290984238</v>
+        <v>27416.9488304862</v>
       </c>
       <c r="J68" t="n">
-        <v>24890.58468471638</v>
+        <v>24662.65916274437</v>
       </c>
       <c r="K68" t="n">
-        <v>27616.03897303929</v>
+        <v>27416.72306844352</v>
       </c>
     </row>
     <row r="69">
@@ -10751,19 +10751,19 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-211.3872023410222</v>
+        <v>-20.33854386179883</v>
       </c>
       <c r="H69" t="n">
-        <v>24888.6389861754</v>
+        <v>24660.90278736936</v>
       </c>
       <c r="I69" t="n">
-        <v>28929.28720234102</v>
+        <v>28738.2385438618</v>
       </c>
       <c r="J69" t="n">
-        <v>24889.10100377785</v>
+        <v>24661.38878722521</v>
       </c>
       <c r="K69" t="n">
-        <v>28928.81304100664</v>
+        <v>28737.77117648587</v>
       </c>
     </row>
     <row r="70">
@@ -10777,19 +10777,19 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-62.21899133045372</v>
+        <v>119.1531742164261</v>
       </c>
       <c r="H70" t="n">
-        <v>24886.36608769868</v>
+        <v>24658.93552592162</v>
       </c>
       <c r="I70" t="n">
-        <v>30779.81899133045</v>
+        <v>30598.44682578357</v>
       </c>
       <c r="J70" t="n">
-        <v>24887.29287027592</v>
+        <v>24659.90690303612</v>
       </c>
       <c r="K70" t="n">
-        <v>30778.87449931884</v>
+        <v>30597.50258788775</v>
       </c>
     </row>
     <row r="71">
@@ -10803,19 +10803,19 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-560.7351102063985</v>
+        <v>-390.516074667561</v>
       </c>
       <c r="H71" t="n">
-        <v>24883.1718466034</v>
+        <v>24656.21991522051</v>
       </c>
       <c r="I71" t="n">
-        <v>33340.5351102064</v>
+        <v>33170.31607466756</v>
       </c>
       <c r="J71" t="n">
-        <v>24884.99418208534</v>
+        <v>24658.12330043115</v>
       </c>
       <c r="K71" t="n">
-        <v>33338.68736616999</v>
+        <v>33168.45158687868</v>
       </c>
     </row>
     <row r="72">
@@ -10829,19 +10829,19 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-264.7706989272338</v>
+        <v>-107.3474697287966</v>
       </c>
       <c r="H72" t="n">
-        <v>24878.62046728603</v>
+        <v>24652.40202093919</v>
       </c>
       <c r="I72" t="n">
-        <v>36814.87069892723</v>
+        <v>36657.4474697288</v>
       </c>
       <c r="J72" t="n">
-        <v>24882.13340030307</v>
+        <v>24656.05891709149</v>
       </c>
       <c r="K72" t="n">
-        <v>36811.32191574843</v>
+        <v>36653.84540873786</v>
       </c>
     </row>
     <row r="73">
@@ -10855,19 +10855,19 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>-103.7839338999474</v>
+        <v>38.78597678784718</v>
       </c>
       <c r="H73" t="n">
-        <v>24872.1065261805</v>
+        <v>24646.9900169195</v>
       </c>
       <c r="I73" t="n">
-        <v>41424.28393389995</v>
+        <v>41281.71402321215</v>
       </c>
       <c r="J73" t="n">
-        <v>24878.74651965537</v>
+        <v>24653.87988574691</v>
       </c>
       <c r="K73" t="n">
-        <v>41417.59424536196</v>
+        <v>41274.90011585334</v>
       </c>
     </row>
     <row r="74">
@@ -10881,19 +10881,19 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.167451255474589</v>
+        <v>118.624065561271</v>
       </c>
       <c r="H74" t="n">
-        <v>24862.70830589002</v>
+        <v>24639.23612834462</v>
       </c>
       <c r="I74" t="n">
-        <v>47374.86745125547</v>
+        <v>47250.07593443873</v>
       </c>
       <c r="J74" t="n">
-        <v>24875.01645117073</v>
+        <v>24651.96801358289</v>
       </c>
       <c r="K74" t="n">
-        <v>47362.49175210547</v>
+        <v>47237.44726225547</v>
       </c>
     </row>
     <row r="75">
@@ -10907,19 +10907,19 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>756.2102008324437</v>
+        <v>858.9491362543631</v>
       </c>
       <c r="H75" t="n">
-        <v>24849.60893920939</v>
+        <v>24628.47699128988</v>
       </c>
       <c r="I75" t="n">
-        <v>54788.08979916756</v>
+        <v>54685.35086374564</v>
       </c>
       <c r="J75" t="n">
-        <v>24871.98697563953</v>
+        <v>24651.55696303898</v>
       </c>
       <c r="K75" t="n">
-        <v>54765.62198837045</v>
+        <v>54662.4080249587</v>
       </c>
     </row>
     <row r="76">
@@ -10933,19 +10933,19 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-184.3446500321807</v>
+        <v>-109.6388987957689</v>
       </c>
       <c r="H76" t="n">
-        <v>24831.61933330123</v>
+        <v>24613.7488806858</v>
       </c>
       <c r="I76" t="n">
-        <v>63576.24465003218</v>
+        <v>63501.53889879577</v>
       </c>
       <c r="J76" t="n">
-        <v>24871.53467124509</v>
+        <v>24654.79979739772</v>
       </c>
       <c r="K76" t="n">
-        <v>63536.21324840835</v>
+        <v>63460.66527939703</v>
       </c>
     </row>
     <row r="77">
@@ -10959,19 +10959,19 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>410.6264289124665</v>
+        <v>450.3887955897953</v>
       </c>
       <c r="H77" t="n">
-        <v>24808.03455595038</v>
+        <v>24594.48020364359</v>
       </c>
       <c r="I77" t="n">
-        <v>73263.27357108753</v>
+        <v>73223.5112044102</v>
       </c>
       <c r="J77" t="n">
-        <v>24877.89600304213</v>
+        <v>24666.13530823815</v>
       </c>
       <c r="K77" t="n">
-        <v>73193.26718418344</v>
+        <v>73152.07758013647</v>
       </c>
     </row>
     <row r="78">
@@ -10985,19 +10985,19 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>710.8247961410816</v>
+        <v>710.4133964409557</v>
       </c>
       <c r="H78" t="n">
-        <v>24778.01963763617</v>
+        <v>24569.99433605436</v>
       </c>
       <c r="I78" t="n">
-        <v>82808.37520385892</v>
+        <v>82808.78660355904</v>
       </c>
       <c r="J78" t="n">
-        <v>24898.02886046728</v>
+        <v>24692.76869671101</v>
       </c>
       <c r="K78" t="n">
-        <v>82688.19278829636</v>
+        <v>82686.27707375004</v>
       </c>
     </row>
     <row r="79">
@@ -11011,19 +11011,19 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>693.4946671054349</v>
+        <v>653.9273549218633</v>
       </c>
       <c r="H79" t="n">
-        <v>24740.93265585333</v>
+        <v>24539.77423357409</v>
       </c>
       <c r="I79" t="n">
-        <v>90608.20533289456</v>
+        <v>90647.77264507813</v>
       </c>
       <c r="J79" t="n">
-        <v>24943.31776559377</v>
+        <v>24746.31814560902</v>
       </c>
       <c r="K79" t="n">
-        <v>90405.62434790848</v>
+        <v>90441.52858974879</v>
       </c>
     </row>
     <row r="80">
@@ -11037,19 +11037,19 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-1042.187542271509</v>
+        <v>-1109.856424231111</v>
       </c>
       <c r="H80" t="n">
-        <v>24697.86006666808</v>
+        <v>24504.70554666781</v>
       </c>
       <c r="I80" t="n">
-        <v>94905.28754227152</v>
+        <v>94972.95642423112</v>
       </c>
       <c r="J80" t="n">
-        <v>25033.01482754154</v>
+        <v>24845.95947264163</v>
       </c>
       <c r="K80" t="n">
-        <v>94569.92527543604</v>
+        <v>94632.02076623341</v>
       </c>
     </row>
     <row r="81">
@@ -11063,19 +11063,19 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>286.252859031636</v>
+        <v>209.4728408498049</v>
       </c>
       <c r="H81" t="n">
-        <v>24651.44939113206</v>
+        <v>24466.93697786327</v>
       </c>
       <c r="I81" t="n">
-        <v>94582.24714096836</v>
+        <v>94659.0271591502</v>
       </c>
       <c r="J81" t="n">
-        <v>25196.62861638377</v>
+        <v>25020.83275867673</v>
       </c>
       <c r="K81" t="n">
-        <v>94036.8634852816</v>
+        <v>94105.44598470631</v>
       </c>
     </row>
     <row r="82">
@@ -11089,19 +11089,19 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-331.1192930475227</v>
+        <v>-398.6019033565244</v>
       </c>
       <c r="H82" t="n">
-        <v>24604.34702726177</v>
+        <v>24428.61668258791</v>
       </c>
       <c r="I82" t="n">
-        <v>89820.01929304752</v>
+        <v>89887.50190335652</v>
       </c>
       <c r="J82" t="n">
-        <v>25475.6950446576</v>
+        <v>25312.09422438189</v>
       </c>
       <c r="K82" t="n">
-        <v>88948.48450641985</v>
+        <v>89004.31361323496</v>
       </c>
     </row>
     <row r="83">
@@ -11115,19 +11115,19 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-361.6692045980599</v>
+        <v>-409.5962394862145</v>
       </c>
       <c r="H83" t="n">
-        <v>24559.63698219865</v>
+        <v>24392.24715731102</v>
       </c>
       <c r="I83" t="n">
-        <v>82017.36920459806</v>
+        <v>82065.29623948621</v>
       </c>
       <c r="J83" t="n">
-        <v>25928.43371782625</v>
+        <v>25777.46225494104</v>
       </c>
       <c r="K83" t="n">
-        <v>80648.41433938833</v>
+        <v>80680.32914246939</v>
       </c>
     </row>
     <row r="84">
@@ -11141,19 +11141,19 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-192.0690764863684</v>
+        <v>-219.2718542125367</v>
       </c>
       <c r="H84" t="n">
-        <v>24520.03242620261</v>
+        <v>24360.02645054711</v>
       </c>
       <c r="I84" t="n">
-        <v>73053.16907648637</v>
+        <v>73080.37185421254</v>
       </c>
       <c r="J84" t="n">
-        <v>26634.10076528286</v>
+        <v>26495.68480524588</v>
       </c>
       <c r="K84" t="n">
-        <v>70938.97740278592</v>
+        <v>70944.91210902992</v>
       </c>
     </row>
     <row r="85">
@@ -11167,19 +11167,19 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>677.5359808538851</v>
+        <v>666.9706596469259</v>
       </c>
       <c r="H85" t="n">
-        <v>24486.31724147462</v>
+        <v>24332.58834655982</v>
       </c>
       <c r="I85" t="n">
-        <v>64550.46401914611</v>
+        <v>64561.02934035307</v>
       </c>
       <c r="J85" t="n">
-        <v>27697.49308924663</v>
+        <v>27571.30157582561</v>
       </c>
       <c r="K85" t="n">
-        <v>61339.20202074437</v>
+        <v>61322.46345734411</v>
       </c>
     </row>
     <row r="86">
@@ -11193,19 +11193,19 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>252.6643567696883</v>
+        <v>253.643571180015</v>
       </c>
       <c r="H86" t="n">
-        <v>24458.20250478422</v>
+        <v>24309.69741496748</v>
       </c>
       <c r="I86" t="n">
-        <v>57572.33564323031</v>
+        <v>57571.35642881999</v>
       </c>
       <c r="J86" t="n">
-        <v>29256.52556372027</v>
+        <v>29142.02064913041</v>
       </c>
       <c r="K86" t="n">
-        <v>52773.96428604733</v>
+        <v>52739.13071421302</v>
       </c>
     </row>
     <row r="87">
@@ -11219,19 +11219,19 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>21.78739297349966</v>
+        <v>30.51771542183269</v>
       </c>
       <c r="H87" t="n">
-        <v>24434.98838575283</v>
+        <v>24290.78484309785</v>
       </c>
       <c r="I87" t="n">
-        <v>52683.4126070265</v>
+        <v>52674.68228457816</v>
       </c>
       <c r="J87" t="n">
-        <v>31489.62945712797</v>
+        <v>31385.96658206957</v>
       </c>
       <c r="K87" t="n">
-        <v>45628.76197221247</v>
+        <v>45579.55023645869</v>
       </c>
     </row>
     <row r="88">
@@ -11245,19 +11245,19 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-630.1483647235218</v>
+        <v>-615.6530686090919</v>
       </c>
       <c r="H88" t="n">
-        <v>24415.52532528701</v>
+        <v>24274.91662275086</v>
       </c>
       <c r="I88" t="n">
-        <v>50142.54836472352</v>
+        <v>50128.05306860909</v>
       </c>
       <c r="J88" t="n">
-        <v>34621.03018968068</v>
+        <v>34526.97709945189</v>
       </c>
       <c r="K88" t="n">
-        <v>39937.07518020201</v>
+        <v>39875.99509520378</v>
       </c>
     </row>
     <row r="89">
@@ -11271,19 +11271,19 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-755.5581272576164</v>
+        <v>-735.832786751489</v>
       </c>
       <c r="H89" t="n">
-        <v>24398.22957581289</v>
+        <v>24260.80689424658</v>
       </c>
       <c r="I89" t="n">
-        <v>50075.15812725761</v>
+        <v>50055.43278675149</v>
       </c>
       <c r="J89" t="n">
-        <v>38921.66299816815</v>
+        <v>38835.59516951958</v>
       </c>
       <c r="K89" t="n">
-        <v>35551.80266622382</v>
+        <v>35480.59797384302</v>
       </c>
     </row>
     <row r="90">
@@ -11297,19 +11297,19 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>134.1769891093281</v>
+        <v>159.4015465158809</v>
       </c>
       <c r="H90" t="n">
-        <v>24381.15908031388</v>
+        <v>24246.87866345391</v>
       </c>
       <c r="I90" t="n">
-        <v>52576.32301089067</v>
+        <v>52551.09845348412</v>
       </c>
       <c r="J90" t="n">
-        <v>44699.78070025179</v>
+        <v>44619.84375152897</v>
       </c>
       <c r="K90" t="n">
-        <v>32257.8336941351</v>
+        <v>32178.03287840137</v>
       </c>
     </row>
     <row r="91">
@@ -11323,19 +11323,19 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-1237.486543679595</v>
+        <v>-1206.444234506744</v>
       </c>
       <c r="H91" t="n">
-        <v>24362.40542865509</v>
+        <v>24231.58445443461</v>
       </c>
       <c r="I91" t="n">
-        <v>57741.3865436796</v>
+        <v>57710.34423450675</v>
       </c>
       <c r="J91" t="n">
-        <v>52270.38887679954</v>
+        <v>52194.90353843783</v>
       </c>
       <c r="K91" t="n">
-        <v>29833.60089435951</v>
+        <v>29746.86267470285</v>
       </c>
     </row>
     <row r="92">
@@ -11349,19 +11349,19 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>597.1550216036412</v>
+        <v>633.4058409350982</v>
       </c>
       <c r="H92" t="n">
-        <v>24340.21064968075</v>
+        <v>24213.49681872274</v>
       </c>
       <c r="I92" t="n">
-        <v>65623.04497839636</v>
+        <v>65586.7941590649</v>
       </c>
       <c r="J92" t="n">
-        <v>61884.1302620062</v>
+        <v>61812.39099794308</v>
       </c>
       <c r="K92" t="n">
-        <v>28079.40234713289</v>
+        <v>27987.66487237422</v>
       </c>
     </row>
     <row r="93">
@@ -11375,19 +11375,19 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>647.9536434104521</v>
+        <v>686.5358390911133</v>
       </c>
       <c r="H93" t="n">
-        <v>24312.22702620497</v>
+        <v>24190.71111249828</v>
       </c>
       <c r="I93" t="n">
-        <v>76103.14635658955</v>
+        <v>76064.56416090889</v>
       </c>
       <c r="J93" t="n">
-        <v>73589.06516618557</v>
+        <v>73522.62994801336</v>
       </c>
       <c r="K93" t="n">
-        <v>26826.6789532198</v>
+        <v>26732.32583306896</v>
       </c>
     </row>
     <row r="94">
@@ -11401,19 +11401,19 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>2043.619607769651</v>
+        <v>2078.460445095989</v>
       </c>
       <c r="H94" t="n">
-        <v>24276.34235399746</v>
+        <v>24161.5158175574</v>
       </c>
       <c r="I94" t="n">
-        <v>88671.08039223035</v>
+        <v>88636.23955490401</v>
       </c>
       <c r="J94" t="n">
-        <v>87008.08575674701</v>
+        <v>86951.72754301279</v>
       </c>
       <c r="K94" t="n">
-        <v>25939.81357752191</v>
+        <v>25845.61408679148</v>
       </c>
     </row>
     <row r="95">
@@ -11427,19 +11427,19 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-248.7084167207504</v>
+        <v>-226.2277776386618</v>
       </c>
       <c r="H95" t="n">
-        <v>24231.47911338804</v>
+        <v>24125.04003019476</v>
       </c>
       <c r="I95" t="n">
-        <v>102143.7084167208</v>
+        <v>102121.2277776387</v>
       </c>
       <c r="J95" t="n">
-        <v>101061.8978540661</v>
+        <v>101023.0106739246</v>
       </c>
       <c r="K95" t="n">
-        <v>25313.87624620783</v>
+        <v>25222.74602111023</v>
       </c>
     </row>
     <row r="96">
@@ -11453,19 +11453,19 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>1307.491682667489</v>
+        <v>1309.74664264411</v>
       </c>
       <c r="H96" t="n">
-        <v>24177.33710774131</v>
+        <v>24081.04247596088</v>
       </c>
       <c r="I96" t="n">
-        <v>114491.5083173325</v>
+        <v>114489.2533573559</v>
       </c>
       <c r="J96" t="n">
-        <v>113799.6799349279</v>
+        <v>113785.0382911341</v>
       </c>
       <c r="K96" t="n">
-        <v>24869.85143570986</v>
+        <v>24784.65867536528</v>
       </c>
     </row>
     <row r="97">
@@ -11479,19 +11479,19 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-673.7957443692867</v>
+        <v>-693.6355481594219</v>
       </c>
       <c r="H97" t="n">
-        <v>24114.72501604923</v>
+        <v>24030.18291369104</v>
       </c>
       <c r="I97" t="n">
-        <v>123093.7957443693</v>
+        <v>123113.6355481594</v>
       </c>
       <c r="J97" t="n">
-        <v>122659.034356821</v>
+        <v>122669.5926009213</v>
       </c>
       <c r="K97" t="n">
-        <v>24550.24161549173</v>
+        <v>24473.56583107038</v>
       </c>
     </row>
     <row r="98">
@@ -11505,19 +11505,19 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-1739.986431527112</v>
+        <v>-1774.977651742985</v>
       </c>
       <c r="H98" t="n">
-        <v>24047.19134874745</v>
+        <v>23975.34358392637</v>
       </c>
       <c r="I98" t="n">
-        <v>125646.9864315271</v>
+        <v>125681.977651743</v>
       </c>
       <c r="J98" t="n">
-        <v>125378.6242527797</v>
+        <v>125406.7127884148</v>
       </c>
       <c r="K98" t="n">
-        <v>24316.3306362761</v>
+        <v>24249.92890648864</v>
       </c>
     </row>
     <row r="99">
@@ -11531,19 +11531,19 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>175.8825596583483</v>
+        <v>136.9193003296677</v>
       </c>
       <c r="H99" t="n">
-        <v>23978.81794476279</v>
+        <v>23919.83387471831</v>
       </c>
       <c r="I99" t="n">
-        <v>121334.1174403417</v>
+        <v>121373.0806996703</v>
       </c>
       <c r="J99" t="n">
-        <v>121171.4778825501</v>
+        <v>121205.3589966263</v>
       </c>
       <c r="K99" t="n">
-        <v>24142.20315607821</v>
+        <v>24086.90337197004</v>
       </c>
     </row>
     <row r="100">
@@ -11557,19 +11557,19 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>707.2885054190556</v>
+        <v>671.7016455352277</v>
       </c>
       <c r="H100" t="n">
-        <v>23913.7758658034</v>
+        <v>23867.03633505091</v>
       </c>
       <c r="I100" t="n">
-        <v>111298.7114945809</v>
+        <v>111334.2983544648</v>
       </c>
       <c r="J100" t="n">
-        <v>111201.9754241038</v>
+        <v>111233.8708025972</v>
       </c>
       <c r="K100" t="n">
-        <v>24011.18175197214</v>
+        <v>23966.8779469553</v>
       </c>
     </row>
     <row r="101">
@@ -11583,19 +11583,19 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-249.3864468783868</v>
+        <v>-281.285420175278</v>
       </c>
       <c r="H101" t="n">
-        <v>23856.6606554243</v>
+        <v>23820.67686757211</v>
       </c>
       <c r="I101" t="n">
-        <v>97953.58644687838</v>
+        <v>97985.48542017528</v>
       </c>
       <c r="J101" t="n">
-        <v>97897.14140849288</v>
+        <v>97926.4012393002</v>
       </c>
       <c r="K101" t="n">
-        <v>23913.67392865775</v>
+        <v>23879.26392698235</v>
       </c>
     </row>
     <row r="102">
@@ -11609,19 +11609,19 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-925.6597141749371</v>
+        <v>-957.7147056969552</v>
       </c>
       <c r="H102" t="n">
-        <v>23809.95874539543</v>
+        <v>23782.76986841113</v>
       </c>
       <c r="I102" t="n">
-        <v>83784.75971417494</v>
+        <v>83816.81470569696</v>
       </c>
       <c r="J102" t="n">
-        <v>83752.46499250027</v>
+        <v>83782.6634440551</v>
       </c>
       <c r="K102" t="n">
-        <v>23842.71354518088</v>
+        <v>23816.51857179659</v>
       </c>
     </row>
     <row r="103">
@@ -11635,19 +11635,19 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>286.559499400435</v>
+        <v>250.6245745542692</v>
       </c>
       <c r="H103" t="n">
-        <v>23773.08960537953</v>
+        <v>23752.8430546269</v>
       </c>
       <c r="I103" t="n">
-        <v>70563.34050059956</v>
+        <v>70599.27542544572</v>
       </c>
       <c r="J103" t="n">
-        <v>70545.23319393907</v>
+        <v>70579.88133115084</v>
       </c>
       <c r="K103" t="n">
-        <v>23791.5559246824</v>
+        <v>23771.92293833326</v>
       </c>
     </row>
     <row r="104">
@@ -11661,19 +11661,19 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-353.7160030630839</v>
+        <v>-394.754850777048</v>
       </c>
       <c r="H104" t="n">
-        <v>23744.83692760308</v>
+        <v>23729.90940926529</v>
       </c>
       <c r="I104" t="n">
-        <v>59200.91600306308</v>
+        <v>59241.95485077705</v>
       </c>
       <c r="J104" t="n">
-        <v>59190.97403171952</v>
+        <v>59231.13228299493</v>
       </c>
       <c r="K104" t="n">
-        <v>23755.05098703193</v>
+        <v>23740.49374522175</v>
       </c>
     </row>
     <row r="105">
@@ -11687,19 +11687,19 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-1739.594995339336</v>
+        <v>-1784.374903940181</v>
       </c>
       <c r="H105" t="n">
-        <v>23724.48959734066</v>
+        <v>23713.39173918739</v>
       </c>
       <c r="I105" t="n">
-        <v>49962.49499533934</v>
+        <v>50007.27490394018</v>
       </c>
       <c r="J105" t="n">
-        <v>49957.15466809407</v>
+        <v>50001.33833082646</v>
       </c>
       <c r="K105" t="n">
-        <v>23730.03129520622</v>
+        <v>23719.15189689594</v>
       </c>
     </row>
     <row r="106">
@@ -11713,19 +11713,19 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-1526.451883326525</v>
+        <v>-1572.336718242004</v>
       </c>
       <c r="H106" t="n">
-        <v>23710.27780668882</v>
+        <v>23701.85390738455</v>
       </c>
       <c r="I106" t="n">
-        <v>42738.95188332652</v>
+        <v>42784.836718242</v>
       </c>
       <c r="J106" t="n">
-        <v>42736.14920875139</v>
+        <v>42781.63392924835</v>
       </c>
       <c r="K106" t="n">
-        <v>23713.2265333692</v>
+        <v>23704.92864909956</v>
       </c>
     </row>
     <row r="107">
@@ -11739,19 +11739,19 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-150.9324103755134</v>
+        <v>-195.2469793083073</v>
       </c>
       <c r="H107" t="n">
-        <v>23699.92380288724</v>
+        <v>23693.44766254426</v>
       </c>
       <c r="I107" t="n">
-        <v>37253.33241037551</v>
+        <v>37297.64697930831</v>
       </c>
       <c r="J107" t="n">
-        <v>37251.89793264258</v>
+        <v>37295.94610463686</v>
       </c>
       <c r="K107" t="n">
-        <v>23701.46231404127</v>
+        <v>23695.05724613646</v>
       </c>
     </row>
     <row r="108">
@@ -11765,19 +11765,19 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>608.653160428883</v>
+        <v>568.0536250378718</v>
       </c>
       <c r="H108" t="n">
-        <v>23692.09837828275</v>
+        <v>23687.09420494802</v>
       </c>
       <c r="I108" t="n">
-        <v>33184.14683957112</v>
+        <v>33224.74637496213</v>
       </c>
       <c r="J108" t="n">
-        <v>33183.43270248004</v>
+        <v>33223.85617491544</v>
       </c>
       <c r="K108" t="n">
-        <v>23692.88537766005</v>
+        <v>23687.92039909959</v>
       </c>
     </row>
     <row r="109">
@@ -11791,19 +11791,19 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>466.6207434179705</v>
+        <v>431.1875002451561</v>
       </c>
       <c r="H109" t="n">
-        <v>23686.41577301983</v>
+        <v>23682.4802160073</v>
       </c>
       <c r="I109" t="n">
-        <v>30226.47925658203</v>
+        <v>30261.91249975484</v>
       </c>
       <c r="J109" t="n">
-        <v>30226.13482679253</v>
+        <v>30261.45257462961</v>
       </c>
       <c r="K109" t="n">
-        <v>23686.8104068247</v>
+        <v>23682.89598571191</v>
       </c>
     </row>
     <row r="110">
@@ -11817,19 +11817,19 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>1183.372068384338</v>
+        <v>1153.761831465759</v>
       </c>
       <c r="H110" t="n">
-        <v>23682.23599800055</v>
+        <v>23679.08629121726</v>
       </c>
       <c r="I110" t="n">
-        <v>28116.12793161566</v>
+        <v>28145.73816853424</v>
       </c>
       <c r="J110" t="n">
-        <v>28115.96801238796</v>
+        <v>28145.50308976591</v>
       </c>
       <c r="K110" t="n">
-        <v>23682.42995425574</v>
+        <v>23679.29139283685</v>
       </c>
     </row>
     <row r="111">
@@ -11843,19 +11843,19 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>1066.955258060334</v>
+        <v>1043.162073831027</v>
       </c>
       <c r="H111" t="n">
-        <v>23679.05210581873</v>
+        <v>23676.50094053337</v>
       </c>
       <c r="I111" t="n">
-        <v>26636.64474193966</v>
+        <v>26660.43792616897</v>
       </c>
       <c r="J111" t="n">
-        <v>26636.57402409805</v>
+        <v>26660.31872993907</v>
       </c>
       <c r="K111" t="n">
-        <v>23679.14552817515</v>
+        <v>23676.60011016779</v>
       </c>
     </row>
     <row r="112">
@@ -11869,19 +11869,19 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>993.2711453534466</v>
+        <v>974.8716051838492</v>
       </c>
       <c r="H112" t="n">
-        <v>23676.75559797291</v>
+        <v>23674.63595776026</v>
       </c>
       <c r="I112" t="n">
-        <v>25617.42885464655</v>
+        <v>25635.82839481615</v>
       </c>
       <c r="J112" t="n">
-        <v>25617.39965797784</v>
+        <v>25635.76823908391</v>
       </c>
       <c r="K112" t="n">
-        <v>23676.79969276784</v>
+        <v>23674.68295080842</v>
       </c>
     </row>
     <row r="113">
@@ -11895,19 +11895,19 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>854.2097610407582</v>
+        <v>840.5090029898493</v>
       </c>
       <c r="H113" t="n">
-        <v>23675.09422068701</v>
+        <v>23673.28661119623</v>
       </c>
       <c r="I113" t="n">
-        <v>24927.39023895924</v>
+        <v>24941.09099701015</v>
       </c>
       <c r="J113" t="n">
-        <v>24927.37946022035</v>
+        <v>24941.06066621245</v>
       </c>
       <c r="K113" t="n">
-        <v>23675.11461311599</v>
+        <v>23673.30843293708</v>
       </c>
     </row>
     <row r="114">
@@ -11921,19 +11921,19 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>1190.699480351199</v>
+        <v>1180.863519723214</v>
       </c>
       <c r="H114" t="n">
-        <v>23673.74842300855</v>
+        <v>23672.1935673493</v>
       </c>
       <c r="I114" t="n">
-        <v>24468.2005196488</v>
+        <v>24478.03648027679</v>
       </c>
       <c r="J114" t="n">
-        <v>24468.1973789464</v>
+        <v>24478.02114271028</v>
       </c>
       <c r="K114" t="n">
-        <v>23673.75766264093</v>
+        <v>23672.20349633731</v>
       </c>
     </row>
     <row r="115">
@@ -11947,19 +11947,19 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>1164.917083053959</v>
+        <v>1158.10659969836</v>
       </c>
       <c r="H115" t="n">
-        <v>23672.55090207247</v>
+        <v>23671.22100965921</v>
       </c>
       <c r="I115" t="n">
-        <v>24167.88291694604</v>
+        <v>24174.69340030164</v>
       </c>
       <c r="J115" t="n">
-        <v>24167.88261842011</v>
+        <v>24174.68559480871</v>
       </c>
       <c r="K115" t="n">
-        <v>23672.55500323089</v>
+        <v>23671.22543597481</v>
       </c>
     </row>
     <row r="116">
@@ -11973,19 +11973,19 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>1132.837380159086</v>
+        <v>1128.310554539996</v>
       </c>
       <c r="H116" t="n">
-        <v>23671.53356522193</v>
+        <v>23670.39476882907</v>
       </c>
       <c r="I116" t="n">
-        <v>23974.96261984091</v>
+        <v>23979.48944546</v>
       </c>
       <c r="J116" t="n">
-        <v>23974.96316609849</v>
+        <v>23979.48543773371</v>
       </c>
       <c r="K116" t="n">
-        <v>23671.53534837777</v>
+        <v>23670.39670198246</v>
       </c>
     </row>
     <row r="117">
@@ -11999,19 +11999,19 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>1285.653855978009</v>
+        <v>1282.770279881119</v>
       </c>
       <c r="H117" t="n">
-        <v>23670.5801680404</v>
+        <v>23669.62053880833</v>
       </c>
       <c r="I117" t="n">
-        <v>23853.14614402199</v>
+        <v>23856.02972011888</v>
       </c>
       <c r="J117" t="n">
-        <v>23853.14678617804</v>
+        <v>23856.02764190574</v>
       </c>
       <c r="K117" t="n">
-        <v>23670.58092743982</v>
+        <v>23669.62136588178</v>
       </c>
     </row>
     <row r="118">
@@ -12025,19 +12025,19 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>467.0312657224385</v>
+        <v>465.3223790697521</v>
       </c>
       <c r="H118" t="n">
-        <v>23669.9083982557</v>
+        <v>23669.07487094035</v>
       </c>
       <c r="I118" t="n">
-        <v>23777.76873427756</v>
+        <v>23779.47762093025</v>
       </c>
       <c r="J118" t="n">
-        <v>23777.76924556894</v>
+        <v>23779.476533315</v>
       </c>
       <c r="K118" t="n">
-        <v>23669.90871500744</v>
+        <v>23669.07521755365</v>
       </c>
     </row>
     <row r="119">
@@ -12051,19 +12051,19 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>291.5421231236578</v>
+        <v>290.6773543044037</v>
       </c>
       <c r="H119" t="n">
-        <v>23669.60193866976</v>
+        <v>23668.82567141025</v>
       </c>
       <c r="I119" t="n">
-        <v>23732.15787687634</v>
+        <v>23733.0226456956</v>
       </c>
       <c r="J119" t="n">
-        <v>23732.15822772652</v>
+        <v>23733.02207253802</v>
       </c>
       <c r="K119" t="n">
-        <v>23669.60206806171</v>
+        <v>23668.82581368947</v>
       </c>
     </row>
     <row r="120">
@@ -12077,19 +12077,19 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>493.2807954213386</v>
+        <v>492.9689548710485</v>
       </c>
       <c r="H120" t="n">
-        <v>23669.31230302362</v>
+        <v>23668.59023691874</v>
       </c>
       <c r="I120" t="n">
-        <v>23704.91920457866</v>
+        <v>23705.23104512895</v>
       </c>
       <c r="J120" t="n">
-        <v>23704.91942617148</v>
+        <v>23705.23074200091</v>
       </c>
       <c r="K120" t="n">
-        <v>23669.31235478533</v>
+        <v>23668.59029412009</v>
       </c>
     </row>
     <row r="121">
@@ -12103,19 +12103,19 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-75.6431809144342</v>
+        <v>-75.58609490679373</v>
       </c>
       <c r="H121" t="n">
-        <v>23669.1565630603</v>
+        <v>23668.46344911589</v>
       </c>
       <c r="I121" t="n">
-        <v>23689.04318091444</v>
+        <v>23688.9860949068</v>
       </c>
       <c r="J121" t="n">
-        <v>23689.04331330753</v>
+        <v>23688.98593463986</v>
       </c>
       <c r="K121" t="n">
-        <v>23669.15658333705</v>
+        <v>23668.46347163832</v>
       </c>
     </row>
     <row r="122">
@@ -12129,19 +12129,19 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>24.44165097839505</v>
+        <v>24.75416686271637</v>
       </c>
       <c r="H122" t="n">
-        <v>23669.1625568296</v>
+        <v>23668.46790508569</v>
       </c>
       <c r="I122" t="n">
-        <v>23680.0583490216</v>
+        <v>23679.74583313728</v>
       </c>
       <c r="J122" t="n">
-        <v>23680.05842489105</v>
+        <v>23679.7457487572</v>
       </c>
       <c r="K122" t="n">
-        <v>23669.16256460735</v>
+        <v>23668.4679137702</v>
       </c>
     </row>
     <row r="123">
@@ -12155,19 +12155,19 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>9.398683206756687</v>
+        <v>9.866304806917469</v>
       </c>
       <c r="H123" t="n">
-        <v>23669.14607058957</v>
+        <v>23668.45416354387</v>
       </c>
       <c r="I123" t="n">
-        <v>23675.00131679324</v>
+        <v>23674.53369519308</v>
       </c>
       <c r="J123" t="n">
-        <v>23675.00135882294</v>
+        <v>23674.53365110902</v>
       </c>
       <c r="K123" t="n">
-        <v>23669.14607351071</v>
+        <v>23668.45416682312</v>
       </c>
     </row>
     <row r="124">
@@ -12181,19 +12181,19 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>29.08385101882959</v>
+        <v>29.64457475433301</v>
       </c>
       <c r="H124" t="n">
-        <v>23669.13051759025</v>
+        <v>23668.44117492209</v>
       </c>
       <c r="I124" t="n">
-        <v>23672.21614898117</v>
+        <v>23671.65542524567</v>
       </c>
       <c r="J124" t="n">
-        <v>23672.21617159545</v>
+        <v>23671.65540245963</v>
       </c>
       <c r="K124" t="n">
-        <v>23669.13051866442</v>
+        <v>23668.44117613459</v>
       </c>
     </row>
     <row r="125">
@@ -12207,19 +12207,19 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-3.314867990982748</v>
+        <v>-2.699120899920672</v>
       </c>
       <c r="H125" t="n">
-        <v>23669.12051047531</v>
+        <v>23668.43268666447</v>
       </c>
       <c r="I125" t="n">
-        <v>23670.71486799098</v>
+        <v>23670.09912089992</v>
       </c>
       <c r="J125" t="n">
-        <v>23670.71487984418</v>
+        <v>23670.0991092761</v>
       </c>
       <c r="K125" t="n">
-        <v>23669.12051086203</v>
+        <v>23668.43268710345</v>
       </c>
     </row>
     <row r="126">
@@ -12233,19 +12233,19 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-519.4979509566656</v>
+        <v>-518.8171696194695</v>
       </c>
       <c r="H126" t="n">
-        <v>23669.29033280221</v>
+        <v>23668.57007605467</v>
       </c>
       <c r="I126" t="n">
-        <v>23670.09795095666</v>
+        <v>23669.41716961947</v>
       </c>
       <c r="J126" t="n">
-        <v>23670.09795702046</v>
+        <v>23669.41716377829</v>
       </c>
       <c r="K126" t="n">
-        <v>23669.29033293852</v>
+        <v>23668.57007621029</v>
       </c>
     </row>
     <row r="127">
@@ -12259,19 +12259,19 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>49.85502736068884</v>
+        <v>50.58350318758676</v>
       </c>
       <c r="H127" t="n">
-        <v>23669.44397097655</v>
+        <v>23668.69436286665</v>
       </c>
       <c r="I127" t="n">
-        <v>23669.84497263931</v>
+        <v>23669.11649681241</v>
       </c>
       <c r="J127" t="n">
-        <v>23669.84497567078</v>
+        <v>23669.1164939251</v>
       </c>
       <c r="K127" t="n">
-        <v>23669.44397102358</v>
+        <v>23668.69436292067</v>
       </c>
     </row>
     <row r="128">
@@ -12285,19 +12285,19 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>29.38624241298385</v>
+        <v>30.12036719385287</v>
       </c>
       <c r="H128" t="n">
-        <v>23669.41861514066</v>
+        <v>23668.67343192079</v>
       </c>
       <c r="I128" t="n">
-        <v>23669.61375758702</v>
+        <v>23668.87963280615</v>
       </c>
       <c r="J128" t="n">
-        <v>23669.61375906924</v>
+        <v>23668.87963140381</v>
       </c>
       <c r="K128" t="n">
-        <v>23669.41861515654</v>
+        <v>23668.67343193914</v>
       </c>
     </row>
     <row r="129">
@@ -12311,19 +12311,19 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-96.83347675304321</v>
+        <v>-96.08943194948733</v>
       </c>
       <c r="H129" t="n">
-        <v>23669.44041467013</v>
+        <v>23668.69071265325</v>
       </c>
       <c r="I129" t="n">
-        <v>23669.53347675304</v>
+        <v>23668.78943194949</v>
       </c>
       <c r="J129" t="n">
-        <v>23669.53347746223</v>
+        <v>23668.78943128079</v>
       </c>
       <c r="K129" t="n">
-        <v>23669.44041467538</v>
+        <v>23668.69071265935</v>
       </c>
     </row>
     <row r="130">
@@ -12337,19 +12337,19 @@
         <v>129.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.04348736413521692</v>
+        <v>-0.04631681029059109</v>
       </c>
       <c r="H130" t="n">
         <v>23070.3</v>
       </c>
       <c r="I130" t="n">
-        <v>23070.34348736413</v>
+        <v>23070.34631681029</v>
       </c>
       <c r="J130" t="n">
-        <v>23070.34348769629</v>
+        <v>23070.34631649743</v>
       </c>
       <c r="K130" t="n">
-        <v>23070.3000000017</v>
+        <v>23070.30000000199</v>
       </c>
     </row>
     <row r="131">
@@ -12363,19 +12363,19 @@
         <v>129.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.01991040254506515</v>
+        <v>-0.02129401750062243</v>
       </c>
       <c r="H131" t="n">
         <v>23261.8</v>
       </c>
       <c r="I131" t="n">
-        <v>23261.81991040254</v>
+        <v>23261.8212940175</v>
       </c>
       <c r="J131" t="n">
-        <v>23261.81991055486</v>
+        <v>23261.82129387395</v>
       </c>
       <c r="K131" t="n">
-        <v>23261.80000000054</v>
+        <v>23261.80000000063</v>
       </c>
     </row>
     <row r="132">
@@ -12389,19 +12389,19 @@
         <v>129.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.008930672604037682</v>
+        <v>-0.009592226761014899</v>
       </c>
       <c r="H132" t="n">
         <v>23679.9</v>
       </c>
       <c r="I132" t="n">
-        <v>23679.90893067261</v>
+        <v>23679.90959222676</v>
       </c>
       <c r="J132" t="n">
-        <v>23679.908930741</v>
+        <v>23679.90959216218</v>
       </c>
       <c r="K132" t="n">
-        <v>23679.90000000017</v>
+        <v>23679.9000000002</v>
       </c>
     </row>
     <row r="133">
@@ -12415,19 +12415,19 @@
         <v>128.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.003924089454812929</v>
+        <v>-0.004233382718666689</v>
       </c>
       <c r="H133" t="n">
         <v>23737.6</v>
       </c>
       <c r="I133" t="n">
-        <v>23737.60392408945</v>
+        <v>23737.60423338272</v>
       </c>
       <c r="J133" t="n">
-        <v>23737.60392411953</v>
+        <v>23737.60423335424</v>
       </c>
       <c r="K133" t="n">
-        <v>23737.60000000005</v>
+        <v>23737.60000000006</v>
       </c>
     </row>
     <row r="134">
@@ -12441,19 +12441,19 @@
         <v>128.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.001688924752670573</v>
+        <v>-0.001830323824833613</v>
       </c>
       <c r="H134" t="n">
         <v>22921.3</v>
       </c>
       <c r="I134" t="n">
-        <v>22921.30168892475</v>
+        <v>22921.30183032382</v>
       </c>
       <c r="J134" t="n">
-        <v>22921.3016889377</v>
+        <v>22921.30183031152</v>
       </c>
       <c r="K134" t="n">
-        <v>22921.30000000001</v>
+        <v>22921.30000000002</v>
       </c>
     </row>
     <row r="135">
@@ -12467,16 +12467,16 @@
         <v>128.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.0007119784459064249</v>
+        <v>-0.0007751916491542943</v>
       </c>
       <c r="H135" t="n">
         <v>23216.3</v>
       </c>
       <c r="I135" t="n">
-        <v>23216.30071197845</v>
+        <v>23216.30077519165</v>
       </c>
       <c r="J135" t="n">
-        <v>23216.30071198391</v>
+        <v>23216.30077518644</v>
       </c>
       <c r="K135" t="n">
         <v>23216.3</v>
@@ -12493,16 +12493,16 @@
         <v>128.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.0002939538826467469</v>
+        <v>-0.0003215893339074682</v>
       </c>
       <c r="H136" t="n">
         <v>23106.4</v>
       </c>
       <c r="I136" t="n">
-        <v>23106.40029395388</v>
+        <v>23106.40032158934</v>
       </c>
       <c r="J136" t="n">
-        <v>23106.40029395614</v>
+        <v>23106.40032158717</v>
       </c>
       <c r="K136" t="n">
         <v>23106.4</v>
@@ -12519,16 +12519,16 @@
         <v>128.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.0001188557034765836</v>
+        <v>-0.0001306707054027356</v>
       </c>
       <c r="H137" t="n">
         <v>23220.2</v>
       </c>
       <c r="I137" t="n">
-        <v>23220.2001188557</v>
+        <v>23220.20013067071</v>
       </c>
       <c r="J137" t="n">
-        <v>23220.20011885662</v>
+        <v>23220.20013066983</v>
       </c>
       <c r="K137" t="n">
         <v>23220.2</v>
@@ -12545,16 +12545,16 @@
         <v>128.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-4.706129402620718e-05</v>
+        <v>-5.200119994697161e-05</v>
       </c>
       <c r="H138" t="n">
         <v>24093.6</v>
       </c>
       <c r="I138" t="n">
-        <v>24093.60004706129</v>
+        <v>24093.6000520012</v>
       </c>
       <c r="J138" t="n">
-        <v>24093.60004706165</v>
+        <v>24093.60005200085</v>
       </c>
       <c r="K138" t="n">
         <v>24093.6</v>
@@ -12571,16 +12571,16 @@
         <v>128.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.824680657591671e-05</v>
+        <v>-2.026670699706301e-05</v>
       </c>
       <c r="H139" t="n">
         <v>22379.6</v>
       </c>
       <c r="I139" t="n">
-        <v>22379.60001824681</v>
+        <v>22379.60002026671</v>
       </c>
       <c r="J139" t="n">
-        <v>22379.60001824694</v>
+        <v>22379.60002026657</v>
       </c>
       <c r="K139" t="n">
         <v>22379.6</v>
@@ -12597,16 +12597,16 @@
         <v>128.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-6.927344657015055e-06</v>
+        <v>-7.735092367511243e-06</v>
       </c>
       <c r="H140" t="n">
         <v>23672.7</v>
       </c>
       <c r="I140" t="n">
-        <v>23672.70000692735</v>
+        <v>23672.70000773509</v>
       </c>
       <c r="J140" t="n">
-        <v>23672.7000069274</v>
+        <v>23672.70000773504</v>
       </c>
       <c r="K140" t="n">
         <v>23672.7</v>
@@ -12623,16 +12623,16 @@
         <v>128.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-2.575030521256849e-06</v>
+        <v>-2.890941686928272e-06</v>
       </c>
       <c r="H141" t="n">
         <v>22678.3</v>
       </c>
       <c r="I141" t="n">
-        <v>22678.30000257503</v>
+        <v>22678.30000289094</v>
       </c>
       <c r="J141" t="n">
-        <v>22678.30000257505</v>
+        <v>22678.30000289092</v>
       </c>
       <c r="K141" t="n">
         <v>22678.3</v>
@@ -12649,16 +12649,16 @@
         <v>128.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-9.371615306008607e-07</v>
+        <v>-1.057996996678412e-06</v>
       </c>
       <c r="H142" t="n">
         <v>22925.7</v>
       </c>
       <c r="I142" t="n">
-        <v>22925.70000093716</v>
+        <v>22925.700001058</v>
       </c>
       <c r="J142" t="n">
-        <v>22925.70000093717</v>
+        <v>22925.70000105799</v>
       </c>
       <c r="K142" t="n">
         <v>22925.7</v>
@@ -12675,16 +12675,16 @@
         <v>127.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-3.339227987453341e-07</v>
+        <v>-3.791283234022558e-07</v>
       </c>
       <c r="H143" t="n">
         <v>23234.5</v>
       </c>
       <c r="I143" t="n">
-        <v>23234.50000033392</v>
+        <v>23234.50000037913</v>
       </c>
       <c r="J143" t="n">
-        <v>23234.50000033393</v>
+        <v>23234.50000037912</v>
       </c>
       <c r="K143" t="n">
         <v>23234.5</v>
@@ -12701,16 +12701,16 @@
         <v>127.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-1.164808054454625e-07</v>
+        <v>-1.330226950813085e-07</v>
       </c>
       <c r="H144" t="n">
         <v>23209.9</v>
       </c>
       <c r="I144" t="n">
-        <v>23209.90000011648</v>
+        <v>23209.90000013302</v>
       </c>
       <c r="J144" t="n">
-        <v>23209.90000011648</v>
+        <v>23209.90000013302</v>
       </c>
       <c r="K144" t="n">
         <v>23209.9</v>
@@ -12727,16 +12727,16 @@
         <v>127.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-3.977766027674079e-08</v>
+        <v>-4.569665179587901e-08</v>
       </c>
       <c r="H145" t="n">
         <v>22959.1</v>
       </c>
       <c r="I145" t="n">
-        <v>22959.10000003978</v>
+        <v>22959.1000000457</v>
       </c>
       <c r="J145" t="n">
-        <v>22959.10000003978</v>
+        <v>22959.1000000457</v>
       </c>
       <c r="K145" t="n">
         <v>22959.1</v>
@@ -12753,16 +12753,16 @@
         <v>127.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.329681253992021e-08</v>
+        <v>-1.537046045996249e-08</v>
       </c>
       <c r="H146" t="n">
         <v>23204.9</v>
       </c>
       <c r="I146" t="n">
-        <v>23204.9000000133</v>
+        <v>23204.90000001537</v>
       </c>
       <c r="J146" t="n">
-        <v>23204.9000000133</v>
+        <v>23204.90000001537</v>
       </c>
       <c r="K146" t="n">
         <v>23204.9</v>
@@ -12779,16 +12779,16 @@
         <v>127.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-4.351022653281689e-09</v>
+        <v>-5.060428520664573e-09</v>
       </c>
       <c r="H147" t="n">
         <v>22759</v>
       </c>
       <c r="I147" t="n">
-        <v>22759.00000000435</v>
+        <v>22759.00000000506</v>
       </c>
       <c r="J147" t="n">
-        <v>22759.00000000435</v>
+        <v>22759.00000000506</v>
       </c>
       <c r="K147" t="n">
         <v>22759</v>
@@ -12805,16 +12805,16 @@
         <v>127.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.393345883116126e-09</v>
+        <v>-1.629814505577087e-09</v>
       </c>
       <c r="H148" t="n">
         <v>23218.7</v>
       </c>
       <c r="I148" t="n">
-        <v>23218.70000000139</v>
+        <v>23218.70000000163</v>
       </c>
       <c r="J148" t="n">
-        <v>23218.70000000139</v>
+        <v>23218.70000000163</v>
       </c>
       <c r="K148" t="n">
         <v>23218.7</v>
@@ -12831,16 +12831,16 @@
         <v>127.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-4.365574568510056e-10</v>
+        <v>-5.129550117999315e-10</v>
       </c>
       <c r="H149" t="n">
         <v>23386.5</v>
       </c>
       <c r="I149" t="n">
-        <v>23386.50000000044</v>
+        <v>23386.50000000051</v>
       </c>
       <c r="J149" t="n">
-        <v>23386.50000000044</v>
+        <v>23386.50000000051</v>
       </c>
       <c r="K149" t="n">
         <v>23386.5</v>
@@ -12857,16 +12857,16 @@
         <v>127.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.346052158623934e-10</v>
+        <v>-1.600710675120354e-10</v>
       </c>
       <c r="H150" t="n">
         <v>23184.7</v>
       </c>
       <c r="I150" t="n">
-        <v>23184.70000000014</v>
+        <v>23184.70000000016</v>
       </c>
       <c r="J150" t="n">
-        <v>23184.70000000014</v>
+        <v>23184.70000000016</v>
       </c>
       <c r="K150" t="n">
         <v>23184.7</v>
@@ -12883,16 +12883,16 @@
         <v>127.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-4.001776687800884e-11</v>
+        <v>-4.729372449219227e-11</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>22687.00000000004</v>
+        <v>22687.00000000005</v>
       </c>
       <c r="J151" t="n">
-        <v>22687.00000000004</v>
+        <v>22687.00000000005</v>
       </c>
       <c r="K151" t="n">
         <v>22687</v>
@@ -12909,16 +12909,16 @@
         <v>127.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-1.091393642127514e-11</v>
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>22924.40000000001</v>
+        <v>22924.40000000002</v>
       </c>
       <c r="J152" t="n">
-        <v>22924.40000000001</v>
+        <v>22924.40000000002</v>
       </c>
       <c r="K152" t="n">
         <v>22924.4</v>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -73,7 +73,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -440,11 +440,17 @@
       <top style="thin"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -506,6 +512,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +651,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5648325" cy="4086225"/>
+    <ext cx="5657850" cy="4114800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -638,6 +665,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -668,7 +698,7 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
+          <avLst/>
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
@@ -703,7 +733,7 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
+          <avLst/>
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
@@ -10283,19 +10313,19 @@
         <v>137.18</v>
       </c>
       <c r="G51" t="n">
-        <v>24.53005351460524</v>
+        <v>24.53338684793562</v>
       </c>
       <c r="H51" t="n">
-        <v>24672.13333333333</v>
+        <v>24672.13</v>
       </c>
       <c r="I51" t="n">
-        <v>24672.3699464854</v>
+        <v>24672.36661315207</v>
       </c>
       <c r="J51" t="n">
-        <v>24672.13333339001</v>
+        <v>24672.13000005668</v>
       </c>
       <c r="K51" t="n">
-        <v>24672.3699475103</v>
+        <v>24672.36661417697</v>
       </c>
     </row>
     <row r="52">
@@ -10309,19 +10339,19 @@
         <v>137.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.985933482799737</v>
+        <v>-3.98773545494987</v>
       </c>
       <c r="H52" t="n">
-        <v>24667.00819802785</v>
+        <v>24667.01</v>
       </c>
       <c r="I52" t="n">
-        <v>24667.4859334828</v>
+        <v>24667.48773545495</v>
       </c>
       <c r="J52" t="n">
-        <v>24667.00819819214</v>
+        <v>24667.01000016429</v>
       </c>
       <c r="K52" t="n">
-        <v>24667.48593550229</v>
+        <v>24667.48773747444</v>
       </c>
     </row>
     <row r="53">
@@ -10335,19 +10365,19 @@
         <v>136.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-11.9481581258915</v>
+        <v>-11.94556755579106</v>
       </c>
       <c r="H53" t="n">
-        <v>24667.0025905701</v>
+        <v>24667</v>
       </c>
       <c r="I53" t="n">
-        <v>24667.94815812589</v>
+        <v>24667.94556755579</v>
       </c>
       <c r="J53" t="n">
-        <v>24667.00259103639</v>
+        <v>24667.00000046629</v>
       </c>
       <c r="K53" t="n">
-        <v>24667.9481619819</v>
+        <v>24667.9455714118</v>
       </c>
     </row>
     <row r="54">
@@ -10361,19 +10391,19 @@
         <v>136.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-85.84145719955632</v>
+        <v>-85.84489713509538</v>
       </c>
       <c r="H54" t="n">
-        <v>24667.00656006446</v>
+        <v>24667.01</v>
       </c>
       <c r="I54" t="n">
-        <v>24668.84145719956</v>
+        <v>24668.8448971351</v>
       </c>
       <c r="J54" t="n">
-        <v>24667.00656136022</v>
+        <v>24667.01000129576</v>
       </c>
       <c r="K54" t="n">
-        <v>24668.8414642913</v>
+        <v>24668.84490422684</v>
       </c>
     </row>
     <row r="55">
@@ -10387,19 +10417,19 @@
         <v>136.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-393.9238112547064</v>
+        <v>-393.9214638233061</v>
       </c>
       <c r="H55" t="n">
-        <v>24667.0323474314</v>
+        <v>24667.03</v>
       </c>
       <c r="I55" t="n">
-        <v>24670.5238112547</v>
+        <v>24670.5214638233</v>
       </c>
       <c r="J55" t="n">
-        <v>24667.03235095715</v>
+        <v>24667.03000352575</v>
       </c>
       <c r="K55" t="n">
-        <v>24670.52382368879</v>
+        <v>24670.52147625739</v>
       </c>
     </row>
     <row r="56">
@@ -10413,19 +10443,19 @@
         <v>136.68</v>
       </c>
       <c r="G56" t="n">
-        <v>132.7262302915478</v>
+        <v>132.7244941297067</v>
       </c>
       <c r="H56" t="n">
-        <v>24667.15826383816</v>
+        <v>24667.16</v>
       </c>
       <c r="I56" t="n">
-        <v>24673.67376970845</v>
+        <v>24673.67550587029</v>
       </c>
       <c r="J56" t="n">
-        <v>24667.15827323223</v>
+        <v>24667.16000939408</v>
       </c>
       <c r="K56" t="n">
-        <v>24673.67379009739</v>
+        <v>24673.67552625923</v>
       </c>
     </row>
     <row r="57">
@@ -10439,19 +10469,19 @@
         <v>136.58</v>
       </c>
       <c r="G57" t="n">
-        <v>559.8498043727486</v>
+        <v>559.8536470967701</v>
       </c>
       <c r="H57" t="n">
-        <v>24667.22384272402</v>
+        <v>24667.22</v>
       </c>
       <c r="I57" t="n">
-        <v>24679.15019562725</v>
+        <v>24679.14635290323</v>
       </c>
       <c r="J57" t="n">
-        <v>24667.22386723455</v>
+        <v>24667.22002451053</v>
       </c>
       <c r="K57" t="n">
-        <v>24679.15022563316</v>
+        <v>24679.14638290914</v>
       </c>
     </row>
     <row r="58">
@@ -10465,19 +10495,19 @@
         <v>136.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-32.15224642790054</v>
+        <v>-32.14740484383583</v>
       </c>
       <c r="H58" t="n">
-        <v>24667.03484158406</v>
+        <v>24667.03</v>
       </c>
       <c r="I58" t="n">
-        <v>24688.4522464279</v>
+        <v>24688.44740484384</v>
       </c>
       <c r="J58" t="n">
-        <v>24667.03490421197</v>
+        <v>24667.03006262791</v>
       </c>
       <c r="K58" t="n">
-        <v>24688.45228170067</v>
+        <v>24688.4474401166</v>
       </c>
     </row>
     <row r="59">
@@ -10491,19 +10521,19 @@
         <v>136.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-220.1276171326463</v>
+        <v>-220.1310193885147</v>
       </c>
       <c r="H59" t="n">
-        <v>24666.88659774413</v>
+        <v>24666.89</v>
       </c>
       <c r="I59" t="n">
-        <v>24704.62761713265</v>
+        <v>24704.63101938851</v>
       </c>
       <c r="J59" t="n">
-        <v>24666.88675446344</v>
+        <v>24666.89015671931</v>
       </c>
       <c r="K59" t="n">
-        <v>24704.62763293004</v>
+        <v>24704.63103518591</v>
       </c>
     </row>
     <row r="60">
@@ -10517,19 +10547,19 @@
         <v>136.28</v>
       </c>
       <c r="G60" t="n">
-        <v>375.988135177915</v>
+        <v>375.9854909245223</v>
       </c>
       <c r="H60" t="n">
-        <v>24666.93735574661</v>
+        <v>24666.94</v>
       </c>
       <c r="I60" t="n">
-        <v>24732.21186482209</v>
+        <v>24732.21450907548</v>
       </c>
       <c r="J60" t="n">
-        <v>24666.93773984336</v>
+        <v>24666.94038409675</v>
       </c>
       <c r="K60" t="n">
-        <v>24732.21177909817</v>
+        <v>24732.21442335156</v>
       </c>
     </row>
     <row r="61">
@@ -10543,19 +10573,19 @@
         <v>136.18</v>
       </c>
       <c r="G61" t="n">
-        <v>178.5013478604451</v>
+        <v>178.4991691061186</v>
       </c>
       <c r="H61" t="n">
-        <v>24666.86782124567</v>
+        <v>24666.87</v>
       </c>
       <c r="I61" t="n">
-        <v>24777.69865213956</v>
+        <v>24777.70083089388</v>
       </c>
       <c r="J61" t="n">
-        <v>24666.86874328218</v>
+        <v>24666.87092203651</v>
       </c>
       <c r="K61" t="n">
-        <v>24777.69823671292</v>
+        <v>24777.70041546725</v>
       </c>
     </row>
     <row r="62">
@@ -10569,19 +10599,19 @@
         <v>136.08</v>
       </c>
       <c r="G62" t="n">
-        <v>254.0373011945594</v>
+        <v>254.0407125614074</v>
       </c>
       <c r="H62" t="n">
-        <v>24666.67341136685</v>
+        <v>24666.67</v>
       </c>
       <c r="I62" t="n">
-        <v>24851.46269880544</v>
+        <v>24851.45928743859</v>
       </c>
       <c r="J62" t="n">
-        <v>24666.67557943383</v>
+        <v>24666.67216806698</v>
       </c>
       <c r="K62" t="n">
-        <v>24851.46137540675</v>
+        <v>24851.4579640399</v>
       </c>
     </row>
     <row r="63">
@@ -10595,19 +10625,19 @@
         <v>135.98</v>
       </c>
       <c r="G63" t="n">
-        <v>956.9911474660912</v>
+        <v>956.9893457400431</v>
       </c>
       <c r="H63" t="n">
-        <v>24666.47819827395</v>
+        <v>24666.48</v>
       </c>
       <c r="I63" t="n">
-        <v>24969.10885253391</v>
+        <v>24969.11065425996</v>
       </c>
       <c r="J63" t="n">
-        <v>24666.48319222357</v>
+        <v>24666.48499394962</v>
       </c>
       <c r="K63" t="n">
-        <v>24969.10524188694</v>
+        <v>24969.10704361298</v>
       </c>
     </row>
     <row r="64">
@@ -10621,19 +10651,19 @@
         <v>135.88</v>
       </c>
       <c r="G64" t="n">
-        <v>681.4102218081462</v>
+        <v>681.4151662467921</v>
       </c>
       <c r="H64" t="n">
-        <v>24666.02494443865</v>
+        <v>24666.02</v>
       </c>
       <c r="I64" t="n">
-        <v>25152.98977819186</v>
+        <v>25152.98483375321</v>
       </c>
       <c r="J64" t="n">
-        <v>24666.03621367567</v>
+        <v>24666.03126923703</v>
       </c>
       <c r="K64" t="n">
-        <v>25152.98073479908</v>
+        <v>25152.97579036043</v>
       </c>
     </row>
     <row r="65">
@@ -10647,19 +10677,19 @@
         <v>135.78</v>
       </c>
       <c r="G65" t="n">
-        <v>892.9886600440768</v>
+        <v>892.9864982862564</v>
       </c>
       <c r="H65" t="n">
-        <v>24665.37783824218</v>
+        <v>24665.38</v>
       </c>
       <c r="I65" t="n">
-        <v>25435.51133995592</v>
+        <v>25435.51350171374</v>
       </c>
       <c r="J65" t="n">
-        <v>24665.40275308979</v>
+        <v>24665.40491484761</v>
       </c>
       <c r="K65" t="n">
-        <v>25435.48994519465</v>
+        <v>25435.49210695247</v>
       </c>
     </row>
     <row r="66">
@@ -10673,19 +10703,19 @@
         <v>135.68</v>
       </c>
       <c r="G66" t="n">
-        <v>898.6287509427493</v>
+        <v>898.6308616798633</v>
       </c>
       <c r="H66" t="n">
-        <v>24664.62211073711</v>
+        <v>24664.62</v>
       </c>
       <c r="I66" t="n">
-        <v>25862.07124905725</v>
+        <v>25862.06913832014</v>
       </c>
       <c r="J66" t="n">
-        <v>24664.67608323047</v>
+        <v>24664.67397249335</v>
       </c>
       <c r="K66" t="n">
-        <v>25862.02274963054</v>
+        <v>25862.02063889342</v>
       </c>
     </row>
     <row r="67">
@@ -10699,19 +10729,19 @@
         <v>135.58</v>
       </c>
       <c r="G67" t="n">
-        <v>560.8964242282127</v>
+        <v>560.8957618625172</v>
       </c>
       <c r="H67" t="n">
-        <v>24663.6193376343</v>
+        <v>24663.62</v>
       </c>
       <c r="I67" t="n">
-        <v>26494.70357577179</v>
+        <v>26494.70423813748</v>
       </c>
       <c r="J67" t="n">
-        <v>24663.73390933783</v>
+        <v>24663.73457170352</v>
       </c>
       <c r="K67" t="n">
-        <v>26494.59737286896</v>
+        <v>26494.59803523465</v>
       </c>
     </row>
     <row r="68">
@@ -10725,19 +10755,19 @@
         <v>135.48</v>
       </c>
       <c r="G68" t="n">
-        <v>532.151169513796</v>
+        <v>532.1519816452965</v>
       </c>
       <c r="H68" t="n">
-        <v>24662.4208121315</v>
+        <v>24662.42</v>
       </c>
       <c r="I68" t="n">
-        <v>27416.9488304862</v>
+        <v>27416.9480183547</v>
       </c>
       <c r="J68" t="n">
-        <v>24662.65916274437</v>
+        <v>24662.65835061287</v>
       </c>
       <c r="K68" t="n">
-        <v>27416.72306844352</v>
+        <v>27416.72225631202</v>
       </c>
     </row>
     <row r="69">
@@ -10751,19 +10781,19 @@
         <v>135.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-20.33854386179883</v>
+        <v>-20.33575649244449</v>
       </c>
       <c r="H69" t="n">
-        <v>24660.90278736936</v>
+        <v>24660.9</v>
       </c>
       <c r="I69" t="n">
-        <v>28738.2385438618</v>
+        <v>28738.23575649245</v>
       </c>
       <c r="J69" t="n">
-        <v>24661.38878722521</v>
+        <v>24661.38599985585</v>
       </c>
       <c r="K69" t="n">
-        <v>28737.77117648587</v>
+        <v>28737.76838911651</v>
       </c>
     </row>
     <row r="70">
@@ -10777,19 +10807,19 @@
         <v>135.28</v>
       </c>
       <c r="G70" t="n">
-        <v>119.1531742164261</v>
+        <v>119.1487001380483</v>
       </c>
       <c r="H70" t="n">
-        <v>24658.93552592162</v>
+        <v>24658.94</v>
       </c>
       <c r="I70" t="n">
-        <v>30598.44682578357</v>
+        <v>30598.45129986195</v>
       </c>
       <c r="J70" t="n">
-        <v>24659.90690303612</v>
+        <v>24659.9113771145</v>
       </c>
       <c r="K70" t="n">
-        <v>30597.50258788775</v>
+        <v>30597.50706196613</v>
       </c>
     </row>
     <row r="71">
@@ -10803,19 +10833,19 @@
         <v>135.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-390.516074667561</v>
+        <v>-390.5161594470555</v>
       </c>
       <c r="H71" t="n">
-        <v>24656.21991522051</v>
+        <v>24656.22</v>
       </c>
       <c r="I71" t="n">
-        <v>33170.31607466756</v>
+        <v>33170.31615944706</v>
       </c>
       <c r="J71" t="n">
-        <v>24658.12330043115</v>
+        <v>24658.12338521065</v>
       </c>
       <c r="K71" t="n">
-        <v>33168.45158687868</v>
+        <v>33168.45167165816</v>
       </c>
     </row>
     <row r="72">
@@ -10829,19 +10859,19 @@
         <v>135.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-107.3474697287966</v>
+        <v>-107.3454487896015</v>
       </c>
       <c r="H72" t="n">
-        <v>24652.40202093919</v>
+        <v>24652.4</v>
       </c>
       <c r="I72" t="n">
-        <v>36657.4474697288</v>
+        <v>36657.4454487896</v>
       </c>
       <c r="J72" t="n">
-        <v>24656.05891709149</v>
+        <v>24656.0568961523</v>
       </c>
       <c r="K72" t="n">
-        <v>36653.84540873786</v>
+        <v>36653.84338779867</v>
       </c>
     </row>
     <row r="73">
@@ -10855,19 +10885,19 @@
         <v>134.98</v>
       </c>
       <c r="G73" t="n">
-        <v>38.78597678784718</v>
+        <v>38.78599370734446</v>
       </c>
       <c r="H73" t="n">
-        <v>24646.9900169195</v>
+        <v>24646.99</v>
       </c>
       <c r="I73" t="n">
-        <v>41281.71402321215</v>
+        <v>41281.71400629266</v>
       </c>
       <c r="J73" t="n">
-        <v>24653.87988574691</v>
+        <v>24653.87986882741</v>
       </c>
       <c r="K73" t="n">
-        <v>41274.90011585334</v>
+        <v>41274.90009893384</v>
       </c>
     </row>
     <row r="74">
@@ -10881,19 +10911,19 @@
         <v>134.88</v>
       </c>
       <c r="G74" t="n">
-        <v>118.624065561271</v>
+        <v>118.6201939058883</v>
       </c>
       <c r="H74" t="n">
-        <v>24639.23612834462</v>
+        <v>24639.24</v>
       </c>
       <c r="I74" t="n">
-        <v>47250.07593443873</v>
+        <v>47250.07980609411</v>
       </c>
       <c r="J74" t="n">
-        <v>24651.96801358289</v>
+        <v>24651.97188523827</v>
       </c>
       <c r="K74" t="n">
-        <v>47237.44726225547</v>
+        <v>47237.45113391086</v>
       </c>
     </row>
     <row r="75">
@@ -10907,19 +10937,19 @@
         <v>134.78</v>
       </c>
       <c r="G75" t="n">
-        <v>858.9491362543631</v>
+        <v>858.9461275442445</v>
       </c>
       <c r="H75" t="n">
-        <v>24628.47699128988</v>
+        <v>24628.48</v>
       </c>
       <c r="I75" t="n">
-        <v>54685.35086374564</v>
+        <v>54685.35387245576</v>
       </c>
       <c r="J75" t="n">
-        <v>24651.55696303898</v>
+        <v>24651.55997174911</v>
       </c>
       <c r="K75" t="n">
-        <v>54662.4080249587</v>
+        <v>54662.41103366882</v>
       </c>
     </row>
     <row r="76">
@@ -10933,19 +10963,19 @@
         <v>134.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-109.6388987957689</v>
+        <v>-109.6400181099671</v>
       </c>
       <c r="H76" t="n">
-        <v>24613.7488806858</v>
+        <v>24613.75</v>
       </c>
       <c r="I76" t="n">
-        <v>63501.53889879577</v>
+        <v>63501.54001810997</v>
       </c>
       <c r="J76" t="n">
-        <v>24654.79979739772</v>
+        <v>24654.80091671192</v>
       </c>
       <c r="K76" t="n">
-        <v>63460.66527939703</v>
+        <v>63460.66639871123</v>
       </c>
     </row>
     <row r="77">
@@ -10959,19 +10989,19 @@
         <v>134.58</v>
       </c>
       <c r="G77" t="n">
-        <v>450.3887955897953</v>
+        <v>450.3889992333716</v>
       </c>
       <c r="H77" t="n">
-        <v>24594.48020364359</v>
+        <v>24594.48</v>
       </c>
       <c r="I77" t="n">
-        <v>73223.5112044102</v>
+        <v>73223.51100076662</v>
       </c>
       <c r="J77" t="n">
-        <v>24666.13530823815</v>
+        <v>24666.13510459456</v>
       </c>
       <c r="K77" t="n">
-        <v>73152.07758013647</v>
+        <v>73152.07737649287</v>
       </c>
     </row>
     <row r="78">
@@ -10985,19 +11015,19 @@
         <v>134.48</v>
       </c>
       <c r="G78" t="n">
-        <v>710.4133964409557</v>
+        <v>710.4177324953198</v>
       </c>
       <c r="H78" t="n">
-        <v>24569.99433605436</v>
+        <v>24569.99</v>
       </c>
       <c r="I78" t="n">
-        <v>82808.78660355904</v>
+        <v>82808.78226750468</v>
       </c>
       <c r="J78" t="n">
-        <v>24692.76869671101</v>
+        <v>24692.76436065665</v>
       </c>
       <c r="K78" t="n">
-        <v>82686.27707375004</v>
+        <v>82686.27273769568</v>
       </c>
     </row>
     <row r="79">
@@ -11011,19 +11041,19 @@
         <v>134.38</v>
       </c>
       <c r="G79" t="n">
-        <v>653.9273549218633</v>
+        <v>653.9315884959506</v>
       </c>
       <c r="H79" t="n">
-        <v>24539.77423357409</v>
+        <v>24539.77</v>
       </c>
       <c r="I79" t="n">
-        <v>90647.77264507813</v>
+        <v>90647.76841150405</v>
       </c>
       <c r="J79" t="n">
-        <v>24746.31814560902</v>
+        <v>24746.31391203493</v>
       </c>
       <c r="K79" t="n">
-        <v>90441.52858974879</v>
+        <v>90441.5243561747</v>
       </c>
     </row>
     <row r="80">
@@ -11037,19 +11067,19 @@
         <v>134.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-1109.856424231111</v>
+        <v>-1109.860877563304</v>
       </c>
       <c r="H80" t="n">
-        <v>24504.70554666781</v>
+        <v>24504.71</v>
       </c>
       <c r="I80" t="n">
-        <v>94972.95642423112</v>
+        <v>94972.96087756331</v>
       </c>
       <c r="J80" t="n">
-        <v>24845.95947264163</v>
+        <v>24845.96392597381</v>
       </c>
       <c r="K80" t="n">
-        <v>94632.02076623341</v>
+        <v>94632.02521956561</v>
       </c>
     </row>
     <row r="81">
@@ -11063,19 +11093,19 @@
         <v>134.18</v>
       </c>
       <c r="G81" t="n">
-        <v>209.4728408498049</v>
+        <v>209.4698187130853</v>
       </c>
       <c r="H81" t="n">
-        <v>24466.93697786327</v>
+        <v>24466.94</v>
       </c>
       <c r="I81" t="n">
-        <v>94659.0271591502</v>
+        <v>94659.03018128691</v>
       </c>
       <c r="J81" t="n">
-        <v>25020.83275867673</v>
+        <v>25020.83578081346</v>
       </c>
       <c r="K81" t="n">
-        <v>94105.44598470631</v>
+        <v>94105.44900684305</v>
       </c>
     </row>
     <row r="82">
@@ -11089,19 +11119,19 @@
         <v>134.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-398.6019033565244</v>
+        <v>-398.6052207686298</v>
       </c>
       <c r="H82" t="n">
-        <v>24428.61668258791</v>
+        <v>24428.62</v>
       </c>
       <c r="I82" t="n">
-        <v>89887.50190335652</v>
+        <v>89887.50522076862</v>
       </c>
       <c r="J82" t="n">
-        <v>25312.09422438189</v>
+        <v>25312.09754179398</v>
       </c>
       <c r="K82" t="n">
-        <v>89004.31361323496</v>
+        <v>89004.31693064705</v>
       </c>
     </row>
     <row r="83">
@@ -11115,19 +11145,19 @@
         <v>133.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-409.5962394862145</v>
+        <v>-409.5990821751911</v>
       </c>
       <c r="H83" t="n">
-        <v>24392.24715731102</v>
+        <v>24392.25</v>
       </c>
       <c r="I83" t="n">
-        <v>82065.29623948621</v>
+        <v>82065.29908217519</v>
       </c>
       <c r="J83" t="n">
-        <v>25777.46225494104</v>
+        <v>25777.46509763002</v>
       </c>
       <c r="K83" t="n">
-        <v>80680.32914246939</v>
+        <v>80680.33198515838</v>
       </c>
     </row>
     <row r="84">
@@ -11141,19 +11171,19 @@
         <v>133.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-219.2718542125367</v>
+        <v>-219.2754036654369</v>
       </c>
       <c r="H84" t="n">
-        <v>24360.02645054711</v>
+        <v>24360.03</v>
       </c>
       <c r="I84" t="n">
-        <v>73080.37185421254</v>
+        <v>73080.37540366544</v>
       </c>
       <c r="J84" t="n">
-        <v>26495.68480524588</v>
+        <v>26495.68835469878</v>
       </c>
       <c r="K84" t="n">
-        <v>70944.91210902992</v>
+        <v>70944.91565848282</v>
       </c>
     </row>
     <row r="85">
@@ -11167,19 +11197,19 @@
         <v>133.78</v>
       </c>
       <c r="G85" t="n">
-        <v>666.9706596469259</v>
+        <v>666.9690062067384</v>
       </c>
       <c r="H85" t="n">
-        <v>24332.58834655982</v>
+        <v>24332.59</v>
       </c>
       <c r="I85" t="n">
-        <v>64561.02934035307</v>
+        <v>64561.03099379326</v>
       </c>
       <c r="J85" t="n">
-        <v>27571.30157582561</v>
+        <v>27571.30322926579</v>
       </c>
       <c r="K85" t="n">
-        <v>61322.46345734411</v>
+        <v>61322.46511078429</v>
       </c>
     </row>
     <row r="86">
@@ -11193,19 +11223,19 @@
         <v>133.68</v>
       </c>
       <c r="G86" t="n">
-        <v>253.643571180015</v>
+        <v>253.6409861474895</v>
       </c>
       <c r="H86" t="n">
-        <v>24309.69741496748</v>
+        <v>24309.7</v>
       </c>
       <c r="I86" t="n">
-        <v>57571.35642881999</v>
+        <v>57571.35901385251</v>
       </c>
       <c r="J86" t="n">
-        <v>29142.02064913041</v>
+        <v>29142.02323416294</v>
       </c>
       <c r="K86" t="n">
-        <v>52739.13071421302</v>
+        <v>52739.13329924556</v>
       </c>
     </row>
     <row r="87">
@@ -11219,19 +11249,19 @@
         <v>133.58</v>
       </c>
       <c r="G87" t="n">
-        <v>30.51771542183269</v>
+        <v>30.52255851968221</v>
       </c>
       <c r="H87" t="n">
-        <v>24290.78484309785</v>
+        <v>24290.78</v>
       </c>
       <c r="I87" t="n">
-        <v>52674.68228457816</v>
+        <v>52674.67744148031</v>
       </c>
       <c r="J87" t="n">
-        <v>31385.96658206957</v>
+        <v>31385.96173897172</v>
       </c>
       <c r="K87" t="n">
-        <v>45579.55023645869</v>
+        <v>45579.54539336084</v>
       </c>
     </row>
     <row r="88">
@@ -11245,19 +11275,19 @@
         <v>133.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-615.6530686090919</v>
+        <v>-615.6564458582361</v>
       </c>
       <c r="H88" t="n">
-        <v>24274.91662275086</v>
+        <v>24274.92</v>
       </c>
       <c r="I88" t="n">
-        <v>50128.05306860909</v>
+        <v>50128.05644585824</v>
       </c>
       <c r="J88" t="n">
-        <v>34526.97709945189</v>
+        <v>34526.98047670103</v>
       </c>
       <c r="K88" t="n">
-        <v>39875.99509520378</v>
+        <v>39875.99847245292</v>
       </c>
     </row>
     <row r="89">
@@ -11271,19 +11301,19 @@
         <v>133.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-735.832786751489</v>
+        <v>-735.8358925049106</v>
       </c>
       <c r="H89" t="n">
-        <v>24260.80689424658</v>
+        <v>24260.81</v>
       </c>
       <c r="I89" t="n">
-        <v>50055.43278675149</v>
+        <v>50055.43589250491</v>
       </c>
       <c r="J89" t="n">
-        <v>38835.59516951958</v>
+        <v>38835.59827527301</v>
       </c>
       <c r="K89" t="n">
-        <v>35480.59797384302</v>
+        <v>35480.60107959645</v>
       </c>
     </row>
     <row r="90">
@@ -11297,19 +11327,19 @@
         <v>133.28</v>
       </c>
       <c r="G90" t="n">
-        <v>159.4015465158809</v>
+        <v>159.40020996979</v>
       </c>
       <c r="H90" t="n">
-        <v>24246.87866345391</v>
+        <v>24246.88</v>
       </c>
       <c r="I90" t="n">
-        <v>52551.09845348412</v>
+        <v>52551.09979003021</v>
       </c>
       <c r="J90" t="n">
-        <v>44619.84375152897</v>
+        <v>44619.84508807506</v>
       </c>
       <c r="K90" t="n">
-        <v>32178.03287840137</v>
+        <v>32178.03421494746</v>
       </c>
     </row>
     <row r="91">
@@ -11323,19 +11353,19 @@
         <v>133.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-1206.444234506744</v>
+        <v>-1206.439780072142</v>
       </c>
       <c r="H91" t="n">
-        <v>24231.58445443461</v>
+        <v>24231.58</v>
       </c>
       <c r="I91" t="n">
-        <v>57710.34423450675</v>
+        <v>57710.33978007214</v>
       </c>
       <c r="J91" t="n">
-        <v>52194.90353843783</v>
+        <v>52194.89908400322</v>
       </c>
       <c r="K91" t="n">
-        <v>29746.86267470285</v>
+        <v>29746.85822026823</v>
       </c>
     </row>
     <row r="92">
@@ -11349,19 +11379,19 @@
         <v>133.08</v>
       </c>
       <c r="G92" t="n">
-        <v>633.4058409350982</v>
+        <v>633.4026596578333</v>
       </c>
       <c r="H92" t="n">
-        <v>24213.49681872274</v>
+        <v>24213.5</v>
       </c>
       <c r="I92" t="n">
-        <v>65586.7941590649</v>
+        <v>65586.79734034216</v>
       </c>
       <c r="J92" t="n">
-        <v>61812.39099794308</v>
+        <v>61812.39417922033</v>
       </c>
       <c r="K92" t="n">
-        <v>27987.66487237422</v>
+        <v>27987.66805365148</v>
       </c>
     </row>
     <row r="93">
@@ -11375,19 +11405,19 @@
         <v>132.98</v>
       </c>
       <c r="G93" t="n">
-        <v>686.5358390911133</v>
+        <v>686.5369515893981</v>
       </c>
       <c r="H93" t="n">
-        <v>24190.71111249828</v>
+        <v>24190.71</v>
       </c>
       <c r="I93" t="n">
-        <v>76064.56416090889</v>
+        <v>76064.56304841061</v>
       </c>
       <c r="J93" t="n">
-        <v>73522.62994801336</v>
+        <v>73522.62883551508</v>
       </c>
       <c r="K93" t="n">
-        <v>26732.32583306896</v>
+        <v>26732.32472057067</v>
       </c>
     </row>
     <row r="94">
@@ -11401,19 +11431,19 @@
         <v>132.88</v>
       </c>
       <c r="G94" t="n">
-        <v>2078.460445095989</v>
+        <v>2078.456262653388</v>
       </c>
       <c r="H94" t="n">
-        <v>24161.5158175574</v>
+        <v>24161.52</v>
       </c>
       <c r="I94" t="n">
-        <v>88636.23955490401</v>
+        <v>88636.24373734661</v>
       </c>
       <c r="J94" t="n">
-        <v>86951.72754301279</v>
+        <v>86951.73172545539</v>
       </c>
       <c r="K94" t="n">
-        <v>25845.61408679148</v>
+        <v>25845.61826923408</v>
       </c>
     </row>
     <row r="95">
@@ -11427,19 +11457,19 @@
         <v>132.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-226.2277776386618</v>
+        <v>-226.2277474439179</v>
       </c>
       <c r="H95" t="n">
-        <v>24125.04003019476</v>
+        <v>24125.04</v>
       </c>
       <c r="I95" t="n">
-        <v>102121.2277776387</v>
+        <v>102121.2277474439</v>
       </c>
       <c r="J95" t="n">
-        <v>101023.0106739246</v>
+        <v>101023.0106437299</v>
       </c>
       <c r="K95" t="n">
-        <v>25222.74602111023</v>
+        <v>25222.74599091548</v>
       </c>
     </row>
     <row r="96">
@@ -11453,19 +11483,19 @@
         <v>132.68</v>
       </c>
       <c r="G96" t="n">
-        <v>1309.74664264411</v>
+        <v>1309.749118604988</v>
       </c>
       <c r="H96" t="n">
-        <v>24081.04247596088</v>
+        <v>24081.04</v>
       </c>
       <c r="I96" t="n">
-        <v>114489.2533573559</v>
+        <v>114489.250881395</v>
       </c>
       <c r="J96" t="n">
-        <v>113785.0382911341</v>
+        <v>113785.0358151732</v>
       </c>
       <c r="K96" t="n">
-        <v>24784.65867536528</v>
+        <v>24784.65619940441</v>
       </c>
     </row>
     <row r="97">
@@ -11479,19 +11509,19 @@
         <v>132.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-693.6355481594219</v>
+        <v>-693.6326344683766</v>
       </c>
       <c r="H97" t="n">
-        <v>24030.18291369104</v>
+        <v>24030.18</v>
       </c>
       <c r="I97" t="n">
-        <v>123113.6355481594</v>
+        <v>123113.6326344684</v>
       </c>
       <c r="J97" t="n">
-        <v>122669.5926009213</v>
+        <v>122669.5896872303</v>
       </c>
       <c r="K97" t="n">
-        <v>24473.56583107038</v>
+        <v>24473.56291737934</v>
       </c>
     </row>
     <row r="98">
@@ -11505,19 +11535,19 @@
         <v>132.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-1774.977651742985</v>
+        <v>-1774.974067816613</v>
       </c>
       <c r="H98" t="n">
-        <v>23975.34358392637</v>
+        <v>23975.34</v>
       </c>
       <c r="I98" t="n">
-        <v>125681.977651743</v>
+        <v>125681.9740678166</v>
       </c>
       <c r="J98" t="n">
-        <v>125406.7127884148</v>
+        <v>125406.7092044885</v>
       </c>
       <c r="K98" t="n">
-        <v>24249.92890648864</v>
+        <v>24249.92532256227</v>
       </c>
     </row>
     <row r="99">
@@ -11531,19 +11561,19 @@
         <v>132.38</v>
       </c>
       <c r="G99" t="n">
-        <v>136.9193003296677</v>
+        <v>136.9231750479667</v>
       </c>
       <c r="H99" t="n">
-        <v>23919.83387471831</v>
+        <v>23919.83</v>
       </c>
       <c r="I99" t="n">
-        <v>121373.0806996703</v>
+        <v>121373.076824952</v>
       </c>
       <c r="J99" t="n">
-        <v>121205.3589966263</v>
+        <v>121205.355121908</v>
       </c>
       <c r="K99" t="n">
-        <v>24086.90337197004</v>
+        <v>24086.89949725173</v>
       </c>
     </row>
     <row r="100">
@@ -11557,19 +11587,19 @@
         <v>132.28</v>
       </c>
       <c r="G100" t="n">
-        <v>671.7016455352277</v>
+        <v>671.6979805861338</v>
       </c>
       <c r="H100" t="n">
-        <v>23867.03633505091</v>
+        <v>23867.04</v>
       </c>
       <c r="I100" t="n">
-        <v>111334.2983544648</v>
+        <v>111334.3020194139</v>
       </c>
       <c r="J100" t="n">
-        <v>111233.8708025972</v>
+        <v>111233.8744675463</v>
       </c>
       <c r="K100" t="n">
-        <v>23966.8779469553</v>
+        <v>23966.88161190439</v>
       </c>
     </row>
     <row r="101">
@@ -11583,19 +11613,19 @@
         <v>132.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-281.285420175278</v>
+        <v>-281.2885526031605</v>
       </c>
       <c r="H101" t="n">
-        <v>23820.67686757211</v>
+        <v>23820.68</v>
       </c>
       <c r="I101" t="n">
-        <v>97985.48542017528</v>
+        <v>97985.48855260316</v>
       </c>
       <c r="J101" t="n">
-        <v>97926.4012393002</v>
+        <v>97926.4043717281</v>
       </c>
       <c r="K101" t="n">
-        <v>23879.26392698235</v>
+        <v>23879.26705941024</v>
       </c>
     </row>
     <row r="102">
@@ -11609,19 +11639,19 @@
         <v>132.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-957.7147056969552</v>
+        <v>-957.7148372858355</v>
       </c>
       <c r="H102" t="n">
-        <v>23782.76986841113</v>
+        <v>23782.77</v>
       </c>
       <c r="I102" t="n">
-        <v>83816.81470569696</v>
+        <v>83816.81483728584</v>
       </c>
       <c r="J102" t="n">
-        <v>83782.6634440551</v>
+        <v>83782.66357564396</v>
       </c>
       <c r="K102" t="n">
-        <v>23816.51857179659</v>
+        <v>23816.51870338546</v>
       </c>
     </row>
     <row r="103">
@@ -11635,19 +11665,19 @@
         <v>131.98</v>
       </c>
       <c r="G103" t="n">
-        <v>250.6245745542692</v>
+        <v>250.6276291811664</v>
       </c>
       <c r="H103" t="n">
-        <v>23752.8430546269</v>
+        <v>23752.84</v>
       </c>
       <c r="I103" t="n">
-        <v>70599.27542544572</v>
+        <v>70599.27237081883</v>
       </c>
       <c r="J103" t="n">
-        <v>70579.88133115084</v>
+        <v>70579.87827652394</v>
       </c>
       <c r="K103" t="n">
-        <v>23771.92293833326</v>
+        <v>23771.91988370637</v>
       </c>
     </row>
     <row r="104">
@@ -11661,19 +11691,19 @@
         <v>131.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-394.754850777048</v>
+        <v>-394.7554415117556</v>
       </c>
       <c r="H104" t="n">
-        <v>23729.90940926529</v>
+        <v>23729.91</v>
       </c>
       <c r="I104" t="n">
-        <v>59241.95485077705</v>
+        <v>59241.95544151175</v>
       </c>
       <c r="J104" t="n">
-        <v>59231.13228299493</v>
+        <v>59231.13287372964</v>
       </c>
       <c r="K104" t="n">
-        <v>23740.49374522175</v>
+        <v>23740.49433595646</v>
       </c>
     </row>
     <row r="105">
@@ -11687,19 +11717,19 @@
         <v>131.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-1784.374903940181</v>
+        <v>-1784.373164752782</v>
       </c>
       <c r="H105" t="n">
-        <v>23713.39173918739</v>
+        <v>23713.39</v>
       </c>
       <c r="I105" t="n">
-        <v>50007.27490394018</v>
+        <v>50007.27316475278</v>
       </c>
       <c r="J105" t="n">
-        <v>50001.33833082646</v>
+        <v>50001.33659163906</v>
       </c>
       <c r="K105" t="n">
-        <v>23719.15189689594</v>
+        <v>23719.15015770855</v>
       </c>
     </row>
     <row r="106">
@@ -11713,19 +11743,19 @@
         <v>131.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-1572.336718242004</v>
+        <v>-1572.33281085745</v>
       </c>
       <c r="H106" t="n">
-        <v>23701.85390738455</v>
+        <v>23701.85</v>
       </c>
       <c r="I106" t="n">
-        <v>42784.836718242</v>
+        <v>42784.83281085745</v>
       </c>
       <c r="J106" t="n">
-        <v>42781.63392924835</v>
+        <v>42781.63002186379</v>
       </c>
       <c r="K106" t="n">
-        <v>23704.92864909956</v>
+        <v>23704.924741715</v>
       </c>
     </row>
     <row r="107">
@@ -11739,19 +11769,19 @@
         <v>131.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-195.2469793083073</v>
+        <v>-195.2493167640496</v>
       </c>
       <c r="H107" t="n">
-        <v>23693.44766254426</v>
+        <v>23693.45</v>
       </c>
       <c r="I107" t="n">
-        <v>37297.64697930831</v>
+        <v>37297.64931676405</v>
       </c>
       <c r="J107" t="n">
-        <v>37295.94610463686</v>
+        <v>37295.9484420926</v>
       </c>
       <c r="K107" t="n">
-        <v>23695.05724613646</v>
+        <v>23695.0595835922</v>
       </c>
     </row>
     <row r="108">
@@ -11765,19 +11795,19 @@
         <v>131.48</v>
       </c>
       <c r="G108" t="n">
-        <v>568.0536250378718</v>
+        <v>568.0578299858898</v>
       </c>
       <c r="H108" t="n">
-        <v>23687.09420494802</v>
+        <v>23687.09</v>
       </c>
       <c r="I108" t="n">
-        <v>33224.74637496213</v>
+        <v>33224.74217001411</v>
       </c>
       <c r="J108" t="n">
-        <v>33223.85617491544</v>
+        <v>33223.85196996742</v>
       </c>
       <c r="K108" t="n">
-        <v>23687.92039909959</v>
+        <v>23687.91619415157</v>
       </c>
     </row>
     <row r="109">
@@ -11791,19 +11821,19 @@
         <v>131.38</v>
       </c>
       <c r="G109" t="n">
-        <v>431.1875002451561</v>
+        <v>431.1877162524579</v>
       </c>
       <c r="H109" t="n">
-        <v>23682.4802160073</v>
+        <v>23682.48</v>
       </c>
       <c r="I109" t="n">
-        <v>30261.91249975484</v>
+        <v>30261.91228374754</v>
       </c>
       <c r="J109" t="n">
-        <v>30261.45257462961</v>
+        <v>30261.45235862231</v>
       </c>
       <c r="K109" t="n">
-        <v>23682.89598571191</v>
+        <v>23682.89576970461</v>
       </c>
     </row>
     <row r="110">
@@ -11817,19 +11847,19 @@
         <v>131.28</v>
       </c>
       <c r="G110" t="n">
-        <v>1153.761831465759</v>
+        <v>1153.758122683015</v>
       </c>
       <c r="H110" t="n">
-        <v>23679.08629121726</v>
+        <v>23679.09</v>
       </c>
       <c r="I110" t="n">
-        <v>28145.73816853424</v>
+        <v>28145.74187731698</v>
       </c>
       <c r="J110" t="n">
-        <v>28145.50308976591</v>
+        <v>28145.50679854866</v>
       </c>
       <c r="K110" t="n">
-        <v>23679.29139283685</v>
+        <v>23679.29510161959</v>
       </c>
     </row>
     <row r="111">
@@ -11843,19 +11873,19 @@
         <v>131.18</v>
       </c>
       <c r="G111" t="n">
-        <v>1043.162073831027</v>
+        <v>1043.163014364392</v>
       </c>
       <c r="H111" t="n">
-        <v>23676.50094053337</v>
+        <v>23676.5</v>
       </c>
       <c r="I111" t="n">
-        <v>26660.43792616897</v>
+        <v>26660.43698563561</v>
       </c>
       <c r="J111" t="n">
-        <v>26660.31872993907</v>
+        <v>26660.31778940571</v>
       </c>
       <c r="K111" t="n">
-        <v>23676.60011016779</v>
+        <v>23676.59916963443</v>
       </c>
     </row>
     <row r="112">
@@ -11869,19 +11899,19 @@
         <v>131.08</v>
       </c>
       <c r="G112" t="n">
-        <v>974.8716051838492</v>
+        <v>974.8675629441132</v>
       </c>
       <c r="H112" t="n">
-        <v>23674.63595776026</v>
+        <v>23674.64</v>
       </c>
       <c r="I112" t="n">
-        <v>25635.82839481615</v>
+        <v>25635.83243705589</v>
       </c>
       <c r="J112" t="n">
-        <v>25635.76823908391</v>
+        <v>25635.77228132365</v>
       </c>
       <c r="K112" t="n">
-        <v>23674.68295080842</v>
+        <v>23674.68699304816</v>
       </c>
     </row>
     <row r="113">
@@ -11895,19 +11925,19 @@
         <v>130.98</v>
       </c>
       <c r="G113" t="n">
-        <v>840.5090029898493</v>
+        <v>840.5056141860805</v>
       </c>
       <c r="H113" t="n">
-        <v>23673.28661119623</v>
+        <v>23673.29</v>
       </c>
       <c r="I113" t="n">
-        <v>24941.09099701015</v>
+        <v>24941.09438581392</v>
       </c>
       <c r="J113" t="n">
-        <v>24941.06066621245</v>
+        <v>24941.06405501622</v>
       </c>
       <c r="K113" t="n">
-        <v>23673.30843293708</v>
+        <v>23673.31182174085</v>
       </c>
     </row>
     <row r="114">
@@ -11921,19 +11951,19 @@
         <v>130.88</v>
       </c>
       <c r="G114" t="n">
-        <v>1180.863519723214</v>
+        <v>1180.867087072518</v>
       </c>
       <c r="H114" t="n">
-        <v>23672.1935673493</v>
+        <v>23672.19</v>
       </c>
       <c r="I114" t="n">
-        <v>24478.03648027679</v>
+        <v>24478.03291292748</v>
       </c>
       <c r="J114" t="n">
-        <v>24478.02114271028</v>
+        <v>24478.01757536098</v>
       </c>
       <c r="K114" t="n">
-        <v>23672.20349633731</v>
+        <v>23672.19992898801</v>
       </c>
     </row>
     <row r="115">
@@ -11947,19 +11977,19 @@
         <v>130.78</v>
       </c>
       <c r="G115" t="n">
-        <v>1158.10659969836</v>
+        <v>1158.107609357565</v>
       </c>
       <c r="H115" t="n">
-        <v>23671.22100965921</v>
+        <v>23671.22</v>
       </c>
       <c r="I115" t="n">
-        <v>24174.69340030164</v>
+        <v>24174.69239064243</v>
       </c>
       <c r="J115" t="n">
-        <v>24174.68559480871</v>
+        <v>24174.6845851495</v>
       </c>
       <c r="K115" t="n">
-        <v>23671.22543597481</v>
+        <v>23671.2244263156</v>
       </c>
     </row>
     <row r="116">
@@ -11973,19 +12003,19 @@
         <v>130.68</v>
       </c>
       <c r="G116" t="n">
-        <v>1128.310554539996</v>
+        <v>1128.315323369065</v>
       </c>
       <c r="H116" t="n">
-        <v>23670.39476882907</v>
+        <v>23670.39</v>
       </c>
       <c r="I116" t="n">
-        <v>23979.48944546</v>
+        <v>23979.48467663093</v>
       </c>
       <c r="J116" t="n">
-        <v>23979.48543773371</v>
+        <v>23979.48066890464</v>
       </c>
       <c r="K116" t="n">
-        <v>23670.39670198246</v>
+        <v>23670.39193315339</v>
       </c>
     </row>
     <row r="117">
@@ -11999,19 +12029,19 @@
         <v>130.58</v>
       </c>
       <c r="G117" t="n">
-        <v>1282.770279881119</v>
+        <v>1282.770818689452</v>
       </c>
       <c r="H117" t="n">
-        <v>23669.62053880833</v>
+        <v>23669.62</v>
       </c>
       <c r="I117" t="n">
-        <v>23856.02972011888</v>
+        <v>23856.02918131055</v>
       </c>
       <c r="J117" t="n">
-        <v>23856.02764190574</v>
+        <v>23856.02710309741</v>
       </c>
       <c r="K117" t="n">
-        <v>23669.62136588178</v>
+        <v>23669.62082707345</v>
       </c>
     </row>
     <row r="118">
@@ -12025,19 +12055,19 @@
         <v>130.48</v>
       </c>
       <c r="G118" t="n">
-        <v>465.3223790697521</v>
+        <v>465.3272500100975</v>
       </c>
       <c r="H118" t="n">
-        <v>23669.07487094035</v>
+        <v>23669.07</v>
       </c>
       <c r="I118" t="n">
-        <v>23779.47762093025</v>
+        <v>23779.4727499899</v>
       </c>
       <c r="J118" t="n">
-        <v>23779.476533315</v>
+        <v>23779.47166237466</v>
       </c>
       <c r="K118" t="n">
-        <v>23669.07521755365</v>
+        <v>23669.07034661331</v>
       </c>
     </row>
     <row r="119">
@@ -12051,19 +12081,19 @@
         <v>130.38</v>
       </c>
       <c r="G119" t="n">
-        <v>290.6773543044037</v>
+        <v>290.6730257146555</v>
       </c>
       <c r="H119" t="n">
-        <v>23668.82567141025</v>
+        <v>23668.83</v>
       </c>
       <c r="I119" t="n">
-        <v>23733.0226456956</v>
+        <v>23733.02697428535</v>
       </c>
       <c r="J119" t="n">
-        <v>23733.02207253802</v>
+        <v>23733.02640112777</v>
       </c>
       <c r="K119" t="n">
-        <v>23668.82581368947</v>
+        <v>23668.83014227922</v>
       </c>
     </row>
     <row r="120">
@@ -12077,19 +12107,19 @@
         <v>130.28</v>
       </c>
       <c r="G120" t="n">
-        <v>492.9689548710485</v>
+        <v>492.9691917897835</v>
       </c>
       <c r="H120" t="n">
-        <v>23668.59023691874</v>
+        <v>23668.59</v>
       </c>
       <c r="I120" t="n">
-        <v>23705.23104512895</v>
+        <v>23705.23080821022</v>
       </c>
       <c r="J120" t="n">
-        <v>23705.23074200091</v>
+        <v>23705.23050508218</v>
       </c>
       <c r="K120" t="n">
-        <v>23668.59029412009</v>
+        <v>23668.59005720136</v>
       </c>
     </row>
     <row r="121">
@@ -12103,19 +12133,19 @@
         <v>130.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-75.58609490679373</v>
+        <v>-75.5826457909061</v>
       </c>
       <c r="H121" t="n">
-        <v>23668.46344911589</v>
+        <v>23668.46</v>
       </c>
       <c r="I121" t="n">
-        <v>23688.9860949068</v>
+        <v>23688.98264579091</v>
       </c>
       <c r="J121" t="n">
-        <v>23688.98593463986</v>
+        <v>23688.98248552397</v>
       </c>
       <c r="K121" t="n">
-        <v>23668.46347163832</v>
+        <v>23668.46002252243</v>
       </c>
     </row>
     <row r="122">
@@ -12129,19 +12159,19 @@
         <v>130.08</v>
       </c>
       <c r="G122" t="n">
-        <v>24.75416686271637</v>
+        <v>24.75207194840914</v>
       </c>
       <c r="H122" t="n">
-        <v>23668.46790508569</v>
+        <v>23668.47</v>
       </c>
       <c r="I122" t="n">
-        <v>23679.74583313728</v>
+        <v>23679.74792805159</v>
       </c>
       <c r="J122" t="n">
-        <v>23679.7457487572</v>
+        <v>23679.74784367151</v>
       </c>
       <c r="K122" t="n">
-        <v>23668.4679137702</v>
+        <v>23668.4700086845</v>
       </c>
     </row>
     <row r="123">
@@ -12155,19 +12185,19 @@
         <v>129.98</v>
       </c>
       <c r="G123" t="n">
-        <v>9.866304806917469</v>
+        <v>9.870468350789452</v>
       </c>
       <c r="H123" t="n">
-        <v>23668.45416354387</v>
+        <v>23668.45</v>
       </c>
       <c r="I123" t="n">
-        <v>23674.53369519308</v>
+        <v>23674.52953164921</v>
       </c>
       <c r="J123" t="n">
-        <v>23674.53365110902</v>
+        <v>23674.52948756515</v>
       </c>
       <c r="K123" t="n">
-        <v>23668.45416682312</v>
+        <v>23668.45000327925</v>
       </c>
     </row>
     <row r="124">
@@ -12181,19 +12211,19 @@
         <v>129.88</v>
       </c>
       <c r="G124" t="n">
-        <v>29.64457475433301</v>
+        <v>29.64574967641965</v>
       </c>
       <c r="H124" t="n">
-        <v>23668.44117492209</v>
+        <v>23668.44</v>
       </c>
       <c r="I124" t="n">
-        <v>23671.65542524567</v>
+        <v>23671.65425032358</v>
       </c>
       <c r="J124" t="n">
-        <v>23671.65540245963</v>
+        <v>23671.65422753755</v>
       </c>
       <c r="K124" t="n">
-        <v>23668.44117613459</v>
+        <v>23668.4400012125</v>
       </c>
     </row>
     <row r="125">
@@ -12207,19 +12237,19 @@
         <v>129.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-2.699120899920672</v>
+        <v>-2.696434235454944</v>
       </c>
       <c r="H125" t="n">
-        <v>23668.43268666447</v>
+        <v>23668.43</v>
       </c>
       <c r="I125" t="n">
-        <v>23670.09912089992</v>
+        <v>23670.09643423546</v>
       </c>
       <c r="J125" t="n">
-        <v>23670.0991092761</v>
+        <v>23670.09642261163</v>
       </c>
       <c r="K125" t="n">
-        <v>23668.43268710345</v>
+        <v>23668.43000043899</v>
       </c>
     </row>
     <row r="126">
@@ -12233,19 +12263,19 @@
         <v>129.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-518.8171696194695</v>
+        <v>-518.8170935647977</v>
       </c>
       <c r="H126" t="n">
-        <v>23668.57007605467</v>
+        <v>23668.57</v>
       </c>
       <c r="I126" t="n">
-        <v>23669.41716961947</v>
+        <v>23669.4170935648</v>
       </c>
       <c r="J126" t="n">
-        <v>23669.41716377829</v>
+        <v>23669.41708772362</v>
       </c>
       <c r="K126" t="n">
-        <v>23668.57007621029</v>
+        <v>23668.57000015562</v>
       </c>
     </row>
     <row r="127">
@@ -12259,19 +12289,19 @@
         <v>129.58</v>
       </c>
       <c r="G127" t="n">
-        <v>50.58350318758676</v>
+        <v>50.58786605424029</v>
       </c>
       <c r="H127" t="n">
-        <v>23668.69436286665</v>
+        <v>23668.69</v>
       </c>
       <c r="I127" t="n">
-        <v>23669.11649681241</v>
+        <v>23669.11213394576</v>
       </c>
       <c r="J127" t="n">
-        <v>23669.1164939251</v>
+        <v>23669.11213105845</v>
       </c>
       <c r="K127" t="n">
-        <v>23668.69436292067</v>
+        <v>23668.69000005401</v>
       </c>
     </row>
     <row r="128">
@@ -12285,19 +12315,19 @@
         <v>129.48</v>
       </c>
       <c r="G128" t="n">
-        <v>30.12036719385287</v>
+        <v>30.12379911464086</v>
       </c>
       <c r="H128" t="n">
-        <v>23668.67343192079</v>
+        <v>23668.67</v>
       </c>
       <c r="I128" t="n">
-        <v>23668.87963280615</v>
+        <v>23668.87620088536</v>
       </c>
       <c r="J128" t="n">
-        <v>23668.87963140381</v>
+        <v>23668.87619948302</v>
       </c>
       <c r="K128" t="n">
-        <v>23668.67343193914</v>
+        <v>23668.67000001835</v>
       </c>
     </row>
     <row r="129">
@@ -12311,19 +12341,19 @@
         <v>129.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-96.08943194948733</v>
+        <v>-96.08871929624001</v>
       </c>
       <c r="H129" t="n">
-        <v>23668.69071265325</v>
+        <v>23668.69</v>
       </c>
       <c r="I129" t="n">
-        <v>23668.78943194949</v>
+        <v>23668.78871929624</v>
       </c>
       <c r="J129" t="n">
-        <v>23668.78943128079</v>
+        <v>23668.78871862754</v>
       </c>
       <c r="K129" t="n">
-        <v>23668.69071265935</v>
+        <v>23668.69000000611</v>
       </c>
     </row>
     <row r="130">
@@ -21724,13 +21754,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AD2"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
@@ -21740,11 +21770,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
     <col width="15" customWidth="1" min="14" max="14"/>
     <col width="23" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="17"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
     <col width="15" customWidth="1" min="20" max="20"/>
@@ -21756,174 +21790,446 @@
     <col width="17" customWidth="1" min="26" max="26"/>
     <col width="16" customWidth="1" min="27" max="27"/>
     <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="14" customWidth="1" min="29" max="30"/>
+    <col width="14" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="33" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="33" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="33" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="E2" s="33" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="33" t="inlineStr">
         <is>
           <t>L/G 
 σ/γ (%)</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="33" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="33" t="inlineStr">
         <is>
           <t>Atomic
 (%)</t>
         </is>
       </c>
-      <c r="I2" s="11" t="inlineStr">
+      <c r="I2" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="J2" s="11" t="inlineStr">
+      <c r="J2" s="33" t="inlineStr">
         <is>
           <t>RSF</t>
         </is>
       </c>
-      <c r="K2" s="11" t="inlineStr">
+      <c r="K2" s="33" t="inlineStr">
         <is>
           <t>TXFN</t>
         </is>
       </c>
-      <c r="L2" s="11" t="inlineStr">
+      <c r="L2" s="33" t="inlineStr">
         <is>
           <t>ECF</t>
         </is>
       </c>
-      <c r="M2" s="11" t="inlineStr">
+      <c r="M2" s="33" t="inlineStr">
         <is>
           <t>Instr.</t>
         </is>
       </c>
-      <c r="N2" s="11" t="inlineStr">
+      <c r="N2" s="33" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="O2" s="11" t="inlineStr">
-        <is>
-          <t>Norm. Area
- An (a.u.)</t>
-        </is>
-      </c>
-      <c r="P2" s="11" t="inlineStr">
+      <c r="O2" s="33" t="inlineStr">
+        <is>
+          <t>Corr. Area
+ Ac (a.u.)</t>
+        </is>
+      </c>
+      <c r="P2" s="33" t="inlineStr">
         <is>
           <t>σ or α
 W_g</t>
         </is>
       </c>
-      <c r="Q2" s="11" t="inlineStr">
+      <c r="Q2" s="33" t="inlineStr">
         <is>
           <t>γ or β
 W_l</t>
         </is>
       </c>
-      <c r="R2" s="11" t="inlineStr">
+      <c r="R2" s="33" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="S2" s="11" t="inlineStr">
+      <c r="S2" s="33" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="T2" s="11" t="inlineStr">
+      <c r="T2" s="33" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="U2" s="11" t="inlineStr">
+      <c r="U2" s="33" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="V2" s="11" t="inlineStr">
+      <c r="V2" s="33" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
         </is>
       </c>
-      <c r="W2" s="11" t="inlineStr">
+      <c r="W2" s="33" t="inlineStr">
         <is>
           <t>Sheetname</t>
         </is>
       </c>
-      <c r="X2" s="11" t="inlineStr">
+      <c r="X2" s="33" t="inlineStr">
         <is>
           <t>Position
 Constraint</t>
         </is>
       </c>
-      <c r="Y2" s="11" t="inlineStr">
+      <c r="Y2" s="33" t="inlineStr">
         <is>
           <t>Height
 Constraint</t>
         </is>
       </c>
-      <c r="Z2" s="11" t="inlineStr">
+      <c r="Z2" s="33" t="inlineStr">
         <is>
           <t>FWHM
 Constraint</t>
         </is>
       </c>
-      <c r="AA2" s="11" t="inlineStr">
+      <c r="AA2" s="33" t="inlineStr">
         <is>
           <t>L/G
 Constraint</t>
         </is>
       </c>
-      <c r="AB2" s="11" t="inlineStr">
+      <c r="AB2" s="33" t="inlineStr">
         <is>
           <t>Area
 Constraint</t>
         </is>
       </c>
-      <c r="AC2" s="11" t="inlineStr">
+      <c r="AC2" s="33" t="inlineStr">
         <is>
           <t>σ
 Constraint</t>
         </is>
       </c>
-      <c r="AD2" s="11" t="inlineStr">
+      <c r="AD2" s="33" t="inlineStr">
         <is>
           <t>γ
 Constraint</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="34" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p1</t>
+        </is>
+      </c>
+      <c r="C3" s="35" t="inlineStr">
+        <is>
+          <t>132.49</t>
+        </is>
+      </c>
+      <c r="D3" s="35" t="inlineStr">
+        <is>
+          <t>101467.39</t>
+        </is>
+      </c>
+      <c r="E3" s="35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F3" s="35" t="inlineStr">
+        <is>
+          <t>60.28</t>
+        </is>
+      </c>
+      <c r="G3" s="35" t="inlineStr">
+        <is>
+          <t>108008.69</t>
+        </is>
+      </c>
+      <c r="H3" s="35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I3" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" s="35" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="K3" s="35" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L3" s="35" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M3" s="35" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N3" s="35" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="O3" s="35" t="inlineStr">
+        <is>
+          <t>324.68</t>
+        </is>
+      </c>
+      <c r="P3" s="35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q3" s="35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R3" s="35" t="inlineStr"/>
+      <c r="S3" s="35" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="T3" s="35" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="U3" s="35" t="inlineStr"/>
+      <c r="V3" s="35" t="inlineStr"/>
+      <c r="W3" s="35" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X3" s="35" t="inlineStr">
+        <is>
+          <t>126.08,142.08</t>
+        </is>
+      </c>
+      <c r="Y3" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" s="35" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AA3" s="35" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AB3" s="35" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC3" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD3" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="37" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p2</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="inlineStr">
+        <is>
+          <t>134.24</t>
+        </is>
+      </c>
+      <c r="D4" s="38" t="inlineStr">
+        <is>
+          <t>70521.91</t>
+        </is>
+      </c>
+      <c r="E4" s="38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F4" s="38" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>75068.25</t>
+        </is>
+      </c>
+      <c r="H4" s="38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I4" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="K4" s="38" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="38" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M4" s="38" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N4" s="38" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="O4" s="38" t="inlineStr">
+        <is>
+          <t>327.86</t>
+        </is>
+      </c>
+      <c r="P4" s="38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="Q4" s="38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="R4" s="38" t="inlineStr"/>
+      <c r="S4" s="38" t="inlineStr">
+        <is>
+          <t>126.08</t>
+        </is>
+      </c>
+      <c r="T4" s="38" t="inlineStr">
+        <is>
+          <t>142.08</t>
+        </is>
+      </c>
+      <c r="U4" s="38" t="inlineStr"/>
+      <c r="V4" s="38" t="inlineStr"/>
+      <c r="W4" s="38" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X4" s="38" t="inlineStr">
+        <is>
+          <t>A+1.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y4" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" s="38" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AA4" s="38" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB4" s="38" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AC4" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD4" s="39" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -635,10 +635,10 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5648325" cy="4086225"/>
+    <ext cx="5657850" cy="4057650"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -648,9 +648,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
@@ -1091,170 +1089,162 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>Intensity</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr"/>
+      <c r="D1" s="28" t="inlineStr"/>
+      <c r="E1" s="28" t="inlineStr"/>
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>Ti2p3/2 p1</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>Ti2p1/2 p2</t>
-        </is>
-      </c>
-      <c r="L1" s="11" t="n"/>
-      <c r="M1" s="11" t="n"/>
-      <c r="N1" s="11" t="n"/>
-      <c r="O1" s="11" t="n"/>
-      <c r="P1" s="11" t="n"/>
-      <c r="Q1" s="11" t="n"/>
-      <c r="R1" s="11" t="n"/>
-      <c r="S1" s="11" t="n"/>
-      <c r="T1" s="11" t="n"/>
-      <c r="U1" s="11" t="n"/>
-      <c r="V1" s="11" t="n"/>
-      <c r="W1" s="11" t="n"/>
-      <c r="X1" s="12" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr"/>
+      <c r="K1" s="28" t="inlineStr"/>
+      <c r="L1" s="28" t="inlineStr"/>
+      <c r="M1" s="28" t="inlineStr"/>
+      <c r="N1" s="28" t="inlineStr"/>
+      <c r="O1" s="28" t="inlineStr"/>
+      <c r="P1" s="28" t="inlineStr"/>
+      <c r="Q1" s="28" t="inlineStr"/>
+      <c r="R1" s="28" t="inlineStr"/>
+      <c r="S1" s="28" t="inlineStr"/>
+      <c r="T1" s="28" t="inlineStr"/>
+      <c r="U1" s="28" t="inlineStr"/>
+      <c r="V1" s="28" t="inlineStr"/>
+      <c r="W1" s="28" t="inlineStr"/>
+      <c r="X1" s="29" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="13" t="inlineStr">
+      <c r="Y1" s="30" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="13" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="13" t="inlineStr">
+      <c r="AA1" s="30" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="13" t="inlineStr">
+      <c r="AB1" s="30" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="13" t="inlineStr">
+      <c r="AC1" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="13" t="inlineStr">
+      <c r="AD1" s="30" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="13" t="inlineStr">
+      <c r="AE1" s="30" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="13" t="inlineStr">
+      <c r="AF1" s="30" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="13" t="inlineStr">
+      <c r="AG1" s="30" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="13" t="inlineStr">
+      <c r="AH1" s="30" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="13" t="inlineStr">
+      <c r="AI1" s="30" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="13" t="inlineStr">
+      <c r="AJ1" s="30" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="13" t="inlineStr">
+      <c r="AK1" s="30" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="13" t="inlineStr">
+      <c r="AL1" s="30" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="13" t="inlineStr">
+      <c r="AM1" s="30" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="13" t="inlineStr">
+      <c r="AN1" s="30" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="13" t="inlineStr">
+      <c r="AO1" s="30" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="14" t="inlineStr">
+      <c r="AP1" s="31" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -1271,115 +1261,8 @@
       <c r="F2" t="n">
         <v>475.08</v>
       </c>
-      <c r="G2" t="n">
-        <v>-83.74084333967767</v>
-      </c>
       <c r="H2" t="n">
         <v>39754.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>39838.34084333968</v>
-      </c>
-      <c r="J2" t="n">
-        <v>39779.84296584057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>39813.09787749911</v>
-      </c>
-      <c r="X2" s="15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Y2" s="16" t="inlineStr">
-        <is>
-          <t>Ti2p3/2 p1</t>
-        </is>
-      </c>
-      <c r="Z2" s="16" t="inlineStr">
-        <is>
-          <t>458.00</t>
-        </is>
-      </c>
-      <c r="AA2" s="16" t="inlineStr">
-        <is>
-          <t>87446</t>
-        </is>
-      </c>
-      <c r="AB2" s="16" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="AC2" s="16" t="inlineStr">
-        <is>
-          <t>34.40</t>
-        </is>
-      </c>
-      <c r="AD2" s="16" t="inlineStr">
-        <is>
-          <t>113178</t>
-        </is>
-      </c>
-      <c r="AE2" s="16" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="AF2" s="16" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="AG2" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" s="16" t="inlineStr">
-        <is>
-          <t>65.4</t>
-        </is>
-      </c>
-      <c r="AI2" s="16" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AJ2" s="16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK2" s="16" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ)</t>
-        </is>
-      </c>
-      <c r="AL2" s="16" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM2" s="16" t="inlineStr">
-        <is>
-          <t>448.08</t>
-        </is>
-      </c>
-      <c r="AN2" s="16" t="inlineStr">
-        <is>
-          <t>475.08</t>
-        </is>
-      </c>
-      <c r="AO2" s="16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AP2" s="17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -1392,72 +1275,9 @@
       <c r="F3" t="n">
         <v>474.98</v>
       </c>
-      <c r="G3" t="n">
-        <v>-85.09358002806403</v>
-      </c>
       <c r="H3" t="n">
         <v>39971.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>40056.89358002807</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39997.34147364254</v>
-      </c>
-      <c r="K3" t="n">
-        <v>40031.35210638553</v>
-      </c>
-      <c r="X3" s="18" t="n"/>
-      <c r="Y3" s="19" t="n"/>
-      <c r="Z3" s="19" t="inlineStr">
-        <is>
-          <t>448.08,475.08</t>
-        </is>
-      </c>
-      <c r="AA3" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" s="19" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC3" s="19" t="inlineStr">
-        <is>
-          <t>1:80</t>
-        </is>
-      </c>
-      <c r="AD3" s="19" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AE3" s="19" t="inlineStr">
-        <is>
-          <t>0.01:3</t>
-        </is>
-      </c>
-      <c r="AF3" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" s="19" t="n"/>
-      <c r="AI3" s="19" t="n"/>
-      <c r="AJ3" s="19" t="n"/>
-      <c r="AK3" s="19" t="n"/>
-      <c r="AL3" s="19" t="n"/>
-      <c r="AM3" s="19" t="n"/>
-      <c r="AN3" s="19" t="n"/>
-      <c r="AO3" s="19" t="n"/>
-      <c r="AP3" s="20" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1469,115 +1289,8 @@
       <c r="F4" t="n">
         <v>474.88</v>
       </c>
-      <c r="G4" t="n">
-        <v>-86.48048556361755</v>
-      </c>
       <c r="H4" t="n">
         <v>39341.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39427.98048556362</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39367.34530973733</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39402.13517582628</v>
-      </c>
-      <c r="X4" s="15" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Y4" s="16" t="inlineStr">
-        <is>
-          <t>Ti2p1/2 p2</t>
-        </is>
-      </c>
-      <c r="Z4" s="16" t="inlineStr">
-        <is>
-          <t>463.74</t>
-        </is>
-      </c>
-      <c r="AA4" s="16" t="inlineStr">
-        <is>
-          <t>24743</t>
-        </is>
-      </c>
-      <c r="AB4" s="16" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="AC4" s="16" t="inlineStr">
-        <is>
-          <t>34.40</t>
-        </is>
-      </c>
-      <c r="AD4" s="16" t="inlineStr">
-        <is>
-          <t>59994</t>
-        </is>
-      </c>
-      <c r="AE4" s="16" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="AF4" s="16" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="AG4" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" s="16" t="inlineStr">
-        <is>
-          <t>34.6</t>
-        </is>
-      </c>
-      <c r="AI4" s="16" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="AJ4" s="16" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="AK4" s="16" t="inlineStr">
-        <is>
-          <t>Voigt (Area, L/G, σ)</t>
-        </is>
-      </c>
-      <c r="AL4" s="16" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM4" s="16" t="inlineStr">
-        <is>
-          <t>448.08</t>
-        </is>
-      </c>
-      <c r="AN4" s="16" t="inlineStr">
-        <is>
-          <t>475.08</t>
-        </is>
-      </c>
-      <c r="AO4" s="16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AP4" s="17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -1590,72 +1303,9 @@
       <c r="F5" t="n">
         <v>474.78</v>
       </c>
-      <c r="G5" t="n">
-        <v>-87.90275237918831</v>
-      </c>
       <c r="H5" t="n">
         <v>39615.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>39703.10275237919</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39641.35460174042</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39676.94815063877</v>
-      </c>
-      <c r="X5" s="18" t="n"/>
-      <c r="Y5" s="19" t="n"/>
-      <c r="Z5" s="19" t="inlineStr">
-        <is>
-          <t>A+5.7#0.2</t>
-        </is>
-      </c>
-      <c r="AA5" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" s="19" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC5" s="19" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AD5" s="19" t="inlineStr">
-        <is>
-          <t>A*0.5#0.05</t>
-        </is>
-      </c>
-      <c r="AE5" s="19" t="inlineStr">
-        <is>
-          <t>0.01:3</t>
-        </is>
-      </c>
-      <c r="AF5" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" s="19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" s="19" t="n"/>
-      <c r="AI5" s="19" t="n"/>
-      <c r="AJ5" s="19" t="n"/>
-      <c r="AK5" s="19" t="n"/>
-      <c r="AL5" s="19" t="n"/>
-      <c r="AM5" s="19" t="n"/>
-      <c r="AN5" s="19" t="n"/>
-      <c r="AO5" s="19" t="n"/>
-      <c r="AP5" s="20" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1667,20 +1317,8 @@
       <c r="F6" t="n">
         <v>474.68</v>
       </c>
-      <c r="G6" t="n">
-        <v>-89.36162650396</v>
-      </c>
       <c r="H6" t="n">
         <v>40459.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40548.46162650396</v>
-      </c>
-      <c r="J6" t="n">
-        <v>40485.56948111219</v>
-      </c>
-      <c r="K6" t="n">
-        <v>40521.99214539177</v>
       </c>
     </row>
     <row r="7">
@@ -1693,20 +1331,8 @@
       <c r="F7" t="n">
         <v>474.58</v>
       </c>
-      <c r="G7" t="n">
-        <v>-90.85841052791511</v>
-      </c>
       <c r="H7" t="n">
         <v>40072.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40163.25841052792</v>
-      </c>
-      <c r="J7" t="n">
-        <v>40099.19008329792</v>
-      </c>
-      <c r="K7" t="n">
-        <v>40136.46832723</v>
       </c>
     </row>
     <row r="8">
@@ -1719,20 +1345,8 @@
       <c r="F8" t="n">
         <v>474.48</v>
       </c>
-      <c r="G8" t="n">
-        <v>-92.39446676173975</v>
-      </c>
       <c r="H8" t="n">
         <v>39748.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39840.69446676174</v>
-      </c>
-      <c r="J8" t="n">
-        <v>39775.41654787362</v>
-      </c>
-      <c r="K8" t="n">
-        <v>39813.57791888812</v>
       </c>
     </row>
     <row r="9">
@@ -1745,20 +1359,8 @@
       <c r="F9" t="n">
         <v>474.38</v>
       </c>
-      <c r="G9" t="n">
-        <v>-93.9712206073018</v>
-      </c>
       <c r="H9" t="n">
         <v>39559.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>39653.4712206073</v>
-      </c>
-      <c r="J9" t="n">
-        <v>39586.94901869821</v>
-      </c>
-      <c r="K9" t="n">
-        <v>39626.02220190909</v>
       </c>
     </row>
     <row r="10">
@@ -1771,20 +1373,8 @@
       <c r="F10" t="n">
         <v>474.28</v>
       </c>
-      <c r="G10" t="n">
-        <v>-95.59016415478254</v>
-      </c>
       <c r="H10" t="n">
         <v>39920.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40015.79016415478</v>
-      </c>
-      <c r="J10" t="n">
-        <v>39947.98764407225</v>
-      </c>
-      <c r="K10" t="n">
-        <v>39988.00252008253</v>
       </c>
     </row>
     <row r="11">
@@ -1797,20 +1387,8 @@
       <c r="F11" t="n">
         <v>474.18</v>
       </c>
-      <c r="G11" t="n">
-        <v>-97.25286002450594</v>
-      </c>
       <c r="H11" t="n">
         <v>39662</v>
-      </c>
-      <c r="I11" t="n">
-        <v>39759.25286002451</v>
-      </c>
-      <c r="J11" t="n">
-        <v>39690.13257690358</v>
-      </c>
-      <c r="K11" t="n">
-        <v>39731.12028312092</v>
       </c>
     </row>
     <row r="12">
@@ -1823,20 +1401,8 @@
       <c r="F12" t="n">
         <v>474.08</v>
       </c>
-      <c r="G12" t="n">
-        <v>-98.96094547267421</v>
-      </c>
       <c r="H12" t="n">
         <v>40092</v>
-      </c>
-      <c r="I12" t="n">
-        <v>40190.96094547267</v>
-      </c>
-      <c r="J12" t="n">
-        <v>40120.48397488025</v>
-      </c>
-      <c r="K12" t="n">
-        <v>40162.47697059243</v>
       </c>
     </row>
     <row r="13">
@@ -1849,20 +1415,8 @@
       <c r="F13" t="n">
         <v>473.98</v>
       </c>
-      <c r="G13" t="n">
-        <v>-100.7161367821973</v>
-      </c>
       <c r="H13" t="n">
         <v>40064.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40165.5161367822</v>
-      </c>
-      <c r="J13" t="n">
-        <v>40093.642000651</v>
-      </c>
-      <c r="K13" t="n">
-        <v>40136.6741361312</v>
       </c>
     </row>
     <row r="14">
@@ -1875,20 +1429,8 @@
       <c r="F14" t="n">
         <v>473.88</v>
       </c>
-      <c r="G14" t="n">
-        <v>-102.5202339616662</v>
-      </c>
       <c r="H14" t="n">
         <v>39726.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>39829.02023396167</v>
-      </c>
-      <c r="J14" t="n">
-        <v>39755.70682201383</v>
-      </c>
-      <c r="K14" t="n">
-        <v>39799.81341194783</v>
       </c>
     </row>
     <row r="15">
@@ -1901,20 +1443,8 @@
       <c r="F15" t="n">
         <v>473.78</v>
       </c>
-      <c r="G15" t="n">
-        <v>-104.375125777733</v>
-      </c>
       <c r="H15" t="n">
         <v>40747.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40851.77512577773</v>
-      </c>
-      <c r="J15" t="n">
-        <v>40776.97861211295</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40822.19651366479</v>
       </c>
     </row>
     <row r="16">
@@ -1927,20 +1457,8 @@
       <c r="F16" t="n">
         <v>473.68</v>
       </c>
-      <c r="G16" t="n">
-        <v>-106.2827951483705</v>
-      </c>
       <c r="H16" t="n">
         <v>41280.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41386.78279514837</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41310.45754964453</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41356.82524550384</v>
       </c>
     </row>
     <row r="17">
@@ -1953,20 +1471,8 @@
       <c r="F17" t="n">
         <v>473.58</v>
       </c>
-      <c r="G17" t="n">
-        <v>-108.2453249273021</v>
-      </c>
       <c r="H17" t="n">
         <v>40728.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40836.7453249273</v>
-      </c>
-      <c r="J17" t="n">
-        <v>40758.84381907185</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40806.40150585545</v>
       </c>
     </row>
     <row r="18">
@@ -1979,20 +1485,8 @@
       <c r="F18" t="n">
         <v>473.48</v>
       </c>
-      <c r="G18" t="n">
-        <v>-110.2649041125624</v>
-      </c>
       <c r="H18" t="n">
         <v>41425.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>41535.76490411256</v>
-      </c>
-      <c r="J18" t="n">
-        <v>41456.23761085017</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41505.02729326239</v>
       </c>
     </row>
     <row r="19">
@@ -2005,20 +1499,8 @@
       <c r="F19" t="n">
         <v>473.38</v>
       </c>
-      <c r="G19" t="n">
-        <v>-112.3438345155737</v>
-      </c>
       <c r="H19" t="n">
         <v>41429.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>41542.14383451558</v>
-      </c>
-      <c r="J19" t="n">
-        <v>41460.93912166191</v>
-      </c>
-      <c r="K19" t="n">
-        <v>41511.00471285367</v>
       </c>
     </row>
     <row r="20">
@@ -2031,20 +1513,8 @@
       <c r="F20" t="n">
         <v>473.28</v>
       </c>
-      <c r="G20" t="n">
-        <v>-114.4845379304825</v>
-      </c>
       <c r="H20" t="n">
         <v>41728.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>41842.58453793048</v>
-      </c>
-      <c r="J20" t="n">
-        <v>41759.6485546627</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41811.03598326778</v>
       </c>
     </row>
     <row r="21">
@@ -2057,20 +1527,8 @@
       <c r="F21" t="n">
         <v>473.18</v>
       </c>
-      <c r="G21" t="n">
-        <v>-116.6895638476053</v>
-      </c>
       <c r="H21" t="n">
         <v>41685.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>41801.7895638476</v>
-      </c>
-      <c r="J21" t="n">
-        <v>41717.06611973887</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41769.82344410873</v>
       </c>
     </row>
     <row r="22">
@@ -2083,20 +1541,8 @@
       <c r="F22" t="n">
         <v>473.08</v>
       </c>
-      <c r="G22" t="n">
-        <v>-118.9615977591311</v>
-      </c>
       <c r="H22" t="n">
         <v>41736.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>41855.66159775913</v>
-      </c>
-      <c r="J22" t="n">
-        <v>41769.09203377689</v>
-      </c>
-      <c r="K22" t="n">
-        <v>41823.26956398223</v>
       </c>
     </row>
     <row r="23">
@@ -2109,20 +1555,8 @@
       <c r="F23" t="n">
         <v>472.98</v>
       </c>
-      <c r="G23" t="n">
-        <v>-121.3034701100987</v>
-      </c>
       <c r="H23" t="n">
         <v>42194.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>42316.2034701101</v>
-      </c>
-      <c r="J23" t="n">
-        <v>42227.72652094559</v>
-      </c>
-      <c r="K23" t="n">
-        <v>42283.37694916451</v>
       </c>
     </row>
     <row r="24">
@@ -2135,20 +1569,8 @@
       <c r="F24" t="n">
         <v>472.88</v>
       </c>
-      <c r="G24" t="n">
-        <v>-123.7181659532798</v>
-      </c>
       <c r="H24" t="n">
         <v>42707.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42831.01816595328</v>
-      </c>
-      <c r="J24" t="n">
-        <v>42740.56981299163</v>
-      </c>
-      <c r="K24" t="n">
-        <v>42797.74835296166</v>
       </c>
     </row>
     <row r="25">
@@ -2161,20 +1583,8 @@
       <c r="F25" t="n">
         <v>472.78</v>
       </c>
-      <c r="G25" t="n">
-        <v>-126.2088353724903</v>
-      </c>
       <c r="H25" t="n">
         <v>42958.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>43084.60883537249</v>
-      </c>
-      <c r="J25" t="n">
-        <v>42992.12214954921</v>
-      </c>
-      <c r="K25" t="n">
-        <v>43050.88668582328</v>
       </c>
     </row>
     <row r="26">
@@ -2187,20 +1597,8 @@
       <c r="F26" t="n">
         <v>472.68</v>
       </c>
-      <c r="G26" t="n">
-        <v>-128.7788047457216</v>
-      </c>
       <c r="H26" t="n">
         <v>42753.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>42881.97880474572</v>
-      </c>
-      <c r="J26" t="n">
-        <v>42787.38377846452</v>
-      </c>
-      <c r="K26" t="n">
-        <v>42847.79502628119</v>
       </c>
     </row>
     <row r="27">
@@ -2213,20 +1611,8 @@
       <c r="F27" t="n">
         <v>472.58</v>
       </c>
-      <c r="G27" t="n">
-        <v>-131.4315889272621</v>
-      </c>
       <c r="H27" t="n">
         <v>43503</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43634.43158892726</v>
-      </c>
-      <c r="J27" t="n">
-        <v>43537.65495613596</v>
-      </c>
-      <c r="K27" t="n">
-        <v>43599.77663279131</v>
       </c>
     </row>
     <row r="28">
@@ -2239,20 +1625,8 @@
       <c r="F28" t="n">
         <v>472.48</v>
       </c>
-      <c r="G28" t="n">
-        <v>-134.1709044361633</v>
-      </c>
       <c r="H28" t="n">
         <v>43487.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43621.27090443616</v>
-      </c>
-      <c r="J28" t="n">
-        <v>43522.23594787083</v>
-      </c>
-      <c r="K28" t="n">
-        <v>43586.13495656533</v>
       </c>
     </row>
     <row r="29">
@@ -2265,20 +1639,8 @@
       <c r="F29" t="n">
         <v>472.38</v>
       </c>
-      <c r="G29" t="n">
-        <v>-137.0006837483816</v>
-      </c>
       <c r="H29" t="n">
         <v>43224.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>43361.60068374838</v>
-      </c>
-      <c r="J29" t="n">
-        <v>43260.22702825965</v>
-      </c>
-      <c r="K29" t="n">
-        <v>43325.97365548873</v>
       </c>
     </row>
     <row r="30">
@@ -2291,20 +1653,8 @@
       <c r="F30" t="n">
         <v>472.28</v>
       </c>
-      <c r="G30" t="n">
-        <v>-139.925090800396</v>
-      </c>
       <c r="H30" t="n">
         <v>43880.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>44020.52509080039</v>
-      </c>
-      <c r="J30" t="n">
-        <v>43916.72848156886</v>
-      </c>
-      <c r="K30" t="n">
-        <v>43984.39660923153</v>
       </c>
     </row>
     <row r="31">
@@ -2317,20 +1667,8 @@
       <c r="F31" t="n">
         <v>472.18</v>
       </c>
-      <c r="G31" t="n">
-        <v>-142.9485378243553</v>
-      </c>
       <c r="H31" t="n">
         <v>43020.9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>43163.84853782436</v>
-      </c>
-      <c r="J31" t="n">
-        <v>43057.54060215304</v>
-      </c>
-      <c r="K31" t="n">
-        <v>43127.20793567132</v>
       </c>
     </row>
     <row r="32">
@@ -2343,20 +1681,8 @@
       <c r="F32" t="n">
         <v>472.08</v>
       </c>
-      <c r="G32" t="n">
-        <v>-146.0757036485302</v>
-      </c>
       <c r="H32" t="n">
         <v>43735.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>43881.47570364853</v>
-      </c>
-      <c r="J32" t="n">
-        <v>43772.56369488785</v>
-      </c>
-      <c r="K32" t="n">
-        <v>43844.31200876069</v>
       </c>
     </row>
     <row r="33">
@@ -2369,20 +1695,8 @@
       <c r="F33" t="n">
         <v>471.98</v>
       </c>
-      <c r="G33" t="n">
-        <v>-149.3115536119803</v>
-      </c>
       <c r="H33" t="n">
         <v>43776.9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43926.21155361198</v>
-      </c>
-      <c r="J33" t="n">
-        <v>43814.59807562476</v>
-      </c>
-      <c r="K33" t="n">
-        <v>43888.51347798722</v>
       </c>
     </row>
     <row r="34">
@@ -2395,20 +1709,8 @@
       <c r="F34" t="n">
         <v>471.88</v>
       </c>
-      <c r="G34" t="n">
-        <v>-152.6613612603614</v>
-      </c>
       <c r="H34" t="n">
         <v>43034.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>43187.16136126036</v>
-      </c>
-      <c r="J34" t="n">
-        <v>43072.74407166893</v>
-      </c>
-      <c r="K34" t="n">
-        <v>43148.91728959143</v>
       </c>
     </row>
     <row r="35">
@@ -2421,20 +1723,8 @@
       <c r="F35" t="n">
         <v>471.78</v>
       </c>
-      <c r="G35" t="n">
-        <v>-156.1307320087435</v>
-      </c>
       <c r="H35" t="n">
         <v>44211.1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>44367.23073200874</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44249.90202228148</v>
-      </c>
-      <c r="K35" t="n">
-        <v>44328.42870972726</v>
       </c>
     </row>
     <row r="36">
@@ -2447,20 +1737,8 @@
       <c r="F36" t="n">
         <v>471.68</v>
       </c>
-      <c r="G36" t="n">
-        <v>-159.7256289806392</v>
-      </c>
       <c r="H36" t="n">
         <v>43680.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43839.82562898064</v>
-      </c>
-      <c r="J36" t="n">
-        <v>43719.47227920773</v>
-      </c>
-      <c r="K36" t="n">
-        <v>43800.45334977291</v>
       </c>
     </row>
     <row r="37">
@@ -2473,20 +1751,8 @@
       <c r="F37" t="n">
         <v>471.58</v>
       </c>
-      <c r="G37" t="n">
-        <v>-163.4524012572219</v>
-      </c>
       <c r="H37" t="n">
         <v>42857.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>43020.65240125722</v>
-      </c>
-      <c r="J37" t="n">
-        <v>42897.15520723287</v>
-      </c>
-      <c r="K37" t="n">
-        <v>42980.69719402435</v>
       </c>
     </row>
     <row r="38">
@@ -2499,20 +1765,8 @@
       <c r="F38" t="n">
         <v>471.48</v>
       </c>
-      <c r="G38" t="n">
-        <v>-167.3178148000516</v>
-      </c>
       <c r="H38" t="n">
         <v>42952.2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>43119.51781480005</v>
-      </c>
-      <c r="J38" t="n">
-        <v>42992.7511847667</v>
-      </c>
-      <c r="K38" t="n">
-        <v>43078.96663003334</v>
       </c>
     </row>
     <row r="39">
@@ -2525,20 +1779,8 @@
       <c r="F39" t="n">
         <v>471.38</v>
       </c>
-      <c r="G39" t="n">
-        <v>-171.3290863437578</v>
-      </c>
       <c r="H39" t="n">
         <v>43123.5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>43294.82908634376</v>
-      </c>
-      <c r="J39" t="n">
-        <v>43164.66060445924</v>
-      </c>
-      <c r="K39" t="n">
-        <v>43253.66848188452</v>
       </c>
     </row>
     <row r="40">
@@ -2551,20 +1793,8 @@
       <c r="F40" t="n">
         <v>471.28</v>
       </c>
-      <c r="G40" t="n">
-        <v>-175.4939205928167</v>
-      </c>
       <c r="H40" t="n">
         <v>43073.8</v>
-      </c>
-      <c r="I40" t="n">
-        <v>43249.29392059282</v>
-      </c>
-      <c r="J40" t="n">
-        <v>43115.58387384897</v>
-      </c>
-      <c r="K40" t="n">
-        <v>43207.51004674385</v>
       </c>
     </row>
     <row r="41">
@@ -2577,20 +1807,8 @@
       <c r="F41" t="n">
         <v>471.18</v>
       </c>
-      <c r="G41" t="n">
-        <v>-179.8205511000706</v>
-      </c>
       <c r="H41" t="n">
         <v>43506</v>
-      </c>
-      <c r="I41" t="n">
-        <v>43685.82055110007</v>
-      </c>
-      <c r="J41" t="n">
-        <v>43548.42141604591</v>
-      </c>
-      <c r="K41" t="n">
-        <v>43643.39913505416</v>
       </c>
     </row>
     <row r="42">
@@ -2603,20 +1821,8 @@
       <c r="F42" t="n">
         <v>471.08</v>
       </c>
-      <c r="G42" t="n">
-        <v>-184.3177852542576</v>
-      </c>
       <c r="H42" t="n">
         <v>43038.8</v>
-      </c>
-      <c r="I42" t="n">
-        <v>43223.11778525426</v>
-      </c>
-      <c r="J42" t="n">
-        <v>43081.87367045147</v>
-      </c>
-      <c r="K42" t="n">
-        <v>43180.04411480279</v>
       </c>
     </row>
     <row r="43">
@@ -2629,20 +1835,8 @@
       <c r="F43" t="n">
         <v>470.98</v>
       </c>
-      <c r="G43" t="n">
-        <v>-188.9950538610137</v>
-      </c>
       <c r="H43" t="n">
         <v>42615.4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>42804.39505386102</v>
-      </c>
-      <c r="J43" t="n">
-        <v>42659.14109351752</v>
-      </c>
-      <c r="K43" t="n">
-        <v>42760.6539603435</v>
       </c>
     </row>
     <row r="44">
@@ -2655,20 +1849,8 @@
       <c r="F44" t="n">
         <v>470.88</v>
       </c>
-      <c r="G44" t="n">
-        <v>-193.8624658677873</v>
-      </c>
       <c r="H44" t="n">
         <v>42516.5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>42710.36246586779</v>
-      </c>
-      <c r="J44" t="n">
-        <v>42560.92415954692</v>
-      </c>
-      <c r="K44" t="n">
-        <v>42665.93830632087</v>
       </c>
     </row>
     <row r="45">
@@ -2681,20 +1863,8 @@
       <c r="F45" t="n">
         <v>470.78</v>
       </c>
-      <c r="G45" t="n">
-        <v>-198.9308688592573</v>
-      </c>
       <c r="H45" t="n">
         <v>42618.4</v>
-      </c>
-      <c r="I45" t="n">
-        <v>42817.33086885926</v>
-      </c>
-      <c r="J45" t="n">
-        <v>42663.52336153854</v>
-      </c>
-      <c r="K45" t="n">
-        <v>42772.20750732072</v>
       </c>
     </row>
     <row r="46">
@@ -2707,20 +1877,8 @@
       <c r="F46" t="n">
         <v>470.68</v>
       </c>
-      <c r="G46" t="n">
-        <v>-204.2119160377842</v>
-      </c>
       <c r="H46" t="n">
         <v>42022.7</v>
-      </c>
-      <c r="I46" t="n">
-        <v>42226.91191603778</v>
-      </c>
-      <c r="J46" t="n">
-        <v>42068.53921207904</v>
-      </c>
-      <c r="K46" t="n">
-        <v>42181.07270395874</v>
       </c>
     </row>
     <row r="47">
@@ -2733,20 +1891,8 @@
       <c r="F47" t="n">
         <v>470.58</v>
       </c>
-      <c r="G47" t="n">
-        <v>-209.7181405059164</v>
-      </c>
       <c r="H47" t="n">
         <v>41575.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41785.31814050591</v>
-      </c>
-      <c r="J47" t="n">
-        <v>41622.17224428496</v>
-      </c>
-      <c r="K47" t="n">
-        <v>41738.74589622095</v>
       </c>
     </row>
     <row r="48">
@@ -2759,20 +1905,8 @@
       <c r="F48" t="n">
         <v>470.48</v>
       </c>
-      <c r="G48" t="n">
-        <v>-215.4630377869398</v>
-      </c>
       <c r="H48" t="n">
         <v>41282.9</v>
-      </c>
-      <c r="I48" t="n">
-        <v>41498.36303778694</v>
-      </c>
-      <c r="J48" t="n">
-        <v>41330.22301279798</v>
-      </c>
-      <c r="K48" t="n">
-        <v>41451.04002498896</v>
       </c>
     </row>
     <row r="49">
@@ -2785,20 +1919,8 @@
       <c r="F49" t="n">
         <v>470.38</v>
       </c>
-      <c r="G49" t="n">
-        <v>-221.4611576579773</v>
-      </c>
       <c r="H49" t="n">
         <v>41105.6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>41327.06115765798</v>
-      </c>
-      <c r="J49" t="n">
-        <v>41153.692094837</v>
-      </c>
-      <c r="K49" t="n">
-        <v>41278.96906282098</v>
       </c>
     </row>
     <row r="50">
@@ -2811,20 +1933,8 @@
       <c r="F50" t="n">
         <v>470.28</v>
       </c>
-      <c r="G50" t="n">
-        <v>-227.7282065326872</v>
-      </c>
       <c r="H50" t="n">
         <v>40732.2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40959.92820653268</v>
-      </c>
-      <c r="J50" t="n">
-        <v>40781.0800913108</v>
-      </c>
-      <c r="K50" t="n">
-        <v>40911.04811522189</v>
       </c>
     </row>
     <row r="51">
@@ -2837,20 +1947,8 @@
       <c r="F51" t="n">
         <v>470.18</v>
       </c>
-      <c r="G51" t="n">
-        <v>-234.2811618209598</v>
-      </c>
       <c r="H51" t="n">
         <v>40497.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>40731.78116182096</v>
-      </c>
-      <c r="J51" t="n">
-        <v>40547.18762799521</v>
-      </c>
-      <c r="K51" t="n">
-        <v>40682.09353382575</v>
       </c>
     </row>
     <row r="52">
@@ -2863,20 +1961,8 @@
       <c r="F52" t="n">
         <v>470.08</v>
       </c>
-      <c r="G52" t="n">
-        <v>-241.1383999163954</v>
-      </c>
       <c r="H52" t="n">
         <v>40692.9</v>
-      </c>
-      <c r="I52" t="n">
-        <v>40934.0383999164</v>
-      </c>
-      <c r="J52" t="n">
-        <v>40743.41535677909</v>
-      </c>
-      <c r="K52" t="n">
-        <v>40883.52304313731</v>
       </c>
     </row>
     <row r="53">
@@ -2889,20 +1975,8 @@
       <c r="F53" t="n">
         <v>469.98</v>
       </c>
-      <c r="G53" t="n">
-        <v>-248.3198397269589</v>
-      </c>
       <c r="H53" t="n">
         <v>40088.3</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40336.61983972696</v>
-      </c>
-      <c r="J53" t="n">
-        <v>40139.6639569839</v>
-      </c>
-      <c r="K53" t="n">
-        <v>40285.25588274306</v>
       </c>
     </row>
     <row r="54">
@@ -2915,20 +1989,8 @@
       <c r="F54" t="n">
         <v>469.88</v>
       </c>
-      <c r="G54" t="n">
-        <v>-255.8471039761716</v>
-      </c>
       <c r="H54" t="n">
         <v>40540.7</v>
-      </c>
-      <c r="I54" t="n">
-        <v>40796.54710397617</v>
-      </c>
-      <c r="J54" t="n">
-        <v>40592.93413676172</v>
-      </c>
-      <c r="K54" t="n">
-        <v>40744.31296721444</v>
       </c>
     </row>
     <row r="55">
@@ -2941,20 +2003,8 @@
       <c r="F55" t="n">
         <v>469.78</v>
       </c>
-      <c r="G55" t="n">
-        <v>-263.7437008732231</v>
-      </c>
       <c r="H55" t="n">
         <v>40112</v>
-      </c>
-      <c r="I55" t="n">
-        <v>40375.74370087322</v>
-      </c>
-      <c r="J55" t="n">
-        <v>40165.12663457722</v>
-      </c>
-      <c r="K55" t="n">
-        <v>40322.61706629601</v>
       </c>
     </row>
     <row r="56">
@@ -2967,20 +2017,8 @@
       <c r="F56" t="n">
         <v>469.68</v>
       </c>
-      <c r="G56" t="n">
-        <v>-272.0352291923773</v>
-      </c>
       <c r="H56" t="n">
         <v>39632.5</v>
-      </c>
-      <c r="I56" t="n">
-        <v>39904.53522919238</v>
-      </c>
-      <c r="J56" t="n">
-        <v>39686.5422207792</v>
-      </c>
-      <c r="K56" t="n">
-        <v>39850.49300841318</v>
       </c>
     </row>
     <row r="57">
@@ -2993,20 +2031,8 @@
       <c r="F57" t="n">
         <v>469.58</v>
       </c>
-      <c r="G57" t="n">
-        <v>-280.7496103300291</v>
-      </c>
       <c r="H57" t="n">
         <v>39119.8</v>
-      </c>
-      <c r="I57" t="n">
-        <v>39400.54961033003</v>
-      </c>
-      <c r="J57" t="n">
-        <v>39174.78169926834</v>
-      </c>
-      <c r="K57" t="n">
-        <v>39345.5679110617</v>
       </c>
     </row>
     <row r="58">
@@ -3019,20 +2045,8 @@
       <c r="F58" t="n">
         <v>469.48</v>
       </c>
-      <c r="G58" t="n">
-        <v>-289.917351541626</v>
-      </c>
       <c r="H58" t="n">
         <v>39416.4</v>
-      </c>
-      <c r="I58" t="n">
-        <v>39706.31735154163</v>
-      </c>
-      <c r="J58" t="n">
-        <v>39472.34590926738</v>
-      </c>
-      <c r="K58" t="n">
-        <v>39650.37144227425</v>
       </c>
     </row>
     <row r="59">
@@ -3045,20 +2059,8 @@
       <c r="F59" t="n">
         <v>469.38</v>
       </c>
-      <c r="G59" t="n">
-        <v>-299.571845324499</v>
-      </c>
       <c r="H59" t="n">
         <v>39218</v>
-      </c>
-      <c r="I59" t="n">
-        <v>39517.5718453245</v>
-      </c>
-      <c r="J59" t="n">
-        <v>39274.93572720161</v>
-      </c>
-      <c r="K59" t="n">
-        <v>39460.63611812289</v>
       </c>
     </row>
     <row r="60">
@@ -3071,20 +2073,8 @@
       <c r="F60" t="n">
         <v>469.28</v>
       </c>
-      <c r="G60" t="n">
-        <v>-309.7497108359457</v>
-      </c>
       <c r="H60" t="n">
         <v>39187.2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39496.94971083594</v>
-      </c>
-      <c r="J60" t="n">
-        <v>39245.15206869705</v>
-      </c>
-      <c r="K60" t="n">
-        <v>39438.99764213889</v>
       </c>
     </row>
     <row r="61">
@@ -3097,20 +2087,8 @@
       <c r="F61" t="n">
         <v>469.18</v>
       </c>
-      <c r="G61" t="n">
-        <v>-320.4911843585069</v>
-      </c>
       <c r="H61" t="n">
         <v>38351.3</v>
-      </c>
-      <c r="I61" t="n">
-        <v>38671.79118435851</v>
-      </c>
-      <c r="J61" t="n">
-        <v>38410.29589070528</v>
-      </c>
-      <c r="K61" t="n">
-        <v>38612.79529365323</v>
       </c>
     </row>
     <row r="62">
@@ -3123,20 +2101,8 @@
       <c r="F62" t="n">
         <v>469.08</v>
       </c>
-      <c r="G62" t="n">
-        <v>-331.8405671938017</v>
-      </c>
       <c r="H62" t="n">
         <v>38289.6</v>
-      </c>
-      <c r="I62" t="n">
-        <v>38621.4405671938</v>
-      </c>
-      <c r="J62" t="n">
-        <v>38349.6681937638</v>
-      </c>
-      <c r="K62" t="n">
-        <v>38561.37237343</v>
       </c>
     </row>
     <row r="63">
@@ -3149,20 +2115,8 @@
       <c r="F63" t="n">
         <v>468.98</v>
       </c>
-      <c r="G63" t="n">
-        <v>-343.8467410462108</v>
-      </c>
       <c r="H63" t="n">
         <v>37882.1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>38225.94674104621</v>
-      </c>
-      <c r="J63" t="n">
-        <v>37943.2700244022</v>
-      </c>
-      <c r="K63" t="n">
-        <v>38164.77671664401</v>
       </c>
     </row>
     <row r="64">
@@ -3175,20 +2129,8 @@
       <c r="F64" t="n">
         <v>468.88</v>
       </c>
-      <c r="G64" t="n">
-        <v>-356.5637630286074</v>
-      </c>
       <c r="H64" t="n">
         <v>38425.6</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38782.16376302861</v>
-      </c>
-      <c r="J64" t="n">
-        <v>38487.90247770483</v>
-      </c>
-      <c r="K64" t="n">
-        <v>38719.86128532378</v>
       </c>
     </row>
     <row r="65">
@@ -3201,20 +2143,8 @@
       <c r="F65" t="n">
         <v>468.78</v>
       </c>
-      <c r="G65" t="n">
-        <v>-370.0515549888296</v>
-      </c>
       <c r="H65" t="n">
         <v>38451</v>
-      </c>
-      <c r="I65" t="n">
-        <v>38821.05155498883</v>
-      </c>
-      <c r="J65" t="n">
-        <v>38514.46670004175</v>
-      </c>
-      <c r="K65" t="n">
-        <v>38757.58485494708</v>
       </c>
     </row>
     <row r="66">
@@ -3227,20 +2157,8 @@
       <c r="F66" t="n">
         <v>468.68</v>
       </c>
-      <c r="G66" t="n">
-        <v>-384.3767050557435</v>
-      </c>
       <c r="H66" t="n">
         <v>37652.8</v>
-      </c>
-      <c r="I66" t="n">
-        <v>38037.17670505575</v>
-      </c>
-      <c r="J66" t="n">
-        <v>37717.46389198081</v>
-      </c>
-      <c r="K66" t="n">
-        <v>37972.51281307494</v>
       </c>
     </row>
     <row r="67">
@@ -3253,20 +2171,8 @@
       <c r="F67" t="n">
         <v>468.58</v>
       </c>
-      <c r="G67" t="n">
-        <v>-399.6134033174894</v>
-      </c>
       <c r="H67" t="n">
         <v>37679.5</v>
-      </c>
-      <c r="I67" t="n">
-        <v>38079.11340331749</v>
-      </c>
-      <c r="J67" t="n">
-        <v>37745.39531139447</v>
-      </c>
-      <c r="K67" t="n">
-        <v>38013.21809192302</v>
       </c>
     </row>
     <row r="68">
@@ -3279,20 +2185,8 @@
       <c r="F68" t="n">
         <v>468.48</v>
       </c>
-      <c r="G68" t="n">
-        <v>-415.8445386130261</v>
-      </c>
       <c r="H68" t="n">
         <v>36974.1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>37389.94453861302</v>
-      </c>
-      <c r="J68" t="n">
-        <v>37041.26227677693</v>
-      </c>
-      <c r="K68" t="n">
-        <v>37322.7822618361</v>
       </c>
     </row>
     <row r="69">
@@ -3305,20 +2199,8 @@
       <c r="F69" t="n">
         <v>468.38</v>
       </c>
-      <c r="G69" t="n">
-        <v>-433.1629898632746</v>
-      </c>
       <c r="H69" t="n">
         <v>36456.5</v>
-      </c>
-      <c r="I69" t="n">
-        <v>36889.66298986327</v>
-      </c>
-      <c r="J69" t="n">
-        <v>36524.96617078729</v>
-      </c>
-      <c r="K69" t="n">
-        <v>36821.19681907599</v>
       </c>
     </row>
     <row r="70">
@@ -3331,20 +2213,8 @@
       <c r="F70" t="n">
         <v>468.28</v>
       </c>
-      <c r="G70" t="n">
-        <v>-451.6731536259686</v>
-      </c>
       <c r="H70" t="n">
         <v>36153.1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>36604.77315362597</v>
-      </c>
-      <c r="J70" t="n">
-        <v>36222.90844403717</v>
-      </c>
-      <c r="K70" t="n">
-        <v>36534.96470958879</v>
       </c>
     </row>
     <row r="71">
@@ -3357,20 +2227,8 @@
       <c r="F71" t="n">
         <v>468.18</v>
       </c>
-      <c r="G71" t="n">
-        <v>-471.4927602232783</v>
-      </c>
       <c r="H71" t="n">
         <v>36563.3</v>
-      </c>
-      <c r="I71" t="n">
-        <v>37034.79276022328</v>
-      </c>
-      <c r="J71" t="n">
-        <v>36634.490619142</v>
-      </c>
-      <c r="K71" t="n">
-        <v>36963.60214108128</v>
       </c>
     </row>
     <row r="72">
@@ -3383,20 +2241,8 @@
       <c r="F72" t="n">
         <v>468.08</v>
       </c>
-      <c r="G72" t="n">
-        <v>-492.7550446811074</v>
-      </c>
       <c r="H72" t="n">
         <v>36024.3</v>
-      </c>
-      <c r="I72" t="n">
-        <v>36517.05504468111</v>
-      </c>
-      <c r="J72" t="n">
-        <v>36096.91429505706</v>
-      </c>
-      <c r="K72" t="n">
-        <v>36444.44074962405</v>
       </c>
     </row>
     <row r="73">
@@ -3409,20 +2255,8 @@
       <c r="F73" t="n">
         <v>467.98</v>
       </c>
-      <c r="G73" t="n">
-        <v>-515.6113569676963</v>
-      </c>
       <c r="H73" t="n">
         <v>36762</v>
-      </c>
-      <c r="I73" t="n">
-        <v>37277.6113569677</v>
-      </c>
-      <c r="J73" t="n">
-        <v>36836.08115172174</v>
-      </c>
-      <c r="K73" t="n">
-        <v>37203.53020524595</v>
       </c>
     </row>
     <row r="74">
@@ -3435,20 +2269,8 @@
       <c r="F74" t="n">
         <v>467.88</v>
       </c>
-      <c r="G74" t="n">
-        <v>-540.234320207288</v>
-      </c>
       <c r="H74" t="n">
         <v>36482.3</v>
-      </c>
-      <c r="I74" t="n">
-        <v>37022.53432020729</v>
-      </c>
-      <c r="J74" t="n">
-        <v>36557.89295503708</v>
-      </c>
-      <c r="K74" t="n">
-        <v>36946.94136517021</v>
       </c>
     </row>
     <row r="75">
@@ -3461,20 +2283,8 @@
       <c r="F75" t="n">
         <v>467.78</v>
       </c>
-      <c r="G75" t="n">
-        <v>-566.8216778812057</v>
-      </c>
       <c r="H75" t="n">
         <v>35682.1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>36248.9216778812</v>
-      </c>
-      <c r="J75" t="n">
-        <v>35759.2515622042</v>
-      </c>
-      <c r="K75" t="n">
-        <v>36171.77011567701</v>
       </c>
     </row>
     <row r="76">
@@ -3487,20 +2297,8 @@
       <c r="F76" t="n">
         <v>467.68</v>
       </c>
-      <c r="G76" t="n">
-        <v>-595.6010146054468</v>
-      </c>
       <c r="H76" t="n">
         <v>36001.6</v>
-      </c>
-      <c r="I76" t="n">
-        <v>36597.20101460545</v>
-      </c>
-      <c r="J76" t="n">
-        <v>36080.35892745421</v>
-      </c>
-      <c r="K76" t="n">
-        <v>36518.44208715123</v>
       </c>
     </row>
     <row r="77">
@@ -3513,20 +2311,8 @@
       <c r="F77" t="n">
         <v>467.58</v>
       </c>
-      <c r="G77" t="n">
-        <v>-626.8355941811824</v>
-      </c>
       <c r="H77" t="n">
         <v>35875.7</v>
-      </c>
-      <c r="I77" t="n">
-        <v>36502.53559418118</v>
-      </c>
-      <c r="J77" t="n">
-        <v>35956.11710820234</v>
-      </c>
-      <c r="K77" t="n">
-        <v>36422.11848597884</v>
       </c>
     </row>
     <row r="78">
@@ -3539,20 +2325,8 @@
       <c r="F78" t="n">
         <v>467.48</v>
       </c>
-      <c r="G78" t="n">
-        <v>-660.8316391511107</v>
-      </c>
       <c r="H78" t="n">
         <v>36327.1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>36987.93163915111</v>
-      </c>
-      <c r="J78" t="n">
-        <v>36409.22827166296</v>
-      </c>
-      <c r="K78" t="n">
-        <v>36905.80336748814</v>
       </c>
     </row>
     <row r="79">
@@ -3565,20 +2339,8 @@
       <c r="F79" t="n">
         <v>467.38</v>
       </c>
-      <c r="G79" t="n">
-        <v>-697.9474859832262</v>
-      </c>
       <c r="H79" t="n">
         <v>35330.9</v>
-      </c>
-      <c r="I79" t="n">
-        <v>36028.84748598323</v>
-      </c>
-      <c r="J79" t="n">
-        <v>35414.79470196526</v>
-      </c>
-      <c r="K79" t="n">
-        <v>35944.95278401797</v>
       </c>
     </row>
     <row r="80">
@@ -3591,20 +2353,8 @@
       <c r="F80" t="n">
         <v>467.28</v>
       </c>
-      <c r="G80" t="n">
-        <v>-738.6051995496964</v>
-      </c>
       <c r="H80" t="n">
-        <v>36305.9</v>
-      </c>
-      <c r="I80" t="n">
-        <v>37044.5051995497</v>
-      </c>
-      <c r="J80" t="n">
-        <v>36391.61880781339</v>
-      </c>
-      <c r="K80" t="n">
-        <v>36958.78639173631</v>
+        <v>35911.4</v>
       </c>
     </row>
     <row r="81">
@@ -3617,20 +2367,8 @@
       <c r="F81" t="n">
         <v>467.18</v>
       </c>
-      <c r="G81" t="n">
-        <v>-783.3054324977347</v>
-      </c>
       <c r="H81" t="n">
-        <v>35775.8</v>
-      </c>
-      <c r="I81" t="n">
-        <v>36559.10543249774</v>
-      </c>
-      <c r="J81" t="n">
-        <v>35863.4031307394</v>
-      </c>
-      <c r="K81" t="n">
-        <v>36471.50230175834</v>
+        <v>35837.09</v>
       </c>
     </row>
     <row r="82">
@@ -3643,20 +2381,8 @@
       <c r="F82" t="n">
         <v>467.08</v>
       </c>
-      <c r="G82" t="n">
-        <v>-832.6465838686054</v>
-      </c>
       <c r="H82" t="n">
-        <v>35652.5</v>
-      </c>
-      <c r="I82" t="n">
-        <v>36485.14658386861</v>
-      </c>
-      <c r="J82" t="n">
-        <v>35742.05035400183</v>
-      </c>
-      <c r="K82" t="n">
-        <v>36395.59622986678</v>
+        <v>35836.59</v>
       </c>
     </row>
     <row r="83">
@@ -3669,20 +2395,8 @@
       <c r="F83" t="n">
         <v>466.98</v>
       </c>
-      <c r="G83" t="n">
-        <v>-887.3496609659342</v>
-      </c>
       <c r="H83" t="n">
-        <v>35385.4</v>
-      </c>
-      <c r="I83" t="n">
-        <v>36272.74966096594</v>
-      </c>
-      <c r="J83" t="n">
-        <v>35476.96331218872</v>
-      </c>
-      <c r="K83" t="n">
-        <v>36181.18634877721</v>
+        <v>35836.98</v>
       </c>
     </row>
     <row r="84">
@@ -3695,20 +2409,8 @@
       <c r="F84" t="n">
         <v>466.88</v>
       </c>
-      <c r="G84" t="n">
-        <v>-928.0906881162373</v>
-      </c>
       <c r="H84" t="n">
-        <v>36292.8</v>
-      </c>
-      <c r="I84" t="n">
-        <v>37241.09068811624</v>
-      </c>
-      <c r="J84" t="n">
-        <v>36386.44500158929</v>
-      </c>
-      <c r="K84" t="n">
-        <v>37147.44568652694</v>
+        <v>35837.94</v>
       </c>
     </row>
     <row r="85">
@@ -3721,20 +2423,8 @@
       <c r="F85" t="n">
         <v>466.78</v>
       </c>
-      <c r="G85" t="n">
-        <v>-942.4460090392822</v>
-      </c>
       <c r="H85" t="n">
-        <v>36211.7029775396</v>
-      </c>
-      <c r="I85" t="n">
-        <v>37228.24600903929</v>
-      </c>
-      <c r="J85" t="n">
-        <v>36307.5015689452</v>
-      </c>
-      <c r="K85" t="n">
-        <v>37132.44741763368</v>
+        <v>35837.89</v>
       </c>
     </row>
     <row r="86">
@@ -3747,20 +2437,8 @@
       <c r="F86" t="n">
         <v>466.68</v>
       </c>
-      <c r="G86" t="n">
-        <v>-1025.372435103629</v>
-      </c>
       <c r="H86" t="n">
-        <v>36211.53984507792</v>
-      </c>
-      <c r="I86" t="n">
-        <v>37304.97243510363</v>
-      </c>
-      <c r="J86" t="n">
-        <v>36309.56728096096</v>
-      </c>
-      <c r="K86" t="n">
-        <v>37206.94499922059</v>
+        <v>35836.47</v>
       </c>
     </row>
     <row r="87">
@@ -3773,20 +2451,8 @@
       <c r="F87" t="n">
         <v>466.58</v>
       </c>
-      <c r="G87" t="n">
-        <v>-759.3967137906584</v>
-      </c>
       <c r="H87" t="n">
-        <v>36211.28735196256</v>
-      </c>
-      <c r="I87" t="n">
-        <v>37391.89671379066</v>
-      </c>
-      <c r="J87" t="n">
-        <v>36311.62243940937</v>
-      </c>
-      <c r="K87" t="n">
-        <v>37291.56162634386</v>
+        <v>35835.09</v>
       </c>
     </row>
     <row r="88">
@@ -3799,20 +2465,8 @@
       <c r="F88" t="n">
         <v>466.48</v>
       </c>
-      <c r="G88" t="n">
-        <v>-253.2629125518433</v>
-      </c>
       <c r="H88" t="n">
-        <v>36210.42362519818</v>
-      </c>
-      <c r="I88" t="n">
-        <v>37490.56291255185</v>
-      </c>
-      <c r="J88" t="n">
-        <v>36313.14893613909</v>
-      </c>
-      <c r="K88" t="n">
-        <v>37387.83760161093</v>
+        <v>35833.16</v>
       </c>
     </row>
     <row r="89">
@@ -3825,20 +2479,8 @@
       <c r="F89" t="n">
         <v>466.38</v>
       </c>
-      <c r="G89" t="n">
-        <v>-242.7370588149133</v>
-      </c>
       <c r="H89" t="n">
-        <v>36207.91681015861</v>
-      </c>
-      <c r="I89" t="n">
-        <v>37602.53705881492</v>
-      </c>
-      <c r="J89" t="n">
-        <v>36313.11890923568</v>
-      </c>
-      <c r="K89" t="n">
-        <v>37497.33495973785</v>
+        <v>35829.75</v>
       </c>
     </row>
     <row r="90">
@@ -3851,20 +2493,8 @@
       <c r="F90" t="n">
         <v>466.28</v>
       </c>
-      <c r="G90" t="n">
-        <v>743.8353581248448</v>
-      </c>
       <c r="H90" t="n">
-        <v>36204.13933538802</v>
-      </c>
-      <c r="I90" t="n">
-        <v>37731.46464187516</v>
-      </c>
-      <c r="J90" t="n">
-        <v>36311.90902460034</v>
-      </c>
-      <c r="K90" t="n">
-        <v>37623.69495266284</v>
+        <v>35825.2</v>
       </c>
     </row>
     <row r="91">
@@ -3877,20 +2507,8 @@
       <c r="F91" t="n">
         <v>466.18</v>
       </c>
-      <c r="G91" t="n">
-        <v>19.08788496124907</v>
-      </c>
       <c r="H91" t="n">
-        <v>36198.23791970332</v>
-      </c>
-      <c r="I91" t="n">
-        <v>37880.61211503875</v>
-      </c>
-      <c r="J91" t="n">
-        <v>36308.6705012915</v>
-      </c>
-      <c r="K91" t="n">
-        <v>37770.17953345056</v>
+        <v>35818.75</v>
       </c>
     </row>
     <row r="92">
@@ -3903,20 +2521,8 @@
       <c r="F92" t="n">
         <v>466.08</v>
       </c>
-      <c r="G92" t="n">
-        <v>-485.8622471255294</v>
-      </c>
       <c r="H92" t="n">
-        <v>36191.43205182115</v>
-      </c>
-      <c r="I92" t="n">
-        <v>38056.36224712553</v>
-      </c>
-      <c r="J92" t="n">
-        <v>36304.62761099973</v>
-      </c>
-      <c r="K92" t="n">
-        <v>37943.16668794694</v>
+        <v>35811.48</v>
       </c>
     </row>
     <row r="93">
@@ -3929,20 +2535,8 @@
       <c r="F93" t="n">
         <v>465.98</v>
       </c>
-      <c r="G93" t="n">
-        <v>144.6678380540034</v>
-      </c>
       <c r="H93" t="n">
-        <v>36186.11897781514</v>
-      </c>
-      <c r="I93" t="n">
-        <v>38267.53216194599</v>
-      </c>
-      <c r="J93" t="n">
-        <v>36302.18268712635</v>
-      </c>
-      <c r="K93" t="n">
-        <v>38151.46845263478</v>
+        <v>35805.55</v>
       </c>
     </row>
     <row r="94">
@@ -3955,20 +2549,8 @@
       <c r="F94" t="n">
         <v>465.88</v>
       </c>
-      <c r="G94" t="n">
-        <v>267.4107610596329</v>
-      </c>
       <c r="H94" t="n">
-        <v>36179.87870042678</v>
-      </c>
-      <c r="I94" t="n">
-        <v>38519.58923894037</v>
-      </c>
-      <c r="J94" t="n">
-        <v>36298.92114767288</v>
-      </c>
-      <c r="K94" t="n">
-        <v>38400.54679169427</v>
+        <v>35798.78</v>
       </c>
     </row>
     <row r="95">
@@ -3981,20 +2563,8 @@
       <c r="F95" t="n">
         <v>465.78</v>
       </c>
-      <c r="G95" t="n">
-        <v>449.8112084657114</v>
-      </c>
       <c r="H95" t="n">
-        <v>36171.53317468196</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38820.88879153429</v>
-      </c>
-      <c r="J95" t="n">
-        <v>36293.67071659867</v>
-      </c>
-      <c r="K95" t="n">
-        <v>38698.75124961758</v>
+        <v>35790.13</v>
       </c>
     </row>
     <row r="96">
@@ -4007,20 +2577,8 @@
       <c r="F96" t="n">
         <v>465.68</v>
       </c>
-      <c r="G96" t="n">
-        <v>389.9871568118979</v>
-      </c>
       <c r="H96" t="n">
-        <v>36161.68328319529</v>
-      </c>
-      <c r="I96" t="n">
-        <v>39183.31284318811</v>
-      </c>
-      <c r="J96" t="n">
-        <v>36287.03842725917</v>
-      </c>
-      <c r="K96" t="n">
-        <v>39057.95769912422</v>
+        <v>35780.13</v>
       </c>
     </row>
     <row r="97">
@@ -4033,20 +2591,8 @@
       <c r="F97" t="n">
         <v>465.58</v>
       </c>
-      <c r="G97" t="n">
-        <v>658.3377104329702</v>
-      </c>
       <c r="H97" t="n">
-        <v>36150.43441759194</v>
-      </c>
-      <c r="I97" t="n">
-        <v>39619.96228956703</v>
-      </c>
-      <c r="J97" t="n">
-        <v>36279.13623461245</v>
-      </c>
-      <c r="K97" t="n">
-        <v>39491.26047254652</v>
+        <v>35768.87</v>
       </c>
     </row>
     <row r="98">
@@ -4059,20 +2605,8 @@
       <c r="F98" t="n">
         <v>465.48</v>
       </c>
-      <c r="G98" t="n">
-        <v>37.25311471132591</v>
-      </c>
       <c r="H98" t="n">
-        <v>36137.4251851794</v>
-      </c>
-      <c r="I98" t="n">
-        <v>40144.94688528867</v>
-      </c>
-      <c r="J98" t="n">
-        <v>36269.60975561626</v>
-      </c>
-      <c r="K98" t="n">
-        <v>40012.76231485181</v>
+        <v>35756.03</v>
       </c>
     </row>
     <row r="99">
@@ -4085,20 +2619,8 @@
       <c r="F99" t="n">
         <v>465.38</v>
       </c>
-      <c r="G99" t="n">
-        <v>134.2414581365229</v>
-      </c>
       <c r="H99" t="n">
-        <v>36123.31943040172</v>
-      </c>
-      <c r="I99" t="n">
-        <v>40774.35854186348</v>
-      </c>
-      <c r="J99" t="n">
-        <v>36259.13032767449</v>
-      </c>
-      <c r="K99" t="n">
-        <v>40638.54764459071</v>
+        <v>35742.22</v>
       </c>
     </row>
     <row r="100">
@@ -4111,20 +2633,8 @@
       <c r="F100" t="n">
         <v>465.28</v>
       </c>
-      <c r="G100" t="n">
-        <v>-164.2448674047118</v>
-      </c>
       <c r="H100" t="n">
-        <v>36108.04598950145</v>
-      </c>
-      <c r="I100" t="n">
-        <v>41523.64486740471</v>
-      </c>
-      <c r="J100" t="n">
-        <v>36247.63480392531</v>
-      </c>
-      <c r="K100" t="n">
-        <v>41384.05605298085</v>
+        <v>35727.35</v>
       </c>
     </row>
     <row r="101">
@@ -4137,20 +2647,8 @@
       <c r="F101" t="n">
         <v>465.18</v>
       </c>
-      <c r="G101" t="n">
-        <v>-387.638995628542</v>
-      </c>
       <c r="H101" t="n">
-        <v>36090.6859521975</v>
-      </c>
-      <c r="I101" t="n">
-        <v>42406.23899562854</v>
-      </c>
-      <c r="J101" t="n">
-        <v>36234.21285959436</v>
-      </c>
-      <c r="K101" t="n">
-        <v>42262.71208823168</v>
+        <v>35710.62</v>
       </c>
     </row>
     <row r="102">
@@ -4163,20 +2661,8 @@
       <c r="F102" t="n">
         <v>465.08</v>
       </c>
-      <c r="G102" t="n">
-        <v>43.68356512305763</v>
-      </c>
       <c r="H102" t="n">
-        <v>36071.27847390604</v>
-      </c>
-      <c r="I102" t="n">
-        <v>43433.71643487694</v>
-      </c>
-      <c r="J102" t="n">
-        <v>36218.91285340836</v>
-      </c>
-      <c r="K102" t="n">
-        <v>43286.08205537462</v>
+        <v>35692.04</v>
       </c>
     </row>
     <row r="103">
@@ -4189,20 +2675,8 @@
       <c r="F103" t="n">
         <v>464.98</v>
       </c>
-      <c r="G103" t="n">
-        <v>-179.3027514848218</v>
-      </c>
       <c r="H103" t="n">
-        <v>36048.10634791548</v>
-      </c>
-      <c r="I103" t="n">
-        <v>44611.10275148482</v>
-      </c>
-      <c r="J103" t="n">
-        <v>36200.02745401162</v>
-      </c>
-      <c r="K103" t="n">
-        <v>44459.18164538869</v>
+        <v>35670.1</v>
       </c>
     </row>
     <row r="104">
@@ -4215,20 +2689,8 @@
       <c r="F104" t="n">
         <v>464.88</v>
       </c>
-      <c r="G104" t="n">
-        <v>-700.3219311040957</v>
-      </c>
       <c r="H104" t="n">
-        <v>36020.71105491317</v>
-      </c>
-      <c r="I104" t="n">
-        <v>45937.7219311041</v>
-      </c>
-      <c r="J104" t="n">
-        <v>36177.1087493849</v>
-      </c>
-      <c r="K104" t="n">
-        <v>45781.32423663237</v>
+        <v>35644.37</v>
       </c>
     </row>
     <row r="105">
@@ -4241,20 +2703,8 @@
       <c r="F105" t="n">
         <v>464.78</v>
       </c>
-      <c r="G105" t="n">
-        <v>-1107.218324741836</v>
-      </c>
       <c r="H105" t="n">
-        <v>35990.14839767719</v>
-      </c>
-      <c r="I105" t="n">
-        <v>47405.31832474183</v>
-      </c>
-      <c r="J105" t="n">
-        <v>36151.2239477648</v>
-      </c>
-      <c r="K105" t="n">
-        <v>47244.24277465423</v>
+        <v>35615.82</v>
       </c>
     </row>
     <row r="106">
@@ -4267,20 +2717,8 @@
       <c r="F106" t="n">
         <v>464.68</v>
       </c>
-      <c r="G106" t="n">
-        <v>-621.5578668248345</v>
-      </c>
       <c r="H106" t="n">
-        <v>35956.0983217469</v>
-      </c>
-      <c r="I106" t="n">
-        <v>48993.35786682484</v>
-      </c>
-      <c r="J106" t="n">
-        <v>36122.06527165664</v>
-      </c>
-      <c r="K106" t="n">
-        <v>48827.39091691509</v>
+        <v>35584.13</v>
       </c>
     </row>
     <row r="107">
@@ -4293,20 +2731,8 @@
       <c r="F107" t="n">
         <v>464.58</v>
       </c>
-      <c r="G107" t="n">
-        <v>-792.7086515029077</v>
-      </c>
       <c r="H107" t="n">
-        <v>35916.3965325412</v>
-      </c>
-      <c r="I107" t="n">
-        <v>50667.4086515029</v>
-      </c>
-      <c r="J107" t="n">
-        <v>36087.48165629934</v>
-      </c>
-      <c r="K107" t="n">
-        <v>50496.32352774477</v>
+        <v>35547.38</v>
       </c>
     </row>
     <row r="108">
@@ -4319,20 +2745,8 @@
       <c r="F108" t="n">
         <v>464.48</v>
       </c>
-      <c r="G108" t="n">
-        <v>-336.7074106340442</v>
-      </c>
       <c r="H108" t="n">
-        <v>35870.26925218297</v>
-      </c>
-      <c r="I108" t="n">
-        <v>52382.20741063404</v>
-      </c>
-      <c r="J108" t="n">
-        <v>36046.71359685691</v>
-      </c>
-      <c r="K108" t="n">
-        <v>52205.76306596011</v>
+        <v>35504.89</v>
       </c>
     </row>
     <row r="109">
@@ -4345,20 +2759,8 @@
       <c r="F109" t="n">
         <v>464.38</v>
       </c>
-      <c r="G109" t="n">
-        <v>-581.8202281730773</v>
-      </c>
       <c r="H109" t="n">
-        <v>35817.52144870716</v>
-      </c>
-      <c r="I109" t="n">
-        <v>54081.92022817308</v>
-      </c>
-      <c r="J109" t="n">
-        <v>35999.58147817934</v>
-      </c>
-      <c r="K109" t="n">
-        <v>53899.8601987009</v>
+        <v>35456.47</v>
       </c>
     </row>
     <row r="110">
@@ -4371,20 +2773,8 @@
       <c r="F110" t="n">
         <v>464.28</v>
       </c>
-      <c r="G110" t="n">
-        <v>789.395542133876</v>
-      </c>
       <c r="H110" t="n">
-        <v>35758.05668181708</v>
-      </c>
-      <c r="I110" t="n">
-        <v>55702.10445786612</v>
-      </c>
-      <c r="J110" t="n">
-        <v>35946.00553263393</v>
-      </c>
-      <c r="K110" t="n">
-        <v>55514.15560704928</v>
+        <v>35402.04</v>
       </c>
     </row>
     <row r="111">
@@ -4397,20 +2787,8 @@
       <c r="F111" t="n">
         <v>464.18</v>
       </c>
-      <c r="G111" t="n">
-        <v>1069.561816945337</v>
-      </c>
       <c r="H111" t="n">
-        <v>35690.44591123992</v>
-      </c>
-      <c r="I111" t="n">
-        <v>57172.03818305466</v>
-      </c>
-      <c r="J111" t="n">
-        <v>35884.57477359677</v>
-      </c>
-      <c r="K111" t="n">
-        <v>56977.90932069781</v>
+        <v>35340.32</v>
       </c>
     </row>
     <row r="112">
@@ -4423,20 +2801,8 @@
       <c r="F112" t="n">
         <v>464.08</v>
       </c>
-      <c r="G112" t="n">
-        <v>69.87961349845864</v>
-      </c>
       <c r="H112" t="n">
-        <v>35614.70485987673</v>
-      </c>
-      <c r="I112" t="n">
-        <v>58422.32038650154</v>
-      </c>
-      <c r="J112" t="n">
-        <v>35815.32449857362</v>
-      </c>
-      <c r="K112" t="n">
-        <v>58221.70074780464</v>
+        <v>35271.36</v>
       </c>
     </row>
     <row r="113">
@@ -4449,20 +2815,8 @@
       <c r="F113" t="n">
         <v>463.98</v>
       </c>
-      <c r="G113" t="n">
-        <v>600.2044600696026</v>
-      </c>
       <c r="H113" t="n">
-        <v>35535.18554395528</v>
-      </c>
-      <c r="I113" t="n">
-        <v>59393.1955399304</v>
-      </c>
-      <c r="J113" t="n">
-        <v>35742.62797620903</v>
-      </c>
-      <c r="K113" t="n">
-        <v>59185.75310767666</v>
+        <v>35199.04</v>
       </c>
     </row>
     <row r="114">
@@ -4475,20 +2829,8 @@
       <c r="F114" t="n">
         <v>463.88</v>
       </c>
-      <c r="G114" t="n">
-        <v>911.7015231290134</v>
-      </c>
       <c r="H114" t="n">
-        <v>35452.07597855043</v>
-      </c>
-      <c r="I114" t="n">
-        <v>60031.49847687098</v>
-      </c>
-      <c r="J114" t="n">
-        <v>35666.69632792468</v>
-      </c>
-      <c r="K114" t="n">
-        <v>59816.87812749673</v>
+        <v>35123.52</v>
       </c>
     </row>
     <row r="115">
@@ -4501,20 +2843,8 @@
       <c r="F115" t="n">
         <v>463.78</v>
       </c>
-      <c r="G115" t="n">
-        <v>458.7091662867606</v>
-      </c>
       <c r="H115" t="n">
-        <v>35364.74023199936</v>
-      </c>
-      <c r="I115" t="n">
-        <v>60298.79083371324</v>
-      </c>
-      <c r="J115" t="n">
-        <v>35586.91878047452</v>
-      </c>
-      <c r="K115" t="n">
-        <v>60076.61228523808</v>
+        <v>35044.25</v>
       </c>
     </row>
     <row r="116">
@@ -4527,20 +2857,8 @@
       <c r="F116" t="n">
         <v>463.68</v>
       </c>
-      <c r="G116" t="n">
-        <v>885.8113262010665</v>
-      </c>
       <c r="H116" t="n">
-        <v>35275.91809635755</v>
-      </c>
-      <c r="I116" t="n">
-        <v>60179.08867379893</v>
-      </c>
-      <c r="J116" t="n">
-        <v>35506.06255977741</v>
-      </c>
-      <c r="K116" t="n">
-        <v>59948.94421037908</v>
+        <v>34963.67</v>
       </c>
     </row>
     <row r="117">
@@ -4553,20 +2871,8 @@
       <c r="F117" t="n">
         <v>463.58</v>
       </c>
-      <c r="G117" t="n">
-        <v>405.6549213320468</v>
-      </c>
       <c r="H117" t="n">
-        <v>35186.82211241789</v>
-      </c>
-      <c r="I117" t="n">
-        <v>59675.74507866795</v>
-      </c>
-      <c r="J117" t="n">
-        <v>35425.3701683043</v>
-      </c>
-      <c r="K117" t="n">
-        <v>59437.19702278154</v>
+        <v>34882.89</v>
       </c>
     </row>
     <row r="118">
@@ -4579,20 +2885,8 @@
       <c r="F118" t="n">
         <v>463.48</v>
       </c>
-      <c r="G118" t="n">
-        <v>-358.2171673132907</v>
-      </c>
       <c r="H118" t="n">
-        <v>35099.30642214028</v>
-      </c>
-      <c r="I118" t="n">
-        <v>58813.41716731329</v>
-      </c>
-      <c r="J118" t="n">
-        <v>35346.72852326466</v>
-      </c>
-      <c r="K118" t="n">
-        <v>58565.99506618891</v>
+        <v>34803.56</v>
       </c>
     </row>
     <row r="119">
@@ -4605,20 +2899,8 @@
       <c r="F119" t="n">
         <v>463.38</v>
       </c>
-      <c r="G119" t="n">
-        <v>-565.64544196731</v>
-      </c>
       <c r="H119" t="n">
-        <v>35016.30743927075</v>
-      </c>
-      <c r="I119" t="n">
-        <v>57636.34544196731</v>
-      </c>
-      <c r="J119" t="n">
-        <v>35273.10995153587</v>
-      </c>
-      <c r="K119" t="n">
-        <v>57379.54292970219</v>
+        <v>34728.31</v>
       </c>
     </row>
     <row r="120">
@@ -4631,20 +2913,8 @@
       <c r="F120" t="n">
         <v>463.28</v>
       </c>
-      <c r="G120" t="n">
-        <v>-1305.697567779273</v>
-      </c>
       <c r="H120" t="n">
-        <v>34938.61265581629</v>
-      </c>
-      <c r="I120" t="n">
-        <v>56201.29756777927</v>
-      </c>
-      <c r="J120" t="n">
-        <v>35205.34136508727</v>
-      </c>
-      <c r="K120" t="n">
-        <v>55934.5688585083</v>
+        <v>34657.83</v>
       </c>
     </row>
     <row r="121">
@@ -4657,20 +2927,8 @@
       <c r="F121" t="n">
         <v>463.18</v>
       </c>
-      <c r="G121" t="n">
-        <v>-1030.800294443579</v>
-      </c>
       <c r="H121" t="n">
-        <v>34866.97055038068</v>
-      </c>
-      <c r="I121" t="n">
-        <v>54574.70029444358</v>
-      </c>
-      <c r="J121" t="n">
-        <v>35144.2145900957</v>
-      </c>
-      <c r="K121" t="n">
-        <v>54297.45625472856</v>
+        <v>34592.81</v>
       </c>
     </row>
     <row r="122">
@@ -4683,20 +2941,8 @@
       <c r="F122" t="n">
         <v>463.08</v>
       </c>
-      <c r="G122" t="n">
-        <v>-742.3783886520978</v>
-      </c>
       <c r="H122" t="n">
-        <v>34801.02389714812</v>
-      </c>
-      <c r="I122" t="n">
-        <v>52826.07838865209</v>
-      </c>
-      <c r="J122" t="n">
-        <v>35089.42015706767</v>
-      </c>
-      <c r="K122" t="n">
-        <v>52537.68212873255</v>
+        <v>34532.9</v>
       </c>
     </row>
     <row r="123">
@@ -4709,20 +2955,8 @@
       <c r="F123" t="n">
         <v>462.98</v>
       </c>
-      <c r="G123" t="n">
-        <v>-896.4933665093704</v>
-      </c>
       <c r="H123" t="n">
-        <v>34740.1029891401</v>
-      </c>
-      <c r="I123" t="n">
-        <v>51023.49336650937</v>
-      </c>
-      <c r="J123" t="n">
-        <v>35040.34107574012</v>
-      </c>
-      <c r="K123" t="n">
-        <v>50723.25527990935</v>
+        <v>34477.52</v>
       </c>
     </row>
     <row r="124">
@@ -4735,20 +2969,8 @@
       <c r="F124" t="n">
         <v>462.88</v>
       </c>
-      <c r="G124" t="n">
-        <v>-642.6214898060498</v>
-      </c>
       <c r="H124" t="n">
-        <v>34685.04359819571</v>
-      </c>
-      <c r="I124" t="n">
-        <v>49230.72148980605</v>
-      </c>
-      <c r="J124" t="n">
-        <v>34997.87142932678</v>
-      </c>
-      <c r="K124" t="n">
-        <v>48917.89365867497</v>
+        <v>34427.4</v>
       </c>
     </row>
     <row r="125">
@@ -4761,20 +2983,8 @@
       <c r="F125" t="n">
         <v>462.78</v>
       </c>
-      <c r="G125" t="n">
-        <v>-174.2667268211153</v>
-      </c>
       <c r="H125" t="n">
-        <v>34635.60985403991</v>
-      </c>
-      <c r="I125" t="n">
-        <v>47501.16672682112</v>
-      </c>
-      <c r="J125" t="n">
-        <v>34961.83998499616</v>
-      </c>
-      <c r="K125" t="n">
-        <v>47174.93659586487</v>
+        <v>34382.34</v>
       </c>
     </row>
     <row r="126">
@@ -4787,20 +2997,8 @@
       <c r="F126" t="n">
         <v>462.68</v>
       </c>
-      <c r="G126" t="n">
-        <v>341.6908673429352</v>
-      </c>
       <c r="H126" t="n">
-        <v>34590.70758452361</v>
-      </c>
-      <c r="I126" t="n">
-        <v>45875.90913265706</v>
-      </c>
-      <c r="J126" t="n">
-        <v>34931.22438013862</v>
-      </c>
-      <c r="K126" t="n">
-        <v>45535.39233704205</v>
+        <v>34341.35</v>
       </c>
     </row>
     <row r="127">
@@ -4813,20 +3011,8 @@
       <c r="F127" t="n">
         <v>462.58</v>
       </c>
-      <c r="G127" t="n">
-        <v>1064.434735717325</v>
-      </c>
       <c r="H127" t="n">
-        <v>34549.55269980441</v>
-      </c>
-      <c r="I127" t="n">
-        <v>44384.06526428268</v>
-      </c>
-      <c r="J127" t="n">
-        <v>34905.32048830113</v>
-      </c>
-      <c r="K127" t="n">
-        <v>44028.29747578595</v>
+        <v>34303.72</v>
       </c>
     </row>
     <row r="128">
@@ -4839,20 +3025,8 @@
       <c r="F128" t="n">
         <v>462.48</v>
       </c>
-      <c r="G128" t="n">
-        <v>961.2751377999739</v>
-      </c>
       <c r="H128" t="n">
-        <v>34511.7181044711</v>
-      </c>
-      <c r="I128" t="n">
-        <v>43043.22486220003</v>
-      </c>
-      <c r="J128" t="n">
-        <v>34883.79047440524</v>
-      </c>
-      <c r="K128" t="n">
-        <v>42671.15249226588</v>
+        <v>34269.08</v>
       </c>
     </row>
     <row r="129">
@@ -4865,20 +3039,8 @@
       <c r="F129" t="n">
         <v>462.38</v>
       </c>
-      <c r="G129" t="n">
-        <v>439.0523322456065</v>
-      </c>
       <c r="H129" t="n">
-        <v>34478.11948798104</v>
-      </c>
-      <c r="I129" t="n">
-        <v>41861.7476677544</v>
-      </c>
-      <c r="J129" t="n">
-        <v>34867.64992083243</v>
-      </c>
-      <c r="K129" t="n">
-        <v>41472.217234903</v>
+        <v>34238.26</v>
       </c>
     </row>
     <row r="130">
@@ -4891,20 +3053,8 @@
       <c r="F130" t="n">
         <v>462.28</v>
       </c>
-      <c r="G130" t="n">
-        <v>1137.463768371817</v>
-      </c>
       <c r="H130" t="n">
-        <v>34449.28698615264</v>
-      </c>
-      <c r="I130" t="n">
-        <v>40838.93623162818</v>
-      </c>
-      <c r="J130" t="n">
-        <v>34857.54105534021</v>
-      </c>
-      <c r="K130" t="n">
-        <v>40430.68216244061</v>
+        <v>34211.7</v>
       </c>
     </row>
     <row r="131">
@@ -4917,20 +3067,8 @@
       <c r="F131" t="n">
         <v>462.18</v>
       </c>
-      <c r="G131" t="n">
-        <v>1010.66958473769</v>
-      </c>
       <c r="H131" t="n">
-        <v>34423.49605768973</v>
-      </c>
-      <c r="I131" t="n">
-        <v>39965.33041526231</v>
-      </c>
-      <c r="J131" t="n">
-        <v>34851.86547181868</v>
-      </c>
-      <c r="K131" t="n">
-        <v>39536.96100113336</v>
+        <v>34187.87</v>
       </c>
     </row>
     <row r="132">
@@ -4943,20 +3081,8 @@
       <c r="F132" t="n">
         <v>462.08</v>
       </c>
-      <c r="G132" t="n">
-        <v>434.1466050261733</v>
-      </c>
       <c r="H132" t="n">
-        <v>34400.46713791799</v>
-      </c>
-      <c r="I132" t="n">
-        <v>39228.55339497382</v>
-      </c>
-      <c r="J132" t="n">
-        <v>34850.48596424444</v>
-      </c>
-      <c r="K132" t="n">
-        <v>38778.53456864737</v>
+        <v>34166.54</v>
       </c>
     </row>
     <row r="133">
@@ -4969,20 +3095,8 @@
       <c r="F133" t="n">
         <v>461.98</v>
       </c>
-      <c r="G133" t="n">
-        <v>1004.493299828406</v>
-      </c>
       <c r="H133" t="n">
-        <v>34380.83734481013</v>
-      </c>
-      <c r="I133" t="n">
-        <v>38614.70670017159</v>
-      </c>
-      <c r="J133" t="n">
-        <v>34854.20082126531</v>
-      </c>
-      <c r="K133" t="n">
-        <v>38141.34322371642</v>
+        <v>34148.24</v>
       </c>
     </row>
     <row r="134">
@@ -4995,20 +3109,8 @@
       <c r="F134" t="n">
         <v>461.88</v>
       </c>
-      <c r="G134" t="n">
-        <v>1271.131229911349</v>
-      </c>
       <c r="H134" t="n">
-        <v>34362.88250526343</v>
-      </c>
-      <c r="I134" t="n">
-        <v>38106.66877008865</v>
-      </c>
-      <c r="J134" t="n">
-        <v>34861.4689398972</v>
-      </c>
-      <c r="K134" t="n">
-        <v>37608.08233545488</v>
+        <v>34131.44</v>
       </c>
     </row>
     <row r="135">
@@ -5021,20 +3123,8 @@
       <c r="F135" t="n">
         <v>461.78</v>
       </c>
-      <c r="G135" t="n">
-        <v>699.4427447089984</v>
-      </c>
       <c r="H135" t="n">
-        <v>34345.89823178262</v>
-      </c>
-      <c r="I135" t="n">
-        <v>37688.657255291</v>
-      </c>
-      <c r="J135" t="n">
-        <v>34871.79460241742</v>
-      </c>
-      <c r="K135" t="n">
-        <v>37162.76088465619</v>
+        <v>34115.52</v>
       </c>
     </row>
     <row r="136">
@@ -5047,20 +3137,8 @@
       <c r="F136" t="n">
         <v>461.68</v>
       </c>
-      <c r="G136" t="n">
-        <v>875.2309211890824</v>
-      </c>
       <c r="H136" t="n">
-        <v>34330.94329886363</v>
-      </c>
-      <c r="I136" t="n">
-        <v>37347.76907881092</v>
-      </c>
-      <c r="J136" t="n">
-        <v>34886.47531009057</v>
-      </c>
-      <c r="K136" t="n">
-        <v>36792.23706758398</v>
+        <v>34101.42</v>
       </c>
     </row>
     <row r="137">
@@ -5073,20 +3151,8 @@
       <c r="F137" t="n">
         <v>461.58</v>
       </c>
-      <c r="G137" t="n">
-        <v>-206.5495332502833</v>
-      </c>
       <c r="H137" t="n">
-        <v>34318.14642332454</v>
-      </c>
-      <c r="I137" t="n">
-        <v>37071.74953325028</v>
-      </c>
-      <c r="J137" t="n">
-        <v>34905.91396210729</v>
-      </c>
-      <c r="K137" t="n">
-        <v>36483.98199446753</v>
+        <v>34089.26</v>
       </c>
     </row>
     <row r="138">
@@ -5099,20 +3165,8 @@
       <c r="F138" t="n">
         <v>461.48</v>
       </c>
-      <c r="G138" t="n">
-        <v>29.18432986990956</v>
-      </c>
       <c r="H138" t="n">
-        <v>34307.83135088976</v>
-      </c>
-      <c r="I138" t="n">
-        <v>36850.31567013009</v>
-      </c>
-      <c r="J138" t="n">
-        <v>34930.75051868064</v>
-      </c>
-      <c r="K138" t="n">
-        <v>36227.39650233921</v>
+        <v>34079.33</v>
       </c>
     </row>
     <row r="139">
@@ -5125,20 +3179,8 @@
       <c r="F139" t="n">
         <v>461.38</v>
       </c>
-      <c r="G139" t="n">
-        <v>177.8303172545056</v>
-      </c>
       <c r="H139" t="n">
-        <v>34299.02107976884</v>
-      </c>
-      <c r="I139" t="n">
-        <v>36673.66968274549</v>
-      </c>
-      <c r="J139" t="n">
-        <v>34960.37428556274</v>
-      </c>
-      <c r="K139" t="n">
-        <v>36012.31647695159</v>
+        <v>34070.73</v>
       </c>
     </row>
     <row r="140">
@@ -5151,20 +3193,8 @@
       <c r="F140" t="n">
         <v>461.28</v>
       </c>
-      <c r="G140" t="n">
-        <v>353.2601227330815</v>
-      </c>
       <c r="H140" t="n">
-        <v>34290.19023824017</v>
-      </c>
-      <c r="I140" t="n">
-        <v>36533.13987726692</v>
-      </c>
-      <c r="J140" t="n">
-        <v>34993.6862373998</v>
-      </c>
-      <c r="K140" t="n">
-        <v>35829.64387810729</v>
+        <v>34062.12</v>
       </c>
     </row>
     <row r="141">
@@ -5177,20 +3207,8 @@
       <c r="F141" t="n">
         <v>461.18</v>
       </c>
-      <c r="G141" t="n">
-        <v>-383.3391853271023</v>
-      </c>
       <c r="H141" t="n">
-        <v>34281.7992544061</v>
-      </c>
-      <c r="I141" t="n">
-        <v>36423.5391853271</v>
-      </c>
-      <c r="J141" t="n">
-        <v>35031.64554591828</v>
-      </c>
-      <c r="K141" t="n">
-        <v>35673.69289381492</v>
+        <v>34053.91</v>
       </c>
     </row>
     <row r="142">
@@ -5203,20 +3221,8 @@
       <c r="F142" t="n">
         <v>461.08</v>
       </c>
-      <c r="G142" t="n">
-        <v>-175.1979110093162</v>
-      </c>
       <c r="H142" t="n">
-        <v>34274.72494015259</v>
-      </c>
-      <c r="I142" t="n">
-        <v>36341.39791100931</v>
-      </c>
-      <c r="J142" t="n">
-        <v>35075.71563761671</v>
-      </c>
-      <c r="K142" t="n">
-        <v>35540.40721354519</v>
+        <v>34046.87</v>
       </c>
     </row>
     <row r="143">
@@ -5229,20 +3235,8 @@
       <c r="F143" t="n">
         <v>460.98</v>
       </c>
-      <c r="G143" t="n">
-        <v>297.5687276082899</v>
-      </c>
       <c r="H143" t="n">
-        <v>34268.11942505781</v>
-      </c>
-      <c r="I143" t="n">
-        <v>36282.63127239171</v>
-      </c>
-      <c r="J143" t="n">
-        <v>35125.74266204726</v>
-      </c>
-      <c r="K143" t="n">
-        <v>35425.00803540226</v>
+        <v>34040.25</v>
       </c>
     </row>
     <row r="144">
@@ -5255,20 +3249,8 @@
       <c r="F144" t="n">
         <v>460.88</v>
       </c>
-      <c r="G144" t="n">
-        <v>-18.70733834419661</v>
-      </c>
       <c r="H144" t="n">
-        <v>34260.84548327649</v>
-      </c>
-      <c r="I144" t="n">
-        <v>36243.8073383442</v>
-      </c>
-      <c r="J144" t="n">
-        <v>35181.41570036449</v>
-      </c>
-      <c r="K144" t="n">
-        <v>35323.2371212562</v>
+        <v>34033.03</v>
       </c>
     </row>
     <row r="145">
@@ -5281,20 +3263,8 @@
       <c r="F145" t="n">
         <v>460.78</v>
       </c>
-      <c r="G145" t="n">
-        <v>744.6146208004138</v>
-      </c>
       <c r="H145" t="n">
-        <v>34253.24878160434</v>
-      </c>
-      <c r="I145" t="n">
-        <v>36223.78537919959</v>
-      </c>
-      <c r="J145" t="n">
-        <v>35244.07101581162</v>
-      </c>
-      <c r="K145" t="n">
-        <v>35232.9631449923</v>
+        <v>34025.52</v>
       </c>
     </row>
     <row r="146">
@@ -5307,20 +3277,8 @@
       <c r="F146" t="n">
         <v>460.68</v>
       </c>
-      <c r="G146" t="n">
-        <v>456.6206218551815</v>
-      </c>
       <c r="H146" t="n">
-        <v>34244.91739173278</v>
-      </c>
-      <c r="I146" t="n">
-        <v>36221.37937814482</v>
-      </c>
-      <c r="J146" t="n">
-        <v>35314.49316788468</v>
-      </c>
-      <c r="K146" t="n">
-        <v>35151.80360199291</v>
+        <v>34017.35</v>
       </c>
     </row>
     <row r="147">
@@ -5333,20 +3291,8 @@
       <c r="F147" t="n">
         <v>460.58</v>
       </c>
-      <c r="G147" t="n">
-        <v>128.5674768549288</v>
-      </c>
       <c r="H147" t="n">
-        <v>34236.41242849299</v>
-      </c>
-      <c r="I147" t="n">
-        <v>36237.03252314507</v>
-      </c>
-      <c r="J147" t="n">
-        <v>35394.70037027944</v>
-      </c>
-      <c r="K147" t="n">
-        <v>35078.74458135862</v>
+        <v>34009.03</v>
       </c>
     </row>
     <row r="148">
@@ -5359,20 +3305,8 @@
       <c r="F148" t="n">
         <v>460.48</v>
       </c>
-      <c r="G148" t="n">
-        <v>-13.54227683821227</v>
-      </c>
       <c r="H148" t="n">
-        <v>34228.80765576178</v>
-      </c>
-      <c r="I148" t="n">
-        <v>36272.34227683822</v>
-      </c>
-      <c r="J148" t="n">
-        <v>35487.55701499058</v>
-      </c>
-      <c r="K148" t="n">
-        <v>35013.59291760941</v>
+        <v>34001.53</v>
       </c>
     </row>
     <row r="149">
@@ -5385,20 +3319,8 @@
       <c r="F149" t="n">
         <v>460.38</v>
       </c>
-      <c r="G149" t="n">
-        <v>-72.41271583119669</v>
-      </c>
       <c r="H149" t="n">
-        <v>34221.71120307555</v>
-      </c>
-      <c r="I149" t="n">
-        <v>36328.11271583119</v>
-      </c>
-      <c r="J149" t="n">
-        <v>35594.89398643454</v>
-      </c>
-      <c r="K149" t="n">
-        <v>34954.92993247221</v>
+        <v>33994.47</v>
       </c>
     </row>
     <row r="150">
@@ -5411,20 +3333,8 @@
       <c r="F150" t="n">
         <v>460.28</v>
       </c>
-      <c r="G150" t="n">
-        <v>-352.5095339909021</v>
-      </c>
       <c r="H150" t="n">
-        <v>34214.83737319057</v>
-      </c>
-      <c r="I150" t="n">
-        <v>36406.0095339909</v>
-      </c>
-      <c r="J150" t="n">
-        <v>35719.21600636967</v>
-      </c>
-      <c r="K150" t="n">
-        <v>34901.6309008118</v>
+        <v>33987.61</v>
       </c>
     </row>
     <row r="151">
@@ -5437,20 +3347,8 @@
       <c r="F151" t="n">
         <v>460.18</v>
       </c>
-      <c r="G151" t="n">
-        <v>-106.7821012144777</v>
-      </c>
       <c r="H151" t="n">
-        <v>34208.07895576353</v>
-      </c>
-      <c r="I151" t="n">
-        <v>36508.78210121448</v>
-      </c>
-      <c r="J151" t="n">
-        <v>35863.96380618484</v>
-      </c>
-      <c r="K151" t="n">
-        <v>34852.89725079317</v>
+        <v>33980.86</v>
       </c>
     </row>
     <row r="152">
@@ -5463,20 +3361,8 @@
       <c r="F152" t="n">
         <v>460.08</v>
       </c>
-      <c r="G152" t="n">
-        <v>388.5657570501862</v>
-      </c>
       <c r="H152" t="n">
-        <v>34200.53694494469</v>
-      </c>
-      <c r="I152" t="n">
-        <v>36639.53424294981</v>
-      </c>
-      <c r="J152" t="n">
-        <v>36032.8156239676</v>
-      </c>
-      <c r="K152" t="n">
-        <v>34807.2555639269</v>
+        <v>33973.39</v>
       </c>
     </row>
     <row r="153">
@@ -5489,20 +3375,8 @@
       <c r="F153" t="n">
         <v>459.98</v>
       </c>
-      <c r="G153" t="n">
-        <v>238.9276379424045</v>
-      </c>
       <c r="H153" t="n">
-        <v>34191.49335424392</v>
-      </c>
-      <c r="I153" t="n">
-        <v>36803.0723620576</v>
-      </c>
-      <c r="J153" t="n">
-        <v>36231.05890602432</v>
-      </c>
-      <c r="K153" t="n">
-        <v>34763.5068102772</v>
+        <v>33964.58</v>
       </c>
     </row>
     <row r="154">
@@ -5515,20 +3389,8 @@
       <c r="F154" t="n">
         <v>459.88</v>
       </c>
-      <c r="G154" t="n">
-        <v>564.9478712931304</v>
-      </c>
       <c r="H154" t="n">
-        <v>34181.37387177078</v>
-      </c>
-      <c r="I154" t="n">
-        <v>37007.45212870687</v>
-      </c>
-      <c r="J154" t="n">
-        <v>36467.15518691201</v>
-      </c>
-      <c r="K154" t="n">
-        <v>34721.67081356564</v>
+        <v>33954.81</v>
       </c>
     </row>
     <row r="155">
@@ -5541,20 +3403,8 @@
       <c r="F155" t="n">
         <v>459.78</v>
       </c>
-      <c r="G155" t="n">
-        <v>408.919916249848</v>
-      </c>
       <c r="H155" t="n">
-        <v>34170.22635626869</v>
-      </c>
-      <c r="I155" t="n">
-        <v>37263.38008375015</v>
-      </c>
-      <c r="J155" t="n">
-        <v>36752.15582040946</v>
-      </c>
-      <c r="K155" t="n">
-        <v>34681.45061960939</v>
+        <v>33944.12</v>
       </c>
     </row>
     <row r="156">
@@ -5567,20 +3417,8 @@
       <c r="F156" t="n">
         <v>459.68</v>
       </c>
-      <c r="G156" t="n">
-        <v>86.73356749012601</v>
-      </c>
       <c r="H156" t="n">
-        <v>34158.2830674124</v>
-      </c>
-      <c r="I156" t="n">
-        <v>37586.26643250987</v>
-      </c>
-      <c r="J156" t="n">
-        <v>37101.76583285802</v>
-      </c>
-      <c r="K156" t="n">
-        <v>34642.78366706425</v>
+        <v>33932.72</v>
       </c>
     </row>
     <row r="157">
@@ -5593,20 +3431,8 @@
       <c r="F157" t="n">
         <v>459.58</v>
       </c>
-      <c r="G157" t="n">
-        <v>-216.133658530016</v>
-      </c>
       <c r="H157" t="n">
-        <v>34146.11918079284</v>
-      </c>
-      <c r="I157" t="n">
-        <v>37998.83365853001</v>
-      </c>
-      <c r="J157" t="n">
-        <v>37538.96126871838</v>
-      </c>
-      <c r="K157" t="n">
-        <v>34605.99157060447</v>
+        <v>33921.12</v>
       </c>
     </row>
     <row r="158">
@@ -5619,20 +3445,8 @@
       <c r="F158" t="n">
         <v>459.48</v>
       </c>
-      <c r="G158" t="n">
-        <v>393.2923870357263</v>
-      </c>
       <c r="H158" t="n">
-        <v>34132.99823400695</v>
-      </c>
-      <c r="I158" t="n">
-        <v>38533.50761296428</v>
-      </c>
-      <c r="J158" t="n">
-        <v>38096.38723397917</v>
-      </c>
-      <c r="K158" t="n">
-        <v>34570.11861299205</v>
+        <v>33908.66</v>
       </c>
     </row>
     <row r="159">
@@ -5645,20 +3459,8 @@
       <c r="F159" t="n">
         <v>459.38</v>
       </c>
-      <c r="G159" t="n">
-        <v>500.1810404419011</v>
-      </c>
       <c r="H159" t="n">
-        <v>34117.21297262493</v>
-      </c>
-      <c r="I159" t="n">
-        <v>39239.3189595581</v>
-      </c>
-      <c r="J159" t="n">
-        <v>38823.2649266728</v>
-      </c>
-      <c r="K159" t="n">
-        <v>34533.26700551022</v>
+        <v>33893.8</v>
       </c>
     </row>
     <row r="160">
@@ -5671,20 +3473,8 @@
       <c r="F160" t="n">
         <v>459.28</v>
       </c>
-      <c r="G160" t="n">
-        <v>156.733642099709</v>
-      </c>
       <c r="H160" t="n">
-        <v>34098.32504228123</v>
-      </c>
-      <c r="I160" t="n">
-        <v>40194.26635790029</v>
-      </c>
-      <c r="J160" t="n">
-        <v>39797.75934320179</v>
-      </c>
-      <c r="K160" t="n">
-        <v>34494.83205697973</v>
+        <v>33876.17</v>
       </c>
     </row>
     <row r="161">
@@ -5697,20 +3487,8 @@
       <c r="F161" t="n">
         <v>459.18</v>
       </c>
-      <c r="G161" t="n">
-        <v>367.1928961265075</v>
-      </c>
       <c r="H161" t="n">
-        <v>34076.43092825189</v>
-      </c>
-      <c r="I161" t="n">
-        <v>41518.80710387349</v>
-      </c>
-      <c r="J161" t="n">
-        <v>41140.47360974854</v>
-      </c>
-      <c r="K161" t="n">
-        <v>34454.76442237684</v>
+        <v>33855.84</v>
       </c>
     </row>
     <row r="162">
@@ -5723,20 +3501,8 @@
       <c r="F162" t="n">
         <v>459.08</v>
       </c>
-      <c r="G162" t="n">
-        <v>712.8431328026563</v>
-      </c>
       <c r="H162" t="n">
-        <v>34049.669660762</v>
-      </c>
-      <c r="I162" t="n">
-        <v>43390.25686719734</v>
-      </c>
-      <c r="J162" t="n">
-        <v>43028.8517534214</v>
-      </c>
-      <c r="K162" t="n">
-        <v>34411.07477453793</v>
+        <v>33831.14</v>
       </c>
     </row>
     <row r="163">
@@ -5749,20 +3515,8 @@
       <c r="F163" t="n">
         <v>458.98</v>
       </c>
-      <c r="G163" t="n">
-        <v>1072.829801089087</v>
-      </c>
       <c r="H163" t="n">
-        <v>34015.26880184198</v>
-      </c>
-      <c r="I163" t="n">
-        <v>46057.67019891091</v>
-      </c>
-      <c r="J163" t="n">
-        <v>45712.06171971626</v>
-      </c>
-      <c r="K163" t="n">
-        <v>34360.87728103663</v>
+        <v>33799.57</v>
       </c>
     </row>
     <row r="164">
@@ -5775,20 +3529,8 @@
       <c r="F164" t="n">
         <v>458.88</v>
       </c>
-      <c r="G164" t="n">
-        <v>867.9387925268238</v>
-      </c>
       <c r="H164" t="n">
-        <v>33970.6243175747</v>
-      </c>
-      <c r="I164" t="n">
-        <v>49841.46120747318</v>
-      </c>
-      <c r="J164" t="n">
-        <v>49510.61813821556</v>
-      </c>
-      <c r="K164" t="n">
-        <v>34301.46738683232</v>
+        <v>33758.82</v>
       </c>
     </row>
     <row r="165">
@@ -5801,20 +3543,8 @@
       <c r="F165" t="n">
         <v>458.78</v>
       </c>
-      <c r="G165" t="n">
-        <v>902.028338044438</v>
-      </c>
       <c r="H165" t="n">
-        <v>33912.58576698565</v>
-      </c>
-      <c r="I165" t="n">
-        <v>55097.57166195556</v>
-      </c>
-      <c r="J165" t="n">
-        <v>54780.55217539681</v>
-      </c>
-      <c r="K165" t="n">
-        <v>34229.6052535444</v>
+        <v>33706.05</v>
       </c>
     </row>
     <row r="166">
@@ -5827,20 +3557,8 @@
       <c r="F166" t="n">
         <v>458.68</v>
       </c>
-      <c r="G166" t="n">
-        <v>840.5133868298435</v>
-      </c>
       <c r="H166" t="n">
-        <v>33836.11288488933</v>
-      </c>
-      <c r="I166" t="n">
-        <v>62129.28661317016</v>
-      </c>
-      <c r="J166" t="n">
-        <v>61825.22862852755</v>
-      </c>
-      <c r="K166" t="n">
-        <v>34140.17086953194</v>
+        <v>33636.73</v>
       </c>
     </row>
     <row r="167">
@@ -5853,20 +3571,8 @@
       <c r="F167" t="n">
         <v>458.58</v>
       </c>
-      <c r="G167" t="n">
-        <v>258.2446655734821</v>
-      </c>
       <c r="H167" t="n">
-        <v>33735.02525808435</v>
-      </c>
-      <c r="I167" t="n">
-        <v>71045.65533442651</v>
-      </c>
-      <c r="J167" t="n">
-        <v>70753.76811230856</v>
-      </c>
-      <c r="K167" t="n">
-        <v>34026.91248020231</v>
+        <v>33545.35</v>
       </c>
     </row>
     <row r="168">
@@ -5879,20 +3585,8 @@
       <c r="F168" t="n">
         <v>458.48</v>
       </c>
-      <c r="G168" t="n">
-        <v>44.27335705189034</v>
-      </c>
       <c r="H168" t="n">
-        <v>33602.99351022567</v>
-      </c>
-      <c r="I168" t="n">
-        <v>81592.1266429481</v>
-      </c>
-      <c r="J168" t="n">
-        <v>81311.68343914064</v>
-      </c>
-      <c r="K168" t="n">
-        <v>33883.43671403314</v>
+        <v>33426.25</v>
       </c>
     </row>
     <row r="169">
@@ -5905,20 +3599,8 @@
       <c r="F169" t="n">
         <v>458.38</v>
       </c>
-      <c r="G169" t="n">
-        <v>-308.9693399246462</v>
-      </c>
       <c r="H169" t="n">
-        <v>33433.54356053896</v>
-      </c>
-      <c r="I169" t="n">
-        <v>93018.06933992465</v>
-      </c>
-      <c r="J169" t="n">
-        <v>92748.40096298311</v>
-      </c>
-      <c r="K169" t="n">
-        <v>33703.2119374805</v>
+        <v>33273.65</v>
       </c>
     </row>
     <row r="170">
@@ -5931,20 +3613,8 @@
       <c r="F170" t="n">
         <v>458.28</v>
       </c>
-      <c r="G170" t="n">
-        <v>-299.6244873180258</v>
-      </c>
       <c r="H170" t="n">
-        <v>33222.35029878495</v>
-      </c>
-      <c r="I170" t="n">
-        <v>104071.624487318</v>
-      </c>
-      <c r="J170" t="n">
-        <v>103812.113630776</v>
-      </c>
-      <c r="K170" t="n">
-        <v>33481.86115532695</v>
+        <v>33083.73</v>
       </c>
     </row>
     <row r="171">
@@ -5957,20 +3627,8 @@
       <c r="F171" t="n">
         <v>458.18</v>
       </c>
-      <c r="G171" t="n">
-        <v>260.9383541092393</v>
-      </c>
       <c r="H171" t="n">
-        <v>32969.10137232694</v>
-      </c>
-      <c r="I171" t="n">
-        <v>113183.0616458908</v>
-      </c>
-      <c r="J171" t="n">
-        <v>112933.1378869156</v>
-      </c>
-      <c r="K171" t="n">
-        <v>33219.02513130212</v>
+        <v>32856.27</v>
       </c>
     </row>
     <row r="172">
@@ -5983,20 +3641,8 @@
       <c r="F172" t="n">
         <v>458.08</v>
       </c>
-      <c r="G172" t="n">
-        <v>197.2910911926738</v>
-      </c>
       <c r="H172" t="n">
-        <v>32680.2095344672</v>
-      </c>
-      <c r="I172" t="n">
-        <v>118826.7089088073</v>
-      </c>
-      <c r="J172" t="n">
-        <v>118585.8442823207</v>
-      </c>
-      <c r="K172" t="n">
-        <v>32921.07416095385</v>
+        <v>32597.08</v>
       </c>
     </row>
     <row r="173">
@@ -6009,20 +3655,8 @@
       <c r="F173" t="n">
         <v>457.98</v>
       </c>
-      <c r="G173" t="n">
-        <v>804.5208206008829</v>
-      </c>
       <c r="H173" t="n">
-        <v>32369.39104637124</v>
-      </c>
-      <c r="I173" t="n">
-        <v>119950.4791793991</v>
-      </c>
-      <c r="J173" t="n">
-        <v>119718.1842508095</v>
-      </c>
-      <c r="K173" t="n">
-        <v>32601.68597496086</v>
+        <v>32318.49</v>
       </c>
     </row>
     <row r="174">
@@ -6035,20 +3669,8 @@
       <c r="F174" t="n">
         <v>457.88</v>
       </c>
-      <c r="G174" t="n">
-        <v>935.9484215014527</v>
-      </c>
       <c r="H174" t="n">
-        <v>32054.57370740332</v>
-      </c>
-      <c r="I174" t="n">
-        <v>116303.0515784985</v>
-      </c>
-      <c r="J174" t="n">
-        <v>116078.8719498632</v>
-      </c>
-      <c r="K174" t="n">
-        <v>32278.75333603868</v>
+        <v>32036.54</v>
       </c>
     </row>
     <row r="175">
@@ -6061,20 +3683,8 @@
       <c r="F175" t="n">
         <v>457.78</v>
       </c>
-      <c r="G175" t="n">
-        <v>354.9697009671072</v>
-      </c>
       <c r="H175" t="n">
-        <v>31756.20278650484</v>
-      </c>
-      <c r="I175" t="n">
-        <v>108519.0302990329</v>
-      </c>
-      <c r="J175" t="n">
-        <v>108302.543493154</v>
-      </c>
-      <c r="K175" t="n">
-        <v>31972.6895923837</v>
+        <v>31769.52</v>
       </c>
     </row>
     <row r="176">
@@ -6087,20 +3697,8 @@
       <c r="F176" t="n">
         <v>457.68</v>
       </c>
-      <c r="G176" t="n">
-        <v>-708.6752297953935</v>
-      </c>
       <c r="H176" t="n">
-        <v>31492.18549401898</v>
-      </c>
-      <c r="I176" t="n">
-        <v>97917.67522979539</v>
-      </c>
-      <c r="J176" t="n">
-        <v>97708.48790483184</v>
-      </c>
-      <c r="K176" t="n">
-        <v>31701.37281898253</v>
+        <v>31533.4</v>
       </c>
     </row>
     <row r="177">
@@ -6113,20 +3711,8 @@
       <c r="F177" t="n">
         <v>457.58</v>
       </c>
-      <c r="G177" t="n">
-        <v>115.9805693453964</v>
-      </c>
       <c r="H177" t="n">
-        <v>31270.09658686073</v>
-      </c>
-      <c r="I177" t="n">
-        <v>86104.5194306546</v>
-      </c>
-      <c r="J177" t="n">
-        <v>85902.26488459014</v>
-      </c>
-      <c r="K177" t="n">
-        <v>31472.35113292519</v>
+        <v>31334.9</v>
       </c>
     </row>
     <row r="178">
@@ -6139,20 +3725,8 @@
       <c r="F178" t="n">
         <v>457.48</v>
       </c>
-      <c r="G178" t="n">
-        <v>-567.0791383277538</v>
-      </c>
       <c r="H178" t="n">
-        <v>31091.20442366721</v>
-      </c>
-      <c r="I178" t="n">
-        <v>74555.97913832775</v>
-      </c>
-      <c r="J178" t="n">
-        <v>74360.31506832052</v>
-      </c>
-      <c r="K178" t="n">
-        <v>31286.86849367444</v>
+        <v>31175.12</v>
       </c>
     </row>
     <row r="179">
@@ -6165,20 +3739,8 @@
       <c r="F179" t="n">
         <v>457.38</v>
       </c>
-      <c r="G179" t="n">
-        <v>-121.7294934845195</v>
-      </c>
       <c r="H179" t="n">
-        <v>30953.04541844458</v>
-      </c>
-      <c r="I179" t="n">
-        <v>64326.12949348452</v>
-      </c>
-      <c r="J179" t="n">
-        <v>64136.73597991587</v>
-      </c>
-      <c r="K179" t="n">
-        <v>31142.43893201322</v>
+        <v>31051.83</v>
       </c>
     </row>
     <row r="180">
@@ -6191,20 +3753,8 @@
       <c r="F180" t="n">
         <v>457.28</v>
       </c>
-      <c r="G180" t="n">
-        <v>-298.0437231024916</v>
-      </c>
       <c r="H180" t="n">
-        <v>30848.72583659162</v>
-      </c>
-      <c r="I180" t="n">
-        <v>55943.94372310249</v>
-      </c>
-      <c r="J180" t="n">
-        <v>55760.52141220294</v>
-      </c>
-      <c r="K180" t="n">
-        <v>31032.14814749117</v>
+        <v>30958.84</v>
       </c>
     </row>
     <row r="181">
@@ -6217,20 +3767,8 @@
       <c r="F181" t="n">
         <v>457.18</v>
       </c>
-      <c r="G181" t="n">
-        <v>-397.4494858349426</v>
-      </c>
       <c r="H181" t="n">
-        <v>30771.81391568201</v>
-      </c>
-      <c r="I181" t="n">
-        <v>49485.84948583494</v>
-      </c>
-      <c r="J181" t="n">
-        <v>49308.11794821385</v>
-      </c>
-      <c r="K181" t="n">
-        <v>30949.5454533031</v>
+        <v>30890.4</v>
       </c>
     </row>
     <row r="182">
@@ -6243,20 +3781,8 @@
       <c r="F182" t="n">
         <v>457.08</v>
       </c>
-      <c r="G182" t="n">
-        <v>266.9962610080911</v>
-      </c>
       <c r="H182" t="n">
-        <v>30714.17484527353</v>
-      </c>
-      <c r="I182" t="n">
-        <v>44731.20373899191</v>
-      </c>
-      <c r="J182" t="n">
-        <v>44558.89998433726</v>
-      </c>
-      <c r="K182" t="n">
-        <v>30886.47859992817</v>
+        <v>30839.21</v>
       </c>
     </row>
     <row r="183">
@@ -6269,20 +3795,8 @@
       <c r="F183" t="n">
         <v>456.98</v>
       </c>
-      <c r="G183" t="n">
-        <v>462.6392790258105</v>
-      </c>
       <c r="H183" t="n">
-        <v>30669.57398650898</v>
-      </c>
-      <c r="I183" t="n">
-        <v>41330.86072097419</v>
-      </c>
-      <c r="J183" t="n">
-        <v>41163.73785170246</v>
-      </c>
-      <c r="K183" t="n">
-        <v>30836.69685578071</v>
+        <v>30799.7</v>
       </c>
     </row>
     <row r="184">
@@ -6295,20 +3809,8 @@
       <c r="F184" t="n">
         <v>456.88</v>
       </c>
-      <c r="G184" t="n">
-        <v>-498.8453802475051</v>
-      </c>
       <c r="H184" t="n">
-        <v>30636.41229697909</v>
-      </c>
-      <c r="I184" t="n">
-        <v>38931.24538024751</v>
-      </c>
-      <c r="J184" t="n">
-        <v>38769.07136903954</v>
-      </c>
-      <c r="K184" t="n">
-        <v>30798.58630818707</v>
+        <v>30770.43</v>
       </c>
     </row>
     <row r="185">
@@ -6321,20 +3823,8 @@
       <c r="F185" t="n">
         <v>456.78</v>
       </c>
-      <c r="G185" t="n">
-        <v>37.77603548939805</v>
-      </c>
       <c r="H185" t="n">
-        <v>30611.1894571988</v>
-      </c>
-      <c r="I185" t="n">
-        <v>37232.3239645106</v>
-      </c>
-      <c r="J185" t="n">
-        <v>37074.88054252332</v>
-      </c>
-      <c r="K185" t="n">
-        <v>30768.63287918608</v>
+        <v>30748.28</v>
       </c>
     </row>
     <row r="186">
@@ -6347,20 +3837,8 @@
       <c r="F186" t="n">
         <v>456.68</v>
       </c>
-      <c r="G186" t="n">
-        <v>326.7810075335074</v>
-      </c>
       <c r="H186" t="n">
-        <v>30589.68705882666</v>
-      </c>
-      <c r="I186" t="n">
-        <v>36008.0189924665</v>
-      </c>
-      <c r="J186" t="n">
-        <v>35855.10063660971</v>
-      </c>
-      <c r="K186" t="n">
-        <v>30742.60541468345</v>
+        <v>30729.46</v>
       </c>
     </row>
     <row r="187">
@@ -6373,20 +3851,8 @@
       <c r="F187" t="n">
         <v>456.58</v>
       </c>
-      <c r="G187" t="n">
-        <v>-479.7321080336405</v>
-      </c>
       <c r="H187" t="n">
-        <v>30572.67596076305</v>
-      </c>
-      <c r="I187" t="n">
-        <v>35105.33210803364</v>
-      </c>
-      <c r="J187" t="n">
-        <v>34956.74511708348</v>
-      </c>
-      <c r="K187" t="n">
-        <v>30721.26295171321</v>
+        <v>30714.67</v>
       </c>
     </row>
     <row r="188">
@@ -6399,20 +3865,8 @@
       <c r="F188" t="n">
         <v>456.48</v>
       </c>
-      <c r="G188" t="n">
-        <v>-271.1162338176582</v>
-      </c>
       <c r="H188" t="n">
-        <v>30559.4175019306</v>
-      </c>
-      <c r="I188" t="n">
-        <v>34421.71623381766</v>
-      </c>
-      <c r="J188" t="n">
-        <v>34277.27788433741</v>
-      </c>
-      <c r="K188" t="n">
-        <v>30703.85585141084</v>
+        <v>30703.24</v>
       </c>
     </row>
     <row r="189">
@@ -6425,20 +3879,8 @@
       <c r="F189" t="n">
         <v>456.38</v>
       </c>
-      <c r="G189" t="n">
-        <v>-388.8048906973709</v>
-      </c>
       <c r="H189" t="n">
-        <v>30548.1092696312</v>
-      </c>
-      <c r="I189" t="n">
-        <v>33889.30489069737</v>
-      </c>
-      <c r="J189" t="n">
-        <v>33748.84266477787</v>
-      </c>
-      <c r="K189" t="n">
-        <v>30688.5714955507</v>
+        <v>30693.56</v>
       </c>
     </row>
     <row r="190">
@@ -6451,20 +3893,8 @@
       <c r="F190" t="n">
         <v>456.28</v>
       </c>
-      <c r="G190" t="n">
-        <v>-583.0715853333459</v>
-      </c>
       <c r="H190" t="n">
-        <v>30538.95024882325</v>
-      </c>
-      <c r="I190" t="n">
-        <v>33465.37158533335</v>
-      </c>
-      <c r="J190" t="n">
-        <v>33328.72246307268</v>
-      </c>
-      <c r="K190" t="n">
-        <v>30675.59937108392</v>
+        <v>30685.81</v>
       </c>
     </row>
     <row r="191">
@@ -6477,20 +3907,8 @@
       <c r="F191" t="n">
         <v>456.18</v>
       </c>
-      <c r="G191" t="n">
-        <v>-338.9240588643734</v>
-      </c>
       <c r="H191" t="n">
-        <v>30531.02275177215</v>
-      </c>
-      <c r="I191" t="n">
-        <v>33120.62405886437</v>
-      </c>
-      <c r="J191" t="n">
-        <v>32987.63386929891</v>
-      </c>
-      <c r="K191" t="n">
-        <v>30664.01294133761</v>
+        <v>30679.17</v>
       </c>
     </row>
     <row r="192">
@@ -6503,20 +3921,8 @@
       <c r="F192" t="n">
         <v>456.08</v>
       </c>
-      <c r="G192" t="n">
-        <v>-1253.868753921393</v>
-      </c>
       <c r="H192" t="n">
-        <v>30525.29165646686</v>
-      </c>
-      <c r="I192" t="n">
-        <v>32836.76875392139</v>
-      </c>
-      <c r="J192" t="n">
-        <v>32707.29157881337</v>
-      </c>
-      <c r="K192" t="n">
-        <v>30654.76883157488</v>
+        <v>30674.5</v>
       </c>
     </row>
     <row r="193">
@@ -6529,20 +3935,8 @@
       <c r="F193" t="n">
         <v>455.98</v>
       </c>
-      <c r="G193" t="n">
-        <v>-536.7867024333464</v>
-      </c>
       <c r="H193" t="n">
-        <v>30520.80056899703</v>
-      </c>
-      <c r="I193" t="n">
-        <v>32599.38670243334</v>
-      </c>
-      <c r="J193" t="n">
-        <v>32473.28432792791</v>
-      </c>
-      <c r="K193" t="n">
-        <v>30646.90294350247</v>
+        <v>30670.94</v>
       </c>
     </row>
     <row r="194">
@@ -6555,20 +3949,8 @@
       <c r="F194" t="n">
         <v>455.88</v>
       </c>
-      <c r="G194" t="n">
-        <v>-168.5704801094726</v>
-      </c>
       <c r="H194" t="n">
-        <v>30515.22378857948</v>
-      </c>
-      <c r="I194" t="n">
-        <v>32396.47048010947</v>
-      </c>
-      <c r="J194" t="n">
-        <v>32273.61189180833</v>
-      </c>
-      <c r="K194" t="n">
-        <v>30638.08237688063</v>
+        <v>30666.41</v>
       </c>
     </row>
     <row r="195">
@@ -6581,20 +3963,8 @@
       <c r="F195" t="n">
         <v>455.78</v>
       </c>
-      <c r="G195" t="n">
-        <v>-562.709654680908</v>
-      </c>
       <c r="H195" t="n">
-        <v>30510.29142751874</v>
-      </c>
-      <c r="I195" t="n">
-        <v>32222.60965468091</v>
-      </c>
-      <c r="J195" t="n">
-        <v>32102.87057214973</v>
-      </c>
-      <c r="K195" t="n">
-        <v>30630.03051004992</v>
+        <v>30662.46</v>
       </c>
     </row>
     <row r="196">
@@ -6607,20 +3977,8 @@
       <c r="F196" t="n">
         <v>455.68</v>
       </c>
-      <c r="G196" t="n">
-        <v>-664.2618255559137</v>
-      </c>
       <c r="H196" t="n">
-        <v>30506.74287148296</v>
-      </c>
-      <c r="I196" t="n">
-        <v>32073.16182555592</v>
-      </c>
-      <c r="J196" t="n">
-        <v>31956.4242726974</v>
-      </c>
-      <c r="K196" t="n">
-        <v>30623.48042434148</v>
+        <v>30659.75</v>
       </c>
     </row>
     <row r="197">
@@ -6633,20 +3991,8 @@
       <c r="F197" t="n">
         <v>455.58</v>
       </c>
-      <c r="G197" t="n">
-        <v>-529.3386746514989</v>
-      </c>
       <c r="H197" t="n">
-        <v>30503.62177548019</v>
-      </c>
-      <c r="I197" t="n">
-        <v>31943.0386746515</v>
-      </c>
-      <c r="J197" t="n">
-        <v>31829.19058274237</v>
-      </c>
-      <c r="K197" t="n">
-        <v>30617.46986738933</v>
+        <v>30657.43</v>
       </c>
     </row>
     <row r="198">
@@ -6659,20 +4005,8 @@
       <c r="F198" t="n">
         <v>455.48</v>
       </c>
-      <c r="G198" t="n">
-        <v>-302.4864317229039</v>
-      </c>
       <c r="H198" t="n">
-        <v>30500.29759405783</v>
-      </c>
-      <c r="I198" t="n">
-        <v>31828.38643172291</v>
-      </c>
-      <c r="J198" t="n">
-        <v>31717.32127223756</v>
-      </c>
-      <c r="K198" t="n">
-        <v>30611.36275354318</v>
+        <v>30654.93</v>
       </c>
     </row>
     <row r="199">
@@ -6685,20 +4019,8 @@
       <c r="F199" t="n">
         <v>455.38</v>
       </c>
-      <c r="G199" t="n">
-        <v>-888.520257575321</v>
-      </c>
       <c r="H199" t="n">
-        <v>30497.93478404316</v>
-      </c>
-      <c r="I199" t="n">
-        <v>31727.82025757532</v>
-      </c>
-      <c r="J199" t="n">
-        <v>31619.43670220656</v>
-      </c>
-      <c r="K199" t="n">
-        <v>30606.31833941193</v>
+        <v>30653.29</v>
       </c>
     </row>
     <row r="200">
@@ -6711,20 +4033,8 @@
       <c r="F200" t="n">
         <v>455.28</v>
       </c>
-      <c r="G200" t="n">
-        <v>-323.7017107625979</v>
-      </c>
       <c r="H200" t="n">
-        <v>30495.93580691165</v>
-      </c>
-      <c r="I200" t="n">
-        <v>31638.7017107626</v>
-      </c>
-      <c r="J200" t="n">
-        <v>31532.90331630527</v>
-      </c>
-      <c r="K200" t="n">
-        <v>30601.73420136897</v>
+        <v>30651.98</v>
       </c>
     </row>
     <row r="201">
@@ -6737,20 +4047,8 @@
       <c r="F201" t="n">
         <v>455.18</v>
       </c>
-      <c r="G201" t="n">
-        <v>-573.5653655904207</v>
-      </c>
       <c r="H201" t="n">
-        <v>30493.68685589934</v>
-      </c>
-      <c r="I201" t="n">
-        <v>31558.76536559042</v>
-      </c>
-      <c r="J201" t="n">
-        <v>31455.46028158135</v>
-      </c>
-      <c r="K201" t="n">
-        <v>30596.99193990841</v>
+        <v>30650.44</v>
       </c>
     </row>
     <row r="202">
@@ -6763,20 +4061,8 @@
       <c r="F202" t="n">
         <v>455.08</v>
       </c>
-      <c r="G202" t="n">
-        <v>-612.2479316742683</v>
-      </c>
       <c r="H202" t="n">
-        <v>30492.17422209425</v>
-      </c>
-      <c r="I202" t="n">
-        <v>31487.64793167427</v>
-      </c>
-      <c r="J202" t="n">
-        <v>31386.74862888428</v>
-      </c>
-      <c r="K202" t="n">
-        <v>30593.07352488424</v>
+        <v>30649.57</v>
       </c>
     </row>
     <row r="203">
@@ -6789,20 +4075,8 @@
       <c r="F203" t="n">
         <v>454.98</v>
       </c>
-      <c r="G203" t="n">
-        <v>-710.0662686678006</v>
-      </c>
       <c r="H203" t="n">
-        <v>30491.12722748375</v>
-      </c>
-      <c r="I203" t="n">
-        <v>31423.9662686678</v>
-      </c>
-      <c r="J203" t="n">
-        <v>31325.38928672265</v>
-      </c>
-      <c r="K203" t="n">
-        <v>30589.70420942891</v>
+        <v>30649.12</v>
       </c>
     </row>
     <row r="204">
@@ -6815,20 +4089,8 @@
       <c r="F204" t="n">
         <v>454.88</v>
       </c>
-      <c r="G204" t="n">
-        <v>-801.2593204055847</v>
-      </c>
       <c r="H204" t="n">
-        <v>30490.60914167403</v>
-      </c>
-      <c r="I204" t="n">
-        <v>31366.85932040558</v>
-      </c>
-      <c r="J204" t="n">
-        <v>31270.5250329741</v>
-      </c>
-      <c r="K204" t="n">
-        <v>30586.94342910551</v>
+        <v>30649.15</v>
       </c>
     </row>
     <row r="205">
@@ -6841,20 +4103,8 @@
       <c r="F205" t="n">
         <v>454.78</v>
       </c>
-      <c r="G205" t="n">
-        <v>-443.8623788769582</v>
-      </c>
       <c r="H205" t="n">
-        <v>30489.82886939776</v>
-      </c>
-      <c r="I205" t="n">
-        <v>31314.76237887696</v>
-      </c>
-      <c r="J205" t="n">
-        <v>31220.59477500963</v>
-      </c>
-      <c r="K205" t="n">
-        <v>30583.99647326509</v>
+        <v>30648.94</v>
       </c>
     </row>
     <row r="206">
@@ -6867,20 +4117,8 @@
       <c r="F206" t="n">
         <v>454.68</v>
       </c>
-      <c r="G206" t="n">
-        <v>-257.3253868088541</v>
-      </c>
       <c r="H206" t="n">
-        <v>30488.28817011513</v>
-      </c>
-      <c r="I206" t="n">
-        <v>31266.52538680885</v>
-      </c>
-      <c r="J206" t="n">
-        <v>31174.45186713952</v>
-      </c>
-      <c r="K206" t="n">
-        <v>30580.36168978447</v>
+        <v>30648.05</v>
       </c>
     </row>
     <row r="207">
@@ -6893,20 +4131,8 @@
       <c r="F207" t="n">
         <v>454.58</v>
       </c>
-      <c r="G207" t="n">
-        <v>-192.1711464540131</v>
-      </c>
       <c r="H207" t="n">
-        <v>30486.46244164458</v>
-      </c>
-      <c r="I207" t="n">
-        <v>31222.07114645401</v>
-      </c>
-      <c r="J207" t="n">
-        <v>31132.02233309404</v>
-      </c>
-      <c r="K207" t="n">
-        <v>30576.51125500456</v>
+        <v>30646.9</v>
       </c>
     </row>
     <row r="208">
@@ -6919,20 +4145,8 @@
       <c r="F208" t="n">
         <v>454.48</v>
       </c>
-      <c r="G208" t="n">
-        <v>-848.9540932326418</v>
-      </c>
       <c r="H208" t="n">
-        <v>30485.77728392409</v>
-      </c>
-      <c r="I208" t="n">
-        <v>31182.35409323264</v>
-      </c>
-      <c r="J208" t="n">
-        <v>31094.26365229153</v>
-      </c>
-      <c r="K208" t="n">
-        <v>30573.8677248652</v>
+        <v>30646.78</v>
       </c>
     </row>
     <row r="209">
@@ -6945,20 +4159,8 @@
       <c r="F209" t="n">
         <v>454.38</v>
       </c>
-      <c r="G209" t="n">
-        <v>-859.7039564320621</v>
-      </c>
       <c r="H209" t="n">
-        <v>30486.3663009471</v>
-      </c>
-      <c r="I209" t="n">
-        <v>31147.10395643206</v>
-      </c>
-      <c r="J209" t="n">
-        <v>31060.9084321926</v>
-      </c>
-      <c r="K209" t="n">
-        <v>30572.56182518656</v>
+        <v>30647.81</v>
       </c>
     </row>
     <row r="210">
@@ -6971,20 +4173,8 @@
       <c r="F210" t="n">
         <v>454.28</v>
       </c>
-      <c r="G210" t="n">
-        <v>-897.7127777180867</v>
-      </c>
       <c r="H210" t="n">
-        <v>30487.16945014385</v>
-      </c>
-      <c r="I210" t="n">
-        <v>31114.91277771809</v>
-      </c>
-      <c r="J210" t="n">
-        <v>31030.5514375792</v>
-      </c>
-      <c r="K210" t="n">
-        <v>30571.53079028274</v>
+        <v>30649.03</v>
       </c>
     </row>
     <row r="211">
@@ -6997,20 +4187,8 @@
       <c r="F211" t="n">
         <v>454.18</v>
       </c>
-      <c r="G211" t="n">
-        <v>-192.4424738686685</v>
-      </c>
       <c r="H211" t="n">
-        <v>30486.94975159474</v>
-      </c>
-      <c r="I211" t="n">
-        <v>31084.24247386867</v>
-      </c>
-      <c r="J211" t="n">
-        <v>31001.65716324562</v>
-      </c>
-      <c r="K211" t="n">
-        <v>30569.53506221779</v>
+        <v>30649.33</v>
       </c>
     </row>
     <row r="212">
@@ -7023,20 +4201,8 @@
       <c r="F212" t="n">
         <v>454.08</v>
       </c>
-      <c r="G212" t="n">
-        <v>-722.5442131601812</v>
-      </c>
       <c r="H212" t="n">
-        <v>30486.52009864147</v>
-      </c>
-      <c r="I212" t="n">
-        <v>31055.64421316018</v>
-      </c>
-      <c r="J212" t="n">
-        <v>30974.77921960115</v>
-      </c>
-      <c r="K212" t="n">
-        <v>30567.3850922005</v>
+        <v>30649.44</v>
       </c>
     </row>
     <row r="213">
@@ -7049,20 +4215,8 @@
       <c r="F213" t="n">
         <v>453.98</v>
       </c>
-      <c r="G213" t="n">
-        <v>-491.3970910747666</v>
-      </c>
       <c r="H213" t="n">
-        <v>30486.68801506905</v>
-      </c>
-      <c r="I213" t="n">
-        <v>31029.69709107477</v>
-      </c>
-      <c r="J213" t="n">
-        <v>30950.49901691522</v>
-      </c>
-      <c r="K213" t="n">
-        <v>30565.8860892286</v>
+        <v>30650.1</v>
       </c>
     </row>
     <row r="214">
@@ -7075,20 +4229,8 @@
       <c r="F214" t="n">
         <v>453.88</v>
       </c>
-      <c r="G214" t="n">
-        <v>-619.7213149157978</v>
-      </c>
       <c r="H214" t="n">
-        <v>30486.7738446142</v>
-      </c>
-      <c r="I214" t="n">
-        <v>31005.5213149158</v>
-      </c>
-      <c r="J214" t="n">
-        <v>30927.93895784904</v>
-      </c>
-      <c r="K214" t="n">
-        <v>30564.35620168095</v>
+        <v>30385.8</v>
       </c>
     </row>
     <row r="215">
@@ -7101,20 +4243,8 @@
       <c r="F215" t="n">
         <v>453.78</v>
       </c>
-      <c r="G215" t="n">
-        <v>-496.163310631222</v>
-      </c>
       <c r="H215" t="n">
         <v>30989.1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>31485.26331063122</v>
-      </c>
-      <c r="J215" t="n">
-        <v>31409.2475516247</v>
-      </c>
-      <c r="K215" t="n">
-        <v>31065.11575900652</v>
       </c>
     </row>
     <row r="216">
@@ -7127,20 +4257,8 @@
       <c r="F216" t="n">
         <v>453.68</v>
       </c>
-      <c r="G216" t="n">
-        <v>-475.101313398558</v>
-      </c>
       <c r="H216" t="n">
         <v>30624.1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>31099.20131339856</v>
-      </c>
-      <c r="J216" t="n">
-        <v>31024.70501143227</v>
-      </c>
-      <c r="K216" t="n">
-        <v>30698.59630196628</v>
       </c>
     </row>
     <row r="217">
@@ -7153,20 +4271,8 @@
       <c r="F217" t="n">
         <v>453.58</v>
       </c>
-      <c r="G217" t="n">
-        <v>-455.4240161956186</v>
-      </c>
       <c r="H217" t="n">
         <v>30723.4</v>
-      </c>
-      <c r="I217" t="n">
-        <v>31178.82401619562</v>
-      </c>
-      <c r="J217" t="n">
-        <v>31105.80190934135</v>
-      </c>
-      <c r="K217" t="n">
-        <v>30796.42210685428</v>
       </c>
     </row>
     <row r="218">
@@ -7179,20 +4285,8 @@
       <c r="F218" t="n">
         <v>453.48</v>
       </c>
-      <c r="G218" t="n">
-        <v>-437.0093564246636</v>
-      </c>
       <c r="H218" t="n">
         <v>30451.6</v>
-      </c>
-      <c r="I218" t="n">
-        <v>30888.60935642466</v>
-      </c>
-      <c r="J218" t="n">
-        <v>30817.01796882322</v>
-      </c>
-      <c r="K218" t="n">
-        <v>30523.19138760144</v>
       </c>
     </row>
     <row r="219">
@@ -7205,20 +4299,8 @@
       <c r="F219" t="n">
         <v>453.38</v>
       </c>
-      <c r="G219" t="n">
-        <v>-419.7486277954085</v>
-      </c>
       <c r="H219" t="n">
         <v>30635.9</v>
-      </c>
-      <c r="I219" t="n">
-        <v>31055.64862779541</v>
-      </c>
-      <c r="J219" t="n">
-        <v>30985.44618212438</v>
-      </c>
-      <c r="K219" t="n">
-        <v>30706.10244567103</v>
       </c>
     </row>
     <row r="220">
@@ -7231,20 +4313,8 @@
       <c r="F220" t="n">
         <v>453.28</v>
       </c>
-      <c r="G220" t="n">
-        <v>-403.5447483991811</v>
-      </c>
       <c r="H220" t="n">
         <v>30125.8</v>
-      </c>
-      <c r="I220" t="n">
-        <v>30529.34474839918</v>
-      </c>
-      <c r="J220" t="n">
-        <v>30460.49108345539</v>
-      </c>
-      <c r="K220" t="n">
-        <v>30194.65366494379</v>
       </c>
     </row>
     <row r="221">
@@ -7257,20 +4327,8 @@
       <c r="F221" t="n">
         <v>453.18</v>
       </c>
-      <c r="G221" t="n">
-        <v>-388.3107869317828</v>
-      </c>
       <c r="H221" t="n">
         <v>30531</v>
-      </c>
-      <c r="I221" t="n">
-        <v>30919.31078693178</v>
-      </c>
-      <c r="J221" t="n">
-        <v>30851.76727998213</v>
-      </c>
-      <c r="K221" t="n">
-        <v>30598.54350694966</v>
       </c>
     </row>
     <row r="222">
@@ -7283,20 +4341,8 @@
       <c r="F222" t="n">
         <v>453.08</v>
       </c>
-      <c r="G222" t="n">
-        <v>-373.9687037773947</v>
-      </c>
       <c r="H222" t="n">
         <v>30227.4</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30601.3687037774</v>
-      </c>
-      <c r="J222" t="n">
-        <v>30535.09819735817</v>
-      </c>
-      <c r="K222" t="n">
-        <v>30293.67050641923</v>
       </c>
     </row>
     <row r="223">
@@ -7309,20 +4355,8 @@
       <c r="F223" t="n">
         <v>452.98</v>
       </c>
-      <c r="G223" t="n">
-        <v>-360.4482717021492</v>
-      </c>
       <c r="H223" t="n">
         <v>30296</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30656.44827170215</v>
-      </c>
-      <c r="J223" t="n">
-        <v>30591.41500457142</v>
-      </c>
-      <c r="K223" t="n">
-        <v>30361.03326713073</v>
       </c>
     </row>
     <row r="224">
@@ -7335,20 +4369,8 @@
       <c r="F224" t="n">
         <v>452.88</v>
       </c>
-      <c r="G224" t="n">
-        <v>-347.6861473104655</v>
-      </c>
       <c r="H224" t="n">
         <v>30264.3</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30611.98614731046</v>
-      </c>
-      <c r="J224" t="n">
-        <v>30548.15568928038</v>
-      </c>
-      <c r="K224" t="n">
-        <v>30328.13045803009</v>
       </c>
     </row>
     <row r="225">
@@ -7361,20 +4383,8 @@
       <c r="F225" t="n">
         <v>452.78</v>
       </c>
-      <c r="G225" t="n">
-        <v>-335.6250695502022</v>
-      </c>
       <c r="H225" t="n">
         <v>30284.3</v>
-      </c>
-      <c r="I225" t="n">
-        <v>30619.9250695502</v>
-      </c>
-      <c r="J225" t="n">
-        <v>30557.2642599464</v>
-      </c>
-      <c r="K225" t="n">
-        <v>30346.9608096038</v>
       </c>
     </row>
     <row r="226">
@@ -7387,20 +4397,8 @@
       <c r="F226" t="n">
         <v>452.68</v>
       </c>
-      <c r="G226" t="n">
-        <v>-324.213165685087</v>
-      </c>
       <c r="H226" t="n">
         <v>30439.6</v>
-      </c>
-      <c r="I226" t="n">
-        <v>30763.81316568509</v>
-      </c>
-      <c r="J226" t="n">
-        <v>30702.2900551992</v>
-      </c>
-      <c r="K226" t="n">
-        <v>30501.12311048589</v>
       </c>
     </row>
     <row r="227">
@@ -7413,20 +4411,8 @@
       <c r="F227" t="n">
         <v>452.58</v>
       </c>
-      <c r="G227" t="n">
-        <v>-313.4033484984066</v>
-      </c>
       <c r="H227" t="n">
         <v>30214.6</v>
-      </c>
-      <c r="I227" t="n">
-        <v>30528.00334849841</v>
-      </c>
-      <c r="J227" t="n">
-        <v>30467.58714421672</v>
-      </c>
-      <c r="K227" t="n">
-        <v>30275.01620428168</v>
       </c>
     </row>
     <row r="228">
@@ -7439,20 +4425,8 @@
       <c r="F228" t="n">
         <v>452.48</v>
       </c>
-      <c r="G228" t="n">
-        <v>-303.1527912111414</v>
-      </c>
       <c r="H228" t="n">
         <v>30825.9</v>
-      </c>
-      <c r="I228" t="n">
-        <v>31129.05279121114</v>
-      </c>
-      <c r="J228" t="n">
-        <v>31069.71380461831</v>
-      </c>
-      <c r="K228" t="n">
-        <v>30885.23898659283</v>
       </c>
     </row>
     <row r="229">
@@ -7465,20 +4439,8 @@
       <c r="F229" t="n">
         <v>452.38</v>
       </c>
-      <c r="G229" t="n">
-        <v>-293.4224688185532</v>
-      </c>
       <c r="H229" t="n">
         <v>30212.1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>30505.52246881855</v>
-      </c>
-      <c r="J229" t="n">
-        <v>30447.23206658958</v>
-      </c>
-      <c r="K229" t="n">
-        <v>30270.39040222897</v>
       </c>
     </row>
     <row r="230">
@@ -7491,20 +4453,8 @@
       <c r="F230" t="n">
         <v>452.28</v>
       </c>
-      <c r="G230" t="n">
-        <v>-284.1767563705689</v>
-      </c>
       <c r="H230" t="n">
         <v>30610.7</v>
-      </c>
-      <c r="I230" t="n">
-        <v>30894.87675637057</v>
-      </c>
-      <c r="J230" t="n">
-        <v>30837.60731377779</v>
-      </c>
-      <c r="K230" t="n">
-        <v>30667.96944259278</v>
       </c>
     </row>
     <row r="231">
@@ -7517,20 +4467,8 @@
       <c r="F231" t="n">
         <v>452.18</v>
       </c>
-      <c r="G231" t="n">
-        <v>-275.383076220729</v>
-      </c>
       <c r="H231" t="n">
         <v>30346.7</v>
-      </c>
-      <c r="I231" t="n">
-        <v>30622.08307622073</v>
-      </c>
-      <c r="J231" t="n">
-        <v>30565.80793299458</v>
-      </c>
-      <c r="K231" t="n">
-        <v>30402.97514322615</v>
       </c>
     </row>
     <row r="232">
@@ -7543,20 +4481,8 @@
       <c r="F232" t="n">
         <v>452.08</v>
       </c>
-      <c r="G232" t="n">
-        <v>-267.0115875082374</v>
-      </c>
       <c r="H232" t="n">
         <v>29739.6</v>
-      </c>
-      <c r="I232" t="n">
-        <v>30006.61158750824</v>
-      </c>
-      <c r="J232" t="n">
-        <v>29951.30500600201</v>
-      </c>
-      <c r="K232" t="n">
-        <v>29794.90658150622</v>
       </c>
     </row>
     <row r="233">
@@ -7569,20 +4495,8 @@
       <c r="F233" t="n">
         <v>451.98</v>
       </c>
-      <c r="G233" t="n">
-        <v>-259.0349121658692</v>
-      </c>
       <c r="H233" t="n">
         <v>30374</v>
-      </c>
-      <c r="I233" t="n">
-        <v>30633.03491216587</v>
-      </c>
-      <c r="J233" t="n">
-        <v>30578.67203768496</v>
-      </c>
-      <c r="K233" t="n">
-        <v>30428.36287448091</v>
       </c>
     </row>
     <row r="234">
@@ -7595,20 +4509,8 @@
       <c r="F234" t="n">
         <v>451.88</v>
       </c>
-      <c r="G234" t="n">
-        <v>-251.4278926029256</v>
-      </c>
       <c r="H234" t="n">
         <v>30580.4</v>
-      </c>
-      <c r="I234" t="n">
-        <v>30831.82789260293</v>
-      </c>
-      <c r="J234" t="n">
-        <v>30778.38471576868</v>
-      </c>
-      <c r="K234" t="n">
-        <v>30633.84317683425</v>
       </c>
     </row>
     <row r="235">
@@ -7621,20 +4523,8 @@
       <c r="F235" t="n">
         <v>451.78</v>
       </c>
-      <c r="G235" t="n">
-        <v>-244.1673769279296</v>
-      </c>
       <c r="H235" t="n">
         <v>30454.1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>30698.26737692793</v>
-      </c>
-      <c r="J235" t="n">
-        <v>30645.72069795517</v>
-      </c>
-      <c r="K235" t="n">
-        <v>30506.64667897276</v>
       </c>
     </row>
     <row r="236">
@@ -7647,20 +4537,8 @@
       <c r="F236" t="n">
         <v>451.68</v>
       </c>
-      <c r="G236" t="n">
-        <v>-237.2320281753164</v>
-      </c>
       <c r="H236" t="n">
         <v>29955.2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>30192.43202817532</v>
-      </c>
-      <c r="J236" t="n">
-        <v>30140.75942295059</v>
-      </c>
-      <c r="K236" t="n">
-        <v>30006.87260522473</v>
       </c>
     </row>
     <row r="237">
@@ -7673,20 +4551,8 @@
       <c r="F237" t="n">
         <v>451.58</v>
       </c>
-      <c r="G237" t="n">
-        <v>-230.6021545049043</v>
-      </c>
       <c r="H237" t="n">
         <v>30165.1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>30395.7021545049</v>
-      </c>
-      <c r="J237" t="n">
-        <v>30344.88194236025</v>
-      </c>
-      <c r="K237" t="n">
-        <v>30215.92021214465</v>
       </c>
     </row>
     <row r="238">
@@ -7699,20 +4565,8 @@
       <c r="F238" t="n">
         <v>451.48</v>
       </c>
-      <c r="G238" t="n">
-        <v>-224.2595577682841</v>
-      </c>
       <c r="H238" t="n">
         <v>30325.2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>30549.45955776828</v>
-      </c>
-      <c r="J238" t="n">
-        <v>30499.4707708522</v>
-      </c>
-      <c r="K238" t="n">
-        <v>30375.18878691608</v>
       </c>
     </row>
     <row r="239">
@@ -7725,20 +4579,8 @@
       <c r="F239" t="n">
         <v>451.38</v>
       </c>
-      <c r="G239" t="n">
-        <v>-218.1873981960962</v>
-      </c>
       <c r="H239" t="n">
         <v>30971.6</v>
-      </c>
-      <c r="I239" t="n">
-        <v>31189.78739819609</v>
-      </c>
-      <c r="J239" t="n">
-        <v>31140.60975234992</v>
-      </c>
-      <c r="K239" t="n">
-        <v>31020.77764584618</v>
       </c>
     </row>
     <row r="240">
@@ -7751,20 +4593,8 @@
       <c r="F240" t="n">
         <v>451.28</v>
       </c>
-      <c r="G240" t="n">
-        <v>-212.3700732657126</v>
-      </c>
       <c r="H240" t="n">
         <v>30521.3</v>
-      </c>
-      <c r="I240" t="n">
-        <v>30733.67007326571</v>
-      </c>
-      <c r="J240" t="n">
-        <v>30685.28394031952</v>
-      </c>
-      <c r="K240" t="n">
-        <v>30569.68613294619</v>
       </c>
     </row>
     <row r="241">
@@ -7777,20 +4607,8 @@
       <c r="F241" t="n">
         <v>451.18</v>
       </c>
-      <c r="G241" t="n">
-        <v>-206.7931090683996</v>
-      </c>
       <c r="H241" t="n">
         <v>30670.1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>30876.8931090684</v>
-      </c>
-      <c r="J241" t="n">
-        <v>30829.2794904763</v>
-      </c>
-      <c r="K241" t="n">
-        <v>30717.7136185921</v>
       </c>
     </row>
     <row r="242">
@@ -7803,20 +4621,8 @@
       <c r="F242" t="n">
         <v>451.08</v>
       </c>
-      <c r="G242" t="n">
-        <v>-201.4430627167894</v>
-      </c>
       <c r="H242" t="n">
         <v>30170.9</v>
-      </c>
-      <c r="I242" t="n">
-        <v>30372.34306271679</v>
-      </c>
-      <c r="J242" t="n">
-        <v>30325.48356445638</v>
-      </c>
-      <c r="K242" t="n">
-        <v>30217.75949826042</v>
       </c>
     </row>
     <row r="243">
@@ -7829,20 +4635,8 @@
       <c r="F243" t="n">
         <v>450.98</v>
       </c>
-      <c r="G243" t="n">
-        <v>-196.3074345230743</v>
-      </c>
       <c r="H243" t="n">
         <v>30373.3</v>
-      </c>
-      <c r="I243" t="n">
-        <v>30569.60743452307</v>
-      </c>
-      <c r="J243" t="n">
-        <v>30523.48424318878</v>
-      </c>
-      <c r="K243" t="n">
-        <v>30419.4231913343</v>
       </c>
     </row>
     <row r="244">
@@ -7855,20 +4649,8 @@
       <c r="F244" t="n">
         <v>450.88</v>
       </c>
-      <c r="G244" t="n">
-        <v>-191.3745888405247</v>
-      </c>
       <c r="H244" t="n">
         <v>30766</v>
-      </c>
-      <c r="I244" t="n">
-        <v>30957.37458884052</v>
-      </c>
-      <c r="J244" t="n">
-        <v>30911.97044886502</v>
-      </c>
-      <c r="K244" t="n">
-        <v>30811.4041399755</v>
       </c>
     </row>
     <row r="245">
@@ -7881,20 +4663,8 @@
       <c r="F245" t="n">
         <v>450.78</v>
       </c>
-      <c r="G245" t="n">
-        <v>-186.6336826010011</v>
-      </c>
       <c r="H245" t="n">
         <v>30578.8</v>
-      </c>
-      <c r="I245" t="n">
-        <v>30765.433682601</v>
-      </c>
-      <c r="J245" t="n">
-        <v>30720.73187454288</v>
-      </c>
-      <c r="K245" t="n">
-        <v>30623.50180805812</v>
       </c>
     </row>
     <row r="246">
@@ -7907,20 +4677,8 @@
       <c r="F246" t="n">
         <v>450.68</v>
       </c>
-      <c r="G246" t="n">
-        <v>-182.074600701013</v>
-      </c>
       <c r="H246" t="n">
         <v>29672.6</v>
-      </c>
-      <c r="I246" t="n">
-        <v>29854.67460070101</v>
-      </c>
-      <c r="J246" t="n">
-        <v>29810.65892054081</v>
-      </c>
-      <c r="K246" t="n">
-        <v>29716.6156801602</v>
       </c>
     </row>
     <row r="247">
@@ -7933,20 +4691,8 @@
       <c r="F247" t="n">
         <v>450.58</v>
       </c>
-      <c r="G247" t="n">
-        <v>-177.6878974930587</v>
-      </c>
       <c r="H247" t="n">
         <v>30111</v>
-      </c>
-      <c r="I247" t="n">
-        <v>30288.68789749306</v>
-      </c>
-      <c r="J247" t="n">
-        <v>30245.34263688335</v>
-      </c>
-      <c r="K247" t="n">
-        <v>30154.34526060971</v>
       </c>
     </row>
     <row r="248">
@@ -7959,20 +4705,8 @@
       <c r="F248" t="n">
         <v>450.48</v>
       </c>
-      <c r="G248" t="n">
-        <v>-173.4647437286549</v>
-      </c>
       <c r="H248" t="n">
         <v>30286.2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>30459.66474372866</v>
-      </c>
-      <c r="J248" t="n">
-        <v>30416.9746711472</v>
-      </c>
-      <c r="K248" t="n">
-        <v>30328.89007258145</v>
       </c>
     </row>
     <row r="249">
@@ -7985,20 +4719,8 @@
       <c r="F249" t="n">
         <v>450.38</v>
       </c>
-      <c r="G249" t="n">
-        <v>-169.3968783774035</v>
-      </c>
       <c r="H249" t="n">
         <v>30475.6</v>
-      </c>
-      <c r="I249" t="n">
-        <v>30644.9968783774</v>
-      </c>
-      <c r="J249" t="n">
-        <v>30602.94722113544</v>
-      </c>
-      <c r="K249" t="n">
-        <v>30517.64965724196</v>
       </c>
     </row>
     <row r="250">
@@ -8011,20 +4733,8 @@
       <c r="F250" t="n">
         <v>450.28</v>
       </c>
-      <c r="G250" t="n">
-        <v>-165.4765648143293</v>
-      </c>
       <c r="H250" t="n">
         <v>30163.7</v>
-      </c>
-      <c r="I250" t="n">
-        <v>30329.17656481433</v>
-      </c>
-      <c r="J250" t="n">
-        <v>30287.75299187497</v>
-      </c>
-      <c r="K250" t="n">
-        <v>30205.12357293936</v>
       </c>
     </row>
     <row r="251">
@@ -8037,20 +4747,8 @@
       <c r="F251" t="n">
         <v>450.18</v>
       </c>
-      <c r="G251" t="n">
-        <v>-161.69655092639</v>
-      </c>
       <c r="H251" t="n">
         <v>30019.2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>30180.89655092639</v>
-      </c>
-      <c r="J251" t="n">
-        <v>30140.08515649082</v>
-      </c>
-      <c r="K251" t="n">
-        <v>30060.01139443557</v>
       </c>
     </row>
     <row r="252">
@@ -8063,20 +4761,8 @@
       <c r="F252" t="n">
         <v>450.08</v>
       </c>
-      <c r="G252" t="n">
-        <v>-158.0500327407026</v>
-      </c>
       <c r="H252" t="n">
         <v>29831.2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>29989.2500327407</v>
-      </c>
-      <c r="J252" t="n">
-        <v>29949.03732056239</v>
-      </c>
-      <c r="K252" t="n">
-        <v>29871.41271217832</v>
       </c>
     </row>
     <row r="253">
@@ -8089,20 +4775,8 @@
       <c r="F253" t="n">
         <v>449.98</v>
       </c>
-      <c r="G253" t="n">
-        <v>-154.5306212219402</v>
-      </c>
       <c r="H253" t="n">
         <v>30011.3</v>
-      </c>
-      <c r="I253" t="n">
-        <v>30165.83062122194</v>
-      </c>
-      <c r="J253" t="n">
-        <v>30126.20348961137</v>
-      </c>
-      <c r="K253" t="n">
-        <v>30050.92713161057</v>
       </c>
     </row>
     <row r="254">
@@ -8115,20 +4789,8 @@
       <c r="F254" t="n">
         <v>449.88</v>
       </c>
-      <c r="G254" t="n">
-        <v>-151.1323119256158</v>
-      </c>
       <c r="H254" t="n">
         <v>30570.4</v>
-      </c>
-      <c r="I254" t="n">
-        <v>30721.53231192562</v>
-      </c>
-      <c r="J254" t="n">
-        <v>30682.47803941029</v>
-      </c>
-      <c r="K254" t="n">
-        <v>30609.45427251533</v>
       </c>
     </row>
     <row r="255">
@@ -8141,20 +4803,8 @@
       <c r="F255" t="n">
         <v>449.78</v>
       </c>
-      <c r="G255" t="n">
-        <v>-147.8494572285745</v>
-      </c>
       <c r="H255" t="n">
         <v>29994.1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>30141.94945722857</v>
-      </c>
-      <c r="J255" t="n">
-        <v>30103.455688835</v>
-      </c>
-      <c r="K255" t="n">
-        <v>30032.59376839357</v>
       </c>
     </row>
     <row r="256">
@@ -8167,20 +4817,8 @@
       <c r="F256" t="n">
         <v>449.68</v>
       </c>
-      <c r="G256" t="n">
-        <v>-144.6767408883279</v>
-      </c>
       <c r="H256" t="n">
         <v>30867.8</v>
-      </c>
-      <c r="I256" t="n">
-        <v>31012.47674088833</v>
-      </c>
-      <c r="J256" t="n">
-        <v>30974.5314750148</v>
-      </c>
-      <c r="K256" t="n">
-        <v>30905.74526587353</v>
       </c>
     </row>
     <row r="257">
@@ -8193,20 +4831,8 @@
       <c r="F257" t="n">
         <v>449.58</v>
       </c>
-      <c r="G257" t="n">
-        <v>-141.6091547095493</v>
-      </c>
       <c r="H257" t="n">
         <v>30532.7</v>
-      </c>
-      <c r="I257" t="n">
-        <v>30674.30915470955</v>
-      </c>
-      <c r="J257" t="n">
-        <v>30636.90073056007</v>
-      </c>
-      <c r="K257" t="n">
-        <v>30570.10842414948</v>
       </c>
     </row>
     <row r="258">
@@ -8219,20 +4845,8 @@
       <c r="F258" t="n">
         <v>449.48</v>
       </c>
-      <c r="G258" t="n">
-        <v>-138.6419771196379</v>
-      </c>
       <c r="H258" t="n">
         <v>30713.9</v>
-      </c>
-      <c r="I258" t="n">
-        <v>30852.54197711964</v>
-      </c>
-      <c r="J258" t="n">
-        <v>30815.65906267125</v>
-      </c>
-      <c r="K258" t="n">
-        <v>30750.78291444839</v>
       </c>
     </row>
     <row r="259">
@@ -8245,20 +4859,8 @@
       <c r="F259" t="n">
         <v>449.38</v>
       </c>
-      <c r="G259" t="n">
-        <v>-135.7707534759684</v>
-      </c>
       <c r="H259" t="n">
         <v>30454.5</v>
-      </c>
-      <c r="I259" t="n">
-        <v>30590.27075347597</v>
-      </c>
-      <c r="J259" t="n">
-        <v>30553.90233395314</v>
-      </c>
-      <c r="K259" t="n">
-        <v>30490.86841952283</v>
       </c>
     </row>
     <row r="260">
@@ -8271,20 +4873,8 @@
       <c r="F260" t="n">
         <v>449.28</v>
       </c>
-      <c r="G260" t="n">
-        <v>-132.9912779458682</v>
-      </c>
       <c r="H260" t="n">
         <v>30068.4</v>
-      </c>
-      <c r="I260" t="n">
-        <v>30201.39127794587</v>
-      </c>
-      <c r="J260" t="n">
-        <v>30165.52664477722</v>
-      </c>
-      <c r="K260" t="n">
-        <v>30104.26463316865</v>
       </c>
     </row>
     <row r="261">
@@ -8297,20 +4887,8 @@
       <c r="F261" t="n">
         <v>449.18</v>
       </c>
-      <c r="G261" t="n">
-        <v>-130.2995768167275</v>
-      </c>
       <c r="H261" t="n">
         <v>29912.4</v>
-      </c>
-      <c r="I261" t="n">
-        <v>30042.69957681673</v>
-      </c>
-      <c r="J261" t="n">
-        <v>30007.32831705057</v>
-      </c>
-      <c r="K261" t="n">
-        <v>29947.77125976616</v>
       </c>
     </row>
     <row r="262">
@@ -8323,20 +4901,8 @@
       <c r="F262" t="n">
         <v>449.08</v>
       </c>
-      <c r="G262" t="n">
-        <v>-127.6918931079053</v>
-      </c>
       <c r="H262" t="n">
         <v>30174.8</v>
-      </c>
-      <c r="I262" t="n">
-        <v>30302.4918931079</v>
-      </c>
-      <c r="J262" t="n">
-        <v>30267.60387926456</v>
-      </c>
-      <c r="K262" t="n">
-        <v>30209.68801384334</v>
       </c>
     </row>
     <row r="263">
@@ -8349,20 +4915,8 @@
       <c r="F263" t="n">
         <v>448.98</v>
       </c>
-      <c r="G263" t="n">
-        <v>-125.1646723691701</v>
-      </c>
       <c r="H263" t="n">
         <v>30120.3</v>
-      </c>
-      <c r="I263" t="n">
-        <v>30245.46467236917</v>
-      </c>
-      <c r="J263" t="n">
-        <v>30211.05005270912</v>
-      </c>
-      <c r="K263" t="n">
-        <v>30154.71461966004</v>
       </c>
     </row>
     <row r="264">
@@ -8375,20 +4929,8 @@
       <c r="F264" t="n">
         <v>448.88</v>
       </c>
-      <c r="G264" t="n">
-        <v>-122.714549561606</v>
-      </c>
       <c r="H264" t="n">
         <v>30110.4</v>
-      </c>
-      <c r="I264" t="n">
-        <v>30233.11454956161</v>
-      </c>
-      <c r="J264" t="n">
-        <v>30199.16373874969</v>
-      </c>
-      <c r="K264" t="n">
-        <v>30144.35081081192</v>
       </c>
     </row>
     <row r="265">
@@ -8401,20 +4943,8 @@
       <c r="F265" t="n">
         <v>448.78</v>
       </c>
-      <c r="G265" t="n">
-        <v>-120.3383369272924</v>
-      </c>
       <c r="H265" t="n">
         <v>30306.8</v>
-      </c>
-      <c r="I265" t="n">
-        <v>30427.13833692729</v>
-      </c>
-      <c r="J265" t="n">
-        <v>30393.6420070742</v>
-      </c>
-      <c r="K265" t="n">
-        <v>30340.29632985309</v>
       </c>
     </row>
     <row r="266">
@@ -8427,20 +4957,8 @@
       <c r="F266" t="n">
         <v>448.68</v>
       </c>
-      <c r="G266" t="n">
-        <v>-118.0330127629568</v>
-      </c>
       <c r="H266" t="n">
         <v>29977.1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>30095.13301276296</v>
-      </c>
-      <c r="J266" t="n">
-        <v>30062.08208482644</v>
-      </c>
-      <c r="K266" t="n">
-        <v>30010.15092793651</v>
       </c>
     </row>
     <row r="267">
@@ -8453,20 +4971,8 @@
       <c r="F267" t="n">
         <v>448.58</v>
       </c>
-      <c r="G267" t="n">
-        <v>-115.7957110210664</v>
-      </c>
       <c r="H267" t="n">
         <v>30408.4</v>
-      </c>
-      <c r="I267" t="n">
-        <v>30524.19571102107</v>
-      </c>
-      <c r="J267" t="n">
-        <v>30491.58134655</v>
-      </c>
-      <c r="K267" t="n">
-        <v>30441.01436447107</v>
       </c>
     </row>
     <row r="268">
@@ -8479,20 +4985,8 @@
       <c r="F268" t="n">
         <v>448.48</v>
       </c>
-      <c r="G268" t="n">
-        <v>-113.6237116689845</v>
-      </c>
       <c r="H268" t="n">
         <v>30672.7</v>
-      </c>
-      <c r="I268" t="n">
-        <v>30786.32371166899</v>
-      </c>
-      <c r="J268" t="n">
-        <v>30754.13730487442</v>
-      </c>
-      <c r="K268" t="n">
-        <v>30704.88640679457</v>
       </c>
     </row>
     <row r="269">
@@ -8505,20 +4999,8 @@
       <c r="F269" t="n">
         <v>448.38</v>
       </c>
-      <c r="G269" t="n">
-        <v>-111.514431743326</v>
-      </c>
       <c r="H269" t="n">
         <v>30340.6</v>
-      </c>
-      <c r="I269" t="n">
-        <v>30452.11443174332</v>
-      </c>
-      <c r="J269" t="n">
-        <v>30420.34760188154</v>
-      </c>
-      <c r="K269" t="n">
-        <v>30372.36682986178</v>
       </c>
     </row>
     <row r="270">
@@ -8531,20 +5013,8 @@
       <c r="F270" t="n">
         <v>448.28</v>
       </c>
-      <c r="G270" t="n">
-        <v>-109.4654170425129</v>
-      </c>
       <c r="H270" t="n">
         <v>29974.9</v>
-      </c>
-      <c r="I270" t="n">
-        <v>30084.36541704251</v>
-      </c>
-      <c r="J270" t="n">
-        <v>30053.01000109582</v>
-      </c>
-      <c r="K270" t="n">
-        <v>30006.25541594669</v>
       </c>
     </row>
     <row r="271">
@@ -8557,20 +5027,8 @@
       <c r="F271" t="n">
         <v>448.18</v>
       </c>
-      <c r="G271" t="n">
-        <v>-107.4743344057206</v>
-      </c>
       <c r="H271" t="n">
         <v>30914.7</v>
-      </c>
-      <c r="I271" t="n">
-        <v>31022.17433440572</v>
-      </c>
-      <c r="J271" t="n">
-        <v>30991.22238004744</v>
-      </c>
-      <c r="K271" t="n">
-        <v>30945.65195435828</v>
       </c>
     </row>
     <row r="272">
@@ -8583,20 +5041,8 @@
       <c r="F272" t="n">
         <v>448.08</v>
       </c>
-      <c r="G272" t="n">
-        <v>-105.5389645310715</v>
-      </c>
       <c r="H272" t="n">
         <v>30207.3</v>
-      </c>
-      <c r="I272" t="n">
-        <v>30312.83896453107</v>
-      </c>
-      <c r="J272" t="n">
-        <v>30282.28272336196</v>
-      </c>
-      <c r="K272" t="n">
-        <v>30237.85624116911</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -5241,7 +5241,7 @@
         <v>26049.5</v>
       </c>
       <c r="F2" t="n">
-        <v>142.08</v>
+        <v>144.08</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5270,12 +5270,12 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>132.49</t>
+          <t>134.49</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>101467</t>
+          <t>101468</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
@@ -5354,7 +5354,7 @@
         <v>26437.6</v>
       </c>
       <c r="F3" t="n">
-        <v>141.98</v>
+        <v>143.98</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5375,7 +5375,7 @@
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>126.08,142.08</t>
+          <t>128.08,144.08</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -5423,7 +5423,7 @@
         <v>26696.9</v>
       </c>
       <c r="F4" t="n">
-        <v>141.88</v>
+        <v>143.88</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5452,7 +5452,7 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>134.24</t>
+          <t>136.24</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
@@ -5536,7 +5536,7 @@
         <v>25942.6</v>
       </c>
       <c r="F5" t="n">
-        <v>141.78</v>
+        <v>143.78</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>26565.8</v>
       </c>
       <c r="F6" t="n">
-        <v>141.68</v>
+        <v>143.68</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>26089.7</v>
       </c>
       <c r="F7" t="n">
-        <v>141.58</v>
+        <v>143.58</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5657,7 +5657,7 @@
         <v>26784.6</v>
       </c>
       <c r="F8" t="n">
-        <v>141.48</v>
+        <v>143.48</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>26357.7</v>
       </c>
       <c r="F9" t="n">
-        <v>141.38</v>
+        <v>143.38</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>26256</v>
       </c>
       <c r="F10" t="n">
-        <v>141.28</v>
+        <v>143.28</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>26519.3</v>
       </c>
       <c r="F11" t="n">
-        <v>141.18</v>
+        <v>143.18</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>25948.6</v>
       </c>
       <c r="F12" t="n">
-        <v>141.08</v>
+        <v>143.08</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>26945.3</v>
       </c>
       <c r="F13" t="n">
-        <v>140.98</v>
+        <v>142.98</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>26444</v>
       </c>
       <c r="F14" t="n">
-        <v>140.88</v>
+        <v>142.88</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5839,7 +5839,7 @@
         <v>26729.6</v>
       </c>
       <c r="F15" t="n">
-        <v>140.78</v>
+        <v>142.78</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>27045.9</v>
       </c>
       <c r="F16" t="n">
-        <v>140.68</v>
+        <v>142.68</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>26274.3</v>
       </c>
       <c r="F17" t="n">
-        <v>140.58</v>
+        <v>142.58</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>25721.7</v>
       </c>
       <c r="F18" t="n">
-        <v>140.48</v>
+        <v>142.48</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>26199.6</v>
       </c>
       <c r="F19" t="n">
-        <v>140.38</v>
+        <v>142.38</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -5969,7 +5969,7 @@
         <v>27175.7</v>
       </c>
       <c r="F20" t="n">
-        <v>140.28</v>
+        <v>142.28</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>26142</v>
       </c>
       <c r="F21" t="n">
-        <v>140.18</v>
+        <v>142.18</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>26419.9</v>
       </c>
       <c r="F22" t="n">
-        <v>140.08</v>
+        <v>142.08</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -6047,7 +6047,7 @@
         <v>27293.7</v>
       </c>
       <c r="F23" t="n">
-        <v>139.98</v>
+        <v>141.98</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>26191.1</v>
       </c>
       <c r="F24" t="n">
-        <v>139.88</v>
+        <v>141.88</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -6099,7 +6099,7 @@
         <v>26444.7</v>
       </c>
       <c r="F25" t="n">
-        <v>139.78</v>
+        <v>141.78</v>
       </c>
       <c r="G25" t="n">
         <v>-3.637978807091713e-12</v>
@@ -6125,7 +6125,7 @@
         <v>26393.8</v>
       </c>
       <c r="F26" t="n">
-        <v>139.68</v>
+        <v>141.68</v>
       </c>
       <c r="G26" t="n">
         <v>-7.275957614183426e-12</v>
@@ -6151,7 +6151,7 @@
         <v>26023.2</v>
       </c>
       <c r="F27" t="n">
-        <v>139.58</v>
+        <v>141.58</v>
       </c>
       <c r="G27" t="n">
         <v>-2.182787284255028e-11</v>
@@ -6177,7 +6177,7 @@
         <v>27069.8</v>
       </c>
       <c r="F28" t="n">
-        <v>139.48</v>
+        <v>141.48</v>
       </c>
       <c r="G28" t="n">
         <v>-7.639755494892597e-11</v>
@@ -6203,7 +6203,7 @@
         <v>26161.8</v>
       </c>
       <c r="F29" t="n">
-        <v>139.38</v>
+        <v>141.38</v>
       </c>
       <c r="G29" t="n">
         <v>-2.510205376893282e-10</v>
@@ -6229,7 +6229,7 @@
         <v>26300.2</v>
       </c>
       <c r="F30" t="n">
-        <v>139.28</v>
+        <v>141.28</v>
       </c>
       <c r="G30" t="n">
         <v>-7.967173587530851e-10</v>
@@ -6255,7 +6255,7 @@
         <v>26179.2</v>
       </c>
       <c r="F31" t="n">
-        <v>139.18</v>
+        <v>141.18</v>
       </c>
       <c r="G31" t="n">
         <v>-2.492015482857823e-09</v>
@@ -6281,7 +6281,7 @@
         <v>25952.4</v>
       </c>
       <c r="F32" t="n">
-        <v>139.08</v>
+        <v>141.08</v>
       </c>
       <c r="G32" t="n">
         <v>-7.621565600857139e-09</v>
@@ -6307,7 +6307,7 @@
         <v>25823.1</v>
       </c>
       <c r="F33" t="n">
-        <v>138.98</v>
+        <v>140.98</v>
       </c>
       <c r="G33" t="n">
         <v>-2.281376509927213e-08</v>
@@ -6333,7 +6333,7 @@
         <v>25796.2</v>
       </c>
       <c r="F34" t="n">
-        <v>138.88</v>
+        <v>140.88</v>
       </c>
       <c r="G34" t="n">
         <v>-6.685513653792441e-08</v>
@@ -6359,7 +6359,7 @@
         <v>25706.9</v>
       </c>
       <c r="F35" t="n">
-        <v>138.78</v>
+        <v>140.78</v>
       </c>
       <c r="G35" t="n">
         <v>-1.918087946251035e-07</v>
@@ -6385,7 +6385,7 @@
         <v>25865.6</v>
       </c>
       <c r="F36" t="n">
-        <v>138.68</v>
+        <v>140.68</v>
       </c>
       <c r="G36" t="n">
         <v>-5.387992132455111e-07</v>
@@ -6411,7 +6411,7 @@
         <v>26150.6</v>
       </c>
       <c r="F37" t="n">
-        <v>138.58</v>
+        <v>140.58</v>
       </c>
       <c r="G37" t="n">
         <v>-1.481937943026423e-06</v>
@@ -6437,7 +6437,7 @@
         <v>25610.5</v>
       </c>
       <c r="F38" t="n">
-        <v>138.48</v>
+        <v>140.48</v>
       </c>
       <c r="G38" t="n">
         <v>-3.99112468585372e-06</v>
@@ -6463,7 +6463,7 @@
         <v>25614.3</v>
       </c>
       <c r="F39" t="n">
-        <v>138.38</v>
+        <v>140.38</v>
       </c>
       <c r="G39" t="n">
         <v>-1.052554216585122e-05</v>
@@ -6489,7 +6489,7 @@
         <v>25482.4</v>
       </c>
       <c r="F40" t="n">
-        <v>138.28</v>
+        <v>140.28</v>
       </c>
       <c r="G40" t="n">
         <v>-2.718298128456809e-05</v>
@@ -6515,7 +6515,7 @@
         <v>25820.7</v>
       </c>
       <c r="F41" t="n">
-        <v>138.18</v>
+        <v>140.18</v>
       </c>
       <c r="G41" t="n">
         <v>-6.875037797726691e-05</v>
@@ -6541,7 +6541,7 @@
         <v>25337.9</v>
       </c>
       <c r="F42" t="n">
-        <v>138.08</v>
+        <v>140.08</v>
       </c>
       <c r="G42" t="n">
         <v>-0.0001702950066828635</v>
@@ -6567,7 +6567,7 @@
         <v>25660.4</v>
       </c>
       <c r="F43" t="n">
-        <v>137.98</v>
+        <v>139.98</v>
       </c>
       <c r="G43" t="n">
         <v>-0.0004131450368731748</v>
@@ -6593,7 +6593,7 @@
         <v>25130.5</v>
       </c>
       <c r="F44" t="n">
-        <v>137.88</v>
+        <v>139.88</v>
       </c>
       <c r="G44" t="n">
         <v>-0.0009817563841352239</v>
@@ -6619,7 +6619,7 @@
         <v>25320.6</v>
       </c>
       <c r="F45" t="n">
-        <v>137.78</v>
+        <v>139.78</v>
       </c>
       <c r="G45" t="n">
         <v>-0.002285252725414466</v>
@@ -6645,7 +6645,7 @@
         <v>24983.9</v>
       </c>
       <c r="F46" t="n">
-        <v>137.68</v>
+        <v>139.68</v>
       </c>
       <c r="G46" t="n">
         <v>-0.005211046103795525</v>
@@ -6671,7 +6671,7 @@
         <v>25008</v>
       </c>
       <c r="F47" t="n">
-        <v>137.58</v>
+        <v>139.58</v>
       </c>
       <c r="G47" t="n">
         <v>-0.01164150121985585</v>
@@ -6697,7 +6697,7 @@
         <v>24993.3</v>
       </c>
       <c r="F48" t="n">
-        <v>137.48</v>
+        <v>139.48</v>
       </c>
       <c r="G48" t="n">
         <v>-0.02548133834716282</v>
@@ -6723,7 +6723,7 @@
         <v>25038.8</v>
       </c>
       <c r="F49" t="n">
-        <v>137.38</v>
+        <v>139.38</v>
       </c>
       <c r="G49" t="n">
         <v>-0.05465164764609654</v>
@@ -6749,7 +6749,7 @@
         <v>24708.8</v>
       </c>
       <c r="F50" t="n">
-        <v>137.28</v>
+        <v>139.28</v>
       </c>
       <c r="G50" t="n">
         <v>-0.1148666006592975</v>
@@ -6775,7 +6775,7 @@
         <v>24696.9</v>
       </c>
       <c r="F51" t="n">
-        <v>137.18</v>
+        <v>139.18</v>
       </c>
       <c r="G51" t="n">
         <v>24.53338684793562</v>
@@ -6801,7 +6801,7 @@
         <v>24663.5</v>
       </c>
       <c r="F52" t="n">
-        <v>137.08</v>
+        <v>139.08</v>
       </c>
       <c r="G52" t="n">
         <v>-3.98773545494987</v>
@@ -6827,7 +6827,7 @@
         <v>24656</v>
       </c>
       <c r="F53" t="n">
-        <v>136.98</v>
+        <v>138.98</v>
       </c>
       <c r="G53" t="n">
         <v>-11.94556755579106</v>
@@ -6853,7 +6853,7 @@
         <v>24583</v>
       </c>
       <c r="F54" t="n">
-        <v>136.88</v>
+        <v>138.88</v>
       </c>
       <c r="G54" t="n">
         <v>-85.84489713509538</v>
@@ -6865,7 +6865,7 @@
         <v>24668.8448971351</v>
       </c>
       <c r="J54" t="n">
-        <v>24667.01000129576</v>
+        <v>24667.01000129577</v>
       </c>
       <c r="K54" t="n">
         <v>24668.84490422684</v>
@@ -6879,7 +6879,7 @@
         <v>24276.6</v>
       </c>
       <c r="F55" t="n">
-        <v>136.78</v>
+        <v>138.78</v>
       </c>
       <c r="G55" t="n">
         <v>-393.9214638233061</v>
@@ -6891,7 +6891,7 @@
         <v>24670.5214638233</v>
       </c>
       <c r="J55" t="n">
-        <v>24667.03000352575</v>
+        <v>24667.03000352578</v>
       </c>
       <c r="K55" t="n">
         <v>24670.52147625739</v>
@@ -6905,7 +6905,7 @@
         <v>24806.4</v>
       </c>
       <c r="F56" t="n">
-        <v>136.68</v>
+        <v>138.68</v>
       </c>
       <c r="G56" t="n">
         <v>132.7244941297067</v>
@@ -6917,7 +6917,7 @@
         <v>24673.67550587029</v>
       </c>
       <c r="J56" t="n">
-        <v>24667.16000939408</v>
+        <v>24667.16000939417</v>
       </c>
       <c r="K56" t="n">
         <v>24673.67552625923</v>
@@ -6931,7 +6931,7 @@
         <v>25239</v>
       </c>
       <c r="F57" t="n">
-        <v>136.58</v>
+        <v>138.58</v>
       </c>
       <c r="G57" t="n">
         <v>559.8536470967701</v>
@@ -6943,7 +6943,7 @@
         <v>24679.14635290323</v>
       </c>
       <c r="J57" t="n">
-        <v>24667.22002451053</v>
+        <v>24667.22002451077</v>
       </c>
       <c r="K57" t="n">
         <v>24679.14638290914</v>
@@ -6957,7 +6957,7 @@
         <v>24656.3</v>
       </c>
       <c r="F58" t="n">
-        <v>136.48</v>
+        <v>138.48</v>
       </c>
       <c r="G58" t="n">
         <v>-32.14740484383583</v>
@@ -6969,7 +6969,7 @@
         <v>24688.44740484384</v>
       </c>
       <c r="J58" t="n">
-        <v>24667.03006262791</v>
+        <v>24667.03006262852</v>
       </c>
       <c r="K58" t="n">
         <v>24688.4474401166</v>
@@ -6983,7 +6983,7 @@
         <v>24484.5</v>
       </c>
       <c r="F59" t="n">
-        <v>136.38</v>
+        <v>138.38</v>
       </c>
       <c r="G59" t="n">
         <v>-220.1310193885147</v>
@@ -6995,7 +6995,7 @@
         <v>24704.63101938851</v>
       </c>
       <c r="J59" t="n">
-        <v>24666.89015671931</v>
+        <v>24666.89015672086</v>
       </c>
       <c r="K59" t="n">
         <v>24704.63103518591</v>
@@ -7009,7 +7009,7 @@
         <v>25108.2</v>
       </c>
       <c r="F60" t="n">
-        <v>136.28</v>
+        <v>138.28</v>
       </c>
       <c r="G60" t="n">
         <v>375.9854909245223</v>
@@ -7021,7 +7021,7 @@
         <v>24732.21450907548</v>
       </c>
       <c r="J60" t="n">
-        <v>24666.94038409675</v>
+        <v>24666.94038410054</v>
       </c>
       <c r="K60" t="n">
         <v>24732.21442335156</v>
@@ -7035,7 +7035,7 @@
         <v>24956.2</v>
       </c>
       <c r="F61" t="n">
-        <v>136.18</v>
+        <v>138.18</v>
       </c>
       <c r="G61" t="n">
         <v>178.4991691061186</v>
@@ -7047,7 +7047,7 @@
         <v>24777.70083089388</v>
       </c>
       <c r="J61" t="n">
-        <v>24666.87092203651</v>
+        <v>24666.87092204559</v>
       </c>
       <c r="K61" t="n">
         <v>24777.70041546725</v>
@@ -7061,7 +7061,7 @@
         <v>25105.5</v>
       </c>
       <c r="F62" t="n">
-        <v>136.08</v>
+        <v>138.08</v>
       </c>
       <c r="G62" t="n">
         <v>254.0407125614074</v>
@@ -7073,7 +7073,7 @@
         <v>24851.45928743859</v>
       </c>
       <c r="J62" t="n">
-        <v>24666.67216806698</v>
+        <v>24666.67216808835</v>
       </c>
       <c r="K62" t="n">
         <v>24851.4579640399</v>
@@ -7087,7 +7087,7 @@
         <v>25926.1</v>
       </c>
       <c r="F63" t="n">
-        <v>135.98</v>
+        <v>137.98</v>
       </c>
       <c r="G63" t="n">
         <v>956.9893457400431</v>
@@ -7099,7 +7099,7 @@
         <v>24969.11065425996</v>
       </c>
       <c r="J63" t="n">
-        <v>24666.48499394962</v>
+        <v>24666.48499399883</v>
       </c>
       <c r="K63" t="n">
         <v>24969.10704361298</v>
@@ -7113,7 +7113,7 @@
         <v>25834.4</v>
       </c>
       <c r="F64" t="n">
-        <v>135.88</v>
+        <v>137.88</v>
       </c>
       <c r="G64" t="n">
         <v>681.4151662467921</v>
@@ -7125,7 +7125,7 @@
         <v>25152.98483375321</v>
       </c>
       <c r="J64" t="n">
-        <v>24666.03126923703</v>
+        <v>24666.03126934809</v>
       </c>
       <c r="K64" t="n">
         <v>25152.97579036043</v>
@@ -7139,7 +7139,7 @@
         <v>26328.5</v>
       </c>
       <c r="F65" t="n">
-        <v>135.78</v>
+        <v>137.78</v>
       </c>
       <c r="G65" t="n">
         <v>892.9864982862564</v>
@@ -7151,7 +7151,7 @@
         <v>25435.51350171374</v>
       </c>
       <c r="J65" t="n">
-        <v>24665.40491484761</v>
+        <v>24665.40491509316</v>
       </c>
       <c r="K65" t="n">
         <v>25435.49210695247</v>
@@ -7165,7 +7165,7 @@
         <v>26760.7</v>
       </c>
       <c r="F66" t="n">
-        <v>135.68</v>
+        <v>137.68</v>
       </c>
       <c r="G66" t="n">
         <v>898.6308616798633</v>
@@ -7177,7 +7177,7 @@
         <v>25862.06913832014</v>
       </c>
       <c r="J66" t="n">
-        <v>24664.67397249335</v>
+        <v>24664.67397302527</v>
       </c>
       <c r="K66" t="n">
         <v>25862.02063889342</v>
@@ -7191,7 +7191,7 @@
         <v>27055.6</v>
       </c>
       <c r="F67" t="n">
-        <v>135.58</v>
+        <v>137.58</v>
       </c>
       <c r="G67" t="n">
         <v>560.8957618625172</v>
@@ -7203,7 +7203,7 @@
         <v>26494.70423813748</v>
       </c>
       <c r="J67" t="n">
-        <v>24663.73457170352</v>
+        <v>24663.73457283267</v>
       </c>
       <c r="K67" t="n">
         <v>26494.59803523465</v>
@@ -7217,7 +7217,7 @@
         <v>27949.1</v>
       </c>
       <c r="F68" t="n">
-        <v>135.48</v>
+        <v>137.48</v>
       </c>
       <c r="G68" t="n">
         <v>532.1519816452965</v>
@@ -7229,7 +7229,7 @@
         <v>27416.9480183547</v>
       </c>
       <c r="J68" t="n">
-        <v>24662.65835061287</v>
+        <v>24662.65835296192</v>
       </c>
       <c r="K68" t="n">
         <v>27416.72225631202</v>
@@ -7243,7 +7243,7 @@
         <v>28717.9</v>
       </c>
       <c r="F69" t="n">
-        <v>135.38</v>
+        <v>137.38</v>
       </c>
       <c r="G69" t="n">
         <v>-20.33575649244449</v>
@@ -7255,7 +7255,7 @@
         <v>28738.23575649245</v>
       </c>
       <c r="J69" t="n">
-        <v>24661.38599985585</v>
+        <v>24661.38600464559</v>
       </c>
       <c r="K69" t="n">
         <v>28737.76838911651</v>
@@ -7269,7 +7269,7 @@
         <v>30717.6</v>
       </c>
       <c r="F70" t="n">
-        <v>135.28</v>
+        <v>137.28</v>
       </c>
       <c r="G70" t="n">
         <v>119.1487001380483</v>
@@ -7281,7 +7281,7 @@
         <v>30598.45129986195</v>
       </c>
       <c r="J70" t="n">
-        <v>24659.9113771145</v>
+        <v>24659.91138668783</v>
       </c>
       <c r="K70" t="n">
         <v>30597.50706196613</v>
@@ -7295,7 +7295,7 @@
         <v>32779.8</v>
       </c>
       <c r="F71" t="n">
-        <v>135.18</v>
+        <v>137.18</v>
       </c>
       <c r="G71" t="n">
         <v>-390.5161594470555</v>
@@ -7307,7 +7307,7 @@
         <v>33170.31615944706</v>
       </c>
       <c r="J71" t="n">
-        <v>24658.12338521065</v>
+        <v>24658.1234039693</v>
       </c>
       <c r="K71" t="n">
         <v>33168.45167165816</v>
@@ -7321,7 +7321,7 @@
         <v>36550.1</v>
       </c>
       <c r="F72" t="n">
-        <v>135.08</v>
+        <v>137.08</v>
       </c>
       <c r="G72" t="n">
         <v>-107.3454487896015</v>
@@ -7333,7 +7333,7 @@
         <v>36657.4454487896</v>
       </c>
       <c r="J72" t="n">
-        <v>24656.0568961523</v>
+        <v>24656.05693219255</v>
       </c>
       <c r="K72" t="n">
         <v>36653.84338779867</v>
@@ -7347,7 +7347,7 @@
         <v>41320.5</v>
       </c>
       <c r="F73" t="n">
-        <v>134.98</v>
+        <v>136.98</v>
       </c>
       <c r="G73" t="n">
         <v>38.78599370734446</v>
@@ -7359,7 +7359,7 @@
         <v>41281.71400629266</v>
       </c>
       <c r="J73" t="n">
-        <v>24653.87986882741</v>
+        <v>24653.87993672997</v>
       </c>
       <c r="K73" t="n">
         <v>41274.90009893384</v>
@@ -7373,7 +7373,7 @@
         <v>47368.7</v>
       </c>
       <c r="F74" t="n">
-        <v>134.88</v>
+        <v>136.88</v>
       </c>
       <c r="G74" t="n">
         <v>118.6201939058883</v>
@@ -7385,7 +7385,7 @@
         <v>47250.07980609411</v>
       </c>
       <c r="J74" t="n">
-        <v>24651.97188523827</v>
+        <v>24651.97201071636</v>
       </c>
       <c r="K74" t="n">
         <v>47237.45113391086</v>
@@ -7399,7 +7399,7 @@
         <v>55544.3</v>
       </c>
       <c r="F75" t="n">
-        <v>134.78</v>
+        <v>136.78</v>
       </c>
       <c r="G75" t="n">
         <v>858.9461275442445</v>
@@ -7411,7 +7411,7 @@
         <v>54685.35387245576</v>
       </c>
       <c r="J75" t="n">
-        <v>24651.55997174911</v>
+        <v>24651.56019921194</v>
       </c>
       <c r="K75" t="n">
         <v>54662.41103366882</v>
@@ -7425,7 +7425,7 @@
         <v>63391.9</v>
       </c>
       <c r="F76" t="n">
-        <v>134.68</v>
+        <v>136.68</v>
       </c>
       <c r="G76" t="n">
         <v>-109.6400181099671</v>
@@ -7437,7 +7437,7 @@
         <v>63501.54001810997</v>
       </c>
       <c r="J76" t="n">
-        <v>24654.80091671192</v>
+        <v>24654.80132128598</v>
       </c>
       <c r="K76" t="n">
         <v>63460.66639871123</v>
@@ -7451,7 +7451,7 @@
         <v>73673.89999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>134.58</v>
+        <v>136.58</v>
       </c>
       <c r="G77" t="n">
         <v>450.3889992333716</v>
@@ -7463,7 +7463,7 @@
         <v>73223.51100076662</v>
       </c>
       <c r="J77" t="n">
-        <v>24666.13510459456</v>
+        <v>24666.13581078578</v>
       </c>
       <c r="K77" t="n">
         <v>73152.07737649287</v>
@@ -7477,7 +7477,7 @@
         <v>83519.2</v>
       </c>
       <c r="F78" t="n">
-        <v>134.48</v>
+        <v>136.48</v>
       </c>
       <c r="G78" t="n">
         <v>710.4177324953198</v>
@@ -7489,7 +7489,7 @@
         <v>82808.78226750468</v>
       </c>
       <c r="J78" t="n">
-        <v>24692.76436065665</v>
+        <v>24692.76557064966</v>
       </c>
       <c r="K78" t="n">
         <v>82686.27273769568</v>
@@ -7503,7 +7503,7 @@
         <v>91301.7</v>
       </c>
       <c r="F79" t="n">
-        <v>134.38</v>
+        <v>136.38</v>
       </c>
       <c r="G79" t="n">
         <v>653.9315884959506</v>
@@ -7515,7 +7515,7 @@
         <v>90647.76841150405</v>
       </c>
       <c r="J79" t="n">
-        <v>24746.31391203493</v>
+        <v>24746.31594761214</v>
       </c>
       <c r="K79" t="n">
         <v>90441.5243561747</v>
@@ -7529,7 +7529,7 @@
         <v>93863.10000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>134.28</v>
+        <v>136.28</v>
       </c>
       <c r="G80" t="n">
         <v>-1109.860877563304</v>
@@ -7541,7 +7541,7 @@
         <v>94972.96087756331</v>
       </c>
       <c r="J80" t="n">
-        <v>24845.96392597381</v>
+        <v>24845.96728917491</v>
       </c>
       <c r="K80" t="n">
         <v>94632.02521956561</v>
@@ -7555,7 +7555,7 @@
         <v>94868.5</v>
       </c>
       <c r="F81" t="n">
-        <v>134.18</v>
+        <v>136.18</v>
       </c>
       <c r="G81" t="n">
         <v>209.4698187130853</v>
@@ -7567,7 +7567,7 @@
         <v>94659.03018128691</v>
       </c>
       <c r="J81" t="n">
-        <v>25020.83578081346</v>
+        <v>25020.84123968956</v>
       </c>
       <c r="K81" t="n">
         <v>94105.44900684305</v>
@@ -7581,7 +7581,7 @@
         <v>89488.89999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>134.08</v>
+        <v>136.08</v>
       </c>
       <c r="G82" t="n">
         <v>-398.6052207686298</v>
@@ -7593,7 +7593,7 @@
         <v>89887.50522076862</v>
       </c>
       <c r="J82" t="n">
-        <v>25312.09754179398</v>
+        <v>25312.10624883707</v>
       </c>
       <c r="K82" t="n">
         <v>89004.31693064705</v>
@@ -7607,7 +7607,7 @@
         <v>81655.7</v>
       </c>
       <c r="F83" t="n">
-        <v>133.98</v>
+        <v>135.98</v>
       </c>
       <c r="G83" t="n">
         <v>-409.5990821751911</v>
@@ -7619,7 +7619,7 @@
         <v>82065.29908217519</v>
       </c>
       <c r="J83" t="n">
-        <v>25777.46509763002</v>
+        <v>25777.47874950795</v>
       </c>
       <c r="K83" t="n">
         <v>80680.33198515838</v>
@@ -7633,7 +7633,7 @@
         <v>72861.10000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>133.88</v>
+        <v>135.88</v>
       </c>
       <c r="G84" t="n">
         <v>-219.2754036654369</v>
@@ -7645,7 +7645,7 @@
         <v>73080.37540366544</v>
       </c>
       <c r="J84" t="n">
-        <v>26495.68835469878</v>
+        <v>26495.70940251092</v>
       </c>
       <c r="K84" t="n">
         <v>70944.91565848282</v>
@@ -7659,7 +7659,7 @@
         <v>65228</v>
       </c>
       <c r="F85" t="n">
-        <v>133.78</v>
+        <v>135.78</v>
       </c>
       <c r="G85" t="n">
         <v>666.9690062067384</v>
@@ -7671,7 +7671,7 @@
         <v>64561.03099379326</v>
       </c>
       <c r="J85" t="n">
-        <v>27571.30322926579</v>
+        <v>27571.33514814808</v>
       </c>
       <c r="K85" t="n">
         <v>61322.46511078429</v>
@@ -7685,7 +7685,7 @@
         <v>57825</v>
       </c>
       <c r="F86" t="n">
-        <v>133.68</v>
+        <v>135.68</v>
       </c>
       <c r="G86" t="n">
         <v>253.6409861474895</v>
@@ -7697,7 +7697,7 @@
         <v>57571.35901385251</v>
       </c>
       <c r="J86" t="n">
-        <v>29142.02323416294</v>
+        <v>29142.07085874269</v>
       </c>
       <c r="K86" t="n">
         <v>52739.13329924556</v>
@@ -7711,7 +7711,7 @@
         <v>52705.2</v>
       </c>
       <c r="F87" t="n">
-        <v>133.58</v>
+        <v>135.58</v>
       </c>
       <c r="G87" t="n">
         <v>30.52255851968221</v>
@@ -7723,7 +7723,7 @@
         <v>52674.67744148031</v>
       </c>
       <c r="J87" t="n">
-        <v>31385.96173897172</v>
+        <v>31386.03166497465</v>
       </c>
       <c r="K87" t="n">
         <v>45579.54539336084</v>
@@ -7737,7 +7737,7 @@
         <v>49512.4</v>
       </c>
       <c r="F88" t="n">
-        <v>133.48</v>
+        <v>135.48</v>
       </c>
       <c r="G88" t="n">
         <v>-615.6564458582361</v>
@@ -7749,7 +7749,7 @@
         <v>50128.05644585824</v>
       </c>
       <c r="J88" t="n">
-        <v>34526.98047670103</v>
+        <v>34527.08151507288</v>
       </c>
       <c r="K88" t="n">
         <v>39875.99847245292</v>
@@ -7763,7 +7763,7 @@
         <v>49319.6</v>
       </c>
       <c r="F89" t="n">
-        <v>133.38</v>
+        <v>135.38</v>
       </c>
       <c r="G89" t="n">
         <v>-735.8358925049106</v>
@@ -7775,7 +7775,7 @@
         <v>50055.43589250491</v>
       </c>
       <c r="J89" t="n">
-        <v>38835.59827527301</v>
+        <v>38835.74191594707</v>
       </c>
       <c r="K89" t="n">
         <v>35480.60107959645</v>
@@ -7789,7 +7789,7 @@
         <v>52710.5</v>
       </c>
       <c r="F90" t="n">
-        <v>133.28</v>
+        <v>135.28</v>
       </c>
       <c r="G90" t="n">
         <v>159.40020996979</v>
@@ -7801,7 +7801,7 @@
         <v>52551.09979003021</v>
       </c>
       <c r="J90" t="n">
-        <v>44619.84508807506</v>
+        <v>44620.0458722225</v>
       </c>
       <c r="K90" t="n">
         <v>32178.03421494746</v>
@@ -7815,7 +7815,7 @@
         <v>56503.9</v>
       </c>
       <c r="F91" t="n">
-        <v>133.18</v>
+        <v>135.18</v>
       </c>
       <c r="G91" t="n">
         <v>-1206.439780072142</v>
@@ -7827,7 +7827,7 @@
         <v>57710.33978007214</v>
       </c>
       <c r="J91" t="n">
-        <v>52194.89908400322</v>
+        <v>52195.17467428463</v>
       </c>
       <c r="K91" t="n">
         <v>29746.85822026823</v>
@@ -7841,7 +7841,7 @@
         <v>66220.2</v>
       </c>
       <c r="F92" t="n">
-        <v>133.08</v>
+        <v>135.08</v>
       </c>
       <c r="G92" t="n">
         <v>633.4026596578333</v>
@@ -7853,7 +7853,7 @@
         <v>65586.79734034216</v>
       </c>
       <c r="J92" t="n">
-        <v>61812.39417922033</v>
+        <v>61812.76473215064</v>
       </c>
       <c r="K92" t="n">
         <v>27987.66805365148</v>
@@ -7867,7 +7867,7 @@
         <v>76751.10000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>132.98</v>
+        <v>134.98</v>
       </c>
       <c r="G93" t="n">
         <v>686.5369515893981</v>
@@ -7879,7 +7879,7 @@
         <v>76064.56304841061</v>
       </c>
       <c r="J93" t="n">
-        <v>73522.62883551508</v>
+        <v>73523.11502234267</v>
       </c>
       <c r="K93" t="n">
         <v>26732.32472057067</v>
@@ -7893,7 +7893,7 @@
         <v>90714.7</v>
       </c>
       <c r="F94" t="n">
-        <v>132.88</v>
+        <v>134.88</v>
       </c>
       <c r="G94" t="n">
         <v>2078.456262653388</v>
@@ -7905,7 +7905,7 @@
         <v>88636.24373734661</v>
       </c>
       <c r="J94" t="n">
-        <v>86951.73172545539</v>
+        <v>86952.35054942501</v>
       </c>
       <c r="K94" t="n">
         <v>25845.61826923408</v>
@@ -7919,7 +7919,7 @@
         <v>101895</v>
       </c>
       <c r="F95" t="n">
-        <v>132.78</v>
+        <v>134.78</v>
       </c>
       <c r="G95" t="n">
         <v>-226.2277474439179</v>
@@ -7931,7 +7931,7 @@
         <v>102121.2277474439</v>
       </c>
       <c r="J95" t="n">
-        <v>101023.0106437299</v>
+        <v>101023.7685056026</v>
       </c>
       <c r="K95" t="n">
         <v>25222.74599091548</v>
@@ -7945,7 +7945,7 @@
         <v>115799</v>
       </c>
       <c r="F96" t="n">
-        <v>132.68</v>
+        <v>134.68</v>
       </c>
       <c r="G96" t="n">
         <v>1309.749118604988</v>
@@ -7957,7 +7957,7 @@
         <v>114489.250881395</v>
       </c>
       <c r="J96" t="n">
-        <v>113785.0358151732</v>
+        <v>113785.9198858151</v>
       </c>
       <c r="K96" t="n">
         <v>24784.65619940441</v>
@@ -7971,7 +7971,7 @@
         <v>122420</v>
       </c>
       <c r="F97" t="n">
-        <v>132.58</v>
+        <v>134.58</v>
       </c>
       <c r="G97" t="n">
         <v>-693.6326344683766</v>
@@ -7983,7 +7983,7 @@
         <v>123113.6326344684</v>
       </c>
       <c r="J97" t="n">
-        <v>122669.5896872303</v>
+        <v>122670.5618201374</v>
       </c>
       <c r="K97" t="n">
         <v>24473.56291737934</v>
@@ -7997,7 +7997,7 @@
         <v>123907</v>
       </c>
       <c r="F98" t="n">
-        <v>132.48</v>
+        <v>134.48</v>
       </c>
       <c r="G98" t="n">
         <v>-1774.974067816613</v>
@@ -8009,7 +8009,7 @@
         <v>125681.9740678166</v>
       </c>
       <c r="J98" t="n">
-        <v>125406.7092044885</v>
+        <v>125407.708853332</v>
       </c>
       <c r="K98" t="n">
         <v>24249.92532256227</v>
@@ -8023,7 +8023,7 @@
         <v>121510</v>
       </c>
       <c r="F99" t="n">
-        <v>132.38</v>
+        <v>134.38</v>
       </c>
       <c r="G99" t="n">
         <v>136.9231750479667</v>
@@ -8035,7 +8035,7 @@
         <v>121373.076824952</v>
       </c>
       <c r="J99" t="n">
-        <v>121205.355121908</v>
+        <v>121206.3139117128</v>
       </c>
       <c r="K99" t="n">
         <v>24086.89949725173</v>
@@ -8049,7 +8049,7 @@
         <v>112006</v>
       </c>
       <c r="F100" t="n">
-        <v>132.28</v>
+        <v>134.28</v>
       </c>
       <c r="G100" t="n">
         <v>671.6979805861338</v>
@@ -8061,7 +8061,7 @@
         <v>111334.3020194139</v>
       </c>
       <c r="J100" t="n">
-        <v>111233.8744675463</v>
+        <v>111234.7355044792</v>
       </c>
       <c r="K100" t="n">
         <v>23966.88161190439</v>
@@ -8075,7 +8075,7 @@
         <v>97704.2</v>
       </c>
       <c r="F101" t="n">
-        <v>132.18</v>
+        <v>134.18</v>
       </c>
       <c r="G101" t="n">
         <v>-281.2885526031605</v>
@@ -8087,7 +8087,7 @@
         <v>97985.48855260316</v>
       </c>
       <c r="J101" t="n">
-        <v>97926.4043717281</v>
+        <v>97927.13471483838</v>
       </c>
       <c r="K101" t="n">
         <v>23879.26705941024</v>
@@ -8101,7 +8101,7 @@
         <v>82859.10000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>132.08</v>
+        <v>134.08</v>
       </c>
       <c r="G102" t="n">
         <v>-957.7148372858355</v>
@@ -8113,7 +8113,7 @@
         <v>83816.81483728584</v>
       </c>
       <c r="J102" t="n">
-        <v>83782.66357564396</v>
+        <v>83783.25489985356</v>
       </c>
       <c r="K102" t="n">
         <v>23816.51870338546</v>
@@ -8127,7 +8127,7 @@
         <v>70849.89999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>131.98</v>
+        <v>133.98</v>
       </c>
       <c r="G103" t="n">
         <v>250.6276291811664</v>
@@ -8139,7 +8139,7 @@
         <v>70599.27237081883</v>
       </c>
       <c r="J103" t="n">
-        <v>70579.87827652394</v>
+        <v>70580.33977669914</v>
       </c>
       <c r="K103" t="n">
         <v>23771.91988370637</v>
@@ -8153,7 +8153,7 @@
         <v>58847.2</v>
       </c>
       <c r="F104" t="n">
-        <v>131.88</v>
+        <v>133.88</v>
       </c>
       <c r="G104" t="n">
         <v>-394.7554415117556</v>
@@ -8165,7 +8165,7 @@
         <v>59241.95544151175</v>
       </c>
       <c r="J104" t="n">
-        <v>59231.13287372964</v>
+        <v>59231.48275322617</v>
       </c>
       <c r="K104" t="n">
         <v>23740.49433595646</v>
@@ -8179,7 +8179,7 @@
         <v>48222.9</v>
       </c>
       <c r="F105" t="n">
-        <v>131.78</v>
+        <v>133.78</v>
       </c>
       <c r="G105" t="n">
         <v>-1784.373164752782</v>
@@ -8191,7 +8191,7 @@
         <v>50007.27316475278</v>
       </c>
       <c r="J105" t="n">
-        <v>50001.33659163906</v>
+        <v>50001.59567041928</v>
       </c>
       <c r="K105" t="n">
         <v>23719.15015770855</v>
@@ -8205,7 +8205,7 @@
         <v>41212.5</v>
       </c>
       <c r="F106" t="n">
-        <v>131.68</v>
+        <v>133.68</v>
       </c>
       <c r="G106" t="n">
         <v>-1572.33281085745</v>
@@ -8217,7 +8217,7 @@
         <v>42784.83281085745</v>
       </c>
       <c r="J106" t="n">
-        <v>42781.63002186379</v>
+        <v>42781.81806112801</v>
       </c>
       <c r="K106" t="n">
         <v>23704.924741715</v>
@@ -8231,7 +8231,7 @@
         <v>37102.4</v>
       </c>
       <c r="F107" t="n">
-        <v>131.58</v>
+        <v>133.58</v>
       </c>
       <c r="G107" t="n">
         <v>-195.2493167640496</v>
@@ -8243,7 +8243,7 @@
         <v>37297.64931676405</v>
       </c>
       <c r="J107" t="n">
-        <v>37295.9484420926</v>
+        <v>37296.08250044106</v>
       </c>
       <c r="K107" t="n">
         <v>23695.0595835922</v>
@@ -8257,7 +8257,7 @@
         <v>33792.8</v>
       </c>
       <c r="F108" t="n">
-        <v>131.48</v>
+        <v>133.48</v>
       </c>
       <c r="G108" t="n">
         <v>568.0578299858898</v>
@@ -8269,7 +8269,7 @@
         <v>33224.74217001411</v>
       </c>
       <c r="J108" t="n">
-        <v>33223.85196996742</v>
+        <v>33223.94595877136</v>
       </c>
       <c r="K108" t="n">
         <v>23687.91619415157</v>
@@ -8283,7 +8283,7 @@
         <v>30693.1</v>
       </c>
       <c r="F109" t="n">
-        <v>131.38</v>
+        <v>133.38</v>
       </c>
       <c r="G109" t="n">
         <v>431.1877162524579</v>
@@ -8295,7 +8295,7 @@
         <v>30261.91228374754</v>
       </c>
       <c r="J109" t="n">
-        <v>30261.45235862231</v>
+        <v>30261.51719716448</v>
       </c>
       <c r="K109" t="n">
         <v>23682.89576970461</v>
@@ -8309,7 +8309,7 @@
         <v>29299.5</v>
       </c>
       <c r="F110" t="n">
-        <v>131.28</v>
+        <v>133.28</v>
       </c>
       <c r="G110" t="n">
         <v>1153.758122683015</v>
@@ -8321,7 +8321,7 @@
         <v>28145.74187731698</v>
       </c>
       <c r="J110" t="n">
-        <v>28145.50679854866</v>
+        <v>28145.55081696645</v>
       </c>
       <c r="K110" t="n">
         <v>23679.29510161959</v>
@@ -8335,7 +8335,7 @@
         <v>27703.6</v>
       </c>
       <c r="F111" t="n">
-        <v>131.18</v>
+        <v>133.18</v>
       </c>
       <c r="G111" t="n">
         <v>1043.163014364392</v>
@@ -8347,7 +8347,7 @@
         <v>26660.43698563561</v>
       </c>
       <c r="J111" t="n">
-        <v>26660.31778940571</v>
+        <v>26660.34719618613</v>
       </c>
       <c r="K111" t="n">
         <v>23676.59916963443</v>
@@ -8361,7 +8361,7 @@
         <v>26610.7</v>
       </c>
       <c r="F112" t="n">
-        <v>131.08</v>
+        <v>133.08</v>
       </c>
       <c r="G112" t="n">
         <v>974.8675629441132</v>
@@ -8373,7 +8373,7 @@
         <v>25635.83243705589</v>
       </c>
       <c r="J112" t="n">
-        <v>25635.77228132365</v>
+        <v>25635.79160910787</v>
       </c>
       <c r="K112" t="n">
         <v>23674.68699304816</v>
@@ -8387,7 +8387,7 @@
         <v>25781.6</v>
       </c>
       <c r="F113" t="n">
-        <v>130.98</v>
+        <v>132.98</v>
       </c>
       <c r="G113" t="n">
         <v>840.5056141860805</v>
@@ -8399,7 +8399,7 @@
         <v>24941.09438581392</v>
       </c>
       <c r="J113" t="n">
-        <v>24941.06405501622</v>
+        <v>24941.07654946323</v>
       </c>
       <c r="K113" t="n">
         <v>23673.31182174085</v>
@@ -8413,7 +8413,7 @@
         <v>25658.9</v>
       </c>
       <c r="F114" t="n">
-        <v>130.88</v>
+        <v>132.88</v>
       </c>
       <c r="G114" t="n">
         <v>1180.867087072518</v>
@@ -8425,7 +8425,7 @@
         <v>24478.03291292748</v>
       </c>
       <c r="J114" t="n">
-        <v>24478.01757536098</v>
+        <v>24478.02551713097</v>
       </c>
       <c r="K114" t="n">
         <v>23672.19992898801</v>
@@ -8439,7 +8439,7 @@
         <v>25332.8</v>
       </c>
       <c r="F115" t="n">
-        <v>130.78</v>
+        <v>132.78</v>
       </c>
       <c r="G115" t="n">
         <v>1158.107609357565</v>
@@ -8451,7 +8451,7 @@
         <v>24174.69239064243</v>
       </c>
       <c r="J115" t="n">
-        <v>24174.6845851495</v>
+        <v>24174.68954700493</v>
       </c>
       <c r="K115" t="n">
         <v>23671.2244263156</v>
@@ -8465,7 +8465,7 @@
         <v>25107.8</v>
       </c>
       <c r="F116" t="n">
-        <v>130.68</v>
+        <v>132.68</v>
       </c>
       <c r="G116" t="n">
         <v>1128.315323369065</v>
@@ -8477,7 +8477,7 @@
         <v>23979.48467663093</v>
       </c>
       <c r="J116" t="n">
-        <v>23979.48066890464</v>
+        <v>23979.4837151233</v>
       </c>
       <c r="K116" t="n">
         <v>23670.39193315339</v>
@@ -8491,7 +8491,7 @@
         <v>25138.8</v>
       </c>
       <c r="F117" t="n">
-        <v>130.58</v>
+        <v>132.58</v>
       </c>
       <c r="G117" t="n">
         <v>1282.770818689452</v>
@@ -8503,7 +8503,7 @@
         <v>23856.02918131055</v>
       </c>
       <c r="J117" t="n">
-        <v>23856.02710309741</v>
+        <v>23856.02894021788</v>
       </c>
       <c r="K117" t="n">
         <v>23669.62082707345</v>
@@ -8517,7 +8517,7 @@
         <v>24244.8</v>
       </c>
       <c r="F118" t="n">
-        <v>130.48</v>
+        <v>132.48</v>
       </c>
       <c r="G118" t="n">
         <v>465.3272500100975</v>
@@ -8529,7 +8529,7 @@
         <v>23779.4727499899</v>
       </c>
       <c r="J118" t="n">
-        <v>23779.47166237466</v>
+        <v>23779.47275042952</v>
       </c>
       <c r="K118" t="n">
         <v>23669.07034661331</v>
@@ -8543,7 +8543,7 @@
         <v>24023.7</v>
       </c>
       <c r="F119" t="n">
-        <v>130.38</v>
+        <v>132.38</v>
       </c>
       <c r="G119" t="n">
         <v>290.6730257146555</v>
@@ -8555,7 +8555,7 @@
         <v>23733.02697428535</v>
       </c>
       <c r="J119" t="n">
-        <v>23733.02640112777</v>
+        <v>23733.02703381033</v>
       </c>
       <c r="K119" t="n">
         <v>23668.83014227922</v>
@@ -8569,7 +8569,7 @@
         <v>24198.2</v>
       </c>
       <c r="F120" t="n">
-        <v>130.28</v>
+        <v>132.28</v>
       </c>
       <c r="G120" t="n">
         <v>492.9691917897835</v>
@@ -8581,7 +8581,7 @@
         <v>23705.23080821022</v>
       </c>
       <c r="J120" t="n">
-        <v>23705.23050508218</v>
+        <v>23705.23086618978</v>
       </c>
       <c r="K120" t="n">
         <v>23668.59005720136</v>
@@ -8595,7 +8595,7 @@
         <v>23613.4</v>
       </c>
       <c r="F121" t="n">
-        <v>130.18</v>
+        <v>132.18</v>
       </c>
       <c r="G121" t="n">
         <v>-75.5826457909061</v>
@@ -8607,7 +8607,7 @@
         <v>23688.98264579091</v>
       </c>
       <c r="J121" t="n">
-        <v>23688.98248552397</v>
+        <v>23688.98268778171</v>
       </c>
       <c r="K121" t="n">
         <v>23668.46002252243</v>
@@ -8621,7 +8621,7 @@
         <v>23704.5</v>
       </c>
       <c r="F122" t="n">
-        <v>130.08</v>
+        <v>132.08</v>
       </c>
       <c r="G122" t="n">
         <v>24.75207194840914</v>
@@ -8633,7 +8633,7 @@
         <v>23679.74792805159</v>
       </c>
       <c r="J122" t="n">
-        <v>23679.74784367151</v>
+        <v>23679.74795481941</v>
       </c>
       <c r="K122" t="n">
         <v>23668.4700086845</v>
@@ -8647,7 +8647,7 @@
         <v>23684.4</v>
       </c>
       <c r="F123" t="n">
-        <v>129.98</v>
+        <v>131.98</v>
       </c>
       <c r="G123" t="n">
         <v>9.870468350789452</v>
@@ -8659,7 +8659,7 @@
         <v>23674.52953164921</v>
       </c>
       <c r="J123" t="n">
-        <v>23674.52948756515</v>
+        <v>23674.52954748105</v>
       </c>
       <c r="K123" t="n">
         <v>23668.45000327925</v>
@@ -8673,7 +8673,7 @@
         <v>23701.3</v>
       </c>
       <c r="F124" t="n">
-        <v>129.88</v>
+        <v>131.88</v>
       </c>
       <c r="G124" t="n">
         <v>29.64574967641965</v>
@@ -8685,7 +8685,7 @@
         <v>23671.65425032358</v>
       </c>
       <c r="J124" t="n">
-        <v>23671.65422753755</v>
+        <v>23671.65425921511</v>
       </c>
       <c r="K124" t="n">
         <v>23668.4400012125</v>
@@ -8699,7 +8699,7 @@
         <v>23667.4</v>
       </c>
       <c r="F125" t="n">
-        <v>129.78</v>
+        <v>131.78</v>
       </c>
       <c r="G125" t="n">
         <v>-2.696434235454944</v>
@@ -8711,7 +8711,7 @@
         <v>23670.09643423546</v>
       </c>
       <c r="J125" t="n">
-        <v>23670.09642261163</v>
+        <v>23670.09643903493</v>
       </c>
       <c r="K125" t="n">
         <v>23668.43000043899</v>
@@ -8725,7 +8725,7 @@
         <v>23150.6</v>
       </c>
       <c r="F126" t="n">
-        <v>129.68</v>
+        <v>131.68</v>
       </c>
       <c r="G126" t="n">
         <v>-518.8170935647977</v>
@@ -8737,7 +8737,7 @@
         <v>23669.4170935648</v>
       </c>
       <c r="J126" t="n">
-        <v>23669.41708772362</v>
+        <v>23669.41709607203</v>
       </c>
       <c r="K126" t="n">
         <v>23668.57000015562</v>
@@ -8751,7 +8751,7 @@
         <v>23719.7</v>
       </c>
       <c r="F127" t="n">
-        <v>129.58</v>
+        <v>131.58</v>
       </c>
       <c r="G127" t="n">
         <v>50.58786605424029</v>
@@ -8763,7 +8763,7 @@
         <v>23669.11213394576</v>
       </c>
       <c r="J127" t="n">
-        <v>23669.11213105845</v>
+        <v>23669.11213521873</v>
       </c>
       <c r="K127" t="n">
         <v>23668.69000005401</v>
@@ -8777,7 +8777,7 @@
         <v>23699</v>
       </c>
       <c r="F128" t="n">
-        <v>129.48</v>
+        <v>131.48</v>
       </c>
       <c r="G128" t="n">
         <v>30.12379911464086</v>
@@ -8789,7 +8789,7 @@
         <v>23668.87620088536</v>
       </c>
       <c r="J128" t="n">
-        <v>23668.87619948302</v>
+        <v>23668.8762015152</v>
       </c>
       <c r="K128" t="n">
         <v>23668.67000001835</v>
@@ -8803,7 +8803,7 @@
         <v>23572.7</v>
       </c>
       <c r="F129" t="n">
-        <v>129.38</v>
+        <v>131.38</v>
       </c>
       <c r="G129" t="n">
         <v>-96.08871929624001</v>
@@ -8815,7 +8815,7 @@
         <v>23668.78871929624</v>
       </c>
       <c r="J129" t="n">
-        <v>23668.78871862754</v>
+        <v>23668.78871960046</v>
       </c>
       <c r="K129" t="n">
         <v>23668.69000000611</v>
@@ -8829,7 +8829,7 @@
         <v>23070.3</v>
       </c>
       <c r="F130" t="n">
-        <v>129.28</v>
+        <v>131.28</v>
       </c>
       <c r="G130" t="n">
         <v>-0.04631681029059109</v>
@@ -8841,7 +8841,7 @@
         <v>23070.34631681029</v>
       </c>
       <c r="J130" t="n">
-        <v>23070.34631649743</v>
+        <v>23070.3463169539</v>
       </c>
       <c r="K130" t="n">
         <v>23070.30000000199</v>
@@ -8855,7 +8855,7 @@
         <v>23261.8</v>
       </c>
       <c r="F131" t="n">
-        <v>129.18</v>
+        <v>131.18</v>
       </c>
       <c r="G131" t="n">
         <v>-0.02129401750062243</v>
@@ -8867,7 +8867,7 @@
         <v>23261.8212940175</v>
       </c>
       <c r="J131" t="n">
-        <v>23261.82129387395</v>
+        <v>23261.82129408381</v>
       </c>
       <c r="K131" t="n">
         <v>23261.80000000063</v>
@@ -8881,7 +8881,7 @@
         <v>23679.9</v>
       </c>
       <c r="F132" t="n">
-        <v>129.08</v>
+        <v>131.08</v>
       </c>
       <c r="G132" t="n">
         <v>-0.009592226761014899</v>
@@ -8893,7 +8893,7 @@
         <v>23679.90959222676</v>
       </c>
       <c r="J132" t="n">
-        <v>23679.90959216218</v>
+        <v>23679.90959225672</v>
       </c>
       <c r="K132" t="n">
         <v>23679.9000000002</v>
@@ -8907,7 +8907,7 @@
         <v>23737.6</v>
       </c>
       <c r="F133" t="n">
-        <v>128.98</v>
+        <v>130.98</v>
       </c>
       <c r="G133" t="n">
         <v>-0.004233382718666689</v>
@@ -8919,7 +8919,7 @@
         <v>23737.60423338272</v>
       </c>
       <c r="J133" t="n">
-        <v>23737.60423335424</v>
+        <v>23737.60423339596</v>
       </c>
       <c r="K133" t="n">
         <v>23737.60000000006</v>
@@ -8933,7 +8933,7 @@
         <v>22921.3</v>
       </c>
       <c r="F134" t="n">
-        <v>128.88</v>
+        <v>130.88</v>
       </c>
       <c r="G134" t="n">
         <v>-0.001830323824833613</v>
@@ -8945,7 +8945,7 @@
         <v>22921.30183032382</v>
       </c>
       <c r="J134" t="n">
-        <v>22921.30183031152</v>
+        <v>22921.30183032956</v>
       </c>
       <c r="K134" t="n">
         <v>22921.30000000002</v>
@@ -8959,7 +8959,7 @@
         <v>23216.3</v>
       </c>
       <c r="F135" t="n">
-        <v>128.78</v>
+        <v>130.78</v>
       </c>
       <c r="G135" t="n">
         <v>-0.0007751916491542943</v>
@@ -8971,7 +8971,7 @@
         <v>23216.30077519165</v>
       </c>
       <c r="J135" t="n">
-        <v>23216.30077518644</v>
+        <v>23216.30077519408</v>
       </c>
       <c r="K135" t="n">
         <v>23216.3</v>
@@ -8985,7 +8985,7 @@
         <v>23106.4</v>
       </c>
       <c r="F136" t="n">
-        <v>128.68</v>
+        <v>130.68</v>
       </c>
       <c r="G136" t="n">
         <v>-0.0003215893339074682</v>
@@ -8997,7 +8997,7 @@
         <v>23106.40032158934</v>
       </c>
       <c r="J136" t="n">
-        <v>23106.40032158717</v>
+        <v>23106.40032159034</v>
       </c>
       <c r="K136" t="n">
         <v>23106.4</v>
@@ -9011,7 +9011,7 @@
         <v>23220.2</v>
       </c>
       <c r="F137" t="n">
-        <v>128.58</v>
+        <v>130.58</v>
       </c>
       <c r="G137" t="n">
         <v>-0.0001306707054027356</v>
@@ -9023,7 +9023,7 @@
         <v>23220.20013067071</v>
       </c>
       <c r="J137" t="n">
-        <v>23220.20013066983</v>
+        <v>23220.20013067112</v>
       </c>
       <c r="K137" t="n">
         <v>23220.2</v>
@@ -9037,7 +9037,7 @@
         <v>24093.6</v>
       </c>
       <c r="F138" t="n">
-        <v>128.48</v>
+        <v>130.48</v>
       </c>
       <c r="G138" t="n">
         <v>-5.200119994697161e-05</v>
@@ -9049,7 +9049,7 @@
         <v>24093.6000520012</v>
       </c>
       <c r="J138" t="n">
-        <v>24093.60005200085</v>
+        <v>24093.60005200136</v>
       </c>
       <c r="K138" t="n">
         <v>24093.6</v>
@@ -9063,7 +9063,7 @@
         <v>22379.6</v>
       </c>
       <c r="F139" t="n">
-        <v>128.38</v>
+        <v>130.38</v>
       </c>
       <c r="G139" t="n">
         <v>-2.026670699706301e-05</v>
@@ -9075,7 +9075,7 @@
         <v>22379.60002026671</v>
       </c>
       <c r="J139" t="n">
-        <v>22379.60002026657</v>
+        <v>22379.60002026677</v>
       </c>
       <c r="K139" t="n">
         <v>22379.6</v>
@@ -9089,7 +9089,7 @@
         <v>23672.7</v>
       </c>
       <c r="F140" t="n">
-        <v>128.28</v>
+        <v>130.28</v>
       </c>
       <c r="G140" t="n">
         <v>-7.735092367511243e-06</v>
@@ -9101,7 +9101,7 @@
         <v>23672.70000773509</v>
       </c>
       <c r="J140" t="n">
-        <v>23672.70000773504</v>
+        <v>23672.70000773511</v>
       </c>
       <c r="K140" t="n">
         <v>23672.7</v>
@@ -9115,7 +9115,7 @@
         <v>22678.3</v>
       </c>
       <c r="F141" t="n">
-        <v>128.18</v>
+        <v>130.18</v>
       </c>
       <c r="G141" t="n">
         <v>-2.890941686928272e-06</v>
@@ -9127,7 +9127,7 @@
         <v>22678.30000289094</v>
       </c>
       <c r="J141" t="n">
-        <v>22678.30000289092</v>
+        <v>22678.30000289095</v>
       </c>
       <c r="K141" t="n">
         <v>22678.3</v>
@@ -9141,7 +9141,7 @@
         <v>22925.7</v>
       </c>
       <c r="F142" t="n">
-        <v>128.08</v>
+        <v>130.08</v>
       </c>
       <c r="G142" t="n">
         <v>-1.057996996678412e-06</v>
@@ -9153,7 +9153,7 @@
         <v>22925.700001058</v>
       </c>
       <c r="J142" t="n">
-        <v>22925.70000105799</v>
+        <v>22925.700001058</v>
       </c>
       <c r="K142" t="n">
         <v>22925.7</v>
@@ -9167,7 +9167,7 @@
         <v>23234.5</v>
       </c>
       <c r="F143" t="n">
-        <v>127.98</v>
+        <v>129.98</v>
       </c>
       <c r="G143" t="n">
         <v>-3.791283234022558e-07</v>
@@ -9179,7 +9179,7 @@
         <v>23234.50000037913</v>
       </c>
       <c r="J143" t="n">
-        <v>23234.50000037912</v>
+        <v>23234.50000037913</v>
       </c>
       <c r="K143" t="n">
         <v>23234.5</v>
@@ -9193,7 +9193,7 @@
         <v>23209.9</v>
       </c>
       <c r="F144" t="n">
-        <v>127.88</v>
+        <v>129.88</v>
       </c>
       <c r="G144" t="n">
         <v>-1.330226950813085e-07</v>
@@ -9219,7 +9219,7 @@
         <v>22959.1</v>
       </c>
       <c r="F145" t="n">
-        <v>127.78</v>
+        <v>129.78</v>
       </c>
       <c r="G145" t="n">
         <v>-4.569665179587901e-08</v>
@@ -9245,7 +9245,7 @@
         <v>23204.9</v>
       </c>
       <c r="F146" t="n">
-        <v>127.68</v>
+        <v>129.68</v>
       </c>
       <c r="G146" t="n">
         <v>-1.537046045996249e-08</v>
@@ -9271,7 +9271,7 @@
         <v>22759</v>
       </c>
       <c r="F147" t="n">
-        <v>127.58</v>
+        <v>129.58</v>
       </c>
       <c r="G147" t="n">
         <v>-5.060428520664573e-09</v>
@@ -9297,7 +9297,7 @@
         <v>23218.7</v>
       </c>
       <c r="F148" t="n">
-        <v>127.48</v>
+        <v>129.48</v>
       </c>
       <c r="G148" t="n">
         <v>-1.629814505577087e-09</v>
@@ -9323,7 +9323,7 @@
         <v>23386.5</v>
       </c>
       <c r="F149" t="n">
-        <v>127.38</v>
+        <v>129.38</v>
       </c>
       <c r="G149" t="n">
         <v>-5.129550117999315e-10</v>
@@ -9349,7 +9349,7 @@
         <v>23184.7</v>
       </c>
       <c r="F150" t="n">
-        <v>127.28</v>
+        <v>129.28</v>
       </c>
       <c r="G150" t="n">
         <v>-1.600710675120354e-10</v>
@@ -9375,7 +9375,7 @@
         <v>22687</v>
       </c>
       <c r="F151" t="n">
-        <v>127.18</v>
+        <v>129.18</v>
       </c>
       <c r="G151" t="n">
         <v>-4.729372449219227e-11</v>
@@ -9401,7 +9401,7 @@
         <v>22924.4</v>
       </c>
       <c r="F152" t="n">
-        <v>127.08</v>
+        <v>129.08</v>
       </c>
       <c r="G152" t="n">
         <v>-1.455191522836685e-11</v>
@@ -9427,7 +9427,7 @@
         <v>22643.1</v>
       </c>
       <c r="F153" t="n">
-        <v>126.98</v>
+        <v>128.98</v>
       </c>
       <c r="G153" t="n">
         <v>-3.637978807091713e-12</v>
@@ -9453,7 +9453,7 @@
         <v>22647.9</v>
       </c>
       <c r="F154" t="n">
-        <v>126.88</v>
+        <v>128.88</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23050.9</v>
       </c>
       <c r="F155" t="n">
-        <v>126.78</v>
+        <v>128.78</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -9505,7 +9505,7 @@
         <v>22933.5</v>
       </c>
       <c r="F156" t="n">
-        <v>126.68</v>
+        <v>128.68</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>23251.9</v>
       </c>
       <c r="F157" t="n">
-        <v>126.58</v>
+        <v>128.58</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>22359.8</v>
       </c>
       <c r="F158" t="n">
-        <v>126.48</v>
+        <v>128.48</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>23047.9</v>
       </c>
       <c r="F159" t="n">
-        <v>126.38</v>
+        <v>128.38</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -9609,7 +9609,7 @@
         <v>22819.4</v>
       </c>
       <c r="F160" t="n">
-        <v>126.28</v>
+        <v>128.28</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>22415.3</v>
       </c>
       <c r="F161" t="n">
-        <v>126.18</v>
+        <v>128.18</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>23032.4</v>
       </c>
       <c r="F162" t="n">
-        <v>126.08</v>
+        <v>128.08</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -635,7 +635,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5657850" cy="4057650"/>
+    <ext cx="5657850" cy="4114800"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1125,8 +1125,16 @@
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="28" t="inlineStr"/>
-      <c r="K1" s="28" t="inlineStr"/>
+      <c r="J1" s="28" t="inlineStr">
+        <is>
+          <t>Ti2p3/2 p1</t>
+        </is>
+      </c>
+      <c r="K1" s="28" t="inlineStr">
+        <is>
+          <t>Ti2p1/2 p2</t>
+        </is>
+      </c>
       <c r="L1" s="28" t="inlineStr"/>
       <c r="M1" s="28" t="inlineStr"/>
       <c r="N1" s="28" t="inlineStr"/>
@@ -1259,10 +1267,109 @@
         <v>39754.6</v>
       </c>
       <c r="F2" t="n">
-        <v>475.08</v>
+        <v>476.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.039028575178236e-06</v>
       </c>
       <c r="H2" t="n">
         <v>39754.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>39754.60000103903</v>
+      </c>
+      <c r="J2" t="n">
+        <v>39754.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>39754.60000103903</v>
+      </c>
+      <c r="X2" s="32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y2" s="33" t="inlineStr">
+        <is>
+          <t>Ti2p3/2 p1</t>
+        </is>
+      </c>
+      <c r="Z2" s="33" t="inlineStr">
+        <is>
+          <t>459.00</t>
+        </is>
+      </c>
+      <c r="AA2" s="33" t="inlineStr">
+        <is>
+          <t>89790</t>
+        </is>
+      </c>
+      <c r="AB2" s="33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="AC2" s="33" t="inlineStr">
+        <is>
+          <t>78.38</t>
+        </is>
+      </c>
+      <c r="AD2" s="33" t="inlineStr">
+        <is>
+          <t>98446</t>
+        </is>
+      </c>
+      <c r="AE2" s="33" t="inlineStr"/>
+      <c r="AF2" s="33" t="inlineStr"/>
+      <c r="AG2" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" s="33" t="inlineStr">
+        <is>
+          <t>64.5</t>
+        </is>
+      </c>
+      <c r="AI2" s="33" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AK2" s="33" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL2" s="33" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM2" s="33" t="inlineStr">
+        <is>
+          <t>448.08</t>
+        </is>
+      </c>
+      <c r="AN2" s="33" t="inlineStr">
+        <is>
+          <t>475.08</t>
+        </is>
+      </c>
+      <c r="AO2" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" s="34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1273,11 +1380,66 @@
         <v>39971.8</v>
       </c>
       <c r="F3" t="n">
-        <v>474.98</v>
+        <v>475.98</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.483400410506874e-06</v>
       </c>
       <c r="H3" t="n">
         <v>39971.8</v>
       </c>
+      <c r="I3" t="n">
+        <v>39971.8000014834</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39971.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39971.8000014834</v>
+      </c>
+      <c r="X3" s="35" t="inlineStr"/>
+      <c r="Y3" s="36" t="inlineStr"/>
+      <c r="Z3" s="36" t="inlineStr">
+        <is>
+          <t>449.08,476.08</t>
+        </is>
+      </c>
+      <c r="AA3" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" s="36" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC3" s="36" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AD3" s="36" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AE3" s="36" t="inlineStr"/>
+      <c r="AF3" s="36" t="inlineStr"/>
+      <c r="AG3" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" s="36" t="inlineStr"/>
+      <c r="AI3" s="36" t="inlineStr"/>
+      <c r="AJ3" s="36" t="inlineStr"/>
+      <c r="AK3" s="36" t="inlineStr"/>
+      <c r="AL3" s="36" t="inlineStr"/>
+      <c r="AM3" s="36" t="inlineStr"/>
+      <c r="AN3" s="36" t="inlineStr"/>
+      <c r="AO3" s="36" t="inlineStr"/>
+      <c r="AP3" s="37" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1287,10 +1449,109 @@
         <v>39341.5</v>
       </c>
       <c r="F4" t="n">
-        <v>474.88</v>
+        <v>475.88</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2.11179576581344e-06</v>
       </c>
       <c r="H4" t="n">
         <v>39341.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39341.5000021118</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39341.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39341.5000021118</v>
+      </c>
+      <c r="X4" s="32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y4" s="33" t="inlineStr">
+        <is>
+          <t>Ti2p1/2 p2</t>
+        </is>
+      </c>
+      <c r="Z4" s="33" t="inlineStr">
+        <is>
+          <t>464.73</t>
+        </is>
+      </c>
+      <c r="AA4" s="33" t="inlineStr">
+        <is>
+          <t>25433</t>
+        </is>
+      </c>
+      <c r="AB4" s="33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AC4" s="33" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="AD4" s="33" t="inlineStr">
+        <is>
+          <t>54145</t>
+        </is>
+      </c>
+      <c r="AE4" s="33" t="inlineStr"/>
+      <c r="AF4" s="33" t="inlineStr"/>
+      <c r="AG4" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" s="33" t="inlineStr">
+        <is>
+          <t>35.5</t>
+        </is>
+      </c>
+      <c r="AI4" s="33" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="AJ4" s="33" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="AK4" s="33" t="inlineStr">
+        <is>
+          <t>GL (Area)</t>
+        </is>
+      </c>
+      <c r="AL4" s="33" t="inlineStr">
+        <is>
+          <t>Multi-Regions Smart</t>
+        </is>
+      </c>
+      <c r="AM4" s="33" t="inlineStr">
+        <is>
+          <t>448.08</t>
+        </is>
+      </c>
+      <c r="AN4" s="33" t="inlineStr">
+        <is>
+          <t>475.08</t>
+        </is>
+      </c>
+      <c r="AO4" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" s="34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1301,11 +1562,66 @@
         <v>39615.2</v>
       </c>
       <c r="F5" t="n">
-        <v>474.78</v>
+        <v>475.78</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.997876435983926e-06</v>
       </c>
       <c r="H5" t="n">
         <v>39615.2</v>
       </c>
+      <c r="I5" t="n">
+        <v>39615.20000299787</v>
+      </c>
+      <c r="J5" t="n">
+        <v>39615.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39615.20000299789</v>
+      </c>
+      <c r="X5" s="35" t="inlineStr"/>
+      <c r="Y5" s="36" t="inlineStr"/>
+      <c r="Z5" s="36" t="inlineStr">
+        <is>
+          <t>A+5.7#0.2</t>
+        </is>
+      </c>
+      <c r="AA5" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" s="36" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC5" s="36" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AD5" s="36" t="inlineStr">
+        <is>
+          <t>A*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="AE5" s="36" t="inlineStr"/>
+      <c r="AF5" s="36" t="inlineStr"/>
+      <c r="AG5" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" s="36" t="inlineStr"/>
+      <c r="AI5" s="36" t="inlineStr"/>
+      <c r="AJ5" s="36" t="inlineStr"/>
+      <c r="AK5" s="36" t="inlineStr"/>
+      <c r="AL5" s="36" t="inlineStr"/>
+      <c r="AM5" s="36" t="inlineStr"/>
+      <c r="AN5" s="36" t="inlineStr"/>
+      <c r="AO5" s="36" t="inlineStr"/>
+      <c r="AP5" s="37" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1315,10 +1631,22 @@
         <v>40459.1</v>
       </c>
       <c r="F6" t="n">
-        <v>474.68</v>
+        <v>475.68</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-4.243695002514869e-06</v>
       </c>
       <c r="H6" t="n">
         <v>40459.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40459.10000424369</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40459.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40459.10000424371</v>
       </c>
     </row>
     <row r="7">
@@ -1329,10 +1657,22 @@
         <v>40072.4</v>
       </c>
       <c r="F7" t="n">
-        <v>474.58</v>
+        <v>475.58</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-5.990215868223459e-06</v>
       </c>
       <c r="H7" t="n">
         <v>40072.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40072.40000599022</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40072.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40072.40000599024</v>
       </c>
     </row>
     <row r="8">
@@ -1343,10 +1683,22 @@
         <v>39748.3</v>
       </c>
       <c r="F8" t="n">
-        <v>474.48</v>
+        <v>475.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-8.43163434183225e-06</v>
       </c>
       <c r="H8" t="n">
         <v>39748.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39748.30000843164</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39748.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>39748.30000843167</v>
       </c>
     </row>
     <row r="9">
@@ -1357,10 +1709,22 @@
         <v>39559.5</v>
       </c>
       <c r="F9" t="n">
-        <v>474.38</v>
+        <v>475.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.183457061415538e-05</v>
       </c>
       <c r="H9" t="n">
         <v>39559.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>39559.50001183457</v>
+      </c>
+      <c r="J9" t="n">
+        <v>39559.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39559.50001183461</v>
       </c>
     </row>
     <row r="10">
@@ -1371,10 +1735,22 @@
         <v>39920.2</v>
       </c>
       <c r="F10" t="n">
-        <v>474.28</v>
+        <v>475.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.656403765082359e-05</v>
       </c>
       <c r="H10" t="n">
         <v>39920.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39920.20001656403</v>
+      </c>
+      <c r="J10" t="n">
+        <v>39920.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39920.20001656409</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1761,22 @@
         <v>39662</v>
       </c>
       <c r="F11" t="n">
-        <v>474.18</v>
+        <v>475.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-2.311822026968002e-05</v>
       </c>
       <c r="H11" t="n">
         <v>39662</v>
+      </c>
+      <c r="I11" t="n">
+        <v>39662.00002311822</v>
+      </c>
+      <c r="J11" t="n">
+        <v>39662</v>
+      </c>
+      <c r="K11" t="n">
+        <v>39662.0000231183</v>
       </c>
     </row>
     <row r="12">
@@ -1399,10 +1787,22 @@
         <v>40092</v>
       </c>
       <c r="F12" t="n">
-        <v>474.08</v>
+        <v>475.08</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3.217498306185007e-05</v>
       </c>
       <c r="H12" t="n">
         <v>40092</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40092.00003217498</v>
+      </c>
+      <c r="J12" t="n">
+        <v>40092</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40092.00003217508</v>
       </c>
     </row>
     <row r="13">
@@ -1413,10 +1813,22 @@
         <v>40064.8</v>
       </c>
       <c r="F13" t="n">
-        <v>473.98</v>
+        <v>474.98</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-4.465389793040231e-05</v>
       </c>
       <c r="H13" t="n">
         <v>40064.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40064.8000446539</v>
+      </c>
+      <c r="J13" t="n">
+        <v>40064.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40064.80004465405</v>
       </c>
     </row>
     <row r="14">
@@ -1427,10 +1839,22 @@
         <v>39726.5</v>
       </c>
       <c r="F14" t="n">
-        <v>473.88</v>
+        <v>474.88</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-6.179867341415957e-05</v>
       </c>
       <c r="H14" t="n">
         <v>39726.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>39726.50006179867</v>
+      </c>
+      <c r="J14" t="n">
+        <v>39726.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>39726.50006179888</v>
       </c>
     </row>
     <row r="15">
@@ -1441,10 +1865,22 @@
         <v>40747.4</v>
       </c>
       <c r="F15" t="n">
-        <v>473.78</v>
+        <v>474.78</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-8.528626494808123e-05</v>
       </c>
       <c r="H15" t="n">
         <v>40747.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40747.40008528627</v>
+      </c>
+      <c r="J15" t="n">
+        <v>40747.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40747.40008528655</v>
       </c>
     </row>
     <row r="16">
@@ -1455,10 +1891,22 @@
         <v>41280.5</v>
       </c>
       <c r="F16" t="n">
-        <v>473.68</v>
+        <v>474.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.0001173710043076426</v>
       </c>
       <c r="H16" t="n">
         <v>41280.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>41280.500117371</v>
+      </c>
+      <c r="J16" t="n">
+        <v>41280.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>41280.50011737139</v>
       </c>
     </row>
     <row r="17">
@@ -1469,10 +1917,22 @@
         <v>40728.5</v>
       </c>
       <c r="F17" t="n">
-        <v>473.58</v>
+        <v>474.58</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.0001610741674085148</v>
       </c>
       <c r="H17" t="n">
         <v>40728.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40728.50016107417</v>
+      </c>
+      <c r="J17" t="n">
+        <v>40728.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40728.50016107471</v>
       </c>
     </row>
     <row r="18">
@@ -1483,10 +1943,22 @@
         <v>41425.5</v>
       </c>
       <c r="F18" t="n">
-        <v>473.48</v>
+        <v>474.48</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.0002204326883656904</v>
       </c>
       <c r="H18" t="n">
         <v>41425.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>41425.50022043269</v>
+      </c>
+      <c r="J18" t="n">
+        <v>41425.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>41425.50022043342</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1969,22 @@
         <v>41429.8</v>
       </c>
       <c r="F19" t="n">
-        <v>473.38</v>
+        <v>474.38</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0003008242420037277</v>
       </c>
       <c r="H19" t="n">
         <v>41429.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>41429.80030082424</v>
+      </c>
+      <c r="J19" t="n">
+        <v>41429.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>41429.80030082524</v>
       </c>
     </row>
     <row r="20">
@@ -1511,10 +1995,22 @@
         <v>41728.1</v>
       </c>
       <c r="F20" t="n">
-        <v>473.28</v>
+        <v>474.28</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.0004093908501090482</v>
       </c>
       <c r="H20" t="n">
         <v>41728.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>41728.10040939085</v>
+      </c>
+      <c r="J20" t="n">
+        <v>41728.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>41728.1004093922</v>
       </c>
     </row>
     <row r="21">
@@ -1525,10 +2021,22 @@
         <v>41685.1</v>
       </c>
       <c r="F21" t="n">
-        <v>473.18</v>
+        <v>474.18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.0005555891038966365</v>
       </c>
       <c r="H21" t="n">
         <v>41685.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>41685.1005555891</v>
+      </c>
+      <c r="J21" t="n">
+        <v>41685.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>41685.10055559094</v>
       </c>
     </row>
     <row r="22">
@@ -1539,10 +2047,22 @@
         <v>41736.7</v>
       </c>
       <c r="F22" t="n">
-        <v>473.08</v>
+        <v>474.08</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0007519023783970624</v>
       </c>
       <c r="H22" t="n">
         <v>41736.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>41736.70075190238</v>
+      </c>
+      <c r="J22" t="n">
+        <v>41736.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41736.70075190486</v>
       </c>
     </row>
     <row r="23">
@@ -1553,10 +2073,22 @@
         <v>42194.9</v>
       </c>
       <c r="F23" t="n">
-        <v>472.98</v>
+        <v>473.98</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.001014759807731025</v>
       </c>
       <c r="H23" t="n">
         <v>42194.9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>42194.90101475981</v>
+      </c>
+      <c r="J23" t="n">
+        <v>42194.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>42194.90101476317</v>
       </c>
     </row>
     <row r="24">
@@ -1567,10 +2099,22 @@
         <v>42707.3</v>
       </c>
       <c r="F24" t="n">
-        <v>472.88</v>
+        <v>473.88</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.001365718198940158</v>
       </c>
       <c r="H24" t="n">
         <v>42707.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>42707.3013657182</v>
+      </c>
+      <c r="J24" t="n">
+        <v>42707.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42707.30136572272</v>
       </c>
     </row>
     <row r="25">
@@ -1581,10 +2125,22 @@
         <v>42958.4</v>
       </c>
       <c r="F25" t="n">
-        <v>472.78</v>
+        <v>473.78</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.001832976973673794</v>
       </c>
       <c r="H25" t="n">
         <v>42958.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>42958.40183297698</v>
+      </c>
+      <c r="J25" t="n">
+        <v>42958.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>42958.40183298305</v>
       </c>
     </row>
     <row r="26">
@@ -1595,10 +2151,22 @@
         <v>42753.2</v>
       </c>
       <c r="F26" t="n">
-        <v>472.68</v>
+        <v>473.68</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.002453313776641153</v>
       </c>
       <c r="H26" t="n">
         <v>42753.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>42753.20245331377</v>
+      </c>
+      <c r="J26" t="n">
+        <v>42753.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>42753.20245332191</v>
       </c>
     </row>
     <row r="27">
@@ -1609,10 +2177,22 @@
         <v>43503</v>
       </c>
       <c r="F27" t="n">
-        <v>472.58</v>
+        <v>473.58</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.00327454927173676</v>
       </c>
       <c r="H27" t="n">
         <v>43503</v>
+      </c>
+      <c r="I27" t="n">
+        <v>43503.00327454927</v>
+      </c>
+      <c r="J27" t="n">
+        <v>43503</v>
+      </c>
+      <c r="K27" t="n">
+        <v>43503.00327456013</v>
       </c>
     </row>
     <row r="28">
@@ -1623,10 +2203,22 @@
         <v>43487.1</v>
       </c>
       <c r="F28" t="n">
-        <v>472.48</v>
+        <v>473.48</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.00435867552732816</v>
       </c>
       <c r="H28" t="n">
         <v>43487.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43487.10435867553</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43487.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>43487.10435868997</v>
       </c>
     </row>
     <row r="29">
@@ -1637,10 +2229,22 @@
         <v>43224.6</v>
       </c>
       <c r="F29" t="n">
-        <v>472.38</v>
+        <v>473.38</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.005785813584225252</v>
       </c>
       <c r="H29" t="n">
         <v>43224.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43224.60578581358</v>
+      </c>
+      <c r="J29" t="n">
+        <v>43224.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>43224.60578583275</v>
       </c>
     </row>
     <row r="30">
@@ -1651,10 +2255,22 @@
         <v>43880.6</v>
       </c>
       <c r="F30" t="n">
-        <v>472.28</v>
+        <v>473.28</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.007659203380171675</v>
       </c>
       <c r="H30" t="n">
         <v>43880.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>43880.60765920338</v>
+      </c>
+      <c r="J30" t="n">
+        <v>43880.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>43880.60765922876</v>
       </c>
     </row>
     <row r="31">
@@ -1665,10 +2281,22 @@
         <v>43020.9</v>
       </c>
       <c r="F31" t="n">
-        <v>472.18</v>
+        <v>473.18</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.01011147462122608</v>
       </c>
       <c r="H31" t="n">
         <v>43020.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>43020.91011147462</v>
+      </c>
+      <c r="J31" t="n">
+        <v>43020.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>43020.91011150813</v>
       </c>
     </row>
     <row r="32">
@@ -1679,10 +2307,22 @@
         <v>43735.4</v>
       </c>
       <c r="F32" t="n">
-        <v>472.08</v>
+        <v>473.08</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.01331250127259409</v>
       </c>
       <c r="H32" t="n">
         <v>43735.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>43735.41331250127</v>
+      </c>
+      <c r="J32" t="n">
+        <v>43735.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>43735.41331254538</v>
       </c>
     </row>
     <row r="33">
@@ -1693,10 +2333,22 @@
         <v>43776.9</v>
       </c>
       <c r="F33" t="n">
-        <v>471.98</v>
+        <v>472.98</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.01747920707566664</v>
       </c>
       <c r="H33" t="n">
         <v>43776.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>43776.91747920708</v>
+      </c>
+      <c r="J33" t="n">
+        <v>43776.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>43776.91747926499</v>
       </c>
     </row>
     <row r="34">
@@ -1707,10 +2359,22 @@
         <v>43034.5</v>
       </c>
       <c r="F34" t="n">
-        <v>471.88</v>
+        <v>472.88</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.02288776617206167</v>
       </c>
       <c r="H34" t="n">
         <v>43034.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>43034.52288776617</v>
+      </c>
+      <c r="J34" t="n">
+        <v>43034.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>43034.52288784201</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +2385,22 @@
         <v>44211.1</v>
       </c>
       <c r="F35" t="n">
-        <v>471.78</v>
+        <v>472.78</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.02988873348658672</v>
       </c>
       <c r="H35" t="n">
         <v>44211.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>44211.12988873349</v>
+      </c>
+      <c r="J35" t="n">
+        <v>44211.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>44211.12988883253</v>
       </c>
     </row>
     <row r="36">
@@ -1735,10 +2411,22 @@
         <v>43680.1</v>
       </c>
       <c r="F36" t="n">
-        <v>471.68</v>
+        <v>472.68</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.03892574625933776</v>
       </c>
       <c r="H36" t="n">
         <v>43680.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>43680.13892574626</v>
+      </c>
+      <c r="J36" t="n">
+        <v>43680.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>43680.13892587524</v>
       </c>
     </row>
     <row r="37">
@@ -1749,10 +2437,22 @@
         <v>42857.2</v>
       </c>
       <c r="F37" t="n">
-        <v>471.58</v>
+        <v>472.58</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.05055856273975223</v>
       </c>
       <c r="H37" t="n">
         <v>42857.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>42857.25055856274</v>
+      </c>
+      <c r="J37" t="n">
+        <v>42857.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>42857.25055873026</v>
       </c>
     </row>
     <row r="38">
@@ -1763,10 +2463,22 @@
         <v>42952.2</v>
       </c>
       <c r="F38" t="n">
-        <v>471.48</v>
+        <v>472.48</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.06549134989472805</v>
       </c>
       <c r="H38" t="n">
         <v>42952.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>42952.26549134989</v>
+      </c>
+      <c r="J38" t="n">
+        <v>42952.2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>42952.2654915669</v>
       </c>
     </row>
     <row r="39">
@@ -1777,10 +2489,22 @@
         <v>43123.5</v>
       </c>
       <c r="F39" t="n">
-        <v>471.38</v>
+        <v>472.38</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.08460730063961819</v>
       </c>
       <c r="H39" t="n">
         <v>43123.5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>43123.58460730064</v>
+      </c>
+      <c r="J39" t="n">
+        <v>43123.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>43123.58460758099</v>
       </c>
     </row>
     <row r="40">
@@ -1791,10 +2515,22 @@
         <v>43073.8</v>
       </c>
       <c r="F40" t="n">
-        <v>471.28</v>
+        <v>472.28</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.1090108562711976</v>
       </c>
       <c r="H40" t="n">
         <v>43073.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>43073.90901085627</v>
+      </c>
+      <c r="J40" t="n">
+        <v>43073.8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>43073.90901121749</v>
       </c>
     </row>
     <row r="41">
@@ -1805,10 +2541,22 @@
         <v>43506</v>
       </c>
       <c r="F41" t="n">
-        <v>471.18</v>
+        <v>472.18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1400790341795073</v>
       </c>
       <c r="H41" t="n">
         <v>43506</v>
+      </c>
+      <c r="I41" t="n">
+        <v>43506.14007903418</v>
+      </c>
+      <c r="J41" t="n">
+        <v>43506</v>
+      </c>
+      <c r="K41" t="n">
+        <v>43506.14007949833</v>
       </c>
     </row>
     <row r="42">
@@ -1819,10 +2567,22 @@
         <v>43038.8</v>
       </c>
       <c r="F42" t="n">
-        <v>471.08</v>
+        <v>472.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.179523617553059</v>
       </c>
       <c r="H42" t="n">
         <v>43038.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>43038.97952361756</v>
+      </c>
+      <c r="J42" t="n">
+        <v>43038.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>43038.97952421241</v>
       </c>
     </row>
     <row r="43">
@@ -1833,10 +2593,22 @@
         <v>42615.4</v>
       </c>
       <c r="F43" t="n">
-        <v>470.98</v>
+        <v>471.98</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.2294662562053418</v>
       </c>
       <c r="H43" t="n">
         <v>42615.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>42615.62946625621</v>
+      </c>
+      <c r="J43" t="n">
+        <v>42615.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>42615.62946701655</v>
       </c>
     </row>
     <row r="44">
@@ -1847,10 +2619,22 @@
         <v>42516.5</v>
       </c>
       <c r="F44" t="n">
-        <v>470.88</v>
+        <v>471.88</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.2925288592086872</v>
       </c>
       <c r="H44" t="n">
         <v>42516.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42516.79252885921</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42516.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>42516.7925298285</v>
       </c>
     </row>
     <row r="45">
@@ -1861,10 +2645,22 @@
         <v>42618.4</v>
       </c>
       <c r="F45" t="n">
-        <v>470.78</v>
+        <v>471.78</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.3719420339839417</v>
       </c>
       <c r="H45" t="n">
         <v>42618.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>42618.77194203399</v>
+      </c>
+      <c r="J45" t="n">
+        <v>42618.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>42618.77194326642</v>
       </c>
     </row>
     <row r="46">
@@ -1875,10 +2671,22 @@
         <v>42022.7</v>
       </c>
       <c r="F46" t="n">
-        <v>470.68</v>
+        <v>471.68</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.4716747466154629</v>
       </c>
       <c r="H46" t="n">
         <v>42022.7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>42023.17167474661</v>
+      </c>
+      <c r="J46" t="n">
+        <v>42022.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>42023.17167630952</v>
       </c>
     </row>
     <row r="47">
@@ -1889,10 +2697,22 @@
         <v>41575.6</v>
       </c>
       <c r="F47" t="n">
-        <v>470.58</v>
+        <v>471.58</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.5965888474893291</v>
       </c>
       <c r="H47" t="n">
         <v>41575.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>41576.19658884749</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41575.6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41576.19659082429</v>
       </c>
     </row>
     <row r="48">
@@ -1903,10 +2723,22 @@
         <v>41282.9</v>
       </c>
       <c r="F48" t="n">
-        <v>470.48</v>
+        <v>471.48</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.7526226288027829</v>
       </c>
       <c r="H48" t="n">
         <v>41282.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>41283.6526226288</v>
+      </c>
+      <c r="J48" t="n">
+        <v>41282.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>41283.65262512263</v>
       </c>
     </row>
     <row r="49">
@@ -1917,10 +2749,22 @@
         <v>41105.6</v>
       </c>
       <c r="F49" t="n">
-        <v>470.38</v>
+        <v>471.38</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.9470081587060122</v>
       </c>
       <c r="H49" t="n">
         <v>41105.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>41106.5470081587</v>
+      </c>
+      <c r="J49" t="n">
+        <v>41105.6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>41106.54701129664</v>
       </c>
     </row>
     <row r="50">
@@ -1931,10 +2775,22 @@
         <v>40732.2</v>
       </c>
       <c r="F50" t="n">
-        <v>470.28</v>
+        <v>471.28</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1.188527774371323</v>
       </c>
       <c r="H50" t="n">
         <v>40732.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>40733.38852777437</v>
+      </c>
+      <c r="J50" t="n">
+        <v>40732.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>40733.38853171258</v>
       </c>
     </row>
     <row r="51">
@@ -1945,10 +2801,22 @@
         <v>40497.5</v>
       </c>
       <c r="F51" t="n">
-        <v>470.18</v>
+        <v>471.18</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.487815816188231</v>
       </c>
       <c r="H51" t="n">
         <v>40497.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>40498.98781581619</v>
+      </c>
+      <c r="J51" t="n">
+        <v>40497.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>40498.98782074609</v>
       </c>
     </row>
     <row r="52">
@@ -1959,10 +2827,22 @@
         <v>40692.9</v>
       </c>
       <c r="F52" t="n">
-        <v>470.08</v>
+        <v>471.08</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1.85771245000069</v>
       </c>
       <c r="H52" t="n">
         <v>40692.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>40694.75771245</v>
+      </c>
+      <c r="J52" t="n">
+        <v>40692.9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>40694.75771860556</v>
       </c>
     </row>
     <row r="53">
@@ -1973,10 +2853,22 @@
         <v>40088.3</v>
       </c>
       <c r="F53" t="n">
-        <v>469.98</v>
+        <v>470.98</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-2.313677257217932</v>
       </c>
       <c r="H53" t="n">
         <v>40088.3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40090.61367725722</v>
+      </c>
+      <c r="J53" t="n">
+        <v>40088.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>40090.61368492363</v>
       </c>
     </row>
     <row r="54">
@@ -1987,10 +2879,22 @@
         <v>40540.7</v>
       </c>
       <c r="F54" t="n">
-        <v>469.88</v>
+        <v>470.88</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-2.874271176056936</v>
       </c>
       <c r="H54" t="n">
         <v>40540.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>40543.57427117605</v>
+      </c>
+      <c r="J54" t="n">
+        <v>40540.7</v>
+      </c>
+      <c r="K54" t="n">
+        <v>40543.5742807</v>
       </c>
     </row>
     <row r="55">
@@ -2001,10 +2905,22 @@
         <v>40112</v>
       </c>
       <c r="F55" t="n">
-        <v>469.78</v>
+        <v>470.78</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-3.561716354874079</v>
       </c>
       <c r="H55" t="n">
         <v>40112</v>
+      </c>
+      <c r="I55" t="n">
+        <v>40115.56171635487</v>
+      </c>
+      <c r="J55" t="n">
+        <v>40112</v>
+      </c>
+      <c r="K55" t="n">
+        <v>40115.56172815668</v>
       </c>
     </row>
     <row r="56">
@@ -2015,10 +2931,22 @@
         <v>39632.5</v>
       </c>
       <c r="F56" t="n">
-        <v>469.68</v>
+        <v>470.68</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-4.402544532800675</v>
       </c>
       <c r="H56" t="n">
         <v>39632.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>39636.9025445328</v>
+      </c>
+      <c r="J56" t="n">
+        <v>39632.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>39636.9025591207</v>
       </c>
     </row>
     <row r="57">
@@ -2029,10 +2957,22 @@
         <v>39119.8</v>
       </c>
       <c r="F57" t="n">
-        <v>469.58</v>
+        <v>470.58</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-5.428345699430793</v>
       </c>
       <c r="H57" t="n">
         <v>39119.8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39125.22834569943</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39119.8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>39125.22836368635</v>
       </c>
     </row>
     <row r="58">
@@ -2043,10 +2983,22 @@
         <v>39416.4</v>
       </c>
       <c r="F58" t="n">
-        <v>469.48</v>
+        <v>470.48</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-6.676630007867061</v>
       </c>
       <c r="H58" t="n">
         <v>39416.4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>39423.07663000787</v>
+      </c>
+      <c r="J58" t="n">
+        <v>39416.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>39423.076652131</v>
       </c>
     </row>
     <row r="59">
@@ -2057,10 +3009,22 @@
         <v>39218</v>
       </c>
       <c r="F59" t="n">
-        <v>469.38</v>
+        <v>470.38</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-8.191817232138419</v>
       </c>
       <c r="H59" t="n">
         <v>39218</v>
+      </c>
+      <c r="I59" t="n">
+        <v>39226.19181723214</v>
+      </c>
+      <c r="J59" t="n">
+        <v>39218</v>
+      </c>
+      <c r="K59" t="n">
+        <v>39226.19184437586</v>
       </c>
     </row>
     <row r="60">
@@ -2071,10 +3035,22 @@
         <v>39187.2</v>
       </c>
       <c r="F60" t="n">
-        <v>469.28</v>
+        <v>470.28</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-10.02636947946303</v>
       </c>
       <c r="H60" t="n">
         <v>39187.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>39197.22636947946</v>
+      </c>
+      <c r="J60" t="n">
+        <v>39187.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>39197.22640270201</v>
       </c>
     </row>
     <row r="61">
@@ -2085,10 +3061,22 @@
         <v>38351.3</v>
       </c>
       <c r="F61" t="n">
-        <v>469.18</v>
+        <v>470.18</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-12.24208440315851</v>
       </c>
       <c r="H61" t="n">
         <v>38351.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>38363.54208440316</v>
+      </c>
+      <c r="J61" t="n">
+        <v>38351.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>38363.54212496752</v>
       </c>
     </row>
     <row r="62">
@@ -2099,10 +3087,22 @@
         <v>38289.6</v>
       </c>
       <c r="F62" t="n">
-        <v>469.08</v>
+        <v>470.08</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-14.91156782904727</v>
       </c>
       <c r="H62" t="n">
         <v>38289.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>38304.51156782905</v>
+      </c>
+      <c r="J62" t="n">
+        <v>38289.6</v>
+      </c>
+      <c r="K62" t="n">
+        <v>38304.51161723878</v>
       </c>
     </row>
     <row r="63">
@@ -2113,10 +3113,22 @@
         <v>37882.1</v>
       </c>
       <c r="F63" t="n">
-        <v>468.98</v>
+        <v>469.98</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-18.11990653014072</v>
       </c>
       <c r="H63" t="n">
         <v>37882.1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>37900.21990653014</v>
+      </c>
+      <c r="J63" t="n">
+        <v>37882.1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>37900.21996657077</v>
       </c>
     </row>
     <row r="64">
@@ -2127,10 +3139,22 @@
         <v>38425.6</v>
       </c>
       <c r="F64" t="n">
-        <v>468.88</v>
+        <v>469.88</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-21.96656388966949</v>
       </c>
       <c r="H64" t="n">
         <v>38425.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>38447.56656388967</v>
+      </c>
+      <c r="J64" t="n">
+        <v>38425.6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>38447.56663667626</v>
       </c>
     </row>
     <row r="65">
@@ -2141,10 +3165,22 @@
         <v>38451</v>
       </c>
       <c r="F65" t="n">
-        <v>468.78</v>
+        <v>469.78</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-26.5675234185037</v>
       </c>
       <c r="H65" t="n">
         <v>38451</v>
+      </c>
+      <c r="I65" t="n">
+        <v>38477.5675234185</v>
+      </c>
+      <c r="J65" t="n">
+        <v>38451</v>
+      </c>
+      <c r="K65" t="n">
+        <v>38477.56761145045</v>
       </c>
     </row>
     <row r="66">
@@ -2155,10 +3191,22 @@
         <v>37652.8</v>
       </c>
       <c r="F66" t="n">
-        <v>468.68</v>
+        <v>469.68</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-32.05770758888684</v>
       </c>
       <c r="H66" t="n">
         <v>37652.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>37684.85770758889</v>
+      </c>
+      <c r="J66" t="n">
+        <v>37652.8</v>
+      </c>
+      <c r="K66" t="n">
+        <v>37684.85781381265</v>
       </c>
     </row>
     <row r="67">
@@ -2169,10 +3217,22 @@
         <v>37679.5</v>
       </c>
       <c r="F67" t="n">
-        <v>468.58</v>
+        <v>469.58</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-38.59370227201725</v>
       </c>
       <c r="H67" t="n">
         <v>37679.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>37718.09370227202</v>
+      </c>
+      <c r="J67" t="n">
+        <v>37679.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>37718.09383015292</v>
       </c>
     </row>
     <row r="68">
@@ -2183,10 +3243,22 @@
         <v>36974.1</v>
       </c>
       <c r="F68" t="n">
-        <v>468.48</v>
+        <v>469.48</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-46.35682029916643</v>
       </c>
       <c r="H68" t="n">
         <v>36974.1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>37020.45682029916</v>
+      </c>
+      <c r="J68" t="n">
+        <v>36974.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>37020.45697390329</v>
       </c>
     </row>
     <row r="69">
@@ -2197,10 +3269,22 @@
         <v>36456.5</v>
       </c>
       <c r="F69" t="n">
-        <v>468.38</v>
+        <v>469.38</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-55.55654139906255</v>
       </c>
       <c r="H69" t="n">
         <v>36456.5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>36512.05654139906</v>
+      </c>
+      <c r="J69" t="n">
+        <v>36456.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>36512.05672548662</v>
       </c>
     </row>
     <row r="70">
@@ -2211,10 +3295,22 @@
         <v>36153.1</v>
       </c>
       <c r="F70" t="n">
-        <v>468.28</v>
+        <v>469.28</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-66.43437011264177</v>
       </c>
       <c r="H70" t="n">
         <v>36153.1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>36219.53437011264</v>
+      </c>
+      <c r="J70" t="n">
+        <v>36153.1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>36219.53459024407</v>
       </c>
     </row>
     <row r="71">
@@ -2225,10 +3321,22 @@
         <v>36563.3</v>
       </c>
       <c r="F71" t="n">
-        <v>468.18</v>
+        <v>469.18</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-79.26815839004121</v>
       </c>
       <c r="H71" t="n">
         <v>36563.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36642.56815839004</v>
+      </c>
+      <c r="J71" t="n">
+        <v>36563.3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>36642.56842104645</v>
       </c>
     </row>
     <row r="72">
@@ -2239,10 +3347,22 @@
         <v>36024.3</v>
       </c>
       <c r="F72" t="n">
-        <v>468.08</v>
+        <v>469.08</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-94.3769455995207</v>
       </c>
       <c r="H72" t="n">
         <v>36024.3</v>
+      </c>
+      <c r="I72" t="n">
+        <v>36118.67694559952</v>
+      </c>
+      <c r="J72" t="n">
+        <v>36024.3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>36118.67725831916</v>
       </c>
     </row>
     <row r="73">
@@ -2253,10 +3373,22 @@
         <v>36762</v>
       </c>
       <c r="F73" t="n">
-        <v>467.98</v>
+        <v>468.98</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-112.1263758198838</v>
       </c>
       <c r="H73" t="n">
         <v>36762</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36874.12637581988</v>
+      </c>
+      <c r="J73" t="n">
+        <v>36762</v>
+      </c>
+      <c r="K73" t="n">
+        <v>36874.12674735256</v>
       </c>
     </row>
     <row r="74">
@@ -2267,10 +3399,22 @@
         <v>36482.3</v>
       </c>
       <c r="F74" t="n">
-        <v>467.88</v>
+        <v>468.88</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-132.9347607765303</v>
       </c>
       <c r="H74" t="n">
         <v>36482.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36615.23476077653</v>
+      </c>
+      <c r="J74" t="n">
+        <v>36482.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>36615.23520125815</v>
       </c>
     </row>
     <row r="75">
@@ -2281,10 +3425,22 @@
         <v>35682.1</v>
       </c>
       <c r="F75" t="n">
-        <v>467.78</v>
+        <v>468.78</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-157.2798668755422</v>
       </c>
       <c r="H75" t="n">
         <v>35682.1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>35839.37986687554</v>
+      </c>
+      <c r="J75" t="n">
+        <v>35682.1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>35839.38038802509</v>
       </c>
     </row>
     <row r="76">
@@ -2295,10 +3451,22 @@
         <v>36001.6</v>
       </c>
       <c r="F76" t="n">
-        <v>467.68</v>
+        <v>468.68</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-185.7065167864421</v>
       </c>
       <c r="H76" t="n">
         <v>36001.6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36187.30651678644</v>
+      </c>
+      <c r="J76" t="n">
+        <v>36001.6</v>
+      </c>
+      <c r="K76" t="n">
+        <v>36187.30713212817</v>
       </c>
     </row>
     <row r="77">
@@ -2309,10 +3477,22 @@
         <v>35875.7</v>
       </c>
       <c r="F77" t="n">
-        <v>467.58</v>
+        <v>468.58</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-218.8351102401721</v>
       </c>
       <c r="H77" t="n">
         <v>35875.7</v>
+      </c>
+      <c r="I77" t="n">
+        <v>36094.53511024017</v>
+      </c>
+      <c r="J77" t="n">
+        <v>35875.7</v>
+      </c>
+      <c r="K77" t="n">
+        <v>36094.53583535407</v>
       </c>
     </row>
     <row r="78">
@@ -2323,10 +3503,22 @@
         <v>36327.1</v>
       </c>
       <c r="F78" t="n">
-        <v>467.48</v>
+        <v>468.48</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-257.3711854834546</v>
       </c>
       <c r="H78" t="n">
         <v>36327.1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>36584.47118548345</v>
+      </c>
+      <c r="J78" t="n">
+        <v>36327.1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>36584.4720382873</v>
       </c>
     </row>
     <row r="79">
@@ -2337,10 +3529,22 @@
         <v>35330.9</v>
       </c>
       <c r="F79" t="n">
-        <v>467.38</v>
+        <v>468.38</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-302.1161624973174</v>
       </c>
       <c r="H79" t="n">
         <v>35330.9</v>
+      </c>
+      <c r="I79" t="n">
+        <v>35633.01616249732</v>
+      </c>
+      <c r="J79" t="n">
+        <v>35330.9</v>
+      </c>
+      <c r="K79" t="n">
+        <v>35633.01716356442</v>
       </c>
     </row>
     <row r="80">
@@ -2351,10 +3555,22 @@
         <v>36305.9</v>
       </c>
       <c r="F80" t="n">
-        <v>467.28</v>
+        <v>468.28</v>
+      </c>
+      <c r="G80" t="n">
+        <v>40.52056805868779</v>
       </c>
       <c r="H80" t="n">
         <v>35911.4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>36265.37943194131</v>
+      </c>
+      <c r="J80" t="n">
+        <v>35911.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>36265.38060485825</v>
       </c>
     </row>
     <row r="81">
@@ -2365,10 +3581,22 @@
         <v>35775.8</v>
       </c>
       <c r="F81" t="n">
-        <v>467.18</v>
+        <v>468.18</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-475.2819800306679</v>
       </c>
       <c r="H81" t="n">
         <v>35837.09</v>
+      </c>
+      <c r="I81" t="n">
+        <v>36251.08198003067</v>
+      </c>
+      <c r="J81" t="n">
+        <v>35837.09</v>
+      </c>
+      <c r="K81" t="n">
+        <v>36251.08335180022</v>
       </c>
     </row>
     <row r="82">
@@ -2379,10 +3607,22 @@
         <v>35652.5</v>
       </c>
       <c r="F82" t="n">
-        <v>467.08</v>
+        <v>468.08</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-667.4117692066502</v>
       </c>
       <c r="H82" t="n">
         <v>35836.59</v>
+      </c>
+      <c r="I82" t="n">
+        <v>36319.91176920665</v>
+      </c>
+      <c r="J82" t="n">
+        <v>35836.59</v>
+      </c>
+      <c r="K82" t="n">
+        <v>36319.91337070164</v>
       </c>
     </row>
     <row r="83">
@@ -2393,10 +3633,22 @@
         <v>35385.4</v>
       </c>
       <c r="F83" t="n">
-        <v>466.98</v>
+        <v>467.98</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1014.871127211612</v>
       </c>
       <c r="H83" t="n">
         <v>35836.98</v>
+      </c>
+      <c r="I83" t="n">
+        <v>36400.27112721161</v>
+      </c>
+      <c r="J83" t="n">
+        <v>35836.98</v>
+      </c>
+      <c r="K83" t="n">
+        <v>36400.27299368645</v>
       </c>
     </row>
     <row r="84">
@@ -2407,10 +3659,22 @@
         <v>36313</v>
       </c>
       <c r="F84" t="n">
-        <v>466.88</v>
+        <v>467.88</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-180.3364321750996</v>
       </c>
       <c r="H84" t="n">
         <v>35837.94</v>
+      </c>
+      <c r="I84" t="n">
+        <v>36493.3364321751</v>
+      </c>
+      <c r="J84" t="n">
+        <v>35837.94</v>
+      </c>
+      <c r="K84" t="n">
+        <v>36493.33860384245</v>
       </c>
     </row>
     <row r="85">
@@ -2421,10 +3685,22 @@
         <v>36285.8</v>
       </c>
       <c r="F85" t="n">
-        <v>466.78</v>
+        <v>467.78</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-313.4204168000797</v>
       </c>
       <c r="H85" t="n">
         <v>35837.89</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36599.22041680008</v>
+      </c>
+      <c r="J85" t="n">
+        <v>35837.89</v>
+      </c>
+      <c r="K85" t="n">
+        <v>36599.22293948151</v>
       </c>
     </row>
     <row r="86">
@@ -2435,10 +3711,22 @@
         <v>36279.6</v>
       </c>
       <c r="F86" t="n">
-        <v>466.68</v>
+        <v>467.68</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-439.8774475624887</v>
       </c>
       <c r="H86" t="n">
         <v>35836.47</v>
+      </c>
+      <c r="I86" t="n">
+        <v>36719.47744756249</v>
+      </c>
+      <c r="J86" t="n">
+        <v>35836.47</v>
+      </c>
+      <c r="K86" t="n">
+        <v>36719.48037342285</v>
       </c>
     </row>
     <row r="87">
@@ -2449,10 +3737,22 @@
         <v>36632.5</v>
       </c>
       <c r="F87" t="n">
-        <v>466.58</v>
+        <v>467.58</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-225.1821596381924</v>
       </c>
       <c r="H87" t="n">
         <v>35835.09</v>
+      </c>
+      <c r="I87" t="n">
+        <v>36857.68215963819</v>
+      </c>
+      <c r="J87" t="n">
+        <v>35835.09</v>
+      </c>
+      <c r="K87" t="n">
+        <v>36857.6855480149</v>
       </c>
     </row>
     <row r="88">
@@ -2463,10 +3763,22 @@
         <v>37237.3</v>
       </c>
       <c r="F88" t="n">
-        <v>466.48</v>
+        <v>467.48</v>
+      </c>
+      <c r="G88" t="n">
+        <v>221.608163684934</v>
       </c>
       <c r="H88" t="n">
         <v>35833.16</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37015.69183631507</v>
+      </c>
+      <c r="J88" t="n">
+        <v>35833.16</v>
+      </c>
+      <c r="K88" t="n">
+        <v>37015.69575465465</v>
       </c>
     </row>
     <row r="89">
@@ -2477,10 +3789,22 @@
         <v>37359.8</v>
       </c>
       <c r="F89" t="n">
-        <v>466.38</v>
+        <v>467.38</v>
+      </c>
+      <c r="G89" t="n">
+        <v>164.4571009673891</v>
       </c>
       <c r="H89" t="n">
         <v>35829.75</v>
+      </c>
+      <c r="I89" t="n">
+        <v>37195.34289903261</v>
+      </c>
+      <c r="J89" t="n">
+        <v>35829.75</v>
+      </c>
+      <c r="K89" t="n">
+        <v>37195.34742394817</v>
       </c>
     </row>
     <row r="90">
@@ -2491,10 +3815,22 @@
         <v>38475.3</v>
       </c>
       <c r="F90" t="n">
-        <v>466.28</v>
+        <v>467.28</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1075.198200802508</v>
       </c>
       <c r="H90" t="n">
         <v>35825.2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>37400.10179919749</v>
+      </c>
+      <c r="J90" t="n">
+        <v>35825.2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>37400.10701766169</v>
       </c>
     </row>
     <row r="91">
@@ -2505,10 +3841,22 @@
         <v>37899.7</v>
       </c>
       <c r="F91" t="n">
-        <v>466.18</v>
+        <v>467.18</v>
+      </c>
+      <c r="G91" t="n">
+        <v>266.9595578551671</v>
       </c>
       <c r="H91" t="n">
         <v>35818.75</v>
+      </c>
+      <c r="I91" t="n">
+        <v>37632.74044214483</v>
+      </c>
+      <c r="J91" t="n">
+        <v>35818.75</v>
+      </c>
+      <c r="K91" t="n">
+        <v>37632.74645283336</v>
       </c>
     </row>
     <row r="92">
@@ -2519,10 +3867,22 @@
         <v>37570.5</v>
       </c>
       <c r="F92" t="n">
-        <v>466.08</v>
+        <v>467.08</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-327.8259762214002</v>
       </c>
       <c r="H92" t="n">
         <v>35811.48</v>
+      </c>
+      <c r="I92" t="n">
+        <v>37898.3259762214</v>
+      </c>
+      <c r="J92" t="n">
+        <v>35811.48</v>
+      </c>
+      <c r="K92" t="n">
+        <v>37898.33289102143</v>
       </c>
     </row>
     <row r="93">
@@ -2533,10 +3893,22 @@
         <v>38412.2</v>
       </c>
       <c r="F93" t="n">
-        <v>465.98</v>
+        <v>466.98</v>
+      </c>
+      <c r="G93" t="n">
+        <v>208.6857304290679</v>
       </c>
       <c r="H93" t="n">
         <v>35805.55</v>
+      </c>
+      <c r="I93" t="n">
+        <v>38203.51426957093</v>
+      </c>
+      <c r="J93" t="n">
+        <v>35805.55</v>
+      </c>
+      <c r="K93" t="n">
+        <v>38203.52221526678</v>
       </c>
     </row>
     <row r="94">
@@ -2547,10 +3919,22 @@
         <v>38787</v>
       </c>
       <c r="F94" t="n">
-        <v>465.88</v>
+        <v>466.88</v>
+      </c>
+      <c r="G94" t="n">
+        <v>235.8144396684074</v>
       </c>
       <c r="H94" t="n">
         <v>35798.78</v>
+      </c>
+      <c r="I94" t="n">
+        <v>38551.18556033159</v>
+      </c>
+      <c r="J94" t="n">
+        <v>35798.78</v>
+      </c>
+      <c r="K94" t="n">
+        <v>38551.19468047476</v>
       </c>
     </row>
     <row r="95">
@@ -2561,10 +3945,22 @@
         <v>39270.7</v>
       </c>
       <c r="F95" t="n">
-        <v>465.78</v>
+        <v>466.78</v>
+      </c>
+      <c r="G95" t="n">
+        <v>324.7205636776489</v>
       </c>
       <c r="H95" t="n">
         <v>35790.13</v>
+      </c>
+      <c r="I95" t="n">
+        <v>38945.97943632235</v>
+      </c>
+      <c r="J95" t="n">
+        <v>35790.13</v>
+      </c>
+      <c r="K95" t="n">
+        <v>38945.98989328373</v>
       </c>
     </row>
     <row r="96">
@@ -2575,10 +3971,22 @@
         <v>39573.3</v>
       </c>
       <c r="F96" t="n">
-        <v>465.68</v>
+        <v>466.68</v>
+      </c>
+      <c r="G96" t="n">
+        <v>178.5257615204682</v>
       </c>
       <c r="H96" t="n">
         <v>35780.13</v>
+      </c>
+      <c r="I96" t="n">
+        <v>39394.77423847953</v>
+      </c>
+      <c r="J96" t="n">
+        <v>35780.13</v>
+      </c>
+      <c r="K96" t="n">
+        <v>39394.78621566539</v>
       </c>
     </row>
     <row r="97">
@@ -2589,10 +3997,22 @@
         <v>40278.3</v>
       </c>
       <c r="F97" t="n">
-        <v>465.58</v>
+        <v>466.58</v>
+      </c>
+      <c r="G97" t="n">
+        <v>373.5871486716496</v>
       </c>
       <c r="H97" t="n">
         <v>35768.87</v>
+      </c>
+      <c r="I97" t="n">
+        <v>39904.71285132835</v>
+      </c>
+      <c r="J97" t="n">
+        <v>35768.87000000001</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39904.72655551476</v>
       </c>
     </row>
     <row r="98">
@@ -2603,10 +4023,22 @@
         <v>40182.2</v>
       </c>
       <c r="F98" t="n">
-        <v>465.48</v>
+        <v>466.48</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-301.0421849666891</v>
       </c>
       <c r="H98" t="n">
         <v>35756.03</v>
+      </c>
+      <c r="I98" t="n">
+        <v>40483.24218496669</v>
+      </c>
+      <c r="J98" t="n">
+        <v>35756.03000000001</v>
+      </c>
+      <c r="K98" t="n">
+        <v>40483.25784866556</v>
       </c>
     </row>
     <row r="99">
@@ -2617,10 +4049,22 @@
         <v>40908.6</v>
       </c>
       <c r="F99" t="n">
-        <v>465.38</v>
+        <v>466.38</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-230.8168729896497</v>
       </c>
       <c r="H99" t="n">
         <v>35742.22</v>
+      </c>
+      <c r="I99" t="n">
+        <v>41139.41687298965</v>
+      </c>
+      <c r="J99" t="n">
+        <v>35742.22000000002</v>
+      </c>
+      <c r="K99" t="n">
+        <v>41139.4347566943</v>
       </c>
     </row>
     <row r="100">
@@ -2631,10 +4075,22 @@
         <v>41359.4</v>
       </c>
       <c r="F100" t="n">
-        <v>465.28</v>
+        <v>466.28</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-522.7581052119931</v>
       </c>
       <c r="H100" t="n">
         <v>35727.35</v>
+      </c>
+      <c r="I100" t="n">
+        <v>41882.15810521199</v>
+      </c>
+      <c r="J100" t="n">
+        <v>35727.35000000006</v>
+      </c>
+      <c r="K100" t="n">
+        <v>41882.17849927445</v>
       </c>
     </row>
     <row r="101">
@@ -2645,10 +4101,22 @@
         <v>42018.6</v>
       </c>
       <c r="F101" t="n">
-        <v>465.18</v>
+        <v>466.18</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-701.4153817055412</v>
       </c>
       <c r="H101" t="n">
         <v>35710.62</v>
+      </c>
+      <c r="I101" t="n">
+        <v>42720.01538170554</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35710.62000000013</v>
+      </c>
+      <c r="K101" t="n">
+        <v>42720.03860745757</v>
       </c>
     </row>
     <row r="102">
@@ -2659,10 +4127,22 @@
         <v>43477.4</v>
       </c>
       <c r="F102" t="n">
-        <v>465.08</v>
+        <v>466.08</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-184.8819202935265</v>
       </c>
       <c r="H102" t="n">
         <v>35692.04</v>
+      </c>
+      <c r="I102" t="n">
+        <v>43662.28192029353</v>
+      </c>
+      <c r="J102" t="n">
+        <v>35692.0400000003</v>
+      </c>
+      <c r="K102" t="n">
+        <v>43662.30832982691</v>
       </c>
     </row>
     <row r="103">
@@ -2673,10 +4153,22 @@
         <v>44431.8</v>
       </c>
       <c r="F103" t="n">
-        <v>464.98</v>
+        <v>465.98</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-284.204046783183</v>
       </c>
       <c r="H103" t="n">
         <v>35670.1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>44716.00404678319</v>
+      </c>
+      <c r="J103" t="n">
+        <v>35670.10000000068</v>
+      </c>
+      <c r="K103" t="n">
+        <v>44716.03402054114</v>
       </c>
     </row>
     <row r="104">
@@ -2687,10 +4179,22 @@
         <v>45237.4</v>
       </c>
       <c r="F104" t="n">
-        <v>464.88</v>
+        <v>465.88</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-650.1639626272008</v>
       </c>
       <c r="H104" t="n">
         <v>35644.37</v>
+      </c>
+      <c r="I104" t="n">
+        <v>45887.5639626272</v>
+      </c>
+      <c r="J104" t="n">
+        <v>35644.37000000155</v>
+      </c>
+      <c r="K104" t="n">
+        <v>45887.59790362503</v>
       </c>
     </row>
     <row r="105">
@@ -2701,10 +4205,22 @@
         <v>46298.1</v>
       </c>
       <c r="F105" t="n">
-        <v>464.78</v>
+        <v>465.78</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-883.4110500620227</v>
       </c>
       <c r="H105" t="n">
         <v>35615.82</v>
+      </c>
+      <c r="I105" t="n">
+        <v>47181.51105006202</v>
+      </c>
+      <c r="J105" t="n">
+        <v>35615.82000000344</v>
+      </c>
+      <c r="K105" t="n">
+        <v>47181.5493731748</v>
       </c>
     </row>
     <row r="106">
@@ -2715,10 +4231,22 @@
         <v>48371.8</v>
       </c>
       <c r="F106" t="n">
-        <v>464.68</v>
+        <v>465.68</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-224.0041445125098</v>
       </c>
       <c r="H106" t="n">
         <v>35584.13</v>
+      </c>
+      <c r="I106" t="n">
+        <v>48595.80414451251</v>
+      </c>
+      <c r="J106" t="n">
+        <v>35584.13000000759</v>
+      </c>
+      <c r="K106" t="n">
+        <v>48595.84725891099</v>
       </c>
     </row>
     <row r="107">
@@ -2729,10 +4257,22 @@
         <v>49874.7</v>
       </c>
       <c r="F107" t="n">
-        <v>464.58</v>
+        <v>465.58</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-244.1017634213931</v>
       </c>
       <c r="H107" t="n">
         <v>35547.38</v>
+      </c>
+      <c r="I107" t="n">
+        <v>50118.80176342139</v>
+      </c>
+      <c r="J107" t="n">
+        <v>35547.38000001654</v>
+      </c>
+      <c r="K107" t="n">
+        <v>50118.85004606148</v>
       </c>
     </row>
     <row r="108">
@@ -2743,10 +4283,22 @@
         <v>52045.5</v>
       </c>
       <c r="F108" t="n">
-        <v>464.48</v>
+        <v>465.48</v>
+      </c>
+      <c r="G108" t="n">
+        <v>316.6432652028452</v>
       </c>
       <c r="H108" t="n">
         <v>35504.89</v>
+      </c>
+      <c r="I108" t="n">
+        <v>51728.85673479715</v>
+      </c>
+      <c r="J108" t="n">
+        <v>35504.89000003565</v>
+      </c>
+      <c r="K108" t="n">
+        <v>51728.91049315432</v>
       </c>
     </row>
     <row r="109">
@@ -2757,10 +4309,22 @@
         <v>53500.1</v>
       </c>
       <c r="F109" t="n">
-        <v>464.38</v>
+        <v>465.38</v>
+      </c>
+      <c r="G109" t="n">
+        <v>109.9729074651186</v>
       </c>
       <c r="H109" t="n">
         <v>35456.47</v>
+      </c>
+      <c r="I109" t="n">
+        <v>53390.12709253488</v>
+      </c>
+      <c r="J109" t="n">
+        <v>35456.47000007605</v>
+      </c>
+      <c r="K109" t="n">
+        <v>53390.18651594005</v>
       </c>
     </row>
     <row r="110">
@@ -2771,10 +4335,22 @@
         <v>56491.5</v>
       </c>
       <c r="F110" t="n">
-        <v>464.28</v>
+        <v>465.28</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1442.177243954342</v>
       </c>
       <c r="H110" t="n">
         <v>35402.04</v>
+      </c>
+      <c r="I110" t="n">
+        <v>55049.32275604566</v>
+      </c>
+      <c r="J110" t="n">
+        <v>35402.04000016046</v>
+      </c>
+      <c r="K110" t="n">
+        <v>55049.38785749453</v>
       </c>
     </row>
     <row r="111">
@@ -2785,10 +4361,22 @@
         <v>58241.6</v>
       </c>
       <c r="F111" t="n">
-        <v>464.18</v>
+        <v>465.18</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1608.267998232805</v>
       </c>
       <c r="H111" t="n">
         <v>35340.32</v>
+      </c>
+      <c r="I111" t="n">
+        <v>56633.33200176719</v>
+      </c>
+      <c r="J111" t="n">
+        <v>35340.3200003349</v>
+      </c>
+      <c r="K111" t="n">
+        <v>56633.40255619377</v>
       </c>
     </row>
     <row r="112">
@@ -2799,10 +4387,22 @@
         <v>58492.2</v>
       </c>
       <c r="F112" t="n">
-        <v>464.08</v>
+        <v>465.08</v>
+      </c>
+      <c r="G112" t="n">
+        <v>438.1153746493292</v>
       </c>
       <c r="H112" t="n">
         <v>35271.36</v>
+      </c>
+      <c r="I112" t="n">
+        <v>58054.08462535067</v>
+      </c>
+      <c r="J112" t="n">
+        <v>35271.36000069153</v>
+      </c>
+      <c r="K112" t="n">
+        <v>58054.16011560903</v>
       </c>
     </row>
     <row r="113">
@@ -2813,10 +4413,22 @@
         <v>59993.4</v>
       </c>
       <c r="F113" t="n">
-        <v>463.98</v>
+        <v>464.98</v>
+      </c>
+      <c r="G113" t="n">
+        <v>775.2193524133982</v>
       </c>
       <c r="H113" t="n">
         <v>35199.04</v>
+      </c>
+      <c r="I113" t="n">
+        <v>59218.1806475866</v>
+      </c>
+      <c r="J113" t="n">
+        <v>35199.0400014126</v>
+      </c>
+      <c r="K113" t="n">
+        <v>59218.26023400965</v>
       </c>
     </row>
     <row r="114">
@@ -2827,10 +4439,22 @@
         <v>60943.2</v>
       </c>
       <c r="F114" t="n">
-        <v>463.88</v>
+        <v>464.88</v>
+      </c>
+      <c r="G114" t="n">
+        <v>911.6568832803096</v>
       </c>
       <c r="H114" t="n">
         <v>35123.52</v>
+      </c>
+      <c r="I114" t="n">
+        <v>60031.54311671969</v>
+      </c>
+      <c r="J114" t="n">
+        <v>35123.52000285466</v>
+      </c>
+      <c r="K114" t="n">
+        <v>60031.62564702801</v>
       </c>
     </row>
     <row r="115">
@@ -2841,10 +4465,22 @@
         <v>60757.5</v>
       </c>
       <c r="F115" t="n">
-        <v>463.78</v>
+        <v>464.78</v>
+      </c>
+      <c r="G115" t="n">
+        <v>339.582462893195</v>
       </c>
       <c r="H115" t="n">
         <v>35044.25</v>
+      </c>
+      <c r="I115" t="n">
+        <v>60417.9175371068</v>
+      </c>
+      <c r="J115" t="n">
+        <v>35044.25000570727</v>
+      </c>
+      <c r="K115" t="n">
+        <v>60418.0016074833</v>
       </c>
     </row>
     <row r="116">
@@ -2855,10 +4491,22 @@
         <v>61064.9</v>
       </c>
       <c r="F116" t="n">
-        <v>463.68</v>
+        <v>464.68</v>
+      </c>
+      <c r="G116" t="n">
+        <v>727.5624573118475</v>
       </c>
       <c r="H116" t="n">
         <v>34963.67</v>
+      </c>
+      <c r="I116" t="n">
+        <v>60337.33754268815</v>
+      </c>
+      <c r="J116" t="n">
+        <v>34963.67001128874</v>
+      </c>
+      <c r="K116" t="n">
+        <v>60337.42160748316</v>
       </c>
     </row>
     <row r="117">
@@ -2869,10 +4517,22 @@
         <v>60081.4</v>
       </c>
       <c r="F117" t="n">
-        <v>463.58</v>
+        <v>464.58</v>
+      </c>
+      <c r="G117" t="n">
+        <v>290.4868640442874</v>
       </c>
       <c r="H117" t="n">
         <v>34882.89</v>
+      </c>
+      <c r="I117" t="n">
+        <v>59790.91313595571</v>
+      </c>
+      <c r="J117" t="n">
+        <v>34882.89002209104</v>
+      </c>
+      <c r="K117" t="n">
+        <v>59790.99564702762</v>
       </c>
     </row>
     <row r="118">
@@ -2883,10 +4543,22 @@
         <v>58455.2</v>
       </c>
       <c r="F118" t="n">
-        <v>463.48</v>
+        <v>464.48</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-367.5006889450597</v>
       </c>
       <c r="H118" t="n">
         <v>34803.56</v>
+      </c>
+      <c r="I118" t="n">
+        <v>58822.70068894506</v>
+      </c>
+      <c r="J118" t="n">
+        <v>34803.56004277099</v>
+      </c>
+      <c r="K118" t="n">
+        <v>58822.78023400964</v>
       </c>
     </row>
     <row r="119">
@@ -2897,10 +4569,22 @@
         <v>57070.7</v>
       </c>
       <c r="F119" t="n">
-        <v>463.38</v>
+        <v>464.38</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-440.3347065906128</v>
       </c>
       <c r="H119" t="n">
         <v>34728.31</v>
+      </c>
+      <c r="I119" t="n">
+        <v>57511.03470659061</v>
+      </c>
+      <c r="J119" t="n">
+        <v>34728.31008193213</v>
+      </c>
+      <c r="K119" t="n">
+        <v>57511.11011560824</v>
       </c>
     </row>
     <row r="120">
@@ -2911,10 +4595,22 @@
         <v>54895.6</v>
       </c>
       <c r="F120" t="n">
-        <v>463.28</v>
+        <v>464.28</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1055.242156720866</v>
       </c>
       <c r="H120" t="n">
         <v>34657.83</v>
+      </c>
+      <c r="I120" t="n">
+        <v>55950.84215672086</v>
+      </c>
+      <c r="J120" t="n">
+        <v>34657.83015528924</v>
+      </c>
+      <c r="K120" t="n">
+        <v>55950.91255619288</v>
       </c>
     </row>
     <row r="121">
@@ -2925,10 +4621,22 @@
         <v>53543.9</v>
       </c>
       <c r="F121" t="n">
-        <v>463.18</v>
+        <v>464.18</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-696.1930471046653</v>
       </c>
       <c r="H121" t="n">
         <v>34592.81</v>
+      </c>
+      <c r="I121" t="n">
+        <v>54240.09304710467</v>
+      </c>
+      <c r="J121" t="n">
+        <v>34592.81029121998</v>
+      </c>
+      <c r="K121" t="n">
+        <v>54240.15785749357</v>
       </c>
     </row>
     <row r="122">
@@ -2939,10 +4647,22 @@
         <v>52083.7</v>
       </c>
       <c r="F122" t="n">
-        <v>463.08</v>
+        <v>464.08</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-382.8576328458512</v>
       </c>
       <c r="H122" t="n">
         <v>34532.9</v>
+      </c>
+      <c r="I122" t="n">
+        <v>52466.55763284585</v>
+      </c>
+      <c r="J122" t="n">
+        <v>34532.90054038716</v>
+      </c>
+      <c r="K122" t="n">
+        <v>52466.61651593908</v>
       </c>
     </row>
     <row r="123">
@@ -2953,10 +4673,22 @@
         <v>50127</v>
       </c>
       <c r="F123" t="n">
-        <v>462.98</v>
+        <v>463.98</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-574.487726975829</v>
       </c>
       <c r="H123" t="n">
         <v>34477.52</v>
+      </c>
+      <c r="I123" t="n">
+        <v>50701.48772697583</v>
+      </c>
+      <c r="J123" t="n">
+        <v>34477.5209922128</v>
+      </c>
+      <c r="K123" t="n">
+        <v>50701.54049315432</v>
       </c>
     </row>
     <row r="124">
@@ -2967,10 +4699,22 @@
         <v>48588.1</v>
       </c>
       <c r="F124" t="n">
-        <v>462.88</v>
+        <v>463.88</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-410.7235661470404</v>
       </c>
       <c r="H124" t="n">
         <v>34427.4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>48998.82356614704</v>
+      </c>
+      <c r="J124" t="n">
+        <v>34427.40180274032</v>
+      </c>
+      <c r="K124" t="n">
+        <v>48998.87004606057</v>
       </c>
     </row>
     <row r="125">
@@ -2981,10 +4725,22 @@
         <v>47326.9</v>
       </c>
       <c r="F125" t="n">
-        <v>462.78</v>
+        <v>463.78</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-67.11738569089357</v>
       </c>
       <c r="H125" t="n">
         <v>34382.34</v>
+      </c>
+      <c r="I125" t="n">
+        <v>47394.0173856909</v>
+      </c>
+      <c r="J125" t="n">
+        <v>34382.34324118184</v>
+      </c>
+      <c r="K125" t="n">
+        <v>47394.05725891014</v>
       </c>
     </row>
     <row r="126">
@@ -2995,10 +4751,22 @@
         <v>46217.6</v>
       </c>
       <c r="F126" t="n">
-        <v>462.68</v>
+        <v>463.68</v>
+      </c>
+      <c r="G126" t="n">
+        <v>310.5531832031556</v>
       </c>
       <c r="H126" t="n">
         <v>34341.35</v>
+      </c>
+      <c r="I126" t="n">
+        <v>45907.04681679684</v>
+      </c>
+      <c r="J126" t="n">
+        <v>34341.35576673018</v>
+      </c>
+      <c r="K126" t="n">
+        <v>45907.07937317401</v>
       </c>
     </row>
     <row r="127">
@@ -3009,10 +4777,22 @@
         <v>45448.5</v>
       </c>
       <c r="F127" t="n">
-        <v>462.58</v>
+        <v>463.58</v>
+      </c>
+      <c r="G127" t="n">
+        <v>901.5758836001405</v>
       </c>
       <c r="H127" t="n">
         <v>34303.72</v>
+      </c>
+      <c r="I127" t="n">
+        <v>44546.92411639986</v>
+      </c>
+      <c r="J127" t="n">
+        <v>34303.7301537593</v>
+      </c>
+      <c r="K127" t="n">
+        <v>44546.94790362431</v>
       </c>
     </row>
     <row r="128">
@@ -3023,10 +4803,22 @@
         <v>44004.5</v>
       </c>
       <c r="F128" t="n">
-        <v>462.48</v>
+        <v>463.48</v>
+      </c>
+      <c r="G128" t="n">
+        <v>689.4982598017959</v>
       </c>
       <c r="H128" t="n">
         <v>34269.08</v>
+      </c>
+      <c r="I128" t="n">
+        <v>43315.0017401982</v>
+      </c>
+      <c r="J128" t="n">
+        <v>34269.09769338847</v>
+      </c>
+      <c r="K128" t="n">
+        <v>43315.01402054114</v>
       </c>
     </row>
     <row r="129">
@@ -3037,10 +4829,22 @@
         <v>42300.8</v>
       </c>
       <c r="F129" t="n">
-        <v>462.38</v>
+        <v>463.38</v>
+      </c>
+      <c r="G129" t="n">
+        <v>92.26756567026314</v>
       </c>
       <c r="H129" t="n">
         <v>34238.26</v>
+      </c>
+      <c r="I129" t="n">
+        <v>42208.53243432974</v>
+      </c>
+      <c r="J129" t="n">
+        <v>34238.29051399013</v>
+      </c>
+      <c r="K129" t="n">
+        <v>42208.52832982634</v>
       </c>
     </row>
     <row r="130">
@@ -3051,10 +4855,22 @@
         <v>41976.4</v>
       </c>
       <c r="F130" t="n">
-        <v>462.28</v>
+        <v>463.28</v>
+      </c>
+      <c r="G130" t="n">
+        <v>755.2525336738836</v>
       </c>
       <c r="H130" t="n">
         <v>34211.7</v>
+      </c>
+      <c r="I130" t="n">
+        <v>41221.14746632612</v>
+      </c>
+      <c r="J130" t="n">
+        <v>34211.75208454107</v>
+      </c>
+      <c r="K130" t="n">
+        <v>41221.11860745704</v>
       </c>
     </row>
     <row r="131">
@@ -3065,10 +4881,22 @@
         <v>40976</v>
       </c>
       <c r="F131" t="n">
-        <v>462.18</v>
+        <v>463.18</v>
+      </c>
+      <c r="G131" t="n">
+        <v>633.2338993017765</v>
       </c>
       <c r="H131" t="n">
         <v>34187.87</v>
+      </c>
+      <c r="I131" t="n">
+        <v>40342.76610069822</v>
+      </c>
+      <c r="J131" t="n">
+        <v>34187.95799535132</v>
+      </c>
+      <c r="K131" t="n">
+        <v>40342.698499274</v>
       </c>
     </row>
     <row r="132">
@@ -3079,10 +4907,22 @@
         <v>39662.7</v>
       </c>
       <c r="F132" t="n">
-        <v>462.08</v>
+        <v>463.08</v>
+      </c>
+      <c r="G132" t="n">
+        <v>98.81597275939566</v>
       </c>
       <c r="H132" t="n">
         <v>34166.54</v>
+      </c>
+      <c r="I132" t="n">
+        <v>39563.8840272406</v>
+      </c>
+      <c r="J132" t="n">
+        <v>34166.6871540249</v>
+      </c>
+      <c r="K132" t="n">
+        <v>39563.75475669389</v>
       </c>
     </row>
     <row r="133">
@@ -3093,10 +4933,22 @@
         <v>39619.2</v>
       </c>
       <c r="F133" t="n">
-        <v>461.98</v>
+        <v>462.98</v>
+      </c>
+      <c r="G133" t="n">
+        <v>743.5042198826632</v>
       </c>
       <c r="H133" t="n">
         <v>34148.24</v>
+      </c>
+      <c r="I133" t="n">
+        <v>38875.69578011733</v>
+      </c>
+      <c r="J133" t="n">
+        <v>34148.48359477575</v>
+      </c>
+      <c r="K133" t="n">
+        <v>38875.46784866556</v>
       </c>
     </row>
     <row r="134">
@@ -3107,10 +4959,22 @@
         <v>39377.8</v>
       </c>
       <c r="F134" t="n">
-        <v>461.88</v>
+        <v>462.88</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1110.117966368714</v>
       </c>
       <c r="H134" t="n">
         <v>34131.44</v>
+      </c>
+      <c r="I134" t="n">
+        <v>38267.68203363129</v>
+      </c>
+      <c r="J134" t="n">
+        <v>34131.8391816889</v>
+      </c>
+      <c r="K134" t="n">
+        <v>38267.29655551445</v>
       </c>
     </row>
     <row r="135">
@@ -3121,10 +4985,22 @@
         <v>38388.1</v>
       </c>
       <c r="F135" t="n">
-        <v>461.78</v>
+        <v>462.78</v>
+      </c>
+      <c r="G135" t="n">
+        <v>657.2881630527481</v>
       </c>
       <c r="H135" t="n">
         <v>34115.52</v>
+      </c>
+      <c r="I135" t="n">
+        <v>37730.81183694725</v>
+      </c>
+      <c r="J135" t="n">
+        <v>34116.16759747129</v>
+      </c>
+      <c r="K135" t="n">
+        <v>37730.17621566511</v>
       </c>
     </row>
     <row r="136">
@@ -3135,10 +5011,22 @@
         <v>38223</v>
       </c>
       <c r="F136" t="n">
-        <v>461.68</v>
+        <v>462.68</v>
+      </c>
+      <c r="G136" t="n">
+        <v>964.6904061018649</v>
       </c>
       <c r="H136" t="n">
         <v>34101.42</v>
+      </c>
+      <c r="I136" t="n">
+        <v>37258.30959389814</v>
+      </c>
+      <c r="J136" t="n">
+        <v>34102.46015597516</v>
+      </c>
+      <c r="K136" t="n">
+        <v>37257.27989328348</v>
       </c>
     </row>
     <row r="137">
@@ -3149,10 +5037,22 @@
         <v>36865.2</v>
       </c>
       <c r="F137" t="n">
-        <v>461.58</v>
+        <v>462.58</v>
+      </c>
+      <c r="G137" t="n">
+        <v>21.88026963232551</v>
       </c>
       <c r="H137" t="n">
         <v>34089.26</v>
+      </c>
+      <c r="I137" t="n">
+        <v>36843.31973036767</v>
+      </c>
+      <c r="J137" t="n">
+        <v>34090.91416749042</v>
+      </c>
+      <c r="K137" t="n">
+        <v>36841.67468047454</v>
       </c>
     </row>
     <row r="138">
@@ -3163,10 +5063,22 @@
         <v>36879.5</v>
       </c>
       <c r="F138" t="n">
-        <v>461.48</v>
+        <v>462.48</v>
+      </c>
+      <c r="G138" t="n">
+        <v>399.60089707515</v>
       </c>
       <c r="H138" t="n">
         <v>34079.33</v>
+      </c>
+      <c r="I138" t="n">
+        <v>36479.89910292485</v>
+      </c>
+      <c r="J138" t="n">
+        <v>34081.93482934491</v>
+      </c>
+      <c r="K138" t="n">
+        <v>36477.30221526678</v>
       </c>
     </row>
     <row r="139">
@@ -3177,10 +5089,22 @@
         <v>36851.5</v>
       </c>
       <c r="F139" t="n">
-        <v>461.38</v>
+        <v>462.38</v>
+      </c>
+      <c r="G139" t="n">
+        <v>689.8620976171369</v>
       </c>
       <c r="H139" t="n">
         <v>34070.73</v>
+      </c>
+      <c r="I139" t="n">
+        <v>36161.63790238286</v>
+      </c>
+      <c r="J139" t="n">
+        <v>34074.79191991005</v>
+      </c>
+      <c r="K139" t="n">
+        <v>36157.58289102127</v>
       </c>
     </row>
     <row r="140">
@@ -3191,10 +5115,22 @@
         <v>36886.4</v>
       </c>
       <c r="F140" t="n">
-        <v>461.28</v>
+        <v>462.28</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1004.016597379072</v>
       </c>
       <c r="H140" t="n">
         <v>34062.12</v>
+      </c>
+      <c r="I140" t="n">
+        <v>35882.38340262093</v>
+      </c>
+      <c r="J140" t="n">
+        <v>34068.39295082173</v>
+      </c>
+      <c r="K140" t="n">
+        <v>35876.11645283322</v>
       </c>
     </row>
     <row r="141">
@@ -3205,10 +5141,22 @@
         <v>36040.2</v>
       </c>
       <c r="F141" t="n">
-        <v>461.18</v>
+        <v>462.18</v>
+      </c>
+      <c r="G141" t="n">
+        <v>401.7932972088893</v>
       </c>
       <c r="H141" t="n">
         <v>34053.91</v>
+      </c>
+      <c r="I141" t="n">
+        <v>35638.40670279111</v>
+      </c>
+      <c r="J141" t="n">
+        <v>34063.50488882654</v>
+      </c>
+      <c r="K141" t="n">
+        <v>35628.81701766157</v>
       </c>
     </row>
     <row r="142">
@@ -3219,10 +5167,22 @@
         <v>36166.2</v>
       </c>
       <c r="F142" t="n">
-        <v>461.08</v>
+        <v>462.08</v>
+      </c>
+      <c r="G142" t="n">
+        <v>739.1999752659322</v>
       </c>
       <c r="H142" t="n">
         <v>34046.87</v>
+      </c>
+      <c r="I142" t="n">
+        <v>35427.00002473406</v>
+      </c>
+      <c r="J142" t="n">
+        <v>34061.40710332795</v>
+      </c>
+      <c r="K142" t="n">
+        <v>35412.46742394807</v>
       </c>
     </row>
     <row r="143">
@@ -3233,10 +5193,22 @@
         <v>36580.2</v>
       </c>
       <c r="F143" t="n">
-        <v>460.98</v>
+        <v>461.98</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1335.599293746112</v>
       </c>
       <c r="H143" t="n">
         <v>34040.25</v>
+      </c>
+      <c r="I143" t="n">
+        <v>35244.60070625388</v>
+      </c>
+      <c r="J143" t="n">
+        <v>34062.06883635811</v>
+      </c>
+      <c r="K143" t="n">
+        <v>35222.78575465464</v>
       </c>
     </row>
     <row r="144">
@@ -3247,10 +5219,22 @@
         <v>36225.1</v>
       </c>
       <c r="F144" t="n">
-        <v>460.88</v>
+        <v>461.88</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1137.032553325596</v>
       </c>
       <c r="H144" t="n">
         <v>34033.03</v>
+      </c>
+      <c r="I144" t="n">
+        <v>35088.0674466744</v>
+      </c>
+      <c r="J144" t="n">
+        <v>34065.47523710081</v>
+      </c>
+      <c r="K144" t="n">
+        <v>35055.62554801482</v>
       </c>
     </row>
     <row r="145">
@@ -3261,10 +5245,22 @@
         <v>36968.4</v>
       </c>
       <c r="F145" t="n">
-        <v>460.78</v>
+        <v>461.78</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2012.065613627827</v>
       </c>
       <c r="H145" t="n">
         <v>34025.52</v>
+      </c>
+      <c r="I145" t="n">
+        <v>34956.33438637217</v>
+      </c>
+      <c r="J145" t="n">
+        <v>34073.32686523166</v>
+      </c>
+      <c r="K145" t="n">
+        <v>34908.53037342277</v>
       </c>
     </row>
     <row r="146">
@@ -3275,10 +5271,22 @@
         <v>36678</v>
       </c>
       <c r="F146" t="n">
-        <v>460.68</v>
+        <v>461.68</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1829.510910087905</v>
       </c>
       <c r="H146" t="n">
         <v>34017.35</v>
+      </c>
+      <c r="I146" t="n">
+        <v>34848.48908991209</v>
+      </c>
+      <c r="J146" t="n">
+        <v>34087.15856567182</v>
+      </c>
+      <c r="K146" t="n">
+        <v>34778.68293948145</v>
       </c>
     </row>
     <row r="147">
@@ -3289,10 +5297,22 @@
         <v>36365.6</v>
       </c>
       <c r="F147" t="n">
-        <v>460.58</v>
+        <v>461.58</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1600.13862675921</v>
       </c>
       <c r="H147" t="n">
         <v>34009.03</v>
+      </c>
+      <c r="I147" t="n">
+        <v>34765.46137324079</v>
+      </c>
+      <c r="J147" t="n">
+        <v>34110.06478556617</v>
+      </c>
+      <c r="K147" t="n">
+        <v>34664.42860384239</v>
       </c>
     </row>
     <row r="148">
@@ -3303,10 +5323,22 @@
         <v>36258.8</v>
       </c>
       <c r="F148" t="n">
-        <v>460.48</v>
+        <v>461.48</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1549.018849270076</v>
       </c>
       <c r="H148" t="n">
         <v>34001.53</v>
+      </c>
+      <c r="I148" t="n">
+        <v>34709.78115072993</v>
+      </c>
+      <c r="J148" t="n">
+        <v>34146.48980041507</v>
+      </c>
+      <c r="K148" t="n">
+        <v>34564.82299368644</v>
       </c>
     </row>
     <row r="149">
@@ -3317,10 +5349,22 @@
         <v>36255.7</v>
       </c>
       <c r="F149" t="n">
-        <v>460.38</v>
+        <v>461.38</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1571.694876610141</v>
       </c>
       <c r="H149" t="n">
         <v>33994.47</v>
+      </c>
+      <c r="I149" t="n">
+        <v>34684.00512338986</v>
+      </c>
+      <c r="J149" t="n">
+        <v>34200.68303680699</v>
+      </c>
+      <c r="K149" t="n">
+        <v>34477.79337070161</v>
       </c>
     </row>
     <row r="150">
@@ -3331,10 +5375,22 @@
         <v>36053.5</v>
       </c>
       <c r="F150" t="n">
-        <v>460.28</v>
+        <v>461.28</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1360.98569429668</v>
       </c>
       <c r="H150" t="n">
         <v>33987.61</v>
+      </c>
+      <c r="I150" t="n">
+        <v>34692.51430570332</v>
+      </c>
+      <c r="J150" t="n">
+        <v>34278.52187793901</v>
+      </c>
+      <c r="K150" t="n">
+        <v>34401.60335180019</v>
       </c>
     </row>
     <row r="151">
@@ -3345,10 +5401,22 @@
         <v>36402</v>
       </c>
       <c r="F151" t="n">
-        <v>460.18</v>
+        <v>461.18</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1660.082691509087</v>
       </c>
       <c r="H151" t="n">
         <v>33980.86</v>
+      </c>
+      <c r="I151" t="n">
+        <v>34741.91730849091</v>
+      </c>
+      <c r="J151" t="n">
+        <v>34387.93725002935</v>
+      </c>
+      <c r="K151" t="n">
+        <v>34334.84060485821</v>
       </c>
     </row>
     <row r="152">
@@ -3359,10 +5427,22 @@
         <v>37028.1</v>
       </c>
       <c r="F152" t="n">
-        <v>460.08</v>
+        <v>461.08</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2187.441710889419</v>
       </c>
       <c r="H152" t="n">
         <v>33973.39</v>
+      </c>
+      <c r="I152" t="n">
+        <v>34840.65828911058</v>
+      </c>
+      <c r="J152" t="n">
+        <v>34538.54125680608</v>
+      </c>
+      <c r="K152" t="n">
+        <v>34275.50716356439</v>
       </c>
     </row>
     <row r="153">
@@ -3373,10 +5453,22 @@
         <v>37042</v>
       </c>
       <c r="F153" t="n">
-        <v>459.98</v>
+        <v>460.98</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2041.405978960414</v>
       </c>
       <c r="H153" t="n">
         <v>33964.58</v>
+      </c>
+      <c r="I153" t="n">
+        <v>35000.59402103959</v>
+      </c>
+      <c r="J153" t="n">
+        <v>34743.22163717233</v>
+      </c>
+      <c r="K153" t="n">
+        <v>34221.9520382873</v>
       </c>
     </row>
     <row r="154">
@@ -3387,10 +5479,22 @@
         <v>37572.4</v>
       </c>
       <c r="F154" t="n">
-        <v>459.88</v>
+        <v>460.88</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2333.827743476766</v>
       </c>
       <c r="H154" t="n">
         <v>33954.81</v>
+      </c>
+      <c r="I154" t="n">
+        <v>35238.57225652324</v>
+      </c>
+      <c r="J154" t="n">
+        <v>35019.73550728844</v>
+      </c>
+      <c r="K154" t="n">
+        <v>34173.64583535405</v>
       </c>
     </row>
     <row r="155">
@@ -3401,10 +5505,22 @@
         <v>37672.3</v>
       </c>
       <c r="F155" t="n">
-        <v>459.78</v>
+        <v>460.78</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2096.215759290746</v>
       </c>
       <c r="H155" t="n">
         <v>33944.12</v>
+      </c>
+      <c r="I155" t="n">
+        <v>35576.08424070926</v>
+      </c>
+      <c r="J155" t="n">
+        <v>35390.37549803474</v>
+      </c>
+      <c r="K155" t="n">
+        <v>34129.82713212816</v>
       </c>
     </row>
     <row r="156">
@@ -3415,10 +5531,22 @@
         <v>37673</v>
       </c>
       <c r="F156" t="n">
-        <v>459.68</v>
+        <v>460.68</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1631.971284600731</v>
       </c>
       <c r="H156" t="n">
         <v>33932.72</v>
+      </c>
+      <c r="I156" t="n">
+        <v>36041.02871539927</v>
+      </c>
+      <c r="J156" t="n">
+        <v>35883.74584575887</v>
+      </c>
+      <c r="K156" t="n">
+        <v>34090.00038802507</v>
       </c>
     </row>
     <row r="157">
@@ -3429,10 +5557,22 @@
         <v>37782.7</v>
       </c>
       <c r="F157" t="n">
-        <v>459.58</v>
+        <v>460.58</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1113.266401718502</v>
       </c>
       <c r="H157" t="n">
         <v>33921.12</v>
+      </c>
+      <c r="I157" t="n">
+        <v>36669.4335982815</v>
+      </c>
+      <c r="J157" t="n">
+        <v>36536.49481226069</v>
+      </c>
+      <c r="K157" t="n">
+        <v>34054.05520125813</v>
       </c>
     </row>
     <row r="158">
@@ -3443,10 +5583,22 @@
         <v>38926.8</v>
       </c>
       <c r="F158" t="n">
-        <v>459.48</v>
+        <v>460.48</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1420.785744093329</v>
       </c>
       <c r="H158" t="n">
         <v>33908.66</v>
+      </c>
+      <c r="I158" t="n">
+        <v>37506.01425590667</v>
+      </c>
+      <c r="J158" t="n">
+        <v>37393.88251608621</v>
+      </c>
+      <c r="K158" t="n">
+        <v>34020.78674735256</v>
       </c>
     </row>
     <row r="159">
@@ -3457,10 +5609,22 @@
         <v>39739.5</v>
       </c>
       <c r="F159" t="n">
-        <v>459.38</v>
+        <v>460.38</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1132.449539829766</v>
       </c>
       <c r="H159" t="n">
         <v>33893.8</v>
+      </c>
+      <c r="I159" t="n">
+        <v>38607.05046017023</v>
+      </c>
+      <c r="J159" t="n">
+        <v>38512.66640581311</v>
+      </c>
+      <c r="K159" t="n">
+        <v>33988.17725831915</v>
       </c>
     </row>
     <row r="160">
@@ -3471,10 +5635,22 @@
         <v>40351</v>
       </c>
       <c r="F160" t="n">
-        <v>459.28</v>
+        <v>460.28</v>
+      </c>
+      <c r="G160" t="n">
+        <v>305.2830471039197</v>
       </c>
       <c r="H160" t="n">
         <v>33876.17</v>
+      </c>
+      <c r="I160" t="n">
+        <v>40045.71695289608</v>
+      </c>
+      <c r="J160" t="n">
+        <v>39966.43942115655</v>
+      </c>
+      <c r="K160" t="n">
+        <v>33955.43842104644</v>
       </c>
     </row>
     <row r="161">
@@ -3485,10 +5661,22 @@
         <v>41886</v>
       </c>
       <c r="F161" t="n">
-        <v>459.18</v>
+        <v>460.18</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-29.4372028761718</v>
       </c>
       <c r="H161" t="n">
         <v>33855.84</v>
+      </c>
+      <c r="I161" t="n">
+        <v>41915.43720287617</v>
+      </c>
+      <c r="J161" t="n">
+        <v>41848.99053074727</v>
+      </c>
+      <c r="K161" t="n">
+        <v>33922.27459024406</v>
       </c>
     </row>
     <row r="162">
@@ -3499,10 +5687,22 @@
         <v>44103.1</v>
       </c>
       <c r="F162" t="n">
-        <v>459.08</v>
+        <v>460.08</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-229.4704113935586</v>
       </c>
       <c r="H162" t="n">
         <v>33831.14</v>
+      </c>
+      <c r="I162" t="n">
+        <v>44332.57041139356</v>
+      </c>
+      <c r="J162" t="n">
+        <v>44276.99779309067</v>
+      </c>
+      <c r="K162" t="n">
+        <v>33886.69672548661</v>
       </c>
     </row>
     <row r="163">
@@ -3513,10 +5713,22 @@
         <v>47130.5</v>
       </c>
       <c r="F163" t="n">
-        <v>458.98</v>
+        <v>459.98</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-312.0697696936841</v>
       </c>
       <c r="H163" t="n">
         <v>33799.57</v>
+      </c>
+      <c r="I163" t="n">
+        <v>47442.56976969368</v>
+      </c>
+      <c r="J163" t="n">
+        <v>47396.19202324474</v>
+      </c>
+      <c r="K163" t="n">
+        <v>33845.92697390329</v>
       </c>
     </row>
     <row r="164">
@@ -3527,10 +5739,22 @@
         <v>50709.4</v>
       </c>
       <c r="F164" t="n">
-        <v>458.88</v>
+        <v>459.88</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-715.8781304695076</v>
       </c>
       <c r="H164" t="n">
         <v>33758.82</v>
+      </c>
+      <c r="I164" t="n">
+        <v>51425.27813046951</v>
+      </c>
+      <c r="J164" t="n">
+        <v>51386.6572977262</v>
+      </c>
+      <c r="K164" t="n">
+        <v>33797.41383015291</v>
       </c>
     </row>
     <row r="165">
@@ -3541,10 +5765,22 @@
         <v>55999.6</v>
       </c>
       <c r="F165" t="n">
-        <v>458.78</v>
+        <v>459.78</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-494.4009750105906</v>
       </c>
       <c r="H165" t="n">
         <v>33706.05</v>
+      </c>
+      <c r="I165" t="n">
+        <v>56494.00097501059</v>
+      </c>
+      <c r="J165" t="n">
+        <v>56461.90824456844</v>
+      </c>
+      <c r="K165" t="n">
+        <v>33738.10781381265</v>
       </c>
     </row>
     <row r="166">
@@ -3555,10 +5791,22 @@
         <v>62969.8</v>
       </c>
       <c r="F166" t="n">
-        <v>458.68</v>
+        <v>459.68</v>
+      </c>
+      <c r="G166" t="n">
+        <v>88.13759405062592</v>
       </c>
       <c r="H166" t="n">
         <v>33636.73</v>
+      </c>
+      <c r="I166" t="n">
+        <v>62881.66240594938</v>
+      </c>
+      <c r="J166" t="n">
+        <v>62855.0499134983</v>
+      </c>
+      <c r="K166" t="n">
+        <v>33663.29761145045</v>
       </c>
     </row>
     <row r="167">
@@ -3569,10 +5817,22 @@
         <v>71303.89999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>458.58</v>
+        <v>459.58</v>
+      </c>
+      <c r="G167" t="n">
+        <v>503.8182717205782</v>
       </c>
       <c r="H167" t="n">
         <v>33545.35</v>
+      </c>
+      <c r="I167" t="n">
+        <v>70800.08172827942</v>
+      </c>
+      <c r="J167" t="n">
+        <v>70778.05786065504</v>
+      </c>
+      <c r="K167" t="n">
+        <v>33567.31663667625</v>
       </c>
     </row>
     <row r="168">
@@ -3583,10 +5843,22 @@
         <v>81636.39999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>458.48</v>
+        <v>459.48</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1294.092580170531</v>
       </c>
       <c r="H168" t="n">
         <v>33426.25</v>
+      </c>
+      <c r="I168" t="n">
+        <v>80342.30741982946</v>
+      </c>
+      <c r="J168" t="n">
+        <v>80324.11533421301</v>
+      </c>
+      <c r="K168" t="n">
+        <v>33444.36996657077</v>
       </c>
     </row>
     <row r="169">
@@ -3597,10 +5869,22 @@
         <v>92709.10000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>458.38</v>
+        <v>459.38</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1417.390074909461</v>
       </c>
       <c r="H169" t="n">
         <v>33273.65</v>
+      </c>
+      <c r="I169" t="n">
+        <v>91291.70992509054</v>
+      </c>
+      <c r="J169" t="n">
+        <v>91276.70908650734</v>
+      </c>
+      <c r="K169" t="n">
+        <v>33288.56161723878</v>
       </c>
     </row>
     <row r="170">
@@ -3611,10 +5895,22 @@
         <v>103772</v>
       </c>
       <c r="F170" t="n">
-        <v>458.28</v>
+        <v>459.28</v>
+      </c>
+      <c r="G170" t="n">
+        <v>934.8965983253001</v>
       </c>
       <c r="H170" t="n">
         <v>33083.73</v>
+      </c>
+      <c r="I170" t="n">
+        <v>102837.1034016747</v>
+      </c>
+      <c r="J170" t="n">
+        <v>102824.7539809706</v>
+      </c>
+      <c r="K170" t="n">
+        <v>33095.97212496752</v>
       </c>
     </row>
     <row r="171">
@@ -3625,10 +5921,22 @@
         <v>113444</v>
       </c>
       <c r="F171" t="n">
-        <v>458.18</v>
+        <v>459.18</v>
+      </c>
+      <c r="G171" t="n">
+        <v>120.137382479239</v>
       </c>
       <c r="H171" t="n">
         <v>32856.27</v>
+      </c>
+      <c r="I171" t="n">
+        <v>113323.8626175208</v>
+      </c>
+      <c r="J171" t="n">
+        <v>113313.7124184248</v>
+      </c>
+      <c r="K171" t="n">
+        <v>32866.29640270201</v>
       </c>
     </row>
     <row r="172">
@@ -3639,10 +5947,22 @@
         <v>119024</v>
       </c>
       <c r="F172" t="n">
-        <v>458.08</v>
+        <v>459.08</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1386.59984085492</v>
       </c>
       <c r="H172" t="n">
         <v>32597.08</v>
+      </c>
+      <c r="I172" t="n">
+        <v>120410.5998408549</v>
+      </c>
+      <c r="J172" t="n">
+        <v>120402.2728853057</v>
+      </c>
+      <c r="K172" t="n">
+        <v>32605.27184437586</v>
       </c>
     </row>
     <row r="173">
@@ -3653,10 +5973,22 @@
         <v>120755</v>
       </c>
       <c r="F173" t="n">
-        <v>457.98</v>
+        <v>458.98</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1234.022883812853</v>
       </c>
       <c r="H173" t="n">
         <v>32318.49</v>
+      </c>
+      <c r="I173" t="n">
+        <v>121989.0228838129</v>
+      </c>
+      <c r="J173" t="n">
+        <v>121982.2082550877</v>
+      </c>
+      <c r="K173" t="n">
+        <v>32325.166652131</v>
       </c>
     </row>
     <row r="174">
@@ -3667,10 +5999,22 @@
         <v>117239</v>
       </c>
       <c r="F174" t="n">
-        <v>457.88</v>
+        <v>458.88</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-230.1317697277264</v>
       </c>
       <c r="H174" t="n">
         <v>32036.54</v>
+      </c>
+      <c r="I174" t="n">
+        <v>117469.1317697277</v>
+      </c>
+      <c r="J174" t="n">
+        <v>117463.5719458668</v>
+      </c>
+      <c r="K174" t="n">
+        <v>32041.96836368635</v>
       </c>
     </row>
     <row r="175">
@@ -3681,10 +6025,22 @@
         <v>108874</v>
       </c>
       <c r="F175" t="n">
-        <v>457.78</v>
+        <v>458.78</v>
+      </c>
+      <c r="G175" t="n">
+        <v>664.919768331325</v>
       </c>
       <c r="H175" t="n">
         <v>31769.52</v>
+      </c>
+      <c r="I175" t="n">
+        <v>108209.0802316687</v>
+      </c>
+      <c r="J175" t="n">
+        <v>108204.5600482772</v>
+      </c>
+      <c r="K175" t="n">
+        <v>31773.92255912071</v>
       </c>
     </row>
     <row r="176">
@@ -3695,10 +6051,22 @@
         <v>97209</v>
       </c>
       <c r="F176" t="n">
-        <v>457.68</v>
+        <v>458.68</v>
+      </c>
+      <c r="G176" t="n">
+        <v>616.4068135785492</v>
       </c>
       <c r="H176" t="n">
         <v>31533.4</v>
+      </c>
+      <c r="I176" t="n">
+        <v>96592.59318642145</v>
+      </c>
+      <c r="J176" t="n">
+        <v>96588.93134506562</v>
+      </c>
+      <c r="K176" t="n">
+        <v>31536.96172815668</v>
       </c>
     </row>
     <row r="177">
@@ -3709,10 +6077,22 @@
         <v>86220.5</v>
       </c>
       <c r="F177" t="n">
-        <v>457.58</v>
+        <v>458.58</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1459.882907265637</v>
       </c>
       <c r="H177" t="n">
         <v>31334.9</v>
+      </c>
+      <c r="I177" t="n">
+        <v>84760.61709273436</v>
+      </c>
+      <c r="J177" t="n">
+        <v>84757.66060020303</v>
+      </c>
+      <c r="K177" t="n">
+        <v>31337.7742807</v>
       </c>
     </row>
     <row r="178">
@@ -3723,10 +6103,22 @@
         <v>73988.89999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>457.48</v>
+        <v>458.48</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-25.8635866552504</v>
       </c>
       <c r="H178" t="n">
         <v>31175.12</v>
+      </c>
+      <c r="I178" t="n">
+        <v>74014.76358665524</v>
+      </c>
+      <c r="J178" t="n">
+        <v>74012.38397986047</v>
+      </c>
+      <c r="K178" t="n">
+        <v>31177.43368492362</v>
       </c>
     </row>
     <row r="179">
@@ -3737,10 +6129,22 @@
         <v>64204.4</v>
       </c>
       <c r="F179" t="n">
-        <v>457.38</v>
+        <v>458.38</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-679.362313999598</v>
       </c>
       <c r="H179" t="n">
         <v>31051.83</v>
+      </c>
+      <c r="I179" t="n">
+        <v>64883.7623139996</v>
+      </c>
+      <c r="J179" t="n">
+        <v>64881.85253478497</v>
+      </c>
+      <c r="K179" t="n">
+        <v>31053.68771860557</v>
       </c>
     </row>
     <row r="180">
@@ -3751,10 +6155,22 @@
         <v>55645.9</v>
       </c>
       <c r="F180" t="n">
-        <v>457.28</v>
+        <v>458.28</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1772.504811714789</v>
       </c>
       <c r="H180" t="n">
         <v>30958.84</v>
+      </c>
+      <c r="I180" t="n">
+        <v>57418.40481171479</v>
+      </c>
+      <c r="J180" t="n">
+        <v>57416.87627513509</v>
+      </c>
+      <c r="K180" t="n">
+        <v>30960.32782074609</v>
       </c>
     </row>
     <row r="181">
@@ -3765,10 +6181,22 @@
         <v>49088.4</v>
       </c>
       <c r="F181" t="n">
-        <v>457.18</v>
+        <v>458.18</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2361.227128249906</v>
       </c>
       <c r="H181" t="n">
         <v>30890.4</v>
+      </c>
+      <c r="I181" t="n">
+        <v>51449.62712824991</v>
+      </c>
+      <c r="J181" t="n">
+        <v>51448.40696026872</v>
+      </c>
+      <c r="K181" t="n">
+        <v>30891.58853171258</v>
       </c>
     </row>
     <row r="182">
@@ -3779,10 +6207,22 @@
         <v>44998.2</v>
       </c>
       <c r="F182" t="n">
-        <v>457.08</v>
+        <v>458.08</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1738.531173329757</v>
       </c>
       <c r="H182" t="n">
         <v>30839.21</v>
+      </c>
+      <c r="I182" t="n">
+        <v>46736.73117332975</v>
+      </c>
+      <c r="J182" t="n">
+        <v>46735.75969927213</v>
+      </c>
+      <c r="K182" t="n">
+        <v>30840.15701129663</v>
       </c>
     </row>
     <row r="183">
@@ -3793,10 +6233,22 @@
         <v>41793.5</v>
       </c>
       <c r="F183" t="n">
-        <v>456.98</v>
+        <v>457.98</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1248.644473128807</v>
       </c>
       <c r="H183" t="n">
         <v>30799.7</v>
+      </c>
+      <c r="I183" t="n">
+        <v>43042.14447312881</v>
+      </c>
+      <c r="J183" t="n">
+        <v>43041.37300971128</v>
+      </c>
+      <c r="K183" t="n">
+        <v>30800.45262512263</v>
       </c>
     </row>
     <row r="184">
@@ -3807,10 +6259,22 @@
         <v>38432.4</v>
       </c>
       <c r="F184" t="n">
-        <v>456.88</v>
+        <v>457.88</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1728.679111813653</v>
       </c>
       <c r="H184" t="n">
         <v>30770.43</v>
+      </c>
+      <c r="I184" t="n">
+        <v>40161.07911181365</v>
+      </c>
+      <c r="J184" t="n">
+        <v>40160.46807104253</v>
+      </c>
+      <c r="K184" t="n">
+        <v>30771.02659082429</v>
       </c>
     </row>
     <row r="185">
@@ -3821,10 +6285,22 @@
         <v>37270.1</v>
       </c>
       <c r="F185" t="n">
-        <v>456.78</v>
+        <v>457.78</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-651.922109743231</v>
       </c>
       <c r="H185" t="n">
         <v>30748.28</v>
+      </c>
+      <c r="I185" t="n">
+        <v>37922.02210974323</v>
+      </c>
+      <c r="J185" t="n">
+        <v>37921.53939485001</v>
+      </c>
+      <c r="K185" t="n">
+        <v>30748.75167630952</v>
       </c>
     </row>
     <row r="186">
@@ -3835,10 +6311,22 @@
         <v>36334.8</v>
       </c>
       <c r="F186" t="n">
-        <v>456.68</v>
+        <v>457.68</v>
+      </c>
+      <c r="G186" t="n">
+        <v>149.2845273563507</v>
       </c>
       <c r="H186" t="n">
         <v>30729.46</v>
+      </c>
+      <c r="I186" t="n">
+        <v>36185.51547264365</v>
+      </c>
+      <c r="J186" t="n">
+        <v>36185.13513394506</v>
+      </c>
+      <c r="K186" t="n">
+        <v>30729.83194326642</v>
       </c>
     </row>
     <row r="187">
@@ -3849,10 +6337,22 @@
         <v>34625.6</v>
       </c>
       <c r="F187" t="n">
-        <v>456.58</v>
+        <v>457.58</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-218.7832107999202</v>
       </c>
       <c r="H187" t="n">
         <v>30714.67</v>
+      </c>
+      <c r="I187" t="n">
+        <v>34844.38321079992</v>
+      </c>
+      <c r="J187" t="n">
+        <v>34844.084326484</v>
+      </c>
+      <c r="K187" t="n">
+        <v>30714.96252982851</v>
       </c>
     </row>
     <row r="188">
@@ -3863,10 +6363,22 @@
         <v>34150.6</v>
       </c>
       <c r="F188" t="n">
-        <v>456.48</v>
+        <v>457.48</v>
+      </c>
+      <c r="G188" t="n">
+        <v>337.9211950977551</v>
       </c>
       <c r="H188" t="n">
         <v>30703.24</v>
+      </c>
+      <c r="I188" t="n">
+        <v>33812.67880490224</v>
+      </c>
+      <c r="J188" t="n">
+        <v>33812.44455336333</v>
+      </c>
+      <c r="K188" t="n">
+        <v>30703.46946701655</v>
       </c>
     </row>
     <row r="189">
@@ -3877,10 +6389,22 @@
         <v>33500.5</v>
       </c>
       <c r="F189" t="n">
-        <v>456.38</v>
+        <v>457.38</v>
+      </c>
+      <c r="G189" t="n">
+        <v>478.9635635455488</v>
       </c>
       <c r="H189" t="n">
         <v>30693.56</v>
+      </c>
+      <c r="I189" t="n">
+        <v>33021.53643645445</v>
+      </c>
+      <c r="J189" t="n">
+        <v>33021.35333020058</v>
+      </c>
+      <c r="K189" t="n">
+        <v>30693.73952421241</v>
       </c>
     </row>
     <row r="190">
@@ -3891,10 +6415,22 @@
         <v>32882.3</v>
       </c>
       <c r="F190" t="n">
-        <v>456.28</v>
+        <v>457.28</v>
+      </c>
+      <c r="G190" t="n">
+        <v>464.1603367181415</v>
       </c>
       <c r="H190" t="n">
         <v>30685.81</v>
+      </c>
+      <c r="I190" t="n">
+        <v>32418.13966328186</v>
+      </c>
+      <c r="J190" t="n">
+        <v>32417.99691829117</v>
+      </c>
+      <c r="K190" t="n">
+        <v>30685.95007949834</v>
       </c>
     </row>
     <row r="191">
@@ -3905,10 +6441,22 @@
         <v>32781.7</v>
       </c>
       <c r="F191" t="n">
-        <v>456.18</v>
+        <v>457.18</v>
+      </c>
+      <c r="G191" t="n">
+        <v>821.7638248091025</v>
       </c>
       <c r="H191" t="n">
         <v>30679.17</v>
+      </c>
+      <c r="I191" t="n">
+        <v>31959.93617519089</v>
+      </c>
+      <c r="J191" t="n">
+        <v>31959.82519331694</v>
+      </c>
+      <c r="K191" t="n">
+        <v>30679.27901121748</v>
       </c>
     </row>
     <row r="192">
@@ -3919,10 +6467,22 @@
         <v>31582.9</v>
       </c>
       <c r="F192" t="n">
-        <v>456.08</v>
+        <v>457.08</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-32.06121297148275</v>
       </c>
       <c r="H192" t="n">
         <v>30674.5</v>
+      </c>
+      <c r="I192" t="n">
+        <v>31614.96121297148</v>
+      </c>
+      <c r="J192" t="n">
+        <v>31614.87515836787</v>
+      </c>
+      <c r="K192" t="n">
+        <v>30674.58460758099</v>
       </c>
     </row>
     <row r="193">
@@ -3933,10 +6493,22 @@
         <v>32062.6</v>
       </c>
       <c r="F193" t="n">
-        <v>455.98</v>
+        <v>456.98</v>
+      </c>
+      <c r="G193" t="n">
+        <v>706.0127391930255</v>
       </c>
       <c r="H193" t="n">
         <v>30670.94</v>
+      </c>
+      <c r="I193" t="n">
+        <v>31356.58726080697</v>
+      </c>
+      <c r="J193" t="n">
+        <v>31356.52071430053</v>
+      </c>
+      <c r="K193" t="n">
+        <v>30671.0054915669</v>
       </c>
     </row>
     <row r="194">
@@ -3947,10 +6519,22 @@
         <v>32227.9</v>
       </c>
       <c r="F194" t="n">
-        <v>455.88</v>
+        <v>456.88</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1065.33335583967</v>
       </c>
       <c r="H194" t="n">
         <v>30666.41</v>
+      </c>
+      <c r="I194" t="n">
+        <v>31162.56664416033</v>
+      </c>
+      <c r="J194" t="n">
+        <v>31162.51532205689</v>
+      </c>
+      <c r="K194" t="n">
+        <v>30666.46055873026</v>
       </c>
     </row>
     <row r="195">
@@ -3961,10 +6545,22 @@
         <v>31659.9</v>
       </c>
       <c r="F195" t="n">
-        <v>455.78</v>
+        <v>456.78</v>
+      </c>
+      <c r="G195" t="n">
+        <v>641.1726216365532</v>
       </c>
       <c r="H195" t="n">
         <v>30662.46</v>
+      </c>
+      <c r="I195" t="n">
+        <v>31018.72737836345</v>
+      </c>
+      <c r="J195" t="n">
+        <v>31018.68790435759</v>
+      </c>
+      <c r="K195" t="n">
+        <v>30662.49892587524</v>
       </c>
     </row>
     <row r="196">
@@ -3975,10 +6571,22 @@
         <v>31408.9</v>
       </c>
       <c r="F196" t="n">
-        <v>455.68</v>
+        <v>456.68</v>
+      </c>
+      <c r="G196" t="n">
+        <v>495.3660505623811</v>
       </c>
       <c r="H196" t="n">
         <v>30659.75</v>
+      </c>
+      <c r="I196" t="n">
+        <v>30913.53394943762</v>
+      </c>
+      <c r="J196" t="n">
+        <v>30913.50367015953</v>
+      </c>
+      <c r="K196" t="n">
+        <v>30659.77988883253</v>
       </c>
     </row>
     <row r="197">
@@ -3989,10 +6597,22 @@
         <v>31413.7</v>
       </c>
       <c r="F197" t="n">
-        <v>455.58</v>
+        <v>456.58</v>
+      </c>
+      <c r="G197" t="n">
+        <v>576.9682493377004</v>
       </c>
       <c r="H197" t="n">
         <v>30657.43</v>
+      </c>
+      <c r="I197" t="n">
+        <v>30836.7317506623</v>
+      </c>
+      <c r="J197" t="n">
+        <v>30836.70858697388</v>
+      </c>
+      <c r="K197" t="n">
+        <v>30657.45288784201</v>
       </c>
     </row>
     <row r="198">
@@ -4003,10 +6623,22 @@
         <v>31525.9</v>
       </c>
       <c r="F198" t="n">
-        <v>455.48</v>
+        <v>456.48</v>
+      </c>
+      <c r="G198" t="n">
+        <v>745.3532674550697</v>
       </c>
       <c r="H198" t="n">
         <v>30654.93</v>
+      </c>
+      <c r="I198" t="n">
+        <v>30780.54673254493</v>
+      </c>
+      <c r="J198" t="n">
+        <v>30780.52906003214</v>
+      </c>
+      <c r="K198" t="n">
+        <v>30654.94747926499</v>
       </c>
     </row>
     <row r="199">
@@ -4017,10 +6649,22 @@
         <v>30839.3</v>
       </c>
       <c r="F199" t="n">
-        <v>455.38</v>
+        <v>456.38</v>
+      </c>
+      <c r="G199" t="n">
+        <v>98.75881279751047</v>
       </c>
       <c r="H199" t="n">
         <v>30653.29</v>
+      </c>
+      <c r="I199" t="n">
+        <v>30740.54118720249</v>
+      </c>
+      <c r="J199" t="n">
+        <v>30740.52774043625</v>
+      </c>
+      <c r="K199" t="n">
+        <v>30653.30331254538</v>
       </c>
     </row>
     <row r="200">
@@ -4031,10 +6675,22 @@
         <v>31315</v>
       </c>
       <c r="F200" t="n">
-        <v>455.28</v>
+        <v>456.28</v>
+      </c>
+      <c r="G200" t="n">
+        <v>602.9466837726577</v>
       </c>
       <c r="H200" t="n">
         <v>30651.98</v>
+      </c>
+      <c r="I200" t="n">
+        <v>30712.05331622734</v>
+      </c>
+      <c r="J200" t="n">
+        <v>30712.0431123114</v>
+      </c>
+      <c r="K200" t="n">
+        <v>30651.99011150813</v>
       </c>
     </row>
     <row r="201">
@@ -4045,10 +6701,22 @@
         <v>30985.2</v>
       </c>
       <c r="F201" t="n">
-        <v>455.18</v>
+        <v>456.18</v>
+      </c>
+      <c r="G201" t="n">
+        <v>293.7669440146637</v>
       </c>
       <c r="H201" t="n">
         <v>30650.44</v>
+      </c>
+      <c r="I201" t="n">
+        <v>30691.43305598534</v>
+      </c>
+      <c r="J201" t="n">
+        <v>30691.42533370267</v>
+      </c>
+      <c r="K201" t="n">
+        <v>30650.44765922876</v>
       </c>
     </row>
     <row r="202">
@@ -4059,10 +6727,22 @@
         <v>30875.4</v>
       </c>
       <c r="F202" t="n">
-        <v>455.08</v>
+        <v>456.08</v>
+      </c>
+      <c r="G202" t="n">
+        <v>198.1098688437378</v>
       </c>
       <c r="H202" t="n">
         <v>30649.57</v>
+      </c>
+      <c r="I202" t="n">
+        <v>30677.29013115626</v>
+      </c>
+      <c r="J202" t="n">
+        <v>30677.28430268844</v>
+      </c>
+      <c r="K202" t="n">
+        <v>30649.57578583275</v>
       </c>
     </row>
     <row r="203">
@@ -4073,10 +6753,22 @@
         <v>30713.9</v>
       </c>
       <c r="F203" t="n">
-        <v>454.98</v>
+        <v>455.98</v>
+      </c>
+      <c r="G203" t="n">
+        <v>46.20710043060899</v>
       </c>
       <c r="H203" t="n">
         <v>30649.12</v>
+      </c>
+      <c r="I203" t="n">
+        <v>30667.69289956939</v>
+      </c>
+      <c r="J203" t="n">
+        <v>30667.68851231562</v>
+      </c>
+      <c r="K203" t="n">
+        <v>30649.12435868997</v>
       </c>
     </row>
     <row r="204">
@@ -4087,10 +6779,22 @@
         <v>30565.6</v>
       </c>
       <c r="F204" t="n">
-        <v>454.88</v>
+        <v>455.88</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-95.87853586923666</v>
       </c>
       <c r="H204" t="n">
         <v>30649.15</v>
+      </c>
+      <c r="I204" t="n">
+        <v>30661.47853586924</v>
+      </c>
+      <c r="J204" t="n">
+        <v>30661.47524235055</v>
+      </c>
+      <c r="K204" t="n">
+        <v>30649.15327456013</v>
       </c>
     </row>
     <row r="205">
@@ -4101,10 +6805,22 @@
         <v>30870.9</v>
       </c>
       <c r="F205" t="n">
-        <v>454.78</v>
+        <v>455.78</v>
+      </c>
+      <c r="G205" t="n">
+        <v>213.8533223838604</v>
       </c>
       <c r="H205" t="n">
         <v>30648.94</v>
+      </c>
+      <c r="I205" t="n">
+        <v>30657.04667761614</v>
+      </c>
+      <c r="J205" t="n">
+        <v>30657.04421182942</v>
+      </c>
+      <c r="K205" t="n">
+        <v>30648.94245332191</v>
       </c>
     </row>
     <row r="206">
@@ -4115,10 +6831,22 @@
         <v>31009.2</v>
       </c>
       <c r="F206" t="n">
-        <v>454.68</v>
+        <v>455.68</v>
+      </c>
+      <c r="G206" t="n">
+        <v>355.8700466059963</v>
       </c>
       <c r="H206" t="n">
         <v>30648.05</v>
+      </c>
+      <c r="I206" t="n">
+        <v>30653.329953394</v>
+      </c>
+      <c r="J206" t="n">
+        <v>30653.32811229365</v>
+      </c>
+      <c r="K206" t="n">
+        <v>30648.05183298304</v>
       </c>
     </row>
     <row r="207">
@@ -4129,10 +6857,22 @@
         <v>31029.9</v>
       </c>
       <c r="F207" t="n">
-        <v>454.58</v>
+        <v>455.58</v>
+      </c>
+      <c r="G207" t="n">
+        <v>379.5940925159593</v>
       </c>
       <c r="H207" t="n">
         <v>30646.9</v>
+      </c>
+      <c r="I207" t="n">
+        <v>30650.30590748404</v>
+      </c>
+      <c r="J207" t="n">
+        <v>30650.30453652603</v>
+      </c>
+      <c r="K207" t="n">
+        <v>30646.90136572272</v>
       </c>
     </row>
     <row r="208">
@@ -4143,10 +6883,22 @@
         <v>30333.4</v>
       </c>
       <c r="F208" t="n">
-        <v>454.48</v>
+        <v>455.48</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-315.5557765056074</v>
       </c>
       <c r="H208" t="n">
         <v>30646.78</v>
+      </c>
+      <c r="I208" t="n">
+        <v>30648.95577650561</v>
+      </c>
+      <c r="J208" t="n">
+        <v>30648.9547583987</v>
+      </c>
+      <c r="K208" t="n">
+        <v>30646.78101476317</v>
       </c>
     </row>
     <row r="209">
@@ -4157,10 +6909,22 @@
         <v>30287.4</v>
       </c>
       <c r="F209" t="n">
-        <v>454.38</v>
+        <v>455.38</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-361.7863871130285</v>
       </c>
       <c r="H209" t="n">
         <v>30647.81</v>
+      </c>
+      <c r="I209" t="n">
+        <v>30649.18638711303</v>
+      </c>
+      <c r="J209" t="n">
+        <v>30649.18563309345</v>
+      </c>
+      <c r="K209" t="n">
+        <v>30647.81075190487</v>
       </c>
     </row>
     <row r="210">
@@ -4171,10 +6935,22 @@
         <v>30217.2</v>
       </c>
       <c r="F210" t="n">
-        <v>454.28</v>
+        <v>455.28</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-432.6921461840575</v>
       </c>
       <c r="H210" t="n">
         <v>30649.03</v>
+      </c>
+      <c r="I210" t="n">
+        <v>30649.89214618406</v>
+      </c>
+      <c r="J210" t="n">
+        <v>30649.8915892689</v>
+      </c>
+      <c r="K210" t="n">
+        <v>30649.03055559095</v>
       </c>
     </row>
     <row r="211">
@@ -4185,10 +6961,22 @@
         <v>30891.8</v>
       </c>
       <c r="F211" t="n">
-        <v>454.18</v>
+        <v>455.18</v>
+      </c>
+      <c r="G211" t="n">
+        <v>241.9353037488254</v>
       </c>
       <c r="H211" t="n">
         <v>30649.33</v>
+      </c>
+      <c r="I211" t="n">
+        <v>30649.86469625117</v>
+      </c>
+      <c r="J211" t="n">
+        <v>30649.86428603802</v>
+      </c>
+      <c r="K211" t="n">
+        <v>30649.33040939221</v>
       </c>
     </row>
     <row r="212">
@@ -4199,10 +6987,22 @@
         <v>30333.1</v>
       </c>
       <c r="F212" t="n">
-        <v>454.08</v>
+        <v>455.08</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-316.66831743691</v>
       </c>
       <c r="H212" t="n">
         <v>30649.44</v>
+      </c>
+      <c r="I212" t="n">
+        <v>30649.76831743691</v>
+      </c>
+      <c r="J212" t="n">
+        <v>30649.76801610783</v>
+      </c>
+      <c r="K212" t="n">
+        <v>30649.44030082523</v>
       </c>
     </row>
     <row r="213">
@@ -4213,10 +7013,22 @@
         <v>30538.3</v>
       </c>
       <c r="F213" t="n">
-        <v>453.98</v>
+        <v>454.98</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-111.9995808054809</v>
       </c>
       <c r="H213" t="n">
         <v>30650.1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>30650.29958080548</v>
+      </c>
+      <c r="J213" t="n">
+        <v>30650.29936006596</v>
+      </c>
+      <c r="K213" t="n">
+        <v>30650.10022043342</v>
       </c>
     </row>
     <row r="214">
@@ -4227,10 +7039,22 @@
         <v>30385.8</v>
       </c>
       <c r="F214" t="n">
-        <v>453.88</v>
+        <v>454.88</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-0.1201052311480453</v>
       </c>
       <c r="H214" t="n">
         <v>30385.8</v>
+      </c>
+      <c r="I214" t="n">
+        <v>30385.92010523115</v>
+      </c>
+      <c r="J214" t="n">
+        <v>30385.91994397238</v>
+      </c>
+      <c r="K214" t="n">
+        <v>30385.8001610747</v>
       </c>
     </row>
     <row r="215">
@@ -4241,10 +7065,22 @@
         <v>30989.1</v>
       </c>
       <c r="F215" t="n">
-        <v>453.78</v>
+        <v>454.78</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-0.07154953984718304</v>
       </c>
       <c r="H215" t="n">
         <v>30989.1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>30989.17154953985</v>
+      </c>
+      <c r="J215" t="n">
+        <v>30989.1714320589</v>
+      </c>
+      <c r="K215" t="n">
+        <v>30989.10011737139</v>
       </c>
     </row>
     <row r="216">
@@ -4255,10 +7091,22 @@
         <v>30624.1</v>
       </c>
       <c r="F216" t="n">
-        <v>453.68</v>
+        <v>454.68</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-0.04219300865224795</v>
       </c>
       <c r="H216" t="n">
         <v>30624.1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>30624.14219300865</v>
+      </c>
+      <c r="J216" t="n">
+        <v>30624.14210765758</v>
+      </c>
+      <c r="K216" t="n">
+        <v>30624.10008528655</v>
       </c>
     </row>
     <row r="217">
@@ -4269,10 +7117,22 @@
         <v>30723.4</v>
       </c>
       <c r="F217" t="n">
-        <v>453.58</v>
+        <v>454.58</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-0.02462940737314057</v>
       </c>
       <c r="H217" t="n">
         <v>30723.4</v>
+      </c>
+      <c r="I217" t="n">
+        <v>30723.42462940737</v>
+      </c>
+      <c r="J217" t="n">
+        <v>30723.42456757089</v>
+      </c>
+      <c r="K217" t="n">
+        <v>30723.40006179888</v>
       </c>
     </row>
     <row r="218">
@@ -4283,10 +7143,22 @@
         <v>30451.6</v>
       </c>
       <c r="F218" t="n">
-        <v>453.48</v>
+        <v>454.48</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-0.01423126070585568</v>
       </c>
       <c r="H218" t="n">
         <v>30451.6</v>
+      </c>
+      <c r="I218" t="n">
+        <v>30451.6142312607</v>
+      </c>
+      <c r="J218" t="n">
+        <v>30451.61418658497</v>
+      </c>
+      <c r="K218" t="n">
+        <v>30451.60004465405</v>
       </c>
     </row>
     <row r="219">
@@ -4297,10 +7169,22 @@
         <v>30635.9</v>
       </c>
       <c r="F219" t="n">
-        <v>453.38</v>
+        <v>454.38</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-0.008139752739225514</v>
       </c>
       <c r="H219" t="n">
         <v>30635.9</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30635.90813975274</v>
+      </c>
+      <c r="J219" t="n">
+        <v>30635.90810756528</v>
+      </c>
+      <c r="K219" t="n">
+        <v>30635.90003217509</v>
       </c>
     </row>
     <row r="220">
@@ -4311,10 +7195,22 @@
         <v>30125.8</v>
       </c>
       <c r="F220" t="n">
-        <v>453.28</v>
+        <v>454.28</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-0.004608591276337393</v>
       </c>
       <c r="H220" t="n">
         <v>30125.8</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30125.80460859128</v>
+      </c>
+      <c r="J220" t="n">
+        <v>30125.804585466</v>
+      </c>
+      <c r="K220" t="n">
+        <v>30125.8000231183</v>
       </c>
     </row>
     <row r="221">
@@ -4325,10 +7221,22 @@
         <v>30531</v>
       </c>
       <c r="F221" t="n">
-        <v>453.18</v>
+        <v>454.18</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-0.002583068748208461</v>
       </c>
       <c r="H221" t="n">
         <v>30531</v>
+      </c>
+      <c r="I221" t="n">
+        <v>30531.00258306875</v>
+      </c>
+      <c r="J221" t="n">
+        <v>30531.00256650076</v>
+      </c>
+      <c r="K221" t="n">
+        <v>30531.0000165641</v>
       </c>
     </row>
     <row r="222">
@@ -4339,10 +7247,22 @@
         <v>30227.4</v>
       </c>
       <c r="F222" t="n">
-        <v>453.08</v>
+        <v>454.08</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-0.001433345623809146</v>
       </c>
       <c r="H222" t="n">
         <v>30227.4</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30227.40143334563</v>
+      </c>
+      <c r="J222" t="n">
+        <v>30227.40142150887</v>
+      </c>
+      <c r="K222" t="n">
+        <v>30227.40001183461</v>
       </c>
     </row>
     <row r="223">
@@ -4353,10 +7273,22 @@
         <v>30296</v>
       </c>
       <c r="F223" t="n">
-        <v>452.98</v>
+        <v>453.98</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-0.0007875346236687619</v>
       </c>
       <c r="H223" t="n">
         <v>30296</v>
+      </c>
+      <c r="I223" t="n">
+        <v>30296.00078753462</v>
+      </c>
+      <c r="J223" t="n">
+        <v>30296.00077910179</v>
+      </c>
+      <c r="K223" t="n">
+        <v>30296.00000843166</v>
       </c>
     </row>
     <row r="224">
@@ -4367,10 +7299,22 @@
         <v>30264.3</v>
       </c>
       <c r="F224" t="n">
-        <v>452.88</v>
+        <v>453.88</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-0.0004285254399292171</v>
       </c>
       <c r="H224" t="n">
         <v>30264.3</v>
+      </c>
+      <c r="I224" t="n">
+        <v>30264.30042852544</v>
+      </c>
+      <c r="J224" t="n">
+        <v>30264.30042253457</v>
+      </c>
+      <c r="K224" t="n">
+        <v>30264.30000599024</v>
       </c>
     </row>
     <row r="225">
@@ -4381,10 +7325,22 @@
         <v>30284.3</v>
       </c>
       <c r="F225" t="n">
-        <v>452.78</v>
+        <v>453.78</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-0.000230990961426869</v>
       </c>
       <c r="H225" t="n">
         <v>30284.3</v>
+      </c>
+      <c r="I225" t="n">
+        <v>30284.30023099096</v>
+      </c>
+      <c r="J225" t="n">
+        <v>30284.30022674692</v>
+      </c>
+      <c r="K225" t="n">
+        <v>30284.30000424371</v>
       </c>
     </row>
     <row r="226">
@@ -4395,10 +7351,22 @@
         <v>30439.6</v>
       </c>
       <c r="F226" t="n">
-        <v>452.68</v>
+        <v>453.68</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-0.0001233962648257148</v>
       </c>
       <c r="H226" t="n">
         <v>30439.6</v>
+      </c>
+      <c r="I226" t="n">
+        <v>30439.60012339626</v>
+      </c>
+      <c r="J226" t="n">
+        <v>30439.6001203982</v>
+      </c>
+      <c r="K226" t="n">
+        <v>30439.60000299789</v>
       </c>
     </row>
     <row r="227">
@@ -4409,10 +7377,22 @@
         <v>30214.6</v>
       </c>
       <c r="F227" t="n">
-        <v>452.58</v>
+        <v>453.58</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-6.536575529025868e-05</v>
       </c>
       <c r="H227" t="n">
         <v>30214.6</v>
+      </c>
+      <c r="I227" t="n">
+        <v>30214.60006536575</v>
+      </c>
+      <c r="J227" t="n">
+        <v>30214.60006325386</v>
+      </c>
+      <c r="K227" t="n">
+        <v>30214.60000211181</v>
       </c>
     </row>
     <row r="228">
@@ -4423,10 +7403,22 @@
         <v>30825.9</v>
       </c>
       <c r="F228" t="n">
-        <v>452.48</v>
+        <v>453.48</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-3.436346014495939e-05</v>
       </c>
       <c r="H228" t="n">
         <v>30825.9</v>
+      </c>
+      <c r="I228" t="n">
+        <v>30825.90003436346</v>
+      </c>
+      <c r="J228" t="n">
+        <v>30825.90003288001</v>
+      </c>
+      <c r="K228" t="n">
+        <v>30825.90000148341</v>
       </c>
     </row>
     <row r="229">
@@ -4437,10 +7429,22 @@
         <v>30212.1</v>
       </c>
       <c r="F229" t="n">
-        <v>452.38</v>
+        <v>453.38</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1.794911077013239e-05</v>
       </c>
       <c r="H229" t="n">
         <v>30212.1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>30212.10001794911</v>
+      </c>
+      <c r="J229" t="n">
+        <v>30212.10001691006</v>
+      </c>
+      <c r="K229" t="n">
+        <v>30212.10000103903</v>
       </c>
     </row>
     <row r="230">
@@ -4451,10 +7455,22 @@
         <v>30610.7</v>
       </c>
       <c r="F230" t="n">
-        <v>452.28</v>
+        <v>453.28</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-9.330047760158777e-06</v>
       </c>
       <c r="H230" t="n">
         <v>30610.7</v>
+      </c>
+      <c r="I230" t="n">
+        <v>30610.70000933005</v>
+      </c>
+      <c r="J230" t="n">
+        <v>30610.70000860432</v>
+      </c>
+      <c r="K230" t="n">
+        <v>30610.70000072571</v>
       </c>
     </row>
     <row r="231">
@@ -4465,10 +7481,22 @@
         <v>30346.7</v>
       </c>
       <c r="F231" t="n">
-        <v>452.18</v>
+        <v>453.18</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-4.836936568608508e-06</v>
       </c>
       <c r="H231" t="n">
         <v>30346.7</v>
+      </c>
+      <c r="I231" t="n">
+        <v>30346.70000483694</v>
+      </c>
+      <c r="J231" t="n">
+        <v>30346.7000043315</v>
+      </c>
+      <c r="K231" t="n">
+        <v>30346.70000050543</v>
       </c>
     </row>
     <row r="232">
@@ -4479,10 +7507,22 @@
         <v>29739.6</v>
       </c>
       <c r="F232" t="n">
-        <v>452.08</v>
+        <v>453.08</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-2.508262696210295e-06</v>
       </c>
       <c r="H232" t="n">
         <v>29739.6</v>
+      </c>
+      <c r="I232" t="n">
+        <v>29739.60000250826</v>
+      </c>
+      <c r="J232" t="n">
+        <v>29739.60000215725</v>
+      </c>
+      <c r="K232" t="n">
+        <v>29739.60000035101</v>
       </c>
     </row>
     <row r="233">
@@ -4493,10 +7533,22 @@
         <v>30374</v>
       </c>
       <c r="F233" t="n">
-        <v>451.98</v>
+        <v>452.98</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1.305987098021433e-06</v>
       </c>
       <c r="H233" t="n">
         <v>30374</v>
+      </c>
+      <c r="I233" t="n">
+        <v>30374.00000130599</v>
+      </c>
+      <c r="J233" t="n">
+        <v>30374.00000106291</v>
+      </c>
+      <c r="K233" t="n">
+        <v>30374.00000024308</v>
       </c>
     </row>
     <row r="234">
@@ -4507,10 +7559,22 @@
         <v>30580.4</v>
       </c>
       <c r="F234" t="n">
-        <v>451.88</v>
+        <v>452.88</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-6.859590939711779e-07</v>
       </c>
       <c r="H234" t="n">
         <v>30580.4</v>
+      </c>
+      <c r="I234" t="n">
+        <v>30580.40000068596</v>
+      </c>
+      <c r="J234" t="n">
+        <v>30580.4000005181</v>
+      </c>
+      <c r="K234" t="n">
+        <v>30580.40000016785</v>
       </c>
     </row>
     <row r="235">
@@ -4521,10 +7585,22 @@
         <v>30454.1</v>
       </c>
       <c r="F235" t="n">
-        <v>451.78</v>
+        <v>452.78</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-3.6541314329952e-07</v>
       </c>
       <c r="H235" t="n">
         <v>30454.1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>30454.10000036541</v>
+      </c>
+      <c r="J235" t="n">
+        <v>30454.10000024984</v>
+      </c>
+      <c r="K235" t="n">
+        <v>30454.10000011557</v>
       </c>
     </row>
     <row r="236">
@@ -4535,10 +7611,22 @@
         <v>29955.2</v>
       </c>
       <c r="F236" t="n">
-        <v>451.68</v>
+        <v>452.68</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1.98531779460609e-07</v>
       </c>
       <c r="H236" t="n">
         <v>29955.2</v>
+      </c>
+      <c r="I236" t="n">
+        <v>29955.20000019853</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29955.20000011918</v>
+      </c>
+      <c r="K236" t="n">
+        <v>29955.20000007936</v>
       </c>
     </row>
     <row r="237">
@@ -4549,10 +7637,22 @@
         <v>30165.1</v>
       </c>
       <c r="F237" t="n">
-        <v>451.58</v>
+        <v>452.58</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1.105690898839384e-07</v>
       </c>
       <c r="H237" t="n">
         <v>30165.1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>30165.10000011057</v>
+      </c>
+      <c r="J237" t="n">
+        <v>30165.10000005624</v>
+      </c>
+      <c r="K237" t="n">
+        <v>30165.10000005433</v>
       </c>
     </row>
     <row r="238">
@@ -4563,10 +7663,22 @@
         <v>30325.2</v>
       </c>
       <c r="F238" t="n">
-        <v>451.48</v>
+        <v>452.48</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-6.334448698908091e-08</v>
       </c>
       <c r="H238" t="n">
         <v>30325.2</v>
+      </c>
+      <c r="I238" t="n">
+        <v>30325.20000006335</v>
+      </c>
+      <c r="J238" t="n">
+        <v>30325.20000002626</v>
+      </c>
+      <c r="K238" t="n">
+        <v>30325.20000003709</v>
       </c>
     </row>
     <row r="239">
@@ -4577,10 +7689,22 @@
         <v>30971.6</v>
       </c>
       <c r="F239" t="n">
-        <v>451.38</v>
+        <v>452.38</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-3.737295628525317e-08</v>
       </c>
       <c r="H239" t="n">
         <v>30971.6</v>
+      </c>
+      <c r="I239" t="n">
+        <v>30971.60000003737</v>
+      </c>
+      <c r="J239" t="n">
+        <v>30971.60000001212</v>
+      </c>
+      <c r="K239" t="n">
+        <v>30971.60000002525</v>
       </c>
     </row>
     <row r="240">
@@ -4591,10 +7715,22 @@
         <v>30521.3</v>
       </c>
       <c r="F240" t="n">
-        <v>451.28</v>
+        <v>452.28</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-2.267188392579556e-08</v>
       </c>
       <c r="H240" t="n">
         <v>30521.3</v>
+      </c>
+      <c r="I240" t="n">
+        <v>30521.30000002267</v>
+      </c>
+      <c r="J240" t="n">
+        <v>30521.30000000554</v>
+      </c>
+      <c r="K240" t="n">
+        <v>30521.30000001713</v>
       </c>
     </row>
     <row r="241">
@@ -4605,10 +7741,22 @@
         <v>30670.1</v>
       </c>
       <c r="F241" t="n">
-        <v>451.18</v>
+        <v>452.18</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1.410080585628748e-08</v>
       </c>
       <c r="H241" t="n">
         <v>30670.1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>30670.1000000141</v>
+      </c>
+      <c r="J241" t="n">
+        <v>30670.1000000025</v>
+      </c>
+      <c r="K241" t="n">
+        <v>30670.1000000116</v>
       </c>
     </row>
     <row r="242">
@@ -4619,10 +7767,22 @@
         <v>30170.9</v>
       </c>
       <c r="F242" t="n">
-        <v>451.08</v>
+        <v>452.08</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-8.945789886638522e-09</v>
       </c>
       <c r="H242" t="n">
         <v>30170.9</v>
+      </c>
+      <c r="I242" t="n">
+        <v>30170.90000000895</v>
+      </c>
+      <c r="J242" t="n">
+        <v>30170.90000000112</v>
+      </c>
+      <c r="K242" t="n">
+        <v>30170.90000000783</v>
       </c>
     </row>
     <row r="243">
@@ -4633,10 +7793,22 @@
         <v>30373.3</v>
       </c>
       <c r="F243" t="n">
-        <v>450.98</v>
+        <v>451.98</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-5.762558430433273e-09</v>
       </c>
       <c r="H243" t="n">
         <v>30373.3</v>
+      </c>
+      <c r="I243" t="n">
+        <v>30373.30000000576</v>
+      </c>
+      <c r="J243" t="n">
+        <v>30373.30000000049</v>
+      </c>
+      <c r="K243" t="n">
+        <v>30373.30000000527</v>
       </c>
     </row>
     <row r="244">
@@ -4647,10 +7819,22 @@
         <v>30766</v>
       </c>
       <c r="F244" t="n">
-        <v>450.88</v>
+        <v>451.88</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-3.750756150111556e-09</v>
       </c>
       <c r="H244" t="n">
         <v>30766</v>
+      </c>
+      <c r="I244" t="n">
+        <v>30766.00000000375</v>
+      </c>
+      <c r="J244" t="n">
+        <v>30766.00000000021</v>
+      </c>
+      <c r="K244" t="n">
+        <v>30766.00000000354</v>
       </c>
     </row>
     <row r="245">
@@ -4661,10 +7845,22 @@
         <v>30578.8</v>
       </c>
       <c r="F245" t="n">
-        <v>450.78</v>
+        <v>451.78</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-2.459273673593998e-09</v>
       </c>
       <c r="H245" t="n">
         <v>30578.8</v>
+      </c>
+      <c r="I245" t="n">
+        <v>30578.80000000246</v>
+      </c>
+      <c r="J245" t="n">
+        <v>30578.80000000009</v>
+      </c>
+      <c r="K245" t="n">
+        <v>30578.80000000236</v>
       </c>
     </row>
     <row r="246">
@@ -4675,10 +7871,22 @@
         <v>29672.6</v>
       </c>
       <c r="F246" t="n">
-        <v>450.68</v>
+        <v>451.68</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1.618900569155812e-09</v>
       </c>
       <c r="H246" t="n">
         <v>29672.6</v>
+      </c>
+      <c r="I246" t="n">
+        <v>29672.60000000162</v>
+      </c>
+      <c r="J246" t="n">
+        <v>29672.60000000004</v>
+      </c>
+      <c r="K246" t="n">
+        <v>29672.60000000158</v>
       </c>
     </row>
     <row r="247">
@@ -4689,10 +7897,22 @@
         <v>30111</v>
       </c>
       <c r="F247" t="n">
-        <v>450.58</v>
+        <v>451.58</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1.069565769284964e-09</v>
       </c>
       <c r="H247" t="n">
         <v>30111</v>
+      </c>
+      <c r="I247" t="n">
+        <v>30111.00000000107</v>
+      </c>
+      <c r="J247" t="n">
+        <v>30111.00000000002</v>
+      </c>
+      <c r="K247" t="n">
+        <v>30111.00000000105</v>
       </c>
     </row>
     <row r="248">
@@ -4703,10 +7923,22 @@
         <v>30286.2</v>
       </c>
       <c r="F248" t="n">
-        <v>450.48</v>
+        <v>451.48</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-7.021299097687006e-10</v>
       </c>
       <c r="H248" t="n">
         <v>30286.2</v>
+      </c>
+      <c r="I248" t="n">
+        <v>30286.2000000007</v>
+      </c>
+      <c r="J248" t="n">
+        <v>30286.20000000001</v>
+      </c>
+      <c r="K248" t="n">
+        <v>30286.2000000007</v>
       </c>
     </row>
     <row r="249">
@@ -4717,10 +7949,22 @@
         <v>30475.6</v>
       </c>
       <c r="F249" t="n">
-        <v>450.38</v>
+        <v>451.38</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="H249" t="n">
         <v>30475.6</v>
+      </c>
+      <c r="I249" t="n">
+        <v>30475.60000000046</v>
+      </c>
+      <c r="J249" t="n">
+        <v>30475.6</v>
+      </c>
+      <c r="K249" t="n">
+        <v>30475.60000000046</v>
       </c>
     </row>
     <row r="250">
@@ -4731,10 +7975,22 @@
         <v>30163.7</v>
       </c>
       <c r="F250" t="n">
-        <v>450.28</v>
+        <v>451.28</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-3.019522409886122e-10</v>
       </c>
       <c r="H250" t="n">
         <v>30163.7</v>
+      </c>
+      <c r="I250" t="n">
+        <v>30163.7000000003</v>
+      </c>
+      <c r="J250" t="n">
+        <v>30163.7</v>
+      </c>
+      <c r="K250" t="n">
+        <v>30163.7000000003</v>
       </c>
     </row>
     <row r="251">
@@ -4745,10 +8001,22 @@
         <v>30019.2</v>
       </c>
       <c r="F251" t="n">
-        <v>450.18</v>
+        <v>451.18</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-2.000888343900442e-10</v>
       </c>
       <c r="H251" t="n">
         <v>30019.2</v>
+      </c>
+      <c r="I251" t="n">
+        <v>30019.2000000002</v>
+      </c>
+      <c r="J251" t="n">
+        <v>30019.2</v>
+      </c>
+      <c r="K251" t="n">
+        <v>30019.2000000002</v>
       </c>
     </row>
     <row r="252">
@@ -4759,10 +8027,22 @@
         <v>29831.2</v>
       </c>
       <c r="F252" t="n">
-        <v>450.08</v>
+        <v>451.08</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1.309672370553017e-10</v>
       </c>
       <c r="H252" t="n">
         <v>29831.2</v>
+      </c>
+      <c r="I252" t="n">
+        <v>29831.20000000013</v>
+      </c>
+      <c r="J252" t="n">
+        <v>29831.2</v>
+      </c>
+      <c r="K252" t="n">
+        <v>29831.20000000013</v>
       </c>
     </row>
     <row r="253">
@@ -4773,10 +8053,22 @@
         <v>30011.3</v>
       </c>
       <c r="F253" t="n">
-        <v>449.98</v>
+        <v>450.98</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-8.731149137020111e-11</v>
       </c>
       <c r="H253" t="n">
         <v>30011.3</v>
+      </c>
+      <c r="I253" t="n">
+        <v>30011.30000000009</v>
+      </c>
+      <c r="J253" t="n">
+        <v>30011.3</v>
+      </c>
+      <c r="K253" t="n">
+        <v>30011.30000000009</v>
       </c>
     </row>
     <row r="254">
@@ -4787,10 +8079,22 @@
         <v>30570.4</v>
       </c>
       <c r="F254" t="n">
-        <v>449.88</v>
+        <v>450.88</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-5.456968210637569e-11</v>
       </c>
       <c r="H254" t="n">
         <v>30570.4</v>
+      </c>
+      <c r="I254" t="n">
+        <v>30570.40000000006</v>
+      </c>
+      <c r="J254" t="n">
+        <v>30570.4</v>
+      </c>
+      <c r="K254" t="n">
+        <v>30570.40000000006</v>
       </c>
     </row>
     <row r="255">
@@ -4801,10 +8105,22 @@
         <v>29994.1</v>
       </c>
       <c r="F255" t="n">
-        <v>449.78</v>
+        <v>450.78</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-3.637978807091713e-11</v>
       </c>
       <c r="H255" t="n">
         <v>29994.1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>29994.10000000003</v>
+      </c>
+      <c r="J255" t="n">
+        <v>29994.1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>29994.10000000003</v>
       </c>
     </row>
     <row r="256">
@@ -4815,10 +8131,22 @@
         <v>30867.8</v>
       </c>
       <c r="F256" t="n">
-        <v>449.68</v>
+        <v>450.68</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-2.182787284255028e-11</v>
       </c>
       <c r="H256" t="n">
         <v>30867.8</v>
+      </c>
+      <c r="I256" t="n">
+        <v>30867.80000000002</v>
+      </c>
+      <c r="J256" t="n">
+        <v>30867.8</v>
+      </c>
+      <c r="K256" t="n">
+        <v>30867.80000000002</v>
       </c>
     </row>
     <row r="257">
@@ -4829,10 +8157,22 @@
         <v>30532.7</v>
       </c>
       <c r="F257" t="n">
-        <v>449.58</v>
+        <v>450.58</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1.455191522836685e-11</v>
       </c>
       <c r="H257" t="n">
         <v>30532.7</v>
+      </c>
+      <c r="I257" t="n">
+        <v>30532.70000000002</v>
+      </c>
+      <c r="J257" t="n">
+        <v>30532.7</v>
+      </c>
+      <c r="K257" t="n">
+        <v>30532.70000000002</v>
       </c>
     </row>
     <row r="258">
@@ -4843,10 +8183,22 @@
         <v>30713.9</v>
       </c>
       <c r="F258" t="n">
-        <v>449.48</v>
+        <v>450.48</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1.091393642127514e-11</v>
       </c>
       <c r="H258" t="n">
         <v>30713.9</v>
+      </c>
+      <c r="I258" t="n">
+        <v>30713.90000000001</v>
+      </c>
+      <c r="J258" t="n">
+        <v>30713.9</v>
+      </c>
+      <c r="K258" t="n">
+        <v>30713.90000000001</v>
       </c>
     </row>
     <row r="259">
@@ -4857,10 +8209,22 @@
         <v>30454.5</v>
       </c>
       <c r="F259" t="n">
-        <v>449.38</v>
+        <v>450.38</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="H259" t="n">
         <v>30454.5</v>
+      </c>
+      <c r="I259" t="n">
+        <v>30454.50000000001</v>
+      </c>
+      <c r="J259" t="n">
+        <v>30454.5</v>
+      </c>
+      <c r="K259" t="n">
+        <v>30454.50000000001</v>
       </c>
     </row>
     <row r="260">
@@ -4871,10 +8235,22 @@
         <v>30068.4</v>
       </c>
       <c r="F260" t="n">
-        <v>449.28</v>
+        <v>450.28</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-3.637978807091713e-12</v>
       </c>
       <c r="H260" t="n">
         <v>30068.4</v>
+      </c>
+      <c r="I260" t="n">
+        <v>30068.40000000001</v>
+      </c>
+      <c r="J260" t="n">
+        <v>30068.4</v>
+      </c>
+      <c r="K260" t="n">
+        <v>30068.40000000001</v>
       </c>
     </row>
     <row r="261">
@@ -4885,10 +8261,22 @@
         <v>29912.4</v>
       </c>
       <c r="F261" t="n">
-        <v>449.18</v>
+        <v>450.18</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-3.637978807091713e-12</v>
       </c>
       <c r="H261" t="n">
         <v>29912.4</v>
+      </c>
+      <c r="I261" t="n">
+        <v>29912.40000000001</v>
+      </c>
+      <c r="J261" t="n">
+        <v>29912.4</v>
+      </c>
+      <c r="K261" t="n">
+        <v>29912.40000000001</v>
       </c>
     </row>
     <row r="262">
@@ -4899,9 +8287,21 @@
         <v>30174.8</v>
       </c>
       <c r="F262" t="n">
-        <v>449.08</v>
+        <v>450.08</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
       </c>
       <c r="H262" t="n">
+        <v>30174.8</v>
+      </c>
+      <c r="I262" t="n">
+        <v>30174.8</v>
+      </c>
+      <c r="J262" t="n">
+        <v>30174.8</v>
+      </c>
+      <c r="K262" t="n">
         <v>30174.8</v>
       </c>
     </row>
@@ -4913,9 +8313,21 @@
         <v>30120.3</v>
       </c>
       <c r="F263" t="n">
-        <v>448.98</v>
+        <v>449.98</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
       </c>
       <c r="H263" t="n">
+        <v>30120.3</v>
+      </c>
+      <c r="I263" t="n">
+        <v>30120.3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>30120.3</v>
+      </c>
+      <c r="K263" t="n">
         <v>30120.3</v>
       </c>
     </row>
@@ -4927,9 +8339,21 @@
         <v>30110.4</v>
       </c>
       <c r="F264" t="n">
-        <v>448.88</v>
+        <v>449.88</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
       </c>
       <c r="H264" t="n">
+        <v>30110.4</v>
+      </c>
+      <c r="I264" t="n">
+        <v>30110.4</v>
+      </c>
+      <c r="J264" t="n">
+        <v>30110.4</v>
+      </c>
+      <c r="K264" t="n">
         <v>30110.4</v>
       </c>
     </row>
@@ -4941,9 +8365,21 @@
         <v>30306.8</v>
       </c>
       <c r="F265" t="n">
-        <v>448.78</v>
+        <v>449.78</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
       </c>
       <c r="H265" t="n">
+        <v>30306.8</v>
+      </c>
+      <c r="I265" t="n">
+        <v>30306.8</v>
+      </c>
+      <c r="J265" t="n">
+        <v>30306.8</v>
+      </c>
+      <c r="K265" t="n">
         <v>30306.8</v>
       </c>
     </row>
@@ -4955,9 +8391,21 @@
         <v>29977.1</v>
       </c>
       <c r="F266" t="n">
-        <v>448.68</v>
+        <v>449.68</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0</v>
       </c>
       <c r="H266" t="n">
+        <v>29977.1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>29977.1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>29977.1</v>
+      </c>
+      <c r="K266" t="n">
         <v>29977.1</v>
       </c>
     </row>
@@ -4969,9 +8417,21 @@
         <v>30408.4</v>
       </c>
       <c r="F267" t="n">
-        <v>448.58</v>
+        <v>449.58</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
       </c>
       <c r="H267" t="n">
+        <v>30408.4</v>
+      </c>
+      <c r="I267" t="n">
+        <v>30408.4</v>
+      </c>
+      <c r="J267" t="n">
+        <v>30408.4</v>
+      </c>
+      <c r="K267" t="n">
         <v>30408.4</v>
       </c>
     </row>
@@ -4983,9 +8443,21 @@
         <v>30672.7</v>
       </c>
       <c r="F268" t="n">
-        <v>448.48</v>
+        <v>449.48</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
       </c>
       <c r="H268" t="n">
+        <v>30672.7</v>
+      </c>
+      <c r="I268" t="n">
+        <v>30672.7</v>
+      </c>
+      <c r="J268" t="n">
+        <v>30672.7</v>
+      </c>
+      <c r="K268" t="n">
         <v>30672.7</v>
       </c>
     </row>
@@ -4997,9 +8469,21 @@
         <v>30340.6</v>
       </c>
       <c r="F269" t="n">
-        <v>448.38</v>
+        <v>449.38</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
       </c>
       <c r="H269" t="n">
+        <v>30340.6</v>
+      </c>
+      <c r="I269" t="n">
+        <v>30340.6</v>
+      </c>
+      <c r="J269" t="n">
+        <v>30340.6</v>
+      </c>
+      <c r="K269" t="n">
         <v>30340.6</v>
       </c>
     </row>
@@ -5011,9 +8495,21 @@
         <v>29974.9</v>
       </c>
       <c r="F270" t="n">
-        <v>448.28</v>
+        <v>449.28</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
       </c>
       <c r="H270" t="n">
+        <v>29974.9</v>
+      </c>
+      <c r="I270" t="n">
+        <v>29974.9</v>
+      </c>
+      <c r="J270" t="n">
+        <v>29974.9</v>
+      </c>
+      <c r="K270" t="n">
         <v>29974.9</v>
       </c>
     </row>
@@ -5025,9 +8521,21 @@
         <v>30914.7</v>
       </c>
       <c r="F271" t="n">
-        <v>448.18</v>
+        <v>449.18</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
       </c>
       <c r="H271" t="n">
+        <v>30914.7</v>
+      </c>
+      <c r="I271" t="n">
+        <v>30914.7</v>
+      </c>
+      <c r="J271" t="n">
+        <v>30914.7</v>
+      </c>
+      <c r="K271" t="n">
         <v>30914.7</v>
       </c>
     </row>
@@ -5039,9 +8547,21 @@
         <v>30207.3</v>
       </c>
       <c r="F272" t="n">
-        <v>448.08</v>
+        <v>449.08</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
       </c>
       <c r="H272" t="n">
+        <v>30207.3</v>
+      </c>
+      <c r="I272" t="n">
+        <v>30207.3</v>
+      </c>
+      <c r="J272" t="n">
+        <v>30207.3</v>
+      </c>
+      <c r="K272" t="n">
         <v>30207.3</v>
       </c>
     </row>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -8764,19 +8764,19 @@
         <v>144.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-96.96323344647681</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26049.5</v>
+        <v>26146.46323344648</v>
       </c>
       <c r="J2" t="n">
-        <v>26049.5</v>
+        <v>26097.23208698448</v>
       </c>
       <c r="K2" t="n">
-        <v>26049.5</v>
+        <v>26098.731146462</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -8790,31 +8790,39 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>134.49</t>
+          <t>134.50</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>101468</t>
+          <t>98665</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>60.28</t>
+          <t>22.17</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>108009</t>
-        </is>
-      </c>
-      <c r="AE2" s="33" t="inlineStr"/>
-      <c r="AF2" s="33" t="inlineStr"/>
+          <t>114445</t>
+        </is>
+      </c>
+      <c r="AE2" s="33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AF2" s="33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
       <c r="AG2" s="33" t="inlineStr">
         <is>
           <t>0</t>
@@ -8822,7 +8830,7 @@
       </c>
       <c r="AH2" s="33" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>59.2</t>
         </is>
       </c>
       <c r="AI2" s="33" t="inlineStr">
@@ -8837,7 +8845,7 @@
       </c>
       <c r="AK2" s="33" t="inlineStr">
         <is>
-          <t>GL (Area)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL2" s="33" t="inlineStr">
@@ -8847,22 +8855,22 @@
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>126.08</t>
+          <t>128.08</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>142.08</t>
+          <t>144.08</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP2" s="34" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -8877,19 +8885,19 @@
         <v>143.98</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-99.2683372810352</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26437.6</v>
+        <v>26536.86833728103</v>
       </c>
       <c r="J3" t="n">
-        <v>26437.6</v>
+        <v>26486.34868605289</v>
       </c>
       <c r="K3" t="n">
-        <v>26437.6</v>
+        <v>26488.11965122814</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
@@ -8905,7 +8913,7 @@
       </c>
       <c r="AB3" s="36" t="inlineStr">
         <is>
-          <t>0.3:3.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC3" s="36" t="inlineStr">
@@ -8918,8 +8926,16 @@
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="36" t="inlineStr"/>
-      <c r="AF3" s="36" t="inlineStr"/>
+      <c r="AE3" s="36" t="inlineStr">
+        <is>
+          <t>0.3:3</t>
+        </is>
+      </c>
+      <c r="AF3" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="AG3" s="36" t="inlineStr">
         <is>
           <t>0</t>
@@ -8946,19 +8962,19 @@
         <v>143.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-101.6576855512903</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26696.9</v>
+        <v>26798.55768555129</v>
       </c>
       <c r="J4" t="n">
-        <v>26696.9</v>
+        <v>26746.69815982972</v>
       </c>
       <c r="K4" t="n">
-        <v>26696.9</v>
+        <v>26748.75952572157</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -8977,26 +8993,34 @@
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>70522</t>
+          <t>68015</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>60.27</t>
+          <t>22.17</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>75068</t>
-        </is>
-      </c>
-      <c r="AE4" s="33" t="inlineStr"/>
-      <c r="AF4" s="33" t="inlineStr"/>
+          <t>78896</t>
+        </is>
+      </c>
+      <c r="AE4" s="33" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="AF4" s="33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
       <c r="AG4" s="33" t="inlineStr">
         <is>
           <t>0</t>
@@ -9004,22 +9028,22 @@
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>68.9</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AK4" s="33" t="inlineStr">
         <is>
-          <t>GL (Area)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL4" s="33" t="inlineStr">
@@ -9029,22 +9053,22 @@
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>126.08</t>
+          <t>128.08</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>142.08</t>
+          <t>144.08</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP4" s="34" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -9059,19 +9083,19 @@
         <v>143.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-104.1354871006915</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>25942.6</v>
+        <v>26046.73548710069</v>
       </c>
       <c r="J5" t="n">
-        <v>25942.6</v>
+        <v>25993.48194336965</v>
       </c>
       <c r="K5" t="n">
-        <v>25942.6</v>
+        <v>25995.85354373103</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
@@ -9082,29 +9106,37 @@
       </c>
       <c r="AA5" s="36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*0.667#0.05</t>
         </is>
       </c>
       <c r="AB5" s="36" t="inlineStr">
         <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AC5" s="36" t="inlineStr">
+        <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AC5" s="36" t="inlineStr">
+      <c r="AD5" s="36" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AE5" s="36" t="inlineStr">
         <is>
           <t>A*1</t>
         </is>
       </c>
-      <c r="AD5" s="36" t="inlineStr">
-        <is>
-          <t>A*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AE5" s="36" t="inlineStr"/>
-      <c r="AF5" s="36" t="inlineStr"/>
+      <c r="AF5" s="36" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
       <c r="AG5" s="36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*1</t>
         </is>
       </c>
       <c r="AH5" s="36" t="inlineStr"/>
@@ -9128,19 +9160,19 @@
         <v>143.68</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-106.7062202940797</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26565.8</v>
+        <v>26672.50622029408</v>
       </c>
       <c r="J6" t="n">
-        <v>26565.8</v>
+        <v>26617.80155101709</v>
       </c>
       <c r="K6" t="n">
-        <v>26565.8</v>
+        <v>26620.50466927699</v>
       </c>
     </row>
     <row r="7">
@@ -9154,19 +9186,19 @@
         <v>143.58</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-109.374654254425</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26089.7</v>
+        <v>26199.07465425443</v>
       </c>
       <c r="J7" t="n">
-        <v>26089.7</v>
+        <v>26142.85858173036</v>
       </c>
       <c r="K7" t="n">
-        <v>26089.7</v>
+        <v>26145.91607252407</v>
       </c>
     </row>
     <row r="8">
@@ -9180,19 +9212,19 @@
         <v>143.48</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-112.1458721009694</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>26784.6</v>
+        <v>26896.74587210097</v>
       </c>
       <c r="J8" t="n">
-        <v>26784.6</v>
+        <v>26838.95472482844</v>
       </c>
       <c r="K8" t="n">
-        <v>26784.6</v>
+        <v>26842.39114727253</v>
       </c>
     </row>
     <row r="9">
@@ -9206,19 +9238,19 @@
         <v>143.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-115.0252964096653</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26357.7</v>
+        <v>26472.72529640967</v>
       </c>
       <c r="J9" t="n">
-        <v>26357.7</v>
+        <v>26413.29176619907</v>
       </c>
       <c r="K9" t="n">
-        <v>26357.7</v>
+        <v>26417.13353021059</v>
       </c>
     </row>
     <row r="10">
@@ -9232,19 +9264,19 @@
         <v>143.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-118.0187171448852</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26256</v>
+        <v>26374.01871714489</v>
       </c>
       <c r="J10" t="n">
-        <v>26256</v>
+        <v>26312.87159501099</v>
       </c>
       <c r="K10" t="n">
-        <v>26256</v>
+        <v>26317.14712213389</v>
       </c>
     </row>
     <row r="11">
@@ -9258,19 +9290,19 @@
         <v>143.18</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-121.1323223436848</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26519.3</v>
+        <v>26640.43232234368</v>
       </c>
       <c r="J11" t="n">
-        <v>26519.3</v>
+        <v>26577.4962109779</v>
       </c>
       <c r="K11" t="n">
-        <v>26519.3</v>
+        <v>26582.23611136579</v>
       </c>
     </row>
     <row r="12">
@@ -9284,19 +9316,19 @@
         <v>143.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-124.3727318706042</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>25948.6</v>
+        <v>26072.9727318706</v>
       </c>
       <c r="J12" t="n">
-        <v>25948.6</v>
+        <v>26008.16773222655</v>
       </c>
       <c r="K12" t="n">
-        <v>25948.6</v>
+        <v>26013.40499964405</v>
       </c>
     </row>
     <row r="13">
@@ -9310,19 +9342,19 @@
         <v>142.98</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-127.7470346036389</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>26945.3</v>
+        <v>27073.04703460364</v>
       </c>
       <c r="J13" t="n">
-        <v>26945.3</v>
+        <v>27006.28840382732</v>
       </c>
       <c r="K13" t="n">
-        <v>26945.3</v>
+        <v>27012.05863077632</v>
       </c>
     </row>
     <row r="14">
@@ -9336,19 +9368,19 @@
         <v>142.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-131.2628294606329</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26444</v>
+        <v>26575.26282946063</v>
       </c>
       <c r="J14" t="n">
-        <v>26444</v>
+        <v>26506.4606070517</v>
       </c>
       <c r="K14" t="n">
-        <v>26444</v>
+        <v>26512.80222240893</v>
       </c>
     </row>
     <row r="15">
@@ -9362,19 +9394,19 @@
         <v>142.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-134.9282707319871</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>26729.6</v>
+        <v>26864.52827073199</v>
       </c>
       <c r="J15" t="n">
-        <v>26729.6</v>
+        <v>26793.5868694288</v>
       </c>
       <c r="K15" t="n">
-        <v>26729.6</v>
+        <v>26800.54140130319</v>
       </c>
     </row>
     <row r="16">
@@ -9388,19 +9420,19 @@
         <v>142.68</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-138.7521182506607</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27045.9</v>
+        <v>27184.65211825066</v>
       </c>
       <c r="J16" t="n">
-        <v>27045.9</v>
+        <v>27111.4698756805</v>
       </c>
       <c r="K16" t="n">
-        <v>27045.9</v>
+        <v>27119.08224257016</v>
       </c>
     </row>
     <row r="17">
@@ -9414,19 +9446,19 @@
         <v>142.58</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-142.7437930062297</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26274.3</v>
+        <v>26417.04379300623</v>
       </c>
       <c r="J17" t="n">
-        <v>26274.3</v>
+        <v>26341.51247962456</v>
       </c>
       <c r="K17" t="n">
-        <v>26274.3</v>
+        <v>26349.83131338167</v>
       </c>
     </row>
     <row r="18">
@@ -9440,19 +9472,19 @@
         <v>142.48</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-146.9134388978528</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>25721.7</v>
+        <v>25868.61343889785</v>
       </c>
       <c r="J18" t="n">
-        <v>25721.7</v>
+        <v>25790.61771714485</v>
       </c>
       <c r="K18" t="n">
-        <v>25721.7</v>
+        <v>25799.695721753</v>
       </c>
     </row>
     <row r="19">
@@ -9466,19 +9498,19 @@
         <v>142.38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-151.2719914233639</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26199.6</v>
+        <v>26350.87199142336</v>
       </c>
       <c r="J19" t="n">
-        <v>26199.6</v>
+        <v>26270.28882033987</v>
       </c>
       <c r="K19" t="n">
-        <v>26199.6</v>
+        <v>26280.18317108349</v>
       </c>
     </row>
     <row r="20">
@@ -9492,19 +9524,19 @@
         <v>142.28</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-155.8312542219137</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27175.7</v>
+        <v>27331.53125422191</v>
       </c>
       <c r="J20" t="n">
-        <v>27175.7</v>
+        <v>27248.22923297363</v>
       </c>
       <c r="K20" t="n">
-        <v>27175.7</v>
+        <v>27259.00202124828</v>
       </c>
     </row>
     <row r="21">
@@ -9518,19 +9550,19 @@
         <v>142.18</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-160.6039845277555</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26142</v>
+        <v>26302.60398452776</v>
       </c>
       <c r="J21" t="n">
-        <v>26142</v>
+        <v>26216.44262736813</v>
       </c>
       <c r="K21" t="n">
-        <v>26142</v>
+        <v>26228.16135715962</v>
       </c>
     </row>
     <row r="22">
@@ -9544,19 +9576,19 @@
         <v>142.08</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-165.6039887581355</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26419.9</v>
+        <v>26585.50398875814</v>
       </c>
       <c r="J22" t="n">
-        <v>26419.9</v>
+        <v>26496.33292289355</v>
       </c>
       <c r="K22" t="n">
-        <v>26419.9</v>
+        <v>26509.07106586459</v>
       </c>
     </row>
     <row r="23">
@@ -9570,19 +9602,19 @@
         <v>141.98</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-170.8462296526304</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27293.7</v>
+        <v>27464.54622965263</v>
       </c>
       <c r="J23" t="n">
-        <v>27293.7</v>
+        <v>27372.20430623166</v>
       </c>
       <c r="K23" t="n">
-        <v>27293.7</v>
+        <v>27386.04192342097</v>
       </c>
     </row>
     <row r="24">
@@ -9596,19 +9628,19 @@
         <v>141.88</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>-176.3469466113893</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26191.1</v>
+        <v>26367.44694661139</v>
       </c>
       <c r="J24" t="n">
-        <v>26191.1</v>
+        <v>26271.76125360998</v>
       </c>
       <c r="K24" t="n">
-        <v>26191.1</v>
+        <v>26286.78569300141</v>
       </c>
     </row>
     <row r="25">
@@ -9622,19 +9654,19 @@
         <v>141.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>-182.1237911524695</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26444.7</v>
+        <v>26626.82379115247</v>
       </c>
       <c r="J25" t="n">
-        <v>26444.7</v>
+        <v>26527.60855522942</v>
       </c>
       <c r="K25" t="n">
-        <v>26444.7</v>
+        <v>26543.91523592305</v>
       </c>
     </row>
     <row r="26">
@@ -9648,19 +9680,19 @@
         <v>141.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>-188.1959797328091</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26393.80000000001</v>
+        <v>26581.99597973281</v>
       </c>
       <c r="J26" t="n">
-        <v>26393.8</v>
+        <v>26479.05134213674</v>
       </c>
       <c r="K26" t="n">
-        <v>26393.80000000001</v>
+        <v>26496.74463759606</v>
       </c>
     </row>
     <row r="27">
@@ -9674,19 +9706,19 @@
         <v>141.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.182787284255028e-11</v>
+        <v>-194.5844665649456</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26023.20000000002</v>
+        <v>26217.78446656495</v>
       </c>
       <c r="J27" t="n">
-        <v>26023.2</v>
+        <v>26110.8951158266</v>
       </c>
       <c r="K27" t="n">
-        <v>26023.20000000002</v>
+        <v>26130.08935073835</v>
       </c>
     </row>
     <row r="28">
@@ -9700,19 +9732,19 @@
         <v>141.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.639755494892597e-11</v>
+        <v>-201.3121395255075</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27069.80000000008</v>
+        <v>27271.11213952551</v>
       </c>
       <c r="J28" t="n">
-        <v>27069.8</v>
+        <v>27160.04578089525</v>
       </c>
       <c r="K28" t="n">
-        <v>27069.80000000008</v>
+        <v>27180.86635863026</v>
       </c>
     </row>
     <row r="29">
@@ -9726,19 +9758,19 @@
         <v>141.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.510205376893282e-10</v>
+        <v>-208.4040428093977</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26161.80000000025</v>
+        <v>26370.2040428094</v>
       </c>
       <c r="J29" t="n">
-        <v>26161.8</v>
+        <v>26254.70968111219</v>
       </c>
       <c r="K29" t="n">
-        <v>26161.80000000025</v>
+        <v>26277.2943616972</v>
       </c>
     </row>
     <row r="30">
@@ -9752,19 +9784,19 @@
         <v>141.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.967173587530851e-10</v>
+        <v>-215.8876306572674</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26300.2000000008</v>
+        <v>26516.08763065727</v>
       </c>
       <c r="J30" t="n">
-        <v>26300.2</v>
+        <v>26395.89363932579</v>
       </c>
       <c r="K30" t="n">
-        <v>26300.2000000008</v>
+        <v>26420.39399133148</v>
       </c>
     </row>
     <row r="31">
@@ -9778,19 +9810,19 @@
         <v>141.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.492015482857823e-09</v>
+        <v>-223.7930572999467</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26179.20000000249</v>
+        <v>26402.99305729995</v>
       </c>
       <c r="J31" t="n">
-        <v>26179.2</v>
+        <v>26277.80500167743</v>
       </c>
       <c r="K31" t="n">
-        <v>26179.20000000249</v>
+        <v>26304.38805562252</v>
       </c>
     </row>
     <row r="32">
@@ -9804,19 +9836,19 @@
         <v>141.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.621565600857139e-09</v>
+        <v>-232.153509256812</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>25952.40000000762</v>
+        <v>26184.55350925681</v>
       </c>
       <c r="J32" t="n">
-        <v>25952.4</v>
+        <v>26054.05168666567</v>
       </c>
       <c r="K32" t="n">
-        <v>25952.40000000762</v>
+        <v>26082.90182259114</v>
       </c>
     </row>
     <row r="33">
@@ -9830,19 +9862,19 @@
         <v>140.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.281376509927213e-08</v>
+        <v>-241.0055873394849</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>25823.10000002281</v>
+        <v>26064.10558733948</v>
       </c>
       <c r="J33" t="n">
-        <v>25823.1</v>
+        <v>25927.9422396804</v>
       </c>
       <c r="K33" t="n">
-        <v>25823.10000002282</v>
+        <v>25959.26334765908</v>
       </c>
     </row>
     <row r="34">
@@ -9856,19 +9888,19 @@
         <v>140.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.685513653792441e-08</v>
+        <v>-250.3897472030585</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>25796.20000006686</v>
+        <v>26046.58974720306</v>
       </c>
       <c r="J34" t="n">
-        <v>25796.2</v>
+        <v>25904.38589371726</v>
       </c>
       <c r="K34" t="n">
-        <v>25796.20000006686</v>
+        <v>25938.4038534858</v>
       </c>
     </row>
     <row r="35">
@@ -9882,19 +9914,19 @@
         <v>140.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.918087946251035e-07</v>
+        <v>-260.3508091273579</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>25706.90000019181</v>
+        <v>25967.25080912736</v>
       </c>
       <c r="J35" t="n">
-        <v>25706.9</v>
+        <v>25818.59263708902</v>
       </c>
       <c r="K35" t="n">
-        <v>25706.90000019181</v>
+        <v>25855.55817203834</v>
       </c>
     </row>
     <row r="36">
@@ -9908,19 +9940,19 @@
         <v>140.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.387992132455111e-07</v>
+        <v>-270.9385499926611</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>25865.6000005388</v>
+        <v>26136.53854999266</v>
       </c>
       <c r="J36" t="n">
-        <v>25865.6</v>
+        <v>25980.97328907436</v>
       </c>
       <c r="K36" t="n">
-        <v>25865.6000005388</v>
+        <v>26021.1652609183</v>
       </c>
     </row>
     <row r="37">
@@ -9934,19 +9966,19 @@
         <v>140.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.481937943026423e-06</v>
+        <v>-282.2083932600071</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26150.60000148194</v>
+        <v>26432.80839326001</v>
       </c>
       <c r="J37" t="n">
-        <v>26150.6</v>
+        <v>26269.83958458934</v>
       </c>
       <c r="K37" t="n">
-        <v>26150.60000148194</v>
+        <v>26313.56880867067</v>
       </c>
     </row>
     <row r="38">
@@ -9960,19 +9992,19 @@
         <v>140.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.99112468585372e-06</v>
+        <v>-294.222216334656</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>25610.50000399112</v>
+        <v>25904.72221633466</v>
       </c>
       <c r="J38" t="n">
-        <v>25610.5</v>
+        <v>25733.80426913777</v>
       </c>
       <c r="K38" t="n">
-        <v>25610.50000399115</v>
+        <v>25781.41794719689</v>
       </c>
     </row>
     <row r="39">
@@ -9986,19 +10018,19 @@
         <v>140.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.052554216585122e-05</v>
+        <v>-307.049299192804</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>25614.30001052554</v>
+        <v>25921.3492991928</v>
       </c>
       <c r="J39" t="n">
-        <v>25614.3</v>
+        <v>25741.88120549766</v>
       </c>
       <c r="K39" t="n">
-        <v>25614.30001052559</v>
+        <v>25793.76809369514</v>
       </c>
     </row>
     <row r="40">
@@ -10012,19 +10044,19 @@
         <v>140.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.718298128456809e-05</v>
+        <v>-320.7674438661379</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25482.40002718298</v>
+        <v>25803.16744386614</v>
       </c>
       <c r="J40" t="n">
-        <v>25482.4</v>
+        <v>25614.48549383839</v>
       </c>
       <c r="K40" t="n">
-        <v>25482.40002718311</v>
+        <v>25671.08195002775</v>
       </c>
     </row>
     <row r="41">
@@ -10038,19 +10070,19 @@
         <v>140.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.875037797726691e-05</v>
+        <v>-335.4643016818191</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>25820.70006875038</v>
+        <v>26156.16430168182</v>
       </c>
       <c r="J41" t="n">
-        <v>25820.7</v>
+        <v>25957.53360724484</v>
       </c>
       <c r="K41" t="n">
-        <v>25820.70006875069</v>
+        <v>26019.33069443698</v>
       </c>
     </row>
     <row r="42">
@@ -10064,19 +10096,19 @@
         <v>140.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0001702950066828635</v>
+        <v>-351.2389545550868</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25337.90017029501</v>
+        <v>25689.13895455509</v>
       </c>
       <c r="J42" t="n">
-        <v>25337.9</v>
+        <v>25479.74354495973</v>
       </c>
       <c r="K42" t="n">
-        <v>25337.90017029579</v>
+        <v>25547.29540959536</v>
       </c>
     </row>
     <row r="43">
@@ -10090,19 +10122,19 @@
         <v>139.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0004131450368731748</v>
+        <v>-368.2038088215413</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>25660.40041314504</v>
+        <v>26028.60380882154</v>
       </c>
       <c r="J43" t="n">
-        <v>25660.40000000001</v>
+        <v>25807.53500605453</v>
       </c>
       <c r="K43" t="n">
-        <v>25660.40041314692</v>
+        <v>25881.46880276702</v>
       </c>
     </row>
     <row r="44">
@@ -10116,19 +10148,19 @@
         <v>139.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0009817563841352239</v>
+        <v>-386.4868760325517</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25130.50098175638</v>
+        <v>25516.98687603255</v>
       </c>
       <c r="J44" t="n">
-        <v>25130.50000000002</v>
+        <v>25283.22958671748</v>
       </c>
       <c r="K44" t="n">
-        <v>25130.50098176086</v>
+        <v>25364.25728931507</v>
       </c>
     </row>
     <row r="45">
@@ -10142,19 +10174,19 @@
         <v>139.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.002285252725414466</v>
+        <v>-406.2345361533007</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25320.60228525272</v>
+        <v>25726.8345361533</v>
       </c>
       <c r="J45" t="n">
-        <v>25320.60000000006</v>
+        <v>25479.25100492106</v>
       </c>
       <c r="K45" t="n">
-        <v>25320.60228526311</v>
+        <v>25568.18353123224</v>
       </c>
     </row>
     <row r="46">
@@ -10168,19 +10200,19 @@
         <v>139.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.005211046103795525</v>
+        <v>-427.6149065753707</v>
       </c>
       <c r="H46" t="n">
         <v>24983.9</v>
       </c>
       <c r="I46" t="n">
-        <v>24983.90521104611</v>
+        <v>25411.51490657537</v>
       </c>
       <c r="J46" t="n">
-        <v>24983.9000000002</v>
+        <v>25148.82535692297</v>
       </c>
       <c r="K46" t="n">
-        <v>24983.90521106973</v>
+        <v>25246.5895496524</v>
       </c>
     </row>
     <row r="47">
@@ -10194,19 +10226,19 @@
         <v>139.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01164150121985585</v>
+        <v>-450.8219779640494</v>
       </c>
       <c r="H47" t="n">
         <v>25008</v>
       </c>
       <c r="I47" t="n">
-        <v>25008.01164150122</v>
+        <v>25458.82197796405</v>
       </c>
       <c r="J47" t="n">
-        <v>25008.00000000065</v>
+        <v>25179.58141089177</v>
       </c>
       <c r="K47" t="n">
-        <v>25008.01164155378</v>
+        <v>25287.24056707228</v>
       </c>
     </row>
     <row r="48">
@@ -10220,19 +10252,19 @@
         <v>139.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02548133834716282</v>
+        <v>-476.0807290745179</v>
       </c>
       <c r="H48" t="n">
         <v>24993.3</v>
       </c>
       <c r="I48" t="n">
-        <v>24993.32548133835</v>
+        <v>25469.38072907452</v>
       </c>
       <c r="J48" t="n">
-        <v>24993.30000000205</v>
+        <v>25171.95094396428</v>
       </c>
       <c r="K48" t="n">
-        <v>24993.32548145278</v>
+        <v>25290.72978511024</v>
       </c>
     </row>
     <row r="49">
@@ -10246,19 +10278,19 @@
         <v>139.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.05465164764609654</v>
+        <v>-503.6535029696497</v>
       </c>
       <c r="H49" t="n">
         <v>25038.8</v>
       </c>
       <c r="I49" t="n">
-        <v>25038.85465164765</v>
+        <v>25542.45350296965</v>
       </c>
       <c r="J49" t="n">
-        <v>25038.80000000633</v>
+        <v>25224.96913028162</v>
       </c>
       <c r="K49" t="n">
-        <v>25038.85465189113</v>
+        <v>25356.28437268802</v>
       </c>
     </row>
     <row r="50">
@@ -10272,19 +10304,19 @@
         <v>139.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1148666006592975</v>
+        <v>-533.8480250174216</v>
       </c>
       <c r="H50" t="n">
         <v>24708.8</v>
       </c>
       <c r="I50" t="n">
-        <v>24708.91486660066</v>
+        <v>25242.64802501742</v>
       </c>
       <c r="J50" t="n">
-        <v>24708.80000001914</v>
+        <v>24902.97498906843</v>
       </c>
       <c r="K50" t="n">
-        <v>24708.91486710659</v>
+        <v>25048.47303594899</v>
       </c>
     </row>
     <row r="51">
@@ -10298,19 +10330,19 @@
         <v>139.18</v>
       </c>
       <c r="G51" t="n">
-        <v>24.53338684793562</v>
+        <v>-567.0275814788693</v>
       </c>
       <c r="H51" t="n">
-        <v>24672.13</v>
+        <v>24696.9</v>
       </c>
       <c r="I51" t="n">
-        <v>24672.36661315207</v>
+        <v>25263.92758147887</v>
       </c>
       <c r="J51" t="n">
-        <v>24672.13000005668</v>
+        <v>24899.61190368708</v>
       </c>
       <c r="K51" t="n">
-        <v>24672.36661417697</v>
+        <v>25061.21567779179</v>
       </c>
     </row>
     <row r="52">
@@ -10324,19 +10356,19 @@
         <v>139.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.98773545494987</v>
+        <v>-603.6240763027854</v>
       </c>
       <c r="H52" t="n">
-        <v>24667.01</v>
+        <v>24663.5</v>
       </c>
       <c r="I52" t="n">
-        <v>24667.48773545495</v>
+        <v>25267.12407630279</v>
       </c>
       <c r="J52" t="n">
-        <v>24667.01000016429</v>
+        <v>24875.32822490681</v>
       </c>
       <c r="K52" t="n">
-        <v>24667.48773747444</v>
+        <v>25055.29585139597</v>
       </c>
     </row>
     <row r="53">
@@ -10350,19 +10382,19 @@
         <v>138.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-11.94556755579106</v>
+        <v>-644.1549744357217</v>
       </c>
       <c r="H53" t="n">
-        <v>24667</v>
+        <v>24656</v>
       </c>
       <c r="I53" t="n">
-        <v>24667.94556755579</v>
+        <v>25300.15497443572</v>
       </c>
       <c r="J53" t="n">
-        <v>24667.00000046629</v>
+        <v>24877.57797449437</v>
       </c>
       <c r="K53" t="n">
-        <v>24667.9455714118</v>
+        <v>25078.57699994135</v>
       </c>
     </row>
     <row r="54">
@@ -10376,19 +10408,19 @@
         <v>138.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-85.84489713509538</v>
+        <v>-689.245573861579</v>
       </c>
       <c r="H54" t="n">
-        <v>24667.01</v>
+        <v>24583</v>
       </c>
       <c r="I54" t="n">
-        <v>24668.8448971351</v>
+        <v>25272.24557386158</v>
       </c>
       <c r="J54" t="n">
-        <v>24667.01000129577</v>
+        <v>24815.02166881158</v>
       </c>
       <c r="K54" t="n">
-        <v>24668.84490422684</v>
+        <v>25040.22390505</v>
       </c>
     </row>
     <row r="55">
@@ -10402,19 +10434,19 @@
         <v>138.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-393.9214638233061</v>
+        <v>-739.6587120696386</v>
       </c>
       <c r="H55" t="n">
-        <v>24667.03</v>
+        <v>24276.6</v>
       </c>
       <c r="I55" t="n">
-        <v>24670.5214638233</v>
+        <v>25016.25871206964</v>
       </c>
       <c r="J55" t="n">
-        <v>24667.03000352578</v>
+        <v>24519.82728659916</v>
       </c>
       <c r="K55" t="n">
-        <v>24670.52147625739</v>
+        <v>24773.03142547048</v>
       </c>
     </row>
     <row r="56">
@@ -10428,19 +10460,19 @@
         <v>138.68</v>
       </c>
       <c r="G56" t="n">
-        <v>132.7244941297067</v>
+        <v>-796.3350568703099</v>
       </c>
       <c r="H56" t="n">
-        <v>24667.16</v>
+        <v>24806.4</v>
       </c>
       <c r="I56" t="n">
-        <v>24673.67550587029</v>
+        <v>25602.73505687031</v>
       </c>
       <c r="J56" t="n">
-        <v>24667.16000939417</v>
+        <v>25061.67141079864</v>
       </c>
       <c r="K56" t="n">
-        <v>24673.67552625923</v>
+        <v>25347.46364607167</v>
       </c>
     </row>
     <row r="57">
@@ -10454,19 +10486,19 @@
         <v>138.58</v>
       </c>
       <c r="G57" t="n">
-        <v>559.8536470967701</v>
+        <v>-414.7155002998697</v>
       </c>
       <c r="H57" t="n">
-        <v>24667.22</v>
+        <v>24793.26666666667</v>
       </c>
       <c r="I57" t="n">
-        <v>24679.14635290323</v>
+        <v>25653.71550029987</v>
       </c>
       <c r="J57" t="n">
-        <v>24667.22002451077</v>
+        <v>25061.50724813849</v>
       </c>
       <c r="K57" t="n">
-        <v>24679.14638290914</v>
+        <v>25385.47491882805</v>
       </c>
     </row>
     <row r="58">
@@ -10480,19 +10512,19 @@
         <v>138.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-32.14740484383583</v>
+        <v>-1065.022005916664</v>
       </c>
       <c r="H58" t="n">
-        <v>24667.03</v>
+        <v>24787.83526981912</v>
       </c>
       <c r="I58" t="n">
-        <v>24688.44740484384</v>
+        <v>25721.32200591666</v>
       </c>
       <c r="J58" t="n">
-        <v>24667.03006262852</v>
+        <v>25070.06817591052</v>
       </c>
       <c r="K58" t="n">
-        <v>24688.4474401166</v>
+        <v>25439.08909982527</v>
       </c>
     </row>
     <row r="59">
@@ -10506,19 +10538,19 @@
         <v>138.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-220.1310193885147</v>
+        <v>-1320.605393583977</v>
       </c>
       <c r="H59" t="n">
-        <v>24666.89</v>
+        <v>24787.74245502336</v>
       </c>
       <c r="I59" t="n">
-        <v>24704.63101938851</v>
+        <v>25805.10539358398</v>
       </c>
       <c r="J59" t="n">
-        <v>24666.89015672086</v>
+        <v>25085.10244036208</v>
       </c>
       <c r="K59" t="n">
-        <v>24704.63103518591</v>
+        <v>25507.74540824525</v>
       </c>
     </row>
     <row r="60">
@@ -10532,19 +10564,19 @@
         <v>138.28</v>
       </c>
       <c r="G60" t="n">
-        <v>375.9854909245223</v>
+        <v>-794.2645669755475</v>
       </c>
       <c r="H60" t="n">
-        <v>24666.94</v>
+        <v>24787.87173367169</v>
       </c>
       <c r="I60" t="n">
-        <v>24732.21450907548</v>
+        <v>25902.46456697555</v>
       </c>
       <c r="J60" t="n">
-        <v>24666.94038410054</v>
+        <v>25101.62096159845</v>
       </c>
       <c r="K60" t="n">
-        <v>24732.21442335156</v>
+        <v>25588.71533904879</v>
       </c>
     </row>
     <row r="61">
@@ -10558,19 +10590,19 @@
         <v>138.18</v>
       </c>
       <c r="G61" t="n">
-        <v>178.4991691061186</v>
+        <v>-1060.233034401597</v>
       </c>
       <c r="H61" t="n">
-        <v>24666.87</v>
+        <v>24787.86595343672</v>
       </c>
       <c r="I61" t="n">
-        <v>24777.70083089388</v>
+        <v>26016.4330344016</v>
       </c>
       <c r="J61" t="n">
-        <v>24666.87092204559</v>
+        <v>25119.41260150493</v>
       </c>
       <c r="K61" t="n">
-        <v>24777.70041546725</v>
+        <v>25684.88638633339</v>
       </c>
     </row>
     <row r="62">
@@ -10584,19 +10616,19 @@
         <v>138.08</v>
       </c>
       <c r="G62" t="n">
-        <v>254.0407125614074</v>
+        <v>-1046.22516804537</v>
       </c>
       <c r="H62" t="n">
-        <v>24666.67</v>
+        <v>24787.71989566484</v>
       </c>
       <c r="I62" t="n">
-        <v>24851.45928743859</v>
+        <v>26151.72516804537</v>
       </c>
       <c r="J62" t="n">
-        <v>24666.67216808835</v>
+        <v>25138.6401613638</v>
       </c>
       <c r="K62" t="n">
-        <v>24851.4579640399</v>
+        <v>25800.80490234641</v>
       </c>
     </row>
     <row r="63">
@@ -10610,19 +10642,19 @@
         <v>137.98</v>
       </c>
       <c r="G63" t="n">
-        <v>956.9893457400431</v>
+        <v>-389.2155017653677</v>
       </c>
       <c r="H63" t="n">
-        <v>24666.48</v>
+        <v>24787.57313408063</v>
       </c>
       <c r="I63" t="n">
-        <v>24969.11065425996</v>
+        <v>26315.31550176537</v>
       </c>
       <c r="J63" t="n">
-        <v>24666.48499399883</v>
+        <v>25159.63739886654</v>
       </c>
       <c r="K63" t="n">
-        <v>24969.10704361298</v>
+        <v>25943.25123697946</v>
       </c>
     </row>
     <row r="64">
@@ -10636,19 +10668,19 @@
         <v>137.88</v>
       </c>
       <c r="G64" t="n">
-        <v>681.4151662467921</v>
+        <v>-682.8745610208716</v>
       </c>
       <c r="H64" t="n">
-        <v>24666.02</v>
+        <v>24787.13654767668</v>
       </c>
       <c r="I64" t="n">
-        <v>25152.98483375321</v>
+        <v>26517.27456102087</v>
       </c>
       <c r="J64" t="n">
-        <v>24666.03126934809</v>
+        <v>25182.3406600044</v>
       </c>
       <c r="K64" t="n">
-        <v>25152.97579036043</v>
+        <v>26122.07044869316</v>
       </c>
     </row>
     <row r="65">
@@ -10662,19 +10694,19 @@
         <v>137.78</v>
       </c>
       <c r="G65" t="n">
-        <v>892.9864982862564</v>
+        <v>-445.6095253809253</v>
       </c>
       <c r="H65" t="n">
-        <v>24665.38</v>
+        <v>24786.48219507026</v>
       </c>
       <c r="I65" t="n">
-        <v>25435.51350171374</v>
+        <v>26774.10952538093</v>
       </c>
       <c r="J65" t="n">
-        <v>24665.40491509316</v>
+        <v>25207.08509985794</v>
       </c>
       <c r="K65" t="n">
-        <v>25435.49210695247</v>
+        <v>26353.50662059324</v>
       </c>
     </row>
     <row r="66">
@@ -10688,19 +10720,19 @@
         <v>137.68</v>
       </c>
       <c r="G66" t="n">
-        <v>898.6308616798633</v>
+        <v>-352.2540540929622</v>
       </c>
       <c r="H66" t="n">
-        <v>24664.62</v>
+        <v>24785.70596930254</v>
       </c>
       <c r="I66" t="n">
-        <v>25862.06913832014</v>
+        <v>27112.95405409296</v>
       </c>
       <c r="J66" t="n">
-        <v>24664.67397302527</v>
+        <v>25234.27526597932</v>
       </c>
       <c r="K66" t="n">
-        <v>25862.02063889342</v>
+        <v>26664.38475741618</v>
       </c>
     </row>
     <row r="67">
@@ -10714,19 +10746,19 @@
         <v>137.58</v>
       </c>
       <c r="G67" t="n">
-        <v>560.8957618625172</v>
+        <v>-523.3200170261989</v>
       </c>
       <c r="H67" t="n">
-        <v>24663.62</v>
+        <v>24784.65222572482</v>
       </c>
       <c r="I67" t="n">
-        <v>26494.70423813748</v>
+        <v>27578.9200170262</v>
       </c>
       <c r="J67" t="n">
-        <v>24663.73457283267</v>
+        <v>25264.11971392738</v>
       </c>
       <c r="K67" t="n">
-        <v>26494.59803523465</v>
+        <v>27099.45252882363</v>
       </c>
     </row>
     <row r="68">
@@ -10740,19 +10772,19 @@
         <v>137.48</v>
       </c>
       <c r="G68" t="n">
-        <v>532.1519816452965</v>
+        <v>-298.2244993401</v>
       </c>
       <c r="H68" t="n">
-        <v>24662.42</v>
+        <v>24783.37872862409</v>
       </c>
       <c r="I68" t="n">
-        <v>27416.9480183547</v>
+        <v>28247.3244993401</v>
       </c>
       <c r="J68" t="n">
-        <v>24662.65835296192</v>
+        <v>25297.10864957656</v>
       </c>
       <c r="K68" t="n">
-        <v>27416.72225631202</v>
+        <v>27733.59457838763</v>
       </c>
     </row>
     <row r="69">
@@ -10766,19 +10798,19 @@
         <v>137.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-20.33575649244449</v>
+        <v>-521.1782366739208</v>
       </c>
       <c r="H69" t="n">
-        <v>24660.9</v>
+        <v>24781.74649038786</v>
       </c>
       <c r="I69" t="n">
-        <v>28738.23575649245</v>
+        <v>29239.07823667392</v>
       </c>
       <c r="J69" t="n">
-        <v>24661.38600464559</v>
+        <v>25333.62006690957</v>
       </c>
       <c r="K69" t="n">
-        <v>28737.76838911651</v>
+        <v>28687.20466015222</v>
       </c>
     </row>
     <row r="70">
@@ -10792,19 +10824,19 @@
         <v>137.28</v>
       </c>
       <c r="G70" t="n">
-        <v>119.1487001380483</v>
+        <v>-20.00712573503552</v>
       </c>
       <c r="H70" t="n">
-        <v>24658.94</v>
+        <v>24779.60997660406</v>
       </c>
       <c r="I70" t="n">
-        <v>30598.45129986195</v>
+        <v>30737.60712573503</v>
       </c>
       <c r="J70" t="n">
-        <v>24659.91138668783</v>
+        <v>25374.1311071873</v>
       </c>
       <c r="K70" t="n">
-        <v>30597.50706196613</v>
+        <v>30143.0859951518</v>
       </c>
     </row>
     <row r="71">
@@ -10818,19 +10850,19 @@
         <v>137.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-390.5161594470555</v>
+        <v>-218.2300479432743</v>
       </c>
       <c r="H71" t="n">
-        <v>24656.22</v>
+        <v>24776.63329238767</v>
       </c>
       <c r="I71" t="n">
-        <v>33170.31615944706</v>
+        <v>32998.03004794328</v>
       </c>
       <c r="J71" t="n">
-        <v>24658.1234039693</v>
+        <v>25419.06203735647</v>
       </c>
       <c r="K71" t="n">
-        <v>33168.45167165816</v>
+        <v>32355.60130297447</v>
       </c>
     </row>
     <row r="72">
@@ -10844,19 +10876,19 @@
         <v>137.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-107.3454487896015</v>
+        <v>215.1414679670925</v>
       </c>
       <c r="H72" t="n">
-        <v>24652.4</v>
+        <v>24772.41904972702</v>
       </c>
       <c r="I72" t="n">
-        <v>36657.4454487896</v>
+        <v>36334.95853203291</v>
       </c>
       <c r="J72" t="n">
-        <v>24656.05693219255</v>
+        <v>25468.94213365525</v>
       </c>
       <c r="K72" t="n">
-        <v>36653.84338779867</v>
+        <v>35638.43544810468</v>
       </c>
     </row>
     <row r="73">
@@ -10870,19 +10902,19 @@
         <v>136.98</v>
       </c>
       <c r="G73" t="n">
-        <v>38.78599370734446</v>
+        <v>249.1941239978478</v>
       </c>
       <c r="H73" t="n">
-        <v>24646.99</v>
+        <v>24766.41512503193</v>
       </c>
       <c r="I73" t="n">
-        <v>41281.71400629266</v>
+        <v>41071.30587600215</v>
       </c>
       <c r="J73" t="n">
-        <v>24653.87993672997</v>
+        <v>25524.3665169214</v>
       </c>
       <c r="K73" t="n">
-        <v>41274.90009893384</v>
+        <v>40313.35448411269</v>
       </c>
     </row>
     <row r="74">
@@ -10896,19 +10928,19 @@
         <v>136.88</v>
       </c>
       <c r="G74" t="n">
-        <v>118.6201939058883</v>
+        <v>-69.12478306514822</v>
       </c>
       <c r="H74" t="n">
-        <v>24639.24</v>
+        <v>24757.78139103813</v>
       </c>
       <c r="I74" t="n">
-        <v>47250.07980609411</v>
+        <v>47437.82478306515</v>
       </c>
       <c r="J74" t="n">
-        <v>24651.97201071636</v>
+        <v>25585.9318729531</v>
       </c>
       <c r="K74" t="n">
-        <v>47237.45113391086</v>
+        <v>46609.67430115017</v>
       </c>
     </row>
     <row r="75">
@@ -10922,19 +10954,19 @@
         <v>136.78</v>
       </c>
       <c r="G75" t="n">
-        <v>858.9461275442445</v>
+        <v>110.4806636909925</v>
       </c>
       <c r="H75" t="n">
-        <v>24628.48</v>
+        <v>24745.773001035</v>
       </c>
       <c r="I75" t="n">
-        <v>54685.35387245576</v>
+        <v>55433.81933630901</v>
       </c>
       <c r="J75" t="n">
-        <v>24651.56019921194</v>
+        <v>25654.71685000229</v>
       </c>
       <c r="K75" t="n">
-        <v>54662.41103366882</v>
+        <v>54524.87548734173</v>
       </c>
     </row>
     <row r="76">
@@ -10948,19 +10980,19 @@
         <v>136.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-109.6400181099671</v>
+        <v>-1296.391852625668</v>
       </c>
       <c r="H76" t="n">
-        <v>24613.75</v>
+        <v>24729.30657343539</v>
       </c>
       <c r="I76" t="n">
-        <v>63501.54001810997</v>
+        <v>64688.29185262567</v>
       </c>
       <c r="J76" t="n">
-        <v>24654.80132128598</v>
+        <v>25731.98859147292</v>
       </c>
       <c r="K76" t="n">
-        <v>63460.66639871123</v>
+        <v>63685.60983458813</v>
       </c>
     </row>
     <row r="77">
@@ -10974,19 +11006,19 @@
         <v>136.58</v>
       </c>
       <c r="G77" t="n">
-        <v>450.3889992333716</v>
+        <v>-716.4119039887737</v>
       </c>
       <c r="H77" t="n">
-        <v>24594.48</v>
+        <v>24707.7397387742</v>
       </c>
       <c r="I77" t="n">
-        <v>73223.51100076662</v>
+        <v>74390.31190398877</v>
       </c>
       <c r="J77" t="n">
-        <v>24666.13581078578</v>
+        <v>25820.19183904751</v>
       </c>
       <c r="K77" t="n">
-        <v>73152.07737649287</v>
+        <v>73277.85980371544</v>
       </c>
     </row>
     <row r="78">
@@ -11000,19 +11032,19 @@
         <v>136.48</v>
       </c>
       <c r="G78" t="n">
-        <v>710.4177324953198</v>
+        <v>166.604966561179</v>
       </c>
       <c r="H78" t="n">
-        <v>24569.99</v>
+        <v>24680.31182194132</v>
       </c>
       <c r="I78" t="n">
-        <v>82808.78226750468</v>
+        <v>83352.59503343882</v>
       </c>
       <c r="J78" t="n">
-        <v>24692.76557064966</v>
+        <v>25922.71529363791</v>
       </c>
       <c r="K78" t="n">
-        <v>82686.27273769568</v>
+        <v>82110.19156174222</v>
       </c>
     </row>
     <row r="79">
@@ -11026,19 +11058,19 @@
         <v>136.38</v>
       </c>
       <c r="G79" t="n">
-        <v>653.9315884959506</v>
+        <v>1065.600124475735</v>
       </c>
       <c r="H79" t="n">
-        <v>24539.77</v>
+        <v>24646.43950944506</v>
       </c>
       <c r="I79" t="n">
-        <v>90647.76841150405</v>
+        <v>90236.09987552426</v>
       </c>
       <c r="J79" t="n">
-        <v>24746.31594761214</v>
+        <v>26044.71750922274</v>
       </c>
       <c r="K79" t="n">
-        <v>90441.5243561747</v>
+        <v>88837.82187574658</v>
       </c>
     </row>
     <row r="80">
@@ -11052,19 +11084,19 @@
         <v>136.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-1109.860877563304</v>
+        <v>-26.08085490638041</v>
       </c>
       <c r="H80" t="n">
-        <v>24504.71</v>
+        <v>24607.11514140031</v>
       </c>
       <c r="I80" t="n">
-        <v>94972.96087756331</v>
+        <v>93889.18085490639</v>
       </c>
       <c r="J80" t="n">
-        <v>24845.96728917491</v>
+        <v>26195.43057239637</v>
       </c>
       <c r="K80" t="n">
-        <v>94632.02521956561</v>
+        <v>92300.86542391033</v>
       </c>
     </row>
     <row r="81">
@@ -11078,19 +11110,19 @@
         <v>136.18</v>
       </c>
       <c r="G81" t="n">
-        <v>209.4698187130853</v>
+        <v>1184.378334206063</v>
       </c>
       <c r="H81" t="n">
-        <v>24466.94</v>
+        <v>24564.75233465225</v>
       </c>
       <c r="I81" t="n">
-        <v>94659.03018128691</v>
+        <v>93684.12166579394</v>
       </c>
       <c r="J81" t="n">
-        <v>25020.84123968956</v>
+        <v>26389.61348903899</v>
       </c>
       <c r="K81" t="n">
-        <v>94105.44900684305</v>
+        <v>91859.26051140721</v>
       </c>
     </row>
     <row r="82">
@@ -11104,19 +11136,19 @@
         <v>136.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-398.6052207686298</v>
+        <v>-228.3806591400935</v>
       </c>
       <c r="H82" t="n">
-        <v>24428.62</v>
+        <v>24521.76385515688</v>
       </c>
       <c r="I82" t="n">
-        <v>89887.50522076862</v>
+        <v>89717.28065914009</v>
       </c>
       <c r="J82" t="n">
-        <v>25312.10624883707</v>
+        <v>26649.04193861639</v>
       </c>
       <c r="K82" t="n">
-        <v>89004.31693064705</v>
+        <v>87590.00257568057</v>
       </c>
     </row>
     <row r="83">
@@ -11130,19 +11162,19 @@
         <v>135.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-409.5990821751911</v>
+        <v>-1135.537547534856</v>
       </c>
       <c r="H83" t="n">
-        <v>24392.25</v>
+        <v>24480.96099986324</v>
       </c>
       <c r="I83" t="n">
-        <v>82065.29908217519</v>
+        <v>82791.23754753485</v>
       </c>
       <c r="J83" t="n">
-        <v>25777.47874950795</v>
+        <v>27008.14071672294</v>
       </c>
       <c r="K83" t="n">
-        <v>80680.33198515838</v>
+        <v>80264.05783067514</v>
       </c>
     </row>
     <row r="84">
@@ -11156,19 +11188,19 @@
         <v>135.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-219.2754036654369</v>
+        <v>-1326.690558937684</v>
       </c>
       <c r="H84" t="n">
-        <v>24360.03</v>
+        <v>24444.81524063781</v>
       </c>
       <c r="I84" t="n">
-        <v>73080.37540366544</v>
+        <v>74187.79055893769</v>
       </c>
       <c r="J84" t="n">
-        <v>26495.70940251092</v>
+        <v>27522.28884691905</v>
       </c>
       <c r="K84" t="n">
-        <v>70944.91565848282</v>
+        <v>71110.31695265645</v>
       </c>
     </row>
     <row r="85">
@@ -11182,19 +11214,19 @@
         <v>135.78</v>
       </c>
       <c r="G85" t="n">
-        <v>666.9690062067384</v>
+        <v>-106.5138081083278</v>
       </c>
       <c r="H85" t="n">
-        <v>24332.59</v>
+        <v>24414.03995661348</v>
       </c>
       <c r="I85" t="n">
-        <v>64561.03099379326</v>
+        <v>65334.51380810833</v>
       </c>
       <c r="J85" t="n">
-        <v>27571.33514814808</v>
+        <v>28280.92455035566</v>
       </c>
       <c r="K85" t="n">
-        <v>61322.46511078429</v>
+        <v>61467.62921436614</v>
       </c>
     </row>
     <row r="86">
@@ -11208,19 +11240,19 @@
         <v>135.68</v>
       </c>
       <c r="G86" t="n">
-        <v>253.6409861474895</v>
+        <v>320.3733693067916</v>
       </c>
       <c r="H86" t="n">
-        <v>24309.7</v>
+        <v>24388.37124275643</v>
       </c>
       <c r="I86" t="n">
-        <v>57571.35901385251</v>
+        <v>57504.62663069321</v>
       </c>
       <c r="J86" t="n">
-        <v>29142.07085874269</v>
+        <v>29429.10339071073</v>
       </c>
       <c r="K86" t="n">
-        <v>52739.13329924556</v>
+        <v>52463.89448273891</v>
       </c>
     </row>
     <row r="87">
@@ -11234,19 +11266,19 @@
         <v>135.58</v>
       </c>
       <c r="G87" t="n">
-        <v>30.52255851968221</v>
+        <v>1055.930026061935</v>
       </c>
       <c r="H87" t="n">
-        <v>24290.78</v>
+        <v>24367.17065298516</v>
       </c>
       <c r="I87" t="n">
-        <v>52674.67744148031</v>
+        <v>51649.26997393806</v>
       </c>
       <c r="J87" t="n">
-        <v>31386.03166497465</v>
+        <v>31192.76193748649</v>
       </c>
       <c r="K87" t="n">
-        <v>45579.54539336084</v>
+        <v>44823.67868943673</v>
       </c>
     </row>
     <row r="88">
@@ -11260,19 +11292,19 @@
         <v>135.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-615.6564458582361</v>
+        <v>1128.055205924509</v>
       </c>
       <c r="H88" t="n">
-        <v>24274.92</v>
+        <v>24349.38965781612</v>
       </c>
       <c r="I88" t="n">
-        <v>50128.05644585824</v>
+        <v>48384.34479407549</v>
       </c>
       <c r="J88" t="n">
-        <v>34527.08151507288</v>
+        <v>33898.52926897626</v>
       </c>
       <c r="K88" t="n">
-        <v>39875.99847245292</v>
+        <v>38835.20518291536</v>
       </c>
     </row>
     <row r="89">
@@ -11286,19 +11318,19 @@
         <v>135.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-735.8358925049106</v>
+        <v>1241.385169820678</v>
       </c>
       <c r="H89" t="n">
-        <v>24260.81</v>
+        <v>24333.58419394548</v>
       </c>
       <c r="I89" t="n">
-        <v>50055.43589250491</v>
+        <v>48078.21483017932</v>
       </c>
       <c r="J89" t="n">
-        <v>38835.74191594707</v>
+        <v>37971.34719464639</v>
       </c>
       <c r="K89" t="n">
-        <v>35480.60107959645</v>
+        <v>34440.45182947841</v>
       </c>
     </row>
     <row r="90">
@@ -11312,19 +11344,19 @@
         <v>135.28</v>
       </c>
       <c r="G90" t="n">
-        <v>159.40020996979</v>
+        <v>1764.106699024007</v>
       </c>
       <c r="H90" t="n">
-        <v>24246.88</v>
+        <v>24317.98338551542</v>
       </c>
       <c r="I90" t="n">
-        <v>52551.09979003021</v>
+        <v>50946.39330097599</v>
       </c>
       <c r="J90" t="n">
-        <v>44620.0458722225</v>
+        <v>43885.61472450303</v>
       </c>
       <c r="K90" t="n">
-        <v>32178.03421494746</v>
+        <v>31378.76196198839</v>
       </c>
     </row>
     <row r="91">
@@ -11338,19 +11370,19 @@
         <v>135.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-1206.439780072142</v>
+        <v>-565.4298046886906</v>
       </c>
       <c r="H91" t="n">
-        <v>24231.58</v>
+        <v>24300.84819403032</v>
       </c>
       <c r="I91" t="n">
-        <v>57710.33978007214</v>
+        <v>57069.32980468869</v>
       </c>
       <c r="J91" t="n">
-        <v>52195.17467428463</v>
+        <v>52048.87936553021</v>
       </c>
       <c r="K91" t="n">
-        <v>29746.85822026823</v>
+        <v>29321.2986331888</v>
       </c>
     </row>
     <row r="92">
@@ -11364,19 +11396,19 @@
         <v>135.08</v>
       </c>
       <c r="G92" t="n">
-        <v>633.4026596578333</v>
+        <v>-78.48313718389545</v>
       </c>
       <c r="H92" t="n">
-        <v>24213.5</v>
+        <v>24280.57562375942</v>
       </c>
       <c r="I92" t="n">
-        <v>65586.79734034216</v>
+        <v>66298.68313718389</v>
       </c>
       <c r="J92" t="n">
-        <v>61812.76473215064</v>
+        <v>62617.62581131772</v>
       </c>
       <c r="K92" t="n">
-        <v>27987.66805365148</v>
+        <v>27961.63294962559</v>
       </c>
     </row>
     <row r="93">
@@ -11390,19 +11422,19 @@
         <v>134.98</v>
       </c>
       <c r="G93" t="n">
-        <v>686.5369515893981</v>
+        <v>-1336.005216361489</v>
       </c>
       <c r="H93" t="n">
-        <v>24190.71</v>
+        <v>24255.0257887832</v>
       </c>
       <c r="I93" t="n">
-        <v>76064.56304841061</v>
+        <v>78087.10521636149</v>
       </c>
       <c r="J93" t="n">
-        <v>73523.11502234267</v>
+        <v>75284.90207293362</v>
       </c>
       <c r="K93" t="n">
-        <v>26732.32472057067</v>
+        <v>27057.22893221107</v>
       </c>
     </row>
     <row r="94">
@@ -11416,19 +11448,19 @@
         <v>134.88</v>
       </c>
       <c r="G94" t="n">
-        <v>2078.456262653388</v>
+        <v>-626.27239658701</v>
       </c>
       <c r="H94" t="n">
-        <v>24161.52</v>
+        <v>24222.27453657212</v>
       </c>
       <c r="I94" t="n">
-        <v>88636.24373734661</v>
+        <v>91340.97239658701</v>
       </c>
       <c r="J94" t="n">
-        <v>86952.35054942501</v>
+        <v>89126.39694964378</v>
       </c>
       <c r="K94" t="n">
-        <v>25845.61826923408</v>
+        <v>26436.84998351534</v>
       </c>
     </row>
     <row r="95">
@@ -11442,19 +11474,19 @@
         <v>134.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-226.2277474439179</v>
+        <v>-2519.763375652721</v>
       </c>
       <c r="H95" t="n">
-        <v>24125.04</v>
+        <v>24181.34142671293</v>
       </c>
       <c r="I95" t="n">
-        <v>102121.2277474439</v>
+        <v>104414.7633756527</v>
       </c>
       <c r="J95" t="n">
-        <v>101023.7685056026</v>
+        <v>102606.5927852684</v>
       </c>
       <c r="K95" t="n">
-        <v>25222.74599091548</v>
+        <v>25989.51201709724</v>
       </c>
     </row>
     <row r="96">
@@ -11468,19 +11500,19 @@
         <v>134.68</v>
       </c>
       <c r="G96" t="n">
-        <v>1309.749118604988</v>
+        <v>471.6606431593827</v>
       </c>
       <c r="H96" t="n">
-        <v>24081.04</v>
+        <v>24131.95397749292</v>
       </c>
       <c r="I96" t="n">
-        <v>114489.250881395</v>
+        <v>115327.3393568406</v>
       </c>
       <c r="J96" t="n">
-        <v>113785.9198858151</v>
+        <v>113812.0404798648</v>
       </c>
       <c r="K96" t="n">
-        <v>24784.65619940441</v>
+        <v>25647.25285446877</v>
       </c>
     </row>
     <row r="97">
@@ -11494,19 +11526,19 @@
         <v>134.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-693.6326344683766</v>
+        <v>234.409748845821</v>
       </c>
       <c r="H97" t="n">
-        <v>24030.18</v>
+        <v>24074.85126550225</v>
       </c>
       <c r="I97" t="n">
-        <v>123113.6326344684</v>
+        <v>122185.5902511542</v>
       </c>
       <c r="J97" t="n">
-        <v>122670.5618201374</v>
+        <v>120890.1009069149</v>
       </c>
       <c r="K97" t="n">
-        <v>24473.56291737934</v>
+        <v>25370.34060974157</v>
       </c>
     </row>
     <row r="98">
@@ -11520,19 +11552,19 @@
         <v>134.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-1774.974067816613</v>
+        <v>220.8424487655429</v>
       </c>
       <c r="H98" t="n">
-        <v>23975.34</v>
+        <v>24013.26971418188</v>
       </c>
       <c r="I98" t="n">
-        <v>125681.9740678166</v>
+        <v>123686.1575512345</v>
       </c>
       <c r="J98" t="n">
-        <v>125407.708853332</v>
+        <v>122561.540454168</v>
       </c>
       <c r="K98" t="n">
-        <v>24249.92532256227</v>
+        <v>25137.88681124837</v>
       </c>
     </row>
     <row r="99">
@@ -11546,19 +11578,19 @@
         <v>134.38</v>
       </c>
       <c r="G99" t="n">
-        <v>136.9231750479667</v>
+        <v>2015.08246201271</v>
       </c>
       <c r="H99" t="n">
-        <v>23919.83</v>
+        <v>23950.92875000304</v>
       </c>
       <c r="I99" t="n">
-        <v>121373.076824952</v>
+        <v>119494.9175379873</v>
       </c>
       <c r="J99" t="n">
-        <v>121206.3139117128</v>
+        <v>118506.9163036886</v>
       </c>
       <c r="K99" t="n">
-        <v>24086.89949725173</v>
+        <v>24938.92998430175</v>
       </c>
     </row>
     <row r="100">
@@ -11572,19 +11604,19 @@
         <v>134.28</v>
       </c>
       <c r="G100" t="n">
-        <v>671.6979805861338</v>
+        <v>1661.881736187235</v>
       </c>
       <c r="H100" t="n">
-        <v>23867.04</v>
+        <v>23891.62969337086</v>
       </c>
       <c r="I100" t="n">
-        <v>111334.3020194139</v>
+        <v>110344.1182638128</v>
       </c>
       <c r="J100" t="n">
-        <v>111234.7355044792</v>
+        <v>109467.7547690439</v>
       </c>
       <c r="K100" t="n">
-        <v>23966.88161190439</v>
+        <v>24767.99318813972</v>
       </c>
     </row>
     <row r="101">
@@ -11598,19 +11630,19 @@
         <v>134.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-281.2885526031605</v>
+        <v>-96.42990470498626</v>
       </c>
       <c r="H101" t="n">
-        <v>23820.68</v>
+        <v>23839.56017913263</v>
       </c>
       <c r="I101" t="n">
-        <v>97985.48855260316</v>
+        <v>97800.62990470498</v>
       </c>
       <c r="J101" t="n">
-        <v>97927.13471483838</v>
+        <v>97017.06223867928</v>
       </c>
       <c r="K101" t="n">
-        <v>23879.26705941024</v>
+        <v>24623.12784515832</v>
       </c>
     </row>
     <row r="102">
@@ -11624,19 +11656,19 @@
         <v>134.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-957.7148372858355</v>
+        <v>-942.0061377134552</v>
       </c>
       <c r="H102" t="n">
-        <v>23782.77</v>
+        <v>23796.9847774121</v>
       </c>
       <c r="I102" t="n">
-        <v>83816.81483728584</v>
+        <v>83801.10613771346</v>
       </c>
       <c r="J102" t="n">
-        <v>83783.25489985356</v>
+        <v>83095.73368762934</v>
       </c>
       <c r="K102" t="n">
-        <v>23816.51870338546</v>
+        <v>24502.35722749622</v>
       </c>
     </row>
     <row r="103">
@@ -11650,19 +11682,19 @@
         <v>133.98</v>
       </c>
       <c r="G103" t="n">
-        <v>250.6276291811664</v>
+        <v>703.2200727947493</v>
       </c>
       <c r="H103" t="n">
-        <v>23752.84</v>
+        <v>23763.37321787141</v>
       </c>
       <c r="I103" t="n">
-        <v>70599.27237081883</v>
+        <v>70146.67992720524</v>
       </c>
       <c r="J103" t="n">
-        <v>70580.33977669914</v>
+        <v>69507.94669263913</v>
       </c>
       <c r="K103" t="n">
-        <v>23771.91988370637</v>
+        <v>24402.10645243752</v>
       </c>
     </row>
     <row r="104">
@@ -11676,19 +11708,19 @@
         <v>133.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-394.7554415117556</v>
+        <v>708.957805372338</v>
       </c>
       <c r="H104" t="n">
-        <v>23729.91</v>
+        <v>23737.61663691072</v>
       </c>
       <c r="I104" t="n">
-        <v>59241.95544151175</v>
+        <v>58138.24219462766</v>
       </c>
       <c r="J104" t="n">
-        <v>59231.48275322617</v>
+        <v>57556.84539532336</v>
       </c>
       <c r="K104" t="n">
-        <v>23740.49433595646</v>
+        <v>24319.01343621501</v>
       </c>
     </row>
     <row r="105">
@@ -11702,19 +11734,19 @@
         <v>133.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-1784.373164752782</v>
+        <v>-215.3835018315804</v>
       </c>
       <c r="H105" t="n">
-        <v>23713.39</v>
+        <v>23719.06675256386</v>
       </c>
       <c r="I105" t="n">
-        <v>50007.27316475278</v>
+        <v>48438.28350183158</v>
       </c>
       <c r="J105" t="n">
-        <v>50001.59567041928</v>
+        <v>47906.62872561142</v>
       </c>
       <c r="K105" t="n">
-        <v>23719.15015770855</v>
+        <v>24250.72152878402</v>
       </c>
     </row>
     <row r="106">
@@ -11728,19 +11760,19 @@
         <v>133.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-1572.33281085745</v>
+        <v>73.04115389852086</v>
       </c>
       <c r="H106" t="n">
-        <v>23701.85</v>
+        <v>23706.11003627524</v>
       </c>
       <c r="I106" t="n">
-        <v>42784.83281085745</v>
+        <v>41139.45884610148</v>
       </c>
       <c r="J106" t="n">
-        <v>42781.81806112801</v>
+        <v>40651.2724296469</v>
       </c>
       <c r="K106" t="n">
-        <v>23704.924741715</v>
+        <v>24194.29645272982</v>
       </c>
     </row>
     <row r="107">
@@ -11754,19 +11786,19 @@
         <v>133.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-195.2493167640496</v>
+        <v>1147.641553659581</v>
       </c>
       <c r="H107" t="n">
-        <v>23693.45</v>
+        <v>23696.67011461664</v>
       </c>
       <c r="I107" t="n">
-        <v>37297.64931676405</v>
+        <v>35954.75844634042</v>
       </c>
       <c r="J107" t="n">
-        <v>37296.08250044106</v>
+        <v>35504.80438436779</v>
       </c>
       <c r="K107" t="n">
-        <v>23695.0595835922</v>
+        <v>24146.62417658928</v>
       </c>
     </row>
     <row r="108">
@@ -11780,19 +11812,19 @@
         <v>133.48</v>
       </c>
       <c r="G108" t="n">
-        <v>568.0578299858898</v>
+        <v>1365.424542574819</v>
       </c>
       <c r="H108" t="n">
-        <v>23687.09</v>
+        <v>23689.5353966002</v>
       </c>
       <c r="I108" t="n">
-        <v>33224.74217001411</v>
+        <v>32427.37545742518</v>
       </c>
       <c r="J108" t="n">
-        <v>33223.94595877136</v>
+        <v>32011.24420940931</v>
       </c>
       <c r="K108" t="n">
-        <v>23687.91619415157</v>
+        <v>24105.66664461608</v>
       </c>
     </row>
     <row r="109">
@@ -11806,19 +11838,19 @@
         <v>133.38</v>
       </c>
       <c r="G109" t="n">
-        <v>431.1877162524579</v>
+        <v>602.9443829475786</v>
       </c>
       <c r="H109" t="n">
-        <v>23682.48</v>
+        <v>23684.3542444981</v>
       </c>
       <c r="I109" t="n">
-        <v>30261.91228374754</v>
+        <v>30090.15561705242</v>
       </c>
       <c r="J109" t="n">
-        <v>30261.51719716448</v>
+        <v>29704.10374303221</v>
       </c>
       <c r="K109" t="n">
-        <v>23682.89576970461</v>
+        <v>24070.40611851831</v>
       </c>
     </row>
     <row r="110">
@@ -11832,19 +11864,19 @@
         <v>133.28</v>
       </c>
       <c r="G110" t="n">
-        <v>1153.758122683015</v>
+        <v>747.1173357875123</v>
       </c>
       <c r="H110" t="n">
-        <v>23679.09</v>
+        <v>23680.54318015062</v>
       </c>
       <c r="I110" t="n">
-        <v>28145.74187731698</v>
+        <v>28552.38266421249</v>
       </c>
       <c r="J110" t="n">
-        <v>28145.55081696645</v>
+        <v>28193.209209247</v>
       </c>
       <c r="K110" t="n">
-        <v>23679.29510161959</v>
+        <v>24039.7166351161</v>
       </c>
     </row>
     <row r="111">
@@ -11858,19 +11890,19 @@
         <v>133.18</v>
       </c>
       <c r="G111" t="n">
-        <v>1043.163014364392</v>
+        <v>176.2346717100263</v>
       </c>
       <c r="H111" t="n">
-        <v>23676.5</v>
+        <v>23677.64005669981</v>
       </c>
       <c r="I111" t="n">
-        <v>26660.43698563561</v>
+        <v>27527.36532828997</v>
       </c>
       <c r="J111" t="n">
-        <v>26660.34719618613</v>
+        <v>27192.31527835809</v>
       </c>
       <c r="K111" t="n">
-        <v>23676.59916963443</v>
+        <v>24012.6901066317</v>
       </c>
     </row>
     <row r="112">
@@ -11884,19 +11916,19 @@
         <v>133.08</v>
       </c>
       <c r="G112" t="n">
-        <v>974.8675629441132</v>
+        <v>-212.8046614977029</v>
       </c>
       <c r="H112" t="n">
-        <v>23674.64</v>
+        <v>23675.54595813705</v>
       </c>
       <c r="I112" t="n">
-        <v>25635.83243705589</v>
+        <v>26823.5046614977</v>
       </c>
       <c r="J112" t="n">
-        <v>25635.79160910787</v>
+        <v>26510.19266491025</v>
       </c>
       <c r="K112" t="n">
-        <v>23674.68699304816</v>
+        <v>23988.85795472451</v>
       </c>
     </row>
     <row r="113">
@@ -11910,19 +11942,19 @@
         <v>132.98</v>
       </c>
       <c r="G113" t="n">
-        <v>840.5056141860805</v>
+        <v>-538.8332173180679</v>
       </c>
       <c r="H113" t="n">
-        <v>23673.29</v>
+        <v>23674.03089548006</v>
       </c>
       <c r="I113" t="n">
-        <v>24941.09438581392</v>
+        <v>26320.43321731807</v>
       </c>
       <c r="J113" t="n">
-        <v>24941.07654946323</v>
+        <v>26026.78269118753</v>
       </c>
       <c r="K113" t="n">
-        <v>23673.31182174085</v>
+        <v>23967.68142161059</v>
       </c>
     </row>
     <row r="114">
@@ -11936,19 +11968,19 @@
         <v>132.88</v>
       </c>
       <c r="G114" t="n">
-        <v>1180.867087072518</v>
+        <v>-286.4508553114429</v>
       </c>
       <c r="H114" t="n">
-        <v>23672.19</v>
+        <v>23672.80355545774</v>
       </c>
       <c r="I114" t="n">
-        <v>24478.03291292748</v>
+        <v>25945.35085531144</v>
       </c>
       <c r="J114" t="n">
-        <v>24478.02551713097</v>
+        <v>25669.54491823434</v>
       </c>
       <c r="K114" t="n">
-        <v>23672.19992898801</v>
+        <v>23948.60949253485</v>
       </c>
     </row>
     <row r="115">
@@ -11962,19 +11994,19 @@
         <v>132.78</v>
       </c>
       <c r="G115" t="n">
-        <v>1158.107609357565</v>
+        <v>-322.0966948510577</v>
       </c>
       <c r="H115" t="n">
-        <v>23671.22</v>
+        <v>23671.71143256843</v>
       </c>
       <c r="I115" t="n">
-        <v>24174.69239064243</v>
+        <v>25654.89669485106</v>
       </c>
       <c r="J115" t="n">
-        <v>24174.68954700493</v>
+        <v>25395.33829221049</v>
       </c>
       <c r="K115" t="n">
-        <v>23671.2244263156</v>
+        <v>23931.269835209</v>
       </c>
     </row>
     <row r="116">
@@ -11988,19 +12020,19 @@
         <v>132.68</v>
       </c>
       <c r="G116" t="n">
-        <v>1128.315323369065</v>
+        <v>-315.2330377818471</v>
       </c>
       <c r="H116" t="n">
-        <v>23670.39</v>
+        <v>23670.78361648917</v>
       </c>
       <c r="I116" t="n">
-        <v>23979.48467663093</v>
+        <v>25423.03303778185</v>
       </c>
       <c r="J116" t="n">
-        <v>23979.4837151233</v>
+        <v>25178.31228507199</v>
       </c>
       <c r="K116" t="n">
-        <v>23670.39193315339</v>
+        <v>23915.50436919902</v>
       </c>
     </row>
     <row r="117">
@@ -12014,19 +12046,19 @@
         <v>132.58</v>
       </c>
       <c r="G117" t="n">
-        <v>1282.770818689452</v>
+        <v>-94.60726761785918</v>
       </c>
       <c r="H117" t="n">
-        <v>23669.62</v>
+        <v>23669.914128815</v>
       </c>
       <c r="I117" t="n">
-        <v>23856.02918131055</v>
+        <v>25233.40726761786</v>
       </c>
       <c r="J117" t="n">
-        <v>23856.02894021788</v>
+        <v>25002.274513727</v>
       </c>
       <c r="K117" t="n">
-        <v>23669.62082707345</v>
+        <v>23901.04688270585</v>
       </c>
     </row>
     <row r="118">
@@ -12040,19 +12072,19 @@
         <v>132.48</v>
       </c>
       <c r="G118" t="n">
-        <v>465.3272500100975</v>
+        <v>-830.8355382013688</v>
       </c>
       <c r="H118" t="n">
-        <v>23669.07</v>
+        <v>23669.3014146235</v>
       </c>
       <c r="I118" t="n">
-        <v>23779.4727499899</v>
+        <v>25075.63553820137</v>
       </c>
       <c r="J118" t="n">
-        <v>23779.47275042952</v>
+        <v>24856.97899989589</v>
       </c>
       <c r="K118" t="n">
-        <v>23669.07034661331</v>
+        <v>23887.95795292898</v>
       </c>
     </row>
     <row r="119">
@@ -12066,19 +12098,19 @@
         <v>132.38</v>
       </c>
       <c r="G119" t="n">
-        <v>290.6730257146555</v>
+        <v>-918.87805086968</v>
       </c>
       <c r="H119" t="n">
-        <v>23668.83</v>
+        <v>23669.02172925921</v>
       </c>
       <c r="I119" t="n">
-        <v>23733.02697428535</v>
+        <v>24942.57805086968</v>
       </c>
       <c r="J119" t="n">
-        <v>23733.02703381033</v>
+        <v>24735.40512892543</v>
       </c>
       <c r="K119" t="n">
-        <v>23668.83014227922</v>
+        <v>23876.19465120346</v>
       </c>
     </row>
     <row r="120">
@@ -12092,19 +12124,19 @@
         <v>132.28</v>
       </c>
       <c r="G120" t="n">
-        <v>492.9691917897835</v>
+        <v>-630.5911882236287</v>
       </c>
       <c r="H120" t="n">
-        <v>23668.59</v>
+        <v>23668.75737358506</v>
       </c>
       <c r="I120" t="n">
-        <v>23705.23080821022</v>
+        <v>24828.79118822363</v>
       </c>
       <c r="J120" t="n">
-        <v>23705.23086618978</v>
+        <v>24632.21277015438</v>
       </c>
       <c r="K120" t="n">
-        <v>23668.59005720136</v>
+        <v>23865.33579165431</v>
       </c>
     </row>
     <row r="121">
@@ -12118,19 +12150,19 @@
         <v>132.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-75.5826457909061</v>
+        <v>-1117.216483235821</v>
       </c>
       <c r="H121" t="n">
-        <v>23668.46</v>
+        <v>23668.61508943584</v>
       </c>
       <c r="I121" t="n">
-        <v>23688.98264579091</v>
+        <v>24730.61648323582</v>
       </c>
       <c r="J121" t="n">
-        <v>23688.98268778171</v>
+        <v>24543.83368502096</v>
       </c>
       <c r="K121" t="n">
-        <v>23668.46002252243</v>
+        <v>23855.3978876507</v>
       </c>
     </row>
     <row r="122">
@@ -12144,19 +12176,19 @@
         <v>132.08</v>
       </c>
       <c r="G122" t="n">
-        <v>24.75207194840914</v>
+        <v>-940.7390229528864</v>
       </c>
       <c r="H122" t="n">
-        <v>23668.47</v>
+        <v>23668.62023915951</v>
       </c>
       <c r="I122" t="n">
-        <v>23679.74792805159</v>
+        <v>24645.23902295289</v>
       </c>
       <c r="J122" t="n">
-        <v>23679.74795481941</v>
+        <v>24467.53193500809</v>
       </c>
       <c r="K122" t="n">
-        <v>23668.4700086845</v>
+        <v>23846.3273271043</v>
       </c>
     </row>
     <row r="123">
@@ -12170,19 +12202,19 @@
         <v>131.98</v>
       </c>
       <c r="G123" t="n">
-        <v>9.870468350789452</v>
+        <v>-885.9022905927195</v>
       </c>
       <c r="H123" t="n">
-        <v>23668.45</v>
+        <v>23668.6048858602</v>
       </c>
       <c r="I123" t="n">
-        <v>23674.52953164921</v>
+        <v>24570.30229059272</v>
       </c>
       <c r="J123" t="n">
-        <v>23674.52954748105</v>
+        <v>24401.02038033774</v>
       </c>
       <c r="K123" t="n">
-        <v>23668.45000327925</v>
+        <v>23837.88679611519</v>
       </c>
     </row>
     <row r="124">
@@ -12196,19 +12228,19 @@
         <v>131.88</v>
       </c>
       <c r="G124" t="n">
-        <v>29.64574967641965</v>
+        <v>-802.8116507647028</v>
       </c>
       <c r="H124" t="n">
-        <v>23668.44</v>
+        <v>23668.59038542026</v>
       </c>
       <c r="I124" t="n">
-        <v>23671.65425032358</v>
+        <v>24504.1116507647</v>
       </c>
       <c r="J124" t="n">
-        <v>23671.65425921511</v>
+        <v>24342.66554193562</v>
       </c>
       <c r="K124" t="n">
-        <v>23668.4400012125</v>
+        <v>23830.03649424934</v>
       </c>
     </row>
     <row r="125">
@@ -12222,19 +12254,19 @@
         <v>131.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-2.696434235454944</v>
+        <v>-777.9060548093039</v>
       </c>
       <c r="H125" t="n">
-        <v>23668.43</v>
+        <v>23668.58094109892</v>
       </c>
       <c r="I125" t="n">
-        <v>23670.09643423546</v>
+        <v>24445.30605480931</v>
       </c>
       <c r="J125" t="n">
-        <v>23670.09643903493</v>
+        <v>24291.16045682243</v>
       </c>
       <c r="K125" t="n">
-        <v>23668.43000043899</v>
+        <v>23822.72653908579</v>
       </c>
     </row>
     <row r="126">
@@ -12248,19 +12280,19 @@
         <v>131.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-518.8170935647977</v>
+        <v>-1242.344441766549</v>
       </c>
       <c r="H126" t="n">
-        <v>23668.57</v>
+        <v>23668.7354269795</v>
       </c>
       <c r="I126" t="n">
-        <v>23669.4170935648</v>
+        <v>24392.94444176655</v>
       </c>
       <c r="J126" t="n">
-        <v>23669.41709607203</v>
+        <v>24245.61204442104</v>
       </c>
       <c r="K126" t="n">
-        <v>23668.57000015562</v>
+        <v>23816.067824325</v>
       </c>
     </row>
     <row r="127">
@@ -12274,19 +12306,19 @@
         <v>131.58</v>
       </c>
       <c r="G127" t="n">
-        <v>50.58786605424029</v>
+        <v>-626.2521282984635</v>
       </c>
       <c r="H127" t="n">
-        <v>23668.69</v>
+        <v>23668.87513901928</v>
       </c>
       <c r="I127" t="n">
-        <v>23669.11213394576</v>
+        <v>24345.95212829846</v>
       </c>
       <c r="J127" t="n">
-        <v>23669.11213521873</v>
+        <v>24204.98831047669</v>
       </c>
       <c r="K127" t="n">
-        <v>23668.69000005401</v>
+        <v>23809.83895684106</v>
       </c>
     </row>
     <row r="128">
@@ -12300,19 +12332,19 @@
         <v>131.48</v>
       </c>
       <c r="G128" t="n">
-        <v>30.12379911464086</v>
+        <v>-604.4437132187886</v>
       </c>
       <c r="H128" t="n">
-        <v>23668.67</v>
+        <v>23668.85167499625</v>
       </c>
       <c r="I128" t="n">
-        <v>23668.87620088536</v>
+        <v>24303.44371321879</v>
       </c>
       <c r="J128" t="n">
-        <v>23668.8762015152</v>
+        <v>24168.44194093758</v>
       </c>
       <c r="K128" t="n">
-        <v>23668.67000001835</v>
+        <v>23803.85344727746</v>
       </c>
     </row>
     <row r="129">
@@ -12326,19 +12358,19 @@
         <v>131.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-96.08871929624001</v>
+        <v>-692.3138177325272</v>
       </c>
       <c r="H129" t="n">
-        <v>23668.69</v>
+        <v>23668.87120990136</v>
       </c>
       <c r="I129" t="n">
-        <v>23668.78871929624</v>
+        <v>24265.01381773253</v>
       </c>
       <c r="J129" t="n">
-        <v>23668.78871960046</v>
+        <v>24135.60162837742</v>
       </c>
       <c r="K129" t="n">
-        <v>23668.69000000611</v>
+        <v>23798.28339925648</v>
       </c>
     </row>
     <row r="130">
@@ -12352,19 +12384,19 @@
         <v>131.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.04631681029059109</v>
+        <v>-561.2172098631818</v>
       </c>
       <c r="H130" t="n">
         <v>23070.3</v>
       </c>
       <c r="I130" t="n">
-        <v>23070.34631681029</v>
+        <v>23631.51720986318</v>
       </c>
       <c r="J130" t="n">
-        <v>23070.3463169539</v>
+        <v>23507.35269681553</v>
       </c>
       <c r="K130" t="n">
-        <v>23070.30000000199</v>
+        <v>23194.46451304765</v>
       </c>
     </row>
     <row r="131">
@@ -12378,19 +12410,19 @@
         <v>131.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.02129401750062243</v>
+        <v>-529.3849604180105</v>
       </c>
       <c r="H131" t="n">
         <v>23261.8</v>
       </c>
       <c r="I131" t="n">
-        <v>23261.8212940175</v>
+        <v>23791.18496041801</v>
       </c>
       <c r="J131" t="n">
-        <v>23261.82129408381</v>
+        <v>23671.95368641951</v>
       </c>
       <c r="K131" t="n">
-        <v>23261.80000000063</v>
+        <v>23381.03127399849</v>
       </c>
     </row>
     <row r="132">
@@ -12404,19 +12436,19 @@
         <v>131.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.009592226761014899</v>
+        <v>-500.2804810544221</v>
       </c>
       <c r="H132" t="n">
         <v>23679.9</v>
       </c>
       <c r="I132" t="n">
-        <v>23679.90959222676</v>
+        <v>24180.18048105442</v>
       </c>
       <c r="J132" t="n">
-        <v>23679.90959225672</v>
+        <v>24065.59276020662</v>
       </c>
       <c r="K132" t="n">
-        <v>23679.9000000002</v>
+        <v>23794.48772084781</v>
       </c>
     </row>
     <row r="133">
@@ -12430,19 +12462,19 @@
         <v>130.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.004233382718666689</v>
+        <v>-473.5920599024903</v>
       </c>
       <c r="H133" t="n">
         <v>23737.6</v>
       </c>
       <c r="I133" t="n">
-        <v>23737.60423338272</v>
+        <v>24211.19205990249</v>
       </c>
       <c r="J133" t="n">
-        <v>23737.60423339596</v>
+        <v>24100.98055768735</v>
       </c>
       <c r="K133" t="n">
-        <v>23737.60000000006</v>
+        <v>23847.81150221514</v>
       </c>
     </row>
     <row r="134">
@@ -12456,19 +12488,19 @@
         <v>130.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.001830323824833613</v>
+        <v>-449.0522792998527</v>
       </c>
       <c r="H134" t="n">
         <v>22921.3</v>
       </c>
       <c r="I134" t="n">
-        <v>22921.30183032382</v>
+        <v>23370.35227929985</v>
       </c>
       <c r="J134" t="n">
-        <v>22921.30183032956</v>
+        <v>23264.26988783507</v>
       </c>
       <c r="K134" t="n">
-        <v>22921.30000000002</v>
+        <v>23027.38239146478</v>
       </c>
     </row>
     <row r="135">
@@ -12482,19 +12514,19 @@
         <v>130.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.0007751916491542943</v>
+        <v>-426.4305306039969</v>
       </c>
       <c r="H135" t="n">
         <v>23216.3</v>
       </c>
       <c r="I135" t="n">
-        <v>23216.30077519165</v>
+        <v>23642.730530604</v>
       </c>
       <c r="J135" t="n">
-        <v>23216.30077519408</v>
+        <v>23540.54848283155</v>
       </c>
       <c r="K135" t="n">
-        <v>23216.3</v>
+        <v>23318.48204777244</v>
       </c>
     </row>
     <row r="136">
@@ -12508,19 +12540,19 @@
         <v>130.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.0003215893339074682</v>
+        <v>-405.5269877090905</v>
       </c>
       <c r="H136" t="n">
         <v>23106.4</v>
       </c>
       <c r="I136" t="n">
-        <v>23106.40032158934</v>
+        <v>23511.92698770909</v>
       </c>
       <c r="J136" t="n">
-        <v>23106.40032159034</v>
+        <v>23413.43317961073</v>
       </c>
       <c r="K136" t="n">
-        <v>23106.4</v>
+        <v>23204.89380809836</v>
       </c>
     </row>
     <row r="137">
@@ -12534,19 +12566,19 @@
         <v>130.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.0001306707054027356</v>
+        <v>-386.1677186674679</v>
       </c>
       <c r="H137" t="n">
         <v>23220.2</v>
       </c>
       <c r="I137" t="n">
-        <v>23220.20013067071</v>
+        <v>23606.36771866747</v>
       </c>
       <c r="J137" t="n">
-        <v>23220.20013067112</v>
+        <v>23511.365213106</v>
       </c>
       <c r="K137" t="n">
-        <v>23220.2</v>
+        <v>23315.20250556147</v>
       </c>
     </row>
     <row r="138">
@@ -12560,19 +12592,19 @@
         <v>130.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-5.200119994697161e-05</v>
+        <v>-368.2006929616728</v>
       </c>
       <c r="H138" t="n">
         <v>24093.6</v>
       </c>
       <c r="I138" t="n">
-        <v>24093.6000520012</v>
+        <v>24461.80069296167</v>
       </c>
       <c r="J138" t="n">
-        <v>24093.60005200136</v>
+        <v>24370.10638252379</v>
       </c>
       <c r="K138" t="n">
-        <v>24093.6</v>
+        <v>24185.29431043788</v>
       </c>
     </row>
     <row r="139">
@@ -12586,19 +12618,19 @@
         <v>130.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-2.026670699706301e-05</v>
+        <v>-351.4924992672204</v>
       </c>
       <c r="H139" t="n">
         <v>22379.6</v>
       </c>
       <c r="I139" t="n">
-        <v>22379.60002026671</v>
+        <v>22731.09249926722</v>
       </c>
       <c r="J139" t="n">
-        <v>22379.60002026677</v>
+        <v>22642.53590866078</v>
       </c>
       <c r="K139" t="n">
-        <v>22379.6</v>
+        <v>22468.15659060644</v>
       </c>
     </row>
     <row r="140">
@@ -12612,19 +12644,19 @@
         <v>130.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.735092367511243e-06</v>
+        <v>-335.9256310164455</v>
       </c>
       <c r="H140" t="n">
         <v>23672.7</v>
       </c>
       <c r="I140" t="n">
-        <v>23672.70000773509</v>
+        <v>24008.62563101645</v>
       </c>
       <c r="J140" t="n">
-        <v>23672.70000773511</v>
+        <v>23923.04784225686</v>
       </c>
       <c r="K140" t="n">
-        <v>23672.7</v>
+        <v>23758.27778875959</v>
       </c>
     </row>
     <row r="141">
@@ -12638,19 +12670,19 @@
         <v>130.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-2.890941686928272e-06</v>
+        <v>-321.3962288764269</v>
       </c>
       <c r="H141" t="n">
         <v>22678.3</v>
       </c>
       <c r="I141" t="n">
-        <v>22678.30000289094</v>
+        <v>22999.69622887643</v>
       </c>
       <c r="J141" t="n">
-        <v>22678.30000289095</v>
+        <v>22916.9489147685</v>
       </c>
       <c r="K141" t="n">
-        <v>22678.3</v>
+        <v>22761.04731410793</v>
       </c>
     </row>
     <row r="142">
@@ -12664,19 +12696,19 @@
         <v>130.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.057996996678412e-06</v>
+        <v>-307.8121932926297</v>
       </c>
       <c r="H142" t="n">
         <v>22925.7</v>
       </c>
       <c r="I142" t="n">
-        <v>22925.700001058</v>
+        <v>23233.51219329263</v>
       </c>
       <c r="J142" t="n">
-        <v>22925.700001058</v>
+        <v>23153.45674664354</v>
       </c>
       <c r="K142" t="n">
-        <v>22925.7</v>
+        <v>23005.75544664909</v>
       </c>
     </row>
     <row r="143">
@@ -12690,19 +12722,19 @@
         <v>129.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-3.791283234022558e-07</v>
+        <v>-295.0915985790853</v>
       </c>
       <c r="H143" t="n">
         <v>23234.5</v>
       </c>
       <c r="I143" t="n">
-        <v>23234.50000037913</v>
+        <v>23529.59159857909</v>
       </c>
       <c r="J143" t="n">
-        <v>23234.50000037913</v>
+        <v>23452.09834622289</v>
       </c>
       <c r="K143" t="n">
-        <v>23234.5</v>
+        <v>23311.9932523562</v>
       </c>
     </row>
     <row r="144">
@@ -12716,19 +12748,19 @@
         <v>129.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-1.330226950813085e-07</v>
+        <v>-283.1613541261831</v>
       </c>
       <c r="H144" t="n">
         <v>23209.9</v>
       </c>
       <c r="I144" t="n">
-        <v>23209.90000013302</v>
+        <v>23493.06135412618</v>
       </c>
       <c r="J144" t="n">
-        <v>23209.90000013302</v>
+        <v>23418.00884624538</v>
       </c>
       <c r="K144" t="n">
-        <v>23209.9</v>
+        <v>23284.95250788081</v>
       </c>
     </row>
     <row r="145">
@@ -12742,19 +12774,19 @@
         <v>129.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-4.569665179587901e-08</v>
+        <v>-271.9560692111118</v>
       </c>
       <c r="H145" t="n">
         <v>22959.1</v>
       </c>
       <c r="I145" t="n">
-        <v>22959.1000000457</v>
+        <v>23231.05606921111</v>
       </c>
       <c r="J145" t="n">
-        <v>22959.1000000457</v>
+        <v>23158.33043564538</v>
       </c>
       <c r="K145" t="n">
-        <v>22959.1</v>
+        <v>23031.82563356572</v>
       </c>
     </row>
     <row r="146">
@@ -12768,19 +12800,19 @@
         <v>129.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.537046045996249e-08</v>
+        <v>-261.4170864106891</v>
       </c>
       <c r="H146" t="n">
         <v>23204.9</v>
       </c>
       <c r="I146" t="n">
-        <v>23204.90000001537</v>
+        <v>23466.31708641069</v>
       </c>
       <c r="J146" t="n">
-        <v>23204.90000001537</v>
+        <v>23395.81145267803</v>
       </c>
       <c r="K146" t="n">
-        <v>23204.9</v>
+        <v>23275.40563373266</v>
       </c>
     </row>
     <row r="147">
@@ -12794,19 +12826,19 @@
         <v>129.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-5.060428520664573e-09</v>
+        <v>-251.4916553039366</v>
       </c>
       <c r="H147" t="n">
         <v>22759</v>
       </c>
       <c r="I147" t="n">
-        <v>22759.00000000506</v>
+        <v>23010.49165530394</v>
       </c>
       <c r="J147" t="n">
-        <v>22759.00000000506</v>
+        <v>22942.10561195094</v>
       </c>
       <c r="K147" t="n">
-        <v>22759</v>
+        <v>22827.386043353</v>
       </c>
     </row>
     <row r="148">
@@ -12820,19 +12852,19 @@
         <v>129.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.629814505577087e-09</v>
+        <v>-242.1322234372892</v>
       </c>
       <c r="H148" t="n">
         <v>23218.7</v>
       </c>
       <c r="I148" t="n">
-        <v>23218.70000000163</v>
+        <v>23460.83222343729</v>
       </c>
       <c r="J148" t="n">
-        <v>23218.70000000163</v>
+        <v>23394.47134310608</v>
       </c>
       <c r="K148" t="n">
-        <v>23218.7</v>
+        <v>23285.06088033121</v>
       </c>
     </row>
     <row r="149">
@@ -12846,19 +12878,19 @@
         <v>129.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-5.129550117999315e-10</v>
+        <v>-233.2958257287828</v>
       </c>
       <c r="H149" t="n">
         <v>23386.5</v>
       </c>
       <c r="I149" t="n">
-        <v>23386.50000000051</v>
+        <v>23619.79582572878</v>
       </c>
       <c r="J149" t="n">
-        <v>23386.50000000051</v>
+        <v>23555.37122299467</v>
       </c>
       <c r="K149" t="n">
-        <v>23386.5</v>
+        <v>23450.92460273411</v>
       </c>
     </row>
     <row r="150">
@@ -12872,19 +12904,19 @@
         <v>129.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.600710675120354e-10</v>
+        <v>-224.9435568482622</v>
       </c>
       <c r="H150" t="n">
         <v>23184.7</v>
       </c>
       <c r="I150" t="n">
-        <v>23184.70000000016</v>
+        <v>23409.64355684826</v>
       </c>
       <c r="J150" t="n">
-        <v>23184.70000000016</v>
+        <v>23347.07148646142</v>
       </c>
       <c r="K150" t="n">
-        <v>23184.7</v>
+        <v>23247.27207038684</v>
       </c>
     </row>
     <row r="151">
@@ -12898,19 +12930,19 @@
         <v>129.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-4.729372449219227e-11</v>
+        <v>-217.0401138133457</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>22687.00000000005</v>
+        <v>22904.04011381335</v>
       </c>
       <c r="J151" t="n">
-        <v>22687.00000000005</v>
+        <v>22843.24160348106</v>
       </c>
       <c r="K151" t="n">
-        <v>22687</v>
+        <v>22747.79851033229</v>
       </c>
     </row>
     <row r="152">
@@ -12924,19 +12956,19 @@
         <v>129.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>-209.5533982242305</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>22924.40000000002</v>
+        <v>23133.95339822423</v>
       </c>
       <c r="J152" t="n">
-        <v>22924.40000000002</v>
+        <v>23074.85391250952</v>
       </c>
       <c r="K152" t="n">
-        <v>22924.4</v>
+        <v>22983.49948571472</v>
       </c>
     </row>
     <row r="153">
@@ -12950,19 +12982,19 @@
         <v>128.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>-202.4541693340652</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22643.1</v>
+        <v>22845.55416933406</v>
       </c>
       <c r="J153" t="n">
-        <v>22643.1</v>
+        <v>22788.08330162985</v>
       </c>
       <c r="K153" t="n">
-        <v>22643.1</v>
+        <v>22700.57086770422</v>
       </c>
     </row>
     <row r="154">
@@ -12976,19 +13008,19 @@
         <v>128.88</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>-195.7157405981816</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22647.9</v>
+        <v>22843.61574059818</v>
       </c>
       <c r="J154" t="n">
-        <v>22647.9</v>
+        <v>22787.70693047195</v>
       </c>
       <c r="K154" t="n">
-        <v>22647.9</v>
+        <v>22703.80881012623</v>
       </c>
     </row>
     <row r="155">
@@ -13002,19 +13034,19 @@
         <v>128.78</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>-189.3137135309662</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23050.9</v>
+        <v>23240.21371353097</v>
       </c>
       <c r="J155" t="n">
-        <v>23050.9</v>
+        <v>23185.80398702941</v>
       </c>
       <c r="K155" t="n">
-        <v>23050.9</v>
+        <v>23105.30972650156</v>
       </c>
     </row>
     <row r="156">
@@ -13028,19 +13060,19 @@
         <v>128.68</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>-183.2257436747313</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>22933.5</v>
+        <v>23116.72574367473</v>
       </c>
       <c r="J156" t="n">
-        <v>22933.5</v>
+        <v>23063.75547443664</v>
       </c>
       <c r="K156" t="n">
-        <v>22933.5</v>
+        <v>22986.4702692381</v>
       </c>
     </row>
     <row r="157">
@@ -13054,19 +13086,19 @@
         <v>128.58</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>-177.4313342910355</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23251.9</v>
+        <v>23429.33133429104</v>
       </c>
       <c r="J157" t="n">
-        <v>23251.9</v>
+        <v>23377.74402354469</v>
       </c>
       <c r="K157" t="n">
-        <v>23251.9</v>
+        <v>23303.48731074635</v>
       </c>
     </row>
     <row r="158">
@@ -13080,19 +13112,19 @@
         <v>128.48</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>-171.9116540533032</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22359.8</v>
+        <v>22531.7116540533</v>
       </c>
       <c r="J158" t="n">
-        <v>22359.8</v>
+        <v>22481.45372777565</v>
       </c>
       <c r="K158" t="n">
-        <v>22359.8</v>
+        <v>22410.05792627765</v>
       </c>
     </row>
     <row r="159">
@@ -13106,19 +13138,19 @@
         <v>128.38</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>-166.6493755763731</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23047.9</v>
+        <v>23214.54937557637</v>
       </c>
       <c r="J159" t="n">
-        <v>23047.9</v>
+        <v>23165.56999726892</v>
       </c>
       <c r="K159" t="n">
-        <v>23047.9</v>
+        <v>23096.87937830745</v>
       </c>
     </row>
     <row r="160">
@@ -13132,19 +13164,19 @@
         <v>128.28</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>-161.6285320834686</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>22819.4</v>
+        <v>22981.02853208347</v>
       </c>
       <c r="J160" t="n">
-        <v>22819.4</v>
+        <v>22933.27942977707</v>
       </c>
       <c r="K160" t="n">
-        <v>22819.4</v>
+        <v>22867.1491023064</v>
       </c>
     </row>
     <row r="161">
@@ -13158,19 +13190,19 @@
         <v>128.18</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>-156.8343899010106</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22415.3</v>
+        <v>22572.13438990101</v>
       </c>
       <c r="J161" t="n">
-        <v>22415.3</v>
+        <v>22525.56969614132</v>
       </c>
       <c r="K161" t="n">
-        <v>22415.3</v>
+        <v>22461.86469375969</v>
       </c>
     </row>
     <row r="162">
@@ -13184,19 +13216,19 @@
         <v>128.08</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>-152.2533347996723</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23032.4</v>
+        <v>23184.65333479967</v>
       </c>
       <c r="J162" t="n">
-        <v>23032.4</v>
+        <v>23139.22943848868</v>
       </c>
       <c r="K162" t="n">
-        <v>23032.4</v>
+        <v>23077.82389631099</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -635,7 +635,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5657850" cy="4114800"/>
+    <ext cx="5657850" cy="4057650"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -1125,16 +1125,8 @@
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="28" t="inlineStr">
-        <is>
-          <t>Ti2p3/2 p1</t>
-        </is>
-      </c>
-      <c r="K1" s="28" t="inlineStr">
-        <is>
-          <t>Ti2p1/2 p2</t>
-        </is>
-      </c>
+      <c r="J1" s="28" t="inlineStr"/>
+      <c r="K1" s="28" t="inlineStr"/>
       <c r="L1" s="28" t="inlineStr"/>
       <c r="M1" s="28" t="inlineStr"/>
       <c r="N1" s="28" t="inlineStr"/>
@@ -1252,7 +1244,7 @@
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="31" t="inlineStr">
+      <c r="AP1" s="28" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -1267,109 +1259,10 @@
         <v>39754.6</v>
       </c>
       <c r="F2" t="n">
-        <v>476.08</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1.039028575178236e-06</v>
+        <v>475.08</v>
       </c>
       <c r="H2" t="n">
         <v>39754.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>39754.60000103903</v>
-      </c>
-      <c r="J2" t="n">
-        <v>39754.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>39754.60000103903</v>
-      </c>
-      <c r="X2" s="32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Y2" s="33" t="inlineStr">
-        <is>
-          <t>Ti2p3/2 p1</t>
-        </is>
-      </c>
-      <c r="Z2" s="33" t="inlineStr">
-        <is>
-          <t>459.00</t>
-        </is>
-      </c>
-      <c r="AA2" s="33" t="inlineStr">
-        <is>
-          <t>89790</t>
-        </is>
-      </c>
-      <c r="AB2" s="33" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="AC2" s="33" t="inlineStr">
-        <is>
-          <t>78.38</t>
-        </is>
-      </c>
-      <c r="AD2" s="33" t="inlineStr">
-        <is>
-          <t>98446</t>
-        </is>
-      </c>
-      <c r="AE2" s="33" t="inlineStr"/>
-      <c r="AF2" s="33" t="inlineStr"/>
-      <c r="AG2" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" s="33" t="inlineStr">
-        <is>
-          <t>64.5</t>
-        </is>
-      </c>
-      <c r="AI2" s="33" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AJ2" s="33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AK2" s="33" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL2" s="33" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM2" s="33" t="inlineStr">
-        <is>
-          <t>448.08</t>
-        </is>
-      </c>
-      <c r="AN2" s="33" t="inlineStr">
-        <is>
-          <t>475.08</t>
-        </is>
-      </c>
-      <c r="AO2" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP2" s="34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -1380,66 +1273,11 @@
         <v>39971.8</v>
       </c>
       <c r="F3" t="n">
-        <v>475.98</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.483400410506874e-06</v>
+        <v>474.98</v>
       </c>
       <c r="H3" t="n">
         <v>39971.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>39971.8000014834</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39971.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>39971.8000014834</v>
-      </c>
-      <c r="X3" s="35" t="inlineStr"/>
-      <c r="Y3" s="36" t="inlineStr"/>
-      <c r="Z3" s="36" t="inlineStr">
-        <is>
-          <t>449.08,476.08</t>
-        </is>
-      </c>
-      <c r="AA3" s="36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" s="36" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC3" s="36" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AD3" s="36" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AE3" s="36" t="inlineStr"/>
-      <c r="AF3" s="36" t="inlineStr"/>
-      <c r="AG3" s="36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" s="36" t="inlineStr"/>
-      <c r="AI3" s="36" t="inlineStr"/>
-      <c r="AJ3" s="36" t="inlineStr"/>
-      <c r="AK3" s="36" t="inlineStr"/>
-      <c r="AL3" s="36" t="inlineStr"/>
-      <c r="AM3" s="36" t="inlineStr"/>
-      <c r="AN3" s="36" t="inlineStr"/>
-      <c r="AO3" s="36" t="inlineStr"/>
-      <c r="AP3" s="37" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1449,109 +1287,10 @@
         <v>39341.5</v>
       </c>
       <c r="F4" t="n">
-        <v>475.88</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-2.11179576581344e-06</v>
+        <v>474.88</v>
       </c>
       <c r="H4" t="n">
         <v>39341.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39341.5000021118</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39341.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39341.5000021118</v>
-      </c>
-      <c r="X4" s="32" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Y4" s="33" t="inlineStr">
-        <is>
-          <t>Ti2p1/2 p2</t>
-        </is>
-      </c>
-      <c r="Z4" s="33" t="inlineStr">
-        <is>
-          <t>464.73</t>
-        </is>
-      </c>
-      <c r="AA4" s="33" t="inlineStr">
-        <is>
-          <t>25433</t>
-        </is>
-      </c>
-      <c r="AB4" s="33" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="AC4" s="33" t="inlineStr">
-        <is>
-          <t>78.39</t>
-        </is>
-      </c>
-      <c r="AD4" s="33" t="inlineStr">
-        <is>
-          <t>54145</t>
-        </is>
-      </c>
-      <c r="AE4" s="33" t="inlineStr"/>
-      <c r="AF4" s="33" t="inlineStr"/>
-      <c r="AG4" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" s="33" t="inlineStr">
-        <is>
-          <t>35.5</t>
-        </is>
-      </c>
-      <c r="AI4" s="33" t="inlineStr">
-        <is>
-          <t>55.0</t>
-        </is>
-      </c>
-      <c r="AJ4" s="33" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="AK4" s="33" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL4" s="33" t="inlineStr">
-        <is>
-          <t>Multi-Regions Smart</t>
-        </is>
-      </c>
-      <c r="AM4" s="33" t="inlineStr">
-        <is>
-          <t>448.08</t>
-        </is>
-      </c>
-      <c r="AN4" s="33" t="inlineStr">
-        <is>
-          <t>475.08</t>
-        </is>
-      </c>
-      <c r="AO4" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" s="34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -1562,66 +1301,11 @@
         <v>39615.2</v>
       </c>
       <c r="F5" t="n">
-        <v>475.78</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-2.997876435983926e-06</v>
+        <v>474.78</v>
       </c>
       <c r="H5" t="n">
         <v>39615.2</v>
       </c>
-      <c r="I5" t="n">
-        <v>39615.20000299787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39615.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39615.20000299789</v>
-      </c>
-      <c r="X5" s="35" t="inlineStr"/>
-      <c r="Y5" s="36" t="inlineStr"/>
-      <c r="Z5" s="36" t="inlineStr">
-        <is>
-          <t>A+5.7#0.2</t>
-        </is>
-      </c>
-      <c r="AA5" s="36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" s="36" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC5" s="36" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AD5" s="36" t="inlineStr">
-        <is>
-          <t>A*0.5#0.05</t>
-        </is>
-      </c>
-      <c r="AE5" s="36" t="inlineStr"/>
-      <c r="AF5" s="36" t="inlineStr"/>
-      <c r="AG5" s="36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" s="36" t="inlineStr"/>
-      <c r="AI5" s="36" t="inlineStr"/>
-      <c r="AJ5" s="36" t="inlineStr"/>
-      <c r="AK5" s="36" t="inlineStr"/>
-      <c r="AL5" s="36" t="inlineStr"/>
-      <c r="AM5" s="36" t="inlineStr"/>
-      <c r="AN5" s="36" t="inlineStr"/>
-      <c r="AO5" s="36" t="inlineStr"/>
-      <c r="AP5" s="37" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1631,22 +1315,10 @@
         <v>40459.1</v>
       </c>
       <c r="F6" t="n">
-        <v>475.68</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-4.243695002514869e-06</v>
+        <v>474.68</v>
       </c>
       <c r="H6" t="n">
         <v>40459.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40459.10000424369</v>
-      </c>
-      <c r="J6" t="n">
-        <v>40459.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>40459.10000424371</v>
       </c>
     </row>
     <row r="7">
@@ -1657,22 +1329,10 @@
         <v>40072.4</v>
       </c>
       <c r="F7" t="n">
-        <v>475.58</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-5.990215868223459e-06</v>
+        <v>474.58</v>
       </c>
       <c r="H7" t="n">
         <v>40072.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40072.40000599022</v>
-      </c>
-      <c r="J7" t="n">
-        <v>40072.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>40072.40000599024</v>
       </c>
     </row>
     <row r="8">
@@ -1683,22 +1343,10 @@
         <v>39748.3</v>
       </c>
       <c r="F8" t="n">
-        <v>475.48</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-8.43163434183225e-06</v>
+        <v>474.48</v>
       </c>
       <c r="H8" t="n">
         <v>39748.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>39748.30000843164</v>
-      </c>
-      <c r="J8" t="n">
-        <v>39748.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>39748.30000843167</v>
       </c>
     </row>
     <row r="9">
@@ -1709,22 +1357,10 @@
         <v>39559.5</v>
       </c>
       <c r="F9" t="n">
-        <v>475.38</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-1.183457061415538e-05</v>
+        <v>474.38</v>
       </c>
       <c r="H9" t="n">
         <v>39559.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>39559.50001183457</v>
-      </c>
-      <c r="J9" t="n">
-        <v>39559.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>39559.50001183461</v>
       </c>
     </row>
     <row r="10">
@@ -1735,22 +1371,10 @@
         <v>39920.2</v>
       </c>
       <c r="F10" t="n">
-        <v>475.28</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1.656403765082359e-05</v>
+        <v>474.28</v>
       </c>
       <c r="H10" t="n">
         <v>39920.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>39920.20001656403</v>
-      </c>
-      <c r="J10" t="n">
-        <v>39920.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>39920.20001656409</v>
       </c>
     </row>
     <row r="11">
@@ -1761,22 +1385,10 @@
         <v>39662</v>
       </c>
       <c r="F11" t="n">
-        <v>475.18</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-2.311822026968002e-05</v>
+        <v>474.18</v>
       </c>
       <c r="H11" t="n">
         <v>39662</v>
-      </c>
-      <c r="I11" t="n">
-        <v>39662.00002311822</v>
-      </c>
-      <c r="J11" t="n">
-        <v>39662</v>
-      </c>
-      <c r="K11" t="n">
-        <v>39662.0000231183</v>
       </c>
     </row>
     <row r="12">
@@ -1787,22 +1399,10 @@
         <v>40092</v>
       </c>
       <c r="F12" t="n">
-        <v>475.08</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-3.217498306185007e-05</v>
+        <v>474.08</v>
       </c>
       <c r="H12" t="n">
         <v>40092</v>
-      </c>
-      <c r="I12" t="n">
-        <v>40092.00003217498</v>
-      </c>
-      <c r="J12" t="n">
-        <v>40092</v>
-      </c>
-      <c r="K12" t="n">
-        <v>40092.00003217508</v>
       </c>
     </row>
     <row r="13">
@@ -1813,22 +1413,10 @@
         <v>40064.8</v>
       </c>
       <c r="F13" t="n">
-        <v>474.98</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-4.465389793040231e-05</v>
+        <v>473.98</v>
       </c>
       <c r="H13" t="n">
         <v>40064.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40064.8000446539</v>
-      </c>
-      <c r="J13" t="n">
-        <v>40064.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>40064.80004465405</v>
       </c>
     </row>
     <row r="14">
@@ -1839,22 +1427,10 @@
         <v>39726.5</v>
       </c>
       <c r="F14" t="n">
-        <v>474.88</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-6.179867341415957e-05</v>
+        <v>473.88</v>
       </c>
       <c r="H14" t="n">
         <v>39726.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>39726.50006179867</v>
-      </c>
-      <c r="J14" t="n">
-        <v>39726.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>39726.50006179888</v>
       </c>
     </row>
     <row r="15">
@@ -1865,22 +1441,10 @@
         <v>40747.4</v>
       </c>
       <c r="F15" t="n">
-        <v>474.78</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-8.528626494808123e-05</v>
+        <v>473.78</v>
       </c>
       <c r="H15" t="n">
         <v>40747.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40747.40008528627</v>
-      </c>
-      <c r="J15" t="n">
-        <v>40747.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40747.40008528655</v>
       </c>
     </row>
     <row r="16">
@@ -1891,22 +1455,10 @@
         <v>41280.5</v>
       </c>
       <c r="F16" t="n">
-        <v>474.68</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.0001173710043076426</v>
+        <v>473.68</v>
       </c>
       <c r="H16" t="n">
         <v>41280.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>41280.500117371</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41280.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41280.50011737139</v>
       </c>
     </row>
     <row r="17">
@@ -1917,22 +1469,10 @@
         <v>40728.5</v>
       </c>
       <c r="F17" t="n">
-        <v>474.58</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.0001610741674085148</v>
+        <v>473.58</v>
       </c>
       <c r="H17" t="n">
         <v>40728.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40728.50016107417</v>
-      </c>
-      <c r="J17" t="n">
-        <v>40728.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>40728.50016107471</v>
       </c>
     </row>
     <row r="18">
@@ -1943,22 +1483,10 @@
         <v>41425.5</v>
       </c>
       <c r="F18" t="n">
-        <v>474.48</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.0002204326883656904</v>
+        <v>473.48</v>
       </c>
       <c r="H18" t="n">
         <v>41425.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>41425.50022043269</v>
-      </c>
-      <c r="J18" t="n">
-        <v>41425.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>41425.50022043342</v>
       </c>
     </row>
     <row r="19">
@@ -1969,22 +1497,10 @@
         <v>41429.8</v>
       </c>
       <c r="F19" t="n">
-        <v>474.38</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.0003008242420037277</v>
+        <v>473.38</v>
       </c>
       <c r="H19" t="n">
         <v>41429.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>41429.80030082424</v>
-      </c>
-      <c r="J19" t="n">
-        <v>41429.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>41429.80030082524</v>
       </c>
     </row>
     <row r="20">
@@ -1995,22 +1511,10 @@
         <v>41728.1</v>
       </c>
       <c r="F20" t="n">
-        <v>474.28</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.0004093908501090482</v>
+        <v>473.28</v>
       </c>
       <c r="H20" t="n">
         <v>41728.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>41728.10040939085</v>
-      </c>
-      <c r="J20" t="n">
-        <v>41728.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>41728.1004093922</v>
       </c>
     </row>
     <row r="21">
@@ -2021,22 +1525,10 @@
         <v>41685.1</v>
       </c>
       <c r="F21" t="n">
-        <v>474.18</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.0005555891038966365</v>
+        <v>473.18</v>
       </c>
       <c r="H21" t="n">
         <v>41685.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>41685.1005555891</v>
-      </c>
-      <c r="J21" t="n">
-        <v>41685.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41685.10055559094</v>
       </c>
     </row>
     <row r="22">
@@ -2047,22 +1539,10 @@
         <v>41736.7</v>
       </c>
       <c r="F22" t="n">
-        <v>474.08</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0007519023783970624</v>
+        <v>473.08</v>
       </c>
       <c r="H22" t="n">
         <v>41736.7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>41736.70075190238</v>
-      </c>
-      <c r="J22" t="n">
-        <v>41736.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>41736.70075190486</v>
       </c>
     </row>
     <row r="23">
@@ -2073,22 +1553,10 @@
         <v>42194.9</v>
       </c>
       <c r="F23" t="n">
-        <v>473.98</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.001014759807731025</v>
+        <v>472.98</v>
       </c>
       <c r="H23" t="n">
         <v>42194.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>42194.90101475981</v>
-      </c>
-      <c r="J23" t="n">
-        <v>42194.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>42194.90101476317</v>
       </c>
     </row>
     <row r="24">
@@ -2099,22 +1567,10 @@
         <v>42707.3</v>
       </c>
       <c r="F24" t="n">
-        <v>473.88</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.001365718198940158</v>
+        <v>472.88</v>
       </c>
       <c r="H24" t="n">
         <v>42707.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>42707.3013657182</v>
-      </c>
-      <c r="J24" t="n">
-        <v>42707.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>42707.30136572272</v>
       </c>
     </row>
     <row r="25">
@@ -2125,22 +1581,10 @@
         <v>42958.4</v>
       </c>
       <c r="F25" t="n">
-        <v>473.78</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.001832976973673794</v>
+        <v>472.78</v>
       </c>
       <c r="H25" t="n">
         <v>42958.4</v>
-      </c>
-      <c r="I25" t="n">
-        <v>42958.40183297698</v>
-      </c>
-      <c r="J25" t="n">
-        <v>42958.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>42958.40183298305</v>
       </c>
     </row>
     <row r="26">
@@ -2151,22 +1595,10 @@
         <v>42753.2</v>
       </c>
       <c r="F26" t="n">
-        <v>473.68</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.002453313776641153</v>
+        <v>472.68</v>
       </c>
       <c r="H26" t="n">
         <v>42753.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>42753.20245331377</v>
-      </c>
-      <c r="J26" t="n">
-        <v>42753.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>42753.20245332191</v>
       </c>
     </row>
     <row r="27">
@@ -2177,22 +1609,10 @@
         <v>43503</v>
       </c>
       <c r="F27" t="n">
-        <v>473.58</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.00327454927173676</v>
+        <v>472.58</v>
       </c>
       <c r="H27" t="n">
         <v>43503</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43503.00327454927</v>
-      </c>
-      <c r="J27" t="n">
-        <v>43503</v>
-      </c>
-      <c r="K27" t="n">
-        <v>43503.00327456013</v>
       </c>
     </row>
     <row r="28">
@@ -2203,22 +1623,10 @@
         <v>43487.1</v>
       </c>
       <c r="F28" t="n">
-        <v>473.48</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0.00435867552732816</v>
+        <v>472.48</v>
       </c>
       <c r="H28" t="n">
         <v>43487.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43487.10435867553</v>
-      </c>
-      <c r="J28" t="n">
-        <v>43487.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>43487.10435868997</v>
       </c>
     </row>
     <row r="29">
@@ -2229,22 +1637,10 @@
         <v>43224.6</v>
       </c>
       <c r="F29" t="n">
-        <v>473.38</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.005785813584225252</v>
+        <v>472.38</v>
       </c>
       <c r="H29" t="n">
         <v>43224.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>43224.60578581358</v>
-      </c>
-      <c r="J29" t="n">
-        <v>43224.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>43224.60578583275</v>
       </c>
     </row>
     <row r="30">
@@ -2255,22 +1651,10 @@
         <v>43880.6</v>
       </c>
       <c r="F30" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0.007659203380171675</v>
+        <v>472.28</v>
       </c>
       <c r="H30" t="n">
         <v>43880.6</v>
-      </c>
-      <c r="I30" t="n">
-        <v>43880.60765920338</v>
-      </c>
-      <c r="J30" t="n">
-        <v>43880.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>43880.60765922876</v>
       </c>
     </row>
     <row r="31">
@@ -2281,22 +1665,10 @@
         <v>43020.9</v>
       </c>
       <c r="F31" t="n">
-        <v>473.18</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.01011147462122608</v>
+        <v>472.18</v>
       </c>
       <c r="H31" t="n">
         <v>43020.9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>43020.91011147462</v>
-      </c>
-      <c r="J31" t="n">
-        <v>43020.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>43020.91011150813</v>
       </c>
     </row>
     <row r="32">
@@ -2307,22 +1679,10 @@
         <v>43735.4</v>
       </c>
       <c r="F32" t="n">
-        <v>473.08</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0.01331250127259409</v>
+        <v>472.08</v>
       </c>
       <c r="H32" t="n">
         <v>43735.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>43735.41331250127</v>
-      </c>
-      <c r="J32" t="n">
-        <v>43735.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>43735.41331254538</v>
       </c>
     </row>
     <row r="33">
@@ -2333,22 +1693,10 @@
         <v>43776.9</v>
       </c>
       <c r="F33" t="n">
-        <v>472.98</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0.01747920707566664</v>
+        <v>471.98</v>
       </c>
       <c r="H33" t="n">
         <v>43776.9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>43776.91747920708</v>
-      </c>
-      <c r="J33" t="n">
-        <v>43776.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>43776.91747926499</v>
       </c>
     </row>
     <row r="34">
@@ -2359,22 +1707,10 @@
         <v>43034.5</v>
       </c>
       <c r="F34" t="n">
-        <v>472.88</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.02288776617206167</v>
+        <v>471.88</v>
       </c>
       <c r="H34" t="n">
         <v>43034.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>43034.52288776617</v>
-      </c>
-      <c r="J34" t="n">
-        <v>43034.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>43034.52288784201</v>
       </c>
     </row>
     <row r="35">
@@ -2385,22 +1721,10 @@
         <v>44211.1</v>
       </c>
       <c r="F35" t="n">
-        <v>472.78</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0.02988873348658672</v>
+        <v>471.78</v>
       </c>
       <c r="H35" t="n">
         <v>44211.1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>44211.12988873349</v>
-      </c>
-      <c r="J35" t="n">
-        <v>44211.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>44211.12988883253</v>
       </c>
     </row>
     <row r="36">
@@ -2411,22 +1735,10 @@
         <v>43680.1</v>
       </c>
       <c r="F36" t="n">
-        <v>472.68</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.03892574625933776</v>
+        <v>471.68</v>
       </c>
       <c r="H36" t="n">
         <v>43680.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43680.13892574626</v>
-      </c>
-      <c r="J36" t="n">
-        <v>43680.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>43680.13892587524</v>
       </c>
     </row>
     <row r="37">
@@ -2437,22 +1749,10 @@
         <v>42857.2</v>
       </c>
       <c r="F37" t="n">
-        <v>472.58</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0.05055856273975223</v>
+        <v>471.58</v>
       </c>
       <c r="H37" t="n">
         <v>42857.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>42857.25055856274</v>
-      </c>
-      <c r="J37" t="n">
-        <v>42857.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>42857.25055873026</v>
       </c>
     </row>
     <row r="38">
@@ -2463,22 +1763,10 @@
         <v>42952.2</v>
       </c>
       <c r="F38" t="n">
-        <v>472.48</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0.06549134989472805</v>
+        <v>471.48</v>
       </c>
       <c r="H38" t="n">
         <v>42952.2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>42952.26549134989</v>
-      </c>
-      <c r="J38" t="n">
-        <v>42952.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>42952.2654915669</v>
       </c>
     </row>
     <row r="39">
@@ -2489,22 +1777,10 @@
         <v>43123.5</v>
       </c>
       <c r="F39" t="n">
-        <v>472.38</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-0.08460730063961819</v>
+        <v>471.38</v>
       </c>
       <c r="H39" t="n">
         <v>43123.5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>43123.58460730064</v>
-      </c>
-      <c r="J39" t="n">
-        <v>43123.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>43123.58460758099</v>
       </c>
     </row>
     <row r="40">
@@ -2515,22 +1791,10 @@
         <v>43073.8</v>
       </c>
       <c r="F40" t="n">
-        <v>472.28</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0.1090108562711976</v>
+        <v>471.28</v>
       </c>
       <c r="H40" t="n">
         <v>43073.8</v>
-      </c>
-      <c r="I40" t="n">
-        <v>43073.90901085627</v>
-      </c>
-      <c r="J40" t="n">
-        <v>43073.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>43073.90901121749</v>
       </c>
     </row>
     <row r="41">
@@ -2541,22 +1805,10 @@
         <v>43506</v>
       </c>
       <c r="F41" t="n">
-        <v>472.18</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.1400790341795073</v>
+        <v>471.18</v>
       </c>
       <c r="H41" t="n">
         <v>43506</v>
-      </c>
-      <c r="I41" t="n">
-        <v>43506.14007903418</v>
-      </c>
-      <c r="J41" t="n">
-        <v>43506</v>
-      </c>
-      <c r="K41" t="n">
-        <v>43506.14007949833</v>
       </c>
     </row>
     <row r="42">
@@ -2567,22 +1819,10 @@
         <v>43038.8</v>
       </c>
       <c r="F42" t="n">
-        <v>472.08</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0.179523617553059</v>
+        <v>471.08</v>
       </c>
       <c r="H42" t="n">
         <v>43038.8</v>
-      </c>
-      <c r="I42" t="n">
-        <v>43038.97952361756</v>
-      </c>
-      <c r="J42" t="n">
-        <v>43038.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>43038.97952421241</v>
       </c>
     </row>
     <row r="43">
@@ -2593,22 +1833,10 @@
         <v>42615.4</v>
       </c>
       <c r="F43" t="n">
-        <v>471.98</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-0.2294662562053418</v>
+        <v>470.98</v>
       </c>
       <c r="H43" t="n">
         <v>42615.4</v>
-      </c>
-      <c r="I43" t="n">
-        <v>42615.62946625621</v>
-      </c>
-      <c r="J43" t="n">
-        <v>42615.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>42615.62946701655</v>
       </c>
     </row>
     <row r="44">
@@ -2619,22 +1847,10 @@
         <v>42516.5</v>
       </c>
       <c r="F44" t="n">
-        <v>471.88</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-0.2925288592086872</v>
+        <v>470.88</v>
       </c>
       <c r="H44" t="n">
         <v>42516.5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>42516.79252885921</v>
-      </c>
-      <c r="J44" t="n">
-        <v>42516.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>42516.7925298285</v>
       </c>
     </row>
     <row r="45">
@@ -2645,22 +1861,10 @@
         <v>42618.4</v>
       </c>
       <c r="F45" t="n">
-        <v>471.78</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-0.3719420339839417</v>
+        <v>470.78</v>
       </c>
       <c r="H45" t="n">
         <v>42618.4</v>
-      </c>
-      <c r="I45" t="n">
-        <v>42618.77194203399</v>
-      </c>
-      <c r="J45" t="n">
-        <v>42618.4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>42618.77194326642</v>
       </c>
     </row>
     <row r="46">
@@ -2671,22 +1875,10 @@
         <v>42022.7</v>
       </c>
       <c r="F46" t="n">
-        <v>471.68</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0.4716747466154629</v>
+        <v>470.68</v>
       </c>
       <c r="H46" t="n">
         <v>42022.7</v>
-      </c>
-      <c r="I46" t="n">
-        <v>42023.17167474661</v>
-      </c>
-      <c r="J46" t="n">
-        <v>42022.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>42023.17167630952</v>
       </c>
     </row>
     <row r="47">
@@ -2697,22 +1889,10 @@
         <v>41575.6</v>
       </c>
       <c r="F47" t="n">
-        <v>471.58</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.5965888474893291</v>
+        <v>470.58</v>
       </c>
       <c r="H47" t="n">
         <v>41575.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41576.19658884749</v>
-      </c>
-      <c r="J47" t="n">
-        <v>41575.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>41576.19659082429</v>
       </c>
     </row>
     <row r="48">
@@ -2723,22 +1903,10 @@
         <v>41282.9</v>
       </c>
       <c r="F48" t="n">
-        <v>471.48</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0.7526226288027829</v>
+        <v>470.48</v>
       </c>
       <c r="H48" t="n">
         <v>41282.9</v>
-      </c>
-      <c r="I48" t="n">
-        <v>41283.6526226288</v>
-      </c>
-      <c r="J48" t="n">
-        <v>41282.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>41283.65262512263</v>
       </c>
     </row>
     <row r="49">
@@ -2749,22 +1917,10 @@
         <v>41105.6</v>
       </c>
       <c r="F49" t="n">
-        <v>471.38</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.9470081587060122</v>
+        <v>470.38</v>
       </c>
       <c r="H49" t="n">
         <v>41105.6</v>
-      </c>
-      <c r="I49" t="n">
-        <v>41106.5470081587</v>
-      </c>
-      <c r="J49" t="n">
-        <v>41105.6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>41106.54701129664</v>
       </c>
     </row>
     <row r="50">
@@ -2775,22 +1931,10 @@
         <v>40732.2</v>
       </c>
       <c r="F50" t="n">
-        <v>471.28</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1.188527774371323</v>
+        <v>470.28</v>
       </c>
       <c r="H50" t="n">
         <v>40732.2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40733.38852777437</v>
-      </c>
-      <c r="J50" t="n">
-        <v>40732.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>40733.38853171258</v>
       </c>
     </row>
     <row r="51">
@@ -2801,22 +1945,10 @@
         <v>40497.5</v>
       </c>
       <c r="F51" t="n">
-        <v>471.18</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1.487815816188231</v>
+        <v>470.18</v>
       </c>
       <c r="H51" t="n">
         <v>40497.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>40498.98781581619</v>
-      </c>
-      <c r="J51" t="n">
-        <v>40497.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>40498.98782074609</v>
       </c>
     </row>
     <row r="52">
@@ -2827,22 +1959,10 @@
         <v>40692.9</v>
       </c>
       <c r="F52" t="n">
-        <v>471.08</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1.85771245000069</v>
+        <v>470.08</v>
       </c>
       <c r="H52" t="n">
         <v>40692.9</v>
-      </c>
-      <c r="I52" t="n">
-        <v>40694.75771245</v>
-      </c>
-      <c r="J52" t="n">
-        <v>40692.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>40694.75771860556</v>
       </c>
     </row>
     <row r="53">
@@ -2853,22 +1973,10 @@
         <v>40088.3</v>
       </c>
       <c r="F53" t="n">
-        <v>470.98</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-2.313677257217932</v>
+        <v>469.98</v>
       </c>
       <c r="H53" t="n">
         <v>40088.3</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40090.61367725722</v>
-      </c>
-      <c r="J53" t="n">
-        <v>40088.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>40090.61368492363</v>
       </c>
     </row>
     <row r="54">
@@ -2879,22 +1987,10 @@
         <v>40540.7</v>
       </c>
       <c r="F54" t="n">
-        <v>470.88</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-2.874271176056936</v>
+        <v>469.88</v>
       </c>
       <c r="H54" t="n">
         <v>40540.7</v>
-      </c>
-      <c r="I54" t="n">
-        <v>40543.57427117605</v>
-      </c>
-      <c r="J54" t="n">
-        <v>40540.7</v>
-      </c>
-      <c r="K54" t="n">
-        <v>40543.5742807</v>
       </c>
     </row>
     <row r="55">
@@ -2905,22 +2001,10 @@
         <v>40112</v>
       </c>
       <c r="F55" t="n">
-        <v>470.78</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-3.561716354874079</v>
+        <v>469.78</v>
       </c>
       <c r="H55" t="n">
         <v>40112</v>
-      </c>
-      <c r="I55" t="n">
-        <v>40115.56171635487</v>
-      </c>
-      <c r="J55" t="n">
-        <v>40112</v>
-      </c>
-      <c r="K55" t="n">
-        <v>40115.56172815668</v>
       </c>
     </row>
     <row r="56">
@@ -2931,22 +2015,10 @@
         <v>39632.5</v>
       </c>
       <c r="F56" t="n">
-        <v>470.68</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-4.402544532800675</v>
+        <v>469.68</v>
       </c>
       <c r="H56" t="n">
         <v>39632.5</v>
-      </c>
-      <c r="I56" t="n">
-        <v>39636.9025445328</v>
-      </c>
-      <c r="J56" t="n">
-        <v>39632.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>39636.9025591207</v>
       </c>
     </row>
     <row r="57">
@@ -2957,22 +2029,10 @@
         <v>39119.8</v>
       </c>
       <c r="F57" t="n">
-        <v>470.58</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-5.428345699430793</v>
+        <v>469.58</v>
       </c>
       <c r="H57" t="n">
         <v>39119.8</v>
-      </c>
-      <c r="I57" t="n">
-        <v>39125.22834569943</v>
-      </c>
-      <c r="J57" t="n">
-        <v>39119.8</v>
-      </c>
-      <c r="K57" t="n">
-        <v>39125.22836368635</v>
       </c>
     </row>
     <row r="58">
@@ -2983,22 +2043,10 @@
         <v>39416.4</v>
       </c>
       <c r="F58" t="n">
-        <v>470.48</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-6.676630007867061</v>
+        <v>469.48</v>
       </c>
       <c r="H58" t="n">
         <v>39416.4</v>
-      </c>
-      <c r="I58" t="n">
-        <v>39423.07663000787</v>
-      </c>
-      <c r="J58" t="n">
-        <v>39416.4</v>
-      </c>
-      <c r="K58" t="n">
-        <v>39423.076652131</v>
       </c>
     </row>
     <row r="59">
@@ -3009,22 +2057,10 @@
         <v>39218</v>
       </c>
       <c r="F59" t="n">
-        <v>470.38</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-8.191817232138419</v>
+        <v>469.38</v>
       </c>
       <c r="H59" t="n">
         <v>39218</v>
-      </c>
-      <c r="I59" t="n">
-        <v>39226.19181723214</v>
-      </c>
-      <c r="J59" t="n">
-        <v>39218</v>
-      </c>
-      <c r="K59" t="n">
-        <v>39226.19184437586</v>
       </c>
     </row>
     <row r="60">
@@ -3035,22 +2071,10 @@
         <v>39187.2</v>
       </c>
       <c r="F60" t="n">
-        <v>470.28</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-10.02636947946303</v>
+        <v>469.28</v>
       </c>
       <c r="H60" t="n">
         <v>39187.2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39197.22636947946</v>
-      </c>
-      <c r="J60" t="n">
-        <v>39187.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>39197.22640270201</v>
       </c>
     </row>
     <row r="61">
@@ -3061,22 +2085,10 @@
         <v>38351.3</v>
       </c>
       <c r="F61" t="n">
-        <v>470.18</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-12.24208440315851</v>
+        <v>469.18</v>
       </c>
       <c r="H61" t="n">
         <v>38351.3</v>
-      </c>
-      <c r="I61" t="n">
-        <v>38363.54208440316</v>
-      </c>
-      <c r="J61" t="n">
-        <v>38351.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>38363.54212496752</v>
       </c>
     </row>
     <row r="62">
@@ -3087,22 +2099,10 @@
         <v>38289.6</v>
       </c>
       <c r="F62" t="n">
-        <v>470.08</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-14.91156782904727</v>
+        <v>469.08</v>
       </c>
       <c r="H62" t="n">
         <v>38289.6</v>
-      </c>
-      <c r="I62" t="n">
-        <v>38304.51156782905</v>
-      </c>
-      <c r="J62" t="n">
-        <v>38289.6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>38304.51161723878</v>
       </c>
     </row>
     <row r="63">
@@ -3113,22 +2113,10 @@
         <v>37882.1</v>
       </c>
       <c r="F63" t="n">
-        <v>469.98</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-18.11990653014072</v>
+        <v>468.98</v>
       </c>
       <c r="H63" t="n">
         <v>37882.1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37900.21990653014</v>
-      </c>
-      <c r="J63" t="n">
-        <v>37882.1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>37900.21996657077</v>
       </c>
     </row>
     <row r="64">
@@ -3139,22 +2127,10 @@
         <v>38425.6</v>
       </c>
       <c r="F64" t="n">
-        <v>469.88</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-21.96656388966949</v>
+        <v>468.88</v>
       </c>
       <c r="H64" t="n">
         <v>38425.6</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38447.56656388967</v>
-      </c>
-      <c r="J64" t="n">
-        <v>38425.6</v>
-      </c>
-      <c r="K64" t="n">
-        <v>38447.56663667626</v>
       </c>
     </row>
     <row r="65">
@@ -3165,22 +2141,10 @@
         <v>38451</v>
       </c>
       <c r="F65" t="n">
-        <v>469.78</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-26.5675234185037</v>
+        <v>468.78</v>
       </c>
       <c r="H65" t="n">
         <v>38451</v>
-      </c>
-      <c r="I65" t="n">
-        <v>38477.5675234185</v>
-      </c>
-      <c r="J65" t="n">
-        <v>38451</v>
-      </c>
-      <c r="K65" t="n">
-        <v>38477.56761145045</v>
       </c>
     </row>
     <row r="66">
@@ -3191,22 +2155,10 @@
         <v>37652.8</v>
       </c>
       <c r="F66" t="n">
-        <v>469.68</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-32.05770758888684</v>
+        <v>468.68</v>
       </c>
       <c r="H66" t="n">
         <v>37652.8</v>
-      </c>
-      <c r="I66" t="n">
-        <v>37684.85770758889</v>
-      </c>
-      <c r="J66" t="n">
-        <v>37652.8</v>
-      </c>
-      <c r="K66" t="n">
-        <v>37684.85781381265</v>
       </c>
     </row>
     <row r="67">
@@ -3217,22 +2169,10 @@
         <v>37679.5</v>
       </c>
       <c r="F67" t="n">
-        <v>469.58</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-38.59370227201725</v>
+        <v>468.58</v>
       </c>
       <c r="H67" t="n">
         <v>37679.5</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37718.09370227202</v>
-      </c>
-      <c r="J67" t="n">
-        <v>37679.5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>37718.09383015292</v>
       </c>
     </row>
     <row r="68">
@@ -3243,22 +2183,10 @@
         <v>36974.1</v>
       </c>
       <c r="F68" t="n">
-        <v>469.48</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-46.35682029916643</v>
+        <v>468.48</v>
       </c>
       <c r="H68" t="n">
         <v>36974.1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>37020.45682029916</v>
-      </c>
-      <c r="J68" t="n">
-        <v>36974.1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>37020.45697390329</v>
       </c>
     </row>
     <row r="69">
@@ -3269,22 +2197,10 @@
         <v>36456.5</v>
       </c>
       <c r="F69" t="n">
-        <v>469.38</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-55.55654139906255</v>
+        <v>468.38</v>
       </c>
       <c r="H69" t="n">
         <v>36456.5</v>
-      </c>
-      <c r="I69" t="n">
-        <v>36512.05654139906</v>
-      </c>
-      <c r="J69" t="n">
-        <v>36456.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>36512.05672548662</v>
       </c>
     </row>
     <row r="70">
@@ -3295,22 +2211,10 @@
         <v>36153.1</v>
       </c>
       <c r="F70" t="n">
-        <v>469.28</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-66.43437011264177</v>
+        <v>468.28</v>
       </c>
       <c r="H70" t="n">
         <v>36153.1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>36219.53437011264</v>
-      </c>
-      <c r="J70" t="n">
-        <v>36153.1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>36219.53459024407</v>
       </c>
     </row>
     <row r="71">
@@ -3321,22 +2225,10 @@
         <v>36563.3</v>
       </c>
       <c r="F71" t="n">
-        <v>469.18</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-79.26815839004121</v>
+        <v>468.18</v>
       </c>
       <c r="H71" t="n">
         <v>36563.3</v>
-      </c>
-      <c r="I71" t="n">
-        <v>36642.56815839004</v>
-      </c>
-      <c r="J71" t="n">
-        <v>36563.3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>36642.56842104645</v>
       </c>
     </row>
     <row r="72">
@@ -3347,22 +2239,10 @@
         <v>36024.3</v>
       </c>
       <c r="F72" t="n">
-        <v>469.08</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-94.3769455995207</v>
+        <v>468.08</v>
       </c>
       <c r="H72" t="n">
         <v>36024.3</v>
-      </c>
-      <c r="I72" t="n">
-        <v>36118.67694559952</v>
-      </c>
-      <c r="J72" t="n">
-        <v>36024.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>36118.67725831916</v>
       </c>
     </row>
     <row r="73">
@@ -3373,22 +2253,10 @@
         <v>36762</v>
       </c>
       <c r="F73" t="n">
-        <v>468.98</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-112.1263758198838</v>
+        <v>467.98</v>
       </c>
       <c r="H73" t="n">
         <v>36762</v>
-      </c>
-      <c r="I73" t="n">
-        <v>36874.12637581988</v>
-      </c>
-      <c r="J73" t="n">
-        <v>36762</v>
-      </c>
-      <c r="K73" t="n">
-        <v>36874.12674735256</v>
       </c>
     </row>
     <row r="74">
@@ -3399,22 +2267,10 @@
         <v>36482.3</v>
       </c>
       <c r="F74" t="n">
-        <v>468.88</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-132.9347607765303</v>
+        <v>467.88</v>
       </c>
       <c r="H74" t="n">
         <v>36482.3</v>
-      </c>
-      <c r="I74" t="n">
-        <v>36615.23476077653</v>
-      </c>
-      <c r="J74" t="n">
-        <v>36482.3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>36615.23520125815</v>
       </c>
     </row>
     <row r="75">
@@ -3425,22 +2281,10 @@
         <v>35682.1</v>
       </c>
       <c r="F75" t="n">
-        <v>468.78</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-157.2798668755422</v>
+        <v>467.78</v>
       </c>
       <c r="H75" t="n">
         <v>35682.1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>35839.37986687554</v>
-      </c>
-      <c r="J75" t="n">
-        <v>35682.1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>35839.38038802509</v>
       </c>
     </row>
     <row r="76">
@@ -3451,22 +2295,10 @@
         <v>36001.6</v>
       </c>
       <c r="F76" t="n">
-        <v>468.68</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-185.7065167864421</v>
+        <v>467.68</v>
       </c>
       <c r="H76" t="n">
         <v>36001.6</v>
-      </c>
-      <c r="I76" t="n">
-        <v>36187.30651678644</v>
-      </c>
-      <c r="J76" t="n">
-        <v>36001.6</v>
-      </c>
-      <c r="K76" t="n">
-        <v>36187.30713212817</v>
       </c>
     </row>
     <row r="77">
@@ -3477,22 +2309,10 @@
         <v>35875.7</v>
       </c>
       <c r="F77" t="n">
-        <v>468.58</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-218.8351102401721</v>
+        <v>467.58</v>
       </c>
       <c r="H77" t="n">
         <v>35875.7</v>
-      </c>
-      <c r="I77" t="n">
-        <v>36094.53511024017</v>
-      </c>
-      <c r="J77" t="n">
-        <v>35875.7</v>
-      </c>
-      <c r="K77" t="n">
-        <v>36094.53583535407</v>
       </c>
     </row>
     <row r="78">
@@ -3503,22 +2323,10 @@
         <v>36327.1</v>
       </c>
       <c r="F78" t="n">
-        <v>468.48</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-257.3711854834546</v>
+        <v>467.48</v>
       </c>
       <c r="H78" t="n">
         <v>36327.1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>36584.47118548345</v>
-      </c>
-      <c r="J78" t="n">
-        <v>36327.1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>36584.4720382873</v>
       </c>
     </row>
     <row r="79">
@@ -3529,22 +2337,10 @@
         <v>35330.9</v>
       </c>
       <c r="F79" t="n">
-        <v>468.38</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-302.1161624973174</v>
+        <v>467.38</v>
       </c>
       <c r="H79" t="n">
         <v>35330.9</v>
-      </c>
-      <c r="I79" t="n">
-        <v>35633.01616249732</v>
-      </c>
-      <c r="J79" t="n">
-        <v>35330.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>35633.01716356442</v>
       </c>
     </row>
     <row r="80">
@@ -3555,22 +2351,10 @@
         <v>36305.9</v>
       </c>
       <c r="F80" t="n">
-        <v>468.28</v>
-      </c>
-      <c r="G80" t="n">
-        <v>40.52056805868779</v>
+        <v>467.28</v>
       </c>
       <c r="H80" t="n">
-        <v>35911.4</v>
-      </c>
-      <c r="I80" t="n">
-        <v>36265.37943194131</v>
-      </c>
-      <c r="J80" t="n">
-        <v>35911.4</v>
-      </c>
-      <c r="K80" t="n">
-        <v>36265.38060485825</v>
+        <v>36305.9</v>
       </c>
     </row>
     <row r="81">
@@ -3581,22 +2365,10 @@
         <v>35775.8</v>
       </c>
       <c r="F81" t="n">
-        <v>468.18</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-475.2819800306679</v>
+        <v>467.18</v>
       </c>
       <c r="H81" t="n">
-        <v>35837.09</v>
-      </c>
-      <c r="I81" t="n">
-        <v>36251.08198003067</v>
-      </c>
-      <c r="J81" t="n">
-        <v>35837.09</v>
-      </c>
-      <c r="K81" t="n">
-        <v>36251.08335180022</v>
+        <v>35775.8</v>
       </c>
     </row>
     <row r="82">
@@ -3607,22 +2379,10 @@
         <v>35652.5</v>
       </c>
       <c r="F82" t="n">
-        <v>468.08</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-667.4117692066502</v>
+        <v>467.08</v>
       </c>
       <c r="H82" t="n">
-        <v>35836.59</v>
-      </c>
-      <c r="I82" t="n">
-        <v>36319.91176920665</v>
-      </c>
-      <c r="J82" t="n">
-        <v>35836.59</v>
-      </c>
-      <c r="K82" t="n">
-        <v>36319.91337070164</v>
+        <v>35652.5</v>
       </c>
     </row>
     <row r="83">
@@ -3633,22 +2393,10 @@
         <v>35385.4</v>
       </c>
       <c r="F83" t="n">
-        <v>467.98</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-1014.871127211612</v>
+        <v>466.98</v>
       </c>
       <c r="H83" t="n">
-        <v>35836.98</v>
-      </c>
-      <c r="I83" t="n">
-        <v>36400.27112721161</v>
-      </c>
-      <c r="J83" t="n">
-        <v>35836.98</v>
-      </c>
-      <c r="K83" t="n">
-        <v>36400.27299368645</v>
+        <v>35385.4</v>
       </c>
     </row>
     <row r="84">
@@ -3659,22 +2407,10 @@
         <v>36313</v>
       </c>
       <c r="F84" t="n">
-        <v>467.88</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-180.3364321750996</v>
+        <v>466.88</v>
       </c>
       <c r="H84" t="n">
-        <v>35837.94</v>
-      </c>
-      <c r="I84" t="n">
-        <v>36493.3364321751</v>
-      </c>
-      <c r="J84" t="n">
-        <v>35837.94</v>
-      </c>
-      <c r="K84" t="n">
-        <v>36493.33860384245</v>
+        <v>36313</v>
       </c>
     </row>
     <row r="85">
@@ -3685,22 +2421,10 @@
         <v>36285.8</v>
       </c>
       <c r="F85" t="n">
-        <v>467.78</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-313.4204168000797</v>
+        <v>466.78</v>
       </c>
       <c r="H85" t="n">
-        <v>35837.89</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36599.22041680008</v>
-      </c>
-      <c r="J85" t="n">
-        <v>35837.89</v>
-      </c>
-      <c r="K85" t="n">
-        <v>36599.22293948151</v>
+        <v>36285.8</v>
       </c>
     </row>
     <row r="86">
@@ -3711,22 +2435,10 @@
         <v>36279.6</v>
       </c>
       <c r="F86" t="n">
-        <v>467.68</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-439.8774475624887</v>
+        <v>466.68</v>
       </c>
       <c r="H86" t="n">
-        <v>35836.47</v>
-      </c>
-      <c r="I86" t="n">
-        <v>36719.47744756249</v>
-      </c>
-      <c r="J86" t="n">
-        <v>35836.47</v>
-      </c>
-      <c r="K86" t="n">
-        <v>36719.48037342285</v>
+        <v>36279.6</v>
       </c>
     </row>
     <row r="87">
@@ -3737,22 +2449,10 @@
         <v>36632.5</v>
       </c>
       <c r="F87" t="n">
-        <v>467.58</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-225.1821596381924</v>
+        <v>466.58</v>
       </c>
       <c r="H87" t="n">
-        <v>35835.09</v>
-      </c>
-      <c r="I87" t="n">
-        <v>36857.68215963819</v>
-      </c>
-      <c r="J87" t="n">
-        <v>35835.09</v>
-      </c>
-      <c r="K87" t="n">
-        <v>36857.6855480149</v>
+        <v>36632.5</v>
       </c>
     </row>
     <row r="88">
@@ -3763,22 +2463,10 @@
         <v>37237.3</v>
       </c>
       <c r="F88" t="n">
-        <v>467.48</v>
-      </c>
-      <c r="G88" t="n">
-        <v>221.608163684934</v>
+        <v>466.48</v>
       </c>
       <c r="H88" t="n">
-        <v>35833.16</v>
-      </c>
-      <c r="I88" t="n">
-        <v>37015.69183631507</v>
-      </c>
-      <c r="J88" t="n">
-        <v>35833.16</v>
-      </c>
-      <c r="K88" t="n">
-        <v>37015.69575465465</v>
+        <v>37237.3</v>
       </c>
     </row>
     <row r="89">
@@ -3789,22 +2477,10 @@
         <v>37359.8</v>
       </c>
       <c r="F89" t="n">
-        <v>467.38</v>
-      </c>
-      <c r="G89" t="n">
-        <v>164.4571009673891</v>
+        <v>466.38</v>
       </c>
       <c r="H89" t="n">
-        <v>35829.75</v>
-      </c>
-      <c r="I89" t="n">
-        <v>37195.34289903261</v>
-      </c>
-      <c r="J89" t="n">
-        <v>35829.75</v>
-      </c>
-      <c r="K89" t="n">
-        <v>37195.34742394817</v>
+        <v>37359.8</v>
       </c>
     </row>
     <row r="90">
@@ -3815,22 +2491,10 @@
         <v>38475.3</v>
       </c>
       <c r="F90" t="n">
-        <v>467.28</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1075.198200802508</v>
+        <v>466.28</v>
       </c>
       <c r="H90" t="n">
-        <v>35825.2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>37400.10179919749</v>
-      </c>
-      <c r="J90" t="n">
-        <v>35825.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>37400.10701766169</v>
+        <v>38475.3</v>
       </c>
     </row>
     <row r="91">
@@ -3841,22 +2505,10 @@
         <v>37899.7</v>
       </c>
       <c r="F91" t="n">
-        <v>467.18</v>
-      </c>
-      <c r="G91" t="n">
-        <v>266.9595578551671</v>
+        <v>466.18</v>
       </c>
       <c r="H91" t="n">
-        <v>35818.75</v>
-      </c>
-      <c r="I91" t="n">
-        <v>37632.74044214483</v>
-      </c>
-      <c r="J91" t="n">
-        <v>35818.75</v>
-      </c>
-      <c r="K91" t="n">
-        <v>37632.74645283336</v>
+        <v>37899.7</v>
       </c>
     </row>
     <row r="92">
@@ -3867,22 +2519,10 @@
         <v>37570.5</v>
       </c>
       <c r="F92" t="n">
-        <v>467.08</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-327.8259762214002</v>
+        <v>466.08</v>
       </c>
       <c r="H92" t="n">
-        <v>35811.48</v>
-      </c>
-      <c r="I92" t="n">
-        <v>37898.3259762214</v>
-      </c>
-      <c r="J92" t="n">
-        <v>35811.48</v>
-      </c>
-      <c r="K92" t="n">
-        <v>37898.33289102143</v>
+        <v>37570.5</v>
       </c>
     </row>
     <row r="93">
@@ -3893,22 +2533,10 @@
         <v>38412.2</v>
       </c>
       <c r="F93" t="n">
-        <v>466.98</v>
-      </c>
-      <c r="G93" t="n">
-        <v>208.6857304290679</v>
+        <v>465.98</v>
       </c>
       <c r="H93" t="n">
-        <v>35805.55</v>
-      </c>
-      <c r="I93" t="n">
-        <v>38203.51426957093</v>
-      </c>
-      <c r="J93" t="n">
-        <v>35805.55</v>
-      </c>
-      <c r="K93" t="n">
-        <v>38203.52221526678</v>
+        <v>38412.2</v>
       </c>
     </row>
     <row r="94">
@@ -3919,22 +2547,10 @@
         <v>38787</v>
       </c>
       <c r="F94" t="n">
-        <v>466.88</v>
-      </c>
-      <c r="G94" t="n">
-        <v>235.8144396684074</v>
+        <v>465.88</v>
       </c>
       <c r="H94" t="n">
-        <v>35798.78</v>
-      </c>
-      <c r="I94" t="n">
-        <v>38551.18556033159</v>
-      </c>
-      <c r="J94" t="n">
-        <v>35798.78</v>
-      </c>
-      <c r="K94" t="n">
-        <v>38551.19468047476</v>
+        <v>38787</v>
       </c>
     </row>
     <row r="95">
@@ -3945,22 +2561,10 @@
         <v>39270.7</v>
       </c>
       <c r="F95" t="n">
-        <v>466.78</v>
-      </c>
-      <c r="G95" t="n">
-        <v>324.7205636776489</v>
+        <v>465.78</v>
       </c>
       <c r="H95" t="n">
-        <v>35790.13</v>
-      </c>
-      <c r="I95" t="n">
-        <v>38945.97943632235</v>
-      </c>
-      <c r="J95" t="n">
-        <v>35790.13</v>
-      </c>
-      <c r="K95" t="n">
-        <v>38945.98989328373</v>
+        <v>39270.7</v>
       </c>
     </row>
     <row r="96">
@@ -3971,22 +2575,10 @@
         <v>39573.3</v>
       </c>
       <c r="F96" t="n">
-        <v>466.68</v>
-      </c>
-      <c r="G96" t="n">
-        <v>178.5257615204682</v>
+        <v>465.68</v>
       </c>
       <c r="H96" t="n">
-        <v>35780.13</v>
-      </c>
-      <c r="I96" t="n">
-        <v>39394.77423847953</v>
-      </c>
-      <c r="J96" t="n">
-        <v>35780.13</v>
-      </c>
-      <c r="K96" t="n">
-        <v>39394.78621566539</v>
+        <v>39573.3</v>
       </c>
     </row>
     <row r="97">
@@ -3997,22 +2589,10 @@
         <v>40278.3</v>
       </c>
       <c r="F97" t="n">
-        <v>466.58</v>
-      </c>
-      <c r="G97" t="n">
-        <v>373.5871486716496</v>
+        <v>465.58</v>
       </c>
       <c r="H97" t="n">
-        <v>35768.87</v>
-      </c>
-      <c r="I97" t="n">
-        <v>39904.71285132835</v>
-      </c>
-      <c r="J97" t="n">
-        <v>35768.87000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>39904.72655551476</v>
+        <v>40278.3</v>
       </c>
     </row>
     <row r="98">
@@ -4023,22 +2603,10 @@
         <v>40182.2</v>
       </c>
       <c r="F98" t="n">
-        <v>466.48</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-301.0421849666891</v>
+        <v>465.48</v>
       </c>
       <c r="H98" t="n">
-        <v>35756.03</v>
-      </c>
-      <c r="I98" t="n">
-        <v>40483.24218496669</v>
-      </c>
-      <c r="J98" t="n">
-        <v>35756.03000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>40483.25784866556</v>
+        <v>40182.2</v>
       </c>
     </row>
     <row r="99">
@@ -4049,22 +2617,10 @@
         <v>40908.6</v>
       </c>
       <c r="F99" t="n">
-        <v>466.38</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-230.8168729896497</v>
+        <v>465.38</v>
       </c>
       <c r="H99" t="n">
-        <v>35742.22</v>
-      </c>
-      <c r="I99" t="n">
-        <v>41139.41687298965</v>
-      </c>
-      <c r="J99" t="n">
-        <v>35742.22000000002</v>
-      </c>
-      <c r="K99" t="n">
-        <v>41139.4347566943</v>
+        <v>40908.6</v>
       </c>
     </row>
     <row r="100">
@@ -4075,22 +2631,10 @@
         <v>41359.4</v>
       </c>
       <c r="F100" t="n">
-        <v>466.28</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-522.7581052119931</v>
+        <v>465.28</v>
       </c>
       <c r="H100" t="n">
-        <v>35727.35</v>
-      </c>
-      <c r="I100" t="n">
-        <v>41882.15810521199</v>
-      </c>
-      <c r="J100" t="n">
-        <v>35727.35000000006</v>
-      </c>
-      <c r="K100" t="n">
-        <v>41882.17849927445</v>
+        <v>41359.4</v>
       </c>
     </row>
     <row r="101">
@@ -4101,22 +2645,10 @@
         <v>42018.6</v>
       </c>
       <c r="F101" t="n">
-        <v>466.18</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-701.4153817055412</v>
+        <v>465.18</v>
       </c>
       <c r="H101" t="n">
-        <v>35710.62</v>
-      </c>
-      <c r="I101" t="n">
-        <v>42720.01538170554</v>
-      </c>
-      <c r="J101" t="n">
-        <v>35710.62000000013</v>
-      </c>
-      <c r="K101" t="n">
-        <v>42720.03860745757</v>
+        <v>42018.6</v>
       </c>
     </row>
     <row r="102">
@@ -4127,22 +2659,10 @@
         <v>43477.4</v>
       </c>
       <c r="F102" t="n">
-        <v>466.08</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-184.8819202935265</v>
+        <v>465.08</v>
       </c>
       <c r="H102" t="n">
-        <v>35692.04</v>
-      </c>
-      <c r="I102" t="n">
-        <v>43662.28192029353</v>
-      </c>
-      <c r="J102" t="n">
-        <v>35692.0400000003</v>
-      </c>
-      <c r="K102" t="n">
-        <v>43662.30832982691</v>
+        <v>43477.4</v>
       </c>
     </row>
     <row r="103">
@@ -4153,22 +2673,10 @@
         <v>44431.8</v>
       </c>
       <c r="F103" t="n">
-        <v>465.98</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-284.204046783183</v>
+        <v>464.98</v>
       </c>
       <c r="H103" t="n">
-        <v>35670.1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>44716.00404678319</v>
-      </c>
-      <c r="J103" t="n">
-        <v>35670.10000000068</v>
-      </c>
-      <c r="K103" t="n">
-        <v>44716.03402054114</v>
+        <v>44431.8</v>
       </c>
     </row>
     <row r="104">
@@ -4179,22 +2687,10 @@
         <v>45237.4</v>
       </c>
       <c r="F104" t="n">
-        <v>465.88</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-650.1639626272008</v>
+        <v>464.88</v>
       </c>
       <c r="H104" t="n">
-        <v>35644.37</v>
-      </c>
-      <c r="I104" t="n">
-        <v>45887.5639626272</v>
-      </c>
-      <c r="J104" t="n">
-        <v>35644.37000000155</v>
-      </c>
-      <c r="K104" t="n">
-        <v>45887.59790362503</v>
+        <v>45237.4</v>
       </c>
     </row>
     <row r="105">
@@ -4205,22 +2701,10 @@
         <v>46298.1</v>
       </c>
       <c r="F105" t="n">
-        <v>465.78</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-883.4110500620227</v>
+        <v>464.78</v>
       </c>
       <c r="H105" t="n">
-        <v>35615.82</v>
-      </c>
-      <c r="I105" t="n">
-        <v>47181.51105006202</v>
-      </c>
-      <c r="J105" t="n">
-        <v>35615.82000000344</v>
-      </c>
-      <c r="K105" t="n">
-        <v>47181.5493731748</v>
+        <v>46298.1</v>
       </c>
     </row>
     <row r="106">
@@ -4231,22 +2715,10 @@
         <v>48371.8</v>
       </c>
       <c r="F106" t="n">
-        <v>465.68</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-224.0041445125098</v>
+        <v>464.68</v>
       </c>
       <c r="H106" t="n">
-        <v>35584.13</v>
-      </c>
-      <c r="I106" t="n">
-        <v>48595.80414451251</v>
-      </c>
-      <c r="J106" t="n">
-        <v>35584.13000000759</v>
-      </c>
-      <c r="K106" t="n">
-        <v>48595.84725891099</v>
+        <v>48371.8</v>
       </c>
     </row>
     <row r="107">
@@ -4257,22 +2729,10 @@
         <v>49874.7</v>
       </c>
       <c r="F107" t="n">
-        <v>465.58</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-244.1017634213931</v>
+        <v>464.58</v>
       </c>
       <c r="H107" t="n">
-        <v>35547.38</v>
-      </c>
-      <c r="I107" t="n">
-        <v>50118.80176342139</v>
-      </c>
-      <c r="J107" t="n">
-        <v>35547.38000001654</v>
-      </c>
-      <c r="K107" t="n">
-        <v>50118.85004606148</v>
+        <v>49874.7</v>
       </c>
     </row>
     <row r="108">
@@ -4283,22 +2743,10 @@
         <v>52045.5</v>
       </c>
       <c r="F108" t="n">
-        <v>465.48</v>
-      </c>
-      <c r="G108" t="n">
-        <v>316.6432652028452</v>
+        <v>464.48</v>
       </c>
       <c r="H108" t="n">
-        <v>35504.89</v>
-      </c>
-      <c r="I108" t="n">
-        <v>51728.85673479715</v>
-      </c>
-      <c r="J108" t="n">
-        <v>35504.89000003565</v>
-      </c>
-      <c r="K108" t="n">
-        <v>51728.91049315432</v>
+        <v>52045.5</v>
       </c>
     </row>
     <row r="109">
@@ -4309,22 +2757,10 @@
         <v>53500.1</v>
       </c>
       <c r="F109" t="n">
-        <v>465.38</v>
-      </c>
-      <c r="G109" t="n">
-        <v>109.9729074651186</v>
+        <v>464.38</v>
       </c>
       <c r="H109" t="n">
-        <v>35456.47</v>
-      </c>
-      <c r="I109" t="n">
-        <v>53390.12709253488</v>
-      </c>
-      <c r="J109" t="n">
-        <v>35456.47000007605</v>
-      </c>
-      <c r="K109" t="n">
-        <v>53390.18651594005</v>
+        <v>53500.1</v>
       </c>
     </row>
     <row r="110">
@@ -4335,22 +2771,10 @@
         <v>56491.5</v>
       </c>
       <c r="F110" t="n">
-        <v>465.28</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1442.177243954342</v>
+        <v>464.28</v>
       </c>
       <c r="H110" t="n">
-        <v>35402.04</v>
-      </c>
-      <c r="I110" t="n">
-        <v>55049.32275604566</v>
-      </c>
-      <c r="J110" t="n">
-        <v>35402.04000016046</v>
-      </c>
-      <c r="K110" t="n">
-        <v>55049.38785749453</v>
+        <v>56491.5</v>
       </c>
     </row>
     <row r="111">
@@ -4361,22 +2785,10 @@
         <v>58241.6</v>
       </c>
       <c r="F111" t="n">
-        <v>465.18</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1608.267998232805</v>
+        <v>464.18</v>
       </c>
       <c r="H111" t="n">
-        <v>35340.32</v>
-      </c>
-      <c r="I111" t="n">
-        <v>56633.33200176719</v>
-      </c>
-      <c r="J111" t="n">
-        <v>35340.3200003349</v>
-      </c>
-      <c r="K111" t="n">
-        <v>56633.40255619377</v>
+        <v>58241.6</v>
       </c>
     </row>
     <row r="112">
@@ -4387,22 +2799,10 @@
         <v>58492.2</v>
       </c>
       <c r="F112" t="n">
-        <v>465.08</v>
-      </c>
-      <c r="G112" t="n">
-        <v>438.1153746493292</v>
+        <v>464.08</v>
       </c>
       <c r="H112" t="n">
-        <v>35271.36</v>
-      </c>
-      <c r="I112" t="n">
-        <v>58054.08462535067</v>
-      </c>
-      <c r="J112" t="n">
-        <v>35271.36000069153</v>
-      </c>
-      <c r="K112" t="n">
-        <v>58054.16011560903</v>
+        <v>58492.2</v>
       </c>
     </row>
     <row r="113">
@@ -4413,22 +2813,10 @@
         <v>59993.4</v>
       </c>
       <c r="F113" t="n">
-        <v>464.98</v>
-      </c>
-      <c r="G113" t="n">
-        <v>775.2193524133982</v>
+        <v>463.98</v>
       </c>
       <c r="H113" t="n">
-        <v>35199.04</v>
-      </c>
-      <c r="I113" t="n">
-        <v>59218.1806475866</v>
-      </c>
-      <c r="J113" t="n">
-        <v>35199.0400014126</v>
-      </c>
-      <c r="K113" t="n">
-        <v>59218.26023400965</v>
+        <v>59993.4</v>
       </c>
     </row>
     <row r="114">
@@ -4439,22 +2827,10 @@
         <v>60943.2</v>
       </c>
       <c r="F114" t="n">
-        <v>464.88</v>
-      </c>
-      <c r="G114" t="n">
-        <v>911.6568832803096</v>
+        <v>463.88</v>
       </c>
       <c r="H114" t="n">
-        <v>35123.52</v>
-      </c>
-      <c r="I114" t="n">
-        <v>60031.54311671969</v>
-      </c>
-      <c r="J114" t="n">
-        <v>35123.52000285466</v>
-      </c>
-      <c r="K114" t="n">
-        <v>60031.62564702801</v>
+        <v>60943.2</v>
       </c>
     </row>
     <row r="115">
@@ -4465,22 +2841,10 @@
         <v>60757.5</v>
       </c>
       <c r="F115" t="n">
-        <v>464.78</v>
-      </c>
-      <c r="G115" t="n">
-        <v>339.582462893195</v>
+        <v>463.78</v>
       </c>
       <c r="H115" t="n">
-        <v>35044.25</v>
-      </c>
-      <c r="I115" t="n">
-        <v>60417.9175371068</v>
-      </c>
-      <c r="J115" t="n">
-        <v>35044.25000570727</v>
-      </c>
-      <c r="K115" t="n">
-        <v>60418.0016074833</v>
+        <v>60757.5</v>
       </c>
     </row>
     <row r="116">
@@ -4491,22 +2855,10 @@
         <v>61064.9</v>
       </c>
       <c r="F116" t="n">
-        <v>464.68</v>
-      </c>
-      <c r="G116" t="n">
-        <v>727.5624573118475</v>
+        <v>463.68</v>
       </c>
       <c r="H116" t="n">
-        <v>34963.67</v>
-      </c>
-      <c r="I116" t="n">
-        <v>60337.33754268815</v>
-      </c>
-      <c r="J116" t="n">
-        <v>34963.67001128874</v>
-      </c>
-      <c r="K116" t="n">
-        <v>60337.42160748316</v>
+        <v>61064.9</v>
       </c>
     </row>
     <row r="117">
@@ -4517,22 +2869,10 @@
         <v>60081.4</v>
       </c>
       <c r="F117" t="n">
-        <v>464.58</v>
-      </c>
-      <c r="G117" t="n">
-        <v>290.4868640442874</v>
+        <v>463.58</v>
       </c>
       <c r="H117" t="n">
-        <v>34882.89</v>
-      </c>
-      <c r="I117" t="n">
-        <v>59790.91313595571</v>
-      </c>
-      <c r="J117" t="n">
-        <v>34882.89002209104</v>
-      </c>
-      <c r="K117" t="n">
-        <v>59790.99564702762</v>
+        <v>60081.4</v>
       </c>
     </row>
     <row r="118">
@@ -4543,22 +2883,10 @@
         <v>58455.2</v>
       </c>
       <c r="F118" t="n">
-        <v>464.48</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-367.5006889450597</v>
+        <v>463.48</v>
       </c>
       <c r="H118" t="n">
-        <v>34803.56</v>
-      </c>
-      <c r="I118" t="n">
-        <v>58822.70068894506</v>
-      </c>
-      <c r="J118" t="n">
-        <v>34803.56004277099</v>
-      </c>
-      <c r="K118" t="n">
-        <v>58822.78023400964</v>
+        <v>58455.2</v>
       </c>
     </row>
     <row r="119">
@@ -4569,22 +2897,10 @@
         <v>57070.7</v>
       </c>
       <c r="F119" t="n">
-        <v>464.38</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-440.3347065906128</v>
+        <v>463.38</v>
       </c>
       <c r="H119" t="n">
-        <v>34728.31</v>
-      </c>
-      <c r="I119" t="n">
-        <v>57511.03470659061</v>
-      </c>
-      <c r="J119" t="n">
-        <v>34728.31008193213</v>
-      </c>
-      <c r="K119" t="n">
-        <v>57511.11011560824</v>
+        <v>57070.7</v>
       </c>
     </row>
     <row r="120">
@@ -4595,22 +2911,10 @@
         <v>54895.6</v>
       </c>
       <c r="F120" t="n">
-        <v>464.28</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-1055.242156720866</v>
+        <v>463.28</v>
       </c>
       <c r="H120" t="n">
-        <v>34657.83</v>
-      </c>
-      <c r="I120" t="n">
-        <v>55950.84215672086</v>
-      </c>
-      <c r="J120" t="n">
-        <v>34657.83015528924</v>
-      </c>
-      <c r="K120" t="n">
-        <v>55950.91255619288</v>
+        <v>54895.6</v>
       </c>
     </row>
     <row r="121">
@@ -4621,22 +2925,10 @@
         <v>53543.9</v>
       </c>
       <c r="F121" t="n">
-        <v>464.18</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-696.1930471046653</v>
+        <v>463.18</v>
       </c>
       <c r="H121" t="n">
-        <v>34592.81</v>
-      </c>
-      <c r="I121" t="n">
-        <v>54240.09304710467</v>
-      </c>
-      <c r="J121" t="n">
-        <v>34592.81029121998</v>
-      </c>
-      <c r="K121" t="n">
-        <v>54240.15785749357</v>
+        <v>53543.9</v>
       </c>
     </row>
     <row r="122">
@@ -4647,22 +2939,10 @@
         <v>52083.7</v>
       </c>
       <c r="F122" t="n">
-        <v>464.08</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-382.8576328458512</v>
+        <v>463.08</v>
       </c>
       <c r="H122" t="n">
-        <v>34532.9</v>
-      </c>
-      <c r="I122" t="n">
-        <v>52466.55763284585</v>
-      </c>
-      <c r="J122" t="n">
-        <v>34532.90054038716</v>
-      </c>
-      <c r="K122" t="n">
-        <v>52466.61651593908</v>
+        <v>52083.7</v>
       </c>
     </row>
     <row r="123">
@@ -4673,22 +2953,10 @@
         <v>50127</v>
       </c>
       <c r="F123" t="n">
-        <v>463.98</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-574.487726975829</v>
+        <v>462.98</v>
       </c>
       <c r="H123" t="n">
-        <v>34477.52</v>
-      </c>
-      <c r="I123" t="n">
-        <v>50701.48772697583</v>
-      </c>
-      <c r="J123" t="n">
-        <v>34477.5209922128</v>
-      </c>
-      <c r="K123" t="n">
-        <v>50701.54049315432</v>
+        <v>50127</v>
       </c>
     </row>
     <row r="124">
@@ -4699,22 +2967,10 @@
         <v>48588.1</v>
       </c>
       <c r="F124" t="n">
-        <v>463.88</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-410.7235661470404</v>
+        <v>462.88</v>
       </c>
       <c r="H124" t="n">
-        <v>34427.4</v>
-      </c>
-      <c r="I124" t="n">
-        <v>48998.82356614704</v>
-      </c>
-      <c r="J124" t="n">
-        <v>34427.40180274032</v>
-      </c>
-      <c r="K124" t="n">
-        <v>48998.87004606057</v>
+        <v>48588.1</v>
       </c>
     </row>
     <row r="125">
@@ -4725,22 +2981,10 @@
         <v>47326.9</v>
       </c>
       <c r="F125" t="n">
-        <v>463.78</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-67.11738569089357</v>
+        <v>462.78</v>
       </c>
       <c r="H125" t="n">
-        <v>34382.34</v>
-      </c>
-      <c r="I125" t="n">
-        <v>47394.0173856909</v>
-      </c>
-      <c r="J125" t="n">
-        <v>34382.34324118184</v>
-      </c>
-      <c r="K125" t="n">
-        <v>47394.05725891014</v>
+        <v>47326.9</v>
       </c>
     </row>
     <row r="126">
@@ -4751,22 +2995,10 @@
         <v>46217.6</v>
       </c>
       <c r="F126" t="n">
-        <v>463.68</v>
-      </c>
-      <c r="G126" t="n">
-        <v>310.5531832031556</v>
+        <v>462.68</v>
       </c>
       <c r="H126" t="n">
-        <v>34341.35</v>
-      </c>
-      <c r="I126" t="n">
-        <v>45907.04681679684</v>
-      </c>
-      <c r="J126" t="n">
-        <v>34341.35576673018</v>
-      </c>
-      <c r="K126" t="n">
-        <v>45907.07937317401</v>
+        <v>46217.6</v>
       </c>
     </row>
     <row r="127">
@@ -4777,22 +3009,10 @@
         <v>45448.5</v>
       </c>
       <c r="F127" t="n">
-        <v>463.58</v>
-      </c>
-      <c r="G127" t="n">
-        <v>901.5758836001405</v>
+        <v>462.58</v>
       </c>
       <c r="H127" t="n">
-        <v>34303.72</v>
-      </c>
-      <c r="I127" t="n">
-        <v>44546.92411639986</v>
-      </c>
-      <c r="J127" t="n">
-        <v>34303.7301537593</v>
-      </c>
-      <c r="K127" t="n">
-        <v>44546.94790362431</v>
+        <v>45448.5</v>
       </c>
     </row>
     <row r="128">
@@ -4803,22 +3023,10 @@
         <v>44004.5</v>
       </c>
       <c r="F128" t="n">
-        <v>463.48</v>
-      </c>
-      <c r="G128" t="n">
-        <v>689.4982598017959</v>
+        <v>462.48</v>
       </c>
       <c r="H128" t="n">
-        <v>34269.08</v>
-      </c>
-      <c r="I128" t="n">
-        <v>43315.0017401982</v>
-      </c>
-      <c r="J128" t="n">
-        <v>34269.09769338847</v>
-      </c>
-      <c r="K128" t="n">
-        <v>43315.01402054114</v>
+        <v>44004.5</v>
       </c>
     </row>
     <row r="129">
@@ -4829,22 +3037,10 @@
         <v>42300.8</v>
       </c>
       <c r="F129" t="n">
-        <v>463.38</v>
-      </c>
-      <c r="G129" t="n">
-        <v>92.26756567026314</v>
+        <v>462.38</v>
       </c>
       <c r="H129" t="n">
-        <v>34238.26</v>
-      </c>
-      <c r="I129" t="n">
-        <v>42208.53243432974</v>
-      </c>
-      <c r="J129" t="n">
-        <v>34238.29051399013</v>
-      </c>
-      <c r="K129" t="n">
-        <v>42208.52832982634</v>
+        <v>42300.8</v>
       </c>
     </row>
     <row r="130">
@@ -4855,22 +3051,10 @@
         <v>41976.4</v>
       </c>
       <c r="F130" t="n">
-        <v>463.28</v>
-      </c>
-      <c r="G130" t="n">
-        <v>755.2525336738836</v>
+        <v>462.28</v>
       </c>
       <c r="H130" t="n">
-        <v>34211.7</v>
-      </c>
-      <c r="I130" t="n">
-        <v>41221.14746632612</v>
-      </c>
-      <c r="J130" t="n">
-        <v>34211.75208454107</v>
-      </c>
-      <c r="K130" t="n">
-        <v>41221.11860745704</v>
+        <v>41976.4</v>
       </c>
     </row>
     <row r="131">
@@ -4881,22 +3065,10 @@
         <v>40976</v>
       </c>
       <c r="F131" t="n">
-        <v>463.18</v>
-      </c>
-      <c r="G131" t="n">
-        <v>633.2338993017765</v>
+        <v>462.18</v>
       </c>
       <c r="H131" t="n">
-        <v>34187.87</v>
-      </c>
-      <c r="I131" t="n">
-        <v>40342.76610069822</v>
-      </c>
-      <c r="J131" t="n">
-        <v>34187.95799535132</v>
-      </c>
-      <c r="K131" t="n">
-        <v>40342.698499274</v>
+        <v>40976</v>
       </c>
     </row>
     <row r="132">
@@ -4907,22 +3079,10 @@
         <v>39662.7</v>
       </c>
       <c r="F132" t="n">
-        <v>463.08</v>
-      </c>
-      <c r="G132" t="n">
-        <v>98.81597275939566</v>
+        <v>462.08</v>
       </c>
       <c r="H132" t="n">
-        <v>34166.54</v>
-      </c>
-      <c r="I132" t="n">
-        <v>39563.8840272406</v>
-      </c>
-      <c r="J132" t="n">
-        <v>34166.6871540249</v>
-      </c>
-      <c r="K132" t="n">
-        <v>39563.75475669389</v>
+        <v>39662.7</v>
       </c>
     </row>
     <row r="133">
@@ -4933,22 +3093,10 @@
         <v>39619.2</v>
       </c>
       <c r="F133" t="n">
-        <v>462.98</v>
-      </c>
-      <c r="G133" t="n">
-        <v>743.5042198826632</v>
+        <v>461.98</v>
       </c>
       <c r="H133" t="n">
-        <v>34148.24</v>
-      </c>
-      <c r="I133" t="n">
-        <v>38875.69578011733</v>
-      </c>
-      <c r="J133" t="n">
-        <v>34148.48359477575</v>
-      </c>
-      <c r="K133" t="n">
-        <v>38875.46784866556</v>
+        <v>39619.2</v>
       </c>
     </row>
     <row r="134">
@@ -4959,22 +3107,10 @@
         <v>39377.8</v>
       </c>
       <c r="F134" t="n">
-        <v>462.88</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1110.117966368714</v>
+        <v>461.88</v>
       </c>
       <c r="H134" t="n">
-        <v>34131.44</v>
-      </c>
-      <c r="I134" t="n">
-        <v>38267.68203363129</v>
-      </c>
-      <c r="J134" t="n">
-        <v>34131.8391816889</v>
-      </c>
-      <c r="K134" t="n">
-        <v>38267.29655551445</v>
+        <v>39377.8</v>
       </c>
     </row>
     <row r="135">
@@ -4985,22 +3121,10 @@
         <v>38388.1</v>
       </c>
       <c r="F135" t="n">
-        <v>462.78</v>
-      </c>
-      <c r="G135" t="n">
-        <v>657.2881630527481</v>
+        <v>461.78</v>
       </c>
       <c r="H135" t="n">
-        <v>34115.52</v>
-      </c>
-      <c r="I135" t="n">
-        <v>37730.81183694725</v>
-      </c>
-      <c r="J135" t="n">
-        <v>34116.16759747129</v>
-      </c>
-      <c r="K135" t="n">
-        <v>37730.17621566511</v>
+        <v>38388.1</v>
       </c>
     </row>
     <row r="136">
@@ -5011,22 +3135,10 @@
         <v>38223</v>
       </c>
       <c r="F136" t="n">
-        <v>462.68</v>
-      </c>
-      <c r="G136" t="n">
-        <v>964.6904061018649</v>
+        <v>461.68</v>
       </c>
       <c r="H136" t="n">
-        <v>34101.42</v>
-      </c>
-      <c r="I136" t="n">
-        <v>37258.30959389814</v>
-      </c>
-      <c r="J136" t="n">
-        <v>34102.46015597516</v>
-      </c>
-      <c r="K136" t="n">
-        <v>37257.27989328348</v>
+        <v>38223</v>
       </c>
     </row>
     <row r="137">
@@ -5037,22 +3149,10 @@
         <v>36865.2</v>
       </c>
       <c r="F137" t="n">
-        <v>462.58</v>
-      </c>
-      <c r="G137" t="n">
-        <v>21.88026963232551</v>
+        <v>461.58</v>
       </c>
       <c r="H137" t="n">
-        <v>34089.26</v>
-      </c>
-      <c r="I137" t="n">
-        <v>36843.31973036767</v>
-      </c>
-      <c r="J137" t="n">
-        <v>34090.91416749042</v>
-      </c>
-      <c r="K137" t="n">
-        <v>36841.67468047454</v>
+        <v>36865.2</v>
       </c>
     </row>
     <row r="138">
@@ -5063,22 +3163,10 @@
         <v>36879.5</v>
       </c>
       <c r="F138" t="n">
-        <v>462.48</v>
-      </c>
-      <c r="G138" t="n">
-        <v>399.60089707515</v>
+        <v>461.48</v>
       </c>
       <c r="H138" t="n">
-        <v>34079.33</v>
-      </c>
-      <c r="I138" t="n">
-        <v>36479.89910292485</v>
-      </c>
-      <c r="J138" t="n">
-        <v>34081.93482934491</v>
-      </c>
-      <c r="K138" t="n">
-        <v>36477.30221526678</v>
+        <v>36879.5</v>
       </c>
     </row>
     <row r="139">
@@ -5089,22 +3177,10 @@
         <v>36851.5</v>
       </c>
       <c r="F139" t="n">
-        <v>462.38</v>
-      </c>
-      <c r="G139" t="n">
-        <v>689.8620976171369</v>
+        <v>461.38</v>
       </c>
       <c r="H139" t="n">
-        <v>34070.73</v>
-      </c>
-      <c r="I139" t="n">
-        <v>36161.63790238286</v>
-      </c>
-      <c r="J139" t="n">
-        <v>34074.79191991005</v>
-      </c>
-      <c r="K139" t="n">
-        <v>36157.58289102127</v>
+        <v>36851.5</v>
       </c>
     </row>
     <row r="140">
@@ -5115,22 +3191,10 @@
         <v>36886.4</v>
       </c>
       <c r="F140" t="n">
-        <v>462.28</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1004.016597379072</v>
+        <v>461.28</v>
       </c>
       <c r="H140" t="n">
-        <v>34062.12</v>
-      </c>
-      <c r="I140" t="n">
-        <v>35882.38340262093</v>
-      </c>
-      <c r="J140" t="n">
-        <v>34068.39295082173</v>
-      </c>
-      <c r="K140" t="n">
-        <v>35876.11645283322</v>
+        <v>36886.4</v>
       </c>
     </row>
     <row r="141">
@@ -5141,22 +3205,10 @@
         <v>36040.2</v>
       </c>
       <c r="F141" t="n">
-        <v>462.18</v>
-      </c>
-      <c r="G141" t="n">
-        <v>401.7932972088893</v>
+        <v>461.18</v>
       </c>
       <c r="H141" t="n">
-        <v>34053.91</v>
-      </c>
-      <c r="I141" t="n">
-        <v>35638.40670279111</v>
-      </c>
-      <c r="J141" t="n">
-        <v>34063.50488882654</v>
-      </c>
-      <c r="K141" t="n">
-        <v>35628.81701766157</v>
+        <v>36040.2</v>
       </c>
     </row>
     <row r="142">
@@ -5167,22 +3219,10 @@
         <v>36166.2</v>
       </c>
       <c r="F142" t="n">
-        <v>462.08</v>
-      </c>
-      <c r="G142" t="n">
-        <v>739.1999752659322</v>
+        <v>461.08</v>
       </c>
       <c r="H142" t="n">
-        <v>34046.87</v>
-      </c>
-      <c r="I142" t="n">
-        <v>35427.00002473406</v>
-      </c>
-      <c r="J142" t="n">
-        <v>34061.40710332795</v>
-      </c>
-      <c r="K142" t="n">
-        <v>35412.46742394807</v>
+        <v>36166.2</v>
       </c>
     </row>
     <row r="143">
@@ -5193,22 +3233,10 @@
         <v>36580.2</v>
       </c>
       <c r="F143" t="n">
-        <v>461.98</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1335.599293746112</v>
+        <v>460.98</v>
       </c>
       <c r="H143" t="n">
-        <v>34040.25</v>
-      </c>
-      <c r="I143" t="n">
-        <v>35244.60070625388</v>
-      </c>
-      <c r="J143" t="n">
-        <v>34062.06883635811</v>
-      </c>
-      <c r="K143" t="n">
-        <v>35222.78575465464</v>
+        <v>36580.2</v>
       </c>
     </row>
     <row r="144">
@@ -5219,22 +3247,10 @@
         <v>36225.1</v>
       </c>
       <c r="F144" t="n">
-        <v>461.88</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1137.032553325596</v>
+        <v>460.88</v>
       </c>
       <c r="H144" t="n">
-        <v>34033.03</v>
-      </c>
-      <c r="I144" t="n">
-        <v>35088.0674466744</v>
-      </c>
-      <c r="J144" t="n">
-        <v>34065.47523710081</v>
-      </c>
-      <c r="K144" t="n">
-        <v>35055.62554801482</v>
+        <v>36225.1</v>
       </c>
     </row>
     <row r="145">
@@ -5245,22 +3261,10 @@
         <v>36968.4</v>
       </c>
       <c r="F145" t="n">
-        <v>461.78</v>
-      </c>
-      <c r="G145" t="n">
-        <v>2012.065613627827</v>
+        <v>460.78</v>
       </c>
       <c r="H145" t="n">
-        <v>34025.52</v>
-      </c>
-      <c r="I145" t="n">
-        <v>34956.33438637217</v>
-      </c>
-      <c r="J145" t="n">
-        <v>34073.32686523166</v>
-      </c>
-      <c r="K145" t="n">
-        <v>34908.53037342277</v>
+        <v>36968.4</v>
       </c>
     </row>
     <row r="146">
@@ -5271,22 +3275,10 @@
         <v>36678</v>
       </c>
       <c r="F146" t="n">
-        <v>461.68</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1829.510910087905</v>
+        <v>460.68</v>
       </c>
       <c r="H146" t="n">
-        <v>34017.35</v>
-      </c>
-      <c r="I146" t="n">
-        <v>34848.48908991209</v>
-      </c>
-      <c r="J146" t="n">
-        <v>34087.15856567182</v>
-      </c>
-      <c r="K146" t="n">
-        <v>34778.68293948145</v>
+        <v>36678</v>
       </c>
     </row>
     <row r="147">
@@ -5297,22 +3289,10 @@
         <v>36365.6</v>
       </c>
       <c r="F147" t="n">
-        <v>461.58</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1600.13862675921</v>
+        <v>460.58</v>
       </c>
       <c r="H147" t="n">
-        <v>34009.03</v>
-      </c>
-      <c r="I147" t="n">
-        <v>34765.46137324079</v>
-      </c>
-      <c r="J147" t="n">
-        <v>34110.06478556617</v>
-      </c>
-      <c r="K147" t="n">
-        <v>34664.42860384239</v>
+        <v>36365.6</v>
       </c>
     </row>
     <row r="148">
@@ -5323,22 +3303,10 @@
         <v>36258.8</v>
       </c>
       <c r="F148" t="n">
-        <v>461.48</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1549.018849270076</v>
+        <v>460.48</v>
       </c>
       <c r="H148" t="n">
-        <v>34001.53</v>
-      </c>
-      <c r="I148" t="n">
-        <v>34709.78115072993</v>
-      </c>
-      <c r="J148" t="n">
-        <v>34146.48980041507</v>
-      </c>
-      <c r="K148" t="n">
-        <v>34564.82299368644</v>
+        <v>36258.8</v>
       </c>
     </row>
     <row r="149">
@@ -5349,22 +3317,10 @@
         <v>36255.7</v>
       </c>
       <c r="F149" t="n">
-        <v>461.38</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1571.694876610141</v>
+        <v>460.38</v>
       </c>
       <c r="H149" t="n">
-        <v>33994.47</v>
-      </c>
-      <c r="I149" t="n">
-        <v>34684.00512338986</v>
-      </c>
-      <c r="J149" t="n">
-        <v>34200.68303680699</v>
-      </c>
-      <c r="K149" t="n">
-        <v>34477.79337070161</v>
+        <v>36255.7</v>
       </c>
     </row>
     <row r="150">
@@ -5375,22 +3331,10 @@
         <v>36053.5</v>
       </c>
       <c r="F150" t="n">
-        <v>461.28</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1360.98569429668</v>
+        <v>460.28</v>
       </c>
       <c r="H150" t="n">
-        <v>33987.61</v>
-      </c>
-      <c r="I150" t="n">
-        <v>34692.51430570332</v>
-      </c>
-      <c r="J150" t="n">
-        <v>34278.52187793901</v>
-      </c>
-      <c r="K150" t="n">
-        <v>34401.60335180019</v>
+        <v>36053.5</v>
       </c>
     </row>
     <row r="151">
@@ -5401,22 +3345,10 @@
         <v>36402</v>
       </c>
       <c r="F151" t="n">
-        <v>461.18</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1660.082691509087</v>
+        <v>460.18</v>
       </c>
       <c r="H151" t="n">
-        <v>33980.86</v>
-      </c>
-      <c r="I151" t="n">
-        <v>34741.91730849091</v>
-      </c>
-      <c r="J151" t="n">
-        <v>34387.93725002935</v>
-      </c>
-      <c r="K151" t="n">
-        <v>34334.84060485821</v>
+        <v>36402</v>
       </c>
     </row>
     <row r="152">
@@ -5427,22 +3359,10 @@
         <v>37028.1</v>
       </c>
       <c r="F152" t="n">
-        <v>461.08</v>
-      </c>
-      <c r="G152" t="n">
-        <v>2187.441710889419</v>
+        <v>460.08</v>
       </c>
       <c r="H152" t="n">
-        <v>33973.39</v>
-      </c>
-      <c r="I152" t="n">
-        <v>34840.65828911058</v>
-      </c>
-      <c r="J152" t="n">
-        <v>34538.54125680608</v>
-      </c>
-      <c r="K152" t="n">
-        <v>34275.50716356439</v>
+        <v>37028.1</v>
       </c>
     </row>
     <row r="153">
@@ -5453,22 +3373,10 @@
         <v>37042</v>
       </c>
       <c r="F153" t="n">
-        <v>460.98</v>
-      </c>
-      <c r="G153" t="n">
-        <v>2041.405978960414</v>
+        <v>459.98</v>
       </c>
       <c r="H153" t="n">
-        <v>33964.58</v>
-      </c>
-      <c r="I153" t="n">
-        <v>35000.59402103959</v>
-      </c>
-      <c r="J153" t="n">
-        <v>34743.22163717233</v>
-      </c>
-      <c r="K153" t="n">
-        <v>34221.9520382873</v>
+        <v>37042</v>
       </c>
     </row>
     <row r="154">
@@ -5479,22 +3387,10 @@
         <v>37572.4</v>
       </c>
       <c r="F154" t="n">
-        <v>460.88</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2333.827743476766</v>
+        <v>459.88</v>
       </c>
       <c r="H154" t="n">
-        <v>33954.81</v>
-      </c>
-      <c r="I154" t="n">
-        <v>35238.57225652324</v>
-      </c>
-      <c r="J154" t="n">
-        <v>35019.73550728844</v>
-      </c>
-      <c r="K154" t="n">
-        <v>34173.64583535405</v>
+        <v>37572.4</v>
       </c>
     </row>
     <row r="155">
@@ -5505,22 +3401,10 @@
         <v>37672.3</v>
       </c>
       <c r="F155" t="n">
-        <v>460.78</v>
-      </c>
-      <c r="G155" t="n">
-        <v>2096.215759290746</v>
+        <v>459.78</v>
       </c>
       <c r="H155" t="n">
-        <v>33944.12</v>
-      </c>
-      <c r="I155" t="n">
-        <v>35576.08424070926</v>
-      </c>
-      <c r="J155" t="n">
-        <v>35390.37549803474</v>
-      </c>
-      <c r="K155" t="n">
-        <v>34129.82713212816</v>
+        <v>37672.3</v>
       </c>
     </row>
     <row r="156">
@@ -5531,22 +3415,10 @@
         <v>37673</v>
       </c>
       <c r="F156" t="n">
-        <v>460.68</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1631.971284600731</v>
+        <v>459.68</v>
       </c>
       <c r="H156" t="n">
-        <v>33932.72</v>
-      </c>
-      <c r="I156" t="n">
-        <v>36041.02871539927</v>
-      </c>
-      <c r="J156" t="n">
-        <v>35883.74584575887</v>
-      </c>
-      <c r="K156" t="n">
-        <v>34090.00038802507</v>
+        <v>37673</v>
       </c>
     </row>
     <row r="157">
@@ -5557,22 +3429,10 @@
         <v>37782.7</v>
       </c>
       <c r="F157" t="n">
-        <v>460.58</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1113.266401718502</v>
+        <v>459.58</v>
       </c>
       <c r="H157" t="n">
-        <v>33921.12</v>
-      </c>
-      <c r="I157" t="n">
-        <v>36669.4335982815</v>
-      </c>
-      <c r="J157" t="n">
-        <v>36536.49481226069</v>
-      </c>
-      <c r="K157" t="n">
-        <v>34054.05520125813</v>
+        <v>37782.7</v>
       </c>
     </row>
     <row r="158">
@@ -5583,22 +3443,10 @@
         <v>38926.8</v>
       </c>
       <c r="F158" t="n">
-        <v>460.48</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1420.785744093329</v>
+        <v>459.48</v>
       </c>
       <c r="H158" t="n">
-        <v>33908.66</v>
-      </c>
-      <c r="I158" t="n">
-        <v>37506.01425590667</v>
-      </c>
-      <c r="J158" t="n">
-        <v>37393.88251608621</v>
-      </c>
-      <c r="K158" t="n">
-        <v>34020.78674735256</v>
+        <v>38926.8</v>
       </c>
     </row>
     <row r="159">
@@ -5609,22 +3457,10 @@
         <v>39739.5</v>
       </c>
       <c r="F159" t="n">
-        <v>460.38</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1132.449539829766</v>
+        <v>459.38</v>
       </c>
       <c r="H159" t="n">
-        <v>33893.8</v>
-      </c>
-      <c r="I159" t="n">
-        <v>38607.05046017023</v>
-      </c>
-      <c r="J159" t="n">
-        <v>38512.66640581311</v>
-      </c>
-      <c r="K159" t="n">
-        <v>33988.17725831915</v>
+        <v>39739.5</v>
       </c>
     </row>
     <row r="160">
@@ -5635,22 +3471,10 @@
         <v>40351</v>
       </c>
       <c r="F160" t="n">
-        <v>460.28</v>
-      </c>
-      <c r="G160" t="n">
-        <v>305.2830471039197</v>
+        <v>459.28</v>
       </c>
       <c r="H160" t="n">
-        <v>33876.17</v>
-      </c>
-      <c r="I160" t="n">
-        <v>40045.71695289608</v>
-      </c>
-      <c r="J160" t="n">
-        <v>39966.43942115655</v>
-      </c>
-      <c r="K160" t="n">
-        <v>33955.43842104644</v>
+        <v>40351</v>
       </c>
     </row>
     <row r="161">
@@ -5661,22 +3485,10 @@
         <v>41886</v>
       </c>
       <c r="F161" t="n">
-        <v>460.18</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-29.4372028761718</v>
+        <v>459.18</v>
       </c>
       <c r="H161" t="n">
-        <v>33855.84</v>
-      </c>
-      <c r="I161" t="n">
-        <v>41915.43720287617</v>
-      </c>
-      <c r="J161" t="n">
-        <v>41848.99053074727</v>
-      </c>
-      <c r="K161" t="n">
-        <v>33922.27459024406</v>
+        <v>41886</v>
       </c>
     </row>
     <row r="162">
@@ -5687,22 +3499,10 @@
         <v>44103.1</v>
       </c>
       <c r="F162" t="n">
-        <v>460.08</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-229.4704113935586</v>
+        <v>459.08</v>
       </c>
       <c r="H162" t="n">
-        <v>33831.14</v>
-      </c>
-      <c r="I162" t="n">
-        <v>44332.57041139356</v>
-      </c>
-      <c r="J162" t="n">
-        <v>44276.99779309067</v>
-      </c>
-      <c r="K162" t="n">
-        <v>33886.69672548661</v>
+        <v>44103.1</v>
       </c>
     </row>
     <row r="163">
@@ -5713,22 +3513,10 @@
         <v>47130.5</v>
       </c>
       <c r="F163" t="n">
-        <v>459.98</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-312.0697696936841</v>
+        <v>458.98</v>
       </c>
       <c r="H163" t="n">
-        <v>33799.57</v>
-      </c>
-      <c r="I163" t="n">
-        <v>47442.56976969368</v>
-      </c>
-      <c r="J163" t="n">
-        <v>47396.19202324474</v>
-      </c>
-      <c r="K163" t="n">
-        <v>33845.92697390329</v>
+        <v>47130.5</v>
       </c>
     </row>
     <row r="164">
@@ -5739,22 +3527,10 @@
         <v>50709.4</v>
       </c>
       <c r="F164" t="n">
-        <v>459.88</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-715.8781304695076</v>
+        <v>458.88</v>
       </c>
       <c r="H164" t="n">
-        <v>33758.82</v>
-      </c>
-      <c r="I164" t="n">
-        <v>51425.27813046951</v>
-      </c>
-      <c r="J164" t="n">
-        <v>51386.6572977262</v>
-      </c>
-      <c r="K164" t="n">
-        <v>33797.41383015291</v>
+        <v>50709.4</v>
       </c>
     </row>
     <row r="165">
@@ -5765,22 +3541,10 @@
         <v>55999.6</v>
       </c>
       <c r="F165" t="n">
-        <v>459.78</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-494.4009750105906</v>
+        <v>458.78</v>
       </c>
       <c r="H165" t="n">
-        <v>33706.05</v>
-      </c>
-      <c r="I165" t="n">
-        <v>56494.00097501059</v>
-      </c>
-      <c r="J165" t="n">
-        <v>56461.90824456844</v>
-      </c>
-      <c r="K165" t="n">
-        <v>33738.10781381265</v>
+        <v>55999.6</v>
       </c>
     </row>
     <row r="166">
@@ -5791,22 +3555,10 @@
         <v>62969.8</v>
       </c>
       <c r="F166" t="n">
-        <v>459.68</v>
-      </c>
-      <c r="G166" t="n">
-        <v>88.13759405062592</v>
+        <v>458.68</v>
       </c>
       <c r="H166" t="n">
-        <v>33636.73</v>
-      </c>
-      <c r="I166" t="n">
-        <v>62881.66240594938</v>
-      </c>
-      <c r="J166" t="n">
-        <v>62855.0499134983</v>
-      </c>
-      <c r="K166" t="n">
-        <v>33663.29761145045</v>
+        <v>62969.8</v>
       </c>
     </row>
     <row r="167">
@@ -5817,22 +3569,10 @@
         <v>71303.89999999999</v>
       </c>
       <c r="F167" t="n">
-        <v>459.58</v>
-      </c>
-      <c r="G167" t="n">
-        <v>503.8182717205782</v>
+        <v>458.58</v>
       </c>
       <c r="H167" t="n">
-        <v>33545.35</v>
-      </c>
-      <c r="I167" t="n">
-        <v>70800.08172827942</v>
-      </c>
-      <c r="J167" t="n">
-        <v>70778.05786065504</v>
-      </c>
-      <c r="K167" t="n">
-        <v>33567.31663667625</v>
+        <v>71303.89999999999</v>
       </c>
     </row>
     <row r="168">
@@ -5843,22 +3583,10 @@
         <v>81636.39999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>459.48</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1294.092580170531</v>
+        <v>458.48</v>
       </c>
       <c r="H168" t="n">
-        <v>33426.25</v>
-      </c>
-      <c r="I168" t="n">
-        <v>80342.30741982946</v>
-      </c>
-      <c r="J168" t="n">
-        <v>80324.11533421301</v>
-      </c>
-      <c r="K168" t="n">
-        <v>33444.36996657077</v>
+        <v>81636.39999999999</v>
       </c>
     </row>
     <row r="169">
@@ -5869,22 +3597,10 @@
         <v>92709.10000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>459.38</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1417.390074909461</v>
+        <v>458.38</v>
       </c>
       <c r="H169" t="n">
-        <v>33273.65</v>
-      </c>
-      <c r="I169" t="n">
-        <v>91291.70992509054</v>
-      </c>
-      <c r="J169" t="n">
-        <v>91276.70908650734</v>
-      </c>
-      <c r="K169" t="n">
-        <v>33288.56161723878</v>
+        <v>92709.10000000001</v>
       </c>
     </row>
     <row r="170">
@@ -5895,22 +3611,10 @@
         <v>103772</v>
       </c>
       <c r="F170" t="n">
-        <v>459.28</v>
-      </c>
-      <c r="G170" t="n">
-        <v>934.8965983253001</v>
+        <v>458.28</v>
       </c>
       <c r="H170" t="n">
-        <v>33083.73</v>
-      </c>
-      <c r="I170" t="n">
-        <v>102837.1034016747</v>
-      </c>
-      <c r="J170" t="n">
-        <v>102824.7539809706</v>
-      </c>
-      <c r="K170" t="n">
-        <v>33095.97212496752</v>
+        <v>103772</v>
       </c>
     </row>
     <row r="171">
@@ -5921,22 +3625,10 @@
         <v>113444</v>
       </c>
       <c r="F171" t="n">
-        <v>459.18</v>
-      </c>
-      <c r="G171" t="n">
-        <v>120.137382479239</v>
+        <v>458.18</v>
       </c>
       <c r="H171" t="n">
-        <v>32856.27</v>
-      </c>
-      <c r="I171" t="n">
-        <v>113323.8626175208</v>
-      </c>
-      <c r="J171" t="n">
-        <v>113313.7124184248</v>
-      </c>
-      <c r="K171" t="n">
-        <v>32866.29640270201</v>
+        <v>113444</v>
       </c>
     </row>
     <row r="172">
@@ -5947,22 +3639,10 @@
         <v>119024</v>
       </c>
       <c r="F172" t="n">
-        <v>459.08</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1386.59984085492</v>
+        <v>458.08</v>
       </c>
       <c r="H172" t="n">
-        <v>32597.08</v>
-      </c>
-      <c r="I172" t="n">
-        <v>120410.5998408549</v>
-      </c>
-      <c r="J172" t="n">
-        <v>120402.2728853057</v>
-      </c>
-      <c r="K172" t="n">
-        <v>32605.27184437586</v>
+        <v>119024</v>
       </c>
     </row>
     <row r="173">
@@ -5973,22 +3653,10 @@
         <v>120755</v>
       </c>
       <c r="F173" t="n">
-        <v>458.98</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1234.022883812853</v>
+        <v>457.98</v>
       </c>
       <c r="H173" t="n">
-        <v>32318.49</v>
-      </c>
-      <c r="I173" t="n">
-        <v>121989.0228838129</v>
-      </c>
-      <c r="J173" t="n">
-        <v>121982.2082550877</v>
-      </c>
-      <c r="K173" t="n">
-        <v>32325.166652131</v>
+        <v>120755</v>
       </c>
     </row>
     <row r="174">
@@ -5999,22 +3667,10 @@
         <v>117239</v>
       </c>
       <c r="F174" t="n">
-        <v>458.88</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-230.1317697277264</v>
+        <v>457.88</v>
       </c>
       <c r="H174" t="n">
-        <v>32036.54</v>
-      </c>
-      <c r="I174" t="n">
-        <v>117469.1317697277</v>
-      </c>
-      <c r="J174" t="n">
-        <v>117463.5719458668</v>
-      </c>
-      <c r="K174" t="n">
-        <v>32041.96836368635</v>
+        <v>117239</v>
       </c>
     </row>
     <row r="175">
@@ -6025,22 +3681,10 @@
         <v>108874</v>
       </c>
       <c r="F175" t="n">
-        <v>458.78</v>
-      </c>
-      <c r="G175" t="n">
-        <v>664.919768331325</v>
+        <v>457.78</v>
       </c>
       <c r="H175" t="n">
-        <v>31769.52</v>
-      </c>
-      <c r="I175" t="n">
-        <v>108209.0802316687</v>
-      </c>
-      <c r="J175" t="n">
-        <v>108204.5600482772</v>
-      </c>
-      <c r="K175" t="n">
-        <v>31773.92255912071</v>
+        <v>108874</v>
       </c>
     </row>
     <row r="176">
@@ -6051,22 +3695,10 @@
         <v>97209</v>
       </c>
       <c r="F176" t="n">
-        <v>458.68</v>
-      </c>
-      <c r="G176" t="n">
-        <v>616.4068135785492</v>
+        <v>457.68</v>
       </c>
       <c r="H176" t="n">
-        <v>31533.4</v>
-      </c>
-      <c r="I176" t="n">
-        <v>96592.59318642145</v>
-      </c>
-      <c r="J176" t="n">
-        <v>96588.93134506562</v>
-      </c>
-      <c r="K176" t="n">
-        <v>31536.96172815668</v>
+        <v>97209</v>
       </c>
     </row>
     <row r="177">
@@ -6077,22 +3709,10 @@
         <v>86220.5</v>
       </c>
       <c r="F177" t="n">
-        <v>458.58</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1459.882907265637</v>
+        <v>457.58</v>
       </c>
       <c r="H177" t="n">
-        <v>31334.9</v>
-      </c>
-      <c r="I177" t="n">
-        <v>84760.61709273436</v>
-      </c>
-      <c r="J177" t="n">
-        <v>84757.66060020303</v>
-      </c>
-      <c r="K177" t="n">
-        <v>31337.7742807</v>
+        <v>86220.5</v>
       </c>
     </row>
     <row r="178">
@@ -6103,22 +3723,10 @@
         <v>73988.89999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>458.48</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-25.8635866552504</v>
+        <v>457.48</v>
       </c>
       <c r="H178" t="n">
-        <v>31175.12</v>
-      </c>
-      <c r="I178" t="n">
-        <v>74014.76358665524</v>
-      </c>
-      <c r="J178" t="n">
-        <v>74012.38397986047</v>
-      </c>
-      <c r="K178" t="n">
-        <v>31177.43368492362</v>
+        <v>73988.89999999999</v>
       </c>
     </row>
     <row r="179">
@@ -6129,22 +3737,10 @@
         <v>64204.4</v>
       </c>
       <c r="F179" t="n">
-        <v>458.38</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-679.362313999598</v>
+        <v>457.38</v>
       </c>
       <c r="H179" t="n">
-        <v>31051.83</v>
-      </c>
-      <c r="I179" t="n">
-        <v>64883.7623139996</v>
-      </c>
-      <c r="J179" t="n">
-        <v>64881.85253478497</v>
-      </c>
-      <c r="K179" t="n">
-        <v>31053.68771860557</v>
+        <v>64204.4</v>
       </c>
     </row>
     <row r="180">
@@ -6155,22 +3751,10 @@
         <v>55645.9</v>
       </c>
       <c r="F180" t="n">
-        <v>458.28</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1772.504811714789</v>
+        <v>457.28</v>
       </c>
       <c r="H180" t="n">
-        <v>30958.84</v>
-      </c>
-      <c r="I180" t="n">
-        <v>57418.40481171479</v>
-      </c>
-      <c r="J180" t="n">
-        <v>57416.87627513509</v>
-      </c>
-      <c r="K180" t="n">
-        <v>30960.32782074609</v>
+        <v>55645.9</v>
       </c>
     </row>
     <row r="181">
@@ -6181,22 +3765,10 @@
         <v>49088.4</v>
       </c>
       <c r="F181" t="n">
-        <v>458.18</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-2361.227128249906</v>
+        <v>457.18</v>
       </c>
       <c r="H181" t="n">
-        <v>30890.4</v>
-      </c>
-      <c r="I181" t="n">
-        <v>51449.62712824991</v>
-      </c>
-      <c r="J181" t="n">
-        <v>51448.40696026872</v>
-      </c>
-      <c r="K181" t="n">
-        <v>30891.58853171258</v>
+        <v>49088.4</v>
       </c>
     </row>
     <row r="182">
@@ -6207,22 +3779,10 @@
         <v>44998.2</v>
       </c>
       <c r="F182" t="n">
-        <v>458.08</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1738.531173329757</v>
+        <v>457.08</v>
       </c>
       <c r="H182" t="n">
-        <v>30839.21</v>
-      </c>
-      <c r="I182" t="n">
-        <v>46736.73117332975</v>
-      </c>
-      <c r="J182" t="n">
-        <v>46735.75969927213</v>
-      </c>
-      <c r="K182" t="n">
-        <v>30840.15701129663</v>
+        <v>44998.2</v>
       </c>
     </row>
     <row r="183">
@@ -6233,22 +3793,10 @@
         <v>41793.5</v>
       </c>
       <c r="F183" t="n">
-        <v>457.98</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1248.644473128807</v>
+        <v>456.98</v>
       </c>
       <c r="H183" t="n">
-        <v>30799.7</v>
-      </c>
-      <c r="I183" t="n">
-        <v>43042.14447312881</v>
-      </c>
-      <c r="J183" t="n">
-        <v>43041.37300971128</v>
-      </c>
-      <c r="K183" t="n">
-        <v>30800.45262512263</v>
+        <v>41793.5</v>
       </c>
     </row>
     <row r="184">
@@ -6259,22 +3807,10 @@
         <v>38432.4</v>
       </c>
       <c r="F184" t="n">
-        <v>457.88</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1728.679111813653</v>
+        <v>456.88</v>
       </c>
       <c r="H184" t="n">
-        <v>30770.43</v>
-      </c>
-      <c r="I184" t="n">
-        <v>40161.07911181365</v>
-      </c>
-      <c r="J184" t="n">
-        <v>40160.46807104253</v>
-      </c>
-      <c r="K184" t="n">
-        <v>30771.02659082429</v>
+        <v>38432.4</v>
       </c>
     </row>
     <row r="185">
@@ -6285,22 +3821,10 @@
         <v>37270.1</v>
       </c>
       <c r="F185" t="n">
-        <v>457.78</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-651.922109743231</v>
+        <v>456.78</v>
       </c>
       <c r="H185" t="n">
-        <v>30748.28</v>
-      </c>
-      <c r="I185" t="n">
-        <v>37922.02210974323</v>
-      </c>
-      <c r="J185" t="n">
-        <v>37921.53939485001</v>
-      </c>
-      <c r="K185" t="n">
-        <v>30748.75167630952</v>
+        <v>37270.1</v>
       </c>
     </row>
     <row r="186">
@@ -6311,22 +3835,10 @@
         <v>36334.8</v>
       </c>
       <c r="F186" t="n">
-        <v>457.68</v>
-      </c>
-      <c r="G186" t="n">
-        <v>149.2845273563507</v>
+        <v>456.68</v>
       </c>
       <c r="H186" t="n">
-        <v>30729.46</v>
-      </c>
-      <c r="I186" t="n">
-        <v>36185.51547264365</v>
-      </c>
-      <c r="J186" t="n">
-        <v>36185.13513394506</v>
-      </c>
-      <c r="K186" t="n">
-        <v>30729.83194326642</v>
+        <v>36334.8</v>
       </c>
     </row>
     <row r="187">
@@ -6337,22 +3849,10 @@
         <v>34625.6</v>
       </c>
       <c r="F187" t="n">
-        <v>457.58</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-218.7832107999202</v>
+        <v>456.58</v>
       </c>
       <c r="H187" t="n">
-        <v>30714.67</v>
-      </c>
-      <c r="I187" t="n">
-        <v>34844.38321079992</v>
-      </c>
-      <c r="J187" t="n">
-        <v>34844.084326484</v>
-      </c>
-      <c r="K187" t="n">
-        <v>30714.96252982851</v>
+        <v>34625.6</v>
       </c>
     </row>
     <row r="188">
@@ -6363,22 +3863,10 @@
         <v>34150.6</v>
       </c>
       <c r="F188" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="G188" t="n">
-        <v>337.9211950977551</v>
+        <v>456.48</v>
       </c>
       <c r="H188" t="n">
-        <v>30703.24</v>
-      </c>
-      <c r="I188" t="n">
-        <v>33812.67880490224</v>
-      </c>
-      <c r="J188" t="n">
-        <v>33812.44455336333</v>
-      </c>
-      <c r="K188" t="n">
-        <v>30703.46946701655</v>
+        <v>34150.6</v>
       </c>
     </row>
     <row r="189">
@@ -6389,22 +3877,10 @@
         <v>33500.5</v>
       </c>
       <c r="F189" t="n">
-        <v>457.38</v>
-      </c>
-      <c r="G189" t="n">
-        <v>478.9635635455488</v>
+        <v>456.38</v>
       </c>
       <c r="H189" t="n">
-        <v>30693.56</v>
-      </c>
-      <c r="I189" t="n">
-        <v>33021.53643645445</v>
-      </c>
-      <c r="J189" t="n">
-        <v>33021.35333020058</v>
-      </c>
-      <c r="K189" t="n">
-        <v>30693.73952421241</v>
+        <v>33500.5</v>
       </c>
     </row>
     <row r="190">
@@ -6415,22 +3891,10 @@
         <v>32882.3</v>
       </c>
       <c r="F190" t="n">
-        <v>457.28</v>
-      </c>
-      <c r="G190" t="n">
-        <v>464.1603367181415</v>
+        <v>456.28</v>
       </c>
       <c r="H190" t="n">
-        <v>30685.81</v>
-      </c>
-      <c r="I190" t="n">
-        <v>32418.13966328186</v>
-      </c>
-      <c r="J190" t="n">
-        <v>32417.99691829117</v>
-      </c>
-      <c r="K190" t="n">
-        <v>30685.95007949834</v>
+        <v>32882.3</v>
       </c>
     </row>
     <row r="191">
@@ -6441,22 +3905,10 @@
         <v>32781.7</v>
       </c>
       <c r="F191" t="n">
-        <v>457.18</v>
-      </c>
-      <c r="G191" t="n">
-        <v>821.7638248091025</v>
+        <v>456.18</v>
       </c>
       <c r="H191" t="n">
-        <v>30679.17</v>
-      </c>
-      <c r="I191" t="n">
-        <v>31959.93617519089</v>
-      </c>
-      <c r="J191" t="n">
-        <v>31959.82519331694</v>
-      </c>
-      <c r="K191" t="n">
-        <v>30679.27901121748</v>
+        <v>32781.7</v>
       </c>
     </row>
     <row r="192">
@@ -6467,22 +3919,10 @@
         <v>31582.9</v>
       </c>
       <c r="F192" t="n">
-        <v>457.08</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-32.06121297148275</v>
+        <v>456.08</v>
       </c>
       <c r="H192" t="n">
-        <v>30674.5</v>
-      </c>
-      <c r="I192" t="n">
-        <v>31614.96121297148</v>
-      </c>
-      <c r="J192" t="n">
-        <v>31614.87515836787</v>
-      </c>
-      <c r="K192" t="n">
-        <v>30674.58460758099</v>
+        <v>31582.9</v>
       </c>
     </row>
     <row r="193">
@@ -6493,22 +3933,10 @@
         <v>32062.6</v>
       </c>
       <c r="F193" t="n">
-        <v>456.98</v>
-      </c>
-      <c r="G193" t="n">
-        <v>706.0127391930255</v>
+        <v>455.98</v>
       </c>
       <c r="H193" t="n">
-        <v>30670.94</v>
-      </c>
-      <c r="I193" t="n">
-        <v>31356.58726080697</v>
-      </c>
-      <c r="J193" t="n">
-        <v>31356.52071430053</v>
-      </c>
-      <c r="K193" t="n">
-        <v>30671.0054915669</v>
+        <v>32062.6</v>
       </c>
     </row>
     <row r="194">
@@ -6519,22 +3947,10 @@
         <v>32227.9</v>
       </c>
       <c r="F194" t="n">
-        <v>456.88</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1065.33335583967</v>
+        <v>455.88</v>
       </c>
       <c r="H194" t="n">
-        <v>30666.41</v>
-      </c>
-      <c r="I194" t="n">
-        <v>31162.56664416033</v>
-      </c>
-      <c r="J194" t="n">
-        <v>31162.51532205689</v>
-      </c>
-      <c r="K194" t="n">
-        <v>30666.46055873026</v>
+        <v>32227.9</v>
       </c>
     </row>
     <row r="195">
@@ -6545,22 +3961,10 @@
         <v>31659.9</v>
       </c>
       <c r="F195" t="n">
-        <v>456.78</v>
-      </c>
-      <c r="G195" t="n">
-        <v>641.1726216365532</v>
+        <v>455.78</v>
       </c>
       <c r="H195" t="n">
-        <v>30662.46</v>
-      </c>
-      <c r="I195" t="n">
-        <v>31018.72737836345</v>
-      </c>
-      <c r="J195" t="n">
-        <v>31018.68790435759</v>
-      </c>
-      <c r="K195" t="n">
-        <v>30662.49892587524</v>
+        <v>31659.9</v>
       </c>
     </row>
     <row r="196">
@@ -6571,22 +3975,10 @@
         <v>31408.9</v>
       </c>
       <c r="F196" t="n">
-        <v>456.68</v>
-      </c>
-      <c r="G196" t="n">
-        <v>495.3660505623811</v>
+        <v>455.68</v>
       </c>
       <c r="H196" t="n">
-        <v>30659.75</v>
-      </c>
-      <c r="I196" t="n">
-        <v>30913.53394943762</v>
-      </c>
-      <c r="J196" t="n">
-        <v>30913.50367015953</v>
-      </c>
-      <c r="K196" t="n">
-        <v>30659.77988883253</v>
+        <v>31408.9</v>
       </c>
     </row>
     <row r="197">
@@ -6597,22 +3989,10 @@
         <v>31413.7</v>
       </c>
       <c r="F197" t="n">
-        <v>456.58</v>
-      </c>
-      <c r="G197" t="n">
-        <v>576.9682493377004</v>
+        <v>455.58</v>
       </c>
       <c r="H197" t="n">
-        <v>30657.43</v>
-      </c>
-      <c r="I197" t="n">
-        <v>30836.7317506623</v>
-      </c>
-      <c r="J197" t="n">
-        <v>30836.70858697388</v>
-      </c>
-      <c r="K197" t="n">
-        <v>30657.45288784201</v>
+        <v>31413.7</v>
       </c>
     </row>
     <row r="198">
@@ -6623,22 +4003,10 @@
         <v>31525.9</v>
       </c>
       <c r="F198" t="n">
-        <v>456.48</v>
-      </c>
-      <c r="G198" t="n">
-        <v>745.3532674550697</v>
+        <v>455.48</v>
       </c>
       <c r="H198" t="n">
-        <v>30654.93</v>
-      </c>
-      <c r="I198" t="n">
-        <v>30780.54673254493</v>
-      </c>
-      <c r="J198" t="n">
-        <v>30780.52906003214</v>
-      </c>
-      <c r="K198" t="n">
-        <v>30654.94747926499</v>
+        <v>31525.9</v>
       </c>
     </row>
     <row r="199">
@@ -6649,22 +4017,10 @@
         <v>30839.3</v>
       </c>
       <c r="F199" t="n">
-        <v>456.38</v>
-      </c>
-      <c r="G199" t="n">
-        <v>98.75881279751047</v>
+        <v>455.38</v>
       </c>
       <c r="H199" t="n">
-        <v>30653.29</v>
-      </c>
-      <c r="I199" t="n">
-        <v>30740.54118720249</v>
-      </c>
-      <c r="J199" t="n">
-        <v>30740.52774043625</v>
-      </c>
-      <c r="K199" t="n">
-        <v>30653.30331254538</v>
+        <v>30839.3</v>
       </c>
     </row>
     <row r="200">
@@ -6675,22 +4031,10 @@
         <v>31315</v>
       </c>
       <c r="F200" t="n">
-        <v>456.28</v>
-      </c>
-      <c r="G200" t="n">
-        <v>602.9466837726577</v>
+        <v>455.28</v>
       </c>
       <c r="H200" t="n">
-        <v>30651.98</v>
-      </c>
-      <c r="I200" t="n">
-        <v>30712.05331622734</v>
-      </c>
-      <c r="J200" t="n">
-        <v>30712.0431123114</v>
-      </c>
-      <c r="K200" t="n">
-        <v>30651.99011150813</v>
+        <v>31315</v>
       </c>
     </row>
     <row r="201">
@@ -6701,22 +4045,10 @@
         <v>30985.2</v>
       </c>
       <c r="F201" t="n">
-        <v>456.18</v>
-      </c>
-      <c r="G201" t="n">
-        <v>293.7669440146637</v>
+        <v>455.18</v>
       </c>
       <c r="H201" t="n">
-        <v>30650.44</v>
-      </c>
-      <c r="I201" t="n">
-        <v>30691.43305598534</v>
-      </c>
-      <c r="J201" t="n">
-        <v>30691.42533370267</v>
-      </c>
-      <c r="K201" t="n">
-        <v>30650.44765922876</v>
+        <v>30985.2</v>
       </c>
     </row>
     <row r="202">
@@ -6727,22 +4059,10 @@
         <v>30875.4</v>
       </c>
       <c r="F202" t="n">
-        <v>456.08</v>
-      </c>
-      <c r="G202" t="n">
-        <v>198.1098688437378</v>
+        <v>455.08</v>
       </c>
       <c r="H202" t="n">
-        <v>30649.57</v>
-      </c>
-      <c r="I202" t="n">
-        <v>30677.29013115626</v>
-      </c>
-      <c r="J202" t="n">
-        <v>30677.28430268844</v>
-      </c>
-      <c r="K202" t="n">
-        <v>30649.57578583275</v>
+        <v>30875.4</v>
       </c>
     </row>
     <row r="203">
@@ -6753,22 +4073,10 @@
         <v>30713.9</v>
       </c>
       <c r="F203" t="n">
-        <v>455.98</v>
-      </c>
-      <c r="G203" t="n">
-        <v>46.20710043060899</v>
+        <v>454.98</v>
       </c>
       <c r="H203" t="n">
-        <v>30649.12</v>
-      </c>
-      <c r="I203" t="n">
-        <v>30667.69289956939</v>
-      </c>
-      <c r="J203" t="n">
-        <v>30667.68851231562</v>
-      </c>
-      <c r="K203" t="n">
-        <v>30649.12435868997</v>
+        <v>30713.9</v>
       </c>
     </row>
     <row r="204">
@@ -6779,22 +4087,10 @@
         <v>30565.6</v>
       </c>
       <c r="F204" t="n">
-        <v>455.88</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-95.87853586923666</v>
+        <v>454.88</v>
       </c>
       <c r="H204" t="n">
-        <v>30649.15</v>
-      </c>
-      <c r="I204" t="n">
-        <v>30661.47853586924</v>
-      </c>
-      <c r="J204" t="n">
-        <v>30661.47524235055</v>
-      </c>
-      <c r="K204" t="n">
-        <v>30649.15327456013</v>
+        <v>30565.6</v>
       </c>
     </row>
     <row r="205">
@@ -6805,22 +4101,10 @@
         <v>30870.9</v>
       </c>
       <c r="F205" t="n">
-        <v>455.78</v>
-      </c>
-      <c r="G205" t="n">
-        <v>213.8533223838604</v>
+        <v>454.78</v>
       </c>
       <c r="H205" t="n">
-        <v>30648.94</v>
-      </c>
-      <c r="I205" t="n">
-        <v>30657.04667761614</v>
-      </c>
-      <c r="J205" t="n">
-        <v>30657.04421182942</v>
-      </c>
-      <c r="K205" t="n">
-        <v>30648.94245332191</v>
+        <v>30870.9</v>
       </c>
     </row>
     <row r="206">
@@ -6831,22 +4115,10 @@
         <v>31009.2</v>
       </c>
       <c r="F206" t="n">
-        <v>455.68</v>
-      </c>
-      <c r="G206" t="n">
-        <v>355.8700466059963</v>
+        <v>454.68</v>
       </c>
       <c r="H206" t="n">
-        <v>30648.05</v>
-      </c>
-      <c r="I206" t="n">
-        <v>30653.329953394</v>
-      </c>
-      <c r="J206" t="n">
-        <v>30653.32811229365</v>
-      </c>
-      <c r="K206" t="n">
-        <v>30648.05183298304</v>
+        <v>31009.2</v>
       </c>
     </row>
     <row r="207">
@@ -6857,22 +4129,10 @@
         <v>31029.9</v>
       </c>
       <c r="F207" t="n">
-        <v>455.58</v>
-      </c>
-      <c r="G207" t="n">
-        <v>379.5940925159593</v>
+        <v>454.58</v>
       </c>
       <c r="H207" t="n">
-        <v>30646.9</v>
-      </c>
-      <c r="I207" t="n">
-        <v>30650.30590748404</v>
-      </c>
-      <c r="J207" t="n">
-        <v>30650.30453652603</v>
-      </c>
-      <c r="K207" t="n">
-        <v>30646.90136572272</v>
+        <v>31029.9</v>
       </c>
     </row>
     <row r="208">
@@ -6883,22 +4143,10 @@
         <v>30333.4</v>
       </c>
       <c r="F208" t="n">
-        <v>455.48</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-315.5557765056074</v>
+        <v>454.48</v>
       </c>
       <c r="H208" t="n">
-        <v>30646.78</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30648.95577650561</v>
-      </c>
-      <c r="J208" t="n">
-        <v>30648.9547583987</v>
-      </c>
-      <c r="K208" t="n">
-        <v>30646.78101476317</v>
+        <v>30333.4</v>
       </c>
     </row>
     <row r="209">
@@ -6909,22 +4157,10 @@
         <v>30287.4</v>
       </c>
       <c r="F209" t="n">
-        <v>455.38</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-361.7863871130285</v>
+        <v>454.38</v>
       </c>
       <c r="H209" t="n">
-        <v>30647.81</v>
-      </c>
-      <c r="I209" t="n">
-        <v>30649.18638711303</v>
-      </c>
-      <c r="J209" t="n">
-        <v>30649.18563309345</v>
-      </c>
-      <c r="K209" t="n">
-        <v>30647.81075190487</v>
+        <v>30287.4</v>
       </c>
     </row>
     <row r="210">
@@ -6935,22 +4171,10 @@
         <v>30217.2</v>
       </c>
       <c r="F210" t="n">
-        <v>455.28</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-432.6921461840575</v>
+        <v>454.28</v>
       </c>
       <c r="H210" t="n">
-        <v>30649.03</v>
-      </c>
-      <c r="I210" t="n">
-        <v>30649.89214618406</v>
-      </c>
-      <c r="J210" t="n">
-        <v>30649.8915892689</v>
-      </c>
-      <c r="K210" t="n">
-        <v>30649.03055559095</v>
+        <v>30217.2</v>
       </c>
     </row>
     <row r="211">
@@ -6961,22 +4185,10 @@
         <v>30891.8</v>
       </c>
       <c r="F211" t="n">
-        <v>455.18</v>
-      </c>
-      <c r="G211" t="n">
-        <v>241.9353037488254</v>
+        <v>454.18</v>
       </c>
       <c r="H211" t="n">
-        <v>30649.33</v>
-      </c>
-      <c r="I211" t="n">
-        <v>30649.86469625117</v>
-      </c>
-      <c r="J211" t="n">
-        <v>30649.86428603802</v>
-      </c>
-      <c r="K211" t="n">
-        <v>30649.33040939221</v>
+        <v>30891.8</v>
       </c>
     </row>
     <row r="212">
@@ -6987,22 +4199,10 @@
         <v>30333.1</v>
       </c>
       <c r="F212" t="n">
-        <v>455.08</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-316.66831743691</v>
+        <v>454.08</v>
       </c>
       <c r="H212" t="n">
-        <v>30649.44</v>
-      </c>
-      <c r="I212" t="n">
-        <v>30649.76831743691</v>
-      </c>
-      <c r="J212" t="n">
-        <v>30649.76801610783</v>
-      </c>
-      <c r="K212" t="n">
-        <v>30649.44030082523</v>
+        <v>30333.1</v>
       </c>
     </row>
     <row r="213">
@@ -7013,22 +4213,10 @@
         <v>30538.3</v>
       </c>
       <c r="F213" t="n">
-        <v>454.98</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-111.9995808054809</v>
+        <v>453.98</v>
       </c>
       <c r="H213" t="n">
-        <v>30650.1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>30650.29958080548</v>
-      </c>
-      <c r="J213" t="n">
-        <v>30650.29936006596</v>
-      </c>
-      <c r="K213" t="n">
-        <v>30650.10022043342</v>
+        <v>30538.3</v>
       </c>
     </row>
     <row r="214">
@@ -7039,22 +4227,10 @@
         <v>30385.8</v>
       </c>
       <c r="F214" t="n">
-        <v>454.88</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-0.1201052311480453</v>
+        <v>453.88</v>
       </c>
       <c r="H214" t="n">
         <v>30385.8</v>
-      </c>
-      <c r="I214" t="n">
-        <v>30385.92010523115</v>
-      </c>
-      <c r="J214" t="n">
-        <v>30385.91994397238</v>
-      </c>
-      <c r="K214" t="n">
-        <v>30385.8001610747</v>
       </c>
     </row>
     <row r="215">
@@ -7065,22 +4241,10 @@
         <v>30989.1</v>
       </c>
       <c r="F215" t="n">
-        <v>454.78</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-0.07154953984718304</v>
+        <v>453.78</v>
       </c>
       <c r="H215" t="n">
         <v>30989.1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>30989.17154953985</v>
-      </c>
-      <c r="J215" t="n">
-        <v>30989.1714320589</v>
-      </c>
-      <c r="K215" t="n">
-        <v>30989.10011737139</v>
       </c>
     </row>
     <row r="216">
@@ -7091,22 +4255,10 @@
         <v>30624.1</v>
       </c>
       <c r="F216" t="n">
-        <v>454.68</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-0.04219300865224795</v>
+        <v>453.68</v>
       </c>
       <c r="H216" t="n">
         <v>30624.1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>30624.14219300865</v>
-      </c>
-      <c r="J216" t="n">
-        <v>30624.14210765758</v>
-      </c>
-      <c r="K216" t="n">
-        <v>30624.10008528655</v>
       </c>
     </row>
     <row r="217">
@@ -7117,22 +4269,10 @@
         <v>30723.4</v>
       </c>
       <c r="F217" t="n">
-        <v>454.58</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-0.02462940737314057</v>
+        <v>453.58</v>
       </c>
       <c r="H217" t="n">
         <v>30723.4</v>
-      </c>
-      <c r="I217" t="n">
-        <v>30723.42462940737</v>
-      </c>
-      <c r="J217" t="n">
-        <v>30723.42456757089</v>
-      </c>
-      <c r="K217" t="n">
-        <v>30723.40006179888</v>
       </c>
     </row>
     <row r="218">
@@ -7143,22 +4283,10 @@
         <v>30451.6</v>
       </c>
       <c r="F218" t="n">
-        <v>454.48</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-0.01423126070585568</v>
+        <v>453.48</v>
       </c>
       <c r="H218" t="n">
         <v>30451.6</v>
-      </c>
-      <c r="I218" t="n">
-        <v>30451.6142312607</v>
-      </c>
-      <c r="J218" t="n">
-        <v>30451.61418658497</v>
-      </c>
-      <c r="K218" t="n">
-        <v>30451.60004465405</v>
       </c>
     </row>
     <row r="219">
@@ -7169,22 +4297,10 @@
         <v>30635.9</v>
       </c>
       <c r="F219" t="n">
-        <v>454.38</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-0.008139752739225514</v>
+        <v>453.38</v>
       </c>
       <c r="H219" t="n">
         <v>30635.9</v>
-      </c>
-      <c r="I219" t="n">
-        <v>30635.90813975274</v>
-      </c>
-      <c r="J219" t="n">
-        <v>30635.90810756528</v>
-      </c>
-      <c r="K219" t="n">
-        <v>30635.90003217509</v>
       </c>
     </row>
     <row r="220">
@@ -7195,22 +4311,10 @@
         <v>30125.8</v>
       </c>
       <c r="F220" t="n">
-        <v>454.28</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-0.004608591276337393</v>
+        <v>453.28</v>
       </c>
       <c r="H220" t="n">
         <v>30125.8</v>
-      </c>
-      <c r="I220" t="n">
-        <v>30125.80460859128</v>
-      </c>
-      <c r="J220" t="n">
-        <v>30125.804585466</v>
-      </c>
-      <c r="K220" t="n">
-        <v>30125.8000231183</v>
       </c>
     </row>
     <row r="221">
@@ -7221,22 +4325,10 @@
         <v>30531</v>
       </c>
       <c r="F221" t="n">
-        <v>454.18</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-0.002583068748208461</v>
+        <v>453.18</v>
       </c>
       <c r="H221" t="n">
         <v>30531</v>
-      </c>
-      <c r="I221" t="n">
-        <v>30531.00258306875</v>
-      </c>
-      <c r="J221" t="n">
-        <v>30531.00256650076</v>
-      </c>
-      <c r="K221" t="n">
-        <v>30531.0000165641</v>
       </c>
     </row>
     <row r="222">
@@ -7247,22 +4339,10 @@
         <v>30227.4</v>
       </c>
       <c r="F222" t="n">
-        <v>454.08</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-0.001433345623809146</v>
+        <v>453.08</v>
       </c>
       <c r="H222" t="n">
         <v>30227.4</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30227.40143334563</v>
-      </c>
-      <c r="J222" t="n">
-        <v>30227.40142150887</v>
-      </c>
-      <c r="K222" t="n">
-        <v>30227.40001183461</v>
       </c>
     </row>
     <row r="223">
@@ -7273,22 +4353,10 @@
         <v>30296</v>
       </c>
       <c r="F223" t="n">
-        <v>453.98</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-0.0007875346236687619</v>
+        <v>452.98</v>
       </c>
       <c r="H223" t="n">
         <v>30296</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30296.00078753462</v>
-      </c>
-      <c r="J223" t="n">
-        <v>30296.00077910179</v>
-      </c>
-      <c r="K223" t="n">
-        <v>30296.00000843166</v>
       </c>
     </row>
     <row r="224">
@@ -7299,22 +4367,10 @@
         <v>30264.3</v>
       </c>
       <c r="F224" t="n">
-        <v>453.88</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-0.0004285254399292171</v>
+        <v>452.88</v>
       </c>
       <c r="H224" t="n">
         <v>30264.3</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30264.30042852544</v>
-      </c>
-      <c r="J224" t="n">
-        <v>30264.30042253457</v>
-      </c>
-      <c r="K224" t="n">
-        <v>30264.30000599024</v>
       </c>
     </row>
     <row r="225">
@@ -7325,22 +4381,10 @@
         <v>30284.3</v>
       </c>
       <c r="F225" t="n">
-        <v>453.78</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-0.000230990961426869</v>
+        <v>452.78</v>
       </c>
       <c r="H225" t="n">
         <v>30284.3</v>
-      </c>
-      <c r="I225" t="n">
-        <v>30284.30023099096</v>
-      </c>
-      <c r="J225" t="n">
-        <v>30284.30022674692</v>
-      </c>
-      <c r="K225" t="n">
-        <v>30284.30000424371</v>
       </c>
     </row>
     <row r="226">
@@ -7351,22 +4395,10 @@
         <v>30439.6</v>
       </c>
       <c r="F226" t="n">
-        <v>453.68</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-0.0001233962648257148</v>
+        <v>452.68</v>
       </c>
       <c r="H226" t="n">
         <v>30439.6</v>
-      </c>
-      <c r="I226" t="n">
-        <v>30439.60012339626</v>
-      </c>
-      <c r="J226" t="n">
-        <v>30439.6001203982</v>
-      </c>
-      <c r="K226" t="n">
-        <v>30439.60000299789</v>
       </c>
     </row>
     <row r="227">
@@ -7377,22 +4409,10 @@
         <v>30214.6</v>
       </c>
       <c r="F227" t="n">
-        <v>453.58</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-6.536575529025868e-05</v>
+        <v>452.58</v>
       </c>
       <c r="H227" t="n">
         <v>30214.6</v>
-      </c>
-      <c r="I227" t="n">
-        <v>30214.60006536575</v>
-      </c>
-      <c r="J227" t="n">
-        <v>30214.60006325386</v>
-      </c>
-      <c r="K227" t="n">
-        <v>30214.60000211181</v>
       </c>
     </row>
     <row r="228">
@@ -7403,22 +4423,10 @@
         <v>30825.9</v>
       </c>
       <c r="F228" t="n">
-        <v>453.48</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-3.436346014495939e-05</v>
+        <v>452.48</v>
       </c>
       <c r="H228" t="n">
         <v>30825.9</v>
-      </c>
-      <c r="I228" t="n">
-        <v>30825.90003436346</v>
-      </c>
-      <c r="J228" t="n">
-        <v>30825.90003288001</v>
-      </c>
-      <c r="K228" t="n">
-        <v>30825.90000148341</v>
       </c>
     </row>
     <row r="229">
@@ -7429,22 +4437,10 @@
         <v>30212.1</v>
       </c>
       <c r="F229" t="n">
-        <v>453.38</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1.794911077013239e-05</v>
+        <v>452.38</v>
       </c>
       <c r="H229" t="n">
         <v>30212.1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>30212.10001794911</v>
-      </c>
-      <c r="J229" t="n">
-        <v>30212.10001691006</v>
-      </c>
-      <c r="K229" t="n">
-        <v>30212.10000103903</v>
       </c>
     </row>
     <row r="230">
@@ -7455,22 +4451,10 @@
         <v>30610.7</v>
       </c>
       <c r="F230" t="n">
-        <v>453.28</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-9.330047760158777e-06</v>
+        <v>452.28</v>
       </c>
       <c r="H230" t="n">
         <v>30610.7</v>
-      </c>
-      <c r="I230" t="n">
-        <v>30610.70000933005</v>
-      </c>
-      <c r="J230" t="n">
-        <v>30610.70000860432</v>
-      </c>
-      <c r="K230" t="n">
-        <v>30610.70000072571</v>
       </c>
     </row>
     <row r="231">
@@ -7481,22 +4465,10 @@
         <v>30346.7</v>
       </c>
       <c r="F231" t="n">
-        <v>453.18</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-4.836936568608508e-06</v>
+        <v>452.18</v>
       </c>
       <c r="H231" t="n">
         <v>30346.7</v>
-      </c>
-      <c r="I231" t="n">
-        <v>30346.70000483694</v>
-      </c>
-      <c r="J231" t="n">
-        <v>30346.7000043315</v>
-      </c>
-      <c r="K231" t="n">
-        <v>30346.70000050543</v>
       </c>
     </row>
     <row r="232">
@@ -7507,22 +4479,10 @@
         <v>29739.6</v>
       </c>
       <c r="F232" t="n">
-        <v>453.08</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-2.508262696210295e-06</v>
+        <v>452.08</v>
       </c>
       <c r="H232" t="n">
         <v>29739.6</v>
-      </c>
-      <c r="I232" t="n">
-        <v>29739.60000250826</v>
-      </c>
-      <c r="J232" t="n">
-        <v>29739.60000215725</v>
-      </c>
-      <c r="K232" t="n">
-        <v>29739.60000035101</v>
       </c>
     </row>
     <row r="233">
@@ -7533,22 +4493,10 @@
         <v>30374</v>
       </c>
       <c r="F233" t="n">
-        <v>452.98</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1.305987098021433e-06</v>
+        <v>451.98</v>
       </c>
       <c r="H233" t="n">
         <v>30374</v>
-      </c>
-      <c r="I233" t="n">
-        <v>30374.00000130599</v>
-      </c>
-      <c r="J233" t="n">
-        <v>30374.00000106291</v>
-      </c>
-      <c r="K233" t="n">
-        <v>30374.00000024308</v>
       </c>
     </row>
     <row r="234">
@@ -7559,22 +4507,10 @@
         <v>30580.4</v>
       </c>
       <c r="F234" t="n">
-        <v>452.88</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-6.859590939711779e-07</v>
+        <v>451.88</v>
       </c>
       <c r="H234" t="n">
         <v>30580.4</v>
-      </c>
-      <c r="I234" t="n">
-        <v>30580.40000068596</v>
-      </c>
-      <c r="J234" t="n">
-        <v>30580.4000005181</v>
-      </c>
-      <c r="K234" t="n">
-        <v>30580.40000016785</v>
       </c>
     </row>
     <row r="235">
@@ -7585,22 +4521,10 @@
         <v>30454.1</v>
       </c>
       <c r="F235" t="n">
-        <v>452.78</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-3.6541314329952e-07</v>
+        <v>451.78</v>
       </c>
       <c r="H235" t="n">
         <v>30454.1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>30454.10000036541</v>
-      </c>
-      <c r="J235" t="n">
-        <v>30454.10000024984</v>
-      </c>
-      <c r="K235" t="n">
-        <v>30454.10000011557</v>
       </c>
     </row>
     <row r="236">
@@ -7611,22 +4535,10 @@
         <v>29955.2</v>
       </c>
       <c r="F236" t="n">
-        <v>452.68</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1.98531779460609e-07</v>
+        <v>451.68</v>
       </c>
       <c r="H236" t="n">
         <v>29955.2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>29955.20000019853</v>
-      </c>
-      <c r="J236" t="n">
-        <v>29955.20000011918</v>
-      </c>
-      <c r="K236" t="n">
-        <v>29955.20000007936</v>
       </c>
     </row>
     <row r="237">
@@ -7637,22 +4549,10 @@
         <v>30165.1</v>
       </c>
       <c r="F237" t="n">
-        <v>452.58</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1.105690898839384e-07</v>
+        <v>451.58</v>
       </c>
       <c r="H237" t="n">
         <v>30165.1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>30165.10000011057</v>
-      </c>
-      <c r="J237" t="n">
-        <v>30165.10000005624</v>
-      </c>
-      <c r="K237" t="n">
-        <v>30165.10000005433</v>
       </c>
     </row>
     <row r="238">
@@ -7663,22 +4563,10 @@
         <v>30325.2</v>
       </c>
       <c r="F238" t="n">
-        <v>452.48</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-6.334448698908091e-08</v>
+        <v>451.48</v>
       </c>
       <c r="H238" t="n">
         <v>30325.2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>30325.20000006335</v>
-      </c>
-      <c r="J238" t="n">
-        <v>30325.20000002626</v>
-      </c>
-      <c r="K238" t="n">
-        <v>30325.20000003709</v>
       </c>
     </row>
     <row r="239">
@@ -7689,22 +4577,10 @@
         <v>30971.6</v>
       </c>
       <c r="F239" t="n">
-        <v>452.38</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-3.737295628525317e-08</v>
+        <v>451.38</v>
       </c>
       <c r="H239" t="n">
         <v>30971.6</v>
-      </c>
-      <c r="I239" t="n">
-        <v>30971.60000003737</v>
-      </c>
-      <c r="J239" t="n">
-        <v>30971.60000001212</v>
-      </c>
-      <c r="K239" t="n">
-        <v>30971.60000002525</v>
       </c>
     </row>
     <row r="240">
@@ -7715,22 +4591,10 @@
         <v>30521.3</v>
       </c>
       <c r="F240" t="n">
-        <v>452.28</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-2.267188392579556e-08</v>
+        <v>451.28</v>
       </c>
       <c r="H240" t="n">
         <v>30521.3</v>
-      </c>
-      <c r="I240" t="n">
-        <v>30521.30000002267</v>
-      </c>
-      <c r="J240" t="n">
-        <v>30521.30000000554</v>
-      </c>
-      <c r="K240" t="n">
-        <v>30521.30000001713</v>
       </c>
     </row>
     <row r="241">
@@ -7741,22 +4605,10 @@
         <v>30670.1</v>
       </c>
       <c r="F241" t="n">
-        <v>452.18</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1.410080585628748e-08</v>
+        <v>451.18</v>
       </c>
       <c r="H241" t="n">
         <v>30670.1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>30670.1000000141</v>
-      </c>
-      <c r="J241" t="n">
-        <v>30670.1000000025</v>
-      </c>
-      <c r="K241" t="n">
-        <v>30670.1000000116</v>
       </c>
     </row>
     <row r="242">
@@ -7767,22 +4619,10 @@
         <v>30170.9</v>
       </c>
       <c r="F242" t="n">
-        <v>452.08</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-8.945789886638522e-09</v>
+        <v>451.08</v>
       </c>
       <c r="H242" t="n">
         <v>30170.9</v>
-      </c>
-      <c r="I242" t="n">
-        <v>30170.90000000895</v>
-      </c>
-      <c r="J242" t="n">
-        <v>30170.90000000112</v>
-      </c>
-      <c r="K242" t="n">
-        <v>30170.90000000783</v>
       </c>
     </row>
     <row r="243">
@@ -7793,22 +4633,10 @@
         <v>30373.3</v>
       </c>
       <c r="F243" t="n">
-        <v>451.98</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-5.762558430433273e-09</v>
+        <v>450.98</v>
       </c>
       <c r="H243" t="n">
         <v>30373.3</v>
-      </c>
-      <c r="I243" t="n">
-        <v>30373.30000000576</v>
-      </c>
-      <c r="J243" t="n">
-        <v>30373.30000000049</v>
-      </c>
-      <c r="K243" t="n">
-        <v>30373.30000000527</v>
       </c>
     </row>
     <row r="244">
@@ -7819,22 +4647,10 @@
         <v>30766</v>
       </c>
       <c r="F244" t="n">
-        <v>451.88</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-3.750756150111556e-09</v>
+        <v>450.88</v>
       </c>
       <c r="H244" t="n">
         <v>30766</v>
-      </c>
-      <c r="I244" t="n">
-        <v>30766.00000000375</v>
-      </c>
-      <c r="J244" t="n">
-        <v>30766.00000000021</v>
-      </c>
-      <c r="K244" t="n">
-        <v>30766.00000000354</v>
       </c>
     </row>
     <row r="245">
@@ -7845,22 +4661,10 @@
         <v>30578.8</v>
       </c>
       <c r="F245" t="n">
-        <v>451.78</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-2.459273673593998e-09</v>
+        <v>450.78</v>
       </c>
       <c r="H245" t="n">
         <v>30578.8</v>
-      </c>
-      <c r="I245" t="n">
-        <v>30578.80000000246</v>
-      </c>
-      <c r="J245" t="n">
-        <v>30578.80000000009</v>
-      </c>
-      <c r="K245" t="n">
-        <v>30578.80000000236</v>
       </c>
     </row>
     <row r="246">
@@ -7871,22 +4675,10 @@
         <v>29672.6</v>
       </c>
       <c r="F246" t="n">
-        <v>451.68</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1.618900569155812e-09</v>
+        <v>450.68</v>
       </c>
       <c r="H246" t="n">
         <v>29672.6</v>
-      </c>
-      <c r="I246" t="n">
-        <v>29672.60000000162</v>
-      </c>
-      <c r="J246" t="n">
-        <v>29672.60000000004</v>
-      </c>
-      <c r="K246" t="n">
-        <v>29672.60000000158</v>
       </c>
     </row>
     <row r="247">
@@ -7897,22 +4689,10 @@
         <v>30111</v>
       </c>
       <c r="F247" t="n">
-        <v>451.58</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1.069565769284964e-09</v>
+        <v>450.58</v>
       </c>
       <c r="H247" t="n">
         <v>30111</v>
-      </c>
-      <c r="I247" t="n">
-        <v>30111.00000000107</v>
-      </c>
-      <c r="J247" t="n">
-        <v>30111.00000000002</v>
-      </c>
-      <c r="K247" t="n">
-        <v>30111.00000000105</v>
       </c>
     </row>
     <row r="248">
@@ -7923,22 +4703,10 @@
         <v>30286.2</v>
       </c>
       <c r="F248" t="n">
-        <v>451.48</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-7.021299097687006e-10</v>
+        <v>450.48</v>
       </c>
       <c r="H248" t="n">
         <v>30286.2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>30286.2000000007</v>
-      </c>
-      <c r="J248" t="n">
-        <v>30286.20000000001</v>
-      </c>
-      <c r="K248" t="n">
-        <v>30286.2000000007</v>
       </c>
     </row>
     <row r="249">
@@ -7949,22 +4717,10 @@
         <v>30475.6</v>
       </c>
       <c r="F249" t="n">
-        <v>451.38</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>450.38</v>
       </c>
       <c r="H249" t="n">
         <v>30475.6</v>
-      </c>
-      <c r="I249" t="n">
-        <v>30475.60000000046</v>
-      </c>
-      <c r="J249" t="n">
-        <v>30475.6</v>
-      </c>
-      <c r="K249" t="n">
-        <v>30475.60000000046</v>
       </c>
     </row>
     <row r="250">
@@ -7975,22 +4731,10 @@
         <v>30163.7</v>
       </c>
       <c r="F250" t="n">
-        <v>451.28</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-3.019522409886122e-10</v>
+        <v>450.28</v>
       </c>
       <c r="H250" t="n">
         <v>30163.7</v>
-      </c>
-      <c r="I250" t="n">
-        <v>30163.7000000003</v>
-      </c>
-      <c r="J250" t="n">
-        <v>30163.7</v>
-      </c>
-      <c r="K250" t="n">
-        <v>30163.7000000003</v>
       </c>
     </row>
     <row r="251">
@@ -8001,22 +4745,10 @@
         <v>30019.2</v>
       </c>
       <c r="F251" t="n">
-        <v>451.18</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-2.000888343900442e-10</v>
+        <v>450.18</v>
       </c>
       <c r="H251" t="n">
         <v>30019.2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>30019.2000000002</v>
-      </c>
-      <c r="J251" t="n">
-        <v>30019.2</v>
-      </c>
-      <c r="K251" t="n">
-        <v>30019.2000000002</v>
       </c>
     </row>
     <row r="252">
@@ -8027,22 +4759,10 @@
         <v>29831.2</v>
       </c>
       <c r="F252" t="n">
-        <v>451.08</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1.309672370553017e-10</v>
+        <v>450.08</v>
       </c>
       <c r="H252" t="n">
         <v>29831.2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>29831.20000000013</v>
-      </c>
-      <c r="J252" t="n">
-        <v>29831.2</v>
-      </c>
-      <c r="K252" t="n">
-        <v>29831.20000000013</v>
       </c>
     </row>
     <row r="253">
@@ -8053,22 +4773,10 @@
         <v>30011.3</v>
       </c>
       <c r="F253" t="n">
-        <v>450.98</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-8.731149137020111e-11</v>
+        <v>449.98</v>
       </c>
       <c r="H253" t="n">
         <v>30011.3</v>
-      </c>
-      <c r="I253" t="n">
-        <v>30011.30000000009</v>
-      </c>
-      <c r="J253" t="n">
-        <v>30011.3</v>
-      </c>
-      <c r="K253" t="n">
-        <v>30011.30000000009</v>
       </c>
     </row>
     <row r="254">
@@ -8079,22 +4787,10 @@
         <v>30570.4</v>
       </c>
       <c r="F254" t="n">
-        <v>450.88</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-5.456968210637569e-11</v>
+        <v>449.88</v>
       </c>
       <c r="H254" t="n">
         <v>30570.4</v>
-      </c>
-      <c r="I254" t="n">
-        <v>30570.40000000006</v>
-      </c>
-      <c r="J254" t="n">
-        <v>30570.4</v>
-      </c>
-      <c r="K254" t="n">
-        <v>30570.40000000006</v>
       </c>
     </row>
     <row r="255">
@@ -8105,22 +4801,10 @@
         <v>29994.1</v>
       </c>
       <c r="F255" t="n">
-        <v>450.78</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-3.637978807091713e-11</v>
+        <v>449.78</v>
       </c>
       <c r="H255" t="n">
         <v>29994.1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>29994.10000000003</v>
-      </c>
-      <c r="J255" t="n">
-        <v>29994.1</v>
-      </c>
-      <c r="K255" t="n">
-        <v>29994.10000000003</v>
       </c>
     </row>
     <row r="256">
@@ -8131,22 +4815,10 @@
         <v>30867.8</v>
       </c>
       <c r="F256" t="n">
-        <v>450.68</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-2.182787284255028e-11</v>
+        <v>449.68</v>
       </c>
       <c r="H256" t="n">
         <v>30867.8</v>
-      </c>
-      <c r="I256" t="n">
-        <v>30867.80000000002</v>
-      </c>
-      <c r="J256" t="n">
-        <v>30867.8</v>
-      </c>
-      <c r="K256" t="n">
-        <v>30867.80000000002</v>
       </c>
     </row>
     <row r="257">
@@ -8157,22 +4829,10 @@
         <v>30532.7</v>
       </c>
       <c r="F257" t="n">
-        <v>450.58</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>449.58</v>
       </c>
       <c r="H257" t="n">
         <v>30532.7</v>
-      </c>
-      <c r="I257" t="n">
-        <v>30532.70000000002</v>
-      </c>
-      <c r="J257" t="n">
-        <v>30532.7</v>
-      </c>
-      <c r="K257" t="n">
-        <v>30532.70000000002</v>
       </c>
     </row>
     <row r="258">
@@ -8183,22 +4843,10 @@
         <v>30713.9</v>
       </c>
       <c r="F258" t="n">
-        <v>450.48</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1.091393642127514e-11</v>
+        <v>449.48</v>
       </c>
       <c r="H258" t="n">
         <v>30713.9</v>
-      </c>
-      <c r="I258" t="n">
-        <v>30713.90000000001</v>
-      </c>
-      <c r="J258" t="n">
-        <v>30713.9</v>
-      </c>
-      <c r="K258" t="n">
-        <v>30713.90000000001</v>
       </c>
     </row>
     <row r="259">
@@ -8209,22 +4857,10 @@
         <v>30454.5</v>
       </c>
       <c r="F259" t="n">
-        <v>450.38</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>449.38</v>
       </c>
       <c r="H259" t="n">
         <v>30454.5</v>
-      </c>
-      <c r="I259" t="n">
-        <v>30454.50000000001</v>
-      </c>
-      <c r="J259" t="n">
-        <v>30454.5</v>
-      </c>
-      <c r="K259" t="n">
-        <v>30454.50000000001</v>
       </c>
     </row>
     <row r="260">
@@ -8235,22 +4871,10 @@
         <v>30068.4</v>
       </c>
       <c r="F260" t="n">
-        <v>450.28</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>449.28</v>
       </c>
       <c r="H260" t="n">
         <v>30068.4</v>
-      </c>
-      <c r="I260" t="n">
-        <v>30068.40000000001</v>
-      </c>
-      <c r="J260" t="n">
-        <v>30068.4</v>
-      </c>
-      <c r="K260" t="n">
-        <v>30068.40000000001</v>
       </c>
     </row>
     <row r="261">
@@ -8261,22 +4885,10 @@
         <v>29912.4</v>
       </c>
       <c r="F261" t="n">
-        <v>450.18</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>449.18</v>
       </c>
       <c r="H261" t="n">
         <v>29912.4</v>
-      </c>
-      <c r="I261" t="n">
-        <v>29912.40000000001</v>
-      </c>
-      <c r="J261" t="n">
-        <v>29912.4</v>
-      </c>
-      <c r="K261" t="n">
-        <v>29912.40000000001</v>
       </c>
     </row>
     <row r="262">
@@ -8287,21 +4899,9 @@
         <v>30174.8</v>
       </c>
       <c r="F262" t="n">
-        <v>450.08</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0</v>
+        <v>449.08</v>
       </c>
       <c r="H262" t="n">
-        <v>30174.8</v>
-      </c>
-      <c r="I262" t="n">
-        <v>30174.8</v>
-      </c>
-      <c r="J262" t="n">
-        <v>30174.8</v>
-      </c>
-      <c r="K262" t="n">
         <v>30174.8</v>
       </c>
     </row>
@@ -8313,21 +4913,9 @@
         <v>30120.3</v>
       </c>
       <c r="F263" t="n">
-        <v>449.98</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0</v>
+        <v>448.98</v>
       </c>
       <c r="H263" t="n">
-        <v>30120.3</v>
-      </c>
-      <c r="I263" t="n">
-        <v>30120.3</v>
-      </c>
-      <c r="J263" t="n">
-        <v>30120.3</v>
-      </c>
-      <c r="K263" t="n">
         <v>30120.3</v>
       </c>
     </row>
@@ -8339,21 +4927,9 @@
         <v>30110.4</v>
       </c>
       <c r="F264" t="n">
-        <v>449.88</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0</v>
+        <v>448.88</v>
       </c>
       <c r="H264" t="n">
-        <v>30110.4</v>
-      </c>
-      <c r="I264" t="n">
-        <v>30110.4</v>
-      </c>
-      <c r="J264" t="n">
-        <v>30110.4</v>
-      </c>
-      <c r="K264" t="n">
         <v>30110.4</v>
       </c>
     </row>
@@ -8365,21 +4941,9 @@
         <v>30306.8</v>
       </c>
       <c r="F265" t="n">
-        <v>449.78</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0</v>
+        <v>448.78</v>
       </c>
       <c r="H265" t="n">
-        <v>30306.8</v>
-      </c>
-      <c r="I265" t="n">
-        <v>30306.8</v>
-      </c>
-      <c r="J265" t="n">
-        <v>30306.8</v>
-      </c>
-      <c r="K265" t="n">
         <v>30306.8</v>
       </c>
     </row>
@@ -8391,21 +4955,9 @@
         <v>29977.1</v>
       </c>
       <c r="F266" t="n">
-        <v>449.68</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0</v>
+        <v>448.68</v>
       </c>
       <c r="H266" t="n">
-        <v>29977.1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>29977.1</v>
-      </c>
-      <c r="J266" t="n">
-        <v>29977.1</v>
-      </c>
-      <c r="K266" t="n">
         <v>29977.1</v>
       </c>
     </row>
@@ -8417,21 +4969,9 @@
         <v>30408.4</v>
       </c>
       <c r="F267" t="n">
-        <v>449.58</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0</v>
+        <v>448.58</v>
       </c>
       <c r="H267" t="n">
-        <v>30408.4</v>
-      </c>
-      <c r="I267" t="n">
-        <v>30408.4</v>
-      </c>
-      <c r="J267" t="n">
-        <v>30408.4</v>
-      </c>
-      <c r="K267" t="n">
         <v>30408.4</v>
       </c>
     </row>
@@ -8443,21 +4983,9 @@
         <v>30672.7</v>
       </c>
       <c r="F268" t="n">
-        <v>449.48</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0</v>
+        <v>448.48</v>
       </c>
       <c r="H268" t="n">
-        <v>30672.7</v>
-      </c>
-      <c r="I268" t="n">
-        <v>30672.7</v>
-      </c>
-      <c r="J268" t="n">
-        <v>30672.7</v>
-      </c>
-      <c r="K268" t="n">
         <v>30672.7</v>
       </c>
     </row>
@@ -8469,21 +4997,9 @@
         <v>30340.6</v>
       </c>
       <c r="F269" t="n">
-        <v>449.38</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0</v>
+        <v>448.38</v>
       </c>
       <c r="H269" t="n">
-        <v>30340.6</v>
-      </c>
-      <c r="I269" t="n">
-        <v>30340.6</v>
-      </c>
-      <c r="J269" t="n">
-        <v>30340.6</v>
-      </c>
-      <c r="K269" t="n">
         <v>30340.6</v>
       </c>
     </row>
@@ -8495,21 +5011,9 @@
         <v>29974.9</v>
       </c>
       <c r="F270" t="n">
-        <v>449.28</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0</v>
+        <v>448.28</v>
       </c>
       <c r="H270" t="n">
-        <v>29974.9</v>
-      </c>
-      <c r="I270" t="n">
-        <v>29974.9</v>
-      </c>
-      <c r="J270" t="n">
-        <v>29974.9</v>
-      </c>
-      <c r="K270" t="n">
         <v>29974.9</v>
       </c>
     </row>
@@ -8521,21 +5025,9 @@
         <v>30914.7</v>
       </c>
       <c r="F271" t="n">
-        <v>449.18</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0</v>
+        <v>448.18</v>
       </c>
       <c r="H271" t="n">
-        <v>30914.7</v>
-      </c>
-      <c r="I271" t="n">
-        <v>30914.7</v>
-      </c>
-      <c r="J271" t="n">
-        <v>30914.7</v>
-      </c>
-      <c r="K271" t="n">
         <v>30914.7</v>
       </c>
     </row>
@@ -8547,21 +5039,9 @@
         <v>30207.3</v>
       </c>
       <c r="F272" t="n">
-        <v>449.08</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0</v>
+        <v>448.08</v>
       </c>
       <c r="H272" t="n">
-        <v>30207.3</v>
-      </c>
-      <c r="I272" t="n">
-        <v>30207.3</v>
-      </c>
-      <c r="J272" t="n">
-        <v>30207.3</v>
-      </c>
-      <c r="K272" t="n">
         <v>30207.3</v>
       </c>
     </row>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -675,7 +675,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5657850" cy="4114800"/>
+    <ext cx="5686425" cy="4124325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -708,10 +708,10 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5648325" cy="4086225"/>
+    <ext cx="5791200" cy="4124325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -721,9 +721,7 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
@@ -5281,7 +5279,7 @@
         <v>26049.5</v>
       </c>
       <c r="F2" t="n">
-        <v>145.08</v>
+        <v>143.08</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -5310,7 +5308,7 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>135.49</t>
+          <t>133.49</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
@@ -5394,7 +5392,7 @@
         <v>26437.6</v>
       </c>
       <c r="F3" t="n">
-        <v>144.98</v>
+        <v>142.98</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -5415,7 +5413,7 @@
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>131.08,147.08</t>
+          <t>129.08,145.08</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -5462,7 +5460,7 @@
         <v>26696.9</v>
       </c>
       <c r="F4" t="n">
-        <v>144.88</v>
+        <v>142.88</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5491,7 +5489,7 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>137.24</t>
+          <t>135.24</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
@@ -5575,7 +5573,7 @@
         <v>25942.6</v>
       </c>
       <c r="F5" t="n">
-        <v>144.78</v>
+        <v>142.78</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5643,7 +5641,7 @@
         <v>26565.8</v>
       </c>
       <c r="F6" t="n">
-        <v>144.68</v>
+        <v>142.68</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -5669,7 +5667,7 @@
         <v>26089.7</v>
       </c>
       <c r="F7" t="n">
-        <v>144.58</v>
+        <v>142.58</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5695,7 +5693,7 @@
         <v>26784.6</v>
       </c>
       <c r="F8" t="n">
-        <v>144.48</v>
+        <v>142.48</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -5721,7 +5719,7 @@
         <v>26357.7</v>
       </c>
       <c r="F9" t="n">
-        <v>144.38</v>
+        <v>142.38</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -5747,7 +5745,7 @@
         <v>26256</v>
       </c>
       <c r="F10" t="n">
-        <v>144.28</v>
+        <v>142.28</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5773,7 +5771,7 @@
         <v>26519.3</v>
       </c>
       <c r="F11" t="n">
-        <v>144.18</v>
+        <v>142.18</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5799,7 +5797,7 @@
         <v>25948.6</v>
       </c>
       <c r="F12" t="n">
-        <v>144.08</v>
+        <v>142.08</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5825,7 +5823,7 @@
         <v>26945.3</v>
       </c>
       <c r="F13" t="n">
-        <v>143.98</v>
+        <v>141.98</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5851,7 +5849,7 @@
         <v>26444</v>
       </c>
       <c r="F14" t="n">
-        <v>143.88</v>
+        <v>141.88</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -5877,7 +5875,7 @@
         <v>26729.6</v>
       </c>
       <c r="F15" t="n">
-        <v>143.78</v>
+        <v>141.78</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5903,7 +5901,7 @@
         <v>27045.9</v>
       </c>
       <c r="F16" t="n">
-        <v>143.68</v>
+        <v>141.68</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5929,7 +5927,7 @@
         <v>26274.3</v>
       </c>
       <c r="F17" t="n">
-        <v>143.58</v>
+        <v>141.58</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5955,7 +5953,7 @@
         <v>25721.7</v>
       </c>
       <c r="F18" t="n">
-        <v>143.48</v>
+        <v>141.48</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -5981,7 +5979,7 @@
         <v>26199.6</v>
       </c>
       <c r="F19" t="n">
-        <v>143.38</v>
+        <v>141.38</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -6007,7 +6005,7 @@
         <v>27175.7</v>
       </c>
       <c r="F20" t="n">
-        <v>143.28</v>
+        <v>141.28</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -6033,7 +6031,7 @@
         <v>26142</v>
       </c>
       <c r="F21" t="n">
-        <v>143.18</v>
+        <v>141.18</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -6059,7 +6057,7 @@
         <v>26419.9</v>
       </c>
       <c r="F22" t="n">
-        <v>143.08</v>
+        <v>141.08</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -6085,7 +6083,7 @@
         <v>27293.7</v>
       </c>
       <c r="F23" t="n">
-        <v>142.98</v>
+        <v>140.98</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -6111,7 +6109,7 @@
         <v>26191.1</v>
       </c>
       <c r="F24" t="n">
-        <v>142.88</v>
+        <v>140.88</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -6137,7 +6135,7 @@
         <v>26444.7</v>
       </c>
       <c r="F25" t="n">
-        <v>142.78</v>
+        <v>140.78</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -6163,7 +6161,7 @@
         <v>26393.8</v>
       </c>
       <c r="F26" t="n">
-        <v>142.68</v>
+        <v>140.68</v>
       </c>
       <c r="G26" t="n">
         <v>-7.275957614183426e-12</v>
@@ -6189,7 +6187,7 @@
         <v>26023.2</v>
       </c>
       <c r="F27" t="n">
-        <v>142.58</v>
+        <v>140.58</v>
       </c>
       <c r="G27" t="n">
         <v>-2.182787284255028e-11</v>
@@ -6215,7 +6213,7 @@
         <v>27069.8</v>
       </c>
       <c r="F28" t="n">
-        <v>142.48</v>
+        <v>140.48</v>
       </c>
       <c r="G28" t="n">
         <v>-6.912159733474255e-11</v>
@@ -6241,7 +6239,7 @@
         <v>26161.8</v>
       </c>
       <c r="F29" t="n">
-        <v>142.38</v>
+        <v>140.38</v>
       </c>
       <c r="G29" t="n">
         <v>-2.291926648467779e-10</v>
@@ -6267,7 +6265,7 @@
         <v>26300.2</v>
       </c>
       <c r="F30" t="n">
-        <v>142.28</v>
+        <v>140.28</v>
       </c>
       <c r="G30" t="n">
         <v>-7.385096978396177e-10</v>
@@ -6293,7 +6291,7 @@
         <v>26179.2</v>
       </c>
       <c r="F31" t="n">
-        <v>142.18</v>
+        <v>140.18</v>
       </c>
       <c r="G31" t="n">
         <v>-2.313754521310329e-09</v>
@@ -6319,7 +6317,7 @@
         <v>25952.4</v>
       </c>
       <c r="F32" t="n">
-        <v>142.08</v>
+        <v>140.08</v>
       </c>
       <c r="G32" t="n">
         <v>-7.09405867382884e-09</v>
@@ -6345,7 +6343,7 @@
         <v>25823.1</v>
       </c>
       <c r="F33" t="n">
-        <v>141.98</v>
+        <v>139.98</v>
       </c>
       <c r="G33" t="n">
         <v>-2.130036591552198e-08</v>
@@ -6371,7 +6369,7 @@
         <v>25796.2</v>
       </c>
       <c r="F34" t="n">
-        <v>141.88</v>
+        <v>139.88</v>
       </c>
       <c r="G34" t="n">
         <v>-6.259506335482001e-08</v>
@@ -6397,7 +6395,7 @@
         <v>25706.9</v>
       </c>
       <c r="F35" t="n">
-        <v>141.78</v>
+        <v>139.78</v>
       </c>
       <c r="G35" t="n">
         <v>-1.80087226908654e-07</v>
@@ -6423,7 +6421,7 @@
         <v>25865.6</v>
       </c>
       <c r="F36" t="n">
-        <v>141.68</v>
+        <v>139.68</v>
       </c>
       <c r="G36" t="n">
         <v>-5.07261574966833e-07</v>
@@ -6449,7 +6447,7 @@
         <v>26150.6</v>
       </c>
       <c r="F37" t="n">
-        <v>141.58</v>
+        <v>139.58</v>
       </c>
       <c r="G37" t="n">
         <v>-1.398926542606205e-06</v>
@@ -6475,7 +6473,7 @@
         <v>25610.5</v>
       </c>
       <c r="F38" t="n">
-        <v>141.48</v>
+        <v>139.48</v>
       </c>
       <c r="G38" t="n">
         <v>-3.777426172746345e-06</v>
@@ -6501,7 +6499,7 @@
         <v>25614.3</v>
       </c>
       <c r="F39" t="n">
-        <v>141.38</v>
+        <v>139.38</v>
       </c>
       <c r="G39" t="n">
         <v>-9.987441444536671e-06</v>
@@ -6527,7 +6525,7 @@
         <v>25482.4</v>
       </c>
       <c r="F40" t="n">
-        <v>141.28</v>
+        <v>139.28</v>
       </c>
       <c r="G40" t="n">
         <v>-2.585766924312338e-05</v>
@@ -6553,7 +6551,7 @@
         <v>25820.7</v>
       </c>
       <c r="F41" t="n">
-        <v>141.18</v>
+        <v>139.18</v>
       </c>
       <c r="G41" t="n">
         <v>-6.555765503435396e-05</v>
@@ -6579,7 +6577,7 @@
         <v>25337.9</v>
       </c>
       <c r="F42" t="n">
-        <v>141.08</v>
+        <v>139.08</v>
       </c>
       <c r="G42" t="n">
         <v>-0.0001627719866519328</v>
@@ -6605,7 +6603,7 @@
         <v>25660.4</v>
       </c>
       <c r="F43" t="n">
-        <v>140.98</v>
+        <v>138.98</v>
       </c>
       <c r="G43" t="n">
         <v>-0.0003958066954510286</v>
@@ -6631,7 +6629,7 @@
         <v>25130.5</v>
       </c>
       <c r="F44" t="n">
-        <v>140.88</v>
+        <v>138.88</v>
       </c>
       <c r="G44" t="n">
         <v>-0.000942671988013899</v>
@@ -6657,7 +6655,7 @@
         <v>25320.6</v>
       </c>
       <c r="F45" t="n">
-        <v>140.78</v>
+        <v>138.78</v>
       </c>
       <c r="G45" t="n">
         <v>-0.002199078731791815</v>
@@ -6683,7 +6681,7 @@
         <v>24983.9</v>
       </c>
       <c r="F46" t="n">
-        <v>140.68</v>
+        <v>138.68</v>
       </c>
       <c r="G46" t="n">
         <v>-0.005025213667977368</v>
@@ -6709,7 +6707,7 @@
         <v>25008</v>
       </c>
       <c r="F47" t="n">
-        <v>140.58</v>
+        <v>138.58</v>
       </c>
       <c r="G47" t="n">
         <v>-0.01124954768965836</v>
@@ -6735,7 +6733,7 @@
         <v>24993.3</v>
       </c>
       <c r="F48" t="n">
-        <v>140.48</v>
+        <v>138.48</v>
       </c>
       <c r="G48" t="n">
         <v>-0.02467278265248751</v>
@@ -6761,7 +6759,7 @@
         <v>25038.8</v>
       </c>
       <c r="F49" t="n">
-        <v>140.38</v>
+        <v>138.38</v>
       </c>
       <c r="G49" t="n">
         <v>-0.05302031878818525</v>
@@ -6787,7 +6785,7 @@
         <v>24708.8</v>
       </c>
       <c r="F50" t="n">
-        <v>140.28</v>
+        <v>138.28</v>
       </c>
       <c r="G50" t="n">
         <v>-0.1116475897979399</v>
@@ -6813,7 +6811,7 @@
         <v>24696.9</v>
       </c>
       <c r="F51" t="n">
-        <v>140.18</v>
+        <v>138.18</v>
       </c>
       <c r="G51" t="n">
         <v>-0.2304009586077882</v>
@@ -6839,7 +6837,7 @@
         <v>24663.5</v>
       </c>
       <c r="F52" t="n">
-        <v>140.08</v>
+        <v>138.08</v>
       </c>
       <c r="G52" t="n">
         <v>-0.466010791464214</v>
@@ -6865,7 +6863,7 @@
         <v>24656</v>
       </c>
       <c r="F53" t="n">
-        <v>139.98</v>
+        <v>137.98</v>
       </c>
       <c r="G53" t="n">
         <v>-0.9239264790739981</v>
@@ -6891,7 +6889,7 @@
         <v>24583</v>
       </c>
       <c r="F54" t="n">
-        <v>139.88</v>
+        <v>137.88</v>
       </c>
       <c r="G54" t="n">
         <v>-1.795833796419174</v>
@@ -6917,7 +6915,7 @@
         <v>24276.6</v>
       </c>
       <c r="F55" t="n">
-        <v>139.78</v>
+        <v>137.78</v>
       </c>
       <c r="G55" t="n">
         <v>-3.422509820571577</v>
@@ -6943,7 +6941,7 @@
         <v>24806.4</v>
       </c>
       <c r="F56" t="n">
-        <v>139.68</v>
+        <v>137.68</v>
       </c>
       <c r="G56" t="n">
         <v>-6.396481633488293</v>
@@ -6969,7 +6967,7 @@
         <v>25239</v>
       </c>
       <c r="F57" t="n">
-        <v>139.58</v>
+        <v>137.58</v>
       </c>
       <c r="G57" t="n">
         <v>434.0045479631772</v>
@@ -6995,7 +6993,7 @@
         <v>24656.3</v>
       </c>
       <c r="F58" t="n">
-        <v>139.48</v>
+        <v>137.48</v>
       </c>
       <c r="G58" t="n">
         <v>-152.6258297392378</v>
@@ -7021,7 +7019,7 @@
         <v>24484.5</v>
       </c>
       <c r="F59" t="n">
-        <v>139.38</v>
+        <v>137.38</v>
       </c>
       <c r="G59" t="n">
         <v>-340.4459406738206</v>
@@ -7047,7 +7045,7 @@
         <v>25108.2</v>
       </c>
       <c r="F60" t="n">
-        <v>139.28</v>
+        <v>137.28</v>
       </c>
       <c r="G60" t="n">
         <v>255.8997393083882</v>
@@ -7073,7 +7071,7 @@
         <v>24956.2</v>
       </c>
       <c r="F61" t="n">
-        <v>139.18</v>
+        <v>137.18</v>
       </c>
       <c r="G61" t="n">
         <v>58.80149858845471</v>
@@ -7099,7 +7097,7 @@
         <v>25105.5</v>
       </c>
       <c r="F62" t="n">
-        <v>139.08</v>
+        <v>137.08</v>
       </c>
       <c r="G62" t="n">
         <v>134.9547631079768</v>
@@ -7125,7 +7123,7 @@
         <v>25926.1</v>
       </c>
       <c r="F63" t="n">
-        <v>138.98</v>
+        <v>136.98</v>
       </c>
       <c r="G63" t="n">
         <v>838.7950450561621</v>
@@ -7151,7 +7149,7 @@
         <v>25834.4</v>
       </c>
       <c r="F64" t="n">
-        <v>138.88</v>
+        <v>136.88</v>
       </c>
       <c r="G64" t="n">
         <v>564.4688638030129</v>
@@ -7177,7 +7175,7 @@
         <v>26328.5</v>
       </c>
       <c r="F65" t="n">
-        <v>138.78</v>
+        <v>136.78</v>
       </c>
       <c r="G65" t="n">
         <v>777.7677692714933</v>
@@ -7203,7 +7201,7 @@
         <v>26760.7</v>
       </c>
       <c r="F66" t="n">
-        <v>138.68</v>
+        <v>136.68</v>
       </c>
       <c r="G66" t="n">
         <v>785.6439843918524</v>
@@ -7229,7 +7227,7 @@
         <v>27055.6</v>
       </c>
       <c r="F67" t="n">
-        <v>138.58</v>
+        <v>136.58</v>
       </c>
       <c r="G67" t="n">
         <v>450.7843921900858</v>
@@ -7255,7 +7253,7 @@
         <v>27949.1</v>
       </c>
       <c r="F68" t="n">
-        <v>138.48</v>
+        <v>136.48</v>
       </c>
       <c r="G68" t="n">
         <v>425.5870584398763</v>
@@ -7281,7 +7279,7 @@
         <v>28717.9</v>
       </c>
       <c r="F69" t="n">
-        <v>138.38</v>
+        <v>136.38</v>
       </c>
       <c r="G69" t="n">
         <v>-122.6019205551638</v>
@@ -7307,7 +7305,7 @@
         <v>30717.6</v>
       </c>
       <c r="F70" t="n">
-        <v>138.28</v>
+        <v>136.28</v>
       </c>
       <c r="G70" t="n">
         <v>22.00290139185017</v>
@@ -7333,7 +7331,7 @@
         <v>32779.8</v>
       </c>
       <c r="F71" t="n">
-        <v>138.18</v>
+        <v>136.18</v>
       </c>
       <c r="G71" t="n">
         <v>-481.664848673885</v>
@@ -7359,7 +7357,7 @@
         <v>36550.1</v>
       </c>
       <c r="F72" t="n">
-        <v>138.08</v>
+        <v>136.08</v>
       </c>
       <c r="G72" t="n">
         <v>-191.4802370435063</v>
@@ -7385,7 +7383,7 @@
         <v>41320.5</v>
       </c>
       <c r="F73" t="n">
-        <v>137.98</v>
+        <v>135.98</v>
       </c>
       <c r="G73" t="n">
         <v>-37.04965082090348</v>
@@ -7411,7 +7409,7 @@
         <v>47368.7</v>
       </c>
       <c r="F74" t="n">
-        <v>137.88</v>
+        <v>135.88</v>
       </c>
       <c r="G74" t="n">
         <v>52.85155138233677</v>
@@ -7437,7 +7435,7 @@
         <v>55544.3</v>
       </c>
       <c r="F75" t="n">
-        <v>137.78</v>
+        <v>135.78</v>
       </c>
       <c r="G75" t="n">
         <v>805.6745782531652</v>
@@ -7463,7 +7461,7 @@
         <v>63391.9</v>
       </c>
       <c r="F76" t="n">
-        <v>137.68</v>
+        <v>135.68</v>
       </c>
       <c r="G76" t="n">
         <v>-147.1763925109626</v>
@@ -7489,7 +7487,7 @@
         <v>73673.89999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>137.58</v>
+        <v>135.58</v>
       </c>
       <c r="G77" t="n">
         <v>432.1812421145733</v>
@@ -7515,7 +7513,7 @@
         <v>83519.2</v>
       </c>
       <c r="F78" t="n">
-        <v>137.48</v>
+        <v>135.48</v>
       </c>
       <c r="G78" t="n">
         <v>714.0678441036871</v>
@@ -7541,7 +7539,7 @@
         <v>91301.7</v>
       </c>
       <c r="F79" t="n">
-        <v>137.38</v>
+        <v>135.38</v>
       </c>
       <c r="G79" t="n">
         <v>678.5937807812152</v>
@@ -7567,7 +7565,7 @@
         <v>93863.10000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>137.28</v>
+        <v>135.28</v>
       </c>
       <c r="G80" t="n">
         <v>-1070.277150235808</v>
@@ -7593,7 +7591,7 @@
         <v>94868.5</v>
       </c>
       <c r="F81" t="n">
-        <v>137.18</v>
+        <v>135.18</v>
       </c>
       <c r="G81" t="n">
         <v>253.7718001508474</v>
@@ -7619,7 +7617,7 @@
         <v>89488.89999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>137.08</v>
+        <v>135.08</v>
       </c>
       <c r="G82" t="n">
         <v>-359.5049662440142</v>
@@ -7645,7 +7643,7 @@
         <v>81655.7</v>
       </c>
       <c r="F83" t="n">
-        <v>136.98</v>
+        <v>134.98</v>
       </c>
       <c r="G83" t="n">
         <v>-381.4168151721242</v>
@@ -7671,7 +7669,7 @@
         <v>72861.10000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>136.88</v>
+        <v>134.88</v>
       </c>
       <c r="G84" t="n">
         <v>-202.9538917042519</v>
@@ -7697,7 +7695,7 @@
         <v>65228</v>
       </c>
       <c r="F85" t="n">
-        <v>136.78</v>
+        <v>134.78</v>
       </c>
       <c r="G85" t="n">
         <v>673.3802243280079</v>
@@ -7723,7 +7721,7 @@
         <v>57825</v>
       </c>
       <c r="F86" t="n">
-        <v>136.68</v>
+        <v>134.68</v>
       </c>
       <c r="G86" t="n">
         <v>252.7996411692948</v>
@@ -7749,7 +7747,7 @@
         <v>52705.2</v>
       </c>
       <c r="F87" t="n">
-        <v>136.58</v>
+        <v>134.58</v>
       </c>
       <c r="G87" t="n">
         <v>24.5636230228265</v>
@@ -7775,7 +7773,7 @@
         <v>49512.4</v>
       </c>
       <c r="F88" t="n">
-        <v>136.48</v>
+        <v>134.48</v>
       </c>
       <c r="G88" t="n">
         <v>-625.4071451262935</v>
@@ -7801,7 +7799,7 @@
         <v>49319.6</v>
       </c>
       <c r="F89" t="n">
-        <v>136.38</v>
+        <v>134.38</v>
       </c>
       <c r="G89" t="n">
         <v>-748.7717881766876</v>
@@ -7827,7 +7825,7 @@
         <v>52710.5</v>
       </c>
       <c r="F90" t="n">
-        <v>136.28</v>
+        <v>134.28</v>
       </c>
       <c r="G90" t="n">
         <v>143.4795779867127</v>
@@ -7853,7 +7851,7 @@
         <v>56503.9</v>
       </c>
       <c r="F91" t="n">
-        <v>136.18</v>
+        <v>134.18</v>
       </c>
       <c r="G91" t="n">
         <v>-1225.188876957742</v>
@@ -7879,7 +7877,7 @@
         <v>66220.2</v>
       </c>
       <c r="F92" t="n">
-        <v>136.08</v>
+        <v>134.08</v>
       </c>
       <c r="G92" t="n">
         <v>612.4312413333828</v>
@@ -7905,7 +7903,7 @@
         <v>76751.10000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>135.98</v>
+        <v>133.98</v>
       </c>
       <c r="G93" t="n">
         <v>664.9942148801929</v>
@@ -7931,7 +7929,7 @@
         <v>90714.7</v>
       </c>
       <c r="F94" t="n">
-        <v>135.88</v>
+        <v>133.88</v>
       </c>
       <c r="G94" t="n">
         <v>2059.519498600814</v>
@@ -7957,7 +7955,7 @@
         <v>101895</v>
       </c>
       <c r="F95" t="n">
-        <v>135.78</v>
+        <v>133.78</v>
       </c>
       <c r="G95" t="n">
         <v>-238.2694158049708</v>
@@ -7983,7 +7981,7 @@
         <v>115799</v>
       </c>
       <c r="F96" t="n">
-        <v>135.68</v>
+        <v>133.68</v>
       </c>
       <c r="G96" t="n">
         <v>1308.449281945272</v>
@@ -8009,7 +8007,7 @@
         <v>122420</v>
       </c>
       <c r="F97" t="n">
-        <v>135.58</v>
+        <v>133.58</v>
       </c>
       <c r="G97" t="n">
         <v>-683.3717386850331</v>
@@ -8035,7 +8033,7 @@
         <v>123907</v>
       </c>
       <c r="F98" t="n">
-        <v>135.48</v>
+        <v>133.48</v>
       </c>
       <c r="G98" t="n">
         <v>-1756.704542348394</v>
@@ -8061,7 +8059,7 @@
         <v>121510</v>
       </c>
       <c r="F99" t="n">
-        <v>135.38</v>
+        <v>133.38</v>
       </c>
       <c r="G99" t="n">
         <v>157.5348063978308</v>
@@ -8087,7 +8085,7 @@
         <v>112006</v>
       </c>
       <c r="F100" t="n">
-        <v>135.28</v>
+        <v>133.28</v>
       </c>
       <c r="G100" t="n">
         <v>690.8388912534283</v>
@@ -8113,7 +8111,7 @@
         <v>97704.2</v>
       </c>
       <c r="F101" t="n">
-        <v>135.18</v>
+        <v>133.18</v>
       </c>
       <c r="G101" t="n">
         <v>-264.0110106062784</v>
@@ -8139,7 +8137,7 @@
         <v>82859.10000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>135.08</v>
+        <v>133.08</v>
       </c>
       <c r="G102" t="n">
         <v>-940.5994628149056</v>
@@ -8165,7 +8163,7 @@
         <v>70849.89999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>134.98</v>
+        <v>132.98</v>
       </c>
       <c r="G103" t="n">
         <v>269.3075303273363</v>
@@ -8191,7 +8189,7 @@
         <v>58847.2</v>
       </c>
       <c r="F104" t="n">
-        <v>134.88</v>
+        <v>132.88</v>
       </c>
       <c r="G104" t="n">
         <v>-373.9165383300788</v>
@@ -8217,7 +8215,7 @@
         <v>48222.9</v>
       </c>
       <c r="F105" t="n">
-        <v>134.78</v>
+        <v>132.78</v>
       </c>
       <c r="G105" t="n">
         <v>-1761.999843342855</v>
@@ -8243,7 +8241,7 @@
         <v>41212.5</v>
       </c>
       <c r="F106" t="n">
-        <v>134.68</v>
+        <v>132.68</v>
       </c>
       <c r="G106" t="n">
         <v>-1549.643935405482</v>
@@ -8269,7 +8267,7 @@
         <v>37102.4</v>
       </c>
       <c r="F107" t="n">
-        <v>134.58</v>
+        <v>132.58</v>
       </c>
       <c r="G107" t="n">
         <v>-173.4717780883366</v>
@@ -8295,7 +8293,7 @@
         <v>33792.8</v>
       </c>
       <c r="F108" t="n">
-        <v>134.48</v>
+        <v>132.48</v>
       </c>
       <c r="G108" t="n">
         <v>587.9248725014695</v>
@@ -8321,7 +8319,7 @@
         <v>30693.1</v>
       </c>
       <c r="F109" t="n">
-        <v>134.38</v>
+        <v>132.38</v>
       </c>
       <c r="G109" t="n">
         <v>448.5067969170086</v>
@@ -8347,7 +8345,7 @@
         <v>29299.5</v>
       </c>
       <c r="F110" t="n">
-        <v>134.28</v>
+        <v>132.28</v>
       </c>
       <c r="G110" t="n">
         <v>1168.230961049896</v>
@@ -8373,7 +8371,7 @@
         <v>27703.6</v>
       </c>
       <c r="F111" t="n">
-        <v>134.18</v>
+        <v>132.18</v>
       </c>
       <c r="G111" t="n">
         <v>1054.802012942437</v>
@@ -8399,7 +8397,7 @@
         <v>26610.7</v>
       </c>
       <c r="F112" t="n">
-        <v>134.08</v>
+        <v>132.08</v>
       </c>
       <c r="G112" t="n">
         <v>983.8968901176049</v>
@@ -8425,7 +8423,7 @@
         <v>25781.6</v>
       </c>
       <c r="F113" t="n">
-        <v>133.98</v>
+        <v>131.98</v>
       </c>
       <c r="G113" t="n">
         <v>847.2704086968952</v>
@@ -8451,7 +8449,7 @@
         <v>25658.9</v>
       </c>
       <c r="F114" t="n">
-        <v>133.88</v>
+        <v>131.88</v>
       </c>
       <c r="G114" t="n">
         <v>1185.765740117808</v>
@@ -8477,7 +8475,7 @@
         <v>25332.8</v>
       </c>
       <c r="F115" t="n">
-        <v>133.78</v>
+        <v>131.78</v>
       </c>
       <c r="G115" t="n">
         <v>1161.552774850708</v>
@@ -8503,7 +8501,7 @@
         <v>25107.8</v>
       </c>
       <c r="F116" t="n">
-        <v>133.68</v>
+        <v>131.68</v>
       </c>
       <c r="G116" t="n">
         <v>1130.663626664016</v>
@@ -8529,7 +8527,7 @@
         <v>25138.8</v>
       </c>
       <c r="F117" t="n">
-        <v>133.58</v>
+        <v>131.58</v>
       </c>
       <c r="G117" t="n">
         <v>1284.338255087569</v>
@@ -8555,7 +8553,7 @@
         <v>24244.8</v>
       </c>
       <c r="F118" t="n">
-        <v>133.48</v>
+        <v>131.48</v>
       </c>
       <c r="G118" t="n">
         <v>466.3261370190121</v>
@@ -8581,7 +8579,7 @@
         <v>24023.7</v>
       </c>
       <c r="F119" t="n">
-        <v>133.38</v>
+        <v>131.38</v>
       </c>
       <c r="G119" t="n">
         <v>291.2764015919893</v>
@@ -8607,7 +8605,7 @@
         <v>24198.2</v>
       </c>
       <c r="F120" t="n">
-        <v>133.28</v>
+        <v>131.28</v>
       </c>
       <c r="G120" t="n">
         <v>493.299203674982</v>
@@ -8633,7 +8631,7 @@
         <v>23613.4</v>
       </c>
       <c r="F121" t="n">
-        <v>133.18</v>
+        <v>131.18</v>
       </c>
       <c r="G121" t="n">
         <v>-75.43492916300602</v>
@@ -8659,7 +8657,7 @@
         <v>23704.5</v>
       </c>
       <c r="F122" t="n">
-        <v>133.08</v>
+        <v>131.08</v>
       </c>
       <c r="G122" t="n">
         <v>24.78704217418272</v>
@@ -8685,7 +8683,7 @@
         <v>23684.4</v>
       </c>
       <c r="F123" t="n">
-        <v>132.98</v>
+        <v>130.98</v>
       </c>
       <c r="G123" t="n">
         <v>9.82909204779935</v>
@@ -8711,7 +8709,7 @@
         <v>23701.3</v>
       </c>
       <c r="F124" t="n">
-        <v>132.88</v>
+        <v>130.88</v>
       </c>
       <c r="G124" t="n">
         <v>29.55807942949104</v>
@@ -8737,7 +8735,7 @@
         <v>23667.4</v>
       </c>
       <c r="F125" t="n">
-        <v>132.78</v>
+        <v>130.78</v>
       </c>
       <c r="G125" t="n">
         <v>-2.811481757602451</v>
@@ -8763,7 +8761,7 @@
         <v>23150.6</v>
       </c>
       <c r="F126" t="n">
-        <v>132.68</v>
+        <v>130.68</v>
       </c>
       <c r="G126" t="n">
         <v>-518.9679366418022</v>
@@ -8789,7 +8787,7 @@
         <v>23719.7</v>
       </c>
       <c r="F127" t="n">
-        <v>132.58</v>
+        <v>130.58</v>
       </c>
       <c r="G127" t="n">
         <v>50.40812928099331</v>
@@ -8815,7 +8813,7 @@
         <v>23699</v>
       </c>
       <c r="F128" t="n">
-        <v>132.48</v>
+        <v>130.48</v>
       </c>
       <c r="G128" t="n">
         <v>29.94917426735628</v>
@@ -8841,7 +8839,7 @@
         <v>23572.7</v>
       </c>
       <c r="F129" t="n">
-        <v>132.38</v>
+        <v>130.38</v>
       </c>
       <c r="G129" t="n">
         <v>-96.26596710201557</v>
@@ -8867,7 +8865,7 @@
         <v>23070.3</v>
       </c>
       <c r="F130" t="n">
-        <v>132.28</v>
+        <v>130.28</v>
       </c>
       <c r="G130" t="n">
         <v>-0.04493904029004625</v>
@@ -8893,7 +8891,7 @@
         <v>23261.8</v>
       </c>
       <c r="F131" t="n">
-        <v>132.18</v>
+        <v>130.18</v>
       </c>
       <c r="G131" t="n">
         <v>-0.02061963264713995</v>
@@ -8919,7 +8917,7 @@
         <v>23679.9</v>
       </c>
       <c r="F132" t="n">
-        <v>132.08</v>
+        <v>130.08</v>
       </c>
       <c r="G132" t="n">
         <v>-0.009269456797483144</v>
@@ -8945,7 +8943,7 @@
         <v>23737.6</v>
       </c>
       <c r="F133" t="n">
-        <v>131.98</v>
+        <v>129.98</v>
       </c>
       <c r="G133" t="n">
         <v>-0.004082322302565444</v>
@@ -8971,7 +8969,7 @@
         <v>22921.3</v>
       </c>
       <c r="F134" t="n">
-        <v>131.88</v>
+        <v>129.88</v>
       </c>
       <c r="G134" t="n">
         <v>-0.00176118911622325</v>
@@ -8997,7 +8995,7 @@
         <v>23216.3</v>
       </c>
       <c r="F135" t="n">
-        <v>131.78</v>
+        <v>129.78</v>
       </c>
       <c r="G135" t="n">
         <v>-0.0007442500136676244</v>
@@ -9023,7 +9021,7 @@
         <v>23106.4</v>
       </c>
       <c r="F136" t="n">
-        <v>131.68</v>
+        <v>129.68</v>
       </c>
       <c r="G136" t="n">
         <v>-0.0003080466740357224</v>
@@ -9049,7 +9047,7 @@
         <v>23220.2</v>
       </c>
       <c r="F137" t="n">
-        <v>131.58</v>
+        <v>129.58</v>
       </c>
       <c r="G137" t="n">
         <v>-0.0001248738954018336</v>
@@ -9075,7 +9073,7 @@
         <v>24093.6</v>
       </c>
       <c r="F138" t="n">
-        <v>131.48</v>
+        <v>129.48</v>
       </c>
       <c r="G138" t="n">
         <v>-4.95745480293408e-05</v>
@@ -9101,7 +9099,7 @@
         <v>22379.6</v>
       </c>
       <c r="F139" t="n">
-        <v>131.38</v>
+        <v>129.38</v>
       </c>
       <c r="G139" t="n">
         <v>-1.927320772665553e-05</v>
@@ -9127,7 +9125,7 @@
         <v>23672.7</v>
       </c>
       <c r="F140" t="n">
-        <v>131.28</v>
+        <v>129.28</v>
       </c>
       <c r="G140" t="n">
         <v>-7.337279384955764e-06</v>
@@ -9153,7 +9151,7 @@
         <v>22678.3</v>
       </c>
       <c r="F141" t="n">
-        <v>131.18</v>
+        <v>129.18</v>
       </c>
       <c r="G141" t="n">
         <v>-2.735148882493377e-06</v>
@@ -9179,7 +9177,7 @@
         <v>22925.7</v>
       </c>
       <c r="F142" t="n">
-        <v>131.08</v>
+        <v>129.08</v>
       </c>
       <c r="G142" t="n">
         <v>-9.983268682844937e-07</v>
@@ -9205,7 +9203,7 @@
         <v>23234.5</v>
       </c>
       <c r="F143" t="n">
-        <v>130.98</v>
+        <v>128.98</v>
       </c>
       <c r="G143" t="n">
         <v>-3.567729436326772e-07</v>
@@ -9231,7 +9229,7 @@
         <v>23209.9</v>
       </c>
       <c r="F144" t="n">
-        <v>130.88</v>
+        <v>128.88</v>
       </c>
       <c r="G144" t="n">
         <v>-1.248299668077379e-07</v>
@@ -9257,7 +9255,7 @@
         <v>22959.1</v>
       </c>
       <c r="F145" t="n">
-        <v>130.78</v>
+        <v>128.78</v>
       </c>
       <c r="G145" t="n">
         <v>-4.276080289855599e-08</v>
@@ -9283,7 +9281,7 @@
         <v>23204.9</v>
       </c>
       <c r="F146" t="n">
-        <v>130.68</v>
+        <v>128.68</v>
       </c>
       <c r="G146" t="n">
         <v>-1.434091245755553e-08</v>
@@ -9309,7 +9307,7 @@
         <v>22759</v>
       </c>
       <c r="F147" t="n">
-        <v>130.58</v>
+        <v>128.58</v>
       </c>
       <c r="G147" t="n">
         <v>-4.707544576376677e-09</v>
@@ -9335,7 +9333,7 @@
         <v>23218.7</v>
       </c>
       <c r="F148" t="n">
-        <v>130.48</v>
+        <v>128.48</v>
       </c>
       <c r="G148" t="n">
         <v>-1.513399183750153e-09</v>
@@ -9361,7 +9359,7 @@
         <v>23386.5</v>
       </c>
       <c r="F149" t="n">
-        <v>130.38</v>
+        <v>128.38</v>
       </c>
       <c r="G149" t="n">
         <v>-4.765752237290144e-10</v>
@@ -9387,7 +9385,7 @@
         <v>23184.7</v>
       </c>
       <c r="F150" t="n">
-        <v>130.28</v>
+        <v>128.28</v>
       </c>
       <c r="G150" t="n">
         <v>-1.455191522836685e-10</v>
@@ -9413,7 +9411,7 @@
         <v>22687</v>
       </c>
       <c r="F151" t="n">
-        <v>130.18</v>
+        <v>128.18</v>
       </c>
       <c r="G151" t="n">
         <v>-4.365574568510056e-11</v>
@@ -9439,7 +9437,7 @@
         <v>22924.4</v>
       </c>
       <c r="F152" t="n">
-        <v>130.08</v>
+        <v>128.08</v>
       </c>
       <c r="G152" t="n">
         <v>-1.455191522836685e-11</v>
@@ -9465,7 +9463,7 @@
         <v>22643.1</v>
       </c>
       <c r="F153" t="n">
-        <v>129.98</v>
+        <v>127.98</v>
       </c>
       <c r="G153" t="n">
         <v>-3.637978807091713e-12</v>
@@ -9491,7 +9489,7 @@
         <v>22647.9</v>
       </c>
       <c r="F154" t="n">
-        <v>129.88</v>
+        <v>127.88</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -9517,7 +9515,7 @@
         <v>23050.9</v>
       </c>
       <c r="F155" t="n">
-        <v>129.78</v>
+        <v>127.78</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -9543,7 +9541,7 @@
         <v>22933.5</v>
       </c>
       <c r="F156" t="n">
-        <v>129.68</v>
+        <v>127.68</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -9569,7 +9567,7 @@
         <v>23251.9</v>
       </c>
       <c r="F157" t="n">
-        <v>129.58</v>
+        <v>127.58</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -9595,7 +9593,7 @@
         <v>22359.8</v>
       </c>
       <c r="F158" t="n">
-        <v>129.48</v>
+        <v>127.48</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -9621,7 +9619,7 @@
         <v>23047.9</v>
       </c>
       <c r="F159" t="n">
-        <v>129.38</v>
+        <v>127.38</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -9647,7 +9645,7 @@
         <v>22819.4</v>
       </c>
       <c r="F160" t="n">
-        <v>129.28</v>
+        <v>127.28</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -9673,7 +9671,7 @@
         <v>22415.3</v>
       </c>
       <c r="F161" t="n">
-        <v>129.18</v>
+        <v>127.18</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -9699,7 +9697,7 @@
         <v>23032.4</v>
       </c>
       <c r="F162" t="n">
-        <v>129.08</v>
+        <v>127.08</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -9735,170 +9733,170 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Binding Energy (E)</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>Raw Data</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr"/>
+      <c r="D1" s="28" t="inlineStr"/>
+      <c r="E1" s="28" t="inlineStr"/>
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Residuals</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>Background</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>Calculated Fit</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr">
         <is>
           <t>O1s p1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="28" t="inlineStr">
         <is>
           <t>O1s p2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="L1" s="28" t="inlineStr"/>
+      <c r="M1" s="28" t="inlineStr"/>
+      <c r="N1" s="28" t="inlineStr"/>
+      <c r="O1" s="28" t="inlineStr"/>
+      <c r="P1" s="28" t="inlineStr"/>
+      <c r="Q1" s="28" t="inlineStr"/>
+      <c r="R1" s="28" t="inlineStr"/>
+      <c r="S1" s="28" t="inlineStr"/>
+      <c r="T1" s="28" t="inlineStr"/>
+      <c r="U1" s="28" t="inlineStr"/>
+      <c r="V1" s="28" t="inlineStr"/>
+      <c r="W1" s="28" t="inlineStr"/>
+      <c r="X1" s="29" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="30" t="inlineStr">
         <is>
           <t>Peak
 Label</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>Position
 (eV)</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AA1" s="30" t="inlineStr">
         <is>
           <t>Height
 (CPS)</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="30" t="inlineStr">
         <is>
           <t>FWHM
 (eV)</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AC1" s="30" t="inlineStr">
         <is>
           <t xml:space="preserve">σ/γ (%)
 L/G 
 </t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AD1" s="30" t="inlineStr">
         <is>
           <t>Area
 (CPS.eV)</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AE1" s="30" t="inlineStr">
         <is>
           <t>σ
 W_g</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AF1" s="30" t="inlineStr">
         <is>
           <t>γ
 W_l</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="30" t="inlineStr">
         <is>
           <t>W_g
 Skew</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="30" t="inlineStr">
         <is>
           <t>Conc.
 (%)</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AI1" s="30" t="inlineStr">
         <is>
           <t>A/Aᴀ</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AJ1" s="30" t="inlineStr">
         <is>
           <t>Split
 (eV)</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AK1" s="30" t="inlineStr">
         <is>
           <t>Fitting Model</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AL1" s="30" t="inlineStr">
         <is>
           <t>Bkg Type</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AM1" s="30" t="inlineStr">
         <is>
           <t>Bkg Low
 (eV)</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AN1" s="30" t="inlineStr">
         <is>
           <t>Bkg High
 (eV)</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AO1" s="30" t="inlineStr">
         <is>
           <t>Bkg Offset Low
 (CPS)</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="28" t="inlineStr">
         <is>
           <t>Bkg Offset High
 (CPS)</t>
@@ -9913,108 +9911,116 @@
         <v>45763.7</v>
       </c>
       <c r="F2" t="n">
-        <v>545.08</v>
+        <v>546.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-31.76653761666239</v>
       </c>
       <c r="H2" t="n">
         <v>45763.7</v>
       </c>
       <c r="I2" t="n">
-        <v>45763.7</v>
+        <v>45795.46653761666</v>
       </c>
       <c r="J2" t="n">
-        <v>45763.7</v>
+        <v>45789.7446679789</v>
       </c>
       <c r="K2" t="n">
-        <v>45763.7</v>
-      </c>
-      <c r="X2" s="5" t="inlineStr">
+        <v>45769.42186963776</v>
+      </c>
+      <c r="X2" s="32" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Y2" s="33" t="inlineStr">
         <is>
           <t>O1s p1</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="inlineStr">
-        <is>
-          <t>529.11</t>
-        </is>
-      </c>
-      <c r="AA2" s="6" t="inlineStr">
-        <is>
-          <t>135281</t>
-        </is>
-      </c>
-      <c r="AB2" s="6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="AC2" s="6" t="inlineStr">
-        <is>
-          <t>48.36</t>
-        </is>
-      </c>
-      <c r="AD2" s="6" t="inlineStr">
-        <is>
-          <t>167043</t>
-        </is>
-      </c>
-      <c r="AE2" s="6" t="n"/>
-      <c r="AF2" s="6" t="n"/>
-      <c r="AG2" s="6" t="inlineStr">
+      <c r="Z2" s="33" t="inlineStr">
+        <is>
+          <t>530.11</t>
+        </is>
+      </c>
+      <c r="AA2" s="33" t="inlineStr">
+        <is>
+          <t>134086</t>
+        </is>
+      </c>
+      <c r="AB2" s="33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="AC2" s="33" t="inlineStr">
+        <is>
+          <t>19.68</t>
+        </is>
+      </c>
+      <c r="AD2" s="33" t="inlineStr">
+        <is>
+          <t>173572</t>
+        </is>
+      </c>
+      <c r="AE2" s="33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AF2" s="33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="AG2" s="33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH2" s="6" t="inlineStr">
-        <is>
-          <t>70.9</t>
-        </is>
-      </c>
-      <c r="AI2" s="6" t="inlineStr">
+      <c r="AH2" s="33" t="inlineStr">
+        <is>
+          <t>71.2</t>
+        </is>
+      </c>
+      <c r="AI2" s="33" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="AJ2" s="6" t="inlineStr">
+      <c r="AJ2" s="33" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AK2" s="6" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL2" s="6" t="inlineStr">
+      <c r="AK2" s="33" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ)</t>
+        </is>
+      </c>
+      <c r="AL2" s="33" t="inlineStr">
         <is>
           <t>Multi-Regions Smart</t>
         </is>
       </c>
-      <c r="AM2" s="6" t="inlineStr">
+      <c r="AM2" s="33" t="inlineStr">
         <is>
           <t>525.08</t>
         </is>
       </c>
-      <c r="AN2" s="6" t="inlineStr">
+      <c r="AN2" s="33" t="inlineStr">
         <is>
           <t>545.08</t>
         </is>
       </c>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AP2" s="7" t="inlineStr">
-        <is>
-          <t>0.00</t>
+      <c r="AO2" s="33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10026,66 +10032,73 @@
         <v>46726.9</v>
       </c>
       <c r="F3" t="n">
-        <v>544.98</v>
+        <v>545.98</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-32.17991848922975</v>
       </c>
       <c r="H3" t="n">
         <v>46726.9</v>
       </c>
       <c r="I3" t="n">
-        <v>46726.9</v>
+        <v>46759.07991848923</v>
       </c>
       <c r="J3" t="n">
-        <v>45763.7</v>
+        <v>46753.27459070223</v>
       </c>
       <c r="K3" t="n">
-        <v>45763.7</v>
-      </c>
-      <c r="X3" s="8" t="n"/>
-      <c r="Y3" s="9" t="n"/>
-      <c r="Z3" s="9" t="inlineStr">
-        <is>
-          <t>525.08,545.08</t>
-        </is>
-      </c>
-      <c r="AA3" s="9" t="inlineStr">
+        <v>46732.70532778701</v>
+      </c>
+      <c r="X3" s="35" t="inlineStr"/>
+      <c r="Y3" s="36" t="inlineStr"/>
+      <c r="Z3" s="36" t="inlineStr">
+        <is>
+          <t>526.08,546.08</t>
+        </is>
+      </c>
+      <c r="AA3" s="36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB3" s="9" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC3" s="9" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AD3" s="9" t="inlineStr">
+      <c r="AB3" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC3" s="36" t="inlineStr">
+        <is>
+          <t>1:80</t>
+        </is>
+      </c>
+      <c r="AD3" s="36" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="9" t="n"/>
-      <c r="AF3" s="9" t="n"/>
-      <c r="AG3" s="9" t="inlineStr">
+      <c r="AE3" s="36" t="inlineStr">
+        <is>
+          <t>0.01:3</t>
+        </is>
+      </c>
+      <c r="AF3" s="36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH3" s="9" t="n"/>
-      <c r="AI3" s="9" t="n"/>
-      <c r="AJ3" s="9" t="n"/>
-      <c r="AK3" s="9" t="n"/>
-      <c r="AL3" s="9" t="n"/>
-      <c r="AM3" s="9" t="n"/>
-      <c r="AN3" s="9" t="n"/>
-      <c r="AO3" s="9" t="n"/>
-      <c r="AP3" s="10" t="n"/>
+      <c r="AG3" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" s="36" t="inlineStr"/>
+      <c r="AI3" s="36" t="inlineStr"/>
+      <c r="AJ3" s="36" t="inlineStr"/>
+      <c r="AK3" s="36" t="inlineStr"/>
+      <c r="AL3" s="36" t="inlineStr"/>
+      <c r="AM3" s="36" t="inlineStr"/>
+      <c r="AN3" s="36" t="inlineStr"/>
+      <c r="AO3" s="36" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -10095,108 +10108,116 @@
         <v>46338.7</v>
       </c>
       <c r="F4" t="n">
-        <v>544.88</v>
+        <v>545.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-32.6014631997532</v>
       </c>
       <c r="H4" t="n">
         <v>46338.7</v>
       </c>
       <c r="I4" t="n">
-        <v>46338.7</v>
+        <v>46371.30146319975</v>
       </c>
       <c r="J4" t="n">
-        <v>46726.9</v>
+        <v>46365.41082667698</v>
       </c>
       <c r="K4" t="n">
-        <v>46726.9</v>
-      </c>
-      <c r="X4" s="5" t="inlineStr">
+        <v>46344.59063652276</v>
+      </c>
+      <c r="X4" s="32" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Y4" s="33" t="inlineStr">
         <is>
           <t>O1s p2</t>
         </is>
       </c>
-      <c r="Z4" s="6" t="inlineStr">
-        <is>
-          <t>531.03</t>
-        </is>
-      </c>
-      <c r="AA4" s="6" t="inlineStr">
-        <is>
-          <t>27380</t>
-        </is>
-      </c>
-      <c r="AB4" s="6" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="AC4" s="6" t="inlineStr">
-        <is>
-          <t>55.48</t>
-        </is>
-      </c>
-      <c r="AD4" s="6" t="inlineStr">
-        <is>
-          <t>68490</t>
-        </is>
-      </c>
-      <c r="AE4" s="6" t="n"/>
-      <c r="AF4" s="6" t="n"/>
-      <c r="AG4" s="6" t="inlineStr">
+      <c r="Z4" s="33" t="inlineStr">
+        <is>
+          <t>531.98</t>
+        </is>
+      </c>
+      <c r="AA4" s="33" t="inlineStr">
+        <is>
+          <t>25848</t>
+        </is>
+      </c>
+      <c r="AB4" s="33" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="AC4" s="33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="AD4" s="33" t="inlineStr">
+        <is>
+          <t>70367</t>
+        </is>
+      </c>
+      <c r="AE4" s="33" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="AF4" s="33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AG4" s="33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH4" s="6" t="inlineStr">
-        <is>
-          <t>29.1</t>
-        </is>
-      </c>
-      <c r="AI4" s="6" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="AJ4" s="6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="AK4" s="6" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="AL4" s="6" t="inlineStr">
+      <c r="AH4" s="33" t="inlineStr">
+        <is>
+          <t>28.8</t>
+        </is>
+      </c>
+      <c r="AI4" s="33" t="inlineStr">
+        <is>
+          <t>40.5</t>
+        </is>
+      </c>
+      <c r="AJ4" s="33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="AK4" s="33" t="inlineStr">
+        <is>
+          <t>Voigt (Area, L/G, σ)</t>
+        </is>
+      </c>
+      <c r="AL4" s="33" t="inlineStr">
         <is>
           <t>Multi-Regions Smart</t>
         </is>
       </c>
-      <c r="AM4" s="6" t="inlineStr">
+      <c r="AM4" s="33" t="inlineStr">
         <is>
           <t>525.08</t>
         </is>
       </c>
-      <c r="AN4" s="6" t="inlineStr">
+      <c r="AN4" s="33" t="inlineStr">
         <is>
           <t>545.08</t>
         </is>
       </c>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AP4" s="7" t="inlineStr">
-        <is>
-          <t>0.00</t>
+      <c r="AO4" s="33" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10208,66 +10229,73 @@
         <v>46687</v>
       </c>
       <c r="F5" t="n">
-        <v>544.78</v>
+        <v>545.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-33.03138943931117</v>
       </c>
       <c r="H5" t="n">
         <v>46687</v>
       </c>
       <c r="I5" t="n">
-        <v>46687</v>
+        <v>46720.03138943931</v>
       </c>
       <c r="J5" t="n">
-        <v>46338.7</v>
+        <v>46714.05353812635</v>
       </c>
       <c r="K5" t="n">
-        <v>46338.7</v>
-      </c>
-      <c r="X5" s="8" t="n"/>
-      <c r="Y5" s="9" t="n"/>
-      <c r="Z5" s="9" t="inlineStr">
-        <is>
-          <t>525.08,545.08</t>
-        </is>
-      </c>
-      <c r="AA5" s="9" t="inlineStr">
+        <v>46692.97785131296</v>
+      </c>
+      <c r="X5" s="35" t="inlineStr"/>
+      <c r="Y5" s="36" t="inlineStr"/>
+      <c r="Z5" s="36" t="inlineStr">
+        <is>
+          <t>526.08,546.08</t>
+        </is>
+      </c>
+      <c r="AA5" s="36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" s="9" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AC5" s="9" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AD5" s="9" t="inlineStr">
+      <c r="AB5" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC5" s="36" t="inlineStr">
+        <is>
+          <t>1:80</t>
+        </is>
+      </c>
+      <c r="AD5" s="36" t="inlineStr">
         <is>
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE5" s="9" t="n"/>
-      <c r="AF5" s="9" t="n"/>
-      <c r="AG5" s="9" t="inlineStr">
+      <c r="AE5" s="36" t="inlineStr">
+        <is>
+          <t>0.01:3</t>
+        </is>
+      </c>
+      <c r="AF5" s="36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AH5" s="9" t="n"/>
-      <c r="AI5" s="9" t="n"/>
-      <c r="AJ5" s="9" t="n"/>
-      <c r="AK5" s="9" t="n"/>
-      <c r="AL5" s="9" t="n"/>
-      <c r="AM5" s="9" t="n"/>
-      <c r="AN5" s="9" t="n"/>
-      <c r="AO5" s="9" t="n"/>
-      <c r="AP5" s="10" t="n"/>
+      <c r="AG5" s="36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" s="36" t="inlineStr"/>
+      <c r="AI5" s="36" t="inlineStr"/>
+      <c r="AJ5" s="36" t="inlineStr"/>
+      <c r="AK5" s="36" t="inlineStr"/>
+      <c r="AL5" s="36" t="inlineStr"/>
+      <c r="AM5" s="36" t="inlineStr"/>
+      <c r="AN5" s="36" t="inlineStr"/>
+      <c r="AO5" s="36" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -10277,22 +10305,22 @@
         <v>46636.4</v>
       </c>
       <c r="F6" t="n">
-        <v>544.6799999999999</v>
+        <v>545.6799999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-33.4699222544441</v>
       </c>
       <c r="H6" t="n">
         <v>46636.4</v>
       </c>
       <c r="I6" t="n">
-        <v>46636.4</v>
+        <v>46669.86992225445</v>
       </c>
       <c r="J6" t="n">
-        <v>46687</v>
+        <v>46663.80289252142</v>
       </c>
       <c r="K6" t="n">
-        <v>46687</v>
+        <v>46642.46702973303</v>
       </c>
     </row>
     <row r="7">
@@ -10303,22 +10331,22 @@
         <v>46404.6</v>
       </c>
       <c r="F7" t="n">
-        <v>544.58</v>
+        <v>545.58</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-33.9172943498852</v>
       </c>
       <c r="H7" t="n">
         <v>46404.6</v>
       </c>
       <c r="I7" t="n">
-        <v>46404.6</v>
+        <v>46438.51729434988</v>
       </c>
       <c r="J7" t="n">
-        <v>46636.4</v>
+        <v>46432.35906278637</v>
       </c>
       <c r="K7" t="n">
-        <v>46636.4</v>
+        <v>46410.75823156351</v>
       </c>
     </row>
     <row r="8">
@@ -10329,22 +10357,22 @@
         <v>47747</v>
       </c>
       <c r="F8" t="n">
-        <v>544.48</v>
+        <v>545.48</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-34.37374640594498</v>
       </c>
       <c r="H8" t="n">
         <v>47747</v>
       </c>
       <c r="I8" t="n">
-        <v>47747</v>
+        <v>47781.37374640594</v>
       </c>
       <c r="J8" t="n">
-        <v>46404.6</v>
+        <v>47775.12222751319</v>
       </c>
       <c r="K8" t="n">
-        <v>46404.6</v>
+        <v>47753.25151889276</v>
       </c>
     </row>
     <row r="9">
@@ -10355,22 +10383,22 @@
         <v>45229.4</v>
       </c>
       <c r="F9" t="n">
-        <v>544.38</v>
+        <v>545.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-34.83952741162648</v>
       </c>
       <c r="H9" t="n">
         <v>45229.4</v>
       </c>
       <c r="I9" t="n">
-        <v>45229.4</v>
+        <v>45264.23952741163</v>
       </c>
       <c r="J9" t="n">
-        <v>47747</v>
+        <v>45257.8925711861</v>
       </c>
       <c r="K9" t="n">
-        <v>47747</v>
+        <v>45235.74695622553</v>
       </c>
     </row>
     <row r="10">
@@ -10381,22 +10409,22 @@
         <v>46400.1</v>
       </c>
       <c r="F10" t="n">
-        <v>544.28</v>
+        <v>545.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-35.31489501414762</v>
       </c>
       <c r="H10" t="n">
         <v>46400.1</v>
       </c>
       <c r="I10" t="n">
-        <v>46400.1</v>
+        <v>46435.41489501415</v>
       </c>
       <c r="J10" t="n">
-        <v>45229.4</v>
+        <v>46428.97028441666</v>
       </c>
       <c r="K10" t="n">
-        <v>45229.4</v>
+        <v>46406.54461059748</v>
       </c>
     </row>
     <row r="11">
@@ -10407,22 +10435,22 @@
         <v>47015.4</v>
       </c>
       <c r="F11" t="n">
-        <v>544.1799999999999</v>
+        <v>545.1799999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-35.80011588596244</v>
       </c>
       <c r="H11" t="n">
         <v>47015.4</v>
       </c>
       <c r="I11" t="n">
-        <v>47015.4</v>
+        <v>47051.20011588596</v>
       </c>
       <c r="J11" t="n">
-        <v>46400.1</v>
+        <v>47044.65556418978</v>
       </c>
       <c r="K11" t="n">
-        <v>46400.1</v>
+        <v>47021.94455169619</v>
       </c>
     </row>
     <row r="12">
@@ -10433,22 +10461,22 @@
         <v>47330.1</v>
       </c>
       <c r="F12" t="n">
-        <v>544.08</v>
+        <v>545.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-36.2954661102267</v>
       </c>
       <c r="H12" t="n">
         <v>47330.1</v>
       </c>
       <c r="I12" t="n">
-        <v>47330.1</v>
+        <v>47366.39546611023</v>
       </c>
       <c r="J12" t="n">
-        <v>47015.4</v>
+        <v>47359.74861412131</v>
       </c>
       <c r="K12" t="n">
-        <v>47015.4</v>
+        <v>47336.74685198892</v>
       </c>
     </row>
     <row r="13">
@@ -10459,22 +10487,22 @@
         <v>47281.4</v>
       </c>
       <c r="F13" t="n">
-        <v>543.98</v>
+        <v>544.98</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-36.80123158582137</v>
       </c>
       <c r="H13" t="n">
         <v>47281.4</v>
       </c>
       <c r="I13" t="n">
-        <v>47281.4</v>
+        <v>47318.20123158582</v>
       </c>
       <c r="J13" t="n">
-        <v>47330.1</v>
+        <v>47311.449644728</v>
       </c>
       <c r="K13" t="n">
-        <v>47330.1</v>
+        <v>47288.15158685783</v>
       </c>
     </row>
     <row r="14">
@@ -10485,22 +10513,22 @@
         <v>46775.6</v>
       </c>
       <c r="F14" t="n">
-        <v>543.88</v>
+        <v>544.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-37.31770845302526</v>
       </c>
       <c r="H14" t="n">
         <v>46775.6</v>
       </c>
       <c r="I14" t="n">
-        <v>46775.6</v>
+        <v>46812.91770845302</v>
       </c>
       <c r="J14" t="n">
-        <v>47281.4</v>
+        <v>46806.0588737102</v>
       </c>
       <c r="K14" t="n">
-        <v>47281.4</v>
+        <v>46782.45883474282</v>
       </c>
     </row>
     <row r="15">
@@ -10511,22 +10539,22 @@
         <v>46993.4</v>
       </c>
       <c r="F15" t="n">
-        <v>543.78</v>
+        <v>544.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-37.84520354124106</v>
       </c>
       <c r="H15" t="n">
         <v>46993.4</v>
       </c>
       <c r="I15" t="n">
-        <v>46993.4</v>
+        <v>47031.24520354124</v>
       </c>
       <c r="J15" t="n">
-        <v>46775.6</v>
+        <v>47024.27652624839</v>
       </c>
       <c r="K15" t="n">
-        <v>46775.6</v>
+        <v>47000.36867729286</v>
       </c>
     </row>
     <row r="16">
@@ -10537,22 +10565,22 @@
         <v>47547.8</v>
       </c>
       <c r="F16" t="n">
-        <v>543.6799999999999</v>
+        <v>544.6799999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-38.38403483979346</v>
       </c>
       <c r="H16" t="n">
         <v>47547.8</v>
       </c>
       <c r="I16" t="n">
-        <v>47547.8</v>
+        <v>47586.1840348398</v>
       </c>
       <c r="J16" t="n">
-        <v>46993.4</v>
+        <v>47579.10283531386</v>
       </c>
       <c r="K16" t="n">
-        <v>46993.4</v>
+        <v>47554.88119952594</v>
       </c>
     </row>
     <row r="17">
@@ -10563,22 +10591,22 @@
         <v>47962.4</v>
       </c>
       <c r="F17" t="n">
-        <v>543.58</v>
+        <v>544.58</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-38.93453199360374</v>
       </c>
       <c r="H17" t="n">
         <v>47962.4</v>
       </c>
       <c r="I17" t="n">
-        <v>47962.4</v>
+        <v>48001.33453199361</v>
       </c>
       <c r="J17" t="n">
-        <v>47547.8</v>
+        <v>47994.1380419948</v>
       </c>
       <c r="K17" t="n">
-        <v>47547.8</v>
+        <v>47969.59648999881</v>
       </c>
     </row>
     <row r="18">
@@ -10589,22 +10617,22 @@
         <v>47990.3</v>
       </c>
       <c r="F18" t="n">
-        <v>543.48</v>
+        <v>544.48</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-39.49703682478139</v>
       </c>
       <c r="H18" t="n">
         <v>47990.3</v>
       </c>
       <c r="I18" t="n">
-        <v>47990.3</v>
+        <v>48029.79703682478</v>
       </c>
       <c r="J18" t="n">
-        <v>47962.4</v>
+        <v>48022.48239583823</v>
       </c>
       <c r="K18" t="n">
-        <v>47962.4</v>
+        <v>47997.61464098656</v>
       </c>
     </row>
     <row r="19">
@@ -10615,22 +10643,22 @@
         <v>48070.3</v>
       </c>
       <c r="F19" t="n">
-        <v>543.38</v>
+        <v>544.38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-40.07190388223535</v>
       </c>
       <c r="H19" t="n">
         <v>48070.3</v>
       </c>
       <c r="I19" t="n">
-        <v>48070.3</v>
+        <v>48110.37190388224</v>
       </c>
       <c r="J19" t="n">
-        <v>47990.3</v>
+        <v>48102.93615520903</v>
       </c>
       <c r="K19" t="n">
-        <v>47990.3</v>
+        <v>48077.73574867321</v>
       </c>
     </row>
     <row r="20">
@@ -10641,22 +10669,22 @@
         <v>48922.9</v>
       </c>
       <c r="F20" t="n">
-        <v>543.28</v>
+        <v>544.28</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-40.65950102057832</v>
       </c>
       <c r="H20" t="n">
         <v>48922.9</v>
       </c>
       <c r="I20" t="n">
-        <v>48922.9</v>
+        <v>48963.55950102058</v>
       </c>
       <c r="J20" t="n">
-        <v>48070.3</v>
+        <v>48955.99958766679</v>
       </c>
       <c r="K20" t="n">
-        <v>48070.3</v>
+        <v>48930.45991335379</v>
       </c>
     </row>
     <row r="21">
@@ -10667,22 +10695,22 @@
         <v>47680.8</v>
       </c>
       <c r="F21" t="n">
-        <v>543.1799999999999</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-41.26021001056506</v>
       </c>
       <c r="H21" t="n">
         <v>47680.8</v>
       </c>
       <c r="I21" t="n">
-        <v>47680.8</v>
+        <v>47722.06021001057</v>
       </c>
       <c r="J21" t="n">
-        <v>48922.9</v>
+        <v>47714.37297036165</v>
       </c>
       <c r="K21" t="n">
-        <v>48922.9</v>
+        <v>47688.48723964892</v>
       </c>
     </row>
     <row r="22">
@@ -10693,22 +10721,22 @@
         <v>47754.4</v>
       </c>
       <c r="F22" t="n">
-        <v>543.08</v>
+        <v>544.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>-41.87442718272359</v>
       </c>
       <c r="H22" t="n">
         <v>47754.4</v>
       </c>
       <c r="I22" t="n">
-        <v>47754.40000000001</v>
+        <v>47796.27442718273</v>
       </c>
       <c r="J22" t="n">
-        <v>47680.8</v>
+        <v>47788.45659045014</v>
       </c>
       <c r="K22" t="n">
-        <v>47680.8</v>
+        <v>47762.21783673258</v>
       </c>
     </row>
     <row r="23">
@@ -10719,22 +10747,22 @@
         <v>48211.7</v>
       </c>
       <c r="F23" t="n">
-        <v>542.98</v>
+        <v>543.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>-42.50256410652219</v>
       </c>
       <c r="H23" t="n">
         <v>48211.7</v>
       </c>
       <c r="I23" t="n">
-        <v>48211.7</v>
+        <v>48254.20256410652</v>
       </c>
       <c r="J23" t="n">
-        <v>47754.4</v>
+        <v>48246.25074553231</v>
       </c>
       <c r="K23" t="n">
-        <v>47754.40000000001</v>
+        <v>48219.65181857421</v>
       </c>
     </row>
     <row r="24">
@@ -10745,22 +10773,22 @@
         <v>47863.3</v>
       </c>
       <c r="F24" t="n">
-        <v>542.88</v>
+        <v>543.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>-43.14504830731312</v>
       </c>
       <c r="H24" t="n">
         <v>47863.3</v>
       </c>
       <c r="I24" t="n">
-        <v>47863.30000000002</v>
+        <v>47906.44504830732</v>
       </c>
       <c r="J24" t="n">
-        <v>48211.7</v>
+        <v>47898.3557441112</v>
       </c>
       <c r="K24" t="n">
-        <v>48211.7</v>
+        <v>47871.38930419612</v>
       </c>
     </row>
     <row r="25">
@@ -10771,22 +10799,22 @@
         <v>47621.9</v>
       </c>
       <c r="F25" t="n">
-        <v>542.78</v>
+        <v>543.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.182787284255028e-11</v>
+        <v>-43.80232402338879</v>
       </c>
       <c r="H25" t="n">
         <v>47621.9</v>
       </c>
       <c r="I25" t="n">
-        <v>47621.90000000002</v>
+        <v>47665.70232402339</v>
       </c>
       <c r="J25" t="n">
-        <v>47863.3</v>
+        <v>47657.4719060762</v>
       </c>
       <c r="K25" t="n">
-        <v>47863.30000000002</v>
+        <v>47630.13041794719</v>
       </c>
     </row>
     <row r="26">
@@ -10797,22 +10825,22 @@
         <v>46922.5</v>
       </c>
       <c r="F26" t="n">
-        <v>542.6799999999999</v>
+        <v>543.6799999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.637978807091713e-11</v>
+        <v>-44.47485300597327</v>
       </c>
       <c r="H26" t="n">
         <v>46922.5</v>
       </c>
       <c r="I26" t="n">
-        <v>46922.50000000004</v>
+        <v>46966.97485300597</v>
       </c>
       <c r="J26" t="n">
-        <v>47621.9</v>
+        <v>46958.59956321156</v>
       </c>
       <c r="K26" t="n">
-        <v>47621.90000000002</v>
+        <v>46930.87528979441</v>
       </c>
     </row>
     <row r="27">
@@ -10823,22 +10851,22 @@
         <v>46828.6</v>
       </c>
       <c r="F27" t="n">
-        <v>542.58</v>
+        <v>543.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>-45.16311536487046</v>
       </c>
       <c r="H27" t="n">
         <v>46828.6</v>
       </c>
       <c r="I27" t="n">
-        <v>46828.60000000006</v>
+        <v>46873.76311536487</v>
       </c>
       <c r="J27" t="n">
-        <v>46922.5</v>
+        <v>46865.23905973166</v>
       </c>
       <c r="K27" t="n">
-        <v>46922.50000000004</v>
+        <v>46837.1240556332</v>
       </c>
     </row>
     <row r="28">
@@ -10849,22 +10877,22 @@
         <v>46541.6</v>
       </c>
       <c r="F28" t="n">
-        <v>542.48</v>
+        <v>543.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-9.458744898438454e-11</v>
+        <v>-45.86761046283209</v>
       </c>
       <c r="H28" t="n">
         <v>46541.6</v>
       </c>
       <c r="I28" t="n">
-        <v>46541.60000000009</v>
+        <v>46587.46761046283</v>
       </c>
       <c r="J28" t="n">
-        <v>46828.6</v>
+        <v>46578.79075284458</v>
       </c>
       <c r="K28" t="n">
-        <v>46828.60000000006</v>
+        <v>46550.27685761825</v>
       </c>
     </row>
     <row r="29">
@@ -10875,22 +10903,22 @@
         <v>46921.1</v>
       </c>
       <c r="F29" t="n">
-        <v>542.38</v>
+        <v>543.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.600710675120354e-10</v>
+        <v>-46.58885786196333</v>
       </c>
       <c r="H29" t="n">
         <v>46921.1</v>
       </c>
       <c r="I29" t="n">
-        <v>46921.10000000016</v>
+        <v>46967.68885786196</v>
       </c>
       <c r="J29" t="n">
-        <v>46541.6</v>
+        <v>46958.85501334572</v>
       </c>
       <c r="K29" t="n">
-        <v>46541.60000000009</v>
+        <v>46929.93384451624</v>
       </c>
     </row>
     <row r="30">
@@ -10901,22 +10929,22 @@
         <v>47045.9</v>
       </c>
       <c r="F30" t="n">
-        <v>542.28</v>
+        <v>543.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.764863893389702e-10</v>
+        <v>-47.32739832577499</v>
       </c>
       <c r="H30" t="n">
         <v>47045.9</v>
       </c>
       <c r="I30" t="n">
-        <v>47045.90000000028</v>
+        <v>47093.22739832578</v>
       </c>
       <c r="J30" t="n">
-        <v>46921.1</v>
+        <v>47084.23222624345</v>
       </c>
       <c r="K30" t="n">
-        <v>46921.10000000016</v>
+        <v>47054.89517208232</v>
       </c>
     </row>
     <row r="31">
@@ -10927,22 +10955,22 @@
         <v>47351.3</v>
       </c>
       <c r="F31" t="n">
-        <v>542.1799999999999</v>
+        <v>543.1799999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.583853296935558e-10</v>
+        <v>-48.0837948805638</v>
       </c>
       <c r="H31" t="n">
         <v>47351.3</v>
       </c>
       <c r="I31" t="n">
-        <v>47351.30000000046</v>
+        <v>47399.38379488057</v>
       </c>
       <c r="J31" t="n">
-        <v>47045.9</v>
+        <v>47390.2227914185</v>
       </c>
       <c r="K31" t="n">
-        <v>47045.90000000028</v>
+        <v>47360.46100346207</v>
       </c>
     </row>
     <row r="32">
@@ -10953,22 +10981,22 @@
         <v>46947.9</v>
       </c>
       <c r="F32" t="n">
-        <v>542.08</v>
+        <v>543.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.712515071034431e-10</v>
+        <v>-48.85863394044281</v>
       </c>
       <c r="H32" t="n">
         <v>46947.9</v>
       </c>
       <c r="I32" t="n">
-        <v>46947.90000000077</v>
+        <v>46996.75863394044</v>
       </c>
       <c r="J32" t="n">
-        <v>47351.3</v>
+        <v>46987.42712431949</v>
       </c>
       <c r="K32" t="n">
-        <v>47351.30000000046</v>
+        <v>46957.23150962096</v>
       </c>
     </row>
     <row r="33">
@@ -10979,22 +11007,22 @@
         <v>47201.2</v>
       </c>
       <c r="F33" t="n">
-        <v>541.98</v>
+        <v>542.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.280568540096283e-09</v>
+        <v>-49.65252650027833</v>
       </c>
       <c r="H33" t="n">
         <v>47201.2</v>
       </c>
       <c r="I33" t="n">
-        <v>47201.20000000128</v>
+        <v>47250.85252650028</v>
       </c>
       <c r="J33" t="n">
-        <v>46947.9</v>
+        <v>47241.34565669667</v>
       </c>
       <c r="K33" t="n">
-        <v>46947.90000000077</v>
+        <v>47210.7068698036</v>
       </c>
     </row>
     <row r="34">
@@ -11005,22 +11033,22 @@
         <v>47402.3</v>
       </c>
       <c r="F34" t="n">
-        <v>541.88</v>
+        <v>542.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.117303665727377e-09</v>
+        <v>-50.46610940167011</v>
       </c>
       <c r="H34" t="n">
         <v>47402.3</v>
       </c>
       <c r="I34" t="n">
-        <v>47402.30000000212</v>
+        <v>47452.76610940167</v>
       </c>
       <c r="J34" t="n">
-        <v>47201.2</v>
+        <v>47443.07883737644</v>
       </c>
       <c r="K34" t="n">
-        <v>47201.20000000128</v>
+        <v>47411.98727202524</v>
       </c>
     </row>
     <row r="35">
@@ -11031,22 +11059,22 @@
         <v>46781.3</v>
       </c>
       <c r="F35" t="n">
-        <v>541.78</v>
+        <v>542.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.492459654808044e-09</v>
+        <v>-51.30004667684261</v>
       </c>
       <c r="H35" t="n">
         <v>46781.3</v>
       </c>
       <c r="I35" t="n">
-        <v>46781.3000000035</v>
+        <v>46832.60004667685</v>
       </c>
       <c r="J35" t="n">
-        <v>47402.3</v>
+        <v>46822.72713307905</v>
       </c>
       <c r="K35" t="n">
-        <v>47402.30000000212</v>
+        <v>46791.1729135978</v>
       </c>
     </row>
     <row r="36">
@@ -11057,22 +11085,22 @@
         <v>47433.4</v>
       </c>
       <c r="F36" t="n">
-        <v>541.6799999999999</v>
+        <v>542.6799999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.740730557590723e-09</v>
+        <v>-52.15503097645706</v>
       </c>
       <c r="H36" t="n">
         <v>47433.4</v>
       </c>
       <c r="I36" t="n">
-        <v>47433.40000000574</v>
+        <v>47485.55503097646</v>
       </c>
       <c r="J36" t="n">
-        <v>46781.3</v>
+        <v>47475.49102928258</v>
       </c>
       <c r="K36" t="n">
-        <v>46781.3000000035</v>
+        <v>47443.46400169388</v>
       </c>
     </row>
     <row r="37">
@@ -11083,22 +11111,22 @@
         <v>46591.5</v>
       </c>
       <c r="F37" t="n">
-        <v>541.58</v>
+        <v>542.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-9.400537237524986e-09</v>
+        <v>-53.03178508729616</v>
       </c>
       <c r="H37" t="n">
         <v>46591.5</v>
       </c>
       <c r="I37" t="n">
-        <v>46591.5000000094</v>
+        <v>46644.5317850873</v>
       </c>
       <c r="J37" t="n">
-        <v>47433.4</v>
+        <v>46634.27103113594</v>
       </c>
       <c r="K37" t="n">
-        <v>47433.40000000574</v>
+        <v>46601.76075395136</v>
       </c>
     </row>
     <row r="38">
@@ -11109,22 +11137,22 @@
         <v>47057.5</v>
       </c>
       <c r="F38" t="n">
-        <v>541.48</v>
+        <v>542.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.530861482024193e-08</v>
+        <v>-53.93106354656629</v>
       </c>
       <c r="H38" t="n">
         <v>47057.5</v>
       </c>
       <c r="I38" t="n">
-        <v>47057.50000001531</v>
+        <v>47111.43106354657</v>
       </c>
       <c r="J38" t="n">
-        <v>46591.5</v>
+        <v>47100.9676644242</v>
       </c>
       <c r="K38" t="n">
-        <v>46591.5000000094</v>
+        <v>47067.96339912237</v>
       </c>
     </row>
     <row r="39">
@@ -11135,22 +11163,22 @@
         <v>46964.3</v>
       </c>
       <c r="F39" t="n">
-        <v>541.38</v>
+        <v>542.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.483284333720803e-08</v>
+        <v>-54.85365436004213</v>
       </c>
       <c r="H39" t="n">
         <v>46964.3</v>
       </c>
       <c r="I39" t="n">
-        <v>46964.30000002484</v>
+        <v>47019.15365436005</v>
       </c>
       <c r="J39" t="n">
-        <v>47057.5</v>
+        <v>47008.48147658969</v>
       </c>
       <c r="K39" t="n">
-        <v>47057.50000001531</v>
+        <v>46974.97217777036</v>
       </c>
     </row>
     <row r="40">
@@ -11161,22 +11189,22 @@
         <v>48107.6</v>
       </c>
       <c r="F40" t="n">
-        <v>541.28</v>
+        <v>542.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.010507836937904e-08</v>
+        <v>-55.80038083205727</v>
       </c>
       <c r="H40" t="n">
         <v>48107.6</v>
       </c>
       <c r="I40" t="n">
-        <v>48107.6000000401</v>
+        <v>48163.40038083206</v>
       </c>
       <c r="J40" t="n">
-        <v>46964.3</v>
+        <v>48152.51303781267</v>
       </c>
       <c r="K40" t="n">
-        <v>46964.30000002484</v>
+        <v>48118.48734301938</v>
       </c>
     </row>
     <row r="41">
@@ -11187,22 +11215,22 @@
         <v>47256.7</v>
       </c>
       <c r="F41" t="n">
-        <v>541.1799999999999</v>
+        <v>542.1799999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.450136424973607e-08</v>
+        <v>-56.77210351575195</v>
       </c>
       <c r="H41" t="n">
         <v>47256.7</v>
       </c>
       <c r="I41" t="n">
-        <v>47256.7000000645</v>
+        <v>47313.47210351575</v>
       </c>
       <c r="J41" t="n">
-        <v>48107.6</v>
+        <v>47302.3629421555</v>
       </c>
       <c r="K41" t="n">
-        <v>48107.60000004011</v>
+        <v>47267.80916136024</v>
       </c>
     </row>
     <row r="42">
@@ -11213,22 +11241,22 @@
         <v>46274.8</v>
       </c>
       <c r="F42" t="n">
-        <v>541.08</v>
+        <v>542.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.032894942909479e-07</v>
+        <v>-57.76972229310923</v>
       </c>
       <c r="H42" t="n">
         <v>46274.8</v>
       </c>
       <c r="I42" t="n">
-        <v>46274.80000010329</v>
+        <v>46332.56972229311</v>
       </c>
       <c r="J42" t="n">
-        <v>47256.7</v>
+        <v>46321.23180877457</v>
       </c>
       <c r="K42" t="n">
-        <v>47256.7000000645</v>
+        <v>46286.13791351855</v>
       </c>
     </row>
     <row r="43">
@@ -11239,22 +11267,22 @@
         <v>46851.9</v>
       </c>
       <c r="F43" t="n">
-        <v>540.98</v>
+        <v>541.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.646913005970418e-07</v>
+        <v>-58.79417859492969</v>
       </c>
       <c r="H43" t="n">
         <v>46851.9</v>
       </c>
       <c r="I43" t="n">
-        <v>46851.90000016469</v>
+        <v>46910.69417859493</v>
       </c>
       <c r="J43" t="n">
-        <v>46274.8</v>
+        <v>46899.12028320471</v>
       </c>
       <c r="K43" t="n">
-        <v>46274.80000010329</v>
+        <v>46863.47389539022</v>
       </c>
     </row>
     <row r="44">
@@ -11265,22 +11293,22 @@
         <v>46646.7</v>
       </c>
       <c r="F44" t="n">
-        <v>540.88</v>
+        <v>541.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.614760887809098e-07</v>
+        <v>-59.84645777185506</v>
       </c>
       <c r="H44" t="n">
         <v>46646.7</v>
       </c>
       <c r="I44" t="n">
-        <v>46646.70000026147</v>
+        <v>46706.54645777185</v>
       </c>
       <c r="J44" t="n">
-        <v>46851.9</v>
+        <v>46694.72903872114</v>
       </c>
       <c r="K44" t="n">
-        <v>46851.9000001647</v>
+        <v>46658.51741905071</v>
       </c>
     </row>
     <row r="45">
@@ -11291,22 +11319,22 @@
         <v>45538.9</v>
       </c>
       <c r="F45" t="n">
-        <v>540.78</v>
+        <v>541.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.133617039769888e-07</v>
+        <v>-60.92759162876609</v>
       </c>
       <c r="H45" t="n">
         <v>45538.9</v>
       </c>
       <c r="I45" t="n">
-        <v>45538.90000041336</v>
+        <v>45599.82759162877</v>
       </c>
       <c r="J45" t="n">
-        <v>46646.7</v>
+        <v>45587.75877778413</v>
       </c>
       <c r="K45" t="n">
-        <v>46646.70000026147</v>
+        <v>45550.96881384464</v>
       </c>
     </row>
     <row r="46">
@@ -11317,22 +11345,22 @@
         <v>46497.2</v>
       </c>
       <c r="F46" t="n">
-        <v>540.6799999999999</v>
+        <v>541.6799999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.506816134788096e-07</v>
+        <v>-62.03866113581898</v>
       </c>
       <c r="H46" t="n">
         <v>46497.2</v>
       </c>
       <c r="I46" t="n">
-        <v>46497.20000065068</v>
+        <v>46559.23866113582</v>
       </c>
       <c r="J46" t="n">
-        <v>45538.9</v>
+        <v>46546.91023357243</v>
       </c>
       <c r="K46" t="n">
-        <v>45538.90000041337</v>
+        <v>46509.52842756338</v>
       </c>
     </row>
     <row r="47">
@@ -11343,22 +11371,22 @@
         <v>47188.7</v>
       </c>
       <c r="F47" t="n">
-        <v>540.58</v>
+        <v>541.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.019900082610548e-06</v>
+        <v>-63.18079933080298</v>
       </c>
       <c r="H47" t="n">
         <v>47188.7</v>
       </c>
       <c r="I47" t="n">
-        <v>47188.7000010199</v>
+        <v>47251.8807993308</v>
       </c>
       <c r="J47" t="n">
-        <v>46497.2</v>
+        <v>47239.28417161161</v>
       </c>
       <c r="K47" t="n">
-        <v>46497.20000065069</v>
+        <v>47201.29662771919</v>
       </c>
     </row>
     <row r="48">
@@ -11369,22 +11397,22 @@
         <v>46594.4</v>
       </c>
       <c r="F48" t="n">
-        <v>540.48</v>
+        <v>541.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.591804903000593e-06</v>
+        <v>-64.35519442887016</v>
       </c>
       <c r="H48" t="n">
         <v>46594.4</v>
       </c>
       <c r="I48" t="n">
-        <v>46594.40000159181</v>
+        <v>46658.75519442887</v>
       </c>
       <c r="J48" t="n">
-        <v>47188.7</v>
+        <v>46645.88139150414</v>
       </c>
       <c r="K48" t="n">
-        <v>47188.70000101991</v>
+        <v>46607.27380292473</v>
       </c>
     </row>
     <row r="49">
@@ -11395,22 +11423,22 @@
         <v>45738.4</v>
       </c>
       <c r="F49" t="n">
-        <v>540.38</v>
+        <v>541.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.473832864779979e-06</v>
+        <v>-65.56309315732506</v>
       </c>
       <c r="H49" t="n">
         <v>45738.4</v>
       </c>
       <c r="I49" t="n">
-        <v>45738.40000247383</v>
+        <v>45803.96309315733</v>
       </c>
       <c r="J49" t="n">
-        <v>46594.4</v>
+        <v>45790.80272876853</v>
       </c>
       <c r="K49" t="n">
-        <v>46594.40000159183</v>
+        <v>45751.5603643888</v>
       </c>
     </row>
     <row r="50">
@@ -11421,22 +11449,22 @@
         <v>45499.2</v>
       </c>
       <c r="F50" t="n">
-        <v>540.28</v>
+        <v>541.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.828252374660224e-06</v>
+        <v>-66.8058043349738</v>
       </c>
       <c r="H50" t="n">
         <v>45499.2</v>
       </c>
       <c r="I50" t="n">
-        <v>45499.20000382825</v>
+        <v>45566.00580433497</v>
       </c>
       <c r="J50" t="n">
-        <v>45738.4</v>
+        <v>45552.54905679556</v>
       </c>
       <c r="K50" t="n">
-        <v>45738.40000247387</v>
+        <v>45512.65674753941</v>
       </c>
     </row>
     <row r="51">
@@ -11447,22 +11475,22 @@
         <v>45977.5</v>
       </c>
       <c r="F51" t="n">
-        <v>540.1799999999999</v>
+        <v>541.1799999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.899055395275354e-06</v>
+        <v>-68.0847027172349</v>
       </c>
       <c r="H51" t="n">
         <v>45977.5</v>
       </c>
       <c r="I51" t="n">
-        <v>45977.50000589906</v>
+        <v>46045.58470271723</v>
       </c>
       <c r="J51" t="n">
-        <v>45499.2</v>
+        <v>46031.82128893</v>
       </c>
       <c r="K51" t="n">
-        <v>45499.20000382831</v>
+        <v>45991.26341378724</v>
       </c>
     </row>
     <row r="52">
@@ -11473,22 +11501,22 @@
         <v>45482.6</v>
       </c>
       <c r="F52" t="n">
-        <v>540.08</v>
+        <v>541.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.051451343111694e-06</v>
+        <v>-69.40123313102231</v>
       </c>
       <c r="H52" t="n">
         <v>45482.6</v>
       </c>
       <c r="I52" t="n">
-        <v>45482.60000905145</v>
+        <v>45552.00123313102</v>
       </c>
       <c r="J52" t="n">
-        <v>45977.5</v>
+        <v>45537.9203806874</v>
       </c>
       <c r="K52" t="n">
-        <v>45977.50000589914</v>
+        <v>45496.68085244362</v>
       </c>
     </row>
     <row r="53">
@@ -11499,22 +11527,22 @@
         <v>45679.8</v>
       </c>
       <c r="F53" t="n">
-        <v>539.98</v>
+        <v>540.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.382959453621879e-05</v>
+        <v>-70.75691492517217</v>
       </c>
       <c r="H53" t="n">
         <v>45679.8</v>
       </c>
       <c r="I53" t="n">
-        <v>45679.8000138296</v>
+        <v>45750.55691492518</v>
       </c>
       <c r="J53" t="n">
-        <v>45482.6</v>
+        <v>45736.14733211587</v>
       </c>
       <c r="K53" t="n">
-        <v>45482.60000905158</v>
+        <v>45694.20958280931</v>
       </c>
     </row>
     <row r="54">
@@ -11525,22 +11553,22 @@
         <v>44395.1</v>
       </c>
       <c r="F54" t="n">
-        <v>539.88</v>
+        <v>540.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.104058512486517e-05</v>
+        <v>-72.15334676557541</v>
       </c>
       <c r="H54" t="n">
         <v>44395.1</v>
       </c>
       <c r="I54" t="n">
-        <v>44395.10002104058</v>
+        <v>44467.25334676557</v>
       </c>
       <c r="J54" t="n">
-        <v>45679.8</v>
+        <v>44452.50319031378</v>
       </c>
       <c r="K54" t="n">
-        <v>45679.80001382979</v>
+        <v>44409.85015645179</v>
       </c>
     </row>
     <row r="55">
@@ -11551,22 +11579,22 @@
         <v>45122.1</v>
       </c>
       <c r="F55" t="n">
-        <v>539.78</v>
+        <v>540.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.187614493072033e-05</v>
+        <v>-73.59221180708118</v>
       </c>
       <c r="H55" t="n">
         <v>45122.1</v>
       </c>
       <c r="I55" t="n">
-        <v>45122.10003187614</v>
+        <v>45195.69221180708</v>
       </c>
       <c r="J55" t="n">
-        <v>44395.1</v>
+        <v>45180.58905211555</v>
       </c>
       <c r="K55" t="n">
-        <v>44395.1000210409</v>
+        <v>45137.20315969153</v>
       </c>
     </row>
     <row r="56">
@@ -11577,22 +11605,22 @@
         <v>44310</v>
       </c>
       <c r="F56" t="n">
-        <v>539.6799999999999</v>
+        <v>540.6799999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.808784433407709e-05</v>
+        <v>-75.07528327775799</v>
       </c>
       <c r="H56" t="n">
         <v>44310</v>
       </c>
       <c r="I56" t="n">
-        <v>44310.00004808784</v>
+        <v>44385.07528327776</v>
       </c>
       <c r="J56" t="n">
-        <v>45122.1</v>
+        <v>44369.60606695814</v>
       </c>
       <c r="K56" t="n">
-        <v>45122.10003187661</v>
+        <v>44325.46921631962</v>
       </c>
     </row>
     <row r="57">
@@ -11603,22 +11631,22 @@
         <v>44337.1</v>
       </c>
       <c r="F57" t="n">
-        <v>539.58</v>
+        <v>540.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.223846478154883e-05</v>
+        <v>-76.60443051529728</v>
       </c>
       <c r="H57" t="n">
         <v>44337.1</v>
       </c>
       <c r="I57" t="n">
-        <v>44337.10007223846</v>
+        <v>44413.7044305153</v>
       </c>
       <c r="J57" t="n">
-        <v>44310</v>
+        <v>44397.85543994251</v>
       </c>
       <c r="K57" t="n">
-        <v>44310.00004808854</v>
+        <v>44352.94899057278</v>
       </c>
     </row>
     <row r="58">
@@ -11629,22 +11657,22 @@
         <v>43303.6</v>
       </c>
       <c r="F58" t="n">
-        <v>539.48</v>
+        <v>540.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.000108060659840703</v>
+        <v>-78.18162549976114</v>
       </c>
       <c r="H58" t="n">
         <v>43303.6</v>
       </c>
       <c r="I58" t="n">
-        <v>43303.60010806066</v>
+        <v>43381.78162549976</v>
       </c>
       <c r="J58" t="n">
-        <v>44337.1</v>
+        <v>43365.53843510541</v>
       </c>
       <c r="K58" t="n">
-        <v>44337.10007223952</v>
+        <v>43319.84319039435</v>
       </c>
     </row>
     <row r="59">
@@ -11655,22 +11683,22 @@
         <v>43176.2</v>
       </c>
       <c r="F59" t="n">
-        <v>539.38</v>
+        <v>540.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0001609663013368845</v>
+        <v>-79.80894993219408</v>
       </c>
       <c r="H59" t="n">
         <v>43176.2</v>
       </c>
       <c r="I59" t="n">
-        <v>43176.2001609663</v>
+        <v>43256.00894993219</v>
       </c>
       <c r="J59" t="n">
-        <v>43303.6</v>
+        <v>43239.35637891798</v>
       </c>
       <c r="K59" t="n">
-        <v>43303.60010806224</v>
+        <v>43192.85257101421</v>
       </c>
     </row>
     <row r="60">
@@ -11681,22 +11709,22 @@
         <v>42995.6</v>
       </c>
       <c r="F60" t="n">
-        <v>539.28</v>
+        <v>540.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0002387662316323258</v>
+        <v>-81.48860291451274</v>
       </c>
       <c r="H60" t="n">
         <v>42995.6</v>
       </c>
       <c r="I60" t="n">
-        <v>42995.60023876623</v>
+        <v>43077.08860291451</v>
       </c>
       <c r="J60" t="n">
-        <v>43176.2</v>
+        <v>43060.01066402964</v>
       </c>
       <c r="K60" t="n">
-        <v>43176.20016096866</v>
+        <v>43012.67793888487</v>
       </c>
     </row>
     <row r="61">
@@ -11707,22 +11735,22 @@
         <v>42623.1</v>
       </c>
       <c r="F61" t="n">
-        <v>539.1799999999999</v>
+        <v>540.1799999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0003526824511936866</v>
+        <v>-83.22290929281735</v>
       </c>
       <c r="H61" t="n">
         <v>42623.1</v>
       </c>
       <c r="I61" t="n">
-        <v>42623.10035268245</v>
+        <v>42706.32290929282</v>
       </c>
       <c r="J61" t="n">
-        <v>42995.6</v>
+        <v>42688.8027532769</v>
       </c>
       <c r="K61" t="n">
-        <v>42995.60023876972</v>
+        <v>42640.62015601592</v>
       </c>
     </row>
     <row r="62">
@@ -11733,22 +11761,22 @@
         <v>43099.4</v>
       </c>
       <c r="F62" t="n">
-        <v>539.08</v>
+        <v>540.08</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0005187645947444253</v>
+        <v>-85.01432873422891</v>
       </c>
       <c r="H62" t="n">
         <v>43099.4</v>
       </c>
       <c r="I62" t="n">
-        <v>43099.4005187646</v>
+        <v>43184.41432873423</v>
       </c>
       <c r="J62" t="n">
-        <v>42623.1</v>
+        <v>43166.43418397891</v>
       </c>
       <c r="K62" t="n">
-        <v>42623.10035268761</v>
+        <v>43117.38014475532</v>
       </c>
     </row>
     <row r="63">
@@ -11759,22 +11787,22 @@
         <v>42832.8</v>
       </c>
       <c r="F63" t="n">
-        <v>538.98</v>
+        <v>539.98</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0007598623487865552</v>
+        <v>-86.86546561615251</v>
       </c>
       <c r="H63" t="n">
         <v>42832.8</v>
       </c>
       <c r="I63" t="n">
-        <v>42832.80075986235</v>
+        <v>42919.66546561616</v>
       </c>
       <c r="J63" t="n">
-        <v>43099.4</v>
+        <v>42901.20657254346</v>
       </c>
       <c r="K63" t="n">
-        <v>43099.40051877218</v>
+        <v>42851.2588930727</v>
       </c>
     </row>
     <row r="64">
@@ -11785,22 +11813,22 @@
         <v>42906.4</v>
       </c>
       <c r="F64" t="n">
-        <v>538.88</v>
+        <v>539.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.001108358650526498</v>
+        <v>-88.77907981743192</v>
       </c>
       <c r="H64" t="n">
         <v>42906.4</v>
       </c>
       <c r="I64" t="n">
-        <v>42906.40110835865</v>
+        <v>42995.17907981743</v>
       </c>
       <c r="J64" t="n">
-        <v>42832.8</v>
+        <v>42976.22161940931</v>
       </c>
       <c r="K64" t="n">
-        <v>42832.80075987346</v>
+        <v>42925.35746040812</v>
       </c>
     </row>
     <row r="65">
@@ -11811,22 +11839,22 @@
         <v>41538.1</v>
       </c>
       <c r="F65" t="n">
-        <v>538.78</v>
+        <v>539.78</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.001609938408364542</v>
+        <v>-90.75809851291706</v>
       </c>
       <c r="H65" t="n">
         <v>41538.1</v>
       </c>
       <c r="I65" t="n">
-        <v>41538.10160993841</v>
+        <v>41628.85809851292</v>
       </c>
       <c r="J65" t="n">
-        <v>42906.4</v>
+        <v>41609.38111435343</v>
       </c>
       <c r="K65" t="n">
-        <v>42906.40110837486</v>
+        <v>41557.57698415948</v>
       </c>
     </row>
     <row r="66">
@@ -11837,22 +11865,22 @@
         <v>41941.6</v>
       </c>
       <c r="F66" t="n">
-        <v>538.6799999999999</v>
+        <v>539.6799999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.002328759321244434</v>
+        <v>-92.80562908697902</v>
       </c>
       <c r="H66" t="n">
         <v>41941.6</v>
       </c>
       <c r="I66" t="n">
-        <v>41941.60232875932</v>
+        <v>42034.40562908698</v>
       </c>
       <c r="J66" t="n">
-        <v>41538.1</v>
+        <v>42014.38694219412</v>
       </c>
       <c r="K66" t="n">
-        <v>41538.10160996194</v>
+        <v>41961.61868689286</v>
       </c>
     </row>
     <row r="67">
@@ -11863,22 +11891,22 @@
         <v>40284.7</v>
       </c>
       <c r="F67" t="n">
-        <v>538.58</v>
+        <v>539.58</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.003354511572979391</v>
+        <v>-94.92497329838807</v>
       </c>
       <c r="H67" t="n">
         <v>40284.7</v>
       </c>
       <c r="I67" t="n">
-        <v>40284.70335451157</v>
+        <v>40379.62497329839</v>
       </c>
       <c r="J67" t="n">
-        <v>41941.6</v>
+        <v>40359.0410889243</v>
       </c>
       <c r="K67" t="n">
-        <v>41941.60232879337</v>
+        <v>40305.28388437408</v>
       </c>
     </row>
     <row r="68">
@@ -11889,22 +11917,22 @@
         <v>41792.5</v>
       </c>
       <c r="F68" t="n">
-        <v>538.48</v>
+        <v>539.48</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004812008221051656</v>
+        <v>-97.11964284873102</v>
       </c>
       <c r="H68" t="n">
         <v>41792.5</v>
       </c>
       <c r="I68" t="n">
-        <v>41792.50481200822</v>
+        <v>41889.61964284873</v>
       </c>
       <c r="J68" t="n">
-        <v>40284.7</v>
+        <v>41868.44564831266</v>
       </c>
       <c r="K68" t="n">
-        <v>40284.70335456062</v>
+        <v>41813.67399453608</v>
       </c>
     </row>
     <row r="69">
@@ -11915,22 +11943,22 @@
         <v>41865.3</v>
       </c>
       <c r="F69" t="n">
-        <v>538.38</v>
+        <v>539.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.00687414900312433</v>
+        <v>-99.39337652994436</v>
       </c>
       <c r="H69" t="n">
         <v>41865.3</v>
       </c>
       <c r="I69" t="n">
-        <v>41865.30687414901</v>
+        <v>41964.69337652995</v>
       </c>
       <c r="J69" t="n">
-        <v>41792.5</v>
+        <v>41942.90282901368</v>
       </c>
       <c r="K69" t="n">
-        <v>41792.50481207858</v>
+        <v>41887.09054751627</v>
       </c>
     </row>
     <row r="70">
@@ -11941,22 +11969,22 @@
         <v>40219</v>
       </c>
       <c r="F70" t="n">
-        <v>538.28</v>
+        <v>539.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.009779356521903537</v>
+        <v>-101.750159155592</v>
       </c>
       <c r="H70" t="n">
         <v>40219</v>
       </c>
       <c r="I70" t="n">
-        <v>40219.00977935652</v>
+        <v>40320.75015915559</v>
       </c>
       <c r="J70" t="n">
-        <v>41865.3</v>
+        <v>40298.31496223227</v>
       </c>
       <c r="K70" t="n">
-        <v>41865.30687424952</v>
+        <v>40241.43519692332</v>
       </c>
     </row>
     <row r="71">
@@ -11967,22 +11995,22 @@
         <v>41229.2</v>
       </c>
       <c r="F71" t="n">
-        <v>538.1799999999999</v>
+        <v>539.1799999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.01385491041583009</v>
+        <v>-104.1942425157613</v>
       </c>
       <c r="H71" t="n">
         <v>41229.2</v>
       </c>
       <c r="I71" t="n">
-        <v>41229.21385491041</v>
+        <v>41333.39424251576</v>
       </c>
       <c r="J71" t="n">
-        <v>40219</v>
+        <v>41310.28450999287</v>
       </c>
       <c r="K71" t="n">
-        <v>40219.00977949951</v>
+        <v>41252.30973252288</v>
       </c>
     </row>
     <row r="72">
@@ -11993,22 +12021,22 @@
         <v>41217.1</v>
       </c>
       <c r="F72" t="n">
-        <v>538.08</v>
+        <v>539.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.0195480180773302</v>
+        <v>-106.730168639202</v>
       </c>
       <c r="H72" t="n">
         <v>41217.1</v>
       </c>
       <c r="I72" t="n">
-        <v>41217.11954801808</v>
+        <v>41323.8301686392</v>
       </c>
       <c r="J72" t="n">
-        <v>41229.2</v>
+        <v>41300.01407406853</v>
       </c>
       <c r="K72" t="n">
-        <v>41229.21385511299</v>
+        <v>41240.91609457067</v>
       </c>
     </row>
     <row r="73">
@@ -12019,22 +12047,22 @@
         <v>40096</v>
       </c>
       <c r="F73" t="n">
-        <v>537.98</v>
+        <v>538.98</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.02746697851398494</v>
+        <v>-109.362795702531</v>
       </c>
       <c r="H73" t="n">
         <v>40096</v>
       </c>
       <c r="I73" t="n">
-        <v>40096.02746697851</v>
+        <v>40205.36279570253</v>
       </c>
       <c r="J73" t="n">
-        <v>41217.1</v>
+        <v>40180.80640563062</v>
       </c>
       <c r="K73" t="n">
-        <v>41217.1195483039</v>
+        <v>40120.55639007191</v>
       </c>
     </row>
     <row r="74">
@@ -12045,22 +12073,22 @@
         <v>41375.3</v>
       </c>
       <c r="F74" t="n">
-        <v>537.88</v>
+        <v>538.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.03843544294068124</v>
+        <v>-112.0973269984897</v>
       </c>
       <c r="H74" t="n">
         <v>41375.3</v>
       </c>
       <c r="I74" t="n">
-        <v>41375.33843544294</v>
+        <v>41487.39732699849</v>
       </c>
       <c r="J74" t="n">
-        <v>40096</v>
+        <v>41462.06441568698</v>
       </c>
       <c r="K74" t="n">
-        <v>40096.02746738013</v>
+        <v>41400.63291131151</v>
       </c>
     </row>
     <row r="75">
@@ -12071,22 +12099,22 @@
         <v>42743.3</v>
       </c>
       <c r="F75" t="n">
-        <v>537.78</v>
+        <v>538.78</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05356357645359822</v>
+        <v>-114.9393434709855</v>
       </c>
       <c r="H75" t="n">
         <v>42743.3</v>
       </c>
       <c r="I75" t="n">
-        <v>42743.35356357646</v>
+        <v>42858.23934347099</v>
       </c>
       <c r="J75" t="n">
-        <v>41375.3</v>
+        <v>42832.09118638284</v>
       </c>
       <c r="K75" t="n">
-        <v>41375.33843600493</v>
+        <v>42769.44815708815</v>
       </c>
     </row>
     <row r="76">
@@ -12097,22 +12125,22 @@
         <v>41739.3</v>
       </c>
       <c r="F76" t="n">
-        <v>537.6799999999999</v>
+        <v>538.6799999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.07434091082541272</v>
+        <v>-117.8948404531402</v>
       </c>
       <c r="H76" t="n">
         <v>41739.3</v>
       </c>
       <c r="I76" t="n">
-        <v>41739.37434091083</v>
+        <v>41857.19484045314</v>
       </c>
       <c r="J76" t="n">
-        <v>42743.3</v>
+        <v>41830.18998324744</v>
       </c>
       <c r="K76" t="n">
-        <v>42743.35356435964</v>
+        <v>41766.3048572057</v>
       </c>
     </row>
     <row r="77">
@@ -12123,22 +12151,22 @@
         <v>41779.1</v>
       </c>
       <c r="F77" t="n">
-        <v>537.58</v>
+        <v>538.58</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.102756882122776</v>
+        <v>-120.9702694213483</v>
       </c>
       <c r="H77" t="n">
         <v>41779.1</v>
       </c>
       <c r="I77" t="n">
-        <v>41779.20275688212</v>
+        <v>41900.07026942135</v>
       </c>
       <c r="J77" t="n">
-        <v>41739.3</v>
+        <v>41872.16426847791</v>
       </c>
       <c r="K77" t="n">
-        <v>41739.37434199781</v>
+        <v>41807.00600094343</v>
       </c>
     </row>
     <row r="78">
@@ -12149,22 +12177,22 @@
         <v>42431.9</v>
       </c>
       <c r="F78" t="n">
-        <v>537.48</v>
+        <v>538.48</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1414565063241753</v>
+        <v>-124.1725858241043</v>
       </c>
       <c r="H78" t="n">
         <v>42431.9</v>
       </c>
       <c r="I78" t="n">
-        <v>42432.04145650633</v>
+        <v>42556.07258582411</v>
       </c>
       <c r="J78" t="n">
-        <v>41779.1</v>
+        <v>42527.21771536252</v>
       </c>
       <c r="K78" t="n">
-        <v>41779.20275838458</v>
+        <v>42460.75487046159</v>
       </c>
     </row>
     <row r="79">
@@ -12175,22 +12203,22 @@
         <v>42881</v>
       </c>
       <c r="F79" t="n">
-        <v>537.38</v>
+        <v>538.38</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.193940402714361</v>
+        <v>-127.5093043917441</v>
       </c>
       <c r="H79" t="n">
         <v>42881</v>
       </c>
       <c r="I79" t="n">
-        <v>42881.19394040271</v>
+        <v>43008.50930439174</v>
       </c>
       <c r="J79" t="n">
-        <v>42431.9</v>
+        <v>42978.65422395638</v>
       </c>
       <c r="K79" t="n">
-        <v>42432.04145857464</v>
+        <v>42910.85508043537</v>
       </c>
     </row>
     <row r="80">
@@ -12201,22 +12229,22 @@
         <v>41384.7</v>
       </c>
       <c r="F80" t="n">
-        <v>537.28</v>
+        <v>538.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2648204720098875</v>
+        <v>-130.9885638278793</v>
       </c>
       <c r="H80" t="n">
         <v>41384.7</v>
       </c>
       <c r="I80" t="n">
-        <v>41384.96482047201</v>
+        <v>41515.68856382788</v>
       </c>
       <c r="J80" t="n">
-        <v>42881</v>
+        <v>41484.7779381362</v>
       </c>
       <c r="K80" t="n">
-        <v>42881.19394323843</v>
+        <v>41415.61062569168</v>
       </c>
     </row>
     <row r="81">
@@ -12227,22 +12255,22 @@
         <v>40732</v>
       </c>
       <c r="F81" t="n">
-        <v>537.1799999999999</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3601450210844632</v>
+        <v>-134.6192034919295</v>
       </c>
       <c r="H81" t="n">
         <v>40732</v>
       </c>
       <c r="I81" t="n">
-        <v>40732.36014502108</v>
+        <v>40866.61920349193</v>
       </c>
       <c r="J81" t="n">
-        <v>41384.7</v>
+        <v>40834.5932641745</v>
       </c>
       <c r="K81" t="n">
-        <v>41384.9648243441</v>
+        <v>40764.02593931743</v>
       </c>
     </row>
     <row r="82">
@@ -12253,22 +12281,22 @@
         <v>42223.1</v>
       </c>
       <c r="F82" t="n">
-        <v>537.08</v>
+        <v>538.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4878100451969658</v>
+        <v>-138.410855700422</v>
       </c>
       <c r="H82" t="n">
         <v>42223.1</v>
       </c>
       <c r="I82" t="n">
-        <v>42223.5878100452</v>
+        <v>42361.51085570042</v>
       </c>
       <c r="J82" t="n">
-        <v>40732</v>
+        <v>42328.30489099063</v>
       </c>
       <c r="K82" t="n">
-        <v>40732.36015028697</v>
+        <v>42256.30596470979</v>
       </c>
     </row>
     <row r="83">
@@ -12279,22 +12307,22 @@
         <v>41680.1</v>
       </c>
       <c r="F83" t="n">
-        <v>536.98</v>
+        <v>537.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.6580767788909725</v>
+        <v>-142.3740587361099</v>
       </c>
       <c r="H83" t="n">
         <v>41680.1</v>
       </c>
       <c r="I83" t="n">
-        <v>41680.75807677889</v>
+        <v>41822.47405873611</v>
       </c>
       <c r="J83" t="n">
-        <v>42223.1</v>
+        <v>41788.01781225447</v>
       </c>
       <c r="K83" t="n">
-        <v>42223.58781717774</v>
+        <v>41714.55624648164</v>
       </c>
     </row>
     <row r="84">
@@ -12305,22 +12333,22 @@
         <v>42359.5</v>
       </c>
       <c r="F84" t="n">
-        <v>536.88</v>
+        <v>537.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.8842195519828238</v>
+        <v>-146.5203977446799</v>
       </c>
       <c r="H84" t="n">
         <v>42359.5</v>
       </c>
       <c r="I84" t="n">
-        <v>42360.38421955198</v>
+        <v>42506.02039774468</v>
       </c>
       <c r="J84" t="n">
-        <v>41680.1</v>
+        <v>42470.23735053941</v>
       </c>
       <c r="K84" t="n">
-        <v>41680.758086401</v>
+        <v>42395.28304720527</v>
       </c>
     </row>
     <row r="85">
@@ -12331,22 +12359,22 @@
         <v>42169.3</v>
       </c>
       <c r="F85" t="n">
-        <v>536.78</v>
+        <v>537.78</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.183332475717179</v>
+        <v>-150.8626836737603</v>
       </c>
       <c r="H85" t="n">
         <v>42169.3</v>
       </c>
       <c r="I85" t="n">
-        <v>42170.48333247572</v>
+        <v>42320.16268367376</v>
       </c>
       <c r="J85" t="n">
-        <v>42359.5</v>
+        <v>42282.96918374561</v>
       </c>
       <c r="K85" t="n">
-        <v>42360.38423248066</v>
+        <v>42206.49349992815</v>
       </c>
     </row>
     <row r="86">
@@ -12357,22 +12385,22 @@
         <v>42478.2</v>
       </c>
       <c r="F86" t="n">
-        <v>536.6799999999999</v>
+        <v>537.6799999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.577328566723736</v>
+        <v>-155.4151846078312</v>
       </c>
       <c r="H86" t="n">
         <v>42478.2</v>
       </c>
       <c r="I86" t="n">
-        <v>42479.77732856672</v>
+        <v>42633.61518460783</v>
       </c>
       <c r="J86" t="n">
-        <v>42169.3</v>
+        <v>42594.91937404137</v>
       </c>
       <c r="K86" t="n">
-        <v>42170.4833497779</v>
+        <v>42516.89581056646</v>
       </c>
     </row>
     <row r="87">
@@ -12383,22 +12411,22 @@
         <v>42341</v>
       </c>
       <c r="F87" t="n">
-        <v>536.58</v>
+        <v>537.58</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.094170610274887</v>
+        <v>-160.1939297256104</v>
       </c>
       <c r="H87" t="n">
         <v>42341</v>
       </c>
       <c r="I87" t="n">
-        <v>42343.09417061027</v>
+        <v>42501.19392972561</v>
       </c>
       <c r="J87" t="n">
-        <v>42478.2</v>
+        <v>42460.89439960165</v>
       </c>
       <c r="K87" t="n">
-        <v>42479.77735162974</v>
+        <v>42381.29953012396</v>
       </c>
     </row>
     <row r="88">
@@ -12409,22 +12437,22 @@
         <v>42236.1</v>
       </c>
       <c r="F88" t="n">
-        <v>536.48</v>
+        <v>537.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.769379371733521</v>
+        <v>-165.2171142281222</v>
       </c>
       <c r="H88" t="n">
         <v>42236.1</v>
       </c>
       <c r="I88" t="n">
-        <v>42238.86937937173</v>
+        <v>42401.31711422812</v>
       </c>
       <c r="J88" t="n">
-        <v>42341</v>
+        <v>42359.30118945799</v>
       </c>
       <c r="K88" t="n">
-        <v>42343.09420123033</v>
+        <v>42278.11592477013</v>
       </c>
     </row>
     <row r="89">
@@ -12435,22 +12463,22 @@
         <v>43978</v>
       </c>
       <c r="F89" t="n">
-        <v>536.38</v>
+        <v>537.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.647871666093124</v>
+        <v>-170.5056446788076</v>
       </c>
       <c r="H89" t="n">
         <v>43978</v>
       </c>
       <c r="I89" t="n">
-        <v>43981.64787166609</v>
+        <v>44148.50564467881</v>
       </c>
       <c r="J89" t="n">
-        <v>42236.1</v>
+        <v>44104.64716181478</v>
       </c>
       <c r="K89" t="n">
-        <v>42238.8694198644</v>
+        <v>44021.85848286402</v>
       </c>
     </row>
     <row r="90">
@@ -12461,22 +12489,22 @@
         <v>43202.3</v>
       </c>
       <c r="F90" t="n">
-        <v>536.28</v>
+        <v>537.28</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.786188245030644</v>
+        <v>-176.083879137077</v>
       </c>
       <c r="H90" t="n">
         <v>43202.3</v>
       </c>
       <c r="I90" t="n">
-        <v>43207.08618824503</v>
+        <v>43378.38387913708</v>
       </c>
       <c r="J90" t="n">
-        <v>43978</v>
+        <v>43332.54026623287</v>
       </c>
       <c r="K90" t="n">
-        <v>43981.6479250037</v>
+        <v>43248.14361290421</v>
       </c>
     </row>
     <row r="91">
@@ -12487,22 +12515,22 @@
         <v>43182.1</v>
       </c>
       <c r="F91" t="n">
-        <v>536.1799999999999</v>
+        <v>537.1799999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.25517938152916</v>
+        <v>-181.9806362792151</v>
       </c>
       <c r="H91" t="n">
         <v>43182.1</v>
       </c>
       <c r="I91" t="n">
-        <v>43188.35517938153</v>
+        <v>43364.08063627921</v>
       </c>
       <c r="J91" t="n">
-        <v>43202.3</v>
+        <v>43316.08903013488</v>
       </c>
       <c r="K91" t="n">
-        <v>43207.08625822661</v>
+        <v>43230.09160614433</v>
       </c>
     </row>
     <row r="92">
@@ -12513,22 +12541,22 @@
         <v>42938.6</v>
       </c>
       <c r="F92" t="n">
-        <v>536.08</v>
+        <v>537.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.143224310282676</v>
+        <v>-188.2305735298432</v>
       </c>
       <c r="H92" t="n">
         <v>42938.6</v>
       </c>
       <c r="I92" t="n">
-        <v>42946.74322431028</v>
+        <v>43126.83057352984</v>
       </c>
       <c r="J92" t="n">
-        <v>43182.1</v>
+        <v>43076.50261014786</v>
       </c>
       <c r="K92" t="n">
-        <v>43188.35527084206</v>
+        <v>42988.92796338198</v>
       </c>
     </row>
     <row r="93">
@@ -12539,22 +12567,22 @@
         <v>42639.4</v>
       </c>
       <c r="F93" t="n">
-        <v>535.98</v>
+        <v>536.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.56006916040496</v>
+        <v>-194.8760672702629</v>
       </c>
       <c r="H93" t="n">
         <v>42639.4</v>
       </c>
       <c r="I93" t="n">
-        <v>42649.96006916041</v>
+        <v>42834.27606727026</v>
       </c>
       <c r="J93" t="n">
-        <v>42938.6</v>
+        <v>42781.39084886899</v>
       </c>
       <c r="K93" t="n">
-        <v>42946.74334337699</v>
+        <v>42692.28521840127</v>
       </c>
     </row>
     <row r="94">
@@ -12565,22 +12593,22 @@
         <v>43272.7</v>
       </c>
       <c r="F94" t="n">
-        <v>535.88</v>
+        <v>536.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-13.64137649153417</v>
+        <v>-201.9697695814393</v>
       </c>
       <c r="H94" t="n">
         <v>43272.7</v>
       </c>
       <c r="I94" t="n">
-        <v>43286.34137649153</v>
+        <v>43474.66976958144</v>
       </c>
       <c r="J94" t="n">
-        <v>42639.4</v>
+        <v>43418.96433772211</v>
       </c>
       <c r="K94" t="n">
-        <v>42649.96022356518</v>
+        <v>43328.40543185933</v>
       </c>
     </row>
     <row r="95">
@@ -12591,22 +12619,22 @@
         <v>43237.8</v>
       </c>
       <c r="F95" t="n">
-        <v>535.78</v>
+        <v>536.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-17.55408775607793</v>
+        <v>348.4219333918518</v>
       </c>
       <c r="H95" t="n">
-        <v>43237.8</v>
+        <v>42679.8</v>
       </c>
       <c r="I95" t="n">
-        <v>43255.35408775608</v>
+        <v>42889.37806660815</v>
       </c>
       <c r="J95" t="n">
-        <v>43272.7</v>
+        <v>42830.53448666652</v>
       </c>
       <c r="K95" t="n">
-        <v>43286.34157594986</v>
+        <v>42738.64357994164</v>
       </c>
     </row>
     <row r="96">
@@ -12617,22 +12645,22 @@
         <v>42287.2</v>
       </c>
       <c r="F96" t="n">
-        <v>535.6799999999999</v>
+        <v>536.6799999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-22.50270764323068</v>
+        <v>-577.2757238832564</v>
       </c>
       <c r="H96" t="n">
-        <v>42287.2</v>
+        <v>42646.69</v>
       </c>
       <c r="I96" t="n">
-        <v>42309.70270764323</v>
+        <v>42864.47572388325</v>
       </c>
       <c r="J96" t="n">
-        <v>43237.8</v>
+        <v>42802.10360162919</v>
       </c>
       <c r="K96" t="n">
-        <v>43255.35434442438</v>
+        <v>42709.06212225406</v>
       </c>
     </row>
     <row r="97">
@@ -12643,22 +12671,22 @@
         <v>42514.4</v>
       </c>
       <c r="F97" t="n">
-        <v>535.58</v>
+        <v>536.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-28.73662593372865</v>
+        <v>-358.8420733605817</v>
       </c>
       <c r="H97" t="n">
-        <v>42514.4</v>
+        <v>42646.54</v>
       </c>
       <c r="I97" t="n">
-        <v>42543.13662593373</v>
+        <v>42873.24207336058</v>
       </c>
       <c r="J97" t="n">
-        <v>42287.2</v>
+        <v>42806.85497065856</v>
       </c>
       <c r="K97" t="n">
-        <v>42309.70303666812</v>
+        <v>42712.92710270202</v>
       </c>
     </row>
     <row r="98">
@@ -12669,22 +12697,22 @@
         <v>43303.1</v>
       </c>
       <c r="F98" t="n">
-        <v>535.48</v>
+        <v>536.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-36.55859775931458</v>
+        <v>419.7008262835734</v>
       </c>
       <c r="H98" t="n">
-        <v>43303.1</v>
+        <v>42646.93</v>
       </c>
       <c r="I98" t="n">
-        <v>43339.65859775931</v>
+        <v>42883.39917371643</v>
       </c>
       <c r="J98" t="n">
-        <v>42514.4</v>
+        <v>42812.38295994634</v>
       </c>
       <c r="K98" t="n">
-        <v>42543.13704610829</v>
+        <v>42717.94621377009</v>
       </c>
     </row>
     <row r="99">
@@ -12695,22 +12723,22 @@
         <v>42525.3</v>
       </c>
       <c r="F99" t="n">
-        <v>535.38</v>
+        <v>536.38</v>
       </c>
       <c r="G99" t="n">
-        <v>-46.33450649350561</v>
+        <v>-368.4824561283167</v>
       </c>
       <c r="H99" t="n">
-        <v>42525.3</v>
+        <v>42646.51</v>
       </c>
       <c r="I99" t="n">
-        <v>42571.63450649351</v>
+        <v>42893.78245612832</v>
       </c>
       <c r="J99" t="n">
-        <v>43303.1</v>
+        <v>42817.35312103681</v>
       </c>
       <c r="K99" t="n">
-        <v>43339.65913230338</v>
+        <v>42722.93933509151</v>
       </c>
     </row>
     <row r="100">
@@ -12721,22 +12749,22 @@
         <v>42309.5</v>
       </c>
       <c r="F100" t="n">
-        <v>535.28</v>
+        <v>536.28</v>
       </c>
       <c r="G100" t="n">
-        <v>-58.50453429396293</v>
+        <v>-595.9444462927786</v>
       </c>
       <c r="H100" t="n">
-        <v>42309.5</v>
+        <v>42646.09</v>
       </c>
       <c r="I100" t="n">
-        <v>42368.00453429396</v>
+        <v>42905.44444629278</v>
       </c>
       <c r="J100" t="n">
-        <v>42525.3</v>
+        <v>42822.59231074643</v>
       </c>
       <c r="K100" t="n">
-        <v>42571.63518397669</v>
+        <v>42728.94213554634</v>
       </c>
     </row>
     <row r="101">
@@ -12747,22 +12775,22 @@
         <v>43059.2</v>
       </c>
       <c r="F101" t="n">
-        <v>535.1799999999999</v>
+        <v>536.1799999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>-73.59586286973354</v>
+        <v>139.7177789700509</v>
       </c>
       <c r="H101" t="n">
-        <v>43059.2</v>
+        <v>42646.45</v>
       </c>
       <c r="I101" t="n">
-        <v>43132.79586286973</v>
+        <v>42919.48222102995</v>
       </c>
       <c r="J101" t="n">
-        <v>42309.5</v>
+        <v>42828.89882555444</v>
       </c>
       <c r="K101" t="n">
-        <v>42368.00538972205</v>
+        <v>42737.0333954755</v>
       </c>
     </row>
     <row r="102">
@@ -12773,22 +12801,22 @@
         <v>43043.8</v>
       </c>
       <c r="F102" t="n">
-        <v>535.08</v>
+        <v>536.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-92.23702054644673</v>
+        <v>108.7006978249556</v>
       </c>
       <c r="H102" t="n">
-        <v>43043.8</v>
+        <v>42646.38</v>
       </c>
       <c r="I102" t="n">
-        <v>43136.03702054645</v>
+        <v>42935.09930217505</v>
       </c>
       <c r="J102" t="n">
-        <v>43059.2</v>
+        <v>42835.08255250631</v>
       </c>
       <c r="K102" t="n">
-        <v>43132.79693895672</v>
+        <v>42746.39674966873</v>
       </c>
     </row>
     <row r="103">
@@ -12799,22 +12827,22 @@
         <v>43407.5</v>
       </c>
       <c r="F103" t="n">
-        <v>534.98</v>
+        <v>535.98</v>
       </c>
       <c r="G103" t="n">
-        <v>-38.47398019924731</v>
+        <v>454.807304365735</v>
       </c>
       <c r="H103" t="n">
-        <v>43330.8</v>
+        <v>42645.74</v>
       </c>
       <c r="I103" t="n">
-        <v>43445.97398019925</v>
+        <v>42952.69269563426</v>
       </c>
       <c r="J103" t="n">
-        <v>43043.8</v>
+        <v>42841.02513900385</v>
       </c>
       <c r="K103" t="n">
-        <v>43136.03836919642</v>
+        <v>42757.40755663042</v>
       </c>
     </row>
     <row r="104">
@@ -12825,22 +12853,22 @@
         <v>43836</v>
       </c>
       <c r="F104" t="n">
-        <v>534.88</v>
+        <v>535.88</v>
       </c>
       <c r="G104" t="n">
-        <v>398.6445760386341</v>
+        <v>862.7742700405579</v>
       </c>
       <c r="H104" t="n">
-        <v>43294.06732897285</v>
+        <v>42644.8</v>
       </c>
       <c r="I104" t="n">
-        <v>43437.35542396137</v>
+        <v>42973.22572995944</v>
       </c>
       <c r="J104" t="n">
-        <v>43330.8</v>
+        <v>42847.02018424838</v>
       </c>
       <c r="K104" t="n">
-        <v>43445.97566422355</v>
+        <v>42771.00554571106</v>
       </c>
     </row>
     <row r="105">
@@ -12851,22 +12879,22 @@
         <v>42748.9</v>
       </c>
       <c r="F105" t="n">
-        <v>534.78</v>
+        <v>535.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-722.212817634223</v>
+        <v>-248.3772140474393</v>
       </c>
       <c r="H105" t="n">
-        <v>43293.49688392528</v>
+        <v>42643.25</v>
       </c>
       <c r="I105" t="n">
-        <v>43471.11281763422</v>
+        <v>42997.27721404744</v>
       </c>
       <c r="J105" t="n">
-        <v>43294.06732897285</v>
+        <v>42852.78345557155</v>
       </c>
       <c r="K105" t="n">
-        <v>43437.35751905814</v>
+        <v>42787.74375847589</v>
       </c>
     </row>
     <row r="106">
@@ -12877,22 +12905,22 @@
         <v>44018.3</v>
       </c>
       <c r="F106" t="n">
-        <v>534.6799999999999</v>
+        <v>535.6799999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>505.4310184660935</v>
+        <v>991.1928066697947</v>
       </c>
       <c r="H106" t="n">
-        <v>43293.49793826786</v>
+        <v>42642.22</v>
       </c>
       <c r="I106" t="n">
-        <v>43512.86898153391</v>
+        <v>43027.10719333021</v>
       </c>
       <c r="J106" t="n">
-        <v>43293.49688392529</v>
+        <v>42859.47313344508</v>
       </c>
       <c r="K106" t="n">
-        <v>43471.11541465786</v>
+        <v>42809.85405988513</v>
       </c>
     </row>
     <row r="107">
@@ -12903,22 +12931,22 @@
         <v>43313.7</v>
       </c>
       <c r="F107" t="n">
-        <v>534.58</v>
+        <v>535.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-249.5935808420545</v>
+        <v>250.2407858373117</v>
       </c>
       <c r="H107" t="n">
-        <v>43293.325960628</v>
+        <v>42641.03</v>
       </c>
       <c r="I107" t="n">
-        <v>43563.29358084205</v>
+        <v>43063.45921416269</v>
       </c>
       <c r="J107" t="n">
-        <v>43293.49793826787</v>
+        <v>42866.44008962803</v>
       </c>
       <c r="K107" t="n">
-        <v>43512.87218908274</v>
+        <v>42838.04912453465</v>
       </c>
     </row>
     <row r="108">
@@ -12929,22 +12957,22 @@
         <v>43446</v>
       </c>
       <c r="F108" t="n">
-        <v>534.48</v>
+        <v>535.48</v>
       </c>
       <c r="G108" t="n">
-        <v>-177.683550103473</v>
+        <v>338.1715135849663</v>
       </c>
       <c r="H108" t="n">
-        <v>43292.63753639476</v>
+        <v>42639.4</v>
       </c>
       <c r="I108" t="n">
-        <v>43623.68355010347</v>
+        <v>43107.82848641503</v>
       </c>
       <c r="J108" t="n">
-        <v>43293.32596062805</v>
+        <v>42873.43820371102</v>
       </c>
       <c r="K108" t="n">
-        <v>43563.2975281922</v>
+        <v>42873.79028270402</v>
       </c>
     </row>
     <row r="109">
@@ -12955,22 +12983,22 @@
         <v>43612.9</v>
       </c>
       <c r="F109" t="n">
-        <v>534.38</v>
+        <v>535.38</v>
       </c>
       <c r="G109" t="n">
-        <v>-84.07349636506115</v>
+        <v>449.6053489310143</v>
       </c>
       <c r="H109" t="n">
-        <v>43292.47359125551</v>
+        <v>42638.22</v>
       </c>
       <c r="I109" t="n">
-        <v>43696.97349636506</v>
+        <v>43163.29465106899</v>
       </c>
       <c r="J109" t="n">
-        <v>43292.63753639491</v>
+        <v>42881.39472428168</v>
       </c>
       <c r="K109" t="n">
-        <v>43623.68839051547</v>
+        <v>42920.11992678731</v>
       </c>
     </row>
     <row r="110">
@@ -12981,22 +13009,22 @@
         <v>43447.1</v>
       </c>
       <c r="F110" t="n">
-        <v>534.28</v>
+        <v>535.28</v>
       </c>
       <c r="G110" t="n">
-        <v>-337.4379144176564</v>
+        <v>215.2629888023075</v>
       </c>
       <c r="H110" t="n">
-        <v>43292.03300426409</v>
+        <v>42636.8</v>
       </c>
       <c r="I110" t="n">
-        <v>43784.53791441765</v>
+        <v>43231.83701119769</v>
       </c>
       <c r="J110" t="n">
-        <v>43292.473591256</v>
+        <v>42889.66068210389</v>
       </c>
       <c r="K110" t="n">
-        <v>43696.97941078786</v>
+        <v>42978.97632909381</v>
       </c>
     </row>
     <row r="111">
@@ -13007,22 +13035,22 @@
         <v>43401.6</v>
       </c>
       <c r="F111" t="n">
-        <v>534.1799999999999</v>
+        <v>535.1799999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>-487.540788807928</v>
+        <v>84.7009138936628</v>
       </c>
       <c r="H111" t="n">
-        <v>43291.59256685943</v>
+        <v>42635.37</v>
       </c>
       <c r="I111" t="n">
-        <v>43889.14078880793</v>
+        <v>43316.89908610634</v>
       </c>
       <c r="J111" t="n">
-        <v>43292.03300426562</v>
+        <v>42898.51136412095</v>
       </c>
       <c r="K111" t="n">
-        <v>43784.54511561067</v>
+        <v>43053.75772198538</v>
       </c>
     </row>
     <row r="112">
@@ -13033,22 +13061,22 @@
         <v>42751.6</v>
       </c>
       <c r="F112" t="n">
-        <v>534.08</v>
+        <v>535.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-1262.210552928249</v>
+        <v>-670.8882363148587</v>
       </c>
       <c r="H112" t="n">
-        <v>43291.35180408233</v>
+        <v>42634.12</v>
       </c>
       <c r="I112" t="n">
-        <v>44013.81055292825</v>
+        <v>43422.48823631486</v>
       </c>
       <c r="J112" t="n">
-        <v>43291.59256686414</v>
+        <v>42908.18685882337</v>
       </c>
       <c r="K112" t="n">
-        <v>43889.14952589579</v>
+        <v>43148.42137749149</v>
       </c>
     </row>
     <row r="113">
@@ -13059,22 +13087,22 @@
         <v>44118</v>
       </c>
       <c r="F113" t="n">
-        <v>533.98</v>
+        <v>534.98</v>
       </c>
       <c r="G113" t="n">
-        <v>-44.18250092591916</v>
+        <v>564.5650561272632</v>
       </c>
       <c r="H113" t="n">
-        <v>43291.74551112639</v>
+        <v>42633.41</v>
       </c>
       <c r="I113" t="n">
-        <v>44162.18250092592</v>
+        <v>43553.43494387274</v>
       </c>
       <c r="J113" t="n">
-        <v>43291.3518040966</v>
+        <v>42919.10268564079</v>
       </c>
       <c r="K113" t="n">
-        <v>44013.82111639445</v>
+        <v>43267.74225823195</v>
       </c>
     </row>
     <row r="114">
@@ -13085,22 +13113,22 @@
         <v>43680.7</v>
       </c>
       <c r="F114" t="n">
-        <v>533.88</v>
+        <v>534.88</v>
       </c>
       <c r="G114" t="n">
-        <v>-655.8551003863686</v>
+        <v>-33.0752087237488</v>
       </c>
       <c r="H114" t="n">
-        <v>43291.47148335023</v>
+        <v>42632.12</v>
       </c>
       <c r="I114" t="n">
-        <v>44336.55510038637</v>
+        <v>43713.77520872375</v>
       </c>
       <c r="J114" t="n">
-        <v>43291.74551116869</v>
+        <v>42930.20052362623</v>
       </c>
       <c r="K114" t="n">
-        <v>44162.19522803816</v>
+        <v>43415.69468509752</v>
       </c>
     </row>
     <row r="115">
@@ -13111,22 +13139,22 @@
         <v>44875.9</v>
       </c>
       <c r="F115" t="n">
-        <v>533.78</v>
+        <v>534.78</v>
       </c>
       <c r="G115" t="n">
-        <v>335.1399882455298</v>
+        <v>966.701444111146</v>
       </c>
       <c r="H115" t="n">
-        <v>43290.33462811027</v>
+        <v>42630.09</v>
       </c>
       <c r="I115" t="n">
-        <v>44540.76001175447</v>
+        <v>43909.19855588886</v>
       </c>
       <c r="J115" t="n">
-        <v>43291.47148347305</v>
+        <v>42941.38905792637</v>
       </c>
       <c r="K115" t="n">
-        <v>44336.57038102579</v>
+        <v>43597.89949796248</v>
       </c>
     </row>
     <row r="116">
@@ -13137,22 +13165,22 @@
         <v>44036.5</v>
       </c>
       <c r="F116" t="n">
-        <v>533.6799999999999</v>
+        <v>534.6799999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-742.9310566507629</v>
+        <v>-109.8634825914196</v>
       </c>
       <c r="H116" t="n">
-        <v>43288.49453763908</v>
+        <v>42627.46</v>
       </c>
       <c r="I116" t="n">
-        <v>44779.43105665076</v>
+        <v>44146.36348259142</v>
       </c>
       <c r="J116" t="n">
-        <v>43290.33462845969</v>
+        <v>42952.88496654106</v>
       </c>
       <c r="K116" t="n">
-        <v>44540.77829458612</v>
+        <v>43820.93851605036</v>
       </c>
     </row>
     <row r="117">
@@ -13163,22 +13191,22 @@
         <v>44762.2</v>
       </c>
       <c r="F117" t="n">
-        <v>533.58</v>
+        <v>534.58</v>
       </c>
       <c r="G117" t="n">
-        <v>-295.6779306165627</v>
+        <v>329.4980323061682</v>
       </c>
       <c r="H117" t="n">
-        <v>43286.32474112064</v>
+        <v>42624.54</v>
       </c>
       <c r="I117" t="n">
-        <v>45057.87793061656</v>
+        <v>44432.70196769383</v>
       </c>
       <c r="J117" t="n">
-        <v>43288.49453861304</v>
+        <v>42965.08407488586</v>
       </c>
       <c r="K117" t="n">
-        <v>44779.45285550803</v>
+        <v>44092.15789280797</v>
       </c>
     </row>
     <row r="118">
@@ -13189,22 +13217,22 @@
         <v>44397.9</v>
       </c>
       <c r="F118" t="n">
-        <v>533.48</v>
+        <v>534.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-984.030313155461</v>
+        <v>-378.3050799445555</v>
       </c>
       <c r="H118" t="n">
-        <v>43284.25246188632</v>
+        <v>42621.71</v>
       </c>
       <c r="I118" t="n">
-        <v>45381.93031315546</v>
+        <v>44776.20507994456</v>
       </c>
       <c r="J118" t="n">
-        <v>43286.32474378056</v>
+        <v>42978.46271196903</v>
       </c>
       <c r="K118" t="n">
-        <v>45057.90383084385</v>
+        <v>44419.45236797553</v>
       </c>
     </row>
     <row r="119">
@@ -13215,22 +13243,22 @@
         <v>45053.9</v>
       </c>
       <c r="F119" t="n">
-        <v>533.38</v>
+        <v>534.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-703.1097601269139</v>
+        <v>-130.51290492923</v>
       </c>
       <c r="H119" t="n">
-        <v>43281.84039183114</v>
+        <v>42618.58</v>
       </c>
       <c r="I119" t="n">
-        <v>45757.00976012692</v>
+        <v>45184.41290492923</v>
       </c>
       <c r="J119" t="n">
-        <v>43284.25246900412</v>
+        <v>42992.73930995586</v>
       </c>
       <c r="K119" t="n">
-        <v>45381.96097737906</v>
+        <v>44810.25359497337</v>
       </c>
     </row>
     <row r="120">
@@ -13241,22 +13269,22 @@
         <v>46849.7</v>
       </c>
       <c r="F120" t="n">
-        <v>533.28</v>
+        <v>534.28</v>
       </c>
       <c r="G120" t="n">
-        <v>660.2572849672506</v>
+        <v>1184.315922485373</v>
       </c>
       <c r="H120" t="n">
-        <v>43279.12914457225</v>
+        <v>42615.19</v>
       </c>
       <c r="I120" t="n">
-        <v>46189.44271503275</v>
+        <v>45665.38407751462</v>
       </c>
       <c r="J120" t="n">
-        <v>43281.84041049443</v>
+        <v>43008.07629902536</v>
       </c>
       <c r="K120" t="n">
-        <v>45757.0459323231</v>
+        <v>45272.49777848927</v>
       </c>
     </row>
     <row r="121">
@@ -13267,22 +13295,22 @@
         <v>46036.1</v>
       </c>
       <c r="F121" t="n">
-        <v>533.1799999999999</v>
+        <v>534.1799999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-647.811753878028</v>
+        <v>-189.1432145305807</v>
       </c>
       <c r="H121" t="n">
-        <v>43274.14430490348</v>
+        <v>42609.85</v>
       </c>
       <c r="I121" t="n">
-        <v>46683.91175387803</v>
+        <v>46225.24321453058</v>
       </c>
       <c r="J121" t="n">
-        <v>43279.12919252505</v>
+        <v>43022.92236240267</v>
       </c>
       <c r="K121" t="n">
-        <v>46189.48522042989</v>
+        <v>45812.17085212791</v>
       </c>
     </row>
     <row r="122">
@@ -13293,22 +13321,22 @@
         <v>47874</v>
       </c>
       <c r="F122" t="n">
-        <v>533.08</v>
+        <v>534.08</v>
       </c>
       <c r="G122" t="n">
-        <v>625.2965946765544</v>
+        <v>1001.60152938759</v>
       </c>
       <c r="H122" t="n">
-        <v>43268.23499660165</v>
+        <v>42603.71</v>
       </c>
       <c r="I122" t="n">
-        <v>47248.70340532345</v>
+        <v>46872.39847061241</v>
       </c>
       <c r="J122" t="n">
-        <v>43274.14442564066</v>
+        <v>43038.58513319953</v>
       </c>
       <c r="K122" t="n">
-        <v>46683.96148928889</v>
+        <v>46437.52333741288</v>
       </c>
     </row>
     <row r="123">
@@ -13319,22 +13347,22 @@
         <v>47936.6</v>
       </c>
       <c r="F123" t="n">
-        <v>532.98</v>
+        <v>533.98</v>
       </c>
       <c r="G123" t="n">
-        <v>45.75588939979207</v>
+        <v>323.4938291568178</v>
       </c>
       <c r="H123" t="n">
-        <v>43261.34617323051</v>
+        <v>42596.73</v>
       </c>
       <c r="I123" t="n">
-        <v>47890.84411060021</v>
+        <v>47613.10617084318</v>
       </c>
       <c r="J123" t="n">
-        <v>43268.23529451419</v>
+        <v>43055.20443647505</v>
       </c>
       <c r="K123" t="n">
-        <v>47248.76130809931</v>
+        <v>47154.63173436814</v>
       </c>
     </row>
     <row r="124">
@@ -13345,22 +13373,22 @@
         <v>49552.8</v>
       </c>
       <c r="F124" t="n">
-        <v>532.88</v>
+        <v>533.88</v>
       </c>
       <c r="G124" t="n">
-        <v>936.2409400235192</v>
+        <v>1101.235218770809</v>
       </c>
       <c r="H124" t="n">
-        <v>43252.67226340636</v>
+        <v>42588.22</v>
       </c>
       <c r="I124" t="n">
-        <v>48616.55905997648</v>
+        <v>48451.56478122919</v>
       </c>
       <c r="J124" t="n">
-        <v>43261.34689363721</v>
+        <v>43072.29620848896</v>
       </c>
       <c r="K124" t="n">
-        <v>47890.91108070457</v>
+        <v>47967.48857274024</v>
       </c>
     </row>
     <row r="125">
@@ -13371,22 +13399,22 @@
         <v>48649.2</v>
       </c>
       <c r="F125" t="n">
-        <v>532.78</v>
+        <v>533.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-783.5770068041311</v>
+        <v>-741.7660269038679</v>
       </c>
       <c r="H125" t="n">
-        <v>43242.43040540381</v>
+        <v>42578.36</v>
       </c>
       <c r="I125" t="n">
-        <v>49432.77700680413</v>
+        <v>49390.96602690386</v>
       </c>
       <c r="J125" t="n">
-        <v>43252.67397078457</v>
+        <v>43090.27726290948</v>
       </c>
       <c r="K125" t="n">
-        <v>48616.63578100939</v>
+        <v>48879.04876399439</v>
       </c>
     </row>
     <row r="126">
@@ -13397,22 +13425,22 @@
         <v>49804.2</v>
       </c>
       <c r="F126" t="n">
-        <v>532.6799999999999</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-542.2238467543648</v>
+        <v>-628.5563250685882</v>
       </c>
       <c r="H126" t="n">
-        <v>43231.51300959419</v>
+        <v>42567.93</v>
       </c>
       <c r="I126" t="n">
-        <v>50346.42384675436</v>
+        <v>50432.75632506859</v>
       </c>
       <c r="J126" t="n">
-        <v>43242.43437154361</v>
+        <v>43110.20112422511</v>
       </c>
       <c r="K126" t="n">
-        <v>49432.86355317487</v>
+        <v>49890.48520084348</v>
       </c>
     </row>
     <row r="127">
@@ -13423,22 +13451,22 @@
         <v>51714.9</v>
       </c>
       <c r="F127" t="n">
-        <v>532.58</v>
+        <v>533.58</v>
       </c>
       <c r="G127" t="n">
-        <v>352.1571042266369</v>
+        <v>139.7936399003302</v>
       </c>
       <c r="H127" t="n">
-        <v>43220.27522436452</v>
+        <v>42557.22</v>
       </c>
       <c r="I127" t="n">
-        <v>51362.74289577336</v>
+        <v>51575.10636009967</v>
       </c>
       <c r="J127" t="n">
-        <v>43231.52204020934</v>
+        <v>43132.67521678634</v>
       </c>
       <c r="K127" t="n">
-        <v>50346.51884714061</v>
+        <v>50999.65114331334</v>
       </c>
     </row>
     <row r="128">
@@ -13449,22 +13477,22 @@
         <v>52932.4</v>
       </c>
       <c r="F128" t="n">
-        <v>532.48</v>
+        <v>533.48</v>
       </c>
       <c r="G128" t="n">
-        <v>450.0923418693128</v>
+        <v>121.8899447412623</v>
       </c>
       <c r="H128" t="n">
-        <v>43206.13918608351</v>
+        <v>42544.01</v>
       </c>
       <c r="I128" t="n">
-        <v>52482.30765813069</v>
+        <v>52810.51005525874</v>
       </c>
       <c r="J128" t="n">
-        <v>43220.29538035132</v>
+        <v>43155.84979104016</v>
       </c>
       <c r="K128" t="n">
-        <v>51362.84179508579</v>
+        <v>52198.67026421858</v>
       </c>
     </row>
     <row r="129">
@@ -13475,22 +13503,22 @@
         <v>53554</v>
       </c>
       <c r="F129" t="n">
-        <v>532.38</v>
+        <v>533.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-151.7786272437443</v>
+        <v>-576.2258734394127</v>
       </c>
       <c r="H129" t="n">
-        <v>43189.07724306933</v>
+        <v>42528.3</v>
       </c>
       <c r="I129" t="n">
-        <v>53705.77862724374</v>
+        <v>54130.22587343941</v>
       </c>
       <c r="J129" t="n">
-        <v>43206.18328788616</v>
+        <v>43180.15909741166</v>
       </c>
       <c r="K129" t="n">
-        <v>52482.39918769127</v>
+        <v>53478.36677602776</v>
       </c>
     </row>
     <row r="130">
@@ -13501,22 +13529,22 @@
         <v>54877.5</v>
       </c>
       <c r="F130" t="n">
-        <v>532.28</v>
+        <v>533.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-154.1820615186298</v>
+        <v>-645.3828753464186</v>
       </c>
       <c r="H130" t="n">
-        <v>43170.25119379305</v>
+        <v>42511.08</v>
       </c>
       <c r="I130" t="n">
-        <v>55031.68206151863</v>
+        <v>55522.88287534642</v>
       </c>
       <c r="J130" t="n">
-        <v>43189.17184591125</v>
+        <v>43207.10549925443</v>
       </c>
       <c r="K130" t="n">
-        <v>53705.8377934158</v>
+        <v>54826.857376092</v>
       </c>
     </row>
     <row r="131">
@@ -13527,22 +13555,22 @@
         <v>56392.8</v>
       </c>
       <c r="F131" t="n">
-        <v>532.1799999999999</v>
+        <v>533.1799999999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-60.1486120841364</v>
+        <v>-579.5609912055079</v>
       </c>
       <c r="H131" t="n">
-        <v>43149.52419270402</v>
+        <v>42492.22</v>
       </c>
       <c r="I131" t="n">
-        <v>56452.94861208414</v>
+        <v>56972.36099120551</v>
       </c>
       <c r="J131" t="n">
-        <v>43170.45016014502</v>
+        <v>43237.16747458152</v>
       </c>
       <c r="K131" t="n">
-        <v>55031.65652440283</v>
+        <v>56227.41351662399</v>
       </c>
     </row>
     <row r="132">
@@ -13553,22 +13581,22 @@
         <v>58537.3</v>
       </c>
       <c r="F132" t="n">
-        <v>532.08</v>
+        <v>533.08</v>
       </c>
       <c r="G132" t="n">
-        <v>580.8357964872921</v>
+        <v>78.81055559957167</v>
       </c>
       <c r="H132" t="n">
-        <v>43126.04476639436</v>
+        <v>42471</v>
       </c>
       <c r="I132" t="n">
-        <v>57956.46420351271</v>
+        <v>58458.48944440043</v>
       </c>
       <c r="J132" t="n">
-        <v>43149.934507263</v>
+        <v>43270.35283202033</v>
       </c>
       <c r="K132" t="n">
-        <v>56452.732807258</v>
+        <v>57659.1366123801</v>
       </c>
     </row>
     <row r="133">
@@ -13579,22 +13607,22 @@
         <v>59534.7</v>
       </c>
       <c r="F133" t="n">
-        <v>531.98</v>
+        <v>532.98</v>
       </c>
       <c r="G133" t="n">
-        <v>11.78575910785003</v>
+        <v>-423.3993869713086</v>
       </c>
       <c r="H133" t="n">
-        <v>43099.08631671629</v>
+        <v>42446.8</v>
       </c>
       <c r="I133" t="n">
-        <v>59522.91424089215</v>
+        <v>59958.09938697131</v>
       </c>
       <c r="J133" t="n">
-        <v>43126.87452660096</v>
+        <v>43306.91902544392</v>
       </c>
       <c r="K133" t="n">
-        <v>57955.85127273592</v>
+        <v>59097.98036152738</v>
       </c>
     </row>
     <row r="134">
@@ -13605,22 +13633,22 @@
         <v>62828</v>
       </c>
       <c r="F134" t="n">
-        <v>531.88</v>
+        <v>532.88</v>
       </c>
       <c r="G134" t="n">
-        <v>1701.028678326082</v>
+        <v>1381.572943042513</v>
       </c>
       <c r="H134" t="n">
-        <v>43069.03805924368</v>
+        <v>42419.94</v>
       </c>
       <c r="I134" t="n">
-        <v>61126.97132167392</v>
+        <v>61446.42705695749</v>
       </c>
       <c r="J134" t="n">
-        <v>43100.7319220971</v>
+        <v>43348.25330626288</v>
       </c>
       <c r="K134" t="n">
-        <v>59521.50874874588</v>
+        <v>60518.11375069461</v>
       </c>
     </row>
     <row r="135">
@@ -13631,22 +13659,22 @@
         <v>62271</v>
       </c>
       <c r="F135" t="n">
-        <v>531.78</v>
+        <v>532.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-463.4493773585127</v>
+        <v>-624.8329767269315</v>
       </c>
       <c r="H135" t="n">
-        <v>43034.95415063726</v>
+        <v>42389.64</v>
       </c>
       <c r="I135" t="n">
-        <v>62734.44937735851</v>
+        <v>62895.83297672693</v>
       </c>
       <c r="J135" t="n">
-        <v>43072.23900180178</v>
+        <v>43394.88680221318</v>
       </c>
       <c r="K135" t="n">
-        <v>61124.03435822032</v>
+        <v>61890.58617451375</v>
       </c>
     </row>
     <row r="136">
@@ -13657,22 +13685,22 @@
         <v>64611.6</v>
       </c>
       <c r="F136" t="n">
-        <v>531.6799999999999</v>
+        <v>532.6799999999999</v>
       </c>
       <c r="G136" t="n">
-        <v>305.2976208130494</v>
+        <v>331.7578987134693</v>
       </c>
       <c r="H136" t="n">
-        <v>42998.26952378461</v>
+        <v>42357.12</v>
       </c>
       <c r="I136" t="n">
-        <v>64306.30237918695</v>
+        <v>64279.84210128653</v>
       </c>
       <c r="J136" t="n">
-        <v>43041.06151164749</v>
+        <v>43449.6688279218</v>
       </c>
       <c r="K136" t="n">
-        <v>62728.62994662328</v>
+        <v>63187.29327336473</v>
       </c>
     </row>
     <row r="137">
@@ -13683,22 +13711,22 @@
         <v>65370.5</v>
       </c>
       <c r="F137" t="n">
-        <v>531.58</v>
+        <v>532.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-426.2910365206917</v>
+        <v>-201.131119073063</v>
       </c>
       <c r="H137" t="n">
-        <v>42959.71345278985</v>
+        <v>42322.99</v>
       </c>
       <c r="I137" t="n">
-        <v>65796.79103652069</v>
+        <v>65571.63111907306</v>
       </c>
       <c r="J137" t="n">
-        <v>43009.70094362812</v>
+        <v>43515.26153056825</v>
       </c>
       <c r="K137" t="n">
-        <v>64295.18231546394</v>
+        <v>64379.35958850481</v>
       </c>
     </row>
     <row r="138">
@@ -13709,22 +13737,22 @@
         <v>66255.7</v>
       </c>
       <c r="F138" t="n">
-        <v>531.48</v>
+        <v>532.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-899.204707928453</v>
+        <v>-488.6847859114641</v>
       </c>
       <c r="H138" t="n">
-        <v>42918.25065026537</v>
+        <v>42286.38</v>
       </c>
       <c r="I138" t="n">
-        <v>67154.90470792845</v>
+        <v>66744.38478591146</v>
       </c>
       <c r="J138" t="n">
-        <v>42980.70613638378</v>
+        <v>43593.42175682625</v>
       </c>
       <c r="K138" t="n">
-        <v>65776.13189817012</v>
+        <v>65437.34302908521</v>
       </c>
     </row>
     <row r="139">
@@ -13735,22 +13763,22 @@
         <v>67803.5</v>
       </c>
       <c r="F139" t="n">
-        <v>531.38</v>
+        <v>532.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-528.6930517849687</v>
+        <v>27.52297951131186</v>
       </c>
       <c r="H139" t="n">
-        <v>42875.06241856637</v>
+        <v>42248.29</v>
       </c>
       <c r="I139" t="n">
-        <v>68332.19305178497</v>
+        <v>67775.97702048869</v>
       </c>
       <c r="J139" t="n">
-        <v>42956.07838166285</v>
+        <v>43688.57953523226</v>
       </c>
       <c r="K139" t="n">
-        <v>67117.43069012955</v>
+        <v>66335.68748525644</v>
       </c>
     </row>
     <row r="140">
@@ -13761,22 +13789,22 @@
         <v>68556.2</v>
       </c>
       <c r="F140" t="n">
-        <v>531.28</v>
+        <v>532.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-727.6587362324062</v>
+        <v>-90.77058090562059</v>
       </c>
       <c r="H140" t="n">
-        <v>42829.4759307543</v>
+        <v>42208.16</v>
       </c>
       <c r="I140" t="n">
-        <v>69283.8587362324</v>
+        <v>68646.97058090562</v>
       </c>
       <c r="J140" t="n">
-        <v>42941.95585463916</v>
+        <v>43804.76597316319</v>
       </c>
       <c r="K140" t="n">
-        <v>68265.6706641557</v>
+        <v>67050.36460774243</v>
       </c>
     </row>
     <row r="141">
@@ -13787,22 +13815,22 @@
         <v>70081.60000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>531.1799999999999</v>
+        <v>532.1799999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>104.0380866603227</v>
+        <v>737.2187508932839</v>
       </c>
       <c r="H141" t="n">
-        <v>42781.59914207643</v>
+        <v>42166.07</v>
       </c>
       <c r="I141" t="n">
-        <v>69977.56191333968</v>
+        <v>69344.38124910672</v>
       </c>
       <c r="J141" t="n">
-        <v>42945.57979977006</v>
+        <v>43948.39678491142</v>
       </c>
       <c r="K141" t="n">
-        <v>69168.13963284229</v>
+        <v>67562.0544641953</v>
       </c>
     </row>
     <row r="142">
@@ -13813,22 +13841,22 @@
         <v>70306.8</v>
       </c>
       <c r="F142" t="n">
-        <v>531.08</v>
+        <v>532.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-92.44775579599082</v>
+        <v>443.9567873212072</v>
       </c>
       <c r="H142" t="n">
-        <v>42731.50971163717</v>
+        <v>42122.09</v>
       </c>
       <c r="I142" t="n">
-        <v>70399.24775579599</v>
+        <v>69862.8432126788</v>
       </c>
       <c r="J142" t="n">
-        <v>42979.41512822659</v>
+        <v>44128.60540551495</v>
       </c>
       <c r="K142" t="n">
-        <v>69780.14010088993</v>
+        <v>67856.32780716383</v>
       </c>
     </row>
     <row r="143">
@@ -13839,22 +13867,22 @@
         <v>70249.3</v>
       </c>
       <c r="F143" t="n">
-        <v>530.98</v>
+        <v>531.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-310.9014919025358</v>
+        <v>41.86002208734863</v>
       </c>
       <c r="H143" t="n">
-        <v>42679.85878671519</v>
+        <v>42076.79</v>
       </c>
       <c r="I143" t="n">
-        <v>70560.20149190254</v>
+        <v>70207.43997791265</v>
       </c>
       <c r="J143" t="n">
-        <v>43062.40522567827</v>
+        <v>44359.43997791265</v>
       </c>
       <c r="K143" t="n">
-        <v>70068.75097647298</v>
+        <v>67924.78999999999</v>
       </c>
     </row>
     <row r="144">
@@ -13865,22 +13893,22 @@
         <v>71263.39999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>530.88</v>
+        <v>531.88</v>
       </c>
       <c r="G144" t="n">
-        <v>760.7232095465151</v>
+        <v>866.4670180836983</v>
       </c>
       <c r="H144" t="n">
-        <v>42627.83121676077</v>
+        <v>42031.18</v>
       </c>
       <c r="I144" t="n">
-        <v>70502.67679045348</v>
+        <v>70396.9329819163</v>
       </c>
       <c r="J144" t="n">
-        <v>43223.35833675109</v>
+        <v>44662.69517475247</v>
       </c>
       <c r="K144" t="n">
-        <v>70017.10005155118</v>
+        <v>67765.41780716385</v>
       </c>
     </row>
     <row r="145">
@@ -13891,22 +13919,22 @@
         <v>71474.3</v>
       </c>
       <c r="F145" t="n">
-        <v>530.78</v>
+        <v>531.78</v>
       </c>
       <c r="G145" t="n">
-        <v>1172.280822050714</v>
+        <v>1007.606521798822</v>
       </c>
       <c r="H145" t="n">
-        <v>42574.73951991515</v>
+        <v>41984.66</v>
       </c>
       <c r="I145" t="n">
-        <v>70302.01917794929</v>
+        <v>70466.69347820118</v>
       </c>
       <c r="J145" t="n">
-        <v>43504.52800950218</v>
+        <v>45070.70901400639</v>
       </c>
       <c r="K145" t="n">
-        <v>69626.37217557426</v>
+        <v>67380.64446419479</v>
       </c>
     </row>
     <row r="146">
@@ -13917,22 +13945,22 @@
         <v>70025.3</v>
       </c>
       <c r="F146" t="n">
-        <v>530.6799999999999</v>
+        <v>531.6799999999999</v>
       </c>
       <c r="G146" t="n">
-        <v>-47.49067021388328</v>
+        <v>-453.4562961057818</v>
       </c>
       <c r="H146" t="n">
-        <v>42520.78687618918</v>
+        <v>41937.44</v>
       </c>
       <c r="I146" t="n">
-        <v>70072.79067021389</v>
+        <v>70478.75629610578</v>
       </c>
       <c r="J146" t="n">
-        <v>43963.73649931502</v>
+        <v>45636.55168836411</v>
       </c>
       <c r="K146" t="n">
-        <v>68913.40322200314</v>
+        <v>66779.64460774168</v>
       </c>
     </row>
     <row r="147">
@@ -13943,22 +13971,22 @@
         <v>70553.3</v>
       </c>
       <c r="F147" t="n">
-        <v>530.58</v>
+        <v>531.58</v>
       </c>
       <c r="G147" t="n">
-        <v>581.3152186731022</v>
+        <v>19.67821152684337</v>
       </c>
       <c r="H147" t="n">
-        <v>42467.86619873066</v>
+        <v>41891.11</v>
       </c>
       <c r="I147" t="n">
-        <v>69971.9847813269</v>
+        <v>70533.62178847316</v>
       </c>
       <c r="J147" t="n">
-        <v>44682.54731437931</v>
+        <v>46446.22430321673</v>
       </c>
       <c r="K147" t="n">
-        <v>67911.39512177851</v>
+        <v>65978.50748525643</v>
       </c>
     </row>
     <row r="148">
@@ -13969,22 +13997,22 @@
         <v>70367.3</v>
       </c>
       <c r="F148" t="n">
-        <v>530.48</v>
+        <v>531.48</v>
       </c>
       <c r="G148" t="n">
-        <v>170.6513273677556</v>
+        <v>-414.6940263789729</v>
       </c>
       <c r="H148" t="n">
-        <v>42415.48581107709</v>
+        <v>41845.24</v>
       </c>
       <c r="I148" t="n">
-        <v>70196.64867263225</v>
+        <v>70781.99402637898</v>
       </c>
       <c r="J148" t="n">
-        <v>45773.14884908586</v>
+        <v>47631.03099729377</v>
       </c>
       <c r="K148" t="n">
-        <v>66667.0462385963</v>
+        <v>64996.20302908521</v>
       </c>
     </row>
     <row r="149">
@@ -13995,22 +14023,22 @@
         <v>71326.8</v>
       </c>
       <c r="F149" t="n">
-        <v>530.38</v>
+        <v>531.38</v>
       </c>
       <c r="G149" t="n">
-        <v>340.2642933787574</v>
+        <v>-117.1323965010524</v>
       </c>
       <c r="H149" t="n">
-        <v>42362.58649456379</v>
+        <v>41798.93</v>
       </c>
       <c r="I149" t="n">
-        <v>70986.53570662125</v>
+        <v>71443.93239650106</v>
       </c>
       <c r="J149" t="n">
-        <v>47380.54923744542</v>
+        <v>49387.56280799624</v>
       </c>
       <c r="K149" t="n">
-        <v>65231.90425645902</v>
+        <v>63855.29958850481</v>
       </c>
     </row>
     <row r="150">
@@ -14021,22 +14049,22 @@
         <v>73281.7</v>
       </c>
       <c r="F150" t="n">
-        <v>530.28</v>
+        <v>531.28</v>
       </c>
       <c r="G150" t="n">
-        <v>657.7240441602044</v>
+        <v>456.7402109567483</v>
       </c>
       <c r="H150" t="n">
-        <v>42308.37794914078</v>
+        <v>41751.5</v>
       </c>
       <c r="I150" t="n">
-        <v>72623.97595583979</v>
+        <v>72824.95978904325</v>
       </c>
       <c r="J150" t="n">
-        <v>49689.91276310062</v>
+        <v>51994.78651567998</v>
       </c>
       <c r="K150" t="n">
-        <v>63659.49928624312</v>
+        <v>62581.67327336327</v>
       </c>
     </row>
     <row r="151">
@@ -14047,22 +14075,22 @@
         <v>74104.60000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>530.1799999999999</v>
+        <v>531.1799999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>-1323.265186365345</v>
+        <v>-1214.791793495882</v>
       </c>
       <c r="H151" t="n">
-        <v>42251.28358778087</v>
+        <v>41701.6</v>
       </c>
       <c r="I151" t="n">
-        <v>75427.86518636535</v>
+        <v>75319.39179349589</v>
       </c>
       <c r="J151" t="n">
-        <v>52930.55687999436</v>
+        <v>55818.44561898369</v>
       </c>
       <c r="K151" t="n">
-        <v>62002.0537451268</v>
+        <v>61202.54617451219</v>
       </c>
     </row>
     <row r="152">
@@ -14073,22 +14101,22 @@
         <v>79443.39999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>530.08</v>
+        <v>531.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-299.0697770389233</v>
+        <v>51.7337181915791</v>
       </c>
       <c r="H152" t="n">
-        <v>42190.57827608667</v>
+        <v>41648.59</v>
       </c>
       <c r="I152" t="n">
-        <v>79742.46977703892</v>
+        <v>79391.66628180842</v>
       </c>
       <c r="J152" t="n">
-        <v>57373.0884193871</v>
+        <v>61293.49253111381</v>
       </c>
       <c r="K152" t="n">
-        <v>60306.2798867575</v>
+        <v>59746.7637506946</v>
       </c>
     </row>
     <row r="153">
@@ -14099,22 +14127,22 @@
         <v>85417.10000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>529.98</v>
+        <v>530.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-489.7117843189044</v>
+        <v>-97.65097471130139</v>
       </c>
       <c r="H153" t="n">
-        <v>42122.45765303395</v>
+        <v>41589.2</v>
       </c>
       <c r="I153" t="n">
-        <v>85906.81178431891</v>
+        <v>85514.75097471131</v>
       </c>
       <c r="J153" t="n">
-        <v>63320.22534413877</v>
+        <v>68863.57061318393</v>
       </c>
       <c r="K153" t="n">
-        <v>58613.00070811811</v>
+        <v>58240.38036152738</v>
       </c>
     </row>
     <row r="154">
@@ -14125,22 +14153,22 @@
         <v>94714.7</v>
       </c>
       <c r="F154" t="n">
-        <v>529.88</v>
+        <v>530.88</v>
       </c>
       <c r="G154" t="n">
-        <v>506.6240197120205</v>
+        <v>647.3266348828329</v>
       </c>
       <c r="H154" t="n">
-        <v>42042.06887759222</v>
+        <v>41519.27</v>
       </c>
       <c r="I154" t="n">
-        <v>94208.07598028798</v>
+        <v>94067.37336511716</v>
       </c>
       <c r="J154" t="n">
-        <v>71077.13698613137</v>
+        <v>78879.23675273707</v>
       </c>
       <c r="K154" t="n">
-        <v>56952.2641593773</v>
+        <v>56707.40661238009</v>
       </c>
     </row>
     <row r="155">
@@ -14151,22 +14179,22 @@
         <v>106125</v>
       </c>
       <c r="F155" t="n">
-        <v>529.78</v>
+        <v>530.78</v>
       </c>
       <c r="G155" t="n">
-        <v>1321.611119801208</v>
+        <v>933.8422627309628</v>
       </c>
       <c r="H155" t="n">
-        <v>41944.85464307328</v>
+        <v>41434.89</v>
       </c>
       <c r="I155" t="n">
-        <v>104803.3888801988</v>
+        <v>105191.157737269</v>
       </c>
       <c r="J155" t="n">
-        <v>80904.94762389499</v>
+        <v>91455.96422064668</v>
       </c>
       <c r="K155" t="n">
-        <v>55345.2774921462</v>
+        <v>55170.08351662236</v>
       </c>
     </row>
     <row r="156">
@@ -14177,22 +14205,22 @@
         <v>118586</v>
       </c>
       <c r="F156" t="n">
-        <v>529.6799999999999</v>
+        <v>530.6799999999999</v>
       </c>
       <c r="G156" t="n">
-        <v>983.1865188161319</v>
+        <v>-49.1295401515672</v>
       </c>
       <c r="H156" t="n">
-        <v>41825.73955765846</v>
+        <v>41331.73</v>
       </c>
       <c r="I156" t="n">
-        <v>117602.8134811839</v>
+        <v>118635.1295401516</v>
       </c>
       <c r="J156" t="n">
-        <v>92942.00705314302</v>
+        <v>106319.3521640612</v>
       </c>
       <c r="K156" t="n">
-        <v>53806.25997368306</v>
+        <v>53647.50737609041</v>
       </c>
     </row>
     <row r="157">
@@ -14203,22 +14231,22 @@
         <v>132033</v>
       </c>
       <c r="F157" t="n">
-        <v>529.58</v>
+        <v>530.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-93.30769620556384</v>
+        <v>-1609.035898686823</v>
       </c>
       <c r="H157" t="n">
-        <v>41681.4472693803</v>
+        <v>41207.01</v>
       </c>
       <c r="I157" t="n">
-        <v>132126.3076962056</v>
+        <v>133642.0358986868</v>
       </c>
       <c r="J157" t="n">
-        <v>107086.0148417805</v>
+        <v>122691.9691226591</v>
       </c>
       <c r="K157" t="n">
-        <v>52342.50010800493</v>
+        <v>52157.07677602776</v>
       </c>
     </row>
     <row r="158">
@@ -14229,22 +14257,22 @@
         <v>150188</v>
       </c>
       <c r="F158" t="n">
-        <v>529.48</v>
+        <v>530.48</v>
       </c>
       <c r="G158" t="n">
-        <v>2824.526875278505</v>
+        <v>1259.737819557718</v>
       </c>
       <c r="H158" t="n">
-        <v>41507.87936058627</v>
+        <v>41057.2</v>
       </c>
       <c r="I158" t="n">
-        <v>147363.4731247215</v>
+        <v>148928.2621804423</v>
       </c>
       <c r="J158" t="n">
-        <v>122849.9446992396</v>
+        <v>139273.6019162237</v>
       </c>
       <c r="K158" t="n">
-        <v>50957.70727098941</v>
+        <v>50711.86026421857</v>
       </c>
     </row>
     <row r="159">
@@ -14255,22 +14283,22 @@
         <v>162308</v>
       </c>
       <c r="F159" t="n">
-        <v>529.38</v>
+        <v>530.38</v>
       </c>
       <c r="G159" t="n">
-        <v>582.0686282922106</v>
+        <v>-500.813595695392</v>
       </c>
       <c r="H159" t="n">
-        <v>41301.2644857261</v>
+        <v>40879.14</v>
       </c>
       <c r="I159" t="n">
-        <v>161725.9313717078</v>
+        <v>162808.8135956954</v>
       </c>
       <c r="J159" t="n">
-        <v>139220.738343824</v>
+        <v>154366.3824523821</v>
       </c>
       <c r="K159" t="n">
-        <v>49650.44593130877</v>
+        <v>49321.57114331334</v>
       </c>
     </row>
     <row r="160">
@@ -14281,22 +14309,22 @@
         <v>172273</v>
       </c>
       <c r="F160" t="n">
-        <v>529.28</v>
+        <v>530.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-935.0569480507402</v>
+        <v>-1199.289671617589</v>
       </c>
       <c r="H160" t="n">
-        <v>41065.77627983599</v>
+        <v>40676.46</v>
       </c>
       <c r="I160" t="n">
-        <v>173208.0569480507</v>
+        <v>173472.2896716176</v>
       </c>
       <c r="J160" t="n">
-        <v>154610.6964473708</v>
+        <v>166149.7344707754</v>
       </c>
       <c r="K160" t="n">
-        <v>48416.27032327253</v>
+        <v>47999.01520084225</v>
       </c>
     </row>
     <row r="161">
@@ -14307,22 +14335,22 @@
         <v>176202</v>
       </c>
       <c r="F161" t="n">
-        <v>529.1799999999999</v>
+        <v>530.1799999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>-3608.703566777025</v>
+        <v>-3137.405298588186</v>
       </c>
       <c r="H161" t="n">
-        <v>40810.26237048138</v>
+        <v>40456.75</v>
       </c>
       <c r="I161" t="n">
-        <v>179810.703566777</v>
+        <v>179339.4052985882</v>
       </c>
       <c r="J161" t="n">
-        <v>167017.3440284331</v>
+        <v>173038.7165345949</v>
       </c>
       <c r="K161" t="n">
-        <v>47256.20942760705</v>
+        <v>46757.43876399328</v>
       </c>
     </row>
     <row r="162">
@@ -14333,22 +14361,22 @@
         <v>180614</v>
       </c>
       <c r="F162" t="n">
-        <v>529.08</v>
+        <v>530.08</v>
       </c>
       <c r="G162" t="n">
-        <v>464.9060077118338</v>
+        <v>1199.853716278478</v>
       </c>
       <c r="H162" t="n">
-        <v>40542.32259549104</v>
+        <v>40226.5</v>
       </c>
       <c r="I162" t="n">
-        <v>180149.0939922882</v>
+        <v>179414.1462837215</v>
       </c>
       <c r="J162" t="n">
-        <v>174446.4256013185</v>
+        <v>174034.8777109813</v>
       </c>
       <c r="K162" t="n">
-        <v>46174.22588808442</v>
+        <v>45605.76857274023</v>
       </c>
     </row>
     <row r="163">
@@ -14359,22 +14387,22 @@
         <v>173583</v>
       </c>
       <c r="F163" t="n">
-        <v>528.98</v>
+        <v>529.98</v>
       </c>
       <c r="G163" t="n">
-        <v>-388.4209578569862</v>
+        <v>55.95457739531412</v>
       </c>
       <c r="H163" t="n">
-        <v>40271.99121800061</v>
+        <v>39994.32</v>
       </c>
       <c r="I163" t="n">
-        <v>173971.420957857</v>
+        <v>173527.0454226047</v>
       </c>
       <c r="J163" t="n">
-        <v>175519.1999574963</v>
+        <v>168969.1436882366</v>
       </c>
       <c r="K163" t="n">
-        <v>45171.88750296588</v>
+        <v>44552.22173436813</v>
       </c>
     </row>
     <row r="164">
@@ -14385,22 +14413,22 @@
         <v>162693</v>
       </c>
       <c r="F164" t="n">
-        <v>528.88</v>
+        <v>529.88</v>
       </c>
       <c r="G164" t="n">
-        <v>428.4296197151125</v>
+        <v>311.0323439076019</v>
       </c>
       <c r="H164" t="n">
-        <v>40015.18489644155</v>
+        <v>39773.84</v>
       </c>
       <c r="I164" t="n">
-        <v>162264.5703802849</v>
+        <v>162381.9676560924</v>
       </c>
       <c r="J164" t="n">
-        <v>169990.5714880583</v>
+        <v>158548.1543186795</v>
       </c>
       <c r="K164" t="n">
-        <v>44252.51752949896</v>
+        <v>43607.65333741288</v>
       </c>
     </row>
     <row r="165">
@@ -14411,22 +14439,22 @@
         <v>147380</v>
       </c>
       <c r="F165" t="n">
-        <v>528.78</v>
+        <v>529.78</v>
       </c>
       <c r="G165" t="n">
-        <v>514.1325739577296</v>
+        <v>-0.4540551078971475</v>
       </c>
       <c r="H165" t="n">
-        <v>39783.83812275406</v>
+        <v>39575.23</v>
       </c>
       <c r="I165" t="n">
-        <v>146865.8674260423</v>
+        <v>147380.4540551079</v>
       </c>
       <c r="J165" t="n">
-        <v>158854.4536770904</v>
+        <v>144178.1332029807</v>
       </c>
       <c r="K165" t="n">
-        <v>43425.00208082695</v>
+        <v>42777.55085212725</v>
       </c>
     </row>
     <row r="166">
@@ -14437,22 +14465,22 @@
         <v>130094</v>
       </c>
       <c r="F166" t="n">
-        <v>528.6799999999999</v>
+        <v>529.6799999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>247.0854712457949</v>
+        <v>-205.8028130065068</v>
       </c>
       <c r="H166" t="n">
-        <v>39585.32622655711</v>
+        <v>39404.79</v>
       </c>
       <c r="I166" t="n">
-        <v>129846.9145287542</v>
+        <v>130299.8028130065</v>
       </c>
       <c r="J166" t="n">
-        <v>143955.2476505415</v>
+        <v>127642.4950345178</v>
       </c>
       <c r="K166" t="n">
-        <v>42694.19419861171</v>
+        <v>42062.09777848869</v>
       </c>
     </row>
     <row r="167">
@@ -14463,22 +14491,22 @@
         <v>112259</v>
       </c>
       <c r="F167" t="n">
-        <v>528.58</v>
+        <v>529.58</v>
       </c>
       <c r="G167" t="n">
-        <v>-731.3298599744012</v>
+        <v>-662.2410608217615</v>
       </c>
       <c r="H167" t="n">
-        <v>39422.74478469363</v>
+        <v>39265.17</v>
       </c>
       <c r="I167" t="n">
-        <v>112990.3298599744</v>
+        <v>112921.2410608218</v>
       </c>
       <c r="J167" t="n">
-        <v>127371.4870970372</v>
+        <v>110729.5674658484</v>
       </c>
       <c r="K167" t="n">
-        <v>42060.53176704907</v>
+        <v>41456.84359497337</v>
       </c>
     </row>
     <row r="168">
@@ -14489,22 +14517,22 @@
         <v>95045.8</v>
       </c>
       <c r="F168" t="n">
-        <v>528.48</v>
+        <v>529.48</v>
       </c>
       <c r="G168" t="n">
-        <v>-2485.424383687801</v>
+        <v>-1670.390027430054</v>
       </c>
       <c r="H168" t="n">
-        <v>39295.79536240159</v>
+        <v>39156.1</v>
       </c>
       <c r="I168" t="n">
-        <v>97531.2243836878</v>
+        <v>96716.19002743006</v>
       </c>
       <c r="J168" t="n">
-        <v>110892.4419024263</v>
+        <v>94918.44765945453</v>
       </c>
       <c r="K168" t="n">
-        <v>41520.45330018675</v>
+        <v>40953.84236797553</v>
       </c>
     </row>
     <row r="169">
@@ -14515,22 +14543,22 @@
         <v>83699.39999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>528.38</v>
+        <v>529.38</v>
       </c>
       <c r="G169" t="n">
-        <v>-437.7466859197448</v>
+        <v>1039.526805269415</v>
       </c>
       <c r="H169" t="n">
-        <v>39198.03925939836</v>
+        <v>39072.06</v>
       </c>
       <c r="I169" t="n">
-        <v>84137.14668591974</v>
+        <v>82659.87319473058</v>
       </c>
       <c r="J169" t="n">
-        <v>95759.50519948021</v>
+        <v>81192.25530192262</v>
       </c>
       <c r="K169" t="n">
-        <v>41067.37445212515</v>
+        <v>40539.67789280797</v>
       </c>
     </row>
     <row r="170">
@@ -14541,22 +14569,22 @@
         <v>72810.39999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>528.28</v>
+        <v>529.28</v>
       </c>
       <c r="G170" t="n">
-        <v>-218.8709065775329</v>
+        <v>1609.525280114482</v>
       </c>
       <c r="H170" t="n">
-        <v>39122.61355536734</v>
+        <v>39007.18</v>
       </c>
       <c r="I170" t="n">
-        <v>73029.27090657753</v>
+        <v>71200.87471988551</v>
       </c>
       <c r="J170" t="n">
-        <v>82646.08243520248</v>
+        <v>70007.39620383544</v>
       </c>
       <c r="K170" t="n">
-        <v>40688.99757726731</v>
+        <v>40200.65851605008</v>
       </c>
     </row>
     <row r="171">
@@ -14567,22 +14595,22 @@
         <v>62269.4</v>
       </c>
       <c r="F171" t="n">
-        <v>528.1799999999999</v>
+        <v>529.1799999999999</v>
       </c>
       <c r="G171" t="n">
-        <v>-1868.759501488552</v>
+        <v>-79.73581902610749</v>
       </c>
       <c r="H171" t="n">
-        <v>39067.9609243497</v>
+        <v>38960.13</v>
       </c>
       <c r="I171" t="n">
-        <v>64138.15950148855</v>
+        <v>62349.13581902611</v>
       </c>
       <c r="J171" t="n">
-        <v>71778.74951767594</v>
+        <v>61381.32632106385</v>
       </c>
       <c r="K171" t="n">
-        <v>40373.05722184319</v>
+        <v>39927.93949796225</v>
       </c>
     </row>
     <row r="172">
@@ -14593,22 +14621,22 @@
         <v>56610</v>
       </c>
       <c r="F172" t="n">
-        <v>528.08</v>
+        <v>529.08</v>
       </c>
       <c r="G172" t="n">
-        <v>-615.9254184947713</v>
+        <v>795.9728751274815</v>
       </c>
       <c r="H172" t="n">
-        <v>39029.05588560287</v>
+        <v>38926.59</v>
       </c>
       <c r="I172" t="n">
-        <v>57225.92541849477</v>
+        <v>55814.02712487252</v>
       </c>
       <c r="J172" t="n">
-        <v>63093.0052534705</v>
+        <v>55030.452439775</v>
       </c>
       <c r="K172" t="n">
-        <v>40113.05982202526</v>
+        <v>39710.16468509752</v>
       </c>
     </row>
     <row r="173">
@@ -14619,22 +14647,22 @@
         <v>53099.8</v>
       </c>
       <c r="F173" t="n">
-        <v>527.98</v>
+        <v>528.98</v>
       </c>
       <c r="G173" t="n">
-        <v>1117.228179012563</v>
+        <v>1941.563083614812</v>
       </c>
       <c r="H173" t="n">
-        <v>38999.10432175895</v>
+        <v>38900.73</v>
       </c>
       <c r="I173" t="n">
-        <v>51982.57182098744</v>
+        <v>51158.23691638519</v>
       </c>
       <c r="J173" t="n">
-        <v>56355.43749099684</v>
+        <v>50523.90465815325</v>
       </c>
       <c r="K173" t="n">
-        <v>39899.50560251482</v>
+        <v>39535.06225823195</v>
       </c>
     </row>
     <row r="174">
@@ -14645,22 +14673,22 @@
         <v>47942.8</v>
       </c>
       <c r="F174" t="n">
-        <v>527.88</v>
+        <v>528.88</v>
       </c>
       <c r="G174" t="n">
-        <v>-151.0931842019199</v>
+        <v>16.98763705780584</v>
       </c>
       <c r="H174" t="n">
-        <v>38977.32619449216</v>
+        <v>38881.89</v>
       </c>
       <c r="I174" t="n">
-        <v>48093.89318420192</v>
+        <v>47925.8123629422</v>
       </c>
       <c r="J174" t="n">
-        <v>51260.0770261848</v>
+        <v>47411.51098545071</v>
       </c>
       <c r="K174" t="n">
-        <v>39721.57363407123</v>
+        <v>39396.19137749149</v>
       </c>
     </row>
     <row r="175">
@@ -14671,22 +14699,22 @@
         <v>46764.8</v>
       </c>
       <c r="F175" t="n">
-        <v>527.78</v>
+        <v>528.78</v>
       </c>
       <c r="G175" t="n">
-        <v>1496.956628553562</v>
+        <v>1053.629289280791</v>
       </c>
       <c r="H175" t="n">
-        <v>38961.54252504184</v>
+        <v>38868.2</v>
       </c>
       <c r="I175" t="n">
-        <v>45267.84337144644</v>
+        <v>45711.17071071921</v>
       </c>
       <c r="J175" t="n">
-        <v>47496.31991731214</v>
+        <v>45292.78298873392</v>
       </c>
       <c r="K175" t="n">
-        <v>39574.88315352852</v>
+        <v>39286.58772198528</v>
       </c>
     </row>
     <row r="176">
@@ -14697,22 +14725,22 @@
         <v>45130.3</v>
       </c>
       <c r="F176" t="n">
-        <v>527.6799999999999</v>
+        <v>528.6799999999999</v>
       </c>
       <c r="G176" t="n">
-        <v>1879.561721858285</v>
+        <v>938.2645893209774</v>
       </c>
       <c r="H176" t="n">
-        <v>38948.44961808917</v>
+        <v>38856.82</v>
       </c>
       <c r="I176" t="n">
-        <v>43250.73827814172</v>
+        <v>44192.03541067903</v>
       </c>
       <c r="J176" t="n">
-        <v>44775.32136939577</v>
+        <v>43849.85908158529</v>
       </c>
       <c r="K176" t="n">
-        <v>39454.05463638842</v>
+        <v>39198.99632909373</v>
       </c>
     </row>
     <row r="177">
@@ -14723,22 +14751,22 @@
         <v>43847.2</v>
       </c>
       <c r="F177" t="n">
-        <v>527.58</v>
+        <v>528.58</v>
       </c>
       <c r="G177" t="n">
-        <v>2010.694208376553</v>
+        <v>711.2948040895353</v>
       </c>
       <c r="H177" t="n">
-        <v>38938.06771602331</v>
+        <v>38847.77</v>
       </c>
       <c r="I177" t="n">
-        <v>41836.50579162344</v>
+        <v>43135.90519591046</v>
       </c>
       <c r="J177" t="n">
-        <v>42846.22691397715</v>
+        <v>42854.00526912315</v>
       </c>
       <c r="K177" t="n">
-        <v>39352.95543762152</v>
+        <v>39129.6699267873</v>
       </c>
     </row>
     <row r="178">
@@ -14749,22 +14777,22 @@
         <v>41931.9</v>
       </c>
       <c r="F178" t="n">
-        <v>527.48</v>
+        <v>528.48</v>
       </c>
       <c r="G178" t="n">
-        <v>1069.883684919252</v>
+        <v>-452.1417731647234</v>
       </c>
       <c r="H178" t="n">
-        <v>38930.65732677122</v>
+        <v>38841.27</v>
       </c>
       <c r="I178" t="n">
-        <v>40862.01631508075</v>
+        <v>42384.04177316472</v>
       </c>
       <c r="J178" t="n">
-        <v>41505.45223007422</v>
+        <v>42149.65149046071</v>
       </c>
       <c r="K178" t="n">
-        <v>39269.11857014409</v>
+        <v>39075.66028270401</v>
       </c>
     </row>
     <row r="179">
@@ -14775,22 +14803,22 @@
         <v>42374.3</v>
       </c>
       <c r="F179" t="n">
-        <v>527.38</v>
+        <v>528.38</v>
       </c>
       <c r="G179" t="n">
-        <v>2174.148991482274</v>
+        <v>543.0810148236487</v>
       </c>
       <c r="H179" t="n">
-        <v>38924.63364139901</v>
+        <v>38835.96</v>
       </c>
       <c r="I179" t="n">
-        <v>40200.15100851773</v>
+        <v>41831.21898517635</v>
       </c>
       <c r="J179" t="n">
-        <v>40592.04381056508</v>
+        <v>41634.1998606417</v>
       </c>
       <c r="K179" t="n">
-        <v>39200.62889433547</v>
+        <v>39032.97912453465</v>
       </c>
     </row>
     <row r="180">
@@ -14801,22 +14829,22 @@
         <v>40966.8</v>
       </c>
       <c r="F180" t="n">
-        <v>527.28</v>
+        <v>528.28</v>
       </c>
       <c r="G180" t="n">
-        <v>1210.199998068842</v>
+        <v>-444.2177060208996</v>
       </c>
       <c r="H180" t="n">
-        <v>38919.50643059107</v>
+        <v>38831.42</v>
       </c>
       <c r="I180" t="n">
-        <v>39756.60000193116</v>
+        <v>41411.0177060209</v>
       </c>
       <c r="J180" t="n">
-        <v>39980.77686030165</v>
+        <v>41243.38364613581</v>
       </c>
       <c r="K180" t="n">
-        <v>39144.00789221389</v>
+        <v>38999.05405988509</v>
       </c>
     </row>
     <row r="181">
@@ -14827,22 +14855,22 @@
         <v>41073.7</v>
       </c>
       <c r="F181" t="n">
-        <v>527.1799999999999</v>
+        <v>528.1799999999999</v>
       </c>
       <c r="G181" t="n">
-        <v>1610.402467280728</v>
+        <v>-8.480184498657763</v>
       </c>
       <c r="H181" t="n">
-        <v>38915.5802920212</v>
+        <v>38827.91</v>
       </c>
       <c r="I181" t="n">
-        <v>39463.29753271927</v>
+        <v>41082.18018449865</v>
       </c>
       <c r="J181" t="n">
-        <v>39578.982129433</v>
+        <v>40937.6864260228</v>
       </c>
       <c r="K181" t="n">
-        <v>39097.12496132364</v>
+        <v>38972.40375847586</v>
       </c>
     </row>
     <row r="182">
@@ -14853,22 +14881,22 @@
         <v>40945.1</v>
       </c>
       <c r="F182" t="n">
-        <v>527.08</v>
+        <v>528.08</v>
       </c>
       <c r="G182" t="n">
-        <v>1674.696021290096</v>
+        <v>127.7201946449641</v>
       </c>
       <c r="H182" t="n">
-        <v>38911.67945636129</v>
+        <v>38824.42</v>
       </c>
       <c r="I182" t="n">
-        <v>39270.4039787099</v>
+        <v>40817.37980535503</v>
       </c>
       <c r="J182" t="n">
-        <v>39320.00824875508</v>
+        <v>40691.17425964397</v>
       </c>
       <c r="K182" t="n">
-        <v>39058.87048210649</v>
+        <v>38950.62554571106</v>
       </c>
     </row>
     <row r="183">
@@ -14879,22 +14907,22 @@
         <v>39781.8</v>
       </c>
       <c r="F183" t="n">
-        <v>526.98</v>
+        <v>527.98</v>
       </c>
       <c r="G183" t="n">
-        <v>636.5932150541848</v>
+        <v>-818.760838263428</v>
       </c>
       <c r="H183" t="n">
-        <v>38908.9652351894</v>
+        <v>38821.96</v>
       </c>
       <c r="I183" t="n">
-        <v>39145.20678494582</v>
+        <v>40600.56083826343</v>
       </c>
       <c r="J183" t="n">
-        <v>39155.22928249973</v>
+        <v>40488.89328163301</v>
       </c>
       <c r="K183" t="n">
-        <v>39026.85512058488</v>
+        <v>38933.62755663042</v>
       </c>
     </row>
     <row r="184">
@@ -14905,22 +14933,22 @@
         <v>38597.2</v>
       </c>
       <c r="F184" t="n">
-        <v>526.88</v>
+        <v>527.88</v>
       </c>
       <c r="G184" t="n">
-        <v>-468.4085414456713</v>
+        <v>-1823.907084211132</v>
       </c>
       <c r="H184" t="n">
-        <v>38908.42546227164</v>
+        <v>38821.35</v>
       </c>
       <c r="I184" t="n">
-        <v>39065.60854144567</v>
+        <v>40421.10708421113</v>
       </c>
       <c r="J184" t="n">
-        <v>39052.96934104241</v>
+        <v>40321.09033454239</v>
       </c>
       <c r="K184" t="n">
-        <v>39001.20360438584</v>
+        <v>38921.36674966873</v>
       </c>
     </row>
     <row r="185">
@@ -14931,22 +14959,22 @@
         <v>39472.9</v>
       </c>
       <c r="F185" t="n">
-        <v>526.78</v>
+        <v>527.78</v>
       </c>
       <c r="G185" t="n">
-        <v>458.5848510462311</v>
+        <v>-796.5907936797157</v>
       </c>
       <c r="H185" t="n">
-        <v>38908.18748841507</v>
+        <v>38821.01</v>
       </c>
       <c r="I185" t="n">
-        <v>39014.31514895377</v>
+        <v>40269.49079367972</v>
       </c>
       <c r="J185" t="n">
-        <v>38992.01243283903</v>
+        <v>40178.90739820422</v>
       </c>
       <c r="K185" t="n">
-        <v>38982.02240122837</v>
+        <v>38911.5933954755</v>
       </c>
     </row>
     <row r="186">
@@ -14957,22 +14985,22 @@
         <v>39235.7</v>
       </c>
       <c r="F186" t="n">
-        <v>526.6799999999999</v>
+        <v>527.6799999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>255.3751325445119</v>
+        <v>-903.5150482618192</v>
       </c>
       <c r="H186" t="n">
-        <v>38907.36165043546</v>
+        <v>38820.16</v>
       </c>
       <c r="I186" t="n">
-        <v>38980.32486745549</v>
+        <v>40139.21504826182</v>
       </c>
       <c r="J186" t="n">
-        <v>38955.81047465323</v>
+        <v>40056.36291271548</v>
       </c>
       <c r="K186" t="n">
-        <v>38966.69287813712</v>
+        <v>38903.01213554634</v>
       </c>
     </row>
     <row r="187">
@@ -14983,22 +15011,22 @@
         <v>39436.7</v>
       </c>
       <c r="F187" t="n">
-        <v>526.58</v>
+        <v>527.58</v>
       </c>
       <c r="G187" t="n">
-        <v>478.9673818674273</v>
+        <v>-589.8845440517762</v>
       </c>
       <c r="H187" t="n">
-        <v>38906.56304859624</v>
+        <v>38819.34</v>
       </c>
       <c r="I187" t="n">
-        <v>38957.73261813257</v>
+        <v>40026.58454405177</v>
       </c>
       <c r="J187" t="n">
-        <v>38933.9902826766</v>
+        <v>39950.15520896026</v>
       </c>
       <c r="K187" t="n">
-        <v>38953.69683441215</v>
+        <v>38895.76933509151</v>
       </c>
     </row>
     <row r="188">
@@ -15009,22 +15037,22 @@
         <v>39371.7</v>
       </c>
       <c r="F188" t="n">
-        <v>526.48</v>
+        <v>527.48</v>
       </c>
       <c r="G188" t="n">
-        <v>429.45989240372</v>
+        <v>-556.545516864775</v>
       </c>
       <c r="H188" t="n">
-        <v>38905.63754859154</v>
+        <v>38818.41</v>
       </c>
       <c r="I188" t="n">
-        <v>38942.24010759628</v>
+        <v>39928.24551686477</v>
       </c>
       <c r="J188" t="n">
-        <v>38921.17397741864</v>
+        <v>39857.22930309468</v>
       </c>
       <c r="K188" t="n">
-        <v>38943.12218089963</v>
+        <v>38889.42621377009</v>
       </c>
     </row>
     <row r="189">
@@ -15035,22 +15063,22 @@
         <v>38678.5</v>
       </c>
       <c r="F189" t="n">
-        <v>526.38</v>
+        <v>527.38</v>
       </c>
       <c r="G189" t="n">
-        <v>-253.5671834255772</v>
+        <v>-1163.911941822611</v>
       </c>
       <c r="H189" t="n">
-        <v>38905.41004016042</v>
+        <v>38818.07</v>
       </c>
       <c r="I189" t="n">
-        <v>38932.06718342558</v>
+        <v>39842.41194182261</v>
       </c>
       <c r="J189" t="n">
-        <v>38913.50345853759</v>
+        <v>39776.02483912059</v>
       </c>
       <c r="K189" t="n">
-        <v>38934.37459469984</v>
+        <v>38884.45710270202</v>
       </c>
     </row>
     <row r="190">
@@ -15061,22 +15089,22 @@
         <v>38902.3</v>
       </c>
       <c r="F190" t="n">
-        <v>526.28</v>
+        <v>527.28</v>
       </c>
       <c r="G190" t="n">
-        <v>-23.02739187944826</v>
+        <v>-864.6202159998502</v>
       </c>
       <c r="H190" t="n">
-        <v>38905.62093906668</v>
+        <v>38818.11</v>
       </c>
       <c r="I190" t="n">
-        <v>38925.32739187945</v>
+        <v>39766.92021599985</v>
       </c>
       <c r="J190" t="n">
-        <v>38909.56446356878</v>
+        <v>39704.5480937458</v>
       </c>
       <c r="K190" t="n">
-        <v>38927.91307682855</v>
+        <v>38880.48212225406</v>
       </c>
     </row>
     <row r="191">
@@ -15087,22 +15115,22 @@
         <v>38784.4</v>
       </c>
       <c r="F191" t="n">
-        <v>526.1799999999999</v>
+        <v>527.1799999999999</v>
       </c>
       <c r="G191" t="n">
-        <v>-136.0726812858629</v>
+        <v>-915.3545795262471</v>
       </c>
       <c r="H191" t="n">
-        <v>38905.73755910315</v>
+        <v>38818.07</v>
       </c>
       <c r="I191" t="n">
-        <v>38920.47268128586</v>
+        <v>39699.75457952625</v>
       </c>
       <c r="J191" t="n">
-        <v>38907.77329779566</v>
+        <v>39640.91099958462</v>
       </c>
       <c r="K191" t="n">
-        <v>38923.17528349106</v>
+        <v>38876.91357994163</v>
       </c>
     </row>
     <row r="192">
@@ -15113,22 +15141,22 @@
         <v>38944.2</v>
       </c>
       <c r="F192" t="n">
-        <v>526.08</v>
+        <v>527.08</v>
       </c>
       <c r="G192" t="n">
-        <v>27.27986713475548</v>
+        <v>-821.7116365227921</v>
       </c>
       <c r="H192" t="n">
-        <v>38905.81497078711</v>
+        <v>38944.2</v>
       </c>
       <c r="I192" t="n">
-        <v>38916.92013286524</v>
+        <v>39765.91163652279</v>
       </c>
       <c r="J192" t="n">
-        <v>38906.83130157884</v>
+        <v>39710.20620466346</v>
       </c>
       <c r="K192" t="n">
-        <v>38919.37913505302</v>
+        <v>38999.90543185933</v>
       </c>
     </row>
     <row r="193">
@@ -15139,22 +15167,22 @@
         <v>38878</v>
       </c>
       <c r="F193" t="n">
-        <v>525.98</v>
+        <v>526.98</v>
       </c>
       <c r="G193" t="n">
-        <v>-36.21539862511418</v>
+        <v>-767.871042419094</v>
       </c>
       <c r="H193" t="n">
-        <v>38905.80577174084</v>
+        <v>38878</v>
       </c>
       <c r="I193" t="n">
-        <v>38914.21539862511</v>
+        <v>39645.87104241909</v>
       </c>
       <c r="J193" t="n">
-        <v>38906.36006210233</v>
+        <v>39592.98582401782</v>
       </c>
       <c r="K193" t="n">
-        <v>38916.3751943523</v>
+        <v>38930.88521840127</v>
       </c>
     </row>
     <row r="194">
@@ -15165,22 +15193,22 @@
         <v>38797.2</v>
       </c>
       <c r="F194" t="n">
-        <v>525.88</v>
+        <v>526.88</v>
       </c>
       <c r="G194" t="n">
-        <v>-115.1145658445312</v>
+        <v>-719.3242700168121</v>
       </c>
       <c r="H194" t="n">
-        <v>38905.93171834338</v>
+        <v>38797.2</v>
       </c>
       <c r="I194" t="n">
-        <v>38912.31456584453</v>
+        <v>39516.52427001681</v>
       </c>
       <c r="J194" t="n">
-        <v>38906.07217353163</v>
+        <v>39466.19630663483</v>
       </c>
       <c r="K194" t="n">
-        <v>38913.94911511784</v>
+        <v>38847.52796338198</v>
       </c>
     </row>
     <row r="195">
@@ -15191,22 +15219,22 @@
         <v>38493.4</v>
       </c>
       <c r="F195" t="n">
-        <v>525.78</v>
+        <v>526.78</v>
       </c>
       <c r="G195" t="n">
-        <v>-4.846176681036013</v>
+        <v>-675.3761821522348</v>
       </c>
       <c r="H195" t="n">
         <v>38493.4</v>
       </c>
       <c r="I195" t="n">
-        <v>38498.24617668104</v>
+        <v>39168.77618215224</v>
       </c>
       <c r="J195" t="n">
-        <v>38906.05938608767</v>
+        <v>39120.78457600791</v>
       </c>
       <c r="K195" t="n">
-        <v>38912.18698918544</v>
+        <v>38541.39160614433</v>
       </c>
     </row>
     <row r="196">
@@ -15217,22 +15245,22 @@
         <v>37637.7</v>
       </c>
       <c r="F196" t="n">
-        <v>525.6799999999999</v>
+        <v>526.6799999999999</v>
       </c>
       <c r="G196" t="n">
-        <v>-3.675506747589679</v>
+        <v>-635.4458533743236</v>
       </c>
       <c r="H196" t="n">
         <v>37637.7</v>
       </c>
       <c r="I196" t="n">
-        <v>37641.37550674759</v>
+        <v>38273.14585337432</v>
       </c>
       <c r="J196" t="n">
-        <v>38493.45998825965</v>
+        <v>38227.30224047011</v>
       </c>
       <c r="K196" t="n">
-        <v>38498.18625822661</v>
+        <v>37683.54361290421</v>
       </c>
     </row>
     <row r="197">
@@ -15243,22 +15271,22 @@
         <v>38219.1</v>
       </c>
       <c r="F197" t="n">
-        <v>525.58</v>
+        <v>526.58</v>
       </c>
       <c r="G197" t="n">
-        <v>-2.781859851471381</v>
+        <v>-599.0441739640519</v>
       </c>
       <c r="H197" t="n">
         <v>38219.1</v>
       </c>
       <c r="I197" t="n">
-        <v>38221.88185985147</v>
+        <v>38818.14417396405</v>
       </c>
       <c r="J197" t="n">
-        <v>37637.72763500025</v>
+        <v>38774.28569110003</v>
       </c>
       <c r="K197" t="n">
-        <v>37641.3479250037</v>
+        <v>38262.95848286402</v>
       </c>
     </row>
     <row r="198">
@@ -15269,22 +15297,22 @@
         <v>39274.4</v>
       </c>
       <c r="F198" t="n">
-        <v>525.48</v>
+        <v>526.48</v>
       </c>
       <c r="G198" t="n">
-        <v>-2.099695838958723</v>
+        <v>-565.7564898501441</v>
       </c>
       <c r="H198" t="n">
         <v>39274.4</v>
       </c>
       <c r="I198" t="n">
-        <v>39276.49969583896</v>
+        <v>39840.15648985015</v>
       </c>
       <c r="J198" t="n">
-        <v>38219.11248044304</v>
+        <v>39798.14056508002</v>
       </c>
       <c r="K198" t="n">
-        <v>38221.86941986441</v>
+        <v>39316.41592477013</v>
       </c>
     </row>
     <row r="199">
@@ -15295,22 +15323,22 @@
         <v>38023.5</v>
       </c>
       <c r="F199" t="n">
-        <v>525.38</v>
+        <v>526.38</v>
       </c>
       <c r="G199" t="n">
-        <v>-1.579726243406185</v>
+        <v>-535.2290216699621</v>
       </c>
       <c r="H199" t="n">
         <v>38023.5</v>
       </c>
       <c r="I199" t="n">
-        <v>38025.07972624341</v>
+        <v>38558.72902166996</v>
       </c>
       <c r="J199" t="n">
-        <v>39274.40552521245</v>
+        <v>38518.429491546</v>
       </c>
       <c r="K199" t="n">
-        <v>39276.49420123034</v>
+        <v>38063.79953012396</v>
       </c>
     </row>
     <row r="200">
@@ -15321,22 +15349,22 @@
         <v>37119.3</v>
       </c>
       <c r="F200" t="n">
-        <v>525.28</v>
+        <v>526.28</v>
       </c>
       <c r="G200" t="n">
-        <v>-1.184352303826017</v>
+        <v>-507.1581468626609</v>
       </c>
       <c r="H200" t="n">
         <v>37119.3</v>
       </c>
       <c r="I200" t="n">
-        <v>37120.48435230383</v>
+        <v>37626.45814686266</v>
       </c>
       <c r="J200" t="n">
-        <v>38023.50239766964</v>
+        <v>37587.7623362962</v>
       </c>
       <c r="K200" t="n">
-        <v>38025.07735162974</v>
+        <v>37157.99581056646</v>
       </c>
     </row>
     <row r="201">
@@ -15347,22 +15375,22 @@
         <v>38762.3</v>
       </c>
       <c r="F201" t="n">
-        <v>525.1799999999999</v>
+        <v>526.1799999999999</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.8846446954412386</v>
+        <v>-481.2818698613628</v>
       </c>
       <c r="H201" t="n">
         <v>38762.3</v>
       </c>
       <c r="I201" t="n">
-        <v>38763.18464469544</v>
+        <v>39243.58186986137</v>
       </c>
       <c r="J201" t="n">
-        <v>37119.30101982511</v>
+        <v>39206.38836993321</v>
       </c>
       <c r="K201" t="n">
-        <v>37120.4833497779</v>
+        <v>38799.49349992815</v>
       </c>
     </row>
     <row r="202">
@@ -15373,22 +15401,22 @@
         <v>38716.1</v>
       </c>
       <c r="F202" t="n">
-        <v>525.08</v>
+        <v>526.08</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.6582504764883197</v>
+        <v>-457.3729785769829</v>
       </c>
       <c r="H202" t="n">
         <v>38716.1</v>
       </c>
       <c r="I202" t="n">
-        <v>38716.75825047649</v>
+        <v>39173.47297857698</v>
       </c>
       <c r="J202" t="n">
-        <v>38762.30042514222</v>
+        <v>39137.68993137171</v>
       </c>
       <c r="K202" t="n">
-        <v>38763.18423248066</v>
+        <v>38751.88304720527</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -20550,7 +20550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="B2:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20590,7 +20590,6 @@
     <col width="14" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" s="38" t="inlineStr">
         <is>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -680,7 +680,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5686425" cy="4124325"/>
+    <ext cx="5619750" cy="4076700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -20550,485 +20550,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AD4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="23" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="23" customWidth="1" min="22" max="22"/>
-    <col width="11" customWidth="1" min="23" max="23"/>
-    <col width="21" customWidth="1" min="24" max="24"/>
-    <col width="19" customWidth="1" min="25" max="25"/>
-    <col width="17" customWidth="1" min="26" max="26"/>
-    <col width="16" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="14" customWidth="1" min="29" max="29"/>
-    <col width="14" customWidth="1" min="30" max="30"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="38" t="inlineStr">
-        <is>
-          <t>Peak
-Label</t>
-        </is>
-      </c>
-      <c r="C2" s="38" t="inlineStr">
-        <is>
-          <t>Position
-(eV)</t>
-        </is>
-      </c>
-      <c r="D2" s="38" t="inlineStr">
-        <is>
-          <t>Height
-(CPS)</t>
-        </is>
-      </c>
-      <c r="E2" s="38" t="inlineStr">
-        <is>
-          <t>FWHM
-(eV)</t>
-        </is>
-      </c>
-      <c r="F2" s="38" t="inlineStr">
-        <is>
-          <t>L/G 
-σ/γ (%)</t>
-        </is>
-      </c>
-      <c r="G2" s="38" t="inlineStr">
-        <is>
-          <t>Area
-(CPS.eV)</t>
-        </is>
-      </c>
-      <c r="H2" s="38" t="inlineStr">
-        <is>
-          <t>Atomic
-(%)</t>
-        </is>
-      </c>
-      <c r="I2" s="38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J2" s="38" t="inlineStr">
-        <is>
-          <t>RSF</t>
-        </is>
-      </c>
-      <c r="K2" s="38" t="inlineStr">
-        <is>
-          <t>TXFN</t>
-        </is>
-      </c>
-      <c r="L2" s="38" t="inlineStr">
-        <is>
-          <t>ECF</t>
-        </is>
-      </c>
-      <c r="M2" s="38" t="inlineStr">
-        <is>
-          <t>Instr.</t>
-        </is>
-      </c>
-      <c r="N2" s="38" t="inlineStr">
-        <is>
-          <t>Fitting Model</t>
-        </is>
-      </c>
-      <c r="O2" s="38" t="inlineStr">
-        <is>
-          <t>Corr. Area
- Ac (a.u.)</t>
-        </is>
-      </c>
-      <c r="P2" s="38" t="inlineStr">
-        <is>
-          <t>σ or α
-W_g</t>
-        </is>
-      </c>
-      <c r="Q2" s="38" t="inlineStr">
-        <is>
-          <t>γ or β
-W_l</t>
-        </is>
-      </c>
-      <c r="R2" s="38" t="inlineStr">
-        <is>
-          <t>Bkg Type</t>
-        </is>
-      </c>
-      <c r="S2" s="38" t="inlineStr">
-        <is>
-          <t>Bkg Low
-(eV)</t>
-        </is>
-      </c>
-      <c r="T2" s="38" t="inlineStr">
-        <is>
-          <t>Bkg High
-(eV)</t>
-        </is>
-      </c>
-      <c r="U2" s="38" t="inlineStr">
-        <is>
-          <t>Bkg Offset Low
-(CPS)</t>
-        </is>
-      </c>
-      <c r="V2" s="38" t="inlineStr">
-        <is>
-          <t>Bkg Offset High
-(CPS)</t>
-        </is>
-      </c>
-      <c r="W2" s="38" t="inlineStr">
-        <is>
-          <t>Sheetname</t>
-        </is>
-      </c>
-      <c r="X2" s="38" t="inlineStr">
-        <is>
-          <t>Position
-Constraint</t>
-        </is>
-      </c>
-      <c r="Y2" s="38" t="inlineStr">
-        <is>
-          <t>Height
-Constraint</t>
-        </is>
-      </c>
-      <c r="Z2" s="38" t="inlineStr">
-        <is>
-          <t>FWHM
-Constraint</t>
-        </is>
-      </c>
-      <c r="AA2" s="38" t="inlineStr">
-        <is>
-          <t>L/G
-Constraint</t>
-        </is>
-      </c>
-      <c r="AB2" s="38" t="inlineStr">
-        <is>
-          <t>Area
-Constraint</t>
-        </is>
-      </c>
-      <c r="AC2" s="38" t="inlineStr">
-        <is>
-          <t>σ
-Constraint</t>
-        </is>
-      </c>
-      <c r="AD2" s="38" t="inlineStr">
-        <is>
-          <t>γ
-Constraint</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="39" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p1</t>
-        </is>
-      </c>
-      <c r="C3" s="40" t="inlineStr">
-        <is>
-          <t>132.49</t>
-        </is>
-      </c>
-      <c r="D3" s="40" t="inlineStr">
-        <is>
-          <t>101467.39</t>
-        </is>
-      </c>
-      <c r="E3" s="40" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F3" s="40" t="inlineStr">
-        <is>
-          <t>60.28</t>
-        </is>
-      </c>
-      <c r="G3" s="40" t="inlineStr">
-        <is>
-          <t>108008.69</t>
-        </is>
-      </c>
-      <c r="H3" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I3" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" s="40" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="K3" s="40" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L3" s="40" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M3" s="40" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N3" s="40" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="O3" s="40" t="inlineStr">
-        <is>
-          <t>324.68</t>
-        </is>
-      </c>
-      <c r="P3" s="40" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q3" s="40" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="R3" s="40" t="inlineStr"/>
-      <c r="S3" s="40" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="T3" s="40" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="U3" s="40" t="inlineStr"/>
-      <c r="V3" s="40" t="inlineStr"/>
-      <c r="W3" s="40" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X3" s="40" t="inlineStr">
-        <is>
-          <t>126.08,142.08</t>
-        </is>
-      </c>
-      <c r="Y3" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" s="40" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AA3" s="40" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AB3" s="40" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC3" s="40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD3" s="41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="42" t="inlineStr">
-        <is>
-          <t>Sr3d3/2 p2</t>
-        </is>
-      </c>
-      <c r="C4" s="43" t="inlineStr">
-        <is>
-          <t>134.24</t>
-        </is>
-      </c>
-      <c r="D4" s="43" t="inlineStr">
-        <is>
-          <t>70521.91</t>
-        </is>
-      </c>
-      <c r="E4" s="43" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="F4" s="43" t="inlineStr">
-        <is>
-          <t>60.27</t>
-        </is>
-      </c>
-      <c r="G4" s="43" t="inlineStr">
-        <is>
-          <t>75068.25</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I4" s="43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" s="43" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="K4" s="43" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L4" s="43" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M4" s="43" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N4" s="43" t="inlineStr">
-        <is>
-          <t>GL (Area)</t>
-        </is>
-      </c>
-      <c r="O4" s="43" t="inlineStr">
-        <is>
-          <t>327.86</t>
-        </is>
-      </c>
-      <c r="P4" s="43" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="Q4" s="43" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="R4" s="43" t="inlineStr"/>
-      <c r="S4" s="43" t="inlineStr">
-        <is>
-          <t>126.08</t>
-        </is>
-      </c>
-      <c r="T4" s="43" t="inlineStr">
-        <is>
-          <t>142.08</t>
-        </is>
-      </c>
-      <c r="U4" s="43" t="inlineStr"/>
-      <c r="V4" s="43" t="inlineStr"/>
-      <c r="W4" s="43" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X4" s="43" t="inlineStr">
-        <is>
-          <t>A+1.7#0.2</t>
-        </is>
-      </c>
-      <c r="Y4" s="43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" s="43" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AA4" s="43" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AB4" s="43" t="inlineStr">
-        <is>
-          <t>A*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AC4" s="43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD4" s="44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -21279,7 +20808,7 @@
       <c r="AF2" s="33" t="inlineStr"/>
       <c r="AG2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH2" s="33" t="inlineStr">
@@ -21362,7 +20891,7 @@
       </c>
       <c r="AA3" s="36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1:1e7</t>
         </is>
       </c>
       <c r="AB3" s="36" t="inlineStr">
@@ -21384,7 +20913,7 @@
       <c r="AF3" s="36" t="inlineStr"/>
       <c r="AG3" s="36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.01:2</t>
         </is>
       </c>
       <c r="AH3" s="36" t="inlineStr"/>
@@ -21460,7 +20989,7 @@
       <c r="AF4" s="33" t="inlineStr"/>
       <c r="AG4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AH4" s="33" t="inlineStr">
@@ -21543,7 +21072,7 @@
       </c>
       <c r="AA5" s="36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*0.667#0.05</t>
         </is>
       </c>
       <c r="AB5" s="36" t="inlineStr">
@@ -21565,7 +21094,7 @@
       <c r="AF5" s="36" t="inlineStr"/>
       <c r="AG5" s="36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A*1</t>
         </is>
       </c>
       <c r="AH5" s="36" t="inlineStr"/>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -49,6 +49,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
@@ -77,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -457,11 +461,29 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -562,6 +584,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +710,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5619750" cy="4076700"/>
+    <ext cx="5591175" cy="4067175"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -760,7 +790,7 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
+          <a:avLst/>
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
@@ -20550,14 +20580,933 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="22" customWidth="1" min="21" max="21"/>
+    <col width="23" customWidth="1" min="22" max="22"/>
+    <col width="11" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="19" customWidth="1" min="25" max="25"/>
+    <col width="17" customWidth="1" min="26" max="26"/>
+    <col width="16" customWidth="1" min="27" max="27"/>
+    <col width="17" customWidth="1" min="28" max="28"/>
+    <col width="14" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" s="46" t="inlineStr">
+        <is>
+          <t>Sample 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="47" t="inlineStr">
+        <is>
+          <t>Peak
+Label</t>
+        </is>
+      </c>
+      <c r="C3" s="48" t="inlineStr">
+        <is>
+          <t>Position
+(eV)</t>
+        </is>
+      </c>
+      <c r="D3" s="48" t="inlineStr">
+        <is>
+          <t>Height
+(CPS)</t>
+        </is>
+      </c>
+      <c r="E3" s="48" t="inlineStr">
+        <is>
+          <t>FWHM
+(eV)</t>
+        </is>
+      </c>
+      <c r="F3" s="48" t="inlineStr">
+        <is>
+          <t>L/G 
+σ/γ (%)</t>
+        </is>
+      </c>
+      <c r="G3" s="48" t="inlineStr">
+        <is>
+          <t>Area
+(CPS.eV)</t>
+        </is>
+      </c>
+      <c r="H3" s="48" t="inlineStr">
+        <is>
+          <t>Atomic
+(%)</t>
+        </is>
+      </c>
+      <c r="I3" s="48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J3" s="48" t="inlineStr">
+        <is>
+          <t>RSF</t>
+        </is>
+      </c>
+      <c r="K3" s="48" t="inlineStr">
+        <is>
+          <t>TXFN</t>
+        </is>
+      </c>
+      <c r="L3" s="48" t="inlineStr">
+        <is>
+          <t>ECF</t>
+        </is>
+      </c>
+      <c r="M3" s="48" t="inlineStr">
+        <is>
+          <t>Instr.</t>
+        </is>
+      </c>
+      <c r="N3" s="48" t="inlineStr">
+        <is>
+          <t>Fitting Model</t>
+        </is>
+      </c>
+      <c r="O3" s="48" t="inlineStr">
+        <is>
+          <t>Corr. Area
+ Ac (a.u.)</t>
+        </is>
+      </c>
+      <c r="P3" s="48" t="inlineStr">
+        <is>
+          <t>σ or α
+W_g</t>
+        </is>
+      </c>
+      <c r="Q3" s="48" t="inlineStr">
+        <is>
+          <t>γ or β
+W_l</t>
+        </is>
+      </c>
+      <c r="R3" s="48" t="inlineStr">
+        <is>
+          <t>Bkg Type</t>
+        </is>
+      </c>
+      <c r="S3" s="48" t="inlineStr">
+        <is>
+          <t>Bkg Low
+(eV)</t>
+        </is>
+      </c>
+      <c r="T3" s="48" t="inlineStr">
+        <is>
+          <t>Bkg High
+(eV)</t>
+        </is>
+      </c>
+      <c r="U3" s="48" t="inlineStr">
+        <is>
+          <t>Bkg Offset Low
+(CPS)</t>
+        </is>
+      </c>
+      <c r="V3" s="48" t="inlineStr">
+        <is>
+          <t>Bkg Offset High
+(CPS)</t>
+        </is>
+      </c>
+      <c r="W3" s="48" t="inlineStr">
+        <is>
+          <t>Sheetname</t>
+        </is>
+      </c>
+      <c r="X3" s="48" t="inlineStr">
+        <is>
+          <t>Position
+Constraint</t>
+        </is>
+      </c>
+      <c r="Y3" s="48" t="inlineStr">
+        <is>
+          <t>Height
+Constraint</t>
+        </is>
+      </c>
+      <c r="Z3" s="48" t="inlineStr">
+        <is>
+          <t>FWHM
+Constraint</t>
+        </is>
+      </c>
+      <c r="AA3" s="48" t="inlineStr">
+        <is>
+          <t>L/G
+Constraint</t>
+        </is>
+      </c>
+      <c r="AB3" s="48" t="inlineStr">
+        <is>
+          <t>Area
+Constraint</t>
+        </is>
+      </c>
+      <c r="AC3" s="48" t="inlineStr">
+        <is>
+          <t>σ
+Constraint</t>
+        </is>
+      </c>
+      <c r="AD3" s="48" t="inlineStr">
+        <is>
+          <t>γ
+Constraint</t>
+        </is>
+      </c>
+      <c r="AE3" s="49" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="39" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p1</t>
+        </is>
+      </c>
+      <c r="C4" s="40" t="inlineStr">
+        <is>
+          <t>133.47</t>
+        </is>
+      </c>
+      <c r="D4" s="40" t="inlineStr">
+        <is>
+          <t>96832.00</t>
+        </is>
+      </c>
+      <c r="E4" s="40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="F4" s="40" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="G4" s="40" t="inlineStr">
+        <is>
+          <t>111729.00</t>
+        </is>
+      </c>
+      <c r="H4" s="40" t="inlineStr">
+        <is>
+          <t>43.53</t>
+        </is>
+      </c>
+      <c r="I4" s="40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J4" s="40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K4" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="40" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M4" s="40" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N4" s="40" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="O4" s="40" t="inlineStr">
+        <is>
+          <t>336.05</t>
+        </is>
+      </c>
+      <c r="P4" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q4" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R4" s="40" t="inlineStr"/>
+      <c r="S4" s="40" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="T4" s="40" t="n">
+        <v>143.08</v>
+      </c>
+      <c r="U4" s="40" t="inlineStr"/>
+      <c r="V4" s="40" t="inlineStr"/>
+      <c r="W4" s="40" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X4" s="40" t="inlineStr">
+        <is>
+          <t>127.08,143.08</t>
+        </is>
+      </c>
+      <c r="Y4" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="Z4" s="40" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AA4" s="40" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AB4" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC4" s="40" t="inlineStr"/>
+      <c r="AD4" s="40" t="inlineStr"/>
+      <c r="AE4" s="34" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="39" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p2</t>
+        </is>
+      </c>
+      <c r="C5" s="40" t="inlineStr">
+        <is>
+          <t>135.23</t>
+        </is>
+      </c>
+      <c r="D5" s="40" t="inlineStr">
+        <is>
+          <t>64839.00</t>
+        </is>
+      </c>
+      <c r="E5" s="40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="F5" s="40" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="G5" s="40" t="inlineStr">
+        <is>
+          <t>74918.00</t>
+        </is>
+      </c>
+      <c r="H5" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I5" s="40" t="inlineStr"/>
+      <c r="J5" s="40" t="n">
+        <v>2.927432</v>
+      </c>
+      <c r="K5" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="40" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M5" s="40" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N5" s="40" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="O5" s="40" t="inlineStr">
+        <is>
+          <t>327.39</t>
+        </is>
+      </c>
+      <c r="P5" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q5" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R5" s="40" t="inlineStr"/>
+      <c r="S5" s="40" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="T5" s="40" t="n">
+        <v>143.08</v>
+      </c>
+      <c r="U5" s="40" t="inlineStr"/>
+      <c r="V5" s="40" t="inlineStr"/>
+      <c r="W5" s="40" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X5" s="40" t="inlineStr">
+        <is>
+          <t>A+1.70#0.1</t>
+        </is>
+      </c>
+      <c r="Y5" s="40" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="Z5" s="40" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AA5" s="40" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB5" s="40" t="inlineStr">
+        <is>
+          <t>A*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AC5" s="40" t="inlineStr"/>
+      <c r="AD5" s="40" t="inlineStr"/>
+      <c r="AE5" s="34" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="39" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="C6" s="40" t="inlineStr">
+        <is>
+          <t>133.96</t>
+        </is>
+      </c>
+      <c r="D6" s="40" t="inlineStr">
+        <is>
+          <t>6565.00</t>
+        </is>
+      </c>
+      <c r="E6" s="40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="F6" s="40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" s="40" t="inlineStr">
+        <is>
+          <t>6712.00</t>
+        </is>
+      </c>
+      <c r="H6" s="40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="I6" s="40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J6" s="40" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="40" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M6" s="40" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N6" s="40" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="O6" s="40" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="P6" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q6" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R6" s="40" t="inlineStr"/>
+      <c r="S6" s="40" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="T6" s="40" t="n">
+        <v>143.08</v>
+      </c>
+      <c r="U6" s="40" t="inlineStr"/>
+      <c r="V6" s="40" t="inlineStr"/>
+      <c r="W6" s="40" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X6" s="40" t="inlineStr">
+        <is>
+          <t>A+0.42#0.1</t>
+        </is>
+      </c>
+      <c r="Y6" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="Z6" s="40" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AA6" s="40" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AB6" s="40" t="inlineStr">
+        <is>
+          <t>A*0.07#0.01</t>
+        </is>
+      </c>
+      <c r="AC6" s="40" t="inlineStr"/>
+      <c r="AD6" s="40" t="inlineStr"/>
+      <c r="AE6" s="34" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="39" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p4</t>
+        </is>
+      </c>
+      <c r="C7" s="40" t="inlineStr">
+        <is>
+          <t>135.47</t>
+        </is>
+      </c>
+      <c r="D7" s="40" t="inlineStr">
+        <is>
+          <t>4706.00</t>
+        </is>
+      </c>
+      <c r="E7" s="40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="F7" s="40" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" s="40" t="inlineStr">
+        <is>
+          <t>4812.00</t>
+        </is>
+      </c>
+      <c r="H7" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I7" s="40" t="inlineStr"/>
+      <c r="J7" s="40" t="n">
+        <v>2.927432</v>
+      </c>
+      <c r="K7" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="40" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M7" s="40" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N7" s="40" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="O7" s="40" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="P7" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q7" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R7" s="40" t="inlineStr"/>
+      <c r="S7" s="40" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="T7" s="40" t="n">
+        <v>143.08</v>
+      </c>
+      <c r="U7" s="40" t="inlineStr"/>
+      <c r="V7" s="40" t="inlineStr"/>
+      <c r="W7" s="40" t="inlineStr">
+        <is>
+          <t>Sr3d</t>
+        </is>
+      </c>
+      <c r="X7" s="40" t="inlineStr">
+        <is>
+          <t>C+1.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y7" s="40" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="Z7" s="40" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AA7" s="40" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AB7" s="40" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AC7" s="40" t="inlineStr"/>
+      <c r="AD7" s="40" t="inlineStr"/>
+      <c r="AE7" s="34" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="39" t="inlineStr">
+        <is>
+          <t>Ti2p3/2 p1</t>
+        </is>
+      </c>
+      <c r="C8" s="40" t="inlineStr">
+        <is>
+          <t>459.00</t>
+        </is>
+      </c>
+      <c r="D8" s="40" t="inlineStr">
+        <is>
+          <t>88688.00</t>
+        </is>
+      </c>
+      <c r="E8" s="40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F8" s="40" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="G8" s="40" t="inlineStr">
+        <is>
+          <t>116316.00</t>
+        </is>
+      </c>
+      <c r="H8" s="40" t="inlineStr">
+        <is>
+          <t>53.85</t>
+        </is>
+      </c>
+      <c r="I8" s="40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="J8" s="40" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="K8" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="40" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M8" s="40" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N8" s="40" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="O8" s="40" t="inlineStr">
+        <is>
+          <t>415.92</t>
+        </is>
+      </c>
+      <c r="P8" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q8" s="40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R8" s="40" t="inlineStr"/>
+      <c r="S8" s="40" t="n">
+        <v>449.08</v>
+      </c>
+      <c r="T8" s="40" t="n">
+        <v>476.08</v>
+      </c>
+      <c r="U8" s="40" t="inlineStr"/>
+      <c r="V8" s="40" t="inlineStr"/>
+      <c r="W8" s="40" t="inlineStr">
+        <is>
+          <t>Ti2p</t>
+        </is>
+      </c>
+      <c r="X8" s="40" t="inlineStr">
+        <is>
+          <t>449.08,476.08</t>
+        </is>
+      </c>
+      <c r="Y8" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="Z8" s="40" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AA8" s="40" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AB8" s="40" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AC8" s="40" t="inlineStr"/>
+      <c r="AD8" s="40" t="inlineStr"/>
+      <c r="AE8" s="34" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="42" t="inlineStr">
+        <is>
+          <t>Ti2p1/2 p2</t>
+        </is>
+      </c>
+      <c r="C9" s="43" t="inlineStr">
+        <is>
+          <t>464.74</t>
+        </is>
+      </c>
+      <c r="D9" s="43" t="inlineStr">
+        <is>
+          <t>25353.00</t>
+        </is>
+      </c>
+      <c r="E9" s="43" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="F9" s="43" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="G9" s="43" t="inlineStr">
+        <is>
+          <t>63974.00</t>
+        </is>
+      </c>
+      <c r="H9" s="43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="I9" s="43" t="inlineStr"/>
+      <c r="J9" s="43" t="n">
+        <v>2.055385</v>
+      </c>
+      <c r="K9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="43" t="inlineStr">
+        <is>
+          <t>TPP-2M</t>
+        </is>
+      </c>
+      <c r="M9" s="43" t="inlineStr">
+        <is>
+          <t>A-ALTHERMO1</t>
+        </is>
+      </c>
+      <c r="N9" s="43" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="O9" s="43" t="inlineStr">
+        <is>
+          <t>493.49</t>
+        </is>
+      </c>
+      <c r="P9" s="43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q9" s="43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R9" s="43" t="inlineStr"/>
+      <c r="S9" s="43" t="n">
+        <v>449.08</v>
+      </c>
+      <c r="T9" s="43" t="n">
+        <v>476.08</v>
+      </c>
+      <c r="U9" s="43" t="inlineStr"/>
+      <c r="V9" s="43" t="inlineStr"/>
+      <c r="W9" s="43" t="inlineStr">
+        <is>
+          <t>Ti2p</t>
+        </is>
+      </c>
+      <c r="X9" s="43" t="inlineStr">
+        <is>
+          <t>A+5.7#0.2</t>
+        </is>
+      </c>
+      <c r="Y9" s="43" t="inlineStr">
+        <is>
+          <t>A*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="Z9" s="43" t="inlineStr">
+        <is>
+          <t>0.3:3.5</t>
+        </is>
+      </c>
+      <c r="AA9" s="43" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AB9" s="43" t="inlineStr">
+        <is>
+          <t>A*0.5#0.05</t>
+        </is>
+      </c>
+      <c r="AC9" s="43" t="inlineStr"/>
+      <c r="AD9" s="43" t="inlineStr"/>
+      <c r="AE9" s="37" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -20620,8 +21569,16 @@
           <t>Sr3d3/2 p2</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr"/>
-      <c r="M1" s="28" t="inlineStr"/>
+      <c r="L1" s="28" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="M1" s="28" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p4</t>
+        </is>
+      </c>
       <c r="N1" s="28" t="inlineStr"/>
       <c r="O1" s="28" t="inlineStr"/>
       <c r="P1" s="28" t="inlineStr"/>
@@ -20755,19 +21712,25 @@
         <v>143.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-142.4048706688154</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26049.5</v>
+        <v>26191.90487066882</v>
       </c>
       <c r="J2" t="n">
-        <v>26049.5</v>
+        <v>26120.15214375677</v>
       </c>
       <c r="K2" t="n">
-        <v>26049.5</v>
+        <v>26120.41345053104</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26049.91382020344</v>
+      </c>
+      <c r="M2" t="n">
+        <v>26049.92553670831</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -20781,39 +21744,39 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>133.49</t>
+          <t>133.47</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>101414</t>
+          <t>96697</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>60.17</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>107952</t>
+          <t>111729</t>
         </is>
       </c>
       <c r="AE2" s="33" t="inlineStr"/>
       <c r="AF2" s="33" t="inlineStr"/>
       <c r="AG2" s="33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AH2" s="33" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="AI2" s="33" t="inlineStr">
@@ -20828,22 +21791,22 @@
       </c>
       <c r="AK2" s="33" t="inlineStr">
         <is>
-          <t>GL (Area)</t>
+          <t>SGL (Area)</t>
         </is>
       </c>
       <c r="AL2" s="33" t="inlineStr">
         <is>
-          <t>Multi-Regions Smart</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>128.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>144.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
@@ -20868,25 +21831,31 @@
         <v>142.98</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-145.7503139030596</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26437.6</v>
+        <v>26583.35031390306</v>
       </c>
       <c r="J3" t="n">
-        <v>26437.6</v>
+        <v>26509.74208826296</v>
       </c>
       <c r="K3" t="n">
-        <v>26437.6</v>
+        <v>26510.34838871875</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26438.02302116462</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26438.03689923837</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>129.08,145.08</t>
+          <t>127.08,143.08</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -20936,19 +21905,25 @@
         <v>142.88</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-149.2161786423494</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26696.9</v>
+        <v>26846.11617864235</v>
       </c>
       <c r="J4" t="n">
-        <v>26696.9</v>
+        <v>26770.57962463415</v>
       </c>
       <c r="K4" t="n">
-        <v>26696.9</v>
+        <v>26771.55538606764</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26697.3325321398</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26697.34872237682</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -20962,69 +21937,69 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>135.24</t>
+          <t>135.23</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>70382</t>
+          <t>64839</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>60.16</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>74919</t>
+          <t>74918</t>
         </is>
       </c>
       <c r="AE4" s="33" t="inlineStr"/>
       <c r="AF4" s="33" t="inlineStr"/>
       <c r="AG4" s="33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>67.1</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AK4" s="33" t="inlineStr">
         <is>
-          <t>GL (Area)</t>
+          <t>SGL (Area)</t>
         </is>
       </c>
       <c r="AL4" s="33" t="inlineStr">
         <is>
-          <t>Multi-Regions Smart</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>128.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>144.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
@@ -21049,25 +22024,31 @@
         <v>142.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-152.8083689899031</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>25942.6</v>
+        <v>26095.4083689899</v>
       </c>
       <c r="J5" t="n">
-        <v>25942.6</v>
+        <v>26017.86679977152</v>
       </c>
       <c r="K5" t="n">
-        <v>25942.6</v>
+        <v>26019.23826051657</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25943.04236720056</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25943.061031324</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
       <c r="Z5" s="36" t="inlineStr">
         <is>
-          <t>A+1.7#0.2</t>
+          <t>A+1.70#0.1</t>
         </is>
       </c>
       <c r="AA5" s="36" t="inlineStr">
@@ -21117,19 +22098,112 @@
         <v>142.68</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-156.5331586343818</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26565.8</v>
+        <v>26722.33315863438</v>
       </c>
       <c r="J6" t="n">
-        <v>26565.8</v>
+        <v>26642.70577171619</v>
       </c>
       <c r="K6" t="n">
-        <v>26565.8</v>
+        <v>26644.50108589917</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26566.2525412252</v>
+      </c>
+      <c r="M6" t="n">
+        <v>26566.27385302499</v>
+      </c>
+      <c r="X6" s="32" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Y6" s="33" t="inlineStr">
+        <is>
+          <t>Sr3d5/2 p3</t>
+        </is>
+      </c>
+      <c r="Z6" s="33" t="inlineStr">
+        <is>
+          <t>133.96</t>
+        </is>
+      </c>
+      <c r="AA6" s="33" t="inlineStr">
+        <is>
+          <t>6565</t>
+        </is>
+      </c>
+      <c r="AB6" s="33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="AC6" s="33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AD6" s="33" t="inlineStr">
+        <is>
+          <t>6712</t>
+        </is>
+      </c>
+      <c r="AE6" s="33" t="inlineStr"/>
+      <c r="AF6" s="33" t="inlineStr"/>
+      <c r="AG6" s="33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="AH6" s="33" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="AI6" s="33" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="AJ6" s="33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="AK6" s="33" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="AL6" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM6" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN6" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO6" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -21143,20 +22217,68 @@
         <v>142.58</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-160.3972191976027</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26089.7</v>
+        <v>26250.0972191976</v>
       </c>
       <c r="J7" t="n">
-        <v>26089.7</v>
+        <v>26168.29881696327</v>
       </c>
       <c r="K7" t="n">
-        <v>26089.7</v>
-      </c>
+        <v>26170.54821277464</v>
+      </c>
+      <c r="L7" t="n">
+        <v>26090.16306995486</v>
+      </c>
+      <c r="M7" t="n">
+        <v>26090.18721631631</v>
+      </c>
+      <c r="X7" s="35" t="inlineStr"/>
+      <c r="Y7" s="36" t="inlineStr"/>
+      <c r="Z7" s="36" t="inlineStr">
+        <is>
+          <t>A+0.42#0.1</t>
+        </is>
+      </c>
+      <c r="AA7" s="36" t="inlineStr">
+        <is>
+          <t>1:1e7</t>
+        </is>
+      </c>
+      <c r="AB7" s="36" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AC7" s="36" t="inlineStr">
+        <is>
+          <t>2:80</t>
+        </is>
+      </c>
+      <c r="AD7" s="36" t="inlineStr">
+        <is>
+          <t>A*0.07#0.01</t>
+        </is>
+      </c>
+      <c r="AE7" s="36" t="inlineStr"/>
+      <c r="AF7" s="36" t="inlineStr"/>
+      <c r="AG7" s="36" t="inlineStr">
+        <is>
+          <t>0.01:2</t>
+        </is>
+      </c>
+      <c r="AH7" s="36" t="inlineStr"/>
+      <c r="AI7" s="36" t="inlineStr"/>
+      <c r="AJ7" s="36" t="inlineStr"/>
+      <c r="AK7" s="36" t="inlineStr"/>
+      <c r="AL7" s="36" t="inlineStr"/>
+      <c r="AM7" s="36" t="inlineStr"/>
+      <c r="AN7" s="36" t="inlineStr"/>
+      <c r="AO7" s="36" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -21169,19 +22291,112 @@
         <v>142.48</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-164.4076511711755</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>26784.6</v>
+        <v>26949.00765117117</v>
       </c>
       <c r="J8" t="n">
-        <v>26784.6</v>
+        <v>26864.94833834322</v>
       </c>
       <c r="K8" t="n">
-        <v>26784.6</v>
+        <v>26867.68429126106</v>
+      </c>
+      <c r="L8" t="n">
+        <v>26785.07397005415</v>
+      </c>
+      <c r="M8" t="n">
+        <v>26785.1011520873</v>
+      </c>
+      <c r="X8" s="32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y8" s="33" t="inlineStr">
+        <is>
+          <t>Sr3d3/2 p4</t>
+        </is>
+      </c>
+      <c r="Z8" s="33" t="inlineStr">
+        <is>
+          <t>135.47</t>
+        </is>
+      </c>
+      <c r="AA8" s="33" t="inlineStr">
+        <is>
+          <t>4706</t>
+        </is>
+      </c>
+      <c r="AB8" s="33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="AC8" s="33" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="AD8" s="33" t="inlineStr">
+        <is>
+          <t>4812</t>
+        </is>
+      </c>
+      <c r="AE8" s="33" t="inlineStr"/>
+      <c r="AF8" s="33" t="inlineStr"/>
+      <c r="AG8" s="33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="AH8" s="33" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="AI8" s="33" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="AJ8" s="33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="AK8" s="33" t="inlineStr">
+        <is>
+          <t>SGL (Area)</t>
+        </is>
+      </c>
+      <c r="AL8" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM8" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN8" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO8" s="33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -21195,20 +22410,68 @@
         <v>142.38</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-168.5720177176991</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26357.7</v>
+        <v>26526.2720177177</v>
       </c>
       <c r="J9" t="n">
-        <v>26357.7</v>
+        <v>26439.85687352118</v>
       </c>
       <c r="K9" t="n">
-        <v>26357.7</v>
-      </c>
+        <v>26443.11429609406</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26358.18525917692</v>
+      </c>
+      <c r="M9" t="n">
+        <v>26358.21569345772</v>
+      </c>
+      <c r="X9" s="35" t="inlineStr"/>
+      <c r="Y9" s="36" t="inlineStr"/>
+      <c r="Z9" s="36" t="inlineStr">
+        <is>
+          <t>C+1.7#0.2</t>
+        </is>
+      </c>
+      <c r="AA9" s="36" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AB9" s="36" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AC9" s="36" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AD9" s="36" t="inlineStr">
+        <is>
+          <t>C*0.667#0.05</t>
+        </is>
+      </c>
+      <c r="AE9" s="36" t="inlineStr"/>
+      <c r="AF9" s="36" t="inlineStr"/>
+      <c r="AG9" s="36" t="inlineStr">
+        <is>
+          <t>C*1</t>
+        </is>
+      </c>
+      <c r="AH9" s="36" t="inlineStr"/>
+      <c r="AI9" s="36" t="inlineStr"/>
+      <c r="AJ9" s="36" t="inlineStr"/>
+      <c r="AK9" s="36" t="inlineStr"/>
+      <c r="AL9" s="36" t="inlineStr"/>
+      <c r="AM9" s="36" t="inlineStr"/>
+      <c r="AN9" s="36" t="inlineStr"/>
+      <c r="AO9" s="36" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -21221,19 +22484,25 @@
         <v>142.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-172.8983816458313</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26256</v>
+        <v>26428.89838164583</v>
       </c>
       <c r="J10" t="n">
-        <v>26256</v>
+        <v>26340.02710417035</v>
       </c>
       <c r="K10" t="n">
-        <v>26256</v>
+        <v>26343.84355416161</v>
+      </c>
+      <c r="L10" t="n">
+        <v>26256.49695603745</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26256.53087597348</v>
       </c>
     </row>
     <row r="11">
@@ -21247,19 +22516,25 @@
         <v>142.18</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-177.3953459067779</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26519.3</v>
+        <v>26696.69534590678</v>
       </c>
       <c r="J11" t="n">
-        <v>26519.3</v>
+        <v>26605.26186588104</v>
       </c>
       <c r="K11" t="n">
-        <v>26519.3</v>
+        <v>26609.67777479812</v>
+      </c>
+      <c r="L11" t="n">
+        <v>26519.80908048774</v>
+      </c>
+      <c r="M11" t="n">
+        <v>26519.84673782271</v>
       </c>
     </row>
     <row r="12">
@@ -21273,19 +22548,25 @@
         <v>142.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-182.0720980034421</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>25948.6</v>
+        <v>26130.67209800344</v>
       </c>
       <c r="J12" t="n">
-        <v>25948.6</v>
+        <v>26036.56415887354</v>
       </c>
       <c r="K12" t="n">
-        <v>25948.6</v>
+        <v>26041.62308315813</v>
+      </c>
+      <c r="L12" t="n">
+        <v>25949.12165360144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>25949.16332007464</v>
       </c>
     </row>
     <row r="13">
@@ -21299,19 +22580,25 @@
         <v>141.98</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-186.9384587534041</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>26945.3</v>
+        <v>27132.2384587534</v>
       </c>
       <c r="J13" t="n">
-        <v>26945.3</v>
+        <v>27035.33715959026</v>
       </c>
       <c r="K13" t="n">
-        <v>26945.3</v>
+        <v>27041.08605703171</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26945.83469776508</v>
+      </c>
+      <c r="M13" t="n">
+        <v>26945.88066694382</v>
       </c>
     </row>
     <row r="14">
@@ -21325,19 +22612,25 @@
         <v>141.88</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-192.004935903904</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26444</v>
+        <v>26636.0049359039</v>
       </c>
       <c r="J14" t="n">
-        <v>26444</v>
+        <v>26536.18423325026</v>
       </c>
       <c r="K14" t="n">
-        <v>26444</v>
+        <v>26542.67376751269</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26444.54823677733</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26444.59882608322</v>
       </c>
     </row>
     <row r="15">
@@ -21351,19 +22644,25 @@
         <v>141.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-197.2827831625145</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>26729.6</v>
+        <v>26926.88278316251</v>
       </c>
       <c r="J15" t="n">
-        <v>26729.6</v>
+        <v>26824.00894745873</v>
       </c>
       <c r="K15" t="n">
-        <v>26729.6</v>
+        <v>26831.29382398667</v>
+      </c>
+      <c r="L15" t="n">
+        <v>26730.1622959571</v>
+      </c>
+      <c r="M15" t="n">
+        <v>26730.21784890948</v>
       </c>
     </row>
     <row r="16">
@@ -21377,19 +22676,25 @@
         <v>141.68</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-202.784065282387</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27045.9</v>
+        <v>27248.68406528239</v>
       </c>
       <c r="J16" t="n">
-        <v>27045.9</v>
+        <v>27142.61508697359</v>
       </c>
       <c r="K16" t="n">
-        <v>27045.9</v>
+        <v>27150.75442397012</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27046.47690226147</v>
+      </c>
+      <c r="M16" t="n">
+        <v>27046.53779096462</v>
       </c>
     </row>
     <row r="17">
@@ -21403,19 +22708,25 @@
         <v>141.58</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-208.5217299275027</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26274.3</v>
+        <v>26482.8217299275</v>
       </c>
       <c r="J17" t="n">
-        <v>26274.3</v>
+        <v>26373.40666974316</v>
       </c>
       <c r="K17" t="n">
-        <v>26274.3</v>
+        <v>26382.46440840667</v>
+      </c>
+      <c r="L17" t="n">
+        <v>26274.89208441431</v>
+      </c>
+      <c r="M17" t="n">
+        <v>26274.95871231884</v>
       </c>
     </row>
     <row r="18">
@@ -21429,19 +22740,25 @@
         <v>141.48</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-214.5096871431379</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>25721.7</v>
+        <v>25936.20968714314</v>
       </c>
       <c r="J18" t="n">
-        <v>25721.7</v>
+        <v>25823.28796434109</v>
       </c>
       <c r="K18" t="n">
-        <v>25721.7</v>
+        <v>25833.3333231129</v>
+      </c>
+      <c r="L18" t="n">
+        <v>25722.30787304699</v>
+      </c>
+      <c r="M18" t="n">
+        <v>25722.3806780199</v>
       </c>
     </row>
     <row r="19">
@@ -21455,19 +22772,25 @@
         <v>141.38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-220.7628973723877</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26199.6</v>
+        <v>26420.36289737239</v>
       </c>
       <c r="J19" t="n">
-        <v>26199.6</v>
+        <v>26303.76350893939</v>
       </c>
       <c r="K19" t="n">
-        <v>26199.6</v>
+        <v>26314.87148716592</v>
+      </c>
+      <c r="L19" t="n">
+        <v>26200.22430085209</v>
+      </c>
+      <c r="M19" t="n">
+        <v>26200.30375859528</v>
       </c>
     </row>
     <row r="20">
@@ -21481,19 +22804,25 @@
         <v>141.28</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-227.2974690931296</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27175.7</v>
+        <v>27402.99746909313</v>
       </c>
       <c r="J20" t="n">
-        <v>27175.7</v>
+        <v>27282.53813197643</v>
       </c>
       <c r="K20" t="n">
-        <v>27175.7</v>
+        <v>27294.79006914213</v>
+      </c>
+      <c r="L20" t="n">
+        <v>27176.34140275196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>27176.42803061425</v>
       </c>
     </row>
     <row r="21">
@@ -21507,19 +22836,25 @@
         <v>141.18</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-234.1307673052579</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26142</v>
+        <v>26376.13076730526</v>
       </c>
       <c r="J21" t="n">
-        <v>26142</v>
+        <v>26251.61697469487</v>
       </c>
       <c r="K21" t="n">
-        <v>26142</v>
+        <v>26265.10117225156</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26142.65921608343</v>
+      </c>
+      <c r="M21" t="n">
+        <v>26142.75357731827</v>
       </c>
     </row>
     <row r="22">
@@ -21533,19 +22868,25 @@
         <v>141.08</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-241.2815342787508</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26419.9</v>
+        <v>26661.18153427875</v>
       </c>
       <c r="J22" t="n">
-        <v>26419.9</v>
+        <v>26532.40551574515</v>
       </c>
       <c r="K22" t="n">
-        <v>26419.9</v>
+        <v>26547.21792957164</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26420.57778080063</v>
+      </c>
+      <c r="M22" t="n">
+        <v>26420.68048932928</v>
       </c>
     </row>
     <row r="23">
@@ -21559,19 +22900,25 @@
         <v>140.98</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-248.7700241840612</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27293.7</v>
+        <v>27542.47002418406</v>
       </c>
       <c r="J23" t="n">
-        <v>27293.7</v>
+        <v>27409.20959807358</v>
       </c>
       <c r="K23" t="n">
-        <v>27293.7</v>
+        <v>27425.45461076961</v>
+      </c>
+      <c r="L23" t="n">
+        <v>27294.3971396979</v>
+      </c>
+      <c r="M23" t="n">
+        <v>27294.50886544703</v>
       </c>
     </row>
     <row r="24">
@@ -21585,19 +22932,25 @@
         <v>140.88</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>-256.6181534731149</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26191.1</v>
+        <v>26447.71815347311</v>
       </c>
       <c r="J24" t="n">
-        <v>26191.1</v>
+        <v>26309.73545834015</v>
       </c>
       <c r="K24" t="n">
-        <v>26191.1</v>
+        <v>26327.52674192119</v>
+      </c>
+      <c r="L24" t="n">
+        <v>26191.8173386552</v>
+      </c>
+      <c r="M24" t="n">
+        <v>26191.93881354847</v>
       </c>
     </row>
     <row r="25">
@@ -21611,19 +22964,25 @@
         <v>140.78</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-264.8496691684413</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26444.7</v>
+        <v>26709.54966916844</v>
       </c>
       <c r="J25" t="n">
-        <v>26444.7</v>
+        <v>26566.58975914164</v>
       </c>
       <c r="K25" t="n">
-        <v>26444.7</v>
+        <v>26586.05124029006</v>
+      </c>
+      <c r="L25" t="n">
+        <v>26445.43842690855</v>
+      </c>
+      <c r="M25" t="n">
+        <v>26445.57045160436</v>
       </c>
     </row>
     <row r="26">
@@ -21637,19 +22996,25 @@
         <v>140.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>-273.4903375582653</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26393.80000000001</v>
+        <v>26667.29033755826</v>
       </c>
       <c r="J26" t="n">
-        <v>26393.8</v>
+        <v>26519.0796243492</v>
       </c>
       <c r="K26" t="n">
-        <v>26393.80000000001</v>
+        <v>26540.34656623577</v>
+      </c>
+      <c r="L26" t="n">
+        <v>26394.56045734843</v>
+      </c>
+      <c r="M26" t="n">
+        <v>26394.70390883083</v>
       </c>
     </row>
     <row r="27">
@@ -21663,19 +23028,25 @@
         <v>140.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.182787284255028e-11</v>
+        <v>-282.5681561964957</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26023.20000000002</v>
+        <v>26305.7681561965</v>
       </c>
       <c r="J27" t="n">
-        <v>26023.2</v>
+        <v>26152.01267790897</v>
       </c>
       <c r="K27" t="n">
-        <v>26023.20000000002</v>
+        <v>26175.23289477652</v>
+      </c>
+      <c r="L27" t="n">
+        <v>26023.98348684961</v>
+      </c>
+      <c r="M27" t="n">
+        <v>26024.13932699673</v>
       </c>
     </row>
     <row r="28">
@@ -21689,19 +23060,25 @@
         <v>140.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.912159733474255e-11</v>
+        <v>-292.1135925808921</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27069.80000000007</v>
+        <v>27361.91359258089</v>
       </c>
       <c r="J28" t="n">
-        <v>27069.8</v>
+        <v>27202.29708649827</v>
       </c>
       <c r="K28" t="n">
-        <v>27069.80000000007</v>
+        <v>27227.63230975912</v>
+      </c>
+      <c r="L28" t="n">
+        <v>27070.60757663616</v>
+      </c>
+      <c r="M28" t="n">
+        <v>27070.77686191116</v>
       </c>
     </row>
     <row r="29">
@@ -21715,19 +23092,25 @@
         <v>140.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.291926648467779e-10</v>
+        <v>-302.1598534450277</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26161.80000000023</v>
+        <v>26463.95985344503</v>
       </c>
       <c r="J29" t="n">
-        <v>26161.8</v>
+        <v>26298.14160648094</v>
       </c>
       <c r="K29" t="n">
-        <v>26161.80000000023</v>
+        <v>26325.76902409515</v>
+      </c>
+      <c r="L29" t="n">
+        <v>26162.63279268598</v>
+      </c>
+      <c r="M29" t="n">
+        <v>26162.81668512013</v>
       </c>
     </row>
     <row r="30">
@@ -21741,19 +23124,25 @@
         <v>140.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.385096978396177e-10</v>
+        <v>-312.7431892689128</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26300.20000000074</v>
+        <v>26612.94318926891</v>
       </c>
       <c r="J30" t="n">
-        <v>26300.2</v>
+        <v>26440.55563566316</v>
       </c>
       <c r="K30" t="n">
-        <v>26300.20000000074</v>
+        <v>26470.66963012754</v>
+      </c>
+      <c r="L30" t="n">
+        <v>26301.05920617985</v>
+      </c>
+      <c r="M30" t="n">
+        <v>26301.25898584651</v>
       </c>
     </row>
     <row r="31">
@@ -21767,19 +23156,25 @@
         <v>140.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.313754521310329e-09</v>
+        <v>-323.9032394111637</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26179.20000000231</v>
+        <v>26503.10323941116</v>
       </c>
       <c r="J31" t="n">
-        <v>26179.2</v>
+        <v>26323.74927041822</v>
       </c>
       <c r="K31" t="n">
-        <v>26179.20000000231</v>
+        <v>26356.56338491596</v>
+      </c>
+      <c r="L31" t="n">
+        <v>26180.08689400062</v>
+      </c>
+      <c r="M31" t="n">
+        <v>26180.30397321364</v>
       </c>
     </row>
     <row r="32">
@@ -21793,19 +23188,25 @@
         <v>140.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.09405867382884e-09</v>
+        <v>-335.6834242214245</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>25952.4000000071</v>
+        <v>26288.08342422143</v>
       </c>
       <c r="J32" t="n">
-        <v>25952.4</v>
+        <v>26101.33336882489</v>
       </c>
       <c r="K32" t="n">
-        <v>25952.4000000071</v>
+        <v>26137.08253610022</v>
+      </c>
+      <c r="L32" t="n">
+        <v>25953.31593928912</v>
+      </c>
+      <c r="M32" t="n">
+        <v>25953.55187880118</v>
       </c>
     </row>
     <row r="33">
@@ -21819,19 +23220,25 @@
         <v>139.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.130036591552198e-08</v>
+        <v>-348.131391639301</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>25823.1000000213</v>
+        <v>26171.2313916393</v>
       </c>
       <c r="J33" t="n">
-        <v>25823.1</v>
+        <v>25976.61962055275</v>
       </c>
       <c r="K33" t="n">
-        <v>25823.1000000213</v>
+        <v>26015.5626950495</v>
+      </c>
+      <c r="L33" t="n">
+        <v>25824.04643206416</v>
+      </c>
+      <c r="M33" t="n">
+        <v>25824.30295959053</v>
       </c>
     </row>
     <row r="34">
@@ -21845,19 +23252,25 @@
         <v>139.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.259506335482001e-08</v>
+        <v>-361.2995271693217</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>25796.2000000626</v>
+        <v>26157.49952716932</v>
       </c>
       <c r="J34" t="n">
-        <v>25796.2</v>
+        <v>25954.52062432945</v>
       </c>
       <c r="K34" t="n">
-        <v>25796.2000000626</v>
+        <v>25996.94326527448</v>
+      </c>
+      <c r="L34" t="n">
+        <v>25797.17846991525</v>
+      </c>
+      <c r="M34" t="n">
+        <v>25797.45750136921</v>
       </c>
     </row>
     <row r="35">
@@ -21871,19 +23284,25 @@
         <v>139.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.80087226908654e-07</v>
+        <v>-375.2455377949591</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>25706.90000018009</v>
+        <v>26082.14553779496</v>
       </c>
       <c r="J35" t="n">
-        <v>25706.9</v>
+        <v>25870.24997394281</v>
       </c>
       <c r="K35" t="n">
-        <v>25706.90000018009</v>
+        <v>25916.46793561893</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25707.91215877789</v>
+      </c>
+      <c r="M35" t="n">
+        <v>25708.21582267718</v>
       </c>
     </row>
     <row r="36">
@@ -21897,19 +23316,25 @@
         <v>139.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.07261574966833e-07</v>
+        <v>-390.0331224257534</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>25865.60000050726</v>
+        <v>26255.63312242575</v>
       </c>
       <c r="J36" t="n">
-        <v>25865.6</v>
+        <v>26034.22235386755</v>
       </c>
       <c r="K36" t="n">
-        <v>25865.60000050726</v>
+        <v>26084.58524962396</v>
+      </c>
+      <c r="L36" t="n">
+        <v>25866.64761380288</v>
+      </c>
+      <c r="M36" t="n">
+        <v>25866.97827939564</v>
       </c>
     </row>
     <row r="37">
@@ -21923,19 +23348,25 @@
         <v>139.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.398926542606205e-06</v>
+        <v>-405.7327439479595</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26150.60000139893</v>
+        <v>26556.33274394796</v>
       </c>
       <c r="J37" t="n">
-        <v>26150.6</v>
+        <v>26324.75364576462</v>
       </c>
       <c r="K37" t="n">
-        <v>26150.60000139893</v>
+        <v>26379.64926475177</v>
+      </c>
+      <c r="L37" t="n">
+        <v>26151.68496033287</v>
+      </c>
+      <c r="M37" t="n">
+        <v>26152.04527010014</v>
       </c>
     </row>
     <row r="38">
@@ -21949,19 +23380,25 @@
         <v>139.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.777426172746345e-06</v>
+        <v>-422.4225209787764</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>25610.50000377743</v>
+        <v>26032.92252097878</v>
       </c>
       <c r="J38" t="n">
-        <v>25610.5</v>
+        <v>25790.46104728617</v>
       </c>
       <c r="K38" t="n">
-        <v>25610.50000377744</v>
+        <v>25850.32031797273</v>
+      </c>
+      <c r="L38" t="n">
+        <v>25611.62433500144</v>
+      </c>
+      <c r="M38" t="n">
+        <v>25612.01724232593</v>
       </c>
     </row>
     <row r="39">
@@ -21975,19 +23412,25 @@
         <v>139.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-9.987441444536671e-06</v>
+        <v>-440.1892611473922</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>25614.30000998744</v>
+        <v>26054.48926114739</v>
       </c>
       <c r="J39" t="n">
-        <v>25614.3</v>
+        <v>25800.36320483462</v>
       </c>
       <c r="K39" t="n">
-        <v>25614.30000998748</v>
+        <v>25865.66591769173</v>
+      </c>
+      <c r="L39" t="n">
+        <v>25615.46588697268</v>
+      </c>
+      <c r="M39" t="n">
+        <v>25615.894699927</v>
       </c>
     </row>
     <row r="40">
@@ -22001,19 +23444,25 @@
         <v>139.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.585766924312338e-05</v>
+        <v>-459.1296623211747</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25482.40002585767</v>
+        <v>25941.52966232118</v>
       </c>
       <c r="J40" t="n">
-        <v>25482.4</v>
+        <v>25674.88036217629</v>
       </c>
       <c r="K40" t="n">
-        <v>25482.40002585778</v>
+        <v>25746.16178628829</v>
+      </c>
+      <c r="L40" t="n">
+        <v>25483.60977934198</v>
+      </c>
+      <c r="M40" t="n">
+        <v>25484.078211751</v>
       </c>
     </row>
     <row r="41">
@@ -22027,19 +23476,25 @@
         <v>139.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.555765503435396e-05</v>
+        <v>-479.3517138911047</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>25820.70006555766</v>
+        <v>26300.05171389111</v>
       </c>
       <c r="J41" t="n">
-        <v>25820.7</v>
+        <v>26019.93452710539</v>
       </c>
       <c r="K41" t="n">
-        <v>25820.70006555793</v>
+        <v>26097.79308289042</v>
+      </c>
+      <c r="L41" t="n">
+        <v>25821.95619072242</v>
+      </c>
+      <c r="M41" t="n">
+        <v>25822.46842190429</v>
       </c>
     </row>
     <row r="42">
@@ -22053,19 +23508,25 @@
         <v>139.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0001627719866519328</v>
+        <v>-500.9763373255664</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25337.90016277199</v>
+        <v>25838.87633732557</v>
       </c>
       <c r="J42" t="n">
-        <v>25337.9</v>
+        <v>25544.24965870185</v>
       </c>
       <c r="K42" t="n">
-        <v>25337.90016277268</v>
+        <v>25629.35584267974</v>
+      </c>
+      <c r="L42" t="n">
+        <v>25339.20531704537</v>
+      </c>
+      <c r="M42" t="n">
+        <v>25339.7660619469</v>
       </c>
     </row>
     <row r="43">
@@ -22079,19 +23540,25 @@
         <v>138.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0003958066954510286</v>
+        <v>-524.1393140805594</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>25660.4003958067</v>
+        <v>26184.53931408056</v>
       </c>
       <c r="J43" t="n">
-        <v>25660.40000000001</v>
+        <v>25874.25187813515</v>
       </c>
       <c r="K43" t="n">
-        <v>25660.40039580837</v>
+        <v>25967.35867740694</v>
+      </c>
+      <c r="L43" t="n">
+        <v>25661.75737360883</v>
+      </c>
+      <c r="M43" t="n">
+        <v>25662.37196544042</v>
       </c>
     </row>
     <row r="44">
@@ -22105,19 +23572,25 @@
         <v>138.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.000942671988013899</v>
+        <v>-548.9935601229517</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25130.50094267199</v>
+        <v>25679.49356012295</v>
       </c>
       <c r="J44" t="n">
-        <v>25130.50000000002</v>
+        <v>25352.26970645027</v>
       </c>
       <c r="K44" t="n">
-        <v>25130.50094267597</v>
+        <v>25454.22479236979</v>
+      </c>
+      <c r="L44" t="n">
+        <v>25131.91259741313</v>
+      </c>
+      <c r="M44" t="n">
+        <v>25132.58708537823</v>
       </c>
     </row>
     <row r="45">
@@ -22131,19 +23604,25 @@
         <v>138.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.002199078731791815</v>
+        <v>-575.7118204466824</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25320.60219907873</v>
+        <v>25896.31182044668</v>
       </c>
       <c r="J45" t="n">
-        <v>25320.60000000005</v>
+        <v>25550.73433334447</v>
       </c>
       <c r="K45" t="n">
-        <v>25320.602199088</v>
+        <v>25662.49438851157</v>
+      </c>
+      <c r="L45" t="n">
+        <v>25322.07124983081</v>
+      </c>
+      <c r="M45" t="n">
+        <v>25322.81251516426</v>
       </c>
     </row>
     <row r="46">
@@ -22157,19 +23636,25 @@
         <v>138.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.005025213667977368</v>
+        <v>-604.4898749168242</v>
       </c>
       <c r="H46" t="n">
         <v>24983.9</v>
       </c>
       <c r="I46" t="n">
-        <v>24983.90502521367</v>
+        <v>25588.38987491683</v>
       </c>
       <c r="J46" t="n">
-        <v>24983.90000000019</v>
+        <v>25222.87992162417</v>
       </c>
       <c r="K46" t="n">
-        <v>24983.9050252348</v>
+        <v>25345.52753538779</v>
+      </c>
+      <c r="L46" t="n">
+        <v>24985.43361966637</v>
+      </c>
+      <c r="M46" t="n">
+        <v>24986.24951398312</v>
       </c>
     </row>
     <row r="47">
@@ -22183,19 +23668,25 @@
         <v>138.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01124954768965836</v>
+        <v>-635.5503697361091</v>
       </c>
       <c r="H47" t="n">
         <v>25008</v>
       </c>
       <c r="I47" t="n">
-        <v>25008.01124954769</v>
+        <v>25643.55036973611</v>
       </c>
       <c r="J47" t="n">
-        <v>25008.0000000006</v>
+        <v>25256.34395284236</v>
       </c>
       <c r="K47" t="n">
-        <v>25008.0112495948</v>
+        <v>25391.10762265659</v>
+      </c>
+      <c r="L47" t="n">
+        <v>25009.60002667185</v>
+      </c>
+      <c r="M47" t="n">
+        <v>25010.49953763422</v>
       </c>
     </row>
     <row r="48">
@@ -22209,19 +23700,25 @@
         <v>138.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.02467278265248751</v>
+        <v>-669.1474183590835</v>
       </c>
       <c r="H48" t="n">
         <v>24993.3</v>
       </c>
       <c r="I48" t="n">
-        <v>24993.32467278265</v>
+        <v>25662.44741835908</v>
       </c>
       <c r="J48" t="n">
-        <v>24993.3000000019</v>
+        <v>25251.56762058638</v>
       </c>
       <c r="K48" t="n">
-        <v>24993.3246728854</v>
+        <v>25399.84552599538</v>
+      </c>
+      <c r="L48" t="n">
+        <v>24994.97082559749</v>
+      </c>
+      <c r="M48" t="n">
+        <v>24995.96427620459</v>
       </c>
     </row>
     <row r="49">
@@ -22235,19 +23732,25 @@
         <v>138.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.05302031878818525</v>
+        <v>-705.5721539011975</v>
       </c>
       <c r="H49" t="n">
         <v>25038.8</v>
       </c>
       <c r="I49" t="n">
-        <v>25038.85302031879</v>
+        <v>25744.3721539012</v>
       </c>
       <c r="J49" t="n">
-        <v>25038.80000000589</v>
+        <v>25307.59627904791</v>
       </c>
       <c r="K49" t="n">
-        <v>25038.85302053777</v>
+        <v>25470.98465998907</v>
+      </c>
+      <c r="L49" t="n">
+        <v>25040.54641087199</v>
+      </c>
+      <c r="M49" t="n">
+        <v>25041.64570035584</v>
       </c>
     </row>
     <row r="50">
@@ -22261,19 +23764,25 @@
         <v>138.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1116475897979399</v>
+        <v>-745.1594648961</v>
       </c>
       <c r="H50" t="n">
         <v>24708.8</v>
       </c>
       <c r="I50" t="n">
-        <v>24708.9116475898</v>
+        <v>25453.9594648961</v>
       </c>
       <c r="J50" t="n">
-        <v>24708.80000001787</v>
+        <v>24988.77995590544</v>
       </c>
       <c r="K50" t="n">
-        <v>24708.91164804547</v>
+        <v>25169.10713837116</v>
+      </c>
+      <c r="L50" t="n">
+        <v>24710.62722202626</v>
+      </c>
+      <c r="M50" t="n">
+        <v>24711.84611855413</v>
       </c>
     </row>
     <row r="51">
@@ -22287,19 +23796,25 @@
         <v>138.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.2304009586077882</v>
+        <v>-788.2962116709423</v>
       </c>
       <c r="H51" t="n">
         <v>24696.9</v>
       </c>
       <c r="I51" t="n">
-        <v>24697.13040095861</v>
+        <v>25485.19621167094</v>
       </c>
       <c r="J51" t="n">
-        <v>24696.90000005307</v>
+        <v>24988.77394023688</v>
       </c>
       <c r="K51" t="n">
-        <v>24697.13040188276</v>
+        <v>25188.14132487144</v>
+      </c>
+      <c r="L51" t="n">
+        <v>24698.81374999827</v>
+      </c>
+      <c r="M51" t="n">
+        <v>24700.16824840506</v>
       </c>
     </row>
     <row r="52">
@@ -22313,19 +23828,25 @@
         <v>138.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.466010791464214</v>
+        <v>-835.4313074963829</v>
       </c>
       <c r="H52" t="n">
         <v>24663.5</v>
       </c>
       <c r="I52" t="n">
-        <v>24663.96601079146</v>
+        <v>25498.93130749638</v>
       </c>
       <c r="J52" t="n">
-        <v>24663.50000015426</v>
+        <v>24968.03945822357</v>
       </c>
       <c r="K52" t="n">
-        <v>24663.96601261374</v>
+        <v>25188.87114120119</v>
+      </c>
+      <c r="L52" t="n">
+        <v>24665.5065444854</v>
+      </c>
+      <c r="M52" t="n">
+        <v>24667.0153067923</v>
       </c>
     </row>
     <row r="53">
@@ -22339,19 +23860,25 @@
         <v>137.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.9239264790739981</v>
+        <v>-887.0881663905166</v>
       </c>
       <c r="H53" t="n">
         <v>24656</v>
       </c>
       <c r="I53" t="n">
-        <v>24656.92392647907</v>
+        <v>25543.08816639052</v>
       </c>
       <c r="J53" t="n">
-        <v>24656.00000043904</v>
+        <v>24974.04445189144</v>
       </c>
       <c r="K53" t="n">
-        <v>24656.92392995878</v>
+        <v>25219.14761015909</v>
+      </c>
+      <c r="L53" t="n">
+        <v>24658.10622254711</v>
+      </c>
+      <c r="M53" t="n">
+        <v>24659.7911272692</v>
       </c>
     </row>
     <row r="54">
@@ -22365,19 +23892,25 @@
         <v>137.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.795833796419174</v>
+        <v>-943.8801856960454</v>
       </c>
       <c r="H54" t="n">
         <v>24583</v>
       </c>
       <c r="I54" t="n">
-        <v>24584.79583379642</v>
+        <v>25526.88018569605</v>
       </c>
       <c r="J54" t="n">
-        <v>24583.00000122334</v>
+        <v>24915.46447916574</v>
       </c>
       <c r="K54" t="n">
-        <v>24584.79584018992</v>
+        <v>25188.10326369573</v>
+      </c>
+      <c r="L54" t="n">
+        <v>24585.21347870546</v>
+      </c>
+      <c r="M54" t="n">
+        <v>24587.10032446146</v>
       </c>
     </row>
     <row r="55">
@@ -22391,19 +23924,25 @@
         <v>137.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.422509820571577</v>
+        <v>-1006.530186795357</v>
       </c>
       <c r="H55" t="n">
         <v>24276.6</v>
       </c>
       <c r="I55" t="n">
-        <v>24280.02250982057</v>
+        <v>25283.13018679536</v>
       </c>
       <c r="J55" t="n">
-        <v>24276.60000333751</v>
+        <v>24624.48375722839</v>
       </c>
       <c r="K55" t="n">
-        <v>24280.02252099928</v>
+        <v>24928.47026061742</v>
+      </c>
+      <c r="L55" t="n">
+        <v>24278.92909684742</v>
+      </c>
+      <c r="M55" t="n">
+        <v>24281.04856187198</v>
       </c>
     </row>
     <row r="56">
@@ -22417,19 +23956,25 @@
         <v>137.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.396481633488293</v>
+        <v>-796.7618542673081</v>
       </c>
       <c r="H56" t="n">
-        <v>24806.4</v>
+        <v>24527.26666666667</v>
       </c>
       <c r="I56" t="n">
-        <v>24812.79648163349</v>
+        <v>25603.16185426731</v>
       </c>
       <c r="J56" t="n">
-        <v>24806.40000891556</v>
+        <v>24891.66304239805</v>
       </c>
       <c r="K56" t="n">
-        <v>24812.79649984793</v>
+        <v>25231.47005452257</v>
+      </c>
+      <c r="L56" t="n">
+        <v>24529.72063097009</v>
+      </c>
+      <c r="M56" t="n">
+        <v>24532.10976252878</v>
       </c>
     </row>
     <row r="57">
@@ -22443,19 +23988,25 @@
         <v>137.58</v>
       </c>
       <c r="G57" t="n">
-        <v>434.0045479631772</v>
+        <v>-432.5211183043211</v>
       </c>
       <c r="H57" t="n">
-        <v>24793.27</v>
+        <v>24518.522303278</v>
       </c>
       <c r="I57" t="n">
-        <v>24804.99545203682</v>
+        <v>25671.52111830432</v>
       </c>
       <c r="J57" t="n">
-        <v>24793.27002332077</v>
+        <v>24900.63001533524</v>
       </c>
       <c r="K57" t="n">
-        <v>24804.99547844828</v>
+        <v>25281.53200340091</v>
+      </c>
+      <c r="L57" t="n">
+        <v>24521.11139184404</v>
+      </c>
+      <c r="M57" t="n">
+        <v>24523.81641979118</v>
       </c>
     </row>
     <row r="58">
@@ -22469,19 +24020,25 @@
         <v>137.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-152.6258297392378</v>
+        <v>-1100.898072547916</v>
       </c>
       <c r="H58" t="n">
-        <v>24787.84</v>
+        <v>24518.12221965889</v>
       </c>
       <c r="I58" t="n">
-        <v>24808.92582973924</v>
+        <v>25757.19807254792</v>
       </c>
       <c r="J58" t="n">
-        <v>24787.8400597348</v>
+        <v>24919.25830746701</v>
       </c>
       <c r="K58" t="n">
-        <v>24808.92585943759</v>
+        <v>25347.50999214451</v>
+      </c>
+      <c r="L58" t="n">
+        <v>24520.8578368848</v>
+      </c>
+      <c r="M58" t="n">
+        <v>24523.94058608374</v>
       </c>
     </row>
     <row r="59">
@@ -22495,19 +24052,25 @@
         <v>137.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-340.4459406738206</v>
+        <v>-1368.91890061802</v>
       </c>
       <c r="H59" t="n">
-        <v>24787.74</v>
+        <v>24517.78012890664</v>
       </c>
       <c r="I59" t="n">
-        <v>24824.94594067382</v>
+        <v>25853.41890061802</v>
       </c>
       <c r="J59" t="n">
-        <v>24787.74014983895</v>
+        <v>24939.39484332081</v>
       </c>
       <c r="K59" t="n">
-        <v>24824.94594863939</v>
+        <v>25422.46259257223</v>
+      </c>
+      <c r="L59" t="n">
+        <v>24520.67499075372</v>
+      </c>
+      <c r="M59" t="n">
+        <v>24524.22906616269</v>
       </c>
     </row>
     <row r="60">
@@ -22521,19 +24084,25 @@
         <v>137.28</v>
       </c>
       <c r="G60" t="n">
-        <v>255.8997393083882</v>
+        <v>-854.1259482207752</v>
       </c>
       <c r="H60" t="n">
-        <v>24787.87</v>
+        <v>24517.73700396162</v>
       </c>
       <c r="I60" t="n">
-        <v>24852.30026069161</v>
+        <v>25962.32594822078</v>
       </c>
       <c r="J60" t="n">
-        <v>24787.8703680942</v>
+        <v>24961.43099061345</v>
       </c>
       <c r="K60" t="n">
-        <v>24852.30016587002</v>
+        <v>25508.30544261305</v>
+      </c>
+      <c r="L60" t="n">
+        <v>24520.80533065121</v>
+      </c>
+      <c r="M60" t="n">
+        <v>24524.99764289324</v>
       </c>
     </row>
     <row r="61">
@@ -22547,19 +24116,25 @@
         <v>137.18</v>
       </c>
       <c r="G61" t="n">
-        <v>58.80149858845471</v>
+        <v>-1129.737069230596</v>
       </c>
       <c r="H61" t="n">
-        <v>24787.87</v>
+        <v>24517.51264546642</v>
       </c>
       <c r="I61" t="n">
-        <v>24897.39850141155</v>
+        <v>26085.9370692306</v>
       </c>
       <c r="J61" t="n">
-        <v>24787.87088563753</v>
+        <v>24985.05684203747</v>
       </c>
       <c r="K61" t="n">
-        <v>24897.39808032352</v>
+        <v>25606.70641742145</v>
+      </c>
+      <c r="L61" t="n">
+        <v>24520.77038889382</v>
+      </c>
+      <c r="M61" t="n">
+        <v>24525.94406761923</v>
       </c>
     </row>
     <row r="62">
@@ -22573,19 +24148,25 @@
         <v>137.08</v>
       </c>
       <c r="G62" t="n">
-        <v>134.9547631079768</v>
+        <v>-1122.257478750478</v>
       </c>
       <c r="H62" t="n">
-        <v>24787.72</v>
+        <v>24517.10039779668</v>
       </c>
       <c r="I62" t="n">
-        <v>24970.54523689202</v>
+        <v>26227.75747875048</v>
       </c>
       <c r="J62" t="n">
-        <v>24787.72208710149</v>
+        <v>25010.45915545495</v>
       </c>
       <c r="K62" t="n">
-        <v>24970.5439252143</v>
+        <v>25720.55691331874</v>
+      </c>
+      <c r="L62" t="n">
+        <v>24520.56551111909</v>
+      </c>
+      <c r="M62" t="n">
+        <v>24527.48007028117</v>
       </c>
     </row>
     <row r="63">
@@ -22599,19 +24180,25 @@
         <v>136.98</v>
       </c>
       <c r="G63" t="n">
-        <v>838.7950450561621</v>
+        <v>-467.2526235420191</v>
       </c>
       <c r="H63" t="n">
-        <v>24787.57</v>
+        <v>24516.68631270183</v>
       </c>
       <c r="I63" t="n">
-        <v>25087.30495494384</v>
+        <v>26393.35262354202</v>
       </c>
       <c r="J63" t="n">
-        <v>24787.57481782927</v>
+        <v>25038.04436378099</v>
       </c>
       <c r="K63" t="n">
-        <v>25087.30140838429</v>
+        <v>25854.26022733241</v>
+      </c>
+      <c r="L63" t="n">
+        <v>24520.3790714258</v>
+      </c>
+      <c r="M63" t="n">
+        <v>24530.73109845901</v>
       </c>
     </row>
     <row r="64">
@@ -22625,19 +24212,25 @@
         <v>136.88</v>
       </c>
       <c r="G64" t="n">
-        <v>564.4688638030129</v>
+        <v>-756.8875347946414</v>
       </c>
       <c r="H64" t="n">
-        <v>24787.14</v>
+        <v>24515.88368360306</v>
       </c>
       <c r="I64" t="n">
-        <v>25269.93113619699</v>
+        <v>26591.28753479464</v>
       </c>
       <c r="J64" t="n">
-        <v>24787.15089460605</v>
+        <v>25067.67771757763</v>
       </c>
       <c r="K64" t="n">
-        <v>25269.9222892418</v>
+        <v>26014.1476522931</v>
+      </c>
+      <c r="L64" t="n">
+        <v>24519.82706991064</v>
+      </c>
+      <c r="M64" t="n">
+        <v>24537.28940554711</v>
       </c>
     </row>
     <row r="65">
@@ -22651,19 +24244,25 @@
         <v>136.78</v>
       </c>
       <c r="G65" t="n">
-        <v>777.7677692714933</v>
+        <v>-508.9048287232145</v>
       </c>
       <c r="H65" t="n">
-        <v>24786.48</v>
+        <v>24514.78915262614</v>
       </c>
       <c r="I65" t="n">
-        <v>25550.73223072851</v>
+        <v>26837.40482872321</v>
       </c>
       <c r="J65" t="n">
-        <v>24786.50413561647</v>
+        <v>25099.74493855155</v>
       </c>
       <c r="K65" t="n">
-        <v>25550.71133647906</v>
+        <v>26211.89765101228</v>
+      </c>
+      <c r="L65" t="n">
+        <v>24519.00931783709</v>
+      </c>
+      <c r="M65" t="n">
+        <v>24551.12330825726</v>
       </c>
     </row>
     <row r="66">
@@ -22677,19 +24276,25 @@
         <v>136.68</v>
       </c>
       <c r="G66" t="n">
-        <v>785.6439843918524</v>
+        <v>-399.3063779803124</v>
       </c>
       <c r="H66" t="n">
-        <v>24785.71</v>
+        <v>24513.5304696309</v>
       </c>
       <c r="I66" t="n">
-        <v>25975.05601560815</v>
+        <v>27160.00637798031</v>
       </c>
       <c r="J66" t="n">
-        <v>24785.76238767764</v>
+        <v>25134.70668604564</v>
       </c>
       <c r="K66" t="n">
-        <v>25975.00867213431</v>
+        <v>26468.49524064377</v>
+      </c>
+      <c r="L66" t="n">
+        <v>24518.05729396477</v>
+      </c>
+      <c r="M66" t="n">
+        <v>24579.34035908416</v>
       </c>
     </row>
     <row r="67">
@@ -22703,19 +24308,25 @@
         <v>136.58</v>
       </c>
       <c r="G67" t="n">
-        <v>450.7843921900858</v>
+        <v>-552.8076610624448</v>
       </c>
       <c r="H67" t="n">
-        <v>24784.65</v>
+        <v>24511.89959383443</v>
       </c>
       <c r="I67" t="n">
-        <v>26604.81560780991</v>
+        <v>27608.40766106244</v>
       </c>
       <c r="J67" t="n">
-        <v>24784.76142018671</v>
+        <v>25172.73981069825</v>
       </c>
       <c r="K67" t="n">
-        <v>26604.71190705872</v>
+        <v>26821.36615558761</v>
+      </c>
+      <c r="L67" t="n">
+        <v>24516.76736889471</v>
+      </c>
+      <c r="M67" t="n">
+        <v>24633.23228946337</v>
       </c>
     </row>
     <row r="68">
@@ -22729,19 +24340,25 @@
         <v>136.48</v>
       </c>
       <c r="G68" t="n">
-        <v>425.5870584398763</v>
+        <v>-316.8828450358269</v>
       </c>
       <c r="H68" t="n">
-        <v>24783.38</v>
+        <v>24509.973273591</v>
       </c>
       <c r="I68" t="n">
-        <v>27523.51294156012</v>
+        <v>28265.98284503583</v>
       </c>
       <c r="J68" t="n">
-        <v>24783.61222338535</v>
+        <v>25214.36789392365</v>
       </c>
       <c r="K68" t="n">
-        <v>27523.2923388908</v>
+        <v>27336.30824139158</v>
+      </c>
+      <c r="L68" t="n">
+        <v>24515.22154398102</v>
+      </c>
+      <c r="M68" t="n">
+        <v>24729.99912705802</v>
       </c>
     </row>
     <row r="69">
@@ -22755,19 +24372,25 @@
         <v>136.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-122.6019205551638</v>
+        <v>-546.1104365920291</v>
       </c>
       <c r="H69" t="n">
-        <v>24781.75</v>
+        <v>24507.5651074192</v>
       </c>
       <c r="I69" t="n">
-        <v>28840.50192055517</v>
+        <v>29264.01043659203</v>
       </c>
       <c r="J69" t="n">
-        <v>24782.22435369029</v>
+        <v>25259.92554420982</v>
       </c>
       <c r="K69" t="n">
-        <v>28840.0447790295</v>
+        <v>28121.4402972241</v>
+      </c>
+      <c r="L69" t="n">
+        <v>24513.23973294014</v>
+      </c>
+      <c r="M69" t="n">
+        <v>24892.08567737064</v>
       </c>
     </row>
     <row r="70">
@@ -22781,19 +24404,25 @@
         <v>136.28</v>
       </c>
       <c r="G70" t="n">
-        <v>22.00290139185017</v>
+        <v>-76.13548327167155</v>
       </c>
       <c r="H70" t="n">
-        <v>24779.61</v>
+        <v>24504.47926314291</v>
       </c>
       <c r="I70" t="n">
-        <v>30695.59709860815</v>
+        <v>30793.73548327167</v>
       </c>
       <c r="J70" t="n">
-        <v>24780.55973784229</v>
+        <v>25309.82723434574</v>
       </c>
       <c r="K70" t="n">
-        <v>30694.67244757153</v>
+        <v>29341.73815648667</v>
+      </c>
+      <c r="L70" t="n">
+        <v>24510.63383349517</v>
+      </c>
+      <c r="M70" t="n">
+        <v>25144.94612973411</v>
       </c>
     </row>
     <row r="71">
@@ -22807,19 +24436,25 @@
         <v>136.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-481.664848673885</v>
+        <v>-327.3296754581825</v>
       </c>
       <c r="H71" t="n">
-        <v>24776.63</v>
+        <v>24500.26518376638</v>
       </c>
       <c r="I71" t="n">
-        <v>33261.46484867389</v>
+        <v>33107.12967545819</v>
       </c>
       <c r="J71" t="n">
-        <v>24778.49408423331</v>
+        <v>25364.34080301004</v>
       </c>
       <c r="K71" t="n">
-        <v>33259.63674168442</v>
+        <v>31225.52836126598</v>
+      </c>
+      <c r="L71" t="n">
+        <v>24506.96313311456</v>
+      </c>
+      <c r="M71" t="n">
+        <v>25511.04613451873</v>
       </c>
     </row>
     <row r="72">
@@ -22833,19 +24468,25 @@
         <v>136.08</v>
       </c>
       <c r="G72" t="n">
-        <v>-191.4802370435063</v>
+        <v>53.49102871638024</v>
       </c>
       <c r="H72" t="n">
-        <v>24772.42</v>
+        <v>24494.38956732709</v>
       </c>
       <c r="I72" t="n">
-        <v>36741.5802370435</v>
+        <v>36496.60897128362</v>
       </c>
       <c r="J72" t="n">
-        <v>24776.00713426981</v>
+        <v>25423.78296133156</v>
       </c>
       <c r="K72" t="n">
-        <v>36738.04384887303</v>
+        <v>34053.03904643962</v>
+      </c>
+      <c r="L72" t="n">
+        <v>24501.70798801956</v>
+      </c>
+      <c r="M72" t="n">
+        <v>26001.1768840659</v>
       </c>
     </row>
     <row r="73">
@@ -22859,19 +24500,25 @@
         <v>135.98</v>
       </c>
       <c r="G73" t="n">
-        <v>-37.04965082090348</v>
+        <v>76.52667999196274</v>
       </c>
       <c r="H73" t="n">
-        <v>24766.42</v>
+        <v>24486.11123674789</v>
       </c>
       <c r="I73" t="n">
-        <v>41357.5496508209</v>
+        <v>41243.97332000804</v>
       </c>
       <c r="J73" t="n">
-        <v>24773.18885594626</v>
+        <v>25488.42384902202</v>
       </c>
       <c r="K73" t="n">
-        <v>41350.85112693392</v>
+        <v>38115.3725072446</v>
+      </c>
+      <c r="L73" t="n">
+        <v>24494.14925857074</v>
+      </c>
+      <c r="M73" t="n">
+        <v>26604.26343892751</v>
       </c>
     </row>
     <row r="74">
@@ -22885,19 +24532,25 @@
         <v>135.88</v>
       </c>
       <c r="G74" t="n">
-        <v>52.85155138233677</v>
+        <v>-169.0744697392074</v>
       </c>
       <c r="H74" t="n">
-        <v>24757.78</v>
+        <v>24474.30479790505</v>
       </c>
       <c r="I74" t="n">
-        <v>47315.84844861766</v>
+        <v>47537.7744697392</v>
       </c>
       <c r="J74" t="n">
-        <v>24770.30677971857</v>
+        <v>25558.34857079623</v>
       </c>
       <c r="K74" t="n">
-        <v>47303.41727716627</v>
+        <v>43639.45599632595</v>
+      </c>
+      <c r="L74" t="n">
+        <v>24483.20435650899</v>
+      </c>
+      <c r="M74" t="n">
+        <v>27279.55536808034</v>
       </c>
     </row>
     <row r="75">
@@ -22911,19 +24564,25 @@
         <v>135.78</v>
       </c>
       <c r="G75" t="n">
-        <v>805.6745782531652</v>
+        <v>172.216259480665</v>
       </c>
       <c r="H75" t="n">
-        <v>24745.77</v>
+        <v>24457.97110037083</v>
       </c>
       <c r="I75" t="n">
-        <v>54738.62542174684</v>
+        <v>55372.08374051934</v>
       </c>
       <c r="J75" t="n">
-        <v>24768.51036519149</v>
+        <v>25634.01690220091</v>
       </c>
       <c r="K75" t="n">
-        <v>54716.01214201831</v>
+        <v>50687.65834147475</v>
+      </c>
+      <c r="L75" t="n">
+        <v>24467.96997328462</v>
+      </c>
+      <c r="M75" t="n">
+        <v>27956.20650585002</v>
       </c>
     </row>
     <row r="76">
@@ -22937,19 +24596,25 @@
         <v>135.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-147.1763925109626</v>
+        <v>-1057.102674546033</v>
       </c>
       <c r="H76" t="n">
-        <v>24729.31</v>
+        <v>24435.66100045734</v>
       </c>
       <c r="I76" t="n">
-        <v>63539.07639251096</v>
+        <v>64449.00267454603</v>
       </c>
       <c r="J76" t="n">
-        <v>24769.8117146951</v>
+        <v>25715.75339040441</v>
       </c>
       <c r="K76" t="n">
-        <v>63498.73906069844</v>
+        <v>59051.495069592</v>
+      </c>
+      <c r="L76" t="n">
+        <v>24447.22454697679</v>
+      </c>
+      <c r="M76" t="n">
+        <v>28541.35814962965</v>
       </c>
     </row>
     <row r="77">
@@ -22963,19 +24628,25 @@
         <v>135.58</v>
       </c>
       <c r="G77" t="n">
-        <v>432.1812421145733</v>
+        <v>-437.9855287001556</v>
       </c>
       <c r="H77" t="n">
-        <v>24707.74</v>
+        <v>24406.51457638378</v>
       </c>
       <c r="I77" t="n">
-        <v>73241.71875788542</v>
+        <v>74111.88552870015</v>
       </c>
       <c r="J77" t="n">
-        <v>24778.52788395492</v>
+        <v>25804.88202255787</v>
       </c>
       <c r="K77" t="n">
-        <v>73171.13633290054</v>
+        <v>68166.54308393544</v>
+      </c>
+      <c r="L77" t="n">
+        <v>24420.64489027234</v>
+      </c>
+      <c r="M77" t="n">
+        <v>28939.21158979594</v>
       </c>
     </row>
     <row r="78">
@@ -22989,19 +24660,25 @@
         <v>135.48</v>
       </c>
       <c r="G78" t="n">
-        <v>714.0678441036871</v>
+        <v>201.5358299854415</v>
       </c>
       <c r="H78" t="n">
-        <v>24680.31</v>
+        <v>24369.51447880583</v>
       </c>
       <c r="I78" t="n">
-        <v>82805.13215589631</v>
+        <v>83317.66417001456</v>
       </c>
       <c r="J78" t="n">
-        <v>24801.7476814073</v>
+        <v>25903.13196758619</v>
       </c>
       <c r="K78" t="n">
-        <v>82683.94033077652</v>
+        <v>77060.47268343813</v>
+      </c>
+      <c r="L78" t="n">
+        <v>24388.4255304408</v>
+      </c>
+      <c r="M78" t="n">
+        <v>29074.0540648115</v>
       </c>
     </row>
     <row r="79">
@@ -23015,19 +24692,25 @@
         <v>135.38</v>
       </c>
       <c r="G79" t="n">
-        <v>678.5937807812152</v>
+        <v>626.4849644634523</v>
       </c>
       <c r="H79" t="n">
-        <v>24646.44</v>
+        <v>24323.88423459645</v>
       </c>
       <c r="I79" t="n">
-        <v>90623.10621921878</v>
+        <v>90675.21503553654</v>
       </c>
       <c r="J79" t="n">
-        <v>24850.97365476434</v>
+        <v>26013.3110115534</v>
       </c>
       <c r="K79" t="n">
-        <v>90418.85126205943</v>
+        <v>84367.99213192682</v>
+      </c>
+      <c r="L79" t="n">
+        <v>24352.3606663003</v>
+      </c>
+      <c r="M79" t="n">
+        <v>28913.11916243041</v>
       </c>
     </row>
     <row r="80">
@@ -23041,19 +24724,25 @@
         <v>135.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-1070.277150235808</v>
+        <v>-813.5483199861628</v>
       </c>
       <c r="H80" t="n">
-        <v>24607.12</v>
+        <v>24270.9535657653</v>
       </c>
       <c r="I80" t="n">
-        <v>94933.37715023581</v>
+        <v>94676.64831998617</v>
       </c>
       <c r="J80" t="n">
-        <v>24945.42550698849</v>
+        <v>26141.7188591608</v>
       </c>
       <c r="K80" t="n">
-        <v>94595.36804625449</v>
+        <v>88549.57422564007</v>
+      </c>
+      <c r="L80" t="n">
+        <v>24318.84852252247</v>
+      </c>
+      <c r="M80" t="n">
+        <v>28479.32791918529</v>
       </c>
     </row>
     <row r="81">
@@ -23067,19 +24756,25 @@
         <v>135.18</v>
       </c>
       <c r="G81" t="n">
-        <v>253.7718001508474</v>
+        <v>574.7266729550029</v>
       </c>
       <c r="H81" t="n">
-        <v>24564.75</v>
+        <v>24213.94851275099</v>
       </c>
       <c r="I81" t="n">
-        <v>94614.72819984915</v>
+        <v>94293.773327045</v>
       </c>
       <c r="J81" t="n">
-        <v>25114.43100083032</v>
+        <v>26299.07633410655</v>
       </c>
       <c r="K81" t="n">
-        <v>94065.34125624689</v>
+        <v>88492.56917262639</v>
+      </c>
+      <c r="L81" t="n">
+        <v>24300.33078588534</v>
+      </c>
+      <c r="M81" t="n">
+        <v>27843.64612305409</v>
       </c>
     </row>
     <row r="82">
@@ -23093,19 +24788,25 @@
         <v>135.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-359.5049662440142</v>
+        <v>-161.4831686807156</v>
       </c>
       <c r="H82" t="n">
-        <v>24521.76</v>
+        <v>24156.09322576599</v>
       </c>
       <c r="I82" t="n">
-        <v>89848.40496624401</v>
+        <v>89650.38316868071</v>
       </c>
       <c r="J82" t="n">
-        <v>25399.36969459242</v>
+        <v>26500.96740544603</v>
       </c>
       <c r="K82" t="n">
-        <v>88971.0674740242</v>
+        <v>84200.20112309809</v>
+      </c>
+      <c r="L82" t="n">
+        <v>24315.35903486163</v>
+      </c>
+      <c r="M82" t="n">
+        <v>27102.17385305814</v>
       </c>
     </row>
     <row r="83">
@@ -23119,19 +24820,25 @@
         <v>134.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-381.4168151721242</v>
+        <v>-349.0889333218802</v>
       </c>
       <c r="H83" t="n">
-        <v>24480.96</v>
+        <v>24101.14529590245</v>
       </c>
       <c r="I83" t="n">
-        <v>82037.11681517212</v>
+        <v>82004.78893332188</v>
       </c>
       <c r="J83" t="n">
-        <v>25858.22653173975</v>
+        <v>26772.94242788203</v>
       </c>
       <c r="K83" t="n">
-        <v>80660.08675297054</v>
+        <v>76792.10350053475</v>
+      </c>
+      <c r="L83" t="n">
+        <v>24390.76074104352</v>
+      </c>
+      <c r="M83" t="n">
+        <v>26352.48288172973</v>
       </c>
     </row>
     <row r="84">
@@ -23145,19 +24852,25 @@
         <v>134.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-202.9538917042519</v>
+        <v>-185.5877639238897</v>
       </c>
       <c r="H84" t="n">
-        <v>24444.82</v>
+        <v>24052.41351476302</v>
       </c>
       <c r="I84" t="n">
-        <v>73064.05389170426</v>
+        <v>73046.6877639239</v>
       </c>
       <c r="J84" t="n">
-        <v>26570.01453419247</v>
+        <v>27157.77421327067</v>
       </c>
       <c r="K84" t="n">
-        <v>70939.05376801087</v>
+        <v>67812.44202231729</v>
+      </c>
+      <c r="L84" t="n">
+        <v>24560.73658697041</v>
+      </c>
+      <c r="M84" t="n">
+        <v>25673.06016292798</v>
       </c>
     </row>
     <row r="85">
@@ -23171,19 +24884,25 @@
         <v>134.78</v>
       </c>
       <c r="G85" t="n">
-        <v>673.3802243280079</v>
+        <v>934.395753151708</v>
       </c>
       <c r="H85" t="n">
-        <v>24414.04</v>
+        <v>24010.85783400832</v>
       </c>
       <c r="I85" t="n">
-        <v>64554.61977567199</v>
+        <v>64293.60424684829</v>
       </c>
       <c r="J85" t="n">
-        <v>27639.38591446959</v>
+        <v>27726.95751555305</v>
       </c>
       <c r="K85" t="n">
-        <v>61329.42620013357</v>
+        <v>58626.6919031455</v>
+      </c>
+      <c r="L85" t="n">
+        <v>24861.8889225388</v>
+      </c>
+      <c r="M85" t="n">
+        <v>25110.74202695241</v>
       </c>
     </row>
     <row r="86">
@@ -23197,19 +24916,25 @@
         <v>134.68</v>
       </c>
       <c r="G86" t="n">
-        <v>252.7996411692948</v>
+        <v>939.2515936974669</v>
       </c>
       <c r="H86" t="n">
-        <v>24388.37</v>
+        <v>23976.12991177589</v>
       </c>
       <c r="I86" t="n">
-        <v>57572.20035883071</v>
+        <v>56885.74840630253</v>
       </c>
       <c r="J86" t="n">
-        <v>29204.15197250233</v>
+        <v>28600.81140620686</v>
       </c>
       <c r="K86" t="n">
-        <v>52756.53238568483</v>
+        <v>50205.81715288203</v>
+      </c>
+      <c r="L86" t="n">
+        <v>25326.71587874574</v>
+      </c>
+      <c r="M86" t="n">
+        <v>24680.91669890606</v>
       </c>
     </row>
     <row r="87">
@@ -23223,19 +24948,25 @@
         <v>134.58</v>
       </c>
       <c r="G87" t="n">
-        <v>24.5636230228265</v>
+        <v>1115.894845950621</v>
       </c>
       <c r="H87" t="n">
-        <v>24367.17</v>
+        <v>23947.37956743863</v>
       </c>
       <c r="I87" t="n">
-        <v>52680.63637697717</v>
+        <v>51589.30515404938</v>
       </c>
       <c r="J87" t="n">
-        <v>31442.56654564484</v>
+        <v>29971.69038315171</v>
       </c>
       <c r="K87" t="n">
-        <v>45605.32062372958</v>
+        <v>43112.53076586133</v>
+      </c>
+      <c r="L87" t="n">
+        <v>25972.41954322892</v>
+      </c>
+      <c r="M87" t="n">
+        <v>24374.9523386012</v>
       </c>
     </row>
     <row r="88">
@@ -23249,19 +24980,25 @@
         <v>134.48</v>
       </c>
       <c r="G88" t="n">
-        <v>-625.4071451262935</v>
+        <v>650.4880485041285</v>
       </c>
       <c r="H88" t="n">
-        <v>24349.39</v>
+        <v>23923.20708718589</v>
       </c>
       <c r="I88" t="n">
-        <v>50137.80714512629</v>
+        <v>48861.91195149587</v>
       </c>
       <c r="J88" t="n">
-        <v>34578.62848131047</v>
+        <v>32122.39395261705</v>
       </c>
       <c r="K88" t="n">
-        <v>39908.62123018268</v>
+        <v>37552.4683576826</v>
+      </c>
+      <c r="L88" t="n">
+        <v>26786.78863958118</v>
+      </c>
+      <c r="M88" t="n">
+        <v>24170.06434612074</v>
       </c>
     </row>
     <row r="89">
@@ -23275,19 +25012,25 @@
         <v>134.38</v>
       </c>
       <c r="G89" t="n">
-        <v>-748.7717881766876</v>
+        <v>381.535391592879</v>
       </c>
       <c r="H89" t="n">
-        <v>24333.58</v>
+        <v>23901.68073564411</v>
       </c>
       <c r="I89" t="n">
-        <v>50068.37178817669</v>
+        <v>48938.06460840712</v>
       </c>
       <c r="J89" t="n">
-        <v>38883.03271369769</v>
+        <v>35427.39433377751</v>
       </c>
       <c r="K89" t="n">
-        <v>35518.94741914434</v>
+        <v>33460.33021475762</v>
+      </c>
+      <c r="L89" t="n">
+        <v>27716.9551144112</v>
+      </c>
+      <c r="M89" t="n">
+        <v>24038.64637966823</v>
       </c>
     </row>
     <row r="90">
@@ -23301,19 +25044,25 @@
         <v>134.28</v>
       </c>
       <c r="G90" t="n">
-        <v>143.4795779867127</v>
+        <v>804.7250254015089</v>
       </c>
       <c r="H90" t="n">
-        <v>24317.98</v>
+        <v>23880.43090147382</v>
       </c>
       <c r="I90" t="n">
-        <v>52567.02042201329</v>
+        <v>51905.77497459849</v>
       </c>
       <c r="J90" t="n">
-        <v>44663.88772073082</v>
+        <v>40319.81105560399</v>
       </c>
       <c r="K90" t="n">
-        <v>32221.11951666482</v>
+        <v>30605.69407897408</v>
+      </c>
+      <c r="L90" t="n">
+        <v>28667.01817075376</v>
+      </c>
+      <c r="M90" t="n">
+        <v>23954.79899487423</v>
       </c>
     </row>
     <row r="91">
@@ -23327,19 +25076,25 @@
         <v>134.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-1225.188876957742</v>
+        <v>-1236.493377172221</v>
       </c>
       <c r="H91" t="n">
-        <v>24300.85</v>
+        <v>23857.12531343973</v>
       </c>
       <c r="I91" t="n">
-        <v>57729.08887695774</v>
+        <v>57740.39337717222</v>
       </c>
       <c r="J91" t="n">
-        <v>52236.25420375601</v>
+        <v>47210.57477387686</v>
       </c>
       <c r="K91" t="n">
-        <v>29793.6713039619</v>
+        <v>28694.38420678391</v>
+      </c>
+      <c r="L91" t="n">
+        <v>29509.19337051088</v>
+      </c>
+      <c r="M91" t="n">
+        <v>23897.89680522348</v>
       </c>
     </row>
     <row r="92">
@@ -23353,19 +25108,25 @@
         <v>134.08</v>
       </c>
       <c r="G92" t="n">
-        <v>612.4312413333828</v>
+        <v>-54.08315592023428</v>
       </c>
       <c r="H92" t="n">
-        <v>24280.58</v>
+        <v>23829.61971273839</v>
       </c>
       <c r="I92" t="n">
-        <v>65607.76875866661</v>
+        <v>66274.28315592023</v>
       </c>
       <c r="J92" t="n">
-        <v>61851.24551095472</v>
+        <v>56358.73097983176</v>
       </c>
       <c r="K92" t="n">
-        <v>28037.06986733345</v>
+        <v>27443.49490254357</v>
+      </c>
+      <c r="L92" t="n">
+        <v>30107.96656582896</v>
+      </c>
+      <c r="M92" t="n">
+        <v>23853.23591357802</v>
       </c>
     </row>
     <row r="93">
@@ -23379,19 +25140,25 @@
         <v>133.98</v>
       </c>
       <c r="G93" t="n">
-        <v>664.9942148801929</v>
+        <v>-359.5694634688844</v>
       </c>
       <c r="H93" t="n">
-        <v>24255.03</v>
+        <v>23795.04961333476</v>
       </c>
       <c r="I93" t="n">
-        <v>76086.10578511981</v>
+        <v>77110.66946346889</v>
       </c>
       <c r="J93" t="n">
-        <v>73558.07681128079</v>
+        <v>67712.61513950031</v>
       </c>
       <c r="K93" t="n">
-        <v>26783.00498360795</v>
+        <v>26621.38458113533</v>
+      </c>
+      <c r="L93" t="n">
+        <v>30351.9043307734</v>
+      </c>
+      <c r="M93" t="n">
+        <v>23810.18096675511</v>
       </c>
     </row>
     <row r="94">
@@ -23405,19 +25172,25 @@
         <v>133.88</v>
       </c>
       <c r="G94" t="n">
-        <v>2059.519498600814</v>
+        <v>1197.524568674708</v>
       </c>
       <c r="H94" t="n">
-        <v>24222.27</v>
+        <v>23750.83744333552</v>
       </c>
       <c r="I94" t="n">
-        <v>88655.18050139918</v>
+        <v>89517.17543132529</v>
       </c>
       <c r="J94" t="n">
-        <v>86981.30939102186</v>
+        <v>80761.05609994296</v>
       </c>
       <c r="K94" t="n">
-        <v>25896.06583568224</v>
+        <v>26060.30400508882</v>
+      </c>
+      <c r="L94" t="n">
+        <v>30186.77878746364</v>
+      </c>
+      <c r="M94" t="n">
+        <v>23761.76873704214</v>
       </c>
     </row>
     <row r="95">
@@ -23431,19 +25204,25 @@
         <v>133.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-238.2694158049708</v>
+        <v>-431.5155557160469</v>
       </c>
       <c r="H95" t="n">
-        <v>24181.34</v>
+        <v>23695.66814099771</v>
       </c>
       <c r="I95" t="n">
-        <v>102133.269415805</v>
+        <v>102326.515555716</v>
       </c>
       <c r="J95" t="n">
-        <v>101043.079845502</v>
+        <v>94424.66661303825</v>
       </c>
       <c r="K95" t="n">
-        <v>25271.43330950759</v>
+        <v>25650.63291201066</v>
+      </c>
+      <c r="L95" t="n">
+        <v>29633.96325440655</v>
+      </c>
+      <c r="M95" t="n">
+        <v>23704.40689691217</v>
       </c>
     </row>
     <row r="96">
@@ -23457,19 +25236,25 @@
         <v>133.68</v>
       </c>
       <c r="G96" t="n">
-        <v>1308.449281945272</v>
+        <v>1933.811737064767</v>
       </c>
       <c r="H96" t="n">
-        <v>24131.95</v>
+        <v>23629.17825323262</v>
       </c>
       <c r="I96" t="n">
-        <v>114490.5507180547</v>
+        <v>113865.1882629352</v>
       </c>
       <c r="J96" t="n">
-        <v>113792.3206711837</v>
+        <v>107007.5906200938</v>
       </c>
       <c r="K96" t="n">
-        <v>24830.06532479957</v>
+        <v>25326.28675161883</v>
+      </c>
+      <c r="L96" t="n">
+        <v>28782.27615531784</v>
+      </c>
+      <c r="M96" t="n">
+        <v>23636.63563720541</v>
       </c>
     </row>
     <row r="97">
@@ -23483,19 +25268,25 @@
         <v>133.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-683.3717386850331</v>
+        <v>404.0276657721552</v>
       </c>
       <c r="H97" t="n">
-        <v>24074.85</v>
+        <v>23552.3482003793</v>
       </c>
       <c r="I97" t="n">
-        <v>123103.371738685</v>
+        <v>122015.9723342278</v>
       </c>
       <c r="J97" t="n">
-        <v>122663.7475788826</v>
+        <v>116303.1409113514</v>
       </c>
       <c r="K97" t="n">
-        <v>24514.34662175868</v>
+        <v>25050.61216906939</v>
+      </c>
+      <c r="L97" t="n">
+        <v>27760.30544536106</v>
+      </c>
+      <c r="M97" t="n">
+        <v>23558.9413524581</v>
       </c>
     </row>
     <row r="98">
@@ -23509,19 +25300,25 @@
         <v>133.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-1756.704542348394</v>
+        <v>-804.449454968475</v>
       </c>
       <c r="H98" t="n">
-        <v>24013.27</v>
+        <v>23469.48328548961</v>
       </c>
       <c r="I98" t="n">
-        <v>125663.7045423484</v>
+        <v>124711.4494549685</v>
       </c>
       <c r="J98" t="n">
-        <v>125391.6714926676</v>
+        <v>120132.8430454543</v>
       </c>
       <c r="K98" t="n">
-        <v>24285.17113945775</v>
+        <v>24807.05720012019</v>
+      </c>
+      <c r="L98" t="n">
+        <v>26704.49544061902</v>
+      </c>
+      <c r="M98" t="n">
+        <v>23475.41771120531</v>
       </c>
     </row>
     <row r="99">
@@ -23535,19 +25332,25 @@
         <v>133.38</v>
       </c>
       <c r="G99" t="n">
-        <v>157.5348063978308</v>
+        <v>544.5437661506439</v>
       </c>
       <c r="H99" t="n">
-        <v>23950.93</v>
+        <v>23385.5583611761</v>
       </c>
       <c r="I99" t="n">
-        <v>121352.4651936022</v>
+        <v>120965.4562338494</v>
       </c>
       <c r="J99" t="n">
-        <v>121187.081157821</v>
+        <v>117413.8372036624</v>
       </c>
       <c r="K99" t="n">
-        <v>24116.18711011946</v>
+        <v>24589.01487669819</v>
+      </c>
+      <c r="L99" t="n">
+        <v>25728.19751608955</v>
+      </c>
+      <c r="M99" t="n">
+        <v>23390.95074208731</v>
       </c>
     </row>
     <row r="100">
@@ -23561,19 +25364,25 @@
         <v>133.28</v>
       </c>
       <c r="G100" t="n">
-        <v>690.8388912534283</v>
+        <v>416.0423711076728</v>
       </c>
       <c r="H100" t="n">
-        <v>23891.63</v>
+        <v>23305.64452758385</v>
       </c>
       <c r="I100" t="n">
-        <v>111315.1611087466</v>
+        <v>111589.9576288923</v>
       </c>
       <c r="J100" t="n">
-        <v>111216.4016479336</v>
+        <v>108896.4942049408</v>
       </c>
       <c r="K100" t="n">
-        <v>23990.27526173164</v>
+        <v>24394.83829953891</v>
+      </c>
+      <c r="L100" t="n">
+        <v>24904.8353649095</v>
+      </c>
+      <c r="M100" t="n">
+        <v>23310.57290312725</v>
       </c>
     </row>
     <row r="101">
@@ -23587,19 +25396,25 @@
         <v>133.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-264.0110106062784</v>
+        <v>-966.2356207101693</v>
       </c>
       <c r="H101" t="n">
-        <v>23839.56</v>
+        <v>23235.33680520191</v>
       </c>
       <c r="I101" t="n">
-        <v>97968.21101060628</v>
+        <v>98670.43562071017</v>
       </c>
       <c r="J101" t="n">
-        <v>97910.29903067286</v>
+        <v>96644.65624905442</v>
       </c>
       <c r="K101" t="n">
-        <v>23897.37500415633</v>
+        <v>24225.90524385337</v>
+      </c>
+      <c r="L101" t="n">
+        <v>24265.87548017674</v>
+      </c>
+      <c r="M101" t="n">
+        <v>23239.86029940927</v>
       </c>
     </row>
     <row r="102">
@@ -23613,19 +25428,25 @@
         <v>133.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-940.5994628149056</v>
+        <v>-1605.311993646916</v>
       </c>
       <c r="H102" t="n">
-        <v>23796.98</v>
+        <v>23177.69383206018</v>
       </c>
       <c r="I102" t="n">
-        <v>83799.69946281491</v>
+        <v>84464.41199364692</v>
       </c>
       <c r="J102" t="n">
-        <v>83766.35931173856</v>
+        <v>82926.9165558026</v>
       </c>
       <c r="K102" t="n">
-        <v>23830.24157979264</v>
+        <v>24082.37629572579</v>
+      </c>
+      <c r="L102" t="n">
+        <v>23806.20715306058</v>
+      </c>
+      <c r="M102" t="n">
+        <v>23181.86047654721</v>
       </c>
     </row>
     <row r="103">
@@ -23639,19 +25460,25 @@
         <v>132.98</v>
       </c>
       <c r="G103" t="n">
-        <v>269.3075303273363</v>
+        <v>94.42112735882984</v>
       </c>
       <c r="H103" t="n">
-        <v>23763.37</v>
+        <v>23132.04530314132</v>
       </c>
       <c r="I103" t="n">
-        <v>70580.59246967266</v>
+        <v>70755.47887264116</v>
       </c>
       <c r="J103" t="n">
-        <v>70561.7517444878</v>
+        <v>69557.58325268238</v>
       </c>
       <c r="K103" t="n">
-        <v>23782.1493799706</v>
+        <v>23961.43307562694</v>
+      </c>
+      <c r="L103" t="n">
+        <v>23496.59290427257</v>
+      </c>
+      <c r="M103" t="n">
+        <v>23135.89543583977</v>
       </c>
     </row>
     <row r="104">
@@ -23665,19 +25492,25 @@
         <v>132.88</v>
       </c>
       <c r="G104" t="n">
-        <v>-373.9165383300788</v>
+        <v>142.0899296648568</v>
       </c>
       <c r="H104" t="n">
-        <v>23737.62</v>
+        <v>23096.91753760512</v>
       </c>
       <c r="I104" t="n">
-        <v>59221.11653833008</v>
+        <v>58705.11007033514</v>
       </c>
       <c r="J104" t="n">
-        <v>59210.6669455817</v>
+        <v>57735.50628281885</v>
       </c>
       <c r="K104" t="n">
-        <v>23748.02307699023</v>
+        <v>23859.92723772805</v>
+      </c>
+      <c r="L104" t="n">
+        <v>23299.85793786897</v>
+      </c>
+      <c r="M104" t="n">
+        <v>23100.48557237506</v>
       </c>
     </row>
     <row r="105">
@@ -23691,19 +25524,25 @@
         <v>132.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-1761.999843342855</v>
+        <v>-670.1522018670366</v>
       </c>
       <c r="H105" t="n">
-        <v>23719.07</v>
+        <v>23071.44313279364</v>
       </c>
       <c r="I105" t="n">
-        <v>49984.89984334286</v>
+        <v>48893.05220186704</v>
       </c>
       <c r="J105" t="n">
-        <v>49979.21214902711</v>
+        <v>48075.16871458296</v>
       </c>
       <c r="K105" t="n">
-        <v>23724.72325074082</v>
+        <v>23775.64652064956</v>
+      </c>
+      <c r="L105" t="n">
+        <v>23181.74431284131</v>
+      </c>
+      <c r="M105" t="n">
+        <v>23074.75868566177</v>
       </c>
     </row>
     <row r="106">
@@ -23717,19 +25556,25 @@
         <v>132.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-1549.643935405482</v>
+        <v>-206.9392043228072</v>
       </c>
       <c r="H106" t="n">
-        <v>23706.11</v>
+        <v>23053.48035161536</v>
       </c>
       <c r="I106" t="n">
-        <v>42762.14393540548</v>
+        <v>41419.43920432281</v>
       </c>
       <c r="J106" t="n">
-        <v>42759.10585611801</v>
+        <v>40704.13359583157</v>
       </c>
       <c r="K106" t="n">
-        <v>23709.12308420038</v>
+        <v>23705.35061223279</v>
+      </c>
+      <c r="L106" t="n">
+        <v>23113.78181089099</v>
+      </c>
+      <c r="M106" t="n">
+        <v>23056.56906410425</v>
       </c>
     </row>
     <row r="107">
@@ -23743,19 +25588,25 @@
         <v>132.58</v>
       </c>
       <c r="G107" t="n">
-        <v>-173.4717780883366</v>
+        <v>1052.228308673242</v>
       </c>
       <c r="H107" t="n">
-        <v>23696.67</v>
+        <v>23040.25520906864</v>
       </c>
       <c r="I107" t="n">
-        <v>37275.87177808834</v>
+        <v>36050.17169132676</v>
       </c>
       <c r="J107" t="n">
-        <v>37274.27915398234</v>
+        <v>35407.49385721976</v>
       </c>
       <c r="K107" t="n">
-        <v>23698.24480959635</v>
+        <v>23645.35847276439</v>
+      </c>
+      <c r="L107" t="n">
+        <v>23074.91405657808</v>
+      </c>
+      <c r="M107" t="n">
+        <v>23043.13939297619</v>
       </c>
     </row>
     <row r="108">
@@ -23769,19 +25620,25 @@
         <v>132.48</v>
       </c>
       <c r="G108" t="n">
-        <v>587.9248725014695</v>
+        <v>1415.93263885289</v>
       </c>
       <c r="H108" t="n">
-        <v>23689.54</v>
+        <v>23030.133002074</v>
       </c>
       <c r="I108" t="n">
-        <v>33204.87512749853</v>
+        <v>32376.86736114711</v>
       </c>
       <c r="J108" t="n">
-        <v>33204.05562753638</v>
+        <v>31789.04800870978</v>
       </c>
       <c r="K108" t="n">
-        <v>23690.34701517892</v>
+        <v>23593.28061223309</v>
+      </c>
+      <c r="L108" t="n">
+        <v>23052.08360432833</v>
+      </c>
+      <c r="M108" t="n">
+        <v>23032.83215966107</v>
       </c>
     </row>
     <row r="109">
@@ -23795,19 +25652,25 @@
         <v>132.38</v>
       </c>
       <c r="G109" t="n">
-        <v>448.5067969170086</v>
+        <v>740.4121266192378</v>
       </c>
       <c r="H109" t="n">
-        <v>23684.35</v>
+        <v>23022.6321614795</v>
       </c>
       <c r="I109" t="n">
-        <v>30244.59320308299</v>
+        <v>29952.68787338076</v>
       </c>
       <c r="J109" t="n">
-        <v>30244.17916956428</v>
+        <v>29409.09660423494</v>
       </c>
       <c r="K109" t="n">
-        <v>23684.75542518372</v>
+        <v>23548.0033026807</v>
+      </c>
+      <c r="L109" t="n">
+        <v>23038.30542385893</v>
+      </c>
+      <c r="M109" t="n">
+        <v>23025.16341093999</v>
       </c>
     </row>
     <row r="110">
@@ -23821,19 +25684,25 @@
         <v>132.28</v>
       </c>
       <c r="G110" t="n">
-        <v>1168.230961049896</v>
+        <v>918.8513452964253</v>
       </c>
       <c r="H110" t="n">
-        <v>23680.54</v>
+        <v>23016.97439739614</v>
       </c>
       <c r="I110" t="n">
-        <v>28131.2690389501</v>
+        <v>28380.64865470357</v>
       </c>
       <c r="J110" t="n">
-        <v>28131.06355325604</v>
+        <v>27874.5945998201</v>
       </c>
       <c r="K110" t="n">
-        <v>23680.73964503954</v>
+        <v>23508.21572226759</v>
+      </c>
+      <c r="L110" t="n">
+        <v>23029.39719702163</v>
+      </c>
+      <c r="M110" t="n">
+        <v>23019.35282367892</v>
       </c>
     </row>
     <row r="111">
@@ -23847,19 +25716,25 @@
         <v>132.18</v>
       </c>
       <c r="G111" t="n">
-        <v>1054.802012942437</v>
+        <v>348.9645020277276</v>
       </c>
       <c r="H111" t="n">
-        <v>23677.64</v>
+        <v>23012.53859997034</v>
       </c>
       <c r="I111" t="n">
-        <v>26648.79798705756</v>
+        <v>27354.63549797227</v>
       </c>
       <c r="J111" t="n">
-        <v>26648.69773310799</v>
+        <v>26881.53198168625</v>
       </c>
       <c r="K111" t="n">
-        <v>23677.73635471871</v>
+        <v>23472.84573834151</v>
+      </c>
+      <c r="L111" t="n">
+        <v>23023.08716671734</v>
+      </c>
+      <c r="M111" t="n">
+        <v>23014.77754583779</v>
       </c>
     </row>
     <row r="112">
@@ -23873,19 +25748,25 @@
         <v>132.08</v>
       </c>
       <c r="G112" t="n">
-        <v>983.8968901176049</v>
+        <v>-52.42630912497771</v>
       </c>
       <c r="H112" t="n">
-        <v>23675.55</v>
+        <v>23009.18781639355</v>
       </c>
       <c r="I112" t="n">
-        <v>25626.8031098824</v>
+        <v>26663.12630912498</v>
       </c>
       <c r="J112" t="n">
-        <v>25626.75497620112</v>
+        <v>26219.52095983602</v>
       </c>
       <c r="K112" t="n">
-        <v>23675.59557283511</v>
+        <v>23441.37247638263</v>
+      </c>
+      <c r="L112" t="n">
+        <v>23018.49006137547</v>
+      </c>
+      <c r="M112" t="n">
+        <v>23011.29912521203</v>
       </c>
     </row>
     <row r="113">
@@ -23899,19 +25780,25 @@
         <v>131.98</v>
       </c>
       <c r="G113" t="n">
-        <v>847.2704086968952</v>
+        <v>-390.1967002617093</v>
       </c>
       <c r="H113" t="n">
-        <v>23674.03</v>
+        <v>23006.61543885765</v>
       </c>
       <c r="I113" t="n">
-        <v>24934.3295913031</v>
+        <v>26171.79670026171</v>
       </c>
       <c r="J113" t="n">
-        <v>24934.30681628221</v>
+        <v>25754.88903742805</v>
       </c>
       <c r="K113" t="n">
-        <v>23674.05112094359</v>
+        <v>23413.16096485304</v>
+      </c>
+      <c r="L113" t="n">
+        <v>23014.97740819495</v>
+      </c>
+      <c r="M113" t="n">
+        <v>23008.60965814955</v>
       </c>
     </row>
     <row r="114">
@@ -23925,19 +25812,25 @@
         <v>131.88</v>
       </c>
       <c r="G114" t="n">
-        <v>1185.765740117808</v>
+        <v>-142.067536858689</v>
       </c>
       <c r="H114" t="n">
-        <v>23672.8</v>
+        <v>23004.43148355891</v>
       </c>
       <c r="I114" t="n">
-        <v>24473.13425988219</v>
+        <v>25800.96753685869</v>
       </c>
       <c r="J114" t="n">
-        <v>24473.12361868793</v>
+        <v>25408.37563006398</v>
       </c>
       <c r="K114" t="n">
-        <v>23672.80959077617</v>
+        <v>23387.53910621551</v>
+      </c>
+      <c r="L114" t="n">
+        <v>23012.0241309863</v>
+      </c>
+      <c r="M114" t="n">
+        <v>23006.31803647389</v>
       </c>
     </row>
     <row r="115">
@@ -23951,19 +25844,25 @@
         <v>131.78</v>
       </c>
       <c r="G115" t="n">
-        <v>1161.552774850708</v>
+        <v>-172.9090209055794</v>
       </c>
       <c r="H115" t="n">
-        <v>23671.71</v>
+        <v>23002.42979864363</v>
       </c>
       <c r="I115" t="n">
-        <v>24171.24722514929</v>
+        <v>25505.70902090558</v>
       </c>
       <c r="J115" t="n">
-        <v>24171.24230283696</v>
+        <v>25135.35381737593</v>
       </c>
       <c r="K115" t="n">
-        <v>23671.71426667305</v>
+        <v>23364.05733403143</v>
+      </c>
+      <c r="L115" t="n">
+        <v>23009.36571852221</v>
+      </c>
+      <c r="M115" t="n">
+        <v>23004.21712906126</v>
       </c>
     </row>
     <row r="116">
@@ -23977,19 +25876,25 @@
         <v>131.68</v>
       </c>
       <c r="G116" t="n">
-        <v>1130.663626664016</v>
+        <v>-153.4961449298171</v>
       </c>
       <c r="H116" t="n">
-        <v>23670.78</v>
+        <v>23000.64746315378</v>
       </c>
       <c r="I116" t="n">
-        <v>23977.13637333598</v>
+        <v>25261.29614492982</v>
       </c>
       <c r="J116" t="n">
-        <v>23977.13411178935</v>
+        <v>24911.33851939341</v>
       </c>
       <c r="K116" t="n">
-        <v>23670.78185945173</v>
+        <v>23342.54185166536</v>
+      </c>
+      <c r="L116" t="n">
+        <v>23007.0111225995</v>
+      </c>
+      <c r="M116" t="n">
+        <v>23002.34315900309</v>
       </c>
     </row>
     <row r="117">
@@ -24003,19 +25908,25 @@
         <v>131.58</v>
       </c>
       <c r="G117" t="n">
-        <v>1284.338255087569</v>
+        <v>85.19857110501471</v>
       </c>
       <c r="H117" t="n">
-        <v>23669.91</v>
+        <v>22998.94376841136</v>
       </c>
       <c r="I117" t="n">
-        <v>23854.46174491243</v>
+        <v>25053.60142889498</v>
       </c>
       <c r="J117" t="n">
-        <v>23854.4607088914</v>
+        <v>24722.40262091296</v>
       </c>
       <c r="K117" t="n">
-        <v>23669.91079379375</v>
+        <v>23322.66856078116</v>
+      </c>
+      <c r="L117" t="n">
+        <v>23004.80344839223</v>
+      </c>
+      <c r="M117" t="n">
+        <v>23000.5546669087</v>
       </c>
     </row>
     <row r="118">
@@ -24029,19 +25940,25 @@
         <v>131.48</v>
       </c>
       <c r="G118" t="n">
-        <v>466.3261370190121</v>
+        <v>-629.6892348810288</v>
       </c>
       <c r="H118" t="n">
-        <v>23669.3</v>
+        <v>22997.58190894637</v>
       </c>
       <c r="I118" t="n">
-        <v>23778.47386298099</v>
+        <v>24874.48923488103</v>
       </c>
       <c r="J118" t="n">
-        <v>23778.47338777241</v>
+        <v>24560.58230501037</v>
       </c>
       <c r="K118" t="n">
-        <v>23669.30033191528</v>
+        <v>23304.54058635331</v>
+      </c>
+      <c r="L118" t="n">
+        <v>23002.99482213152</v>
+      </c>
+      <c r="M118" t="n">
+        <v>22999.1141867552</v>
       </c>
     </row>
     <row r="119">
@@ -24055,19 +25972,25 @@
         <v>131.38</v>
       </c>
       <c r="G119" t="n">
-        <v>291.2764015919893</v>
+        <v>-694.8574312543424</v>
       </c>
       <c r="H119" t="n">
-        <v>23669.02</v>
+        <v>22996.66549870144</v>
       </c>
       <c r="I119" t="n">
-        <v>23732.42359840801</v>
+        <v>24718.55743125434</v>
       </c>
       <c r="J119" t="n">
-        <v>23732.42337925896</v>
+        <v>24420.62469667486</v>
       </c>
       <c r="K119" t="n">
-        <v>23669.02013593</v>
+        <v>23288.12134138118</v>
+      </c>
+      <c r="L119" t="n">
+        <v>23001.6803995991</v>
+      </c>
+      <c r="M119" t="n">
+        <v>22998.12474946344</v>
       </c>
     </row>
     <row r="120">
@@ -24081,19 +26004,25 @@
         <v>131.28</v>
       </c>
       <c r="G120" t="n">
-        <v>493.299203674982</v>
+        <v>-383.2482074937834</v>
       </c>
       <c r="H120" t="n">
-        <v>23668.76</v>
+        <v>22995.77195659997</v>
       </c>
       <c r="I120" t="n">
-        <v>23704.90079632502</v>
+        <v>24581.44820749378</v>
       </c>
       <c r="J120" t="n">
-        <v>23704.90069437036</v>
+        <v>24298.30254375867</v>
       </c>
       <c r="K120" t="n">
-        <v>23668.76005451869</v>
+        <v>23272.86503949039</v>
+      </c>
+      <c r="L120" t="n">
+        <v>23000.43077291421</v>
+      </c>
+      <c r="M120" t="n">
+        <v>22997.16325784464</v>
       </c>
     </row>
     <row r="121">
@@ -24107,19 +26036,25 @@
         <v>131.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-75.43492916300602</v>
+        <v>-846.9000722103228</v>
       </c>
       <c r="H121" t="n">
-        <v>23668.62</v>
+        <v>22995.04075998208</v>
       </c>
       <c r="I121" t="n">
-        <v>23688.83492916301</v>
+        <v>24460.30007221032</v>
       </c>
       <c r="J121" t="n">
-        <v>23688.83488121644</v>
+        <v>24190.8690788614</v>
       </c>
       <c r="K121" t="n">
-        <v>23668.62002141376</v>
+        <v>23258.80254627037</v>
+      </c>
+      <c r="L121" t="n">
+        <v>22999.37977297276</v>
+      </c>
+      <c r="M121" t="n">
+        <v>22996.36873106727</v>
       </c>
     </row>
     <row r="122">
@@ -24133,19 +26068,25 @@
         <v>131.08</v>
       </c>
       <c r="G122" t="n">
-        <v>24.78704217418272</v>
+        <v>-648.2650050865559</v>
       </c>
       <c r="H122" t="n">
-        <v>23668.62</v>
+        <v>22994.50667780948</v>
       </c>
       <c r="I122" t="n">
-        <v>23679.71295782582</v>
+        <v>24352.76500508656</v>
       </c>
       <c r="J122" t="n">
-        <v>23679.71293502955</v>
+        <v>24096.07745696557</v>
       </c>
       <c r="K122" t="n">
-        <v>23668.62000823635</v>
+        <v>23245.87259550121</v>
+      </c>
+      <c r="L122" t="n">
+        <v>22998.55744242359</v>
+      </c>
+      <c r="M122" t="n">
+        <v>22995.77553025893</v>
       </c>
     </row>
     <row r="123">
@@ -24159,19 +26100,25 @@
         <v>130.98</v>
       </c>
       <c r="G123" t="n">
-        <v>9.82909204779935</v>
+        <v>-572.2828659075058</v>
       </c>
       <c r="H123" t="n">
-        <v>23668.6</v>
+        <v>22993.94591121309</v>
       </c>
       <c r="I123" t="n">
-        <v>23674.5709079522</v>
+        <v>24256.68286590751</v>
       </c>
       <c r="J123" t="n">
-        <v>23674.57089701311</v>
+        <v>24011.85705120128</v>
       </c>
       <c r="K123" t="n">
-        <v>23668.60000310206</v>
+        <v>23233.76622918582</v>
+      </c>
+      <c r="L123" t="n">
+        <v>22997.73599694153</v>
+      </c>
+      <c r="M123" t="n">
+        <v>22995.15949258559</v>
       </c>
     </row>
     <row r="124">
@@ -24185,19 +26132,25 @@
         <v>130.88</v>
       </c>
       <c r="G124" t="n">
-        <v>29.55807942949104</v>
+        <v>-469.185585446663</v>
       </c>
       <c r="H124" t="n">
-        <v>23668.59</v>
+        <v>22993.38569698038</v>
       </c>
       <c r="I124" t="n">
-        <v>23671.74192057051</v>
+        <v>24170.48558544666</v>
       </c>
       <c r="J124" t="n">
-        <v>23671.74191528951</v>
+        <v>23936.71922436218</v>
       </c>
       <c r="K124" t="n">
-        <v>23668.59000114398</v>
+        <v>23222.43496173215</v>
+      </c>
+      <c r="L124" t="n">
+        <v>22996.93929320014</v>
+      </c>
+      <c r="M124" t="n">
+        <v>22994.54752921616</v>
       </c>
     </row>
     <row r="125">
@@ -24211,19 +26164,25 @@
         <v>130.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-2.811481757602451</v>
+        <v>-425.4524405908887</v>
       </c>
       <c r="H125" t="n">
-        <v>23668.58</v>
+        <v>22992.8318011297</v>
       </c>
       <c r="I125" t="n">
-        <v>23670.2114817576</v>
+        <v>24092.85244059089</v>
       </c>
       <c r="J125" t="n">
-        <v>23670.21147920316</v>
+        <v>23869.41393827995</v>
       </c>
       <c r="K125" t="n">
-        <v>23668.58000041307</v>
+        <v>23211.81705075367</v>
+      </c>
+      <c r="L125" t="n">
+        <v>22996.17021589602</v>
+      </c>
+      <c r="M125" t="n">
+        <v>22993.9451141657</v>
       </c>
     </row>
     <row r="126">
@@ -24237,19 +26196,25 @@
         <v>130.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-518.9679366418022</v>
+        <v>-872.2847471239547</v>
       </c>
       <c r="H126" t="n">
-        <v>23668.74</v>
+        <v>22992.49642435522</v>
       </c>
       <c r="I126" t="n">
-        <v>23669.5679366418</v>
+        <v>24022.88474712395</v>
       </c>
       <c r="J126" t="n">
-        <v>23669.56793540907</v>
+        <v>23809.10557856385</v>
       </c>
       <c r="K126" t="n">
-        <v>23668.74000014603</v>
+        <v>23202.06435997416</v>
+      </c>
+      <c r="L126" t="n">
+        <v>22995.63849798605</v>
+      </c>
+      <c r="M126" t="n">
+        <v>22993.56418567414</v>
       </c>
     </row>
     <row r="127">
@@ -24263,19 +26228,25 @@
         <v>130.58</v>
       </c>
       <c r="G127" t="n">
-        <v>50.40812928099331</v>
+        <v>-239.7086840887678</v>
       </c>
       <c r="H127" t="n">
-        <v>23668.88</v>
+        <v>22992.14183575717</v>
       </c>
       <c r="I127" t="n">
-        <v>23669.29187071901</v>
+        <v>23959.40868408877</v>
       </c>
       <c r="J127" t="n">
-        <v>23669.29187012787</v>
+        <v>23754.67674327047</v>
       </c>
       <c r="K127" t="n">
-        <v>23668.88000005054</v>
+        <v>23192.88510103165</v>
+      </c>
+      <c r="L127" t="n">
+        <v>22995.10428564998</v>
+      </c>
+      <c r="M127" t="n">
+        <v>22993.16677643095</v>
       </c>
     </row>
     <row r="128">
@@ -24289,19 +26260,25 @@
         <v>130.48</v>
       </c>
       <c r="G128" t="n">
-        <v>29.94917426735628</v>
+        <v>-202.4316584911976</v>
       </c>
       <c r="H128" t="n">
-        <v>23668.85</v>
+        <v>22991.56869852148</v>
       </c>
       <c r="I128" t="n">
-        <v>23669.05082573264</v>
+        <v>23901.4316584912</v>
       </c>
       <c r="J128" t="n">
-        <v>23669.05082545193</v>
+        <v>23705.18543217949</v>
       </c>
       <c r="K128" t="n">
-        <v>23668.85000001713</v>
+        <v>23184.03139357099</v>
+      </c>
+      <c r="L128" t="n">
+        <v>22994.36640810074</v>
+      </c>
+      <c r="M128" t="n">
+        <v>22992.55333622348</v>
       </c>
     </row>
     <row r="129">
@@ -24315,19 +26292,25 @@
         <v>130.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-96.26596710201557</v>
+        <v>-275.8527456131633</v>
       </c>
       <c r="H129" t="n">
-        <v>23668.87</v>
+        <v>22991.05184720643</v>
       </c>
       <c r="I129" t="n">
-        <v>23668.96596710202</v>
+        <v>23848.55274561316</v>
       </c>
       <c r="J129" t="n">
-        <v>23668.96596697037</v>
+        <v>23660.27619467842</v>
       </c>
       <c r="K129" t="n">
-        <v>23668.87000000568</v>
+        <v>23175.73438330665</v>
+      </c>
+      <c r="L129" t="n">
+        <v>22993.69810921808</v>
+      </c>
+      <c r="M129" t="n">
+        <v>22991.99850659483</v>
       </c>
     </row>
     <row r="130">
@@ -24341,19 +26324,25 @@
         <v>130.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.04493904029004625</v>
+        <v>-730.0873526581308</v>
       </c>
       <c r="H130" t="n">
-        <v>23070.3</v>
+        <v>22990.78520833096</v>
       </c>
       <c r="I130" t="n">
-        <v>23070.34493904029</v>
+        <v>23800.38735265813</v>
       </c>
       <c r="J130" t="n">
-        <v>23070.34493897946</v>
+        <v>23619.60540261543</v>
       </c>
       <c r="K130" t="n">
-        <v>23070.30000000184</v>
+        <v>23168.14859324692</v>
+      </c>
+      <c r="L130" t="n">
+        <v>22993.29193063227</v>
+      </c>
+      <c r="M130" t="n">
+        <v>22991.6960391462</v>
       </c>
     </row>
     <row r="131">
@@ -24367,19 +26356,25 @@
         <v>130.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.02061963264713995</v>
+        <v>-494.5129943457432</v>
       </c>
       <c r="H131" t="n">
-        <v>23261.8</v>
+        <v>22990.64388513031</v>
       </c>
       <c r="I131" t="n">
-        <v>23261.82061963265</v>
+        <v>23756.31299434574</v>
       </c>
       <c r="J131" t="n">
-        <v>23261.820619605</v>
+        <v>23582.58755208833</v>
       </c>
       <c r="K131" t="n">
-        <v>23261.80000000058</v>
+        <v>23161.11351525784</v>
+      </c>
+      <c r="L131" t="n">
+        <v>22993.02176551239</v>
+      </c>
+      <c r="M131" t="n">
+        <v>22991.52087829933</v>
       </c>
     </row>
     <row r="132">
@@ -24393,19 +26388,25 @@
         <v>130.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.009269456797483144</v>
+        <v>-35.63264377138694</v>
       </c>
       <c r="H132" t="n">
-        <v>23679.9</v>
+        <v>22990.26072235133</v>
       </c>
       <c r="I132" t="n">
-        <v>23679.9092694568</v>
+        <v>23715.53264377139</v>
       </c>
       <c r="J132" t="n">
-        <v>23679.90926944445</v>
+        <v>23548.45907018552</v>
       </c>
       <c r="K132" t="n">
-        <v>23679.90000000018</v>
+        <v>23154.22974644648</v>
+      </c>
+      <c r="L132" t="n">
+        <v>22992.51939766845</v>
+      </c>
+      <c r="M132" t="n">
+        <v>22991.10572434943</v>
       </c>
     </row>
     <row r="133">
@@ -24419,19 +26420,25 @@
         <v>129.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.004082322302565444</v>
+        <v>59.87624859263451</v>
       </c>
       <c r="H133" t="n">
-        <v>23737.6</v>
+        <v>22989.68609486349</v>
       </c>
       <c r="I133" t="n">
-        <v>23737.6040823223</v>
+        <v>23677.72375140736</v>
       </c>
       <c r="J133" t="n">
-        <v>23737.60408231689</v>
+        <v>23516.92773010649</v>
       </c>
       <c r="K133" t="n">
-        <v>23737.60000000005</v>
+        <v>23147.51840462261</v>
+      </c>
+      <c r="L133" t="n">
+        <v>22991.83426874673</v>
+      </c>
+      <c r="M133" t="n">
+        <v>22990.50082054927</v>
       </c>
     </row>
     <row r="134">
@@ -24445,19 +26452,25 @@
         <v>129.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.00176118911622325</v>
+        <v>-721.753391700302</v>
       </c>
       <c r="H134" t="n">
-        <v>22921.3</v>
+        <v>22989.41188099301</v>
       </c>
       <c r="I134" t="n">
-        <v>22921.30176118912</v>
+        <v>23643.0533917003</v>
       </c>
       <c r="J134" t="n">
-        <v>22921.30176118678</v>
+        <v>23488.18814291516</v>
       </c>
       <c r="K134" t="n">
-        <v>22921.30000000002</v>
+        <v>23141.44477576953</v>
+      </c>
+      <c r="L134" t="n">
+        <v>22991.45743363489</v>
+      </c>
+      <c r="M134" t="n">
+        <v>22990.19792510203</v>
       </c>
     </row>
     <row r="135">
@@ -24471,19 +26484,25 @@
         <v>129.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.0007442500136676244</v>
+        <v>-394.8465078944209</v>
       </c>
       <c r="H135" t="n">
-        <v>23216.3</v>
+        <v>22989.34698035577</v>
       </c>
       <c r="I135" t="n">
-        <v>23216.30074425001</v>
+        <v>23611.14650789442</v>
       </c>
       <c r="J135" t="n">
-        <v>23216.30074424903</v>
+        <v>23461.89030392094</v>
       </c>
       <c r="K135" t="n">
-        <v>23216.3</v>
+        <v>23135.89354659155</v>
+      </c>
+      <c r="L135" t="n">
+        <v>22991.29706322166</v>
+      </c>
+      <c r="M135" t="n">
+        <v>22990.10582781323</v>
       </c>
     </row>
     <row r="136">
@@ -24497,19 +26516,25 @@
         <v>129.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.0003080466740357224</v>
+        <v>-475.0721787320363</v>
       </c>
       <c r="H136" t="n">
-        <v>23106.4</v>
+        <v>22989.20960382657</v>
       </c>
       <c r="I136" t="n">
-        <v>23106.40030804668</v>
+        <v>23581.47217873204</v>
       </c>
       <c r="J136" t="n">
-        <v>23106.40030804627</v>
+        <v>23437.52612352623</v>
       </c>
       <c r="K136" t="n">
-        <v>23106.4</v>
+        <v>23130.56084411663</v>
+      </c>
+      <c r="L136" t="n">
+        <v>22991.07072164282</v>
+      </c>
+      <c r="M136" t="n">
+        <v>22989.94263901797</v>
       </c>
     </row>
     <row r="137">
@@ -24523,19 +26548,25 @@
         <v>129.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.0001248738954018336</v>
+        <v>-333.6814421526797</v>
       </c>
       <c r="H137" t="n">
-        <v>23220.2</v>
+        <v>22989.07010970628</v>
       </c>
       <c r="I137" t="n">
-        <v>23220.2001248739</v>
+        <v>23553.88144215268</v>
       </c>
       <c r="J137" t="n">
-        <v>23220.20012487373</v>
+        <v>23414.96748287679</v>
       </c>
       <c r="K137" t="n">
-        <v>23220.2</v>
+        <v>23125.49685162746</v>
+      </c>
+      <c r="L137" t="n">
+        <v>22990.84819166714</v>
+      </c>
+      <c r="M137" t="n">
+        <v>22989.77862482646</v>
       </c>
     </row>
     <row r="138">
@@ -24549,19 +26580,25 @@
         <v>129.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-4.95745480293408e-05</v>
+        <v>565.8107250333633</v>
       </c>
       <c r="H138" t="n">
-        <v>24093.6</v>
+        <v>22988.53717398985</v>
       </c>
       <c r="I138" t="n">
-        <v>24093.60004957455</v>
+        <v>23527.78927496664</v>
       </c>
       <c r="J138" t="n">
-        <v>24093.60004957448</v>
+        <v>23393.64841770142</v>
       </c>
       <c r="K138" t="n">
-        <v>24093.6</v>
+        <v>23120.29178475946</v>
+      </c>
+      <c r="L138" t="n">
+        <v>22990.23763579518</v>
+      </c>
+      <c r="M138" t="n">
+        <v>22989.22237657545</v>
       </c>
     </row>
     <row r="139">
@@ -24575,19 +26612,25 @@
         <v>129.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.927320772665553e-05</v>
+        <v>-1124.149783594054</v>
       </c>
       <c r="H139" t="n">
-        <v>22379.6</v>
+        <v>22988.33650005746</v>
       </c>
       <c r="I139" t="n">
-        <v>22379.60001927321</v>
+        <v>23503.74978359405</v>
       </c>
       <c r="J139" t="n">
-        <v>22379.60001927318</v>
+        <v>23374.14048917342</v>
       </c>
       <c r="K139" t="n">
-        <v>22379.6</v>
+        <v>23115.6544296291</v>
+      </c>
+      <c r="L139" t="n">
+        <v>22989.96429812451</v>
+      </c>
+      <c r="M139" t="n">
+        <v>22988.99951979416</v>
       </c>
     </row>
     <row r="140">
@@ -24601,19 +26644,25 @@
         <v>129.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.337279384955764e-06</v>
+        <v>191.2523035005215</v>
       </c>
       <c r="H140" t="n">
-        <v>23672.7</v>
+        <v>22988.30527853035</v>
       </c>
       <c r="I140" t="n">
-        <v>23672.70000733728</v>
+        <v>23481.44769649948</v>
       </c>
       <c r="J140" t="n">
-        <v>23672.70000733727</v>
+        <v>23356.14443560735</v>
       </c>
       <c r="K140" t="n">
-        <v>23672.7</v>
+        <v>23111.40645078191</v>
+      </c>
+      <c r="L140" t="n">
+        <v>22989.86495750362</v>
+      </c>
+      <c r="M140" t="n">
+        <v>22988.94717341505</v>
       </c>
     </row>
     <row r="141">
@@ -24627,19 +26676,25 @@
         <v>129.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-2.735148882493377e-06</v>
+        <v>-782.1595899283093</v>
       </c>
       <c r="H141" t="n">
-        <v>22678.3</v>
+        <v>22988.15592542968</v>
       </c>
       <c r="I141" t="n">
-        <v>22678.30000273515</v>
+        <v>23460.45958992831</v>
       </c>
       <c r="J141" t="n">
-        <v>22678.30000273514</v>
+        <v>23339.25153931422</v>
       </c>
       <c r="K141" t="n">
-        <v>22678.3</v>
+        <v>23107.24599457181</v>
+      </c>
+      <c r="L141" t="n">
+        <v>22989.65165993255</v>
+      </c>
+      <c r="M141" t="n">
+        <v>22988.77768735754</v>
       </c>
     </row>
     <row r="142">
@@ -24653,19 +26708,25 @@
         <v>129.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-9.983268682844937e-07</v>
+        <v>-515.3791376481968</v>
       </c>
       <c r="H142" t="n">
-        <v>22925.7</v>
+        <v>22988.30346731145</v>
       </c>
       <c r="I142" t="n">
-        <v>22925.70000099833</v>
+        <v>23441.0791376482</v>
       </c>
       <c r="J142" t="n">
-        <v>22925.70000099833</v>
+        <v>23323.76900164302</v>
       </c>
       <c r="K142" t="n">
-        <v>22925.7</v>
+        <v>23103.57495447737</v>
+      </c>
+      <c r="L142" t="n">
+        <v>22989.73909873498</v>
+      </c>
+      <c r="M142" t="n">
+        <v>22988.90602714945</v>
       </c>
     </row>
     <row r="143">
@@ -24679,19 +26740,25 @@
         <v>128.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-3.567729436326772e-07</v>
+        <v>-188.1808737960018</v>
       </c>
       <c r="H143" t="n">
-        <v>23234.5</v>
+        <v>22988.23112575746</v>
       </c>
       <c r="I143" t="n">
-        <v>23234.50000035677</v>
+        <v>23422.680873796</v>
       </c>
       <c r="J143" t="n">
-        <v>23234.50000035677</v>
+        <v>23309.08381730387</v>
       </c>
       <c r="K143" t="n">
-        <v>23234.5</v>
+        <v>23099.86444887036</v>
+      </c>
+      <c r="L143" t="n">
+        <v>22989.61019475913</v>
+      </c>
+      <c r="M143" t="n">
+        <v>22988.81535795859</v>
       </c>
     </row>
     <row r="144">
@@ -24705,19 +26772,25 @@
         <v>128.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-1.248299668077379e-07</v>
+        <v>-195.3725652848952</v>
       </c>
       <c r="H144" t="n">
-        <v>23209.9</v>
+        <v>22988.04424927125</v>
       </c>
       <c r="I144" t="n">
-        <v>23209.90000012483</v>
+        <v>23405.2725652849</v>
       </c>
       <c r="J144" t="n">
-        <v>23209.90000012483</v>
+        <v>23295.21524614357</v>
       </c>
       <c r="K144" t="n">
-        <v>23209.9</v>
+        <v>23096.20865767792</v>
+      </c>
+      <c r="L144" t="n">
+        <v>22989.37002455429</v>
+      </c>
+      <c r="M144" t="n">
+        <v>22988.61097607692</v>
       </c>
     </row>
     <row r="145">
@@ -24731,19 +26804,25 @@
         <v>128.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-4.276080289855599e-08</v>
+        <v>-401.0235589404183</v>
       </c>
       <c r="H145" t="n">
         <v>22959.1</v>
       </c>
       <c r="I145" t="n">
-        <v>22959.10000004276</v>
+        <v>23360.12355894042</v>
       </c>
       <c r="J145" t="n">
-        <v>22959.10000004276</v>
+        <v>23253.44324902207</v>
       </c>
       <c r="K145" t="n">
-        <v>22959.1</v>
+        <v>23063.95442397011</v>
+      </c>
+      <c r="L145" t="n">
+        <v>22960.3755038593</v>
+      </c>
+      <c r="M145" t="n">
+        <v>22959.64999527308</v>
       </c>
     </row>
     <row r="146">
@@ -24757,19 +26836,25 @@
         <v>128.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.434091245755553e-08</v>
+        <v>-385.7562733328814</v>
       </c>
       <c r="H146" t="n">
         <v>23204.9</v>
       </c>
       <c r="I146" t="n">
-        <v>23204.90000001434</v>
+        <v>23590.65627333288</v>
       </c>
       <c r="J146" t="n">
-        <v>23204.90000001434</v>
+        <v>23487.20005903717</v>
       </c>
       <c r="K146" t="n">
-        <v>23204.9</v>
+        <v>23306.59382398667</v>
+      </c>
+      <c r="L146" t="n">
+        <v>23206.12803104938</v>
+      </c>
+      <c r="M146" t="n">
+        <v>23205.43399272551</v>
       </c>
     </row>
     <row r="147">
@@ -24783,19 +26868,25 @@
         <v>128.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-4.707544576376677e-09</v>
+        <v>-371.3548695647187</v>
       </c>
       <c r="H147" t="n">
         <v>22759</v>
       </c>
       <c r="I147" t="n">
-        <v>22759.00000000471</v>
+        <v>23130.35486956472</v>
       </c>
       <c r="J147" t="n">
-        <v>22759.00000000471</v>
+        <v>23029.9789234642</v>
       </c>
       <c r="K147" t="n">
-        <v>22759</v>
+        <v>22857.67376751269</v>
+      </c>
+      <c r="L147" t="n">
+        <v>22760.18315343619</v>
+      </c>
+      <c r="M147" t="n">
+        <v>22759.51867748671</v>
       </c>
     </row>
     <row r="148">
@@ -24809,19 +26900,25 @@
         <v>128.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.513399183750153e-09</v>
+        <v>-357.7545065599152</v>
       </c>
       <c r="H148" t="n">
         <v>23218.7</v>
       </c>
       <c r="I148" t="n">
-        <v>23218.70000000151</v>
+        <v>23576.45450655992</v>
       </c>
       <c r="J148" t="n">
-        <v>23218.70000000151</v>
+        <v>23479.02342292113</v>
       </c>
       <c r="K148" t="n">
-        <v>23218.7</v>
+        <v>23314.48605703171</v>
+      </c>
+      <c r="L148" t="n">
+        <v>23219.84068570847</v>
+      </c>
+      <c r="M148" t="n">
+        <v>23219.20401081221</v>
       </c>
     </row>
     <row r="149">
@@ -24835,19 +26932,25 @@
         <v>128.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-4.765752237290144e-10</v>
+        <v>-344.8963393522645</v>
       </c>
       <c r="H149" t="n">
         <v>23386.5</v>
       </c>
       <c r="I149" t="n">
-        <v>23386.50000000048</v>
+        <v>23731.39633935226</v>
       </c>
       <c r="J149" t="n">
-        <v>23386.50000000048</v>
+        <v>23636.78252709382</v>
       </c>
       <c r="K149" t="n">
-        <v>23386.5</v>
+        <v>23479.52308315813</v>
+      </c>
+      <c r="L149" t="n">
+        <v>23387.60045876542</v>
+      </c>
+      <c r="M149" t="n">
+        <v>23386.9899566456</v>
       </c>
     </row>
     <row r="150">
@@ -24861,19 +26964,25 @@
         <v>128.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-1.455191522836685e-10</v>
+        <v>-332.7268629785649</v>
       </c>
       <c r="H150" t="n">
         <v>23184.7</v>
       </c>
       <c r="I150" t="n">
-        <v>23184.70000000015</v>
+        <v>23517.42686297857</v>
       </c>
       <c r="J150" t="n">
-        <v>23184.70000000015</v>
+        <v>23425.50999035868</v>
       </c>
       <c r="K150" t="n">
-        <v>23184.7</v>
+        <v>23275.07777479812</v>
+      </c>
+      <c r="L150" t="n">
+        <v>23185.76231804834</v>
+      </c>
+      <c r="M150" t="n">
+        <v>23185.1764813982</v>
       </c>
     </row>
     <row r="151">
@@ -24887,19 +26996,25 @@
         <v>128.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-321.1973388465667</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>22687.00000000004</v>
+        <v>23008.19733884657</v>
       </c>
       <c r="J151" t="n">
-        <v>22687.00000000004</v>
+        <v>22918.8638248113</v>
       </c>
       <c r="K151" t="n">
-        <v>22687</v>
+        <v>22774.84355416161</v>
+      </c>
+      <c r="L151" t="n">
+        <v>22688.02612206872</v>
+      </c>
+      <c r="M151" t="n">
+        <v>22687.46355374934</v>
       </c>
     </row>
     <row r="152">
@@ -24913,19 +27028,25 @@
         <v>128.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>-310.2632919225107</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>22924.40000000002</v>
+        <v>23234.66329192251</v>
       </c>
       <c r="J152" t="n">
-        <v>22924.40000000002</v>
+        <v>23147.80583960588</v>
       </c>
       <c r="K152" t="n">
-        <v>22924.4</v>
+        <v>23009.81429609406</v>
+      </c>
+      <c r="L152" t="n">
+        <v>22925.39174110687</v>
+      </c>
+      <c r="M152" t="n">
+        <v>22924.85114446533</v>
       </c>
     </row>
     <row r="153">
@@ -24939,19 +27060,25 @@
         <v>127.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-3.637978807091713e-12</v>
+        <v>-299.8840689047138</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22643.1</v>
+        <v>22942.98406890471</v>
       </c>
       <c r="J153" t="n">
-        <v>22643.1</v>
+        <v>22858.50123726257</v>
       </c>
       <c r="K153" t="n">
-        <v>22643.1</v>
+        <v>22726.18429126106</v>
+      </c>
+      <c r="L153" t="n">
+        <v>22644.05905605891</v>
+      </c>
+      <c r="M153" t="n">
+        <v>22643.53922623499</v>
       </c>
     </row>
     <row r="154">
@@ -24965,19 +27092,25 @@
         <v>127.88</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>-290.022449060245</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22647.9</v>
+        <v>22937.92244906025</v>
       </c>
       <c r="J154" t="n">
-        <v>22647.9</v>
+        <v>22855.7182590518</v>
       </c>
       <c r="K154" t="n">
-        <v>22647.9</v>
+        <v>22728.74821277464</v>
+      </c>
+      <c r="L154" t="n">
+        <v>22648.82795741325</v>
+      </c>
+      <c r="M154" t="n">
+        <v>22648.32777352012</v>
       </c>
     </row>
     <row r="155">
@@ -24991,19 +27124,25 @@
         <v>127.78</v>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>-280.6443006588888</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23050.9</v>
+        <v>23331.54430065889</v>
       </c>
       <c r="J155" t="n">
-        <v>23050.9</v>
+        <v>23251.52787276977</v>
       </c>
       <c r="K155" t="n">
-        <v>23050.9</v>
+        <v>23129.60108589918</v>
+      </c>
+      <c r="L155" t="n">
+        <v>23051.79834434</v>
+      </c>
+      <c r="M155" t="n">
+        <v>23051.3167624193</v>
       </c>
     </row>
     <row r="156">
@@ -25017,19 +27156,25 @@
         <v>127.68</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>-271.7182769884312</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>22933.5</v>
+        <v>23205.21827698843</v>
       </c>
       <c r="J156" t="n">
-        <v>22933.5</v>
+        <v>23127.30349722479</v>
       </c>
       <c r="K156" t="n">
-        <v>22933.5</v>
+        <v>23010.13826051657</v>
+      </c>
+      <c r="L156" t="n">
+        <v>22934.37012387957</v>
+      </c>
+      <c r="M156" t="n">
+        <v>22933.90617054379</v>
       </c>
     </row>
     <row r="157">
@@ -25043,19 +27188,25 @@
         <v>127.58</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>-263.215546814361</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23251.9</v>
+        <v>23515.11554681436</v>
       </c>
       <c r="J157" t="n">
-        <v>23251.9</v>
+        <v>23439.22075859395</v>
       </c>
       <c r="K157" t="n">
-        <v>23251.9</v>
+        <v>23326.55538606764</v>
+      </c>
+      <c r="L157" t="n">
+        <v>23252.74321021823</v>
+      </c>
+      <c r="M157" t="n">
+        <v>23252.29597690417</v>
       </c>
     </row>
     <row r="158">
@@ -25069,19 +27220,25 @@
         <v>127.48</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>-255.1095548860576</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22359.8</v>
+        <v>22614.90955488606</v>
       </c>
       <c r="J158" t="n">
-        <v>22359.8</v>
+        <v>22540.95727451464</v>
       </c>
       <c r="K158" t="n">
-        <v>22359.8</v>
+        <v>22432.54838871875</v>
+      </c>
+      <c r="L158" t="n">
+        <v>22360.61752404004</v>
+      </c>
+      <c r="M158" t="n">
+        <v>22360.18616180688</v>
       </c>
     </row>
     <row r="159">
@@ -25095,19 +27252,25 @@
         <v>127.38</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>-247.3758087136921</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23047.9</v>
+        <v>23295.27580871369</v>
       </c>
       <c r="J159" t="n">
-        <v>23047.9</v>
+        <v>23223.19246236807</v>
       </c>
       <c r="K159" t="n">
-        <v>23047.9</v>
+        <v>23118.81345053104</v>
+      </c>
+      <c r="L159" t="n">
+        <v>23048.69299194632</v>
+      </c>
+      <c r="M159" t="n">
+        <v>23048.27670675944</v>
       </c>
     </row>
     <row r="160">
@@ -25121,19 +27284,25 @@
         <v>127.28</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>-239.9916883665974</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>22819.4</v>
+        <v>23059.3916883666</v>
       </c>
       <c r="J160" t="n">
-        <v>22819.4</v>
+        <v>22989.10736871209</v>
       </c>
       <c r="K160" t="n">
-        <v>22819.4</v>
+        <v>22888.54699043406</v>
+      </c>
+      <c r="L160" t="n">
+        <v>22820.16954593458</v>
+      </c>
+      <c r="M160" t="n">
+        <v>22819.76759438373</v>
       </c>
     </row>
     <row r="161">
@@ -25147,19 +27316,25 @@
         <v>127.18</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>-232.9362764892285</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22415.3</v>
+        <v>22648.23627648923</v>
       </c>
       <c r="J161" t="n">
-        <v>22415.3</v>
+        <v>22579.68451724346</v>
       </c>
       <c r="K161" t="n">
-        <v>22415.3</v>
+        <v>22482.74564682781</v>
+      </c>
+      <c r="L161" t="n">
+        <v>22416.04712293013</v>
+      </c>
+      <c r="M161" t="n">
+        <v>22415.65880833644</v>
       </c>
     </row>
     <row r="162">
@@ -25173,19 +27348,25 @@
         <v>127.08</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>-226.1902061101828</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23032.4</v>
+        <v>23258.59020611018</v>
       </c>
       <c r="J162" t="n">
-        <v>23032.4</v>
+        <v>23191.70777302871</v>
       </c>
       <c r="K162" t="n">
-        <v>23032.4</v>
+        <v>23098.2062616559</v>
+      </c>
+      <c r="L162" t="n">
+        <v>23033.1256643644</v>
+      </c>
+      <c r="M162" t="n">
+        <v>23032.7503332361</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -790,7 +790,7 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
+          <avLst/>
         </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
@@ -20580,7 +20580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE9"/>
+  <dimension ref="B2:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20621,7 +20621,6 @@
     <col width="6" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" s="46" t="inlineStr">
         <is>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -710,7 +710,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5591175" cy="4067175"/>
+    <ext cx="5619750" cy="4076700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -20580,932 +20580,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AE9"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="23" customWidth="1" min="15" max="15"/>
-    <col width="12" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="23" customWidth="1" min="22" max="22"/>
-    <col width="11" customWidth="1" min="23" max="23"/>
-    <col width="21" customWidth="1" min="24" max="24"/>
-    <col width="19" customWidth="1" min="25" max="25"/>
-    <col width="17" customWidth="1" min="26" max="26"/>
-    <col width="16" customWidth="1" min="27" max="27"/>
-    <col width="17" customWidth="1" min="28" max="28"/>
-    <col width="14" customWidth="1" min="29" max="29"/>
-    <col width="14" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" s="46" t="inlineStr">
-        <is>
-          <t>Sample 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="47" t="inlineStr">
-        <is>
-          <t>Peak
-Label</t>
-        </is>
-      </c>
-      <c r="C3" s="48" t="inlineStr">
-        <is>
-          <t>Position
-(eV)</t>
-        </is>
-      </c>
-      <c r="D3" s="48" t="inlineStr">
-        <is>
-          <t>Height
-(CPS)</t>
-        </is>
-      </c>
-      <c r="E3" s="48" t="inlineStr">
-        <is>
-          <t>FWHM
-(eV)</t>
-        </is>
-      </c>
-      <c r="F3" s="48" t="inlineStr">
-        <is>
-          <t>L/G 
-σ/γ (%)</t>
-        </is>
-      </c>
-      <c r="G3" s="48" t="inlineStr">
-        <is>
-          <t>Area
-(CPS.eV)</t>
-        </is>
-      </c>
-      <c r="H3" s="48" t="inlineStr">
-        <is>
-          <t>Atomic
-(%)</t>
-        </is>
-      </c>
-      <c r="I3" s="48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J3" s="48" t="inlineStr">
-        <is>
-          <t>RSF</t>
-        </is>
-      </c>
-      <c r="K3" s="48" t="inlineStr">
-        <is>
-          <t>TXFN</t>
-        </is>
-      </c>
-      <c r="L3" s="48" t="inlineStr">
-        <is>
-          <t>ECF</t>
-        </is>
-      </c>
-      <c r="M3" s="48" t="inlineStr">
-        <is>
-          <t>Instr.</t>
-        </is>
-      </c>
-      <c r="N3" s="48" t="inlineStr">
-        <is>
-          <t>Fitting Model</t>
-        </is>
-      </c>
-      <c r="O3" s="48" t="inlineStr">
-        <is>
-          <t>Corr. Area
- Ac (a.u.)</t>
-        </is>
-      </c>
-      <c r="P3" s="48" t="inlineStr">
-        <is>
-          <t>σ or α
-W_g</t>
-        </is>
-      </c>
-      <c r="Q3" s="48" t="inlineStr">
-        <is>
-          <t>γ or β
-W_l</t>
-        </is>
-      </c>
-      <c r="R3" s="48" t="inlineStr">
-        <is>
-          <t>Bkg Type</t>
-        </is>
-      </c>
-      <c r="S3" s="48" t="inlineStr">
-        <is>
-          <t>Bkg Low
-(eV)</t>
-        </is>
-      </c>
-      <c r="T3" s="48" t="inlineStr">
-        <is>
-          <t>Bkg High
-(eV)</t>
-        </is>
-      </c>
-      <c r="U3" s="48" t="inlineStr">
-        <is>
-          <t>Bkg Offset Low
-(CPS)</t>
-        </is>
-      </c>
-      <c r="V3" s="48" t="inlineStr">
-        <is>
-          <t>Bkg Offset High
-(CPS)</t>
-        </is>
-      </c>
-      <c r="W3" s="48" t="inlineStr">
-        <is>
-          <t>Sheetname</t>
-        </is>
-      </c>
-      <c r="X3" s="48" t="inlineStr">
-        <is>
-          <t>Position
-Constraint</t>
-        </is>
-      </c>
-      <c r="Y3" s="48" t="inlineStr">
-        <is>
-          <t>Height
-Constraint</t>
-        </is>
-      </c>
-      <c r="Z3" s="48" t="inlineStr">
-        <is>
-          <t>FWHM
-Constraint</t>
-        </is>
-      </c>
-      <c r="AA3" s="48" t="inlineStr">
-        <is>
-          <t>L/G
-Constraint</t>
-        </is>
-      </c>
-      <c r="AB3" s="48" t="inlineStr">
-        <is>
-          <t>Area
-Constraint</t>
-        </is>
-      </c>
-      <c r="AC3" s="48" t="inlineStr">
-        <is>
-          <t>σ
-Constraint</t>
-        </is>
-      </c>
-      <c r="AD3" s="48" t="inlineStr">
-        <is>
-          <t>γ
-Constraint</t>
-        </is>
-      </c>
-      <c r="AE3" s="49" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="39" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p1</t>
-        </is>
-      </c>
-      <c r="C4" s="40" t="inlineStr">
-        <is>
-          <t>133.47</t>
-        </is>
-      </c>
-      <c r="D4" s="40" t="inlineStr">
-        <is>
-          <t>96832.00</t>
-        </is>
-      </c>
-      <c r="E4" s="40" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F4" s="40" t="inlineStr">
-        <is>
-          <t>29.98</t>
-        </is>
-      </c>
-      <c r="G4" s="40" t="inlineStr">
-        <is>
-          <t>111729.00</t>
-        </is>
-      </c>
-      <c r="H4" s="40" t="inlineStr">
-        <is>
-          <t>43.53</t>
-        </is>
-      </c>
-      <c r="I4" s="40" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="J4" s="40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K4" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="40" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M4" s="40" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N4" s="40" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="O4" s="40" t="inlineStr">
-        <is>
-          <t>336.05</t>
-        </is>
-      </c>
-      <c r="P4" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q4" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R4" s="40" t="inlineStr"/>
-      <c r="S4" s="40" t="n">
-        <v>127.08</v>
-      </c>
-      <c r="T4" s="40" t="n">
-        <v>143.08</v>
-      </c>
-      <c r="U4" s="40" t="inlineStr"/>
-      <c r="V4" s="40" t="inlineStr"/>
-      <c r="W4" s="40" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X4" s="40" t="inlineStr">
-        <is>
-          <t>127.08,143.08</t>
-        </is>
-      </c>
-      <c r="Y4" s="40" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="Z4" s="40" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AA4" s="40" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AB4" s="40" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC4" s="40" t="inlineStr"/>
-      <c r="AD4" s="40" t="inlineStr"/>
-      <c r="AE4" s="34" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="39" t="inlineStr">
-        <is>
-          <t>Sr3d3/2 p2</t>
-        </is>
-      </c>
-      <c r="C5" s="40" t="inlineStr">
-        <is>
-          <t>135.23</t>
-        </is>
-      </c>
-      <c r="D5" s="40" t="inlineStr">
-        <is>
-          <t>64839.00</t>
-        </is>
-      </c>
-      <c r="E5" s="40" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F5" s="40" t="inlineStr">
-        <is>
-          <t>29.98</t>
-        </is>
-      </c>
-      <c r="G5" s="40" t="inlineStr">
-        <is>
-          <t>74918.00</t>
-        </is>
-      </c>
-      <c r="H5" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I5" s="40" t="inlineStr"/>
-      <c r="J5" s="40" t="n">
-        <v>2.927432</v>
-      </c>
-      <c r="K5" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="40" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M5" s="40" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N5" s="40" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="O5" s="40" t="inlineStr">
-        <is>
-          <t>327.39</t>
-        </is>
-      </c>
-      <c r="P5" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q5" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R5" s="40" t="inlineStr"/>
-      <c r="S5" s="40" t="n">
-        <v>127.08</v>
-      </c>
-      <c r="T5" s="40" t="n">
-        <v>143.08</v>
-      </c>
-      <c r="U5" s="40" t="inlineStr"/>
-      <c r="V5" s="40" t="inlineStr"/>
-      <c r="W5" s="40" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X5" s="40" t="inlineStr">
-        <is>
-          <t>A+1.70#0.1</t>
-        </is>
-      </c>
-      <c r="Y5" s="40" t="inlineStr">
-        <is>
-          <t>A*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="Z5" s="40" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AA5" s="40" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AB5" s="40" t="inlineStr">
-        <is>
-          <t>A*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AC5" s="40" t="inlineStr"/>
-      <c r="AD5" s="40" t="inlineStr"/>
-      <c r="AE5" s="34" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="39" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p3</t>
-        </is>
-      </c>
-      <c r="C6" s="40" t="inlineStr">
-        <is>
-          <t>133.96</t>
-        </is>
-      </c>
-      <c r="D6" s="40" t="inlineStr">
-        <is>
-          <t>6565.00</t>
-        </is>
-      </c>
-      <c r="E6" s="40" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F6" s="40" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" s="40" t="inlineStr">
-        <is>
-          <t>6712.00</t>
-        </is>
-      </c>
-      <c r="H6" s="40" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="I6" s="40" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="J6" s="40" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K6" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M6" s="40" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N6" s="40" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="O6" s="40" t="inlineStr">
-        <is>
-          <t>20.19</t>
-        </is>
-      </c>
-      <c r="P6" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q6" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R6" s="40" t="inlineStr"/>
-      <c r="S6" s="40" t="n">
-        <v>127.08</v>
-      </c>
-      <c r="T6" s="40" t="n">
-        <v>143.08</v>
-      </c>
-      <c r="U6" s="40" t="inlineStr"/>
-      <c r="V6" s="40" t="inlineStr"/>
-      <c r="W6" s="40" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X6" s="40" t="inlineStr">
-        <is>
-          <t>A+0.42#0.1</t>
-        </is>
-      </c>
-      <c r="Y6" s="40" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="Z6" s="40" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AA6" s="40" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AB6" s="40" t="inlineStr">
-        <is>
-          <t>A*0.07#0.01</t>
-        </is>
-      </c>
-      <c r="AC6" s="40" t="inlineStr"/>
-      <c r="AD6" s="40" t="inlineStr"/>
-      <c r="AE6" s="34" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="39" t="inlineStr">
-        <is>
-          <t>Sr3d3/2 p4</t>
-        </is>
-      </c>
-      <c r="C7" s="40" t="inlineStr">
-        <is>
-          <t>135.47</t>
-        </is>
-      </c>
-      <c r="D7" s="40" t="inlineStr">
-        <is>
-          <t>4706.00</t>
-        </is>
-      </c>
-      <c r="E7" s="40" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F7" s="40" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G7" s="40" t="inlineStr">
-        <is>
-          <t>4812.00</t>
-        </is>
-      </c>
-      <c r="H7" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I7" s="40" t="inlineStr"/>
-      <c r="J7" s="40" t="n">
-        <v>2.927432</v>
-      </c>
-      <c r="K7" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="40" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M7" s="40" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N7" s="40" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="O7" s="40" t="inlineStr">
-        <is>
-          <t>21.01</t>
-        </is>
-      </c>
-      <c r="P7" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q7" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R7" s="40" t="inlineStr"/>
-      <c r="S7" s="40" t="n">
-        <v>127.08</v>
-      </c>
-      <c r="T7" s="40" t="n">
-        <v>143.08</v>
-      </c>
-      <c r="U7" s="40" t="inlineStr"/>
-      <c r="V7" s="40" t="inlineStr"/>
-      <c r="W7" s="40" t="inlineStr">
-        <is>
-          <t>Sr3d</t>
-        </is>
-      </c>
-      <c r="X7" s="40" t="inlineStr">
-        <is>
-          <t>C+1.7#0.2</t>
-        </is>
-      </c>
-      <c r="Y7" s="40" t="inlineStr">
-        <is>
-          <t>C*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="Z7" s="40" t="inlineStr">
-        <is>
-          <t>C*1</t>
-        </is>
-      </c>
-      <c r="AA7" s="40" t="inlineStr">
-        <is>
-          <t>C*1</t>
-        </is>
-      </c>
-      <c r="AB7" s="40" t="inlineStr">
-        <is>
-          <t>C*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AC7" s="40" t="inlineStr"/>
-      <c r="AD7" s="40" t="inlineStr"/>
-      <c r="AE7" s="34" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="39" t="inlineStr">
-        <is>
-          <t>Ti2p3/2 p1</t>
-        </is>
-      </c>
-      <c r="C8" s="40" t="inlineStr">
-        <is>
-          <t>459.00</t>
-        </is>
-      </c>
-      <c r="D8" s="40" t="inlineStr">
-        <is>
-          <t>88688.00</t>
-        </is>
-      </c>
-      <c r="E8" s="40" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F8" s="40" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="G8" s="40" t="inlineStr">
-        <is>
-          <t>116316.00</t>
-        </is>
-      </c>
-      <c r="H8" s="40" t="inlineStr">
-        <is>
-          <t>53.85</t>
-        </is>
-      </c>
-      <c r="I8" s="40" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-      <c r="J8" s="40" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="K8" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="40" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M8" s="40" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N8" s="40" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="O8" s="40" t="inlineStr">
-        <is>
-          <t>415.92</t>
-        </is>
-      </c>
-      <c r="P8" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q8" s="40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R8" s="40" t="inlineStr"/>
-      <c r="S8" s="40" t="n">
-        <v>449.08</v>
-      </c>
-      <c r="T8" s="40" t="n">
-        <v>476.08</v>
-      </c>
-      <c r="U8" s="40" t="inlineStr"/>
-      <c r="V8" s="40" t="inlineStr"/>
-      <c r="W8" s="40" t="inlineStr">
-        <is>
-          <t>Ti2p</t>
-        </is>
-      </c>
-      <c r="X8" s="40" t="inlineStr">
-        <is>
-          <t>449.08,476.08</t>
-        </is>
-      </c>
-      <c r="Y8" s="40" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="Z8" s="40" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AA8" s="40" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AB8" s="40" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AC8" s="40" t="inlineStr"/>
-      <c r="AD8" s="40" t="inlineStr"/>
-      <c r="AE8" s="34" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="42" t="inlineStr">
-        <is>
-          <t>Ti2p1/2 p2</t>
-        </is>
-      </c>
-      <c r="C9" s="43" t="inlineStr">
-        <is>
-          <t>464.74</t>
-        </is>
-      </c>
-      <c r="D9" s="43" t="inlineStr">
-        <is>
-          <t>25353.00</t>
-        </is>
-      </c>
-      <c r="E9" s="43" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F9" s="43" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="G9" s="43" t="inlineStr">
-        <is>
-          <t>63974.00</t>
-        </is>
-      </c>
-      <c r="H9" s="43" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I9" s="43" t="inlineStr"/>
-      <c r="J9" s="43" t="n">
-        <v>2.055385</v>
-      </c>
-      <c r="K9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="43" t="inlineStr">
-        <is>
-          <t>TPP-2M</t>
-        </is>
-      </c>
-      <c r="M9" s="43" t="inlineStr">
-        <is>
-          <t>A-ALTHERMO1</t>
-        </is>
-      </c>
-      <c r="N9" s="43" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="O9" s="43" t="inlineStr">
-        <is>
-          <t>493.49</t>
-        </is>
-      </c>
-      <c r="P9" s="43" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q9" s="43" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R9" s="43" t="inlineStr"/>
-      <c r="S9" s="43" t="n">
-        <v>449.08</v>
-      </c>
-      <c r="T9" s="43" t="n">
-        <v>476.08</v>
-      </c>
-      <c r="U9" s="43" t="inlineStr"/>
-      <c r="V9" s="43" t="inlineStr"/>
-      <c r="W9" s="43" t="inlineStr">
-        <is>
-          <t>Ti2p</t>
-        </is>
-      </c>
-      <c r="X9" s="43" t="inlineStr">
-        <is>
-          <t>A+5.7#0.2</t>
-        </is>
-      </c>
-      <c r="Y9" s="43" t="inlineStr">
-        <is>
-          <t>A*0.5#0.05</t>
-        </is>
-      </c>
-      <c r="Z9" s="43" t="inlineStr">
-        <is>
-          <t>0.3:3.5</t>
-        </is>
-      </c>
-      <c r="AA9" s="43" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AB9" s="43" t="inlineStr">
-        <is>
-          <t>A*0.5#0.05</t>
-        </is>
-      </c>
-      <c r="AC9" s="43" t="inlineStr"/>
-      <c r="AD9" s="43" t="inlineStr"/>
-      <c r="AE9" s="37" t="n"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -21568,16 +20650,8 @@
           <t>Sr3d3/2 p2</t>
         </is>
       </c>
-      <c r="L1" s="28" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p3</t>
-        </is>
-      </c>
-      <c r="M1" s="28" t="inlineStr">
-        <is>
-          <t>Sr3d3/2 p4</t>
-        </is>
-      </c>
+      <c r="L1" s="28" t="inlineStr"/>
+      <c r="M1" s="28" t="inlineStr"/>
       <c r="N1" s="28" t="inlineStr"/>
       <c r="O1" s="28" t="inlineStr"/>
       <c r="P1" s="28" t="inlineStr"/>
@@ -21711,25 +20785,19 @@
         <v>143.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-142.4048706688154</v>
+        <v>-81.56472396294339</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26191.90487066882</v>
+        <v>26131.06472396294</v>
       </c>
       <c r="J2" t="n">
-        <v>26120.15214375677</v>
+        <v>26090.5824903156</v>
       </c>
       <c r="K2" t="n">
-        <v>26120.41345053104</v>
-      </c>
-      <c r="L2" t="n">
-        <v>26049.91382020344</v>
-      </c>
-      <c r="M2" t="n">
-        <v>26049.92553670831</v>
+        <v>26089.98225537745</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -21743,27 +20811,27 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>133.47</t>
+          <t>133.51</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>96697</t>
+          <t>97020</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>22.56</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>111729</t>
+          <t>94916</t>
         </is>
       </c>
       <c r="AE2" s="33" t="inlineStr"/>
@@ -21775,7 +20843,7 @@
       </c>
       <c r="AH2" s="33" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="AI2" s="33" t="inlineStr">
@@ -21795,27 +20863,27 @@
       </c>
       <c r="AL2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129.08</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145.08</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -21830,31 +20898,25 @@
         <v>142.98</v>
       </c>
       <c r="G3" t="n">
-        <v>-145.7503139030596</v>
+        <v>-83.48100408152459</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26583.35031390306</v>
+        <v>26521.08100408152</v>
       </c>
       <c r="J3" t="n">
-        <v>26509.74208826296</v>
+        <v>26479.5530339006</v>
       </c>
       <c r="K3" t="n">
-        <v>26510.34838871875</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26438.02302116462</v>
-      </c>
-      <c r="M3" t="n">
-        <v>26438.03689923837</v>
+        <v>26479.12799188242</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>127.08,143.08</t>
+          <t>129.08,145.08</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -21904,25 +20966,19 @@
         <v>142.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-149.2161786423494</v>
+        <v>-85.46624139469714</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26846.11617864235</v>
+        <v>26782.3662413947</v>
       </c>
       <c r="J4" t="n">
-        <v>26770.57962463415</v>
+        <v>26739.7515254551</v>
       </c>
       <c r="K4" t="n">
-        <v>26771.55538606764</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26697.3325321398</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26697.34872237682</v>
+        <v>26739.51473759221</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -21936,27 +20992,27 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>135.23</t>
+          <t>135.21</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>64839</t>
+          <t>64712</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>22.56</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>74918</t>
+          <t>63309</t>
         </is>
       </c>
       <c r="AE4" s="33" t="inlineStr"/>
@@ -21968,17 +21024,17 @@
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>67.1</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="AK4" s="33" t="inlineStr">
@@ -21988,27 +21044,27 @@
       </c>
       <c r="AL4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129.08</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>145.08</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -22023,31 +21079,25 @@
         <v>142.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-152.8083689899031</v>
+        <v>-87.52381476600931</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>26095.4083689899</v>
+        <v>26030.12381476601</v>
       </c>
       <c r="J5" t="n">
-        <v>26017.86679977152</v>
+        <v>25986.37917341389</v>
       </c>
       <c r="K5" t="n">
-        <v>26019.23826051657</v>
-      </c>
-      <c r="L5" t="n">
-        <v>25943.04236720056</v>
-      </c>
-      <c r="M5" t="n">
-        <v>25943.061031324</v>
+        <v>25986.34466293364</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
       <c r="Z5" s="36" t="inlineStr">
         <is>
-          <t>A+1.70#0.1</t>
+          <t>A+1.7#0.2</t>
         </is>
       </c>
       <c r="AA5" s="36" t="inlineStr">
@@ -22097,112 +21147,19 @@
         <v>142.68</v>
       </c>
       <c r="G6" t="n">
-        <v>-156.5331586343818</v>
+        <v>-89.6573143992282</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26722.33315863438</v>
+        <v>26655.45731439923</v>
       </c>
       <c r="J6" t="n">
-        <v>26642.70577171619</v>
+        <v>26610.53725219311</v>
       </c>
       <c r="K6" t="n">
-        <v>26644.50108589917</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26566.2525412252</v>
-      </c>
-      <c r="M6" t="n">
-        <v>26566.27385302499</v>
-      </c>
-      <c r="X6" s="32" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Y6" s="33" t="inlineStr">
-        <is>
-          <t>Sr3d5/2 p3</t>
-        </is>
-      </c>
-      <c r="Z6" s="33" t="inlineStr">
-        <is>
-          <t>133.96</t>
-        </is>
-      </c>
-      <c r="AA6" s="33" t="inlineStr">
-        <is>
-          <t>6565</t>
-        </is>
-      </c>
-      <c r="AB6" s="33" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="AC6" s="33" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="AD6" s="33" t="inlineStr">
-        <is>
-          <t>6712</t>
-        </is>
-      </c>
-      <c r="AE6" s="33" t="inlineStr"/>
-      <c r="AF6" s="33" t="inlineStr"/>
-      <c r="AG6" s="33" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="AH6" s="33" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="AI6" s="33" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="AJ6" s="33" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="AK6" s="33" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="AL6" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM6" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN6" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO6" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>26610.72008369231</v>
       </c>
     </row>
     <row r="7">
@@ -22216,68 +21173,20 @@
         <v>142.58</v>
       </c>
       <c r="G7" t="n">
-        <v>-160.3972191976027</v>
+        <v>-91.87055803370822</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26250.0972191976</v>
+        <v>26181.57055803371</v>
       </c>
       <c r="J7" t="n">
-        <v>26168.29881696327</v>
+        <v>26135.42710655788</v>
       </c>
       <c r="K7" t="n">
-        <v>26170.54821277464</v>
-      </c>
-      <c r="L7" t="n">
-        <v>26090.16306995486</v>
-      </c>
-      <c r="M7" t="n">
-        <v>26090.18721631631</v>
-      </c>
-      <c r="X7" s="35" t="inlineStr"/>
-      <c r="Y7" s="36" t="inlineStr"/>
-      <c r="Z7" s="36" t="inlineStr">
-        <is>
-          <t>A+0.42#0.1</t>
-        </is>
-      </c>
-      <c r="AA7" s="36" t="inlineStr">
-        <is>
-          <t>1:1e7</t>
-        </is>
-      </c>
-      <c r="AB7" s="36" t="inlineStr">
-        <is>
-          <t>A*1</t>
-        </is>
-      </c>
-      <c r="AC7" s="36" t="inlineStr">
-        <is>
-          <t>2:80</t>
-        </is>
-      </c>
-      <c r="AD7" s="36" t="inlineStr">
-        <is>
-          <t>A*0.07#0.01</t>
-        </is>
-      </c>
-      <c r="AE7" s="36" t="inlineStr"/>
-      <c r="AF7" s="36" t="inlineStr"/>
-      <c r="AG7" s="36" t="inlineStr">
-        <is>
-          <t>0.01:2</t>
-        </is>
-      </c>
-      <c r="AH7" s="36" t="inlineStr"/>
-      <c r="AI7" s="36" t="inlineStr"/>
-      <c r="AJ7" s="36" t="inlineStr"/>
-      <c r="AK7" s="36" t="inlineStr"/>
-      <c r="AL7" s="36" t="inlineStr"/>
-      <c r="AM7" s="36" t="inlineStr"/>
-      <c r="AN7" s="36" t="inlineStr"/>
-      <c r="AO7" s="36" t="inlineStr"/>
+        <v>26135.84347284013</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -22290,112 +21199,19 @@
         <v>142.48</v>
       </c>
       <c r="G8" t="n">
-        <v>-164.4076511711755</v>
+        <v>-94.16760861750663</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>26949.00765117117</v>
+        <v>26878.76760861751</v>
       </c>
       <c r="J8" t="n">
-        <v>26864.94833834322</v>
+        <v>26831.35015633091</v>
       </c>
       <c r="K8" t="n">
-        <v>26867.68429126106</v>
-      </c>
-      <c r="L8" t="n">
-        <v>26785.07397005415</v>
-      </c>
-      <c r="M8" t="n">
-        <v>26785.1011520873</v>
-      </c>
-      <c r="X8" s="32" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Y8" s="33" t="inlineStr">
-        <is>
-          <t>Sr3d3/2 p4</t>
-        </is>
-      </c>
-      <c r="Z8" s="33" t="inlineStr">
-        <is>
-          <t>135.47</t>
-        </is>
-      </c>
-      <c r="AA8" s="33" t="inlineStr">
-        <is>
-          <t>4706</t>
-        </is>
-      </c>
-      <c r="AB8" s="33" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="AC8" s="33" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="AD8" s="33" t="inlineStr">
-        <is>
-          <t>4812</t>
-        </is>
-      </c>
-      <c r="AE8" s="33" t="inlineStr"/>
-      <c r="AF8" s="33" t="inlineStr"/>
-      <c r="AG8" s="33" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="AH8" s="33" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="AI8" s="33" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="AJ8" s="33" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="AK8" s="33" t="inlineStr">
-        <is>
-          <t>SGL (Area)</t>
-        </is>
-      </c>
-      <c r="AL8" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM8" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN8" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO8" s="33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>26832.01747349997</v>
       </c>
     </row>
     <row r="9">
@@ -22409,68 +21225,20 @@
         <v>142.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-168.5720177176991</v>
+        <v>-96.55279361545763</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26526.2720177177</v>
+        <v>26454.25279361546</v>
       </c>
       <c r="J9" t="n">
-        <v>26439.85687352118</v>
+        <v>26405.50790147259</v>
       </c>
       <c r="K9" t="n">
-        <v>26443.11429609406</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26358.18525917692</v>
-      </c>
-      <c r="M9" t="n">
-        <v>26358.21569345772</v>
-      </c>
-      <c r="X9" s="35" t="inlineStr"/>
-      <c r="Y9" s="36" t="inlineStr"/>
-      <c r="Z9" s="36" t="inlineStr">
-        <is>
-          <t>C+1.7#0.2</t>
-        </is>
-      </c>
-      <c r="AA9" s="36" t="inlineStr">
-        <is>
-          <t>C*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AB9" s="36" t="inlineStr">
-        <is>
-          <t>C*1</t>
-        </is>
-      </c>
-      <c r="AC9" s="36" t="inlineStr">
-        <is>
-          <t>C*1</t>
-        </is>
-      </c>
-      <c r="AD9" s="36" t="inlineStr">
-        <is>
-          <t>C*0.667#0.05</t>
-        </is>
-      </c>
-      <c r="AE9" s="36" t="inlineStr"/>
-      <c r="AF9" s="36" t="inlineStr"/>
-      <c r="AG9" s="36" t="inlineStr">
-        <is>
-          <t>C*1</t>
-        </is>
-      </c>
-      <c r="AH9" s="36" t="inlineStr"/>
-      <c r="AI9" s="36" t="inlineStr"/>
-      <c r="AJ9" s="36" t="inlineStr"/>
-      <c r="AK9" s="36" t="inlineStr"/>
-      <c r="AL9" s="36" t="inlineStr"/>
-      <c r="AM9" s="36" t="inlineStr"/>
-      <c r="AN9" s="36" t="inlineStr"/>
-      <c r="AO9" s="36" t="inlineStr"/>
+        <v>26406.44491317357</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -22483,25 +21251,19 @@
         <v>142.28</v>
       </c>
       <c r="G10" t="n">
-        <v>-172.8983816458313</v>
+        <v>-99.03072612865071</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26428.89838164583</v>
+        <v>26355.03072612865</v>
       </c>
       <c r="J10" t="n">
-        <v>26340.02710417035</v>
+        <v>26304.90192756644</v>
       </c>
       <c r="K10" t="n">
-        <v>26343.84355416161</v>
-      </c>
-      <c r="L10" t="n">
-        <v>26256.49695603745</v>
-      </c>
-      <c r="M10" t="n">
-        <v>26256.53087597348</v>
+        <v>26306.12881937551</v>
       </c>
     </row>
     <row r="11">
@@ -22515,25 +21277,19 @@
         <v>142.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-177.3953459067779</v>
+        <v>-101.6063280234303</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26696.69534590678</v>
+        <v>26620.90632802343</v>
       </c>
       <c r="J11" t="n">
-        <v>26605.26186588104</v>
+        <v>26569.3339117474</v>
       </c>
       <c r="K11" t="n">
-        <v>26609.67777479812</v>
-      </c>
-      <c r="L11" t="n">
-        <v>26519.80908048774</v>
-      </c>
-      <c r="M11" t="n">
-        <v>26519.84673782271</v>
+        <v>26570.87243683395</v>
       </c>
     </row>
     <row r="12">
@@ -22547,25 +21303,19 @@
         <v>142.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-182.0720980034421</v>
+        <v>-104.2848552931173</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>26130.67209800344</v>
+        <v>26052.88485529312</v>
       </c>
       <c r="J12" t="n">
-        <v>26036.56415887354</v>
+        <v>25999.80562911415</v>
       </c>
       <c r="K12" t="n">
-        <v>26041.62308315813</v>
-      </c>
-      <c r="L12" t="n">
-        <v>25949.12165360144</v>
-      </c>
-      <c r="M12" t="n">
-        <v>25949.16332007464</v>
+        <v>26001.67924643995</v>
       </c>
     </row>
     <row r="13">
@@ -22579,25 +21329,19 @@
         <v>141.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-186.9384587534041</v>
+        <v>-107.0719259039797</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>27132.2384587534</v>
+        <v>27052.37192590398</v>
       </c>
       <c r="J13" t="n">
-        <v>27035.33715959026</v>
+        <v>26997.71895967113</v>
       </c>
       <c r="K13" t="n">
-        <v>27041.08605703171</v>
-      </c>
-      <c r="L13" t="n">
-        <v>26945.83469776508</v>
-      </c>
-      <c r="M13" t="n">
-        <v>26945.88066694382</v>
+        <v>26999.95298615143</v>
       </c>
     </row>
     <row r="14">
@@ -22611,25 +21355,19 @@
         <v>141.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-192.004935903904</v>
+        <v>-109.9735504094861</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26636.0049359039</v>
+        <v>26553.97355040949</v>
       </c>
       <c r="J14" t="n">
-        <v>26536.18423325026</v>
+        <v>26497.6758958509</v>
       </c>
       <c r="K14" t="n">
-        <v>26542.67376751269</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26444.54823677733</v>
-      </c>
-      <c r="M14" t="n">
-        <v>26444.59882608322</v>
+        <v>26500.29767408501</v>
       </c>
     </row>
     <row r="15">
@@ -22643,25 +21381,19 @@
         <v>141.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-197.2827831625145</v>
+        <v>-112.9961656543383</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>26926.88278316251</v>
+        <v>26842.59616565434</v>
       </c>
       <c r="J15" t="n">
-        <v>26824.00894745873</v>
+        <v>26784.57855067281</v>
       </c>
       <c r="K15" t="n">
-        <v>26831.29382398667</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26730.1622959571</v>
-      </c>
-      <c r="M15" t="n">
-        <v>26730.21784890948</v>
+        <v>26787.61763406133</v>
       </c>
     </row>
     <row r="16">
@@ -22675,25 +21407,19 @@
         <v>141.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-202.784065282387</v>
+        <v>-116.1466719324526</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27248.68406528239</v>
+        <v>27162.04667193245</v>
       </c>
       <c r="J16" t="n">
-        <v>27142.61508697359</v>
+        <v>27102.22916660023</v>
       </c>
       <c r="K16" t="n">
-        <v>27150.75442397012</v>
-      </c>
-      <c r="L16" t="n">
-        <v>27046.47690226147</v>
-      </c>
-      <c r="M16" t="n">
-        <v>27046.53779096462</v>
+        <v>27105.71752390573</v>
       </c>
     </row>
     <row r="17">
@@ -22707,25 +21433,19 @@
         <v>141.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-208.5217299275027</v>
+        <v>-119.4324740125485</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26482.8217299275</v>
+        <v>26393.73247401255</v>
       </c>
       <c r="J17" t="n">
-        <v>26373.40666974316</v>
+        <v>26332.03012516554</v>
       </c>
       <c r="K17" t="n">
-        <v>26382.46440840667</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26274.89208441431</v>
-      </c>
-      <c r="M17" t="n">
-        <v>26274.95871231884</v>
+        <v>26336.00236684886</v>
       </c>
     </row>
     <row r="18">
@@ -22739,25 +21459,19 @@
         <v>141.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-214.5096871431379</v>
+        <v>-122.8615265018452</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>25936.20968714314</v>
+        <v>25844.56152650185</v>
       </c>
       <c r="J18" t="n">
-        <v>25823.28796434109</v>
+        <v>25780.88395743968</v>
       </c>
       <c r="K18" t="n">
-        <v>25833.3333231129</v>
-      </c>
-      <c r="L18" t="n">
-        <v>25722.30787304699</v>
-      </c>
-      <c r="M18" t="n">
-        <v>25722.3806780199</v>
+        <v>25785.37758642071</v>
       </c>
     </row>
     <row r="19">
@@ -22771,25 +21485,19 @@
         <v>141.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-220.7628973723877</v>
+        <v>-126.4423840842355</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26420.36289737239</v>
+        <v>26326.04238408423</v>
       </c>
       <c r="J19" t="n">
-        <v>26303.76350893939</v>
+        <v>26260.29335543207</v>
       </c>
       <c r="K19" t="n">
-        <v>26314.87148716592</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26200.22430085209</v>
-      </c>
-      <c r="M19" t="n">
-        <v>26200.30375859528</v>
+        <v>26265.34904528881</v>
       </c>
     </row>
     <row r="20">
@@ -22803,25 +21511,19 @@
         <v>141.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-227.2974690931296</v>
+        <v>-130.1842572455134</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27402.99746909313</v>
+        <v>27305.88425724551</v>
       </c>
       <c r="J20" t="n">
-        <v>27282.53813197643</v>
+        <v>27237.96118451651</v>
       </c>
       <c r="K20" t="n">
-        <v>27294.79006914213</v>
-      </c>
-      <c r="L20" t="n">
-        <v>27176.34140275196</v>
-      </c>
-      <c r="M20" t="n">
-        <v>27176.42803061425</v>
+        <v>27243.62308855753</v>
       </c>
     </row>
     <row r="21">
@@ -22835,25 +21537,19 @@
         <v>141.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-234.1307673052579</v>
+        <v>-134.0970741868296</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26376.13076730526</v>
+        <v>26276.09707418683</v>
       </c>
       <c r="J21" t="n">
-        <v>26251.61697469487</v>
+        <v>26205.89049698968</v>
       </c>
       <c r="K21" t="n">
-        <v>26265.10117225156</v>
-      </c>
-      <c r="L21" t="n">
-        <v>26142.65921608343</v>
-      </c>
-      <c r="M21" t="n">
-        <v>26142.75357731827</v>
+        <v>26212.20659212286</v>
       </c>
     </row>
     <row r="22">
@@ -22867,25 +21563,19 @@
         <v>141.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-241.2815342787508</v>
+        <v>-138.1915497305927</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26661.18153427875</v>
+        <v>26558.09154973059</v>
       </c>
       <c r="J22" t="n">
-        <v>26532.40551574515</v>
+        <v>26485.48454688191</v>
       </c>
       <c r="K22" t="n">
-        <v>26547.21792957164</v>
-      </c>
-      <c r="L22" t="n">
-        <v>26420.57778080063</v>
-      </c>
-      <c r="M22" t="n">
-        <v>26420.68048932928</v>
+        <v>26492.50701676753</v>
       </c>
     </row>
     <row r="23">
@@ -22899,25 +21589,19 @@
         <v>140.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-248.7700241840612</v>
+        <v>-142.4792621433735</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27542.47002418406</v>
+        <v>27436.17926214337</v>
       </c>
       <c r="J23" t="n">
-        <v>27409.20959807358</v>
+        <v>27361.04680615385</v>
       </c>
       <c r="K23" t="n">
-        <v>27425.45461076961</v>
-      </c>
-      <c r="L23" t="n">
-        <v>27294.3971396979</v>
-      </c>
-      <c r="M23" t="n">
-        <v>27294.50886544703</v>
+        <v>27368.83246878714</v>
       </c>
     </row>
     <row r="24">
@@ -22931,25 +21615,19 @@
         <v>140.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-256.6181534731149</v>
+        <v>-146.9727389411128</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26447.71815347311</v>
+        <v>26338.07273894111</v>
       </c>
       <c r="J24" t="n">
-        <v>26309.73545834015</v>
+        <v>26260.28098242906</v>
       </c>
       <c r="K24" t="n">
-        <v>26327.52674192119</v>
-      </c>
-      <c r="L24" t="n">
-        <v>26191.8173386552</v>
-      </c>
-      <c r="M24" t="n">
-        <v>26191.93881354847</v>
+        <v>26268.89176806253</v>
       </c>
     </row>
     <row r="25">
@@ -22963,25 +21641,19 @@
         <v>140.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-264.8496691684413</v>
+        <v>-151.6855529069253</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26709.54966916844</v>
+        <v>26596.38555290693</v>
       </c>
       <c r="J25" t="n">
-        <v>26566.58975914164</v>
+        <v>26515.79103843131</v>
       </c>
       <c r="K25" t="n">
-        <v>26586.05124029006</v>
-      </c>
-      <c r="L25" t="n">
-        <v>26445.43842690855</v>
-      </c>
-      <c r="M25" t="n">
-        <v>26445.57045160436</v>
+        <v>26525.29452464033</v>
       </c>
     </row>
     <row r="26">
@@ -22995,25 +21667,19 @@
         <v>140.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-273.4903375582653</v>
+        <v>-156.6324297459978</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26667.29033755826</v>
+        <v>26550.432429746</v>
       </c>
       <c r="J26" t="n">
-        <v>26519.0796243492</v>
+        <v>26466.88121331592</v>
       </c>
       <c r="K26" t="n">
-        <v>26540.34656623577</v>
-      </c>
-      <c r="L26" t="n">
-        <v>26394.56045734843</v>
-      </c>
-      <c r="M26" t="n">
-        <v>26394.70390883083</v>
+        <v>26477.35122505622</v>
       </c>
     </row>
     <row r="27">
@@ -23027,25 +21693,19 @@
         <v>140.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-282.5681561964957</v>
+        <v>-161.829369031002</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26305.7681561965</v>
+        <v>26185.029369031</v>
       </c>
       <c r="J27" t="n">
-        <v>26152.01267790897</v>
+        <v>26098.3560461091</v>
       </c>
       <c r="K27" t="n">
-        <v>26175.23289477652</v>
-      </c>
-      <c r="L27" t="n">
-        <v>26023.98348684961</v>
-      </c>
-      <c r="M27" t="n">
-        <v>26024.13932699673</v>
+        <v>26109.87332984087</v>
       </c>
     </row>
     <row r="28">
@@ -23059,25 +21719,19 @@
         <v>140.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-292.1135925808921</v>
+        <v>-167.2937803621862</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27361.91359258089</v>
+        <v>27237.09378036219</v>
       </c>
       <c r="J28" t="n">
-        <v>27202.29708649827</v>
+        <v>27147.12040149632</v>
       </c>
       <c r="K28" t="n">
-        <v>27227.63230975912</v>
-      </c>
-      <c r="L28" t="n">
-        <v>27070.60757663616</v>
-      </c>
-      <c r="M28" t="n">
-        <v>27070.77686191116</v>
+        <v>27159.77338389146</v>
       </c>
     </row>
     <row r="29">
@@ -23091,25 +21745,19 @@
         <v>140.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-302.1598534450277</v>
+        <v>-173.044636987488</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26463.95985344503</v>
+        <v>26334.84463698749</v>
       </c>
       <c r="J29" t="n">
-        <v>26298.14160648094</v>
+        <v>26241.37949823223</v>
       </c>
       <c r="K29" t="n">
-        <v>26325.76902409515</v>
-      </c>
-      <c r="L29" t="n">
-        <v>26162.63279268598</v>
-      </c>
-      <c r="M29" t="n">
-        <v>26162.81668512013</v>
+        <v>26255.26514168162</v>
       </c>
     </row>
     <row r="30">
@@ -23123,25 +21771,19 @@
         <v>140.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-312.7431892689128</v>
+        <v>-179.1026495102706</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26612.94318926891</v>
+        <v>26479.30264951027</v>
       </c>
       <c r="J30" t="n">
-        <v>26440.55563566316</v>
+        <v>26382.13894048109</v>
       </c>
       <c r="K30" t="n">
-        <v>26470.66963012754</v>
-      </c>
-      <c r="L30" t="n">
-        <v>26301.05920617985</v>
-      </c>
-      <c r="M30" t="n">
-        <v>26301.25898584651</v>
+        <v>26397.36370962848</v>
       </c>
     </row>
     <row r="31">
@@ -23155,25 +21797,19 @@
         <v>140.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-323.9032394111637</v>
+        <v>-185.4904627682772</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26503.10323941116</v>
+        <v>26364.69046276828</v>
       </c>
       <c r="J31" t="n">
-        <v>26323.74927041822</v>
+        <v>26263.60475243738</v>
       </c>
       <c r="K31" t="n">
-        <v>26356.56338491596</v>
-      </c>
-      <c r="L31" t="n">
-        <v>26180.08689400062</v>
-      </c>
-      <c r="M31" t="n">
-        <v>26180.30397321364</v>
+        <v>26280.28570835068</v>
       </c>
     </row>
     <row r="32">
@@ -23187,25 +21823,19 @@
         <v>140.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-335.6834242214245</v>
+        <v>-192.2328795139256</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>26288.08342422143</v>
+        <v>26144.63287951393</v>
       </c>
       <c r="J32" t="n">
-        <v>26101.33336882489</v>
+        <v>26039.38341662489</v>
       </c>
       <c r="K32" t="n">
-        <v>26137.08253610022</v>
-      </c>
-      <c r="L32" t="n">
-        <v>25953.31593928912</v>
-      </c>
-      <c r="M32" t="n">
-        <v>25953.55187880118</v>
+        <v>26057.64945804922</v>
       </c>
     </row>
     <row r="33">
@@ -23219,25 +21849,19 @@
         <v>139.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-348.131391639301</v>
+        <v>-199.3571151822471</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>26171.2313916393</v>
+        <v>26022.45711518225</v>
       </c>
       <c r="J33" t="n">
-        <v>25976.61962055275</v>
+        <v>25912.7819163267</v>
       </c>
       <c r="K33" t="n">
-        <v>26015.5626950495</v>
-      </c>
-      <c r="L33" t="n">
-        <v>25824.04643206416</v>
-      </c>
-      <c r="M33" t="n">
-        <v>25824.30295959053</v>
+        <v>25932.77519084498</v>
       </c>
     </row>
     <row r="34">
@@ -23251,25 +21875,19 @@
         <v>139.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-361.2995271693217</v>
+        <v>-206.8930888245995</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>26157.49952716932</v>
+        <v>26003.0930888246</v>
       </c>
       <c r="J34" t="n">
-        <v>25954.52062432945</v>
+        <v>25888.70778266282</v>
       </c>
       <c r="K34" t="n">
-        <v>25996.94326527448</v>
-      </c>
-      <c r="L34" t="n">
-        <v>25797.17846991525</v>
-      </c>
-      <c r="M34" t="n">
-        <v>25797.45750136921</v>
+        <v>25910.58529463438</v>
       </c>
     </row>
     <row r="35">
@@ -23283,25 +21901,19 @@
         <v>139.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-375.2455377949591</v>
+        <v>-214.8737562443384</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>26082.14553779496</v>
+        <v>25921.77375624434</v>
       </c>
       <c r="J35" t="n">
-        <v>25870.24997394281</v>
+        <v>25802.36914690532</v>
       </c>
       <c r="K35" t="n">
-        <v>25916.46793561893</v>
-      </c>
-      <c r="L35" t="n">
-        <v>25707.91215877789</v>
-      </c>
-      <c r="M35" t="n">
-        <v>25708.21582267718</v>
+        <v>25826.30459390919</v>
       </c>
     </row>
     <row r="36">
@@ -23315,25 +21927,19 @@
         <v>139.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-390.0331224257534</v>
+        <v>-223.3354925344902</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>26255.63312242575</v>
+        <v>26088.93549253449</v>
       </c>
       <c r="J36" t="n">
-        <v>26034.22235386755</v>
+        <v>25964.17479870689</v>
       </c>
       <c r="K36" t="n">
-        <v>26084.58524962396</v>
-      </c>
-      <c r="L36" t="n">
-        <v>25866.64761380288</v>
-      </c>
-      <c r="M36" t="n">
-        <v>25866.97827939564</v>
+        <v>25990.36067406519</v>
       </c>
     </row>
     <row r="37">
@@ -23347,25 +21953,19 @@
         <v>139.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-405.7327439479595</v>
+        <v>-232.3185326376661</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26556.33274394796</v>
+        <v>26382.91853263766</v>
       </c>
       <c r="J37" t="n">
-        <v>26324.75364576462</v>
+        <v>26252.4342510176</v>
       </c>
       <c r="K37" t="n">
-        <v>26379.64926475177</v>
-      </c>
-      <c r="L37" t="n">
-        <v>26151.68496033287</v>
-      </c>
-      <c r="M37" t="n">
-        <v>26152.04527010014</v>
+        <v>26281.08425704436</v>
       </c>
     </row>
     <row r="38">
@@ -23379,25 +21979,19 @@
         <v>139.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-422.4225209787764</v>
+        <v>-241.8674802869427</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>26032.92252097878</v>
+        <v>25852.36748028694</v>
       </c>
       <c r="J38" t="n">
-        <v>25790.46104728617</v>
+        <v>25715.75781258128</v>
       </c>
       <c r="K38" t="n">
-        <v>25850.32031797273</v>
-      </c>
-      <c r="L38" t="n">
-        <v>25611.62433500144</v>
-      </c>
-      <c r="M38" t="n">
-        <v>25612.01724232593</v>
+        <v>25747.10963777861</v>
       </c>
     </row>
     <row r="39">
@@ -23411,25 +22005,19 @@
         <v>139.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-440.1892611473922</v>
+        <v>-252.0318978256619</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>26054.48926114739</v>
+        <v>25866.33189782566</v>
       </c>
       <c r="J39" t="n">
-        <v>25800.36320483462</v>
+        <v>25723.15666903798</v>
       </c>
       <c r="K39" t="n">
-        <v>25865.66591769173</v>
-      </c>
-      <c r="L39" t="n">
-        <v>25615.46588697268</v>
-      </c>
-      <c r="M39" t="n">
-        <v>25615.894699927</v>
+        <v>25757.47519290592</v>
       </c>
     </row>
     <row r="40">
@@ -23443,25 +22031,19 @@
         <v>139.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-459.1296623211747</v>
+        <v>-262.8669920463944</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25941.52966232118</v>
+        <v>25745.2669920464</v>
       </c>
       <c r="J40" t="n">
-        <v>25674.88036217629</v>
+        <v>25595.04297381827</v>
       </c>
       <c r="K40" t="n">
-        <v>25746.16178628829</v>
-      </c>
-      <c r="L40" t="n">
-        <v>25483.60977934198</v>
-      </c>
-      <c r="M40" t="n">
-        <v>25484.078211751</v>
+        <v>25632.62397571387</v>
       </c>
     </row>
     <row r="41">
@@ -23475,25 +22057,19 @@
         <v>139.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-479.3517138911047</v>
+        <v>-274.4344144691422</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>26300.05171389111</v>
+        <v>26095.13441446914</v>
       </c>
       <c r="J41" t="n">
-        <v>26019.93452710539</v>
+        <v>25937.3299502013</v>
       </c>
       <c r="K41" t="n">
-        <v>26097.79308289042</v>
-      </c>
-      <c r="L41" t="n">
-        <v>25821.95619072242</v>
-      </c>
-      <c r="M41" t="n">
-        <v>25822.46842190429</v>
+        <v>25978.50441435814</v>
       </c>
     </row>
     <row r="42">
@@ -23507,25 +22083,19 @@
         <v>139.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-500.9763373255664</v>
+        <v>-286.8031985692141</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25838.87633732557</v>
+        <v>25624.70319856922</v>
       </c>
       <c r="J42" t="n">
-        <v>25544.24965870185</v>
+        <v>25458.73200612877</v>
       </c>
       <c r="K42" t="n">
-        <v>25629.35584267974</v>
-      </c>
-      <c r="L42" t="n">
-        <v>25339.20531704537</v>
-      </c>
-      <c r="M42" t="n">
-        <v>25339.7660619469</v>
+        <v>25503.87113427475</v>
       </c>
     </row>
     <row r="43">
@@ -23539,25 +22109,19 @@
         <v>138.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-524.1393140805594</v>
+        <v>-300.0508615922772</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>26184.53931408056</v>
+        <v>25960.45086159228</v>
       </c>
       <c r="J43" t="n">
-        <v>25874.25187813515</v>
+        <v>25785.66486362583</v>
       </c>
       <c r="K43" t="n">
-        <v>25967.35867740694</v>
-      </c>
-      <c r="L43" t="n">
-        <v>25661.75737360883</v>
-      </c>
-      <c r="M43" t="n">
-        <v>25662.37196544042</v>
+        <v>25835.18593057204</v>
       </c>
     </row>
     <row r="44">
@@ -23571,25 +22135,19 @@
         <v>138.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-548.9935601229517</v>
+        <v>-314.2647050539563</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25679.49356012295</v>
+        <v>25444.76470505396</v>
       </c>
       <c r="J44" t="n">
-        <v>25352.26970645027</v>
+        <v>25260.44570498765</v>
       </c>
       <c r="K44" t="n">
-        <v>25454.22479236979</v>
-      </c>
-      <c r="L44" t="n">
-        <v>25131.91259741313</v>
-      </c>
-      <c r="M44" t="n">
-        <v>25132.58708537823</v>
+        <v>25314.81892234108</v>
       </c>
     </row>
     <row r="45">
@@ -23603,25 +22161,19 @@
         <v>138.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-575.7118204466824</v>
+        <v>-329.5433562053404</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25896.31182044668</v>
+        <v>25650.14335620534</v>
       </c>
       <c r="J45" t="n">
-        <v>25550.73433334447</v>
+        <v>25455.49333825488</v>
       </c>
       <c r="K45" t="n">
-        <v>25662.49438851157</v>
-      </c>
-      <c r="L45" t="n">
-        <v>25322.07124983081</v>
-      </c>
-      <c r="M45" t="n">
-        <v>25322.81251516426</v>
+        <v>25515.24992864279</v>
       </c>
     </row>
     <row r="46">
@@ -23635,25 +22187,19 @@
         <v>138.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-604.4898749168242</v>
+        <v>-345.9986031728185</v>
       </c>
       <c r="H46" t="n">
         <v>24983.9</v>
       </c>
       <c r="I46" t="n">
-        <v>25588.38987491683</v>
+        <v>25329.89860317282</v>
       </c>
       <c r="J46" t="n">
-        <v>25222.87992162417</v>
+        <v>25124.02838493558</v>
       </c>
       <c r="K46" t="n">
-        <v>25345.52753538779</v>
-      </c>
-      <c r="L46" t="n">
-        <v>24985.43361966637</v>
-      </c>
-      <c r="M46" t="n">
-        <v>24986.24951398312</v>
+        <v>25189.77011592201</v>
       </c>
     </row>
     <row r="47">
@@ -23667,25 +22213,19 @@
         <v>138.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-635.5503697361091</v>
+        <v>-363.7575898452305</v>
       </c>
       <c r="H47" t="n">
         <v>25008</v>
       </c>
       <c r="I47" t="n">
-        <v>25643.55036973611</v>
+        <v>25371.75758984523</v>
       </c>
       <c r="J47" t="n">
-        <v>25256.34395284236</v>
+        <v>25153.6734934503</v>
       </c>
       <c r="K47" t="n">
-        <v>25391.10762265659</v>
-      </c>
-      <c r="L47" t="n">
-        <v>25009.60002667185</v>
-      </c>
-      <c r="M47" t="n">
-        <v>25010.49953763422</v>
+        <v>25226.0839794451</v>
       </c>
     </row>
     <row r="48">
@@ -23699,25 +22239,19 @@
         <v>138.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-669.1474183590835</v>
+        <v>-382.9654538167488</v>
       </c>
       <c r="H48" t="n">
         <v>24993.3</v>
       </c>
       <c r="I48" t="n">
-        <v>25662.44741835908</v>
+        <v>25376.26545381675</v>
       </c>
       <c r="J48" t="n">
-        <v>25251.56762058638</v>
+        <v>25144.85358239867</v>
       </c>
       <c r="K48" t="n">
-        <v>25399.84552599538</v>
-      </c>
-      <c r="L48" t="n">
-        <v>24994.97082559749</v>
-      </c>
-      <c r="M48" t="n">
-        <v>24995.96427620459</v>
+        <v>25224.7117379708</v>
       </c>
     </row>
     <row r="49">
@@ -23731,25 +22265,19 @@
         <v>138.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-705.5721539011975</v>
+        <v>-403.788513067142</v>
       </c>
       <c r="H49" t="n">
         <v>25038.8</v>
       </c>
       <c r="I49" t="n">
-        <v>25744.3721539012</v>
+        <v>25442.58851306714</v>
       </c>
       <c r="J49" t="n">
-        <v>25307.59627904791</v>
+        <v>25196.59611849325</v>
       </c>
       <c r="K49" t="n">
-        <v>25470.98465998907</v>
-      </c>
-      <c r="L49" t="n">
-        <v>25040.54641087199</v>
-      </c>
-      <c r="M49" t="n">
-        <v>25041.64570035584</v>
+        <v>25284.79224248994</v>
       </c>
     </row>
     <row r="50">
@@ -23763,25 +22291,19 @@
         <v>138.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-745.1594648961</v>
+        <v>-426.41813630053</v>
       </c>
       <c r="H50" t="n">
         <v>24708.8</v>
       </c>
       <c r="I50" t="n">
-        <v>25453.9594648961</v>
+        <v>25135.21813630053</v>
       </c>
       <c r="J50" t="n">
-        <v>24988.77995590544</v>
+        <v>24873.2314349082</v>
       </c>
       <c r="K50" t="n">
-        <v>25169.10713837116</v>
-      </c>
-      <c r="L50" t="n">
-        <v>24710.62722202626</v>
-      </c>
-      <c r="M50" t="n">
-        <v>24711.84611855413</v>
+        <v>24970.78652820715</v>
       </c>
     </row>
     <row r="51">
@@ -23795,25 +22317,19 @@
         <v>138.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-788.2962116709423</v>
+        <v>-451.0754703486782</v>
       </c>
       <c r="H51" t="n">
         <v>24696.9</v>
       </c>
       <c r="I51" t="n">
-        <v>25485.19621167094</v>
+        <v>25147.97547034868</v>
       </c>
       <c r="J51" t="n">
-        <v>24988.77394023688</v>
+        <v>24868.39309688198</v>
       </c>
       <c r="K51" t="n">
-        <v>25188.14132487144</v>
-      </c>
-      <c r="L51" t="n">
-        <v>24698.81374999827</v>
-      </c>
-      <c r="M51" t="n">
-        <v>24700.16824840506</v>
+        <v>24976.48217633138</v>
       </c>
     </row>
     <row r="52">
@@ -23827,25 +22343,19 @@
         <v>138.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-835.4313074963829</v>
+        <v>-478.0172490776786</v>
       </c>
       <c r="H52" t="n">
         <v>24663.5</v>
       </c>
       <c r="I52" t="n">
-        <v>25498.93130749638</v>
+        <v>25141.51724907768</v>
       </c>
       <c r="J52" t="n">
-        <v>24968.03945822357</v>
+        <v>24842.51832273874</v>
       </c>
       <c r="K52" t="n">
-        <v>25188.87114120119</v>
-      </c>
-      <c r="L52" t="n">
-        <v>24665.5065444854</v>
-      </c>
-      <c r="M52" t="n">
-        <v>24667.0153067923</v>
+        <v>24962.49870194838</v>
       </c>
     </row>
     <row r="53">
@@ -23859,25 +22369,19 @@
         <v>137.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-887.0881663905166</v>
+        <v>-507.5429764346154</v>
       </c>
       <c r="H53" t="n">
         <v>24656</v>
       </c>
       <c r="I53" t="n">
-        <v>25543.08816639052</v>
+        <v>25163.54297643462</v>
       </c>
       <c r="J53" t="n">
-        <v>24974.04445189144</v>
+        <v>24843.04847011072</v>
       </c>
       <c r="K53" t="n">
-        <v>25219.14761015909</v>
-      </c>
-      <c r="L53" t="n">
-        <v>24658.10622254711</v>
-      </c>
-      <c r="M53" t="n">
-        <v>24659.7911272692</v>
+        <v>24976.49425082906</v>
       </c>
     </row>
     <row r="54">
@@ -23891,25 +22395,19 @@
         <v>137.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-943.8801856960454</v>
+        <v>-540.0038681573133</v>
       </c>
       <c r="H54" t="n">
         <v>24583</v>
       </c>
       <c r="I54" t="n">
-        <v>25526.88018569605</v>
+        <v>25123.00386815731</v>
       </c>
       <c r="J54" t="n">
-        <v>24915.46447916574</v>
+        <v>24778.62959912295</v>
       </c>
       <c r="K54" t="n">
-        <v>25188.10326369573</v>
-      </c>
-      <c r="L54" t="n">
-        <v>24585.21347870546</v>
-      </c>
-      <c r="M54" t="n">
-        <v>24587.10032446146</v>
+        <v>24927.37397793446</v>
       </c>
     </row>
     <row r="55">
@@ -23923,25 +22421,19 @@
         <v>137.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-1006.530186795357</v>
+        <v>-575.8140615609482</v>
       </c>
       <c r="H55" t="n">
         <v>24276.6</v>
       </c>
       <c r="I55" t="n">
-        <v>25283.13018679536</v>
+        <v>24852.41406156095</v>
       </c>
       <c r="J55" t="n">
-        <v>24624.48375722839</v>
+        <v>24481.41312673508</v>
       </c>
       <c r="K55" t="n">
-        <v>24928.47026061742</v>
-      </c>
-      <c r="L55" t="n">
-        <v>24278.92909684742</v>
-      </c>
-      <c r="M55" t="n">
-        <v>24281.04856187198</v>
+        <v>24647.60060283514</v>
       </c>
     </row>
     <row r="56">
@@ -23955,25 +22447,19 @@
         <v>137.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-796.7618542673081</v>
+        <v>-615.4647742894558</v>
       </c>
       <c r="H56" t="n">
-        <v>24527.26666666667</v>
+        <v>24806.4</v>
       </c>
       <c r="I56" t="n">
-        <v>25603.16185426731</v>
+        <v>25421.86477428946</v>
       </c>
       <c r="J56" t="n">
-        <v>24891.66304239805</v>
+        <v>25021.05658943832</v>
       </c>
       <c r="K56" t="n">
-        <v>25231.47005452257</v>
-      </c>
-      <c r="L56" t="n">
-        <v>24529.72063097009</v>
-      </c>
-      <c r="M56" t="n">
-        <v>24532.10976252878</v>
+        <v>25207.20780573309</v>
       </c>
     </row>
     <row r="57">
@@ -23987,25 +22473,19 @@
         <v>137.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-432.5211183043211</v>
+        <v>-213.812331797777</v>
       </c>
       <c r="H57" t="n">
-        <v>24518.522303278</v>
+        <v>24793.27</v>
       </c>
       <c r="I57" t="n">
-        <v>25671.52111830432</v>
+        <v>25452.81233179778</v>
       </c>
       <c r="J57" t="n">
-        <v>24900.63001533524</v>
+        <v>25018.49453522931</v>
       </c>
       <c r="K57" t="n">
-        <v>25281.53200340091</v>
-      </c>
-      <c r="L57" t="n">
-        <v>24521.11139184404</v>
-      </c>
-      <c r="M57" t="n">
-        <v>24523.81641979118</v>
+        <v>25227.58736292824</v>
       </c>
     </row>
     <row r="58">
@@ -24019,25 +22499,19 @@
         <v>137.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-1100.898072547916</v>
+        <v>-840.2913260155001</v>
       </c>
       <c r="H58" t="n">
-        <v>24518.12221965889</v>
+        <v>24787.84</v>
       </c>
       <c r="I58" t="n">
-        <v>25757.19807254792</v>
+        <v>25496.5913260155</v>
       </c>
       <c r="J58" t="n">
-        <v>24919.25830746701</v>
+        <v>25024.42957042011</v>
       </c>
       <c r="K58" t="n">
-        <v>25347.50999214451</v>
-      </c>
-      <c r="L58" t="n">
-        <v>24520.8578368848</v>
-      </c>
-      <c r="M58" t="n">
-        <v>24523.94058608374</v>
+        <v>25260.0012586179</v>
       </c>
     </row>
     <row r="59">
@@ -24051,25 +22525,19 @@
         <v>137.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-1368.91890061802</v>
+        <v>-1067.184695997315</v>
       </c>
       <c r="H59" t="n">
-        <v>24517.78012890664</v>
+        <v>24787.74</v>
       </c>
       <c r="I59" t="n">
-        <v>25853.41890061802</v>
+        <v>25551.68469599732</v>
       </c>
       <c r="J59" t="n">
-        <v>24939.39484332081</v>
+        <v>25036.57359264644</v>
       </c>
       <c r="K59" t="n">
-        <v>25422.46259257223</v>
-      </c>
-      <c r="L59" t="n">
-        <v>24520.67499075372</v>
-      </c>
-      <c r="M59" t="n">
-        <v>24524.22906616269</v>
+        <v>25302.85053246762</v>
       </c>
     </row>
     <row r="60">
@@ -24083,25 +22551,19 @@
         <v>137.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-854.1259482207752</v>
+        <v>-505.8334761672522</v>
       </c>
       <c r="H60" t="n">
-        <v>24517.73700396162</v>
+        <v>24787.87</v>
       </c>
       <c r="I60" t="n">
-        <v>25962.32594822078</v>
+        <v>25614.03347616725</v>
       </c>
       <c r="J60" t="n">
-        <v>24961.43099061345</v>
+        <v>25049.91924873437</v>
       </c>
       <c r="K60" t="n">
-        <v>25508.30544261305</v>
-      </c>
-      <c r="L60" t="n">
-        <v>24520.80533065121</v>
-      </c>
-      <c r="M60" t="n">
-        <v>24524.99764289324</v>
+        <v>25351.98356989358</v>
       </c>
     </row>
     <row r="61">
@@ -24115,25 +22577,19 @@
         <v>137.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-1129.737069230596</v>
+        <v>-728.3611452782534</v>
       </c>
       <c r="H61" t="n">
-        <v>24517.51264546642</v>
+        <v>24787.87</v>
       </c>
       <c r="I61" t="n">
-        <v>26085.9370692306</v>
+        <v>25684.56114527825</v>
       </c>
       <c r="J61" t="n">
-        <v>24985.05684203747</v>
+        <v>25064.21166530986</v>
       </c>
       <c r="K61" t="n">
-        <v>25606.70641742145</v>
-      </c>
-      <c r="L61" t="n">
-        <v>24520.77038889382</v>
-      </c>
-      <c r="M61" t="n">
-        <v>24525.94406761923</v>
+        <v>25408.21872028111</v>
       </c>
     </row>
     <row r="62">
@@ -24147,25 +22603,19 @@
         <v>137.08</v>
       </c>
       <c r="G62" t="n">
-        <v>-1122.257478750478</v>
+        <v>-659.35360250952</v>
       </c>
       <c r="H62" t="n">
-        <v>24517.10039779668</v>
+        <v>24787.72</v>
       </c>
       <c r="I62" t="n">
-        <v>26227.75747875048</v>
+        <v>25764.85360250952</v>
       </c>
       <c r="J62" t="n">
-        <v>25010.45915545495</v>
+        <v>25079.55051175861</v>
       </c>
       <c r="K62" t="n">
-        <v>25720.55691331874</v>
-      </c>
-      <c r="L62" t="n">
-        <v>24520.56551111909</v>
-      </c>
-      <c r="M62" t="n">
-        <v>24527.48007028117</v>
+        <v>25473.02220992573</v>
       </c>
     </row>
     <row r="63">
@@ -24179,25 +22629,19 @@
         <v>136.98</v>
       </c>
       <c r="G63" t="n">
-        <v>-467.2526235420191</v>
+        <v>68.97607271560628</v>
       </c>
       <c r="H63" t="n">
-        <v>24516.68631270183</v>
+        <v>24787.57</v>
       </c>
       <c r="I63" t="n">
-        <v>26393.35262354202</v>
+        <v>25857.12392728439</v>
       </c>
       <c r="J63" t="n">
-        <v>25038.04436378099</v>
+        <v>25096.22247012538</v>
       </c>
       <c r="K63" t="n">
-        <v>25854.26022733241</v>
-      </c>
-      <c r="L63" t="n">
-        <v>24520.3790714258</v>
-      </c>
-      <c r="M63" t="n">
-        <v>24530.73109845901</v>
+        <v>25548.47043161503</v>
       </c>
     </row>
     <row r="64">
@@ -24211,25 +22655,19 @@
         <v>136.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-756.8875347946414</v>
+        <v>-129.4830141715793</v>
       </c>
       <c r="H64" t="n">
-        <v>24515.88368360306</v>
+        <v>24787.14</v>
       </c>
       <c r="I64" t="n">
-        <v>26591.28753479464</v>
+        <v>25963.88301417158</v>
       </c>
       <c r="J64" t="n">
-        <v>25067.67771757763</v>
+        <v>25114.10420580053</v>
       </c>
       <c r="K64" t="n">
-        <v>26014.1476522931</v>
-      </c>
-      <c r="L64" t="n">
-        <v>24519.82706991064</v>
-      </c>
-      <c r="M64" t="n">
-        <v>24537.28940554711</v>
+        <v>25636.91760815596</v>
       </c>
     </row>
     <row r="65">
@@ -24243,25 +22681,19 @@
         <v>136.78</v>
       </c>
       <c r="G65" t="n">
-        <v>-508.9048287232145</v>
+        <v>239.177686738607</v>
       </c>
       <c r="H65" t="n">
-        <v>24514.78915262614</v>
+        <v>24786.48</v>
       </c>
       <c r="I65" t="n">
-        <v>26837.40482872321</v>
+        <v>26089.32231326139</v>
       </c>
       <c r="J65" t="n">
-        <v>25099.74493855155</v>
+        <v>25133.42595775014</v>
       </c>
       <c r="K65" t="n">
-        <v>26211.89765101228</v>
-      </c>
-      <c r="L65" t="n">
-        <v>24519.00931783709</v>
-      </c>
-      <c r="M65" t="n">
-        <v>24551.12330825726</v>
+        <v>25742.37494092048</v>
       </c>
     </row>
     <row r="66">
@@ -24275,25 +22707,19 @@
         <v>136.68</v>
       </c>
       <c r="G66" t="n">
-        <v>-399.3063779803124</v>
+        <v>520.1474496745977</v>
       </c>
       <c r="H66" t="n">
-        <v>24513.5304696309</v>
+        <v>24785.71</v>
       </c>
       <c r="I66" t="n">
-        <v>27160.00637798031</v>
+        <v>26240.5525503254</v>
       </c>
       <c r="J66" t="n">
-        <v>25134.70668604564</v>
+        <v>25154.51589946801</v>
       </c>
       <c r="K66" t="n">
-        <v>26468.49524064377</v>
-      </c>
-      <c r="L66" t="n">
-        <v>24518.05729396477</v>
-      </c>
-      <c r="M66" t="n">
-        <v>24579.34035908416</v>
+        <v>25871.74496517751</v>
       </c>
     </row>
     <row r="67">
@@ -24307,25 +22733,19 @@
         <v>136.58</v>
       </c>
       <c r="G67" t="n">
-        <v>-552.8076610624448</v>
+        <v>624.8797408173123</v>
       </c>
       <c r="H67" t="n">
-        <v>24511.89959383443</v>
+        <v>24784.65</v>
       </c>
       <c r="I67" t="n">
-        <v>27608.40766106244</v>
+        <v>26430.72025918269</v>
       </c>
       <c r="J67" t="n">
-        <v>25172.73981069825</v>
+        <v>25177.43546431353</v>
       </c>
       <c r="K67" t="n">
-        <v>26821.36615558761</v>
-      </c>
-      <c r="L67" t="n">
-        <v>24516.76736889471</v>
-      </c>
-      <c r="M67" t="n">
-        <v>24633.23228946337</v>
+        <v>26037.93274807715</v>
       </c>
     </row>
     <row r="68">
@@ -24339,25 +22759,19 @@
         <v>136.48</v>
       </c>
       <c r="G68" t="n">
-        <v>-316.8828450358269</v>
+        <v>1262.074543058287</v>
       </c>
       <c r="H68" t="n">
-        <v>24509.973273591</v>
+        <v>24783.38</v>
       </c>
       <c r="I68" t="n">
-        <v>28265.98284503583</v>
+        <v>26687.02545694171</v>
       </c>
       <c r="J68" t="n">
-        <v>25214.36789392365</v>
+        <v>25202.54588496215</v>
       </c>
       <c r="K68" t="n">
-        <v>27336.30824139158</v>
-      </c>
-      <c r="L68" t="n">
-        <v>24515.22154398102</v>
-      </c>
-      <c r="M68" t="n">
-        <v>24729.99912705802</v>
+        <v>26267.85700506934</v>
       </c>
     </row>
     <row r="69">
@@ -24371,25 +22785,19 @@
         <v>136.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-546.1104365920291</v>
+        <v>1653.495803802398</v>
       </c>
       <c r="H69" t="n">
-        <v>24507.5651074192</v>
+        <v>24781.75</v>
       </c>
       <c r="I69" t="n">
-        <v>29264.01043659203</v>
+        <v>27064.4041961976</v>
       </c>
       <c r="J69" t="n">
-        <v>25259.92554420982</v>
+        <v>25230.02627121758</v>
       </c>
       <c r="K69" t="n">
-        <v>28121.4402972241</v>
-      </c>
-      <c r="L69" t="n">
-        <v>24513.23973294014</v>
-      </c>
-      <c r="M69" t="n">
-        <v>24892.08567737064</v>
+        <v>26616.12453744821</v>
       </c>
     </row>
     <row r="70">
@@ -24403,25 +22811,19 @@
         <v>136.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-76.13548327167155</v>
+        <v>3048.741277079807</v>
       </c>
       <c r="H70" t="n">
-        <v>24504.47926314291</v>
+        <v>24779.61</v>
       </c>
       <c r="I70" t="n">
-        <v>30793.73548327167</v>
+        <v>27668.85872292019</v>
       </c>
       <c r="J70" t="n">
-        <v>25309.82723434574</v>
+        <v>25260.11365025705</v>
       </c>
       <c r="K70" t="n">
-        <v>29341.73815648667</v>
-      </c>
-      <c r="L70" t="n">
-        <v>24510.63383349517</v>
-      </c>
-      <c r="M70" t="n">
-        <v>25144.94612973411</v>
+        <v>27188.35028992937</v>
       </c>
     </row>
     <row r="71">
@@ -24435,25 +22837,19 @@
         <v>136.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-327.3296754581825</v>
+        <v>4092.107172393193</v>
       </c>
       <c r="H71" t="n">
-        <v>24500.26518376638</v>
+        <v>24776.63</v>
       </c>
       <c r="I71" t="n">
-        <v>33107.12967545819</v>
+        <v>28687.69282760681</v>
       </c>
       <c r="J71" t="n">
-        <v>25364.34080301004</v>
+        <v>25292.93552817408</v>
       </c>
       <c r="K71" t="n">
-        <v>31225.52836126598</v>
-      </c>
-      <c r="L71" t="n">
-        <v>24506.96313311456</v>
-      </c>
-      <c r="M71" t="n">
-        <v>25511.04613451873</v>
+        <v>28171.38006116985</v>
       </c>
     </row>
     <row r="72">
@@ -24467,25 +22863,19 @@
         <v>136.08</v>
       </c>
       <c r="G72" t="n">
-        <v>53.49102871638024</v>
+        <v>6133.153740292481</v>
       </c>
       <c r="H72" t="n">
-        <v>24494.38956732709</v>
+        <v>24772.42</v>
       </c>
       <c r="I72" t="n">
-        <v>36496.60897128362</v>
+        <v>30416.94625970752</v>
       </c>
       <c r="J72" t="n">
-        <v>25423.78296133156</v>
+        <v>25328.64571527792</v>
       </c>
       <c r="K72" t="n">
-        <v>34053.03904643962</v>
-      </c>
-      <c r="L72" t="n">
-        <v>24501.70798801956</v>
-      </c>
-      <c r="M72" t="n">
-        <v>26001.1768840659</v>
+        <v>29860.70902189286</v>
       </c>
     </row>
     <row r="73">
@@ -24499,25 +22889,19 @@
         <v>135.98</v>
       </c>
       <c r="G73" t="n">
-        <v>76.52667999196274</v>
+        <v>8057.774512221367</v>
       </c>
       <c r="H73" t="n">
-        <v>24486.11123674789</v>
+        <v>24766.42</v>
       </c>
       <c r="I73" t="n">
-        <v>41243.97332000804</v>
+        <v>33262.72548777863</v>
       </c>
       <c r="J73" t="n">
-        <v>25488.42384902202</v>
+        <v>25367.33441019013</v>
       </c>
       <c r="K73" t="n">
-        <v>38115.3725072446</v>
-      </c>
-      <c r="L73" t="n">
-        <v>24494.14925857074</v>
-      </c>
-      <c r="M73" t="n">
-        <v>26604.26343892751</v>
+        <v>32661.79238730944</v>
       </c>
     </row>
     <row r="74">
@@ -24531,25 +22915,19 @@
         <v>135.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-169.0744697392074</v>
+        <v>9683.181160550834</v>
       </c>
       <c r="H74" t="n">
-        <v>24474.30479790505</v>
+        <v>24757.78</v>
       </c>
       <c r="I74" t="n">
-        <v>47537.7744697392</v>
+        <v>37685.51883944916</v>
       </c>
       <c r="J74" t="n">
-        <v>25558.34857079623</v>
+        <v>25408.93389033406</v>
       </c>
       <c r="K74" t="n">
-        <v>43639.45599632595</v>
-      </c>
-      <c r="L74" t="n">
-        <v>24483.20435650899</v>
-      </c>
-      <c r="M74" t="n">
-        <v>27279.55536808034</v>
+        <v>37034.33501135988</v>
       </c>
     </row>
     <row r="75">
@@ -24563,25 +22941,19 @@
         <v>135.78</v>
       </c>
       <c r="G75" t="n">
-        <v>172.216259480665</v>
+        <v>11479.06558485878</v>
       </c>
       <c r="H75" t="n">
-        <v>24457.97110037083</v>
+        <v>24745.77</v>
       </c>
       <c r="I75" t="n">
-        <v>55372.08374051934</v>
+        <v>44065.23441514123</v>
       </c>
       <c r="J75" t="n">
-        <v>25634.01690220091</v>
+        <v>25453.66166323259</v>
       </c>
       <c r="K75" t="n">
-        <v>50687.65834147475</v>
-      </c>
-      <c r="L75" t="n">
-        <v>24467.96997328462</v>
-      </c>
-      <c r="M75" t="n">
-        <v>27956.20650585002</v>
+        <v>43357.29650165702</v>
       </c>
     </row>
     <row r="76">
@@ -24595,25 +22967,19 @@
         <v>135.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-1057.102674546033</v>
+        <v>10895.72752791201</v>
       </c>
       <c r="H76" t="n">
-        <v>24435.66100045734</v>
+        <v>24729.31</v>
       </c>
       <c r="I76" t="n">
-        <v>64449.00267454603</v>
+        <v>52496.17247208799</v>
       </c>
       <c r="J76" t="n">
-        <v>25715.75339040441</v>
+        <v>25501.59371646691</v>
       </c>
       <c r="K76" t="n">
-        <v>59051.495069592</v>
-      </c>
-      <c r="L76" t="n">
-        <v>24447.22454697679</v>
-      </c>
-      <c r="M76" t="n">
-        <v>28541.35814962965</v>
+        <v>51723.82088619232</v>
       </c>
     </row>
     <row r="77">
@@ -24627,25 +22993,19 @@
         <v>135.58</v>
       </c>
       <c r="G77" t="n">
-        <v>-437.9855287001556</v>
+        <v>11102.19104225641</v>
       </c>
       <c r="H77" t="n">
-        <v>24406.51457638378</v>
+        <v>24707.74</v>
       </c>
       <c r="I77" t="n">
-        <v>74111.88552870015</v>
+        <v>62571.70895774358</v>
       </c>
       <c r="J77" t="n">
-        <v>25804.88202255787</v>
+        <v>25553.49192469826</v>
       </c>
       <c r="K77" t="n">
-        <v>68166.54308393544</v>
-      </c>
-      <c r="L77" t="n">
-        <v>24420.64489027234</v>
-      </c>
-      <c r="M77" t="n">
-        <v>28939.21158979594</v>
+        <v>61725.86330245735</v>
       </c>
     </row>
     <row r="78">
@@ -24659,25 +23019,19 @@
         <v>135.48</v>
       </c>
       <c r="G78" t="n">
-        <v>201.5358299854415</v>
+        <v>10280.89930837728</v>
       </c>
       <c r="H78" t="n">
-        <v>24369.51447880583</v>
+        <v>24680.31</v>
       </c>
       <c r="I78" t="n">
-        <v>83317.66417001456</v>
+        <v>73238.30069162272</v>
       </c>
       <c r="J78" t="n">
-        <v>25903.13196758619</v>
+        <v>25610.37293796627</v>
       </c>
       <c r="K78" t="n">
-        <v>77060.47268343813</v>
-      </c>
-      <c r="L78" t="n">
-        <v>24388.4255304408</v>
-      </c>
-      <c r="M78" t="n">
-        <v>29074.0540648115</v>
+        <v>72308.11667008666</v>
       </c>
     </row>
     <row r="79">
@@ -24691,25 +23045,19 @@
         <v>135.38</v>
       </c>
       <c r="G79" t="n">
-        <v>626.4849644634523</v>
+        <v>8515.992764648472</v>
       </c>
       <c r="H79" t="n">
-        <v>24323.88423459645</v>
+        <v>24646.44</v>
       </c>
       <c r="I79" t="n">
-        <v>90675.21503553654</v>
+        <v>82785.70723535153</v>
       </c>
       <c r="J79" t="n">
-        <v>26013.3110115534</v>
+        <v>25673.88499330872</v>
       </c>
       <c r="K79" t="n">
-        <v>84367.99213192682</v>
-      </c>
-      <c r="L79" t="n">
-        <v>24352.3606663003</v>
-      </c>
-      <c r="M79" t="n">
-        <v>28913.11916243041</v>
+        <v>81758.11677608042</v>
       </c>
     </row>
     <row r="80">
@@ -24723,25 +23071,19 @@
         <v>135.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-813.5483199861628</v>
+        <v>4785.489860374015</v>
       </c>
       <c r="H80" t="n">
-        <v>24270.9535657653</v>
+        <v>24607.12</v>
       </c>
       <c r="I80" t="n">
-        <v>94676.64831998617</v>
+        <v>89077.61013962599</v>
       </c>
       <c r="J80" t="n">
-        <v>26141.7188591608</v>
+        <v>25747.90625100891</v>
       </c>
       <c r="K80" t="n">
-        <v>88549.57422564007</v>
-      </c>
-      <c r="L80" t="n">
-        <v>24318.84852252247</v>
-      </c>
-      <c r="M80" t="n">
-        <v>28479.32791918529</v>
+        <v>87936.66259005821</v>
       </c>
     </row>
     <row r="81">
@@ -24755,25 +23097,19 @@
         <v>135.18</v>
       </c>
       <c r="G81" t="n">
-        <v>574.7266729550029</v>
+        <v>4574.634539979059</v>
       </c>
       <c r="H81" t="n">
-        <v>24213.94851275099</v>
+        <v>24564.75</v>
       </c>
       <c r="I81" t="n">
-        <v>94293.773327045</v>
+        <v>90293.86546002094</v>
       </c>
       <c r="J81" t="n">
-        <v>26299.07633410655</v>
+        <v>25838.78609134764</v>
       </c>
       <c r="K81" t="n">
-        <v>88492.56917262639</v>
-      </c>
-      <c r="L81" t="n">
-        <v>24300.33078588534</v>
-      </c>
-      <c r="M81" t="n">
-        <v>27843.64612305409</v>
+        <v>89019.66555333097</v>
       </c>
     </row>
     <row r="82">
@@ -24787,25 +23123,19 @@
         <v>135.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-161.4831686807156</v>
+        <v>3421.595467541745</v>
       </c>
       <c r="H82" t="n">
-        <v>24156.09322576599</v>
+        <v>24521.76</v>
       </c>
       <c r="I82" t="n">
-        <v>89650.38316868071</v>
+        <v>86067.30453245825</v>
       </c>
       <c r="J82" t="n">
-        <v>26500.96740544603</v>
+        <v>25954.89337816945</v>
       </c>
       <c r="K82" t="n">
-        <v>84200.20112309809</v>
-      </c>
-      <c r="L82" t="n">
-        <v>24315.35903486163</v>
-      </c>
-      <c r="M82" t="n">
-        <v>27102.17385305814</v>
+        <v>84634.0191337569</v>
       </c>
     </row>
     <row r="83">
@@ -24819,25 +23149,19 @@
         <v>134.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-349.0889333218802</v>
+        <v>3874.851737302597</v>
       </c>
       <c r="H83" t="n">
-        <v>24101.14529590245</v>
+        <v>24480.96</v>
       </c>
       <c r="I83" t="n">
-        <v>82004.78893332188</v>
+        <v>77780.8482626974</v>
       </c>
       <c r="J83" t="n">
-        <v>26772.94242788203</v>
+        <v>26109.20688344545</v>
       </c>
       <c r="K83" t="n">
-        <v>76792.10350053475</v>
-      </c>
-      <c r="L83" t="n">
-        <v>24390.76074104352</v>
-      </c>
-      <c r="M83" t="n">
-        <v>26352.48288172973</v>
+        <v>76152.47193104547</v>
       </c>
     </row>
     <row r="84">
@@ -24851,25 +23175,19 @@
         <v>134.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-185.5877639238897</v>
+        <v>5263.453035629092</v>
       </c>
       <c r="H84" t="n">
-        <v>24052.41351476302</v>
+        <v>24444.82</v>
       </c>
       <c r="I84" t="n">
-        <v>73046.6877639239</v>
+        <v>67597.64696437091</v>
       </c>
       <c r="J84" t="n">
-        <v>27157.77421327067</v>
+        <v>26323.81450207759</v>
       </c>
       <c r="K84" t="n">
-        <v>67812.44202231729</v>
-      </c>
-      <c r="L84" t="n">
-        <v>24560.73658697041</v>
-      </c>
-      <c r="M84" t="n">
-        <v>25673.06016292798</v>
+        <v>65718.55085209172</v>
       </c>
     </row>
     <row r="85">
@@ -24883,25 +23201,19 @@
         <v>134.78</v>
       </c>
       <c r="G85" t="n">
-        <v>934.395753151708</v>
+        <v>7737.486084247263</v>
       </c>
       <c r="H85" t="n">
-        <v>24010.85783400832</v>
+        <v>24414.04</v>
       </c>
       <c r="I85" t="n">
-        <v>64293.60424684829</v>
+        <v>57490.51391575274</v>
       </c>
       <c r="J85" t="n">
-        <v>27726.95751555305</v>
+        <v>26639.65439967579</v>
       </c>
       <c r="K85" t="n">
-        <v>58626.6919031455</v>
-      </c>
-      <c r="L85" t="n">
-        <v>24861.8889225388</v>
-      </c>
-      <c r="M85" t="n">
-        <v>25110.74202695241</v>
+        <v>55264.8261059651</v>
       </c>
     </row>
     <row r="86">
@@ -24915,25 +23227,19 @@
         <v>134.68</v>
       </c>
       <c r="G86" t="n">
-        <v>939.2515936974669</v>
+        <v>8957.917240185634</v>
       </c>
       <c r="H86" t="n">
-        <v>23976.12991177589</v>
+        <v>24388.37</v>
       </c>
       <c r="I86" t="n">
-        <v>56885.74840630253</v>
+        <v>48867.08275981437</v>
       </c>
       <c r="J86" t="n">
-        <v>28600.81140620686</v>
+        <v>27138.57116243066</v>
       </c>
       <c r="K86" t="n">
-        <v>50205.81715288203</v>
-      </c>
-      <c r="L86" t="n">
-        <v>25326.71587874574</v>
-      </c>
-      <c r="M86" t="n">
-        <v>24680.91669890606</v>
+        <v>46116.83355279429</v>
       </c>
     </row>
     <row r="87">
@@ -24947,25 +23253,19 @@
         <v>134.58</v>
       </c>
       <c r="G87" t="n">
-        <v>1115.894845950621</v>
+        <v>10164.7160172049</v>
       </c>
       <c r="H87" t="n">
-        <v>23947.37956743863</v>
+        <v>24367.17</v>
       </c>
       <c r="I87" t="n">
-        <v>51589.30515404938</v>
+        <v>42540.4839827951</v>
       </c>
       <c r="J87" t="n">
-        <v>29971.69038315171</v>
+        <v>27978.49375647372</v>
       </c>
       <c r="K87" t="n">
-        <v>43112.53076586133</v>
-      </c>
-      <c r="L87" t="n">
-        <v>25972.41954322892</v>
-      </c>
-      <c r="M87" t="n">
-        <v>24374.9523386012</v>
+        <v>38929.13349794877</v>
       </c>
     </row>
     <row r="88">
@@ -24979,25 +23279,19 @@
         <v>134.48</v>
       </c>
       <c r="G88" t="n">
-        <v>650.4880485041285</v>
+        <v>10639.47550269544</v>
       </c>
       <c r="H88" t="n">
-        <v>23923.20708718589</v>
+        <v>24349.39</v>
       </c>
       <c r="I88" t="n">
-        <v>48861.91195149587</v>
+        <v>38872.92449730456</v>
       </c>
       <c r="J88" t="n">
-        <v>32122.39395261705</v>
+        <v>29438.99704250679</v>
       </c>
       <c r="K88" t="n">
-        <v>37552.4683576826</v>
-      </c>
-      <c r="L88" t="n">
-        <v>26786.78863958118</v>
-      </c>
-      <c r="M88" t="n">
-        <v>24170.06434612074</v>
+        <v>33783.30864641229</v>
       </c>
     </row>
     <row r="89">
@@ -25011,25 +23305,19 @@
         <v>134.38</v>
       </c>
       <c r="G89" t="n">
-        <v>381.535391592879</v>
+        <v>11305.50230455114</v>
       </c>
       <c r="H89" t="n">
-        <v>23901.68073564411</v>
+        <v>24333.58</v>
       </c>
       <c r="I89" t="n">
-        <v>48938.06460840712</v>
+        <v>38014.09769544886</v>
       </c>
       <c r="J89" t="n">
-        <v>35427.39433377751</v>
+        <v>31962.23930436466</v>
       </c>
       <c r="K89" t="n">
-        <v>33460.33021475762</v>
-      </c>
-      <c r="L89" t="n">
-        <v>27716.9551144112</v>
-      </c>
-      <c r="M89" t="n">
-        <v>24038.64637966823</v>
+        <v>30385.44623999967</v>
       </c>
     </row>
     <row r="90">
@@ -25043,25 +23331,19 @@
         <v>134.28</v>
       </c>
       <c r="G90" t="n">
-        <v>804.7250254015089</v>
+        <v>12588.61193347346</v>
       </c>
       <c r="H90" t="n">
-        <v>23880.43090147382</v>
+        <v>24317.98</v>
       </c>
       <c r="I90" t="n">
-        <v>51905.77497459849</v>
+        <v>40121.88806652654</v>
       </c>
       <c r="J90" t="n">
-        <v>40319.81105560399</v>
+        <v>36155.18220386736</v>
       </c>
       <c r="K90" t="n">
-        <v>30605.69407897408</v>
-      </c>
-      <c r="L90" t="n">
-        <v>28667.01817075376</v>
-      </c>
-      <c r="M90" t="n">
-        <v>23954.79899487423</v>
+        <v>28284.71215814159</v>
       </c>
     </row>
     <row r="91">
@@ -25075,25 +23357,19 @@
         <v>134.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-1236.493377172221</v>
+        <v>11057.55804419371</v>
       </c>
       <c r="H91" t="n">
-        <v>23857.12531343973</v>
+        <v>24300.85</v>
       </c>
       <c r="I91" t="n">
-        <v>57740.39337717222</v>
+        <v>45446.34195580629</v>
       </c>
       <c r="J91" t="n">
-        <v>47210.57477387686</v>
+        <v>42706.57640626142</v>
       </c>
       <c r="K91" t="n">
-        <v>28694.38420678391</v>
-      </c>
-      <c r="L91" t="n">
-        <v>29509.19337051088</v>
-      </c>
-      <c r="M91" t="n">
-        <v>23897.89680522348</v>
+        <v>27040.66535877576</v>
       </c>
     </row>
     <row r="92">
@@ -25107,25 +23383,19 @@
         <v>134.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-54.08315592023428</v>
+        <v>12007.34356013157</v>
       </c>
       <c r="H92" t="n">
-        <v>23829.61971273839</v>
+        <v>24280.58</v>
       </c>
       <c r="I92" t="n">
-        <v>66274.28315592023</v>
+        <v>54212.85643986843</v>
       </c>
       <c r="J92" t="n">
-        <v>56358.73097983176</v>
+        <v>52184.06468893807</v>
       </c>
       <c r="K92" t="n">
-        <v>27443.49490254357</v>
-      </c>
-      <c r="L92" t="n">
-        <v>30107.96656582896</v>
-      </c>
-      <c r="M92" t="n">
-        <v>23853.23591357802</v>
+        <v>26309.45279289301</v>
       </c>
     </row>
     <row r="93">
@@ -25139,25 +23409,19 @@
         <v>133.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-359.5694634688844</v>
+        <v>10418.73168573197</v>
       </c>
       <c r="H93" t="n">
-        <v>23795.04961333476</v>
+        <v>24255.03</v>
       </c>
       <c r="I93" t="n">
-        <v>77110.66946346889</v>
+        <v>66332.36831426804</v>
       </c>
       <c r="J93" t="n">
-        <v>67712.61513950031</v>
+        <v>64726.77320339935</v>
       </c>
       <c r="K93" t="n">
-        <v>26621.38458113533</v>
-      </c>
-      <c r="L93" t="n">
-        <v>30351.9043307734</v>
-      </c>
-      <c r="M93" t="n">
-        <v>23810.18096675511</v>
+        <v>25860.7461354742</v>
       </c>
     </row>
     <row r="94">
@@ -25171,25 +23435,19 @@
         <v>133.88</v>
       </c>
       <c r="G94" t="n">
-        <v>1197.524568674708</v>
+        <v>9657.02134982706</v>
       </c>
       <c r="H94" t="n">
-        <v>23750.83744333552</v>
+        <v>24222.27</v>
       </c>
       <c r="I94" t="n">
-        <v>89517.17543132529</v>
+        <v>81057.67865017294</v>
       </c>
       <c r="J94" t="n">
-        <v>80761.05609994296</v>
+        <v>79721.99683280398</v>
       </c>
       <c r="K94" t="n">
-        <v>26060.30400508882</v>
-      </c>
-      <c r="L94" t="n">
-        <v>30186.77878746364</v>
-      </c>
-      <c r="M94" t="n">
-        <v>23761.76873704214</v>
+        <v>25558.12003507909</v>
       </c>
     </row>
     <row r="95">
@@ -25203,25 +23461,19 @@
         <v>133.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-431.5155557160469</v>
+        <v>5160.095128206376</v>
       </c>
       <c r="H95" t="n">
-        <v>23695.66814099771</v>
+        <v>24181.34</v>
       </c>
       <c r="I95" t="n">
-        <v>102326.515555716</v>
+        <v>96734.90487179362</v>
       </c>
       <c r="J95" t="n">
-        <v>94424.66661303825</v>
+        <v>95587.72217226357</v>
       </c>
       <c r="K95" t="n">
-        <v>25650.63291201066</v>
-      </c>
-      <c r="L95" t="n">
-        <v>29633.96325440655</v>
-      </c>
-      <c r="M95" t="n">
-        <v>23704.40689691217</v>
+        <v>25328.74061670958</v>
       </c>
     </row>
     <row r="96">
@@ -25235,25 +23487,19 @@
         <v>133.68</v>
       </c>
       <c r="G96" t="n">
-        <v>1933.811737064767</v>
+        <v>5037.627026255897</v>
       </c>
       <c r="H96" t="n">
-        <v>23629.17825323262</v>
+        <v>24131.95</v>
       </c>
       <c r="I96" t="n">
-        <v>113865.1882629352</v>
+        <v>110761.3729737441</v>
       </c>
       <c r="J96" t="n">
-        <v>107007.5906200938</v>
+        <v>109757.10268907</v>
       </c>
       <c r="K96" t="n">
-        <v>25326.28675161883</v>
-      </c>
-      <c r="L96" t="n">
-        <v>28782.27615531784</v>
-      </c>
-      <c r="M96" t="n">
-        <v>23636.63563720541</v>
+        <v>25136.48256103069</v>
       </c>
     </row>
     <row r="97">
@@ -25267,25 +23513,19 @@
         <v>133.58</v>
       </c>
       <c r="G97" t="n">
-        <v>404.0276657721552</v>
+        <v>2508.238319247161</v>
       </c>
       <c r="H97" t="n">
-        <v>23552.3482003793</v>
+        <v>24074.85</v>
       </c>
       <c r="I97" t="n">
-        <v>122015.9723342278</v>
+        <v>119911.7616807528</v>
       </c>
       <c r="J97" t="n">
-        <v>116303.1409113514</v>
+        <v>119022.1893201777</v>
       </c>
       <c r="K97" t="n">
-        <v>25050.61216906939</v>
-      </c>
-      <c r="L97" t="n">
-        <v>27760.30544536106</v>
-      </c>
-      <c r="M97" t="n">
-        <v>23558.9413524581</v>
+        <v>24964.71377459226</v>
       </c>
     </row>
     <row r="98">
@@ -25299,25 +23539,19 @@
         <v>133.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-804.449454968475</v>
+        <v>2464.786897380705</v>
       </c>
       <c r="H98" t="n">
-        <v>23469.48328548961</v>
+        <v>24013.27</v>
       </c>
       <c r="I98" t="n">
-        <v>124711.4494549685</v>
+        <v>121442.2131026193</v>
       </c>
       <c r="J98" t="n">
-        <v>120132.8430454543</v>
+        <v>120647.8340218842</v>
       </c>
       <c r="K98" t="n">
-        <v>24807.05720012019</v>
-      </c>
-      <c r="L98" t="n">
-        <v>26704.49544061902</v>
-      </c>
-      <c r="M98" t="n">
-        <v>23475.41771120531</v>
+        <v>24807.94596211309</v>
       </c>
     </row>
     <row r="99">
@@ -25331,25 +23565,19 @@
         <v>133.38</v>
       </c>
       <c r="G99" t="n">
-        <v>544.5437661506439</v>
+        <v>6721.409666247884</v>
       </c>
       <c r="H99" t="n">
-        <v>23385.5583611761</v>
+        <v>23950.93</v>
       </c>
       <c r="I99" t="n">
-        <v>120965.4562338494</v>
+        <v>114788.5903337521</v>
       </c>
       <c r="J99" t="n">
-        <v>117413.8372036624</v>
+        <v>114074.7305494668</v>
       </c>
       <c r="K99" t="n">
-        <v>24589.01487669819</v>
-      </c>
-      <c r="L99" t="n">
-        <v>25728.19751608955</v>
-      </c>
-      <c r="M99" t="n">
-        <v>23390.95074208731</v>
+        <v>24665.06673351792</v>
       </c>
     </row>
     <row r="100">
@@ -25363,25 +23591,19 @@
         <v>133.28</v>
       </c>
       <c r="G100" t="n">
-        <v>416.0423711076728</v>
+        <v>10000.47947275442</v>
       </c>
       <c r="H100" t="n">
-        <v>23305.64452758385</v>
+        <v>23891.63</v>
       </c>
       <c r="I100" t="n">
-        <v>111589.9576288923</v>
+        <v>102005.5205272456</v>
       </c>
       <c r="J100" t="n">
-        <v>108896.4942049408</v>
+        <v>101360.5706532065</v>
       </c>
       <c r="K100" t="n">
-        <v>24394.83829953891</v>
-      </c>
-      <c r="L100" t="n">
-        <v>24904.8353649095</v>
-      </c>
-      <c r="M100" t="n">
-        <v>23310.57290312725</v>
+        <v>24536.81785352017</v>
       </c>
     </row>
     <row r="101">
@@ -25395,25 +23617,19 @@
         <v>133.18</v>
       </c>
       <c r="G101" t="n">
-        <v>-966.2356207101693</v>
+        <v>11399.18383074032</v>
       </c>
       <c r="H101" t="n">
-        <v>23235.33680520191</v>
+        <v>23839.56</v>
       </c>
       <c r="I101" t="n">
-        <v>98670.43562071017</v>
+        <v>86305.01616925967</v>
       </c>
       <c r="J101" t="n">
-        <v>96644.65624905442</v>
+        <v>85719.54156864621</v>
       </c>
       <c r="K101" t="n">
-        <v>24225.90524385337</v>
-      </c>
-      <c r="L101" t="n">
-        <v>24265.87548017674</v>
-      </c>
-      <c r="M101" t="n">
-        <v>23239.86029940927</v>
+        <v>24425.22450885197</v>
       </c>
     </row>
     <row r="102">
@@ -25427,25 +23643,19 @@
         <v>133.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-1605.311993646916</v>
+        <v>12275.04091005051</v>
       </c>
       <c r="H102" t="n">
-        <v>23177.69383206018</v>
+        <v>23796.98</v>
       </c>
       <c r="I102" t="n">
-        <v>84464.41199364692</v>
+        <v>70584.0590899495</v>
       </c>
       <c r="J102" t="n">
-        <v>82926.9165558026</v>
+        <v>70050.27564842698</v>
       </c>
       <c r="K102" t="n">
-        <v>24082.37629572579</v>
-      </c>
-      <c r="L102" t="n">
-        <v>23806.20715306058</v>
-      </c>
-      <c r="M102" t="n">
-        <v>23181.86047654721</v>
+        <v>24330.9051415469</v>
       </c>
     </row>
     <row r="103">
@@ -25459,25 +23669,19 @@
         <v>132.98</v>
       </c>
       <c r="G103" t="n">
-        <v>94.42112735882984</v>
+        <v>14021.37155440384</v>
       </c>
       <c r="H103" t="n">
-        <v>23132.04530314132</v>
+        <v>23763.37</v>
       </c>
       <c r="I103" t="n">
-        <v>70755.47887264116</v>
+        <v>56828.52844559615</v>
       </c>
       <c r="J103" t="n">
-        <v>69557.58325268238</v>
+        <v>56339.9482836584</v>
       </c>
       <c r="K103" t="n">
-        <v>23961.43307562694</v>
-      </c>
-      <c r="L103" t="n">
-        <v>23496.59290427257</v>
-      </c>
-      <c r="M103" t="n">
-        <v>23135.89543583977</v>
+        <v>24252.04966928912</v>
       </c>
     </row>
     <row r="104">
@@ -25491,25 +23695,19 @@
         <v>132.88</v>
       </c>
       <c r="G104" t="n">
-        <v>142.0899296648568</v>
+        <v>12828.60733589139</v>
       </c>
       <c r="H104" t="n">
-        <v>23096.91753760512</v>
+        <v>23737.62</v>
       </c>
       <c r="I104" t="n">
-        <v>58705.11007033514</v>
+        <v>46018.59266410861</v>
       </c>
       <c r="J104" t="n">
-        <v>57735.50628281885</v>
+        <v>45569.76393885198</v>
       </c>
       <c r="K104" t="n">
-        <v>23859.92723772805</v>
-      </c>
-      <c r="L104" t="n">
-        <v>23299.85793786897</v>
-      </c>
-      <c r="M104" t="n">
-        <v>23100.48557237506</v>
+        <v>24186.51509706278</v>
       </c>
     </row>
     <row r="105">
@@ -25523,25 +23721,19 @@
         <v>132.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-670.1522018670366</v>
+        <v>9946.257602409358</v>
       </c>
       <c r="H105" t="n">
-        <v>23071.44313279364</v>
+        <v>23719.07</v>
       </c>
       <c r="I105" t="n">
-        <v>48893.05220186704</v>
+        <v>38276.64239759064</v>
       </c>
       <c r="J105" t="n">
-        <v>48075.16871458296</v>
+        <v>37862.95037883291</v>
       </c>
       <c r="K105" t="n">
-        <v>23775.64652064956</v>
-      </c>
-      <c r="L105" t="n">
-        <v>23181.74431284131</v>
-      </c>
-      <c r="M105" t="n">
-        <v>23074.75868566177</v>
+        <v>24132.80469758468</v>
       </c>
     </row>
     <row r="106">
@@ -25555,25 +23747,19 @@
         <v>132.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-206.9392043228072</v>
+        <v>8050.591893963137</v>
       </c>
       <c r="H106" t="n">
-        <v>23053.48035161536</v>
+        <v>23706.11</v>
       </c>
       <c r="I106" t="n">
-        <v>41419.43920432281</v>
+        <v>33161.90810603686</v>
       </c>
       <c r="J106" t="n">
-        <v>40704.13359583157</v>
+        <v>32779.42040000063</v>
       </c>
       <c r="K106" t="n">
-        <v>23705.35061223279</v>
-      </c>
-      <c r="L106" t="n">
-        <v>23113.78181089099</v>
-      </c>
-      <c r="M106" t="n">
-        <v>23056.56906410425</v>
+        <v>24088.62477975184</v>
       </c>
     </row>
     <row r="107">
@@ -25587,25 +23773,19 @@
         <v>132.58</v>
       </c>
       <c r="G107" t="n">
-        <v>1052.228308673242</v>
+        <v>7103.91908570494</v>
       </c>
       <c r="H107" t="n">
-        <v>23040.25520906864</v>
+        <v>23696.67</v>
       </c>
       <c r="I107" t="n">
-        <v>36050.17169132676</v>
+        <v>29998.48091429506</v>
       </c>
       <c r="J107" t="n">
-        <v>35407.49385721976</v>
+        <v>29643.82592135834</v>
       </c>
       <c r="K107" t="n">
-        <v>23645.35847276439</v>
-      </c>
-      <c r="L107" t="n">
-        <v>23074.91405657808</v>
-      </c>
-      <c r="M107" t="n">
-        <v>23043.13939297619</v>
+        <v>24051.34246801386</v>
       </c>
     </row>
     <row r="108">
@@ -25619,25 +23799,19 @@
         <v>132.48</v>
       </c>
       <c r="G108" t="n">
-        <v>1415.93263885289</v>
+        <v>5665.839917441335</v>
       </c>
       <c r="H108" t="n">
-        <v>23030.133002074</v>
+        <v>23689.54</v>
       </c>
       <c r="I108" t="n">
-        <v>32376.86736114711</v>
+        <v>28126.96008255867</v>
       </c>
       <c r="J108" t="n">
-        <v>31789.04800870978</v>
+        <v>27797.23078545594</v>
       </c>
       <c r="K108" t="n">
-        <v>23593.28061223309</v>
-      </c>
-      <c r="L108" t="n">
-        <v>23052.08360432833</v>
-      </c>
-      <c r="M108" t="n">
-        <v>23032.83215966107</v>
+        <v>24019.28114648034</v>
       </c>
     </row>
     <row r="109">
@@ -25651,25 +23825,19 @@
         <v>132.38</v>
       </c>
       <c r="G109" t="n">
-        <v>740.4121266192378</v>
+        <v>3659.62282828668</v>
       </c>
       <c r="H109" t="n">
-        <v>23022.6321614795</v>
+        <v>23684.35</v>
       </c>
       <c r="I109" t="n">
-        <v>29952.68787338076</v>
+        <v>27033.47717171332</v>
       </c>
       <c r="J109" t="n">
-        <v>29409.09660423494</v>
+        <v>26726.15427689579</v>
       </c>
       <c r="K109" t="n">
-        <v>23548.0033026807</v>
-      </c>
-      <c r="L109" t="n">
-        <v>23038.30542385893</v>
-      </c>
-      <c r="M109" t="n">
-        <v>23025.16341093999</v>
+        <v>23991.68150508323</v>
       </c>
     </row>
     <row r="110">
@@ -25683,25 +23851,19 @@
         <v>132.28</v>
       </c>
       <c r="G110" t="n">
-        <v>918.8513452964253</v>
+        <v>2924.46676211568</v>
       </c>
       <c r="H110" t="n">
-        <v>23016.97439739614</v>
+        <v>23680.54</v>
       </c>
       <c r="I110" t="n">
-        <v>28380.64865470357</v>
+        <v>26375.03323788432</v>
       </c>
       <c r="J110" t="n">
-        <v>27874.5945998201</v>
+        <v>26087.92316639442</v>
       </c>
       <c r="K110" t="n">
-        <v>23508.21572226759</v>
-      </c>
-      <c r="L110" t="n">
-        <v>23029.39719702163</v>
-      </c>
-      <c r="M110" t="n">
-        <v>23019.35282367892</v>
+        <v>23967.65677171679</v>
       </c>
     </row>
     <row r="111">
@@ -25715,25 +23877,19 @@
         <v>132.18</v>
       </c>
       <c r="G111" t="n">
-        <v>348.9645020277276</v>
+        <v>1754.360196107977</v>
       </c>
       <c r="H111" t="n">
-        <v>23012.53859997034</v>
+        <v>23677.64</v>
       </c>
       <c r="I111" t="n">
-        <v>27354.63549797227</v>
+        <v>25949.23980389202</v>
       </c>
       <c r="J111" t="n">
-        <v>26881.53198168625</v>
+        <v>25680.42418845623</v>
       </c>
       <c r="K111" t="n">
-        <v>23472.84573834151</v>
-      </c>
-      <c r="L111" t="n">
-        <v>23023.08716671734</v>
-      </c>
-      <c r="M111" t="n">
-        <v>23014.77754583779</v>
+        <v>23946.46111160922</v>
       </c>
     </row>
     <row r="112">
@@ -25747,25 +23903,19 @@
         <v>132.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-52.42630912497771</v>
+        <v>962.6943767606426</v>
       </c>
       <c r="H112" t="n">
-        <v>23009.18781639355</v>
+        <v>23675.55</v>
       </c>
       <c r="I112" t="n">
-        <v>26663.12630912498</v>
+        <v>25648.00562323936</v>
       </c>
       <c r="J112" t="n">
-        <v>26219.52095983602</v>
+        <v>25395.79984289108</v>
       </c>
       <c r="K112" t="n">
-        <v>23441.37247638263</v>
-      </c>
-      <c r="L112" t="n">
-        <v>23018.49006137547</v>
-      </c>
-      <c r="M112" t="n">
-        <v>23011.29912521203</v>
+        <v>23927.76044570311</v>
       </c>
     </row>
     <row r="113">
@@ -25779,25 +23929,19 @@
         <v>131.98</v>
       </c>
       <c r="G113" t="n">
-        <v>-390.1967002617093</v>
+        <v>364.4351786999287</v>
       </c>
       <c r="H113" t="n">
-        <v>23006.61543885765</v>
+        <v>23674.03</v>
       </c>
       <c r="I113" t="n">
-        <v>26171.79670026171</v>
+        <v>25417.16482130007</v>
       </c>
       <c r="J113" t="n">
-        <v>25754.88903742805</v>
+        <v>25180.0837314748</v>
       </c>
       <c r="K113" t="n">
-        <v>23413.16096485304</v>
-      </c>
-      <c r="L113" t="n">
-        <v>23014.97740819495</v>
-      </c>
-      <c r="M113" t="n">
-        <v>23008.60965814955</v>
+        <v>23911.11513190745</v>
       </c>
     </row>
     <row r="114">
@@ -25811,25 +23955,19 @@
         <v>131.88</v>
       </c>
       <c r="G114" t="n">
-        <v>-142.067536858689</v>
+        <v>428.6938469923552</v>
       </c>
       <c r="H114" t="n">
-        <v>23004.43148355891</v>
+        <v>23672.8</v>
       </c>
       <c r="I114" t="n">
-        <v>25800.96753685869</v>
+        <v>25230.20615300765</v>
       </c>
       <c r="J114" t="n">
-        <v>25408.37563006398</v>
+        <v>25006.93560716623</v>
       </c>
       <c r="K114" t="n">
-        <v>23387.53910621551</v>
-      </c>
-      <c r="L114" t="n">
-        <v>23012.0241309863</v>
-      </c>
-      <c r="M114" t="n">
-        <v>23006.31803647389</v>
+        <v>23896.07409202189</v>
       </c>
     </row>
     <row r="115">
@@ -25843,25 +23981,19 @@
         <v>131.78</v>
       </c>
       <c r="G115" t="n">
-        <v>-172.9090209055794</v>
+        <v>259.0385750166461</v>
       </c>
       <c r="H115" t="n">
-        <v>23002.42979864363</v>
+        <v>23671.71</v>
       </c>
       <c r="I115" t="n">
-        <v>25505.70902090558</v>
+        <v>25073.76142498335</v>
       </c>
       <c r="J115" t="n">
-        <v>25135.35381737593</v>
+        <v>24863.13449382208</v>
       </c>
       <c r="K115" t="n">
-        <v>23364.05733403143</v>
-      </c>
-      <c r="L115" t="n">
-        <v>23009.36571852221</v>
-      </c>
-      <c r="M115" t="n">
-        <v>23004.21712906126</v>
+        <v>23882.34006875776</v>
       </c>
     </row>
     <row r="116">
@@ -25875,25 +24007,19 @@
         <v>131.68</v>
       </c>
       <c r="G116" t="n">
-        <v>-153.4961449298171</v>
+        <v>167.3216312162513</v>
       </c>
       <c r="H116" t="n">
-        <v>23000.64746315378</v>
+        <v>23670.78</v>
       </c>
       <c r="I116" t="n">
-        <v>25261.29614492982</v>
+        <v>24940.47836878375</v>
       </c>
       <c r="J116" t="n">
-        <v>24911.33851939341</v>
+        <v>24741.4553907453</v>
       </c>
       <c r="K116" t="n">
-        <v>23342.54185166536</v>
-      </c>
-      <c r="L116" t="n">
-        <v>23007.0111225995</v>
-      </c>
-      <c r="M116" t="n">
-        <v>23002.34315900309</v>
+        <v>23869.80577228675</v>
       </c>
     </row>
     <row r="117">
@@ -25907,25 +24033,19 @@
         <v>131.58</v>
       </c>
       <c r="G117" t="n">
-        <v>85.19857110501471</v>
+        <v>313.2385572265084</v>
       </c>
       <c r="H117" t="n">
-        <v>22998.94376841136</v>
+        <v>23669.91</v>
       </c>
       <c r="I117" t="n">
-        <v>25053.60142889498</v>
+        <v>24825.56144277349</v>
       </c>
       <c r="J117" t="n">
-        <v>24722.40262091296</v>
+        <v>24637.21321344618</v>
       </c>
       <c r="K117" t="n">
-        <v>23322.66856078116</v>
-      </c>
-      <c r="L117" t="n">
-        <v>23004.80344839223</v>
-      </c>
-      <c r="M117" t="n">
-        <v>23000.5546669087</v>
+        <v>23858.2607315663</v>
       </c>
     </row>
     <row r="118">
@@ -25939,25 +24059,19 @@
         <v>131.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-629.6892348810288</v>
+        <v>-481.0688035468738</v>
       </c>
       <c r="H118" t="n">
-        <v>22997.58190894637</v>
+        <v>23669.3</v>
       </c>
       <c r="I118" t="n">
-        <v>24874.48923488103</v>
+        <v>24725.86880354687</v>
       </c>
       <c r="J118" t="n">
-        <v>24560.58230501037</v>
+        <v>24547.36234776885</v>
       </c>
       <c r="K118" t="n">
-        <v>23304.54058635331</v>
-      </c>
-      <c r="L118" t="n">
-        <v>23002.99482213152</v>
-      </c>
-      <c r="M118" t="n">
-        <v>22999.1141867552</v>
+        <v>23847.80870755637</v>
       </c>
     </row>
     <row r="119">
@@ -25971,25 +24085,19 @@
         <v>131.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-694.8574312543424</v>
+        <v>-615.2251959912574</v>
       </c>
       <c r="H119" t="n">
-        <v>22996.66549870144</v>
+        <v>23669.02</v>
       </c>
       <c r="I119" t="n">
-        <v>24718.55743125434</v>
+        <v>24638.92519599126</v>
       </c>
       <c r="J119" t="n">
-        <v>24420.62469667486</v>
+        <v>24469.5116743862</v>
       </c>
       <c r="K119" t="n">
-        <v>23288.12134138118</v>
-      </c>
-      <c r="L119" t="n">
-        <v>23001.6803995991</v>
-      </c>
-      <c r="M119" t="n">
-        <v>22998.12474946344</v>
+        <v>23838.4355570767</v>
       </c>
     </row>
     <row r="120">
@@ -26003,25 +24111,19 @@
         <v>131.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-383.2482074937834</v>
+        <v>-364.2126393422404</v>
       </c>
       <c r="H120" t="n">
-        <v>22995.77195659997</v>
+        <v>23668.76</v>
       </c>
       <c r="I120" t="n">
-        <v>24581.44820749378</v>
+        <v>24562.41263934224</v>
       </c>
       <c r="J120" t="n">
-        <v>24298.30254375867</v>
+        <v>24401.41702674051</v>
       </c>
       <c r="K120" t="n">
-        <v>23272.86503949039</v>
-      </c>
-      <c r="L120" t="n">
-        <v>23000.43077291421</v>
-      </c>
-      <c r="M120" t="n">
-        <v>22997.16325784464</v>
+        <v>23829.75746012918</v>
       </c>
     </row>
     <row r="121">
@@ -26035,25 +24137,19 @@
         <v>131.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-846.9000722103228</v>
+        <v>-881.4174371632253</v>
       </c>
       <c r="H121" t="n">
-        <v>22995.04075998208</v>
+        <v>23668.62</v>
       </c>
       <c r="I121" t="n">
-        <v>24460.30007221032</v>
+        <v>24494.81743716323</v>
       </c>
       <c r="J121" t="n">
-        <v>24190.8690788614</v>
+        <v>24341.62967852998</v>
       </c>
       <c r="K121" t="n">
-        <v>23258.80254627037</v>
-      </c>
-      <c r="L121" t="n">
-        <v>22999.37977297276</v>
-      </c>
-      <c r="M121" t="n">
-        <v>22996.36873106727</v>
+        <v>23821.80944195697</v>
       </c>
     </row>
     <row r="122">
@@ -26067,25 +24163,19 @@
         <v>131.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-648.2650050865559</v>
+        <v>-730.347755680621</v>
       </c>
       <c r="H122" t="n">
-        <v>22994.50667780948</v>
+        <v>23668.62</v>
       </c>
       <c r="I122" t="n">
-        <v>24352.76500508656</v>
+        <v>24434.84775568062</v>
       </c>
       <c r="J122" t="n">
-        <v>24096.07745696557</v>
+        <v>24288.91515947069</v>
       </c>
       <c r="K122" t="n">
-        <v>23245.87259550121</v>
-      </c>
-      <c r="L122" t="n">
-        <v>22998.55744242359</v>
-      </c>
-      <c r="M122" t="n">
-        <v>22995.77553025893</v>
+        <v>23814.55413533885</v>
       </c>
     </row>
     <row r="123">
@@ -26099,25 +24189,19 @@
         <v>130.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-572.2828659075058</v>
+        <v>-696.8677677887645</v>
       </c>
       <c r="H123" t="n">
-        <v>22993.94591121309</v>
+        <v>23668.6</v>
       </c>
       <c r="I123" t="n">
-        <v>24256.68286590751</v>
+        <v>24381.26776778877</v>
       </c>
       <c r="J123" t="n">
-        <v>24011.85705120128</v>
+        <v>24242.08844003467</v>
       </c>
       <c r="K123" t="n">
-        <v>23233.76622918582</v>
-      </c>
-      <c r="L123" t="n">
-        <v>22997.73599694153</v>
-      </c>
-      <c r="M123" t="n">
-        <v>22995.15949258559</v>
+        <v>23807.78073965832</v>
       </c>
     </row>
     <row r="124">
@@ -26131,25 +24215,19 @@
         <v>130.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-469.185585446663</v>
+        <v>-631.9184671578005</v>
       </c>
       <c r="H124" t="n">
-        <v>22993.38569698038</v>
+        <v>23668.59</v>
       </c>
       <c r="I124" t="n">
-        <v>24170.48558544666</v>
+        <v>24333.2184671578</v>
       </c>
       <c r="J124" t="n">
-        <v>23936.71922436218</v>
+        <v>24200.33562440823</v>
       </c>
       <c r="K124" t="n">
-        <v>23222.43496173215</v>
-      </c>
-      <c r="L124" t="n">
-        <v>22996.93929320014</v>
-      </c>
-      <c r="M124" t="n">
-        <v>22994.54752921616</v>
+        <v>23801.47414190594</v>
       </c>
     </row>
     <row r="125">
@@ -26163,25 +24241,19 @@
         <v>130.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-425.4524405908887</v>
+        <v>-622.5501075825414</v>
       </c>
       <c r="H125" t="n">
-        <v>22992.8318011297</v>
+        <v>23668.58</v>
       </c>
       <c r="I125" t="n">
-        <v>24092.85244059089</v>
+        <v>24289.95010758254</v>
       </c>
       <c r="J125" t="n">
-        <v>23869.41393827995</v>
+        <v>24162.94713486715</v>
       </c>
       <c r="K125" t="n">
-        <v>23211.81705075367</v>
-      </c>
-      <c r="L125" t="n">
-        <v>22996.17021589602</v>
-      </c>
-      <c r="M125" t="n">
-        <v>22993.9451141657</v>
+        <v>23795.58417154107</v>
       </c>
     </row>
     <row r="126">
@@ -26195,25 +24267,19 @@
         <v>130.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-872.2847471239547</v>
+        <v>-1100.413152360925</v>
       </c>
       <c r="H126" t="n">
-        <v>22992.49642435522</v>
+        <v>23668.74</v>
       </c>
       <c r="I126" t="n">
-        <v>24022.88474712395</v>
+        <v>24251.01315236092</v>
       </c>
       <c r="J126" t="n">
-        <v>23809.10557856385</v>
+        <v>24129.50929507937</v>
       </c>
       <c r="K126" t="n">
-        <v>23202.06435997416</v>
-      </c>
-      <c r="L126" t="n">
-        <v>22995.63849798605</v>
-      </c>
-      <c r="M126" t="n">
-        <v>22993.56418567414</v>
+        <v>23790.24496648138</v>
       </c>
     </row>
     <row r="127">
@@ -26227,25 +24293,19 @@
         <v>130.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-239.7086840887678</v>
+        <v>-495.9955921503388</v>
       </c>
       <c r="H127" t="n">
-        <v>22992.14183575717</v>
+        <v>23668.88</v>
       </c>
       <c r="I127" t="n">
-        <v>23959.40868408877</v>
+        <v>24215.69559215034</v>
       </c>
       <c r="J127" t="n">
-        <v>23754.67674327047</v>
+        <v>24099.34218926882</v>
       </c>
       <c r="K127" t="n">
-        <v>23192.88510103165</v>
-      </c>
-      <c r="L127" t="n">
-        <v>22995.10428564998</v>
-      </c>
-      <c r="M127" t="n">
-        <v>22993.16677643095</v>
+        <v>23785.23443172827</v>
       </c>
     </row>
     <row r="128">
@@ -26259,25 +24319,19 @@
         <v>130.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-202.4316584911976</v>
+        <v>-484.4050888334823</v>
       </c>
       <c r="H128" t="n">
-        <v>22991.56869852148</v>
+        <v>23668.85</v>
       </c>
       <c r="I128" t="n">
-        <v>23901.4316584912</v>
+        <v>24183.40508883348</v>
       </c>
       <c r="J128" t="n">
-        <v>23705.18543217949</v>
+        <v>24071.88226987772</v>
       </c>
       <c r="K128" t="n">
-        <v>23184.03139357099</v>
-      </c>
-      <c r="L128" t="n">
-        <v>22994.36640810074</v>
-      </c>
-      <c r="M128" t="n">
-        <v>22992.55333622348</v>
+        <v>23780.37377551776</v>
       </c>
     </row>
     <row r="129">
@@ -26291,25 +24345,19 @@
         <v>130.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-275.8527456131633</v>
+        <v>-581.2848112169559</v>
       </c>
       <c r="H129" t="n">
-        <v>22991.05184720643</v>
+        <v>23668.87</v>
       </c>
       <c r="I129" t="n">
-        <v>23848.55274561316</v>
+        <v>24153.98481121696</v>
       </c>
       <c r="J129" t="n">
-        <v>23660.27619467842</v>
+        <v>24046.99859194764</v>
       </c>
       <c r="K129" t="n">
-        <v>23175.73438330665</v>
-      </c>
-      <c r="L129" t="n">
-        <v>22993.69810921808</v>
-      </c>
-      <c r="M129" t="n">
-        <v>22991.99850659483</v>
+        <v>23775.85711059662</v>
       </c>
     </row>
     <row r="130">
@@ -26323,25 +24371,19 @@
         <v>130.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-730.0873526581308</v>
+        <v>-458.1721185537463</v>
       </c>
       <c r="H130" t="n">
-        <v>22990.78520833096</v>
+        <v>23070.3</v>
       </c>
       <c r="I130" t="n">
-        <v>23800.38735265813</v>
+        <v>23528.47211855375</v>
       </c>
       <c r="J130" t="n">
-        <v>23619.60540261543</v>
+        <v>23425.75184042621</v>
       </c>
       <c r="K130" t="n">
-        <v>23168.14859324692</v>
-      </c>
-      <c r="L130" t="n">
-        <v>22993.29193063227</v>
-      </c>
-      <c r="M130" t="n">
-        <v>22991.6960391462</v>
+        <v>23173.02111040492</v>
       </c>
     </row>
     <row r="131">
@@ -26355,25 +24397,19 @@
         <v>130.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-494.5129943457432</v>
+        <v>-433.4494579478851</v>
       </c>
       <c r="H131" t="n">
-        <v>22990.64388513031</v>
+        <v>23261.8</v>
       </c>
       <c r="I131" t="n">
-        <v>23756.31299434574</v>
+        <v>23695.24945794788</v>
       </c>
       <c r="J131" t="n">
-        <v>23582.58755208833</v>
+        <v>23596.54552490981</v>
       </c>
       <c r="K131" t="n">
-        <v>23161.11351525784</v>
-      </c>
-      <c r="L131" t="n">
-        <v>22993.02176551239</v>
-      </c>
-      <c r="M131" t="n">
-        <v>22991.52087829933</v>
+        <v>23360.50471171166</v>
       </c>
     </row>
     <row r="132">
@@ -26387,25 +24423,19 @@
         <v>130.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-35.63264377138694</v>
+        <v>-410.7069954932485</v>
       </c>
       <c r="H132" t="n">
-        <v>22990.26072235133</v>
+        <v>23679.9</v>
       </c>
       <c r="I132" t="n">
-        <v>23715.53264377139</v>
+        <v>24090.60699549325</v>
       </c>
       <c r="J132" t="n">
-        <v>23548.45907018552</v>
+        <v>23995.68886869326</v>
       </c>
       <c r="K132" t="n">
-        <v>23154.22974644648</v>
-      </c>
-      <c r="L132" t="n">
-        <v>22992.51939766845</v>
-      </c>
-      <c r="M132" t="n">
-        <v>22991.10572434943</v>
+        <v>23774.81885668251</v>
       </c>
     </row>
     <row r="133">
@@ -26419,25 +24449,19 @@
         <v>129.98</v>
       </c>
       <c r="G133" t="n">
-        <v>59.87624859263451</v>
+        <v>-389.736614620404</v>
       </c>
       <c r="H133" t="n">
-        <v>22989.68609486349</v>
+        <v>23737.6</v>
       </c>
       <c r="I133" t="n">
-        <v>23677.72375140736</v>
+        <v>24127.3366146204</v>
       </c>
       <c r="J133" t="n">
-        <v>23516.92773010649</v>
+        <v>24035.99103145105</v>
       </c>
       <c r="K133" t="n">
-        <v>23147.51840462261</v>
-      </c>
-      <c r="L133" t="n">
-        <v>22991.83426874673</v>
-      </c>
-      <c r="M133" t="n">
-        <v>22990.50082054927</v>
+        <v>23828.94626852811</v>
       </c>
     </row>
     <row r="134">
@@ -26451,25 +24475,19 @@
         <v>129.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-721.753391700302</v>
+        <v>-370.3569997685227</v>
       </c>
       <c r="H134" t="n">
-        <v>22989.41188099301</v>
+        <v>22921.3</v>
       </c>
       <c r="I134" t="n">
-        <v>23643.0533917003</v>
+        <v>23291.65699976852</v>
       </c>
       <c r="J134" t="n">
-        <v>23488.18814291516</v>
+        <v>23203.68638856105</v>
       </c>
       <c r="K134" t="n">
-        <v>23141.44477576953</v>
-      </c>
-      <c r="L134" t="n">
-        <v>22991.45743363489</v>
-      </c>
-      <c r="M134" t="n">
-        <v>22990.19792510203</v>
+        <v>23009.27125583825</v>
       </c>
     </row>
     <row r="135">
@@ -26483,25 +24501,19 @@
         <v>129.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-394.8465078944209</v>
+        <v>-352.4095870526144</v>
       </c>
       <c r="H135" t="n">
-        <v>22989.34698035577</v>
+        <v>23216.3</v>
       </c>
       <c r="I135" t="n">
-        <v>23611.14650789442</v>
+        <v>23568.70958705261</v>
       </c>
       <c r="J135" t="n">
-        <v>23461.89030392094</v>
+        <v>23483.93065284831</v>
       </c>
       <c r="K135" t="n">
-        <v>23135.89354659155</v>
-      </c>
-      <c r="L135" t="n">
-        <v>22991.29706322166</v>
-      </c>
-      <c r="M135" t="n">
-        <v>22990.10582781323</v>
+        <v>23301.07954149365</v>
       </c>
     </row>
     <row r="136">
@@ -26515,25 +24527,19 @@
         <v>129.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-475.0721787320363</v>
+        <v>-335.7552116738916</v>
       </c>
       <c r="H136" t="n">
-        <v>22989.20960382657</v>
+        <v>23106.4</v>
       </c>
       <c r="I136" t="n">
-        <v>23581.47217873204</v>
+        <v>23442.15521167389</v>
       </c>
       <c r="J136" t="n">
-        <v>23437.52612352623</v>
+        <v>23360.39767195547</v>
       </c>
       <c r="K136" t="n">
-        <v>23130.56084411663</v>
-      </c>
-      <c r="L136" t="n">
-        <v>22991.07072164282</v>
-      </c>
-      <c r="M136" t="n">
-        <v>22989.94263901797</v>
+        <v>23188.15811269652</v>
       </c>
     </row>
     <row r="137">
@@ -26547,25 +24553,19 @@
         <v>129.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-333.6814421526797</v>
+        <v>-320.2713184531422</v>
       </c>
       <c r="H137" t="n">
-        <v>22989.07010970628</v>
+        <v>23220.2</v>
       </c>
       <c r="I137" t="n">
-        <v>23553.88144215268</v>
+        <v>23540.47131845314</v>
       </c>
       <c r="J137" t="n">
-        <v>23414.96748287679</v>
+        <v>23461.57677064121</v>
       </c>
       <c r="K137" t="n">
-        <v>23125.49685162746</v>
-      </c>
-      <c r="L137" t="n">
-        <v>22990.84819166714</v>
-      </c>
-      <c r="M137" t="n">
-        <v>22989.77862482646</v>
+        <v>23299.09508919746</v>
       </c>
     </row>
     <row r="138">
@@ -26579,25 +24579,19 @@
         <v>129.48</v>
       </c>
       <c r="G138" t="n">
-        <v>565.8107250333633</v>
+        <v>-305.8496299700018</v>
       </c>
       <c r="H138" t="n">
-        <v>22988.53717398985</v>
+        <v>24093.6</v>
       </c>
       <c r="I138" t="n">
-        <v>23527.78927496664</v>
+        <v>24399.44962997</v>
       </c>
       <c r="J138" t="n">
-        <v>23393.64841770142</v>
+        <v>24323.27053496516</v>
       </c>
       <c r="K138" t="n">
-        <v>23120.29178475946</v>
-      </c>
-      <c r="L138" t="n">
-        <v>22990.23763579518</v>
-      </c>
-      <c r="M138" t="n">
-        <v>22989.22237657545</v>
+        <v>24169.77960724342</v>
       </c>
     </row>
     <row r="139">
@@ -26611,25 +24605,19 @@
         <v>129.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-1124.149783594054</v>
+        <v>-292.3941884929918</v>
       </c>
       <c r="H139" t="n">
-        <v>22988.33650005746</v>
+        <v>22379.6</v>
       </c>
       <c r="I139" t="n">
-        <v>23503.74978359405</v>
+        <v>22671.99418849299</v>
       </c>
       <c r="J139" t="n">
-        <v>23374.14048917342</v>
+        <v>22598.39295664753</v>
       </c>
       <c r="K139" t="n">
-        <v>23115.6544296291</v>
-      </c>
-      <c r="L139" t="n">
-        <v>22989.96429812451</v>
-      </c>
-      <c r="M139" t="n">
-        <v>22988.99951979416</v>
+        <v>22453.20171714251</v>
       </c>
     </row>
     <row r="140">
@@ -26643,25 +24631,19 @@
         <v>129.28</v>
       </c>
       <c r="G140" t="n">
-        <v>191.2523035005215</v>
+        <v>-279.8197047488502</v>
       </c>
       <c r="H140" t="n">
-        <v>22988.30527853035</v>
+        <v>23672.7</v>
       </c>
       <c r="I140" t="n">
-        <v>23481.44769649948</v>
+        <v>23952.51970474885</v>
       </c>
       <c r="J140" t="n">
-        <v>23356.14443560735</v>
+        <v>23881.36787244484</v>
       </c>
       <c r="K140" t="n">
-        <v>23111.40645078191</v>
-      </c>
-      <c r="L140" t="n">
-        <v>22989.86495750362</v>
-      </c>
-      <c r="M140" t="n">
-        <v>22988.94717341505</v>
+        <v>23743.85229265312</v>
       </c>
     </row>
     <row r="141">
@@ -26675,25 +24657,19 @@
         <v>129.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-782.1595899283093</v>
+        <v>-268.0501597632719</v>
       </c>
       <c r="H141" t="n">
-        <v>22988.15592542968</v>
+        <v>22678.3</v>
       </c>
       <c r="I141" t="n">
-        <v>23460.45958992831</v>
+        <v>22946.35015976327</v>
       </c>
       <c r="J141" t="n">
-        <v>23339.25153931422</v>
+        <v>22877.52764630539</v>
       </c>
       <c r="K141" t="n">
-        <v>23107.24599457181</v>
-      </c>
-      <c r="L141" t="n">
-        <v>22989.65165993255</v>
-      </c>
-      <c r="M141" t="n">
-        <v>22988.77768735754</v>
+        <v>22747.12295066518</v>
       </c>
     </row>
     <row r="142">
@@ -26707,25 +24683,19 @@
         <v>129.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-515.3791376481968</v>
+        <v>-257.017616370249</v>
       </c>
       <c r="H142" t="n">
-        <v>22988.30346731145</v>
+        <v>22925.7</v>
       </c>
       <c r="I142" t="n">
-        <v>23441.0791376482</v>
+        <v>23182.71761637025</v>
       </c>
       <c r="J142" t="n">
-        <v>23323.76900164302</v>
+        <v>23116.11205221466</v>
       </c>
       <c r="K142" t="n">
-        <v>23103.57495447737</v>
-      </c>
-      <c r="L142" t="n">
-        <v>22989.73909873498</v>
-      </c>
-      <c r="M142" t="n">
-        <v>22988.90602714945</v>
+        <v>22992.30597986099</v>
       </c>
     </row>
     <row r="143">
@@ -26739,25 +24709,19 @@
         <v>128.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-188.1808737960018</v>
+        <v>-246.6612051822667</v>
       </c>
       <c r="H143" t="n">
-        <v>22988.23112575746</v>
+        <v>23234.5</v>
       </c>
       <c r="I143" t="n">
-        <v>23422.680873796</v>
+        <v>23481.16120518227</v>
       </c>
       <c r="J143" t="n">
-        <v>23309.08381730387</v>
+        <v>23416.66732364976</v>
       </c>
       <c r="K143" t="n">
-        <v>23099.86444887036</v>
-      </c>
-      <c r="L143" t="n">
-        <v>22989.61019475913</v>
-      </c>
-      <c r="M143" t="n">
-        <v>22988.81535795859</v>
+        <v>23298.99427722804</v>
       </c>
     </row>
     <row r="144">
@@ -26771,25 +24735,19 @@
         <v>128.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-195.3725652848952</v>
+        <v>-236.9262563262346</v>
       </c>
       <c r="H144" t="n">
-        <v>22988.04424927125</v>
+        <v>23209.9</v>
       </c>
       <c r="I144" t="n">
-        <v>23405.2725652849</v>
+        <v>23446.82625632624</v>
       </c>
       <c r="J144" t="n">
-        <v>23295.21524614357</v>
+        <v>23384.34534191922</v>
       </c>
       <c r="K144" t="n">
-        <v>23096.20865767792</v>
-      </c>
-      <c r="L144" t="n">
-        <v>22989.37002455429</v>
-      </c>
-      <c r="M144" t="n">
-        <v>22988.61097607692</v>
+        <v>23272.38129145296</v>
       </c>
     </row>
     <row r="145">
@@ -26803,25 +24761,19 @@
         <v>128.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-401.0235589404183</v>
+        <v>-227.7635534527981</v>
       </c>
       <c r="H145" t="n">
         <v>22959.1</v>
       </c>
       <c r="I145" t="n">
-        <v>23360.12355894042</v>
+        <v>23186.8635534528</v>
       </c>
       <c r="J145" t="n">
-        <v>23253.44324902207</v>
+        <v>23126.30294073331</v>
       </c>
       <c r="K145" t="n">
-        <v>23063.95442397011</v>
-      </c>
-      <c r="L145" t="n">
-        <v>22960.3755038593</v>
-      </c>
-      <c r="M145" t="n">
-        <v>22959.64999527308</v>
+        <v>23019.66097235827</v>
       </c>
     </row>
     <row r="146">
@@ -26835,25 +24787,19 @@
         <v>128.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-385.7562733328814</v>
+        <v>-219.128690702415</v>
       </c>
       <c r="H146" t="n">
         <v>23204.9</v>
       </c>
       <c r="I146" t="n">
-        <v>23590.65627333288</v>
+        <v>23424.02869070242</v>
       </c>
       <c r="J146" t="n">
-        <v>23487.20005903717</v>
+        <v>23365.30130841396</v>
       </c>
       <c r="K146" t="n">
-        <v>23306.59382398667</v>
-      </c>
-      <c r="L146" t="n">
-        <v>23206.12803104938</v>
-      </c>
-      <c r="M146" t="n">
-        <v>23205.43399272551</v>
+        <v>23263.62772565703</v>
       </c>
     </row>
     <row r="147">
@@ -26867,25 +24813,19 @@
         <v>128.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-371.3548695647187</v>
+        <v>-210.9815166793887</v>
       </c>
       <c r="H147" t="n">
         <v>22759</v>
       </c>
       <c r="I147" t="n">
-        <v>23130.35486956472</v>
+        <v>22969.98151667939</v>
       </c>
       <c r="J147" t="n">
-        <v>23029.9789234642</v>
+        <v>22913.00547242375</v>
       </c>
       <c r="K147" t="n">
-        <v>22857.67376751269</v>
-      </c>
-      <c r="L147" t="n">
-        <v>22760.18315343619</v>
-      </c>
-      <c r="M147" t="n">
-        <v>22759.51867748671</v>
+        <v>22815.97637239624</v>
       </c>
     </row>
     <row r="148">
@@ -26899,25 +24839,19 @@
         <v>128.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-357.7545065599152</v>
+        <v>-203.2856522128641</v>
       </c>
       <c r="H148" t="n">
         <v>23218.7</v>
       </c>
       <c r="I148" t="n">
-        <v>23576.45450655992</v>
+        <v>23421.98565221286</v>
       </c>
       <c r="J148" t="n">
-        <v>23479.02342292113</v>
+        <v>23366.68385353976</v>
       </c>
       <c r="K148" t="n">
-        <v>23314.48605703171</v>
-      </c>
-      <c r="L148" t="n">
-        <v>23219.84068570847</v>
-      </c>
-      <c r="M148" t="n">
-        <v>23219.20401081221</v>
+        <v>23274.00211254274</v>
       </c>
     </row>
     <row r="149">
@@ -26931,25 +24865,19 @@
         <v>128.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-344.8963393522645</v>
+        <v>-196.0080709032081</v>
       </c>
       <c r="H149" t="n">
         <v>23386.5</v>
       </c>
       <c r="I149" t="n">
-        <v>23731.39633935226</v>
+        <v>23582.50807090321</v>
       </c>
       <c r="J149" t="n">
-        <v>23636.78252709382</v>
+        <v>23528.80787914663</v>
       </c>
       <c r="K149" t="n">
-        <v>23479.52308315813</v>
-      </c>
-      <c r="L149" t="n">
-        <v>23387.60045876542</v>
-      </c>
-      <c r="M149" t="n">
-        <v>23386.9899566456</v>
+        <v>23440.2004922355</v>
       </c>
     </row>
     <row r="150">
@@ -26963,25 +24891,19 @@
         <v>128.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-332.7268629785649</v>
+        <v>-189.1187332650989</v>
       </c>
       <c r="H150" t="n">
         <v>23184.7</v>
       </c>
       <c r="I150" t="n">
-        <v>23517.42686297857</v>
+        <v>23373.8187332651</v>
       </c>
       <c r="J150" t="n">
-        <v>23425.50999035868</v>
+        <v>23321.65164687535</v>
       </c>
       <c r="K150" t="n">
-        <v>23275.07777479812</v>
-      </c>
-      <c r="L150" t="n">
-        <v>23185.76231804834</v>
-      </c>
-      <c r="M150" t="n">
-        <v>23185.1764813982</v>
+        <v>23236.86737428882</v>
       </c>
     </row>
     <row r="151">
@@ -26995,25 +24917,19 @@
         <v>128.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-321.1973388465667</v>
+        <v>-182.5902667657319</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>23008.19733884657</v>
+        <v>22869.59026676573</v>
       </c>
       <c r="J151" t="n">
-        <v>22918.8638248113</v>
+        <v>22818.89163124964</v>
       </c>
       <c r="K151" t="n">
-        <v>22774.84355416161</v>
-      </c>
-      <c r="L151" t="n">
-        <v>22688.02612206872</v>
-      </c>
-      <c r="M151" t="n">
-        <v>22687.46355374934</v>
+        <v>22737.69891158341</v>
       </c>
     </row>
     <row r="152">
@@ -27027,25 +24943,19 @@
         <v>128.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-310.2632919225107</v>
+        <v>-176.3976852807864</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>23234.66329192251</v>
+        <v>23100.79768528079</v>
       </c>
       <c r="J152" t="n">
-        <v>23147.80583960588</v>
+        <v>23051.50642718066</v>
       </c>
       <c r="K152" t="n">
-        <v>23009.81429609406</v>
-      </c>
-      <c r="L152" t="n">
-        <v>22925.39174110687</v>
-      </c>
-      <c r="M152" t="n">
-        <v>22924.85114446533</v>
+        <v>22973.69152302691</v>
       </c>
     </row>
     <row r="153">
@@ -27059,25 +24969,19 @@
         <v>127.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-299.8840689047138</v>
+        <v>-170.5181425025949</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22942.98406890471</v>
+        <v>22813.61814250259</v>
       </c>
       <c r="J153" t="n">
-        <v>22858.50123726257</v>
+        <v>22765.67652512387</v>
       </c>
       <c r="K153" t="n">
-        <v>22726.18429126106</v>
-      </c>
-      <c r="L153" t="n">
-        <v>22644.05905605891</v>
-      </c>
-      <c r="M153" t="n">
-        <v>22643.53922623499</v>
+        <v>22691.04187180448</v>
       </c>
     </row>
     <row r="154">
@@ -27091,25 +24995,19 @@
         <v>127.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-290.022449060245</v>
+        <v>-164.9307146739375</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22937.92244906025</v>
+        <v>22812.83071467394</v>
       </c>
       <c r="J154" t="n">
-        <v>22855.7182590518</v>
+        <v>22766.1841135174</v>
       </c>
       <c r="K154" t="n">
-        <v>22728.74821277464</v>
-      </c>
-      <c r="L154" t="n">
-        <v>22648.82795741325</v>
-      </c>
-      <c r="M154" t="n">
-        <v>22648.32777352012</v>
+        <v>22694.54684567382</v>
       </c>
     </row>
     <row r="155">
@@ -27123,25 +25021,19 @@
         <v>127.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-280.6443006588888</v>
+        <v>-159.6162087193225</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23331.54430065889</v>
+        <v>23210.51620871932</v>
       </c>
       <c r="J155" t="n">
-        <v>23251.52787276977</v>
+        <v>23165.11290478979</v>
       </c>
       <c r="K155" t="n">
-        <v>23129.60108589918</v>
-      </c>
-      <c r="L155" t="n">
-        <v>23051.79834434</v>
-      </c>
-      <c r="M155" t="n">
-        <v>23051.3167624193</v>
+        <v>23096.30353908803</v>
       </c>
     </row>
     <row r="156">
@@ -27155,25 +25047,19 @@
         <v>127.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-271.7182769884312</v>
+        <v>-154.5569924284682</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>23205.21827698843</v>
+        <v>23088.05699242847</v>
       </c>
       <c r="J156" t="n">
-        <v>23127.30349722479</v>
+        <v>23043.84798178339</v>
       </c>
       <c r="K156" t="n">
-        <v>23010.13826051657</v>
-      </c>
-      <c r="L156" t="n">
-        <v>22934.37012387957</v>
-      </c>
-      <c r="M156" t="n">
-        <v>22933.90617054379</v>
+        <v>22977.70923695542</v>
       </c>
     </row>
     <row r="157">
@@ -27187,25 +25073,19 @@
         <v>127.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-263.215546814361</v>
+        <v>-149.7368438352532</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23515.11554681436</v>
+        <v>23401.63684383525</v>
       </c>
       <c r="J157" t="n">
-        <v>23439.22075859395</v>
+        <v>23358.57566190515</v>
       </c>
       <c r="K157" t="n">
-        <v>23326.55538606764</v>
-      </c>
-      <c r="L157" t="n">
-        <v>23252.74321021823</v>
-      </c>
-      <c r="M157" t="n">
-        <v>23252.29597690417</v>
+        <v>23294.96139986718</v>
       </c>
     </row>
     <row r="158">
@@ -27219,25 +25099,19 @@
         <v>127.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-255.1095548860576</v>
+        <v>-145.1408173456148</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22614.90955488606</v>
+        <v>22504.94081734561</v>
       </c>
       <c r="J158" t="n">
-        <v>22540.95727451464</v>
+        <v>22462.98337670813</v>
       </c>
       <c r="K158" t="n">
-        <v>22432.54838871875</v>
-      </c>
-      <c r="L158" t="n">
-        <v>22360.61752404004</v>
-      </c>
-      <c r="M158" t="n">
-        <v>22360.18616180688</v>
+        <v>22401.75765064353</v>
       </c>
     </row>
     <row r="159">
@@ -27251,25 +25125,19 @@
         <v>127.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-247.3758087136921</v>
+        <v>-140.7551245138893</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23295.27580871369</v>
+        <v>23188.65512451389</v>
       </c>
       <c r="J159" t="n">
-        <v>23223.19246236807</v>
+        <v>23147.75956493561</v>
       </c>
       <c r="K159" t="n">
-        <v>23118.81345053104</v>
-      </c>
-      <c r="L159" t="n">
-        <v>23048.69299194632</v>
-      </c>
-      <c r="M159" t="n">
-        <v>23048.27670675944</v>
+        <v>23088.79576206551</v>
       </c>
     </row>
     <row r="160">
@@ -27283,25 +25151,19 @@
         <v>127.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-239.9916883665974</v>
+        <v>-136.567027659119</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>23059.3916883666</v>
+        <v>22955.96702765912</v>
       </c>
       <c r="J160" t="n">
-        <v>22989.10736871209</v>
+        <v>22916.09357733751</v>
       </c>
       <c r="K160" t="n">
-        <v>22888.54699043406</v>
-      </c>
-      <c r="L160" t="n">
-        <v>22820.16954593458</v>
-      </c>
-      <c r="M160" t="n">
-        <v>22819.76759438373</v>
+        <v>22859.27364567478</v>
       </c>
     </row>
     <row r="161">
@@ -27315,25 +25177,19 @@
         <v>127.18</v>
       </c>
       <c r="G161" t="n">
-        <v>-232.9362764892285</v>
+        <v>-132.5647447610099</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22648.23627648923</v>
+        <v>22547.86474476101</v>
       </c>
       <c r="J161" t="n">
-        <v>22579.68451724346</v>
+        <v>22508.97559180316</v>
       </c>
       <c r="K161" t="n">
-        <v>22482.74564682781</v>
-      </c>
-      <c r="L161" t="n">
-        <v>22416.04712293013</v>
-      </c>
-      <c r="M161" t="n">
-        <v>22415.65880833644</v>
+        <v>22454.18934153639</v>
       </c>
     </row>
     <row r="162">
@@ -27347,25 +25203,19 @@
         <v>127.08</v>
       </c>
       <c r="G162" t="n">
-        <v>-226.1902061101828</v>
+        <v>-128.7373642853127</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23258.59020611018</v>
+        <v>23161.13736428531</v>
       </c>
       <c r="J162" t="n">
-        <v>23191.70777302871</v>
+        <v>23123.19653755408</v>
       </c>
       <c r="K162" t="n">
-        <v>23098.2062616559</v>
-      </c>
-      <c r="L162" t="n">
-        <v>23033.1256643644</v>
-      </c>
-      <c r="M162" t="n">
-        <v>23032.7503332361</v>
+        <v>23070.34100887133</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -20785,19 +20785,19 @@
         <v>143.08</v>
       </c>
       <c r="G2" t="n">
-        <v>-81.56472396294339</v>
+        <v>-147.4491697849226</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26131.06472396294</v>
+        <v>26196.94916978492</v>
       </c>
       <c r="J2" t="n">
-        <v>26090.5824903156</v>
+        <v>26122.3592094007</v>
       </c>
       <c r="K2" t="n">
-        <v>26089.98225537745</v>
+        <v>26124.09048832685</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -20811,27 +20811,27 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>133.51</t>
+          <t>133.50</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>97020</t>
+          <t>99974</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>22.56</t>
+          <t>27.93</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>94916</t>
+          <t>118146</t>
         </is>
       </c>
       <c r="AE2" s="33" t="inlineStr"/>
@@ -20843,7 +20843,7 @@
       </c>
       <c r="AH2" s="33" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="AI2" s="33" t="inlineStr">
@@ -20868,22 +20868,22 @@
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>129.08</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>145.08</t>
+          <t>143.08</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-285.30</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-715.80</t>
         </is>
       </c>
     </row>
@@ -20898,25 +20898,25 @@
         <v>142.98</v>
       </c>
       <c r="G3" t="n">
-        <v>-83.48100408152459</v>
+        <v>-150.9223702109521</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26521.08100408152</v>
+        <v>26588.52237021095</v>
       </c>
       <c r="J3" t="n">
-        <v>26479.5530339006</v>
+        <v>26512.0003134132</v>
       </c>
       <c r="K3" t="n">
-        <v>26479.12799188242</v>
+        <v>26514.12259846262</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>129.08,145.08</t>
+          <t>127.08,143.08</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -20966,19 +20966,19 @@
         <v>142.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-85.46624139469714</v>
+        <v>-154.5208917711498</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26782.3662413947</v>
+        <v>26851.42089177115</v>
       </c>
       <c r="J4" t="n">
-        <v>26739.7515254551</v>
+        <v>26772.89078988059</v>
       </c>
       <c r="K4" t="n">
-        <v>26739.51473759221</v>
+        <v>26775.43065781859</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -20992,27 +20992,27 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>135.21</t>
+          <t>135.24</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>64712</t>
+          <t>68635</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>22.56</t>
+          <t>27.93</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>63309</t>
+          <t>81110</t>
         </is>
       </c>
       <c r="AE4" s="33" t="inlineStr"/>
@@ -21024,17 +21024,17 @@
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="AK4" s="33" t="inlineStr">
@@ -21049,22 +21049,22 @@
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>129.08</t>
+          <t>127.08</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>145.08</t>
+          <t>143.08</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-285.30</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-715.80</t>
         </is>
       </c>
     </row>
@@ -21079,19 +21079,19 @@
         <v>142.78</v>
       </c>
       <c r="G5" t="n">
-        <v>-87.52381476600931</v>
+        <v>-158.2508918354761</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>26030.12381476601</v>
+        <v>26100.85089183547</v>
       </c>
       <c r="J5" t="n">
-        <v>25986.37917341389</v>
+        <v>26020.23276853836</v>
       </c>
       <c r="K5" t="n">
-        <v>25986.34466293364</v>
+        <v>26023.21869405798</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
@@ -21147,19 +21147,19 @@
         <v>142.68</v>
       </c>
       <c r="G6" t="n">
-        <v>-89.6573143992282</v>
+        <v>-162.1189139180133</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26655.45731439923</v>
+        <v>26727.91891391801</v>
       </c>
       <c r="J6" t="n">
-        <v>26610.53725219311</v>
+        <v>26645.12849509623</v>
       </c>
       <c r="K6" t="n">
-        <v>26610.72008369231</v>
+        <v>26648.59100501586</v>
       </c>
     </row>
     <row r="7">
@@ -21173,19 +21173,19 @@
         <v>142.58</v>
       </c>
       <c r="G7" t="n">
-        <v>-91.87055803370822</v>
+        <v>-166.1319173400916</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26181.57055803371</v>
+        <v>26255.83191734009</v>
       </c>
       <c r="J7" t="n">
-        <v>26135.42710655788</v>
+        <v>26170.78033889232</v>
       </c>
       <c r="K7" t="n">
-        <v>26135.84347284013</v>
+        <v>26174.75218070819</v>
       </c>
     </row>
     <row r="8">
@@ -21199,19 +21199,19 @@
         <v>142.48</v>
       </c>
       <c r="G8" t="n">
-        <v>-94.16760861750663</v>
+        <v>-170.2973096058304</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>26878.76760861751</v>
+        <v>26954.89730960583</v>
       </c>
       <c r="J8" t="n">
-        <v>26831.35015633091</v>
+        <v>26867.49080114267</v>
       </c>
       <c r="K8" t="n">
-        <v>26832.01747349997</v>
+        <v>26872.00712745809</v>
       </c>
     </row>
     <row r="9">
@@ -21225,19 +21225,19 @@
         <v>142.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-96.55279361545763</v>
+        <v>-174.6229817791573</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26454.25279361546</v>
+        <v>26532.32298177916</v>
       </c>
       <c r="J9" t="n">
-        <v>26405.50790147259</v>
+        <v>26442.46252383946</v>
       </c>
       <c r="K9" t="n">
-        <v>26406.44491317357</v>
+        <v>26447.56109437482</v>
       </c>
     </row>
     <row r="10">
@@ -21251,19 +21251,19 @@
         <v>142.28</v>
       </c>
       <c r="G10" t="n">
-        <v>-99.03072612865071</v>
+        <v>-179.1173471866896</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26355.03072612865</v>
+        <v>26435.11734718669</v>
       </c>
       <c r="J10" t="n">
-        <v>26304.90192756644</v>
+        <v>26342.6982993569</v>
       </c>
       <c r="K10" t="n">
-        <v>26306.12881937551</v>
+        <v>26348.41970245092</v>
       </c>
     </row>
     <row r="11">
@@ -21277,19 +21277,19 @@
         <v>142.18</v>
       </c>
       <c r="G11" t="n">
-        <v>-101.6063280234303</v>
+        <v>-183.7893838110322</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26620.90632802343</v>
+        <v>26703.08938381103</v>
       </c>
       <c r="J11" t="n">
-        <v>26569.3339117474</v>
+        <v>26608.00108082982</v>
       </c>
       <c r="K11" t="n">
-        <v>26570.87243683395</v>
+        <v>26614.3889765772</v>
       </c>
     </row>
     <row r="12">
@@ -21303,19 +21303,19 @@
         <v>142.08</v>
       </c>
       <c r="G12" t="n">
-        <v>-104.2848552931173</v>
+        <v>-188.6486807848232</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>26052.88485529312</v>
+        <v>26137.24868078482</v>
       </c>
       <c r="J12" t="n">
-        <v>25999.80562911415</v>
+        <v>26039.37399337662</v>
       </c>
       <c r="K12" t="n">
-        <v>26001.67924643995</v>
+        <v>26046.47538081411</v>
       </c>
     </row>
     <row r="13">
@@ -21329,19 +21329,19 @@
         <v>141.98</v>
       </c>
       <c r="G13" t="n">
-        <v>-107.0719259039797</v>
+        <v>-193.7054894483808</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>27052.37192590398</v>
+        <v>27139.00548944838</v>
       </c>
       <c r="J13" t="n">
-        <v>26997.71895967113</v>
+        <v>27038.22034624597</v>
       </c>
       <c r="K13" t="n">
-        <v>26999.95298615143</v>
+        <v>27046.08585730286</v>
       </c>
     </row>
     <row r="14">
@@ -21355,19 +21355,19 @@
         <v>141.88</v>
       </c>
       <c r="G14" t="n">
-        <v>-109.9735504094861</v>
+        <v>-198.9707794935202</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26553.97355040949</v>
+        <v>26642.97077949352</v>
       </c>
       <c r="J14" t="n">
-        <v>26497.6758958509</v>
+        <v>26539.14364597521</v>
       </c>
       <c r="K14" t="n">
-        <v>26500.29767408501</v>
+        <v>26547.82786925132</v>
       </c>
     </row>
     <row r="15">
@@ -21381,19 +21381,19 @@
         <v>141.78</v>
       </c>
       <c r="G15" t="n">
-        <v>-112.9961656543383</v>
+        <v>-204.4563007849902</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>26842.59616565434</v>
+        <v>26934.05630078499</v>
       </c>
       <c r="J15" t="n">
-        <v>26784.57855067281</v>
+        <v>26827.0476106575</v>
       </c>
       <c r="K15" t="n">
-        <v>26787.61763406133</v>
+        <v>26836.60944848843</v>
       </c>
     </row>
     <row r="16">
@@ -21407,19 +21407,19 @@
         <v>141.68</v>
       </c>
       <c r="G16" t="n">
-        <v>-116.1466719324526</v>
+        <v>-210.1746515297564</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27162.04667193245</v>
+        <v>27256.07465152976</v>
       </c>
       <c r="J16" t="n">
-        <v>27102.22916660023</v>
+        <v>27145.73618542601</v>
       </c>
       <c r="K16" t="n">
-        <v>27105.71752390573</v>
+        <v>27156.23924814989</v>
       </c>
     </row>
     <row r="17">
@@ -21433,19 +21433,19 @@
         <v>141.58</v>
       </c>
       <c r="G17" t="n">
-        <v>-119.4324740125485</v>
+        <v>-216.139353555358</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26393.73247401255</v>
+        <v>26490.43935355536</v>
       </c>
       <c r="J17" t="n">
-        <v>26332.03012516554</v>
+        <v>26376.6135592748</v>
       </c>
       <c r="K17" t="n">
-        <v>26336.00236684886</v>
+        <v>26388.12660113587</v>
       </c>
     </row>
     <row r="18">
@@ -21459,19 +21459,19 @@
         <v>141.48</v>
       </c>
       <c r="G18" t="n">
-        <v>-122.8615265018452</v>
+        <v>-222.3649355633206</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>25844.56152650185</v>
+        <v>25944.06493556332</v>
       </c>
       <c r="J18" t="n">
-        <v>25780.88395743968</v>
+        <v>25826.58418334994</v>
       </c>
       <c r="K18" t="n">
-        <v>25785.37758642071</v>
+        <v>25839.18158507391</v>
       </c>
     </row>
     <row r="19">
@@ -21485,19 +21485,19 @@
         <v>141.38</v>
       </c>
       <c r="G19" t="n">
-        <v>-126.4423840842355</v>
+        <v>-228.8670253447744</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26326.04238408423</v>
+        <v>26428.46702534477</v>
       </c>
       <c r="J19" t="n">
-        <v>26260.29335543207</v>
+        <v>26307.15279085931</v>
       </c>
       <c r="K19" t="n">
-        <v>26265.34904528881</v>
+        <v>26320.91509462515</v>
       </c>
     </row>
     <row r="20">
@@ -21511,19 +21511,19 @@
         <v>141.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-130.1842572455134</v>
+        <v>-235.6624520859368</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27305.88425724551</v>
+        <v>27411.36245208594</v>
       </c>
       <c r="J20" t="n">
-        <v>27237.96118451651</v>
+        <v>27286.02441876663</v>
       </c>
       <c r="K20" t="n">
-        <v>27243.62308855753</v>
+        <v>27301.03892209647</v>
       </c>
     </row>
     <row r="21">
@@ -21537,19 +21537,19 @@
         <v>141.18</v>
       </c>
       <c r="G21" t="n">
-        <v>-134.0970741868296</v>
+        <v>-242.7693600540551</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26276.09707418683</v>
+        <v>26384.76936005406</v>
       </c>
       <c r="J21" t="n">
-        <v>26205.89049698968</v>
+        <v>26255.2044314546</v>
       </c>
       <c r="K21" t="n">
-        <v>26212.20659212286</v>
+        <v>26271.56584746381</v>
       </c>
     </row>
     <row r="22">
@@ -21563,19 +21563,19 @@
         <v>141.08</v>
       </c>
       <c r="G22" t="n">
-        <v>-138.1915497305927</v>
+        <v>-250.2073351442305</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26558.09154973059</v>
+        <v>26670.10733514423</v>
       </c>
       <c r="J22" t="n">
-        <v>26485.48454688191</v>
+        <v>26536.09854656383</v>
       </c>
       <c r="K22" t="n">
-        <v>26492.50701676753</v>
+        <v>26553.90973908087</v>
       </c>
     </row>
     <row r="23">
@@ -21589,19 +21589,19 @@
         <v>140.98</v>
       </c>
       <c r="G23" t="n">
-        <v>-142.4792621433735</v>
+        <v>-257.9975459890629</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27436.17926214337</v>
+        <v>27551.69754598906</v>
       </c>
       <c r="J23" t="n">
-        <v>27361.04680615385</v>
+        <v>27413.0128632388</v>
       </c>
       <c r="K23" t="n">
-        <v>27368.83246878714</v>
+        <v>27432.38566654363</v>
       </c>
     </row>
     <row r="24">
@@ -21615,19 +21615,19 @@
         <v>140.88</v>
       </c>
       <c r="G24" t="n">
-        <v>-146.9727389411128</v>
+        <v>-266.162901591968</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26338.07273894111</v>
+        <v>26457.26290159197</v>
       </c>
       <c r="J24" t="n">
-        <v>26260.28098242906</v>
+        <v>26313.65389304024</v>
       </c>
       <c r="K24" t="n">
-        <v>26268.89176806253</v>
+        <v>26334.71002741211</v>
       </c>
     </row>
     <row r="25">
@@ -21641,19 +21641,19 @@
         <v>140.78</v>
       </c>
       <c r="G25" t="n">
-        <v>-151.6855529069253</v>
+        <v>-274.7282277488339</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26596.38555290693</v>
+        <v>26719.42822774883</v>
       </c>
       <c r="J25" t="n">
-        <v>26515.79103843131</v>
+        <v>26570.628593815</v>
       </c>
       <c r="K25" t="n">
-        <v>26525.29452464033</v>
+        <v>26593.50068976325</v>
       </c>
     </row>
     <row r="26">
@@ -21667,19 +21667,19 @@
         <v>140.68</v>
       </c>
       <c r="G26" t="n">
-        <v>-156.6324297459978</v>
+        <v>-283.7204648798142</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26550.432429746</v>
+        <v>26677.52046487981</v>
       </c>
       <c r="J26" t="n">
-        <v>26466.88121331592</v>
+        <v>26523.2444068508</v>
       </c>
       <c r="K26" t="n">
-        <v>26477.35122505622</v>
+        <v>26548.07715286907</v>
       </c>
     </row>
     <row r="27">
@@ -21693,19 +21693,19 @@
         <v>140.58</v>
       </c>
       <c r="G27" t="n">
-        <v>-161.829369031002</v>
+        <v>-293.1688903141549</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26185.029369031</v>
+        <v>26316.36889031416</v>
       </c>
       <c r="J27" t="n">
-        <v>26098.3560461091</v>
+        <v>26156.30929768437</v>
       </c>
       <c r="K27" t="n">
-        <v>26109.87332984087</v>
+        <v>26183.26072867466</v>
       </c>
     </row>
     <row r="28">
@@ -21719,19 +21719,19 @@
         <v>140.48</v>
       </c>
       <c r="G28" t="n">
-        <v>-167.2937803621862</v>
+        <v>-303.1053685688203</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27237.09378036219</v>
+        <v>27372.90536856882</v>
       </c>
       <c r="J28" t="n">
-        <v>27147.12040149632</v>
+        <v>27206.73180097875</v>
       </c>
       <c r="K28" t="n">
-        <v>27159.77338389146</v>
+        <v>27235.97474720103</v>
       </c>
     </row>
     <row r="29">
@@ -21745,19 +21745,19 @@
         <v>140.38</v>
       </c>
       <c r="G29" t="n">
-        <v>-173.044636987488</v>
+        <v>-313.5646337520411</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26334.84463698749</v>
+        <v>26475.36463375204</v>
       </c>
       <c r="J29" t="n">
-        <v>26241.37949823223</v>
+        <v>26302.72106993915</v>
       </c>
       <c r="K29" t="n">
-        <v>26255.26514168162</v>
+        <v>26334.44478953439</v>
       </c>
     </row>
     <row r="30">
@@ -21771,19 +21771,19 @@
         <v>140.28</v>
       </c>
       <c r="G30" t="n">
-        <v>-179.1026495102706</v>
+        <v>-324.5846089251136</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26479.30264951027</v>
+        <v>26624.78460892511</v>
       </c>
       <c r="J30" t="n">
-        <v>26382.13894048109</v>
+        <v>26445.28693079888</v>
       </c>
       <c r="K30" t="n">
-        <v>26397.36370962848</v>
+        <v>26479.698952704</v>
       </c>
     </row>
     <row r="31">
@@ -21797,19 +21797,19 @@
         <v>140.18</v>
       </c>
       <c r="G31" t="n">
-        <v>-185.4904627682772</v>
+        <v>-336.2067680935252</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26364.69046276828</v>
+        <v>26515.40676809353</v>
       </c>
       <c r="J31" t="n">
-        <v>26263.60475243738</v>
+        <v>26328.63994297732</v>
       </c>
       <c r="K31" t="n">
-        <v>26280.28570835068</v>
+        <v>26365.96815151743</v>
       </c>
     </row>
     <row r="32">
@@ -21823,19 +21823,19 @@
         <v>140.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-192.2328795139256</v>
+        <v>-348.4765475012209</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>26144.63287951393</v>
+        <v>26300.87654750122</v>
       </c>
       <c r="J32" t="n">
-        <v>26039.38341662489</v>
+        <v>26106.3914655937</v>
       </c>
       <c r="K32" t="n">
-        <v>26057.64945804922</v>
+        <v>26146.88646334357</v>
       </c>
     </row>
     <row r="33">
@@ -21849,19 +21849,19 @@
         <v>139.98</v>
       </c>
       <c r="G33" t="n">
-        <v>-199.3571151822471</v>
+        <v>-361.4438141060527</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>26022.45711518225</v>
+        <v>26184.54381410605</v>
       </c>
       <c r="J33" t="n">
-        <v>25912.7819163267</v>
+        <v>25981.85373111424</v>
       </c>
       <c r="K33" t="n">
-        <v>25932.77519084498</v>
+        <v>26025.79152294376</v>
       </c>
     </row>
     <row r="34">
@@ -21875,19 +21875,19 @@
         <v>139.88</v>
       </c>
       <c r="G34" t="n">
-        <v>-206.8930888245995</v>
+        <v>-375.1634005656888</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>26003.0930888246</v>
+        <v>26171.36340056569</v>
       </c>
       <c r="J34" t="n">
-        <v>25888.70778266282</v>
+        <v>25959.93992701877</v>
       </c>
       <c r="K34" t="n">
-        <v>25910.58529463438</v>
+        <v>26007.62497579434</v>
       </c>
     </row>
     <row r="35">
@@ -21901,19 +21901,19 @@
         <v>139.78</v>
       </c>
       <c r="G35" t="n">
-        <v>-214.8737562443384</v>
+        <v>-389.695717818362</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>25921.77375624434</v>
+        <v>26096.59571781836</v>
       </c>
       <c r="J35" t="n">
-        <v>25802.36914690532</v>
+        <v>25875.86428649823</v>
       </c>
       <c r="K35" t="n">
-        <v>25826.30459390919</v>
+        <v>25927.63299997363</v>
       </c>
     </row>
     <row r="36">
@@ -21927,19 +21927,19 @@
         <v>139.68</v>
       </c>
       <c r="G36" t="n">
-        <v>-223.3354925344902</v>
+        <v>-405.1074584732814</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>26088.93549253449</v>
+        <v>26270.70745847328</v>
       </c>
       <c r="J36" t="n">
-        <v>25964.17479870689</v>
+        <v>26040.04218934027</v>
       </c>
       <c r="K36" t="n">
-        <v>25990.36067406519</v>
+        <v>26096.26690867107</v>
       </c>
     </row>
     <row r="37">
@@ -21953,19 +21953,19 @@
         <v>139.58</v>
       </c>
       <c r="G37" t="n">
-        <v>-232.3185326376661</v>
+        <v>-421.472406821762</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26382.91853263766</v>
+        <v>26572.07240682176</v>
       </c>
       <c r="J37" t="n">
-        <v>26252.4342510176</v>
+        <v>26330.79027432895</v>
       </c>
       <c r="K37" t="n">
-        <v>26281.08425704436</v>
+        <v>26391.88384780375</v>
       </c>
     </row>
     <row r="38">
@@ -21979,19 +21979,19 @@
         <v>139.48</v>
       </c>
       <c r="G38" t="n">
-        <v>-241.8674802869427</v>
+        <v>-438.8723744564122</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>25852.36748028694</v>
+        <v>26049.37237445641</v>
       </c>
       <c r="J38" t="n">
-        <v>25715.75781258128</v>
+        <v>25796.7265646816</v>
       </c>
       <c r="K38" t="n">
-        <v>25747.10963777861</v>
+        <v>25863.14760620441</v>
       </c>
     </row>
     <row r="39">
@@ -22005,19 +22005,19 @@
         <v>139.38</v>
       </c>
       <c r="G39" t="n">
-        <v>-252.0318978256619</v>
+        <v>-457.3982843875165</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>25866.33189782566</v>
+        <v>26071.69828438752</v>
       </c>
       <c r="J39" t="n">
-        <v>25723.15666903798</v>
+        <v>25806.87060827586</v>
       </c>
       <c r="K39" t="n">
-        <v>25757.47519290592</v>
+        <v>25879.12955951771</v>
       </c>
     </row>
     <row r="40">
@@ -22031,19 +22031,19 @@
         <v>139.28</v>
       </c>
       <c r="G40" t="n">
-        <v>-262.8669920463944</v>
+        <v>-477.1514313602929</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25745.2669920464</v>
+        <v>25959.55143136029</v>
       </c>
       <c r="J40" t="n">
-        <v>25595.04297381827</v>
+        <v>25681.64363468862</v>
       </c>
       <c r="K40" t="n">
-        <v>25632.62397571387</v>
+        <v>25760.30977348642</v>
       </c>
     </row>
     <row r="41">
@@ -22057,19 +22057,19 @@
         <v>139.18</v>
       </c>
       <c r="G41" t="n">
-        <v>-274.4344144691422</v>
+        <v>-498.2449520424016</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>26095.13441446914</v>
+        <v>26318.9449520424</v>
       </c>
       <c r="J41" t="n">
-        <v>25937.3299502013</v>
+        <v>26026.96873138436</v>
       </c>
       <c r="K41" t="n">
-        <v>25978.50441435814</v>
+        <v>26112.67829795987</v>
       </c>
     </row>
     <row r="42">
@@ -22083,19 +22083,19 @@
         <v>139.08</v>
       </c>
       <c r="G42" t="n">
-        <v>-286.8031985692141</v>
+        <v>-520.8055461795193</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25624.70319856922</v>
+        <v>25858.70554617952</v>
       </c>
       <c r="J42" t="n">
-        <v>25458.73200612877</v>
+        <v>25551.57104176119</v>
       </c>
       <c r="K42" t="n">
-        <v>25503.87113427475</v>
+        <v>25645.03669001448</v>
       </c>
     </row>
     <row r="43">
@@ -22109,19 +22109,19 @@
         <v>138.98</v>
       </c>
       <c r="G43" t="n">
-        <v>-300.0508615922772</v>
+        <v>-544.9754991090085</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>25960.45086159228</v>
+        <v>26205.37549910901</v>
       </c>
       <c r="J43" t="n">
-        <v>25785.66486362583</v>
+        <v>25881.87798820039</v>
       </c>
       <c r="K43" t="n">
-        <v>25835.18593057204</v>
+        <v>25983.89981343085</v>
       </c>
     </row>
     <row r="44">
@@ -22135,19 +22135,19 @@
         <v>138.88</v>
       </c>
       <c r="G44" t="n">
-        <v>-314.2647050539563</v>
+        <v>-570.9150677052021</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25444.76470505396</v>
+        <v>25701.4150677052</v>
       </c>
       <c r="J44" t="n">
-        <v>25260.44570498765</v>
+        <v>25360.21952378214</v>
       </c>
       <c r="K44" t="n">
-        <v>25314.81892234108</v>
+        <v>25471.69797293861</v>
       </c>
     </row>
     <row r="45">
@@ -22161,19 +22161,19 @@
         <v>138.78</v>
       </c>
       <c r="G45" t="n">
-        <v>-329.5433562053404</v>
+        <v>-598.8053065952881</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25650.14335620534</v>
+        <v>25919.40530659529</v>
       </c>
       <c r="J45" t="n">
-        <v>25455.49333825488</v>
+        <v>25559.02841694329</v>
       </c>
       <c r="K45" t="n">
-        <v>25515.24992864279</v>
+        <v>25680.97945579289</v>
       </c>
     </row>
     <row r="46">
@@ -22187,19 +22187,19 @@
         <v>138.68</v>
       </c>
       <c r="G46" t="n">
-        <v>-345.9986031728185</v>
+        <v>75.78190308710691</v>
       </c>
       <c r="H46" t="n">
-        <v>24983.9</v>
+        <v>24279.26666666667</v>
       </c>
       <c r="I46" t="n">
-        <v>25329.89860317282</v>
+        <v>24908.11809691289</v>
       </c>
       <c r="J46" t="n">
-        <v>25124.02838493558</v>
+        <v>24526.90724074811</v>
       </c>
       <c r="K46" t="n">
-        <v>25189.77011592201</v>
+        <v>24660.48023794563</v>
       </c>
     </row>
     <row r="47">
@@ -22213,19 +22213,19 @@
         <v>138.58</v>
       </c>
       <c r="G47" t="n">
-        <v>-363.7575898452305</v>
+        <v>76.1164334356472</v>
       </c>
       <c r="H47" t="n">
-        <v>25008</v>
+        <v>24270.59673606777</v>
       </c>
       <c r="I47" t="n">
-        <v>25371.75758984523</v>
+        <v>24931.88356656435</v>
       </c>
       <c r="J47" t="n">
-        <v>25153.6734934503</v>
+        <v>24527.9921420463</v>
       </c>
       <c r="K47" t="n">
-        <v>25226.0839794451</v>
+        <v>24674.49103791459</v>
       </c>
     </row>
     <row r="48">
@@ -22239,19 +22239,19 @@
         <v>138.48</v>
       </c>
       <c r="G48" t="n">
-        <v>-382.9654538167488</v>
+        <v>26.80657731125029</v>
       </c>
       <c r="H48" t="n">
-        <v>24993.3</v>
+        <v>24270.11552277</v>
       </c>
       <c r="I48" t="n">
-        <v>25376.26545381675</v>
+        <v>24966.49342268875</v>
       </c>
       <c r="J48" t="n">
-        <v>25144.85358239867</v>
+        <v>24537.85176772598</v>
       </c>
       <c r="K48" t="n">
-        <v>25224.7117379708</v>
+        <v>24698.76023211993</v>
       </c>
     </row>
     <row r="49">
@@ -22265,19 +22265,19 @@
         <v>138.38</v>
       </c>
       <c r="G49" t="n">
-        <v>-403.788513067142</v>
+        <v>34.74206662172219</v>
       </c>
       <c r="H49" t="n">
-        <v>25038.8</v>
+        <v>24269.62808213724</v>
       </c>
       <c r="I49" t="n">
-        <v>25442.58851306714</v>
+        <v>25004.05793337828</v>
       </c>
       <c r="J49" t="n">
-        <v>25196.59611849325</v>
+        <v>24548.33890305723</v>
       </c>
       <c r="K49" t="n">
-        <v>25284.79224248994</v>
+        <v>24725.35036059772</v>
       </c>
     </row>
     <row r="50">
@@ -22291,19 +22291,19 @@
         <v>138.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-426.41813630053</v>
+        <v>-336.1246273528195</v>
       </c>
       <c r="H50" t="n">
-        <v>24708.8</v>
+        <v>24269.13085242916</v>
       </c>
       <c r="I50" t="n">
-        <v>25135.21813630053</v>
+        <v>25044.92462735282</v>
       </c>
       <c r="J50" t="n">
-        <v>24873.2314349082</v>
+        <v>24559.50265838537</v>
       </c>
       <c r="K50" t="n">
-        <v>24970.78652820715</v>
+        <v>24754.55628212683</v>
       </c>
     </row>
     <row r="51">
@@ -22317,19 +22317,19 @@
         <v>138.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-451.0754703486782</v>
+        <v>-392.7036844257163</v>
       </c>
       <c r="H51" t="n">
-        <v>24696.9</v>
+        <v>24268.72843941786</v>
       </c>
       <c r="I51" t="n">
-        <v>25147.97547034868</v>
+        <v>25089.60368442572</v>
       </c>
       <c r="J51" t="n">
-        <v>24868.39309688198</v>
+        <v>24571.50587836198</v>
       </c>
       <c r="K51" t="n">
-        <v>24976.48217633138</v>
+        <v>24786.82994013768</v>
       </c>
     </row>
     <row r="52">
@@ -22343,19 +22343,19 @@
         <v>138.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-478.0172490776786</v>
+        <v>-475.0839037351798</v>
       </c>
       <c r="H52" t="n">
-        <v>24663.5</v>
+        <v>24268.43903021374</v>
       </c>
       <c r="I52" t="n">
-        <v>25141.51724907768</v>
+        <v>25138.58390373518</v>
       </c>
       <c r="J52" t="n">
-        <v>24842.51832273874</v>
+        <v>24584.43127407206</v>
       </c>
       <c r="K52" t="n">
-        <v>24962.49870194838</v>
+        <v>24822.5956127132</v>
       </c>
     </row>
     <row r="53">
@@ -22369,19 +22369,19 @@
         <v>137.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-507.5429764346154</v>
+        <v>-536.3158329654871</v>
       </c>
       <c r="H53" t="n">
-        <v>24656</v>
+        <v>24268.16449751587</v>
       </c>
       <c r="I53" t="n">
-        <v>25163.54297643462</v>
+        <v>25192.31583296549</v>
       </c>
       <c r="J53" t="n">
-        <v>24843.04847011072</v>
+        <v>24598.25235560997</v>
       </c>
       <c r="K53" t="n">
-        <v>24976.49425082906</v>
+        <v>24862.23221357238</v>
       </c>
     </row>
     <row r="54">
@@ -22395,19 +22395,19 @@
         <v>137.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-540.0038681573133</v>
+        <v>-668.4410996875631</v>
       </c>
       <c r="H54" t="n">
-        <v>24583</v>
+        <v>24267.90354261339</v>
       </c>
       <c r="I54" t="n">
-        <v>25123.00386815731</v>
+        <v>25251.44109968756</v>
       </c>
       <c r="J54" t="n">
-        <v>24778.62959912295</v>
+        <v>24613.04753302859</v>
       </c>
       <c r="K54" t="n">
-        <v>24927.37397793446</v>
+        <v>24906.30166557264</v>
       </c>
     </row>
     <row r="55">
@@ -22421,19 +22421,19 @@
         <v>137.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-575.8140615609482</v>
+        <v>-1040.131183722209</v>
       </c>
       <c r="H55" t="n">
-        <v>24276.6</v>
+        <v>24267.67016361184</v>
       </c>
       <c r="I55" t="n">
-        <v>24852.41406156095</v>
+        <v>25316.73118372221</v>
       </c>
       <c r="J55" t="n">
-        <v>24481.41312673508</v>
+        <v>24628.91969573027</v>
       </c>
       <c r="K55" t="n">
-        <v>24647.60060283514</v>
+        <v>24955.4865620468</v>
       </c>
     </row>
     <row r="56">
@@ -22447,19 +22447,19 @@
         <v>137.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-615.4647742894558</v>
+        <v>-582.7809912688608</v>
       </c>
       <c r="H56" t="n">
-        <v>24806.4</v>
+        <v>24267.5614041612</v>
       </c>
       <c r="I56" t="n">
-        <v>25421.86477428946</v>
+        <v>25389.18099126886</v>
       </c>
       <c r="J56" t="n">
-        <v>25021.05658943832</v>
+        <v>24646.06525408752</v>
       </c>
       <c r="K56" t="n">
-        <v>25207.20780573309</v>
+        <v>25010.68244821588</v>
       </c>
     </row>
     <row r="57">
@@ -22473,19 +22473,19 @@
         <v>137.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-213.812331797777</v>
+        <v>-230.6609243262574</v>
       </c>
       <c r="H57" t="n">
-        <v>24793.27</v>
+        <v>24267.37573543593</v>
       </c>
       <c r="I57" t="n">
-        <v>25452.81233179778</v>
+        <v>25469.66092432626</v>
       </c>
       <c r="J57" t="n">
-        <v>25018.49453522931</v>
+        <v>24664.3940306315</v>
       </c>
       <c r="K57" t="n">
-        <v>25227.58736292824</v>
+        <v>25072.64838163305</v>
       </c>
     </row>
     <row r="58">
@@ -22499,19 +22499,19 @@
         <v>137.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-840.2913260155001</v>
+        <v>-902.9221103615855</v>
       </c>
       <c r="H58" t="n">
-        <v>24787.84</v>
+        <v>24266.87219964616</v>
       </c>
       <c r="I58" t="n">
-        <v>25496.5913260155</v>
+        <v>25559.22211036158</v>
       </c>
       <c r="J58" t="n">
-        <v>25024.42957042011</v>
+        <v>24683.79017121546</v>
       </c>
       <c r="K58" t="n">
-        <v>25260.0012586179</v>
+        <v>25142.31039451995</v>
       </c>
     </row>
     <row r="59">
@@ -22525,19 +22525,19 @@
         <v>137.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-1067.184695997315</v>
+        <v>-1175.314975035089</v>
       </c>
       <c r="H59" t="n">
-        <v>24787.74</v>
+        <v>24266.42054387253</v>
       </c>
       <c r="I59" t="n">
-        <v>25551.68469599732</v>
+        <v>25659.81497503509</v>
       </c>
       <c r="J59" t="n">
-        <v>25036.57359264644</v>
+        <v>24704.76435647314</v>
       </c>
       <c r="K59" t="n">
-        <v>25302.85053246762</v>
+        <v>25221.47798934589</v>
       </c>
     </row>
     <row r="60">
@@ -22551,19 +22551,19 @@
         <v>137.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-505.8334761672522</v>
+        <v>-665.4182678102625</v>
       </c>
       <c r="H60" t="n">
-        <v>24787.87</v>
+        <v>24266.21636391018</v>
       </c>
       <c r="I60" t="n">
-        <v>25614.03347616725</v>
+        <v>25773.61826781026</v>
       </c>
       <c r="J60" t="n">
-        <v>25049.91924873437</v>
+        <v>24727.67139655773</v>
       </c>
       <c r="K60" t="n">
-        <v>25351.98356989358</v>
+        <v>25312.17071434627</v>
       </c>
     </row>
     <row r="61">
@@ -22577,19 +22577,19 @@
         <v>137.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-728.3611452782534</v>
+        <v>-946.6314490976656</v>
       </c>
       <c r="H61" t="n">
-        <v>24787.87</v>
+        <v>24265.86106008803</v>
       </c>
       <c r="I61" t="n">
-        <v>25684.56114527825</v>
+        <v>25902.83144909767</v>
       </c>
       <c r="J61" t="n">
-        <v>25064.21166530986</v>
+        <v>24752.2930892424</v>
       </c>
       <c r="K61" t="n">
-        <v>25408.21872028111</v>
+        <v>25416.40764989552</v>
       </c>
     </row>
     <row r="62">
@@ -22603,19 +22603,19 @@
         <v>137.08</v>
       </c>
       <c r="G62" t="n">
-        <v>-659.35360250952</v>
+        <v>-945.5895853061265</v>
       </c>
       <c r="H62" t="n">
-        <v>24787.72</v>
+        <v>24265.34975896525</v>
       </c>
       <c r="I62" t="n">
-        <v>25764.85360250952</v>
+        <v>26051.08958530613</v>
       </c>
       <c r="J62" t="n">
-        <v>25079.55051175861</v>
+        <v>24778.829592138</v>
       </c>
       <c r="K62" t="n">
-        <v>25473.02220992573</v>
+        <v>25537.6188560904</v>
       </c>
     </row>
     <row r="63">
@@ -22629,19 +22629,19 @@
         <v>136.98</v>
       </c>
       <c r="G63" t="n">
-        <v>68.97607271560628</v>
+        <v>-298.002893539433</v>
       </c>
       <c r="H63" t="n">
-        <v>24787.57</v>
+        <v>24264.83547033734</v>
       </c>
       <c r="I63" t="n">
-        <v>25857.12392728439</v>
+        <v>26224.10289353943</v>
       </c>
       <c r="J63" t="n">
-        <v>25096.22247012538</v>
+        <v>24807.66769913946</v>
       </c>
       <c r="K63" t="n">
-        <v>25548.47043161503</v>
+        <v>25681.28080428822</v>
       </c>
     </row>
     <row r="64">
@@ -22655,19 +22655,19 @@
         <v>136.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-129.4830141715793</v>
+        <v>-596.3742627470929</v>
       </c>
       <c r="H64" t="n">
-        <v>24787.14</v>
+        <v>24263.99772715311</v>
       </c>
       <c r="I64" t="n">
-        <v>25963.88301417158</v>
+        <v>26430.77426274709</v>
       </c>
       <c r="J64" t="n">
-        <v>25114.10420580053</v>
+        <v>24838.75441983809</v>
       </c>
       <c r="K64" t="n">
-        <v>25636.91760815596</v>
+        <v>25856.02897133622</v>
       </c>
     </row>
     <row r="65">
@@ -22681,19 +22681,19 @@
         <v>136.78</v>
       </c>
       <c r="G65" t="n">
-        <v>239.177686738607</v>
+        <v>-358.87218837818</v>
       </c>
       <c r="H65" t="n">
-        <v>24786.48</v>
+        <v>24262.91721385765</v>
       </c>
       <c r="I65" t="n">
-        <v>26089.32231326139</v>
+        <v>26687.37218837818</v>
       </c>
       <c r="J65" t="n">
-        <v>25133.42595775014</v>
+        <v>24872.47755770869</v>
       </c>
       <c r="K65" t="n">
-        <v>25742.37494092048</v>
+        <v>26077.82484812009</v>
       </c>
     </row>
     <row r="66">
@@ -22707,19 +22707,19 @@
         <v>136.68</v>
       </c>
       <c r="G66" t="n">
-        <v>520.1474496745977</v>
+        <v>-262.1912957378263</v>
       </c>
       <c r="H66" t="n">
-        <v>24785.71</v>
+        <v>24261.69911272375</v>
       </c>
       <c r="I66" t="n">
-        <v>26240.5525503254</v>
+        <v>27022.89129573783</v>
       </c>
       <c r="J66" t="n">
-        <v>25154.51589946801</v>
+        <v>24909.2962575657</v>
       </c>
       <c r="K66" t="n">
-        <v>25871.74496517751</v>
+        <v>26375.30930311094</v>
       </c>
     </row>
     <row r="67">
@@ -22733,19 +22733,19 @@
         <v>136.58</v>
       </c>
       <c r="G67" t="n">
-        <v>624.8797408173123</v>
+        <v>-432.1530169218822</v>
       </c>
       <c r="H67" t="n">
-        <v>24784.65</v>
+        <v>24260.17123390361</v>
       </c>
       <c r="I67" t="n">
-        <v>26430.72025918269</v>
+        <v>27487.75301692188</v>
       </c>
       <c r="J67" t="n">
-        <v>25177.43546431353</v>
+        <v>24949.44789485205</v>
       </c>
       <c r="K67" t="n">
-        <v>26037.93274807715</v>
+        <v>26798.49456491139</v>
       </c>
     </row>
     <row r="68">
@@ -22759,19 +22759,19 @@
         <v>136.48</v>
       </c>
       <c r="G68" t="n">
-        <v>1262.074543058287</v>
+        <v>-217.5803986307801</v>
       </c>
       <c r="H68" t="n">
-        <v>24783.38</v>
+        <v>24258.39649102921</v>
       </c>
       <c r="I68" t="n">
-        <v>26687.02545694171</v>
+        <v>28166.68039863078</v>
       </c>
       <c r="J68" t="n">
-        <v>25202.54588496215</v>
+        <v>24993.4712617816</v>
       </c>
       <c r="K68" t="n">
-        <v>26267.85700506934</v>
+        <v>27431.62840858764</v>
       </c>
     </row>
     <row r="69">
@@ -22785,19 +22785,19 @@
         <v>136.38</v>
       </c>
       <c r="G69" t="n">
-        <v>1653.495803802398</v>
+        <v>-474.3437010405396</v>
       </c>
       <c r="H69" t="n">
-        <v>24781.75</v>
+        <v>24256.21957606118</v>
       </c>
       <c r="I69" t="n">
-        <v>27064.4041961976</v>
+        <v>29192.24370104054</v>
       </c>
       <c r="J69" t="n">
-        <v>25230.02627121758</v>
+        <v>25041.76641141674</v>
       </c>
       <c r="K69" t="n">
-        <v>26616.12453744821</v>
+        <v>28406.7266861544</v>
       </c>
     </row>
     <row r="70">
@@ -22811,19 +22811,19 @@
         <v>136.28</v>
       </c>
       <c r="G70" t="n">
-        <v>3048.741277079807</v>
+        <v>-38.38701688474976</v>
       </c>
       <c r="H70" t="n">
-        <v>24779.61</v>
+        <v>24253.47627788911</v>
       </c>
       <c r="I70" t="n">
-        <v>27668.85872292019</v>
+        <v>30755.98701688475</v>
       </c>
       <c r="J70" t="n">
-        <v>25260.11365025705</v>
+        <v>25094.82026473033</v>
       </c>
       <c r="K70" t="n">
-        <v>27188.35028992937</v>
+        <v>29914.6837357951</v>
       </c>
     </row>
     <row r="71">
@@ -22837,19 +22837,19 @@
         <v>136.18</v>
       </c>
       <c r="G71" t="n">
-        <v>4092.107172393193</v>
+        <v>-328.106517867127</v>
       </c>
       <c r="H71" t="n">
-        <v>24776.63</v>
+        <v>24249.79091213277</v>
       </c>
       <c r="I71" t="n">
-        <v>28687.69282760681</v>
+        <v>33107.90651786713</v>
       </c>
       <c r="J71" t="n">
-        <v>25292.93552817408</v>
+        <v>25153.02432006955</v>
       </c>
       <c r="K71" t="n">
-        <v>28171.38006116985</v>
+        <v>32204.7303461613</v>
       </c>
     </row>
     <row r="72">
@@ -22863,19 +22863,19 @@
         <v>136.08</v>
       </c>
       <c r="G72" t="n">
-        <v>6133.153740292481</v>
+        <v>15.2054471838419</v>
       </c>
       <c r="H72" t="n">
-        <v>24772.42</v>
+        <v>24244.71838881297</v>
       </c>
       <c r="I72" t="n">
-        <v>30416.94625970752</v>
+        <v>36534.89455281616</v>
       </c>
       <c r="J72" t="n">
-        <v>25328.64571527792</v>
+        <v>25216.84217392903</v>
       </c>
       <c r="K72" t="n">
-        <v>29860.70902189286</v>
+        <v>35562.85224478443</v>
       </c>
     </row>
     <row r="73">
@@ -22889,19 +22889,19 @@
         <v>135.98</v>
       </c>
       <c r="G73" t="n">
-        <v>8057.774512221367</v>
+        <v>10.98983901194879</v>
       </c>
       <c r="H73" t="n">
-        <v>24766.42</v>
+        <v>24237.63967018666</v>
       </c>
       <c r="I73" t="n">
-        <v>33262.72548777863</v>
+        <v>41309.51016098805</v>
       </c>
       <c r="J73" t="n">
-        <v>25367.33441019013</v>
+        <v>25286.73729875178</v>
       </c>
       <c r="K73" t="n">
-        <v>32661.79238730944</v>
+        <v>40260.5279225381</v>
       </c>
     </row>
     <row r="74">
@@ -22915,19 +22915,19 @@
         <v>135.88</v>
       </c>
       <c r="G74" t="n">
-        <v>9683.181160550834</v>
+        <v>-240.486087600977</v>
       </c>
       <c r="H74" t="n">
-        <v>24757.78</v>
+        <v>24227.61826560828</v>
       </c>
       <c r="I74" t="n">
-        <v>37685.51883944916</v>
+        <v>47609.18608760097</v>
       </c>
       <c r="J74" t="n">
-        <v>25408.93389033406</v>
+        <v>25363.07140998605</v>
       </c>
       <c r="K74" t="n">
-        <v>37034.33501135988</v>
+        <v>46473.89319514461</v>
       </c>
     </row>
     <row r="75">
@@ -22941,19 +22941,19 @@
         <v>135.78</v>
       </c>
       <c r="G75" t="n">
-        <v>11479.06558485878</v>
+        <v>125.6691488157085</v>
       </c>
       <c r="H75" t="n">
-        <v>24745.77</v>
+        <v>24213.82027477426</v>
       </c>
       <c r="I75" t="n">
-        <v>44065.23441514123</v>
+        <v>55418.63085118429</v>
       </c>
       <c r="J75" t="n">
-        <v>25453.66166323259</v>
+        <v>25446.58085880724</v>
       </c>
       <c r="K75" t="n">
-        <v>43357.29650165702</v>
+        <v>54186.08621387219</v>
       </c>
     </row>
     <row r="76">
@@ -22967,19 +22967,19 @@
         <v>135.68</v>
       </c>
       <c r="G76" t="n">
-        <v>10895.72752791201</v>
+        <v>-1044.273110955946</v>
       </c>
       <c r="H76" t="n">
-        <v>24729.31</v>
+        <v>24195.0424483002</v>
       </c>
       <c r="I76" t="n">
-        <v>52496.17247208799</v>
+        <v>64436.17311095595</v>
       </c>
       <c r="J76" t="n">
-        <v>25501.59371646691</v>
+        <v>25537.98592480601</v>
       </c>
       <c r="K76" t="n">
-        <v>51723.82088619232</v>
+        <v>63093.50992830192</v>
       </c>
     </row>
     <row r="77">
@@ -22993,19 +22993,19 @@
         <v>135.58</v>
       </c>
       <c r="G77" t="n">
-        <v>11102.19104225641</v>
+        <v>-333.9010530837113</v>
       </c>
       <c r="H77" t="n">
-        <v>24707.74</v>
+        <v>24170.56926247515</v>
       </c>
       <c r="I77" t="n">
-        <v>62571.70895774358</v>
+        <v>74007.80105308371</v>
       </c>
       <c r="J77" t="n">
-        <v>25553.49192469826</v>
+        <v>25638.97789138934</v>
       </c>
       <c r="K77" t="n">
-        <v>61725.86330245735</v>
+        <v>72539.74098919696</v>
       </c>
     </row>
     <row r="78">
@@ -23019,19 +23019,19 @@
         <v>135.48</v>
       </c>
       <c r="G78" t="n">
-        <v>10280.89930837728</v>
+        <v>419.6849089021271</v>
       </c>
       <c r="H78" t="n">
-        <v>24680.31</v>
+        <v>24139.55535317079</v>
       </c>
       <c r="I78" t="n">
-        <v>73238.30069162272</v>
+        <v>83099.51509109787</v>
       </c>
       <c r="J78" t="n">
-        <v>25610.37293796627</v>
+        <v>25751.83581697066</v>
       </c>
       <c r="K78" t="n">
-        <v>72308.11667008666</v>
+        <v>81487.64791501428</v>
       </c>
     </row>
     <row r="79">
@@ -23045,19 +23045,19 @@
         <v>135.38</v>
       </c>
       <c r="G79" t="n">
-        <v>8515.992764648472</v>
+        <v>954.9103250145999</v>
       </c>
       <c r="H79" t="n">
-        <v>24646.44</v>
+        <v>24101.36449068717</v>
       </c>
       <c r="I79" t="n">
-        <v>82785.70723535153</v>
+        <v>90346.7896749854</v>
       </c>
       <c r="J79" t="n">
-        <v>25673.88499330872</v>
+        <v>25880.22868716476</v>
       </c>
       <c r="K79" t="n">
-        <v>81758.11677608042</v>
+        <v>88568.3900744483</v>
       </c>
     </row>
     <row r="80">
@@ -23071,19 +23071,19 @@
         <v>135.28</v>
       </c>
       <c r="G80" t="n">
-        <v>4785.489860374015</v>
+        <v>-448.2646820274531</v>
       </c>
       <c r="H80" t="n">
-        <v>24607.12</v>
+        <v>24057.11422926274</v>
       </c>
       <c r="I80" t="n">
-        <v>89077.61013962599</v>
+        <v>94311.36468202746</v>
       </c>
       <c r="J80" t="n">
-        <v>25747.90625100891</v>
+        <v>26031.71213236988</v>
       </c>
       <c r="K80" t="n">
-        <v>87936.66259005821</v>
+        <v>92337.25884266369</v>
       </c>
     </row>
     <row r="81">
@@ -23097,19 +23097,19 @@
         <v>135.18</v>
       </c>
       <c r="G81" t="n">
-        <v>4574.634539979059</v>
+        <v>809.115553890384</v>
       </c>
       <c r="H81" t="n">
-        <v>24564.75</v>
+        <v>24009.49022922284</v>
       </c>
       <c r="I81" t="n">
-        <v>90293.86546002094</v>
+        <v>94059.38444610962</v>
       </c>
       <c r="J81" t="n">
-        <v>25838.78609134764</v>
+        <v>26219.47797009807</v>
       </c>
       <c r="K81" t="n">
-        <v>89019.66555333097</v>
+        <v>91849.88556622883</v>
       </c>
     </row>
     <row r="82">
@@ -23123,19 +23123,19 @@
         <v>135.08</v>
       </c>
       <c r="G82" t="n">
-        <v>3421.595467541745</v>
+        <v>-239.2863041538221</v>
       </c>
       <c r="H82" t="n">
-        <v>24521.76</v>
+        <v>23961.17823651893</v>
       </c>
       <c r="I82" t="n">
-        <v>86067.30453245825</v>
+        <v>89728.18630415382</v>
       </c>
       <c r="J82" t="n">
-        <v>25954.89337816945</v>
+        <v>26464.53754670743</v>
       </c>
       <c r="K82" t="n">
-        <v>84634.0191337569</v>
+        <v>87225.28281794238</v>
       </c>
     </row>
     <row r="83">
@@ -23149,19 +23149,19 @@
         <v>134.98</v>
       </c>
       <c r="G83" t="n">
-        <v>3874.851737302597</v>
+        <v>-800.4941224317445</v>
       </c>
       <c r="H83" t="n">
-        <v>24480.96</v>
+        <v>23915.3066026128</v>
       </c>
       <c r="I83" t="n">
-        <v>77780.8482626974</v>
+        <v>82456.19412243174</v>
       </c>
       <c r="J83" t="n">
-        <v>26109.20688344545</v>
+        <v>26802.92599587788</v>
       </c>
       <c r="K83" t="n">
-        <v>76152.47193104547</v>
+        <v>79568.97562618672</v>
       </c>
     </row>
     <row r="84">
@@ -23175,19 +23175,19 @@
         <v>134.88</v>
       </c>
       <c r="G84" t="n">
-        <v>5263.453035629092</v>
+        <v>-910.3065523035766</v>
       </c>
       <c r="H84" t="n">
-        <v>24444.82</v>
+        <v>23874.62060459255</v>
       </c>
       <c r="I84" t="n">
-        <v>67597.64696437091</v>
+        <v>73771.40655230358</v>
       </c>
       <c r="J84" t="n">
-        <v>26323.81450207759</v>
+        <v>27295.96963063289</v>
       </c>
       <c r="K84" t="n">
-        <v>65718.55085209172</v>
+        <v>70350.39217390463</v>
       </c>
     </row>
     <row r="85">
@@ -23201,19 +23201,19 @@
         <v>134.78</v>
       </c>
       <c r="G85" t="n">
-        <v>7737.486084247263</v>
+        <v>140.1619977827868</v>
       </c>
       <c r="H85" t="n">
-        <v>24414.04</v>
+        <v>23839.91390638598</v>
       </c>
       <c r="I85" t="n">
-        <v>57490.51391575274</v>
+        <v>65087.83800221721</v>
       </c>
       <c r="J85" t="n">
-        <v>26639.65439967579</v>
+        <v>28044.86469063379</v>
       </c>
       <c r="K85" t="n">
-        <v>55264.8261059651</v>
+        <v>60883.1537462831</v>
       </c>
     </row>
     <row r="86">
@@ -23227,19 +23227,19 @@
         <v>134.68</v>
       </c>
       <c r="G86" t="n">
-        <v>8957.917240185634</v>
+        <v>297.0852744690856</v>
       </c>
       <c r="H86" t="n">
-        <v>24388.37</v>
+        <v>23810.8947209701</v>
       </c>
       <c r="I86" t="n">
-        <v>48867.08275981437</v>
+        <v>57527.91472553091</v>
       </c>
       <c r="J86" t="n">
-        <v>27138.57116243066</v>
+        <v>29211.51040907225</v>
       </c>
       <c r="K86" t="n">
-        <v>46116.83355279429</v>
+        <v>52127.50248034927</v>
       </c>
     </row>
     <row r="87">
@@ -23253,19 +23253,19 @@
         <v>134.58</v>
       </c>
       <c r="G87" t="n">
-        <v>10164.7160172049</v>
+        <v>790.0524703199771</v>
       </c>
       <c r="H87" t="n">
-        <v>24367.17</v>
+        <v>23786.85354710593</v>
       </c>
       <c r="I87" t="n">
-        <v>42540.4839827951</v>
+        <v>51915.14752968002</v>
       </c>
       <c r="J87" t="n">
-        <v>27978.49375647372</v>
+        <v>31038.00755892611</v>
       </c>
       <c r="K87" t="n">
-        <v>38929.13349794877</v>
+        <v>44664.1430686315</v>
       </c>
     </row>
     <row r="88">
@@ -23279,19 +23279,19 @@
         <v>134.48</v>
       </c>
       <c r="G88" t="n">
-        <v>10639.47550269544</v>
+        <v>694.1590207966437</v>
       </c>
       <c r="H88" t="n">
-        <v>24349.39</v>
+        <v>23766.62254641343</v>
       </c>
       <c r="I88" t="n">
-        <v>38872.92449730456</v>
+        <v>48818.24097920336</v>
       </c>
       <c r="J88" t="n">
-        <v>29438.99704250679</v>
+        <v>33854.37404891378</v>
       </c>
       <c r="K88" t="n">
-        <v>33783.30864641229</v>
+        <v>38730.59600467066</v>
       </c>
     </row>
     <row r="89">
@@ -23305,19 +23305,19 @@
         <v>134.38</v>
       </c>
       <c r="G89" t="n">
-        <v>11305.50230455114</v>
+        <v>712.4446502949941</v>
       </c>
       <c r="H89" t="n">
-        <v>24333.58</v>
+        <v>23748.59198887889</v>
       </c>
       <c r="I89" t="n">
-        <v>38014.09769544886</v>
+        <v>48607.155349705</v>
       </c>
       <c r="J89" t="n">
-        <v>31962.23930436466</v>
+        <v>38061.13300739953</v>
       </c>
       <c r="K89" t="n">
-        <v>30385.44623999967</v>
+        <v>34294.6884307342</v>
       </c>
     </row>
     <row r="90">
@@ -23331,19 +23331,19 @@
         <v>134.28</v>
       </c>
       <c r="G90" t="n">
-        <v>12588.61193347346</v>
+        <v>1217.652575671607</v>
       </c>
       <c r="H90" t="n">
-        <v>24317.98</v>
+        <v>23730.78637919238</v>
       </c>
       <c r="I90" t="n">
-        <v>40121.88806652654</v>
+        <v>51492.84742432839</v>
       </c>
       <c r="J90" t="n">
-        <v>36155.18220386736</v>
+        <v>44072.88424501078</v>
       </c>
       <c r="K90" t="n">
-        <v>28284.71215814159</v>
+        <v>31150.80029911123</v>
       </c>
     </row>
     <row r="91">
@@ -23357,19 +23357,19 @@
         <v>134.18</v>
       </c>
       <c r="G91" t="n">
-        <v>11057.55804419371</v>
+        <v>-1018.542652055869</v>
       </c>
       <c r="H91" t="n">
-        <v>24300.85</v>
+        <v>23711.26659516591</v>
       </c>
       <c r="I91" t="n">
-        <v>45446.34195580629</v>
+        <v>57522.44265205587</v>
       </c>
       <c r="J91" t="n">
-        <v>42706.57640626142</v>
+        <v>52217.31744920356</v>
       </c>
       <c r="K91" t="n">
-        <v>27040.66535877576</v>
+        <v>29016.4261813831</v>
       </c>
     </row>
     <row r="92">
@@ -23383,19 +23383,19 @@
         <v>134.08</v>
       </c>
       <c r="G92" t="n">
-        <v>12007.34356013157</v>
+        <v>-298.4727983798948</v>
       </c>
       <c r="H92" t="n">
-        <v>24280.58</v>
+        <v>23688.24477740759</v>
       </c>
       <c r="I92" t="n">
-        <v>54212.85643986843</v>
+        <v>66518.67279837989</v>
       </c>
       <c r="J92" t="n">
-        <v>52184.06468893807</v>
+        <v>62599.3093526244</v>
       </c>
       <c r="K92" t="n">
-        <v>26309.45279289301</v>
+        <v>27607.63120211365</v>
       </c>
     </row>
     <row r="93">
@@ -23409,19 +23409,19 @@
         <v>133.98</v>
       </c>
       <c r="G93" t="n">
-        <v>10418.73168573197</v>
+        <v>-1230.028411335763</v>
       </c>
       <c r="H93" t="n">
-        <v>24255.03</v>
+        <v>23659.33643716058</v>
       </c>
       <c r="I93" t="n">
-        <v>66332.36831426804</v>
+        <v>77981.12841133577</v>
       </c>
       <c r="J93" t="n">
-        <v>64726.77320339935</v>
+        <v>74957.25385282602</v>
       </c>
       <c r="K93" t="n">
-        <v>25860.7461354742</v>
+        <v>26683.22583631853</v>
       </c>
     </row>
     <row r="94">
@@ -23435,19 +23435,19 @@
         <v>133.88</v>
       </c>
       <c r="G94" t="n">
-        <v>9657.02134982706</v>
+        <v>-273.3017879428517</v>
       </c>
       <c r="H94" t="n">
-        <v>24222.27</v>
+        <v>23622.40047294605</v>
       </c>
       <c r="I94" t="n">
-        <v>81057.67865017294</v>
+        <v>90988.00178794285</v>
       </c>
       <c r="J94" t="n">
-        <v>79721.99683280398</v>
+        <v>88548.14871889887</v>
       </c>
       <c r="K94" t="n">
-        <v>25558.12003507909</v>
+        <v>26062.26232173021</v>
       </c>
     </row>
     <row r="95">
@@ -23461,19 +23461,19 @@
         <v>133.78</v>
       </c>
       <c r="G95" t="n">
-        <v>5160.095128206376</v>
+        <v>-2234.005892268789</v>
       </c>
       <c r="H95" t="n">
-        <v>24181.34</v>
+        <v>23576.349037702</v>
       </c>
       <c r="I95" t="n">
-        <v>96734.90487179362</v>
+        <v>104129.0058922688</v>
       </c>
       <c r="J95" t="n">
-        <v>95587.72217226357</v>
+        <v>102083.2126717261</v>
       </c>
       <c r="K95" t="n">
-        <v>25328.74061670958</v>
+        <v>25622.14635314</v>
       </c>
     </row>
     <row r="96">
@@ -23487,19 +23487,19 @@
         <v>133.68</v>
       </c>
       <c r="G96" t="n">
-        <v>5037.627026255897</v>
+        <v>292.4749688581651</v>
       </c>
       <c r="H96" t="n">
-        <v>24131.95</v>
+        <v>23520.88382786206</v>
       </c>
       <c r="I96" t="n">
-        <v>110761.3729737441</v>
+        <v>115506.5250311418</v>
       </c>
       <c r="J96" t="n">
-        <v>109757.10268907</v>
+        <v>113741.1019453441</v>
       </c>
       <c r="K96" t="n">
-        <v>25136.48256103069</v>
+        <v>25286.30739699761</v>
       </c>
     </row>
     <row r="97">
@@ -23513,19 +23513,19 @@
         <v>133.58</v>
       </c>
       <c r="G97" t="n">
-        <v>2508.238319247161</v>
+        <v>-520.6218537333916</v>
       </c>
       <c r="H97" t="n">
-        <v>24074.85</v>
+        <v>23456.82798241478</v>
       </c>
       <c r="I97" t="n">
-        <v>119911.7616807528</v>
+        <v>122940.6218537334</v>
       </c>
       <c r="J97" t="n">
-        <v>119022.1893201777</v>
+        <v>121386.8435674175</v>
       </c>
       <c r="K97" t="n">
-        <v>24964.71377459226</v>
+        <v>25010.60417948982</v>
       </c>
     </row>
     <row r="98">
@@ -23539,19 +23539,19 @@
         <v>133.48</v>
       </c>
       <c r="G98" t="n">
-        <v>2464.786897380705</v>
+        <v>-710.6360194476147</v>
       </c>
       <c r="H98" t="n">
-        <v>24013.27</v>
+        <v>23387.77094996308</v>
       </c>
       <c r="I98" t="n">
-        <v>121442.2131026193</v>
+        <v>124617.6360194476</v>
       </c>
       <c r="J98" t="n">
-        <v>120647.8340218842</v>
+        <v>123232.1756122969</v>
       </c>
       <c r="K98" t="n">
-        <v>24807.94596211309</v>
+        <v>24773.22779435893</v>
       </c>
     </row>
     <row r="99">
@@ -23565,19 +23565,19 @@
         <v>133.38</v>
       </c>
       <c r="G99" t="n">
-        <v>6721.409666247884</v>
+        <v>1485.597162367121</v>
       </c>
       <c r="H99" t="n">
-        <v>23950.93</v>
+        <v>23317.84817039809</v>
       </c>
       <c r="I99" t="n">
-        <v>114788.5903337521</v>
+        <v>120024.4028376329</v>
       </c>
       <c r="J99" t="n">
-        <v>114074.7305494668</v>
+        <v>118778.0624544752</v>
       </c>
       <c r="K99" t="n">
-        <v>24665.06673351792</v>
+        <v>24564.18458277292</v>
       </c>
     </row>
     <row r="100">
@@ -23591,19 +23591,19 @@
         <v>133.28</v>
       </c>
       <c r="G100" t="n">
-        <v>10000.47947275442</v>
+        <v>1732.538203689779</v>
       </c>
       <c r="H100" t="n">
-        <v>23891.63</v>
+        <v>23251.27706427683</v>
       </c>
       <c r="I100" t="n">
-        <v>102005.5205272456</v>
+        <v>110273.4617963102</v>
       </c>
       <c r="J100" t="n">
-        <v>101360.5706532065</v>
+        <v>109145.0708173719</v>
       </c>
       <c r="K100" t="n">
-        <v>24536.81785352017</v>
+        <v>24379.66452047916</v>
       </c>
     </row>
     <row r="101">
@@ -23617,19 +23617,19 @@
         <v>133.18</v>
       </c>
       <c r="G101" t="n">
-        <v>11399.18383074032</v>
+        <v>299.0577066347614</v>
       </c>
       <c r="H101" t="n">
-        <v>23839.56</v>
+        <v>23192.70973639133</v>
       </c>
       <c r="I101" t="n">
-        <v>86305.01616925967</v>
+        <v>97405.14229336524</v>
       </c>
       <c r="J101" t="n">
-        <v>85719.54156864621</v>
+        <v>96378.37199812694</v>
       </c>
       <c r="K101" t="n">
-        <v>24425.22450885197</v>
+        <v>24219.47750112756</v>
       </c>
     </row>
     <row r="102">
@@ -23643,19 +23643,19 @@
         <v>133.08</v>
       </c>
       <c r="G102" t="n">
-        <v>12275.04091005051</v>
+        <v>-619.4066308412148</v>
       </c>
       <c r="H102" t="n">
-        <v>23796.98</v>
+        <v>23144.68814635215</v>
       </c>
       <c r="I102" t="n">
-        <v>70584.0590899495</v>
+        <v>83478.50663084122</v>
       </c>
       <c r="J102" t="n">
-        <v>70050.27564842698</v>
+        <v>82540.2087830291</v>
       </c>
       <c r="K102" t="n">
-        <v>24330.9051415469</v>
+        <v>24082.98469757122</v>
       </c>
     </row>
     <row r="103">
@@ -23669,19 +23669,19 @@
         <v>132.98</v>
       </c>
       <c r="G103" t="n">
-        <v>14021.37155440384</v>
+        <v>741.5928337207733</v>
       </c>
       <c r="H103" t="n">
-        <v>23763.37</v>
+        <v>23106.65426004829</v>
       </c>
       <c r="I103" t="n">
-        <v>56828.52844559615</v>
+        <v>70108.30716627922</v>
       </c>
       <c r="J103" t="n">
-        <v>56339.9482836584</v>
+        <v>69247.60761248809</v>
       </c>
       <c r="K103" t="n">
-        <v>24252.04966928912</v>
+        <v>23967.35375686607</v>
       </c>
     </row>
     <row r="104">
@@ -23695,19 +23695,19 @@
         <v>132.88</v>
       </c>
       <c r="G104" t="n">
-        <v>12828.60733589139</v>
+        <v>490.599166789485</v>
       </c>
       <c r="H104" t="n">
-        <v>23737.62</v>
+        <v>23077.38218801484</v>
       </c>
       <c r="I104" t="n">
-        <v>46018.59266410861</v>
+        <v>58356.60083321051</v>
       </c>
       <c r="J104" t="n">
-        <v>45569.76393885198</v>
+        <v>57564.35989312951</v>
       </c>
       <c r="K104" t="n">
-        <v>24186.51509706278</v>
+        <v>23869.62415938352</v>
       </c>
     </row>
     <row r="105">
@@ -23721,19 +23721,19 @@
         <v>132.78</v>
       </c>
       <c r="G105" t="n">
-        <v>9946.257602409358</v>
+        <v>-535.5975089164567</v>
       </c>
       <c r="H105" t="n">
-        <v>23719.07</v>
+        <v>23056.15000669238</v>
       </c>
       <c r="I105" t="n">
-        <v>38276.64239759064</v>
+        <v>48758.49750891646</v>
       </c>
       <c r="J105" t="n">
-        <v>37862.95037883291</v>
+        <v>48026.95365226395</v>
       </c>
       <c r="K105" t="n">
-        <v>24132.80469758468</v>
+        <v>23787.69574867812</v>
       </c>
     </row>
     <row r="106">
@@ -23747,19 +23747,19 @@
         <v>132.68</v>
       </c>
       <c r="G106" t="n">
-        <v>8050.591893963137</v>
+        <v>-195.3476995438614</v>
       </c>
       <c r="H106" t="n">
-        <v>23706.11</v>
+        <v>23041.17569469801</v>
       </c>
       <c r="I106" t="n">
-        <v>33161.90810603686</v>
+        <v>41407.84769954386</v>
       </c>
       <c r="J106" t="n">
-        <v>32779.42040000063</v>
+        <v>40730.36069530147</v>
       </c>
       <c r="K106" t="n">
-        <v>24088.62477975184</v>
+        <v>23718.6651828854</v>
       </c>
     </row>
     <row r="107">
@@ -23773,19 +23773,19 @@
         <v>132.58</v>
       </c>
       <c r="G107" t="n">
-        <v>7103.91908570494</v>
+        <v>1014.376741196109</v>
       </c>
       <c r="H107" t="n">
-        <v>23696.67</v>
+        <v>23030.15004990677</v>
       </c>
       <c r="I107" t="n">
-        <v>29998.48091429506</v>
+        <v>36088.02325880389</v>
       </c>
       <c r="J107" t="n">
-        <v>29643.82592135834</v>
+        <v>35458.87800450102</v>
       </c>
       <c r="K107" t="n">
-        <v>24051.34246801386</v>
+        <v>23659.29815362755</v>
       </c>
     </row>
     <row r="108">
@@ -23799,19 +23799,19 @@
         <v>132.48</v>
       </c>
       <c r="G108" t="n">
-        <v>5665.839917441335</v>
+        <v>1375.151857357534</v>
       </c>
       <c r="H108" t="n">
-        <v>23689.54</v>
+        <v>23021.71087988172</v>
       </c>
       <c r="I108" t="n">
-        <v>28126.96008255867</v>
+        <v>32417.64814264247</v>
       </c>
       <c r="J108" t="n">
-        <v>27797.23078545594</v>
+        <v>31831.89981751545</v>
       </c>
       <c r="K108" t="n">
-        <v>24019.28114648034</v>
+        <v>23607.46223268421</v>
       </c>
     </row>
     <row r="109">
@@ -23825,19 +23825,19 @@
         <v>132.38</v>
       </c>
       <c r="G109" t="n">
-        <v>3659.62282828668</v>
+        <v>717.9045956399677</v>
       </c>
       <c r="H109" t="n">
-        <v>23684.35</v>
+        <v>23015.45607132985</v>
       </c>
       <c r="I109" t="n">
-        <v>27033.47717171332</v>
+        <v>29975.19540436003</v>
       </c>
       <c r="J109" t="n">
-        <v>26726.15427689579</v>
+        <v>29428.54499393664</v>
       </c>
       <c r="K109" t="n">
-        <v>23991.68150508323</v>
+        <v>23562.10955288914</v>
       </c>
     </row>
     <row r="110">
@@ -23851,19 +23851,19 @@
         <v>132.28</v>
       </c>
       <c r="G110" t="n">
-        <v>2924.46676211568</v>
+        <v>918.1144763769626</v>
       </c>
       <c r="H110" t="n">
-        <v>23680.54</v>
+        <v>23010.7376435812</v>
       </c>
       <c r="I110" t="n">
-        <v>26375.03323788432</v>
+        <v>28381.38552362304</v>
       </c>
       <c r="J110" t="n">
-        <v>26087.92316639442</v>
+        <v>27870.07865377862</v>
       </c>
       <c r="K110" t="n">
-        <v>23967.65677171679</v>
+        <v>23522.0475406183</v>
       </c>
     </row>
     <row r="111">
@@ -23877,19 +23877,19 @@
         <v>132.18</v>
       </c>
       <c r="G111" t="n">
-        <v>1754.360196107977</v>
+        <v>364.5336519851335</v>
       </c>
       <c r="H111" t="n">
-        <v>23677.64</v>
+        <v>23007.03805037983</v>
       </c>
       <c r="I111" t="n">
-        <v>25949.23980389202</v>
+        <v>27339.06634801487</v>
       </c>
       <c r="J111" t="n">
-        <v>25680.42418845623</v>
+        <v>26859.81042254122</v>
       </c>
       <c r="K111" t="n">
-        <v>23946.46111160922</v>
+        <v>23486.29690857145</v>
       </c>
     </row>
     <row r="112">
@@ -23903,19 +23903,19 @@
         <v>132.08</v>
       </c>
       <c r="G112" t="n">
-        <v>962.6943767606426</v>
+        <v>-28.30056289857748</v>
       </c>
       <c r="H112" t="n">
-        <v>23675.55</v>
+        <v>23004.24266008168</v>
       </c>
       <c r="I112" t="n">
-        <v>25648.00562323936</v>
+        <v>26639.00056289858</v>
       </c>
       <c r="J112" t="n">
-        <v>25395.79984289108</v>
+        <v>26188.89645963996</v>
       </c>
       <c r="K112" t="n">
-        <v>23927.76044570311</v>
+        <v>23454.34957654734</v>
       </c>
     </row>
     <row r="113">
@@ -23929,19 +23929,19 @@
         <v>131.98</v>
       </c>
       <c r="G113" t="n">
-        <v>364.4351786999287</v>
+        <v>-364.0100308202018</v>
       </c>
       <c r="H113" t="n">
-        <v>23674.03</v>
+        <v>23002.09621081664</v>
       </c>
       <c r="I113" t="n">
-        <v>25417.16482130007</v>
+        <v>26145.6100308202</v>
       </c>
       <c r="J113" t="n">
-        <v>25180.0837314748</v>
+        <v>25722.09547662278</v>
       </c>
       <c r="K113" t="n">
-        <v>23911.11513190745</v>
+        <v>23425.61344956775</v>
       </c>
     </row>
     <row r="114">
@@ -23955,19 +23955,19 @@
         <v>131.88</v>
       </c>
       <c r="G114" t="n">
-        <v>428.6938469923552</v>
+        <v>-117.9511374985887</v>
       </c>
       <c r="H114" t="n">
-        <v>23672.8</v>
+        <v>23000.27392565144</v>
       </c>
       <c r="I114" t="n">
-        <v>25230.20615300765</v>
+        <v>25776.85113749859</v>
       </c>
       <c r="J114" t="n">
-        <v>25006.93560716623</v>
+        <v>25377.65351493757</v>
       </c>
       <c r="K114" t="n">
-        <v>23896.07409202189</v>
+        <v>23399.47410393483</v>
       </c>
     </row>
     <row r="115">
@@ -23981,19 +23981,19 @@
         <v>131.78</v>
       </c>
       <c r="G115" t="n">
-        <v>259.0385750166461</v>
+        <v>-152.8439196473228</v>
       </c>
       <c r="H115" t="n">
-        <v>23671.71</v>
+        <v>22998.60388776983</v>
       </c>
       <c r="I115" t="n">
-        <v>25073.76142498335</v>
+        <v>25485.64391964732</v>
       </c>
       <c r="J115" t="n">
-        <v>24863.13449382208</v>
+        <v>25108.74073614763</v>
       </c>
       <c r="K115" t="n">
-        <v>23882.34006875776</v>
+        <v>23375.5095025123</v>
       </c>
     </row>
     <row r="116">
@@ -24007,19 +24007,19 @@
         <v>131.68</v>
       </c>
       <c r="G116" t="n">
-        <v>167.3216312162513</v>
+        <v>-137.9889494714953</v>
       </c>
       <c r="H116" t="n">
-        <v>23670.78</v>
+        <v>22997.11670792633</v>
       </c>
       <c r="I116" t="n">
-        <v>24940.47836878375</v>
+        <v>25245.78894947149</v>
       </c>
       <c r="J116" t="n">
-        <v>24741.4553907453</v>
+        <v>24889.37456590213</v>
       </c>
       <c r="K116" t="n">
-        <v>23869.80577228675</v>
+        <v>23353.53340457795</v>
       </c>
     </row>
     <row r="117">
@@ -24033,19 +24033,19 @@
         <v>131.58</v>
       </c>
       <c r="G117" t="n">
-        <v>313.2385572265084</v>
+        <v>96.40476015530294</v>
       </c>
       <c r="H117" t="n">
-        <v>23669.91</v>
+        <v>22995.69536887771</v>
       </c>
       <c r="I117" t="n">
-        <v>24825.56144277349</v>
+        <v>25042.3952398447</v>
       </c>
       <c r="J117" t="n">
-        <v>24637.21321344618</v>
+        <v>24704.852739522</v>
       </c>
       <c r="K117" t="n">
-        <v>23858.2607315663</v>
+        <v>23333.24007106022</v>
       </c>
     </row>
     <row r="118">
@@ -24059,19 +24059,19 @@
         <v>131.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-481.0688035468738</v>
+        <v>-622.1630938380913</v>
       </c>
       <c r="H118" t="n">
-        <v>23669.3</v>
+        <v>22994.55862520924</v>
       </c>
       <c r="I118" t="n">
-        <v>24725.86880354687</v>
+        <v>24866.96309383809</v>
       </c>
       <c r="J118" t="n">
-        <v>24547.36234776885</v>
+        <v>24546.84039426616</v>
       </c>
       <c r="K118" t="n">
-        <v>23847.80870755637</v>
+        <v>23314.68342232909</v>
       </c>
     </row>
     <row r="119">
@@ -24085,19 +24085,19 @@
         <v>131.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-615.2251959912574</v>
+        <v>-690.3121216840518</v>
       </c>
       <c r="H119" t="n">
-        <v>23669.02</v>
+        <v>22993.79290818832</v>
       </c>
       <c r="I119" t="n">
-        <v>24638.92519599126</v>
+        <v>24714.01212168405</v>
       </c>
       <c r="J119" t="n">
-        <v>24469.5116743862</v>
+        <v>24410.00160505836</v>
       </c>
       <c r="K119" t="n">
-        <v>23838.4355570767</v>
+        <v>23297.80542465495</v>
       </c>
     </row>
     <row r="120">
@@ -24111,19 +24111,19 @@
         <v>131.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-364.2126393422404</v>
+        <v>-381.1098143708587</v>
       </c>
       <c r="H120" t="n">
-        <v>23668.76</v>
+        <v>22993.04679280318</v>
       </c>
       <c r="I120" t="n">
-        <v>24562.41263934224</v>
+        <v>24579.30981437086</v>
       </c>
       <c r="J120" t="n">
-        <v>24401.41702674051</v>
+        <v>24290.23088990601</v>
       </c>
       <c r="K120" t="n">
-        <v>23829.75746012918</v>
+        <v>23282.12762560055</v>
       </c>
     </row>
     <row r="121">
@@ -24137,19 +24137,19 @@
         <v>131.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-881.4174371632253</v>
+        <v>-846.6610922054715</v>
       </c>
       <c r="H121" t="n">
-        <v>23668.62</v>
+        <v>22992.43582725407</v>
       </c>
       <c r="I121" t="n">
-        <v>24494.81743716323</v>
+        <v>24460.06109220547</v>
       </c>
       <c r="J121" t="n">
-        <v>24341.62967852998</v>
+        <v>24184.84521204595</v>
       </c>
       <c r="K121" t="n">
-        <v>23821.80944195697</v>
+        <v>23267.65353000825</v>
       </c>
     </row>
     <row r="122">
@@ -24163,19 +24163,19 @@
         <v>131.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-730.347755680621</v>
+        <v>-649.5028613425275</v>
       </c>
       <c r="H122" t="n">
-        <v>23668.62</v>
+        <v>22991.98907036496</v>
       </c>
       <c r="I122" t="n">
-        <v>24434.84775568062</v>
+        <v>24354.00286134253</v>
       </c>
       <c r="J122" t="n">
-        <v>24288.91515947069</v>
+        <v>24091.68059849458</v>
       </c>
       <c r="K122" t="n">
-        <v>23814.55413533885</v>
+        <v>23254.31307542318</v>
       </c>
     </row>
     <row r="123">
@@ -24189,19 +24189,19 @@
         <v>130.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-696.8677677887645</v>
+        <v>-574.6909183196149</v>
       </c>
       <c r="H123" t="n">
-        <v>23668.6</v>
+        <v>22991.52039072555</v>
       </c>
       <c r="I123" t="n">
-        <v>24381.26776778877</v>
+        <v>24259.09091831962</v>
       </c>
       <c r="J123" t="n">
-        <v>24242.08844003467</v>
+        <v>24008.78078452384</v>
       </c>
       <c r="K123" t="n">
-        <v>23807.78073965832</v>
+        <v>23241.83219130692</v>
       </c>
     </row>
     <row r="124">
@@ -24215,19 +24215,19 @@
         <v>130.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-631.9184671578005</v>
+        <v>-472.5160304864985</v>
       </c>
       <c r="H124" t="n">
-        <v>23668.59</v>
+        <v>22991.05220069463</v>
       </c>
       <c r="I124" t="n">
-        <v>24333.2184671578</v>
+        <v>24173.8160304865</v>
       </c>
       <c r="J124" t="n">
-        <v>24200.33562440823</v>
+        <v>23934.71476792562</v>
       </c>
       <c r="K124" t="n">
-        <v>23801.47414190594</v>
+        <v>23230.1550592093</v>
       </c>
     </row>
     <row r="125">
@@ -24241,19 +24241,19 @@
         <v>130.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-622.5501075825414</v>
+        <v>-429.5071226502841</v>
       </c>
       <c r="H125" t="n">
-        <v>23668.58</v>
+        <v>22990.58932837403</v>
       </c>
       <c r="I125" t="n">
-        <v>24289.95010758254</v>
+        <v>24096.90712265029</v>
       </c>
       <c r="J125" t="n">
-        <v>24162.94713486715</v>
+        <v>23868.28124869919</v>
       </c>
       <c r="K125" t="n">
-        <v>23795.58417154107</v>
+        <v>23219.21673170063</v>
       </c>
     </row>
     <row r="126">
@@ -24267,19 +24267,19 @@
         <v>130.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-1100.413152360925</v>
+        <v>-876.8697410394598</v>
       </c>
       <c r="H126" t="n">
-        <v>23668.74</v>
+        <v>22990.3082774641</v>
       </c>
       <c r="I126" t="n">
-        <v>24251.01315236092</v>
+        <v>24027.46974103946</v>
       </c>
       <c r="J126" t="n">
-        <v>24129.50929507937</v>
+        <v>23808.64816211477</v>
       </c>
       <c r="K126" t="n">
-        <v>23790.24496648138</v>
+        <v>23209.13132312654</v>
       </c>
     </row>
     <row r="127">
@@ -24293,19 +24293,19 @@
         <v>130.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-495.9955921503388</v>
+        <v>-244.7018055464614</v>
       </c>
       <c r="H127" t="n">
-        <v>23668.88</v>
+        <v>22990.01152328476</v>
       </c>
       <c r="I127" t="n">
-        <v>24215.69559215034</v>
+        <v>23964.40180554646</v>
       </c>
       <c r="J127" t="n">
-        <v>24099.34218926882</v>
+        <v>23754.76934621436</v>
       </c>
       <c r="K127" t="n">
-        <v>23785.23443172827</v>
+        <v>23199.64539036939</v>
       </c>
     </row>
     <row r="128">
@@ -24319,19 +24319,19 @@
         <v>130.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-484.4050888334823</v>
+        <v>-207.768994712671</v>
       </c>
       <c r="H128" t="n">
-        <v>23668.85</v>
+        <v>22989.53300666262</v>
       </c>
       <c r="I128" t="n">
-        <v>24183.40508883348</v>
+        <v>23906.76899471267</v>
       </c>
       <c r="J128" t="n">
-        <v>24071.88226987772</v>
+        <v>23705.76071290671</v>
       </c>
       <c r="K128" t="n">
-        <v>23780.37377551776</v>
+        <v>23190.54264062367</v>
       </c>
     </row>
     <row r="129">
@@ -24345,19 +24345,19 @@
         <v>130.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-581.2848112169559</v>
+        <v>-281.4438478301345</v>
       </c>
       <c r="H129" t="n">
-        <v>23668.87</v>
+        <v>22989.10112895167</v>
       </c>
       <c r="I129" t="n">
-        <v>24153.98481121696</v>
+        <v>23854.14384783014</v>
       </c>
       <c r="J129" t="n">
-        <v>24046.99859194764</v>
+        <v>23661.24002736949</v>
       </c>
       <c r="K129" t="n">
-        <v>23775.85711059662</v>
+        <v>23182.00624911454</v>
       </c>
     </row>
     <row r="130">
@@ -24371,19 +24371,19 @@
         <v>130.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-458.1721185537463</v>
+        <v>-735.8253514816352</v>
       </c>
       <c r="H130" t="n">
-        <v>23070.3</v>
+        <v>22988.87748552632</v>
       </c>
       <c r="I130" t="n">
-        <v>23528.47211855375</v>
+        <v>23806.12535148163</v>
       </c>
       <c r="J130" t="n">
-        <v>23425.75184042621</v>
+        <v>23620.84707989843</v>
       </c>
       <c r="K130" t="n">
-        <v>23173.02111040492</v>
+        <v>23174.15700728007</v>
       </c>
     </row>
     <row r="131">
@@ -24397,19 +24397,19 @@
         <v>130.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-433.4494579478851</v>
+        <v>-500.3249940129244</v>
       </c>
       <c r="H131" t="n">
-        <v>23261.8</v>
+        <v>22988.75837712768</v>
       </c>
       <c r="I131" t="n">
-        <v>23695.24945794788</v>
+        <v>23762.12499401292</v>
       </c>
       <c r="J131" t="n">
-        <v>23596.54552490981</v>
+        <v>23584.03024765663</v>
       </c>
       <c r="K131" t="n">
-        <v>23360.50471171166</v>
+        <v>23166.85432683882</v>
       </c>
     </row>
     <row r="132">
@@ -24423,19 +24423,19 @@
         <v>130.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-410.7069954932485</v>
+        <v>-41.51766844487793</v>
       </c>
       <c r="H132" t="n">
-        <v>23679.9</v>
+        <v>22988.43826975755</v>
       </c>
       <c r="I132" t="n">
-        <v>24090.60699549325</v>
+        <v>23721.41766844488</v>
       </c>
       <c r="J132" t="n">
-        <v>23995.68886869326</v>
+        <v>23550.09783846042</v>
       </c>
       <c r="K132" t="n">
-        <v>23774.81885668251</v>
+        <v>23159.75925880864</v>
       </c>
     </row>
     <row r="133">
@@ -24449,19 +24449,19 @@
         <v>129.98</v>
       </c>
       <c r="G133" t="n">
-        <v>-389.736614620404</v>
+        <v>53.91969539556521</v>
       </c>
       <c r="H133" t="n">
-        <v>23737.6</v>
+        <v>22987.9586872592</v>
       </c>
       <c r="I133" t="n">
-        <v>24127.3366146204</v>
+        <v>23683.68030460443</v>
       </c>
       <c r="J133" t="n">
-        <v>24035.99103145105</v>
+        <v>23518.75710710166</v>
       </c>
       <c r="K133" t="n">
-        <v>23828.94626852811</v>
+        <v>23152.88300189459</v>
       </c>
     </row>
     <row r="134">
@@ -24475,19 +24475,19 @@
         <v>129.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-370.3569997685227</v>
+        <v>-727.7040544929914</v>
       </c>
       <c r="H134" t="n">
-        <v>22921.3</v>
+        <v>22987.72882652525</v>
       </c>
       <c r="I134" t="n">
-        <v>23291.65699976852</v>
+        <v>23649.00405449299</v>
       </c>
       <c r="J134" t="n">
-        <v>23203.68638856105</v>
+        <v>23490.12677637875</v>
       </c>
       <c r="K134" t="n">
-        <v>23009.27125583825</v>
+        <v>23146.6071820329</v>
       </c>
     </row>
     <row r="135">
@@ -24501,19 +24501,19 @@
         <v>129.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-352.4095870526144</v>
+        <v>-400.7351967131908</v>
       </c>
       <c r="H135" t="n">
-        <v>23216.3</v>
+        <v>22987.67342379733</v>
       </c>
       <c r="I135" t="n">
-        <v>23568.70958705261</v>
+        <v>23617.03519671319</v>
       </c>
       <c r="J135" t="n">
-        <v>23483.93065284831</v>
+        <v>23463.87823551875</v>
       </c>
       <c r="K135" t="n">
-        <v>23301.07954149365</v>
+        <v>23140.83142469412</v>
       </c>
     </row>
     <row r="136">
@@ -24527,19 +24527,19 @@
         <v>129.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-335.7552116738916</v>
+        <v>-480.894578359319</v>
       </c>
       <c r="H136" t="n">
-        <v>23106.4</v>
+        <v>22987.55797460081</v>
       </c>
       <c r="I136" t="n">
-        <v>23442.15521167389</v>
+        <v>23587.29457835932</v>
       </c>
       <c r="J136" t="n">
-        <v>23360.39767195547</v>
+        <v>23439.55524018787</v>
       </c>
       <c r="K136" t="n">
-        <v>23188.15811269652</v>
+        <v>23135.29831669661</v>
       </c>
     </row>
     <row r="137">
@@ -24553,19 +24553,19 @@
         <v>129.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-320.2713184531422</v>
+        <v>-339.4247604492775</v>
       </c>
       <c r="H137" t="n">
-        <v>23220.2</v>
+        <v>22987.44069738006</v>
       </c>
       <c r="I137" t="n">
-        <v>23540.47131845314</v>
+        <v>23559.62476044928</v>
       </c>
       <c r="J137" t="n">
-        <v>23461.57677064121</v>
+        <v>23417.02128507237</v>
       </c>
       <c r="K137" t="n">
-        <v>23299.09508919746</v>
+        <v>23130.04514269186</v>
       </c>
     </row>
     <row r="138">
@@ -24579,19 +24579,19 @@
         <v>129.48</v>
       </c>
       <c r="G138" t="n">
-        <v>-305.8496299700018</v>
+        <v>560.0903615948373</v>
       </c>
       <c r="H138" t="n">
-        <v>24093.6</v>
+        <v>22986.99618993334</v>
       </c>
       <c r="I138" t="n">
-        <v>24399.44962997</v>
+        <v>23533.50963840516</v>
       </c>
       <c r="J138" t="n">
-        <v>24323.27053496516</v>
+        <v>23395.77942470178</v>
       </c>
       <c r="K138" t="n">
-        <v>24169.77960724342</v>
+        <v>23124.72734125584</v>
       </c>
     </row>
     <row r="139">
@@ -24605,19 +24605,19 @@
         <v>129.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-292.3941884929918</v>
+        <v>-1129.78328159895</v>
       </c>
       <c r="H139" t="n">
-        <v>22379.6</v>
+        <v>22986.82766424902</v>
       </c>
       <c r="I139" t="n">
-        <v>22671.99418849299</v>
+        <v>23509.38328159895</v>
       </c>
       <c r="J139" t="n">
-        <v>22598.39295664753</v>
+        <v>23376.28129007724</v>
       </c>
       <c r="K139" t="n">
-        <v>22453.20171714251</v>
+        <v>23119.93056264172</v>
       </c>
     </row>
     <row r="140">
@@ -24631,19 +24631,19 @@
         <v>129.28</v>
       </c>
       <c r="G140" t="n">
-        <v>-279.8197047488502</v>
+        <v>185.7394105517124</v>
       </c>
       <c r="H140" t="n">
-        <v>23672.7</v>
+        <v>22986.80047070657</v>
       </c>
       <c r="I140" t="n">
-        <v>23952.51970474885</v>
+        <v>23486.96058944829</v>
       </c>
       <c r="J140" t="n">
-        <v>23881.36787244484</v>
+        <v>23358.25790161884</v>
       </c>
       <c r="K140" t="n">
-        <v>23743.85229265312</v>
+        <v>23115.50403612852</v>
       </c>
     </row>
     <row r="141">
@@ -24657,19 +24657,19 @@
         <v>129.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-268.0501597632719</v>
+        <v>-787.5679703466012</v>
       </c>
       <c r="H141" t="n">
-        <v>22678.3</v>
+        <v>22986.67520933949</v>
       </c>
       <c r="I141" t="n">
-        <v>22946.35015976327</v>
+        <v>23465.8679703466</v>
       </c>
       <c r="J141" t="n">
-        <v>22877.52764630539</v>
+        <v>23341.35048730907</v>
       </c>
       <c r="K141" t="n">
-        <v>22747.12295066518</v>
+        <v>23111.19354206998</v>
       </c>
     </row>
     <row r="142">
@@ -24683,19 +24683,19 @@
         <v>129.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-257.017616370249</v>
+        <v>-520.6303155381283</v>
       </c>
       <c r="H142" t="n">
-        <v>22925.7</v>
+        <v>22986.79677427003</v>
       </c>
       <c r="I142" t="n">
-        <v>23182.71761637025</v>
+        <v>23446.33031553813</v>
       </c>
       <c r="J142" t="n">
-        <v>23116.11205221466</v>
+        <v>23325.79758036919</v>
       </c>
       <c r="K142" t="n">
-        <v>22992.30597986099</v>
+        <v>23107.33033252744</v>
       </c>
     </row>
     <row r="143">
@@ -24709,19 +24709,19 @@
         <v>128.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-246.6612051822667</v>
+        <v>-193.3106387921434</v>
       </c>
       <c r="H143" t="n">
-        <v>23234.5</v>
+        <v>22986.73576235272</v>
       </c>
       <c r="I143" t="n">
-        <v>23481.16120518227</v>
+        <v>23427.81063879214</v>
       </c>
       <c r="J143" t="n">
-        <v>23416.66732364976</v>
+        <v>23311.07476923789</v>
       </c>
       <c r="K143" t="n">
-        <v>23298.99427722804</v>
+        <v>23103.47242960823</v>
       </c>
     </row>
     <row r="144">
@@ -24735,19 +24735,19 @@
         <v>128.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-236.9262563262346</v>
+        <v>-200.3993364111629</v>
       </c>
       <c r="H144" t="n">
-        <v>23209.9</v>
+        <v>22986.57924972876</v>
       </c>
       <c r="I144" t="n">
-        <v>23446.82625632624</v>
+        <v>23410.29933641116</v>
       </c>
       <c r="J144" t="n">
-        <v>23384.34534191922</v>
+        <v>23297.18405603977</v>
       </c>
       <c r="K144" t="n">
-        <v>23272.38129145296</v>
+        <v>23099.69530355934</v>
       </c>
     </row>
     <row r="145">
@@ -24761,19 +24761,19 @@
         <v>128.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-227.7635534527981</v>
+        <v>-434.7953872003454</v>
       </c>
       <c r="H145" t="n">
-        <v>22959.1</v>
+        <v>22986.51329626028</v>
       </c>
       <c r="I145" t="n">
-        <v>23186.8635534528</v>
+        <v>23393.89538720034</v>
       </c>
       <c r="J145" t="n">
-        <v>23126.30294073331</v>
+        <v>23284.2351445992</v>
       </c>
       <c r="K145" t="n">
-        <v>23019.66097235827</v>
+        <v>23096.17428915668</v>
       </c>
     </row>
     <row r="146">
@@ -24787,19 +24787,19 @@
         <v>128.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-219.128690702415</v>
+        <v>-173.5318433071443</v>
       </c>
       <c r="H146" t="n">
-        <v>23204.9</v>
+        <v>22986.44956199191</v>
       </c>
       <c r="I146" t="n">
-        <v>23424.02869070242</v>
+        <v>23378.43184330715</v>
       </c>
       <c r="J146" t="n">
-        <v>23365.30130841396</v>
+        <v>23272.07101014698</v>
       </c>
       <c r="K146" t="n">
-        <v>23263.62772565703</v>
+        <v>23092.81112329936</v>
       </c>
     </row>
     <row r="147">
@@ -24813,19 +24813,19 @@
         <v>128.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-210.9815166793887</v>
+        <v>-604.901680045572</v>
       </c>
       <c r="H147" t="n">
-        <v>22759</v>
+        <v>22986.45213124931</v>
       </c>
       <c r="I147" t="n">
-        <v>22969.98151667939</v>
+        <v>23363.90168004557</v>
       </c>
       <c r="J147" t="n">
-        <v>22913.00547242375</v>
+        <v>23260.69381990903</v>
       </c>
       <c r="K147" t="n">
-        <v>22815.97637239624</v>
+        <v>23089.66069834322</v>
       </c>
     </row>
     <row r="148">
@@ -24839,19 +24839,19 @@
         <v>128.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-203.2856522128641</v>
+        <v>-131.4699984966282</v>
       </c>
       <c r="H148" t="n">
-        <v>23218.7</v>
+        <v>22986.45056099897</v>
       </c>
       <c r="I148" t="n">
-        <v>23421.98565221286</v>
+        <v>23350.16999849663</v>
       </c>
       <c r="J148" t="n">
-        <v>23366.68385353976</v>
+        <v>23249.97719930482</v>
       </c>
       <c r="K148" t="n">
-        <v>23274.00211254274</v>
+        <v>23086.64404686243</v>
       </c>
     </row>
     <row r="149">
@@ -24865,19 +24865,19 @@
         <v>128.38</v>
       </c>
       <c r="G149" t="n">
-        <v>-196.0080709032081</v>
+        <v>49.52567839968469</v>
       </c>
       <c r="H149" t="n">
-        <v>23386.5</v>
+        <v>22986.24091321528</v>
       </c>
       <c r="I149" t="n">
-        <v>23582.50807090321</v>
+        <v>23336.97432160032</v>
       </c>
       <c r="J149" t="n">
-        <v>23528.80787914663</v>
+        <v>23239.66658528695</v>
       </c>
       <c r="K149" t="n">
-        <v>23440.2004922355</v>
+        <v>23083.54931676858</v>
       </c>
     </row>
     <row r="150">
@@ -24891,19 +24891,19 @@
         <v>128.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-189.1187332650989</v>
+        <v>-139.7792387745794</v>
       </c>
       <c r="H150" t="n">
-        <v>23184.7</v>
+        <v>22986.04104220896</v>
       </c>
       <c r="I150" t="n">
-        <v>23373.8187332651</v>
+        <v>23324.47923877458</v>
       </c>
       <c r="J150" t="n">
-        <v>23321.65164687535</v>
+        <v>23229.93392257056</v>
       </c>
       <c r="K150" t="n">
-        <v>23236.86737428882</v>
+        <v>23080.58700702839</v>
       </c>
     </row>
     <row r="151">
@@ -24917,19 +24917,19 @@
         <v>128.18</v>
       </c>
       <c r="G151" t="n">
-        <v>-182.5902667657319</v>
+        <v>-326.7852487828604</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>22869.59026676573</v>
+        <v>23013.78524878286</v>
       </c>
       <c r="J151" t="n">
-        <v>22818.89163124964</v>
+        <v>22921.88655309871</v>
       </c>
       <c r="K151" t="n">
-        <v>22737.69891158341</v>
+        <v>22778.89932643854</v>
       </c>
     </row>
     <row r="152">
@@ -24943,19 +24943,19 @@
         <v>128.08</v>
       </c>
       <c r="G152" t="n">
-        <v>-176.3976852807864</v>
+        <v>-315.7302298626892</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>23100.79768528079</v>
+        <v>23240.13022986269</v>
       </c>
       <c r="J152" t="n">
-        <v>23051.50642718066</v>
+        <v>23150.76872830416</v>
       </c>
       <c r="K152" t="n">
-        <v>22973.69152302691</v>
+        <v>23013.76211517463</v>
       </c>
     </row>
     <row r="153">
@@ -24969,19 +24969,19 @@
         <v>127.98</v>
       </c>
       <c r="G153" t="n">
-        <v>-170.5181425025949</v>
+        <v>-305.2325886052313</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22813.61814250259</v>
+        <v>22948.33258860523</v>
       </c>
       <c r="J153" t="n">
-        <v>22765.67652512387</v>
+        <v>22861.40479613878</v>
       </c>
       <c r="K153" t="n">
-        <v>22691.04187180448</v>
+        <v>22730.02838962882</v>
       </c>
     </row>
     <row r="154">
@@ -24995,19 +24995,19 @@
         <v>127.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-164.9307146739375</v>
+        <v>-295.2551750653183</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22812.83071467394</v>
+        <v>22943.15517506532</v>
       </c>
       <c r="J154" t="n">
-        <v>22766.1841135174</v>
+        <v>22858.5631507744</v>
       </c>
       <c r="K154" t="n">
-        <v>22694.54684567382</v>
+        <v>22732.49260564844</v>
       </c>
     </row>
     <row r="155">
@@ -25021,19 +25021,19 @@
         <v>127.78</v>
       </c>
       <c r="G155" t="n">
-        <v>-159.6162087193225</v>
+        <v>-285.7639023741394</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23210.51620871932</v>
+        <v>23336.66390237414</v>
       </c>
       <c r="J155" t="n">
-        <v>23165.11290478979</v>
+        <v>23254.31488362092</v>
       </c>
       <c r="K155" t="n">
-        <v>23096.30353908803</v>
+        <v>23133.24958492138</v>
       </c>
     </row>
     <row r="156">
@@ -25047,19 +25047,19 @@
         <v>127.68</v>
       </c>
       <c r="G156" t="n">
-        <v>-154.5569924284682</v>
+        <v>-276.7274472645986</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>23088.05699242847</v>
+        <v>23210.2274472646</v>
       </c>
       <c r="J156" t="n">
-        <v>23043.84798178339</v>
+        <v>23130.0335124022</v>
       </c>
       <c r="K156" t="n">
-        <v>22977.70923695542</v>
+        <v>23013.69448642534</v>
       </c>
     </row>
     <row r="157">
@@ -25073,19 +25073,19 @@
         <v>127.58</v>
       </c>
       <c r="G157" t="n">
-        <v>-149.7368438352532</v>
+        <v>-268.1169843104071</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23401.63684383525</v>
+        <v>23520.01698431041</v>
       </c>
       <c r="J157" t="n">
-        <v>23358.57566190515</v>
+        <v>23441.89474138325</v>
       </c>
       <c r="K157" t="n">
-        <v>23294.96139986718</v>
+        <v>23330.02278043968</v>
       </c>
     </row>
     <row r="158">
@@ -25099,19 +25099,19 @@
         <v>127.48</v>
       </c>
       <c r="G158" t="n">
-        <v>-145.1408173456148</v>
+        <v>-259.9059496018708</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22504.94081734561</v>
+        <v>22619.70594960187</v>
       </c>
       <c r="J158" t="n">
-        <v>22462.98337670813</v>
+        <v>22543.57624873069</v>
       </c>
       <c r="K158" t="n">
-        <v>22401.75765064353</v>
+        <v>22435.93022486052</v>
       </c>
     </row>
     <row r="159">
@@ -25125,19 +25125,19 @@
         <v>127.38</v>
       </c>
       <c r="G159" t="n">
-        <v>-140.7551245138893</v>
+        <v>-252.0698301828779</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23188.65512451389</v>
+        <v>23299.96983018288</v>
       </c>
       <c r="J159" t="n">
-        <v>23147.75956493561</v>
+        <v>23225.75749756118</v>
       </c>
       <c r="K159" t="n">
-        <v>23088.79576206551</v>
+        <v>23122.11284358922</v>
       </c>
     </row>
     <row r="160">
@@ -25151,19 +25151,19 @@
         <v>127.28</v>
       </c>
       <c r="G160" t="n">
-        <v>-136.567027659119</v>
+        <v>-244.5859760824023</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>22955.96702765912</v>
+        <v>23063.9859760824</v>
       </c>
       <c r="J160" t="n">
-        <v>22916.09357733751</v>
+        <v>22991.61956771569</v>
       </c>
       <c r="K160" t="n">
-        <v>22859.27364567478</v>
+        <v>22891.76690678944</v>
       </c>
     </row>
     <row r="161">
@@ -25177,19 +25177,19 @@
         <v>127.18</v>
       </c>
       <c r="G161" t="n">
-        <v>-132.5647447610099</v>
+        <v>-237.4334322057475</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22547.86474476101</v>
+        <v>22652.73343220575</v>
       </c>
       <c r="J161" t="n">
-        <v>22508.97559180316</v>
+        <v>22582.14500570696</v>
       </c>
       <c r="K161" t="n">
-        <v>22454.18934153639</v>
+        <v>22485.88891283087</v>
       </c>
     </row>
     <row r="162">
@@ -25203,19 +25203,19 @@
         <v>127.08</v>
       </c>
       <c r="G162" t="n">
-        <v>-128.7373642853127</v>
+        <v>-230.5927877180111</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23161.13736428531</v>
+        <v>23262.99278771801</v>
       </c>
       <c r="J162" t="n">
-        <v>23123.19653755408</v>
+        <v>23194.11769063524</v>
       </c>
       <c r="K162" t="n">
-        <v>23070.34100887133</v>
+        <v>23101.27557175683</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -677,7 +677,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5686425" cy="4067175"/>
+    <ext cx="5619750" cy="4019550"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -20647,7 +20647,7 @@
       </c>
       <c r="K1" s="28" t="inlineStr">
         <is>
-          <t>Sr3d3/2 p2</t>
+          <t>Sr3d3/2_p2</t>
         </is>
       </c>
       <c r="L1" s="28" t="inlineStr"/>
@@ -20878,12 +20878,12 @@
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>-285.30</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>-715.80</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -20987,7 +20987,7 @@
       </c>
       <c r="Y4" s="33" t="inlineStr">
         <is>
-          <t>Sr3d3/2 p2</t>
+          <t>Sr3d3/2_p2</t>
         </is>
       </c>
       <c r="Z4" s="33" t="inlineStr">
@@ -21059,12 +21059,12 @@
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>-285.30</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>-715.80</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -22187,19 +22187,19 @@
         <v>138.68</v>
       </c>
       <c r="G46" t="n">
-        <v>75.78190308710691</v>
+        <v>75.7785697537729</v>
       </c>
       <c r="H46" t="n">
-        <v>24279.26666666667</v>
+        <v>24279.27</v>
       </c>
       <c r="I46" t="n">
-        <v>24908.11809691289</v>
+        <v>24908.12143024623</v>
       </c>
       <c r="J46" t="n">
-        <v>24526.90724074811</v>
+        <v>24526.91057408145</v>
       </c>
       <c r="K46" t="n">
-        <v>24660.48023794563</v>
+        <v>24660.48357127897</v>
       </c>
     </row>
     <row r="47">
@@ -22213,19 +22213,19 @@
         <v>138.58</v>
       </c>
       <c r="G47" t="n">
-        <v>76.1164334356472</v>
+        <v>76.11316950341643</v>
       </c>
       <c r="H47" t="n">
-        <v>24270.59673606777</v>
+        <v>24270.6</v>
       </c>
       <c r="I47" t="n">
-        <v>24931.88356656435</v>
+        <v>24931.88683049658</v>
       </c>
       <c r="J47" t="n">
-        <v>24527.9921420463</v>
+        <v>24527.99540597853</v>
       </c>
       <c r="K47" t="n">
-        <v>24674.49103791459</v>
+        <v>24674.49430184682</v>
       </c>
     </row>
     <row r="48">
@@ -22239,19 +22239,19 @@
         <v>138.48</v>
       </c>
       <c r="G48" t="n">
-        <v>26.80657731125029</v>
+        <v>26.80210008125505</v>
       </c>
       <c r="H48" t="n">
-        <v>24270.11552277</v>
+        <v>24270.12</v>
       </c>
       <c r="I48" t="n">
-        <v>24966.49342268875</v>
+        <v>24966.49789991874</v>
       </c>
       <c r="J48" t="n">
-        <v>24537.85176772598</v>
+        <v>24537.85624495597</v>
       </c>
       <c r="K48" t="n">
-        <v>24698.76023211993</v>
+        <v>24698.76470934992</v>
       </c>
     </row>
     <row r="49">
@@ -22265,19 +22265,19 @@
         <v>138.38</v>
       </c>
       <c r="G49" t="n">
-        <v>34.74206662172219</v>
+        <v>34.74014875895955</v>
       </c>
       <c r="H49" t="n">
-        <v>24269.62808213724</v>
+        <v>24269.63</v>
       </c>
       <c r="I49" t="n">
-        <v>25004.05793337828</v>
+        <v>25004.05985124104</v>
       </c>
       <c r="J49" t="n">
-        <v>24548.33890305723</v>
+        <v>24548.34082092</v>
       </c>
       <c r="K49" t="n">
-        <v>24725.35036059772</v>
+        <v>24725.35227846048</v>
       </c>
     </row>
     <row r="50">
@@ -22291,19 +22291,19 @@
         <v>138.28</v>
       </c>
       <c r="G50" t="n">
-        <v>-336.1246273528195</v>
+        <v>-336.1237749236643</v>
       </c>
       <c r="H50" t="n">
-        <v>24269.13085242916</v>
+        <v>24269.13</v>
       </c>
       <c r="I50" t="n">
-        <v>25044.92462735282</v>
+        <v>25044.92377492366</v>
       </c>
       <c r="J50" t="n">
-        <v>24559.50265838537</v>
+        <v>24559.50180595621</v>
       </c>
       <c r="K50" t="n">
-        <v>24754.55628212683</v>
+        <v>24754.55542969767</v>
       </c>
     </row>
     <row r="51">
@@ -22317,19 +22317,19 @@
         <v>138.18</v>
       </c>
       <c r="G51" t="n">
-        <v>-392.7036844257163</v>
+        <v>-392.7052450078518</v>
       </c>
       <c r="H51" t="n">
-        <v>24268.72843941786</v>
+        <v>24268.73</v>
       </c>
       <c r="I51" t="n">
-        <v>25089.60368442572</v>
+        <v>25089.60524500785</v>
       </c>
       <c r="J51" t="n">
-        <v>24571.50587836198</v>
+        <v>24571.50743894411</v>
       </c>
       <c r="K51" t="n">
-        <v>24786.82994013768</v>
+        <v>24786.83150071981</v>
       </c>
     </row>
     <row r="52">
@@ -22343,19 +22343,19 @@
         <v>138.08</v>
       </c>
       <c r="G52" t="n">
-        <v>-475.0839037351798</v>
+        <v>-475.0848735214386</v>
       </c>
       <c r="H52" t="n">
-        <v>24268.43903021374</v>
+        <v>24268.44</v>
       </c>
       <c r="I52" t="n">
-        <v>25138.58390373518</v>
+        <v>25138.58487352144</v>
       </c>
       <c r="J52" t="n">
-        <v>24584.43127407206</v>
+        <v>24584.43224385831</v>
       </c>
       <c r="K52" t="n">
-        <v>24822.5956127132</v>
+        <v>24822.59658249946</v>
       </c>
     </row>
     <row r="53">
@@ -22369,19 +22369,19 @@
         <v>137.98</v>
       </c>
       <c r="G53" t="n">
-        <v>-536.3158329654871</v>
+        <v>-536.3113354496127</v>
       </c>
       <c r="H53" t="n">
-        <v>24268.16449751587</v>
+        <v>24268.16</v>
       </c>
       <c r="I53" t="n">
-        <v>25192.31583296549</v>
+        <v>25192.31133544961</v>
       </c>
       <c r="J53" t="n">
-        <v>24598.25235560997</v>
+        <v>24598.24785809409</v>
       </c>
       <c r="K53" t="n">
-        <v>24862.23221357238</v>
+        <v>24862.2277160565</v>
       </c>
     </row>
     <row r="54">
@@ -22395,19 +22395,19 @@
         <v>137.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-668.4410996875631</v>
+        <v>-668.4375570741722</v>
       </c>
       <c r="H54" t="n">
-        <v>24267.90354261339</v>
+        <v>24267.9</v>
       </c>
       <c r="I54" t="n">
-        <v>25251.44109968756</v>
+        <v>25251.43755707417</v>
       </c>
       <c r="J54" t="n">
-        <v>24613.04753302859</v>
+        <v>24613.0439904152</v>
       </c>
       <c r="K54" t="n">
-        <v>24906.30166557264</v>
+        <v>24906.29812295924</v>
       </c>
     </row>
     <row r="55">
@@ -22421,19 +22421,19 @@
         <v>137.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-1040.131183722209</v>
+        <v>-1040.13102011037</v>
       </c>
       <c r="H55" t="n">
-        <v>24267.67016361184</v>
+        <v>24267.67</v>
       </c>
       <c r="I55" t="n">
-        <v>25316.73118372221</v>
+        <v>25316.73102011037</v>
       </c>
       <c r="J55" t="n">
-        <v>24628.91969573027</v>
+        <v>24628.91953211843</v>
       </c>
       <c r="K55" t="n">
-        <v>24955.4865620468</v>
+        <v>24955.48639843496</v>
       </c>
     </row>
     <row r="56">
@@ -22447,19 +22447,19 @@
         <v>137.68</v>
       </c>
       <c r="G56" t="n">
-        <v>-582.7809912688608</v>
+        <v>-582.7795871076596</v>
       </c>
       <c r="H56" t="n">
-        <v>24267.5614041612</v>
+        <v>24267.56</v>
       </c>
       <c r="I56" t="n">
-        <v>25389.18099126886</v>
+        <v>25389.17958710766</v>
       </c>
       <c r="J56" t="n">
-        <v>24646.06525408752</v>
+        <v>24646.06384992632</v>
       </c>
       <c r="K56" t="n">
-        <v>25010.68244821588</v>
+        <v>25010.68104405468</v>
       </c>
     </row>
     <row r="57">
@@ -22473,19 +22473,19 @@
         <v>137.58</v>
       </c>
       <c r="G57" t="n">
-        <v>-230.6609243262574</v>
+        <v>-230.6651888903289</v>
       </c>
       <c r="H57" t="n">
-        <v>24267.37573543593</v>
+        <v>24267.38</v>
       </c>
       <c r="I57" t="n">
-        <v>25469.66092432626</v>
+        <v>25469.66518889033</v>
       </c>
       <c r="J57" t="n">
-        <v>24664.3940306315</v>
+        <v>24664.39829519557</v>
       </c>
       <c r="K57" t="n">
-        <v>25072.64838163305</v>
+        <v>25072.65264619712</v>
       </c>
     </row>
     <row r="58">
@@ -22499,19 +22499,19 @@
         <v>137.48</v>
       </c>
       <c r="G58" t="n">
-        <v>-902.9221103615855</v>
+        <v>-902.91991071542</v>
       </c>
       <c r="H58" t="n">
-        <v>24266.87219964616</v>
+        <v>24266.87</v>
       </c>
       <c r="I58" t="n">
-        <v>25559.22211036158</v>
+        <v>25559.21991071542</v>
       </c>
       <c r="J58" t="n">
-        <v>24683.79017121546</v>
+        <v>24683.78797156929</v>
       </c>
       <c r="K58" t="n">
-        <v>25142.31039451995</v>
+        <v>25142.30819487379</v>
       </c>
     </row>
     <row r="59">
@@ -22525,19 +22525,19 @@
         <v>137.38</v>
       </c>
       <c r="G59" t="n">
-        <v>-1175.314975035089</v>
+        <v>-1175.314431162558</v>
       </c>
       <c r="H59" t="n">
-        <v>24266.42054387253</v>
+        <v>24266.42</v>
       </c>
       <c r="I59" t="n">
-        <v>25659.81497503509</v>
+        <v>25659.81443116256</v>
       </c>
       <c r="J59" t="n">
-        <v>24704.76435647314</v>
+        <v>24704.76381260061</v>
       </c>
       <c r="K59" t="n">
-        <v>25221.47798934589</v>
+        <v>25221.47744547336</v>
       </c>
     </row>
     <row r="60">
@@ -22551,19 +22551,19 @@
         <v>137.28</v>
       </c>
       <c r="G60" t="n">
-        <v>-665.4182678102625</v>
+        <v>-665.4219039000855</v>
       </c>
       <c r="H60" t="n">
-        <v>24266.21636391018</v>
+        <v>24266.22</v>
       </c>
       <c r="I60" t="n">
-        <v>25773.61826781026</v>
+        <v>25773.62190390009</v>
       </c>
       <c r="J60" t="n">
-        <v>24727.67139655773</v>
+        <v>24727.67503264756</v>
       </c>
       <c r="K60" t="n">
-        <v>25312.17071434627</v>
+        <v>25312.17435043609</v>
       </c>
     </row>
     <row r="61">
@@ -22577,19 +22577,19 @@
         <v>137.18</v>
       </c>
       <c r="G61" t="n">
-        <v>-946.6314490976656</v>
+        <v>-946.6303890096315</v>
       </c>
       <c r="H61" t="n">
-        <v>24265.86106008803</v>
+        <v>24265.86</v>
       </c>
       <c r="I61" t="n">
-        <v>25902.83144909767</v>
+        <v>25902.83038900963</v>
       </c>
       <c r="J61" t="n">
-        <v>24752.2930892424</v>
+        <v>24752.29202915436</v>
       </c>
       <c r="K61" t="n">
-        <v>25416.40764989552</v>
+        <v>25416.40658980749</v>
       </c>
     </row>
     <row r="62">
@@ -22603,19 +22603,19 @@
         <v>137.08</v>
       </c>
       <c r="G62" t="n">
-        <v>-945.5895853061265</v>
+        <v>-945.5898263408781</v>
       </c>
       <c r="H62" t="n">
-        <v>24265.34975896525</v>
+        <v>24265.35</v>
       </c>
       <c r="I62" t="n">
-        <v>26051.08958530613</v>
+        <v>26051.08982634088</v>
       </c>
       <c r="J62" t="n">
-        <v>24778.829592138</v>
+        <v>24778.82983317275</v>
       </c>
       <c r="K62" t="n">
-        <v>25537.6188560904</v>
+        <v>25537.61909712516</v>
       </c>
     </row>
     <row r="63">
@@ -22629,19 +22629,19 @@
         <v>136.98</v>
       </c>
       <c r="G63" t="n">
-        <v>-298.002893539433</v>
+        <v>-298.0074232020961</v>
       </c>
       <c r="H63" t="n">
-        <v>24264.83547033734</v>
+        <v>24264.84</v>
       </c>
       <c r="I63" t="n">
-        <v>26224.10289353943</v>
+        <v>26224.10742320209</v>
       </c>
       <c r="J63" t="n">
-        <v>24807.66769913946</v>
+        <v>24807.67222880212</v>
       </c>
       <c r="K63" t="n">
-        <v>25681.28080428822</v>
+        <v>25681.28533395089</v>
       </c>
     </row>
     <row r="64">
@@ -22655,19 +22655,19 @@
         <v>136.88</v>
       </c>
       <c r="G64" t="n">
-        <v>-596.3742627470929</v>
+        <v>-596.3765355939904</v>
       </c>
       <c r="H64" t="n">
-        <v>24263.99772715311</v>
+        <v>24264</v>
       </c>
       <c r="I64" t="n">
-        <v>26430.77426274709</v>
+        <v>26430.77653559399</v>
       </c>
       <c r="J64" t="n">
-        <v>24838.75441983809</v>
+        <v>24838.75669268498</v>
       </c>
       <c r="K64" t="n">
-        <v>25856.02897133622</v>
+        <v>25856.03124418311</v>
       </c>
     </row>
     <row r="65">
@@ -22681,19 +22681,19 @@
         <v>136.78</v>
       </c>
       <c r="G65" t="n">
-        <v>-358.87218837818</v>
+        <v>-358.8749745205314</v>
       </c>
       <c r="H65" t="n">
-        <v>24262.91721385765</v>
+        <v>24262.92</v>
       </c>
       <c r="I65" t="n">
-        <v>26687.37218837818</v>
+        <v>26687.37497452053</v>
       </c>
       <c r="J65" t="n">
-        <v>24872.47755770869</v>
+        <v>24872.48034385104</v>
       </c>
       <c r="K65" t="n">
-        <v>26077.82484812009</v>
+        <v>26077.82763426244</v>
       </c>
     </row>
     <row r="66">
@@ -22707,19 +22707,19 @@
         <v>136.68</v>
       </c>
       <c r="G66" t="n">
-        <v>-262.1912957378263</v>
+        <v>-262.1921830140782</v>
       </c>
       <c r="H66" t="n">
-        <v>24261.69911272375</v>
+        <v>24261.7</v>
       </c>
       <c r="I66" t="n">
-        <v>27022.89129573783</v>
+        <v>27022.89218301408</v>
       </c>
       <c r="J66" t="n">
-        <v>24909.2962575657</v>
+        <v>24909.29714484195</v>
       </c>
       <c r="K66" t="n">
-        <v>26375.30930311094</v>
+        <v>26375.31019038719</v>
       </c>
     </row>
     <row r="67">
@@ -22733,19 +22733,19 @@
         <v>136.58</v>
       </c>
       <c r="G67" t="n">
-        <v>-432.1530169218822</v>
+        <v>-432.1517830182638</v>
       </c>
       <c r="H67" t="n">
-        <v>24260.17123390361</v>
+        <v>24260.17</v>
       </c>
       <c r="I67" t="n">
-        <v>27487.75301692188</v>
+        <v>27487.75178301826</v>
       </c>
       <c r="J67" t="n">
-        <v>24949.44789485205</v>
+        <v>24949.44666094844</v>
       </c>
       <c r="K67" t="n">
-        <v>26798.49456491139</v>
+        <v>26798.49333100778</v>
       </c>
     </row>
     <row r="68">
@@ -22759,19 +22759,19 @@
         <v>136.48</v>
       </c>
       <c r="G68" t="n">
-        <v>-217.5803986307801</v>
+        <v>-217.5839076015764</v>
       </c>
       <c r="H68" t="n">
-        <v>24258.39649102921</v>
+        <v>24258.4</v>
       </c>
       <c r="I68" t="n">
-        <v>28166.68039863078</v>
+        <v>28166.68390760157</v>
       </c>
       <c r="J68" t="n">
-        <v>24993.4712617816</v>
+        <v>24993.47477075239</v>
       </c>
       <c r="K68" t="n">
-        <v>27431.62840858764</v>
+        <v>27431.63191755843</v>
       </c>
     </row>
     <row r="69">
@@ -22785,19 +22785,19 @@
         <v>136.38</v>
       </c>
       <c r="G69" t="n">
-        <v>-474.3437010405396</v>
+        <v>-474.3441249793614</v>
       </c>
       <c r="H69" t="n">
-        <v>24256.21957606118</v>
+        <v>24256.22</v>
       </c>
       <c r="I69" t="n">
-        <v>29192.24370104054</v>
+        <v>29192.24412497936</v>
       </c>
       <c r="J69" t="n">
-        <v>25041.76641141674</v>
+        <v>25041.76683535556</v>
       </c>
       <c r="K69" t="n">
-        <v>28406.7266861544</v>
+        <v>28406.72711009323</v>
       </c>
     </row>
     <row r="70">
@@ -22811,19 +22811,19 @@
         <v>136.28</v>
       </c>
       <c r="G70" t="n">
-        <v>-38.38701688474976</v>
+        <v>-38.39073899564028</v>
       </c>
       <c r="H70" t="n">
-        <v>24253.47627788911</v>
+        <v>24253.48</v>
       </c>
       <c r="I70" t="n">
-        <v>30755.98701688475</v>
+        <v>30755.99073899564</v>
       </c>
       <c r="J70" t="n">
-        <v>25094.82026473033</v>
+        <v>25094.82398684122</v>
       </c>
       <c r="K70" t="n">
-        <v>29914.6837357951</v>
+        <v>29914.68745790599</v>
       </c>
     </row>
     <row r="71">
@@ -22837,19 +22837,19 @@
         <v>136.18</v>
       </c>
       <c r="G71" t="n">
-        <v>-328.106517867127</v>
+        <v>-328.1056057343521</v>
       </c>
       <c r="H71" t="n">
-        <v>24249.79091213277</v>
+        <v>24249.79</v>
       </c>
       <c r="I71" t="n">
-        <v>33107.90651786713</v>
+        <v>33107.90560573436</v>
       </c>
       <c r="J71" t="n">
-        <v>25153.02432006955</v>
+        <v>25153.02340793678</v>
       </c>
       <c r="K71" t="n">
-        <v>32204.7303461613</v>
+        <v>32204.72943402853</v>
       </c>
     </row>
     <row r="72">
@@ -22863,19 +22863,19 @@
         <v>136.08</v>
       </c>
       <c r="G72" t="n">
-        <v>15.2054471838419</v>
+        <v>15.20383599681372</v>
       </c>
       <c r="H72" t="n">
-        <v>24244.71838881297</v>
+        <v>24244.72</v>
       </c>
       <c r="I72" t="n">
-        <v>36534.89455281616</v>
+        <v>36534.89616400318</v>
       </c>
       <c r="J72" t="n">
-        <v>25216.84217392903</v>
+        <v>25216.84378511606</v>
       </c>
       <c r="K72" t="n">
-        <v>35562.85224478443</v>
+        <v>35562.85385597146</v>
       </c>
     </row>
     <row r="73">
@@ -22889,19 +22889,19 @@
         <v>135.98</v>
       </c>
       <c r="G73" t="n">
-        <v>10.98983901194879</v>
+        <v>10.9895091986109</v>
       </c>
       <c r="H73" t="n">
-        <v>24237.63967018666</v>
+        <v>24237.64</v>
       </c>
       <c r="I73" t="n">
-        <v>41309.51016098805</v>
+        <v>41309.51049080139</v>
       </c>
       <c r="J73" t="n">
-        <v>25286.73729875178</v>
+        <v>25286.73762856512</v>
       </c>
       <c r="K73" t="n">
-        <v>40260.5279225381</v>
+        <v>40260.52825235144</v>
       </c>
     </row>
     <row r="74">
@@ -22915,19 +22915,19 @@
         <v>135.88</v>
       </c>
       <c r="G74" t="n">
-        <v>-240.486087600977</v>
+        <v>-240.4878219926904</v>
       </c>
       <c r="H74" t="n">
-        <v>24227.61826560828</v>
+        <v>24227.62</v>
       </c>
       <c r="I74" t="n">
-        <v>47609.18608760097</v>
+        <v>47609.18782199269</v>
       </c>
       <c r="J74" t="n">
-        <v>25363.07140998605</v>
+        <v>25363.07314437777</v>
       </c>
       <c r="K74" t="n">
-        <v>46473.89319514461</v>
+        <v>46473.89492953633</v>
       </c>
     </row>
     <row r="75">
@@ -22941,19 +22941,19 @@
         <v>135.78</v>
       </c>
       <c r="G75" t="n">
-        <v>125.6691488157085</v>
+        <v>125.6694235899777</v>
       </c>
       <c r="H75" t="n">
-        <v>24213.82027477426</v>
+        <v>24213.82</v>
       </c>
       <c r="I75" t="n">
-        <v>55418.63085118429</v>
+        <v>55418.63057641003</v>
       </c>
       <c r="J75" t="n">
-        <v>25446.58085880724</v>
+        <v>25446.58058403298</v>
       </c>
       <c r="K75" t="n">
-        <v>54186.08621387219</v>
+        <v>54186.08593909792</v>
       </c>
     </row>
     <row r="76">
@@ -22967,19 +22967,19 @@
         <v>135.68</v>
       </c>
       <c r="G76" t="n">
-        <v>-1044.273110955946</v>
+        <v>-1044.270662655741</v>
       </c>
       <c r="H76" t="n">
-        <v>24195.0424483002</v>
+        <v>24195.04</v>
       </c>
       <c r="I76" t="n">
-        <v>64436.17311095595</v>
+        <v>64436.17066265574</v>
       </c>
       <c r="J76" t="n">
-        <v>25537.98592480601</v>
+        <v>25537.98347650581</v>
       </c>
       <c r="K76" t="n">
-        <v>63093.50992830192</v>
+        <v>63093.50748000172</v>
       </c>
     </row>
     <row r="77">
@@ -22993,19 +22993,19 @@
         <v>135.58</v>
       </c>
       <c r="G77" t="n">
-        <v>-333.9010530837113</v>
+        <v>-333.9017906085646</v>
       </c>
       <c r="H77" t="n">
-        <v>24170.56926247515</v>
+        <v>24170.57</v>
       </c>
       <c r="I77" t="n">
-        <v>74007.80105308371</v>
+        <v>74007.80179060856</v>
       </c>
       <c r="J77" t="n">
-        <v>25638.97789138934</v>
+        <v>25638.97862891418</v>
       </c>
       <c r="K77" t="n">
-        <v>72539.74098919696</v>
+        <v>72539.74172672181</v>
       </c>
     </row>
     <row r="78">
@@ -23019,19 +23019,19 @@
         <v>135.48</v>
       </c>
       <c r="G78" t="n">
-        <v>419.6849089021271</v>
+        <v>419.680262072914</v>
       </c>
       <c r="H78" t="n">
-        <v>24139.55535317079</v>
+        <v>24139.56</v>
       </c>
       <c r="I78" t="n">
-        <v>83099.51509109787</v>
+        <v>83099.51973792708</v>
       </c>
       <c r="J78" t="n">
-        <v>25751.83581697066</v>
+        <v>25751.84046379987</v>
       </c>
       <c r="K78" t="n">
-        <v>81487.64791501428</v>
+        <v>81487.6525618435</v>
       </c>
     </row>
     <row r="79">
@@ -23045,19 +23045,19 @@
         <v>135.38</v>
       </c>
       <c r="G79" t="n">
-        <v>954.9103250145999</v>
+        <v>954.9148157017626</v>
       </c>
       <c r="H79" t="n">
-        <v>24101.36449068717</v>
+        <v>24101.36</v>
       </c>
       <c r="I79" t="n">
-        <v>90346.7896749854</v>
+        <v>90346.78518429823</v>
       </c>
       <c r="J79" t="n">
-        <v>25880.22868716476</v>
+        <v>25880.2241964776</v>
       </c>
       <c r="K79" t="n">
-        <v>88568.3900744483</v>
+        <v>88568.38558376112</v>
       </c>
     </row>
     <row r="80">
@@ -23071,19 +23071,19 @@
         <v>135.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-448.2646820274531</v>
+        <v>-448.26045276472</v>
       </c>
       <c r="H80" t="n">
-        <v>24057.11422926274</v>
+        <v>24057.11</v>
       </c>
       <c r="I80" t="n">
-        <v>94311.36468202746</v>
+        <v>94311.36045276473</v>
       </c>
       <c r="J80" t="n">
-        <v>26031.71213236988</v>
+        <v>26031.70790310714</v>
       </c>
       <c r="K80" t="n">
-        <v>92337.25884266369</v>
+        <v>92337.25461340095</v>
       </c>
     </row>
     <row r="81">
@@ -23097,19 +23097,19 @@
         <v>135.18</v>
       </c>
       <c r="G81" t="n">
-        <v>809.115553890384</v>
+        <v>809.115783113215</v>
       </c>
       <c r="H81" t="n">
-        <v>24009.49022922284</v>
+        <v>24009.49</v>
       </c>
       <c r="I81" t="n">
-        <v>94059.38444610962</v>
+        <v>94059.38421688678</v>
       </c>
       <c r="J81" t="n">
-        <v>26219.47797009807</v>
+        <v>26219.47774087522</v>
       </c>
       <c r="K81" t="n">
-        <v>91849.88556622883</v>
+        <v>91849.885337006</v>
       </c>
     </row>
     <row r="82">
@@ -23123,19 +23123,19 @@
         <v>135.08</v>
       </c>
       <c r="G82" t="n">
-        <v>-239.2863041538221</v>
+        <v>-239.2880676349014</v>
       </c>
       <c r="H82" t="n">
-        <v>23961.17823651893</v>
+        <v>23961.18</v>
       </c>
       <c r="I82" t="n">
-        <v>89728.18630415382</v>
+        <v>89728.1880676349</v>
       </c>
       <c r="J82" t="n">
-        <v>26464.53754670743</v>
+        <v>26464.5393101885</v>
       </c>
       <c r="K82" t="n">
-        <v>87225.28281794238</v>
+        <v>87225.28458142345</v>
       </c>
     </row>
     <row r="83">
@@ -23149,19 +23149,19 @@
         <v>134.98</v>
       </c>
       <c r="G83" t="n">
-        <v>-800.4941224317445</v>
+        <v>-800.4975198189641</v>
       </c>
       <c r="H83" t="n">
-        <v>23915.3066026128</v>
+        <v>23915.31</v>
       </c>
       <c r="I83" t="n">
-        <v>82456.19412243174</v>
+        <v>82456.19751981896</v>
       </c>
       <c r="J83" t="n">
-        <v>26802.92599587788</v>
+        <v>26802.92939326509</v>
       </c>
       <c r="K83" t="n">
-        <v>79568.97562618672</v>
+        <v>79568.97902357392</v>
       </c>
     </row>
     <row r="84">
@@ -23175,19 +23175,19 @@
         <v>134.88</v>
       </c>
       <c r="G84" t="n">
-        <v>-910.3065523035766</v>
+        <v>-910.3059477110364</v>
       </c>
       <c r="H84" t="n">
-        <v>23874.62060459255</v>
+        <v>23874.62</v>
       </c>
       <c r="I84" t="n">
-        <v>73771.40655230358</v>
+        <v>73771.40594771104</v>
       </c>
       <c r="J84" t="n">
-        <v>27295.96963063289</v>
+        <v>27295.96902604034</v>
       </c>
       <c r="K84" t="n">
-        <v>70350.39217390463</v>
+        <v>70350.39156931208</v>
       </c>
     </row>
     <row r="85">
@@ -23201,19 +23201,19 @@
         <v>134.78</v>
       </c>
       <c r="G85" t="n">
-        <v>140.1619977827868</v>
+        <v>140.1659041687672</v>
       </c>
       <c r="H85" t="n">
-        <v>23839.91390638598</v>
+        <v>23839.91</v>
       </c>
       <c r="I85" t="n">
-        <v>65087.83800221721</v>
+        <v>65087.83409583123</v>
       </c>
       <c r="J85" t="n">
-        <v>28044.86469063379</v>
+        <v>28044.86078424781</v>
       </c>
       <c r="K85" t="n">
-        <v>60883.1537462831</v>
+        <v>60883.14983989713</v>
       </c>
     </row>
     <row r="86">
@@ -23227,19 +23227,19 @@
         <v>134.68</v>
       </c>
       <c r="G86" t="n">
-        <v>297.0852744690856</v>
+        <v>297.0899954391862</v>
       </c>
       <c r="H86" t="n">
-        <v>23810.8947209701</v>
+        <v>23810.89</v>
       </c>
       <c r="I86" t="n">
-        <v>57527.91472553091</v>
+        <v>57527.91000456081</v>
       </c>
       <c r="J86" t="n">
-        <v>29211.51040907225</v>
+        <v>29211.50568810214</v>
       </c>
       <c r="K86" t="n">
-        <v>52127.50248034927</v>
+        <v>52127.49775937917</v>
       </c>
     </row>
     <row r="87">
@@ -23253,19 +23253,19 @@
         <v>134.58</v>
       </c>
       <c r="G87" t="n">
-        <v>790.0524703199771</v>
+        <v>790.0560174259008</v>
       </c>
       <c r="H87" t="n">
-        <v>23786.85354710593</v>
+        <v>23786.85</v>
       </c>
       <c r="I87" t="n">
-        <v>51915.14752968002</v>
+        <v>51915.1439825741</v>
       </c>
       <c r="J87" t="n">
-        <v>31038.00755892611</v>
+        <v>31038.00401182018</v>
       </c>
       <c r="K87" t="n">
-        <v>44664.1430686315</v>
+        <v>44664.13952152558</v>
       </c>
     </row>
     <row r="88">
@@ -23279,19 +23279,19 @@
         <v>134.48</v>
       </c>
       <c r="G88" t="n">
-        <v>694.1590207966437</v>
+        <v>694.161567210067</v>
       </c>
       <c r="H88" t="n">
-        <v>23766.62254641343</v>
+        <v>23766.62</v>
       </c>
       <c r="I88" t="n">
-        <v>48818.24097920336</v>
+        <v>48818.23843278993</v>
       </c>
       <c r="J88" t="n">
-        <v>33854.37404891378</v>
+        <v>33854.37150250035</v>
       </c>
       <c r="K88" t="n">
-        <v>38730.59600467066</v>
+        <v>38730.59345825723</v>
       </c>
     </row>
     <row r="89">
@@ -23305,19 +23305,19 @@
         <v>134.38</v>
       </c>
       <c r="G89" t="n">
-        <v>712.4446502949941</v>
+        <v>712.4466391738824</v>
       </c>
       <c r="H89" t="n">
-        <v>23748.59198887889</v>
+        <v>23748.59</v>
       </c>
       <c r="I89" t="n">
-        <v>48607.155349705</v>
+        <v>48607.15336082612</v>
       </c>
       <c r="J89" t="n">
-        <v>38061.13300739953</v>
+        <v>38061.13101852063</v>
       </c>
       <c r="K89" t="n">
-        <v>34294.6884307342</v>
+        <v>34294.68644185532</v>
       </c>
     </row>
     <row r="90">
@@ -23331,19 +23331,19 @@
         <v>134.28</v>
       </c>
       <c r="G90" t="n">
-        <v>1217.652575671607</v>
+        <v>1217.648954863987</v>
       </c>
       <c r="H90" t="n">
-        <v>23730.78637919238</v>
+        <v>23730.79</v>
       </c>
       <c r="I90" t="n">
-        <v>51492.84742432839</v>
+        <v>51492.85104513601</v>
       </c>
       <c r="J90" t="n">
-        <v>44072.88424501078</v>
+        <v>44072.8878658184</v>
       </c>
       <c r="K90" t="n">
-        <v>31150.80029911123</v>
+        <v>31150.80391991885</v>
       </c>
     </row>
     <row r="91">
@@ -23357,19 +23357,19 @@
         <v>134.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-1018.542652055869</v>
+        <v>-1018.546056889958</v>
       </c>
       <c r="H91" t="n">
-        <v>23711.26659516591</v>
+        <v>23711.27</v>
       </c>
       <c r="I91" t="n">
-        <v>57522.44265205587</v>
+        <v>57522.44605688996</v>
       </c>
       <c r="J91" t="n">
-        <v>52217.31744920356</v>
+        <v>52217.32085403765</v>
       </c>
       <c r="K91" t="n">
-        <v>29016.4261813831</v>
+        <v>29016.42958621719</v>
       </c>
     </row>
     <row r="92">
@@ -23383,19 +23383,19 @@
         <v>134.08</v>
       </c>
       <c r="G92" t="n">
-        <v>-298.4727983798948</v>
+        <v>-298.4680209723156</v>
       </c>
       <c r="H92" t="n">
-        <v>23688.24477740759</v>
+        <v>23688.24</v>
       </c>
       <c r="I92" t="n">
-        <v>66518.67279837989</v>
+        <v>66518.66802097231</v>
       </c>
       <c r="J92" t="n">
-        <v>62599.3093526244</v>
+        <v>62599.30457521681</v>
       </c>
       <c r="K92" t="n">
-        <v>27607.63120211365</v>
+        <v>27607.62642470606</v>
       </c>
     </row>
     <row r="93">
@@ -23409,19 +23409,19 @@
         <v>133.98</v>
       </c>
       <c r="G93" t="n">
-        <v>-1230.028411335763</v>
+        <v>-1230.031974175174</v>
       </c>
       <c r="H93" t="n">
-        <v>23659.33643716058</v>
+        <v>23659.34</v>
       </c>
       <c r="I93" t="n">
-        <v>77981.12841133577</v>
+        <v>77981.13197417518</v>
       </c>
       <c r="J93" t="n">
-        <v>74957.25385282602</v>
+        <v>74957.25741566544</v>
       </c>
       <c r="K93" t="n">
-        <v>26683.22583631853</v>
+        <v>26683.22939915795</v>
       </c>
     </row>
     <row r="94">
@@ -23435,19 +23435,19 @@
         <v>133.88</v>
       </c>
       <c r="G94" t="n">
-        <v>-273.3017879428517</v>
+        <v>-273.3013149968028</v>
       </c>
       <c r="H94" t="n">
-        <v>23622.40047294605</v>
+        <v>23622.4</v>
       </c>
       <c r="I94" t="n">
-        <v>90988.00178794285</v>
+        <v>90988.0013149968</v>
       </c>
       <c r="J94" t="n">
-        <v>88548.14871889887</v>
+        <v>88548.14824595282</v>
       </c>
       <c r="K94" t="n">
-        <v>26062.26232173021</v>
+        <v>26062.26184878415</v>
       </c>
     </row>
     <row r="95">
@@ -23461,19 +23461,19 @@
         <v>133.78</v>
       </c>
       <c r="G95" t="n">
-        <v>-2234.005892268789</v>
+        <v>-2234.006854566775</v>
       </c>
       <c r="H95" t="n">
-        <v>23576.349037702</v>
+        <v>23576.35</v>
       </c>
       <c r="I95" t="n">
-        <v>104129.0058922688</v>
+        <v>104129.0068545668</v>
       </c>
       <c r="J95" t="n">
-        <v>102083.2126717261</v>
+        <v>102083.2136340241</v>
       </c>
       <c r="K95" t="n">
-        <v>25622.14635314</v>
+        <v>25622.147315438</v>
       </c>
     </row>
     <row r="96">
@@ -23487,19 +23487,19 @@
         <v>133.68</v>
       </c>
       <c r="G96" t="n">
-        <v>292.4749688581651</v>
+        <v>292.4787967202137</v>
       </c>
       <c r="H96" t="n">
-        <v>23520.88382786206</v>
+        <v>23520.88</v>
       </c>
       <c r="I96" t="n">
-        <v>115506.5250311418</v>
+        <v>115506.5212032798</v>
       </c>
       <c r="J96" t="n">
-        <v>113741.1019453441</v>
+        <v>113741.0981174821</v>
       </c>
       <c r="K96" t="n">
-        <v>25286.30739699761</v>
+        <v>25286.30356913555</v>
       </c>
     </row>
     <row r="97">
@@ -23513,19 +23513,19 @@
         <v>133.58</v>
       </c>
       <c r="G97" t="n">
-        <v>-520.6218537333916</v>
+        <v>-520.6238713186176</v>
       </c>
       <c r="H97" t="n">
-        <v>23456.82798241478</v>
+        <v>23456.83</v>
       </c>
       <c r="I97" t="n">
-        <v>122940.6218537334</v>
+        <v>122940.6238713186</v>
       </c>
       <c r="J97" t="n">
-        <v>121386.8435674175</v>
+        <v>121386.8455850027</v>
       </c>
       <c r="K97" t="n">
-        <v>25010.60417948982</v>
+        <v>25010.60619707504</v>
       </c>
     </row>
     <row r="98">
@@ -23539,19 +23539,19 @@
         <v>133.48</v>
       </c>
       <c r="G98" t="n">
-        <v>-710.6360194476147</v>
+        <v>-710.6350694845314</v>
       </c>
       <c r="H98" t="n">
-        <v>23387.77094996308</v>
+        <v>23387.77</v>
       </c>
       <c r="I98" t="n">
-        <v>124617.6360194476</v>
+        <v>124617.6350694845</v>
       </c>
       <c r="J98" t="n">
-        <v>123232.1756122969</v>
+        <v>123232.1746623338</v>
       </c>
       <c r="K98" t="n">
-        <v>24773.22779435893</v>
+        <v>24773.22684439585</v>
       </c>
     </row>
     <row r="99">
@@ -23565,19 +23565,19 @@
         <v>133.38</v>
       </c>
       <c r="G99" t="n">
-        <v>1485.597162367121</v>
+        <v>1485.59533276521</v>
       </c>
       <c r="H99" t="n">
-        <v>23317.84817039809</v>
+        <v>23317.85</v>
       </c>
       <c r="I99" t="n">
-        <v>120024.4028376329</v>
+        <v>120024.4046672348</v>
       </c>
       <c r="J99" t="n">
-        <v>118778.0624544752</v>
+        <v>118778.0642840771</v>
       </c>
       <c r="K99" t="n">
-        <v>24564.18458277292</v>
+        <v>24564.18641237482</v>
       </c>
     </row>
     <row r="100">
@@ -23591,19 +23591,19 @@
         <v>133.28</v>
       </c>
       <c r="G100" t="n">
-        <v>1732.538203689779</v>
+        <v>1732.53526796661</v>
       </c>
       <c r="H100" t="n">
-        <v>23251.27706427683</v>
+        <v>23251.28</v>
       </c>
       <c r="I100" t="n">
-        <v>110273.4617963102</v>
+        <v>110273.4647320334</v>
       </c>
       <c r="J100" t="n">
-        <v>109145.0708173719</v>
+        <v>109145.0737530951</v>
       </c>
       <c r="K100" t="n">
-        <v>24379.66452047916</v>
+        <v>24379.66745620233</v>
       </c>
     </row>
     <row r="101">
@@ -23617,19 +23617,19 @@
         <v>133.18</v>
       </c>
       <c r="G101" t="n">
-        <v>299.0577066347614</v>
+        <v>299.0574430260895</v>
       </c>
       <c r="H101" t="n">
-        <v>23192.70973639133</v>
+        <v>23192.71</v>
       </c>
       <c r="I101" t="n">
-        <v>97405.14229336524</v>
+        <v>97405.14255697391</v>
       </c>
       <c r="J101" t="n">
-        <v>96378.37199812694</v>
+        <v>96378.37226173561</v>
       </c>
       <c r="K101" t="n">
-        <v>24219.47750112756</v>
+        <v>24219.47776473624</v>
       </c>
     </row>
     <row r="102">
@@ -23643,19 +23643,19 @@
         <v>133.08</v>
       </c>
       <c r="G102" t="n">
-        <v>-619.4066308412148</v>
+        <v>-619.4084844890749</v>
       </c>
       <c r="H102" t="n">
-        <v>23144.68814635215</v>
+        <v>23144.69</v>
       </c>
       <c r="I102" t="n">
-        <v>83478.50663084122</v>
+        <v>83478.50848448908</v>
       </c>
       <c r="J102" t="n">
-        <v>82540.2087830291</v>
+        <v>82540.21063667694</v>
       </c>
       <c r="K102" t="n">
-        <v>24082.98469757122</v>
+        <v>24082.98655121908</v>
       </c>
     </row>
     <row r="103">
@@ -23669,19 +23669,19 @@
         <v>132.98</v>
       </c>
       <c r="G103" t="n">
-        <v>741.5928337207733</v>
+        <v>741.5970937690581</v>
       </c>
       <c r="H103" t="n">
-        <v>23106.65426004829</v>
+        <v>23106.65</v>
       </c>
       <c r="I103" t="n">
-        <v>70108.30716627922</v>
+        <v>70108.30290623094</v>
       </c>
       <c r="J103" t="n">
-        <v>69247.60761248809</v>
+        <v>69247.60335243981</v>
       </c>
       <c r="K103" t="n">
-        <v>23967.35375686607</v>
+        <v>23967.34949681778</v>
       </c>
     </row>
     <row r="104">
@@ -23695,19 +23695,19 @@
         <v>132.88</v>
       </c>
       <c r="G104" t="n">
-        <v>490.599166789485</v>
+        <v>490.6013548043265</v>
       </c>
       <c r="H104" t="n">
-        <v>23077.38218801484</v>
+        <v>23077.38</v>
       </c>
       <c r="I104" t="n">
-        <v>58356.60083321051</v>
+        <v>58356.59864519567</v>
       </c>
       <c r="J104" t="n">
-        <v>57564.35989312951</v>
+        <v>57564.35770511467</v>
       </c>
       <c r="K104" t="n">
-        <v>23869.62415938352</v>
+        <v>23869.62197136868</v>
       </c>
     </row>
     <row r="105">
@@ -23721,19 +23721,19 @@
         <v>132.78</v>
       </c>
       <c r="G105" t="n">
-        <v>-535.5975089164567</v>
+        <v>-535.5975022240746</v>
       </c>
       <c r="H105" t="n">
-        <v>23056.15000669238</v>
+        <v>23056.15</v>
       </c>
       <c r="I105" t="n">
-        <v>48758.49750891646</v>
+        <v>48758.49750222408</v>
       </c>
       <c r="J105" t="n">
-        <v>48026.95365226395</v>
+        <v>48026.95364557157</v>
       </c>
       <c r="K105" t="n">
-        <v>23787.69574867812</v>
+        <v>23787.69574198574</v>
       </c>
     </row>
     <row r="106">
@@ -23747,19 +23747,19 @@
         <v>132.68</v>
       </c>
       <c r="G106" t="n">
-        <v>-195.3476995438614</v>
+        <v>-195.3520048458595</v>
       </c>
       <c r="H106" t="n">
-        <v>23041.17569469801</v>
+        <v>23041.18</v>
       </c>
       <c r="I106" t="n">
-        <v>41407.84769954386</v>
+        <v>41407.85200484586</v>
       </c>
       <c r="J106" t="n">
-        <v>40730.36069530147</v>
+        <v>40730.36500060346</v>
       </c>
       <c r="K106" t="n">
-        <v>23718.6651828854</v>
+        <v>23718.6694881874</v>
       </c>
     </row>
     <row r="107">
@@ -23773,19 +23773,19 @@
         <v>132.58</v>
       </c>
       <c r="G107" t="n">
-        <v>1014.376741196109</v>
+        <v>1014.37679110287</v>
       </c>
       <c r="H107" t="n">
-        <v>23030.15004990677</v>
+        <v>23030.15</v>
       </c>
       <c r="I107" t="n">
-        <v>36088.02325880389</v>
+        <v>36088.02320889713</v>
       </c>
       <c r="J107" t="n">
-        <v>35458.87800450102</v>
+        <v>35458.87795459425</v>
       </c>
       <c r="K107" t="n">
-        <v>23659.29815362755</v>
+        <v>23659.29810372079</v>
       </c>
     </row>
     <row r="108">
@@ -23799,19 +23799,19 @@
         <v>132.48</v>
       </c>
       <c r="G108" t="n">
-        <v>1375.151857357534</v>
+        <v>1375.152737239256</v>
       </c>
       <c r="H108" t="n">
-        <v>23021.71087988172</v>
+        <v>23021.71</v>
       </c>
       <c r="I108" t="n">
-        <v>32417.64814264247</v>
+        <v>32417.64726276075</v>
       </c>
       <c r="J108" t="n">
-        <v>31831.89981751545</v>
+        <v>31831.89893763373</v>
       </c>
       <c r="K108" t="n">
-        <v>23607.46223268421</v>
+        <v>23607.46135280249</v>
       </c>
     </row>
     <row r="109">
@@ -23825,19 +23825,19 @@
         <v>132.38</v>
       </c>
       <c r="G109" t="n">
-        <v>717.9045956399677</v>
+        <v>717.900666969821</v>
       </c>
       <c r="H109" t="n">
-        <v>23015.45607132985</v>
+        <v>23015.46</v>
       </c>
       <c r="I109" t="n">
-        <v>29975.19540436003</v>
+        <v>29975.19933303018</v>
       </c>
       <c r="J109" t="n">
-        <v>29428.54499393664</v>
+        <v>29428.54892260678</v>
       </c>
       <c r="K109" t="n">
-        <v>23562.10955288914</v>
+        <v>23562.11348155929</v>
       </c>
     </row>
     <row r="110">
@@ -23851,19 +23851,19 @@
         <v>132.28</v>
       </c>
       <c r="G110" t="n">
-        <v>918.1144763769626</v>
+        <v>918.1121199581576</v>
       </c>
       <c r="H110" t="n">
-        <v>23010.7376435812</v>
+        <v>23010.74</v>
       </c>
       <c r="I110" t="n">
-        <v>28381.38552362304</v>
+        <v>28381.38788004184</v>
       </c>
       <c r="J110" t="n">
-        <v>27870.07865377862</v>
+        <v>27870.08101019742</v>
       </c>
       <c r="K110" t="n">
-        <v>23522.0475406183</v>
+        <v>23522.0498970371</v>
       </c>
     </row>
     <row r="111">
@@ -23877,19 +23877,19 @@
         <v>132.18</v>
       </c>
       <c r="G111" t="n">
-        <v>364.5336519851335</v>
+        <v>364.5317023649623</v>
       </c>
       <c r="H111" t="n">
-        <v>23007.03805037983</v>
+        <v>23007.04</v>
       </c>
       <c r="I111" t="n">
-        <v>27339.06634801487</v>
+        <v>27339.06829763504</v>
       </c>
       <c r="J111" t="n">
-        <v>26859.81042254122</v>
+        <v>26859.8123721614</v>
       </c>
       <c r="K111" t="n">
-        <v>23486.29690857145</v>
+        <v>23486.29885819162</v>
       </c>
     </row>
     <row r="112">
@@ -23903,19 +23903,19 @@
         <v>132.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-28.30056289857748</v>
+        <v>-28.2979028168993</v>
       </c>
       <c r="H112" t="n">
-        <v>23004.24266008168</v>
+        <v>23004.24</v>
       </c>
       <c r="I112" t="n">
-        <v>26639.00056289858</v>
+        <v>26638.9979028169</v>
       </c>
       <c r="J112" t="n">
-        <v>26188.89645963996</v>
+        <v>26188.89379955828</v>
       </c>
       <c r="K112" t="n">
-        <v>23454.34957654734</v>
+        <v>23454.34691646566</v>
       </c>
     </row>
     <row r="113">
@@ -23929,19 +23929,19 @@
         <v>131.98</v>
       </c>
       <c r="G113" t="n">
-        <v>-364.0100308202018</v>
+        <v>-364.0138200035581</v>
       </c>
       <c r="H113" t="n">
-        <v>23002.09621081664</v>
+        <v>23002.1</v>
       </c>
       <c r="I113" t="n">
-        <v>26145.6100308202</v>
+        <v>26145.61382000356</v>
       </c>
       <c r="J113" t="n">
-        <v>25722.09547662278</v>
+        <v>25722.09926580614</v>
       </c>
       <c r="K113" t="n">
-        <v>23425.61344956775</v>
+        <v>23425.61723875111</v>
       </c>
     </row>
     <row r="114">
@@ -23955,19 +23955,19 @@
         <v>131.88</v>
       </c>
       <c r="G114" t="n">
-        <v>-117.9511374985887</v>
+        <v>-117.9472118471494</v>
       </c>
       <c r="H114" t="n">
-        <v>23000.27392565144</v>
+        <v>23000.27</v>
       </c>
       <c r="I114" t="n">
-        <v>25776.85113749859</v>
+        <v>25776.84721184715</v>
       </c>
       <c r="J114" t="n">
-        <v>25377.65351493757</v>
+        <v>25377.64958928613</v>
       </c>
       <c r="K114" t="n">
-        <v>23399.47410393483</v>
+        <v>23399.47017828339</v>
       </c>
     </row>
     <row r="115">
@@ -23981,19 +23981,19 @@
         <v>131.78</v>
       </c>
       <c r="G115" t="n">
-        <v>-152.8439196473228</v>
+        <v>-152.8400318774911</v>
       </c>
       <c r="H115" t="n">
-        <v>22998.60388776983</v>
+        <v>22998.6</v>
       </c>
       <c r="I115" t="n">
-        <v>25485.64391964732</v>
+        <v>25485.64003187749</v>
       </c>
       <c r="J115" t="n">
-        <v>25108.74073614763</v>
+        <v>25108.7368483778</v>
       </c>
       <c r="K115" t="n">
-        <v>23375.5095025123</v>
+        <v>23375.50561474247</v>
       </c>
     </row>
     <row r="116">
@@ -24007,19 +24007,19 @@
         <v>131.68</v>
       </c>
       <c r="G116" t="n">
-        <v>-137.9889494714953</v>
+        <v>-137.9922415451656</v>
       </c>
       <c r="H116" t="n">
-        <v>22997.11670792633</v>
+        <v>22997.12</v>
       </c>
       <c r="I116" t="n">
-        <v>25245.78894947149</v>
+        <v>25245.79224154516</v>
       </c>
       <c r="J116" t="n">
-        <v>24889.37456590213</v>
+        <v>24889.3778579758</v>
       </c>
       <c r="K116" t="n">
-        <v>23353.53340457795</v>
+        <v>23353.53669665162</v>
       </c>
     </row>
     <row r="117">
@@ -24033,19 +24033,19 @@
         <v>131.58</v>
       </c>
       <c r="G117" t="n">
-        <v>96.40476015530294</v>
+        <v>96.40012903301249</v>
       </c>
       <c r="H117" t="n">
-        <v>22995.69536887771</v>
+        <v>22995.7</v>
       </c>
       <c r="I117" t="n">
-        <v>25042.3952398447</v>
+        <v>25042.39987096699</v>
       </c>
       <c r="J117" t="n">
-        <v>24704.852739522</v>
+        <v>24704.85737064429</v>
       </c>
       <c r="K117" t="n">
-        <v>23333.24007106022</v>
+        <v>23333.24470218251</v>
       </c>
     </row>
     <row r="118">
@@ -24059,19 +24059,19 @@
         <v>131.48</v>
       </c>
       <c r="G118" t="n">
-        <v>-622.1630938380913</v>
+        <v>-622.1644686288491</v>
       </c>
       <c r="H118" t="n">
-        <v>22994.55862520924</v>
+        <v>22994.56</v>
       </c>
       <c r="I118" t="n">
-        <v>24866.96309383809</v>
+        <v>24866.96446862885</v>
       </c>
       <c r="J118" t="n">
-        <v>24546.84039426616</v>
+        <v>24546.84176905692</v>
       </c>
       <c r="K118" t="n">
-        <v>23314.68342232909</v>
+        <v>23314.68479711984</v>
       </c>
     </row>
     <row r="119">
@@ -24085,19 +24085,19 @@
         <v>131.38</v>
       </c>
       <c r="G119" t="n">
-        <v>-690.3121216840518</v>
+        <v>-690.3092134957369</v>
       </c>
       <c r="H119" t="n">
-        <v>22993.79290818832</v>
+        <v>22993.79</v>
       </c>
       <c r="I119" t="n">
-        <v>24714.01212168405</v>
+        <v>24714.00921349574</v>
       </c>
       <c r="J119" t="n">
-        <v>24410.00160505836</v>
+        <v>24409.99869687004</v>
       </c>
       <c r="K119" t="n">
-        <v>23297.80542465495</v>
+        <v>23297.80251646664</v>
       </c>
     </row>
     <row r="120">
@@ -24111,19 +24111,19 @@
         <v>131.28</v>
       </c>
       <c r="G120" t="n">
-        <v>-381.1098143708587</v>
+        <v>-381.1130215676822</v>
       </c>
       <c r="H120" t="n">
-        <v>22993.04679280318</v>
+        <v>22993.05</v>
       </c>
       <c r="I120" t="n">
-        <v>24579.30981437086</v>
+        <v>24579.31302156768</v>
       </c>
       <c r="J120" t="n">
-        <v>24290.23088990601</v>
+        <v>24290.23409710284</v>
       </c>
       <c r="K120" t="n">
-        <v>23282.12762560055</v>
+        <v>23282.13083279737</v>
       </c>
     </row>
     <row r="121">
@@ -24137,19 +24137,19 @@
         <v>131.18</v>
       </c>
       <c r="G121" t="n">
-        <v>-846.6610922054715</v>
+        <v>-846.6652649513962</v>
       </c>
       <c r="H121" t="n">
-        <v>22992.43582725407</v>
+        <v>22992.44</v>
       </c>
       <c r="I121" t="n">
-        <v>24460.06109220547</v>
+        <v>24460.0652649514</v>
       </c>
       <c r="J121" t="n">
-        <v>24184.84521204595</v>
+        <v>24184.84938479187</v>
       </c>
       <c r="K121" t="n">
-        <v>23267.65353000825</v>
+        <v>23267.65770275418</v>
       </c>
     </row>
     <row r="122">
@@ -24163,19 +24163,19 @@
         <v>131.08</v>
       </c>
       <c r="G122" t="n">
-        <v>-649.5028613425275</v>
+        <v>-649.503790977571</v>
       </c>
       <c r="H122" t="n">
-        <v>22991.98907036496</v>
+        <v>22991.99</v>
       </c>
       <c r="I122" t="n">
-        <v>24354.00286134253</v>
+        <v>24354.00379097757</v>
       </c>
       <c r="J122" t="n">
-        <v>24091.68059849458</v>
+        <v>24091.68152812962</v>
       </c>
       <c r="K122" t="n">
-        <v>23254.31307542318</v>
+        <v>23254.31400505822</v>
       </c>
     </row>
     <row r="123">
@@ -24189,19 +24189,19 @@
         <v>130.98</v>
       </c>
       <c r="G123" t="n">
-        <v>-574.6909183196149</v>
+        <v>-574.6905275940626</v>
       </c>
       <c r="H123" t="n">
-        <v>22991.52039072555</v>
+        <v>22991.52</v>
       </c>
       <c r="I123" t="n">
-        <v>24259.09091831962</v>
+        <v>24259.09052759406</v>
       </c>
       <c r="J123" t="n">
-        <v>24008.78078452384</v>
+        <v>24008.78039379829</v>
       </c>
       <c r="K123" t="n">
-        <v>23241.83219130692</v>
+        <v>23241.83180058136</v>
       </c>
     </row>
     <row r="124">
@@ -24215,19 +24215,19 @@
         <v>130.88</v>
       </c>
       <c r="G124" t="n">
-        <v>-472.5160304864985</v>
+        <v>-472.5138297918711</v>
       </c>
       <c r="H124" t="n">
-        <v>22991.05220069463</v>
+        <v>22991.05</v>
       </c>
       <c r="I124" t="n">
-        <v>24173.8160304865</v>
+        <v>24173.81382979187</v>
       </c>
       <c r="J124" t="n">
-        <v>23934.71476792562</v>
+        <v>23934.71256723099</v>
       </c>
       <c r="K124" t="n">
-        <v>23230.1550592093</v>
+        <v>23230.15285851468</v>
       </c>
     </row>
     <row r="125">
@@ -24241,19 +24241,19 @@
         <v>130.78</v>
       </c>
       <c r="G125" t="n">
-        <v>-429.5071226502841</v>
+        <v>-429.5077942762509</v>
       </c>
       <c r="H125" t="n">
-        <v>22990.58932837403</v>
+        <v>22990.59</v>
       </c>
       <c r="I125" t="n">
-        <v>24096.90712265029</v>
+        <v>24096.90779427625</v>
       </c>
       <c r="J125" t="n">
-        <v>23868.28124869919</v>
+        <v>23868.28192032516</v>
       </c>
       <c r="K125" t="n">
-        <v>23219.21673170063</v>
+        <v>23219.21740332659</v>
       </c>
     </row>
     <row r="126">
@@ -24267,19 +24267,19 @@
         <v>130.68</v>
       </c>
       <c r="G126" t="n">
-        <v>-876.8697410394598</v>
+        <v>-876.8714635753604</v>
       </c>
       <c r="H126" t="n">
-        <v>22990.3082774641</v>
+        <v>22990.31</v>
       </c>
       <c r="I126" t="n">
-        <v>24027.46974103946</v>
+        <v>24027.47146357536</v>
       </c>
       <c r="J126" t="n">
-        <v>23808.64816211477</v>
+        <v>23808.64988465067</v>
       </c>
       <c r="K126" t="n">
-        <v>23209.13132312654</v>
+        <v>23209.13304566244</v>
       </c>
     </row>
     <row r="127">
@@ -24293,19 +24293,19 @@
         <v>130.58</v>
       </c>
       <c r="G127" t="n">
-        <v>-244.7018055464614</v>
+        <v>-244.7002822617033</v>
       </c>
       <c r="H127" t="n">
-        <v>22990.01152328476</v>
+        <v>22990.01</v>
       </c>
       <c r="I127" t="n">
-        <v>23964.40180554646</v>
+        <v>23964.4002822617</v>
       </c>
       <c r="J127" t="n">
-        <v>23754.76934621436</v>
+        <v>23754.7678229296</v>
       </c>
       <c r="K127" t="n">
-        <v>23199.64539036939</v>
+        <v>23199.64386708463</v>
       </c>
     </row>
     <row r="128">
@@ -24319,19 +24319,19 @@
         <v>130.48</v>
       </c>
       <c r="G128" t="n">
-        <v>-207.768994712671</v>
+        <v>-207.7659880500469</v>
       </c>
       <c r="H128" t="n">
-        <v>22989.53300666262</v>
+        <v>22989.53</v>
       </c>
       <c r="I128" t="n">
-        <v>23906.76899471267</v>
+        <v>23906.76598805005</v>
       </c>
       <c r="J128" t="n">
-        <v>23705.76071290671</v>
+        <v>23705.75770624408</v>
       </c>
       <c r="K128" t="n">
-        <v>23190.54264062367</v>
+        <v>23190.53963396105</v>
       </c>
     </row>
     <row r="129">
@@ -24345,19 +24345,19 @@
         <v>130.38</v>
       </c>
       <c r="G129" t="n">
-        <v>-281.4438478301345</v>
+        <v>-281.4427188784648</v>
       </c>
       <c r="H129" t="n">
-        <v>22989.10112895167</v>
+        <v>22989.1</v>
       </c>
       <c r="I129" t="n">
-        <v>23854.14384783014</v>
+        <v>23854.14271887847</v>
       </c>
       <c r="J129" t="n">
-        <v>23661.24002736949</v>
+        <v>23661.23889841782</v>
       </c>
       <c r="K129" t="n">
-        <v>23182.00624911454</v>
+        <v>23182.00512016287</v>
       </c>
     </row>
     <row r="130">
@@ -24371,19 +24371,19 @@
         <v>130.28</v>
       </c>
       <c r="G130" t="n">
-        <v>-735.8253514816352</v>
+        <v>-735.8278659553143</v>
       </c>
       <c r="H130" t="n">
-        <v>22988.87748552632</v>
+        <v>22988.88</v>
       </c>
       <c r="I130" t="n">
-        <v>23806.12535148163</v>
+        <v>23806.12786595531</v>
       </c>
       <c r="J130" t="n">
-        <v>23620.84707989843</v>
+        <v>23620.84959437211</v>
       </c>
       <c r="K130" t="n">
-        <v>23174.15700728007</v>
+        <v>23174.15952175375</v>
       </c>
     </row>
     <row r="131">
@@ -24397,19 +24397,19 @@
         <v>130.18</v>
       </c>
       <c r="G131" t="n">
-        <v>-500.3249940129244</v>
+        <v>-500.326616885246</v>
       </c>
       <c r="H131" t="n">
-        <v>22988.75837712768</v>
+        <v>22988.76</v>
       </c>
       <c r="I131" t="n">
-        <v>23762.12499401292</v>
+        <v>23762.12661688525</v>
       </c>
       <c r="J131" t="n">
-        <v>23584.03024765663</v>
+        <v>23584.03187052895</v>
       </c>
       <c r="K131" t="n">
-        <v>23166.85432683882</v>
+        <v>23166.85594971115</v>
       </c>
     </row>
     <row r="132">
@@ -24423,19 +24423,19 @@
         <v>130.08</v>
       </c>
       <c r="G132" t="n">
-        <v>-41.51766844487793</v>
+        <v>-41.51939868733098</v>
       </c>
       <c r="H132" t="n">
-        <v>22988.43826975755</v>
+        <v>22988.44</v>
       </c>
       <c r="I132" t="n">
-        <v>23721.41766844488</v>
+        <v>23721.41939868733</v>
       </c>
       <c r="J132" t="n">
-        <v>23550.09783846042</v>
+        <v>23550.09956870288</v>
       </c>
       <c r="K132" t="n">
-        <v>23159.75925880864</v>
+        <v>23159.76098905109</v>
       </c>
     </row>
     <row r="133">
@@ -24449,19 +24449,19 @@
         <v>129.98</v>
       </c>
       <c r="G133" t="n">
-        <v>53.91969539556521</v>
+        <v>53.9183826547669</v>
       </c>
       <c r="H133" t="n">
-        <v>22987.9586872592</v>
+        <v>22987.96</v>
       </c>
       <c r="I133" t="n">
-        <v>23683.68030460443</v>
+        <v>23683.68161734523</v>
       </c>
       <c r="J133" t="n">
-        <v>23518.75710710166</v>
+        <v>23518.75841984246</v>
       </c>
       <c r="K133" t="n">
-        <v>23152.88300189459</v>
+        <v>23152.88431463539</v>
       </c>
     </row>
     <row r="134">
@@ -24475,19 +24475,19 @@
         <v>129.88</v>
       </c>
       <c r="G134" t="n">
-        <v>-727.7040544929914</v>
+        <v>-727.7052279677409</v>
       </c>
       <c r="H134" t="n">
-        <v>22987.72882652525</v>
+        <v>22987.73</v>
       </c>
       <c r="I134" t="n">
-        <v>23649.00405449299</v>
+        <v>23649.00522796774</v>
       </c>
       <c r="J134" t="n">
-        <v>23490.12677637875</v>
+        <v>23490.1279498535</v>
       </c>
       <c r="K134" t="n">
-        <v>23146.6071820329</v>
+        <v>23146.60835550765</v>
       </c>
     </row>
     <row r="135">
@@ -24501,19 +24501,19 @@
         <v>129.78</v>
       </c>
       <c r="G135" t="n">
-        <v>-400.7351967131908</v>
+        <v>-400.7317729158603</v>
       </c>
       <c r="H135" t="n">
-        <v>22987.67342379733</v>
+        <v>22987.67</v>
       </c>
       <c r="I135" t="n">
-        <v>23617.03519671319</v>
+        <v>23617.03177291586</v>
       </c>
       <c r="J135" t="n">
-        <v>23463.87823551875</v>
+        <v>23463.87481172142</v>
       </c>
       <c r="K135" t="n">
-        <v>23140.83142469412</v>
+        <v>23140.82800089678</v>
       </c>
     </row>
     <row r="136">
@@ -24527,19 +24527,19 @@
         <v>129.68</v>
       </c>
       <c r="G136" t="n">
-        <v>-480.894578359319</v>
+        <v>-480.8966037585124</v>
       </c>
       <c r="H136" t="n">
-        <v>22987.55797460081</v>
+        <v>22987.56</v>
       </c>
       <c r="I136" t="n">
-        <v>23587.29457835932</v>
+        <v>23587.29660375851</v>
       </c>
       <c r="J136" t="n">
-        <v>23439.55524018787</v>
+        <v>23439.55726558706</v>
       </c>
       <c r="K136" t="n">
-        <v>23135.29831669661</v>
+        <v>23135.3003420958</v>
       </c>
     </row>
     <row r="137">
@@ -24553,19 +24553,19 @@
         <v>129.58</v>
       </c>
       <c r="G137" t="n">
-        <v>-339.4247604492775</v>
+        <v>-339.4240630692148</v>
       </c>
       <c r="H137" t="n">
-        <v>22987.44069738006</v>
+        <v>22987.44</v>
       </c>
       <c r="I137" t="n">
-        <v>23559.62476044928</v>
+        <v>23559.62406306922</v>
       </c>
       <c r="J137" t="n">
-        <v>23417.02128507237</v>
+        <v>23417.02058769231</v>
       </c>
       <c r="K137" t="n">
-        <v>23130.04514269186</v>
+        <v>23130.0444453118</v>
       </c>
     </row>
     <row r="138">
@@ -24579,19 +24579,19 @@
         <v>129.48</v>
       </c>
       <c r="G138" t="n">
-        <v>560.0903615948373</v>
+        <v>560.086551528173</v>
       </c>
       <c r="H138" t="n">
-        <v>22986.99618993334</v>
+        <v>22987</v>
       </c>
       <c r="I138" t="n">
-        <v>23533.50963840516</v>
+        <v>23533.51344847183</v>
       </c>
       <c r="J138" t="n">
-        <v>23395.77942470178</v>
+        <v>23395.78323476845</v>
       </c>
       <c r="K138" t="n">
-        <v>23124.72734125584</v>
+        <v>23124.7311513225</v>
       </c>
     </row>
     <row r="139">
@@ -24605,19 +24605,19 @@
         <v>129.38</v>
       </c>
       <c r="G139" t="n">
-        <v>-1129.78328159895</v>
+        <v>-1129.785617349931</v>
       </c>
       <c r="H139" t="n">
-        <v>22986.82766424902</v>
+        <v>22986.83</v>
       </c>
       <c r="I139" t="n">
-        <v>23509.38328159895</v>
+        <v>23509.38561734993</v>
       </c>
       <c r="J139" t="n">
-        <v>23376.28129007724</v>
+        <v>23376.28362582823</v>
       </c>
       <c r="K139" t="n">
-        <v>23119.93056264172</v>
+        <v>23119.9328983927</v>
       </c>
     </row>
     <row r="140">
@@ -24631,19 +24631,19 @@
         <v>129.28</v>
       </c>
       <c r="G140" t="n">
-        <v>185.7394105517124</v>
+        <v>185.7398812582833</v>
       </c>
       <c r="H140" t="n">
-        <v>22986.80047070657</v>
+        <v>22986.8</v>
       </c>
       <c r="I140" t="n">
-        <v>23486.96058944829</v>
+        <v>23486.96011874172</v>
       </c>
       <c r="J140" t="n">
-        <v>23358.25790161884</v>
+        <v>23358.25743091226</v>
       </c>
       <c r="K140" t="n">
-        <v>23115.50403612852</v>
+        <v>23115.50356542195</v>
       </c>
     </row>
     <row r="141">
@@ -24657,19 +24657,19 @@
         <v>129.18</v>
       </c>
       <c r="G141" t="n">
-        <v>-787.5679703466012</v>
+        <v>-787.5727610071117</v>
       </c>
       <c r="H141" t="n">
-        <v>22986.67520933949</v>
+        <v>22986.68</v>
       </c>
       <c r="I141" t="n">
-        <v>23465.8679703466</v>
+        <v>23465.87276100711</v>
       </c>
       <c r="J141" t="n">
-        <v>23341.35048730907</v>
+        <v>23341.35527796958</v>
       </c>
       <c r="K141" t="n">
-        <v>23111.19354206998</v>
+        <v>23111.19833273049</v>
       </c>
     </row>
     <row r="142">
@@ -24683,19 +24683,19 @@
         <v>129.08</v>
       </c>
       <c r="G142" t="n">
-        <v>-520.6303155381283</v>
+        <v>-520.6335412680965</v>
       </c>
       <c r="H142" t="n">
-        <v>22986.79677427003</v>
+        <v>22986.8</v>
       </c>
       <c r="I142" t="n">
-        <v>23446.33031553813</v>
+        <v>23446.3335412681</v>
       </c>
       <c r="J142" t="n">
-        <v>23325.79758036919</v>
+        <v>23325.80080609916</v>
       </c>
       <c r="K142" t="n">
-        <v>23107.33033252744</v>
+        <v>23107.33355825741</v>
       </c>
     </row>
     <row r="143">
@@ -24709,19 +24709,19 @@
         <v>128.98</v>
       </c>
       <c r="G143" t="n">
-        <v>-193.3106387921434</v>
+        <v>-193.3148764394246</v>
       </c>
       <c r="H143" t="n">
-        <v>22986.73576235272</v>
+        <v>22986.74</v>
       </c>
       <c r="I143" t="n">
-        <v>23427.81063879214</v>
+        <v>23427.81487643942</v>
       </c>
       <c r="J143" t="n">
-        <v>23311.07476923789</v>
+        <v>23311.07900688517</v>
       </c>
       <c r="K143" t="n">
-        <v>23103.47242960823</v>
+        <v>23103.47666725551</v>
       </c>
     </row>
     <row r="144">
@@ -24735,19 +24735,19 @@
         <v>128.88</v>
       </c>
       <c r="G144" t="n">
-        <v>-200.3993364111629</v>
+        <v>-200.4000866824063</v>
       </c>
       <c r="H144" t="n">
-        <v>22986.57924972876</v>
+        <v>22986.58</v>
       </c>
       <c r="I144" t="n">
-        <v>23410.29933641116</v>
+        <v>23410.30008668241</v>
       </c>
       <c r="J144" t="n">
-        <v>23297.18405603977</v>
+        <v>23297.18480631101</v>
       </c>
       <c r="K144" t="n">
-        <v>23099.69530355934</v>
+        <v>23099.69605383058</v>
       </c>
     </row>
     <row r="145">
@@ -24761,19 +24761,19 @@
         <v>128.78</v>
       </c>
       <c r="G145" t="n">
-        <v>-434.7953872003454</v>
+        <v>-434.7920909400636</v>
       </c>
       <c r="H145" t="n">
-        <v>22986.51329626028</v>
+        <v>22986.51</v>
       </c>
       <c r="I145" t="n">
-        <v>23393.89538720034</v>
+        <v>23393.89209094006</v>
       </c>
       <c r="J145" t="n">
-        <v>23284.2351445992</v>
+        <v>23284.23184833892</v>
       </c>
       <c r="K145" t="n">
-        <v>23096.17428915668</v>
+        <v>23096.1709928964</v>
       </c>
     </row>
     <row r="146">
@@ -24787,19 +24787,19 @@
         <v>128.68</v>
       </c>
       <c r="G146" t="n">
-        <v>-173.5318433071443</v>
+        <v>-173.5322813152343</v>
       </c>
       <c r="H146" t="n">
-        <v>22986.44956199191</v>
+        <v>22986.45</v>
       </c>
       <c r="I146" t="n">
-        <v>23378.43184330715</v>
+        <v>23378.43228131524</v>
       </c>
       <c r="J146" t="n">
-        <v>23272.07101014698</v>
+        <v>23272.07144815507</v>
       </c>
       <c r="K146" t="n">
-        <v>23092.81112329936</v>
+        <v>23092.81156130745</v>
       </c>
     </row>
     <row r="147">
@@ -24813,19 +24813,19 @@
         <v>128.58</v>
       </c>
       <c r="G147" t="n">
-        <v>-604.901680045572</v>
+        <v>-604.8995487962675</v>
       </c>
       <c r="H147" t="n">
-        <v>22986.45213124931</v>
+        <v>22986.45</v>
       </c>
       <c r="I147" t="n">
-        <v>23363.90168004557</v>
+        <v>23363.89954879627</v>
       </c>
       <c r="J147" t="n">
-        <v>23260.69381990903</v>
+        <v>23260.69168865973</v>
       </c>
       <c r="K147" t="n">
-        <v>23089.66069834322</v>
+        <v>23089.65856709391</v>
       </c>
     </row>
     <row r="148">
@@ -24839,19 +24839,19 @@
         <v>128.48</v>
       </c>
       <c r="G148" t="n">
-        <v>-131.4699984966282</v>
+        <v>-131.4694374976607</v>
       </c>
       <c r="H148" t="n">
-        <v>22986.45056099897</v>
+        <v>22986.45</v>
       </c>
       <c r="I148" t="n">
-        <v>23350.16999849663</v>
+        <v>23350.16943749766</v>
       </c>
       <c r="J148" t="n">
-        <v>23249.97719930482</v>
+        <v>23249.97663830585</v>
       </c>
       <c r="K148" t="n">
-        <v>23086.64404686243</v>
+        <v>23086.64348586346</v>
       </c>
     </row>
     <row r="149">
@@ -24865,19 +24865,19 @@
         <v>128.38</v>
       </c>
       <c r="G149" t="n">
-        <v>49.52567839968469</v>
+        <v>49.52659161496194</v>
       </c>
       <c r="H149" t="n">
-        <v>22986.24091321528</v>
+        <v>22986.24</v>
       </c>
       <c r="I149" t="n">
-        <v>23336.97432160032</v>
+        <v>23336.97340838504</v>
       </c>
       <c r="J149" t="n">
-        <v>23239.66658528695</v>
+        <v>23239.66567207167</v>
       </c>
       <c r="K149" t="n">
-        <v>23083.54931676858</v>
+        <v>23083.5484035533</v>
       </c>
     </row>
     <row r="150">
@@ -24891,19 +24891,19 @@
         <v>128.28</v>
       </c>
       <c r="G150" t="n">
-        <v>-139.7792387745794</v>
+        <v>-139.778196565625</v>
       </c>
       <c r="H150" t="n">
-        <v>22986.04104220896</v>
+        <v>22986.04</v>
       </c>
       <c r="I150" t="n">
-        <v>23324.47923877458</v>
+        <v>23324.47819656563</v>
       </c>
       <c r="J150" t="n">
-        <v>23229.93392257056</v>
+        <v>23229.93288036161</v>
       </c>
       <c r="K150" t="n">
-        <v>23080.58700702839</v>
+        <v>23080.58596481943</v>
       </c>
     </row>
     <row r="151">

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -54,6 +54,9 @@
     <font>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <i val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -484,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -593,6 +596,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20802,16 +20806,16 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>142.86</v>
+        <v>142.11</v>
       </c>
       <c r="G2" t="n">
-        <v>-114.6019808727433</v>
+        <v>-129.1028061455472</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26164.10198087274</v>
+        <v>26178.60280614555</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -20825,87 +20829,87 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>133.29</t>
+          <t>132.52</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>60831</t>
+          <t>99022</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>55526</t>
+          <t>117855</t>
         </is>
       </c>
       <c r="AE2" s="33" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="AF2" s="33" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="AG2" s="33" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AH2" s="33" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="AI2" s="33" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="AJ2" s="33" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="AG2" s="33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="AH2" s="33" t="inlineStr">
-        <is>
-          <t>61.8</t>
-        </is>
-      </c>
-      <c r="AI2" s="33" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="AJ2" s="33" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="AK2" s="33" t="inlineStr">
         <is>
-          <t>DS (A, σ, γ)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.47</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.47</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-202.7</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-464.3</t>
         </is>
       </c>
     </row>
@@ -20923,22 +20927,22 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>142.76</v>
+        <v>142.01</v>
       </c>
       <c r="G3" t="n">
-        <v>-117.2937473931743</v>
+        <v>-132.1679311081789</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26554.89374739317</v>
+        <v>26569.76793110818</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>126.47,142.47</t>
+          <t>125.72,141.72</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -20953,7 +20957,7 @@
       </c>
       <c r="AC3" s="36" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>1:80</t>
         </is>
       </c>
       <c r="AD3" s="36" t="inlineStr">
@@ -20968,12 +20972,12 @@
       </c>
       <c r="AF3" s="36" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>0.3:3</t>
         </is>
       </c>
       <c r="AG3" s="36" t="inlineStr">
         <is>
-          <t>0.01:1</t>
+          <t>0.01:2</t>
         </is>
       </c>
       <c r="AH3" s="36" t="inlineStr"/>
@@ -20999,16 +21003,16 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>142.66</v>
+        <v>141.91</v>
       </c>
       <c r="G4" t="n">
-        <v>-120.0824388840301</v>
+        <v>-135.3449108654422</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26816.98243888403</v>
+        <v>26832.24491086544</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -21022,87 +21026,87 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>135.02</t>
+          <t>134.27</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>37529</t>
+          <t>67894</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>34256</t>
+          <t>80803</t>
         </is>
       </c>
       <c r="AE4" s="33" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="AF4" s="33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AG4" s="33" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>61.7</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="AK4" s="33" t="inlineStr">
         <is>
-          <t>DS (A, σ, γ)</t>
+          <t>Voigt (Area, L/G, σ)</t>
         </is>
       </c>
       <c r="AL4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.47</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.47</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-202.7</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-464.3</t>
         </is>
       </c>
     </row>
@@ -21120,16 +21124,16 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>142.56</v>
+        <v>141.81</v>
       </c>
       <c r="G5" t="n">
-        <v>-122.9728123997957</v>
+        <v>-138.639324300897</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>26065.57281239979</v>
+        <v>26081.2393243009</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
@@ -21145,7 +21149,7 @@
       </c>
       <c r="AB5" s="36" t="inlineStr">
         <is>
-          <t>A*1</t>
+          <t>0.3:3.5</t>
         </is>
       </c>
       <c r="AC5" s="36" t="inlineStr">
@@ -21196,16 +21200,16 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>142.46</v>
+        <v>141.71</v>
       </c>
       <c r="G6" t="n">
-        <v>-125.9699233480787</v>
+        <v>-142.0571068733952</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26691.76992334808</v>
+        <v>26707.85710687339</v>
       </c>
     </row>
     <row r="7">
@@ -21222,16 +21226,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>142.36</v>
+        <v>141.61</v>
       </c>
       <c r="G7" t="n">
-        <v>-129.0791484413421</v>
+        <v>-145.604578652601</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26218.77914844134</v>
+        <v>26235.3045786526</v>
       </c>
     </row>
     <row r="8">
@@ -21248,16 +21252,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>142.26</v>
+        <v>141.51</v>
       </c>
       <c r="G8" t="n">
-        <v>-132.3062107534388</v>
+        <v>-149.288474990004</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>26916.90621075344</v>
+        <v>26933.88847499</v>
       </c>
     </row>
     <row r="9">
@@ -21274,16 +21278,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>142.16</v>
+        <v>141.41</v>
       </c>
       <c r="G9" t="n">
-        <v>-135.6572071063347</v>
+        <v>-153.1159801157919</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26493.35720710634</v>
+        <v>26510.81598011579</v>
       </c>
     </row>
     <row r="10">
@@ -21300,16 +21304,16 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>142.06</v>
+        <v>141.31</v>
       </c>
       <c r="G10" t="n">
-        <v>-139.1386380399344</v>
+        <v>-157.094763988247</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26395.13863803993</v>
+        <v>26413.09476398825</v>
       </c>
     </row>
     <row r="11">
@@ -21326,16 +21330,16 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>141.96</v>
+        <v>141.21</v>
       </c>
       <c r="G11" t="n">
-        <v>-142.7574406496751</v>
+        <v>-161.2330227648381</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26662.05744064967</v>
+        <v>26680.53302276484</v>
       </c>
     </row>
     <row r="12">
@@ -21352,16 +21356,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>141.86</v>
+        <v>141.11</v>
       </c>
       <c r="G12" t="n">
-        <v>-146.5210246123934</v>
+        <v>-165.5395233122181</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>26095.12102461239</v>
+        <v>26114.13952331222</v>
       </c>
     </row>
     <row r="13">
@@ -21378,16 +21382,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>141.76</v>
+        <v>141.01</v>
       </c>
       <c r="G13" t="n">
-        <v>-150.4373117623072</v>
+        <v>-170.0236522278319</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>27095.73731176231</v>
+        <v>27115.32365222783</v>
       </c>
     </row>
     <row r="14">
@@ -21404,16 +21408,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>141.66</v>
+        <v>140.91</v>
       </c>
       <c r="G14" t="n">
-        <v>-154.5147796260317</v>
+        <v>-174.6954699097405</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26598.51477962603</v>
+        <v>26618.69546990974</v>
       </c>
     </row>
     <row r="15">
@@ -21430,16 +21434,16 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>141.56</v>
+        <v>140.81</v>
       </c>
       <c r="G15" t="n">
-        <v>-158.762509379867</v>
+        <v>-179.5657702848366</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>26888.36250937987</v>
+        <v>26909.16577028484</v>
       </c>
     </row>
     <row r="16">
@@ -21456,16 +21460,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>141.46</v>
+        <v>140.71</v>
       </c>
       <c r="G16" t="n">
-        <v>-163.1902387547525</v>
+        <v>-184.6461468909256</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27209.09023875475</v>
+        <v>27230.54614689093</v>
       </c>
     </row>
     <row r="17">
@@ -21482,16 +21486,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>141.36</v>
+        <v>140.61</v>
       </c>
       <c r="G17" t="n">
-        <v>-167.8084204862898</v>
+        <v>-189.9490661068048</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26442.10842048629</v>
+        <v>26464.2490661068</v>
       </c>
     </row>
     <row r="18">
@@ -21508,16 +21512,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>141.26</v>
+        <v>140.51</v>
       </c>
       <c r="G18" t="n">
-        <v>-172.6282869901406</v>
+        <v>-195.4879484391968</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>25894.32828699014</v>
+        <v>25917.1879484392</v>
       </c>
     </row>
     <row r="19">
@@ -21534,16 +21538,16 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>141.16</v>
+        <v>140.41</v>
       </c>
       <c r="G19" t="n">
-        <v>-177.6619220392968</v>
+        <v>-201.2772589091583</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26377.2619220393</v>
+        <v>26400.87725890916</v>
       </c>
     </row>
     <row r="20">
@@ -21560,16 +21564,16 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>141.06</v>
+        <v>140.31</v>
       </c>
       <c r="G20" t="n">
-        <v>-182.9223403311844</v>
+        <v>-207.3326077365491</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27358.62234033119</v>
+        <v>27383.03260773655</v>
       </c>
     </row>
     <row r="21">
@@ -21586,16 +21590,16 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>140.96</v>
+        <v>140.21</v>
       </c>
       <c r="G21" t="n">
-        <v>-188.4235759623625</v>
+        <v>-213.6708627039188</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26330.42357596236</v>
+        <v>26355.67086270392</v>
       </c>
     </row>
     <row r="22">
@@ -21612,16 +21616,16 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>140.86</v>
+        <v>140.11</v>
       </c>
       <c r="G22" t="n">
-        <v>-194.1807809798338</v>
+        <v>-220.3102747958546</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26614.08078097984</v>
+        <v>26640.21027479586</v>
       </c>
     </row>
     <row r="23">
@@ -21638,16 +21642,16 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>140.76</v>
+        <v>140.01</v>
       </c>
       <c r="G23" t="n">
-        <v>-200.2103353549428</v>
+        <v>-227.2706189624914</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27493.91033535494</v>
+        <v>27520.97061896249</v>
       </c>
     </row>
     <row r="24">
@@ -21664,16 +21668,16 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>140.66</v>
+        <v>139.91</v>
       </c>
       <c r="G24" t="n">
-        <v>-206.5299699330353</v>
+        <v>-234.5733521543225</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26397.62996993303</v>
+        <v>26425.67335215432</v>
       </c>
     </row>
     <row r="25">
@@ -21690,16 +21694,16 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>140.56</v>
+        <v>139.81</v>
       </c>
       <c r="G25" t="n">
-        <v>-213.1589041558764</v>
+        <v>-242.2417911292359</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26657.85890415588</v>
+        <v>26686.94179112924</v>
       </c>
     </row>
     <row r="26">
@@ -21716,16 +21720,16 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>140.46</v>
+        <v>139.71</v>
       </c>
       <c r="G26" t="n">
-        <v>-220.1180006407812</v>
+        <v>-250.3013129527717</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26613.91800064078</v>
+        <v>26644.10131295277</v>
       </c>
     </row>
     <row r="27">
@@ -21742,16 +21746,16 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>140.36</v>
+        <v>139.61</v>
       </c>
       <c r="G27" t="n">
-        <v>-227.4299390400702</v>
+        <v>-258.7795816140861</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26250.62993904007</v>
+        <v>26281.97958161409</v>
       </c>
     </row>
     <row r="28">
@@ -21768,16 +21772,16 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>140.26</v>
+        <v>139.51</v>
       </c>
       <c r="G28" t="n">
-        <v>-235.1194120066284</v>
+        <v>-267.7068047797002</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27304.91941200663</v>
+        <v>27337.5068047797</v>
       </c>
     </row>
     <row r="29">
@@ -21794,16 +21798,16 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>140.16</v>
+        <v>139.41</v>
       </c>
       <c r="G29" t="n">
-        <v>-243.2133465699553</v>
+        <v>-277.1160254276583</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26405.01334656995</v>
+        <v>26438.91602542766</v>
       </c>
     </row>
     <row r="30">
@@ -21820,16 +21824,16 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>140.06</v>
+        <v>139.31</v>
       </c>
       <c r="G30" t="n">
-        <v>-251.7411547979063</v>
+        <v>-287.0434539732014</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26551.94115479791</v>
+        <v>26587.2434539732</v>
       </c>
     </row>
     <row r="31">
@@ -21846,16 +21850,16 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>139.96</v>
+        <v>139.21</v>
       </c>
       <c r="G31" t="n">
-        <v>-260.7350183025155</v>
+        <v>-297.5288475480738</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26439.93501830252</v>
+        <v>26476.72884754807</v>
       </c>
     </row>
     <row r="32">
@@ -21872,16 +21876,16 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>139.86</v>
+        <v>139.11</v>
       </c>
       <c r="G32" t="n">
-        <v>-270.2302119689302</v>
+        <v>-308.6159443732504</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>26222.63021196893</v>
+        <v>26261.01594437325</v>
       </c>
     </row>
     <row r="33">
@@ -21898,16 +21902,16 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>139.76</v>
+        <v>139.01</v>
       </c>
       <c r="G33" t="n">
-        <v>-280.2654732756891</v>
+        <v>-320.3529627239477</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>26103.36547327569</v>
+        <v>26143.45296272395</v>
       </c>
     </row>
     <row r="34">
@@ -21924,16 +21928,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>139.66</v>
+        <v>138.91</v>
       </c>
       <c r="G34" t="n">
-        <v>-290.8834247711966</v>
+        <v>-332.7931758975319</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>26087.0834247712</v>
+        <v>26128.99317589753</v>
       </c>
     </row>
     <row r="35">
@@ -21950,16 +21954,16 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>139.56</v>
+        <v>138.81</v>
       </c>
       <c r="G35" t="n">
-        <v>-302.131058724859</v>
+        <v>-345.9955769499575</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>26009.03105872486</v>
+        <v>26052.89557694996</v>
       </c>
     </row>
     <row r="36">
@@ -21976,16 +21980,16 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>139.46</v>
+        <v>138.71</v>
       </c>
       <c r="G36" t="n">
-        <v>-314.0602947435182</v>
+        <v>-360.0256498814451</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>26179.66029474352</v>
+        <v>26225.62564988144</v>
       </c>
     </row>
     <row r="37">
@@ -22002,16 +22006,16 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>139.36</v>
+        <v>138.61</v>
       </c>
       <c r="G37" t="n">
-        <v>-326.728623314295</v>
+        <v>-374.9562675805137</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26477.32862331429</v>
+        <v>26525.55626758051</v>
       </c>
     </row>
     <row r="38">
@@ -22028,16 +22032,16 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>139.26</v>
+        <v>138.51</v>
       </c>
       <c r="G38" t="n">
-        <v>-340.1998509041769</v>
+        <v>-390.8687413745247</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>25950.69985090418</v>
+        <v>26001.36874137452</v>
       </c>
     </row>
     <row r="39">
@@ -22054,16 +22058,16 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>139.16</v>
+        <v>138.41</v>
       </c>
       <c r="G39" t="n">
-        <v>-354.5449655440098</v>
+        <v>-407.8540527484656</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>25968.84496554401</v>
+        <v>26022.15405274846</v>
       </c>
     </row>
     <row r="40">
@@ -22080,16 +22084,16 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>139.06</v>
+        <v>138.31</v>
       </c>
       <c r="G40" t="n">
-        <v>-369.8431459184212</v>
+        <v>-426.0143050273655</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25852.24314591842</v>
+        <v>25908.41430502737</v>
       </c>
     </row>
     <row r="41">
@@ -22106,16 +22110,16 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>138.96</v>
+        <v>138.21</v>
       </c>
       <c r="G41" t="n">
-        <v>-386.1829420889626</v>
+        <v>-445.4644420369223</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>26206.88294208896</v>
+        <v>26266.16444203692</v>
       </c>
     </row>
     <row r="42">
@@ -22132,16 +22136,16 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>138.86</v>
+        <v>138.11</v>
       </c>
       <c r="G42" t="n">
-        <v>-403.6636623809281</v>
+        <v>-466.3342925862235</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25741.56366238093</v>
+        <v>25804.23429258622</v>
       </c>
     </row>
     <row r="43">
@@ -22158,16 +22162,16 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>138.76</v>
+        <v>138.01</v>
       </c>
       <c r="G43" t="n">
-        <v>-422.3970090358853</v>
+        <v>-488.7710149056875</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>26082.79700903589</v>
+        <v>26149.17101490569</v>
       </c>
     </row>
     <row r="44">
@@ -22184,16 +22188,16 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>138.66</v>
+        <v>137.91</v>
       </c>
       <c r="G44" t="n">
-        <v>-442.5090154654681</v>
+        <v>-512.9420350878609</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25573.00901546547</v>
+        <v>25643.44203508786</v>
       </c>
     </row>
     <row r="45">
@@ -22210,16 +22214,16 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>138.56</v>
+        <v>137.81</v>
       </c>
       <c r="G45" t="n">
-        <v>-464.1423509932647</v>
+        <v>-539.0385997328631</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25784.74235099326</v>
+        <v>25859.63859973286</v>
       </c>
     </row>
     <row r="46">
@@ -22236,16 +22240,16 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>138.46</v>
+        <v>137.71</v>
       </c>
       <c r="G46" t="n">
-        <v>-487.4590757190817</v>
+        <v>-567.2800976524231</v>
       </c>
       <c r="H46" t="n">
         <v>24983.9</v>
       </c>
       <c r="I46" t="n">
-        <v>25471.35907571908</v>
+        <v>25551.18009765242</v>
       </c>
     </row>
     <row r="47">
@@ -22262,16 +22266,16 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>138.36</v>
+        <v>137.61</v>
       </c>
       <c r="G47" t="n">
-        <v>-512.6439497718384</v>
+        <v>-597.9193518374341</v>
       </c>
       <c r="H47" t="n">
         <v>25008</v>
       </c>
       <c r="I47" t="n">
-        <v>25520.64394977184</v>
+        <v>25605.91935183743</v>
       </c>
     </row>
     <row r="48">
@@ -22288,16 +22292,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>138.26</v>
+        <v>137.51</v>
       </c>
       <c r="G48" t="n">
-        <v>-539.9084293487504</v>
+        <v>-631.2491455277232</v>
       </c>
       <c r="H48" t="n">
         <v>24993.3</v>
       </c>
       <c r="I48" t="n">
-        <v>25533.20842934875</v>
+        <v>25624.54914552772</v>
       </c>
     </row>
     <row r="49">
@@ -22314,16 +22318,16 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>138.16</v>
+        <v>137.41</v>
       </c>
       <c r="G49" t="n">
-        <v>-569.495518785996</v>
+        <v>-667.6103318022833</v>
       </c>
       <c r="H49" t="n">
         <v>25038.8</v>
       </c>
       <c r="I49" t="n">
-        <v>25608.295518786</v>
+        <v>25706.41033180228</v>
       </c>
     </row>
     <row r="50">
@@ -22340,16 +22344,16 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>138.06</v>
+        <v>137.31</v>
       </c>
       <c r="G50" t="n">
-        <v>-601.6856965370353</v>
+        <v>-707.4019944538777</v>
       </c>
       <c r="H50" t="n">
         <v>24708.8</v>
       </c>
       <c r="I50" t="n">
-        <v>25310.48569653703</v>
+        <v>25416.20199445388</v>
       </c>
     </row>
     <row r="51">
@@ -22366,16 +22370,16 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>137.96</v>
+        <v>137.21</v>
       </c>
       <c r="G51" t="n">
-        <v>-636.8041976293753</v>
+        <v>-751.0942937344626</v>
       </c>
       <c r="H51" t="n">
         <v>24696.9</v>
       </c>
       <c r="I51" t="n">
-        <v>25333.70419762938</v>
+        <v>25447.99429373446</v>
       </c>
     </row>
     <row r="52">
@@ -22392,16 +22396,16 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>137.86</v>
+        <v>137.11</v>
       </c>
       <c r="G52" t="n">
-        <v>-675.2300219623903</v>
+        <v>-799.2448662919305</v>
       </c>
       <c r="H52" t="n">
         <v>24663.5</v>
       </c>
       <c r="I52" t="n">
-        <v>25338.73002196239</v>
+        <v>25462.74486629193</v>
       </c>
     </row>
     <row r="53">
@@ -22418,16 +22422,16 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>137.76</v>
+        <v>137.01</v>
       </c>
       <c r="G53" t="n">
-        <v>-717.4071552819478</v>
+        <v>-852.5199891619704</v>
       </c>
       <c r="H53" t="n">
         <v>24656</v>
       </c>
       <c r="I53" t="n">
-        <v>25373.40715528195</v>
+        <v>25508.51998916197</v>
       </c>
     </row>
     <row r="54">
@@ -22444,16 +22448,16 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>137.66</v>
+        <v>136.91</v>
       </c>
       <c r="G54" t="n">
-        <v>-763.8586501669452</v>
+        <v>-911.7222185598548</v>
       </c>
       <c r="H54" t="n">
         <v>24583</v>
       </c>
       <c r="I54" t="n">
-        <v>25346.85865016695</v>
+        <v>25494.72221855985</v>
       </c>
     </row>
     <row r="55">
@@ -22470,16 +22474,16 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>137.56</v>
+        <v>136.81</v>
       </c>
       <c r="G55" t="n">
-        <v>-848.3044358365805</v>
+        <v>-1010.926966111187</v>
       </c>
       <c r="H55" t="n">
         <v>24309.7</v>
       </c>
       <c r="I55" t="n">
-        <v>25124.90443583658</v>
+        <v>25287.52696611119</v>
       </c>
     </row>
     <row r="56">
@@ -22496,16 +22500,16 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>137.46</v>
+        <v>136.71</v>
       </c>
       <c r="G56" t="n">
-        <v>-366.9540344312663</v>
+        <v>-546.8016306616337</v>
       </c>
       <c r="H56" t="n">
         <v>24301.17</v>
       </c>
       <c r="I56" t="n">
-        <v>25173.35403443127</v>
+        <v>25353.20163066164</v>
       </c>
     </row>
     <row r="57">
@@ -22522,16 +22526,16 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>137.36</v>
+        <v>136.61</v>
       </c>
       <c r="G57" t="n">
-        <v>2.324203059975844</v>
+        <v>-197.8127288989963</v>
       </c>
       <c r="H57" t="n">
         <v>24300.99</v>
       </c>
       <c r="I57" t="n">
-        <v>25236.67579694002</v>
+        <v>25436.812728899</v>
       </c>
     </row>
     <row r="58">
@@ -22548,16 +22552,16 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>137.26</v>
+        <v>136.51</v>
       </c>
       <c r="G58" t="n">
-        <v>-650.9448934244683</v>
+        <v>-875.2294452061542</v>
       </c>
       <c r="H58" t="n">
         <v>24300.46</v>
       </c>
       <c r="I58" t="n">
-        <v>25307.24489342447</v>
+        <v>25531.52944520615</v>
       </c>
     </row>
     <row r="59">
@@ -22574,16 +22578,16 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>137.16</v>
+        <v>136.41</v>
       </c>
       <c r="G59" t="n">
-        <v>-902.2831902783255</v>
+        <v>-1155.647063249085</v>
       </c>
       <c r="H59" t="n">
         <v>24299.99</v>
       </c>
       <c r="I59" t="n">
-        <v>25386.78319027833</v>
+        <v>25640.14706324909</v>
       </c>
     </row>
     <row r="60">
@@ -22600,16 +22604,16 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>137.06</v>
+        <v>136.31</v>
       </c>
       <c r="G60" t="n">
-        <v>-368.9154626009731</v>
+        <v>-657.7726407957744</v>
       </c>
       <c r="H60" t="n">
         <v>24299.79</v>
       </c>
       <c r="I60" t="n">
-        <v>25477.11546260097</v>
+        <v>25765.97264079578</v>
       </c>
     </row>
     <row r="61">
@@ -22626,16 +22630,16 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>136.96</v>
+        <v>136.21</v>
       </c>
       <c r="G61" t="n">
-        <v>-623.6183439113447</v>
+        <v>-956.481636767603</v>
       </c>
       <c r="H61" t="n">
         <v>24299.43</v>
       </c>
       <c r="I61" t="n">
-        <v>25579.81834391135</v>
+        <v>25912.6816367676</v>
       </c>
     </row>
     <row r="62">
@@ -22652,16 +22656,16 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>136.86</v>
+        <v>136.11</v>
       </c>
       <c r="G62" t="n">
-        <v>-591.8913630879943</v>
+        <v>-980.3351278369191</v>
       </c>
       <c r="H62" t="n">
         <v>24298.89</v>
       </c>
       <c r="I62" t="n">
-        <v>25697.39136308799</v>
+        <v>26085.83512783692</v>
       </c>
     </row>
     <row r="63">
@@ -22678,16 +22682,16 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>136.76</v>
+        <v>136.01</v>
       </c>
       <c r="G63" t="n">
-        <v>92.8860628310249</v>
+        <v>-367.336181765746</v>
       </c>
       <c r="H63" t="n">
         <v>24298.35</v>
       </c>
       <c r="I63" t="n">
-        <v>25833.21393716897</v>
+        <v>26293.43618176574</v>
       </c>
     </row>
     <row r="64">
@@ -22704,16 +22708,16 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>136.66</v>
+        <v>135.91</v>
       </c>
       <c r="G64" t="n">
-        <v>-156.6492358099713</v>
+        <v>-712.1032497517044</v>
       </c>
       <c r="H64" t="n">
         <v>24297.46</v>
       </c>
       <c r="I64" t="n">
-        <v>25991.04923580997</v>
+        <v>26546.50324975171</v>
       </c>
     </row>
     <row r="65">
@@ -22730,16 +22734,16 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>136.56</v>
+        <v>135.81</v>
       </c>
       <c r="G65" t="n">
-        <v>152.1629749950225</v>
+        <v>-533.7967964858653</v>
       </c>
       <c r="H65" t="n">
         <v>24296.3</v>
       </c>
       <c r="I65" t="n">
-        <v>26176.33702500498</v>
+        <v>26862.29679648587</v>
       </c>
     </row>
     <row r="66">
@@ -22756,16 +22760,16 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>136.46</v>
+        <v>135.71</v>
       </c>
       <c r="G66" t="n">
-        <v>364.4242855348384</v>
+        <v>-507.1564896578711</v>
       </c>
       <c r="H66" t="n">
         <v>24294.98</v>
       </c>
       <c r="I66" t="n">
-        <v>26396.27571446516</v>
+        <v>27267.85648965787</v>
       </c>
     </row>
     <row r="67">
@@ -22782,16 +22786,16 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>136.36</v>
+        <v>135.61</v>
       </c>
       <c r="G67" t="n">
-        <v>395.3762520826822</v>
+        <v>-750.7161288526586</v>
       </c>
       <c r="H67" t="n">
         <v>24293.33</v>
       </c>
       <c r="I67" t="n">
-        <v>26660.22374791732</v>
+        <v>27806.31612885266</v>
       </c>
     </row>
     <row r="68">
@@ -22808,16 +22812,16 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>136.26</v>
+        <v>135.51</v>
       </c>
       <c r="G68" t="n">
-        <v>967.8191189912031</v>
+        <v>-598.7210625946609</v>
       </c>
       <c r="H68" t="n">
         <v>24291.41</v>
       </c>
       <c r="I68" t="n">
-        <v>26981.2808810088</v>
+        <v>28547.82106259466</v>
       </c>
     </row>
     <row r="69">
@@ -22834,16 +22838,16 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>136.16</v>
+        <v>135.41</v>
       </c>
       <c r="G69" t="n">
-        <v>1340.423478319233</v>
+        <v>-885.7068556496088</v>
       </c>
       <c r="H69" t="n">
         <v>24289.05</v>
       </c>
       <c r="I69" t="n">
-        <v>27377.47652168077</v>
+        <v>29603.60685564961</v>
       </c>
     </row>
     <row r="70">
@@ -22860,16 +22864,16 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>136.06</v>
+        <v>135.31</v>
       </c>
       <c r="G70" t="n">
-        <v>2843.026129345755</v>
+        <v>-425.1669557119676</v>
       </c>
       <c r="H70" t="n">
         <v>24286.06</v>
       </c>
       <c r="I70" t="n">
-        <v>27874.57387065424</v>
+        <v>31142.76695571197</v>
       </c>
     </row>
     <row r="71">
@@ -22886,16 +22890,16 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>135.96</v>
+        <v>135.21</v>
       </c>
       <c r="G71" t="n">
-        <v>4269.732889822579</v>
+        <v>-623.8803938173369</v>
       </c>
       <c r="H71" t="n">
         <v>24282.05</v>
       </c>
       <c r="I71" t="n">
-        <v>28510.06711017742</v>
+        <v>33403.68039381734</v>
       </c>
     </row>
     <row r="72">
@@ -22912,16 +22916,16 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>135.86</v>
+        <v>135.11</v>
       </c>
       <c r="G72" t="n">
-        <v>7209.965376897762</v>
+        <v>-137.1662946371434</v>
       </c>
       <c r="H72" t="n">
         <v>24276.51</v>
       </c>
       <c r="I72" t="n">
-        <v>29340.13462310224</v>
+        <v>36687.26629463714</v>
       </c>
     </row>
     <row r="73">
@@ -22938,16 +22942,16 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>135.76</v>
+        <v>135.01</v>
       </c>
       <c r="G73" t="n">
-        <v>10869.40117649925</v>
+        <v>6.859378287335858</v>
       </c>
       <c r="H73" t="n">
         <v>24268.77</v>
       </c>
       <c r="I73" t="n">
-        <v>30451.09882350075</v>
+        <v>41313.64062171266</v>
       </c>
     </row>
     <row r="74">
@@ -22964,16 +22968,16 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>135.66</v>
+        <v>134.91</v>
       </c>
       <c r="G74" t="n">
-        <v>15390.15977354385</v>
+        <v>-159.3847511004351</v>
       </c>
       <c r="H74" t="n">
         <v>24257.81</v>
       </c>
       <c r="I74" t="n">
-        <v>31978.54022645615</v>
+        <v>47528.08475110043</v>
       </c>
     </row>
     <row r="75">
@@ -22990,16 +22994,16 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>135.56</v>
+        <v>134.81</v>
       </c>
       <c r="G75" t="n">
-        <v>21405.19989307935</v>
+        <v>182.4684439382108</v>
       </c>
       <c r="H75" t="n">
         <v>24242.7</v>
       </c>
       <c r="I75" t="n">
-        <v>34139.10010692065</v>
+        <v>55361.83155606179</v>
       </c>
     </row>
     <row r="76">
@@ -23016,16 +23020,16 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>135.46</v>
+        <v>134.71</v>
       </c>
       <c r="G76" t="n">
-        <v>26117.85235398713</v>
+        <v>-1091.543539336686</v>
       </c>
       <c r="H76" t="n">
         <v>24222.13</v>
       </c>
       <c r="I76" t="n">
-        <v>37274.04764601287</v>
+        <v>64483.44353933669</v>
       </c>
     </row>
     <row r="77">
@@ -23042,16 +23046,16 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>135.36</v>
+        <v>134.61</v>
       </c>
       <c r="G77" t="n">
-        <v>31797.34513405537</v>
+        <v>-438.4966967341898</v>
       </c>
       <c r="H77" t="n">
         <v>24195.31</v>
       </c>
       <c r="I77" t="n">
-        <v>41876.55486594462</v>
+        <v>74112.39669673418</v>
       </c>
     </row>
     <row r="78">
@@ -23068,16 +23072,16 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>135.26</v>
+        <v>134.51</v>
       </c>
       <c r="G78" t="n">
-        <v>35093.19458411841</v>
+        <v>451.5807591752382</v>
       </c>
       <c r="H78" t="n">
         <v>24161.31</v>
       </c>
       <c r="I78" t="n">
-        <v>48426.00541588159</v>
+        <v>83067.61924082476</v>
       </c>
     </row>
     <row r="79">
@@ -23094,16 +23098,16 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>135.16</v>
+        <v>134.41</v>
       </c>
       <c r="G79" t="n">
-        <v>34835.09049642468</v>
+        <v>1311.859785569206</v>
       </c>
       <c r="H79" t="n">
         <v>24119.43</v>
       </c>
       <c r="I79" t="n">
-        <v>56466.60950357532</v>
+        <v>89989.84021443079</v>
       </c>
     </row>
     <row r="80">
@@ -23120,16 +23124,16 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>135.06</v>
+        <v>134.31</v>
       </c>
       <c r="G80" t="n">
-        <v>31216.1679969351</v>
+        <v>168.0071483326174</v>
       </c>
       <c r="H80" t="n">
         <v>24070.88</v>
       </c>
       <c r="I80" t="n">
-        <v>62646.9320030649</v>
+        <v>93695.09285166739</v>
       </c>
     </row>
     <row r="81">
@@ -23146,16 +23150,16 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>134.96</v>
+        <v>134.21</v>
       </c>
       <c r="G81" t="n">
-        <v>32858.81164898055</v>
+        <v>1334.727380257114</v>
       </c>
       <c r="H81" t="n">
         <v>24018.61</v>
       </c>
       <c r="I81" t="n">
-        <v>62009.68835101945</v>
+        <v>93533.77261974289</v>
       </c>
     </row>
     <row r="82">
@@ -23172,16 +23176,16 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>134.86</v>
+        <v>134.11</v>
       </c>
       <c r="G82" t="n">
-        <v>34159.23921946959</v>
+        <v>-117.2187569337693</v>
       </c>
       <c r="H82" t="n">
         <v>23965.58</v>
       </c>
       <c r="I82" t="n">
-        <v>55329.66078053041</v>
+        <v>89606.11875693376</v>
       </c>
     </row>
     <row r="83">
@@ -23198,16 +23202,16 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>134.76</v>
+        <v>134.01</v>
       </c>
       <c r="G83" t="n">
-        <v>33874.29621365187</v>
+        <v>-1085.848310731031</v>
       </c>
       <c r="H83" t="n">
         <v>23915.21</v>
       </c>
       <c r="I83" t="n">
-        <v>47781.40378634813</v>
+        <v>82741.54831073103</v>
       </c>
     </row>
     <row r="84">
@@ -23224,16 +23228,16 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>134.66</v>
+        <v>133.91</v>
       </c>
       <c r="G84" t="n">
-        <v>30824.55095263303</v>
+        <v>-1390.274588039305</v>
       </c>
       <c r="H84" t="n">
         <v>23870.53</v>
       </c>
       <c r="I84" t="n">
-        <v>42036.54904736698</v>
+        <v>74251.37458803931</v>
       </c>
     </row>
     <row r="85">
@@ -23250,16 +23254,16 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>134.56</v>
+        <v>133.81</v>
       </c>
       <c r="G85" t="n">
-        <v>26980.19324141482</v>
+        <v>-342.6090164602792</v>
       </c>
       <c r="H85" t="n">
         <v>23832.41</v>
       </c>
       <c r="I85" t="n">
-        <v>38247.80675858518</v>
+        <v>65570.60901646028</v>
       </c>
     </row>
     <row r="86">
@@ -23276,16 +23280,16 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>134.46</v>
+        <v>133.71</v>
       </c>
       <c r="G86" t="n">
-        <v>21901.85526414009</v>
+        <v>-119.4265850369047</v>
       </c>
       <c r="H86" t="n">
         <v>23800.54</v>
       </c>
       <c r="I86" t="n">
-        <v>35923.14473585991</v>
+        <v>57944.4265850369</v>
       </c>
     </row>
     <row r="87">
@@ -23302,16 +23306,16 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>134.36</v>
+        <v>133.61</v>
       </c>
       <c r="G87" t="n">
-        <v>18070.40591727757</v>
+        <v>440.4526555220291</v>
       </c>
       <c r="H87" t="n">
         <v>23774.12</v>
       </c>
       <c r="I87" t="n">
-        <v>34634.79408272242</v>
+        <v>52264.74734447797</v>
       </c>
     </row>
     <row r="88">
@@ -23328,16 +23332,16 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>134.26</v>
+        <v>133.51</v>
       </c>
       <c r="G88" t="n">
-        <v>15389.43929680615</v>
+        <v>436.4826989846988</v>
       </c>
       <c r="H88" t="n">
         <v>23751.9</v>
       </c>
       <c r="I88" t="n">
-        <v>34122.96070319385</v>
+        <v>49075.9173010153</v>
       </c>
     </row>
     <row r="89">
@@ -23354,16 +23358,16 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>134.16</v>
+        <v>133.41</v>
       </c>
       <c r="G89" t="n">
-        <v>15050.57671163527</v>
+        <v>632.3826064972454</v>
       </c>
       <c r="H89" t="n">
         <v>23732.09</v>
       </c>
       <c r="I89" t="n">
-        <v>34269.02328836473</v>
+        <v>48687.21739350275</v>
       </c>
     </row>
     <row r="90">
@@ -23380,16 +23384,16 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>134.06</v>
+        <v>133.31</v>
       </c>
       <c r="G90" t="n">
-        <v>17640.97139861046</v>
+        <v>1419.420176263775</v>
       </c>
       <c r="H90" t="n">
         <v>23712.54</v>
       </c>
       <c r="I90" t="n">
-        <v>35069.52860138954</v>
+        <v>51291.07982373623</v>
       </c>
     </row>
     <row r="91">
@@ -23406,16 +23410,16 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>133.96</v>
+        <v>133.21</v>
       </c>
       <c r="G91" t="n">
-        <v>19869.17569116848</v>
+        <v>-493.267977379568</v>
       </c>
       <c r="H91" t="n">
         <v>23691.1</v>
       </c>
       <c r="I91" t="n">
-        <v>36634.72430883152</v>
+        <v>56997.16797737957</v>
       </c>
     </row>
     <row r="92">
@@ -23432,16 +23436,16 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>133.86</v>
+        <v>133.11</v>
       </c>
       <c r="G92" t="n">
-        <v>27004.61591780664</v>
+        <v>478.1793015723379</v>
       </c>
       <c r="H92" t="n">
         <v>23665.83</v>
       </c>
       <c r="I92" t="n">
-        <v>39215.58408219335</v>
+        <v>65742.02069842766</v>
       </c>
     </row>
     <row r="93">
@@ -23458,16 +23462,16 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>133.76</v>
+        <v>133.01</v>
       </c>
       <c r="G93" t="n">
-        <v>33492.18683420466</v>
+        <v>-351.4758516986185</v>
       </c>
       <c r="H93" t="n">
         <v>23634.1</v>
       </c>
       <c r="I93" t="n">
-        <v>43258.91316579535</v>
+        <v>77102.57585169862</v>
       </c>
     </row>
     <row r="94">
@@ -23484,16 +23488,16 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>133.66</v>
+        <v>132.91</v>
       </c>
       <c r="G94" t="n">
-        <v>41248.50569994315</v>
+        <v>602.2970086294663</v>
       </c>
       <c r="H94" t="n">
         <v>23593.56</v>
       </c>
       <c r="I94" t="n">
-        <v>49466.19430005684</v>
+        <v>90112.40299137053</v>
       </c>
     </row>
     <row r="95">
@@ -23510,16 +23514,16 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>133.56</v>
+        <v>132.81</v>
       </c>
       <c r="G95" t="n">
-        <v>43219.83260909878</v>
+        <v>-1314.019627350252</v>
       </c>
       <c r="H95" t="n">
         <v>23543.01</v>
       </c>
       <c r="I95" t="n">
-        <v>58675.16739090122</v>
+        <v>103209.0196273503</v>
       </c>
     </row>
     <row r="96">
@@ -23536,16 +23540,16 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>133.46</v>
+        <v>132.71</v>
       </c>
       <c r="G96" t="n">
-        <v>44928.39050779291</v>
+        <v>1385.045159816626</v>
       </c>
       <c r="H96" t="n">
         <v>23482.12</v>
       </c>
       <c r="I96" t="n">
-        <v>70870.60949220709</v>
+        <v>114413.9548401834</v>
       </c>
     </row>
     <row r="97">
@@ -23562,16 +23566,16 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>133.36</v>
+        <v>132.61</v>
       </c>
       <c r="G97" t="n">
-        <v>40125.25685126224</v>
+        <v>667.1869130966224</v>
       </c>
       <c r="H97" t="n">
         <v>23411.79</v>
       </c>
       <c r="I97" t="n">
-        <v>82294.74314873776</v>
+        <v>121752.8130869034</v>
       </c>
     </row>
     <row r="98">
@@ -23588,16 +23592,16 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>133.26</v>
+        <v>132.51</v>
       </c>
       <c r="G98" t="n">
-        <v>39276.58691013693</v>
+        <v>115.2147489552881</v>
       </c>
       <c r="H98" t="n">
         <v>23335.95</v>
       </c>
       <c r="I98" t="n">
-        <v>84630.41308986307</v>
+        <v>123791.7852510447</v>
       </c>
     </row>
     <row r="99">
@@ -23614,16 +23618,16 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>133.16</v>
+        <v>132.41</v>
       </c>
       <c r="G99" t="n">
-        <v>46079.96098005492</v>
+        <v>1438.029638185559</v>
       </c>
       <c r="H99" t="n">
         <v>23259.14</v>
       </c>
       <c r="I99" t="n">
-        <v>75430.03901994508</v>
+        <v>120071.9703618144</v>
       </c>
     </row>
     <row r="100">
@@ -23640,16 +23644,16 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>133.06</v>
+        <v>132.31</v>
       </c>
       <c r="G100" t="n">
-        <v>49644.94566185341</v>
+        <v>753.8740652642591</v>
       </c>
       <c r="H100" t="n">
         <v>23186</v>
       </c>
       <c r="I100" t="n">
-        <v>62361.05433814659</v>
+        <v>111252.1259347357</v>
       </c>
     </row>
     <row r="101">
@@ -23666,16 +23670,16 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>132.96</v>
+        <v>132.21</v>
       </c>
       <c r="G101" t="n">
-        <v>46274.99399161462</v>
+        <v>-1186.192884487755</v>
       </c>
       <c r="H101" t="n">
         <v>23121.63</v>
       </c>
       <c r="I101" t="n">
-        <v>51429.20600838537</v>
+        <v>98890.39288448775</v>
       </c>
     </row>
     <row r="102">
@@ -23692,16 +23696,16 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>132.86</v>
+        <v>132.11</v>
       </c>
       <c r="G102" t="n">
-        <v>39162.38553422386</v>
+        <v>-2100.33789922054</v>
       </c>
       <c r="H102" t="n">
         <v>23068.84</v>
       </c>
       <c r="I102" t="n">
-        <v>43696.71446577615</v>
+        <v>84959.43789922055</v>
       </c>
     </row>
     <row r="103">
@@ -23718,16 +23722,16 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>132.76</v>
+        <v>132.01</v>
       </c>
       <c r="G103" t="n">
-        <v>32410.6805155707</v>
+        <v>-457.1832675754122</v>
       </c>
       <c r="H103" t="n">
         <v>23027.01</v>
       </c>
       <c r="I103" t="n">
-        <v>38439.2194844293</v>
+        <v>71307.08326757541</v>
       </c>
     </row>
     <row r="104">
@@ -23744,16 +23748,16 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>132.66</v>
+        <v>131.91</v>
       </c>
       <c r="G104" t="n">
-        <v>24010.24302244947</v>
+        <v>-419.1798321706519</v>
       </c>
       <c r="H104" t="n">
         <v>22994.8</v>
       </c>
       <c r="I104" t="n">
-        <v>34836.95697755052</v>
+        <v>59266.37983217065</v>
       </c>
     </row>
     <row r="105">
@@ -23770,16 +23774,16 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>132.56</v>
+        <v>131.81</v>
       </c>
       <c r="G105" t="n">
-        <v>15911.40247913206</v>
+        <v>-1288.001597972114</v>
       </c>
       <c r="H105" t="n">
         <v>22971.41</v>
       </c>
       <c r="I105" t="n">
-        <v>32311.49752086795</v>
+        <v>49510.90159797212</v>
       </c>
     </row>
     <row r="106">
@@ -23796,16 +23800,16 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>132.46</v>
+        <v>131.71</v>
       </c>
       <c r="G106" t="n">
-        <v>10719.57014370863</v>
+        <v>-918.7738681134069</v>
       </c>
       <c r="H106" t="n">
         <v>22954.9</v>
       </c>
       <c r="I106" t="n">
-        <v>30492.92985629137</v>
+        <v>42131.27386811341</v>
       </c>
     </row>
     <row r="107">
@@ -23822,16 +23826,16 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>132.36</v>
+        <v>131.61</v>
       </c>
       <c r="G107" t="n">
-        <v>7954.328958829232</v>
+        <v>264.9878361488954</v>
       </c>
       <c r="H107" t="n">
         <v>22942.72</v>
       </c>
       <c r="I107" t="n">
-        <v>29148.07104117077</v>
+        <v>36837.41216385111</v>
       </c>
     </row>
     <row r="108">
@@ -23848,16 +23852,16 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>132.26</v>
+        <v>131.51</v>
       </c>
       <c r="G108" t="n">
-        <v>5663.707203766069</v>
+        <v>616.9555693092188</v>
       </c>
       <c r="H108" t="n">
         <v>22933.39</v>
       </c>
       <c r="I108" t="n">
-        <v>28129.09279623393</v>
+        <v>33175.84443069078</v>
       </c>
     </row>
     <row r="109">
@@ -23874,16 +23878,16 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>132.16</v>
+        <v>131.41</v>
       </c>
       <c r="G109" t="n">
-        <v>3352.500743079607</v>
+        <v>3.852642541289242</v>
       </c>
       <c r="H109" t="n">
         <v>22926.46</v>
       </c>
       <c r="I109" t="n">
-        <v>27340.59925692039</v>
+        <v>30689.24735745871</v>
       </c>
     </row>
     <row r="110">
@@ -23900,16 +23904,16 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>132.06</v>
+        <v>131.31</v>
       </c>
       <c r="G110" t="n">
-        <v>2580.774604955095</v>
+        <v>300.4092020042372</v>
       </c>
       <c r="H110" t="n">
         <v>22921.21</v>
       </c>
       <c r="I110" t="n">
-        <v>26718.7253950449</v>
+        <v>28999.09079799576</v>
       </c>
     </row>
     <row r="111">
@@ -23926,16 +23930,16 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>131.96</v>
+        <v>131.21</v>
       </c>
       <c r="G111" t="n">
-        <v>1483.728897297788</v>
+        <v>-125.5821223212843</v>
       </c>
       <c r="H111" t="n">
         <v>22917.08</v>
       </c>
       <c r="I111" t="n">
-        <v>26219.87110270221</v>
+        <v>27829.18212232128</v>
       </c>
     </row>
     <row r="112">
@@ -23952,16 +23956,16 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>131.86</v>
+        <v>131.11</v>
       </c>
       <c r="G112" t="n">
-        <v>796.8182046103466</v>
+        <v>-383.9059126676038</v>
       </c>
       <c r="H112" t="n">
         <v>22913.94</v>
       </c>
       <c r="I112" t="n">
-        <v>25813.88179538965</v>
+        <v>26994.6059126676</v>
       </c>
     </row>
     <row r="113">
@@ -23978,16 +23982,16 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>131.76</v>
+        <v>131.01</v>
       </c>
       <c r="G113" t="n">
-        <v>302.5107752720032</v>
+        <v>-596.1129434645845</v>
       </c>
       <c r="H113" t="n">
         <v>22911.52</v>
       </c>
       <c r="I113" t="n">
-        <v>25479.089224728</v>
+        <v>26377.71294346458</v>
       </c>
     </row>
     <row r="114">
@@ -24004,16 +24008,16 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>131.66</v>
+        <v>130.91</v>
       </c>
       <c r="G114" t="n">
-        <v>459.3283632161874</v>
+        <v>-246.6139848691055</v>
       </c>
       <c r="H114" t="n">
         <v>22909.45</v>
       </c>
       <c r="I114" t="n">
-        <v>25199.57163678381</v>
+        <v>25905.51398486911</v>
       </c>
     </row>
     <row r="115">
@@ -24030,16 +24034,16 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>131.56</v>
+        <v>130.81</v>
       </c>
       <c r="G115" t="n">
-        <v>369.1568393959751</v>
+        <v>-200.1472183502337</v>
       </c>
       <c r="H115" t="n">
         <v>22907.55</v>
       </c>
       <c r="I115" t="n">
-        <v>24963.64316060402</v>
+        <v>25532.94721835023</v>
       </c>
     </row>
     <row r="116">
@@ -24056,16 +24060,16 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>131.46</v>
+        <v>130.71</v>
       </c>
       <c r="G116" t="n">
-        <v>345.1178490837956</v>
+        <v>-123.9429754132943</v>
       </c>
       <c r="H116" t="n">
         <v>22905.85</v>
       </c>
       <c r="I116" t="n">
-        <v>24762.6821509162</v>
+        <v>25231.74297541329</v>
       </c>
     </row>
     <row r="117">
@@ -24082,16 +24086,16 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>131.36</v>
+        <v>130.61</v>
       </c>
       <c r="G117" t="n">
-        <v>548.8335342992104</v>
+        <v>155.4734559208373</v>
       </c>
       <c r="H117" t="n">
         <v>22904.23</v>
       </c>
       <c r="I117" t="n">
-        <v>24589.96646570079</v>
+        <v>24983.32654407916</v>
       </c>
     </row>
     <row r="118">
@@ -24108,16 +24112,16 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>131.26</v>
+        <v>130.51</v>
       </c>
       <c r="G118" t="n">
-        <v>-195.8097363121778</v>
+        <v>-530.6078624075926</v>
       </c>
       <c r="H118" t="n">
         <v>22902.91</v>
       </c>
       <c r="I118" t="n">
-        <v>24440.60973631218</v>
+        <v>24775.40786240759</v>
       </c>
     </row>
     <row r="119">
@@ -24134,16 +24138,16 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>131.16</v>
+        <v>130.41</v>
       </c>
       <c r="G119" t="n">
-        <v>-287.023654897399</v>
+        <v>-575.5958264521869</v>
       </c>
       <c r="H119" t="n">
         <v>22902</v>
       </c>
       <c r="I119" t="n">
-        <v>24310.7236548974</v>
+        <v>24599.29582645219</v>
       </c>
     </row>
     <row r="120">
@@ -24160,16 +24164,16 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>131.06</v>
+        <v>130.31</v>
       </c>
       <c r="G120" t="n">
-        <v>1.437903093559726</v>
+        <v>-250.016223678238</v>
       </c>
       <c r="H120" t="n">
         <v>22901.12</v>
       </c>
       <c r="I120" t="n">
-        <v>24196.76209690644</v>
+        <v>24448.21622367824</v>
       </c>
     </row>
     <row r="121">
@@ -24186,16 +24190,16 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>130.96</v>
+        <v>130.21</v>
       </c>
       <c r="G121" t="n">
-        <v>-482.9018739657186</v>
+        <v>-704.1081082446799</v>
       </c>
       <c r="H121" t="n">
         <v>22900.38</v>
       </c>
       <c r="I121" t="n">
-        <v>24096.30187396572</v>
+        <v>24317.50810824468</v>
       </c>
     </row>
     <row r="122">
@@ -24212,16 +24216,16 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>130.86</v>
+        <v>130.11</v>
       </c>
       <c r="G122" t="n">
-        <v>-302.836833807567</v>
+        <v>-499.0729969800341</v>
       </c>
       <c r="H122" t="n">
         <v>22899.82</v>
       </c>
       <c r="I122" t="n">
-        <v>24007.33683380757</v>
+        <v>24203.57299698003</v>
       </c>
     </row>
     <row r="123">
@@ -24238,16 +24242,16 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>130.76</v>
+        <v>130.01</v>
       </c>
       <c r="G123" t="n">
-        <v>-243.5996503361421</v>
+        <v>-418.9851600337861</v>
       </c>
       <c r="H123" t="n">
         <v>22899.24</v>
       </c>
       <c r="I123" t="n">
-        <v>23927.99965033614</v>
+        <v>24103.38516003379</v>
       </c>
     </row>
     <row r="124">
@@ -24264,16 +24268,16 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>130.66</v>
+        <v>129.91</v>
       </c>
       <c r="G124" t="n">
-        <v>-155.6406102804031</v>
+        <v>-313.4360184755678</v>
       </c>
       <c r="H124" t="n">
         <v>22898.66</v>
       </c>
       <c r="I124" t="n">
-        <v>23856.9406102804</v>
+        <v>24014.73601847557</v>
       </c>
     </row>
     <row r="125">
@@ -24290,16 +24294,16 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>130.56</v>
+        <v>129.81</v>
       </c>
       <c r="G125" t="n">
-        <v>-125.6259858434241</v>
+        <v>-268.4444423054047</v>
       </c>
       <c r="H125" t="n">
         <v>22898.08</v>
       </c>
       <c r="I125" t="n">
-        <v>23793.02598584343</v>
+        <v>23935.84444230541</v>
       </c>
     </row>
     <row r="126">
@@ -24316,16 +24320,16 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>130.46</v>
+        <v>129.71</v>
       </c>
       <c r="G126" t="n">
-        <v>-584.9107875192567</v>
+        <v>-714.8702420100999</v>
       </c>
       <c r="H126" t="n">
         <v>22897.7</v>
       </c>
       <c r="I126" t="n">
-        <v>23735.51078751926</v>
+        <v>23865.4702420101</v>
       </c>
     </row>
     <row r="127">
@@ -24342,16 +24346,16 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>130.36</v>
+        <v>129.61</v>
       </c>
       <c r="G127" t="n">
-        <v>36.30780677688381</v>
+        <v>-82.52681645097618</v>
       </c>
       <c r="H127" t="n">
         <v>22897.31</v>
       </c>
       <c r="I127" t="n">
-        <v>23683.39219322312</v>
+        <v>23802.22681645098</v>
       </c>
     </row>
     <row r="128">
@@ -24368,16 +24372,16 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>130.26</v>
+        <v>129.51</v>
       </c>
       <c r="G128" t="n">
-        <v>63.1890130910615</v>
+        <v>-45.95397490655887</v>
       </c>
       <c r="H128" t="n">
         <v>22896.72</v>
       </c>
       <c r="I128" t="n">
-        <v>23635.81098690894</v>
+        <v>23744.95397490656</v>
       </c>
     </row>
     <row r="129">
@@ -24394,16 +24398,16 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>130.16</v>
+        <v>129.41</v>
       </c>
       <c r="G129" t="n">
-        <v>-19.73906493903633</v>
+        <v>-120.3850152634914</v>
       </c>
       <c r="H129" t="n">
         <v>22896.17</v>
       </c>
       <c r="I129" t="n">
-        <v>23592.43906493904</v>
+        <v>23693.08501526349</v>
       </c>
     </row>
     <row r="130">
@@ -24420,16 +24424,16 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>130.06</v>
+        <v>129.31</v>
       </c>
       <c r="G130" t="n">
-        <v>-482.6915814982895</v>
+        <v>-575.8440615074578</v>
       </c>
       <c r="H130" t="n">
         <v>22895.86</v>
       </c>
       <c r="I130" t="n">
-        <v>23552.99158149829</v>
+        <v>23646.14406150746</v>
       </c>
     </row>
     <row r="131">
@@ -24446,16 +24450,16 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>129.96</v>
+        <v>129.21</v>
       </c>
       <c r="G131" t="n">
-        <v>-255.1226714017503</v>
+        <v>-341.6309032464378</v>
       </c>
       <c r="H131" t="n">
         <v>22895.66</v>
       </c>
       <c r="I131" t="n">
-        <v>23516.92267140175</v>
+        <v>23603.43090324644</v>
       </c>
     </row>
     <row r="132">
@@ -24472,16 +24476,16 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>129.86</v>
+        <v>129.11</v>
       </c>
       <c r="G132" t="n">
-        <v>196.3560459636828</v>
+        <v>115.7686003743001</v>
       </c>
       <c r="H132" t="n">
         <v>22895.24</v>
       </c>
       <c r="I132" t="n">
-        <v>23483.54395403632</v>
+        <v>23564.1313996257</v>
       </c>
     </row>
     <row r="133">
@@ -24498,16 +24502,16 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>129.76</v>
+        <v>129.01</v>
       </c>
       <c r="G133" t="n">
-        <v>285.0047840263796</v>
+        <v>209.717936462217</v>
       </c>
       <c r="H133" t="n">
         <v>22894.65</v>
       </c>
       <c r="I133" t="n">
-        <v>23452.59521597362</v>
+        <v>23527.88206353778</v>
       </c>
     </row>
     <row r="134">
@@ -24524,16 +24528,16 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>129.66</v>
+        <v>128.91</v>
       </c>
       <c r="G134" t="n">
-        <v>-502.9468126374704</v>
+        <v>-573.467822883511</v>
       </c>
       <c r="H134" t="n">
         <v>22894.33</v>
       </c>
       <c r="I134" t="n">
-        <v>23424.24681263747</v>
+        <v>23494.76782288351</v>
       </c>
     </row>
     <row r="135">
@@ -24550,16 +24554,16 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>129.56</v>
+        <v>128.81</v>
       </c>
       <c r="G135" t="n">
-        <v>-181.8834356356383</v>
+        <v>-248.102222042744</v>
       </c>
       <c r="H135" t="n">
         <v>22894.2</v>
       </c>
       <c r="I135" t="n">
-        <v>23398.18343563564</v>
+        <v>23464.40222204274</v>
       </c>
     </row>
     <row r="136">
@@ -24576,16 +24580,16 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>129.46</v>
+        <v>128.71</v>
       </c>
       <c r="G136" t="n">
-        <v>-267.538972024653</v>
+        <v>-329.8595158469761</v>
       </c>
       <c r="H136" t="n">
         <v>22894</v>
       </c>
       <c r="I136" t="n">
-        <v>23373.93897202465</v>
+        <v>23436.25951584698</v>
       </c>
     </row>
     <row r="137">
@@ -24602,16 +24606,16 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>129.36</v>
+        <v>128.61</v>
       </c>
       <c r="G137" t="n">
-        <v>-131.2122419881925</v>
+        <v>-189.988244440432</v>
       </c>
       <c r="H137" t="n">
         <v>22893.81</v>
       </c>
       <c r="I137" t="n">
-        <v>23351.41224198819</v>
+        <v>23410.18824444043</v>
       </c>
     </row>
     <row r="138">
@@ -24628,16 +24632,16 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>129.26</v>
+        <v>128.51</v>
       </c>
       <c r="G138" t="n">
-        <v>763.5365527342547</v>
+        <v>707.9940234438327</v>
       </c>
       <c r="H138" t="n">
         <v>22893.25</v>
       </c>
       <c r="I138" t="n">
-        <v>23330.06344726574</v>
+        <v>23385.60597655617</v>
       </c>
     </row>
     <row r="139">
@@ -24654,16 +24658,16 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>129.16</v>
+        <v>128.41</v>
       </c>
       <c r="G139" t="n">
-        <v>-930.8311978427664</v>
+        <v>-983.4149817717371</v>
       </c>
       <c r="H139" t="n">
         <v>22893</v>
       </c>
       <c r="I139" t="n">
-        <v>23310.43119784276</v>
+        <v>23363.01498177174</v>
       </c>
     </row>
     <row r="140">
@@ -24680,16 +24684,16 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>129.06</v>
+        <v>128.31</v>
       </c>
       <c r="G140" t="n">
-        <v>380.4699884225338</v>
+        <v>330.6013533200567</v>
       </c>
       <c r="H140" t="n">
         <v>22892.9</v>
       </c>
       <c r="I140" t="n">
-        <v>23292.23001157747</v>
+        <v>23342.09864667994</v>
       </c>
     </row>
     <row r="141">
@@ -24706,16 +24710,16 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>128.96</v>
+        <v>128.21</v>
       </c>
       <c r="G141" t="n">
-        <v>-596.7882025546642</v>
+        <v>-644.1584907772703</v>
       </c>
       <c r="H141" t="n">
         <v>22892.69</v>
       </c>
       <c r="I141" t="n">
-        <v>23275.08820255466</v>
+        <v>23322.45849077727</v>
       </c>
     </row>
     <row r="142">
@@ -24732,16 +24736,16 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>128.86</v>
+        <v>128.11</v>
       </c>
       <c r="G142" t="n">
-        <v>-333.5860904709953</v>
+        <v>-378.6516688656193</v>
       </c>
       <c r="H142" t="n">
         <v>22892.75</v>
       </c>
       <c r="I142" t="n">
-        <v>23259.286090471</v>
+        <v>23304.35166886562</v>
       </c>
     </row>
     <row r="143">
@@ -24758,16 +24762,16 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>128.76</v>
+        <v>128.01</v>
       </c>
       <c r="G143" t="n">
-        <v>-9.77447634798591</v>
+        <v>-52.70887046562711</v>
       </c>
       <c r="H143" t="n">
         <v>22892.62</v>
       </c>
       <c r="I143" t="n">
-        <v>23244.27447634799</v>
+        <v>23287.20887046563</v>
       </c>
     </row>
     <row r="144">
@@ -24784,16 +24788,16 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>128.66</v>
+        <v>127.91</v>
       </c>
       <c r="G144" t="n">
-        <v>-20.15334014829932</v>
+        <v>-61.11254500926589</v>
       </c>
       <c r="H144" t="n">
         <v>22892.38</v>
       </c>
       <c r="I144" t="n">
-        <v>23230.0533401483</v>
+        <v>23271.01254500927</v>
       </c>
     </row>
     <row r="145">
@@ -24810,16 +24814,16 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>128.56</v>
+        <v>127.81</v>
       </c>
       <c r="G145" t="n">
-        <v>-257.6607240461963</v>
+        <v>-296.7853957646657</v>
       </c>
       <c r="H145" t="n">
         <v>22892.24</v>
       </c>
       <c r="I145" t="n">
-        <v>23216.76072404619</v>
+        <v>23255.88539576466</v>
       </c>
     </row>
     <row r="146">
@@ -24836,16 +24840,16 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>128.46</v>
+        <v>127.71</v>
       </c>
       <c r="G146" t="n">
-        <v>0.6682283598129288</v>
+        <v>-36.74909653725263</v>
       </c>
       <c r="H146" t="n">
         <v>22892.1</v>
       </c>
       <c r="I146" t="n">
-        <v>23204.23177164019</v>
+        <v>23241.64909653725</v>
       </c>
     </row>
     <row r="147">
@@ -24862,16 +24866,16 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>128.36</v>
+        <v>127.61</v>
       </c>
       <c r="G147" t="n">
-        <v>-433.4778986477686</v>
+        <v>-469.303193919317</v>
       </c>
       <c r="H147" t="n">
         <v>22892.03</v>
       </c>
       <c r="I147" t="n">
-        <v>23192.47789864777</v>
+        <v>23228.30319391932</v>
       </c>
     </row>
     <row r="148">
@@ -24888,16 +24892,16 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>128.26</v>
+        <v>127.51</v>
       </c>
       <c r="G148" t="n">
-        <v>37.32392513854938</v>
+        <v>2.985835229046643</v>
       </c>
       <c r="H148" t="n">
         <v>22891.96</v>
       </c>
       <c r="I148" t="n">
-        <v>23181.37607486145</v>
+        <v>23215.71416477095</v>
       </c>
     </row>
     <row r="149">
@@ -24914,16 +24918,16 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>128.16</v>
+        <v>127.41</v>
       </c>
       <c r="G149" t="n">
-        <v>215.851799416283</v>
+        <v>182.9053958796176</v>
       </c>
       <c r="H149" t="n">
         <v>22891.66</v>
       </c>
       <c r="I149" t="n">
-        <v>23170.64820058372</v>
+        <v>23203.59460412038</v>
       </c>
     </row>
     <row r="150">
@@ -24940,16 +24944,16 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>128.06</v>
+        <v>127.31</v>
       </c>
       <c r="G150" t="n">
-        <v>24.20943644196814</v>
+        <v>-7.43252307932562</v>
       </c>
       <c r="H150" t="n">
         <v>22891.37</v>
       </c>
       <c r="I150" t="n">
-        <v>23160.49056355803</v>
+        <v>23192.13252307933</v>
       </c>
     </row>
     <row r="151">
@@ -24966,16 +24970,16 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>127.96</v>
+        <v>127.21</v>
       </c>
       <c r="G151" t="n">
-        <v>-464.1133647030183</v>
+        <v>-494.5307399188387</v>
       </c>
       <c r="H151" t="n">
         <v>22891.34</v>
       </c>
       <c r="I151" t="n">
-        <v>23151.11336470302</v>
+        <v>23181.53073991884</v>
       </c>
     </row>
     <row r="152">
@@ -24992,16 +24996,16 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>127.86</v>
+        <v>127.11</v>
       </c>
       <c r="G152" t="n">
-        <v>-250.9103028371428</v>
+        <v>-280.1763503223847</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>23175.31030283714</v>
+        <v>23204.57635032239</v>
       </c>
     </row>
     <row r="153">
@@ -25018,16 +25022,16 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>127.76</v>
+        <v>127.01</v>
       </c>
       <c r="G153" t="n">
-        <v>-242.4982101310488</v>
+        <v>-270.6802651677572</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22885.59821013105</v>
+        <v>22913.78026516776</v>
       </c>
     </row>
     <row r="154">
@@ -25044,16 +25048,16 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>127.66</v>
+        <v>126.91</v>
       </c>
       <c r="G154" t="n">
-        <v>-234.5067313067302</v>
+        <v>-261.6668060962293</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22882.40673130673</v>
+        <v>22909.56680609623</v>
       </c>
     </row>
     <row r="155">
@@ -25070,16 +25074,16 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>127.56</v>
+        <v>126.81</v>
       </c>
       <c r="G155" t="n">
-        <v>-226.9080406675021</v>
+        <v>-253.1033506912354</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23277.8080406675</v>
+        <v>23304.00335069124</v>
       </c>
     </row>
     <row r="156">
@@ -25096,16 +25100,16 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>127.46</v>
+        <v>126.71</v>
       </c>
       <c r="G156" t="n">
-        <v>-219.6765919296013</v>
+        <v>-244.9600203770824</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>23153.1765919296</v>
+        <v>23178.46002037708</v>
       </c>
     </row>
     <row r="157">
@@ -25122,16 +25126,16 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>127.36</v>
+        <v>126.61</v>
       </c>
       <c r="G157" t="n">
-        <v>-212.7888965676357</v>
+        <v>-237.2094052135544</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23464.68889656764</v>
+        <v>23489.10940521356</v>
       </c>
     </row>
     <row r="158">
@@ -25148,16 +25152,16 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>127.26</v>
+        <v>126.51</v>
       </c>
       <c r="G158" t="n">
-        <v>-206.2233270079632</v>
+        <v>-229.8263206463889</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22566.02332700796</v>
+        <v>22589.62632064639</v>
       </c>
     </row>
     <row r="159">
@@ -25174,16 +25178,16 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>127.16</v>
+        <v>126.41</v>
       </c>
       <c r="G159" t="n">
-        <v>-199.959941526995</v>
+        <v>-222.7875920104234</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23247.859941527</v>
+        <v>23270.68759201042</v>
       </c>
     </row>
     <row r="160">
@@ -25200,16 +25204,16 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>127.06</v>
+        <v>126.31</v>
       </c>
       <c r="G160" t="n">
-        <v>-193.9803281528002</v>
+        <v>-216.0718631980599</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>23013.3803281528</v>
+        <v>23035.47186319806</v>
       </c>
     </row>
     <row r="161">
@@ -25226,16 +25230,16 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>126.96</v>
+        <v>126.21</v>
       </c>
       <c r="G161" t="n">
-        <v>-188.267465241639</v>
+        <v>-209.6594264224404</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22603.56746524164</v>
+        <v>22624.95942642244</v>
       </c>
     </row>
     <row r="162">
@@ -25252,16 +25256,16 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>126.86</v>
+        <v>126.11</v>
       </c>
       <c r="G162" t="n">
-        <v>-182.8055967180335</v>
+        <v>-203.5320704394981</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23215.20559671803</v>
+        <v>23235.9320704395</v>
       </c>
     </row>
   </sheetData>
@@ -25478,22 +25482,22 @@
         <v>26049.5</v>
       </c>
       <c r="F2" t="n">
-        <v>143.08</v>
+        <v>142.34</v>
       </c>
       <c r="G2" t="n">
-        <v>-147.4491697849226</v>
+        <v>-242.0628158015861</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26196.94916978492</v>
+        <v>26291.56281580159</v>
       </c>
       <c r="J2" t="n">
-        <v>26122.3592094007</v>
+        <v>26178.18175783558</v>
       </c>
       <c r="K2" t="n">
-        <v>26124.09048832685</v>
+        <v>26162.88105796601</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -25507,39 +25511,47 @@
       </c>
       <c r="Z2" s="33" t="inlineStr">
         <is>
-          <t>133.50</t>
+          <t>132.74</t>
         </is>
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>99974</t>
+          <t>99789</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>27.93</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>118146</t>
-        </is>
-      </c>
-      <c r="AE2" s="33" t="inlineStr"/>
-      <c r="AF2" s="33" t="inlineStr"/>
+          <t>118328</t>
+        </is>
+      </c>
+      <c r="AE2" s="33" t="inlineStr">
+        <is>
+          <t>0.810</t>
+        </is>
+      </c>
+      <c r="AF2" s="33" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
       <c r="AG2" s="33" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="AH2" s="33" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="AI2" s="33" t="inlineStr">
@@ -25554,32 +25566,32 @@
       </c>
       <c r="AK2" s="33" t="inlineStr">
         <is>
-          <t>SGL (Area)</t>
+          <t>DS*G (A, σ, γ)</t>
         </is>
       </c>
       <c r="AL2" s="33" t="inlineStr">
         <is>
-          <t>Multi-Regions Smart</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>143.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25591,28 +25603,28 @@
         <v>26437.6</v>
       </c>
       <c r="F3" t="n">
-        <v>142.98</v>
+        <v>142.24</v>
       </c>
       <c r="G3" t="n">
-        <v>-150.9223702109521</v>
+        <v>-259.07977677093</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26588.52237021095</v>
+        <v>26696.67977677093</v>
       </c>
       <c r="J3" t="n">
-        <v>26512.0003134132</v>
+        <v>26566.28175783558</v>
       </c>
       <c r="K3" t="n">
-        <v>26514.12259846262</v>
+        <v>26567.99801893535</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
       <c r="Z3" s="36" t="inlineStr">
         <is>
-          <t>127.08,143.08</t>
+          <t>126.07,142.07</t>
         </is>
       </c>
       <c r="AA3" s="36" t="inlineStr">
@@ -25635,11 +25647,19 @@
           <t>1:1e7</t>
         </is>
       </c>
-      <c r="AE3" s="36" t="inlineStr"/>
-      <c r="AF3" s="36" t="inlineStr"/>
+      <c r="AE3" s="36" t="inlineStr">
+        <is>
+          <t>0.3:1.5</t>
+        </is>
+      </c>
+      <c r="AF3" s="36" t="inlineStr">
+        <is>
+          <t>0.1:1.5</t>
+        </is>
+      </c>
       <c r="AG3" s="36" t="inlineStr">
         <is>
-          <t>0.01:2</t>
+          <t>0:0.2</t>
         </is>
       </c>
       <c r="AH3" s="36" t="inlineStr"/>
@@ -25659,22 +25679,22 @@
         <v>26696.9</v>
       </c>
       <c r="F4" t="n">
-        <v>142.88</v>
+        <v>142.14</v>
       </c>
       <c r="G4" t="n">
-        <v>-154.5208917711498</v>
+        <v>-273.4423578925416</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26851.42089177115</v>
+        <v>26970.34235789254</v>
       </c>
       <c r="J4" t="n">
-        <v>26772.89078988059</v>
+        <v>26825.58175783558</v>
       </c>
       <c r="K4" t="n">
-        <v>26775.43065781859</v>
+        <v>26841.66060005697</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -25688,44 +25708,52 @@
       </c>
       <c r="Z4" s="33" t="inlineStr">
         <is>
-          <t>135.24</t>
+          <t>134.48</t>
         </is>
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>68635</t>
+          <t>67195</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>27.93</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>81110</t>
-        </is>
-      </c>
-      <c r="AE4" s="33" t="inlineStr"/>
-      <c r="AF4" s="33" t="inlineStr"/>
+          <t>79679</t>
+        </is>
+      </c>
+      <c r="AE4" s="33" t="inlineStr">
+        <is>
+          <t>0.810</t>
+        </is>
+      </c>
+      <c r="AF4" s="33" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
       <c r="AG4" s="33" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>40.2</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
@@ -25735,32 +25763,32 @@
       </c>
       <c r="AK4" s="33" t="inlineStr">
         <is>
-          <t>SGL (Area)</t>
+          <t>DS*G (A, σ, γ)</t>
         </is>
       </c>
       <c r="AL4" s="33" t="inlineStr">
         <is>
-          <t>Multi-Regions Smart</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>127.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>143.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -25772,22 +25800,22 @@
         <v>25942.6</v>
       </c>
       <c r="F5" t="n">
-        <v>142.78</v>
+        <v>142.04</v>
       </c>
       <c r="G5" t="n">
-        <v>-158.2508918354761</v>
+        <v>-284.9319185278218</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>26100.85089183547</v>
+        <v>26227.53191852782</v>
       </c>
       <c r="J5" t="n">
-        <v>26020.23276853836</v>
+        <v>26071.28175783558</v>
       </c>
       <c r="K5" t="n">
-        <v>26023.21869405798</v>
+        <v>26098.85016069224</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
@@ -25816,8 +25844,16 @@
           <t>A*0.667#0.05</t>
         </is>
       </c>
-      <c r="AE5" s="36" t="inlineStr"/>
-      <c r="AF5" s="36" t="inlineStr"/>
+      <c r="AE5" s="36" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
+      <c r="AF5" s="36" t="inlineStr">
+        <is>
+          <t>A*1</t>
+        </is>
+      </c>
       <c r="AG5" s="36" t="inlineStr">
         <is>
           <t>A*1</t>
@@ -25840,22 +25876,22 @@
         <v>26565.8</v>
       </c>
       <c r="F6" t="n">
-        <v>142.68</v>
+        <v>141.94</v>
       </c>
       <c r="G6" t="n">
-        <v>-162.1189139180133</v>
+        <v>-293.8144053354699</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26727.91891391801</v>
+        <v>26859.61440533547</v>
       </c>
       <c r="J6" t="n">
-        <v>26645.12849509623</v>
+        <v>26694.48175783558</v>
       </c>
       <c r="K6" t="n">
-        <v>26648.59100501586</v>
+        <v>26730.93264749989</v>
       </c>
     </row>
     <row r="7">
@@ -25866,22 +25902,27 @@
         <v>26089.7</v>
       </c>
       <c r="F7" t="n">
-        <v>142.58</v>
+        <v>141.84</v>
       </c>
       <c r="G7" t="n">
-        <v>-166.1319173400916</v>
+        <v>-300.6447330754854</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26255.83191734009</v>
+        <v>26390.34473307549</v>
       </c>
       <c r="J7" t="n">
-        <v>26170.78033889232</v>
+        <v>26218.38175783558</v>
       </c>
       <c r="K7" t="n">
-        <v>26174.75218070819</v>
+        <v>26261.66297523991</v>
+      </c>
+      <c r="X7" s="50" t="inlineStr">
+        <is>
+          <t>Please cite KherveFitting software: G. Kerherve et al. Surface and Interface Analysis, xxx, 2025</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -25892,22 +25933,22 @@
         <v>26784.6</v>
       </c>
       <c r="F8" t="n">
-        <v>142.48</v>
+        <v>141.74</v>
       </c>
       <c r="G8" t="n">
-        <v>-170.2973096058304</v>
+        <v>-306.0574478725102</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>26954.89730960583</v>
+        <v>27090.65744787251</v>
       </c>
       <c r="J8" t="n">
-        <v>26867.49080114267</v>
+        <v>26913.28175783558</v>
       </c>
       <c r="K8" t="n">
-        <v>26872.00712745809</v>
+        <v>26961.97569003693</v>
       </c>
     </row>
     <row r="9">
@@ -25918,22 +25959,22 @@
         <v>26357.7</v>
       </c>
       <c r="F9" t="n">
-        <v>142.38</v>
+        <v>141.64</v>
       </c>
       <c r="G9" t="n">
-        <v>-174.6229817791573</v>
+        <v>-310.6151463741953</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26532.32298177916</v>
+        <v>26668.3151463742</v>
       </c>
       <c r="J9" t="n">
-        <v>26442.46252383946</v>
+        <v>26486.38175783558</v>
       </c>
       <c r="K9" t="n">
-        <v>26447.56109437482</v>
+        <v>26539.63338853862</v>
       </c>
     </row>
     <row r="10">
@@ -25944,22 +25985,22 @@
         <v>26256</v>
       </c>
       <c r="F10" t="n">
-        <v>142.28</v>
+        <v>141.54</v>
       </c>
       <c r="G10" t="n">
-        <v>-179.1173471866896</v>
+        <v>-314.7384846829336</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26435.11734718669</v>
+        <v>26570.73848468293</v>
       </c>
       <c r="J10" t="n">
-        <v>26342.6982993569</v>
+        <v>26384.68175783558</v>
       </c>
       <c r="K10" t="n">
-        <v>26348.41970245092</v>
+        <v>26442.05672684736</v>
       </c>
     </row>
     <row r="11">
@@ -25970,22 +26011,22 @@
         <v>26519.3</v>
       </c>
       <c r="F11" t="n">
-        <v>142.18</v>
+        <v>141.44</v>
       </c>
       <c r="G11" t="n">
-        <v>-183.7893838110322</v>
+        <v>-318.7025228873354</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26703.08938381103</v>
+        <v>26838.00252288733</v>
       </c>
       <c r="J11" t="n">
-        <v>26608.00108082982</v>
+        <v>26647.98175783558</v>
       </c>
       <c r="K11" t="n">
-        <v>26614.3889765772</v>
+        <v>26709.32076505176</v>
       </c>
     </row>
     <row r="12">
@@ -25996,22 +26037,22 @@
         <v>25948.6</v>
       </c>
       <c r="F12" t="n">
-        <v>142.08</v>
+        <v>141.34</v>
       </c>
       <c r="G12" t="n">
-        <v>-188.6486807848232</v>
+        <v>-322.668293015955</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>26137.24868078482</v>
+        <v>26271.26829301595</v>
       </c>
       <c r="J12" t="n">
-        <v>26039.37399337662</v>
+        <v>26077.28175783558</v>
       </c>
       <c r="K12" t="n">
-        <v>26046.47538081411</v>
+        <v>26142.58653518038</v>
       </c>
     </row>
     <row r="13">
@@ -26022,22 +26063,22 @@
         <v>26945.3</v>
       </c>
       <c r="F13" t="n">
-        <v>141.98</v>
+        <v>141.24</v>
       </c>
       <c r="G13" t="n">
-        <v>-193.7054894483808</v>
+        <v>-326.7223837418642</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>27139.00548944838</v>
+        <v>27272.02238374186</v>
       </c>
       <c r="J13" t="n">
-        <v>27038.22034624597</v>
+        <v>27073.98175783558</v>
       </c>
       <c r="K13" t="n">
-        <v>27046.08585730286</v>
+        <v>27143.34062590629</v>
       </c>
     </row>
     <row r="14">
@@ -26048,22 +26089,22 @@
         <v>26444</v>
       </c>
       <c r="F14" t="n">
-        <v>141.88</v>
+        <v>141.14</v>
       </c>
       <c r="G14" t="n">
-        <v>-198.9707794935202</v>
+        <v>-330.9094793346485</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26642.97077949352</v>
+        <v>26774.90947933465</v>
       </c>
       <c r="J14" t="n">
-        <v>26539.14364597521</v>
+        <v>26572.68175783558</v>
       </c>
       <c r="K14" t="n">
-        <v>26547.82786925132</v>
+        <v>26646.22772149907</v>
       </c>
     </row>
     <row r="15">
@@ -26074,22 +26115,22 @@
         <v>26729.6</v>
       </c>
       <c r="F15" t="n">
-        <v>141.78</v>
+        <v>141.04</v>
       </c>
       <c r="G15" t="n">
-        <v>-204.4563007849902</v>
+        <v>-335.2536690427951</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>26934.05630078499</v>
+        <v>27064.85366904279</v>
       </c>
       <c r="J15" t="n">
-        <v>26827.0476106575</v>
+        <v>26858.28175783558</v>
       </c>
       <c r="K15" t="n">
-        <v>26836.60944848843</v>
+        <v>26936.17191120722</v>
       </c>
     </row>
     <row r="16">
@@ -26100,22 +26141,22 @@
         <v>27045.9</v>
       </c>
       <c r="F16" t="n">
-        <v>141.68</v>
+        <v>140.94</v>
       </c>
       <c r="G16" t="n">
-        <v>-210.1746515297564</v>
+        <v>-339.7702716211097</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27256.07465152976</v>
+        <v>27385.67027162111</v>
       </c>
       <c r="J16" t="n">
-        <v>27145.73618542601</v>
+        <v>27174.58175783558</v>
       </c>
       <c r="K16" t="n">
-        <v>27156.23924814989</v>
+        <v>27256.98851378553</v>
       </c>
     </row>
     <row r="17">
@@ -26126,22 +26167,22 @@
         <v>26274.3</v>
       </c>
       <c r="F17" t="n">
-        <v>141.58</v>
+        <v>140.84</v>
       </c>
       <c r="G17" t="n">
-        <v>-216.139353555358</v>
+        <v>-344.4715650429571</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26490.43935355536</v>
+        <v>26618.77156504296</v>
       </c>
       <c r="J17" t="n">
-        <v>26376.6135592748</v>
+        <v>26402.98175783558</v>
       </c>
       <c r="K17" t="n">
-        <v>26388.12660113587</v>
+        <v>26490.08980720738</v>
       </c>
     </row>
     <row r="18">
@@ -26152,22 +26193,22 @@
         <v>25721.7</v>
       </c>
       <c r="F18" t="n">
-        <v>141.48</v>
+        <v>140.74</v>
       </c>
       <c r="G18" t="n">
-        <v>-222.3649355633206</v>
+        <v>-349.3692666630013</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>25944.06493556332</v>
+        <v>26071.069266663</v>
       </c>
       <c r="J18" t="n">
-        <v>25826.58418334994</v>
+        <v>25850.38175783558</v>
       </c>
       <c r="K18" t="n">
-        <v>25839.18158507391</v>
+        <v>25942.38750882743</v>
       </c>
     </row>
     <row r="19">
@@ -26178,22 +26219,22 @@
         <v>26199.6</v>
       </c>
       <c r="F19" t="n">
-        <v>141.38</v>
+        <v>140.64</v>
       </c>
       <c r="G19" t="n">
-        <v>-228.8670253447744</v>
+        <v>-383.1279598107212</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26428.46702534477</v>
+        <v>26582.72795981072</v>
       </c>
       <c r="J19" t="n">
-        <v>26307.15279085931</v>
+        <v>26356.93419282816</v>
       </c>
       <c r="K19" t="n">
-        <v>26320.91509462515</v>
+        <v>26425.39376698256</v>
       </c>
     </row>
     <row r="20">
@@ -26204,22 +26245,22 @@
         <v>27175.7</v>
       </c>
       <c r="F20" t="n">
-        <v>141.28</v>
+        <v>140.54</v>
       </c>
       <c r="G20" t="n">
-        <v>-235.6624520859368</v>
+        <v>-415.015673715232</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27411.36245208594</v>
+        <v>27590.71567371523</v>
       </c>
       <c r="J20" t="n">
-        <v>27286.02441876663</v>
+        <v>27359.59411556653</v>
       </c>
       <c r="K20" t="n">
-        <v>27301.03892209647</v>
+        <v>27406.8215581487</v>
       </c>
     </row>
     <row r="21">
@@ -26230,22 +26271,22 @@
         <v>26142</v>
       </c>
       <c r="F21" t="n">
-        <v>141.18</v>
+        <v>140.44</v>
       </c>
       <c r="G21" t="n">
-        <v>-242.7693600540551</v>
+        <v>-443.5605672934907</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26384.76936005406</v>
+        <v>26585.56056729349</v>
       </c>
       <c r="J21" t="n">
-        <v>26255.2044314546</v>
+        <v>26348.87568899338</v>
       </c>
       <c r="K21" t="n">
-        <v>26271.56584746381</v>
+        <v>26378.68487830011</v>
       </c>
     </row>
     <row r="22">
@@ -26256,22 +26297,22 @@
         <v>26419.9</v>
       </c>
       <c r="F22" t="n">
-        <v>141.08</v>
+        <v>140.34</v>
       </c>
       <c r="G22" t="n">
-        <v>-250.2073351442305</v>
+        <v>-468.1182867532261</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26670.10733514423</v>
+        <v>26888.01828675323</v>
       </c>
       <c r="J22" t="n">
-        <v>26536.09854656383</v>
+        <v>26645.51938940299</v>
       </c>
       <c r="K22" t="n">
-        <v>26553.90973908087</v>
+        <v>26662.39889735023</v>
       </c>
     </row>
     <row r="23">
@@ -26282,22 +26323,22 @@
         <v>27293.7</v>
       </c>
       <c r="F23" t="n">
-        <v>140.98</v>
+        <v>140.24</v>
       </c>
       <c r="G23" t="n">
-        <v>-257.9975459890629</v>
+        <v>-488.844095629498</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27551.69754598906</v>
+        <v>27782.5440956295</v>
       </c>
       <c r="J23" t="n">
-        <v>27413.0128632388</v>
+        <v>27533.9637601367</v>
       </c>
       <c r="K23" t="n">
-        <v>27432.38566654363</v>
+        <v>27542.2803354928</v>
       </c>
     </row>
     <row r="24">
@@ -26308,22 +26349,22 @@
         <v>26191.1</v>
       </c>
       <c r="F24" t="n">
-        <v>140.88</v>
+        <v>140.14</v>
       </c>
       <c r="G24" t="n">
-        <v>-266.162901591968</v>
+        <v>-506.4490694145497</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26457.26290159197</v>
+        <v>26697.54906941455</v>
       </c>
       <c r="J24" t="n">
-        <v>26313.65389304024</v>
+        <v>26442.60229632735</v>
       </c>
       <c r="K24" t="n">
-        <v>26334.71002741211</v>
+        <v>26446.0467730872</v>
       </c>
     </row>
     <row r="25">
@@ -26334,22 +26375,22 @@
         <v>26444.7</v>
       </c>
       <c r="F25" t="n">
-        <v>140.78</v>
+        <v>140.04</v>
       </c>
       <c r="G25" t="n">
-        <v>-274.7282277488339</v>
+        <v>-521.8817835976297</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26719.42822774883</v>
+        <v>26966.58178359763</v>
       </c>
       <c r="J25" t="n">
-        <v>26570.628593815</v>
+        <v>26704.96415064831</v>
       </c>
       <c r="K25" t="n">
-        <v>26593.50068976325</v>
+        <v>26706.31763294932</v>
       </c>
     </row>
     <row r="26">
@@ -26360,22 +26401,22 @@
         <v>26393.8</v>
       </c>
       <c r="F26" t="n">
-        <v>140.68</v>
+        <v>139.94</v>
       </c>
       <c r="G26" t="n">
-        <v>-283.7204648798142</v>
+        <v>-536.0606434446127</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26677.52046487981</v>
+        <v>26929.86064344461</v>
       </c>
       <c r="J26" t="n">
-        <v>26523.2444068508</v>
+        <v>26661.24656215397</v>
       </c>
       <c r="K26" t="n">
-        <v>26548.07715286907</v>
+        <v>26662.41408129064</v>
       </c>
     </row>
     <row r="27">
@@ -26386,22 +26427,22 @@
         <v>26023.2</v>
       </c>
       <c r="F27" t="n">
-        <v>140.58</v>
+        <v>139.84</v>
       </c>
       <c r="G27" t="n">
-        <v>-293.1688903141549</v>
+        <v>-549.7223022487124</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26316.36889031416</v>
+        <v>26572.92230224871</v>
       </c>
       <c r="J27" t="n">
-        <v>26156.30929768437</v>
+        <v>26296.96307917663</v>
       </c>
       <c r="K27" t="n">
-        <v>26183.26072867466</v>
+        <v>26299.15922307208</v>
       </c>
     </row>
     <row r="28">
@@ -26412,22 +26453,22 @@
         <v>27069.8</v>
       </c>
       <c r="F28" t="n">
-        <v>140.48</v>
+        <v>139.74</v>
       </c>
       <c r="G28" t="n">
-        <v>-303.1053685688203</v>
+        <v>-563.382511324362</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27372.90536856882</v>
+        <v>27633.18251132436</v>
       </c>
       <c r="J28" t="n">
-        <v>27206.73180097875</v>
+        <v>27349.50418756175</v>
       </c>
       <c r="K28" t="n">
-        <v>27235.97474720103</v>
+        <v>27353.47832376261</v>
       </c>
     </row>
     <row r="29">
@@ -26438,22 +26479,22 @@
         <v>26161.8</v>
       </c>
       <c r="F29" t="n">
-        <v>140.38</v>
+        <v>139.64</v>
       </c>
       <c r="G29" t="n">
-        <v>-313.5646337520411</v>
+        <v>-577.3681929805389</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26475.36463375204</v>
+        <v>26739.16819298054</v>
       </c>
       <c r="J29" t="n">
-        <v>26302.72106993915</v>
+        <v>26447.36913125971</v>
       </c>
       <c r="K29" t="n">
-        <v>26334.44478953439</v>
+        <v>26453.59906172083</v>
       </c>
     </row>
     <row r="30">
@@ -26464,22 +26505,22 @@
         <v>26300.2</v>
       </c>
       <c r="F30" t="n">
-        <v>140.28</v>
+        <v>139.54</v>
       </c>
       <c r="G30" t="n">
-        <v>-324.5846089251136</v>
+        <v>-591.8755536596618</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26624.78460892511</v>
+        <v>26892.07555365966</v>
       </c>
       <c r="J30" t="n">
-        <v>26445.28693079888</v>
+        <v>26591.72373746971</v>
       </c>
       <c r="K30" t="n">
-        <v>26479.698952704</v>
+        <v>26600.55181618995</v>
       </c>
     </row>
     <row r="31">
@@ -26490,22 +26531,22 @@
         <v>26179.2</v>
       </c>
       <c r="F31" t="n">
-        <v>140.18</v>
+        <v>139.44</v>
       </c>
       <c r="G31" t="n">
-        <v>-336.2067680935252</v>
+        <v>-607.0243687821749</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26515.40676809353</v>
+        <v>26786.22436878218</v>
       </c>
       <c r="J31" t="n">
-        <v>26328.63994297732</v>
+        <v>26476.8543719439</v>
       </c>
       <c r="K31" t="n">
-        <v>26365.96815151743</v>
+        <v>26488.56999683828</v>
       </c>
     </row>
     <row r="32">
@@ -26516,22 +26557,22 @@
         <v>25952.4</v>
       </c>
       <c r="F32" t="n">
-        <v>140.08</v>
+        <v>139.34</v>
       </c>
       <c r="G32" t="n">
-        <v>-348.4765475012209</v>
+        <v>-622.8966155273447</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>26300.87654750122</v>
+        <v>26575.29661552735</v>
       </c>
       <c r="J32" t="n">
-        <v>26106.3914655937</v>
+        <v>26256.40619360327</v>
       </c>
       <c r="K32" t="n">
-        <v>26146.88646334357</v>
+        <v>26271.29042192407</v>
       </c>
     </row>
     <row r="33">
@@ -26542,22 +26583,22 @@
         <v>25823.1</v>
       </c>
       <c r="F33" t="n">
-        <v>139.98</v>
+        <v>139.24</v>
       </c>
       <c r="G33" t="n">
-        <v>-361.4438141060527</v>
+        <v>-639.5594770815187</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>26184.54381410605</v>
+        <v>26462.65947708152</v>
       </c>
       <c r="J33" t="n">
-        <v>25981.85373111424</v>
+        <v>26133.70572351687</v>
       </c>
       <c r="K33" t="n">
-        <v>26025.79152294376</v>
+        <v>26152.05375356464</v>
       </c>
     </row>
     <row r="34">
@@ -26568,22 +26609,22 @@
         <v>25796.2</v>
       </c>
       <c r="F34" t="n">
-        <v>139.88</v>
+        <v>139.14</v>
       </c>
       <c r="G34" t="n">
-        <v>-375.1634005656888</v>
+        <v>-657.0773576439933</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>26171.36340056569</v>
+        <v>26453.27735764399</v>
       </c>
       <c r="J34" t="n">
-        <v>25959.93992701877</v>
+        <v>26113.67235733539</v>
       </c>
       <c r="K34" t="n">
-        <v>26007.62497579434</v>
+        <v>26135.80500030861</v>
       </c>
     </row>
     <row r="35">
@@ -26594,22 +26635,22 @@
         <v>25706.9</v>
       </c>
       <c r="F35" t="n">
-        <v>139.78</v>
+        <v>139.04</v>
       </c>
       <c r="G35" t="n">
-        <v>-389.695717818362</v>
+        <v>-675.5176641985199</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>26096.59571781836</v>
+        <v>26382.41766419852</v>
       </c>
       <c r="J35" t="n">
-        <v>25875.86428649823</v>
+        <v>26031.52356486925</v>
       </c>
       <c r="K35" t="n">
-        <v>25927.63299997363</v>
+        <v>26057.79409932927</v>
       </c>
     </row>
     <row r="36">
@@ -26620,22 +26661,22 @@
         <v>25865.6</v>
       </c>
       <c r="F36" t="n">
-        <v>139.68</v>
+        <v>138.94</v>
       </c>
       <c r="G36" t="n">
-        <v>-405.1074584732814</v>
+        <v>-694.9536179632341</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>26270.70745847328</v>
+        <v>26560.55361796323</v>
       </c>
       <c r="J36" t="n">
-        <v>26040.04218934027</v>
+        <v>26197.67702478099</v>
       </c>
       <c r="K36" t="n">
-        <v>26096.26690867107</v>
+        <v>26228.47659318224</v>
       </c>
     </row>
     <row r="37">
@@ -26646,22 +26687,22 @@
         <v>26150.6</v>
       </c>
       <c r="F37" t="n">
-        <v>139.58</v>
+        <v>138.84</v>
       </c>
       <c r="G37" t="n">
-        <v>-421.472406821762</v>
+        <v>-715.4658860195304</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26572.07240682176</v>
+        <v>26866.06588601953</v>
       </c>
       <c r="J37" t="n">
-        <v>26330.79027432895</v>
+        <v>26490.45146668083</v>
       </c>
       <c r="K37" t="n">
-        <v>26391.88384780375</v>
+        <v>26526.2144193387</v>
       </c>
     </row>
     <row r="38">
@@ -26672,22 +26713,22 @@
         <v>25610.5</v>
       </c>
       <c r="F38" t="n">
-        <v>139.48</v>
+        <v>138.74</v>
       </c>
       <c r="G38" t="n">
-        <v>-438.8723744564122</v>
+        <v>-737.143872546545</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>26049.37237445641</v>
+        <v>26347.64387254655</v>
       </c>
       <c r="J38" t="n">
-        <v>25796.7265646816</v>
+        <v>25958.46703774948</v>
       </c>
       <c r="K38" t="n">
-        <v>25863.14760620441</v>
+        <v>25999.67683479706</v>
       </c>
     </row>
     <row r="39">
@@ -26698,22 +26739,22 @@
         <v>25614.3</v>
       </c>
       <c r="F39" t="n">
-        <v>139.38</v>
+        <v>138.64</v>
       </c>
       <c r="G39" t="n">
-        <v>-457.3982843875165</v>
+        <v>-760.0870248569154</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>26071.69828438752</v>
+        <v>26374.38702485691</v>
       </c>
       <c r="J39" t="n">
-        <v>25806.87060827586</v>
+        <v>25970.74552162999</v>
       </c>
       <c r="K39" t="n">
-        <v>25879.12955951771</v>
+        <v>26017.94150322692</v>
       </c>
     </row>
     <row r="40">
@@ -26724,22 +26765,22 @@
         <v>25482.4</v>
       </c>
       <c r="F40" t="n">
-        <v>139.28</v>
+        <v>138.54</v>
       </c>
       <c r="G40" t="n">
-        <v>-477.1514313602929</v>
+        <v>-784.4063051644698</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>25959.55143136029</v>
+        <v>26266.80630516447</v>
       </c>
       <c r="J40" t="n">
-        <v>25681.64363468862</v>
+        <v>25847.71052654233</v>
       </c>
       <c r="K40" t="n">
-        <v>25760.30977348642</v>
+        <v>25901.49577862214</v>
       </c>
     </row>
     <row r="41">
@@ -26750,22 +26791,22 @@
         <v>25820.7</v>
       </c>
       <c r="F41" t="n">
-        <v>139.18</v>
+        <v>138.44</v>
       </c>
       <c r="G41" t="n">
-        <v>-498.2449520424016</v>
+        <v>-810.2259089348299</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>26318.9449520424</v>
+        <v>26630.92590893483</v>
       </c>
       <c r="J41" t="n">
-        <v>26026.96873138436</v>
+        <v>26195.28768117997</v>
       </c>
       <c r="K41" t="n">
-        <v>26112.67829795987</v>
+        <v>26256.33822775486</v>
       </c>
     </row>
     <row r="42">
@@ -26776,22 +26817,22 @@
         <v>25337.9</v>
       </c>
       <c r="F42" t="n">
-        <v>139.08</v>
+        <v>138.34</v>
       </c>
       <c r="G42" t="n">
-        <v>-520.8055461795193</v>
+        <v>-837.6852959324424</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>25858.70554617952</v>
+        <v>26175.58529593244</v>
       </c>
       <c r="J42" t="n">
-        <v>25551.57104176119</v>
+        <v>25722.20485154207</v>
       </c>
       <c r="K42" t="n">
-        <v>25645.03669001448</v>
+        <v>25791.28044439038</v>
       </c>
     </row>
     <row r="43">
@@ -26802,22 +26843,22 @@
         <v>25660.4</v>
       </c>
       <c r="F43" t="n">
-        <v>138.98</v>
+        <v>138.24</v>
       </c>
       <c r="G43" t="n">
-        <v>-544.9754991090085</v>
+        <v>-866.941606851673</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>26205.37549910901</v>
+        <v>26527.34160685167</v>
       </c>
       <c r="J43" t="n">
-        <v>25881.87798820039</v>
+        <v>26054.89238484179</v>
       </c>
       <c r="K43" t="n">
-        <v>25983.89981343085</v>
+        <v>26132.84922200989</v>
       </c>
     </row>
     <row r="44">
@@ -26828,22 +26869,22 @@
         <v>25130.5</v>
       </c>
       <c r="F44" t="n">
-        <v>138.88</v>
+        <v>138.14</v>
       </c>
       <c r="G44" t="n">
-        <v>-570.9150677052021</v>
+        <v>-898.1725550270712</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>25701.4150677052</v>
+        <v>26028.67255502707</v>
       </c>
       <c r="J44" t="n">
-        <v>25360.21952378214</v>
+        <v>25535.68338528609</v>
       </c>
       <c r="K44" t="n">
-        <v>25471.69797293861</v>
+        <v>25623.48916974098</v>
       </c>
     </row>
     <row r="45">
@@ -26854,22 +26895,22 @@
         <v>25320.6</v>
       </c>
       <c r="F45" t="n">
-        <v>138.78</v>
+        <v>138.04</v>
       </c>
       <c r="G45" t="n">
-        <v>-598.8053065952881</v>
+        <v>-931.5799065655519</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>25919.40530659529</v>
+        <v>26252.17990656555</v>
       </c>
       <c r="J45" t="n">
-        <v>25559.02841694329</v>
+        <v>25737.0140268023</v>
       </c>
       <c r="K45" t="n">
-        <v>25680.97945579289</v>
+        <v>25835.76587976325</v>
       </c>
     </row>
     <row r="46">
@@ -26880,22 +26921,22 @@
         <v>24983.9</v>
       </c>
       <c r="F46" t="n">
-        <v>138.68</v>
+        <v>137.94</v>
       </c>
       <c r="G46" t="n">
-        <v>75.7785697537729</v>
+        <v>-262.7636942426216</v>
       </c>
       <c r="H46" t="n">
         <v>24279.27</v>
       </c>
       <c r="I46" t="n">
-        <v>24908.12143024623</v>
+        <v>25246.66369424262</v>
       </c>
       <c r="J46" t="n">
-        <v>24526.91057408145</v>
+        <v>24707.49390857762</v>
       </c>
       <c r="K46" t="n">
-        <v>24660.48357127897</v>
+        <v>24818.439785665</v>
       </c>
     </row>
     <row r="47">
@@ -26906,22 +26947,22 @@
         <v>25008</v>
       </c>
       <c r="F47" t="n">
-        <v>138.58</v>
+        <v>137.84</v>
       </c>
       <c r="G47" t="n">
-        <v>76.11316950341643</v>
+        <v>-268.477353269438</v>
       </c>
       <c r="H47" t="n">
         <v>24270.6</v>
       </c>
       <c r="I47" t="n">
-        <v>24931.88683049658</v>
+        <v>25276.47735326944</v>
       </c>
       <c r="J47" t="n">
-        <v>24527.99540597853</v>
+        <v>24711.25646032982</v>
       </c>
       <c r="K47" t="n">
-        <v>24674.49430184682</v>
+        <v>24835.82089293962</v>
       </c>
     </row>
     <row r="48">
@@ -26932,22 +26973,22 @@
         <v>24993.3</v>
       </c>
       <c r="F48" t="n">
-        <v>138.48</v>
+        <v>137.74</v>
       </c>
       <c r="G48" t="n">
-        <v>26.80210008125505</v>
+        <v>-324.1540246468721</v>
       </c>
       <c r="H48" t="n">
         <v>24270.12</v>
       </c>
       <c r="I48" t="n">
-        <v>24966.49789991874</v>
+        <v>25317.45402464687</v>
       </c>
       <c r="J48" t="n">
-        <v>24537.85624495597</v>
+        <v>24723.87940551864</v>
       </c>
       <c r="K48" t="n">
-        <v>24698.76470934992</v>
+        <v>24863.69461912823</v>
       </c>
     </row>
     <row r="49">
@@ -26958,22 +26999,22 @@
         <v>25038.8</v>
       </c>
       <c r="F49" t="n">
-        <v>138.38</v>
+        <v>137.64</v>
       </c>
       <c r="G49" t="n">
-        <v>34.74014875895955</v>
+        <v>-322.9443502613176</v>
       </c>
       <c r="H49" t="n">
         <v>24269.63</v>
       </c>
       <c r="I49" t="n">
-        <v>25004.05985124104</v>
+        <v>25361.74435026132</v>
       </c>
       <c r="J49" t="n">
-        <v>24548.34082092</v>
+        <v>24737.21529227953</v>
       </c>
       <c r="K49" t="n">
-        <v>24725.35227846048</v>
+        <v>24894.15905798179</v>
       </c>
     </row>
     <row r="50">
@@ -26984,22 +27025,22 @@
         <v>24708.8</v>
       </c>
       <c r="F50" t="n">
-        <v>138.28</v>
+        <v>137.54</v>
       </c>
       <c r="G50" t="n">
-        <v>-336.1237749236643</v>
+        <v>-700.9561919601401</v>
       </c>
       <c r="H50" t="n">
         <v>24269.13</v>
       </c>
       <c r="I50" t="n">
-        <v>25044.92377492366</v>
+        <v>25409.75619196014</v>
       </c>
       <c r="J50" t="n">
-        <v>24559.50180595621</v>
+        <v>24751.32210377855</v>
       </c>
       <c r="K50" t="n">
-        <v>24754.55542969767</v>
+        <v>24927.56408818159</v>
       </c>
     </row>
     <row r="51">
@@ -27010,22 +27051,22 @@
         <v>24696.9</v>
       </c>
       <c r="F51" t="n">
-        <v>138.18</v>
+        <v>137.44</v>
       </c>
       <c r="G51" t="n">
-        <v>-392.7052450078518</v>
+        <v>-765.1768577378607</v>
       </c>
       <c r="H51" t="n">
         <v>24268.73</v>
       </c>
       <c r="I51" t="n">
-        <v>25089.60524500785</v>
+        <v>25462.07685773786</v>
       </c>
       <c r="J51" t="n">
-        <v>24571.50743894411</v>
+        <v>24766.37396203597</v>
       </c>
       <c r="K51" t="n">
-        <v>24786.83150071981</v>
+        <v>24964.43289570189</v>
       </c>
     </row>
     <row r="52">
@@ -27036,22 +27077,22 @@
         <v>24663.5</v>
       </c>
       <c r="F52" t="n">
-        <v>138.08</v>
+        <v>137.34</v>
       </c>
       <c r="G52" t="n">
-        <v>-475.0848735214386</v>
+        <v>-855.7786318839389</v>
       </c>
       <c r="H52" t="n">
         <v>24268.44</v>
       </c>
       <c r="I52" t="n">
-        <v>25138.58487352144</v>
+        <v>25519.27863188394</v>
       </c>
       <c r="J52" t="n">
-        <v>24584.43224385831</v>
+        <v>24782.45194215534</v>
       </c>
       <c r="K52" t="n">
-        <v>24822.59658249946</v>
+        <v>25005.2666897286</v>
       </c>
     </row>
     <row r="53">
@@ -27062,22 +27103,22 @@
         <v>24656</v>
       </c>
       <c r="F53" t="n">
-        <v>137.98</v>
+        <v>137.24</v>
       </c>
       <c r="G53" t="n">
-        <v>-536.3113354496127</v>
+        <v>-925.9287135344384</v>
       </c>
       <c r="H53" t="n">
         <v>24268.16</v>
       </c>
       <c r="I53" t="n">
-        <v>25192.31133544961</v>
+        <v>25581.92871353444</v>
       </c>
       <c r="J53" t="n">
-        <v>24598.24785809409</v>
+        <v>24799.53501746685</v>
       </c>
       <c r="K53" t="n">
-        <v>24862.2277160565</v>
+        <v>25050.55369606759</v>
       </c>
     </row>
     <row r="54">
@@ -27088,22 +27129,22 @@
         <v>24583</v>
       </c>
       <c r="F54" t="n">
-        <v>137.88</v>
+        <v>137.14</v>
       </c>
       <c r="G54" t="n">
-        <v>-668.4375570741722</v>
+        <v>-1067.835118780895</v>
       </c>
       <c r="H54" t="n">
         <v>24267.9</v>
       </c>
       <c r="I54" t="n">
-        <v>25251.43755707417</v>
+        <v>25650.83511878089</v>
       </c>
       <c r="J54" t="n">
-        <v>24613.0439904152</v>
+        <v>24817.72116053248</v>
       </c>
       <c r="K54" t="n">
-        <v>24906.29812295924</v>
+        <v>25101.01395824841</v>
       </c>
     </row>
     <row r="55">
@@ -27114,22 +27155,22 @@
         <v>24276.6</v>
       </c>
       <c r="F55" t="n">
-        <v>137.78</v>
+        <v>137.04</v>
       </c>
       <c r="G55" t="n">
-        <v>-1040.13102011037</v>
+        <v>-1450.370775515752</v>
       </c>
       <c r="H55" t="n">
         <v>24267.67</v>
       </c>
       <c r="I55" t="n">
-        <v>25316.73102011037</v>
+        <v>25726.97077551575</v>
       </c>
       <c r="J55" t="n">
-        <v>24628.91953211843</v>
+        <v>24837.11863050317</v>
       </c>
       <c r="K55" t="n">
-        <v>24955.48639843496</v>
+        <v>25157.52214501258</v>
       </c>
     </row>
     <row r="56">
@@ -27140,22 +27181,22 @@
         <v>24806.4</v>
       </c>
       <c r="F56" t="n">
-        <v>137.68</v>
+        <v>136.94</v>
       </c>
       <c r="G56" t="n">
-        <v>-582.7795871076596</v>
+        <v>-1005.199072182961</v>
       </c>
       <c r="H56" t="n">
         <v>24267.56</v>
       </c>
       <c r="I56" t="n">
-        <v>25389.17958710766</v>
+        <v>25811.59907218296</v>
       </c>
       <c r="J56" t="n">
-        <v>24646.06384992632</v>
+        <v>24857.92748428142</v>
       </c>
       <c r="K56" t="n">
-        <v>25010.68104405468</v>
+        <v>25221.23158790154</v>
       </c>
     </row>
     <row r="57">
@@ -27166,22 +27207,22 @@
         <v>25239</v>
       </c>
       <c r="F57" t="n">
-        <v>137.58</v>
+        <v>136.84</v>
       </c>
       <c r="G57" t="n">
-        <v>-230.6651888903289</v>
+        <v>-666.9757459368593</v>
       </c>
       <c r="H57" t="n">
         <v>24267.38</v>
       </c>
       <c r="I57" t="n">
-        <v>25469.66518889033</v>
+        <v>25905.97574593686</v>
       </c>
       <c r="J57" t="n">
-        <v>24664.39829519557</v>
+        <v>24880.08135773825</v>
       </c>
       <c r="K57" t="n">
-        <v>25072.65264619712</v>
+        <v>25293.27438819861</v>
       </c>
     </row>
     <row r="58">
@@ -27192,22 +27233,22 @@
         <v>24656.3</v>
       </c>
       <c r="F58" t="n">
-        <v>137.48</v>
+        <v>136.74</v>
       </c>
       <c r="G58" t="n">
-        <v>-902.91991071542</v>
+        <v>-1355.344637910257</v>
       </c>
       <c r="H58" t="n">
         <v>24266.87</v>
       </c>
       <c r="I58" t="n">
-        <v>25559.21991071542</v>
+        <v>26011.64463791026</v>
       </c>
       <c r="J58" t="n">
-        <v>24683.78797156929</v>
+        <v>24903.45957441537</v>
       </c>
       <c r="K58" t="n">
-        <v>25142.30819487379</v>
+        <v>25375.05506349488</v>
       </c>
     </row>
     <row r="59">
@@ -27218,22 +27259,22 @@
         <v>24484.5</v>
       </c>
       <c r="F59" t="n">
-        <v>137.38</v>
+        <v>136.64</v>
       </c>
       <c r="G59" t="n">
-        <v>-1175.314431162558</v>
+        <v>-1646.77931195038</v>
       </c>
       <c r="H59" t="n">
         <v>24266.42</v>
       </c>
       <c r="I59" t="n">
-        <v>25659.81443116256</v>
+        <v>26131.27931195038</v>
       </c>
       <c r="J59" t="n">
-        <v>24704.76381260061</v>
+        <v>24928.60965345078</v>
       </c>
       <c r="K59" t="n">
-        <v>25221.47744547336</v>
+        <v>25469.0896584996</v>
       </c>
     </row>
     <row r="60">
@@ -27244,22 +27285,22 @@
         <v>25108.2</v>
       </c>
       <c r="F60" t="n">
-        <v>137.28</v>
+        <v>136.54</v>
       </c>
       <c r="G60" t="n">
-        <v>-665.4219039000855</v>
+        <v>-1159.810431676422</v>
       </c>
       <c r="H60" t="n">
         <v>24266.22</v>
       </c>
       <c r="I60" t="n">
-        <v>25773.62190390009</v>
+        <v>26268.01043167642</v>
       </c>
       <c r="J60" t="n">
-        <v>24727.67503264756</v>
+        <v>24955.90030690072</v>
       </c>
       <c r="K60" t="n">
-        <v>25312.17435043609</v>
+        <v>25578.3301247757</v>
       </c>
     </row>
     <row r="61">
@@ -27270,22 +27311,22 @@
         <v>24956.2</v>
       </c>
       <c r="F61" t="n">
-        <v>137.18</v>
+        <v>136.44</v>
       </c>
       <c r="G61" t="n">
-        <v>-946.6303890096315</v>
+        <v>-1469.093387337478</v>
       </c>
       <c r="H61" t="n">
         <v>24265.86</v>
       </c>
       <c r="I61" t="n">
-        <v>25902.83038900963</v>
+        <v>26425.29338733748</v>
       </c>
       <c r="J61" t="n">
-        <v>24752.29202915436</v>
+        <v>24985.12504056088</v>
       </c>
       <c r="K61" t="n">
-        <v>25416.40658980749</v>
+        <v>25706.0283467766</v>
       </c>
     </row>
     <row r="62">
@@ -27296,22 +27337,22 @@
         <v>25105.5</v>
       </c>
       <c r="F62" t="n">
-        <v>137.08</v>
+        <v>136.34</v>
       </c>
       <c r="G62" t="n">
-        <v>-945.5898263408781</v>
+        <v>-1502.848610211768</v>
       </c>
       <c r="H62" t="n">
         <v>24265.35</v>
       </c>
       <c r="I62" t="n">
-        <v>26051.08982634088</v>
+        <v>26608.34861021177</v>
       </c>
       <c r="J62" t="n">
-        <v>24778.82983317275</v>
+        <v>25016.5265036968</v>
       </c>
       <c r="K62" t="n">
-        <v>25537.61909712516</v>
+        <v>25857.17210651496</v>
       </c>
     </row>
     <row r="63">
@@ -27322,22 +27363,22 @@
         <v>25926.1</v>
       </c>
       <c r="F63" t="n">
-        <v>136.98</v>
+        <v>136.24</v>
       </c>
       <c r="G63" t="n">
-        <v>-298.0074232020961</v>
+        <v>-898.4712496525062</v>
       </c>
       <c r="H63" t="n">
         <v>24264.84</v>
       </c>
       <c r="I63" t="n">
-        <v>26224.10742320209</v>
+        <v>26824.5712496525</v>
       </c>
       <c r="J63" t="n">
-        <v>24807.67222880212</v>
+        <v>25050.52177440163</v>
       </c>
       <c r="K63" t="n">
-        <v>25681.28533395089</v>
+        <v>26038.88947525088</v>
       </c>
     </row>
     <row r="64">
@@ -27348,22 +27389,22 @@
         <v>25834.4</v>
       </c>
       <c r="F64" t="n">
-        <v>136.88</v>
+        <v>136.14</v>
       </c>
       <c r="G64" t="n">
-        <v>-596.3765355939904</v>
+        <v>-1249.690030861104</v>
       </c>
       <c r="H64" t="n">
         <v>24264</v>
       </c>
       <c r="I64" t="n">
-        <v>26430.77653559399</v>
+        <v>27084.09003086111</v>
       </c>
       <c r="J64" t="n">
-        <v>24838.75669268498</v>
+        <v>25087.08882229625</v>
       </c>
       <c r="K64" t="n">
-        <v>25856.03124418311</v>
+        <v>26261.00120856486</v>
       </c>
     </row>
     <row r="65">
@@ -27374,22 +27415,22 @@
         <v>26328.5</v>
       </c>
       <c r="F65" t="n">
-        <v>136.78</v>
+        <v>136.04</v>
       </c>
       <c r="G65" t="n">
-        <v>-358.8749745205314</v>
+        <v>-1074.238791086322</v>
       </c>
       <c r="H65" t="n">
         <v>24262.92</v>
       </c>
       <c r="I65" t="n">
-        <v>26687.37497452053</v>
+        <v>27402.73879108632</v>
       </c>
       <c r="J65" t="n">
-        <v>24872.48034385104</v>
+        <v>25126.67446422741</v>
       </c>
       <c r="K65" t="n">
-        <v>26077.82763426244</v>
+        <v>26538.98432685891</v>
       </c>
     </row>
     <row r="66">
@@ -27400,22 +27441,22 @@
         <v>26760.7</v>
       </c>
       <c r="F66" t="n">
-        <v>136.68</v>
+        <v>135.94</v>
       </c>
       <c r="G66" t="n">
-        <v>-262.1921830140782</v>
+        <v>-1044.601325362182</v>
       </c>
       <c r="H66" t="n">
         <v>24261.7</v>
       </c>
       <c r="I66" t="n">
-        <v>27022.89218301408</v>
+        <v>27805.30132536218</v>
       </c>
       <c r="J66" t="n">
-        <v>24909.29714484195</v>
+        <v>25169.79422907996</v>
       </c>
       <c r="K66" t="n">
-        <v>26375.31019038719</v>
+        <v>26897.20709628222</v>
       </c>
     </row>
     <row r="67">
@@ -27426,22 +27467,22 @@
         <v>27055.6</v>
       </c>
       <c r="F67" t="n">
-        <v>136.58</v>
+        <v>135.84</v>
       </c>
       <c r="G67" t="n">
-        <v>-432.1517830182638</v>
+        <v>-1275.906081387304</v>
       </c>
       <c r="H67" t="n">
         <v>24260.17</v>
       </c>
       <c r="I67" t="n">
-        <v>27487.75178301826</v>
+        <v>28331.5060813873</v>
       </c>
       <c r="J67" t="n">
-        <v>24949.44666094844</v>
+        <v>25216.76468588111</v>
       </c>
       <c r="K67" t="n">
-        <v>26798.49333100778</v>
+        <v>27374.91139550619</v>
       </c>
     </row>
     <row r="68">
@@ -27452,22 +27493,22 @@
         <v>27949.1</v>
       </c>
       <c r="F68" t="n">
-        <v>136.48</v>
+        <v>135.74</v>
       </c>
       <c r="G68" t="n">
-        <v>-217.5839076015764</v>
+        <v>-1097.53794441108</v>
       </c>
       <c r="H68" t="n">
         <v>24258.4</v>
       </c>
       <c r="I68" t="n">
-        <v>28166.68390760157</v>
+        <v>29046.63794441108</v>
       </c>
       <c r="J68" t="n">
-        <v>24993.47477075239</v>
+        <v>25268.22898149524</v>
       </c>
       <c r="K68" t="n">
-        <v>27431.63191755843</v>
+        <v>28036.80896291584</v>
       </c>
     </row>
     <row r="69">
@@ -27478,22 +27519,22 @@
         <v>28717.9</v>
       </c>
       <c r="F69" t="n">
-        <v>136.38</v>
+        <v>135.64</v>
       </c>
       <c r="G69" t="n">
-        <v>-474.3441249793614</v>
+        <v>-1337.71297634851</v>
       </c>
       <c r="H69" t="n">
         <v>24256.22</v>
       </c>
       <c r="I69" t="n">
-        <v>29192.24412497936</v>
+        <v>30055.61297634851</v>
       </c>
       <c r="J69" t="n">
-        <v>25041.76683535556</v>
+        <v>25324.69660524233</v>
       </c>
       <c r="K69" t="n">
-        <v>28406.72711009323</v>
+        <v>28987.13637110619</v>
       </c>
     </row>
     <row r="70">
@@ -27504,22 +27545,22 @@
         <v>30717.6</v>
       </c>
       <c r="F70" t="n">
-        <v>136.28</v>
+        <v>135.54</v>
       </c>
       <c r="G70" t="n">
-        <v>-38.39073899564028</v>
+        <v>-803.0014660123488</v>
       </c>
       <c r="H70" t="n">
         <v>24253.48</v>
       </c>
       <c r="I70" t="n">
-        <v>30755.99073899564</v>
+        <v>31520.60146601235</v>
       </c>
       <c r="J70" t="n">
-        <v>25094.82398684122</v>
+        <v>25386.82878598349</v>
       </c>
       <c r="K70" t="n">
-        <v>29914.68745790599</v>
+        <v>30387.25268002886</v>
       </c>
     </row>
     <row r="71">
@@ -27530,22 +27571,22 @@
         <v>32779.8</v>
       </c>
       <c r="F71" t="n">
-        <v>136.18</v>
+        <v>135.44</v>
       </c>
       <c r="G71" t="n">
-        <v>-328.1056057343521</v>
+        <v>-894.6934425601576</v>
       </c>
       <c r="H71" t="n">
         <v>24249.79</v>
       </c>
       <c r="I71" t="n">
-        <v>33107.90560573436</v>
+        <v>33674.49344256016</v>
       </c>
       <c r="J71" t="n">
-        <v>25153.02340793678</v>
+        <v>25455.2114927637</v>
       </c>
       <c r="K71" t="n">
-        <v>32204.72943402853</v>
+        <v>32469.07194979646</v>
       </c>
     </row>
     <row r="72">
@@ -27556,22 +27597,22 @@
         <v>36550.1</v>
       </c>
       <c r="F72" t="n">
-        <v>136.08</v>
+        <v>135.34</v>
       </c>
       <c r="G72" t="n">
-        <v>15.20383599681372</v>
+        <v>-267.7868736636156</v>
       </c>
       <c r="H72" t="n">
         <v>24244.72</v>
       </c>
       <c r="I72" t="n">
-        <v>36534.89616400318</v>
+        <v>36817.88687366361</v>
       </c>
       <c r="J72" t="n">
-        <v>25216.84378511606</v>
+        <v>25530.6064391092</v>
       </c>
       <c r="K72" t="n">
-        <v>35562.85385597146</v>
+        <v>35532.00043455441</v>
       </c>
     </row>
     <row r="73">
@@ -27582,22 +27623,22 @@
         <v>41320.5</v>
       </c>
       <c r="F73" t="n">
-        <v>135.98</v>
+        <v>135.24</v>
       </c>
       <c r="G73" t="n">
-        <v>10.9895091986109</v>
+        <v>40.57320765502664</v>
       </c>
       <c r="H73" t="n">
         <v>24237.64</v>
       </c>
       <c r="I73" t="n">
-        <v>41309.51049080139</v>
+        <v>41279.92679234497</v>
       </c>
       <c r="J73" t="n">
-        <v>25286.73762856512</v>
+        <v>25613.83346343449</v>
       </c>
       <c r="K73" t="n">
-        <v>40260.52825235144</v>
+        <v>39903.73332891048</v>
       </c>
     </row>
     <row r="74">
@@ -27608,22 +27649,22 @@
         <v>47368.7</v>
       </c>
       <c r="F74" t="n">
-        <v>135.88</v>
+        <v>135.14</v>
       </c>
       <c r="G74" t="n">
-        <v>-240.4878219926904</v>
+        <v>41.42843151932175</v>
       </c>
       <c r="H74" t="n">
         <v>24227.62</v>
       </c>
       <c r="I74" t="n">
-        <v>47609.18782199269</v>
+        <v>47327.27156848068</v>
       </c>
       <c r="J74" t="n">
-        <v>25363.07314437777</v>
+        <v>25705.75558781564</v>
       </c>
       <c r="K74" t="n">
-        <v>46473.89492953633</v>
+        <v>45849.13598066504</v>
       </c>
     </row>
     <row r="75">
@@ -27634,22 +27675,22 @@
         <v>55544.3</v>
       </c>
       <c r="F75" t="n">
-        <v>135.78</v>
+        <v>135.04</v>
       </c>
       <c r="G75" t="n">
-        <v>125.6694235899777</v>
+        <v>520.9855244375431</v>
       </c>
       <c r="H75" t="n">
         <v>24213.82</v>
       </c>
       <c r="I75" t="n">
-        <v>55418.63057641003</v>
+        <v>55023.31447556246</v>
       </c>
       <c r="J75" t="n">
-        <v>25446.58058403298</v>
+        <v>25807.78261957447</v>
       </c>
       <c r="K75" t="n">
-        <v>54186.08593909792</v>
+        <v>53429.35185598799</v>
       </c>
     </row>
     <row r="76">
@@ -27660,22 +27701,22 @@
         <v>63391.9</v>
       </c>
       <c r="F76" t="n">
-        <v>135.68</v>
+        <v>134.94</v>
       </c>
       <c r="G76" t="n">
-        <v>-1044.270662655741</v>
+        <v>-680.1327149336139</v>
       </c>
       <c r="H76" t="n">
         <v>24195.04</v>
       </c>
       <c r="I76" t="n">
-        <v>64436.17066265574</v>
+        <v>64072.03271493362</v>
       </c>
       <c r="J76" t="n">
-        <v>25537.98347650581</v>
+        <v>25921.57099625635</v>
       </c>
       <c r="K76" t="n">
-        <v>63093.50748000172</v>
+        <v>62345.50171867727</v>
       </c>
     </row>
     <row r="77">
@@ -27686,22 +27727,22 @@
         <v>73673.89999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>135.58</v>
+        <v>134.84</v>
       </c>
       <c r="G77" t="n">
-        <v>-333.9017906085646</v>
+        <v>-40.31287357048132</v>
       </c>
       <c r="H77" t="n">
         <v>24170.57</v>
       </c>
       <c r="I77" t="n">
-        <v>74007.80179060856</v>
+        <v>73714.21287357048</v>
       </c>
       <c r="J77" t="n">
-        <v>25638.97862891418</v>
+        <v>26050.09530349869</v>
       </c>
       <c r="K77" t="n">
-        <v>72539.74172672181</v>
+        <v>71834.68757007178</v>
       </c>
     </row>
     <row r="78">
@@ -27712,22 +27753,22 @@
         <v>83519.2</v>
       </c>
       <c r="F78" t="n">
-        <v>135.48</v>
+        <v>134.74</v>
       </c>
       <c r="G78" t="n">
-        <v>419.680262072914</v>
+        <v>751.9048075618193</v>
       </c>
       <c r="H78" t="n">
         <v>24139.56</v>
       </c>
       <c r="I78" t="n">
-        <v>83099.51973792708</v>
+        <v>82767.29519243818</v>
       </c>
       <c r="J78" t="n">
-        <v>25751.84046379987</v>
+        <v>26197.34897598379</v>
       </c>
       <c r="K78" t="n">
-        <v>81487.6525618435</v>
+        <v>80709.50621645438</v>
       </c>
     </row>
     <row r="79">
@@ -27738,22 +27779,22 @@
         <v>91301.7</v>
       </c>
       <c r="F79" t="n">
-        <v>135.38</v>
+        <v>134.64</v>
       </c>
       <c r="G79" t="n">
-        <v>954.9148157017626</v>
+        <v>1458.924126397353</v>
       </c>
       <c r="H79" t="n">
         <v>24101.36</v>
       </c>
       <c r="I79" t="n">
-        <v>90346.78518429823</v>
+        <v>89842.77587360264</v>
       </c>
       <c r="J79" t="n">
-        <v>25880.2241964776</v>
+        <v>26369.19683267976</v>
       </c>
       <c r="K79" t="n">
-        <v>88568.38558376112</v>
+        <v>87574.93904092288</v>
       </c>
     </row>
     <row r="80">
@@ -27764,22 +27805,22 @@
         <v>93863.10000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>135.28</v>
+        <v>134.54</v>
       </c>
       <c r="G80" t="n">
-        <v>-448.26045276472</v>
+        <v>155.8292305408104</v>
       </c>
       <c r="H80" t="n">
         <v>24057.11</v>
       </c>
       <c r="I80" t="n">
-        <v>94311.36045276473</v>
+        <v>93707.2707694592</v>
       </c>
       <c r="J80" t="n">
-        <v>26031.70790310714</v>
+        <v>26575.79393890357</v>
       </c>
       <c r="K80" t="n">
-        <v>92337.25461340095</v>
+        <v>91188.58683055562</v>
       </c>
     </row>
     <row r="81">
@@ -27790,22 +27831,22 @@
         <v>94868.5</v>
       </c>
       <c r="F81" t="n">
-        <v>135.18</v>
+        <v>134.44</v>
       </c>
       <c r="G81" t="n">
-        <v>809.115783113215</v>
+        <v>1208.325286108215</v>
       </c>
       <c r="H81" t="n">
         <v>24009.49</v>
       </c>
       <c r="I81" t="n">
-        <v>94059.38421688678</v>
+        <v>93660.17471389179</v>
       </c>
       <c r="J81" t="n">
-        <v>26219.47774087522</v>
+        <v>26832.73448712341</v>
       </c>
       <c r="K81" t="n">
-        <v>91849.885337006</v>
+        <v>90836.93022676838</v>
       </c>
     </row>
     <row r="82">
@@ -27816,22 +27857,22 @@
         <v>89488.89999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>135.08</v>
+        <v>134.34</v>
       </c>
       <c r="G82" t="n">
-        <v>-239.2880676349014</v>
+        <v>-280.851806400955</v>
       </c>
       <c r="H82" t="n">
         <v>23961.18</v>
       </c>
       <c r="I82" t="n">
-        <v>89728.1880676349</v>
+        <v>89769.75180640095</v>
       </c>
       <c r="J82" t="n">
-        <v>26464.5393101885</v>
+        <v>27161.95373917238</v>
       </c>
       <c r="K82" t="n">
-        <v>87225.28458142345</v>
+        <v>86568.97806722857</v>
       </c>
     </row>
     <row r="83">
@@ -27842,22 +27883,22 @@
         <v>81655.7</v>
       </c>
       <c r="F83" t="n">
-        <v>134.98</v>
+        <v>134.24</v>
       </c>
       <c r="G83" t="n">
-        <v>-800.4975198189641</v>
+        <v>-1208.322879710176</v>
       </c>
       <c r="H83" t="n">
         <v>23915.31</v>
       </c>
       <c r="I83" t="n">
-        <v>82456.19751981896</v>
+        <v>82864.02287971017</v>
       </c>
       <c r="J83" t="n">
-        <v>26802.92939326509</v>
+        <v>27596.50084059838</v>
       </c>
       <c r="K83" t="n">
-        <v>79568.97902357392</v>
+        <v>79182.8320391118</v>
       </c>
     </row>
     <row r="84">
@@ -27868,22 +27909,22 @@
         <v>72861.10000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>134.88</v>
+        <v>134.14</v>
       </c>
       <c r="G84" t="n">
-        <v>-910.3059477110364</v>
+        <v>-1419.526601079007</v>
       </c>
       <c r="H84" t="n">
         <v>23874.62</v>
       </c>
       <c r="I84" t="n">
-        <v>73771.40594771104</v>
+        <v>74280.62660107901</v>
       </c>
       <c r="J84" t="n">
-        <v>27295.96902604034</v>
+        <v>28187.23986726766</v>
       </c>
       <c r="K84" t="n">
-        <v>70350.39156931208</v>
+        <v>69968.00673381136</v>
       </c>
     </row>
     <row r="85">
@@ -27894,22 +27935,22 @@
         <v>65228</v>
       </c>
       <c r="F85" t="n">
-        <v>134.78</v>
+        <v>134.04</v>
       </c>
       <c r="G85" t="n">
-        <v>140.1659041687672</v>
+        <v>-266.467043394674</v>
       </c>
       <c r="H85" t="n">
         <v>23839.91</v>
       </c>
       <c r="I85" t="n">
-        <v>65087.83409583123</v>
+        <v>65494.46704339467</v>
       </c>
       <c r="J85" t="n">
-        <v>28044.86078424781</v>
+        <v>29013.82157093985</v>
       </c>
       <c r="K85" t="n">
-        <v>60883.14983989713</v>
+        <v>60320.55547245483</v>
       </c>
     </row>
     <row r="86">
@@ -27920,22 +27961,22 @@
         <v>57825</v>
       </c>
       <c r="F86" t="n">
-        <v>134.68</v>
+        <v>133.94</v>
       </c>
       <c r="G86" t="n">
-        <v>297.0899954391862</v>
+        <v>37.86489463433099</v>
       </c>
       <c r="H86" t="n">
         <v>23810.89</v>
       </c>
       <c r="I86" t="n">
-        <v>57527.91000456081</v>
+        <v>57787.13510536567</v>
       </c>
       <c r="J86" t="n">
-        <v>29211.50568810214</v>
+        <v>30204.51621751941</v>
       </c>
       <c r="K86" t="n">
-        <v>52127.49775937917</v>
+        <v>51393.50888784626</v>
       </c>
     </row>
     <row r="87">
@@ -27946,22 +27987,22 @@
         <v>52705.2</v>
       </c>
       <c r="F87" t="n">
-        <v>134.58</v>
+        <v>133.84</v>
       </c>
       <c r="G87" t="n">
-        <v>790.0560174259008</v>
+        <v>632.2609856423078</v>
       </c>
       <c r="H87" t="n">
         <v>23786.85</v>
       </c>
       <c r="I87" t="n">
-        <v>51915.1439825741</v>
+        <v>52072.93901435769</v>
       </c>
       <c r="J87" t="n">
-        <v>31038.00401182018</v>
+        <v>31961.61010048373</v>
       </c>
       <c r="K87" t="n">
-        <v>44664.13952152558</v>
+        <v>43898.17891387396</v>
       </c>
     </row>
     <row r="88">
@@ -27972,22 +28013,22 @@
         <v>49512.4</v>
       </c>
       <c r="F88" t="n">
-        <v>134.48</v>
+        <v>133.74</v>
       </c>
       <c r="G88" t="n">
-        <v>694.161567210067</v>
+        <v>608.335047758439</v>
       </c>
       <c r="H88" t="n">
         <v>23766.62</v>
       </c>
       <c r="I88" t="n">
-        <v>48818.23843278993</v>
+        <v>48904.06495224156</v>
       </c>
       <c r="J88" t="n">
-        <v>33854.37150250035</v>
+        <v>34585.5527831723</v>
       </c>
       <c r="K88" t="n">
-        <v>38730.59345825723</v>
+        <v>38085.13216906926</v>
       </c>
     </row>
     <row r="89">
@@ -27998,22 +28039,22 @@
         <v>49319.6</v>
       </c>
       <c r="F89" t="n">
-        <v>134.38</v>
+        <v>133.64</v>
       </c>
       <c r="G89" t="n">
-        <v>712.4466391738824</v>
+        <v>729.4104806039468</v>
       </c>
       <c r="H89" t="n">
         <v>23748.59</v>
       </c>
       <c r="I89" t="n">
-        <v>48607.15336082612</v>
+        <v>48590.18951939605</v>
       </c>
       <c r="J89" t="n">
-        <v>38061.13101852063</v>
+        <v>38483.06017302025</v>
       </c>
       <c r="K89" t="n">
-        <v>34294.68644185532</v>
+        <v>33855.7193463758</v>
       </c>
     </row>
     <row r="90">
@@ -28024,22 +28065,22 @@
         <v>52710.5</v>
       </c>
       <c r="F90" t="n">
-        <v>134.28</v>
+        <v>133.54</v>
       </c>
       <c r="G90" t="n">
-        <v>1217.648954863987</v>
+        <v>1385.939923422142</v>
       </c>
       <c r="H90" t="n">
         <v>23730.79</v>
       </c>
       <c r="I90" t="n">
-        <v>51492.85104513601</v>
+        <v>51324.56007657786</v>
       </c>
       <c r="J90" t="n">
-        <v>44072.8878658184</v>
+        <v>44133.70413969466</v>
       </c>
       <c r="K90" t="n">
-        <v>31150.80391991885</v>
+        <v>30921.6459368832</v>
       </c>
     </row>
     <row r="91">
@@ -28050,22 +28091,22 @@
         <v>56503.9</v>
       </c>
       <c r="F91" t="n">
-        <v>134.18</v>
+        <v>133.44</v>
       </c>
       <c r="G91" t="n">
-        <v>-1018.546056889958</v>
+        <v>-716.7645119162626</v>
       </c>
       <c r="H91" t="n">
         <v>23711.27</v>
       </c>
       <c r="I91" t="n">
-        <v>57522.44605688996</v>
+        <v>57220.66451191626</v>
       </c>
       <c r="J91" t="n">
-        <v>52217.32085403765</v>
+        <v>51987.51422803442</v>
       </c>
       <c r="K91" t="n">
-        <v>29016.42958621719</v>
+        <v>28944.42028388185</v>
       </c>
     </row>
     <row r="92">
@@ -28076,22 +28117,22 @@
         <v>66220.2</v>
       </c>
       <c r="F92" t="n">
-        <v>134.08</v>
+        <v>133.34</v>
       </c>
       <c r="G92" t="n">
-        <v>-298.4680209723156</v>
+        <v>4.241346436785534</v>
       </c>
       <c r="H92" t="n">
         <v>23688.24</v>
       </c>
       <c r="I92" t="n">
-        <v>66518.66802097231</v>
+        <v>66215.95865356321</v>
       </c>
       <c r="J92" t="n">
-        <v>62599.30457521681</v>
+        <v>62282.08673607494</v>
       </c>
       <c r="K92" t="n">
-        <v>27607.62642470606</v>
+        <v>27622.11191748828</v>
       </c>
     </row>
     <row r="93">
@@ -28102,22 +28143,22 @@
         <v>76751.10000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>133.98</v>
+        <v>133.24</v>
       </c>
       <c r="G93" t="n">
-        <v>-1230.031974175174</v>
+        <v>-1122.297645561965</v>
       </c>
       <c r="H93" t="n">
         <v>23659.34</v>
       </c>
       <c r="I93" t="n">
-        <v>77981.13197417518</v>
+        <v>77873.39764556197</v>
       </c>
       <c r="J93" t="n">
-        <v>74957.25741566544</v>
+        <v>74809.21975723533</v>
       </c>
       <c r="K93" t="n">
-        <v>26683.22939915795</v>
+        <v>26723.51788832664</v>
       </c>
     </row>
     <row r="94">
@@ -28128,22 +28169,22 @@
         <v>90714.7</v>
       </c>
       <c r="F94" t="n">
-        <v>133.88</v>
+        <v>133.14</v>
       </c>
       <c r="G94" t="n">
-        <v>-273.3013149968028</v>
+        <v>-471.3720110031427</v>
       </c>
       <c r="H94" t="n">
         <v>23622.4</v>
       </c>
       <c r="I94" t="n">
-        <v>90988.0013149968</v>
+        <v>91186.07201100314</v>
       </c>
       <c r="J94" t="n">
-        <v>88548.14824595282</v>
+        <v>88719.08095341083</v>
       </c>
       <c r="K94" t="n">
-        <v>26062.26184878415</v>
+        <v>26089.39105759232</v>
       </c>
     </row>
     <row r="95">
@@ -28154,22 +28195,22 @@
         <v>101895</v>
       </c>
       <c r="F95" t="n">
-        <v>133.78</v>
+        <v>133.04</v>
       </c>
       <c r="G95" t="n">
-        <v>-2234.006854566775</v>
+        <v>-2628.264402914778</v>
       </c>
       <c r="H95" t="n">
         <v>23576.35</v>
       </c>
       <c r="I95" t="n">
-        <v>104129.0068545668</v>
+        <v>104523.2644029148</v>
       </c>
       <c r="J95" t="n">
-        <v>102083.2136340241</v>
+        <v>102481.3598826086</v>
       </c>
       <c r="K95" t="n">
-        <v>25622.147315438</v>
+        <v>25618.25452030614</v>
       </c>
     </row>
     <row r="96">
@@ -28180,22 +28221,22 @@
         <v>115799</v>
       </c>
       <c r="F96" t="n">
-        <v>133.68</v>
+        <v>132.94</v>
       </c>
       <c r="G96" t="n">
-        <v>292.4787967202137</v>
+        <v>-26.43723670317559</v>
       </c>
       <c r="H96" t="n">
         <v>23520.88</v>
       </c>
       <c r="I96" t="n">
-        <v>115506.5212032798</v>
+        <v>115825.4372367032</v>
       </c>
       <c r="J96" t="n">
-        <v>113741.0981174821</v>
+        <v>114098.0436539021</v>
       </c>
       <c r="K96" t="n">
-        <v>25286.30356913555</v>
+        <v>25248.27358280104</v>
       </c>
     </row>
     <row r="97">
@@ -28206,22 +28247,22 @@
         <v>122420</v>
       </c>
       <c r="F97" t="n">
-        <v>133.58</v>
+        <v>132.84</v>
       </c>
       <c r="G97" t="n">
-        <v>-520.6238713186176</v>
+        <v>-633.2162578422431</v>
       </c>
       <c r="H97" t="n">
         <v>23456.83</v>
       </c>
       <c r="I97" t="n">
-        <v>122940.6238713186</v>
+        <v>123053.2162578422</v>
       </c>
       <c r="J97" t="n">
-        <v>121386.8455850027</v>
+        <v>121566.9058541559</v>
       </c>
       <c r="K97" t="n">
-        <v>25010.60619707504</v>
+        <v>24943.14040368633</v>
       </c>
     </row>
     <row r="98">
@@ -28232,22 +28273,22 @@
         <v>123907</v>
       </c>
       <c r="F98" t="n">
-        <v>133.48</v>
+        <v>132.74</v>
       </c>
       <c r="G98" t="n">
-        <v>-710.6350694845314</v>
+        <v>-847.254033613237</v>
       </c>
       <c r="H98" t="n">
         <v>23387.77</v>
       </c>
       <c r="I98" t="n">
-        <v>124617.6350694845</v>
+        <v>124754.2540336132</v>
       </c>
       <c r="J98" t="n">
-        <v>123232.1746623338</v>
+        <v>123458.2654125064</v>
       </c>
       <c r="K98" t="n">
-        <v>24773.22684439585</v>
+        <v>24683.75862110684</v>
       </c>
     </row>
     <row r="99">
@@ -28258,22 +28299,22 @@
         <v>121510</v>
       </c>
       <c r="F99" t="n">
-        <v>133.38</v>
+        <v>132.64</v>
       </c>
       <c r="G99" t="n">
-        <v>1485.59533276521</v>
+        <v>996.3643019874289</v>
       </c>
       <c r="H99" t="n">
         <v>23317.85</v>
       </c>
       <c r="I99" t="n">
-        <v>120024.4046672348</v>
+        <v>120513.6356980126</v>
       </c>
       <c r="J99" t="n">
-        <v>118778.0642840771</v>
+        <v>119371.4583700546</v>
       </c>
       <c r="K99" t="n">
-        <v>24564.18641237482</v>
+        <v>24460.02732795796</v>
       </c>
     </row>
     <row r="100">
@@ -28284,22 +28325,22 @@
         <v>112006</v>
       </c>
       <c r="F100" t="n">
-        <v>133.28</v>
+        <v>132.54</v>
       </c>
       <c r="G100" t="n">
-        <v>1732.53526796661</v>
+        <v>918.9035709083983</v>
       </c>
       <c r="H100" t="n">
         <v>23251.28</v>
       </c>
       <c r="I100" t="n">
-        <v>110273.4647320334</v>
+        <v>111087.0964290916</v>
       </c>
       <c r="J100" t="n">
-        <v>109145.0737530951</v>
+        <v>110071.5494876127</v>
       </c>
       <c r="K100" t="n">
-        <v>24379.66745620233</v>
+        <v>24266.82694147893</v>
       </c>
     </row>
     <row r="101">
@@ -28310,22 +28351,22 @@
         <v>97704.2</v>
       </c>
       <c r="F101" t="n">
-        <v>133.18</v>
+        <v>132.44</v>
       </c>
       <c r="G101" t="n">
-        <v>299.0574430260895</v>
+        <v>-446.5442851903354</v>
       </c>
       <c r="H101" t="n">
         <v>23192.71</v>
       </c>
       <c r="I101" t="n">
-        <v>97405.14255697391</v>
+        <v>98150.74428519033</v>
       </c>
       <c r="J101" t="n">
-        <v>96378.37226173561</v>
+        <v>97241.01591973761</v>
       </c>
       <c r="K101" t="n">
-        <v>24219.47776473624</v>
+        <v>24102.43836545273</v>
       </c>
     </row>
     <row r="102">
@@ -28336,22 +28377,22 @@
         <v>82859.10000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>133.08</v>
+        <v>132.34</v>
       </c>
       <c r="G102" t="n">
-        <v>-619.4084844890749</v>
+        <v>-917.997290328567</v>
       </c>
       <c r="H102" t="n">
         <v>23144.69</v>
       </c>
       <c r="I102" t="n">
-        <v>83478.50848448908</v>
+        <v>83777.09729032857</v>
       </c>
       <c r="J102" t="n">
-        <v>82540.21063667694</v>
+        <v>82956.89003043495</v>
       </c>
       <c r="K102" t="n">
-        <v>24082.98655121908</v>
+        <v>23964.89725989363</v>
       </c>
     </row>
     <row r="103">
@@ -28362,22 +28403,22 @@
         <v>70849.89999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>132.98</v>
+        <v>132.24</v>
       </c>
       <c r="G103" t="n">
-        <v>741.5970937690581</v>
+        <v>982.3882959921757</v>
       </c>
       <c r="H103" t="n">
         <v>23106.65</v>
       </c>
       <c r="I103" t="n">
-        <v>70108.30290623094</v>
+        <v>69867.51170400782</v>
       </c>
       <c r="J103" t="n">
-        <v>69247.60335243981</v>
+        <v>69123.82908596065</v>
       </c>
       <c r="K103" t="n">
-        <v>23967.34949681778</v>
+        <v>23850.33261804718</v>
       </c>
     </row>
     <row r="104">
@@ -28388,22 +28429,22 @@
         <v>58847.2</v>
       </c>
       <c r="F104" t="n">
-        <v>132.88</v>
+        <v>132.14</v>
       </c>
       <c r="G104" t="n">
-        <v>490.6013548043265</v>
+        <v>1091.85439281899</v>
       </c>
       <c r="H104" t="n">
         <v>23077.38</v>
       </c>
       <c r="I104" t="n">
-        <v>58356.59864519567</v>
+        <v>57755.34560718101</v>
       </c>
       <c r="J104" t="n">
-        <v>57564.35770511467</v>
+        <v>57077.6666168933</v>
       </c>
       <c r="K104" t="n">
-        <v>23869.62197136868</v>
+        <v>23755.05899028771</v>
       </c>
     </row>
     <row r="105">
@@ -28414,22 +28455,22 @@
         <v>48222.9</v>
       </c>
       <c r="F105" t="n">
-        <v>132.78</v>
+        <v>132.04</v>
       </c>
       <c r="G105" t="n">
-        <v>-535.5975022240746</v>
+        <v>148.4931845070896</v>
       </c>
       <c r="H105" t="n">
         <v>23056.15</v>
       </c>
       <c r="I105" t="n">
-        <v>48758.49750222408</v>
+        <v>48074.40681549291</v>
       </c>
       <c r="J105" t="n">
-        <v>48026.95364557157</v>
+        <v>47454.10532813717</v>
       </c>
       <c r="K105" t="n">
-        <v>23787.69574198574</v>
+        <v>23676.45148735574</v>
       </c>
     </row>
     <row r="106">
@@ -28440,22 +28481,22 @@
         <v>41212.5</v>
       </c>
       <c r="F106" t="n">
-        <v>132.68</v>
+        <v>131.94</v>
       </c>
       <c r="G106" t="n">
-        <v>-195.3520048458595</v>
+        <v>354.0943578698716</v>
       </c>
       <c r="H106" t="n">
         <v>23041.18</v>
       </c>
       <c r="I106" t="n">
-        <v>41407.85200484586</v>
+        <v>40858.40564213013</v>
       </c>
       <c r="J106" t="n">
-        <v>40730.36500060346</v>
+        <v>40288.33099746525</v>
       </c>
       <c r="K106" t="n">
-        <v>23718.6694881874</v>
+        <v>23611.25464466488</v>
       </c>
     </row>
     <row r="107">
@@ -28466,22 +28507,22 @@
         <v>37102.4</v>
       </c>
       <c r="F107" t="n">
-        <v>132.58</v>
+        <v>131.84</v>
       </c>
       <c r="G107" t="n">
-        <v>1014.37679110287</v>
+        <v>1338.601258373536</v>
       </c>
       <c r="H107" t="n">
         <v>23030.15</v>
       </c>
       <c r="I107" t="n">
-        <v>36088.02320889713</v>
+        <v>35763.79874162647</v>
       </c>
       <c r="J107" t="n">
-        <v>35458.87795459425</v>
+        <v>35237.96595238106</v>
       </c>
       <c r="K107" t="n">
-        <v>23659.29810372079</v>
+        <v>23555.98278924541</v>
       </c>
     </row>
     <row r="108">
@@ -28492,22 +28533,22 @@
         <v>33792.8</v>
       </c>
       <c r="F108" t="n">
-        <v>132.48</v>
+        <v>131.74</v>
       </c>
       <c r="G108" t="n">
-        <v>1375.152737239256</v>
+        <v>1494.121696182017</v>
       </c>
       <c r="H108" t="n">
         <v>23021.71</v>
       </c>
       <c r="I108" t="n">
-        <v>32417.64726276075</v>
+        <v>32298.67830381799</v>
       </c>
       <c r="J108" t="n">
-        <v>31831.89893763373</v>
+        <v>31812.03496446081</v>
       </c>
       <c r="K108" t="n">
-        <v>23607.46135280249</v>
+        <v>23508.35333935718</v>
       </c>
     </row>
     <row r="109">
@@ -28518,22 +28559,22 @@
         <v>30693.1</v>
       </c>
       <c r="F109" t="n">
-        <v>132.38</v>
+        <v>131.64</v>
       </c>
       <c r="G109" t="n">
-        <v>717.900666969821</v>
+        <v>708.4086959169836</v>
       </c>
       <c r="H109" t="n">
         <v>23015.46</v>
       </c>
       <c r="I109" t="n">
-        <v>29975.19933303018</v>
+        <v>29984.69130408301</v>
       </c>
       <c r="J109" t="n">
-        <v>29428.54892260678</v>
+        <v>29532.93941224441</v>
       </c>
       <c r="K109" t="n">
-        <v>23562.11348155929</v>
+        <v>23467.21189183861</v>
       </c>
     </row>
     <row r="110">
@@ -28544,22 +28585,22 @@
         <v>29299.5</v>
       </c>
       <c r="F110" t="n">
-        <v>132.28</v>
+        <v>131.54</v>
       </c>
       <c r="G110" t="n">
-        <v>918.1121199581576</v>
+        <v>863.3282781193448</v>
       </c>
       <c r="H110" t="n">
         <v>23010.74</v>
       </c>
       <c r="I110" t="n">
-        <v>28381.38788004184</v>
+        <v>28436.17172188066</v>
       </c>
       <c r="J110" t="n">
-        <v>27870.08101019742</v>
+        <v>28015.62958608614</v>
       </c>
       <c r="K110" t="n">
-        <v>23522.0498970371</v>
+        <v>23431.28213579452</v>
       </c>
     </row>
     <row r="111">
@@ -28570,22 +28611,22 @@
         <v>27703.6</v>
       </c>
       <c r="F111" t="n">
-        <v>132.18</v>
+        <v>131.44</v>
       </c>
       <c r="G111" t="n">
-        <v>364.5317023649623</v>
+        <v>325.4429672257684</v>
       </c>
       <c r="H111" t="n">
         <v>23007.04</v>
       </c>
       <c r="I111" t="n">
-        <v>27339.06829763504</v>
+        <v>27378.15703277423</v>
       </c>
       <c r="J111" t="n">
-        <v>26859.8123721614</v>
+        <v>26985.65093724597</v>
       </c>
       <c r="K111" t="n">
-        <v>23486.29885819162</v>
+        <v>23399.54609552826</v>
       </c>
     </row>
     <row r="112">
@@ -28596,22 +28637,22 @@
         <v>26610.7</v>
       </c>
       <c r="F112" t="n">
-        <v>132.08</v>
+        <v>131.34</v>
       </c>
       <c r="G112" t="n">
-        <v>-28.2979028168993</v>
+        <v>-19.87882364663892</v>
       </c>
       <c r="H112" t="n">
         <v>23004.24</v>
       </c>
       <c r="I112" t="n">
-        <v>26638.9979028169</v>
+        <v>26630.57882364664</v>
       </c>
       <c r="J112" t="n">
-        <v>26188.89379955828</v>
+        <v>26263.35710861612</v>
       </c>
       <c r="K112" t="n">
-        <v>23454.34691646566</v>
+        <v>23371.46171503052</v>
       </c>
     </row>
     <row r="113">
@@ -28622,22 +28663,22 @@
         <v>25781.6</v>
       </c>
       <c r="F113" t="n">
-        <v>131.98</v>
+        <v>131.24</v>
       </c>
       <c r="G113" t="n">
-        <v>-364.0138200035581</v>
+        <v>-299.7449076725425</v>
       </c>
       <c r="H113" t="n">
         <v>23002.1</v>
       </c>
       <c r="I113" t="n">
-        <v>26145.61382000356</v>
+        <v>26081.34490767254</v>
       </c>
       <c r="J113" t="n">
-        <v>25722.09926580614</v>
+        <v>25737.00915593097</v>
       </c>
       <c r="K113" t="n">
-        <v>23425.61723875111</v>
+        <v>23346.43575174157</v>
       </c>
     </row>
     <row r="114">
@@ -28648,22 +28689,22 @@
         <v>25658.9</v>
       </c>
       <c r="F114" t="n">
-        <v>131.88</v>
+        <v>131.14</v>
       </c>
       <c r="G114" t="n">
-        <v>-117.9472118471494</v>
+        <v>-3.413885219048097</v>
       </c>
       <c r="H114" t="n">
         <v>23000.27</v>
       </c>
       <c r="I114" t="n">
-        <v>25776.84721184715</v>
+        <v>25662.31388521905</v>
       </c>
       <c r="J114" t="n">
-        <v>25377.64958928613</v>
+        <v>25338.76331629265</v>
       </c>
       <c r="K114" t="n">
-        <v>23399.47017828339</v>
+        <v>23323.8205689264</v>
       </c>
     </row>
     <row r="115">
@@ -28674,22 +28715,22 @@
         <v>25332.8</v>
       </c>
       <c r="F115" t="n">
-        <v>131.78</v>
+        <v>131.04</v>
       </c>
       <c r="G115" t="n">
-        <v>-152.8400318774911</v>
+        <v>0.6078190229200118</v>
       </c>
       <c r="H115" t="n">
         <v>22998.6</v>
       </c>
       <c r="I115" t="n">
-        <v>25485.64003187749</v>
+        <v>25332.19218097708</v>
       </c>
       <c r="J115" t="n">
-        <v>25108.7368483778</v>
+        <v>25027.57835094733</v>
       </c>
       <c r="K115" t="n">
-        <v>23375.50561474247</v>
+        <v>23303.21383002975</v>
       </c>
     </row>
     <row r="116">
@@ -28700,22 +28741,22 @@
         <v>25107.8</v>
       </c>
       <c r="F116" t="n">
-        <v>131.68</v>
+        <v>130.94</v>
       </c>
       <c r="G116" t="n">
-        <v>-137.9922415451656</v>
+        <v>42.35957054391838</v>
       </c>
       <c r="H116" t="n">
         <v>22997.12</v>
       </c>
       <c r="I116" t="n">
-        <v>25245.79224154516</v>
+        <v>25065.44042945608</v>
       </c>
       <c r="J116" t="n">
-        <v>24889.3778579758</v>
+        <v>24778.13004967465</v>
       </c>
       <c r="K116" t="n">
-        <v>23353.53669665162</v>
+        <v>23284.43037978143</v>
       </c>
     </row>
     <row r="117">
@@ -28726,22 +28767,22 @@
         <v>25138.8</v>
       </c>
       <c r="F117" t="n">
-        <v>131.58</v>
+        <v>130.84</v>
       </c>
       <c r="G117" t="n">
-        <v>96.40012903301249</v>
+        <v>293.3763609144808</v>
       </c>
       <c r="H117" t="n">
         <v>22995.7</v>
       </c>
       <c r="I117" t="n">
-        <v>25042.39987096699</v>
+        <v>24845.42363908552</v>
       </c>
       <c r="J117" t="n">
-        <v>24704.85737064429</v>
+        <v>24573.96784756466</v>
       </c>
       <c r="K117" t="n">
-        <v>23333.24470218251</v>
+        <v>23267.15579152086</v>
       </c>
     </row>
     <row r="118">
@@ -28752,22 +28793,22 @@
         <v>24244.8</v>
       </c>
       <c r="F118" t="n">
-        <v>131.48</v>
+        <v>130.74</v>
       </c>
       <c r="G118" t="n">
-        <v>-622.1644686288491</v>
+        <v>-416.4437110543113</v>
       </c>
       <c r="H118" t="n">
         <v>22994.56</v>
       </c>
       <c r="I118" t="n">
-        <v>24866.96446862885</v>
+        <v>24661.24371105431</v>
       </c>
       <c r="J118" t="n">
-        <v>24546.84176905692</v>
+        <v>24404.35251397893</v>
       </c>
       <c r="K118" t="n">
-        <v>23314.68479711984</v>
+        <v>23251.45119707538</v>
       </c>
     </row>
     <row r="119">
@@ -28778,22 +28819,22 @@
         <v>24023.7</v>
       </c>
       <c r="F119" t="n">
-        <v>131.38</v>
+        <v>130.64</v>
       </c>
       <c r="G119" t="n">
-        <v>-690.3092134957369</v>
+        <v>-481.4957000921822</v>
       </c>
       <c r="H119" t="n">
         <v>22993.79</v>
       </c>
       <c r="I119" t="n">
-        <v>24714.00921349574</v>
+        <v>24505.19570009218</v>
       </c>
       <c r="J119" t="n">
-        <v>24409.99869687004</v>
+        <v>24261.71658697056</v>
       </c>
       <c r="K119" t="n">
-        <v>23297.80251646664</v>
+        <v>23237.26911312162</v>
       </c>
     </row>
     <row r="120">
@@ -28804,22 +28845,22 @@
         <v>24198.2</v>
       </c>
       <c r="F120" t="n">
-        <v>131.28</v>
+        <v>130.54</v>
       </c>
       <c r="G120" t="n">
-        <v>-381.1130215676822</v>
+        <v>-173.0859038588678</v>
       </c>
       <c r="H120" t="n">
         <v>22993.05</v>
       </c>
       <c r="I120" t="n">
-        <v>24579.31302156768</v>
+        <v>24371.28590385887</v>
       </c>
       <c r="J120" t="n">
-        <v>24290.23409710284</v>
+        <v>24140.18585539834</v>
       </c>
       <c r="K120" t="n">
-        <v>23282.13083279737</v>
+        <v>23224.15004846052</v>
       </c>
     </row>
     <row r="121">
@@ -28830,22 +28871,22 @@
         <v>23613.4</v>
       </c>
       <c r="F121" t="n">
-        <v>131.18</v>
+        <v>130.44</v>
       </c>
       <c r="G121" t="n">
-        <v>-846.6652649513962</v>
+        <v>-641.9989472179514</v>
       </c>
       <c r="H121" t="n">
         <v>22992.44</v>
       </c>
       <c r="I121" t="n">
-        <v>24460.0652649514</v>
+        <v>24255.39894721795</v>
       </c>
       <c r="J121" t="n">
-        <v>24184.84938479187</v>
+        <v>24035.74921904541</v>
       </c>
       <c r="K121" t="n">
-        <v>23267.65770275418</v>
+        <v>23212.08972817254</v>
       </c>
     </row>
     <row r="122">
@@ -28856,22 +28897,22 @@
         <v>23704.5</v>
       </c>
       <c r="F122" t="n">
-        <v>131.08</v>
+        <v>130.34</v>
       </c>
       <c r="G122" t="n">
-        <v>-649.503790977571</v>
+        <v>-449.8508107799171</v>
       </c>
       <c r="H122" t="n">
         <v>22991.99</v>
       </c>
       <c r="I122" t="n">
-        <v>24354.00379097757</v>
+        <v>24154.35081077992</v>
       </c>
       <c r="J122" t="n">
-        <v>24091.68152812962</v>
+        <v>23945.31400207506</v>
       </c>
       <c r="K122" t="n">
-        <v>23254.31400505822</v>
+        <v>23201.02680870486</v>
       </c>
     </row>
     <row r="123">
@@ -28882,22 +28923,22 @@
         <v>23684.4</v>
       </c>
       <c r="F123" t="n">
-        <v>130.98</v>
+        <v>130.24</v>
       </c>
       <c r="G123" t="n">
-        <v>-574.6905275940626</v>
+        <v>-381.0654064673145</v>
       </c>
       <c r="H123" t="n">
         <v>22991.52</v>
       </c>
       <c r="I123" t="n">
-        <v>24259.09052759406</v>
+        <v>24065.46540646732</v>
       </c>
       <c r="J123" t="n">
-        <v>24008.78039379829</v>
+        <v>23866.28442009511</v>
       </c>
       <c r="K123" t="n">
-        <v>23241.83180058136</v>
+        <v>23190.70098637221</v>
       </c>
     </row>
     <row r="124">
@@ -28908,22 +28949,22 @@
         <v>23701.3</v>
       </c>
       <c r="F124" t="n">
-        <v>130.88</v>
+        <v>130.14</v>
       </c>
       <c r="G124" t="n">
-        <v>-472.5138297918711</v>
+        <v>-285.49388666905</v>
       </c>
       <c r="H124" t="n">
         <v>22991.05</v>
       </c>
       <c r="I124" t="n">
-        <v>24173.81382979187</v>
+        <v>23986.79388666905</v>
       </c>
       <c r="J124" t="n">
-        <v>23934.71256723099</v>
+        <v>23796.78246349526</v>
       </c>
       <c r="K124" t="n">
-        <v>23230.15285851468</v>
+        <v>23181.06142317379</v>
       </c>
     </row>
     <row r="125">
@@ -28934,22 +28975,22 @@
         <v>23667.4</v>
       </c>
       <c r="F125" t="n">
-        <v>130.78</v>
+        <v>130.04</v>
       </c>
       <c r="G125" t="n">
-        <v>-429.5077942762509</v>
+        <v>-249.3750255586929</v>
       </c>
       <c r="H125" t="n">
         <v>22990.59</v>
       </c>
       <c r="I125" t="n">
-        <v>24096.90779427625</v>
+        <v>23916.77502555869</v>
       </c>
       <c r="J125" t="n">
-        <v>23868.28192032516</v>
+        <v>23735.30959544911</v>
       </c>
       <c r="K125" t="n">
-        <v>23219.21740332659</v>
+        <v>23172.05543010958</v>
       </c>
     </row>
     <row r="126">
@@ -28960,22 +29001,22 @@
         <v>23150.6</v>
       </c>
       <c r="F126" t="n">
-        <v>130.68</v>
+        <v>129.94</v>
       </c>
       <c r="G126" t="n">
-        <v>-876.8714635753604</v>
+        <v>-703.7070462156153</v>
       </c>
       <c r="H126" t="n">
         <v>22990.31</v>
       </c>
       <c r="I126" t="n">
-        <v>24027.47146357536</v>
+        <v>23854.30704621561</v>
       </c>
       <c r="J126" t="n">
-        <v>23808.64988465067</v>
+        <v>23680.81968556122</v>
       </c>
       <c r="K126" t="n">
-        <v>23209.13304566244</v>
+        <v>23163.79736065439</v>
       </c>
     </row>
     <row r="127">
@@ -28986,22 +29027,22 @@
         <v>23719.7</v>
       </c>
       <c r="F127" t="n">
-        <v>130.58</v>
+        <v>129.84</v>
       </c>
       <c r="G127" t="n">
-        <v>-244.7002822617033</v>
+        <v>-78.44423578176793</v>
       </c>
       <c r="H127" t="n">
         <v>22990.01</v>
       </c>
       <c r="I127" t="n">
-        <v>23964.4002822617</v>
+        <v>23798.14423578177</v>
       </c>
       <c r="J127" t="n">
-        <v>23754.7678229296</v>
+        <v>23632.11655910227</v>
       </c>
       <c r="K127" t="n">
-        <v>23199.64386708463</v>
+        <v>23156.0376766795</v>
       </c>
     </row>
     <row r="128">
@@ -29012,22 +29053,22 @@
         <v>23699</v>
       </c>
       <c r="F128" t="n">
-        <v>130.48</v>
+        <v>129.74</v>
       </c>
       <c r="G128" t="n">
-        <v>-207.7659880500469</v>
+        <v>-48.26913610279371</v>
       </c>
       <c r="H128" t="n">
         <v>22989.53</v>
       </c>
       <c r="I128" t="n">
-        <v>23906.76598805005</v>
+        <v>23747.26913610279</v>
       </c>
       <c r="J128" t="n">
-        <v>23705.75770624408</v>
+        <v>23588.22697950155</v>
       </c>
       <c r="K128" t="n">
-        <v>23190.53963396105</v>
+        <v>23148.57215660124</v>
       </c>
     </row>
     <row r="129">
@@ -29038,22 +29079,22 @@
         <v>23572.7</v>
       </c>
       <c r="F129" t="n">
-        <v>130.38</v>
+        <v>129.64</v>
       </c>
       <c r="G129" t="n">
-        <v>-281.4427188784648</v>
+        <v>-128.4987266504322</v>
       </c>
       <c r="H129" t="n">
         <v>22989.1</v>
       </c>
       <c r="I129" t="n">
-        <v>23854.14271887847</v>
+        <v>23701.19872665043</v>
       </c>
       <c r="J129" t="n">
-        <v>23661.23889841782</v>
+        <v>23548.70732004178</v>
       </c>
       <c r="K129" t="n">
-        <v>23182.00512016287</v>
+        <v>23141.59140660865</v>
       </c>
     </row>
     <row r="130">
@@ -29064,22 +29105,22 @@
         <v>23070.3</v>
       </c>
       <c r="F130" t="n">
-        <v>130.28</v>
+        <v>129.54</v>
       </c>
       <c r="G130" t="n">
-        <v>-735.8278659553143</v>
+        <v>-589.195309573639</v>
       </c>
       <c r="H130" t="n">
         <v>22988.88</v>
       </c>
       <c r="I130" t="n">
-        <v>23806.12786595531</v>
+        <v>23659.49530957364</v>
       </c>
       <c r="J130" t="n">
-        <v>23620.84959437211</v>
+        <v>23513.15535420827</v>
       </c>
       <c r="K130" t="n">
-        <v>23174.15952175375</v>
+        <v>23135.21995536537</v>
       </c>
     </row>
     <row r="131">
@@ -29090,22 +29131,22 @@
         <v>23261.8</v>
       </c>
       <c r="F131" t="n">
-        <v>130.18</v>
+        <v>129.44</v>
       </c>
       <c r="G131" t="n">
-        <v>-500.326616885246</v>
+        <v>-359.7441428079183</v>
       </c>
       <c r="H131" t="n">
         <v>22988.76</v>
       </c>
       <c r="I131" t="n">
-        <v>23762.12661688525</v>
+        <v>23621.54414280792</v>
       </c>
       <c r="J131" t="n">
-        <v>23584.03187052895</v>
+        <v>23480.98857058798</v>
       </c>
       <c r="K131" t="n">
-        <v>23166.85594971115</v>
+        <v>23129.31557221993</v>
       </c>
     </row>
     <row r="132">
@@ -29116,22 +29157,22 @@
         <v>23679.9</v>
       </c>
       <c r="F132" t="n">
-        <v>130.08</v>
+        <v>129.34</v>
       </c>
       <c r="G132" t="n">
-        <v>-41.51939868733098</v>
+        <v>93.28320507194076</v>
       </c>
       <c r="H132" t="n">
         <v>22988.44</v>
       </c>
       <c r="I132" t="n">
-        <v>23721.41939868733</v>
+        <v>23586.61679492806</v>
       </c>
       <c r="J132" t="n">
-        <v>23550.09956870288</v>
+        <v>23451.5073197057</v>
       </c>
       <c r="K132" t="n">
-        <v>23159.76098905109</v>
+        <v>23123.54947522236</v>
       </c>
     </row>
     <row r="133">
@@ -29142,22 +29183,22 @@
         <v>23737.6</v>
       </c>
       <c r="F133" t="n">
-        <v>129.98</v>
+        <v>129.24</v>
       </c>
       <c r="G133" t="n">
-        <v>53.9183826547669</v>
+        <v>183.2127526567892</v>
       </c>
       <c r="H133" t="n">
         <v>22987.96</v>
       </c>
       <c r="I133" t="n">
-        <v>23683.68161734523</v>
+        <v>23554.38724734321</v>
       </c>
       <c r="J133" t="n">
-        <v>23518.75841984246</v>
+        <v>23424.41158516595</v>
       </c>
       <c r="K133" t="n">
-        <v>23152.88431463539</v>
+        <v>23117.93566217726</v>
       </c>
     </row>
     <row r="134">
@@ -29168,22 +29209,22 @@
         <v>22921.3</v>
       </c>
       <c r="F134" t="n">
-        <v>129.88</v>
+        <v>129.14</v>
       </c>
       <c r="G134" t="n">
-        <v>-727.7052279677409</v>
+        <v>-603.6510980005914</v>
       </c>
       <c r="H134" t="n">
         <v>22987.73</v>
       </c>
       <c r="I134" t="n">
-        <v>23649.00522796774</v>
+        <v>23524.95109800059</v>
       </c>
       <c r="J134" t="n">
-        <v>23490.1279498535</v>
+        <v>23399.82050481339</v>
       </c>
       <c r="K134" t="n">
-        <v>23146.60835550765</v>
+        <v>23112.8605931872</v>
       </c>
     </row>
     <row r="135">
@@ -29194,22 +29235,22 @@
         <v>23216.3</v>
       </c>
       <c r="F135" t="n">
-        <v>129.78</v>
+        <v>129.04</v>
       </c>
       <c r="G135" t="n">
-        <v>-400.7317729158603</v>
+        <v>-281.6569154459612</v>
       </c>
       <c r="H135" t="n">
         <v>22987.67</v>
       </c>
       <c r="I135" t="n">
-        <v>23617.03177291586</v>
+        <v>23497.95691544596</v>
       </c>
       <c r="J135" t="n">
-        <v>23463.87481172142</v>
+        <v>23377.40400056704</v>
       </c>
       <c r="K135" t="n">
-        <v>23140.82800089678</v>
+        <v>23108.22291487892</v>
       </c>
     </row>
     <row r="136">
@@ -29220,22 +29261,22 @@
         <v>23106.4</v>
       </c>
       <c r="F136" t="n">
-        <v>129.68</v>
+        <v>128.94</v>
       </c>
       <c r="G136" t="n">
-        <v>-480.8966037585124</v>
+        <v>-366.5492609512694</v>
       </c>
       <c r="H136" t="n">
         <v>22987.56</v>
       </c>
       <c r="I136" t="n">
-        <v>23587.29660375851</v>
+        <v>23472.94926095127</v>
       </c>
       <c r="J136" t="n">
-        <v>23439.55726558706</v>
+        <v>23356.7260408039</v>
       </c>
       <c r="K136" t="n">
-        <v>23135.3003420958</v>
+        <v>23103.78322014738</v>
       </c>
     </row>
     <row r="137">
@@ -29246,22 +29287,22 @@
         <v>23220.2</v>
       </c>
       <c r="F137" t="n">
-        <v>129.58</v>
+        <v>128.84</v>
       </c>
       <c r="G137" t="n">
-        <v>-339.4240630692148</v>
+        <v>-229.563016202912</v>
       </c>
       <c r="H137" t="n">
         <v>22987.44</v>
       </c>
       <c r="I137" t="n">
-        <v>23559.62406306922</v>
+        <v>23449.76301620291</v>
       </c>
       <c r="J137" t="n">
-        <v>23417.02058769231</v>
+        <v>23337.63917793881</v>
       </c>
       <c r="K137" t="n">
-        <v>23130.0444453118</v>
+        <v>23099.5638382641</v>
       </c>
     </row>
     <row r="138">
@@ -29272,22 +29313,22 @@
         <v>24093.6</v>
       </c>
       <c r="F138" t="n">
-        <v>129.48</v>
+        <v>128.74</v>
       </c>
       <c r="G138" t="n">
-        <v>560.086551528173</v>
+        <v>665.6912586924664</v>
       </c>
       <c r="H138" t="n">
         <v>22987</v>
       </c>
       <c r="I138" t="n">
-        <v>23533.51344847183</v>
+        <v>23427.90874130753</v>
       </c>
       <c r="J138" t="n">
-        <v>23395.78323476845</v>
+        <v>23319.67009028258</v>
       </c>
       <c r="K138" t="n">
-        <v>23124.7311513225</v>
+        <v>23095.23865102496</v>
       </c>
     </row>
     <row r="139">
@@ -29298,22 +29339,22 @@
         <v>22379.6</v>
       </c>
       <c r="F139" t="n">
-        <v>129.38</v>
+        <v>128.64</v>
       </c>
       <c r="G139" t="n">
-        <v>-1129.785617349931</v>
+        <v>-1028.218852166268</v>
       </c>
       <c r="H139" t="n">
         <v>22986.83</v>
       </c>
       <c r="I139" t="n">
-        <v>23509.38561734993</v>
+        <v>23407.81885216627</v>
       </c>
       <c r="J139" t="n">
-        <v>23376.28362582823</v>
+        <v>23303.26592087301</v>
       </c>
       <c r="K139" t="n">
-        <v>23119.9328983927</v>
+        <v>23091.38293129325</v>
       </c>
     </row>
     <row r="140">
@@ -29324,22 +29365,22 @@
         <v>23672.7</v>
       </c>
       <c r="F140" t="n">
-        <v>129.28</v>
+        <v>128.54</v>
       </c>
       <c r="G140" t="n">
-        <v>185.7398812582833</v>
+        <v>283.4755458749423</v>
       </c>
       <c r="H140" t="n">
         <v>22986.8</v>
       </c>
       <c r="I140" t="n">
-        <v>23486.96011874172</v>
+        <v>23389.22445412506</v>
       </c>
       <c r="J140" t="n">
-        <v>23358.25743091226</v>
+        <v>23288.17125327876</v>
       </c>
       <c r="K140" t="n">
-        <v>23115.50356542195</v>
+        <v>23087.85320084629</v>
       </c>
     </row>
     <row r="141">
@@ -29350,22 +29391,22 @@
         <v>22678.3</v>
       </c>
       <c r="F141" t="n">
-        <v>129.18</v>
+        <v>128.44</v>
       </c>
       <c r="G141" t="n">
-        <v>-787.5727610071117</v>
+        <v>-693.4727047300548</v>
       </c>
       <c r="H141" t="n">
         <v>22986.68</v>
       </c>
       <c r="I141" t="n">
-        <v>23465.87276100711</v>
+        <v>23371.77270473005</v>
       </c>
       <c r="J141" t="n">
-        <v>23341.35527796958</v>
+        <v>23274.0455998925</v>
       </c>
       <c r="K141" t="n">
-        <v>23111.19833273049</v>
+        <v>23084.40710483756</v>
       </c>
     </row>
     <row r="142">
@@ -29376,22 +29417,22 @@
         <v>22925.7</v>
       </c>
       <c r="F142" t="n">
-        <v>129.08</v>
+        <v>128.34</v>
       </c>
       <c r="G142" t="n">
-        <v>-520.6335412680965</v>
+        <v>-429.9846054284499</v>
       </c>
       <c r="H142" t="n">
         <v>22986.8</v>
       </c>
       <c r="I142" t="n">
-        <v>23446.3335412681</v>
+        <v>23355.68460542845</v>
       </c>
       <c r="J142" t="n">
-        <v>23325.80080609916</v>
+        <v>23261.12130513534</v>
       </c>
       <c r="K142" t="n">
-        <v>23107.33355825741</v>
+        <v>23081.36330029311</v>
       </c>
     </row>
     <row r="143">
@@ -29402,22 +29443,22 @@
         <v>23234.5</v>
       </c>
       <c r="F143" t="n">
-        <v>128.98</v>
+        <v>128.24</v>
       </c>
       <c r="G143" t="n">
-        <v>-193.3148764394246</v>
+        <v>-105.9431417994456</v>
       </c>
       <c r="H143" t="n">
         <v>22986.74</v>
       </c>
       <c r="I143" t="n">
-        <v>23427.81487643942</v>
+        <v>23340.44314179945</v>
       </c>
       <c r="J143" t="n">
-        <v>23311.07900688517</v>
+        <v>23248.89178654662</v>
       </c>
       <c r="K143" t="n">
-        <v>23103.47666725551</v>
+        <v>23078.29135525283</v>
       </c>
     </row>
     <row r="144">
@@ -29428,22 +29469,22 @@
         <v>23209.9</v>
       </c>
       <c r="F144" t="n">
-        <v>128.88</v>
+        <v>128.14</v>
       </c>
       <c r="G144" t="n">
-        <v>-200.4000866824063</v>
+        <v>-116.1417039455846</v>
       </c>
       <c r="H144" t="n">
         <v>22986.58</v>
       </c>
       <c r="I144" t="n">
-        <v>23410.30008668241</v>
+        <v>23326.04170394559</v>
       </c>
       <c r="J144" t="n">
-        <v>23297.18480631101</v>
+        <v>23237.36005255457</v>
       </c>
       <c r="K144" t="n">
-        <v>23099.69605383058</v>
+        <v>23075.26165139101</v>
       </c>
     </row>
     <row r="145">
@@ -29454,22 +29495,22 @@
         <v>22959.1</v>
       </c>
       <c r="F145" t="n">
-        <v>128.78</v>
+        <v>128.04</v>
       </c>
       <c r="G145" t="n">
-        <v>-434.7920909400636</v>
+        <v>-353.4927182983593</v>
       </c>
       <c r="H145" t="n">
         <v>22986.51</v>
       </c>
       <c r="I145" t="n">
-        <v>23393.89209094006</v>
+        <v>23312.59271829836</v>
       </c>
       <c r="J145" t="n">
-        <v>23284.23184833892</v>
+        <v>23226.64744799358</v>
       </c>
       <c r="K145" t="n">
-        <v>23096.1709928964</v>
+        <v>23072.45527030478</v>
       </c>
     </row>
     <row r="146">
@@ -29480,22 +29521,22 @@
         <v>23204.9</v>
       </c>
       <c r="F146" t="n">
-        <v>128.68</v>
+        <v>127.94</v>
       </c>
       <c r="G146" t="n">
-        <v>-173.5322813152343</v>
+        <v>-95.04639573340683</v>
       </c>
       <c r="H146" t="n">
         <v>22986.45</v>
       </c>
       <c r="I146" t="n">
-        <v>23378.43228131524</v>
+        <v>23299.94639573341</v>
       </c>
       <c r="J146" t="n">
-        <v>23272.07144815507</v>
+        <v>23216.61258801366</v>
       </c>
       <c r="K146" t="n">
-        <v>23092.81156130745</v>
+        <v>23069.78380771975</v>
       </c>
     </row>
     <row r="147">
@@ -29506,22 +29547,22 @@
         <v>22759</v>
       </c>
       <c r="F147" t="n">
-        <v>128.58</v>
+        <v>127.84</v>
       </c>
       <c r="G147" t="n">
-        <v>-604.8995487962675</v>
+        <v>-529.0894203028147</v>
       </c>
       <c r="H147" t="n">
         <v>22986.45</v>
       </c>
       <c r="I147" t="n">
-        <v>23363.89954879627</v>
+        <v>23288.08942030281</v>
       </c>
       <c r="J147" t="n">
-        <v>23260.69168865973</v>
+        <v>23207.25044855774</v>
       </c>
       <c r="K147" t="n">
-        <v>23089.65856709391</v>
+        <v>23067.28897174507</v>
       </c>
     </row>
     <row r="148">
@@ -29532,22 +29573,22 @@
         <v>23218.7</v>
       </c>
       <c r="F148" t="n">
-        <v>128.48</v>
+        <v>127.74</v>
       </c>
       <c r="G148" t="n">
-        <v>-131.4694374976607</v>
+        <v>-58.20322546597527</v>
       </c>
       <c r="H148" t="n">
         <v>22986.45</v>
       </c>
       <c r="I148" t="n">
-        <v>23350.16943749766</v>
+        <v>23276.90322546598</v>
       </c>
       <c r="J148" t="n">
-        <v>23249.97663830585</v>
+        <v>23198.45158753587</v>
       </c>
       <c r="K148" t="n">
-        <v>23086.64348586346</v>
+        <v>23064.9016379301</v>
       </c>
     </row>
     <row r="149">
@@ -29558,22 +29599,22 @@
         <v>23386.5</v>
       </c>
       <c r="F149" t="n">
-        <v>128.38</v>
+        <v>127.64</v>
       </c>
       <c r="G149" t="n">
-        <v>49.52659161496194</v>
+        <v>120.3788005073147</v>
       </c>
       <c r="H149" t="n">
         <v>22986.24</v>
       </c>
       <c r="I149" t="n">
-        <v>23336.97340838504</v>
+        <v>23266.12119949269</v>
       </c>
       <c r="J149" t="n">
-        <v>23239.66567207167</v>
+        <v>23189.96147556073</v>
       </c>
       <c r="K149" t="n">
-        <v>23083.5484035533</v>
+        <v>23062.39972393196</v>
       </c>
     </row>
     <row r="150">
@@ -29584,22 +29625,22 @@
         <v>23184.7</v>
       </c>
       <c r="F150" t="n">
-        <v>128.28</v>
+        <v>127.54</v>
       </c>
       <c r="G150" t="n">
-        <v>-139.778196565625</v>
+        <v>-71.20378832824645</v>
       </c>
       <c r="H150" t="n">
         <v>22986.04</v>
       </c>
       <c r="I150" t="n">
-        <v>23324.47819656563</v>
+        <v>23255.90378832825</v>
       </c>
       <c r="J150" t="n">
-        <v>23229.93288036161</v>
+        <v>23181.95991889593</v>
       </c>
       <c r="K150" t="n">
-        <v>23080.58596481943</v>
+        <v>23059.98386943232</v>
       </c>
     </row>
     <row r="151">
@@ -29610,22 +29651,22 @@
         <v>22687</v>
       </c>
       <c r="F151" t="n">
-        <v>128.18</v>
+        <v>127.44</v>
       </c>
       <c r="G151" t="n">
-        <v>-326.7852487828604</v>
+        <v>-260.3303051530347</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>23013.78524878286</v>
+        <v>22947.33030515303</v>
       </c>
       <c r="J151" t="n">
-        <v>22921.88655309871</v>
+        <v>22875.56056031285</v>
       </c>
       <c r="K151" t="n">
-        <v>22778.89932643854</v>
+        <v>22758.76974484019</v>
       </c>
     </row>
     <row r="152">
@@ -29636,22 +29677,22 @@
         <v>22924.4</v>
       </c>
       <c r="F152" t="n">
-        <v>128.08</v>
+        <v>127.34</v>
       </c>
       <c r="G152" t="n">
-        <v>-315.7302298626892</v>
+        <v>-251.1869073770322</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>23240.13022986269</v>
+        <v>23175.58690737703</v>
       </c>
       <c r="J152" t="n">
-        <v>23150.76872830416</v>
+        <v>23106.01044601092</v>
       </c>
       <c r="K152" t="n">
-        <v>23013.76211517463</v>
+        <v>22993.97646136611</v>
       </c>
     </row>
     <row r="153">
@@ -29662,22 +29703,22 @@
         <v>22643.1</v>
       </c>
       <c r="F153" t="n">
-        <v>127.98</v>
+        <v>127.24</v>
       </c>
       <c r="G153" t="n">
-        <v>-305.2325886052313</v>
+        <v>-242.3023919428779</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22948.33258860523</v>
+        <v>22885.40239194288</v>
       </c>
       <c r="J153" t="n">
-        <v>22861.40479613878</v>
+        <v>22818.13964875335</v>
       </c>
       <c r="K153" t="n">
-        <v>22730.02838962882</v>
+        <v>22710.36274318953</v>
       </c>
     </row>
     <row r="154">
@@ -29688,22 +29729,22 @@
         <v>22647.9</v>
       </c>
       <c r="F154" t="n">
-        <v>127.88</v>
+        <v>127.14</v>
       </c>
       <c r="G154" t="n">
-        <v>-295.2551750653183</v>
+        <v>-233.4973612586837</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22943.15517506532</v>
+        <v>22881.39736125869</v>
       </c>
       <c r="J154" t="n">
-        <v>22858.5631507744</v>
+        <v>22816.72093899763</v>
       </c>
       <c r="K154" t="n">
-        <v>22732.49260564844</v>
+        <v>22712.57642226106</v>
       </c>
     </row>
     <row r="155">
@@ -29714,22 +29755,22 @@
         <v>23050.9</v>
       </c>
       <c r="F155" t="n">
-        <v>127.78</v>
+        <v>127.04</v>
       </c>
       <c r="G155" t="n">
-        <v>-285.7639023741394</v>
+        <v>-224.5465114769722</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23336.66390237414</v>
+        <v>23275.44651147697</v>
       </c>
       <c r="J155" t="n">
-        <v>23254.31488362092</v>
+        <v>23213.82949713346</v>
       </c>
       <c r="K155" t="n">
-        <v>23133.24958492138</v>
+        <v>23112.51701434351</v>
       </c>
     </row>
     <row r="156">
@@ -29740,22 +29781,22 @@
         <v>22933.5</v>
       </c>
       <c r="F156" t="n">
-        <v>127.68</v>
+        <v>126.94</v>
       </c>
       <c r="G156" t="n">
-        <v>-276.7274472645986</v>
+        <v>-215.2048468971334</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>23210.2274472646</v>
+        <v>23148.70484689713</v>
       </c>
       <c r="J156" t="n">
-        <v>23130.0335124022</v>
+        <v>23090.84266103509</v>
       </c>
       <c r="K156" t="n">
-        <v>23013.69448642534</v>
+        <v>22991.36218586204</v>
       </c>
     </row>
     <row r="157">
@@ -29766,22 +29807,22 @@
         <v>23251.9</v>
       </c>
       <c r="F157" t="n">
-        <v>127.58</v>
+        <v>126.84</v>
       </c>
       <c r="G157" t="n">
-        <v>-268.1169843104071</v>
+        <v>-205.2625245969066</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23520.01698431041</v>
+        <v>23457.16252459691</v>
       </c>
       <c r="J157" t="n">
-        <v>23441.89474138325</v>
+        <v>23403.93970403015</v>
       </c>
       <c r="K157" t="n">
-        <v>23330.02278043968</v>
+        <v>23305.12282056676</v>
       </c>
     </row>
     <row r="158">
@@ -29792,22 +29833,22 @@
         <v>22359.8</v>
       </c>
       <c r="F158" t="n">
-        <v>127.48</v>
+        <v>126.74</v>
       </c>
       <c r="G158" t="n">
-        <v>-259.9059496018708</v>
+        <v>-194.6188575488595</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22619.70594960187</v>
+        <v>22554.41885754886</v>
       </c>
       <c r="J158" t="n">
-        <v>22543.57624873069</v>
+        <v>22506.801639086</v>
       </c>
       <c r="K158" t="n">
-        <v>22435.93022486052</v>
+        <v>22407.41721846286</v>
       </c>
     </row>
     <row r="159">
@@ -29818,22 +29859,22 @@
         <v>23047.9</v>
       </c>
       <c r="F159" t="n">
-        <v>127.38</v>
+        <v>126.64</v>
       </c>
       <c r="G159" t="n">
-        <v>-252.0698301828779</v>
+        <v>-183.3493465563515</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23299.96983018288</v>
+        <v>23231.24934655635</v>
       </c>
       <c r="J159" t="n">
-        <v>23225.75749756118</v>
+        <v>23190.11104540298</v>
       </c>
       <c r="K159" t="n">
-        <v>23122.11284358922</v>
+        <v>23089.03830115337</v>
       </c>
     </row>
     <row r="160">
@@ -29844,22 +29885,22 @@
         <v>22819.4</v>
       </c>
       <c r="F160" t="n">
-        <v>127.28</v>
+        <v>126.54</v>
       </c>
       <c r="G160" t="n">
-        <v>-244.5859760824023</v>
+        <v>-171.7316649862914</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>23063.9859760824</v>
+        <v>22991.13166498629</v>
       </c>
       <c r="J160" t="n">
-        <v>22991.61956771569</v>
+        <v>22957.05191314525</v>
       </c>
       <c r="K160" t="n">
-        <v>22891.76690678944</v>
+        <v>22853.47975184105</v>
       </c>
     </row>
     <row r="161">
@@ -29870,22 +29911,22 @@
         <v>22415.3</v>
       </c>
       <c r="F161" t="n">
-        <v>127.18</v>
+        <v>126.44</v>
       </c>
       <c r="G161" t="n">
-        <v>-237.4334322057475</v>
+        <v>-163.0601213604386</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22652.73343220575</v>
+        <v>22578.36012136044</v>
       </c>
       <c r="J161" t="n">
-        <v>22582.14500570696</v>
+        <v>22548.60949882276</v>
       </c>
       <c r="K161" t="n">
-        <v>22485.88891283087</v>
+        <v>22445.05062253768</v>
       </c>
     </row>
     <row r="162">
@@ -29896,25 +29937,28 @@
         <v>23032.4</v>
       </c>
       <c r="F162" t="n">
-        <v>127.08</v>
+        <v>126.34</v>
       </c>
       <c r="G162" t="n">
-        <v>-230.5927877180111</v>
+        <v>-158.9207945682174</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23262.99278771801</v>
+        <v>23191.32079456822</v>
       </c>
       <c r="J162" t="n">
-        <v>23194.11769063524</v>
+        <v>23161.57017203054</v>
       </c>
       <c r="K162" t="n">
-        <v>23101.27557175683</v>
+        <v>23062.15062253768</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="X7:AP7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -25893,6 +25893,11 @@
       <c r="K6" t="n">
         <v>26730.93264749989</v>
       </c>
+      <c r="X6" s="50" t="inlineStr">
+        <is>
+          <t>Please cite KherveFitting software: Kerherve G. et al. Surface and Interface Analysis (2025) TBD</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -25919,11 +25924,6 @@
       <c r="K7" t="n">
         <v>26261.66297523991</v>
       </c>
-      <c r="X7" s="50" t="inlineStr">
-        <is>
-          <t>Please cite KherveFitting software: G. Kerherve et al. Surface and Interface Analysis, xxx, 2025</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -29957,7 +29957,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="X7:AP7"/>
+    <mergeCell ref="X6:AP6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -25485,19 +25485,19 @@
         <v>142.34</v>
       </c>
       <c r="G2" t="n">
-        <v>-242.0628158015861</v>
+        <v>-176.8845501467986</v>
       </c>
       <c r="H2" t="n">
         <v>26049.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26291.56281580159</v>
+        <v>26226.3845501468</v>
       </c>
       <c r="J2" t="n">
-        <v>26178.18175783558</v>
+        <v>26177.64929272504</v>
       </c>
       <c r="K2" t="n">
-        <v>26162.88105796601</v>
+        <v>26098.23525742176</v>
       </c>
       <c r="X2" s="32" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
       </c>
       <c r="AA2" s="33" t="inlineStr">
         <is>
-          <t>99789</t>
+          <t>99212</t>
         </is>
       </c>
       <c r="AB2" s="33" t="inlineStr">
@@ -25526,22 +25526,22 @@
       </c>
       <c r="AC2" s="33" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AD2" s="33" t="inlineStr">
         <is>
-          <t>118328</t>
+          <t>118158</t>
         </is>
       </c>
       <c r="AE2" s="33" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.817</t>
         </is>
       </c>
       <c r="AF2" s="33" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.139</t>
         </is>
       </c>
       <c r="AG2" s="33" t="inlineStr">
@@ -25551,7 +25551,7 @@
       </c>
       <c r="AH2" s="33" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>59.7</t>
         </is>
       </c>
       <c r="AI2" s="33" t="inlineStr">
@@ -25566,32 +25566,32 @@
       </c>
       <c r="AK2" s="33" t="inlineStr">
         <is>
-          <t>DS*G (A, σ, γ)</t>
+          <t>DS*G (A, σ, γ, S)</t>
         </is>
       </c>
       <c r="AL2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.07</t>
         </is>
       </c>
       <c r="AN2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.07</t>
         </is>
       </c>
       <c r="AO2" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -25606,19 +25606,19 @@
         <v>142.24</v>
       </c>
       <c r="G3" t="n">
-        <v>-259.07977677093</v>
+        <v>-184.3757833721611</v>
       </c>
       <c r="H3" t="n">
         <v>26437.6</v>
       </c>
       <c r="I3" t="n">
-        <v>26696.67977677093</v>
+        <v>26621.97578337216</v>
       </c>
       <c r="J3" t="n">
-        <v>26566.28175783558</v>
+        <v>26565.74929272504</v>
       </c>
       <c r="K3" t="n">
-        <v>26567.99801893535</v>
+        <v>26493.82649064712</v>
       </c>
       <c r="X3" s="35" t="inlineStr"/>
       <c r="Y3" s="36" t="inlineStr"/>
@@ -25682,19 +25682,19 @@
         <v>142.14</v>
       </c>
       <c r="G4" t="n">
-        <v>-273.4423578925416</v>
+        <v>-190.8303463883931</v>
       </c>
       <c r="H4" t="n">
         <v>26696.9</v>
       </c>
       <c r="I4" t="n">
-        <v>26970.34235789254</v>
+        <v>26887.73034638839</v>
       </c>
       <c r="J4" t="n">
-        <v>26825.58175783558</v>
+        <v>26825.04929272504</v>
       </c>
       <c r="K4" t="n">
-        <v>26841.66060005697</v>
+        <v>26759.58105366336</v>
       </c>
       <c r="X4" s="32" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
       </c>
       <c r="AA4" s="33" t="inlineStr">
         <is>
-          <t>67195</t>
+          <t>68864</t>
         </is>
       </c>
       <c r="AB4" s="33" t="inlineStr">
@@ -25723,37 +25723,37 @@
       </c>
       <c r="AC4" s="33" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="AD4" s="33" t="inlineStr">
         <is>
-          <t>79679</t>
+          <t>79796</t>
         </is>
       </c>
       <c r="AE4" s="33" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.817</t>
         </is>
       </c>
       <c r="AF4" s="33" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.139</t>
         </is>
       </c>
       <c r="AG4" s="33" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="AH4" s="33" t="inlineStr">
         <is>
-          <t>40.2</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="AI4" s="33" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>67.5</t>
         </is>
       </c>
       <c r="AJ4" s="33" t="inlineStr">
@@ -25763,32 +25763,32 @@
       </c>
       <c r="AK4" s="33" t="inlineStr">
         <is>
-          <t>DS*G (A, σ, γ)</t>
+          <t>DS*G (A, σ, γ, S)</t>
         </is>
       </c>
       <c r="AL4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Multi-Regions Smart</t>
         </is>
       </c>
       <c r="AM4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126.07</t>
         </is>
       </c>
       <c r="AN4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>142.07</t>
         </is>
       </c>
       <c r="AO4" s="33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -25803,19 +25803,19 @@
         <v>142.04</v>
       </c>
       <c r="G5" t="n">
-        <v>-284.9319185278218</v>
+        <v>-196.1473008951689</v>
       </c>
       <c r="H5" t="n">
         <v>25942.6</v>
       </c>
       <c r="I5" t="n">
-        <v>26227.53191852782</v>
+        <v>26138.74730089517</v>
       </c>
       <c r="J5" t="n">
-        <v>26071.28175783558</v>
+        <v>26070.74929272504</v>
       </c>
       <c r="K5" t="n">
-        <v>26098.85016069224</v>
+        <v>26010.59800817013</v>
       </c>
       <c r="X5" s="35" t="inlineStr"/>
       <c r="Y5" s="36" t="inlineStr"/>
@@ -25879,19 +25879,19 @@
         <v>141.94</v>
       </c>
       <c r="G6" t="n">
-        <v>-293.8144053354699</v>
+        <v>-200.4247490158414</v>
       </c>
       <c r="H6" t="n">
         <v>26565.8</v>
       </c>
       <c r="I6" t="n">
-        <v>26859.61440533547</v>
+        <v>26766.22474901584</v>
       </c>
       <c r="J6" t="n">
-        <v>26694.48175783558</v>
+        <v>26693.94929272504</v>
       </c>
       <c r="K6" t="n">
-        <v>26730.93264749989</v>
+        <v>26638.0754562908</v>
       </c>
       <c r="X6" s="50" t="inlineStr">
         <is>
@@ -25910,19 +25910,19 @@
         <v>141.84</v>
       </c>
       <c r="G7" t="n">
-        <v>-300.6447330754854</v>
+        <v>-203.882798631279</v>
       </c>
       <c r="H7" t="n">
         <v>26089.7</v>
       </c>
       <c r="I7" t="n">
-        <v>26390.34473307549</v>
+        <v>26293.58279863128</v>
       </c>
       <c r="J7" t="n">
-        <v>26218.38175783558</v>
+        <v>26217.84929272504</v>
       </c>
       <c r="K7" t="n">
-        <v>26261.66297523991</v>
+        <v>26165.43350590624</v>
       </c>
     </row>
     <row r="8">
@@ -25936,19 +25936,19 @@
         <v>141.74</v>
       </c>
       <c r="G8" t="n">
-        <v>-306.0574478725102</v>
+        <v>-206.7791303205959</v>
       </c>
       <c r="H8" t="n">
         <v>26784.6</v>
       </c>
       <c r="I8" t="n">
-        <v>27090.65744787251</v>
+        <v>26991.37913032059</v>
       </c>
       <c r="J8" t="n">
-        <v>26913.28175783558</v>
+        <v>26912.74929272504</v>
       </c>
       <c r="K8" t="n">
-        <v>26961.97569003693</v>
+        <v>26863.22983759556</v>
       </c>
     </row>
     <row r="9">
@@ -25962,19 +25962,19 @@
         <v>141.64</v>
       </c>
       <c r="G9" t="n">
-        <v>-310.6151463741953</v>
+        <v>-209.3462996737653</v>
       </c>
       <c r="H9" t="n">
         <v>26357.7</v>
       </c>
       <c r="I9" t="n">
-        <v>26668.3151463742</v>
+        <v>26567.04629967377</v>
       </c>
       <c r="J9" t="n">
-        <v>26486.38175783558</v>
+        <v>26485.84929272504</v>
       </c>
       <c r="K9" t="n">
-        <v>26539.63338853862</v>
+        <v>26438.89700694873</v>
       </c>
     </row>
     <row r="10">
@@ -25988,19 +25988,19 @@
         <v>141.54</v>
       </c>
       <c r="G10" t="n">
-        <v>-314.7384846829336</v>
+        <v>-211.7613684180506</v>
       </c>
       <c r="H10" t="n">
         <v>26256</v>
       </c>
       <c r="I10" t="n">
-        <v>26570.73848468293</v>
+        <v>26467.76136841805</v>
       </c>
       <c r="J10" t="n">
-        <v>26384.68175783558</v>
+        <v>26384.14929272504</v>
       </c>
       <c r="K10" t="n">
-        <v>26442.05672684736</v>
+        <v>26339.61207569301</v>
       </c>
     </row>
     <row r="11">
@@ -26014,19 +26014,19 @@
         <v>141.44</v>
       </c>
       <c r="G11" t="n">
-        <v>-318.7025228873354</v>
+        <v>-214.1426635644675</v>
       </c>
       <c r="H11" t="n">
         <v>26519.3</v>
       </c>
       <c r="I11" t="n">
-        <v>26838.00252288733</v>
+        <v>26733.44266356447</v>
       </c>
       <c r="J11" t="n">
-        <v>26647.98175783558</v>
+        <v>26647.44929272504</v>
       </c>
       <c r="K11" t="n">
-        <v>26709.32076505176</v>
+        <v>26605.29337083943</v>
       </c>
     </row>
     <row r="12">
@@ -26040,19 +26040,19 @@
         <v>141.34</v>
       </c>
       <c r="G12" t="n">
-        <v>-322.668293015955</v>
+        <v>-216.5615702263894</v>
       </c>
       <c r="H12" t="n">
         <v>25948.6</v>
       </c>
       <c r="I12" t="n">
-        <v>26271.26829301595</v>
+        <v>26165.16157022639</v>
       </c>
       <c r="J12" t="n">
-        <v>26077.28175783558</v>
+        <v>26076.74929272504</v>
       </c>
       <c r="K12" t="n">
-        <v>26142.58653518038</v>
+        <v>26037.01227750135</v>
       </c>
     </row>
     <row r="13">
@@ -26066,19 +26066,19 @@
         <v>141.24</v>
       </c>
       <c r="G13" t="n">
-        <v>-326.7223837418642</v>
+        <v>-219.0583211691119</v>
       </c>
       <c r="H13" t="n">
         <v>26945.3</v>
       </c>
       <c r="I13" t="n">
-        <v>27272.02238374186</v>
+        <v>27164.35832116911</v>
       </c>
       <c r="J13" t="n">
-        <v>27073.98175783558</v>
+        <v>27073.44929272504</v>
       </c>
       <c r="K13" t="n">
-        <v>27143.34062590629</v>
+        <v>27036.20902844407</v>
       </c>
     </row>
     <row r="14">
@@ -26092,19 +26092,19 @@
         <v>141.14</v>
       </c>
       <c r="G14" t="n">
-        <v>-330.9094793346485</v>
+        <v>-221.6553862449655</v>
       </c>
       <c r="H14" t="n">
         <v>26444</v>
       </c>
       <c r="I14" t="n">
-        <v>26774.90947933465</v>
+        <v>26665.65538624497</v>
       </c>
       <c r="J14" t="n">
-        <v>26572.68175783558</v>
+        <v>26572.14929272504</v>
       </c>
       <c r="K14" t="n">
-        <v>26646.22772149907</v>
+        <v>26537.50609351993</v>
       </c>
     </row>
     <row r="15">
@@ -26118,19 +26118,19 @@
         <v>141.04</v>
       </c>
       <c r="G15" t="n">
-        <v>-335.2536690427951</v>
+        <v>-224.366460332727</v>
       </c>
       <c r="H15" t="n">
         <v>26729.6</v>
       </c>
       <c r="I15" t="n">
-        <v>27064.85366904279</v>
+        <v>26953.96646033273</v>
       </c>
       <c r="J15" t="n">
-        <v>26858.28175783558</v>
+        <v>26857.74929272504</v>
       </c>
       <c r="K15" t="n">
-        <v>26936.17191120722</v>
+        <v>26825.81716760769</v>
       </c>
     </row>
     <row r="16">
@@ -26144,19 +26144,19 @@
         <v>140.94</v>
       </c>
       <c r="G16" t="n">
-        <v>-339.7702716211097</v>
+        <v>-227.2015721649477</v>
       </c>
       <c r="H16" t="n">
         <v>27045.9</v>
       </c>
       <c r="I16" t="n">
-        <v>27385.67027162111</v>
+        <v>27273.10157216495</v>
       </c>
       <c r="J16" t="n">
-        <v>27174.58175783558</v>
+        <v>27174.04929272504</v>
       </c>
       <c r="K16" t="n">
-        <v>27256.98851378553</v>
+        <v>27144.95227943991</v>
       </c>
     </row>
     <row r="17">
@@ -26170,19 +26170,19 @@
         <v>140.84</v>
       </c>
       <c r="G17" t="n">
-        <v>-344.4715650429571</v>
+        <v>-230.1696276668117</v>
       </c>
       <c r="H17" t="n">
         <v>26274.3</v>
       </c>
       <c r="I17" t="n">
-        <v>26618.77156504296</v>
+        <v>26504.46962766681</v>
       </c>
       <c r="J17" t="n">
-        <v>26402.98175783558</v>
+        <v>26402.44929272504</v>
       </c>
       <c r="K17" t="n">
-        <v>26490.08980720738</v>
+        <v>26376.32033494177</v>
       </c>
     </row>
     <row r="18">
@@ -26196,19 +26196,19 @@
         <v>140.74</v>
       </c>
       <c r="G18" t="n">
-        <v>-349.3692666630013</v>
+        <v>-233.2795516295082</v>
       </c>
       <c r="H18" t="n">
         <v>25721.7</v>
       </c>
       <c r="I18" t="n">
-        <v>26071.069266663</v>
+        <v>25954.97955162951</v>
       </c>
       <c r="J18" t="n">
-        <v>25850.38175783558</v>
+        <v>25849.84929272504</v>
       </c>
       <c r="K18" t="n">
-        <v>25942.38750882743</v>
+        <v>25826.83025890447</v>
       </c>
     </row>
     <row r="19">
@@ -26222,19 +26222,19 @@
         <v>140.64</v>
       </c>
       <c r="G19" t="n">
-        <v>-383.1279598107212</v>
+        <v>-264.8617865569431</v>
       </c>
       <c r="H19" t="n">
         <v>26199.6</v>
       </c>
       <c r="I19" t="n">
-        <v>26582.72795981072</v>
+        <v>26464.46178655694</v>
       </c>
       <c r="J19" t="n">
-        <v>26356.93419282816</v>
+        <v>26356.07030598944</v>
       </c>
       <c r="K19" t="n">
-        <v>26425.39376698256</v>
+        <v>26307.9914805675</v>
       </c>
     </row>
     <row r="20">
@@ -26248,19 +26248,19 @@
         <v>140.54</v>
       </c>
       <c r="G20" t="n">
-        <v>-415.015673715232</v>
+        <v>-294.5800365026771</v>
       </c>
       <c r="H20" t="n">
         <v>27175.7</v>
       </c>
       <c r="I20" t="n">
-        <v>27590.71567371523</v>
+        <v>27470.28003650268</v>
       </c>
       <c r="J20" t="n">
-        <v>27359.59411556653</v>
+        <v>27358.46588348502</v>
       </c>
       <c r="K20" t="n">
-        <v>27406.8215581487</v>
+        <v>27287.51415301766</v>
       </c>
     </row>
     <row r="21">
@@ -26274,19 +26274,19 @@
         <v>140.44</v>
       </c>
       <c r="G21" t="n">
-        <v>-443.5605672934907</v>
+        <v>-320.9917234665409</v>
       </c>
       <c r="H21" t="n">
         <v>26142</v>
       </c>
       <c r="I21" t="n">
-        <v>26585.56056729349</v>
+        <v>26462.99172346654</v>
       </c>
       <c r="J21" t="n">
-        <v>26348.87568899338</v>
+        <v>26347.58244257609</v>
       </c>
       <c r="K21" t="n">
-        <v>26378.68487830011</v>
+        <v>26257.40928089045</v>
       </c>
     </row>
     <row r="22">
@@ -26300,19 +26300,19 @@
         <v>140.34</v>
       </c>
       <c r="G22" t="n">
-        <v>-468.1182867532261</v>
+        <v>-343.4489126978042</v>
       </c>
       <c r="H22" t="n">
         <v>26419.9</v>
       </c>
       <c r="I22" t="n">
-        <v>26888.01828675323</v>
+        <v>26763.34891269781</v>
       </c>
       <c r="J22" t="n">
-        <v>26645.51938940299</v>
+        <v>26644.16007229259</v>
       </c>
       <c r="K22" t="n">
-        <v>26662.39889735023</v>
+        <v>26539.08884040522</v>
       </c>
     </row>
     <row r="23">
@@ -26326,19 +26326,19 @@
         <v>140.24</v>
       </c>
       <c r="G23" t="n">
-        <v>-488.844095629498</v>
+        <v>-362.0775391341085</v>
       </c>
       <c r="H23" t="n">
         <v>27293.7</v>
       </c>
       <c r="I23" t="n">
-        <v>27782.5440956295</v>
+        <v>27655.77753913411</v>
       </c>
       <c r="J23" t="n">
-        <v>27533.9637601367</v>
+        <v>27532.61146771656</v>
       </c>
       <c r="K23" t="n">
-        <v>27542.2803354928</v>
+        <v>27416.86607141755</v>
       </c>
     </row>
     <row r="24">
@@ -26352,19 +26352,19 @@
         <v>140.14</v>
       </c>
       <c r="G24" t="n">
-        <v>-506.4490694145497</v>
+        <v>-377.5492486675903</v>
       </c>
       <c r="H24" t="n">
         <v>26191.1</v>
       </c>
       <c r="I24" t="n">
-        <v>26697.54906941455</v>
+        <v>26568.64924866759</v>
       </c>
       <c r="J24" t="n">
-        <v>26442.60229632735</v>
+        <v>26441.29426641887</v>
       </c>
       <c r="K24" t="n">
-        <v>26446.0467730872</v>
+        <v>26318.45498224872</v>
       </c>
     </row>
     <row r="25">
@@ -26378,19 +26378,19 @@
         <v>140.04</v>
       </c>
       <c r="G25" t="n">
-        <v>-521.8817835976297</v>
+        <v>-390.7774030082255</v>
       </c>
       <c r="H25" t="n">
         <v>26444.7</v>
       </c>
       <c r="I25" t="n">
-        <v>26966.58178359763</v>
+        <v>26835.47740300823</v>
       </c>
       <c r="J25" t="n">
-        <v>26704.96415064831</v>
+        <v>26703.70630962114</v>
       </c>
       <c r="K25" t="n">
-        <v>26706.31763294932</v>
+        <v>26576.47109338709</v>
       </c>
     </row>
     <row r="26">
@@ -26404,19 +26404,19 @@
         <v>139.94</v>
       </c>
       <c r="G26" t="n">
-        <v>-536.0606434446127</v>
+        <v>-402.6571021098644</v>
       </c>
       <c r="H26" t="n">
         <v>26393.8</v>
       </c>
       <c r="I26" t="n">
-        <v>26929.86064344461</v>
+        <v>26796.45710210986</v>
       </c>
       <c r="J26" t="n">
-        <v>26661.24656215397</v>
+        <v>26660.02571522601</v>
       </c>
       <c r="K26" t="n">
-        <v>26662.41408129064</v>
+        <v>26530.23138688386</v>
       </c>
     </row>
     <row r="27">
@@ -26430,19 +26430,19 @@
         <v>139.84</v>
       </c>
       <c r="G27" t="n">
-        <v>-549.7223022487124</v>
+        <v>-413.9137388872659</v>
       </c>
       <c r="H27" t="n">
         <v>26023.2</v>
       </c>
       <c r="I27" t="n">
-        <v>26572.92230224871</v>
+        <v>26437.11373888727</v>
       </c>
       <c r="J27" t="n">
-        <v>26296.96307917663</v>
+        <v>26295.75926306888</v>
       </c>
       <c r="K27" t="n">
-        <v>26299.15922307208</v>
+        <v>26164.55447581839</v>
       </c>
     </row>
     <row r="28">
@@ -26456,19 +26456,19 @@
         <v>139.74</v>
       </c>
       <c r="G28" t="n">
-        <v>-563.382511324362</v>
+        <v>-425.059649392475</v>
       </c>
       <c r="H28" t="n">
         <v>27069.8</v>
       </c>
       <c r="I28" t="n">
-        <v>27633.18251132436</v>
+        <v>27494.85964939247</v>
       </c>
       <c r="J28" t="n">
-        <v>27349.50418756175</v>
+        <v>27348.29885212067</v>
       </c>
       <c r="K28" t="n">
-        <v>27353.47832376261</v>
+        <v>27216.3607972718</v>
       </c>
     </row>
     <row r="29">
@@ -26482,19 +26482,19 @@
         <v>139.64</v>
       </c>
       <c r="G29" t="n">
-        <v>-577.3681929805389</v>
+        <v>-436.4213419275948</v>
       </c>
       <c r="H29" t="n">
         <v>26161.8</v>
       </c>
       <c r="I29" t="n">
-        <v>26739.16819298054</v>
+        <v>26598.22134192759</v>
       </c>
       <c r="J29" t="n">
-        <v>26447.36913125971</v>
+        <v>26446.14850928855</v>
       </c>
       <c r="K29" t="n">
-        <v>26453.59906172083</v>
+        <v>26313.87283263904</v>
       </c>
     </row>
     <row r="30">
@@ -26508,19 +26508,19 @@
         <v>139.54</v>
       </c>
       <c r="G30" t="n">
-        <v>-591.8755536596618</v>
+        <v>-448.1942808730673</v>
       </c>
       <c r="H30" t="n">
         <v>26300.2</v>
       </c>
       <c r="I30" t="n">
-        <v>26892.07555365966</v>
+        <v>26748.39428087307</v>
       </c>
       <c r="J30" t="n">
-        <v>26591.72373746971</v>
+        <v>26590.47892104822</v>
       </c>
       <c r="K30" t="n">
-        <v>26600.55181618995</v>
+        <v>26458.11535982485</v>
       </c>
     </row>
     <row r="31">
@@ -26534,19 +26534,19 @@
         <v>139.44</v>
       </c>
       <c r="G31" t="n">
-        <v>-607.0243687821749</v>
+        <v>-460.4957276063869</v>
       </c>
       <c r="H31" t="n">
         <v>26179.2</v>
       </c>
       <c r="I31" t="n">
-        <v>26786.22436878218</v>
+        <v>26639.69572760639</v>
       </c>
       <c r="J31" t="n">
-        <v>26476.8543719439</v>
+        <v>26475.57998486442</v>
       </c>
       <c r="K31" t="n">
-        <v>26488.56999683828</v>
+        <v>26343.31574274197</v>
       </c>
     </row>
     <row r="32">
@@ -26560,19 +26560,19 @@
         <v>139.34</v>
       </c>
       <c r="G32" t="n">
-        <v>-622.8966155273447</v>
+        <v>-473.4032007604437</v>
       </c>
       <c r="H32" t="n">
         <v>25952.4</v>
       </c>
       <c r="I32" t="n">
-        <v>26575.29661552735</v>
+        <v>26425.80320076045</v>
       </c>
       <c r="J32" t="n">
-        <v>26256.40619360327</v>
+        <v>26255.09893616584</v>
       </c>
       <c r="K32" t="n">
-        <v>26271.29042192407</v>
+        <v>26123.1042645946</v>
       </c>
     </row>
     <row r="33">
@@ -26586,19 +26586,19 @@
         <v>139.24</v>
       </c>
       <c r="G33" t="n">
-        <v>-639.5594770815187</v>
+        <v>-486.9778271004107</v>
       </c>
       <c r="H33" t="n">
         <v>25823.1</v>
       </c>
       <c r="I33" t="n">
-        <v>26462.65947708152</v>
+        <v>26310.07782710041</v>
       </c>
       <c r="J33" t="n">
-        <v>26133.70572351687</v>
+        <v>26132.36331436634</v>
       </c>
       <c r="K33" t="n">
-        <v>26152.05375356464</v>
+        <v>26000.81451273406</v>
       </c>
     </row>
     <row r="34">
@@ -26612,19 +26612,19 @@
         <v>139.14</v>
       </c>
       <c r="G34" t="n">
-        <v>-657.0773576439933</v>
+        <v>-501.2767431146931</v>
       </c>
       <c r="H34" t="n">
         <v>25796.2</v>
       </c>
       <c r="I34" t="n">
-        <v>26453.27735764399</v>
+        <v>26297.47674311469</v>
       </c>
       <c r="J34" t="n">
-        <v>26113.67235733539</v>
+        <v>26112.29291863642</v>
       </c>
       <c r="K34" t="n">
-        <v>26135.80500030861</v>
+        <v>25981.38382447827</v>
       </c>
     </row>
     <row r="35">
@@ -26638,19 +26638,19 @@
         <v>139.04</v>
       </c>
       <c r="G35" t="n">
-        <v>-675.5176641985199</v>
+        <v>-516.3591232754115</v>
       </c>
       <c r="H35" t="n">
         <v>25706.9</v>
       </c>
       <c r="I35" t="n">
-        <v>26382.41766419852</v>
+        <v>26223.25912327541</v>
       </c>
       <c r="J35" t="n">
-        <v>26031.52356486925</v>
+        <v>26030.10531800633</v>
       </c>
       <c r="K35" t="n">
-        <v>26057.79409932927</v>
+        <v>25900.05380526908</v>
       </c>
     </row>
     <row r="36">
@@ -26664,19 +26664,19 @@
         <v>138.94</v>
       </c>
       <c r="G36" t="n">
-        <v>-694.9536179632341</v>
+        <v>-532.2890895551427</v>
       </c>
       <c r="H36" t="n">
         <v>25865.6</v>
       </c>
       <c r="I36" t="n">
-        <v>26560.55361796323</v>
+        <v>26397.88908955514</v>
       </c>
       <c r="J36" t="n">
-        <v>26197.67702478099</v>
+        <v>26196.21815655055</v>
       </c>
       <c r="K36" t="n">
-        <v>26228.47659318224</v>
+        <v>26067.27093300459</v>
       </c>
     </row>
     <row r="37">
@@ -26690,19 +26690,19 @@
         <v>138.84</v>
       </c>
       <c r="G37" t="n">
-        <v>-715.4658860195304</v>
+        <v>-549.137339220717</v>
       </c>
       <c r="H37" t="n">
         <v>26150.6</v>
       </c>
       <c r="I37" t="n">
-        <v>26866.06588601953</v>
+        <v>26699.73733922072</v>
       </c>
       <c r="J37" t="n">
-        <v>26490.45146668083</v>
+        <v>26488.95007376299</v>
       </c>
       <c r="K37" t="n">
-        <v>26526.2144193387</v>
+        <v>26361.38726545772</v>
       </c>
     </row>
     <row r="38">
@@ -26716,19 +26716,19 @@
         <v>138.74</v>
       </c>
       <c r="G38" t="n">
-        <v>-737.143872546545</v>
+        <v>-566.982373475319</v>
       </c>
       <c r="H38" t="n">
         <v>25610.5</v>
       </c>
       <c r="I38" t="n">
-        <v>26347.64387254655</v>
+        <v>26177.48237347532</v>
       </c>
       <c r="J38" t="n">
-        <v>25958.46703774948</v>
+        <v>25956.92110192361</v>
       </c>
       <c r="K38" t="n">
-        <v>25999.67683479706</v>
+        <v>25831.06127155171</v>
       </c>
     </row>
     <row r="39">
@@ -26742,19 +26742,19 @@
         <v>138.64</v>
       </c>
       <c r="G39" t="n">
-        <v>-760.0870248569154</v>
+        <v>-585.9117073193447</v>
       </c>
       <c r="H39" t="n">
         <v>25614.3</v>
       </c>
       <c r="I39" t="n">
-        <v>26374.38702485691</v>
+        <v>26200.21170731934</v>
       </c>
       <c r="J39" t="n">
-        <v>25970.74552162999</v>
+        <v>25969.15289518415</v>
       </c>
       <c r="K39" t="n">
-        <v>26017.94150322692</v>
+        <v>25845.35881213519</v>
       </c>
     </row>
     <row r="40">
@@ -26768,19 +26768,19 @@
         <v>138.54</v>
       </c>
       <c r="G40" t="n">
-        <v>-784.4063051644698</v>
+        <v>-606.0232222493032</v>
       </c>
       <c r="H40" t="n">
         <v>25482.4</v>
       </c>
       <c r="I40" t="n">
-        <v>26266.80630516447</v>
+        <v>26088.4232222493</v>
       </c>
       <c r="J40" t="n">
-        <v>25847.71052654233</v>
+        <v>25846.06892016208</v>
       </c>
       <c r="K40" t="n">
-        <v>25901.49577862214</v>
+        <v>25724.75430208723</v>
       </c>
     </row>
     <row r="41">
@@ -26794,19 +26794,19 @@
         <v>138.44</v>
       </c>
       <c r="G41" t="n">
-        <v>-810.2259089348299</v>
+        <v>-627.4267452078966</v>
       </c>
       <c r="H41" t="n">
         <v>25820.7</v>
       </c>
       <c r="I41" t="n">
-        <v>26630.92590893483</v>
+        <v>26448.1267452079</v>
       </c>
       <c r="J41" t="n">
-        <v>26195.28768117997</v>
+        <v>26193.59465171572</v>
       </c>
       <c r="K41" t="n">
-        <v>26256.33822775486</v>
+        <v>26075.23209349218</v>
       </c>
     </row>
     <row r="42">
@@ -26820,19 +26820,19 @@
         <v>138.34</v>
       </c>
       <c r="G42" t="n">
-        <v>-837.6852959324424</v>
+        <v>-650.2459186094529</v>
       </c>
       <c r="H42" t="n">
         <v>25337.9</v>
       </c>
       <c r="I42" t="n">
-        <v>26175.58529593244</v>
+        <v>25988.14591860945</v>
       </c>
       <c r="J42" t="n">
-        <v>25722.20485154207</v>
+        <v>25720.45778880652</v>
       </c>
       <c r="K42" t="n">
-        <v>25791.28044439038</v>
+        <v>25605.58812980293</v>
       </c>
     </row>
     <row r="43">
@@ -26846,19 +26846,19 @@
         <v>138.24</v>
       </c>
       <c r="G43" t="n">
-        <v>-866.941606851673</v>
+        <v>-674.620431211406</v>
       </c>
       <c r="H43" t="n">
         <v>25660.4</v>
       </c>
       <c r="I43" t="n">
-        <v>26527.34160685167</v>
+        <v>26335.02043121141</v>
       </c>
       <c r="J43" t="n">
-        <v>26054.89238484179</v>
+        <v>26053.08849710634</v>
       </c>
       <c r="K43" t="n">
-        <v>26132.84922200989</v>
+        <v>25942.33193410507</v>
       </c>
     </row>
     <row r="44">
@@ -26872,19 +26872,19 @@
         <v>138.14</v>
       </c>
       <c r="G44" t="n">
-        <v>-898.1725550270712</v>
+        <v>-700.7086950976773</v>
       </c>
       <c r="H44" t="n">
         <v>25130.5</v>
       </c>
       <c r="I44" t="n">
-        <v>26028.67255502707</v>
+        <v>25831.20869509768</v>
       </c>
       <c r="J44" t="n">
-        <v>25535.68338528609</v>
+        <v>25533.81968326939</v>
       </c>
       <c r="K44" t="n">
-        <v>25623.48916974098</v>
+        <v>25427.88901182829</v>
       </c>
     </row>
     <row r="45">
@@ -26898,19 +26898,19 @@
         <v>138.04</v>
       </c>
       <c r="G45" t="n">
-        <v>-931.5799065655519</v>
+        <v>-728.6910769038477</v>
       </c>
       <c r="H45" t="n">
         <v>25320.6</v>
       </c>
       <c r="I45" t="n">
-        <v>26252.17990656555</v>
+        <v>26049.29107690385</v>
       </c>
       <c r="J45" t="n">
-        <v>25737.0140268023</v>
+        <v>25735.08730595594</v>
       </c>
       <c r="K45" t="n">
-        <v>25835.76587976325</v>
+        <v>25634.8037709479</v>
       </c>
     </row>
     <row r="46">
@@ -26924,19 +26924,19 @@
         <v>137.94</v>
       </c>
       <c r="G46" t="n">
-        <v>-262.7636942426216</v>
+        <v>-54.1438223283476</v>
       </c>
       <c r="H46" t="n">
         <v>24279.27</v>
       </c>
       <c r="I46" t="n">
-        <v>25246.66369424262</v>
+        <v>25038.04382232835</v>
       </c>
       <c r="J46" t="n">
-        <v>24707.49390857762</v>
+        <v>24705.50072945604</v>
       </c>
       <c r="K46" t="n">
-        <v>24818.439785665</v>
+        <v>24611.81309287231</v>
       </c>
     </row>
     <row r="47">
@@ -26950,19 +26950,19 @@
         <v>137.84</v>
       </c>
       <c r="G47" t="n">
-        <v>-268.477353269438</v>
+        <v>-53.79385445666412</v>
       </c>
       <c r="H47" t="n">
         <v>24270.6</v>
       </c>
       <c r="I47" t="n">
-        <v>25276.47735326944</v>
+        <v>25061.79385445666</v>
       </c>
       <c r="J47" t="n">
-        <v>24711.25646032982</v>
+        <v>24709.19312680302</v>
       </c>
       <c r="K47" t="n">
-        <v>24835.82089293962</v>
+        <v>24623.20072765364</v>
       </c>
     </row>
     <row r="48">
@@ -26976,19 +26976,19 @@
         <v>137.74</v>
       </c>
       <c r="G48" t="n">
-        <v>-324.1540246468721</v>
+        <v>-103.044682504973</v>
       </c>
       <c r="H48" t="n">
         <v>24270.12</v>
       </c>
       <c r="I48" t="n">
-        <v>25317.45402464687</v>
+        <v>25096.34468250497</v>
       </c>
       <c r="J48" t="n">
-        <v>24723.87940551864</v>
+        <v>24721.741940553</v>
       </c>
       <c r="K48" t="n">
-        <v>24863.69461912823</v>
+        <v>24644.72274195197</v>
       </c>
     </row>
     <row r="49">
@@ -27002,19 +27002,19 @@
         <v>137.64</v>
       </c>
       <c r="G49" t="n">
-        <v>-322.9443502613176</v>
+        <v>-95.01373422054894</v>
       </c>
       <c r="H49" t="n">
         <v>24269.63</v>
       </c>
       <c r="I49" t="n">
-        <v>25361.74435026132</v>
+        <v>25133.81373422055</v>
       </c>
       <c r="J49" t="n">
-        <v>24737.21529227953</v>
+        <v>24734.99941097262</v>
       </c>
       <c r="K49" t="n">
-        <v>24894.15905798179</v>
+        <v>24668.44432324793</v>
       </c>
     </row>
     <row r="50">
@@ -27028,19 +27028,19 @@
         <v>137.54</v>
       </c>
       <c r="G50" t="n">
-        <v>-700.9561919601401</v>
+        <v>-465.7715311666288</v>
       </c>
       <c r="H50" t="n">
         <v>24269.13</v>
       </c>
       <c r="I50" t="n">
-        <v>25409.75619196014</v>
+        <v>25174.57153116663</v>
       </c>
       <c r="J50" t="n">
-        <v>24751.32210377855</v>
+        <v>24749.02318328911</v>
       </c>
       <c r="K50" t="n">
-        <v>24927.56408818159</v>
+        <v>24694.67834787751</v>
       </c>
     </row>
     <row r="51">
@@ -27054,19 +27054,19 @@
         <v>137.44</v>
       </c>
       <c r="G51" t="n">
-        <v>-765.1768577378607</v>
+        <v>-522.263274685738</v>
       </c>
       <c r="H51" t="n">
         <v>24268.73</v>
       </c>
       <c r="I51" t="n">
-        <v>25462.07685773786</v>
+        <v>25219.16327468574</v>
       </c>
       <c r="J51" t="n">
-        <v>24766.37396203597</v>
+        <v>24763.98700799827</v>
       </c>
       <c r="K51" t="n">
-        <v>24964.43289570189</v>
+        <v>24723.90626668747</v>
       </c>
     </row>
     <row r="52">
@@ -27080,19 +27080,19 @@
         <v>137.34</v>
       </c>
       <c r="G52" t="n">
-        <v>-855.7786318839389</v>
+        <v>-604.6136216644918</v>
       </c>
       <c r="H52" t="n">
         <v>24268.44</v>
       </c>
       <c r="I52" t="n">
-        <v>25519.27863188394</v>
+        <v>25268.11362166449</v>
       </c>
       <c r="J52" t="n">
-        <v>24782.45194215534</v>
+        <v>24779.97155110757</v>
       </c>
       <c r="K52" t="n">
-        <v>25005.2666897286</v>
+        <v>24756.58207055692</v>
       </c>
     </row>
     <row r="53">
@@ -27106,19 +27106,19 @@
         <v>137.24</v>
       </c>
       <c r="G53" t="n">
-        <v>-925.9287135344384</v>
+        <v>-665.9357347895711</v>
       </c>
       <c r="H53" t="n">
         <v>24268.16</v>
       </c>
       <c r="I53" t="n">
-        <v>25581.92871353444</v>
+        <v>25321.93573478957</v>
       </c>
       <c r="J53" t="n">
-        <v>24799.53501746685</v>
+        <v>24796.95533475555</v>
       </c>
       <c r="K53" t="n">
-        <v>25050.55369606759</v>
+        <v>24793.14040003402</v>
       </c>
     </row>
     <row r="54">
@@ -27132,19 +27132,19 @@
         <v>137.14</v>
       </c>
       <c r="G54" t="n">
-        <v>-1067.835118780895</v>
+        <v>-798.3761420153569</v>
       </c>
       <c r="H54" t="n">
         <v>24267.9</v>
       </c>
       <c r="I54" t="n">
-        <v>25650.83511878089</v>
+        <v>25381.37614201536</v>
       </c>
       <c r="J54" t="n">
-        <v>24817.72116053248</v>
+        <v>24815.03583307644</v>
       </c>
       <c r="K54" t="n">
-        <v>25101.01395824841</v>
+        <v>24834.24030893892</v>
       </c>
     </row>
     <row r="55">
@@ -27158,19 +27158,19 @@
         <v>137.04</v>
       </c>
       <c r="G55" t="n">
-        <v>-1450.370775515752</v>
+        <v>-1170.737616810071</v>
       </c>
       <c r="H55" t="n">
         <v>24267.67</v>
       </c>
       <c r="I55" t="n">
-        <v>25726.97077551575</v>
+        <v>25447.33761681007</v>
       </c>
       <c r="J55" t="n">
-        <v>24837.11863050317</v>
+        <v>24834.32075371268</v>
       </c>
       <c r="K55" t="n">
-        <v>25157.52214501258</v>
+        <v>24880.68686309739</v>
       </c>
     </row>
     <row r="56">
@@ -27184,19 +27184,19 @@
         <v>136.94</v>
       </c>
       <c r="G56" t="n">
-        <v>-1005.199072182961</v>
+        <v>-714.6033337986883</v>
       </c>
       <c r="H56" t="n">
         <v>24267.56</v>
       </c>
       <c r="I56" t="n">
-        <v>25811.59907218296</v>
+        <v>25521.00333379869</v>
       </c>
       <c r="J56" t="n">
-        <v>24857.92748428142</v>
+        <v>24855.00954232862</v>
       </c>
       <c r="K56" t="n">
-        <v>25221.23158790154</v>
+        <v>24933.55379147007</v>
       </c>
     </row>
     <row r="57">
@@ -27210,19 +27210,19 @@
         <v>136.84</v>
       </c>
       <c r="G57" t="n">
-        <v>-666.9757459368593</v>
+        <v>-364.537208665377</v>
       </c>
       <c r="H57" t="n">
         <v>24267.38</v>
       </c>
       <c r="I57" t="n">
-        <v>25905.97574593686</v>
+        <v>25603.53720866538</v>
       </c>
       <c r="J57" t="n">
-        <v>24880.08135773825</v>
+        <v>24877.03515626397</v>
       </c>
       <c r="K57" t="n">
-        <v>25293.27438819861</v>
+        <v>24993.88205240141</v>
       </c>
     </row>
     <row r="58">
@@ -27236,19 +27236,19 @@
         <v>136.74</v>
       </c>
       <c r="G58" t="n">
-        <v>-1355.344637910257</v>
+        <v>-1040.078046370843</v>
       </c>
       <c r="H58" t="n">
         <v>24266.87</v>
       </c>
       <c r="I58" t="n">
-        <v>26011.64463791026</v>
+        <v>25696.37804637084</v>
       </c>
       <c r="J58" t="n">
-        <v>24903.45957441537</v>
+        <v>24900.2761646365</v>
       </c>
       <c r="K58" t="n">
-        <v>25375.05506349488</v>
+        <v>25062.97188173434</v>
       </c>
     </row>
     <row r="59">
@@ -27262,19 +27262,19 @@
         <v>136.64</v>
       </c>
       <c r="G59" t="n">
-        <v>-1646.77931195038</v>
+        <v>-1317.579762733909</v>
       </c>
       <c r="H59" t="n">
         <v>24266.42</v>
       </c>
       <c r="I59" t="n">
-        <v>26131.27931195038</v>
+        <v>25802.07976273391</v>
       </c>
       <c r="J59" t="n">
-        <v>24928.60965345078</v>
+        <v>24925.27924650339</v>
       </c>
       <c r="K59" t="n">
-        <v>25469.0896584996</v>
+        <v>25143.22051623051</v>
       </c>
     </row>
     <row r="60">
@@ -27288,19 +27288,19 @@
         <v>136.54</v>
       </c>
       <c r="G60" t="n">
-        <v>-1159.810431676422</v>
+        <v>-815.4382444800358</v>
       </c>
       <c r="H60" t="n">
         <v>24266.22</v>
       </c>
       <c r="I60" t="n">
-        <v>26268.01043167642</v>
+        <v>25923.63824448004</v>
       </c>
       <c r="J60" t="n">
-        <v>24955.90030690072</v>
+        <v>24952.41217712323</v>
       </c>
       <c r="K60" t="n">
-        <v>25578.3301247757</v>
+        <v>25237.4460673568</v>
       </c>
     </row>
     <row r="61">
@@ -27314,19 +27314,19 @@
         <v>136.44</v>
       </c>
       <c r="G61" t="n">
-        <v>-1469.093387337478</v>
+        <v>-1108.160929297122</v>
       </c>
       <c r="H61" t="n">
         <v>24265.86</v>
       </c>
       <c r="I61" t="n">
-        <v>26425.29338733748</v>
+        <v>26064.36092929712</v>
       </c>
       <c r="J61" t="n">
-        <v>24985.12504056088</v>
+        <v>24981.46741629896</v>
       </c>
       <c r="K61" t="n">
-        <v>25706.0283467766</v>
+        <v>25348.75351299817</v>
       </c>
     </row>
     <row r="62">
@@ -27340,19 +27340,19 @@
         <v>136.34</v>
       </c>
       <c r="G62" t="n">
-        <v>-1502.848610211768</v>
+        <v>-1123.815166159759</v>
       </c>
       <c r="H62" t="n">
         <v>24265.35</v>
       </c>
       <c r="I62" t="n">
-        <v>26608.34861021177</v>
+        <v>26229.31516615976</v>
       </c>
       <c r="J62" t="n">
-        <v>25016.5265036968</v>
+        <v>25012.68644411642</v>
       </c>
       <c r="K62" t="n">
-        <v>25857.17210651496</v>
+        <v>25481.97872204334</v>
       </c>
     </row>
     <row r="63">
@@ -27366,19 +27366,19 @@
         <v>136.24</v>
       </c>
       <c r="G63" t="n">
-        <v>-898.4712496525062</v>
+        <v>-499.6598630684093</v>
       </c>
       <c r="H63" t="n">
         <v>24264.84</v>
       </c>
       <c r="I63" t="n">
-        <v>26824.5712496525</v>
+        <v>26425.75986306841</v>
       </c>
       <c r="J63" t="n">
-        <v>25050.52177440163</v>
+        <v>25046.48503076104</v>
       </c>
       <c r="K63" t="n">
-        <v>26038.88947525088</v>
+        <v>25644.11483230737</v>
       </c>
     </row>
     <row r="64">
@@ -27392,19 +27392,19 @@
         <v>136.14</v>
       </c>
       <c r="G64" t="n">
-        <v>-1249.690030861104</v>
+        <v>-829.3559375136356</v>
       </c>
       <c r="H64" t="n">
         <v>24264</v>
       </c>
       <c r="I64" t="n">
-        <v>27084.09003086111</v>
+        <v>26663.75593751364</v>
       </c>
       <c r="J64" t="n">
-        <v>25087.08882229625</v>
+        <v>25082.83968220674</v>
       </c>
       <c r="K64" t="n">
-        <v>26261.00120856486</v>
+        <v>25844.9162553069</v>
       </c>
     </row>
     <row r="65">
@@ -27418,19 +27418,19 @@
         <v>136.04</v>
       </c>
       <c r="G65" t="n">
-        <v>-1074.238791086322</v>
+        <v>-630.7472754132068</v>
       </c>
       <c r="H65" t="n">
         <v>24262.92</v>
       </c>
       <c r="I65" t="n">
-        <v>27402.73879108632</v>
+        <v>26959.24727541321</v>
       </c>
       <c r="J65" t="n">
-        <v>25126.67446422741</v>
+        <v>25122.19557771926</v>
       </c>
       <c r="K65" t="n">
-        <v>26538.98432685891</v>
+        <v>26099.97169769394</v>
       </c>
     </row>
     <row r="66">
@@ -27444,19 +27444,19 @@
         <v>135.94</v>
       </c>
       <c r="G66" t="n">
-        <v>-1044.601325362182</v>
+        <v>-576.8159764272496</v>
       </c>
       <c r="H66" t="n">
         <v>24261.7</v>
       </c>
       <c r="I66" t="n">
-        <v>27805.30132536218</v>
+        <v>27337.51597642725</v>
       </c>
       <c r="J66" t="n">
-        <v>25169.79422907996</v>
+        <v>25165.06641594002</v>
       </c>
       <c r="K66" t="n">
-        <v>26897.20709628222</v>
+        <v>26434.14956048723</v>
       </c>
     </row>
     <row r="67">
@@ -27470,19 +27470,19 @@
         <v>135.84</v>
       </c>
       <c r="G67" t="n">
-        <v>-1275.906081387304</v>
+        <v>-783.9386424035147</v>
       </c>
       <c r="H67" t="n">
         <v>24260.17</v>
       </c>
       <c r="I67" t="n">
-        <v>28331.5060813873</v>
+        <v>27839.53864240351</v>
       </c>
       <c r="J67" t="n">
-        <v>25216.76468588111</v>
+        <v>25211.7667250054</v>
       </c>
       <c r="K67" t="n">
-        <v>27374.91139550619</v>
+        <v>26887.94191739811</v>
       </c>
     </row>
     <row r="68">
@@ -27496,19 +27496,19 @@
         <v>135.74</v>
       </c>
       <c r="G68" t="n">
-        <v>-1097.53794441108</v>
+        <v>-584.0377543054237</v>
       </c>
       <c r="H68" t="n">
         <v>24258.4</v>
       </c>
       <c r="I68" t="n">
-        <v>29046.63794441108</v>
+        <v>28533.13775430542</v>
       </c>
       <c r="J68" t="n">
-        <v>25268.22898149524</v>
+        <v>25262.9373853531</v>
       </c>
       <c r="K68" t="n">
-        <v>28036.80896291584</v>
+        <v>27528.60036895232</v>
       </c>
     </row>
     <row r="69">
@@ -27522,19 +27522,19 @@
         <v>135.64</v>
       </c>
       <c r="G69" t="n">
-        <v>-1337.71297634851</v>
+        <v>-809.8168118380599</v>
       </c>
       <c r="H69" t="n">
         <v>24256.22</v>
       </c>
       <c r="I69" t="n">
-        <v>30055.61297634851</v>
+        <v>29527.71681183806</v>
       </c>
       <c r="J69" t="n">
-        <v>25324.69660524233</v>
+        <v>25319.08538675237</v>
       </c>
       <c r="K69" t="n">
-        <v>28987.13637110619</v>
+        <v>28464.8514250857</v>
       </c>
     </row>
     <row r="70">
@@ -27548,19 +27548,19 @@
         <v>135.54</v>
       </c>
       <c r="G70" t="n">
-        <v>-803.0014660123488</v>
+        <v>-274.8502644255241</v>
       </c>
       <c r="H70" t="n">
         <v>24253.48</v>
       </c>
       <c r="I70" t="n">
-        <v>31520.60146601235</v>
+        <v>30992.45026442552</v>
       </c>
       <c r="J70" t="n">
-        <v>25386.82878598349</v>
+        <v>25380.86923251464</v>
       </c>
       <c r="K70" t="n">
-        <v>30387.25268002886</v>
+        <v>29865.06103191088</v>
       </c>
     </row>
     <row r="71">
@@ -27574,19 +27574,19 @@
         <v>135.44</v>
       </c>
       <c r="G71" t="n">
-        <v>-894.6934425601576</v>
+        <v>-390.0266009412298</v>
       </c>
       <c r="H71" t="n">
         <v>24249.79</v>
       </c>
       <c r="I71" t="n">
-        <v>33674.49344256016</v>
+        <v>33169.82660094123</v>
       </c>
       <c r="J71" t="n">
-        <v>25455.2114927637</v>
+        <v>25448.87197503351</v>
       </c>
       <c r="K71" t="n">
-        <v>32469.07194979646</v>
+        <v>31970.74462590772</v>
       </c>
     </row>
     <row r="72">
@@ -27600,19 +27600,19 @@
         <v>135.34</v>
       </c>
       <c r="G72" t="n">
-        <v>-267.7868736636156</v>
+        <v>178.339114912982</v>
       </c>
       <c r="H72" t="n">
         <v>24244.72</v>
       </c>
       <c r="I72" t="n">
-        <v>36817.88687366361</v>
+        <v>36371.76088508702</v>
       </c>
       <c r="J72" t="n">
-        <v>25530.6064391092</v>
+        <v>25523.85227682254</v>
       </c>
       <c r="K72" t="n">
-        <v>35532.00043455441</v>
+        <v>35092.62860826448</v>
       </c>
     </row>
     <row r="73">
@@ -27626,19 +27626,19 @@
         <v>135.24</v>
       </c>
       <c r="G73" t="n">
-        <v>40.57320765502664</v>
+        <v>382.1410577654824</v>
       </c>
       <c r="H73" t="n">
         <v>24237.64</v>
       </c>
       <c r="I73" t="n">
-        <v>41279.92679234497</v>
+        <v>40938.35894223452</v>
       </c>
       <c r="J73" t="n">
-        <v>25613.83346343449</v>
+        <v>25606.62703746122</v>
       </c>
       <c r="K73" t="n">
-        <v>39903.73332891048</v>
+        <v>39569.37190477329</v>
       </c>
     </row>
     <row r="74">
@@ -27652,19 +27652,19 @@
         <v>135.14</v>
       </c>
       <c r="G74" t="n">
-        <v>41.42843151932175</v>
+        <v>224.7897065513971</v>
       </c>
       <c r="H74" t="n">
         <v>24227.62</v>
       </c>
       <c r="I74" t="n">
-        <v>47327.27156848068</v>
+        <v>47143.9102934486</v>
       </c>
       <c r="J74" t="n">
-        <v>25705.75558781564</v>
+        <v>25698.05676987315</v>
       </c>
       <c r="K74" t="n">
-        <v>45849.13598066504</v>
+        <v>45673.47352357545</v>
       </c>
     </row>
     <row r="75">
@@ -27678,19 +27678,19 @@
         <v>135.04</v>
       </c>
       <c r="G75" t="n">
-        <v>520.9855244375431</v>
+        <v>491.1367228421004</v>
       </c>
       <c r="H75" t="n">
         <v>24213.82</v>
       </c>
       <c r="I75" t="n">
-        <v>55023.31447556246</v>
+        <v>55053.1632771579</v>
       </c>
       <c r="J75" t="n">
-        <v>25807.78261957447</v>
+        <v>25799.54985438079</v>
       </c>
       <c r="K75" t="n">
-        <v>53429.35185598799</v>
+        <v>53467.43342277711</v>
       </c>
     </row>
     <row r="76">
@@ -27704,19 +27704,19 @@
         <v>134.94</v>
       </c>
       <c r="G76" t="n">
-        <v>-680.1327149336139</v>
+        <v>-971.5200292841182</v>
       </c>
       <c r="H76" t="n">
         <v>24195.04</v>
       </c>
       <c r="I76" t="n">
-        <v>64072.03271493362</v>
+        <v>64363.42002928412</v>
       </c>
       <c r="J76" t="n">
-        <v>25921.57099625635</v>
+        <v>25912.76368385668</v>
       </c>
       <c r="K76" t="n">
-        <v>62345.50171867727</v>
+        <v>62645.69634542744</v>
       </c>
     </row>
     <row r="77">
@@ -27730,19 +27730,19 @@
         <v>134.84</v>
       </c>
       <c r="G77" t="n">
-        <v>-40.31287357048132</v>
+        <v>-626.7339548244781</v>
       </c>
       <c r="H77" t="n">
         <v>24170.57</v>
       </c>
       <c r="I77" t="n">
-        <v>73714.21287357048</v>
+        <v>74300.63395482447</v>
       </c>
       <c r="J77" t="n">
-        <v>26050.09530349869</v>
+        <v>26040.67869339776</v>
       </c>
       <c r="K77" t="n">
-        <v>71834.68757007178</v>
+        <v>72430.52526142669</v>
       </c>
     </row>
     <row r="78">
@@ -27756,19 +27756,19 @@
         <v>134.74</v>
       </c>
       <c r="G78" t="n">
-        <v>751.9048075618193</v>
+        <v>-141.5954679548449</v>
       </c>
       <c r="H78" t="n">
         <v>24139.56</v>
       </c>
       <c r="I78" t="n">
-        <v>82767.29519243818</v>
+        <v>83660.79546795484</v>
       </c>
       <c r="J78" t="n">
-        <v>26197.34897598379</v>
+        <v>26187.30407673886</v>
       </c>
       <c r="K78" t="n">
-        <v>80709.50621645438</v>
+        <v>81613.05139121599</v>
       </c>
     </row>
     <row r="79">
@@ -27782,19 +27782,19 @@
         <v>134.64</v>
       </c>
       <c r="G79" t="n">
-        <v>1458.924126397353</v>
+        <v>272.3947884761292</v>
       </c>
       <c r="H79" t="n">
         <v>24101.36</v>
       </c>
       <c r="I79" t="n">
-        <v>89842.77587360264</v>
+        <v>91029.30521152387</v>
       </c>
       <c r="J79" t="n">
-        <v>26369.19683267976</v>
+        <v>26358.54051209449</v>
       </c>
       <c r="K79" t="n">
-        <v>87574.93904092288</v>
+        <v>88772.12469942938</v>
       </c>
     </row>
     <row r="80">
@@ -27808,19 +27808,19 @@
         <v>134.54</v>
       </c>
       <c r="G80" t="n">
-        <v>155.8292305408104</v>
+        <v>-1281.091234763444</v>
       </c>
       <c r="H80" t="n">
         <v>24057.11</v>
       </c>
       <c r="I80" t="n">
-        <v>93707.2707694592</v>
+        <v>95144.19123476345</v>
       </c>
       <c r="J80" t="n">
-        <v>26575.79393890357</v>
+        <v>26564.61974157633</v>
       </c>
       <c r="K80" t="n">
-        <v>91188.58683055562</v>
+        <v>92636.68149318712</v>
       </c>
     </row>
     <row r="81">
@@ -27834,19 +27834,19 @@
         <v>134.44</v>
       </c>
       <c r="G81" t="n">
-        <v>1208.325286108215</v>
+        <v>-408.3213899115508</v>
       </c>
       <c r="H81" t="n">
         <v>24009.49</v>
       </c>
       <c r="I81" t="n">
-        <v>93660.17471389179</v>
+        <v>95276.82138991155</v>
       </c>
       <c r="J81" t="n">
-        <v>26832.73448712341</v>
+        <v>26821.29448164431</v>
       </c>
       <c r="K81" t="n">
-        <v>90836.93022676838</v>
+        <v>92465.01690826725</v>
       </c>
     </row>
     <row r="82">
@@ -27860,19 +27860,19 @@
         <v>134.34</v>
       </c>
       <c r="G82" t="n">
-        <v>-280.851806400955</v>
+        <v>-1983.961619220339</v>
       </c>
       <c r="H82" t="n">
         <v>23961.18</v>
       </c>
       <c r="I82" t="n">
-        <v>89769.75180640095</v>
+        <v>91472.86161922033</v>
       </c>
       <c r="J82" t="n">
-        <v>27161.95373917238</v>
+        <v>27150.81683165713</v>
       </c>
       <c r="K82" t="n">
-        <v>86568.97806722857</v>
+        <v>88283.2247875632</v>
       </c>
     </row>
     <row r="83">
@@ -27886,19 +27886,19 @@
         <v>134.24</v>
       </c>
       <c r="G83" t="n">
-        <v>-1208.322879710176</v>
+        <v>-2893.71297290294</v>
       </c>
       <c r="H83" t="n">
         <v>23915.31</v>
       </c>
       <c r="I83" t="n">
-        <v>82864.02287971017</v>
+        <v>84549.41297290294</v>
       </c>
       <c r="J83" t="n">
-        <v>27596.50084059838</v>
+        <v>27586.83930918093</v>
       </c>
       <c r="K83" t="n">
-        <v>79182.8320391118</v>
+        <v>80877.88366372201</v>
       </c>
     </row>
     <row r="84">
@@ -27912,19 +27912,19 @@
         <v>134.14</v>
       </c>
       <c r="G84" t="n">
-        <v>-1419.526601079007</v>
+        <v>-2988.918362519864</v>
       </c>
       <c r="H84" t="n">
         <v>23874.62</v>
       </c>
       <c r="I84" t="n">
-        <v>74280.62660107901</v>
+        <v>75850.01836251987</v>
       </c>
       <c r="J84" t="n">
-        <v>28187.23986726766</v>
+        <v>28181.29584912876</v>
       </c>
       <c r="K84" t="n">
-        <v>69968.00673381136</v>
+        <v>71543.34251339111</v>
       </c>
     </row>
     <row r="85">
@@ -27938,19 +27938,19 @@
         <v>134.04</v>
       </c>
       <c r="G85" t="n">
-        <v>-266.467043394674</v>
+        <v>-1645.119460156755</v>
       </c>
       <c r="H85" t="n">
         <v>23839.91</v>
       </c>
       <c r="I85" t="n">
-        <v>65494.46704339467</v>
+        <v>66873.11946015675</v>
       </c>
       <c r="J85" t="n">
-        <v>29013.82157093985</v>
+        <v>29015.54873043458</v>
       </c>
       <c r="K85" t="n">
-        <v>60320.55547245483</v>
+        <v>61697.48072972217</v>
       </c>
     </row>
     <row r="86">
@@ -27964,19 +27964,19 @@
         <v>133.94</v>
       </c>
       <c r="G86" t="n">
-        <v>37.86489463433099</v>
+        <v>-1111.370550390682</v>
       </c>
       <c r="H86" t="n">
         <v>23810.89</v>
       </c>
       <c r="I86" t="n">
-        <v>57787.13510536567</v>
+        <v>58936.37055039068</v>
       </c>
       <c r="J86" t="n">
-        <v>30204.51621751941</v>
+        <v>30220.22025862023</v>
       </c>
       <c r="K86" t="n">
-        <v>51393.50888784626</v>
+        <v>52527.04029177046</v>
       </c>
     </row>
     <row r="87">
@@ -27990,19 +27990,19 @@
         <v>133.84</v>
       </c>
       <c r="G87" t="n">
-        <v>632.2609856423078</v>
+        <v>-287.8759434400417</v>
       </c>
       <c r="H87" t="n">
         <v>23786.85</v>
       </c>
       <c r="I87" t="n">
-        <v>52072.93901435769</v>
+        <v>52993.07594344004</v>
       </c>
       <c r="J87" t="n">
-        <v>31961.61010048373</v>
+        <v>32000.09158891131</v>
       </c>
       <c r="K87" t="n">
-        <v>43898.17891387396</v>
+        <v>44779.83435452873</v>
       </c>
     </row>
     <row r="88">
@@ -28016,19 +28016,19 @@
         <v>133.74</v>
       </c>
       <c r="G88" t="n">
-        <v>608.335047758439</v>
+        <v>-114.4385715020908</v>
       </c>
       <c r="H88" t="n">
         <v>23766.62</v>
       </c>
       <c r="I88" t="n">
-        <v>48904.06495224156</v>
+        <v>49626.83857150209</v>
       </c>
       <c r="J88" t="n">
-        <v>34585.5527831723</v>
+        <v>34656.87652739207</v>
       </c>
       <c r="K88" t="n">
-        <v>38085.13216906926</v>
+        <v>38736.58204411003</v>
       </c>
     </row>
     <row r="89">
@@ -28042,19 +28042,19 @@
         <v>133.64</v>
       </c>
       <c r="G89" t="n">
-        <v>729.4104806039468</v>
+        <v>156.3386801009692</v>
       </c>
       <c r="H89" t="n">
         <v>23748.59</v>
       </c>
       <c r="I89" t="n">
-        <v>48590.18951939605</v>
+        <v>49163.26131989903</v>
       </c>
       <c r="J89" t="n">
-        <v>38483.06017302025</v>
+        <v>38594.95533776908</v>
       </c>
       <c r="K89" t="n">
-        <v>33855.7193463758</v>
+        <v>34316.89598212994</v>
       </c>
     </row>
     <row r="90">
@@ -28068,19 +28068,19 @@
         <v>133.54</v>
       </c>
       <c r="G90" t="n">
-        <v>1385.939923422142</v>
+        <v>917.8053489239101</v>
       </c>
       <c r="H90" t="n">
         <v>23730.79</v>
       </c>
       <c r="I90" t="n">
-        <v>51324.56007657786</v>
+        <v>51792.69465107609</v>
       </c>
       <c r="J90" t="n">
-        <v>44133.70413969466</v>
+        <v>44285.24692696278</v>
       </c>
       <c r="K90" t="n">
-        <v>30921.6459368832</v>
+        <v>31238.23772411331</v>
       </c>
     </row>
     <row r="91">
@@ -28094,19 +28094,19 @@
         <v>133.44</v>
       </c>
       <c r="G91" t="n">
-        <v>-716.7645119162626</v>
+        <v>-1104.83572642276</v>
       </c>
       <c r="H91" t="n">
         <v>23711.27</v>
       </c>
       <c r="I91" t="n">
-        <v>57220.66451191626</v>
+        <v>57608.73572642276</v>
       </c>
       <c r="J91" t="n">
-        <v>51987.51422803442</v>
+        <v>52161.50076612829</v>
       </c>
       <c r="K91" t="n">
-        <v>28944.42028388185</v>
+        <v>29158.50496029447</v>
       </c>
     </row>
     <row r="92">
@@ -28120,19 +28120,19 @@
         <v>133.34</v>
       </c>
       <c r="G92" t="n">
-        <v>4.241346436785534</v>
+        <v>-298.7853238846001</v>
       </c>
       <c r="H92" t="n">
         <v>23688.24</v>
       </c>
       <c r="I92" t="n">
-        <v>66215.95865356321</v>
+        <v>66518.9853238846</v>
       </c>
       <c r="J92" t="n">
-        <v>62282.08673607494</v>
+        <v>62439.91164308523</v>
       </c>
       <c r="K92" t="n">
-        <v>27622.11191748828</v>
+        <v>27767.31368079937</v>
       </c>
     </row>
     <row r="93">
@@ -28146,19 +28146,19 @@
         <v>133.24</v>
       </c>
       <c r="G93" t="n">
-        <v>-1122.297645561965</v>
+        <v>-1307.106921328246</v>
       </c>
       <c r="H93" t="n">
         <v>23659.34</v>
       </c>
       <c r="I93" t="n">
-        <v>77873.39764556197</v>
+        <v>78058.20692132825</v>
       </c>
       <c r="J93" t="n">
-        <v>74809.21975723533</v>
+        <v>74893.5082711693</v>
       </c>
       <c r="K93" t="n">
-        <v>26723.51788832664</v>
+        <v>26824.03865015896</v>
       </c>
     </row>
     <row r="94">
@@ -28172,19 +28172,19 @@
         <v>133.14</v>
       </c>
       <c r="G94" t="n">
-        <v>-471.3720110031427</v>
+        <v>-491.8852945529798</v>
       </c>
       <c r="H94" t="n">
         <v>23622.4</v>
       </c>
       <c r="I94" t="n">
-        <v>91186.07201100314</v>
+        <v>91206.58529455298</v>
       </c>
       <c r="J94" t="n">
-        <v>88719.08095341083</v>
+        <v>88667.64286723742</v>
       </c>
       <c r="K94" t="n">
-        <v>26089.39105759232</v>
+        <v>26161.34242731555</v>
       </c>
     </row>
     <row r="95">
@@ -28198,19 +28198,19 @@
         <v>133.04</v>
       </c>
       <c r="G95" t="n">
-        <v>-2628.264402914778</v>
+        <v>-2450.907650958368</v>
       </c>
       <c r="H95" t="n">
         <v>23576.35</v>
       </c>
       <c r="I95" t="n">
-        <v>104523.2644029148</v>
+        <v>104345.9076509584</v>
       </c>
       <c r="J95" t="n">
-        <v>102481.3598826086</v>
+        <v>102250.4596721937</v>
       </c>
       <c r="K95" t="n">
-        <v>25618.25452030614</v>
+        <v>25671.79797876471</v>
       </c>
     </row>
     <row r="96">
@@ -28224,19 +28224,19 @@
         <v>132.94</v>
       </c>
       <c r="G96" t="n">
-        <v>-26.43723670317559</v>
+        <v>344.3810711253027</v>
       </c>
       <c r="H96" t="n">
         <v>23520.88</v>
       </c>
       <c r="I96" t="n">
-        <v>115825.4372367032</v>
+        <v>115454.6189288747</v>
       </c>
       <c r="J96" t="n">
-        <v>114098.0436539021</v>
+        <v>113685.8657394726</v>
       </c>
       <c r="K96" t="n">
-        <v>25248.27358280104</v>
+        <v>25289.63318940206</v>
       </c>
     </row>
     <row r="97">
@@ -28250,19 +28250,19 @@
         <v>132.84</v>
       </c>
       <c r="G97" t="n">
-        <v>-633.2162578422431</v>
+        <v>-123.7393424757174</v>
       </c>
       <c r="H97" t="n">
         <v>23456.83</v>
       </c>
       <c r="I97" t="n">
-        <v>123053.2162578422</v>
+        <v>122543.7393424757</v>
       </c>
       <c r="J97" t="n">
-        <v>121566.9058541559</v>
+        <v>121024.454696436</v>
       </c>
       <c r="K97" t="n">
-        <v>24943.14040368633</v>
+        <v>24976.11464603976</v>
       </c>
     </row>
     <row r="98">
@@ -28276,19 +28276,19 @@
         <v>132.74</v>
       </c>
       <c r="G98" t="n">
-        <v>-847.254033613237</v>
+        <v>-294.8900122033665</v>
       </c>
       <c r="H98" t="n">
         <v>23387.77</v>
       </c>
       <c r="I98" t="n">
-        <v>124754.2540336132</v>
+        <v>124201.8900122034</v>
       </c>
       <c r="J98" t="n">
-        <v>123458.2654125064</v>
+        <v>122878.9477387197</v>
       </c>
       <c r="K98" t="n">
-        <v>24683.75862110684</v>
+        <v>24710.71227348368</v>
       </c>
     </row>
     <row r="99">
@@ -28302,19 +28302,19 @@
         <v>132.64</v>
       </c>
       <c r="G99" t="n">
-        <v>996.3643019874289</v>
+        <v>1483.952632450411</v>
       </c>
       <c r="H99" t="n">
         <v>23317.85</v>
       </c>
       <c r="I99" t="n">
-        <v>120513.6356980126</v>
+        <v>120026.0473675496</v>
       </c>
       <c r="J99" t="n">
-        <v>119371.4583700546</v>
+        <v>118861.4095516902</v>
       </c>
       <c r="K99" t="n">
-        <v>24460.02732795796</v>
+        <v>24482.48781585934</v>
       </c>
     </row>
     <row r="100">
@@ -28328,19 +28328,19 @@
         <v>132.54</v>
       </c>
       <c r="G100" t="n">
-        <v>918.9035709083983</v>
+        <v>1257.582514594324</v>
       </c>
       <c r="H100" t="n">
         <v>23251.28</v>
       </c>
       <c r="I100" t="n">
-        <v>111087.0964290916</v>
+        <v>110748.4174854057</v>
       </c>
       <c r="J100" t="n">
-        <v>110071.5494876127</v>
+        <v>109713.872168858</v>
       </c>
       <c r="K100" t="n">
-        <v>24266.82694147893</v>
+        <v>24285.82531654771</v>
       </c>
     </row>
     <row r="101">
@@ -28354,19 +28354,19 @@
         <v>132.44</v>
       </c>
       <c r="G101" t="n">
-        <v>-446.5442851903354</v>
+        <v>-292.5782954667666</v>
       </c>
       <c r="H101" t="n">
         <v>23192.71</v>
       </c>
       <c r="I101" t="n">
-        <v>98150.74428519033</v>
+        <v>97996.77829546676</v>
       </c>
       <c r="J101" t="n">
-        <v>97241.01591973761</v>
+        <v>97070.78732660529</v>
       </c>
       <c r="K101" t="n">
-        <v>24102.43836545273</v>
+        <v>24118.70096886146</v>
       </c>
     </row>
     <row r="102">
@@ -28380,19 +28380,19 @@
         <v>132.34</v>
       </c>
       <c r="G102" t="n">
-        <v>-917.997290328567</v>
+        <v>-932.5439748746139</v>
       </c>
       <c r="H102" t="n">
         <v>23144.69</v>
       </c>
       <c r="I102" t="n">
-        <v>83777.09729032857</v>
+        <v>83791.64397487462</v>
       </c>
       <c r="J102" t="n">
-        <v>82956.89003043495</v>
+        <v>82957.37916173936</v>
       </c>
       <c r="K102" t="n">
-        <v>23964.89725989363</v>
+        <v>23978.95481313526</v>
       </c>
     </row>
     <row r="103">
@@ -28406,19 +28406,19 @@
         <v>132.24</v>
       </c>
       <c r="G103" t="n">
-        <v>982.3882959921757</v>
+        <v>851.5115147696924</v>
       </c>
       <c r="H103" t="n">
         <v>23106.65</v>
       </c>
       <c r="I103" t="n">
-        <v>69867.51170400782</v>
+        <v>69998.3884852303</v>
       </c>
       <c r="J103" t="n">
-        <v>69123.82908596065</v>
+        <v>69242.45399410227</v>
       </c>
       <c r="K103" t="n">
-        <v>23850.33261804718</v>
+        <v>23862.58449112804</v>
       </c>
     </row>
     <row r="104">
@@ -28432,19 +28432,19 @@
         <v>132.14</v>
       </c>
       <c r="G104" t="n">
-        <v>1091.85439281899</v>
+        <v>907.8998512304825</v>
       </c>
       <c r="H104" t="n">
         <v>23077.38</v>
       </c>
       <c r="I104" t="n">
-        <v>57755.34560718101</v>
+        <v>57939.30014876951</v>
       </c>
       <c r="J104" t="n">
-        <v>57077.6666168933</v>
+        <v>57250.86732540961</v>
       </c>
       <c r="K104" t="n">
-        <v>23755.05899028771</v>
+        <v>23765.81282335991</v>
       </c>
     </row>
     <row r="105">
@@ -28458,19 +28458,19 @@
         <v>132.04</v>
       </c>
       <c r="G105" t="n">
-        <v>148.4931845070896</v>
+        <v>-35.58232919350849</v>
       </c>
       <c r="H105" t="n">
         <v>23056.15</v>
       </c>
       <c r="I105" t="n">
-        <v>48074.40681549291</v>
+        <v>48258.48232919351</v>
       </c>
       <c r="J105" t="n">
-        <v>47454.10532813717</v>
+        <v>47628.68355898856</v>
       </c>
       <c r="K105" t="n">
-        <v>23676.45148735574</v>
+        <v>23685.94877020495</v>
       </c>
     </row>
     <row r="106">
@@ -28484,19 +28484,19 @@
         <v>131.94</v>
       </c>
       <c r="G106" t="n">
-        <v>354.0943578698716</v>
+        <v>201.9559118290344</v>
       </c>
       <c r="H106" t="n">
         <v>23041.18</v>
       </c>
       <c r="I106" t="n">
-        <v>40858.40564213013</v>
+        <v>41010.54408817097</v>
       </c>
       <c r="J106" t="n">
-        <v>40288.33099746525</v>
+        <v>40432.03617184926</v>
       </c>
       <c r="K106" t="n">
-        <v>23611.25464466488</v>
+        <v>23619.68791632171</v>
       </c>
     </row>
     <row r="107">
@@ -28510,19 +28510,19 @@
         <v>131.84</v>
       </c>
       <c r="G107" t="n">
-        <v>1338.601258373536</v>
+        <v>1229.766766956833</v>
       </c>
       <c r="H107" t="n">
         <v>23030.15</v>
       </c>
       <c r="I107" t="n">
-        <v>35763.79874162647</v>
+        <v>35872.63323304317</v>
       </c>
       <c r="J107" t="n">
-        <v>35237.96595238106</v>
+        <v>35339.27563531283</v>
       </c>
       <c r="K107" t="n">
-        <v>23555.98278924541</v>
+        <v>23563.50759773034</v>
       </c>
     </row>
     <row r="108">
@@ -28536,19 +28536,19 @@
         <v>131.74</v>
       </c>
       <c r="G108" t="n">
-        <v>1494.121696182017</v>
+        <v>1425.758475825816</v>
       </c>
       <c r="H108" t="n">
         <v>23021.71</v>
       </c>
       <c r="I108" t="n">
-        <v>32298.67830381799</v>
+        <v>32367.04152417419</v>
       </c>
       <c r="J108" t="n">
-        <v>31812.03496446081</v>
+        <v>31873.65473676208</v>
       </c>
       <c r="K108" t="n">
-        <v>23508.35333935718</v>
+        <v>23515.09678741211</v>
       </c>
     </row>
     <row r="109">
@@ -28562,19 +28562,19 @@
         <v>131.64</v>
       </c>
       <c r="G109" t="n">
-        <v>708.4086959169836</v>
+        <v>671.1322547328891</v>
       </c>
       <c r="H109" t="n">
         <v>23015.46</v>
       </c>
       <c r="I109" t="n">
-        <v>29984.69130408301</v>
+        <v>30021.96774526711</v>
       </c>
       <c r="J109" t="n">
-        <v>29532.93941224441</v>
+        <v>29564.14886411087</v>
       </c>
       <c r="K109" t="n">
-        <v>23467.21189183861</v>
+        <v>23473.27888115624</v>
       </c>
     </row>
     <row r="110">
@@ -28588,19 +28588,19 @@
         <v>131.54</v>
       </c>
       <c r="G110" t="n">
-        <v>863.3282781193448</v>
+        <v>846.8444032967345</v>
       </c>
       <c r="H110" t="n">
         <v>23010.74</v>
       </c>
       <c r="I110" t="n">
-        <v>28436.17172188066</v>
+        <v>28452.65559670327</v>
       </c>
       <c r="J110" t="n">
-        <v>28015.62958608614</v>
+        <v>28026.63558083956</v>
       </c>
       <c r="K110" t="n">
-        <v>23431.28213579452</v>
+        <v>23436.76001586371</v>
       </c>
     </row>
     <row r="111">
@@ -28614,19 +28614,19 @@
         <v>131.44</v>
       </c>
       <c r="G111" t="n">
-        <v>325.4429672257684</v>
+        <v>321.3915696968652</v>
       </c>
       <c r="H111" t="n">
         <v>23007.04</v>
       </c>
       <c r="I111" t="n">
-        <v>27378.15703277423</v>
+        <v>27382.20843030313</v>
       </c>
       <c r="J111" t="n">
-        <v>26985.65093724597</v>
+        <v>26984.74024957564</v>
       </c>
       <c r="K111" t="n">
-        <v>23399.54609552826</v>
+        <v>23404.50818072749</v>
       </c>
     </row>
     <row r="112">
@@ -28640,19 +28640,19 @@
         <v>131.34</v>
       </c>
       <c r="G112" t="n">
-        <v>-19.87882364663892</v>
+        <v>-17.21591087845809</v>
       </c>
       <c r="H112" t="n">
         <v>23004.24</v>
       </c>
       <c r="I112" t="n">
-        <v>26630.57882364664</v>
+        <v>26627.91591087846</v>
       </c>
       <c r="J112" t="n">
-        <v>26263.35710861612</v>
+        <v>26256.18592786009</v>
       </c>
       <c r="K112" t="n">
-        <v>23371.46171503052</v>
+        <v>23375.96998301837</v>
       </c>
     </row>
     <row r="113">
@@ -28666,19 +28666,19 @@
         <v>131.24</v>
       </c>
       <c r="G113" t="n">
-        <v>-299.7449076725425</v>
+        <v>-293.8346733342587</v>
       </c>
       <c r="H113" t="n">
         <v>23002.1</v>
       </c>
       <c r="I113" t="n">
-        <v>26081.34490767254</v>
+        <v>26075.43467333426</v>
       </c>
       <c r="J113" t="n">
-        <v>25737.00915593097</v>
+        <v>25726.99173381168</v>
       </c>
       <c r="K113" t="n">
-        <v>23346.43575174157</v>
+        <v>23350.54293952258</v>
       </c>
     </row>
     <row r="114">
@@ -28692,19 +28692,19 @@
         <v>131.14</v>
       </c>
       <c r="G114" t="n">
-        <v>-3.413885219048097</v>
+        <v>3.826305564813083</v>
       </c>
       <c r="H114" t="n">
         <v>23000.27</v>
       </c>
       <c r="I114" t="n">
-        <v>25662.31388521905</v>
+        <v>25655.07369443519</v>
       </c>
       <c r="J114" t="n">
-        <v>25338.76331629265</v>
+        <v>25327.77187526366</v>
       </c>
       <c r="K114" t="n">
-        <v>23323.8205689264</v>
+        <v>23327.57181917153</v>
       </c>
     </row>
     <row r="115">
@@ -28718,19 +28718,19 @@
         <v>131.04</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6078190229200118</v>
+        <v>8.193345365089044</v>
       </c>
       <c r="H115" t="n">
         <v>22998.6</v>
       </c>
       <c r="I115" t="n">
-        <v>25332.19218097708</v>
+        <v>25324.60665463491</v>
       </c>
       <c r="J115" t="n">
-        <v>25027.57835094733</v>
+        <v>25016.55865750458</v>
       </c>
       <c r="K115" t="n">
-        <v>23303.21383002975</v>
+        <v>23306.64799713033</v>
       </c>
     </row>
     <row r="116">
@@ -28744,19 +28744,19 @@
         <v>130.94</v>
       </c>
       <c r="G116" t="n">
-        <v>42.35957054391838</v>
+        <v>49.81753819439109</v>
       </c>
       <c r="H116" t="n">
         <v>22997.12</v>
       </c>
       <c r="I116" t="n">
-        <v>25065.44042945608</v>
+        <v>25057.98246180561</v>
       </c>
       <c r="J116" t="n">
-        <v>24778.13004967465</v>
+        <v>24767.5213864003</v>
       </c>
       <c r="K116" t="n">
-        <v>23284.43037978143</v>
+        <v>23287.58107540531</v>
       </c>
     </row>
     <row r="117">
@@ -28770,19 +28770,19 @@
         <v>130.84</v>
       </c>
       <c r="G117" t="n">
-        <v>293.3763609144808</v>
+        <v>300.4972442259677</v>
       </c>
       <c r="H117" t="n">
         <v>22995.7</v>
       </c>
       <c r="I117" t="n">
-        <v>24845.42363908552</v>
+        <v>24838.30275577403</v>
       </c>
       <c r="J117" t="n">
-        <v>24573.96784756466</v>
+        <v>24563.95052717894</v>
       </c>
       <c r="K117" t="n">
-        <v>23267.15579152086</v>
+        <v>23270.05222859509</v>
       </c>
     </row>
     <row r="118">
@@ -28796,19 +28796,19 @@
         <v>130.74</v>
       </c>
       <c r="G118" t="n">
-        <v>-416.4437110543113</v>
+        <v>-409.7394686107946</v>
       </c>
       <c r="H118" t="n">
         <v>22994.56</v>
       </c>
       <c r="I118" t="n">
-        <v>24661.24371105431</v>
+        <v>24654.53946861079</v>
       </c>
       <c r="J118" t="n">
-        <v>24404.35251397893</v>
+        <v>24394.98059234702</v>
       </c>
       <c r="K118" t="n">
-        <v>23251.45119707538</v>
+        <v>23254.11887626378</v>
       </c>
     </row>
     <row r="119">
@@ -28822,19 +28822,19 @@
         <v>130.64</v>
       </c>
       <c r="G119" t="n">
-        <v>-481.4957000921822</v>
+        <v>-475.2253113631632</v>
       </c>
       <c r="H119" t="n">
         <v>22993.79</v>
       </c>
       <c r="I119" t="n">
-        <v>24505.19570009218</v>
+        <v>24498.92531136316</v>
       </c>
       <c r="J119" t="n">
-        <v>24261.71658697056</v>
+        <v>24252.98492623578</v>
       </c>
       <c r="K119" t="n">
-        <v>23237.26911312162</v>
+        <v>23239.73038512739</v>
       </c>
     </row>
     <row r="120">
@@ -28848,19 +28848,19 @@
         <v>130.54</v>
       </c>
       <c r="G120" t="n">
-        <v>-173.0859038588678</v>
+        <v>-167.2375346347326</v>
       </c>
       <c r="H120" t="n">
         <v>22993.05</v>
       </c>
       <c r="I120" t="n">
-        <v>24371.28590385887</v>
+        <v>24365.43753463473</v>
       </c>
       <c r="J120" t="n">
-        <v>24140.18585539834</v>
+        <v>24132.06295701196</v>
       </c>
       <c r="K120" t="n">
-        <v>23224.15004846052</v>
+        <v>23226.42457762277</v>
       </c>
     </row>
     <row r="121">
@@ -28874,19 +28874,19 @@
         <v>130.44</v>
       </c>
       <c r="G121" t="n">
-        <v>-641.9989472179514</v>
+        <v>-636.5479899689053</v>
       </c>
       <c r="H121" t="n">
         <v>22992.44</v>
       </c>
       <c r="I121" t="n">
-        <v>24255.39894721795</v>
+        <v>24249.94798996891</v>
       </c>
       <c r="J121" t="n">
-        <v>24035.74921904541</v>
+        <v>24028.19311296597</v>
       </c>
       <c r="K121" t="n">
-        <v>23212.08972817254</v>
+        <v>23214.19487700293</v>
       </c>
     </row>
     <row r="122">
@@ -28900,19 +28900,19 @@
         <v>130.34</v>
       </c>
       <c r="G122" t="n">
-        <v>-449.8508107799171</v>
+        <v>-444.7678738064133</v>
       </c>
       <c r="H122" t="n">
         <v>22991.99</v>
       </c>
       <c r="I122" t="n">
-        <v>24154.35081077992</v>
+        <v>24149.26787380641</v>
       </c>
       <c r="J122" t="n">
-        <v>23945.31400207506</v>
+        <v>23938.27991515477</v>
       </c>
       <c r="K122" t="n">
-        <v>23201.02680870486</v>
+        <v>23202.97795865165</v>
       </c>
     </row>
     <row r="123">
@@ -28926,19 +28926,19 @@
         <v>130.24</v>
       </c>
       <c r="G123" t="n">
-        <v>-381.0654064673145</v>
+        <v>-376.320247059979</v>
       </c>
       <c r="H123" t="n">
         <v>22991.52</v>
       </c>
       <c r="I123" t="n">
-        <v>24065.46540646732</v>
+        <v>24060.72024705998</v>
       </c>
       <c r="J123" t="n">
-        <v>23866.28442009511</v>
+        <v>23859.72844025632</v>
       </c>
       <c r="K123" t="n">
-        <v>23190.70098637221</v>
+        <v>23192.51180680366</v>
       </c>
     </row>
     <row r="124">
@@ -28952,19 +28952,19 @@
         <v>130.14</v>
       </c>
       <c r="G124" t="n">
-        <v>-285.49388666905</v>
+        <v>-281.057317646726</v>
       </c>
       <c r="H124" t="n">
         <v>22991.05</v>
       </c>
       <c r="I124" t="n">
-        <v>23986.79388666905</v>
+        <v>23982.35731764673</v>
       </c>
       <c r="J124" t="n">
-        <v>23796.78246349526</v>
+        <v>23790.66321958779</v>
       </c>
       <c r="K124" t="n">
-        <v>23181.06142317379</v>
+        <v>23182.74409805893</v>
       </c>
     </row>
     <row r="125">
@@ -28978,19 +28978,19 @@
         <v>130.04</v>
       </c>
       <c r="G125" t="n">
-        <v>-249.3750255586929</v>
+        <v>-245.2197719792603</v>
       </c>
       <c r="H125" t="n">
         <v>22990.59</v>
       </c>
       <c r="I125" t="n">
-        <v>23916.77502555869</v>
+        <v>23912.61977197926</v>
       </c>
       <c r="J125" t="n">
-        <v>23735.30959544911</v>
+        <v>23729.58892203936</v>
       </c>
       <c r="K125" t="n">
-        <v>23172.05543010958</v>
+        <v>23173.6208499399</v>
       </c>
     </row>
     <row r="126">
@@ -29004,19 +29004,19 @@
         <v>129.94</v>
       </c>
       <c r="G126" t="n">
-        <v>-703.7070462156153</v>
+        <v>-699.8080822426964</v>
       </c>
       <c r="H126" t="n">
         <v>22990.31</v>
       </c>
       <c r="I126" t="n">
-        <v>23854.30704621561</v>
+        <v>23850.40808224269</v>
       </c>
       <c r="J126" t="n">
-        <v>23680.81968556122</v>
+        <v>23675.46279659266</v>
       </c>
       <c r="K126" t="n">
-        <v>23163.79736065439</v>
+        <v>23165.25528565004</v>
       </c>
     </row>
     <row r="127">
@@ -29030,19 +29030,19 @@
         <v>129.84</v>
       </c>
       <c r="G127" t="n">
-        <v>-78.44423578176793</v>
+        <v>-74.77887397660015</v>
       </c>
       <c r="H127" t="n">
         <v>22990.01</v>
       </c>
       <c r="I127" t="n">
-        <v>23798.14423578177</v>
+        <v>23794.4788739766</v>
       </c>
       <c r="J127" t="n">
-        <v>23632.11655910227</v>
+        <v>23627.09199782472</v>
       </c>
       <c r="K127" t="n">
-        <v>23156.0376766795</v>
+        <v>23157.39687615188</v>
       </c>
     </row>
     <row r="128">
@@ -29056,19 +29056,19 @@
         <v>129.74</v>
       </c>
       <c r="G128" t="n">
-        <v>-48.26913610279371</v>
+        <v>-44.81690801983495</v>
       </c>
       <c r="H128" t="n">
         <v>22989.53</v>
       </c>
       <c r="I128" t="n">
-        <v>23747.26913610279</v>
+        <v>23743.81690801983</v>
       </c>
       <c r="J128" t="n">
-        <v>23588.22697950155</v>
+        <v>23583.50637959792</v>
       </c>
       <c r="K128" t="n">
-        <v>23148.57215660124</v>
+        <v>23149.84052842191</v>
       </c>
     </row>
     <row r="129">
@@ -29082,19 +29082,19 @@
         <v>129.64</v>
       </c>
       <c r="G129" t="n">
-        <v>-128.4987266504322</v>
+        <v>-125.2412294255191</v>
       </c>
       <c r="H129" t="n">
         <v>22989.1</v>
       </c>
       <c r="I129" t="n">
-        <v>23701.19872665043</v>
+        <v>23697.94122942552</v>
       </c>
       <c r="J129" t="n">
-        <v>23548.70732004178</v>
+        <v>23544.26514642833</v>
       </c>
       <c r="K129" t="n">
-        <v>23141.59140660865</v>
+        <v>23142.77608299718</v>
       </c>
     </row>
     <row r="130">
@@ -29108,19 +29108,19 @@
         <v>129.54</v>
       </c>
       <c r="G130" t="n">
-        <v>-589.195309573639</v>
+        <v>-586.1160212202012</v>
       </c>
       <c r="H130" t="n">
         <v>22988.88</v>
       </c>
       <c r="I130" t="n">
-        <v>23659.49530957364</v>
+        <v>23656.4160212202</v>
       </c>
       <c r="J130" t="n">
-        <v>23513.15535420827</v>
+        <v>23508.96863204107</v>
       </c>
       <c r="K130" t="n">
-        <v>23135.21995536537</v>
+        <v>23136.32738917913</v>
       </c>
     </row>
     <row r="131">
@@ -29134,19 +29134,19 @@
         <v>129.44</v>
       </c>
       <c r="G131" t="n">
-        <v>-359.7441428079183</v>
+        <v>-356.8282308573143</v>
       </c>
       <c r="H131" t="n">
         <v>22988.76</v>
       </c>
       <c r="I131" t="n">
-        <v>23621.54414280792</v>
+        <v>23618.62823085731</v>
       </c>
       <c r="J131" t="n">
-        <v>23480.98857058798</v>
+        <v>23477.03662224834</v>
       </c>
       <c r="K131" t="n">
-        <v>23129.31557221993</v>
+        <v>23130.35160860897</v>
       </c>
     </row>
     <row r="132">
@@ -29160,19 +29160,19 @@
         <v>129.34</v>
       </c>
       <c r="G132" t="n">
-        <v>93.28320507194076</v>
+        <v>96.04905721805699</v>
       </c>
       <c r="H132" t="n">
         <v>22988.44</v>
       </c>
       <c r="I132" t="n">
-        <v>23586.61679492806</v>
+        <v>23583.85094278194</v>
       </c>
       <c r="J132" t="n">
-        <v>23451.5073197057</v>
+        <v>23447.77151939903</v>
       </c>
       <c r="K132" t="n">
-        <v>23123.54947522236</v>
+        <v>23124.51942338291</v>
       </c>
     </row>
     <row r="133">
@@ -29186,19 +29186,19 @@
         <v>129.24</v>
       </c>
       <c r="G133" t="n">
-        <v>183.2127526567892</v>
+        <v>185.8405112731125</v>
       </c>
       <c r="H133" t="n">
         <v>22987.96</v>
       </c>
       <c r="I133" t="n">
-        <v>23554.38724734321</v>
+        <v>23551.75948872689</v>
       </c>
       <c r="J133" t="n">
-        <v>23424.41158516595</v>
+        <v>23420.87513514446</v>
       </c>
       <c r="K133" t="n">
-        <v>23117.93566217726</v>
+        <v>23118.84435358243</v>
       </c>
     </row>
     <row r="134">
@@ -29212,19 +29212,19 @@
         <v>129.14</v>
       </c>
       <c r="G134" t="n">
-        <v>-603.6510980005914</v>
+        <v>-601.1506666500973</v>
       </c>
       <c r="H134" t="n">
         <v>22987.73</v>
       </c>
       <c r="I134" t="n">
-        <v>23524.95109800059</v>
+        <v>23522.4506666501</v>
       </c>
       <c r="J134" t="n">
-        <v>23399.82050481339</v>
+        <v>23396.46823415092</v>
       </c>
       <c r="K134" t="n">
-        <v>23112.8605931872</v>
+        <v>23113.71243249917</v>
       </c>
     </row>
     <row r="135">
@@ -29238,19 +29238,19 @@
         <v>129.04</v>
       </c>
       <c r="G135" t="n">
-        <v>-281.6569154459612</v>
+        <v>-279.2741103660228</v>
       </c>
       <c r="H135" t="n">
         <v>22987.67</v>
       </c>
       <c r="I135" t="n">
-        <v>23497.95691544596</v>
+        <v>23495.57411036602</v>
       </c>
       <c r="J135" t="n">
-        <v>23377.40400056704</v>
+        <v>23374.22218578044</v>
       </c>
       <c r="K135" t="n">
-        <v>23108.22291487892</v>
+        <v>23109.02192458558</v>
       </c>
     </row>
     <row r="136">
@@ -29264,19 +29264,19 @@
         <v>128.94</v>
       </c>
       <c r="G136" t="n">
-        <v>-366.5492609512694</v>
+        <v>-364.2753266067375</v>
       </c>
       <c r="H136" t="n">
         <v>22987.56</v>
       </c>
       <c r="I136" t="n">
-        <v>23472.94926095127</v>
+        <v>23470.67532660674</v>
       </c>
       <c r="J136" t="n">
-        <v>23356.7260408039</v>
+        <v>23353.70224680616</v>
       </c>
       <c r="K136" t="n">
-        <v>23103.78322014738</v>
+        <v>23104.53307980058</v>
       </c>
     </row>
     <row r="137">
@@ -29290,19 +29290,19 @@
         <v>128.84</v>
       </c>
       <c r="G137" t="n">
-        <v>-229.563016202912</v>
+        <v>-227.3900365294758</v>
       </c>
       <c r="H137" t="n">
         <v>22987.44</v>
       </c>
       <c r="I137" t="n">
-        <v>23449.76301620291</v>
+        <v>23447.59003652948</v>
       </c>
       <c r="J137" t="n">
-        <v>23337.63917793881</v>
+        <v>23334.76211746976</v>
       </c>
       <c r="K137" t="n">
-        <v>23099.5638382641</v>
+        <v>23100.26791905971</v>
       </c>
     </row>
     <row r="138">
@@ -29316,19 +29316,19 @@
         <v>128.74</v>
       </c>
       <c r="G138" t="n">
-        <v>665.6912586924664</v>
+        <v>667.7704537643549</v>
       </c>
       <c r="H138" t="n">
         <v>22987</v>
       </c>
       <c r="I138" t="n">
-        <v>23427.90874130753</v>
+        <v>23425.82954623564</v>
       </c>
       <c r="J138" t="n">
-        <v>23319.67009028258</v>
+        <v>23316.92949988413</v>
       </c>
       <c r="K138" t="n">
-        <v>23095.23865102496</v>
+        <v>23095.90004635152</v>
       </c>
     </row>
     <row r="139">
@@ -29342,19 +29342,19 @@
         <v>128.64</v>
       </c>
       <c r="G139" t="n">
-        <v>-1028.218852166268</v>
+        <v>-1026.226935319213</v>
       </c>
       <c r="H139" t="n">
         <v>22986.83</v>
       </c>
       <c r="I139" t="n">
-        <v>23407.81885216627</v>
+        <v>23405.82693531921</v>
       </c>
       <c r="J139" t="n">
-        <v>23303.26592087301</v>
+        <v>23300.65245153834</v>
       </c>
       <c r="K139" t="n">
-        <v>23091.38293129325</v>
+        <v>23092.00448378087</v>
       </c>
     </row>
     <row r="140">
@@ -29368,19 +29368,19 @@
         <v>128.54</v>
       </c>
       <c r="G140" t="n">
-        <v>283.4755458749423</v>
+        <v>285.3860995988725</v>
       </c>
       <c r="H140" t="n">
         <v>22986.8</v>
       </c>
       <c r="I140" t="n">
-        <v>23389.22445412506</v>
+        <v>23387.31390040113</v>
       </c>
       <c r="J140" t="n">
-        <v>23288.17125327876</v>
+        <v>23285.67637403752</v>
       </c>
       <c r="K140" t="n">
-        <v>23087.85320084629</v>
+        <v>23088.43752636361</v>
       </c>
     </row>
     <row r="141">
@@ -29394,19 +29394,19 @@
         <v>128.44</v>
       </c>
       <c r="G141" t="n">
-        <v>-693.4727047300548</v>
+        <v>-691.6381265538548</v>
       </c>
       <c r="H141" t="n">
         <v>22986.68</v>
       </c>
       <c r="I141" t="n">
-        <v>23371.77270473005</v>
+        <v>23369.93812655385</v>
       </c>
       <c r="J141" t="n">
-        <v>23274.0455998925</v>
+        <v>23271.66151275637</v>
       </c>
       <c r="K141" t="n">
-        <v>23084.40710483756</v>
+        <v>23084.95661379748</v>
       </c>
     </row>
     <row r="142">
@@ -29420,19 +29420,19 @@
         <v>128.34</v>
       </c>
       <c r="G142" t="n">
-        <v>-429.9846054284499</v>
+        <v>-428.2210864861736</v>
       </c>
       <c r="H142" t="n">
         <v>22986.8</v>
       </c>
       <c r="I142" t="n">
-        <v>23355.68460542845</v>
+        <v>23353.92108648617</v>
       </c>
       <c r="J142" t="n">
-        <v>23261.12130513534</v>
+        <v>23258.84086999814</v>
       </c>
       <c r="K142" t="n">
-        <v>23081.36330029311</v>
+        <v>23081.88021648803</v>
       </c>
     </row>
     <row r="143">
@@ -29446,19 +29446,19 @@
         <v>128.24</v>
       </c>
       <c r="G143" t="n">
-        <v>-105.9431417994456</v>
+        <v>-104.2461868975806</v>
       </c>
       <c r="H143" t="n">
         <v>22986.74</v>
       </c>
       <c r="I143" t="n">
-        <v>23340.44314179945</v>
+        <v>23338.74618689758</v>
       </c>
       <c r="J143" t="n">
-        <v>23248.89178654662</v>
+        <v>23246.70845479656</v>
       </c>
       <c r="K143" t="n">
-        <v>23078.29135525283</v>
+        <v>23078.77773210102</v>
       </c>
     </row>
     <row r="144">
@@ -29472,19 +29472,19 @@
         <v>128.14</v>
       </c>
       <c r="G144" t="n">
-        <v>-116.1417039455846</v>
+        <v>-114.5071928483922</v>
       </c>
       <c r="H144" t="n">
         <v>22986.58</v>
       </c>
       <c r="I144" t="n">
-        <v>23326.04170394559</v>
+        <v>23324.40719284839</v>
       </c>
       <c r="J144" t="n">
-        <v>23237.36005255457</v>
+        <v>23235.26780830902</v>
       </c>
       <c r="K144" t="n">
-        <v>23075.26165139101</v>
+        <v>23075.71938453937</v>
       </c>
     </row>
     <row r="145">
@@ -29498,19 +29498,19 @@
         <v>128.04</v>
       </c>
       <c r="G145" t="n">
-        <v>-353.4927182983593</v>
+        <v>-351.9168591079797</v>
       </c>
       <c r="H145" t="n">
         <v>22986.51</v>
       </c>
       <c r="I145" t="n">
-        <v>23312.59271829836</v>
+        <v>23311.01685910798</v>
       </c>
       <c r="J145" t="n">
-        <v>23226.64744799358</v>
+        <v>23224.64075600392</v>
       </c>
       <c r="K145" t="n">
-        <v>23072.45527030478</v>
+        <v>23072.88610310406</v>
       </c>
     </row>
     <row r="146">
@@ -29524,19 +29524,19 @@
         <v>127.94</v>
       </c>
       <c r="G146" t="n">
-        <v>-95.04639573340683</v>
+        <v>-93.52566800864952</v>
       </c>
       <c r="H146" t="n">
         <v>22986.45</v>
       </c>
       <c r="I146" t="n">
-        <v>23299.94639573341</v>
+        <v>23298.42566800865</v>
       </c>
       <c r="J146" t="n">
-        <v>23216.61258801366</v>
+        <v>23214.68634741063</v>
       </c>
       <c r="K146" t="n">
-        <v>23069.78380771975</v>
+        <v>23070.18932059802</v>
       </c>
     </row>
     <row r="147">
@@ -29550,19 +29550,19 @@
         <v>127.84</v>
       </c>
       <c r="G147" t="n">
-        <v>-529.0894203028147</v>
+        <v>-527.6204879848301</v>
       </c>
       <c r="H147" t="n">
         <v>22986.45</v>
       </c>
       <c r="I147" t="n">
-        <v>23288.08942030281</v>
+        <v>23286.62048798483</v>
       </c>
       <c r="J147" t="n">
-        <v>23207.25044855774</v>
+        <v>23205.39995171546</v>
       </c>
       <c r="K147" t="n">
-        <v>23067.28897174507</v>
+        <v>23067.67053626937</v>
       </c>
     </row>
     <row r="148">
@@ -29576,19 +29576,19 @@
         <v>127.74</v>
       </c>
       <c r="G148" t="n">
-        <v>-58.20322546597527</v>
+        <v>-56.78278556512669</v>
       </c>
       <c r="H148" t="n">
         <v>22986.45</v>
       </c>
       <c r="I148" t="n">
-        <v>23276.90322546598</v>
+        <v>23275.48278556513</v>
       </c>
       <c r="J148" t="n">
-        <v>23198.45158753587</v>
+        <v>23196.67248342709</v>
       </c>
       <c r="K148" t="n">
-        <v>23064.9016379301</v>
+        <v>23065.26030213803</v>
       </c>
     </row>
     <row r="149">
@@ -29602,19 +29602,19 @@
         <v>127.64</v>
       </c>
       <c r="G149" t="n">
-        <v>120.3788005073147</v>
+        <v>121.7542768264793</v>
       </c>
       <c r="H149" t="n">
         <v>22986.24</v>
       </c>
       <c r="I149" t="n">
-        <v>23266.12119949269</v>
+        <v>23264.74572317352</v>
       </c>
       <c r="J149" t="n">
-        <v>23189.96147556073</v>
+        <v>23188.24973705802</v>
       </c>
       <c r="K149" t="n">
-        <v>23062.39972393196</v>
+        <v>23062.73598611551</v>
       </c>
     </row>
     <row r="150">
@@ -29628,19 +29628,19 @@
         <v>127.54</v>
       </c>
       <c r="G150" t="n">
-        <v>-71.20378832824645</v>
+        <v>-69.86912938257228</v>
       </c>
       <c r="H150" t="n">
         <v>22986.04</v>
       </c>
       <c r="I150" t="n">
-        <v>23255.90378832825</v>
+        <v>23254.56912938257</v>
       </c>
       <c r="J150" t="n">
-        <v>23181.95991889593</v>
+        <v>23180.31181354455</v>
       </c>
       <c r="K150" t="n">
-        <v>23059.98386943232</v>
+        <v>23060.29731583803</v>
       </c>
     </row>
     <row r="151">
@@ -29654,19 +29654,19 @@
         <v>127.44</v>
       </c>
       <c r="G151" t="n">
-        <v>-260.3303051530347</v>
+        <v>-259.0312307123058</v>
       </c>
       <c r="H151" t="n">
         <v>22687</v>
       </c>
       <c r="I151" t="n">
-        <v>22947.33030515303</v>
+        <v>22946.03123071231</v>
       </c>
       <c r="J151" t="n">
-        <v>22875.56056031285</v>
+        <v>22873.9726241627</v>
       </c>
       <c r="K151" t="n">
-        <v>22758.76974484019</v>
+        <v>22759.05860654961</v>
       </c>
     </row>
     <row r="152">
@@ -29680,19 +29680,19 @@
         <v>127.34</v>
       </c>
       <c r="G152" t="n">
-        <v>-251.1869073770322</v>
+        <v>-249.9167647831891</v>
       </c>
       <c r="H152" t="n">
         <v>22924.4</v>
       </c>
       <c r="I152" t="n">
-        <v>23175.58690737703</v>
+        <v>23174.31676478319</v>
       </c>
       <c r="J152" t="n">
-        <v>23106.01044601092</v>
+        <v>23104.47946014835</v>
       </c>
       <c r="K152" t="n">
-        <v>22993.97646136611</v>
+        <v>22994.23730463484</v>
       </c>
     </row>
     <row r="153">
@@ -29706,19 +29706,19 @@
         <v>127.24</v>
       </c>
       <c r="G153" t="n">
-        <v>-242.3023919428779</v>
+        <v>-241.0533125144248</v>
       </c>
       <c r="H153" t="n">
         <v>22643.1</v>
       </c>
       <c r="I153" t="n">
-        <v>22885.40239194288</v>
+        <v>22884.15331251442</v>
       </c>
       <c r="J153" t="n">
-        <v>22818.13964875335</v>
+        <v>22816.66261821941</v>
       </c>
       <c r="K153" t="n">
-        <v>22710.36274318953</v>
+        <v>22710.59069429501</v>
       </c>
     </row>
     <row r="154">
@@ -29732,19 +29732,19 @@
         <v>127.14</v>
       </c>
       <c r="G154" t="n">
-        <v>-233.4973612586837</v>
+        <v>-232.2614557650086</v>
       </c>
       <c r="H154" t="n">
         <v>22647.9</v>
       </c>
       <c r="I154" t="n">
-        <v>22881.39736125869</v>
+        <v>22880.16145576501</v>
       </c>
       <c r="J154" t="n">
-        <v>22816.72093899763</v>
+        <v>22815.29507381935</v>
       </c>
       <c r="K154" t="n">
-        <v>22712.57642226106</v>
+        <v>22712.76638194566</v>
       </c>
     </row>
     <row r="155">
@@ -29758,19 +29758,19 @@
         <v>127.04</v>
       </c>
       <c r="G155" t="n">
-        <v>-224.5465114769722</v>
+        <v>-223.3182177874187</v>
       </c>
       <c r="H155" t="n">
         <v>23050.9</v>
       </c>
       <c r="I155" t="n">
-        <v>23275.44651147697</v>
+        <v>23274.21821778742</v>
       </c>
       <c r="J155" t="n">
-        <v>23213.82949713346</v>
+        <v>23212.45219522879</v>
       </c>
       <c r="K155" t="n">
-        <v>23112.51701434351</v>
+        <v>23112.66602255863</v>
       </c>
     </row>
     <row r="156">
@@ -29784,19 +29784,19 @@
         <v>126.94</v>
       </c>
       <c r="G156" t="n">
-        <v>-215.2048468971334</v>
+        <v>-213.9838722157838</v>
       </c>
       <c r="H156" t="n">
         <v>22933.5</v>
       </c>
       <c r="I156" t="n">
-        <v>23148.70484689713</v>
+        <v>23147.48387221578</v>
       </c>
       <c r="J156" t="n">
-        <v>23090.84266103509</v>
+        <v>23089.51149278137</v>
       </c>
       <c r="K156" t="n">
-        <v>22991.36218586204</v>
+        <v>22991.47237943441</v>
       </c>
     </row>
     <row r="157">
@@ -29810,19 +29810,19 @@
         <v>126.84</v>
       </c>
       <c r="G157" t="n">
-        <v>-205.2625245969066</v>
+        <v>-204.0559797875139</v>
       </c>
       <c r="H157" t="n">
         <v>23251.9</v>
       </c>
       <c r="I157" t="n">
-        <v>23457.16252459691</v>
+        <v>23455.95597978752</v>
       </c>
       <c r="J157" t="n">
-        <v>23403.93970403015</v>
+        <v>23402.65239830776</v>
       </c>
       <c r="K157" t="n">
-        <v>23305.12282056676</v>
+        <v>23305.20358147976</v>
       </c>
     </row>
     <row r="158">
@@ -29836,19 +29836,19 @@
         <v>126.74</v>
       </c>
       <c r="G158" t="n">
-        <v>-194.6188575488595</v>
+        <v>-193.4408743680942</v>
       </c>
       <c r="H158" t="n">
         <v>22359.8</v>
       </c>
       <c r="I158" t="n">
-        <v>22554.41885754886</v>
+        <v>22553.24087436809</v>
       </c>
       <c r="J158" t="n">
-        <v>22506.801639086</v>
+        <v>22505.55607061418</v>
       </c>
       <c r="K158" t="n">
-        <v>22407.41721846286</v>
+        <v>22407.48480375391</v>
       </c>
     </row>
     <row r="159">
@@ -29862,19 +29862,19 @@
         <v>126.64</v>
       </c>
       <c r="G159" t="n">
-        <v>-183.3493465563515</v>
+        <v>-182.2172953856134</v>
       </c>
       <c r="H159" t="n">
         <v>23047.9</v>
       </c>
       <c r="I159" t="n">
-        <v>23231.24934655635</v>
+        <v>23230.11729538561</v>
       </c>
       <c r="J159" t="n">
-        <v>23190.11104540298</v>
+        <v>23188.90522313495</v>
       </c>
       <c r="K159" t="n">
-        <v>23089.03830115337</v>
+        <v>23089.11207225067</v>
       </c>
     </row>
     <row r="160">
@@ -29888,19 +29888,19 @@
         <v>126.54</v>
       </c>
       <c r="G160" t="n">
-        <v>-171.7316649862914</v>
+        <v>-170.6599249189348</v>
       </c>
       <c r="H160" t="n">
         <v>22819.4</v>
       </c>
       <c r="I160" t="n">
-        <v>22991.13166498629</v>
+        <v>22990.05992491894</v>
       </c>
       <c r="J160" t="n">
-        <v>22957.05191314525</v>
+        <v>22955.88396925636</v>
       </c>
       <c r="K160" t="n">
-        <v>22853.47975184105</v>
+        <v>22853.57595566257</v>
       </c>
     </row>
     <row r="161">
@@ -29914,19 +29914,19 @@
         <v>126.44</v>
       </c>
       <c r="G161" t="n">
-        <v>-163.0601213604386</v>
+        <v>-162.0421531267566</v>
       </c>
       <c r="H161" t="n">
         <v>22415.3</v>
       </c>
       <c r="I161" t="n">
-        <v>22578.36012136044</v>
+        <v>22577.34215312676</v>
       </c>
       <c r="J161" t="n">
-        <v>22548.60949882276</v>
+        <v>22547.47767704415</v>
       </c>
       <c r="K161" t="n">
-        <v>22445.05062253768</v>
+        <v>22445.16447608261</v>
       </c>
     </row>
     <row r="162">
@@ -29940,19 +29940,19 @@
         <v>126.34</v>
       </c>
       <c r="G162" t="n">
-        <v>-158.9207945682174</v>
+        <v>-157.9372879602197</v>
       </c>
       <c r="H162" t="n">
         <v>23032.4</v>
       </c>
       <c r="I162" t="n">
-        <v>23191.32079456822</v>
+        <v>23190.33728796022</v>
       </c>
       <c r="J162" t="n">
-        <v>23161.57017203054</v>
+        <v>23160.47281187761</v>
       </c>
       <c r="K162" t="n">
-        <v>23062.15062253768</v>
+        <v>23062.26447608261</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/UKSAF/STO.xlsx
+++ b/DATA/UKSAF/STO.xlsx
@@ -17,10 +17,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ti2p2" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ti2p3" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ti2p4" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ti2p5" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C1s2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sr3d2" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C1s2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sr3d2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results Table" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -706,39 +705,6 @@
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5619750" cy="4076700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -946,7 +912,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5819775" cy="4067175"/>
+    <ext cx="5600700" cy="4076700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -979,7 +945,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5600700" cy="4076700"/>
+    <ext cx="5619750" cy="4076700"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -11820,7 +11786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP231"/>
+  <dimension ref="A1:AP192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11998,4602 +11964,3822 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>474.08</v>
+        <v>299.08</v>
       </c>
       <c r="B2" t="n">
-        <v>-4440.857142858771</v>
+        <v>34936300</v>
       </c>
       <c r="C2" t="n">
-        <v>-4440.857142858771</v>
+        <v>34936300</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>474.08</v>
+        <v>299.08</v>
       </c>
       <c r="H2" t="n">
-        <v>-4440.857142858771</v>
+        <v>34936300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>473.98</v>
+        <v>298.98</v>
       </c>
       <c r="B3" t="n">
-        <v>-5417.571428571492</v>
+        <v>35009400</v>
       </c>
       <c r="C3" t="n">
-        <v>-5417.571428571492</v>
+        <v>35009400</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>473.98</v>
+        <v>298.98</v>
       </c>
       <c r="H3" t="n">
-        <v>-5417.571428571492</v>
+        <v>35009400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>473.88</v>
+        <v>298.88</v>
       </c>
       <c r="B4" t="n">
-        <v>-2970.642857142118</v>
+        <v>35221700</v>
       </c>
       <c r="C4" t="n">
-        <v>-2970.642857142118</v>
+        <v>35221700</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>473.88</v>
+        <v>298.88</v>
       </c>
       <c r="H4" t="n">
-        <v>-2970.642857142118</v>
+        <v>35221700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>473.78</v>
+        <v>298.78</v>
       </c>
       <c r="B5" t="n">
-        <v>-1623.428571426905</v>
+        <v>34137800</v>
       </c>
       <c r="C5" t="n">
-        <v>-1623.428571426905</v>
+        <v>34137800</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>473.78</v>
+        <v>298.78</v>
       </c>
       <c r="H5" t="n">
-        <v>-1623.428571426905</v>
+        <v>34137800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>473.68</v>
+        <v>298.68</v>
       </c>
       <c r="B6" t="n">
-        <v>-2451.499999997634</v>
+        <v>34264100</v>
       </c>
       <c r="C6" t="n">
-        <v>-2451.499999997634</v>
+        <v>34264100</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>473.68</v>
+        <v>298.68</v>
       </c>
       <c r="H6" t="n">
-        <v>-2451.499999997634</v>
+        <v>34264100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>473.58</v>
+        <v>298.58</v>
       </c>
       <c r="B7" t="n">
-        <v>-2050.357142855662</v>
+        <v>34241400</v>
       </c>
       <c r="C7" t="n">
-        <v>-2050.357142855662</v>
+        <v>34241400</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>473.58</v>
+        <v>298.58</v>
       </c>
       <c r="H7" t="n">
-        <v>-2050.357142855662</v>
+        <v>34241400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>473.48</v>
+        <v>298.48</v>
       </c>
       <c r="B8" t="n">
-        <v>-1110.471428571505</v>
+        <v>34404400</v>
       </c>
       <c r="C8" t="n">
-        <v>-1110.471428571505</v>
+        <v>34404400</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>473.48</v>
+        <v>298.48</v>
       </c>
       <c r="H8" t="n">
-        <v>-1110.471428571505</v>
+        <v>34404400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>473.38</v>
+        <v>298.38</v>
       </c>
       <c r="B9" t="n">
-        <v>123.1142857152115</v>
+        <v>34008500</v>
       </c>
       <c r="C9" t="n">
-        <v>123.1142857152115</v>
+        <v>34008500</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>473.38</v>
+        <v>298.38</v>
       </c>
       <c r="H9" t="n">
-        <v>123.1142857152115</v>
+        <v>34008500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>473.28</v>
+        <v>298.28</v>
       </c>
       <c r="B10" t="n">
-        <v>273.7285714322744</v>
+        <v>34192600</v>
       </c>
       <c r="C10" t="n">
-        <v>273.7285714322744</v>
+        <v>34192600</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>473.28</v>
+        <v>298.28</v>
       </c>
       <c r="H10" t="n">
-        <v>273.7285714322744</v>
+        <v>34192600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>473.18</v>
+        <v>298.18</v>
       </c>
       <c r="B11" t="n">
-        <v>-725.9142857099063</v>
+        <v>34251500</v>
       </c>
       <c r="C11" t="n">
-        <v>-725.9142857099063</v>
+        <v>34251500</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>473.18</v>
+        <v>298.18</v>
       </c>
       <c r="H11" t="n">
-        <v>-725.9142857099063</v>
+        <v>34251500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>473.08</v>
+        <v>298.08</v>
       </c>
       <c r="B12" t="n">
-        <v>-286.7571428558988</v>
+        <v>34282700</v>
       </c>
       <c r="C12" t="n">
-        <v>-286.7571428558988</v>
+        <v>34282700</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>473.08</v>
+        <v>298.08</v>
       </c>
       <c r="H12" t="n">
-        <v>-286.7571428558988</v>
+        <v>34282700</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>472.98</v>
+        <v>297.98</v>
       </c>
       <c r="B13" t="n">
-        <v>-123.7000000010269</v>
+        <v>34288100</v>
       </c>
       <c r="C13" t="n">
-        <v>-123.7000000010269</v>
+        <v>34288100</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>472.98</v>
+        <v>297.98</v>
       </c>
       <c r="H13" t="n">
-        <v>-123.7000000010269</v>
+        <v>34288100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>472.88</v>
+        <v>297.88</v>
       </c>
       <c r="B14" t="n">
-        <v>-1215.928571427531</v>
+        <v>34550800</v>
       </c>
       <c r="C14" t="n">
-        <v>-1215.928571427531</v>
+        <v>34550800</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>472.88</v>
+        <v>297.88</v>
       </c>
       <c r="H14" t="n">
-        <v>-1215.928571427531</v>
+        <v>34550800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>472.78</v>
+        <v>297.78</v>
       </c>
       <c r="B15" t="n">
-        <v>-603.5999999973253</v>
+        <v>33869200</v>
       </c>
       <c r="C15" t="n">
-        <v>-603.5999999973253</v>
+        <v>33869200</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>472.78</v>
+        <v>297.78</v>
       </c>
       <c r="H15" t="n">
-        <v>-603.5999999973253</v>
+        <v>33869200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>472.68</v>
+        <v>297.68</v>
       </c>
       <c r="B16" t="n">
-        <v>3729.342857143381</v>
+        <v>34279800</v>
       </c>
       <c r="C16" t="n">
-        <v>3729.342857143381</v>
+        <v>34279800</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>472.68</v>
+        <v>297.68</v>
       </c>
       <c r="H16" t="n">
-        <v>3729.342857143381</v>
+        <v>34279800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>472.58</v>
+        <v>297.58</v>
       </c>
       <c r="B17" t="n">
-        <v>3961.014285712606</v>
+        <v>34024100</v>
       </c>
       <c r="C17" t="n">
-        <v>3961.014285712606</v>
+        <v>34024100</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>472.58</v>
+        <v>297.58</v>
       </c>
       <c r="H17" t="n">
-        <v>3961.014285712606</v>
+        <v>34024100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>472.48</v>
+        <v>297.48</v>
       </c>
       <c r="B18" t="n">
-        <v>-23.67142857198827</v>
+        <v>33755800</v>
       </c>
       <c r="C18" t="n">
-        <v>-23.67142857198827</v>
+        <v>33755800</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>472.48</v>
+        <v>297.48</v>
       </c>
       <c r="H18" t="n">
-        <v>-23.67142857198827</v>
+        <v>33755800</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>472.38</v>
+        <v>297.38</v>
       </c>
       <c r="B19" t="n">
-        <v>-1734.499999999981</v>
+        <v>33636500</v>
       </c>
       <c r="C19" t="n">
-        <v>-1734.499999999981</v>
+        <v>33636500</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>472.38</v>
+        <v>297.38</v>
       </c>
       <c r="H19" t="n">
-        <v>-1734.499999999981</v>
+        <v>33636500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>472.28</v>
+        <v>297.28</v>
       </c>
       <c r="B20" t="n">
-        <v>-1344.942857144413</v>
+        <v>34503300</v>
       </c>
       <c r="C20" t="n">
-        <v>-1344.942857144413</v>
+        <v>34503300</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>472.28</v>
+        <v>297.28</v>
       </c>
       <c r="H20" t="n">
-        <v>-1344.942857144413</v>
+        <v>34503300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>472.18</v>
+        <v>297.18</v>
       </c>
       <c r="B21" t="n">
-        <v>784.2999999982064</v>
+        <v>33607200</v>
       </c>
       <c r="C21" t="n">
-        <v>784.2999999982064</v>
+        <v>33607200</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>472.18</v>
+        <v>297.18</v>
       </c>
       <c r="H21" t="n">
-        <v>784.2999999982064</v>
+        <v>33607200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>472.08</v>
+        <v>297.08</v>
       </c>
       <c r="B22" t="n">
-        <v>3283.471428571119</v>
+        <v>33816300</v>
       </c>
       <c r="C22" t="n">
-        <v>3283.471428571119</v>
+        <v>33816300</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>472.08</v>
+        <v>297.08</v>
       </c>
       <c r="H22" t="n">
-        <v>3283.471428571119</v>
+        <v>33816300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>471.98</v>
+        <v>296.98</v>
       </c>
       <c r="B23" t="n">
-        <v>2563.414285714908</v>
+        <v>34127900</v>
       </c>
       <c r="C23" t="n">
-        <v>2563.414285714908</v>
+        <v>34127900</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>471.98</v>
+        <v>296.98</v>
       </c>
       <c r="H23" t="n">
-        <v>2563.414285714908</v>
+        <v>34127900</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>471.88</v>
+        <v>296.88</v>
       </c>
       <c r="B24" t="n">
-        <v>906.0000000010516</v>
+        <v>33711400</v>
       </c>
       <c r="C24" t="n">
-        <v>906.0000000010516</v>
+        <v>33711400</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>471.88</v>
+        <v>296.88</v>
       </c>
       <c r="H24" t="n">
-        <v>906.0000000010516</v>
+        <v>33711400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>471.78</v>
+        <v>296.78</v>
       </c>
       <c r="B25" t="n">
-        <v>2440.842857144066</v>
+        <v>33759100</v>
       </c>
       <c r="C25" t="n">
-        <v>2440.842857144066</v>
+        <v>33759100</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>471.78</v>
+        <v>296.78</v>
       </c>
       <c r="H25" t="n">
-        <v>2440.842857144066</v>
+        <v>33759100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>471.68</v>
+        <v>296.68</v>
       </c>
       <c r="B26" t="n">
-        <v>4447.114285715222</v>
+        <v>33600400</v>
       </c>
       <c r="C26" t="n">
-        <v>4447.114285715222</v>
+        <v>33600400</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>471.68</v>
+        <v>296.68</v>
       </c>
       <c r="H26" t="n">
-        <v>4447.114285715222</v>
+        <v>33600400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>471.58</v>
+        <v>296.58</v>
       </c>
       <c r="B27" t="n">
-        <v>3942.385714285854</v>
+        <v>33407300</v>
       </c>
       <c r="C27" t="n">
-        <v>3942.385714285854</v>
+        <v>33407300</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>471.58</v>
+        <v>296.58</v>
       </c>
       <c r="H27" t="n">
-        <v>3942.385714285854</v>
+        <v>33407300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>471.48</v>
+        <v>296.48</v>
       </c>
       <c r="B28" t="n">
-        <v>2646.185714285609</v>
+        <v>33506300</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.185714285609</v>
+        <v>33506300</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>471.48</v>
+        <v>296.48</v>
       </c>
       <c r="H28" t="n">
-        <v>2646.185714285609</v>
+        <v>33506300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>471.38</v>
+        <v>296.38</v>
       </c>
       <c r="B29" t="n">
-        <v>2851.685714285442</v>
+        <v>34544800</v>
       </c>
       <c r="C29" t="n">
-        <v>2851.685714285442</v>
+        <v>34544800</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>471.38</v>
+        <v>296.38</v>
       </c>
       <c r="H29" t="n">
-        <v>2851.685714285442</v>
+        <v>34544800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>471.28</v>
+        <v>296.28</v>
       </c>
       <c r="B30" t="n">
-        <v>2111.442857142723</v>
+        <v>33503600</v>
       </c>
       <c r="C30" t="n">
-        <v>2111.442857142723</v>
+        <v>33503600</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>471.28</v>
+        <v>296.28</v>
       </c>
       <c r="H30" t="n">
-        <v>2111.442857142723</v>
+        <v>33503600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>471.18</v>
+        <v>296.18</v>
       </c>
       <c r="B31" t="n">
-        <v>1538.142857143971</v>
+        <v>34271400</v>
       </c>
       <c r="C31" t="n">
-        <v>1538.142857143971</v>
+        <v>34271400</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>471.18</v>
+        <v>296.18</v>
       </c>
       <c r="H31" t="n">
-        <v>1538.142857143971</v>
+        <v>34271400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>471.08</v>
+        <v>296.08</v>
       </c>
       <c r="B32" t="n">
-        <v>1071.600000002638</v>
+        <v>33418000</v>
       </c>
       <c r="C32" t="n">
-        <v>1071.600000002638</v>
+        <v>33418000</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>471.08</v>
+        <v>296.08</v>
       </c>
       <c r="H32" t="n">
-        <v>1071.600000002638</v>
+        <v>33418000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>470.98</v>
+        <v>295.98</v>
       </c>
       <c r="B33" t="n">
-        <v>624.4142857164875</v>
+        <v>34450200</v>
       </c>
       <c r="C33" t="n">
-        <v>624.4142857164875</v>
+        <v>34450200</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>470.98</v>
+        <v>295.98</v>
       </c>
       <c r="H33" t="n">
-        <v>624.4142857164875</v>
+        <v>34450200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>470.88</v>
+        <v>295.88</v>
       </c>
       <c r="B34" t="n">
-        <v>1159.671428572424</v>
+        <v>33910100</v>
       </c>
       <c r="C34" t="n">
-        <v>1159.671428572424</v>
+        <v>33910100</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>470.88</v>
+        <v>295.88</v>
       </c>
       <c r="H34" t="n">
-        <v>1159.671428572424</v>
+        <v>33910100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>470.78</v>
+        <v>295.78</v>
       </c>
       <c r="B35" t="n">
-        <v>3708.071428571618</v>
+        <v>33563600</v>
       </c>
       <c r="C35" t="n">
-        <v>3708.071428571618</v>
+        <v>33563600</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>470.78</v>
+        <v>295.78</v>
       </c>
       <c r="H35" t="n">
-        <v>3708.071428571618</v>
+        <v>33563600</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>470.68</v>
+        <v>295.68</v>
       </c>
       <c r="B36" t="n">
-        <v>4389.242857142432</v>
+        <v>33820600</v>
       </c>
       <c r="C36" t="n">
-        <v>4389.242857142432</v>
+        <v>33820600</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>470.68</v>
+        <v>295.68</v>
       </c>
       <c r="H36" t="n">
-        <v>4389.242857142432</v>
+        <v>33820600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>470.58</v>
+        <v>295.58</v>
       </c>
       <c r="B37" t="n">
-        <v>1569.928571427055</v>
+        <v>34046900</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.928571427055</v>
+        <v>34046900</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>470.58</v>
+        <v>295.58</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.928571427055</v>
+        <v>34046900</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>470.48</v>
+        <v>295.48</v>
       </c>
       <c r="B38" t="n">
-        <v>-271.7857142874777</v>
+        <v>33466400</v>
       </c>
       <c r="C38" t="n">
-        <v>-271.7857142874777</v>
+        <v>33466400</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>470.48</v>
+        <v>295.48</v>
       </c>
       <c r="H38" t="n">
-        <v>-271.7857142874777</v>
+        <v>33466400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>470.38</v>
+        <v>295.38</v>
       </c>
       <c r="B39" t="n">
-        <v>1396.757142857386</v>
+        <v>34011600</v>
       </c>
       <c r="C39" t="n">
-        <v>1396.757142857386</v>
+        <v>34011600</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>470.38</v>
+        <v>295.38</v>
       </c>
       <c r="H39" t="n">
-        <v>1396.757142857386</v>
+        <v>34011600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>470.28</v>
+        <v>295.28</v>
       </c>
       <c r="B40" t="n">
-        <v>3877.500000002024</v>
+        <v>33614000</v>
       </c>
       <c r="C40" t="n">
-        <v>3877.500000002024</v>
+        <v>33614000</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>470.28</v>
+        <v>295.28</v>
       </c>
       <c r="H40" t="n">
-        <v>3877.500000002024</v>
+        <v>33614000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>470.18</v>
+        <v>295.18</v>
       </c>
       <c r="B41" t="n">
-        <v>4430.057142859395</v>
+        <v>33843000</v>
       </c>
       <c r="C41" t="n">
-        <v>4430.057142859395</v>
+        <v>33843000</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>470.18</v>
+        <v>295.18</v>
       </c>
       <c r="H41" t="n">
-        <v>4430.057142859395</v>
+        <v>33843000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>470.08</v>
+        <v>295.08</v>
       </c>
       <c r="B42" t="n">
-        <v>2317.457142859178</v>
+        <v>33408400</v>
       </c>
       <c r="C42" t="n">
-        <v>2317.457142859178</v>
+        <v>33408400</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>470.08</v>
+        <v>295.08</v>
       </c>
       <c r="H42" t="n">
-        <v>2317.457142859178</v>
+        <v>33408400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>469.98</v>
+        <v>294.98</v>
       </c>
       <c r="B43" t="n">
-        <v>-1217.085714284251</v>
+        <v>33050300</v>
       </c>
       <c r="C43" t="n">
-        <v>-1217.085714284251</v>
+        <v>33050300</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>469.98</v>
+        <v>294.98</v>
       </c>
       <c r="H43" t="n">
-        <v>-1217.085714284251</v>
+        <v>33050300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>469.88</v>
+        <v>294.88</v>
       </c>
       <c r="B44" t="n">
-        <v>-821.6857142839343</v>
+        <v>33447800</v>
       </c>
       <c r="C44" t="n">
-        <v>-821.6857142839343</v>
+        <v>33447800</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>469.88</v>
+        <v>294.88</v>
       </c>
       <c r="H44" t="n">
-        <v>-821.6857142839343</v>
+        <v>33447800</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>469.78</v>
+        <v>294.78</v>
       </c>
       <c r="B45" t="n">
-        <v>1991.528571430492</v>
+        <v>33923000</v>
       </c>
       <c r="C45" t="n">
-        <v>1991.528571430492</v>
+        <v>33923000</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>469.78</v>
+        <v>294.78</v>
       </c>
       <c r="H45" t="n">
-        <v>1991.528571430492</v>
+        <v>33923000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>469.68</v>
+        <v>294.68</v>
       </c>
       <c r="B46" t="n">
-        <v>4081.600000002771</v>
+        <v>33742000</v>
       </c>
       <c r="C46" t="n">
-        <v>4081.600000002771</v>
+        <v>33742000</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>469.68</v>
+        <v>294.68</v>
       </c>
       <c r="H46" t="n">
-        <v>4081.600000002771</v>
+        <v>33742000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>469.58</v>
+        <v>294.58</v>
       </c>
       <c r="B47" t="n">
-        <v>4384.357142859286</v>
+        <v>33652400</v>
       </c>
       <c r="C47" t="n">
-        <v>4384.357142859286</v>
+        <v>33652400</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>469.58</v>
+        <v>294.58</v>
       </c>
       <c r="H47" t="n">
-        <v>4384.357142859286</v>
+        <v>33652400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>469.48</v>
+        <v>294.48</v>
       </c>
       <c r="B48" t="n">
-        <v>5256.185714286546</v>
+        <v>33680100</v>
       </c>
       <c r="C48" t="n">
-        <v>5256.185714286546</v>
+        <v>33680100</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>469.48</v>
+        <v>294.48</v>
       </c>
       <c r="H48" t="n">
-        <v>5256.185714286546</v>
+        <v>33680100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>469.38</v>
+        <v>294.38</v>
       </c>
       <c r="B49" t="n">
-        <v>3561.271428570588</v>
+        <v>33996300</v>
       </c>
       <c r="C49" t="n">
-        <v>3561.271428570588</v>
+        <v>33996300</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>469.38</v>
+        <v>294.38</v>
       </c>
       <c r="H49" t="n">
-        <v>3561.271428570588</v>
+        <v>33996300</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>469.28</v>
+        <v>294.28</v>
       </c>
       <c r="B50" t="n">
-        <v>929.8714285694169</v>
+        <v>33700200</v>
       </c>
       <c r="C50" t="n">
-        <v>929.8714285694169</v>
+        <v>33700200</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>469.28</v>
+        <v>294.28</v>
       </c>
       <c r="H50" t="n">
-        <v>929.8714285694169</v>
+        <v>33700200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>469.18</v>
+        <v>294.18</v>
       </c>
       <c r="B51" t="n">
-        <v>-366.485714288639</v>
+        <v>33708000</v>
       </c>
       <c r="C51" t="n">
-        <v>-366.485714288639</v>
+        <v>33708000</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>469.18</v>
+        <v>294.18</v>
       </c>
       <c r="H51" t="n">
-        <v>-366.485714288639</v>
+        <v>33708000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>469.08</v>
+        <v>294.08</v>
       </c>
       <c r="B52" t="n">
-        <v>-1463.942857146313</v>
+        <v>33452000</v>
       </c>
       <c r="C52" t="n">
-        <v>-1463.942857146313</v>
+        <v>33452000</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>469.08</v>
+        <v>294.08</v>
       </c>
       <c r="H52" t="n">
-        <v>-1463.942857146313</v>
+        <v>33452000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>468.98</v>
+        <v>293.98</v>
       </c>
       <c r="B53" t="n">
-        <v>137.1285714259137</v>
+        <v>33745500</v>
       </c>
       <c r="C53" t="n">
-        <v>137.1285714259137</v>
+        <v>33745500</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>468.98</v>
+        <v>293.98</v>
       </c>
       <c r="H53" t="n">
-        <v>137.1285714259137</v>
+        <v>33745500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>468.88</v>
+        <v>293.88</v>
       </c>
       <c r="B54" t="n">
-        <v>2829.6571428549</v>
+        <v>34059800</v>
       </c>
       <c r="C54" t="n">
-        <v>2829.6571428549</v>
+        <v>34059800</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>468.88</v>
+        <v>293.88</v>
       </c>
       <c r="H54" t="n">
-        <v>2829.6571428549</v>
+        <v>34059800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>468.78</v>
+        <v>293.78</v>
       </c>
       <c r="B55" t="n">
-        <v>3022.571428569498</v>
+        <v>33936700</v>
       </c>
       <c r="C55" t="n">
-        <v>3022.571428569498</v>
+        <v>33936700</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>468.78</v>
+        <v>293.78</v>
       </c>
       <c r="H55" t="n">
-        <v>3022.571428569498</v>
+        <v>33936700</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>468.68</v>
+        <v>293.68</v>
       </c>
       <c r="B56" t="n">
-        <v>-900.4142857161024</v>
+        <v>33270100</v>
       </c>
       <c r="C56" t="n">
-        <v>-900.4142857161024</v>
+        <v>33270100</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>468.68</v>
+        <v>293.68</v>
       </c>
       <c r="H56" t="n">
-        <v>-900.4142857161024</v>
+        <v>33270100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>468.58</v>
+        <v>293.58</v>
       </c>
       <c r="B57" t="n">
-        <v>-403.5428571452454</v>
+        <v>34068100</v>
       </c>
       <c r="C57" t="n">
-        <v>-403.5428571452454</v>
+        <v>34068100</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>468.58</v>
+        <v>293.58</v>
       </c>
       <c r="H57" t="n">
-        <v>-403.5428571452454</v>
+        <v>34068100</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>468.48</v>
+        <v>293.48</v>
       </c>
       <c r="B58" t="n">
-        <v>1075.071428568652</v>
+        <v>34706600</v>
       </c>
       <c r="C58" t="n">
-        <v>1075.071428568652</v>
+        <v>34706600</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>468.48</v>
+        <v>293.48</v>
       </c>
       <c r="H58" t="n">
-        <v>1075.071428568652</v>
+        <v>34706600</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>468.38</v>
+        <v>293.38</v>
       </c>
       <c r="B59" t="n">
-        <v>82.21428571435132</v>
+        <v>34312100</v>
       </c>
       <c r="C59" t="n">
-        <v>82.21428571435132</v>
+        <v>34312100</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>468.38</v>
+        <v>293.38</v>
       </c>
       <c r="H59" t="n">
-        <v>82.21428571435132</v>
+        <v>34312100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>468.28</v>
+        <v>293.28</v>
       </c>
       <c r="B60" t="n">
-        <v>-324.8142857115227</v>
+        <v>33853100</v>
       </c>
       <c r="C60" t="n">
-        <v>-324.8142857115227</v>
+        <v>33853100</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>468.28</v>
+        <v>293.28</v>
       </c>
       <c r="H60" t="n">
-        <v>-324.8142857115227</v>
+        <v>33853100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>468.18</v>
+        <v>293.18</v>
       </c>
       <c r="B61" t="n">
-        <v>1767.385714287701</v>
+        <v>33540800</v>
       </c>
       <c r="C61" t="n">
-        <v>1767.385714287701</v>
+        <v>33540800</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>468.18</v>
+        <v>293.18</v>
       </c>
       <c r="H61" t="n">
-        <v>1767.385714287701</v>
+        <v>33540800</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>468.08</v>
+        <v>293.08</v>
       </c>
       <c r="B62" t="n">
-        <v>1512.50000000139</v>
+        <v>34275400</v>
       </c>
       <c r="C62" t="n">
-        <v>1512.50000000139</v>
+        <v>34275400</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>468.08</v>
+        <v>293.08</v>
       </c>
       <c r="H62" t="n">
-        <v>1512.50000000139</v>
+        <v>34275400</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>467.98</v>
+        <v>292.98</v>
       </c>
       <c r="B63" t="n">
-        <v>-2772.699999998015</v>
+        <v>33270800</v>
       </c>
       <c r="C63" t="n">
-        <v>-2772.699999998015</v>
+        <v>33270800</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>467.98</v>
+        <v>292.98</v>
       </c>
       <c r="H63" t="n">
-        <v>-2772.699999998015</v>
+        <v>33270800</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>467.88</v>
+        <v>292.88</v>
       </c>
       <c r="B64" t="n">
-        <v>-3280.4428571414</v>
+        <v>33907100</v>
       </c>
       <c r="C64" t="n">
-        <v>-3280.4428571414</v>
+        <v>33907100</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>467.88</v>
+        <v>292.88</v>
       </c>
       <c r="H64" t="n">
-        <v>-3280.4428571414</v>
+        <v>33907100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>467.78</v>
+        <v>292.78</v>
       </c>
       <c r="B65" t="n">
-        <v>-1363.257142856692</v>
+        <v>33693400</v>
       </c>
       <c r="C65" t="n">
-        <v>-1363.257142856692</v>
+        <v>33693400</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>467.78</v>
+        <v>292.78</v>
       </c>
       <c r="H65" t="n">
-        <v>-1363.257142856692</v>
+        <v>33693400</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>467.68</v>
+        <v>292.68</v>
       </c>
       <c r="B66" t="n">
-        <v>-1728.914285714153</v>
+        <v>34095300</v>
       </c>
       <c r="C66" t="n">
-        <v>-1728.914285714153</v>
+        <v>34095300</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>467.68</v>
+        <v>292.68</v>
       </c>
       <c r="H66" t="n">
-        <v>-1728.914285714153</v>
+        <v>34095300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>467.58</v>
+        <v>292.58</v>
       </c>
       <c r="B67" t="n">
-        <v>-3650.728571429411</v>
+        <v>34025000</v>
       </c>
       <c r="C67" t="n">
-        <v>-3650.728571429411</v>
+        <v>34025000</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>467.58</v>
+        <v>292.58</v>
       </c>
       <c r="H67" t="n">
-        <v>-3650.728571429411</v>
+        <v>34025000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>467.48</v>
+        <v>292.48</v>
       </c>
       <c r="B68" t="n">
-        <v>-5150.385714286844</v>
+        <v>33475700</v>
       </c>
       <c r="C68" t="n">
-        <v>-5150.385714286844</v>
+        <v>33475700</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>467.48</v>
+        <v>292.48</v>
       </c>
       <c r="H68" t="n">
-        <v>-5150.385714286844</v>
+        <v>33475700</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>467.38</v>
+        <v>292.38</v>
       </c>
       <c r="B69" t="n">
-        <v>-5156.242857141119</v>
+        <v>33580900</v>
       </c>
       <c r="C69" t="n">
-        <v>-5156.242857141119</v>
+        <v>33580900</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>467.38</v>
+        <v>292.38</v>
       </c>
       <c r="H69" t="n">
-        <v>-5156.242857141119</v>
+        <v>33580900</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>467.28</v>
+        <v>292.28</v>
       </c>
       <c r="B70" t="n">
-        <v>-1351.042857139326</v>
+        <v>33349000</v>
       </c>
       <c r="C70" t="n">
-        <v>-1351.042857139326</v>
+        <v>33349000</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>467.28</v>
+        <v>292.28</v>
       </c>
       <c r="H70" t="n">
-        <v>-1351.042857139326</v>
+        <v>33349000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>467.18</v>
+        <v>292.18</v>
       </c>
       <c r="B71" t="n">
-        <v>1445.185714286627</v>
+        <v>34079400</v>
       </c>
       <c r="C71" t="n">
-        <v>1445.185714286627</v>
+        <v>34079400</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>467.18</v>
+        <v>292.18</v>
       </c>
       <c r="H71" t="n">
-        <v>1445.185714286627</v>
+        <v>34079400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>467.08</v>
+        <v>292.08</v>
       </c>
       <c r="B72" t="n">
-        <v>-1179.671428573841</v>
+        <v>33242600</v>
       </c>
       <c r="C72" t="n">
-        <v>-1179.671428573841</v>
+        <v>33242600</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>467.08</v>
+        <v>292.08</v>
       </c>
       <c r="H72" t="n">
-        <v>-1179.671428573841</v>
+        <v>33242600</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>466.98</v>
+        <v>291.98</v>
       </c>
       <c r="B73" t="n">
-        <v>-5355.428571430343</v>
+        <v>33909000</v>
       </c>
       <c r="C73" t="n">
-        <v>-5355.428571430343</v>
+        <v>33909000</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>466.98</v>
+        <v>291.98</v>
       </c>
       <c r="H73" t="n">
-        <v>-5355.428571430343</v>
+        <v>33909000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>466.88</v>
+        <v>291.88</v>
       </c>
       <c r="B74" t="n">
-        <v>-4866.828571428343</v>
+        <v>33302300</v>
       </c>
       <c r="C74" t="n">
-        <v>-4866.828571428343</v>
+        <v>33302300</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>466.88</v>
+        <v>291.88</v>
       </c>
       <c r="H74" t="n">
-        <v>-4866.828571428343</v>
+        <v>33302300</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>466.78</v>
+        <v>291.78</v>
       </c>
       <c r="B75" t="n">
-        <v>-4326.299999999284</v>
+        <v>33014100</v>
       </c>
       <c r="C75" t="n">
-        <v>-4326.299999999284</v>
+        <v>33014100</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>466.78</v>
+        <v>291.78</v>
       </c>
       <c r="H75" t="n">
-        <v>-4326.299999999284</v>
+        <v>33014100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>466.68</v>
+        <v>291.68</v>
       </c>
       <c r="B76" t="n">
-        <v>-4200.742857141901</v>
+        <v>34085300</v>
       </c>
       <c r="C76" t="n">
-        <v>-4200.742857141901</v>
+        <v>34085300</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>466.68</v>
+        <v>291.68</v>
       </c>
       <c r="H76" t="n">
-        <v>-4200.742857141901</v>
+        <v>34085300</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>466.58</v>
+        <v>291.58</v>
       </c>
       <c r="B77" t="n">
-        <v>-3445.085714283779</v>
+        <v>33430600</v>
       </c>
       <c r="C77" t="n">
-        <v>-3445.085714283779</v>
+        <v>33430600</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>466.58</v>
+        <v>291.58</v>
       </c>
       <c r="H77" t="n">
-        <v>-3445.085714283779</v>
+        <v>33430600</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>466.48</v>
+        <v>291.48</v>
       </c>
       <c r="B78" t="n">
-        <v>-3685.071428569186</v>
+        <v>33401700</v>
       </c>
       <c r="C78" t="n">
-        <v>-3685.071428569186</v>
+        <v>33401700</v>
       </c>
       <c r="D78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>466.48</v>
+        <v>291.48</v>
       </c>
       <c r="H78" t="n">
-        <v>-3685.071428569186</v>
+        <v>33401700</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>466.38</v>
+        <v>291.38</v>
       </c>
       <c r="B79" t="n">
-        <v>-4673.614285713535</v>
+        <v>33762700</v>
       </c>
       <c r="C79" t="n">
-        <v>-4673.614285713535</v>
+        <v>33762700</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>466.38</v>
+        <v>291.38</v>
       </c>
       <c r="H79" t="n">
-        <v>-4673.614285713535</v>
+        <v>33762700</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>466.28</v>
+        <v>291.28</v>
       </c>
       <c r="B80" t="n">
-        <v>-7040.271428571101</v>
+        <v>33738700</v>
       </c>
       <c r="C80" t="n">
-        <v>-7040.271428571101</v>
+        <v>33738700</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>466.28</v>
+        <v>291.28</v>
       </c>
       <c r="H80" t="n">
-        <v>-7040.271428571101</v>
+        <v>33738700</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>466.18</v>
+        <v>291.18</v>
       </c>
       <c r="B81" t="n">
-        <v>-9924.685714284993</v>
+        <v>32988700</v>
       </c>
       <c r="C81" t="n">
-        <v>-9924.685714284993</v>
+        <v>32988700</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>466.18</v>
+        <v>291.18</v>
       </c>
       <c r="H81" t="n">
-        <v>-9924.685714284993</v>
+        <v>32988700</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>466.08</v>
+        <v>291.08</v>
       </c>
       <c r="B82" t="n">
-        <v>-11233.07142857091</v>
+        <v>33531000</v>
       </c>
       <c r="C82" t="n">
-        <v>-11233.07142857091</v>
+        <v>33531000</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>466.08</v>
+        <v>291.08</v>
       </c>
       <c r="H82" t="n">
-        <v>-11233.07142857091</v>
+        <v>33531000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>465.98</v>
+        <v>290.98</v>
       </c>
       <c r="B83" t="n">
-        <v>-9359.542857142116</v>
+        <v>33542100</v>
       </c>
       <c r="C83" t="n">
-        <v>-9359.542857142116</v>
+        <v>33542100</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>465.98</v>
+        <v>290.98</v>
       </c>
       <c r="H83" t="n">
-        <v>-9359.542857142116</v>
+        <v>33542100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>465.88</v>
+        <v>290.88</v>
       </c>
       <c r="B84" t="n">
-        <v>-10355.78571428611</v>
+        <v>33400800</v>
       </c>
       <c r="C84" t="n">
-        <v>-10355.78571428611</v>
+        <v>33400800</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>465.88</v>
+        <v>290.88</v>
       </c>
       <c r="H84" t="n">
-        <v>-10355.78571428611</v>
+        <v>33400800</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>465.78</v>
+        <v>290.78</v>
       </c>
       <c r="B85" t="n">
-        <v>-14614.07142857311</v>
+        <v>34029900</v>
       </c>
       <c r="C85" t="n">
-        <v>-14614.07142857311</v>
+        <v>34029900</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>465.78</v>
+        <v>290.78</v>
       </c>
       <c r="H85" t="n">
-        <v>-14614.07142857311</v>
+        <v>34029900</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>465.68</v>
+        <v>290.68</v>
       </c>
       <c r="B86" t="n">
-        <v>-18003.47142857494</v>
+        <v>33970900</v>
       </c>
       <c r="C86" t="n">
-        <v>-18003.47142857494</v>
+        <v>33970900</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>465.68</v>
+        <v>290.68</v>
       </c>
       <c r="H86" t="n">
-        <v>-18003.47142857494</v>
+        <v>33970900</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>465.58</v>
+        <v>290.58</v>
       </c>
       <c r="B87" t="n">
-        <v>-18019.38571428922</v>
+        <v>33550000</v>
       </c>
       <c r="C87" t="n">
-        <v>-18019.38571428922</v>
+        <v>33550000</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>465.58</v>
+        <v>290.58</v>
       </c>
       <c r="H87" t="n">
-        <v>-18019.38571428922</v>
+        <v>33550000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>465.48</v>
+        <v>290.48</v>
       </c>
       <c r="B88" t="n">
-        <v>-19159.12857142932</v>
+        <v>33712800</v>
       </c>
       <c r="C88" t="n">
-        <v>-19159.12857142932</v>
+        <v>33712800</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>465.48</v>
+        <v>290.48</v>
       </c>
       <c r="H88" t="n">
-        <v>-19159.12857142932</v>
+        <v>33712800</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>465.38</v>
+        <v>290.38</v>
       </c>
       <c r="B89" t="n">
-        <v>-22708.79999999719</v>
+        <v>34063300</v>
       </c>
       <c r="C89" t="n">
-        <v>-22708.79999999719</v>
+        <v>34063300</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>465.38</v>
+        <v>290.38</v>
       </c>
       <c r="H89" t="n">
-        <v>-22708.79999999719</v>
+        <v>34063300</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>465.28</v>
+        <v>290.28</v>
       </c>
       <c r="B90" t="n">
-        <v>-20262.0428571411</v>
+        <v>34177700</v>
       </c>
       <c r="C90" t="n">
-        <v>-20262.0428571411</v>
+        <v>34177700</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>465.28</v>
+        <v>290.28</v>
       </c>
       <c r="H90" t="n">
-        <v>-20262.0428571411</v>
+        <v>34177700</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>465.18</v>
+        <v>290.18</v>
       </c>
       <c r="B91" t="n">
-        <v>-13034.35714286036</v>
+        <v>34315300</v>
       </c>
       <c r="C91" t="n">
-        <v>-13034.35714286036</v>
+        <v>34315300</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>465.18</v>
+        <v>290.18</v>
       </c>
       <c r="H91" t="n">
-        <v>-13034.35714286036</v>
+        <v>34315300</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>465.08</v>
+        <v>290.08</v>
       </c>
       <c r="B92" t="n">
-        <v>-9526.314285718983</v>
+        <v>34548200</v>
       </c>
       <c r="C92" t="n">
-        <v>-9526.314285718983</v>
+        <v>34548200</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>465.08</v>
+        <v>290.08</v>
       </c>
       <c r="H92" t="n">
-        <v>-9526.314285718983</v>
+        <v>34548200</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>464.98</v>
+        <v>289.98</v>
       </c>
       <c r="B93" t="n">
-        <v>-9355.800000001691</v>
+        <v>34696700</v>
       </c>
       <c r="C93" t="n">
-        <v>-9355.800000001691</v>
+        <v>34696700</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>464.98</v>
+        <v>289.98</v>
       </c>
       <c r="H93" t="n">
-        <v>-9355.800000001691</v>
+        <v>34696700</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>464.88</v>
+        <v>289.88</v>
       </c>
       <c r="B94" t="n">
-        <v>-5805.000000000226</v>
+        <v>34382400</v>
       </c>
       <c r="C94" t="n">
-        <v>-5805.000000000226</v>
+        <v>34382400</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>464.88</v>
+        <v>289.88</v>
       </c>
       <c r="H94" t="n">
-        <v>-5805.000000000226</v>
+        <v>34382400</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>464.78</v>
+        <v>289.78</v>
       </c>
       <c r="B95" t="n">
-        <v>-514.4285714302013</v>
+        <v>35470200</v>
       </c>
       <c r="C95" t="n">
-        <v>-514.4285714302013</v>
+        <v>35470200</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>464.78</v>
+        <v>289.78</v>
       </c>
       <c r="H95" t="n">
-        <v>-514.4285714302013</v>
+        <v>35470200</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>464.68</v>
+        <v>289.68</v>
       </c>
       <c r="B96" t="n">
-        <v>4944.271428569927</v>
+        <v>35360300</v>
       </c>
       <c r="C96" t="n">
-        <v>4944.271428569927</v>
+        <v>35360300</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>464.68</v>
+        <v>289.68</v>
       </c>
       <c r="H96" t="n">
-        <v>4944.271428569927</v>
+        <v>35360300</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>464.58</v>
+        <v>289.58</v>
       </c>
       <c r="B97" t="n">
-        <v>11184.68571428678</v>
+        <v>35772700</v>
       </c>
       <c r="C97" t="n">
-        <v>11184.68571428678</v>
+        <v>35772700</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>464.58</v>
+        <v>289.58</v>
       </c>
       <c r="H97" t="n">
-        <v>11184.68571428678</v>
+        <v>35772700</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>464.48</v>
+        <v>289.48</v>
       </c>
       <c r="B98" t="n">
-        <v>16086.40000000065</v>
+        <v>35244900</v>
       </c>
       <c r="C98" t="n">
-        <v>16086.40000000065</v>
+        <v>35244900</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>464.48</v>
+        <v>289.48</v>
       </c>
       <c r="H98" t="n">
-        <v>16086.40000000065</v>
+        <v>35244900</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>464.38</v>
+        <v>289.38</v>
       </c>
       <c r="B99" t="n">
-        <v>17528.34285714067</v>
+        <v>35751700</v>
       </c>
       <c r="C99" t="n">
-        <v>17528.34285714067</v>
+        <v>35751700</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>464.38</v>
+        <v>289.38</v>
       </c>
       <c r="H99" t="n">
-        <v>17528.34285714067</v>
+        <v>35751700</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>464.28</v>
+        <v>289.28</v>
       </c>
       <c r="B100" t="n">
-        <v>16732.97142856921</v>
+        <v>35994900</v>
       </c>
       <c r="C100" t="n">
-        <v>16732.97142856921</v>
+        <v>35994900</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>464.28</v>
+        <v>289.28</v>
       </c>
       <c r="H100" t="n">
-        <v>16732.97142856921</v>
+        <v>35994900</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>464.18</v>
+        <v>289.18</v>
       </c>
       <c r="B101" t="n">
-        <v>15708.72857142931</v>
+        <v>35667700</v>
       </c>
       <c r="C101" t="n">
-        <v>15708.72857142931</v>
+        <v>35667700</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>464.18</v>
+        <v>289.18</v>
       </c>
       <c r="H101" t="n">
-        <v>15708.72857142931</v>
+        <v>35667700</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>464.08</v>
+        <v>289.08</v>
       </c>
       <c r="B102" t="n">
-        <v>16399.51428571673</v>
+        <v>35484000</v>
       </c>
       <c r="C102" t="n">
-        <v>16399.51428571673</v>
+        <v>35484000</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>464.08</v>
+        <v>289.08</v>
       </c>
       <c r="H102" t="n">
-        <v>16399.51428571673</v>
+        <v>35484000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>463.98</v>
+        <v>288.98</v>
       </c>
       <c r="B103" t="n">
-        <v>16926.00000000071</v>
+        <v>34788100</v>
       </c>
       <c r="C103" t="n">
-        <v>16926.00000000071</v>
+        <v>34788100</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>463.98</v>
+        <v>288.98</v>
       </c>
       <c r="H103" t="n">
-        <v>16926.00000000071</v>
+        <v>34788100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>463.88</v>
+        <v>288.88</v>
       </c>
       <c r="B104" t="n">
-        <v>14586.99999999894</v>
+        <v>35286600</v>
       </c>
       <c r="C104" t="n">
-        <v>14586.99999999894</v>
+        <v>35286600</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>463.88</v>
+        <v>288.88</v>
       </c>
       <c r="H104" t="n">
-        <v>14586.99999999894</v>
+        <v>35286600</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>463.78</v>
+        <v>288.78</v>
       </c>
       <c r="B105" t="n">
-        <v>11330.62857142769</v>
+        <v>35637600</v>
       </c>
       <c r="C105" t="n">
-        <v>11330.62857142769</v>
+        <v>35637600</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>463.78</v>
+        <v>288.78</v>
       </c>
       <c r="H105" t="n">
-        <v>11330.62857142769</v>
+        <v>35637600</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>463.68</v>
+        <v>288.68</v>
       </c>
       <c r="B106" t="n">
-        <v>9870.371428573371</v>
+        <v>34701300</v>
       </c>
       <c r="C106" t="n">
-        <v>9870.371428573371</v>
+        <v>34701300</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>463.68</v>
+        <v>288.68</v>
       </c>
       <c r="H106" t="n">
-        <v>9870.371428573371</v>
+        <v>34701300</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>463.58</v>
+        <v>288.58</v>
       </c>
       <c r="B107" t="n">
-        <v>12105.72857143054</v>
+        <v>34854300</v>
       </c>
       <c r="C107" t="n">
-        <v>12105.72857143054</v>
+        <v>34854300</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>463.58</v>
+        <v>288.58</v>
       </c>
       <c r="H107" t="n">
-        <v>12105.72857143054</v>
+        <v>34854300</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>463.48</v>
+        <v>288.48</v>
       </c>
       <c r="B108" t="n">
-        <v>13542.24285714267</v>
+        <v>34931800</v>
       </c>
       <c r="C108" t="n">
-        <v>13542.24285714267</v>
+        <v>34931800</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>463.48</v>
+        <v>288.48</v>
       </c>
       <c r="H108" t="n">
-        <v>13542.24285714267</v>
+        <v>34931800</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>463.38</v>
+        <v>288.38</v>
       </c>
       <c r="B109" t="n">
-        <v>10652.47142857094</v>
+        <v>33483700</v>
       </c>
       <c r="C109" t="n">
-        <v>10652.47142857094</v>
+        <v>33483700</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>463.38</v>
+        <v>288.38</v>
       </c>
       <c r="H109" t="n">
-        <v>10652.47142857094</v>
+        <v>33483700</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>463.28</v>
+        <v>288.28</v>
       </c>
       <c r="B110" t="n">
-        <v>8729.957142857658</v>
+        <v>34342100</v>
       </c>
       <c r="C110" t="n">
-        <v>8729.957142857658</v>
+        <v>34342100</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>463.28</v>
+        <v>288.28</v>
       </c>
       <c r="H110" t="n">
-        <v>8729.957142857658</v>
+        <v>34342100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>463.18</v>
+        <v>288.18</v>
       </c>
       <c r="B111" t="n">
-        <v>9224.728571428413</v>
+        <v>34101900</v>
       </c>
       <c r="C111" t="n">
-        <v>9224.728571428413</v>
+        <v>34101900</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>463.18</v>
+        <v>288.18</v>
       </c>
       <c r="H111" t="n">
-        <v>9224.728571428413</v>
+        <v>34101900</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>463.08</v>
+        <v>288.08</v>
       </c>
       <c r="B112" t="n">
-        <v>6654.442857140977</v>
+        <v>34110300</v>
       </c>
       <c r="C112" t="n">
-        <v>6654.442857140977</v>
+        <v>34110300</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>463.08</v>
+        <v>288.08</v>
       </c>
       <c r="H112" t="n">
-        <v>6654.442857140977</v>
+        <v>34110300</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>462.98</v>
+        <v>287.98</v>
       </c>
       <c r="B113" t="n">
-        <v>3641.799999998368</v>
+        <v>34170500</v>
       </c>
       <c r="C113" t="n">
-        <v>3641.799999998368</v>
+        <v>34170500</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>462.98</v>
+        <v>287.98</v>
       </c>
       <c r="H113" t="n">
-        <v>3641.799999998368</v>
+        <v>34170500</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>462.88</v>
+        <v>287.88</v>
       </c>
       <c r="B114" t="n">
-        <v>4223.714285713273</v>
+        <v>34164100</v>
       </c>
       <c r="C114" t="n">
-        <v>4223.714285713273</v>
+        <v>34164100</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>462.88</v>
+        <v>287.88</v>
       </c>
       <c r="H114" t="n">
-        <v>4223.714285713273</v>
+        <v>34164100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>462.78</v>
+        <v>287.78</v>
       </c>
       <c r="B115" t="n">
-        <v>6827.771428569327</v>
+        <v>34348400</v>
       </c>
       <c r="C115" t="n">
-        <v>6827.771428569327</v>
+        <v>34348400</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>462.78</v>
+        <v>287.78</v>
       </c>
       <c r="H115" t="n">
-        <v>6827.771428569327</v>
+        <v>34348400</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>462.68</v>
+        <v>287.68</v>
       </c>
       <c r="B116" t="n">
-        <v>7447.785714282531</v>
+        <v>34313400</v>
       </c>
       <c r="C116" t="n">
-        <v>7447.785714282531</v>
+        <v>34313400</v>
       </c>
       <c r="D116" t="n">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>462.68</v>
+        <v>287.68</v>
       </c>
       <c r="H116" t="n">
-        <v>7447.785714282531</v>
+        <v>34313400</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>462.58</v>
+        <v>287.58</v>
       </c>
       <c r="B117" t="n">
-        <v>5404.999999997412</v>
+        <v>35060100</v>
       </c>
       <c r="C117" t="n">
-        <v>5404.999999997412</v>
+        <v>35060100</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>462.58</v>
+        <v>287.58</v>
       </c>
       <c r="H117" t="n">
-        <v>5404.999999997412</v>
+        <v>35060100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>462.48</v>
+        <v>287.48</v>
       </c>
       <c r="B118" t="n">
-        <v>1324.214285713039</v>
+        <v>34372600</v>
       </c>
       <c r="C118" t="n">
-        <v>1324.214285713039</v>
+        <v>34372600</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>462.48</v>
+        <v>287.48</v>
       </c>
       <c r="H118" t="n">
-        <v>1324.214285713039</v>
+        <v>34372600</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>462.38</v>
+        <v>287.38</v>
       </c>
       <c r="B119" t="n">
-        <v>513.0857142866568</v>
+        <v>34299800</v>
       </c>
       <c r="C119" t="n">
-        <v>513.0857142866568</v>
+        <v>34299800</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>462.38</v>
+        <v>287.38</v>
       </c>
       <c r="H119" t="n">
-        <v>513.0857142866568</v>
+        <v>34299800</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>462.28</v>
+        <v>287.28</v>
       </c>
       <c r="B120" t="n">
-        <v>3418.657142859592</v>
+        <v>34583600</v>
       </c>
       <c r="C120" t="n">
-        <v>3418.657142859592</v>
+        <v>34583600</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>462.28</v>
+        <v>287.28</v>
       </c>
       <c r="H120" t="n">
-        <v>3418.657142859592</v>
+        <v>34583600</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>462.18</v>
+        <v>287.18</v>
       </c>
       <c r="B121" t="n">
-        <v>2242.342857145112</v>
+        <v>35322500</v>
       </c>
       <c r="C121" t="n">
-        <v>2242.342857145112</v>
+        <v>35322500</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>462.18</v>
+        <v>287.18</v>
       </c>
       <c r="H121" t="n">
-        <v>2242.342857145112</v>
+        <v>35322500</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>462.08</v>
+        <v>287.08</v>
       </c>
       <c r="B122" t="n">
-        <v>-359.1000000004693</v>
+        <v>34723700</v>
       </c>
       <c r="C122" t="n">
-        <v>-359.1000000004693</v>
+        <v>34723700</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>462.08</v>
+        <v>287.08</v>
       </c>
       <c r="H122" t="n">
-        <v>-359.1000000004693</v>
+        <v>34723700</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>461.98</v>
+        <v>286.98</v>
       </c>
       <c r="B123" t="n">
-        <v>-1848.800000001751</v>
+        <v>35156800</v>
       </c>
       <c r="C123" t="n">
-        <v>-1848.800000001751</v>
+        <v>35156800</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>461.98</v>
+        <v>286.98</v>
       </c>
       <c r="H123" t="n">
-        <v>-1848.800000001751</v>
+        <v>35156800</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>461.88</v>
+        <v>286.88</v>
       </c>
       <c r="B124" t="n">
-        <v>-1847.057142856657</v>
+        <v>35465800</v>
       </c>
       <c r="C124" t="n">
-        <v>-1847.057142856657</v>
+        <v>35465800</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>461.88</v>
+        <v>286.88</v>
       </c>
       <c r="H124" t="n">
-        <v>-1847.057142856657</v>
+        <v>35465800</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>461.78</v>
+        <v>286.78</v>
       </c>
       <c r="B125" t="n">
-        <v>-886.4285714268055</v>
+        <v>35347800</v>
       </c>
       <c r="C125" t="n">
-        <v>-886.4285714268055</v>
+        <v>35347800</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>461.78</v>
+        <v>286.78</v>
       </c>
       <c r="H125" t="n">
-        <v>-886.4285714268055</v>
+        <v>35347800</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>461.68</v>
+        <v>286.68</v>
       </c>
       <c r="B126" t="n">
-        <v>1525.442857143633</v>
+        <v>35733300</v>
       </c>
       <c r="C126" t="n">
-        <v>1525.442857143633</v>
+        <v>35733300</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>461.68</v>
+        <v>286.68</v>
       </c>
       <c r="H126" t="n">
-        <v>1525.442857143633</v>
+        <v>35733300</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>461.58</v>
+        <v>286.58</v>
       </c>
       <c r="B127" t="n">
-        <v>2345.942857142551</v>
+        <v>36159400</v>
       </c>
       <c r="C127" t="n">
-        <v>2345.942857142551</v>
+        <v>36159400</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>461.58</v>
+        <v>286.58</v>
       </c>
       <c r="H127" t="n">
-        <v>2345.942857142551</v>
+        <v>36159400</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>461.48</v>
+        <v>286.48</v>
       </c>
       <c r="B128" t="n">
-        <v>1141.828571428617</v>
+        <v>35751700</v>
       </c>
       <c r="C128" t="n">
-        <v>1141.828571428617</v>
+        <v>35751700</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>461.48</v>
+        <v>286.48</v>
       </c>
       <c r="H128" t="n">
-        <v>1141.828571428617</v>
+        <v>35751700</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>461.38</v>
+        <v>286.38</v>
       </c>
       <c r="B129" t="n">
-        <v>674.2142857137288</v>
+        <v>36103900</v>
       </c>
       <c r="C129" t="n">
-        <v>674.2142857137288</v>
+        <v>36103900</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>461.38</v>
+        <v>286.38</v>
       </c>
       <c r="H129" t="n">
-        <v>674.2142857137288</v>
+        <v>36103900</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>461.28</v>
+        <v>286.28</v>
       </c>
       <c r="B130" t="n">
-        <v>-1446.914285715126</v>
+        <v>36458500</v>
       </c>
       <c r="C130" t="n">
-        <v>-1446.914285715126</v>
+        <v>36458500</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>461.28</v>
+        <v>286.28</v>
       </c>
       <c r="H130" t="n">
-        <v>-1446.914285715126</v>
+        <v>36458500</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>461.18</v>
+        <v>286.18</v>
       </c>
       <c r="B131" t="n">
-        <v>-3569.542857142703</v>
+        <v>37452200</v>
       </c>
       <c r="C131" t="n">
-        <v>-3569.542857142703</v>
+        <v>37452200</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>461.18</v>
+        <v>286.18</v>
       </c>
       <c r="H131" t="n">
-        <v>-3569.542857142703</v>
+        <v>37452200</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>461.08</v>
+        <v>286.08</v>
       </c>
       <c r="B132" t="n">
-        <v>-3825.285714284255</v>
+        <v>37883600</v>
       </c>
       <c r="C132" t="n">
-        <v>-3825.285714284255</v>
+        <v>37883600</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>461.08</v>
+        <v>286.08</v>
       </c>
       <c r="H132" t="n">
-        <v>-3825.285714284255</v>
+        <v>37883600</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>460.98</v>
+        <v>285.98</v>
       </c>
       <c r="B133" t="n">
-        <v>-3038.728571427239</v>
+        <v>38128600</v>
       </c>
       <c r="C133" t="n">
-        <v>-3038.728571427239</v>
+        <v>38128600</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>460.98</v>
+        <v>285.98</v>
       </c>
       <c r="H133" t="n">
-        <v>-3038.728571427239</v>
+        <v>38128600</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>460.88</v>
+        <v>285.88</v>
       </c>
       <c r="B134" t="n">
-        <v>-2314.67142857072</v>
+        <v>38712500</v>
       </c>
       <c r="C134" t="n">
-        <v>-2314.67142857072</v>
+        <v>38712500</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>460.88</v>
+        <v>285.88</v>
       </c>
       <c r="H134" t="n">
-        <v>-2314.67142857072</v>
+        <v>38712500</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>460.78</v>
+        <v>285.78</v>
       </c>
       <c r="B135" t="n">
-        <v>-743.471428570787</v>
+        <v>39797200</v>
       </c>
       <c r="C135" t="n">
-        <v>-743.471428570787</v>
+        <v>39797200</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>460.78</v>
+        <v>285.78</v>
       </c>
       <c r="H135" t="n">
-        <v>-743.471428570787</v>
+        <v>39797200</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>460.68</v>
+        <v>285.68</v>
       </c>
       <c r="B136" t="n">
-        <v>-1481.18571428655</v>
+        <v>39237900</v>
       </c>
       <c r="C136" t="n">
-        <v>-1481.18571428655</v>
+        <v>39237900</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>460.68</v>
+        <v>285.68</v>
       </c>
       <c r="H136" t="n">
-        <v>-1481.18571428655</v>
+        <v>39237900</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>460.58</v>
+        <v>285.58</v>
       </c>
       <c r="B137" t="n">
-        <v>-5935.228571430765</v>
+        <v>38723200</v>
       </c>
       <c r="C137" t="n">
-        <v>-5935.228571430765</v>
+        <v>38723200</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>460.58</v>
+        <v>285.58</v>
       </c>
       <c r="H137" t="n">
-        <v>-5935.228571430765</v>
+        <v>38723200</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>460.48</v>
+        <v>285.48</v>
       </c>
       <c r="B138" t="n">
-        <v>-8375.842857143918</v>
+        <v>39415300</v>
       </c>
       <c r="C138" t="n">
-        <v>-8375.842857143918</v>
+        <v>39415300</v>
       </c>
       <c r="D138" t="n">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>460.48</v>
+        <v>285.48</v>
       </c>
       <c r="H138" t="n">
-        <v>-8375.842857143918</v>
+        <v>39415300</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>460.38</v>
+        <v>285.38</v>
       </c>
       <c r="B139" t="n">
-        <v>-8347.614285714912</v>
+        <v>38926000</v>
       </c>
       <c r="C139" t="n">
-        <v>-8347.614285714912</v>
+        <v>38926000</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>460.38</v>
+        <v>285.38</v>
       </c>
       <c r="H139" t="n">
-        <v>-8347.614285714912</v>
+        <v>38926000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>460.28</v>
+        <v>285.28</v>
       </c>
       <c r="B140" t="n">
-        <v>-11000.31428571454</v>
+        <v>38574300</v>
       </c>
       <c r="C140" t="n">
-        <v>-11000.31428571454</v>
+        <v>38574300</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>460.28</v>
+        <v>285.28</v>
       </c>
       <c r="H140" t="n">
-        <v>-11000.31428571454</v>
+        <v>38574300</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>460.18</v>
+        <v>285.18</v>
       </c>
       <c r="B141" t="n">
-        <v>-18340.88571428781</v>
+        <v>38479500</v>
       </c>
       <c r="C141" t="n">
-        <v>-18340.88571428781</v>
+        <v>38479500</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>460.18</v>
+        <v>285.18</v>
       </c>
       <c r="H141" t="n">
-        <v>-18340.88571428781</v>
+        <v>38479500</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>460.08</v>
+        <v>285.08</v>
       </c>
       <c r="B142" t="n">
-        <v>-25772.92857143081</v>
+        <v>37864000</v>
       </c>
       <c r="C142" t="n">
-        <v>-25772.92857143081</v>
+        <v>37864000</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>460.08</v>
+        <v>285.08</v>
       </c>
       <c r="H142" t="n">
-        <v>-25772.92857143081</v>
+        <v>37864000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>459.98</v>
+        <v>284.98</v>
       </c>
       <c r="B143" t="n">
-        <v>-33376.11428571164</v>
+        <v>36808400</v>
       </c>
       <c r="C143" t="n">
-        <v>-33376.11428571164</v>
+        <v>36808400</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>459.98</v>
+        <v>284.98</v>
       </c>
       <c r="H143" t="n">
-        <v>-33376.11428571164</v>
+        <v>36808400</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>459.88</v>
+        <v>284.88</v>
       </c>
       <c r="B144" t="n">
-        <v>-45075.52857142625</v>
+        <v>36203900</v>
       </c>
       <c r="C144" t="n">
-        <v>-45075.52857142625</v>
+        <v>36203900</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>459.88</v>
+        <v>284.88</v>
       </c>
       <c r="H144" t="n">
-        <v>-45075.52857142625</v>
+        <v>36203900</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>459.78</v>
+        <v>284.78</v>
       </c>
       <c r="B145" t="n">
-        <v>-60384.1285714283</v>
+        <v>35831300</v>
       </c>
       <c r="C145" t="n">
-        <v>-60384.1285714283</v>
+        <v>35831300</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>459.78</v>
+        <v>284.78</v>
       </c>
       <c r="H145" t="n">
-        <v>-60384.1285714283</v>
+        <v>35831300</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>459.68</v>
+        <v>284.68</v>
       </c>
       <c r="B146" t="n">
-        <v>-77210.60000000731</v>
+        <v>35351400</v>
       </c>
       <c r="C146" t="n">
-        <v>-77210.60000000731</v>
+        <v>35351400</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>459.68</v>
+        <v>284.68</v>
       </c>
       <c r="H146" t="n">
-        <v>-77210.60000000731</v>
+        <v>35351400</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>459.58</v>
+        <v>284.58</v>
       </c>
       <c r="B147" t="n">
-        <v>-93522.60000000829</v>
+        <v>35191000</v>
       </c>
       <c r="C147" t="n">
-        <v>-93522.60000000829</v>
+        <v>35191000</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>459.58</v>
+        <v>284.58</v>
       </c>
       <c r="H147" t="n">
-        <v>-93522.60000000829</v>
+        <v>35191000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>459.48</v>
+        <v>284.48</v>
       </c>
       <c r="B148" t="n">
-        <v>-106485.3142857112</v>
+        <v>34833700</v>
       </c>
       <c r="C148" t="n">
-        <v>-106485.3142857112</v>
+        <v>34833700</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>459.48</v>
+        <v>284.48</v>
       </c>
       <c r="H148" t="n">
-        <v>-106485.3142857112</v>
+        <v>34833700</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>459.38</v>
+        <v>284.38</v>
       </c>
       <c r="B149" t="n">
-        <v>-111461.5142857018</v>
+        <v>34410100</v>
       </c>
       <c r="C149" t="n">
-        <v>-111461.5142857018</v>
+        <v>34410100</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>459.38</v>
+        <v>284.38</v>
       </c>
       <c r="H149" t="n">
-        <v>-111461.5142857018</v>
+        <v>34410100</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>459.28</v>
+        <v>284.28</v>
       </c>
       <c r="B150" t="n">
-        <v>-102142.2714285697</v>
+        <v>33602000</v>
       </c>
       <c r="C150" t="n">
-        <v>-102142.2714285697</v>
+        <v>33602000</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>459.28</v>
+        <v>284.28</v>
       </c>
       <c r="H150" t="n">
-        <v>-102142.2714285697</v>
+        <v>33602000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>459.18</v>
+        <v>284.18</v>
       </c>
       <c r="B151" t="n">
-        <v>-76397.57142857776</v>
+        <v>33797800</v>
       </c>
       <c r="C151" t="n">
-        <v>-76397.57142857776</v>
+        <v>33797800</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>459.18</v>
+        <v>284.18</v>
       </c>
       <c r="H151" t="n">
-        <v>-76397.57142857776</v>
+        <v>33797800</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>459.08</v>
+        <v>284.08</v>
       </c>
       <c r="B152" t="n">
-        <v>-37047.04285714767</v>
+        <v>33999300</v>
       </c>
       <c r="C152" t="n">
-        <v>-37047.04285714767</v>
+        <v>33999300</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>459.08</v>
+        <v>284.08</v>
       </c>
       <c r="H152" t="n">
-        <v>-37047.04285714767</v>
+        <v>33999300</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>458.98</v>
+        <v>283.98</v>
       </c>
       <c r="B153" t="n">
-        <v>10121.5714285629</v>
+        <v>33649200</v>
       </c>
       <c r="C153" t="n">
-        <v>10121.5714285629</v>
+        <v>33649200</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>458.98</v>
+        <v>283.98</v>
       </c>
       <c r="H153" t="n">
-        <v>10121.5714285629</v>
+        <v>33649200</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>458.88</v>
+        <v>283.88</v>
       </c>
       <c r="B154" t="n">
-        <v>59675.64285713505</v>
+        <v>33453200</v>
       </c>
       <c r="C154" t="n">
-        <v>59675.64285713505</v>
+        <v>33453200</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>458.88</v>
+        <v>283.88</v>
       </c>
       <c r="H154" t="n">
-        <v>59675.64285713505</v>
+        <v>33453200</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>458.78</v>
+        <v>283.78</v>
       </c>
       <c r="B155" t="n">
-        <v>97129.81428572022</v>
+        <v>33395200</v>
       </c>
       <c r="C155" t="n">
-        <v>97129.81428572022</v>
+        <v>33395200</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>458.78</v>
+        <v>283.78</v>
       </c>
       <c r="H155" t="n">
-        <v>97129.81428572022</v>
+        <v>33395200</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>458.68</v>
+        <v>283.68</v>
       </c>
       <c r="B156" t="n">
-        <v>114631.3428571556</v>
+        <v>32791200</v>
       </c>
       <c r="C156" t="n">
-        <v>114631.3428571556</v>
+        <v>32791200</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>458.68</v>
+        <v>283.68</v>
       </c>
       <c r="H156" t="n">
-        <v>114631.3428571556</v>
+        <v>32791200</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>458.58</v>
+        <v>283.58</v>
       </c>
       <c r="B157" t="n">
-        <v>116522.5571428699</v>
+        <v>32750300</v>
       </c>
       <c r="C157" t="n">
-        <v>116522.5571428699</v>
+        <v>32750300</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>458.58</v>
+        <v>283.58</v>
       </c>
       <c r="H157" t="n">
-        <v>116522.5571428699</v>
+        <v>32750300</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>458.48</v>
+        <v>283.48</v>
       </c>
       <c r="B158" t="n">
-        <v>108531.7714285736</v>
+        <v>32897300</v>
       </c>
       <c r="C158" t="n">
-        <v>108531.7714285736</v>
+        <v>32897300</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>458.48</v>
+        <v>283.48</v>
       </c>
       <c r="H158" t="n">
-        <v>108531.7714285736</v>
+        <v>32897300</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>458.38</v>
+        <v>283.38</v>
       </c>
       <c r="B159" t="n">
-        <v>93687.54285713503</v>
+        <v>33945900</v>
       </c>
       <c r="C159" t="n">
-        <v>93687.54285713503</v>
+        <v>33945900</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>458.38</v>
+        <v>283.38</v>
       </c>
       <c r="H159" t="n">
-        <v>93687.54285713503</v>
+        <v>33945900</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>458.28</v>
+        <v>283.28</v>
       </c>
       <c r="B160" t="n">
-        <v>73846.77142856595</v>
+        <v>32991800</v>
       </c>
       <c r="C160" t="n">
-        <v>73846.77142856595</v>
+        <v>32991800</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>458.28</v>
+        <v>283.28</v>
       </c>
       <c r="H160" t="n">
-        <v>73846.77142856595</v>
+        <v>32991800</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>458.18</v>
+        <v>283.18</v>
       </c>
       <c r="B161" t="n">
-        <v>53602.18571429164</v>
+        <v>33315800</v>
       </c>
       <c r="C161" t="n">
-        <v>53602.18571429164</v>
+        <v>33315800</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>458.18</v>
+        <v>283.18</v>
       </c>
       <c r="H161" t="n">
-        <v>53602.18571429164</v>
+        <v>33315800</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>458.08</v>
+        <v>283.08</v>
       </c>
       <c r="B162" t="n">
-        <v>38808.15714286141</v>
+        <v>33680200</v>
       </c>
       <c r="C162" t="n">
-        <v>38808.15714286141</v>
+        <v>33680200</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>458.08</v>
+        <v>283.08</v>
       </c>
       <c r="H162" t="n">
-        <v>38808.15714286141</v>
+        <v>33680200</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>457.98</v>
+        <v>282.98</v>
       </c>
       <c r="B163" t="n">
-        <v>30743.18571428362</v>
+        <v>33722500</v>
       </c>
       <c r="C163" t="n">
-        <v>30743.18571428362</v>
+        <v>33722500</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>457.98</v>
+        <v>282.98</v>
       </c>
       <c r="H163" t="n">
-        <v>30743.18571428362</v>
+        <v>33722500</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>457.88</v>
+        <v>282.88</v>
       </c>
       <c r="B164" t="n">
-        <v>21577.19999999811</v>
+        <v>34170200</v>
       </c>
       <c r="C164" t="n">
-        <v>21577.19999999811</v>
+        <v>34170200</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>457.88</v>
+        <v>282.88</v>
       </c>
       <c r="H164" t="n">
-        <v>21577.19999999811</v>
+        <v>34170200</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>457.78</v>
+        <v>282.78</v>
       </c>
       <c r="B165" t="n">
-        <v>13631.99999999782</v>
+        <v>33701000</v>
       </c>
       <c r="C165" t="n">
-        <v>13631.99999999782</v>
+        <v>33701000</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>457.78</v>
+        <v>282.78</v>
       </c>
       <c r="H165" t="n">
-        <v>13631.99999999782</v>
+        <v>33701000</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>457.68</v>
+        <v>282.68</v>
       </c>
       <c r="B166" t="n">
-        <v>11341.79999999874</v>
+        <v>34946100</v>
       </c>
       <c r="C166" t="n">
-        <v>11341.79999999874</v>
+        <v>34946100</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>457.68</v>
+        <v>282.68</v>
       </c>
       <c r="H166" t="n">
-        <v>11341.79999999874</v>
+        <v>34946100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>457.58</v>
+        <v>282.58</v>
       </c>
       <c r="B167" t="n">
-        <v>10324.12857142675</v>
+        <v>34098400</v>
       </c>
       <c r="C167" t="n">
-        <v>10324.12857142675</v>
+        <v>34098400</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>457.58</v>
+        <v>282.58</v>
       </c>
       <c r="H167" t="n">
-        <v>10324.12857142675</v>
+        <v>34098400</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>457.48</v>
+        <v>282.48</v>
       </c>
       <c r="B168" t="n">
-        <v>7209.542857141513</v>
+        <v>34022800</v>
       </c>
       <c r="C168" t="n">
-        <v>7209.542857141513</v>
+        <v>34022800</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>457.48</v>
+        <v>282.48</v>
       </c>
       <c r="H168" t="n">
-        <v>7209.542857141513</v>
+        <v>34022800</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>457.38</v>
+        <v>282.38</v>
       </c>
       <c r="B169" t="n">
-        <v>4748.157142856416</v>
+        <v>35034500</v>
       </c>
       <c r="C169" t="n">
-        <v>4748.157142856416</v>
+        <v>35034500</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>457.38</v>
+        <v>282.38</v>
       </c>
       <c r="H169" t="n">
-        <v>4748.157142856416</v>
+        <v>35034500</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>457.28</v>
+        <v>282.28</v>
       </c>
       <c r="B170" t="n">
-        <v>5357.057142855508</v>
+        <v>34540700</v>
       </c>
       <c r="C170" t="n">
-        <v>5357.057142855508</v>
+        <v>34540700</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>457.28</v>
+        <v>282.28</v>
       </c>
       <c r="H170" t="n">
-        <v>5357.057142855508</v>
+        <v>34540700</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>457.18</v>
+        <v>282.18</v>
       </c>
       <c r="B171" t="n">
-        <v>5353.528571425465</v>
+        <v>34907100</v>
       </c>
       <c r="C171" t="n">
-        <v>5353.528571425465</v>
+        <v>34907100</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>457.18</v>
+        <v>282.18</v>
       </c>
       <c r="H171" t="n">
-        <v>5353.528571425465</v>
+        <v>34907100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>457.08</v>
+        <v>282.08</v>
       </c>
       <c r="B172" t="n">
-        <v>2387.571428568051</v>
+        <v>35510600</v>
       </c>
       <c r="C172" t="n">
-        <v>2387.571428568051</v>
+        <v>35510600</v>
       </c>
       <c r="D172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>457.08</v>
+        <v>282.08</v>
       </c>
       <c r="H172" t="n">
-        <v>2387.571428568051</v>
+        <v>35510600</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>456.98</v>
+        <v>281.98</v>
       </c>
       <c r="B173" t="n">
-        <v>-551.2285714305419</v>
+        <v>34647700</v>
       </c>
       <c r="C173" t="n">
-        <v>-551.2285714305419</v>
+        <v>34647700</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>456.98</v>
+        <v>281.98</v>
       </c>
       <c r="H173" t="n">
-        <v>-551.2285714305419</v>
+        <v>34647700</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>456.88</v>
+        <v>281.88</v>
       </c>
       <c r="B174" t="n">
-        <v>862.5714285709237</v>
+        <v>35137900</v>
       </c>
       <c r="C174" t="n">
-        <v>862.5714285709237</v>
+        <v>35137900</v>
       </c>
       <c r="D174" t="n">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>456.88</v>
+        <v>281.88</v>
       </c>
       <c r="H174" t="n">
-        <v>862.5714285709237</v>
+        <v>35137900</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>456.78</v>
+        <v>281.78</v>
       </c>
       <c r="B175" t="n">
-        <v>3427.97142857134</v>
+        <v>36493300</v>
       </c>
       <c r="C175" t="n">
-        <v>3427.97142857134</v>
+        <v>36493300</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>456.78</v>
+        <v>281.78</v>
       </c>
       <c r="H175" t="n">
-        <v>3427.97142857134</v>
+        <v>36493300</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>456.68</v>
+        <v>281.68</v>
       </c>
       <c r="B176" t="n">
-        <v>1382.585714285976</v>
+        <v>36364000</v>
       </c>
       <c r="C176" t="n">
-        <v>1382.585714285976</v>
+        <v>36364000</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>456.68</v>
+        <v>281.68</v>
       </c>
       <c r="H176" t="n">
-        <v>1382.585714285976</v>
+        <v>36364000</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>456.58</v>
+        <v>281.58</v>
       </c>
       <c r="B177" t="n">
-        <v>681.2142857137517</v>
+        <v>37016000</v>
       </c>
       <c r="C177" t="n">
-        <v>681.2142857137517</v>
+        <v>37016000</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>456.58</v>
+        <v>281.58</v>
       </c>
       <c r="H177" t="n">
-        <v>681.2142857137517</v>
+        <v>37016000</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>456.48</v>
+        <v>281.48</v>
       </c>
       <c r="B178" t="n">
-        <v>1512.957142855683</v>
+        <v>37737900</v>
       </c>
       <c r="C178" t="n">
-        <v>1512.957142855683</v>
+        <v>37737900</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>456.48</v>
+        <v>281.48</v>
       </c>
       <c r="H178" t="n">
-        <v>1512.957142855683</v>
+        <v>37737900</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>456.38</v>
+        <v>281.38</v>
       </c>
       <c r="B179" t="n">
-        <v>1108.499999999905</v>
+        <v>37879000</v>
       </c>
       <c r="C179" t="n">
-        <v>1108.499999999905</v>
+        <v>37879000</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>456.38</v>
+        <v>281.38</v>
       </c>
       <c r="H179" t="n">
-        <v>1108.499999999905</v>
+        <v>37879000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>456.28</v>
+        <v>281.28</v>
       </c>
       <c r="B180" t="n">
-        <v>398.3714285728321</v>
+        <v>38645000</v>
       </c>
       <c r="C180" t="n">
-        <v>398.3714285728321</v>
+        <v>38645000</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>456.28</v>
+        <v>281.28</v>
       </c>
       <c r="H180" t="n">
-        <v>398.3714285728321</v>
+        <v>38645000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>456.18</v>
+        <v>281.18</v>
       </c>
       <c r="B181" t="n">
-        <v>1059.414285715475</v>
+        <v>39893200</v>
       </c>
       <c r="C181" t="n">
-        <v>1059.414285715475</v>
+        <v>39893200</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>456.18</v>
+        <v>281.18</v>
       </c>
       <c r="H181" t="n">
-        <v>1059.414285715475</v>
+        <v>39893200</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>456.08</v>
+        <v>281.08</v>
       </c>
       <c r="B182" t="n">
-        <v>2073.371428571623</v>
+        <v>40607100</v>
       </c>
       <c r="C182" t="n">
-        <v>2073.371428571623</v>
+        <v>40607100</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>456.08</v>
+        <v>281.08</v>
       </c>
       <c r="H182" t="n">
-        <v>2073.371428571623</v>
+        <v>40607100</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>455.98</v>
+        <v>280.98</v>
       </c>
       <c r="B183" t="n">
-        <v>950.0285714286821</v>
+        <v>41576100</v>
       </c>
       <c r="C183" t="n">
-        <v>950.0285714286821</v>
+        <v>41576100</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>455.98</v>
+        <v>280.98</v>
       </c>
       <c r="H183" t="n">
-        <v>950.0285714286821</v>
+        <v>41576100</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>455.88</v>
+        <v>280.88</v>
       </c>
       <c r="B184" t="n">
-        <v>-658.785714285455</v>
+        <v>42616600</v>
       </c>
       <c r="C184" t="n">
-        <v>-658.785714285455</v>
+        <v>42616600</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>455.88</v>
+        <v>280.88</v>
       </c>
       <c r="H184" t="n">
-        <v>-658.785714285455</v>
+        <v>42616600</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>455.78</v>
+        <v>280.78</v>
       </c>
       <c r="B185" t="n">
-        <v>-2041.428571428691</v>
+        <v>43483900</v>
       </c>
       <c r="C185" t="n">
-        <v>-2041.428571428691</v>
+        <v>43483900</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>455.78</v>
+        <v>280.78</v>
       </c>
       <c r="H185" t="n">
-        <v>-2041.428571428691</v>
+        <v>43483900</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>455.68</v>
+        <v>280.68</v>
       </c>
       <c r="B186" t="n">
-        <v>-239.0142857137861</v>
+        <v>44481900</v>
       </c>
       <c r="C186" t="n">
-        <v>-239.0142857137861</v>
+        <v>44481900</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>455.68</v>
+        <v>280.68</v>
       </c>
       <c r="H186" t="n">
-        <v>-239.0142857137861</v>
+        <v>44481900</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>455.58</v>
+        <v>280.58</v>
       </c>
       <c r="B187" t="n">
-        <v>2781.828571430234</v>
+        <v>46464500</v>
       </c>
       <c r="C187" t="n">
-        <v>2781.828571430234</v>
+        <v>46464500</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>455.58</v>
+        <v>280.58</v>
       </c>
       <c r="H187" t="n">
-        <v>2781.828571430234</v>
+        <v>46464500</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>455.48</v>
+        <v>280.48</v>
       </c>
       <c r="B188" t="n">
-        <v>3488.100000001964</v>
+        <v>48933300</v>
       </c>
       <c r="C188" t="n">
-        <v>3488.100000001964</v>
+        <v>48933300</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>455.48</v>
+        <v>280.48</v>
       </c>
       <c r="H188" t="n">
-        <v>3488.100000001964</v>
+        <v>48933300</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>455.38</v>
+        <v>280.38</v>
       </c>
       <c r="B189" t="n">
-        <v>278.9857142856958</v>
+        <v>50035200</v>
       </c>
       <c r="C189" t="n">
-        <v>278.9857142856958</v>
+        <v>50035200</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>455.38</v>
+        <v>280.38</v>
       </c>
       <c r="H189" t="n">
-        <v>278.9857142856958</v>
+        <v>50035200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>455.28</v>
+        <v>280.28</v>
       </c>
       <c r="B190" t="n">
-        <v>-1937.028571430944</v>
+        <v>50972900</v>
       </c>
       <c r="C190" t="n">
-        <v>-1937.028571430944</v>
+        <v>50972900</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>455.28</v>
+        <v>280.28</v>
       </c>
       <c r="H190" t="n">
-        <v>-1937.028571430944</v>
+        <v>50972900</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>455.18</v>
+        <v>280.18</v>
       </c>
       <c r="B191" t="n">
-        <v>-738.8000000031093</v>
+        <v>52837800</v>
       </c>
       <c r="C191" t="n">
-        <v>-738.8000000031093</v>
+        <v>52837800</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>455.18</v>
+        <v>280.18</v>
       </c>
       <c r="H191" t="n">
-        <v>-738.8000000031093</v>
+        <v>52837800</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>455.08</v>
+        <v>280.08</v>
       </c>
       <c r="B192" t="n">
-        <v>1021.69999999757</v>
+        <v>54887000</v>
       </c>
       <c r="C192" t="n">
-        <v>1021.69999999757</v>
+        <v>54887000</v>
       </c>
       <c r="D192" t="n">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>455.08</v>
+        <v>280.08</v>
       </c>
       <c r="H192" t="n">
-        <v>1021.69999999757</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>454.98</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-142.9857142866796</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-142.9857142866796</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>454.98</v>
-      </c>
-      <c r="H193" t="n">
-        <v>-142.9857142866796</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>454.88</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-1859.028571427691</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-1859.028571427691</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1</v>
-      </c>
-      <c r="F194" t="n">
-        <v>454.88</v>
-      </c>
-      <c r="H194" t="n">
-        <v>-1859.028571427691</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>454.78</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-947.3857142837462</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-947.3857142837462</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1</v>
-      </c>
-      <c r="F195" t="n">
-        <v>454.78</v>
-      </c>
-      <c r="H195" t="n">
-        <v>-947.3857142837462</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>454.68</v>
-      </c>
-      <c r="B196" t="n">
-        <v>688.1714285732572</v>
-      </c>
-      <c r="C196" t="n">
-        <v>688.1714285732572</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1</v>
-      </c>
-      <c r="F196" t="n">
-        <v>454.68</v>
-      </c>
-      <c r="H196" t="n">
-        <v>688.1714285732572</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>454.58</v>
-      </c>
-      <c r="B197" t="n">
-        <v>986.9142857155515</v>
-      </c>
-      <c r="C197" t="n">
-        <v>986.9142857155515</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>454.58</v>
-      </c>
-      <c r="H197" t="n">
-        <v>986.9142857155515</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>454.48</v>
-      </c>
-      <c r="B198" t="n">
-        <v>907.9000000009854</v>
-      </c>
-      <c r="C198" t="n">
-        <v>907.9000000009854</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="F198" t="n">
-        <v>454.48</v>
-      </c>
-      <c r="H198" t="n">
-        <v>907.9000000009854</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>454.38</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1090.671428570898</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1090.671428570898</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="F199" t="n">
-        <v>454.38</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1090.671428570898</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>454.28</v>
-      </c>
-      <c r="B200" t="n">
-        <v>500.8857142836022</v>
-      </c>
-      <c r="C200" t="n">
-        <v>500.8857142836022</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1</v>
-      </c>
-      <c r="F200" t="n">
-        <v>454.28</v>
-      </c>
-      <c r="H200" t="n">
-        <v>500.8857142836022</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>454.18</v>
-      </c>
-      <c r="B201" t="n">
-        <v>212.1285714264177</v>
-      </c>
-      <c r="C201" t="n">
-        <v>212.1285714264177</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>454.18</v>
-      </c>
-      <c r="H201" t="n">
-        <v>212.1285714264177</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>454.08</v>
-      </c>
-      <c r="B202" t="n">
-        <v>283.3142857132305</v>
-      </c>
-      <c r="C202" t="n">
-        <v>283.3142857132305</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1</v>
-      </c>
-      <c r="F202" t="n">
-        <v>454.08</v>
-      </c>
-      <c r="H202" t="n">
-        <v>283.3142857132305</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>453.98</v>
-      </c>
-      <c r="B203" t="n">
-        <v>451.9714285711726</v>
-      </c>
-      <c r="C203" t="n">
-        <v>451.9714285711726</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1</v>
-      </c>
-      <c r="F203" t="n">
-        <v>453.98</v>
-      </c>
-      <c r="H203" t="n">
-        <v>451.9714285711726</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>453.88</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-465.9428571429347</v>
-      </c>
-      <c r="C204" t="n">
-        <v>-465.9428571429347</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1</v>
-      </c>
-      <c r="F204" t="n">
-        <v>453.88</v>
-      </c>
-      <c r="H204" t="n">
-        <v>-465.9428571429347</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>453.78</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-104.8142857146149</v>
-      </c>
-      <c r="C205" t="n">
-        <v>-104.8142857146149</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1</v>
-      </c>
-      <c r="F205" t="n">
-        <v>453.78</v>
-      </c>
-      <c r="H205" t="n">
-        <v>-104.8142857146149</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>453.68</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-799.5571428583703</v>
-      </c>
-      <c r="C206" t="n">
-        <v>-799.5571428583703</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1</v>
-      </c>
-      <c r="F206" t="n">
-        <v>453.68</v>
-      </c>
-      <c r="H206" t="n">
-        <v>-799.5571428583703</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>453.58</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-831.4857142884434</v>
-      </c>
-      <c r="C207" t="n">
-        <v>-831.4857142884434</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1</v>
-      </c>
-      <c r="F207" t="n">
-        <v>453.58</v>
-      </c>
-      <c r="H207" t="n">
-        <v>-831.4857142884434</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>453.48</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-259.4285714312831</v>
-      </c>
-      <c r="C208" t="n">
-        <v>-259.4285714312831</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
-      </c>
-      <c r="F208" t="n">
-        <v>453.48</v>
-      </c>
-      <c r="H208" t="n">
-        <v>-259.4285714312831</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>453.38</v>
-      </c>
-      <c r="B209" t="n">
-        <v>88.39999999959737</v>
-      </c>
-      <c r="C209" t="n">
-        <v>88.39999999959737</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1</v>
-      </c>
-      <c r="F209" t="n">
-        <v>453.38</v>
-      </c>
-      <c r="H209" t="n">
-        <v>88.39999999959737</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>453.28</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1545.971428572591</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1545.971428572591</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>453.28</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1545.971428572591</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>453.18</v>
-      </c>
-      <c r="B211" t="n">
-        <v>2106.099999999215</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2106.099999999215</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="F211" t="n">
-        <v>453.18</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2106.099999999215</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>453.08</v>
-      </c>
-      <c r="B212" t="n">
-        <v>77.65714285450696</v>
-      </c>
-      <c r="C212" t="n">
-        <v>77.65714285450696</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1</v>
-      </c>
-      <c r="F212" t="n">
-        <v>453.08</v>
-      </c>
-      <c r="H212" t="n">
-        <v>77.65714285450696</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>452.98</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-2867.328571430506</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-2867.328571430506</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1</v>
-      </c>
-      <c r="F213" t="n">
-        <v>452.98</v>
-      </c>
-      <c r="H213" t="n">
-        <v>-2867.328571430506</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>452.88</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-676.285714285613</v>
-      </c>
-      <c r="C214" t="n">
-        <v>-676.285714285613</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>452.88</v>
-      </c>
-      <c r="H214" t="n">
-        <v>-676.285714285613</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>452.78</v>
-      </c>
-      <c r="B215" t="n">
-        <v>2395.37142857291</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2395.37142857291</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1</v>
-      </c>
-      <c r="F215" t="n">
-        <v>452.78</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2395.37142857291</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>452.68</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1519.314285715622</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1519.314285715622</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>452.68</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1519.314285715622</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>452.58</v>
-      </c>
-      <c r="B217" t="n">
-        <v>-1969.614285713302</v>
-      </c>
-      <c r="C217" t="n">
-        <v>-1969.614285713302</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1</v>
-      </c>
-      <c r="F217" t="n">
-        <v>452.58</v>
-      </c>
-      <c r="H217" t="n">
-        <v>-1969.614285713302</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>452.48</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-3182.171428570828</v>
-      </c>
-      <c r="C218" t="n">
-        <v>-3182.171428570828</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1</v>
-      </c>
-      <c r="F218" t="n">
-        <v>452.48</v>
-      </c>
-      <c r="H218" t="n">
-        <v>-3182.171428570828</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>452.38</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-1333.557142857042</v>
-      </c>
-      <c r="C219" t="n">
-        <v>-1333.557142857042</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>452.38</v>
-      </c>
-      <c r="H219" t="n">
-        <v>-1333.557142857042</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>452.28</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1215.1714285702</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1215.1714285702</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>452.28</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1215.1714285702</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>452.18</v>
-      </c>
-      <c r="B221" t="n">
-        <v>2215.714285712178</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2215.714285712178</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>452.18</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2215.714285712178</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>452.08</v>
-      </c>
-      <c r="B222" t="n">
-        <v>260.1714285701438</v>
-      </c>
-      <c r="C222" t="n">
-        <v>260.1714285701438</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1</v>
-      </c>
-      <c r="F222" t="n">
-        <v>452.08</v>
-      </c>
-      <c r="H222" t="n">
-        <v>260.1714285701438</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>451.98</v>
-      </c>
-      <c r="B223" t="n">
-        <v>-1907.500000000448</v>
-      </c>
-      <c r="C223" t="n">
-        <v>-1907.500000000448</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>451.98</v>
-      </c>
-      <c r="H223" t="n">
-        <v>-1907.500000000448</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>451.88</v>
-      </c>
-      <c r="B224" t="n">
-        <v>27.47142857230484</v>
-      </c>
-      <c r="C224" t="n">
-        <v>27.47142857230484</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1</v>
-      </c>
-      <c r="F224" t="n">
-        <v>451.88</v>
-      </c>
-      <c r="H224" t="n">
-        <v>27.47142857230484</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>451.78</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3623.071428573931</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3623.071428573931</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>451.78</v>
-      </c>
-      <c r="H225" t="n">
-        <v>3623.071428573931</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>451.68</v>
-      </c>
-      <c r="B226" t="n">
-        <v>2202.928571431475</v>
-      </c>
-      <c r="C226" t="n">
-        <v>2202.928571431475</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1</v>
-      </c>
-      <c r="F226" t="n">
-        <v>451.68</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2202.928571431475</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>451.58</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-1834.357142855717</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-1834.357142855717</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>451.58</v>
-      </c>
-      <c r="H227" t="n">
-        <v>-1834.357142855717</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>451.48</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-2123.428571428753</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-2123.428571428753</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>451.48</v>
-      </c>
-      <c r="H228" t="n">
-        <v>-2123.428571428753</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>451.38</v>
-      </c>
-      <c r="B229" t="n">
-        <v>593.9857142854144</v>
-      </c>
-      <c r="C229" t="n">
-        <v>593.9857142854144</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1</v>
-      </c>
-      <c r="F229" t="n">
-        <v>451.38</v>
-      </c>
-      <c r="H229" t="n">
-        <v>593.9857142854144</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>451.28</v>
-      </c>
-      <c r="B230" t="n">
-        <v>2294.342857142581</v>
-      </c>
-      <c r="C230" t="n">
-        <v>2294.342857142581</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>451.28</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2294.342857142581</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>451.18</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1441.914285714745</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1441.914285714745</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" t="n">
-        <v>451.18</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1441.914285714745</v>
+        <v>54887000</v>
       </c>
     </row>
   </sheetData>
@@ -16608,7 +15794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP192"/>
+  <dimension ref="A1:AP162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16786,4014 +15972,6 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299.08</v>
-      </c>
-      <c r="B2" t="n">
-        <v>34936300</v>
-      </c>
-      <c r="C2" t="n">
-        <v>34936300</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>299.08</v>
-      </c>
-      <c r="H2" t="n">
-        <v>34936300</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>298.98</v>
-      </c>
-      <c r="B3" t="n">
-        <v>35009400</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35009400</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>298.98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>35009400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>298.88</v>
-      </c>
-      <c r="B4" t="n">
-        <v>35221700</v>
-      </c>
-      <c r="C4" t="n">
-        <v>35221700</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>298.88</v>
-      </c>
-      <c r="H4" t="n">
-        <v>35221700</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>298.78</v>
-      </c>
-      <c r="B5" t="n">
-        <v>34137800</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34137800</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>298.78</v>
-      </c>
-      <c r="H5" t="n">
-        <v>34137800</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>298.68</v>
-      </c>
-      <c r="B6" t="n">
-        <v>34264100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34264100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>298.68</v>
-      </c>
-      <c r="H6" t="n">
-        <v>34264100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>298.58</v>
-      </c>
-      <c r="B7" t="n">
-        <v>34241400</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34241400</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>298.58</v>
-      </c>
-      <c r="H7" t="n">
-        <v>34241400</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>298.48</v>
-      </c>
-      <c r="B8" t="n">
-        <v>34404400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34404400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>298.48</v>
-      </c>
-      <c r="H8" t="n">
-        <v>34404400</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>298.38</v>
-      </c>
-      <c r="B9" t="n">
-        <v>34008500</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34008500</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>298.38</v>
-      </c>
-      <c r="H9" t="n">
-        <v>34008500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>298.28</v>
-      </c>
-      <c r="B10" t="n">
-        <v>34192600</v>
-      </c>
-      <c r="C10" t="n">
-        <v>34192600</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>298.28</v>
-      </c>
-      <c r="H10" t="n">
-        <v>34192600</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>298.18</v>
-      </c>
-      <c r="B11" t="n">
-        <v>34251500</v>
-      </c>
-      <c r="C11" t="n">
-        <v>34251500</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>298.18</v>
-      </c>
-      <c r="H11" t="n">
-        <v>34251500</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>298.08</v>
-      </c>
-      <c r="B12" t="n">
-        <v>34282700</v>
-      </c>
-      <c r="C12" t="n">
-        <v>34282700</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>298.08</v>
-      </c>
-      <c r="H12" t="n">
-        <v>34282700</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>297.98</v>
-      </c>
-      <c r="B13" t="n">
-        <v>34288100</v>
-      </c>
-      <c r="C13" t="n">
-        <v>34288100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>297.98</v>
-      </c>
-      <c r="H13" t="n">
-        <v>34288100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>297.88</v>
-      </c>
-      <c r="B14" t="n">
-        <v>34550800</v>
-      </c>
-      <c r="C14" t="n">
-        <v>34550800</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>297.88</v>
-      </c>
-      <c r="H14" t="n">
-        <v>34550800</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>297.78</v>
-      </c>
-      <c r="B15" t="n">
-        <v>33869200</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33869200</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>297.78</v>
-      </c>
-      <c r="H15" t="n">
-        <v>33869200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>297.68</v>
-      </c>
-      <c r="B16" t="n">
-        <v>34279800</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34279800</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>297.68</v>
-      </c>
-      <c r="H16" t="n">
-        <v>34279800</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>297.58</v>
-      </c>
-      <c r="B17" t="n">
-        <v>34024100</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34024100</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>297.58</v>
-      </c>
-      <c r="H17" t="n">
-        <v>34024100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>297.48</v>
-      </c>
-      <c r="B18" t="n">
-        <v>33755800</v>
-      </c>
-      <c r="C18" t="n">
-        <v>33755800</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>297.48</v>
-      </c>
-      <c r="H18" t="n">
-        <v>33755800</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>297.38</v>
-      </c>
-      <c r="B19" t="n">
-        <v>33636500</v>
-      </c>
-      <c r="C19" t="n">
-        <v>33636500</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>297.38</v>
-      </c>
-      <c r="H19" t="n">
-        <v>33636500</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>297.28</v>
-      </c>
-      <c r="B20" t="n">
-        <v>34503300</v>
-      </c>
-      <c r="C20" t="n">
-        <v>34503300</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>297.28</v>
-      </c>
-      <c r="H20" t="n">
-        <v>34503300</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>297.18</v>
-      </c>
-      <c r="B21" t="n">
-        <v>33607200</v>
-      </c>
-      <c r="C21" t="n">
-        <v>33607200</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>297.18</v>
-      </c>
-      <c r="H21" t="n">
-        <v>33607200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>297.08</v>
-      </c>
-      <c r="B22" t="n">
-        <v>33816300</v>
-      </c>
-      <c r="C22" t="n">
-        <v>33816300</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>297.08</v>
-      </c>
-      <c r="H22" t="n">
-        <v>33816300</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>296.98</v>
-      </c>
-      <c r="B23" t="n">
-        <v>34127900</v>
-      </c>
-      <c r="C23" t="n">
-        <v>34127900</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>296.98</v>
-      </c>
-      <c r="H23" t="n">
-        <v>34127900</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>296.88</v>
-      </c>
-      <c r="B24" t="n">
-        <v>33711400</v>
-      </c>
-      <c r="C24" t="n">
-        <v>33711400</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>296.88</v>
-      </c>
-      <c r="H24" t="n">
-        <v>33711400</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>296.78</v>
-      </c>
-      <c r="B25" t="n">
-        <v>33759100</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33759100</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>296.78</v>
-      </c>
-      <c r="H25" t="n">
-        <v>33759100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>296.68</v>
-      </c>
-      <c r="B26" t="n">
-        <v>33600400</v>
-      </c>
-      <c r="C26" t="n">
-        <v>33600400</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>296.68</v>
-      </c>
-      <c r="H26" t="n">
-        <v>33600400</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>296.58</v>
-      </c>
-      <c r="B27" t="n">
-        <v>33407300</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33407300</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>296.58</v>
-      </c>
-      <c r="H27" t="n">
-        <v>33407300</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>296.48</v>
-      </c>
-      <c r="B28" t="n">
-        <v>33506300</v>
-      </c>
-      <c r="C28" t="n">
-        <v>33506300</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>296.48</v>
-      </c>
-      <c r="H28" t="n">
-        <v>33506300</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>296.38</v>
-      </c>
-      <c r="B29" t="n">
-        <v>34544800</v>
-      </c>
-      <c r="C29" t="n">
-        <v>34544800</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>296.38</v>
-      </c>
-      <c r="H29" t="n">
-        <v>34544800</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>296.28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>33503600</v>
-      </c>
-      <c r="C30" t="n">
-        <v>33503600</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>296.28</v>
-      </c>
-      <c r="H30" t="n">
-        <v>33503600</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>296.18</v>
-      </c>
-      <c r="B31" t="n">
-        <v>34271400</v>
-      </c>
-      <c r="C31" t="n">
-        <v>34271400</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>296.18</v>
-      </c>
-      <c r="H31" t="n">
-        <v>34271400</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>296.08</v>
-      </c>
-      <c r="B32" t="n">
-        <v>33418000</v>
-      </c>
-      <c r="C32" t="n">
-        <v>33418000</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>296.08</v>
-      </c>
-      <c r="H32" t="n">
-        <v>33418000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>295.98</v>
-      </c>
-      <c r="B33" t="n">
-        <v>34450200</v>
-      </c>
-      <c r="C33" t="n">
-        <v>34450200</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>295.98</v>
-      </c>
-      <c r="H33" t="n">
-        <v>34450200</v>
-      